--- a/Euro2020/result_files/EC_2020.xlsx
+++ b/Euro2020/result_files/EC_2020.xlsx
@@ -1244,67 +1244,51 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="15"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="13">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="13">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
       <alignment horizontal="center"/>
@@ -1335,6 +1319,22 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -1731,25 +1731,25 @@
   <dimension ref="B2:U65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="2.42578125" customWidth="1" style="191" min="1" max="1"/>
-    <col width="4.42578125" customWidth="1" style="191" min="2" max="2"/>
-    <col width="16.7109375" customWidth="1" style="191" min="3" max="4"/>
-    <col width="4.42578125" bestFit="1" customWidth="1" style="191" min="6" max="6"/>
-    <col width="16.7109375" customWidth="1" style="191" min="7" max="8"/>
-    <col width="7.42578125" bestFit="1" customWidth="1" style="191" min="9" max="9"/>
-    <col width="4" customWidth="1" style="191" min="10" max="10"/>
-    <col width="16.85546875" customWidth="1" style="191" min="11" max="12"/>
-    <col width="4.140625" customWidth="1" style="191" min="14" max="14"/>
-    <col width="16.7109375" customWidth="1" style="191" min="15" max="17"/>
+    <col width="2.42578125" customWidth="1" style="202" min="1" max="1"/>
+    <col width="4.42578125" customWidth="1" style="202" min="2" max="2"/>
+    <col width="16.7109375" customWidth="1" style="202" min="3" max="4"/>
+    <col width="4.42578125" bestFit="1" customWidth="1" style="202" min="6" max="6"/>
+    <col width="16.7109375" customWidth="1" style="202" min="7" max="8"/>
+    <col width="7.42578125" bestFit="1" customWidth="1" style="202" min="9" max="9"/>
+    <col width="4" customWidth="1" style="202" min="10" max="10"/>
+    <col width="16.85546875" customWidth="1" style="202" min="11" max="12"/>
+    <col width="4.140625" customWidth="1" style="202" min="14" max="14"/>
+    <col width="16.7109375" customWidth="1" style="202" min="15" max="17"/>
   </cols>
   <sheetData>
-    <row r="2" ht="26.25" customHeight="1" s="191">
-      <c r="C2" s="190" t="inlineStr">
+    <row r="2" ht="26.25" customHeight="1" s="202">
+      <c r="C2" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">EURO 2020 </t>
         </is>
@@ -1814,11 +1814,11 @@
       <c r="J5" s="83" t="n"/>
       <c r="K5" s="14" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L5" s="15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1844,7 +1844,7 @@
       <c r="J6" s="83" t="n"/>
       <c r="K6" s="14" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="L6" s="15" t="n">
@@ -2091,21 +2091,21 @@
       <c r="K15" s="83" t="n"/>
       <c r="L15" s="83" t="n"/>
     </row>
-    <row r="16" ht="39.95" customHeight="1" s="191">
-      <c r="C16" s="208" t="inlineStr">
+    <row r="16" ht="39.95" customHeight="1" s="202">
+      <c r="C16" s="192" t="inlineStr">
         <is>
           <t>Group Stage predictions are made in a single submission and are due by Thursday Evening June 10th, 2021.</t>
         </is>
       </c>
-      <c r="D16" s="196" t="n"/>
-      <c r="E16" s="196" t="n"/>
-      <c r="F16" s="196" t="n"/>
-      <c r="G16" s="196" t="n"/>
-      <c r="H16" s="196" t="n"/>
-      <c r="I16" s="196" t="n"/>
-      <c r="J16" s="196" t="n"/>
-      <c r="K16" s="196" t="n"/>
-      <c r="L16" s="196" t="n"/>
+      <c r="D16" s="193" t="n"/>
+      <c r="E16" s="193" t="n"/>
+      <c r="F16" s="193" t="n"/>
+      <c r="G16" s="193" t="n"/>
+      <c r="H16" s="193" t="n"/>
+      <c r="I16" s="193" t="n"/>
+      <c r="J16" s="193" t="n"/>
+      <c r="K16" s="193" t="n"/>
+      <c r="L16" s="193" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="32" t="inlineStr">
@@ -2113,19 +2113,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D17" s="192" t="n"/>
-      <c r="E17" s="193" t="n"/>
-      <c r="F17" s="193" t="n"/>
-      <c r="G17" s="194" t="n"/>
-      <c r="H17" s="199" t="inlineStr">
+      <c r="D17" s="209" t="n"/>
+      <c r="E17" s="204" t="n"/>
+      <c r="F17" s="204" t="n"/>
+      <c r="G17" s="205" t="n"/>
+      <c r="H17" s="203" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I17" s="193" t="n"/>
-      <c r="J17" s="193" t="n"/>
-      <c r="K17" s="193" t="n"/>
-      <c r="L17" s="194" t="n"/>
+      <c r="I17" s="204" t="n"/>
+      <c r="J17" s="204" t="n"/>
+      <c r="K17" s="204" t="n"/>
+      <c r="L17" s="205" t="n"/>
     </row>
     <row r="18">
       <c r="C18" s="33" t="inlineStr">
@@ -2133,50 +2133,50 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D18" s="195" t="n"/>
-      <c r="E18" s="196" t="n"/>
-      <c r="F18" s="196" t="n"/>
+      <c r="D18" s="196" t="n"/>
+      <c r="E18" s="193" t="n"/>
+      <c r="F18" s="193" t="n"/>
       <c r="G18" s="197" t="n"/>
-      <c r="H18" s="200" t="n"/>
-      <c r="I18" s="196" t="n"/>
-      <c r="J18" s="196" t="n"/>
-      <c r="K18" s="196" t="n"/>
+      <c r="H18" s="206" t="n"/>
+      <c r="I18" s="193" t="n"/>
+      <c r="J18" s="193" t="n"/>
+      <c r="K18" s="193" t="n"/>
       <c r="L18" s="197" t="n"/>
     </row>
     <row r="19">
       <c r="C19" s="31" t="n"/>
     </row>
     <row r="20" customFormat="1" s="5">
-      <c r="C20" s="201" t="inlineStr">
+      <c r="C20" s="207" t="inlineStr">
         <is>
           <t>Match Day 1</t>
         </is>
       </c>
-      <c r="D20" s="193" t="n"/>
+      <c r="D20" s="204" t="n"/>
       <c r="E20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
       <c r="F20" s="36" t="n"/>
-      <c r="G20" s="201" t="inlineStr">
+      <c r="G20" s="207" t="inlineStr">
         <is>
           <t>Match Day 2</t>
         </is>
       </c>
-      <c r="H20" s="193" t="n"/>
+      <c r="H20" s="204" t="n"/>
       <c r="I20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
       <c r="J20" s="36" t="n"/>
-      <c r="K20" s="201" t="inlineStr">
+      <c r="K20" s="207" t="inlineStr">
         <is>
           <t>Match Day 3</t>
         </is>
       </c>
-      <c r="L20" s="193" t="n"/>
+      <c r="L20" s="204" t="n"/>
       <c r="M20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
@@ -2436,7 +2436,11 @@
           <t>Austria</t>
         </is>
       </c>
-      <c r="I27" s="88" t="n"/>
+      <c r="I27" s="88" t="inlineStr">
+        <is>
+          <t>2-0</t>
+        </is>
+      </c>
       <c r="J27" s="37" t="n"/>
       <c r="K27" s="50" t="inlineStr">
         <is>
@@ -2747,21 +2751,21 @@
       <c r="L36" s="97" t="n"/>
       <c r="M36" s="92" t="n"/>
     </row>
-    <row r="38" ht="39.95" customHeight="1" s="191">
-      <c r="C38" s="208" t="inlineStr">
+    <row r="38" ht="39.95" customHeight="1" s="202">
+      <c r="C38" s="192" t="inlineStr">
         <is>
           <t xml:space="preserve">We'll do the competition in two halves since the Round of 16 is heavily dependent on the Group Stages. </t>
         </is>
       </c>
-      <c r="D38" s="196" t="n"/>
-      <c r="E38" s="196" t="n"/>
-      <c r="F38" s="196" t="n"/>
-      <c r="G38" s="196" t="n"/>
-      <c r="H38" s="196" t="n"/>
-      <c r="I38" s="196" t="n"/>
-      <c r="J38" s="196" t="n"/>
-      <c r="K38" s="196" t="n"/>
-      <c r="L38" s="196" t="n"/>
+      <c r="D38" s="193" t="n"/>
+      <c r="E38" s="193" t="n"/>
+      <c r="F38" s="193" t="n"/>
+      <c r="G38" s="193" t="n"/>
+      <c r="H38" s="193" t="n"/>
+      <c r="I38" s="193" t="n"/>
+      <c r="J38" s="193" t="n"/>
+      <c r="K38" s="193" t="n"/>
+      <c r="L38" s="193" t="n"/>
     </row>
     <row r="39">
       <c r="C39" s="32" t="inlineStr">
@@ -2769,19 +2773,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D39" s="192" t="n"/>
-      <c r="E39" s="193" t="n"/>
-      <c r="F39" s="193" t="n"/>
-      <c r="G39" s="194" t="n"/>
-      <c r="H39" s="199" t="inlineStr">
+      <c r="D39" s="209" t="n"/>
+      <c r="E39" s="204" t="n"/>
+      <c r="F39" s="204" t="n"/>
+      <c r="G39" s="205" t="n"/>
+      <c r="H39" s="203" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULTS         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I39" s="193" t="n"/>
-      <c r="J39" s="193" t="n"/>
-      <c r="K39" s="193" t="n"/>
-      <c r="L39" s="194" t="n"/>
+      <c r="I39" s="204" t="n"/>
+      <c r="J39" s="204" t="n"/>
+      <c r="K39" s="204" t="n"/>
+      <c r="L39" s="205" t="n"/>
     </row>
     <row r="40">
       <c r="C40" s="33" t="inlineStr">
@@ -2789,27 +2793,27 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D40" s="195" t="n"/>
-      <c r="E40" s="196" t="n"/>
-      <c r="F40" s="196" t="n"/>
+      <c r="D40" s="196" t="n"/>
+      <c r="E40" s="193" t="n"/>
+      <c r="F40" s="193" t="n"/>
       <c r="G40" s="197" t="n"/>
-      <c r="H40" s="200" t="n"/>
-      <c r="I40" s="196" t="n"/>
-      <c r="J40" s="196" t="n"/>
-      <c r="K40" s="196" t="n"/>
+      <c r="H40" s="206" t="n"/>
+      <c r="I40" s="193" t="n"/>
+      <c r="J40" s="193" t="n"/>
+      <c r="K40" s="193" t="n"/>
       <c r="L40" s="197" t="n"/>
     </row>
     <row r="41">
       <c r="B41" s="46" t="n"/>
-      <c r="C41" s="196" t="n"/>
+      <c r="C41" s="193" t="n"/>
     </row>
     <row r="42">
-      <c r="B42" s="209" t="inlineStr">
+      <c r="B42" s="198" t="inlineStr">
         <is>
           <t>Round of 16</t>
         </is>
       </c>
-      <c r="C42" s="196" t="n"/>
+      <c r="C42" s="193" t="n"/>
       <c r="D42" s="30" t="inlineStr">
         <is>
           <t>Results</t>
@@ -2852,11 +2856,11 @@
         </is>
       </c>
       <c r="Q42" s="39" t="n"/>
-      <c r="S42" s="198" t="n"/>
+      <c r="S42" s="201" t="n"/>
       <c r="U42" s="39" t="n"/>
     </row>
     <row r="43">
-      <c r="B43" s="207" t="inlineStr">
+      <c r="B43" s="190" t="inlineStr">
         <is>
           <t>R1</t>
         </is>
@@ -2866,18 +2870,18 @@
           <t>Winner Group A</t>
         </is>
       </c>
-      <c r="D43" s="202" t="n"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B44" s="203" t="n"/>
-      <c r="C44" s="200" t="inlineStr">
+      <c r="D43" s="195" t="n"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B44" s="191" t="n"/>
+      <c r="C44" s="206" t="inlineStr">
         <is>
           <t>2nd Group C</t>
         </is>
       </c>
-      <c r="D44" s="203" t="n"/>
+      <c r="D44" s="191" t="n"/>
       <c r="E44" s="44" t="n"/>
-      <c r="F44" s="206" t="inlineStr">
+      <c r="F44" s="194" t="inlineStr">
         <is>
           <t>QF1</t>
         </is>
@@ -2887,22 +2891,22 @@
           <t>Winner R1</t>
         </is>
       </c>
-      <c r="H44" s="202" t="n"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="H44" s="195" t="n"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B45" s="5" t="n"/>
       <c r="D45" s="93" t="n"/>
       <c r="E45" s="43" t="n"/>
-      <c r="F45" s="203" t="n"/>
+      <c r="F45" s="191" t="n"/>
       <c r="G45" s="41" t="inlineStr">
         <is>
           <t>Winner R2</t>
         </is>
       </c>
-      <c r="H45" s="203" t="n"/>
+      <c r="H45" s="191" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="207" t="inlineStr">
+      <c r="B46" s="190" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
@@ -2912,22 +2916,22 @@
           <t>Winner Group B</t>
         </is>
       </c>
-      <c r="D46" s="202" t="n"/>
+      <c r="D46" s="195" t="n"/>
       <c r="G46" s="1" t="n"/>
       <c r="H46" s="94" t="n"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B47" s="203" t="n"/>
-      <c r="C47" s="200" t="inlineStr">
+    <row r="47" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B47" s="191" t="n"/>
+      <c r="C47" s="206" t="inlineStr">
         <is>
           <t>3rd Group A/D/E/F</t>
         </is>
       </c>
-      <c r="D47" s="203" t="n"/>
+      <c r="D47" s="191" t="n"/>
       <c r="G47" s="1" t="n"/>
       <c r="H47" s="95" t="n"/>
       <c r="I47" s="43" t="n"/>
-      <c r="J47" s="204" t="inlineStr">
+      <c r="J47" s="199" t="inlineStr">
         <is>
           <t>SF1</t>
         </is>
@@ -2937,8 +2941,8 @@
           <t>Winner QF1</t>
         </is>
       </c>
-      <c r="L47" s="202" t="n"/>
-      <c r="S47" s="198" t="n"/>
+      <c r="L47" s="195" t="n"/>
+      <c r="S47" s="201" t="n"/>
       <c r="U47" s="39" t="n"/>
     </row>
     <row r="48">
@@ -2946,16 +2950,16 @@
       <c r="D48" s="93" t="n"/>
       <c r="G48" s="1" t="n"/>
       <c r="H48" s="95" t="n"/>
-      <c r="J48" s="203" t="n"/>
+      <c r="J48" s="191" t="n"/>
       <c r="K48" s="42" t="inlineStr">
         <is>
           <t>Winner QF2</t>
         </is>
       </c>
-      <c r="L48" s="203" t="n"/>
+      <c r="L48" s="191" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="207" t="inlineStr">
+      <c r="B49" s="190" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
@@ -2965,22 +2969,22 @@
           <t>Winner Group F</t>
         </is>
       </c>
-      <c r="D49" s="202" t="n"/>
+      <c r="D49" s="195" t="n"/>
       <c r="G49" s="1" t="n"/>
       <c r="H49" s="96" t="n"/>
       <c r="K49" s="37" t="n"/>
       <c r="L49" s="94" t="n"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B50" s="203" t="n"/>
-      <c r="C50" s="200" t="inlineStr">
+    <row r="50" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B50" s="191" t="n"/>
+      <c r="C50" s="206" t="inlineStr">
         <is>
           <t>3rd Group A/B/C</t>
         </is>
       </c>
-      <c r="D50" s="203" t="n"/>
+      <c r="D50" s="191" t="n"/>
       <c r="E50" s="43" t="n"/>
-      <c r="F50" s="206" t="inlineStr">
+      <c r="F50" s="194" t="inlineStr">
         <is>
           <t>QF2</t>
         </is>
@@ -2990,26 +2994,26 @@
           <t>Winner R3</t>
         </is>
       </c>
-      <c r="H50" s="202" t="n"/>
+      <c r="H50" s="195" t="n"/>
       <c r="K50" s="37" t="n"/>
       <c r="L50" s="95" t="n"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1" s="191" thickBot="1">
+    <row r="51" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B51" s="5" t="n"/>
       <c r="D51" s="93" t="n"/>
       <c r="E51" s="43" t="n"/>
-      <c r="F51" s="203" t="n"/>
+      <c r="F51" s="191" t="n"/>
       <c r="G51" s="41" t="inlineStr">
         <is>
           <t>Winner R4</t>
         </is>
       </c>
-      <c r="H51" s="203" t="n"/>
+      <c r="H51" s="191" t="n"/>
       <c r="K51" s="37" t="n"/>
       <c r="L51" s="95" t="n"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B52" s="207" t="inlineStr">
+    <row r="52" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B52" s="190" t="inlineStr">
         <is>
           <t>R4</t>
         </is>
@@ -3019,13 +3023,13 @@
           <t>2nd Group D</t>
         </is>
       </c>
-      <c r="D52" s="202" t="n"/>
+      <c r="D52" s="195" t="n"/>
       <c r="G52" s="1" t="n"/>
       <c r="H52" s="93" t="n"/>
       <c r="K52" s="37" t="n"/>
       <c r="L52" s="95" t="n"/>
       <c r="M52" s="43" t="n"/>
-      <c r="N52" s="205" t="inlineStr">
+      <c r="N52" s="200" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -3035,27 +3039,27 @@
           <t>Winner SF1</t>
         </is>
       </c>
-      <c r="P52" s="202" t="n"/>
+      <c r="P52" s="195" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="203" t="n"/>
-      <c r="C53" s="200" t="inlineStr">
+      <c r="B53" s="191" t="n"/>
+      <c r="C53" s="206" t="inlineStr">
         <is>
           <t>2nd Group E</t>
         </is>
       </c>
-      <c r="D53" s="203" t="n"/>
+      <c r="D53" s="191" t="n"/>
       <c r="G53" s="1" t="n"/>
       <c r="H53" s="93" t="n"/>
       <c r="K53" s="37" t="n"/>
       <c r="L53" s="95" t="n"/>
-      <c r="N53" s="203" t="n"/>
+      <c r="N53" s="191" t="n"/>
       <c r="O53" s="42" t="inlineStr">
         <is>
           <t>Winner SF2</t>
         </is>
       </c>
-      <c r="P53" s="203" t="n"/>
+      <c r="P53" s="191" t="n"/>
     </row>
     <row r="54">
       <c r="B54" s="5" t="n"/>
@@ -3066,7 +3070,7 @@
       <c r="L54" s="95" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="207" t="inlineStr">
+      <c r="B55" s="190" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
@@ -3076,22 +3080,22 @@
           <t>Winner Group E</t>
         </is>
       </c>
-      <c r="D55" s="202" t="n"/>
+      <c r="D55" s="195" t="n"/>
       <c r="G55" s="1" t="n"/>
       <c r="H55" s="93" t="n"/>
       <c r="K55" s="37" t="n"/>
       <c r="L55" s="95" t="n"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B56" s="203" t="n"/>
-      <c r="C56" s="200" t="inlineStr">
+    <row r="56" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B56" s="191" t="n"/>
+      <c r="C56" s="206" t="inlineStr">
         <is>
           <t>3rd Group A/B/C/D</t>
         </is>
       </c>
-      <c r="D56" s="203" t="n"/>
+      <c r="D56" s="191" t="n"/>
       <c r="E56" s="44" t="n"/>
-      <c r="F56" s="206" t="inlineStr">
+      <c r="F56" s="194" t="inlineStr">
         <is>
           <t>QF3</t>
         </is>
@@ -3101,26 +3105,26 @@
           <t>Winner R5</t>
         </is>
       </c>
-      <c r="H56" s="202" t="n"/>
+      <c r="H56" s="195" t="n"/>
       <c r="K56" s="37" t="n"/>
       <c r="L56" s="95" t="n"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1" s="191" thickBot="1">
+    <row r="57" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B57" s="5" t="n"/>
       <c r="D57" s="93" t="n"/>
       <c r="E57" s="45" t="n"/>
-      <c r="F57" s="203" t="n"/>
+      <c r="F57" s="191" t="n"/>
       <c r="G57" s="41" t="inlineStr">
         <is>
           <t>Winner R6</t>
         </is>
       </c>
-      <c r="H57" s="203" t="n"/>
+      <c r="H57" s="191" t="n"/>
       <c r="K57" s="37" t="n"/>
       <c r="L57" s="95" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="207" t="inlineStr">
+      <c r="B58" s="190" t="inlineStr">
         <is>
           <t>R6</t>
         </is>
@@ -3130,24 +3134,24 @@
           <t>Winner Group D</t>
         </is>
       </c>
-      <c r="D58" s="202" t="n"/>
+      <c r="D58" s="195" t="n"/>
       <c r="G58" s="1" t="n"/>
       <c r="H58" s="94" t="n"/>
       <c r="K58" s="37" t="n"/>
       <c r="L58" s="96" t="n"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B59" s="203" t="n"/>
-      <c r="C59" s="200" t="inlineStr">
+    <row r="59" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B59" s="191" t="n"/>
+      <c r="C59" s="206" t="inlineStr">
         <is>
           <t>2nd Group F</t>
         </is>
       </c>
-      <c r="D59" s="203" t="n"/>
+      <c r="D59" s="191" t="n"/>
       <c r="G59" s="1" t="n"/>
       <c r="H59" s="95" t="n"/>
       <c r="I59" s="43" t="n"/>
-      <c r="J59" s="204" t="inlineStr">
+      <c r="J59" s="199" t="inlineStr">
         <is>
           <t>SF2</t>
         </is>
@@ -3157,23 +3161,23 @@
           <t>Winner QF3</t>
         </is>
       </c>
-      <c r="L59" s="202" t="n"/>
+      <c r="L59" s="195" t="n"/>
     </row>
     <row r="60">
       <c r="B60" s="5" t="n"/>
       <c r="D60" s="93" t="n"/>
       <c r="G60" s="1" t="n"/>
       <c r="H60" s="95" t="n"/>
-      <c r="J60" s="203" t="n"/>
+      <c r="J60" s="191" t="n"/>
       <c r="K60" s="42" t="inlineStr">
         <is>
           <t>Winner QF4</t>
         </is>
       </c>
-      <c r="L60" s="203" t="n"/>
+      <c r="L60" s="191" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="207" t="inlineStr">
+      <c r="B61" s="190" t="inlineStr">
         <is>
           <t>R7</t>
         </is>
@@ -3183,20 +3187,20 @@
           <t>Winner GroupC</t>
         </is>
       </c>
-      <c r="D61" s="202" t="n"/>
+      <c r="D61" s="195" t="n"/>
       <c r="G61" s="1" t="n"/>
       <c r="H61" s="96" t="n"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B62" s="203" t="n"/>
-      <c r="C62" s="200" t="inlineStr">
+    <row r="62" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B62" s="191" t="n"/>
+      <c r="C62" s="206" t="inlineStr">
         <is>
           <t>3rd Group D/E/F</t>
         </is>
       </c>
-      <c r="D62" s="203" t="n"/>
+      <c r="D62" s="191" t="n"/>
       <c r="E62" s="44" t="n"/>
-      <c r="F62" s="206" t="inlineStr">
+      <c r="F62" s="194" t="inlineStr">
         <is>
           <t>QF4</t>
         </is>
@@ -3206,22 +3210,22 @@
           <t>Winner R7</t>
         </is>
       </c>
-      <c r="H62" s="202" t="n"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="H62" s="195" t="n"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B63" s="5" t="n"/>
       <c r="D63" s="93" t="n"/>
       <c r="E63" s="45" t="n"/>
-      <c r="F63" s="203" t="n"/>
+      <c r="F63" s="191" t="n"/>
       <c r="G63" s="41" t="inlineStr">
         <is>
           <t>Winner R8</t>
         </is>
       </c>
-      <c r="H63" s="203" t="n"/>
+      <c r="H63" s="191" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="207" t="inlineStr">
+      <c r="B64" s="190" t="inlineStr">
         <is>
           <t>R8</t>
         </is>
@@ -3231,29 +3235,39 @@
           <t>2nd Group A</t>
         </is>
       </c>
-      <c r="D64" s="202" t="n"/>
+      <c r="D64" s="195" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" s="203" t="n"/>
-      <c r="C65" s="200" t="inlineStr">
+      <c r="B65" s="191" t="n"/>
+      <c r="C65" s="206" t="inlineStr">
         <is>
           <t>2nd Group B</t>
         </is>
       </c>
-      <c r="D65" s="203" t="n"/>
+      <c r="D65" s="191" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C38:L38"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="H17:L18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="H39:L40"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="H50:H51"/>
     <mergeCell ref="F62:F63"/>
     <mergeCell ref="F56:F57"/>
     <mergeCell ref="F50:F51"/>
@@ -3269,26 +3283,16 @@
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="D64:D65"/>
     <mergeCell ref="D58:D59"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="H17:L18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="H39:L40"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C38:L38"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -3309,15 +3313,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="5.28515625" customWidth="1" style="191" min="1" max="1"/>
-    <col width="15.140625" bestFit="1" customWidth="1" style="191" min="2" max="2"/>
-    <col width="5.7109375" customWidth="1" style="191" min="3" max="4"/>
-    <col width="16.7109375" customWidth="1" style="191" min="5" max="5"/>
-    <col width="5.7109375" customWidth="1" style="191" min="6" max="7"/>
-    <col width="16.7109375" customWidth="1" style="191" min="8" max="8"/>
-    <col width="5.7109375" customWidth="1" style="191" min="9" max="10"/>
-    <col width="16.7109375" customWidth="1" style="191" min="11" max="11"/>
-    <col width="5.7109375" customWidth="1" style="191" min="12" max="13"/>
+    <col width="5.28515625" customWidth="1" style="202" min="1" max="1"/>
+    <col width="15.140625" bestFit="1" customWidth="1" style="202" min="2" max="2"/>
+    <col width="5.7109375" customWidth="1" style="202" min="3" max="4"/>
+    <col width="16.7109375" customWidth="1" style="202" min="5" max="5"/>
+    <col width="5.7109375" customWidth="1" style="202" min="6" max="7"/>
+    <col width="16.7109375" customWidth="1" style="202" min="8" max="8"/>
+    <col width="5.7109375" customWidth="1" style="202" min="9" max="10"/>
+    <col width="16.7109375" customWidth="1" style="202" min="11" max="11"/>
+    <col width="5.7109375" customWidth="1" style="202" min="12" max="13"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -3371,7 +3375,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
@@ -3393,11 +3397,11 @@
       <c r="J3" s="3" t="n"/>
       <c r="K3" s="14" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L3" s="15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3407,7 +3411,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" s="6" t="inlineStr">
         <is>
@@ -3429,7 +3433,7 @@
       <c r="J4" s="3" t="n"/>
       <c r="K4" s="14" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="L4" s="15" t="n">
@@ -3443,7 +3447,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="6" t="inlineStr">
         <is>
@@ -3675,25 +3679,25 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="2.42578125" customWidth="1" style="217" min="1" max="1"/>
-    <col width="4.42578125" customWidth="1" style="217" min="2" max="2"/>
-    <col width="16.7109375" customWidth="1" style="217" min="3" max="4"/>
-    <col width="8.7109375" customWidth="1" style="217" min="5" max="5"/>
-    <col width="4.42578125" customWidth="1" style="217" min="6" max="6"/>
-    <col width="16.7109375" customWidth="1" style="217" min="7" max="8"/>
-    <col width="7.42578125" customWidth="1" style="217" min="9" max="9"/>
-    <col width="4" customWidth="1" style="217" min="10" max="10"/>
-    <col width="16.85546875" customWidth="1" style="217" min="11" max="12"/>
-    <col width="8.7109375" customWidth="1" style="217" min="13" max="13"/>
-    <col width="4.140625" customWidth="1" style="217" min="14" max="14"/>
-    <col width="16.7109375" customWidth="1" style="217" min="15" max="17"/>
-    <col width="8.7109375" customWidth="1" style="217" min="18" max="26"/>
-    <col width="14.42578125" customWidth="1" style="217" min="27" max="28"/>
-    <col width="14.42578125" customWidth="1" style="217" min="29" max="16384"/>
+    <col width="2.42578125" customWidth="1" style="211" min="1" max="1"/>
+    <col width="4.42578125" customWidth="1" style="211" min="2" max="2"/>
+    <col width="16.7109375" customWidth="1" style="211" min="3" max="4"/>
+    <col width="8.7109375" customWidth="1" style="211" min="5" max="5"/>
+    <col width="4.42578125" customWidth="1" style="211" min="6" max="6"/>
+    <col width="16.7109375" customWidth="1" style="211" min="7" max="8"/>
+    <col width="7.42578125" customWidth="1" style="211" min="9" max="9"/>
+    <col width="4" customWidth="1" style="211" min="10" max="10"/>
+    <col width="16.85546875" customWidth="1" style="211" min="11" max="12"/>
+    <col width="8.7109375" customWidth="1" style="211" min="13" max="13"/>
+    <col width="4.140625" customWidth="1" style="211" min="14" max="14"/>
+    <col width="16.7109375" customWidth="1" style="211" min="15" max="17"/>
+    <col width="8.7109375" customWidth="1" style="211" min="18" max="26"/>
+    <col width="14.42578125" customWidth="1" style="211" min="27" max="29"/>
+    <col width="14.42578125" customWidth="1" style="211" min="30" max="16384"/>
   </cols>
   <sheetData>
-    <row r="2" ht="26.25" customHeight="1" s="191">
-      <c r="C2" s="218" t="inlineStr">
+    <row r="2" ht="26.25" customHeight="1" s="202">
+      <c r="C2" s="212" t="inlineStr">
         <is>
           <t xml:space="preserve">EURO 2020 </t>
         </is>
@@ -3987,21 +3991,21 @@
       <c r="K15" s="100" t="n"/>
       <c r="L15" s="100" t="n"/>
     </row>
-    <row r="16" ht="39.75" customHeight="1" s="191">
-      <c r="C16" s="219" t="inlineStr">
+    <row r="16" ht="39.75" customHeight="1" s="202">
+      <c r="C16" s="213" t="inlineStr">
         <is>
           <t>Group Stage predictions are made in a single submission and are due by Thursday Evening June 10th, 2021.</t>
         </is>
       </c>
-      <c r="D16" s="220" t="n"/>
-      <c r="E16" s="220" t="n"/>
-      <c r="F16" s="220" t="n"/>
-      <c r="G16" s="220" t="n"/>
-      <c r="H16" s="220" t="n"/>
-      <c r="I16" s="220" t="n"/>
-      <c r="J16" s="220" t="n"/>
-      <c r="K16" s="220" t="n"/>
-      <c r="L16" s="220" t="n"/>
+      <c r="D16" s="214" t="n"/>
+      <c r="E16" s="214" t="n"/>
+      <c r="F16" s="214" t="n"/>
+      <c r="G16" s="214" t="n"/>
+      <c r="H16" s="214" t="n"/>
+      <c r="I16" s="214" t="n"/>
+      <c r="J16" s="214" t="n"/>
+      <c r="K16" s="214" t="n"/>
+      <c r="L16" s="214" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="136" t="inlineStr">
@@ -4009,19 +4013,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D17" s="221" t="n"/>
-      <c r="E17" s="222" t="n"/>
-      <c r="F17" s="222" t="n"/>
-      <c r="G17" s="223" t="n"/>
-      <c r="H17" s="224" t="inlineStr">
+      <c r="D17" s="215" t="n"/>
+      <c r="E17" s="216" t="n"/>
+      <c r="F17" s="216" t="n"/>
+      <c r="G17" s="217" t="n"/>
+      <c r="H17" s="218" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I17" s="222" t="n"/>
-      <c r="J17" s="222" t="n"/>
-      <c r="K17" s="222" t="n"/>
-      <c r="L17" s="223" t="n"/>
+      <c r="I17" s="216" t="n"/>
+      <c r="J17" s="216" t="n"/>
+      <c r="K17" s="216" t="n"/>
+      <c r="L17" s="217" t="n"/>
     </row>
     <row r="18">
       <c r="C18" s="137" t="inlineStr">
@@ -4029,15 +4033,15 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D18" s="227" t="n"/>
-      <c r="E18" s="220" t="n"/>
-      <c r="F18" s="220" t="n"/>
-      <c r="G18" s="226" t="n"/>
-      <c r="H18" s="225" t="n"/>
-      <c r="I18" s="220" t="n"/>
-      <c r="J18" s="220" t="n"/>
-      <c r="K18" s="220" t="n"/>
-      <c r="L18" s="226" t="n"/>
+      <c r="D18" s="221" t="n"/>
+      <c r="E18" s="214" t="n"/>
+      <c r="F18" s="214" t="n"/>
+      <c r="G18" s="220" t="n"/>
+      <c r="H18" s="219" t="n"/>
+      <c r="I18" s="214" t="n"/>
+      <c r="J18" s="214" t="n"/>
+      <c r="K18" s="214" t="n"/>
+      <c r="L18" s="220" t="n"/>
     </row>
     <row r="19">
       <c r="C19" s="100" t="n"/>
@@ -4045,36 +4049,36 @@
     <row r="20">
       <c r="A20" s="138" t="n"/>
       <c r="B20" s="138" t="n"/>
-      <c r="C20" s="228" t="inlineStr">
+      <c r="C20" s="222" t="inlineStr">
         <is>
           <t>Match Day 1</t>
         </is>
       </c>
-      <c r="D20" s="222" t="n"/>
+      <c r="D20" s="216" t="n"/>
       <c r="E20" s="139" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
-      <c r="F20" s="216" t="n"/>
-      <c r="G20" s="228" t="inlineStr">
+      <c r="F20" s="210" t="n"/>
+      <c r="G20" s="222" t="inlineStr">
         <is>
           <t>Match Day 2</t>
         </is>
       </c>
-      <c r="H20" s="222" t="n"/>
+      <c r="H20" s="216" t="n"/>
       <c r="I20" s="139" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
-      <c r="J20" s="216" t="n"/>
-      <c r="K20" s="228" t="inlineStr">
+      <c r="J20" s="210" t="n"/>
+      <c r="K20" s="222" t="inlineStr">
         <is>
           <t>Match Day 3</t>
         </is>
       </c>
-      <c r="L20" s="222" t="n"/>
+      <c r="L20" s="216" t="n"/>
       <c r="M20" s="139" t="inlineStr">
         <is>
           <t>Results</t>
@@ -4094,7 +4098,7 @@
       <c r="Y20" s="138" t="n"/>
       <c r="Z20" s="138" t="n"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1" s="191">
+    <row r="21" ht="15.75" customHeight="1" s="202">
       <c r="C21" s="140" t="inlineStr">
         <is>
           <t>Turkey</t>
@@ -4147,7 +4151,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1" s="191">
+    <row r="22" ht="15.75" customHeight="1" s="202">
       <c r="C22" s="148" t="n"/>
       <c r="D22" s="143" t="n"/>
       <c r="E22" s="149" t="n"/>
@@ -4184,7 +4188,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1" s="191">
+    <row r="23" ht="15.75" customHeight="1" s="202">
       <c r="C23" s="140" t="inlineStr">
         <is>
           <t>Wales</t>
@@ -4223,7 +4227,7 @@
       <c r="L23" s="143" t="n"/>
       <c r="M23" s="149" t="n"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1" s="191">
+    <row r="24" ht="15.75" customHeight="1" s="202">
       <c r="C24" s="144" t="inlineStr">
         <is>
           <t>Denmark</t>
@@ -4262,7 +4266,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1" s="191">
+    <row r="25" ht="15.75" customHeight="1" s="202">
       <c r="C25" s="144" t="inlineStr">
         <is>
           <t>Belgium</t>
@@ -4313,7 +4317,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1" s="191">
+    <row r="26" ht="15.75" customHeight="1" s="202">
       <c r="C26" s="148" t="n"/>
       <c r="D26" s="143" t="n"/>
       <c r="E26" s="149" t="n"/>
@@ -4350,7 +4354,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1" s="191">
+    <row r="27" ht="15.75" customHeight="1" s="202">
       <c r="C27" s="153" t="inlineStr">
         <is>
           <t>England</t>
@@ -4401,7 +4405,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1" s="191">
+    <row r="28" ht="15.75" customHeight="1" s="202">
       <c r="C28" s="150" t="inlineStr">
         <is>
           <t>Austria</t>
@@ -4428,7 +4432,7 @@
       <c r="L28" s="143" t="n"/>
       <c r="M28" s="149" t="n"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1" s="191">
+    <row r="29" ht="15.75" customHeight="1" s="202">
       <c r="C29" s="150" t="inlineStr">
         <is>
           <t>Netherlands</t>
@@ -4479,7 +4483,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1" s="191">
+    <row r="30" ht="15.75" customHeight="1" s="202">
       <c r="C30" s="148" t="n"/>
       <c r="D30" s="143" t="n"/>
       <c r="E30" s="149" t="n"/>
@@ -4516,7 +4520,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1" s="191">
+    <row r="31" ht="15.75" customHeight="1" s="202">
       <c r="C31" s="153" t="inlineStr">
         <is>
           <t>Scotland</t>
@@ -4555,7 +4559,7 @@
       <c r="L31" s="143" t="n"/>
       <c r="M31" s="149" t="n"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1" s="191">
+    <row r="32" ht="15.75" customHeight="1" s="202">
       <c r="C32" s="156" t="inlineStr">
         <is>
           <t>Poland</t>
@@ -4594,7 +4598,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1" s="191">
+    <row r="33" ht="15.75" customHeight="1" s="202">
       <c r="C33" s="156" t="inlineStr">
         <is>
           <t>Spain</t>
@@ -4645,7 +4649,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1" s="191">
+    <row r="34" ht="15.75" customHeight="1" s="202">
       <c r="C34" s="148" t="n"/>
       <c r="D34" s="143" t="n"/>
       <c r="E34" s="149" t="n"/>
@@ -4682,7 +4686,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1" s="191">
+    <row r="35" ht="15.75" customHeight="1" s="202">
       <c r="C35" s="159" t="inlineStr">
         <is>
           <t>Hungary</t>
@@ -4733,7 +4737,7 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1" s="191">
+    <row r="36" ht="15.75" customHeight="1" s="202">
       <c r="C36" s="162" t="inlineStr">
         <is>
           <t>France</t>
@@ -4760,70 +4764,70 @@
       <c r="L36" s="166" t="n"/>
       <c r="M36" s="167" t="n"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1" s="191"/>
-    <row r="38" ht="39.75" customHeight="1" s="191">
-      <c r="C38" s="219" t="inlineStr">
+    <row r="37" ht="15.75" customHeight="1" s="202"/>
+    <row r="38" ht="39.75" customHeight="1" s="202">
+      <c r="C38" s="213" t="inlineStr">
         <is>
           <t xml:space="preserve">We'll do the competition in two halves since the Round of 16 is heavily dependent on the Group Stages. </t>
         </is>
       </c>
-      <c r="D38" s="220" t="n"/>
-      <c r="E38" s="220" t="n"/>
-      <c r="F38" s="220" t="n"/>
-      <c r="G38" s="220" t="n"/>
-      <c r="H38" s="220" t="n"/>
-      <c r="I38" s="220" t="n"/>
-      <c r="J38" s="220" t="n"/>
-      <c r="K38" s="220" t="n"/>
-      <c r="L38" s="220" t="n"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1" s="191">
+      <c r="D38" s="214" t="n"/>
+      <c r="E38" s="214" t="n"/>
+      <c r="F38" s="214" t="n"/>
+      <c r="G38" s="214" t="n"/>
+      <c r="H38" s="214" t="n"/>
+      <c r="I38" s="214" t="n"/>
+      <c r="J38" s="214" t="n"/>
+      <c r="K38" s="214" t="n"/>
+      <c r="L38" s="214" t="n"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1" s="202">
       <c r="C39" s="136" t="inlineStr">
         <is>
           <t>Name:</t>
         </is>
       </c>
-      <c r="D39" s="221" t="n"/>
-      <c r="E39" s="222" t="n"/>
-      <c r="F39" s="222" t="n"/>
-      <c r="G39" s="223" t="n"/>
-      <c r="H39" s="224" t="inlineStr">
+      <c r="D39" s="215" t="n"/>
+      <c r="E39" s="216" t="n"/>
+      <c r="F39" s="216" t="n"/>
+      <c r="G39" s="217" t="n"/>
+      <c r="H39" s="218" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULTS         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I39" s="222" t="n"/>
-      <c r="J39" s="222" t="n"/>
-      <c r="K39" s="222" t="n"/>
-      <c r="L39" s="223" t="n"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1" s="191">
+      <c r="I39" s="216" t="n"/>
+      <c r="J39" s="216" t="n"/>
+      <c r="K39" s="216" t="n"/>
+      <c r="L39" s="217" t="n"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1" s="202">
       <c r="C40" s="137" t="inlineStr">
         <is>
           <t>Date:</t>
         </is>
       </c>
-      <c r="D40" s="227" t="n"/>
-      <c r="E40" s="220" t="n"/>
-      <c r="F40" s="220" t="n"/>
-      <c r="G40" s="226" t="n"/>
-      <c r="H40" s="225" t="n"/>
-      <c r="I40" s="220" t="n"/>
-      <c r="J40" s="220" t="n"/>
-      <c r="K40" s="220" t="n"/>
-      <c r="L40" s="226" t="n"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1" s="191">
+      <c r="D40" s="221" t="n"/>
+      <c r="E40" s="214" t="n"/>
+      <c r="F40" s="214" t="n"/>
+      <c r="G40" s="220" t="n"/>
+      <c r="H40" s="219" t="n"/>
+      <c r="I40" s="214" t="n"/>
+      <c r="J40" s="214" t="n"/>
+      <c r="K40" s="214" t="n"/>
+      <c r="L40" s="220" t="n"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1" s="202">
       <c r="B41" s="168" t="n"/>
       <c r="C41" s="169" t="n"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1" s="191">
-      <c r="B42" s="229" t="inlineStr">
+    <row r="42" ht="15.75" customHeight="1" s="202">
+      <c r="B42" s="223" t="inlineStr">
         <is>
           <t>Round of 16</t>
         </is>
       </c>
-      <c r="C42" s="220" t="n"/>
+      <c r="C42" s="214" t="n"/>
       <c r="D42" s="170" t="inlineStr">
         <is>
           <t>Results</t>
@@ -4867,12 +4871,12 @@
       </c>
       <c r="Q42" s="138" t="n"/>
       <c r="R42" s="171" t="n"/>
-      <c r="S42" s="216" t="n"/>
+      <c r="S42" s="210" t="n"/>
       <c r="U42" s="138" t="n"/>
       <c r="V42" s="171" t="n"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1" s="191">
-      <c r="B43" s="210" t="inlineStr">
+    <row r="43" ht="15.75" customHeight="1" s="202">
+      <c r="B43" s="224" t="inlineStr">
         <is>
           <t>R1</t>
         </is>
@@ -4882,7 +4886,7 @@
           <t>Winner Group A</t>
         </is>
       </c>
-      <c r="D43" s="212" t="n"/>
+      <c r="D43" s="226" t="n"/>
       <c r="E43" s="171" t="n"/>
       <c r="F43" s="171" t="n"/>
       <c r="O43" s="171" t="n"/>
@@ -4894,16 +4898,16 @@
       <c r="U43" s="171" t="n"/>
       <c r="V43" s="171" t="n"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B44" s="211" t="n"/>
+    <row r="44" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B44" s="225" t="n"/>
       <c r="C44" s="173" t="inlineStr">
         <is>
           <t>2nd Group C</t>
         </is>
       </c>
-      <c r="D44" s="211" t="n"/>
+      <c r="D44" s="225" t="n"/>
       <c r="E44" s="174" t="n"/>
-      <c r="F44" s="214" t="inlineStr">
+      <c r="F44" s="227" t="inlineStr">
         <is>
           <t>QF1</t>
         </is>
@@ -4913,7 +4917,7 @@
           <t>Winner R1</t>
         </is>
       </c>
-      <c r="H44" s="212" t="n"/>
+      <c r="H44" s="226" t="n"/>
       <c r="O44" s="171" t="n"/>
       <c r="P44" s="171" t="n"/>
       <c r="Q44" s="171" t="n"/>
@@ -4923,18 +4927,18 @@
       <c r="U44" s="171" t="n"/>
       <c r="V44" s="171" t="n"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1" s="191" thickBot="1">
+    <row r="45" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B45" s="138" t="n"/>
       <c r="C45" s="171" t="n"/>
       <c r="D45" s="176" t="n"/>
       <c r="E45" s="177" t="n"/>
-      <c r="F45" s="211" t="n"/>
+      <c r="F45" s="225" t="n"/>
       <c r="G45" s="178" t="inlineStr">
         <is>
           <t>Winner R2</t>
         </is>
       </c>
-      <c r="H45" s="211" t="n"/>
+      <c r="H45" s="225" t="n"/>
       <c r="O45" s="171" t="n"/>
       <c r="P45" s="171" t="n"/>
       <c r="Q45" s="171" t="n"/>
@@ -4944,8 +4948,8 @@
       <c r="U45" s="171" t="n"/>
       <c r="V45" s="171" t="n"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1" s="191">
-      <c r="B46" s="210" t="inlineStr">
+    <row r="46" ht="15.75" customHeight="1" s="202">
+      <c r="B46" s="224" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
@@ -4955,7 +4959,7 @@
           <t>Winner Group B</t>
         </is>
       </c>
-      <c r="D46" s="212" t="n"/>
+      <c r="D46" s="226" t="n"/>
       <c r="E46" s="171" t="n"/>
       <c r="F46" s="171" t="n"/>
       <c r="G46" s="179" t="n"/>
@@ -4969,20 +4973,20 @@
       <c r="U46" s="171" t="n"/>
       <c r="V46" s="171" t="n"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B47" s="211" t="n"/>
+    <row r="47" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B47" s="225" t="n"/>
       <c r="C47" s="173" t="inlineStr">
         <is>
           <t>3rd Group A/D/E/F</t>
         </is>
       </c>
-      <c r="D47" s="211" t="n"/>
+      <c r="D47" s="225" t="n"/>
       <c r="E47" s="171" t="n"/>
       <c r="F47" s="171" t="n"/>
       <c r="G47" s="179" t="n"/>
       <c r="H47" s="181" t="n"/>
       <c r="I47" s="177" t="n"/>
-      <c r="J47" s="213" t="inlineStr">
+      <c r="J47" s="228" t="inlineStr">
         <is>
           <t>SF1</t>
         </is>
@@ -4992,16 +4996,16 @@
           <t>Winner QF1</t>
         </is>
       </c>
-      <c r="L47" s="212" t="n"/>
+      <c r="L47" s="226" t="n"/>
       <c r="O47" s="171" t="n"/>
       <c r="P47" s="171" t="n"/>
       <c r="Q47" s="171" t="n"/>
       <c r="R47" s="171" t="n"/>
-      <c r="S47" s="216" t="n"/>
+      <c r="S47" s="210" t="n"/>
       <c r="U47" s="138" t="n"/>
       <c r="V47" s="171" t="n"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1" s="191">
+    <row r="48" ht="15.75" customHeight="1" s="202">
       <c r="B48" s="138" t="n"/>
       <c r="C48" s="171" t="n"/>
       <c r="D48" s="176" t="n"/>
@@ -5009,13 +5013,13 @@
       <c r="F48" s="171" t="n"/>
       <c r="G48" s="179" t="n"/>
       <c r="H48" s="181" t="n"/>
-      <c r="J48" s="211" t="n"/>
+      <c r="J48" s="225" t="n"/>
       <c r="K48" s="165" t="inlineStr">
         <is>
           <t>Winner QF2</t>
         </is>
       </c>
-      <c r="L48" s="211" t="n"/>
+      <c r="L48" s="225" t="n"/>
       <c r="O48" s="171" t="n"/>
       <c r="P48" s="171" t="n"/>
       <c r="Q48" s="171" t="n"/>
@@ -5025,8 +5029,8 @@
       <c r="U48" s="171" t="n"/>
       <c r="V48" s="171" t="n"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1" s="191">
-      <c r="B49" s="210" t="inlineStr">
+    <row r="49" ht="15.75" customHeight="1" s="202">
+      <c r="B49" s="224" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
@@ -5036,7 +5040,7 @@
           <t>Winner Group F</t>
         </is>
       </c>
-      <c r="D49" s="212" t="n"/>
+      <c r="D49" s="226" t="n"/>
       <c r="E49" s="171" t="n"/>
       <c r="F49" s="171" t="n"/>
       <c r="G49" s="179" t="n"/>
@@ -5044,16 +5048,16 @@
       <c r="K49" s="143" t="n"/>
       <c r="L49" s="180" t="n"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B50" s="211" t="n"/>
+    <row r="50" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B50" s="225" t="n"/>
       <c r="C50" s="173" t="inlineStr">
         <is>
           <t>3rd Group A/B/C</t>
         </is>
       </c>
-      <c r="D50" s="211" t="n"/>
+      <c r="D50" s="225" t="n"/>
       <c r="E50" s="177" t="n"/>
-      <c r="F50" s="214" t="inlineStr">
+      <c r="F50" s="227" t="inlineStr">
         <is>
           <t>QF2</t>
         </is>
@@ -5063,27 +5067,27 @@
           <t>Winner R3</t>
         </is>
       </c>
-      <c r="H50" s="212" t="n"/>
+      <c r="H50" s="226" t="n"/>
       <c r="K50" s="143" t="n"/>
       <c r="L50" s="181" t="n"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1" s="191" thickBot="1">
+    <row r="51" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B51" s="138" t="n"/>
       <c r="C51" s="171" t="n"/>
       <c r="D51" s="176" t="n"/>
       <c r="E51" s="177" t="n"/>
-      <c r="F51" s="211" t="n"/>
+      <c r="F51" s="225" t="n"/>
       <c r="G51" s="178" t="inlineStr">
         <is>
           <t>Winner R4</t>
         </is>
       </c>
-      <c r="H51" s="211" t="n"/>
+      <c r="H51" s="225" t="n"/>
       <c r="K51" s="143" t="n"/>
       <c r="L51" s="181" t="n"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B52" s="210" t="inlineStr">
+    <row r="52" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B52" s="224" t="inlineStr">
         <is>
           <t>R4</t>
         </is>
@@ -5093,7 +5097,7 @@
           <t>2nd Group D</t>
         </is>
       </c>
-      <c r="D52" s="212" t="n"/>
+      <c r="D52" s="226" t="n"/>
       <c r="E52" s="171" t="n"/>
       <c r="F52" s="171" t="n"/>
       <c r="G52" s="179" t="n"/>
@@ -5101,7 +5105,7 @@
       <c r="K52" s="143" t="n"/>
       <c r="L52" s="181" t="n"/>
       <c r="M52" s="177" t="n"/>
-      <c r="N52" s="215" t="inlineStr">
+      <c r="N52" s="229" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -5111,31 +5115,31 @@
           <t>Winner SF1</t>
         </is>
       </c>
-      <c r="P52" s="212" t="n"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1" s="191">
-      <c r="B53" s="211" t="n"/>
+      <c r="P52" s="226" t="n"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1" s="202">
+      <c r="B53" s="225" t="n"/>
       <c r="C53" s="173" t="inlineStr">
         <is>
           <t>2nd Group E</t>
         </is>
       </c>
-      <c r="D53" s="211" t="n"/>
+      <c r="D53" s="225" t="n"/>
       <c r="E53" s="171" t="n"/>
       <c r="F53" s="171" t="n"/>
       <c r="G53" s="179" t="n"/>
       <c r="H53" s="176" t="n"/>
       <c r="K53" s="143" t="n"/>
       <c r="L53" s="181" t="n"/>
-      <c r="N53" s="211" t="n"/>
+      <c r="N53" s="225" t="n"/>
       <c r="O53" s="165" t="inlineStr">
         <is>
           <t>Winner SF2</t>
         </is>
       </c>
-      <c r="P53" s="211" t="n"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1" s="191">
+      <c r="P53" s="225" t="n"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1" s="202">
       <c r="B54" s="138" t="n"/>
       <c r="C54" s="171" t="n"/>
       <c r="D54" s="176" t="n"/>
@@ -5146,8 +5150,8 @@
       <c r="K54" s="143" t="n"/>
       <c r="L54" s="181" t="n"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1" s="191">
-      <c r="B55" s="210" t="inlineStr">
+    <row r="55" ht="15.75" customHeight="1" s="202">
+      <c r="B55" s="224" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
@@ -5157,7 +5161,7 @@
           <t>Winner Group E</t>
         </is>
       </c>
-      <c r="D55" s="212" t="n"/>
+      <c r="D55" s="226" t="n"/>
       <c r="E55" s="171" t="n"/>
       <c r="F55" s="171" t="n"/>
       <c r="G55" s="179" t="n"/>
@@ -5165,16 +5169,16 @@
       <c r="K55" s="143" t="n"/>
       <c r="L55" s="181" t="n"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B56" s="211" t="n"/>
+    <row r="56" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B56" s="225" t="n"/>
       <c r="C56" s="173" t="inlineStr">
         <is>
           <t>3rd Group A/B/C/D</t>
         </is>
       </c>
-      <c r="D56" s="211" t="n"/>
+      <c r="D56" s="225" t="n"/>
       <c r="E56" s="174" t="n"/>
-      <c r="F56" s="214" t="inlineStr">
+      <c r="F56" s="227" t="inlineStr">
         <is>
           <t>QF3</t>
         </is>
@@ -5184,26 +5188,26 @@
           <t>Winner R5</t>
         </is>
       </c>
-      <c r="H56" s="212" t="n"/>
+      <c r="H56" s="226" t="n"/>
       <c r="K56" s="143" t="n"/>
       <c r="L56" s="181" t="n"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1" s="191" thickBot="1">
+    <row r="57" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B57" s="138" t="n"/>
       <c r="D57" s="176" t="n"/>
       <c r="E57" s="184" t="n"/>
-      <c r="F57" s="211" t="n"/>
+      <c r="F57" s="225" t="n"/>
       <c r="G57" s="178" t="inlineStr">
         <is>
           <t>Winner R6</t>
         </is>
       </c>
-      <c r="H57" s="211" t="n"/>
+      <c r="H57" s="225" t="n"/>
       <c r="K57" s="143" t="n"/>
       <c r="L57" s="181" t="n"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1" s="191">
-      <c r="B58" s="210" t="inlineStr">
+    <row r="58" ht="15.75" customHeight="1" s="202">
+      <c r="B58" s="224" t="inlineStr">
         <is>
           <t>R6</t>
         </is>
@@ -5213,24 +5217,24 @@
           <t>Winner Group D</t>
         </is>
       </c>
-      <c r="D58" s="212" t="n"/>
+      <c r="D58" s="226" t="n"/>
       <c r="G58" s="179" t="n"/>
       <c r="H58" s="180" t="n"/>
       <c r="K58" s="143" t="n"/>
       <c r="L58" s="183" t="n"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B59" s="211" t="n"/>
+    <row r="59" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B59" s="225" t="n"/>
       <c r="C59" s="173" t="inlineStr">
         <is>
           <t>2nd Group F</t>
         </is>
       </c>
-      <c r="D59" s="211" t="n"/>
+      <c r="D59" s="225" t="n"/>
       <c r="G59" s="179" t="n"/>
       <c r="H59" s="181" t="n"/>
       <c r="I59" s="177" t="n"/>
-      <c r="J59" s="213" t="inlineStr">
+      <c r="J59" s="228" t="inlineStr">
         <is>
           <t>SF2</t>
         </is>
@@ -5240,23 +5244,23 @@
           <t>Winner QF3</t>
         </is>
       </c>
-      <c r="L59" s="212" t="n"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1" s="191">
+      <c r="L59" s="226" t="n"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1" s="202">
       <c r="B60" s="138" t="n"/>
       <c r="D60" s="176" t="n"/>
       <c r="G60" s="179" t="n"/>
       <c r="H60" s="181" t="n"/>
-      <c r="J60" s="211" t="n"/>
+      <c r="J60" s="225" t="n"/>
       <c r="K60" s="165" t="inlineStr">
         <is>
           <t>Winner QF4</t>
         </is>
       </c>
-      <c r="L60" s="211" t="n"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1" s="191">
-      <c r="B61" s="210" t="inlineStr">
+      <c r="L60" s="225" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="202">
+      <c r="B61" s="224" t="inlineStr">
         <is>
           <t>R7</t>
         </is>
@@ -5266,20 +5270,20 @@
           <t>Winner GroupC</t>
         </is>
       </c>
-      <c r="D61" s="212" t="n"/>
+      <c r="D61" s="226" t="n"/>
       <c r="G61" s="179" t="n"/>
       <c r="H61" s="183" t="n"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B62" s="211" t="n"/>
+    <row r="62" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B62" s="225" t="n"/>
       <c r="C62" s="173" t="inlineStr">
         <is>
           <t>3rd Group D/E/F</t>
         </is>
       </c>
-      <c r="D62" s="211" t="n"/>
+      <c r="D62" s="225" t="n"/>
       <c r="E62" s="174" t="n"/>
-      <c r="F62" s="214" t="inlineStr">
+      <c r="F62" s="227" t="inlineStr">
         <is>
           <t>QF4</t>
         </is>
@@ -5289,22 +5293,22 @@
           <t>Winner R7</t>
         </is>
       </c>
-      <c r="H62" s="212" t="n"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="H62" s="226" t="n"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B63" s="138" t="n"/>
       <c r="D63" s="176" t="n"/>
       <c r="E63" s="184" t="n"/>
-      <c r="F63" s="211" t="n"/>
+      <c r="F63" s="225" t="n"/>
       <c r="G63" s="178" t="inlineStr">
         <is>
           <t>Winner R8</t>
         </is>
       </c>
-      <c r="H63" s="211" t="n"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1" s="191">
-      <c r="B64" s="210" t="inlineStr">
+      <c r="H63" s="225" t="n"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1" s="202">
+      <c r="B64" s="224" t="inlineStr">
         <is>
           <t>R8</t>
         </is>
@@ -5314,954 +5318,985 @@
           <t>2nd Group A</t>
         </is>
       </c>
-      <c r="D64" s="212" t="n"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1" s="191">
-      <c r="B65" s="211" t="n"/>
+      <c r="D64" s="226" t="n"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1" s="202">
+      <c r="B65" s="225" t="n"/>
       <c r="C65" s="173" t="inlineStr">
         <is>
           <t>2nd Group B</t>
         </is>
       </c>
-      <c r="D65" s="211" t="n"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1" s="191"/>
-    <row r="67" ht="15.75" customHeight="1" s="191"/>
-    <row r="68" ht="15.75" customHeight="1" s="191"/>
-    <row r="69" ht="15.75" customHeight="1" s="191"/>
-    <row r="70" ht="15.75" customHeight="1" s="191"/>
-    <row r="71" ht="15.75" customHeight="1" s="191"/>
-    <row r="72" ht="15.75" customHeight="1" s="191"/>
-    <row r="73" ht="15.75" customHeight="1" s="191"/>
-    <row r="74" ht="15.75" customHeight="1" s="191"/>
-    <row r="75" ht="15.75" customHeight="1" s="191"/>
-    <row r="76" ht="15.75" customHeight="1" s="191"/>
-    <row r="77" ht="15.75" customHeight="1" s="191"/>
-    <row r="78" ht="15.75" customHeight="1" s="191"/>
-    <row r="79" ht="15.75" customHeight="1" s="191"/>
-    <row r="80" ht="15.75" customHeight="1" s="191"/>
-    <row r="81" ht="15.75" customHeight="1" s="191"/>
-    <row r="82" ht="15.75" customHeight="1" s="191"/>
-    <row r="83" ht="15.75" customHeight="1" s="191"/>
-    <row r="84" ht="15.75" customHeight="1" s="191"/>
-    <row r="85" ht="15.75" customHeight="1" s="191"/>
-    <row r="86" ht="15.75" customHeight="1" s="191"/>
-    <row r="87" ht="15.75" customHeight="1" s="191"/>
-    <row r="88" ht="15.75" customHeight="1" s="191"/>
-    <row r="89" ht="15.75" customHeight="1" s="191"/>
-    <row r="90" ht="15.75" customHeight="1" s="191"/>
-    <row r="91" ht="15.75" customHeight="1" s="191"/>
-    <row r="92" ht="15.75" customHeight="1" s="191"/>
-    <row r="93" ht="15.75" customHeight="1" s="191"/>
-    <row r="94" ht="15.75" customHeight="1" s="191"/>
-    <row r="95" ht="15.75" customHeight="1" s="191"/>
-    <row r="96" ht="15.75" customHeight="1" s="191"/>
-    <row r="97" ht="15.75" customHeight="1" s="191"/>
-    <row r="98" ht="15.75" customHeight="1" s="191"/>
-    <row r="99" ht="15.75" customHeight="1" s="191"/>
-    <row r="100" ht="15.75" customHeight="1" s="191"/>
-    <row r="101" ht="15.75" customHeight="1" s="191"/>
-    <row r="102" ht="15.75" customHeight="1" s="191"/>
-    <row r="103" ht="15.75" customHeight="1" s="191"/>
-    <row r="104" ht="15.75" customHeight="1" s="191"/>
-    <row r="105" ht="15.75" customHeight="1" s="191"/>
-    <row r="106" ht="15.75" customHeight="1" s="191"/>
-    <row r="107" ht="15.75" customHeight="1" s="191"/>
-    <row r="108" ht="15.75" customHeight="1" s="191"/>
-    <row r="109" ht="15.75" customHeight="1" s="191"/>
-    <row r="110" ht="15.75" customHeight="1" s="191"/>
-    <row r="111" ht="15.75" customHeight="1" s="191"/>
-    <row r="112" ht="15.75" customHeight="1" s="191"/>
-    <row r="113" ht="15.75" customHeight="1" s="191"/>
-    <row r="114" ht="15.75" customHeight="1" s="191"/>
-    <row r="115" ht="15.75" customHeight="1" s="191"/>
-    <row r="116" ht="15.75" customHeight="1" s="191"/>
-    <row r="117" ht="15.75" customHeight="1" s="191"/>
-    <row r="118" ht="15.75" customHeight="1" s="191"/>
-    <row r="119" ht="15.75" customHeight="1" s="191"/>
-    <row r="120" ht="15.75" customHeight="1" s="191"/>
-    <row r="121" ht="15.75" customHeight="1" s="191"/>
-    <row r="122" ht="15.75" customHeight="1" s="191"/>
-    <row r="123" ht="15.75" customHeight="1" s="191"/>
-    <row r="124" ht="15.75" customHeight="1" s="191"/>
-    <row r="125" ht="15.75" customHeight="1" s="191"/>
-    <row r="126" ht="15.75" customHeight="1" s="191"/>
-    <row r="127" ht="15.75" customHeight="1" s="191"/>
-    <row r="128" ht="15.75" customHeight="1" s="191"/>
-    <row r="129" ht="15.75" customHeight="1" s="191"/>
-    <row r="130" ht="15.75" customHeight="1" s="191"/>
-    <row r="131" ht="15.75" customHeight="1" s="191"/>
-    <row r="132" ht="15.75" customHeight="1" s="191"/>
-    <row r="133" ht="15.75" customHeight="1" s="191"/>
-    <row r="134" ht="15.75" customHeight="1" s="191"/>
-    <row r="135" ht="15.75" customHeight="1" s="191"/>
-    <row r="136" ht="15.75" customHeight="1" s="191"/>
-    <row r="137" ht="15.75" customHeight="1" s="191"/>
-    <row r="138" ht="15.75" customHeight="1" s="191"/>
-    <row r="139" ht="15.75" customHeight="1" s="191"/>
-    <row r="140" ht="15.75" customHeight="1" s="191"/>
-    <row r="141" ht="15.75" customHeight="1" s="191"/>
-    <row r="142" ht="15.75" customHeight="1" s="191"/>
-    <row r="143" ht="15.75" customHeight="1" s="191"/>
-    <row r="144" ht="15.75" customHeight="1" s="191"/>
-    <row r="145" ht="15.75" customHeight="1" s="191"/>
-    <row r="146" ht="15.75" customHeight="1" s="191"/>
-    <row r="147" ht="15.75" customHeight="1" s="191"/>
-    <row r="148" ht="15.75" customHeight="1" s="191"/>
-    <row r="149" ht="15.75" customHeight="1" s="191"/>
-    <row r="150" ht="15.75" customHeight="1" s="191"/>
-    <row r="151" ht="15.75" customHeight="1" s="191"/>
-    <row r="152" ht="15.75" customHeight="1" s="191"/>
-    <row r="153" ht="15.75" customHeight="1" s="191"/>
-    <row r="154" ht="15.75" customHeight="1" s="191"/>
-    <row r="155" ht="15.75" customHeight="1" s="191"/>
-    <row r="156" ht="15.75" customHeight="1" s="191"/>
-    <row r="157" ht="15.75" customHeight="1" s="191"/>
-    <row r="158" ht="15.75" customHeight="1" s="191"/>
-    <row r="159" ht="15.75" customHeight="1" s="191"/>
-    <row r="160" ht="15.75" customHeight="1" s="191"/>
-    <row r="161" ht="15.75" customHeight="1" s="191"/>
-    <row r="162" ht="15.75" customHeight="1" s="191"/>
-    <row r="163" ht="15.75" customHeight="1" s="191"/>
-    <row r="164" ht="15.75" customHeight="1" s="191"/>
-    <row r="165" ht="15.75" customHeight="1" s="191"/>
-    <row r="166" ht="15.75" customHeight="1" s="191"/>
-    <row r="167" ht="15.75" customHeight="1" s="191"/>
-    <row r="168" ht="15.75" customHeight="1" s="191"/>
-    <row r="169" ht="15.75" customHeight="1" s="191"/>
-    <row r="170" ht="15.75" customHeight="1" s="191"/>
-    <row r="171" ht="15.75" customHeight="1" s="191"/>
-    <row r="172" ht="15.75" customHeight="1" s="191"/>
-    <row r="173" ht="15.75" customHeight="1" s="191"/>
-    <row r="174" ht="15.75" customHeight="1" s="191"/>
-    <row r="175" ht="15.75" customHeight="1" s="191"/>
-    <row r="176" ht="15.75" customHeight="1" s="191"/>
-    <row r="177" ht="15.75" customHeight="1" s="191"/>
-    <row r="178" ht="15.75" customHeight="1" s="191"/>
-    <row r="179" ht="15.75" customHeight="1" s="191"/>
-    <row r="180" ht="15.75" customHeight="1" s="191"/>
-    <row r="181" ht="15.75" customHeight="1" s="191"/>
-    <row r="182" ht="15.75" customHeight="1" s="191"/>
-    <row r="183" ht="15.75" customHeight="1" s="191"/>
-    <row r="184" ht="15.75" customHeight="1" s="191"/>
-    <row r="185" ht="15.75" customHeight="1" s="191"/>
-    <row r="186" ht="15.75" customHeight="1" s="191"/>
-    <row r="187" ht="15.75" customHeight="1" s="191"/>
-    <row r="188" ht="15.75" customHeight="1" s="191"/>
-    <row r="189" ht="15.75" customHeight="1" s="191"/>
-    <row r="190" ht="15.75" customHeight="1" s="191"/>
-    <row r="191" ht="15.75" customHeight="1" s="191"/>
-    <row r="192" ht="15.75" customHeight="1" s="191"/>
-    <row r="193" ht="15.75" customHeight="1" s="191"/>
-    <row r="194" ht="15.75" customHeight="1" s="191"/>
-    <row r="195" ht="15.75" customHeight="1" s="191"/>
-    <row r="196" ht="15.75" customHeight="1" s="191"/>
-    <row r="197" ht="15.75" customHeight="1" s="191"/>
-    <row r="198" ht="15.75" customHeight="1" s="191"/>
-    <row r="199" ht="15.75" customHeight="1" s="191"/>
-    <row r="200" ht="15.75" customHeight="1" s="191"/>
-    <row r="201" ht="15.75" customHeight="1" s="191"/>
-    <row r="202" ht="15.75" customHeight="1" s="191"/>
-    <row r="203" ht="15.75" customHeight="1" s="191"/>
-    <row r="204" ht="15.75" customHeight="1" s="191"/>
-    <row r="205" ht="15.75" customHeight="1" s="191"/>
-    <row r="206" ht="15.75" customHeight="1" s="191"/>
-    <row r="207" ht="15.75" customHeight="1" s="191"/>
-    <row r="208" ht="15.75" customHeight="1" s="191"/>
-    <row r="209" ht="15.75" customHeight="1" s="191"/>
-    <row r="210" ht="15.75" customHeight="1" s="191"/>
-    <row r="211" ht="15.75" customHeight="1" s="191"/>
-    <row r="212" ht="15.75" customHeight="1" s="191"/>
-    <row r="213" ht="15.75" customHeight="1" s="191"/>
-    <row r="214" ht="15.75" customHeight="1" s="191"/>
-    <row r="215" ht="15.75" customHeight="1" s="191"/>
-    <row r="216" ht="15.75" customHeight="1" s="191"/>
-    <row r="217" ht="15.75" customHeight="1" s="191"/>
-    <row r="218" ht="15.75" customHeight="1" s="191"/>
-    <row r="219" ht="15.75" customHeight="1" s="191"/>
-    <row r="220" ht="15.75" customHeight="1" s="191"/>
-    <row r="221" ht="15.75" customHeight="1" s="191"/>
-    <row r="222" ht="15.75" customHeight="1" s="191"/>
-    <row r="223" ht="15.75" customHeight="1" s="191"/>
-    <row r="224" ht="15.75" customHeight="1" s="191"/>
-    <row r="225" ht="15.75" customHeight="1" s="191"/>
-    <row r="226" ht="15.75" customHeight="1" s="191"/>
-    <row r="227" ht="15.75" customHeight="1" s="191"/>
-    <row r="228" ht="15.75" customHeight="1" s="191"/>
-    <row r="229" ht="15.75" customHeight="1" s="191"/>
-    <row r="230" ht="15.75" customHeight="1" s="191"/>
-    <row r="231" ht="15.75" customHeight="1" s="191"/>
-    <row r="232" ht="15.75" customHeight="1" s="191"/>
-    <row r="233" ht="15.75" customHeight="1" s="191"/>
-    <row r="234" ht="15.75" customHeight="1" s="191"/>
-    <row r="235" ht="15.75" customHeight="1" s="191"/>
-    <row r="236" ht="15.75" customHeight="1" s="191"/>
-    <row r="237" ht="15.75" customHeight="1" s="191"/>
-    <row r="238" ht="15.75" customHeight="1" s="191"/>
-    <row r="239" ht="15.75" customHeight="1" s="191"/>
-    <row r="240" ht="15.75" customHeight="1" s="191"/>
-    <row r="241" ht="15.75" customHeight="1" s="191"/>
-    <row r="242" ht="15.75" customHeight="1" s="191"/>
-    <row r="243" ht="15.75" customHeight="1" s="191"/>
-    <row r="244" ht="15.75" customHeight="1" s="191"/>
-    <row r="245" ht="15.75" customHeight="1" s="191"/>
-    <row r="246" ht="15.75" customHeight="1" s="191"/>
-    <row r="247" ht="15.75" customHeight="1" s="191"/>
-    <row r="248" ht="15.75" customHeight="1" s="191"/>
-    <row r="249" ht="15.75" customHeight="1" s="191"/>
-    <row r="250" ht="15.75" customHeight="1" s="191"/>
-    <row r="251" ht="15.75" customHeight="1" s="191"/>
-    <row r="252" ht="15.75" customHeight="1" s="191"/>
-    <row r="253" ht="15.75" customHeight="1" s="191"/>
-    <row r="254" ht="15.75" customHeight="1" s="191"/>
-    <row r="255" ht="15.75" customHeight="1" s="191"/>
-    <row r="256" ht="15.75" customHeight="1" s="191"/>
-    <row r="257" ht="15.75" customHeight="1" s="191"/>
-    <row r="258" ht="15.75" customHeight="1" s="191"/>
-    <row r="259" ht="15.75" customHeight="1" s="191"/>
-    <row r="260" ht="15.75" customHeight="1" s="191"/>
-    <row r="261" ht="15.75" customHeight="1" s="191"/>
-    <row r="262" ht="15.75" customHeight="1" s="191"/>
-    <row r="263" ht="15.75" customHeight="1" s="191"/>
-    <row r="264" ht="15.75" customHeight="1" s="191"/>
-    <row r="265" ht="15.75" customHeight="1" s="191"/>
-    <row r="266" ht="15.75" customHeight="1" s="191"/>
-    <row r="267" ht="15.75" customHeight="1" s="191"/>
-    <row r="268" ht="15.75" customHeight="1" s="191"/>
-    <row r="269" ht="15.75" customHeight="1" s="191"/>
-    <row r="270" ht="15.75" customHeight="1" s="191"/>
-    <row r="271" ht="15.75" customHeight="1" s="191"/>
-    <row r="272" ht="15.75" customHeight="1" s="191"/>
-    <row r="273" ht="15.75" customHeight="1" s="191"/>
-    <row r="274" ht="15.75" customHeight="1" s="191"/>
-    <row r="275" ht="15.75" customHeight="1" s="191"/>
-    <row r="276" ht="15.75" customHeight="1" s="191"/>
-    <row r="277" ht="15.75" customHeight="1" s="191"/>
-    <row r="278" ht="15.75" customHeight="1" s="191"/>
-    <row r="279" ht="15.75" customHeight="1" s="191"/>
-    <row r="280" ht="15.75" customHeight="1" s="191"/>
-    <row r="281" ht="15.75" customHeight="1" s="191"/>
-    <row r="282" ht="15.75" customHeight="1" s="191"/>
-    <row r="283" ht="15.75" customHeight="1" s="191"/>
-    <row r="284" ht="15.75" customHeight="1" s="191"/>
-    <row r="285" ht="15.75" customHeight="1" s="191"/>
-    <row r="286" ht="15.75" customHeight="1" s="191"/>
-    <row r="287" ht="15.75" customHeight="1" s="191"/>
-    <row r="288" ht="15.75" customHeight="1" s="191"/>
-    <row r="289" ht="15.75" customHeight="1" s="191"/>
-    <row r="290" ht="15.75" customHeight="1" s="191"/>
-    <row r="291" ht="15.75" customHeight="1" s="191"/>
-    <row r="292" ht="15.75" customHeight="1" s="191"/>
-    <row r="293" ht="15.75" customHeight="1" s="191"/>
-    <row r="294" ht="15.75" customHeight="1" s="191"/>
-    <row r="295" ht="15.75" customHeight="1" s="191"/>
-    <row r="296" ht="15.75" customHeight="1" s="191"/>
-    <row r="297" ht="15.75" customHeight="1" s="191"/>
-    <row r="298" ht="15.75" customHeight="1" s="191"/>
-    <row r="299" ht="15.75" customHeight="1" s="191"/>
-    <row r="300" ht="15.75" customHeight="1" s="191"/>
-    <row r="301" ht="15.75" customHeight="1" s="191"/>
-    <row r="302" ht="15.75" customHeight="1" s="191"/>
-    <row r="303" ht="15.75" customHeight="1" s="191"/>
-    <row r="304" ht="15.75" customHeight="1" s="191"/>
-    <row r="305" ht="15.75" customHeight="1" s="191"/>
-    <row r="306" ht="15.75" customHeight="1" s="191"/>
-    <row r="307" ht="15.75" customHeight="1" s="191"/>
-    <row r="308" ht="15.75" customHeight="1" s="191"/>
-    <row r="309" ht="15.75" customHeight="1" s="191"/>
-    <row r="310" ht="15.75" customHeight="1" s="191"/>
-    <row r="311" ht="15.75" customHeight="1" s="191"/>
-    <row r="312" ht="15.75" customHeight="1" s="191"/>
-    <row r="313" ht="15.75" customHeight="1" s="191"/>
-    <row r="314" ht="15.75" customHeight="1" s="191"/>
-    <row r="315" ht="15.75" customHeight="1" s="191"/>
-    <row r="316" ht="15.75" customHeight="1" s="191"/>
-    <row r="317" ht="15.75" customHeight="1" s="191"/>
-    <row r="318" ht="15.75" customHeight="1" s="191"/>
-    <row r="319" ht="15.75" customHeight="1" s="191"/>
-    <row r="320" ht="15.75" customHeight="1" s="191"/>
-    <row r="321" ht="15.75" customHeight="1" s="191"/>
-    <row r="322" ht="15.75" customHeight="1" s="191"/>
-    <row r="323" ht="15.75" customHeight="1" s="191"/>
-    <row r="324" ht="15.75" customHeight="1" s="191"/>
-    <row r="325" ht="15.75" customHeight="1" s="191"/>
-    <row r="326" ht="15.75" customHeight="1" s="191"/>
-    <row r="327" ht="15.75" customHeight="1" s="191"/>
-    <row r="328" ht="15.75" customHeight="1" s="191"/>
-    <row r="329" ht="15.75" customHeight="1" s="191"/>
-    <row r="330" ht="15.75" customHeight="1" s="191"/>
-    <row r="331" ht="15.75" customHeight="1" s="191"/>
-    <row r="332" ht="15.75" customHeight="1" s="191"/>
-    <row r="333" ht="15.75" customHeight="1" s="191"/>
-    <row r="334" ht="15.75" customHeight="1" s="191"/>
-    <row r="335" ht="15.75" customHeight="1" s="191"/>
-    <row r="336" ht="15.75" customHeight="1" s="191"/>
-    <row r="337" ht="15.75" customHeight="1" s="191"/>
-    <row r="338" ht="15.75" customHeight="1" s="191"/>
-    <row r="339" ht="15.75" customHeight="1" s="191"/>
-    <row r="340" ht="15.75" customHeight="1" s="191"/>
-    <row r="341" ht="15.75" customHeight="1" s="191"/>
-    <row r="342" ht="15.75" customHeight="1" s="191"/>
-    <row r="343" ht="15.75" customHeight="1" s="191"/>
-    <row r="344" ht="15.75" customHeight="1" s="191"/>
-    <row r="345" ht="15.75" customHeight="1" s="191"/>
-    <row r="346" ht="15.75" customHeight="1" s="191"/>
-    <row r="347" ht="15.75" customHeight="1" s="191"/>
-    <row r="348" ht="15.75" customHeight="1" s="191"/>
-    <row r="349" ht="15.75" customHeight="1" s="191"/>
-    <row r="350" ht="15.75" customHeight="1" s="191"/>
-    <row r="351" ht="15.75" customHeight="1" s="191"/>
-    <row r="352" ht="15.75" customHeight="1" s="191"/>
-    <row r="353" ht="15.75" customHeight="1" s="191"/>
-    <row r="354" ht="15.75" customHeight="1" s="191"/>
-    <row r="355" ht="15.75" customHeight="1" s="191"/>
-    <row r="356" ht="15.75" customHeight="1" s="191"/>
-    <row r="357" ht="15.75" customHeight="1" s="191"/>
-    <row r="358" ht="15.75" customHeight="1" s="191"/>
-    <row r="359" ht="15.75" customHeight="1" s="191"/>
-    <row r="360" ht="15.75" customHeight="1" s="191"/>
-    <row r="361" ht="15.75" customHeight="1" s="191"/>
-    <row r="362" ht="15.75" customHeight="1" s="191"/>
-    <row r="363" ht="15.75" customHeight="1" s="191"/>
-    <row r="364" ht="15.75" customHeight="1" s="191"/>
-    <row r="365" ht="15.75" customHeight="1" s="191"/>
-    <row r="366" ht="15.75" customHeight="1" s="191"/>
-    <row r="367" ht="15.75" customHeight="1" s="191"/>
-    <row r="368" ht="15.75" customHeight="1" s="191"/>
-    <row r="369" ht="15.75" customHeight="1" s="191"/>
-    <row r="370" ht="15.75" customHeight="1" s="191"/>
-    <row r="371" ht="15.75" customHeight="1" s="191"/>
-    <row r="372" ht="15.75" customHeight="1" s="191"/>
-    <row r="373" ht="15.75" customHeight="1" s="191"/>
-    <row r="374" ht="15.75" customHeight="1" s="191"/>
-    <row r="375" ht="15.75" customHeight="1" s="191"/>
-    <row r="376" ht="15.75" customHeight="1" s="191"/>
-    <row r="377" ht="15.75" customHeight="1" s="191"/>
-    <row r="378" ht="15.75" customHeight="1" s="191"/>
-    <row r="379" ht="15.75" customHeight="1" s="191"/>
-    <row r="380" ht="15.75" customHeight="1" s="191"/>
-    <row r="381" ht="15.75" customHeight="1" s="191"/>
-    <row r="382" ht="15.75" customHeight="1" s="191"/>
-    <row r="383" ht="15.75" customHeight="1" s="191"/>
-    <row r="384" ht="15.75" customHeight="1" s="191"/>
-    <row r="385" ht="15.75" customHeight="1" s="191"/>
-    <row r="386" ht="15.75" customHeight="1" s="191"/>
-    <row r="387" ht="15.75" customHeight="1" s="191"/>
-    <row r="388" ht="15.75" customHeight="1" s="191"/>
-    <row r="389" ht="15.75" customHeight="1" s="191"/>
-    <row r="390" ht="15.75" customHeight="1" s="191"/>
-    <row r="391" ht="15.75" customHeight="1" s="191"/>
-    <row r="392" ht="15.75" customHeight="1" s="191"/>
-    <row r="393" ht="15.75" customHeight="1" s="191"/>
-    <row r="394" ht="15.75" customHeight="1" s="191"/>
-    <row r="395" ht="15.75" customHeight="1" s="191"/>
-    <row r="396" ht="15.75" customHeight="1" s="191"/>
-    <row r="397" ht="15.75" customHeight="1" s="191"/>
-    <row r="398" ht="15.75" customHeight="1" s="191"/>
-    <row r="399" ht="15.75" customHeight="1" s="191"/>
-    <row r="400" ht="15.75" customHeight="1" s="191"/>
-    <row r="401" ht="15.75" customHeight="1" s="191"/>
-    <row r="402" ht="15.75" customHeight="1" s="191"/>
-    <row r="403" ht="15.75" customHeight="1" s="191"/>
-    <row r="404" ht="15.75" customHeight="1" s="191"/>
-    <row r="405" ht="15.75" customHeight="1" s="191"/>
-    <row r="406" ht="15.75" customHeight="1" s="191"/>
-    <row r="407" ht="15.75" customHeight="1" s="191"/>
-    <row r="408" ht="15.75" customHeight="1" s="191"/>
-    <row r="409" ht="15.75" customHeight="1" s="191"/>
-    <row r="410" ht="15.75" customHeight="1" s="191"/>
-    <row r="411" ht="15.75" customHeight="1" s="191"/>
-    <row r="412" ht="15.75" customHeight="1" s="191"/>
-    <row r="413" ht="15.75" customHeight="1" s="191"/>
-    <row r="414" ht="15.75" customHeight="1" s="191"/>
-    <row r="415" ht="15.75" customHeight="1" s="191"/>
-    <row r="416" ht="15.75" customHeight="1" s="191"/>
-    <row r="417" ht="15.75" customHeight="1" s="191"/>
-    <row r="418" ht="15.75" customHeight="1" s="191"/>
-    <row r="419" ht="15.75" customHeight="1" s="191"/>
-    <row r="420" ht="15.75" customHeight="1" s="191"/>
-    <row r="421" ht="15.75" customHeight="1" s="191"/>
-    <row r="422" ht="15.75" customHeight="1" s="191"/>
-    <row r="423" ht="15.75" customHeight="1" s="191"/>
-    <row r="424" ht="15.75" customHeight="1" s="191"/>
-    <row r="425" ht="15.75" customHeight="1" s="191"/>
-    <row r="426" ht="15.75" customHeight="1" s="191"/>
-    <row r="427" ht="15.75" customHeight="1" s="191"/>
-    <row r="428" ht="15.75" customHeight="1" s="191"/>
-    <row r="429" ht="15.75" customHeight="1" s="191"/>
-    <row r="430" ht="15.75" customHeight="1" s="191"/>
-    <row r="431" ht="15.75" customHeight="1" s="191"/>
-    <row r="432" ht="15.75" customHeight="1" s="191"/>
-    <row r="433" ht="15.75" customHeight="1" s="191"/>
-    <row r="434" ht="15.75" customHeight="1" s="191"/>
-    <row r="435" ht="15.75" customHeight="1" s="191"/>
-    <row r="436" ht="15.75" customHeight="1" s="191"/>
-    <row r="437" ht="15.75" customHeight="1" s="191"/>
-    <row r="438" ht="15.75" customHeight="1" s="191"/>
-    <row r="439" ht="15.75" customHeight="1" s="191"/>
-    <row r="440" ht="15.75" customHeight="1" s="191"/>
-    <row r="441" ht="15.75" customHeight="1" s="191"/>
-    <row r="442" ht="15.75" customHeight="1" s="191"/>
-    <row r="443" ht="15.75" customHeight="1" s="191"/>
-    <row r="444" ht="15.75" customHeight="1" s="191"/>
-    <row r="445" ht="15.75" customHeight="1" s="191"/>
-    <row r="446" ht="15.75" customHeight="1" s="191"/>
-    <row r="447" ht="15.75" customHeight="1" s="191"/>
-    <row r="448" ht="15.75" customHeight="1" s="191"/>
-    <row r="449" ht="15.75" customHeight="1" s="191"/>
-    <row r="450" ht="15.75" customHeight="1" s="191"/>
-    <row r="451" ht="15.75" customHeight="1" s="191"/>
-    <row r="452" ht="15.75" customHeight="1" s="191"/>
-    <row r="453" ht="15.75" customHeight="1" s="191"/>
-    <row r="454" ht="15.75" customHeight="1" s="191"/>
-    <row r="455" ht="15.75" customHeight="1" s="191"/>
-    <row r="456" ht="15.75" customHeight="1" s="191"/>
-    <row r="457" ht="15.75" customHeight="1" s="191"/>
-    <row r="458" ht="15.75" customHeight="1" s="191"/>
-    <row r="459" ht="15.75" customHeight="1" s="191"/>
-    <row r="460" ht="15.75" customHeight="1" s="191"/>
-    <row r="461" ht="15.75" customHeight="1" s="191"/>
-    <row r="462" ht="15.75" customHeight="1" s="191"/>
-    <row r="463" ht="15.75" customHeight="1" s="191"/>
-    <row r="464" ht="15.75" customHeight="1" s="191"/>
-    <row r="465" ht="15.75" customHeight="1" s="191"/>
-    <row r="466" ht="15.75" customHeight="1" s="191"/>
-    <row r="467" ht="15.75" customHeight="1" s="191"/>
-    <row r="468" ht="15.75" customHeight="1" s="191"/>
-    <row r="469" ht="15.75" customHeight="1" s="191"/>
-    <row r="470" ht="15.75" customHeight="1" s="191"/>
-    <row r="471" ht="15.75" customHeight="1" s="191"/>
-    <row r="472" ht="15.75" customHeight="1" s="191"/>
-    <row r="473" ht="15.75" customHeight="1" s="191"/>
-    <row r="474" ht="15.75" customHeight="1" s="191"/>
-    <row r="475" ht="15.75" customHeight="1" s="191"/>
-    <row r="476" ht="15.75" customHeight="1" s="191"/>
-    <row r="477" ht="15.75" customHeight="1" s="191"/>
-    <row r="478" ht="15.75" customHeight="1" s="191"/>
-    <row r="479" ht="15.75" customHeight="1" s="191"/>
-    <row r="480" ht="15.75" customHeight="1" s="191"/>
-    <row r="481" ht="15.75" customHeight="1" s="191"/>
-    <row r="482" ht="15.75" customHeight="1" s="191"/>
-    <row r="483" ht="15.75" customHeight="1" s="191"/>
-    <row r="484" ht="15.75" customHeight="1" s="191"/>
-    <row r="485" ht="15.75" customHeight="1" s="191"/>
-    <row r="486" ht="15.75" customHeight="1" s="191"/>
-    <row r="487" ht="15.75" customHeight="1" s="191"/>
-    <row r="488" ht="15.75" customHeight="1" s="191"/>
-    <row r="489" ht="15.75" customHeight="1" s="191"/>
-    <row r="490" ht="15.75" customHeight="1" s="191"/>
-    <row r="491" ht="15.75" customHeight="1" s="191"/>
-    <row r="492" ht="15.75" customHeight="1" s="191"/>
-    <row r="493" ht="15.75" customHeight="1" s="191"/>
-    <row r="494" ht="15.75" customHeight="1" s="191"/>
-    <row r="495" ht="15.75" customHeight="1" s="191"/>
-    <row r="496" ht="15.75" customHeight="1" s="191"/>
-    <row r="497" ht="15.75" customHeight="1" s="191"/>
-    <row r="498" ht="15.75" customHeight="1" s="191"/>
-    <row r="499" ht="15.75" customHeight="1" s="191"/>
-    <row r="500" ht="15.75" customHeight="1" s="191"/>
-    <row r="501" ht="15.75" customHeight="1" s="191"/>
-    <row r="502" ht="15.75" customHeight="1" s="191"/>
-    <row r="503" ht="15.75" customHeight="1" s="191"/>
-    <row r="504" ht="15.75" customHeight="1" s="191"/>
-    <row r="505" ht="15.75" customHeight="1" s="191"/>
-    <row r="506" ht="15.75" customHeight="1" s="191"/>
-    <row r="507" ht="15.75" customHeight="1" s="191"/>
-    <row r="508" ht="15.75" customHeight="1" s="191"/>
-    <row r="509" ht="15.75" customHeight="1" s="191"/>
-    <row r="510" ht="15.75" customHeight="1" s="191"/>
-    <row r="511" ht="15.75" customHeight="1" s="191"/>
-    <row r="512" ht="15.75" customHeight="1" s="191"/>
-    <row r="513" ht="15.75" customHeight="1" s="191"/>
-    <row r="514" ht="15.75" customHeight="1" s="191"/>
-    <row r="515" ht="15.75" customHeight="1" s="191"/>
-    <row r="516" ht="15.75" customHeight="1" s="191"/>
-    <row r="517" ht="15.75" customHeight="1" s="191"/>
-    <row r="518" ht="15.75" customHeight="1" s="191"/>
-    <row r="519" ht="15.75" customHeight="1" s="191"/>
-    <row r="520" ht="15.75" customHeight="1" s="191"/>
-    <row r="521" ht="15.75" customHeight="1" s="191"/>
-    <row r="522" ht="15.75" customHeight="1" s="191"/>
-    <row r="523" ht="15.75" customHeight="1" s="191"/>
-    <row r="524" ht="15.75" customHeight="1" s="191"/>
-    <row r="525" ht="15.75" customHeight="1" s="191"/>
-    <row r="526" ht="15.75" customHeight="1" s="191"/>
-    <row r="527" ht="15.75" customHeight="1" s="191"/>
-    <row r="528" ht="15.75" customHeight="1" s="191"/>
-    <row r="529" ht="15.75" customHeight="1" s="191"/>
-    <row r="530" ht="15.75" customHeight="1" s="191"/>
-    <row r="531" ht="15.75" customHeight="1" s="191"/>
-    <row r="532" ht="15.75" customHeight="1" s="191"/>
-    <row r="533" ht="15.75" customHeight="1" s="191"/>
-    <row r="534" ht="15.75" customHeight="1" s="191"/>
-    <row r="535" ht="15.75" customHeight="1" s="191"/>
-    <row r="536" ht="15.75" customHeight="1" s="191"/>
-    <row r="537" ht="15.75" customHeight="1" s="191"/>
-    <row r="538" ht="15.75" customHeight="1" s="191"/>
-    <row r="539" ht="15.75" customHeight="1" s="191"/>
-    <row r="540" ht="15.75" customHeight="1" s="191"/>
-    <row r="541" ht="15.75" customHeight="1" s="191"/>
-    <row r="542" ht="15.75" customHeight="1" s="191"/>
-    <row r="543" ht="15.75" customHeight="1" s="191"/>
-    <row r="544" ht="15.75" customHeight="1" s="191"/>
-    <row r="545" ht="15.75" customHeight="1" s="191"/>
-    <row r="546" ht="15.75" customHeight="1" s="191"/>
-    <row r="547" ht="15.75" customHeight="1" s="191"/>
-    <row r="548" ht="15.75" customHeight="1" s="191"/>
-    <row r="549" ht="15.75" customHeight="1" s="191"/>
-    <row r="550" ht="15.75" customHeight="1" s="191"/>
-    <row r="551" ht="15.75" customHeight="1" s="191"/>
-    <row r="552" ht="15.75" customHeight="1" s="191"/>
-    <row r="553" ht="15.75" customHeight="1" s="191"/>
-    <row r="554" ht="15.75" customHeight="1" s="191"/>
-    <row r="555" ht="15.75" customHeight="1" s="191"/>
-    <row r="556" ht="15.75" customHeight="1" s="191"/>
-    <row r="557" ht="15.75" customHeight="1" s="191"/>
-    <row r="558" ht="15.75" customHeight="1" s="191"/>
-    <row r="559" ht="15.75" customHeight="1" s="191"/>
-    <row r="560" ht="15.75" customHeight="1" s="191"/>
-    <row r="561" ht="15.75" customHeight="1" s="191"/>
-    <row r="562" ht="15.75" customHeight="1" s="191"/>
-    <row r="563" ht="15.75" customHeight="1" s="191"/>
-    <row r="564" ht="15.75" customHeight="1" s="191"/>
-    <row r="565" ht="15.75" customHeight="1" s="191"/>
-    <row r="566" ht="15.75" customHeight="1" s="191"/>
-    <row r="567" ht="15.75" customHeight="1" s="191"/>
-    <row r="568" ht="15.75" customHeight="1" s="191"/>
-    <row r="569" ht="15.75" customHeight="1" s="191"/>
-    <row r="570" ht="15.75" customHeight="1" s="191"/>
-    <row r="571" ht="15.75" customHeight="1" s="191"/>
-    <row r="572" ht="15.75" customHeight="1" s="191"/>
-    <row r="573" ht="15.75" customHeight="1" s="191"/>
-    <row r="574" ht="15.75" customHeight="1" s="191"/>
-    <row r="575" ht="15.75" customHeight="1" s="191"/>
-    <row r="576" ht="15.75" customHeight="1" s="191"/>
-    <row r="577" ht="15.75" customHeight="1" s="191"/>
-    <row r="578" ht="15.75" customHeight="1" s="191"/>
-    <row r="579" ht="15.75" customHeight="1" s="191"/>
-    <row r="580" ht="15.75" customHeight="1" s="191"/>
-    <row r="581" ht="15.75" customHeight="1" s="191"/>
-    <row r="582" ht="15.75" customHeight="1" s="191"/>
-    <row r="583" ht="15.75" customHeight="1" s="191"/>
-    <row r="584" ht="15.75" customHeight="1" s="191"/>
-    <row r="585" ht="15.75" customHeight="1" s="191"/>
-    <row r="586" ht="15.75" customHeight="1" s="191"/>
-    <row r="587" ht="15.75" customHeight="1" s="191"/>
-    <row r="588" ht="15.75" customHeight="1" s="191"/>
-    <row r="589" ht="15.75" customHeight="1" s="191"/>
-    <row r="590" ht="15.75" customHeight="1" s="191"/>
-    <row r="591" ht="15.75" customHeight="1" s="191"/>
-    <row r="592" ht="15.75" customHeight="1" s="191"/>
-    <row r="593" ht="15.75" customHeight="1" s="191"/>
-    <row r="594" ht="15.75" customHeight="1" s="191"/>
-    <row r="595" ht="15.75" customHeight="1" s="191"/>
-    <row r="596" ht="15.75" customHeight="1" s="191"/>
-    <row r="597" ht="15.75" customHeight="1" s="191"/>
-    <row r="598" ht="15.75" customHeight="1" s="191"/>
-    <row r="599" ht="15.75" customHeight="1" s="191"/>
-    <row r="600" ht="15.75" customHeight="1" s="191"/>
-    <row r="601" ht="15.75" customHeight="1" s="191"/>
-    <row r="602" ht="15.75" customHeight="1" s="191"/>
-    <row r="603" ht="15.75" customHeight="1" s="191"/>
-    <row r="604" ht="15.75" customHeight="1" s="191"/>
-    <row r="605" ht="15.75" customHeight="1" s="191"/>
-    <row r="606" ht="15.75" customHeight="1" s="191"/>
-    <row r="607" ht="15.75" customHeight="1" s="191"/>
-    <row r="608" ht="15.75" customHeight="1" s="191"/>
-    <row r="609" ht="15.75" customHeight="1" s="191"/>
-    <row r="610" ht="15.75" customHeight="1" s="191"/>
-    <row r="611" ht="15.75" customHeight="1" s="191"/>
-    <row r="612" ht="15.75" customHeight="1" s="191"/>
-    <row r="613" ht="15.75" customHeight="1" s="191"/>
-    <row r="614" ht="15.75" customHeight="1" s="191"/>
-    <row r="615" ht="15.75" customHeight="1" s="191"/>
-    <row r="616" ht="15.75" customHeight="1" s="191"/>
-    <row r="617" ht="15.75" customHeight="1" s="191"/>
-    <row r="618" ht="15.75" customHeight="1" s="191"/>
-    <row r="619" ht="15.75" customHeight="1" s="191"/>
-    <row r="620" ht="15.75" customHeight="1" s="191"/>
-    <row r="621" ht="15.75" customHeight="1" s="191"/>
-    <row r="622" ht="15.75" customHeight="1" s="191"/>
-    <row r="623" ht="15.75" customHeight="1" s="191"/>
-    <row r="624" ht="15.75" customHeight="1" s="191"/>
-    <row r="625" ht="15.75" customHeight="1" s="191"/>
-    <row r="626" ht="15.75" customHeight="1" s="191"/>
-    <row r="627" ht="15.75" customHeight="1" s="191"/>
-    <row r="628" ht="15.75" customHeight="1" s="191"/>
-    <row r="629" ht="15.75" customHeight="1" s="191"/>
-    <row r="630" ht="15.75" customHeight="1" s="191"/>
-    <row r="631" ht="15.75" customHeight="1" s="191"/>
-    <row r="632" ht="15.75" customHeight="1" s="191"/>
-    <row r="633" ht="15.75" customHeight="1" s="191"/>
-    <row r="634" ht="15.75" customHeight="1" s="191"/>
-    <row r="635" ht="15.75" customHeight="1" s="191"/>
-    <row r="636" ht="15.75" customHeight="1" s="191"/>
-    <row r="637" ht="15.75" customHeight="1" s="191"/>
-    <row r="638" ht="15.75" customHeight="1" s="191"/>
-    <row r="639" ht="15.75" customHeight="1" s="191"/>
-    <row r="640" ht="15.75" customHeight="1" s="191"/>
-    <row r="641" ht="15.75" customHeight="1" s="191"/>
-    <row r="642" ht="15.75" customHeight="1" s="191"/>
-    <row r="643" ht="15.75" customHeight="1" s="191"/>
-    <row r="644" ht="15.75" customHeight="1" s="191"/>
-    <row r="645" ht="15.75" customHeight="1" s="191"/>
-    <row r="646" ht="15.75" customHeight="1" s="191"/>
-    <row r="647" ht="15.75" customHeight="1" s="191"/>
-    <row r="648" ht="15.75" customHeight="1" s="191"/>
-    <row r="649" ht="15.75" customHeight="1" s="191"/>
-    <row r="650" ht="15.75" customHeight="1" s="191"/>
-    <row r="651" ht="15.75" customHeight="1" s="191"/>
-    <row r="652" ht="15.75" customHeight="1" s="191"/>
-    <row r="653" ht="15.75" customHeight="1" s="191"/>
-    <row r="654" ht="15.75" customHeight="1" s="191"/>
-    <row r="655" ht="15.75" customHeight="1" s="191"/>
-    <row r="656" ht="15.75" customHeight="1" s="191"/>
-    <row r="657" ht="15.75" customHeight="1" s="191"/>
-    <row r="658" ht="15.75" customHeight="1" s="191"/>
-    <row r="659" ht="15.75" customHeight="1" s="191"/>
-    <row r="660" ht="15.75" customHeight="1" s="191"/>
-    <row r="661" ht="15.75" customHeight="1" s="191"/>
-    <row r="662" ht="15.75" customHeight="1" s="191"/>
-    <row r="663" ht="15.75" customHeight="1" s="191"/>
-    <row r="664" ht="15.75" customHeight="1" s="191"/>
-    <row r="665" ht="15.75" customHeight="1" s="191"/>
-    <row r="666" ht="15.75" customHeight="1" s="191"/>
-    <row r="667" ht="15.75" customHeight="1" s="191"/>
-    <row r="668" ht="15.75" customHeight="1" s="191"/>
-    <row r="669" ht="15.75" customHeight="1" s="191"/>
-    <row r="670" ht="15.75" customHeight="1" s="191"/>
-    <row r="671" ht="15.75" customHeight="1" s="191"/>
-    <row r="672" ht="15.75" customHeight="1" s="191"/>
-    <row r="673" ht="15.75" customHeight="1" s="191"/>
-    <row r="674" ht="15.75" customHeight="1" s="191"/>
-    <row r="675" ht="15.75" customHeight="1" s="191"/>
-    <row r="676" ht="15.75" customHeight="1" s="191"/>
-    <row r="677" ht="15.75" customHeight="1" s="191"/>
-    <row r="678" ht="15.75" customHeight="1" s="191"/>
-    <row r="679" ht="15.75" customHeight="1" s="191"/>
-    <row r="680" ht="15.75" customHeight="1" s="191"/>
-    <row r="681" ht="15.75" customHeight="1" s="191"/>
-    <row r="682" ht="15.75" customHeight="1" s="191"/>
-    <row r="683" ht="15.75" customHeight="1" s="191"/>
-    <row r="684" ht="15.75" customHeight="1" s="191"/>
-    <row r="685" ht="15.75" customHeight="1" s="191"/>
-    <row r="686" ht="15.75" customHeight="1" s="191"/>
-    <row r="687" ht="15.75" customHeight="1" s="191"/>
-    <row r="688" ht="15.75" customHeight="1" s="191"/>
-    <row r="689" ht="15.75" customHeight="1" s="191"/>
-    <row r="690" ht="15.75" customHeight="1" s="191"/>
-    <row r="691" ht="15.75" customHeight="1" s="191"/>
-    <row r="692" ht="15.75" customHeight="1" s="191"/>
-    <row r="693" ht="15.75" customHeight="1" s="191"/>
-    <row r="694" ht="15.75" customHeight="1" s="191"/>
-    <row r="695" ht="15.75" customHeight="1" s="191"/>
-    <row r="696" ht="15.75" customHeight="1" s="191"/>
-    <row r="697" ht="15.75" customHeight="1" s="191"/>
-    <row r="698" ht="15.75" customHeight="1" s="191"/>
-    <row r="699" ht="15.75" customHeight="1" s="191"/>
-    <row r="700" ht="15.75" customHeight="1" s="191"/>
-    <row r="701" ht="15.75" customHeight="1" s="191"/>
-    <row r="702" ht="15.75" customHeight="1" s="191"/>
-    <row r="703" ht="15.75" customHeight="1" s="191"/>
-    <row r="704" ht="15.75" customHeight="1" s="191"/>
-    <row r="705" ht="15.75" customHeight="1" s="191"/>
-    <row r="706" ht="15.75" customHeight="1" s="191"/>
-    <row r="707" ht="15.75" customHeight="1" s="191"/>
-    <row r="708" ht="15.75" customHeight="1" s="191"/>
-    <row r="709" ht="15.75" customHeight="1" s="191"/>
-    <row r="710" ht="15.75" customHeight="1" s="191"/>
-    <row r="711" ht="15.75" customHeight="1" s="191"/>
-    <row r="712" ht="15.75" customHeight="1" s="191"/>
-    <row r="713" ht="15.75" customHeight="1" s="191"/>
-    <row r="714" ht="15.75" customHeight="1" s="191"/>
-    <row r="715" ht="15.75" customHeight="1" s="191"/>
-    <row r="716" ht="15.75" customHeight="1" s="191"/>
-    <row r="717" ht="15.75" customHeight="1" s="191"/>
-    <row r="718" ht="15.75" customHeight="1" s="191"/>
-    <row r="719" ht="15.75" customHeight="1" s="191"/>
-    <row r="720" ht="15.75" customHeight="1" s="191"/>
-    <row r="721" ht="15.75" customHeight="1" s="191"/>
-    <row r="722" ht="15.75" customHeight="1" s="191"/>
-    <row r="723" ht="15.75" customHeight="1" s="191"/>
-    <row r="724" ht="15.75" customHeight="1" s="191"/>
-    <row r="725" ht="15.75" customHeight="1" s="191"/>
-    <row r="726" ht="15.75" customHeight="1" s="191"/>
-    <row r="727" ht="15.75" customHeight="1" s="191"/>
-    <row r="728" ht="15.75" customHeight="1" s="191"/>
-    <row r="729" ht="15.75" customHeight="1" s="191"/>
-    <row r="730" ht="15.75" customHeight="1" s="191"/>
-    <row r="731" ht="15.75" customHeight="1" s="191"/>
-    <row r="732" ht="15.75" customHeight="1" s="191"/>
-    <row r="733" ht="15.75" customHeight="1" s="191"/>
-    <row r="734" ht="15.75" customHeight="1" s="191"/>
-    <row r="735" ht="15.75" customHeight="1" s="191"/>
-    <row r="736" ht="15.75" customHeight="1" s="191"/>
-    <row r="737" ht="15.75" customHeight="1" s="191"/>
-    <row r="738" ht="15.75" customHeight="1" s="191"/>
-    <row r="739" ht="15.75" customHeight="1" s="191"/>
-    <row r="740" ht="15.75" customHeight="1" s="191"/>
-    <row r="741" ht="15.75" customHeight="1" s="191"/>
-    <row r="742" ht="15.75" customHeight="1" s="191"/>
-    <row r="743" ht="15.75" customHeight="1" s="191"/>
-    <row r="744" ht="15.75" customHeight="1" s="191"/>
-    <row r="745" ht="15.75" customHeight="1" s="191"/>
-    <row r="746" ht="15.75" customHeight="1" s="191"/>
-    <row r="747" ht="15.75" customHeight="1" s="191"/>
-    <row r="748" ht="15.75" customHeight="1" s="191"/>
-    <row r="749" ht="15.75" customHeight="1" s="191"/>
-    <row r="750" ht="15.75" customHeight="1" s="191"/>
-    <row r="751" ht="15.75" customHeight="1" s="191"/>
-    <row r="752" ht="15.75" customHeight="1" s="191"/>
-    <row r="753" ht="15.75" customHeight="1" s="191"/>
-    <row r="754" ht="15.75" customHeight="1" s="191"/>
-    <row r="755" ht="15.75" customHeight="1" s="191"/>
-    <row r="756" ht="15.75" customHeight="1" s="191"/>
-    <row r="757" ht="15.75" customHeight="1" s="191"/>
-    <row r="758" ht="15.75" customHeight="1" s="191"/>
-    <row r="759" ht="15.75" customHeight="1" s="191"/>
-    <row r="760" ht="15.75" customHeight="1" s="191"/>
-    <row r="761" ht="15.75" customHeight="1" s="191"/>
-    <row r="762" ht="15.75" customHeight="1" s="191"/>
-    <row r="763" ht="15.75" customHeight="1" s="191"/>
-    <row r="764" ht="15.75" customHeight="1" s="191"/>
-    <row r="765" ht="15.75" customHeight="1" s="191"/>
-    <row r="766" ht="15.75" customHeight="1" s="191"/>
-    <row r="767" ht="15.75" customHeight="1" s="191"/>
-    <row r="768" ht="15.75" customHeight="1" s="191"/>
-    <row r="769" ht="15.75" customHeight="1" s="191"/>
-    <row r="770" ht="15.75" customHeight="1" s="191"/>
-    <row r="771" ht="15.75" customHeight="1" s="191"/>
-    <row r="772" ht="15.75" customHeight="1" s="191"/>
-    <row r="773" ht="15.75" customHeight="1" s="191"/>
-    <row r="774" ht="15.75" customHeight="1" s="191"/>
-    <row r="775" ht="15.75" customHeight="1" s="191"/>
-    <row r="776" ht="15.75" customHeight="1" s="191"/>
-    <row r="777" ht="15.75" customHeight="1" s="191"/>
-    <row r="778" ht="15.75" customHeight="1" s="191"/>
-    <row r="779" ht="15.75" customHeight="1" s="191"/>
-    <row r="780" ht="15.75" customHeight="1" s="191"/>
-    <row r="781" ht="15.75" customHeight="1" s="191"/>
-    <row r="782" ht="15.75" customHeight="1" s="191"/>
-    <row r="783" ht="15.75" customHeight="1" s="191"/>
-    <row r="784" ht="15.75" customHeight="1" s="191"/>
-    <row r="785" ht="15.75" customHeight="1" s="191"/>
-    <row r="786" ht="15.75" customHeight="1" s="191"/>
-    <row r="787" ht="15.75" customHeight="1" s="191"/>
-    <row r="788" ht="15.75" customHeight="1" s="191"/>
-    <row r="789" ht="15.75" customHeight="1" s="191"/>
-    <row r="790" ht="15.75" customHeight="1" s="191"/>
-    <row r="791" ht="15.75" customHeight="1" s="191"/>
-    <row r="792" ht="15.75" customHeight="1" s="191"/>
-    <row r="793" ht="15.75" customHeight="1" s="191"/>
-    <row r="794" ht="15.75" customHeight="1" s="191"/>
-    <row r="795" ht="15.75" customHeight="1" s="191"/>
-    <row r="796" ht="15.75" customHeight="1" s="191"/>
-    <row r="797" ht="15.75" customHeight="1" s="191"/>
-    <row r="798" ht="15.75" customHeight="1" s="191"/>
-    <row r="799" ht="15.75" customHeight="1" s="191"/>
-    <row r="800" ht="15.75" customHeight="1" s="191"/>
-    <row r="801" ht="15.75" customHeight="1" s="191"/>
-    <row r="802" ht="15.75" customHeight="1" s="191"/>
-    <row r="803" ht="15.75" customHeight="1" s="191"/>
-    <row r="804" ht="15.75" customHeight="1" s="191"/>
-    <row r="805" ht="15.75" customHeight="1" s="191"/>
-    <row r="806" ht="15.75" customHeight="1" s="191"/>
-    <row r="807" ht="15.75" customHeight="1" s="191"/>
-    <row r="808" ht="15.75" customHeight="1" s="191"/>
-    <row r="809" ht="15.75" customHeight="1" s="191"/>
-    <row r="810" ht="15.75" customHeight="1" s="191"/>
-    <row r="811" ht="15.75" customHeight="1" s="191"/>
-    <row r="812" ht="15.75" customHeight="1" s="191"/>
-    <row r="813" ht="15.75" customHeight="1" s="191"/>
-    <row r="814" ht="15.75" customHeight="1" s="191"/>
-    <row r="815" ht="15.75" customHeight="1" s="191"/>
-    <row r="816" ht="15.75" customHeight="1" s="191"/>
-    <row r="817" ht="15.75" customHeight="1" s="191"/>
-    <row r="818" ht="15.75" customHeight="1" s="191"/>
-    <row r="819" ht="15.75" customHeight="1" s="191"/>
-    <row r="820" ht="15.75" customHeight="1" s="191"/>
-    <row r="821" ht="15.75" customHeight="1" s="191"/>
-    <row r="822" ht="15.75" customHeight="1" s="191"/>
-    <row r="823" ht="15.75" customHeight="1" s="191"/>
-    <row r="824" ht="15.75" customHeight="1" s="191"/>
-    <row r="825" ht="15.75" customHeight="1" s="191"/>
-    <row r="826" ht="15.75" customHeight="1" s="191"/>
-    <row r="827" ht="15.75" customHeight="1" s="191"/>
-    <row r="828" ht="15.75" customHeight="1" s="191"/>
-    <row r="829" ht="15.75" customHeight="1" s="191"/>
-    <row r="830" ht="15.75" customHeight="1" s="191"/>
-    <row r="831" ht="15.75" customHeight="1" s="191"/>
-    <row r="832" ht="15.75" customHeight="1" s="191"/>
-    <row r="833" ht="15.75" customHeight="1" s="191"/>
-    <row r="834" ht="15.75" customHeight="1" s="191"/>
-    <row r="835" ht="15.75" customHeight="1" s="191"/>
-    <row r="836" ht="15.75" customHeight="1" s="191"/>
-    <row r="837" ht="15.75" customHeight="1" s="191"/>
-    <row r="838" ht="15.75" customHeight="1" s="191"/>
-    <row r="839" ht="15.75" customHeight="1" s="191"/>
-    <row r="840" ht="15.75" customHeight="1" s="191"/>
-    <row r="841" ht="15.75" customHeight="1" s="191"/>
-    <row r="842" ht="15.75" customHeight="1" s="191"/>
-    <row r="843" ht="15.75" customHeight="1" s="191"/>
-    <row r="844" ht="15.75" customHeight="1" s="191"/>
-    <row r="845" ht="15.75" customHeight="1" s="191"/>
-    <row r="846" ht="15.75" customHeight="1" s="191"/>
-    <row r="847" ht="15.75" customHeight="1" s="191"/>
-    <row r="848" ht="15.75" customHeight="1" s="191"/>
-    <row r="849" ht="15.75" customHeight="1" s="191"/>
-    <row r="850" ht="15.75" customHeight="1" s="191"/>
-    <row r="851" ht="15.75" customHeight="1" s="191"/>
-    <row r="852" ht="15.75" customHeight="1" s="191"/>
-    <row r="853" ht="15.75" customHeight="1" s="191"/>
-    <row r="854" ht="15.75" customHeight="1" s="191"/>
-    <row r="855" ht="15.75" customHeight="1" s="191"/>
-    <row r="856" ht="15.75" customHeight="1" s="191"/>
-    <row r="857" ht="15.75" customHeight="1" s="191"/>
-    <row r="858" ht="15.75" customHeight="1" s="191"/>
-    <row r="859" ht="15.75" customHeight="1" s="191"/>
-    <row r="860" ht="15.75" customHeight="1" s="191"/>
-    <row r="861" ht="15.75" customHeight="1" s="191"/>
-    <row r="862" ht="15.75" customHeight="1" s="191"/>
-    <row r="863" ht="15.75" customHeight="1" s="191"/>
-    <row r="864" ht="15.75" customHeight="1" s="191"/>
-    <row r="865" ht="15.75" customHeight="1" s="191"/>
-    <row r="866" ht="15.75" customHeight="1" s="191"/>
-    <row r="867" ht="15.75" customHeight="1" s="191"/>
-    <row r="868" ht="15.75" customHeight="1" s="191"/>
-    <row r="869" ht="15.75" customHeight="1" s="191"/>
-    <row r="870" ht="15.75" customHeight="1" s="191"/>
-    <row r="871" ht="15.75" customHeight="1" s="191"/>
-    <row r="872" ht="15.75" customHeight="1" s="191"/>
-    <row r="873" ht="15.75" customHeight="1" s="191"/>
-    <row r="874" ht="15.75" customHeight="1" s="191"/>
-    <row r="875" ht="15.75" customHeight="1" s="191"/>
-    <row r="876" ht="15.75" customHeight="1" s="191"/>
-    <row r="877" ht="15.75" customHeight="1" s="191"/>
-    <row r="878" ht="15.75" customHeight="1" s="191"/>
-    <row r="879" ht="15.75" customHeight="1" s="191"/>
-    <row r="880" ht="15.75" customHeight="1" s="191"/>
-    <row r="881" ht="15.75" customHeight="1" s="191"/>
-    <row r="882" ht="15.75" customHeight="1" s="191"/>
-    <row r="883" ht="15.75" customHeight="1" s="191"/>
-    <row r="884" ht="15.75" customHeight="1" s="191"/>
-    <row r="885" ht="15.75" customHeight="1" s="191"/>
-    <row r="886" ht="15.75" customHeight="1" s="191"/>
-    <row r="887" ht="15.75" customHeight="1" s="191"/>
-    <row r="888" ht="15.75" customHeight="1" s="191"/>
-    <row r="889" ht="15.75" customHeight="1" s="191"/>
-    <row r="890" ht="15.75" customHeight="1" s="191"/>
-    <row r="891" ht="15.75" customHeight="1" s="191"/>
-    <row r="892" ht="15.75" customHeight="1" s="191"/>
-    <row r="893" ht="15.75" customHeight="1" s="191"/>
-    <row r="894" ht="15.75" customHeight="1" s="191"/>
-    <row r="895" ht="15.75" customHeight="1" s="191"/>
-    <row r="896" ht="15.75" customHeight="1" s="191"/>
-    <row r="897" ht="15.75" customHeight="1" s="191"/>
-    <row r="898" ht="15.75" customHeight="1" s="191"/>
-    <row r="899" ht="15.75" customHeight="1" s="191"/>
-    <row r="900" ht="15.75" customHeight="1" s="191"/>
-    <row r="901" ht="15.75" customHeight="1" s="191"/>
-    <row r="902" ht="15.75" customHeight="1" s="191"/>
-    <row r="903" ht="15.75" customHeight="1" s="191"/>
-    <row r="904" ht="15.75" customHeight="1" s="191"/>
-    <row r="905" ht="15.75" customHeight="1" s="191"/>
-    <row r="906" ht="15.75" customHeight="1" s="191"/>
-    <row r="907" ht="15.75" customHeight="1" s="191"/>
-    <row r="908" ht="15.75" customHeight="1" s="191"/>
-    <row r="909" ht="15.75" customHeight="1" s="191"/>
-    <row r="910" ht="15.75" customHeight="1" s="191"/>
-    <row r="911" ht="15.75" customHeight="1" s="191"/>
-    <row r="912" ht="15.75" customHeight="1" s="191"/>
-    <row r="913" ht="15.75" customHeight="1" s="191"/>
-    <row r="914" ht="15.75" customHeight="1" s="191"/>
-    <row r="915" ht="15.75" customHeight="1" s="191"/>
-    <row r="916" ht="15.75" customHeight="1" s="191"/>
-    <row r="917" ht="15.75" customHeight="1" s="191"/>
-    <row r="918" ht="15.75" customHeight="1" s="191"/>
-    <row r="919" ht="15.75" customHeight="1" s="191"/>
-    <row r="920" ht="15.75" customHeight="1" s="191"/>
-    <row r="921" ht="15.75" customHeight="1" s="191"/>
-    <row r="922" ht="15.75" customHeight="1" s="191"/>
-    <row r="923" ht="15.75" customHeight="1" s="191"/>
-    <row r="924" ht="15.75" customHeight="1" s="191"/>
-    <row r="925" ht="15.75" customHeight="1" s="191"/>
-    <row r="926" ht="15.75" customHeight="1" s="191"/>
-    <row r="927" ht="15.75" customHeight="1" s="191"/>
-    <row r="928" ht="15.75" customHeight="1" s="191"/>
-    <row r="929" ht="15.75" customHeight="1" s="191"/>
-    <row r="930" ht="15.75" customHeight="1" s="191"/>
-    <row r="931" ht="15.75" customHeight="1" s="191"/>
-    <row r="932" ht="15.75" customHeight="1" s="191"/>
-    <row r="933" ht="15.75" customHeight="1" s="191"/>
-    <row r="934" ht="15.75" customHeight="1" s="191"/>
-    <row r="935" ht="15.75" customHeight="1" s="191"/>
-    <row r="936" ht="15.75" customHeight="1" s="191"/>
-    <row r="937" ht="15.75" customHeight="1" s="191"/>
-    <row r="938" ht="15.75" customHeight="1" s="191"/>
-    <row r="939" ht="15.75" customHeight="1" s="191"/>
-    <row r="940" ht="15.75" customHeight="1" s="191"/>
-    <row r="941" ht="15.75" customHeight="1" s="191"/>
-    <row r="942" ht="15.75" customHeight="1" s="191"/>
-    <row r="943" ht="15.75" customHeight="1" s="191"/>
-    <row r="944" ht="15.75" customHeight="1" s="191"/>
-    <row r="945" ht="15.75" customHeight="1" s="191"/>
-    <row r="946" ht="15.75" customHeight="1" s="191"/>
-    <row r="947" ht="15.75" customHeight="1" s="191"/>
-    <row r="948" ht="15.75" customHeight="1" s="191"/>
-    <row r="949" ht="15.75" customHeight="1" s="191"/>
-    <row r="950" ht="15.75" customHeight="1" s="191"/>
-    <row r="951" ht="15.75" customHeight="1" s="191"/>
-    <row r="952" ht="15.75" customHeight="1" s="191"/>
-    <row r="953" ht="15.75" customHeight="1" s="191"/>
-    <row r="954" ht="15.75" customHeight="1" s="191"/>
-    <row r="955" ht="15.75" customHeight="1" s="191"/>
-    <row r="956" ht="15.75" customHeight="1" s="191"/>
-    <row r="957" ht="15.75" customHeight="1" s="191"/>
-    <row r="958" ht="15.75" customHeight="1" s="191"/>
-    <row r="959" ht="15.75" customHeight="1" s="191"/>
-    <row r="960" ht="15.75" customHeight="1" s="191"/>
-    <row r="961" ht="15.75" customHeight="1" s="191"/>
-    <row r="962" ht="15.75" customHeight="1" s="191"/>
-    <row r="963" ht="15.75" customHeight="1" s="191"/>
-    <row r="964" ht="15.75" customHeight="1" s="191"/>
-    <row r="965" ht="15.75" customHeight="1" s="191"/>
-    <row r="966" ht="15.75" customHeight="1" s="191"/>
-    <row r="967" ht="15.75" customHeight="1" s="191"/>
-    <row r="968" ht="15.75" customHeight="1" s="191"/>
-    <row r="969" ht="15.75" customHeight="1" s="191"/>
-    <row r="970" ht="15.75" customHeight="1" s="191"/>
-    <row r="971" ht="15.75" customHeight="1" s="191"/>
-    <row r="972" ht="15.75" customHeight="1" s="191"/>
-    <row r="973" ht="15.75" customHeight="1" s="191"/>
-    <row r="974" ht="15.75" customHeight="1" s="191"/>
-    <row r="975" ht="15.75" customHeight="1" s="191"/>
-    <row r="976" ht="15.75" customHeight="1" s="191"/>
-    <row r="977" ht="15.75" customHeight="1" s="191"/>
-    <row r="978" ht="15.75" customHeight="1" s="191"/>
-    <row r="979" ht="15.75" customHeight="1" s="191"/>
-    <row r="980" ht="15.75" customHeight="1" s="191"/>
-    <row r="981" ht="15.75" customHeight="1" s="191"/>
-    <row r="982" ht="15.75" customHeight="1" s="191"/>
-    <row r="983" ht="15.75" customHeight="1" s="191"/>
-    <row r="984" ht="15.75" customHeight="1" s="191"/>
-    <row r="985" ht="15.75" customHeight="1" s="191"/>
-    <row r="986" ht="15.75" customHeight="1" s="191"/>
-    <row r="987" ht="15.75" customHeight="1" s="191"/>
-    <row r="988" ht="15.75" customHeight="1" s="191"/>
-    <row r="989" ht="15.75" customHeight="1" s="191"/>
-    <row r="990" ht="15.75" customHeight="1" s="191"/>
-    <row r="991" ht="15.75" customHeight="1" s="191"/>
-    <row r="992" ht="15.75" customHeight="1" s="191"/>
-    <row r="993" ht="15.75" customHeight="1" s="191"/>
-    <row r="994" ht="15.75" customHeight="1" s="191"/>
-    <row r="995" ht="15.75" customHeight="1" s="191"/>
-    <row r="996" ht="15.75" customHeight="1" s="191"/>
-    <row r="997" ht="15.75" customHeight="1" s="191"/>
-    <row r="998" ht="15.75" customHeight="1" s="191"/>
-    <row r="999" ht="15.75" customHeight="1" s="191"/>
-    <row r="1000" ht="15.75" customHeight="1" s="191"/>
+      <c r="D65" s="225" t="n"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1" s="202"/>
+    <row r="67" ht="15.75" customHeight="1" s="202"/>
+    <row r="68" ht="15.75" customHeight="1" s="202"/>
+    <row r="69" ht="15.75" customHeight="1" s="202"/>
+    <row r="70" ht="15.75" customHeight="1" s="202"/>
+    <row r="71" ht="15.75" customHeight="1" s="202"/>
+    <row r="72" ht="15.75" customHeight="1" s="202"/>
+    <row r="73" ht="15.75" customHeight="1" s="202"/>
+    <row r="74" ht="15.75" customHeight="1" s="202"/>
+    <row r="75" ht="15.75" customHeight="1" s="202"/>
+    <row r="76" ht="15.75" customHeight="1" s="202"/>
+    <row r="77" ht="15.75" customHeight="1" s="202"/>
+    <row r="78" ht="15.75" customHeight="1" s="202"/>
+    <row r="79" ht="15.75" customHeight="1" s="202"/>
+    <row r="80" ht="15.75" customHeight="1" s="202"/>
+    <row r="81" ht="15.75" customHeight="1" s="202"/>
+    <row r="82" ht="15.75" customHeight="1" s="202"/>
+    <row r="83" ht="15.75" customHeight="1" s="202"/>
+    <row r="84" ht="15.75" customHeight="1" s="202"/>
+    <row r="85" ht="15.75" customHeight="1" s="202"/>
+    <row r="86" ht="15.75" customHeight="1" s="202"/>
+    <row r="87" ht="15.75" customHeight="1" s="202"/>
+    <row r="88" ht="15.75" customHeight="1" s="202"/>
+    <row r="89" ht="15.75" customHeight="1" s="202"/>
+    <row r="90" ht="15.75" customHeight="1" s="202"/>
+    <row r="91" ht="15.75" customHeight="1" s="202"/>
+    <row r="92" ht="15.75" customHeight="1" s="202"/>
+    <row r="93" ht="15.75" customHeight="1" s="202"/>
+    <row r="94" ht="15.75" customHeight="1" s="202"/>
+    <row r="95" ht="15.75" customHeight="1" s="202"/>
+    <row r="96" ht="15.75" customHeight="1" s="202"/>
+    <row r="97" ht="15.75" customHeight="1" s="202"/>
+    <row r="98" ht="15.75" customHeight="1" s="202"/>
+    <row r="99" ht="15.75" customHeight="1" s="202"/>
+    <row r="100" ht="15.75" customHeight="1" s="202"/>
+    <row r="101" ht="15.75" customHeight="1" s="202"/>
+    <row r="102" ht="15.75" customHeight="1" s="202"/>
+    <row r="103" ht="15.75" customHeight="1" s="202"/>
+    <row r="104" ht="15.75" customHeight="1" s="202"/>
+    <row r="105" ht="15.75" customHeight="1" s="202"/>
+    <row r="106" ht="15.75" customHeight="1" s="202"/>
+    <row r="107" ht="15.75" customHeight="1" s="202"/>
+    <row r="108" ht="15.75" customHeight="1" s="202"/>
+    <row r="109" ht="15.75" customHeight="1" s="202"/>
+    <row r="110" ht="15.75" customHeight="1" s="202"/>
+    <row r="111" ht="15.75" customHeight="1" s="202"/>
+    <row r="112" ht="15.75" customHeight="1" s="202"/>
+    <row r="113" ht="15.75" customHeight="1" s="202"/>
+    <row r="114" ht="15.75" customHeight="1" s="202"/>
+    <row r="115" ht="15.75" customHeight="1" s="202"/>
+    <row r="116" ht="15.75" customHeight="1" s="202"/>
+    <row r="117" ht="15.75" customHeight="1" s="202"/>
+    <row r="118" ht="15.75" customHeight="1" s="202"/>
+    <row r="119" ht="15.75" customHeight="1" s="202"/>
+    <row r="120" ht="15.75" customHeight="1" s="202"/>
+    <row r="121" ht="15.75" customHeight="1" s="202"/>
+    <row r="122" ht="15.75" customHeight="1" s="202"/>
+    <row r="123" ht="15.75" customHeight="1" s="202"/>
+    <row r="124" ht="15.75" customHeight="1" s="202"/>
+    <row r="125" ht="15.75" customHeight="1" s="202"/>
+    <row r="126" ht="15.75" customHeight="1" s="202"/>
+    <row r="127" ht="15.75" customHeight="1" s="202"/>
+    <row r="128" ht="15.75" customHeight="1" s="202"/>
+    <row r="129" ht="15.75" customHeight="1" s="202"/>
+    <row r="130" ht="15.75" customHeight="1" s="202"/>
+    <row r="131" ht="15.75" customHeight="1" s="202"/>
+    <row r="132" ht="15.75" customHeight="1" s="202"/>
+    <row r="133" ht="15.75" customHeight="1" s="202"/>
+    <row r="134" ht="15.75" customHeight="1" s="202"/>
+    <row r="135" ht="15.75" customHeight="1" s="202"/>
+    <row r="136" ht="15.75" customHeight="1" s="202"/>
+    <row r="137" ht="15.75" customHeight="1" s="202"/>
+    <row r="138" ht="15.75" customHeight="1" s="202"/>
+    <row r="139" ht="15.75" customHeight="1" s="202"/>
+    <row r="140" ht="15.75" customHeight="1" s="202"/>
+    <row r="141" ht="15.75" customHeight="1" s="202"/>
+    <row r="142" ht="15.75" customHeight="1" s="202"/>
+    <row r="143" ht="15.75" customHeight="1" s="202"/>
+    <row r="144" ht="15.75" customHeight="1" s="202"/>
+    <row r="145" ht="15.75" customHeight="1" s="202"/>
+    <row r="146" ht="15.75" customHeight="1" s="202"/>
+    <row r="147" ht="15.75" customHeight="1" s="202"/>
+    <row r="148" ht="15.75" customHeight="1" s="202"/>
+    <row r="149" ht="15.75" customHeight="1" s="202"/>
+    <row r="150" ht="15.75" customHeight="1" s="202"/>
+    <row r="151" ht="15.75" customHeight="1" s="202"/>
+    <row r="152" ht="15.75" customHeight="1" s="202"/>
+    <row r="153" ht="15.75" customHeight="1" s="202"/>
+    <row r="154" ht="15.75" customHeight="1" s="202"/>
+    <row r="155" ht="15.75" customHeight="1" s="202"/>
+    <row r="156" ht="15.75" customHeight="1" s="202"/>
+    <row r="157" ht="15.75" customHeight="1" s="202"/>
+    <row r="158" ht="15.75" customHeight="1" s="202"/>
+    <row r="159" ht="15.75" customHeight="1" s="202"/>
+    <row r="160" ht="15.75" customHeight="1" s="202"/>
+    <row r="161" ht="15.75" customHeight="1" s="202"/>
+    <row r="162" ht="15.75" customHeight="1" s="202"/>
+    <row r="163" ht="15.75" customHeight="1" s="202"/>
+    <row r="164" ht="15.75" customHeight="1" s="202"/>
+    <row r="165" ht="15.75" customHeight="1" s="202"/>
+    <row r="166" ht="15.75" customHeight="1" s="202"/>
+    <row r="167" ht="15.75" customHeight="1" s="202"/>
+    <row r="168" ht="15.75" customHeight="1" s="202"/>
+    <row r="169" ht="15.75" customHeight="1" s="202"/>
+    <row r="170" ht="15.75" customHeight="1" s="202"/>
+    <row r="171" ht="15.75" customHeight="1" s="202"/>
+    <row r="172" ht="15.75" customHeight="1" s="202"/>
+    <row r="173" ht="15.75" customHeight="1" s="202"/>
+    <row r="174" ht="15.75" customHeight="1" s="202"/>
+    <row r="175" ht="15.75" customHeight="1" s="202"/>
+    <row r="176" ht="15.75" customHeight="1" s="202"/>
+    <row r="177" ht="15.75" customHeight="1" s="202"/>
+    <row r="178" ht="15.75" customHeight="1" s="202"/>
+    <row r="179" ht="15.75" customHeight="1" s="202"/>
+    <row r="180" ht="15.75" customHeight="1" s="202"/>
+    <row r="181" ht="15.75" customHeight="1" s="202"/>
+    <row r="182" ht="15.75" customHeight="1" s="202"/>
+    <row r="183" ht="15.75" customHeight="1" s="202"/>
+    <row r="184" ht="15.75" customHeight="1" s="202"/>
+    <row r="185" ht="15.75" customHeight="1" s="202"/>
+    <row r="186" ht="15.75" customHeight="1" s="202"/>
+    <row r="187" ht="15.75" customHeight="1" s="202"/>
+    <row r="188" ht="15.75" customHeight="1" s="202"/>
+    <row r="189" ht="15.75" customHeight="1" s="202"/>
+    <row r="190" ht="15.75" customHeight="1" s="202"/>
+    <row r="191" ht="15.75" customHeight="1" s="202"/>
+    <row r="192" ht="15.75" customHeight="1" s="202"/>
+    <row r="193" ht="15.75" customHeight="1" s="202"/>
+    <row r="194" ht="15.75" customHeight="1" s="202"/>
+    <row r="195" ht="15.75" customHeight="1" s="202"/>
+    <row r="196" ht="15.75" customHeight="1" s="202"/>
+    <row r="197" ht="15.75" customHeight="1" s="202"/>
+    <row r="198" ht="15.75" customHeight="1" s="202"/>
+    <row r="199" ht="15.75" customHeight="1" s="202"/>
+    <row r="200" ht="15.75" customHeight="1" s="202"/>
+    <row r="201" ht="15.75" customHeight="1" s="202"/>
+    <row r="202" ht="15.75" customHeight="1" s="202"/>
+    <row r="203" ht="15.75" customHeight="1" s="202"/>
+    <row r="204" ht="15.75" customHeight="1" s="202"/>
+    <row r="205" ht="15.75" customHeight="1" s="202"/>
+    <row r="206" ht="15.75" customHeight="1" s="202"/>
+    <row r="207" ht="15.75" customHeight="1" s="202"/>
+    <row r="208" ht="15.75" customHeight="1" s="202"/>
+    <row r="209" ht="15.75" customHeight="1" s="202"/>
+    <row r="210" ht="15.75" customHeight="1" s="202"/>
+    <row r="211" ht="15.75" customHeight="1" s="202"/>
+    <row r="212" ht="15.75" customHeight="1" s="202"/>
+    <row r="213" ht="15.75" customHeight="1" s="202"/>
+    <row r="214" ht="15.75" customHeight="1" s="202"/>
+    <row r="215" ht="15.75" customHeight="1" s="202"/>
+    <row r="216" ht="15.75" customHeight="1" s="202"/>
+    <row r="217" ht="15.75" customHeight="1" s="202"/>
+    <row r="218" ht="15.75" customHeight="1" s="202"/>
+    <row r="219" ht="15.75" customHeight="1" s="202"/>
+    <row r="220" ht="15.75" customHeight="1" s="202"/>
+    <row r="221" ht="15.75" customHeight="1" s="202"/>
+    <row r="222" ht="15.75" customHeight="1" s="202"/>
+    <row r="223" ht="15.75" customHeight="1" s="202"/>
+    <row r="224" ht="15.75" customHeight="1" s="202"/>
+    <row r="225" ht="15.75" customHeight="1" s="202"/>
+    <row r="226" ht="15.75" customHeight="1" s="202"/>
+    <row r="227" ht="15.75" customHeight="1" s="202"/>
+    <row r="228" ht="15.75" customHeight="1" s="202"/>
+    <row r="229" ht="15.75" customHeight="1" s="202"/>
+    <row r="230" ht="15.75" customHeight="1" s="202"/>
+    <row r="231" ht="15.75" customHeight="1" s="202"/>
+    <row r="232" ht="15.75" customHeight="1" s="202"/>
+    <row r="233" ht="15.75" customHeight="1" s="202"/>
+    <row r="234" ht="15.75" customHeight="1" s="202"/>
+    <row r="235" ht="15.75" customHeight="1" s="202"/>
+    <row r="236" ht="15.75" customHeight="1" s="202"/>
+    <row r="237" ht="15.75" customHeight="1" s="202"/>
+    <row r="238" ht="15.75" customHeight="1" s="202"/>
+    <row r="239" ht="15.75" customHeight="1" s="202"/>
+    <row r="240" ht="15.75" customHeight="1" s="202"/>
+    <row r="241" ht="15.75" customHeight="1" s="202"/>
+    <row r="242" ht="15.75" customHeight="1" s="202"/>
+    <row r="243" ht="15.75" customHeight="1" s="202"/>
+    <row r="244" ht="15.75" customHeight="1" s="202"/>
+    <row r="245" ht="15.75" customHeight="1" s="202"/>
+    <row r="246" ht="15.75" customHeight="1" s="202"/>
+    <row r="247" ht="15.75" customHeight="1" s="202"/>
+    <row r="248" ht="15.75" customHeight="1" s="202"/>
+    <row r="249" ht="15.75" customHeight="1" s="202"/>
+    <row r="250" ht="15.75" customHeight="1" s="202"/>
+    <row r="251" ht="15.75" customHeight="1" s="202"/>
+    <row r="252" ht="15.75" customHeight="1" s="202"/>
+    <row r="253" ht="15.75" customHeight="1" s="202"/>
+    <row r="254" ht="15.75" customHeight="1" s="202"/>
+    <row r="255" ht="15.75" customHeight="1" s="202"/>
+    <row r="256" ht="15.75" customHeight="1" s="202"/>
+    <row r="257" ht="15.75" customHeight="1" s="202"/>
+    <row r="258" ht="15.75" customHeight="1" s="202"/>
+    <row r="259" ht="15.75" customHeight="1" s="202"/>
+    <row r="260" ht="15.75" customHeight="1" s="202"/>
+    <row r="261" ht="15.75" customHeight="1" s="202"/>
+    <row r="262" ht="15.75" customHeight="1" s="202"/>
+    <row r="263" ht="15.75" customHeight="1" s="202"/>
+    <row r="264" ht="15.75" customHeight="1" s="202"/>
+    <row r="265" ht="15.75" customHeight="1" s="202"/>
+    <row r="266" ht="15.75" customHeight="1" s="202"/>
+    <row r="267" ht="15.75" customHeight="1" s="202"/>
+    <row r="268" ht="15.75" customHeight="1" s="202"/>
+    <row r="269" ht="15.75" customHeight="1" s="202"/>
+    <row r="270" ht="15.75" customHeight="1" s="202"/>
+    <row r="271" ht="15.75" customHeight="1" s="202"/>
+    <row r="272" ht="15.75" customHeight="1" s="202"/>
+    <row r="273" ht="15.75" customHeight="1" s="202"/>
+    <row r="274" ht="15.75" customHeight="1" s="202"/>
+    <row r="275" ht="15.75" customHeight="1" s="202"/>
+    <row r="276" ht="15.75" customHeight="1" s="202"/>
+    <row r="277" ht="15.75" customHeight="1" s="202"/>
+    <row r="278" ht="15.75" customHeight="1" s="202"/>
+    <row r="279" ht="15.75" customHeight="1" s="202"/>
+    <row r="280" ht="15.75" customHeight="1" s="202"/>
+    <row r="281" ht="15.75" customHeight="1" s="202"/>
+    <row r="282" ht="15.75" customHeight="1" s="202"/>
+    <row r="283" ht="15.75" customHeight="1" s="202"/>
+    <row r="284" ht="15.75" customHeight="1" s="202"/>
+    <row r="285" ht="15.75" customHeight="1" s="202"/>
+    <row r="286" ht="15.75" customHeight="1" s="202"/>
+    <row r="287" ht="15.75" customHeight="1" s="202"/>
+    <row r="288" ht="15.75" customHeight="1" s="202"/>
+    <row r="289" ht="15.75" customHeight="1" s="202"/>
+    <row r="290" ht="15.75" customHeight="1" s="202"/>
+    <row r="291" ht="15.75" customHeight="1" s="202"/>
+    <row r="292" ht="15.75" customHeight="1" s="202"/>
+    <row r="293" ht="15.75" customHeight="1" s="202"/>
+    <row r="294" ht="15.75" customHeight="1" s="202"/>
+    <row r="295" ht="15.75" customHeight="1" s="202"/>
+    <row r="296" ht="15.75" customHeight="1" s="202"/>
+    <row r="297" ht="15.75" customHeight="1" s="202"/>
+    <row r="298" ht="15.75" customHeight="1" s="202"/>
+    <row r="299" ht="15.75" customHeight="1" s="202"/>
+    <row r="300" ht="15.75" customHeight="1" s="202"/>
+    <row r="301" ht="15.75" customHeight="1" s="202"/>
+    <row r="302" ht="15.75" customHeight="1" s="202"/>
+    <row r="303" ht="15.75" customHeight="1" s="202"/>
+    <row r="304" ht="15.75" customHeight="1" s="202"/>
+    <row r="305" ht="15.75" customHeight="1" s="202"/>
+    <row r="306" ht="15.75" customHeight="1" s="202"/>
+    <row r="307" ht="15.75" customHeight="1" s="202"/>
+    <row r="308" ht="15.75" customHeight="1" s="202"/>
+    <row r="309" ht="15.75" customHeight="1" s="202"/>
+    <row r="310" ht="15.75" customHeight="1" s="202"/>
+    <row r="311" ht="15.75" customHeight="1" s="202"/>
+    <row r="312" ht="15.75" customHeight="1" s="202"/>
+    <row r="313" ht="15.75" customHeight="1" s="202"/>
+    <row r="314" ht="15.75" customHeight="1" s="202"/>
+    <row r="315" ht="15.75" customHeight="1" s="202"/>
+    <row r="316" ht="15.75" customHeight="1" s="202"/>
+    <row r="317" ht="15.75" customHeight="1" s="202"/>
+    <row r="318" ht="15.75" customHeight="1" s="202"/>
+    <row r="319" ht="15.75" customHeight="1" s="202"/>
+    <row r="320" ht="15.75" customHeight="1" s="202"/>
+    <row r="321" ht="15.75" customHeight="1" s="202"/>
+    <row r="322" ht="15.75" customHeight="1" s="202"/>
+    <row r="323" ht="15.75" customHeight="1" s="202"/>
+    <row r="324" ht="15.75" customHeight="1" s="202"/>
+    <row r="325" ht="15.75" customHeight="1" s="202"/>
+    <row r="326" ht="15.75" customHeight="1" s="202"/>
+    <row r="327" ht="15.75" customHeight="1" s="202"/>
+    <row r="328" ht="15.75" customHeight="1" s="202"/>
+    <row r="329" ht="15.75" customHeight="1" s="202"/>
+    <row r="330" ht="15.75" customHeight="1" s="202"/>
+    <row r="331" ht="15.75" customHeight="1" s="202"/>
+    <row r="332" ht="15.75" customHeight="1" s="202"/>
+    <row r="333" ht="15.75" customHeight="1" s="202"/>
+    <row r="334" ht="15.75" customHeight="1" s="202"/>
+    <row r="335" ht="15.75" customHeight="1" s="202"/>
+    <row r="336" ht="15.75" customHeight="1" s="202"/>
+    <row r="337" ht="15.75" customHeight="1" s="202"/>
+    <row r="338" ht="15.75" customHeight="1" s="202"/>
+    <row r="339" ht="15.75" customHeight="1" s="202"/>
+    <row r="340" ht="15.75" customHeight="1" s="202"/>
+    <row r="341" ht="15.75" customHeight="1" s="202"/>
+    <row r="342" ht="15.75" customHeight="1" s="202"/>
+    <row r="343" ht="15.75" customHeight="1" s="202"/>
+    <row r="344" ht="15.75" customHeight="1" s="202"/>
+    <row r="345" ht="15.75" customHeight="1" s="202"/>
+    <row r="346" ht="15.75" customHeight="1" s="202"/>
+    <row r="347" ht="15.75" customHeight="1" s="202"/>
+    <row r="348" ht="15.75" customHeight="1" s="202"/>
+    <row r="349" ht="15.75" customHeight="1" s="202"/>
+    <row r="350" ht="15.75" customHeight="1" s="202"/>
+    <row r="351" ht="15.75" customHeight="1" s="202"/>
+    <row r="352" ht="15.75" customHeight="1" s="202"/>
+    <row r="353" ht="15.75" customHeight="1" s="202"/>
+    <row r="354" ht="15.75" customHeight="1" s="202"/>
+    <row r="355" ht="15.75" customHeight="1" s="202"/>
+    <row r="356" ht="15.75" customHeight="1" s="202"/>
+    <row r="357" ht="15.75" customHeight="1" s="202"/>
+    <row r="358" ht="15.75" customHeight="1" s="202"/>
+    <row r="359" ht="15.75" customHeight="1" s="202"/>
+    <row r="360" ht="15.75" customHeight="1" s="202"/>
+    <row r="361" ht="15.75" customHeight="1" s="202"/>
+    <row r="362" ht="15.75" customHeight="1" s="202"/>
+    <row r="363" ht="15.75" customHeight="1" s="202"/>
+    <row r="364" ht="15.75" customHeight="1" s="202"/>
+    <row r="365" ht="15.75" customHeight="1" s="202"/>
+    <row r="366" ht="15.75" customHeight="1" s="202"/>
+    <row r="367" ht="15.75" customHeight="1" s="202"/>
+    <row r="368" ht="15.75" customHeight="1" s="202"/>
+    <row r="369" ht="15.75" customHeight="1" s="202"/>
+    <row r="370" ht="15.75" customHeight="1" s="202"/>
+    <row r="371" ht="15.75" customHeight="1" s="202"/>
+    <row r="372" ht="15.75" customHeight="1" s="202"/>
+    <row r="373" ht="15.75" customHeight="1" s="202"/>
+    <row r="374" ht="15.75" customHeight="1" s="202"/>
+    <row r="375" ht="15.75" customHeight="1" s="202"/>
+    <row r="376" ht="15.75" customHeight="1" s="202"/>
+    <row r="377" ht="15.75" customHeight="1" s="202"/>
+    <row r="378" ht="15.75" customHeight="1" s="202"/>
+    <row r="379" ht="15.75" customHeight="1" s="202"/>
+    <row r="380" ht="15.75" customHeight="1" s="202"/>
+    <row r="381" ht="15.75" customHeight="1" s="202"/>
+    <row r="382" ht="15.75" customHeight="1" s="202"/>
+    <row r="383" ht="15.75" customHeight="1" s="202"/>
+    <row r="384" ht="15.75" customHeight="1" s="202"/>
+    <row r="385" ht="15.75" customHeight="1" s="202"/>
+    <row r="386" ht="15.75" customHeight="1" s="202"/>
+    <row r="387" ht="15.75" customHeight="1" s="202"/>
+    <row r="388" ht="15.75" customHeight="1" s="202"/>
+    <row r="389" ht="15.75" customHeight="1" s="202"/>
+    <row r="390" ht="15.75" customHeight="1" s="202"/>
+    <row r="391" ht="15.75" customHeight="1" s="202"/>
+    <row r="392" ht="15.75" customHeight="1" s="202"/>
+    <row r="393" ht="15.75" customHeight="1" s="202"/>
+    <row r="394" ht="15.75" customHeight="1" s="202"/>
+    <row r="395" ht="15.75" customHeight="1" s="202"/>
+    <row r="396" ht="15.75" customHeight="1" s="202"/>
+    <row r="397" ht="15.75" customHeight="1" s="202"/>
+    <row r="398" ht="15.75" customHeight="1" s="202"/>
+    <row r="399" ht="15.75" customHeight="1" s="202"/>
+    <row r="400" ht="15.75" customHeight="1" s="202"/>
+    <row r="401" ht="15.75" customHeight="1" s="202"/>
+    <row r="402" ht="15.75" customHeight="1" s="202"/>
+    <row r="403" ht="15.75" customHeight="1" s="202"/>
+    <row r="404" ht="15.75" customHeight="1" s="202"/>
+    <row r="405" ht="15.75" customHeight="1" s="202"/>
+    <row r="406" ht="15.75" customHeight="1" s="202"/>
+    <row r="407" ht="15.75" customHeight="1" s="202"/>
+    <row r="408" ht="15.75" customHeight="1" s="202"/>
+    <row r="409" ht="15.75" customHeight="1" s="202"/>
+    <row r="410" ht="15.75" customHeight="1" s="202"/>
+    <row r="411" ht="15.75" customHeight="1" s="202"/>
+    <row r="412" ht="15.75" customHeight="1" s="202"/>
+    <row r="413" ht="15.75" customHeight="1" s="202"/>
+    <row r="414" ht="15.75" customHeight="1" s="202"/>
+    <row r="415" ht="15.75" customHeight="1" s="202"/>
+    <row r="416" ht="15.75" customHeight="1" s="202"/>
+    <row r="417" ht="15.75" customHeight="1" s="202"/>
+    <row r="418" ht="15.75" customHeight="1" s="202"/>
+    <row r="419" ht="15.75" customHeight="1" s="202"/>
+    <row r="420" ht="15.75" customHeight="1" s="202"/>
+    <row r="421" ht="15.75" customHeight="1" s="202"/>
+    <row r="422" ht="15.75" customHeight="1" s="202"/>
+    <row r="423" ht="15.75" customHeight="1" s="202"/>
+    <row r="424" ht="15.75" customHeight="1" s="202"/>
+    <row r="425" ht="15.75" customHeight="1" s="202"/>
+    <row r="426" ht="15.75" customHeight="1" s="202"/>
+    <row r="427" ht="15.75" customHeight="1" s="202"/>
+    <row r="428" ht="15.75" customHeight="1" s="202"/>
+    <row r="429" ht="15.75" customHeight="1" s="202"/>
+    <row r="430" ht="15.75" customHeight="1" s="202"/>
+    <row r="431" ht="15.75" customHeight="1" s="202"/>
+    <row r="432" ht="15.75" customHeight="1" s="202"/>
+    <row r="433" ht="15.75" customHeight="1" s="202"/>
+    <row r="434" ht="15.75" customHeight="1" s="202"/>
+    <row r="435" ht="15.75" customHeight="1" s="202"/>
+    <row r="436" ht="15.75" customHeight="1" s="202"/>
+    <row r="437" ht="15.75" customHeight="1" s="202"/>
+    <row r="438" ht="15.75" customHeight="1" s="202"/>
+    <row r="439" ht="15.75" customHeight="1" s="202"/>
+    <row r="440" ht="15.75" customHeight="1" s="202"/>
+    <row r="441" ht="15.75" customHeight="1" s="202"/>
+    <row r="442" ht="15.75" customHeight="1" s="202"/>
+    <row r="443" ht="15.75" customHeight="1" s="202"/>
+    <row r="444" ht="15.75" customHeight="1" s="202"/>
+    <row r="445" ht="15.75" customHeight="1" s="202"/>
+    <row r="446" ht="15.75" customHeight="1" s="202"/>
+    <row r="447" ht="15.75" customHeight="1" s="202"/>
+    <row r="448" ht="15.75" customHeight="1" s="202"/>
+    <row r="449" ht="15.75" customHeight="1" s="202"/>
+    <row r="450" ht="15.75" customHeight="1" s="202"/>
+    <row r="451" ht="15.75" customHeight="1" s="202"/>
+    <row r="452" ht="15.75" customHeight="1" s="202"/>
+    <row r="453" ht="15.75" customHeight="1" s="202"/>
+    <row r="454" ht="15.75" customHeight="1" s="202"/>
+    <row r="455" ht="15.75" customHeight="1" s="202"/>
+    <row r="456" ht="15.75" customHeight="1" s="202"/>
+    <row r="457" ht="15.75" customHeight="1" s="202"/>
+    <row r="458" ht="15.75" customHeight="1" s="202"/>
+    <row r="459" ht="15.75" customHeight="1" s="202"/>
+    <row r="460" ht="15.75" customHeight="1" s="202"/>
+    <row r="461" ht="15.75" customHeight="1" s="202"/>
+    <row r="462" ht="15.75" customHeight="1" s="202"/>
+    <row r="463" ht="15.75" customHeight="1" s="202"/>
+    <row r="464" ht="15.75" customHeight="1" s="202"/>
+    <row r="465" ht="15.75" customHeight="1" s="202"/>
+    <row r="466" ht="15.75" customHeight="1" s="202"/>
+    <row r="467" ht="15.75" customHeight="1" s="202"/>
+    <row r="468" ht="15.75" customHeight="1" s="202"/>
+    <row r="469" ht="15.75" customHeight="1" s="202"/>
+    <row r="470" ht="15.75" customHeight="1" s="202"/>
+    <row r="471" ht="15.75" customHeight="1" s="202"/>
+    <row r="472" ht="15.75" customHeight="1" s="202"/>
+    <row r="473" ht="15.75" customHeight="1" s="202"/>
+    <row r="474" ht="15.75" customHeight="1" s="202"/>
+    <row r="475" ht="15.75" customHeight="1" s="202"/>
+    <row r="476" ht="15.75" customHeight="1" s="202"/>
+    <row r="477" ht="15.75" customHeight="1" s="202"/>
+    <row r="478" ht="15.75" customHeight="1" s="202"/>
+    <row r="479" ht="15.75" customHeight="1" s="202"/>
+    <row r="480" ht="15.75" customHeight="1" s="202"/>
+    <row r="481" ht="15.75" customHeight="1" s="202"/>
+    <row r="482" ht="15.75" customHeight="1" s="202"/>
+    <row r="483" ht="15.75" customHeight="1" s="202"/>
+    <row r="484" ht="15.75" customHeight="1" s="202"/>
+    <row r="485" ht="15.75" customHeight="1" s="202"/>
+    <row r="486" ht="15.75" customHeight="1" s="202"/>
+    <row r="487" ht="15.75" customHeight="1" s="202"/>
+    <row r="488" ht="15.75" customHeight="1" s="202"/>
+    <row r="489" ht="15.75" customHeight="1" s="202"/>
+    <row r="490" ht="15.75" customHeight="1" s="202"/>
+    <row r="491" ht="15.75" customHeight="1" s="202"/>
+    <row r="492" ht="15.75" customHeight="1" s="202"/>
+    <row r="493" ht="15.75" customHeight="1" s="202"/>
+    <row r="494" ht="15.75" customHeight="1" s="202"/>
+    <row r="495" ht="15.75" customHeight="1" s="202"/>
+    <row r="496" ht="15.75" customHeight="1" s="202"/>
+    <row r="497" ht="15.75" customHeight="1" s="202"/>
+    <row r="498" ht="15.75" customHeight="1" s="202"/>
+    <row r="499" ht="15.75" customHeight="1" s="202"/>
+    <row r="500" ht="15.75" customHeight="1" s="202"/>
+    <row r="501" ht="15.75" customHeight="1" s="202"/>
+    <row r="502" ht="15.75" customHeight="1" s="202"/>
+    <row r="503" ht="15.75" customHeight="1" s="202"/>
+    <row r="504" ht="15.75" customHeight="1" s="202"/>
+    <row r="505" ht="15.75" customHeight="1" s="202"/>
+    <row r="506" ht="15.75" customHeight="1" s="202"/>
+    <row r="507" ht="15.75" customHeight="1" s="202"/>
+    <row r="508" ht="15.75" customHeight="1" s="202"/>
+    <row r="509" ht="15.75" customHeight="1" s="202"/>
+    <row r="510" ht="15.75" customHeight="1" s="202"/>
+    <row r="511" ht="15.75" customHeight="1" s="202"/>
+    <row r="512" ht="15.75" customHeight="1" s="202"/>
+    <row r="513" ht="15.75" customHeight="1" s="202"/>
+    <row r="514" ht="15.75" customHeight="1" s="202"/>
+    <row r="515" ht="15.75" customHeight="1" s="202"/>
+    <row r="516" ht="15.75" customHeight="1" s="202"/>
+    <row r="517" ht="15.75" customHeight="1" s="202"/>
+    <row r="518" ht="15.75" customHeight="1" s="202"/>
+    <row r="519" ht="15.75" customHeight="1" s="202"/>
+    <row r="520" ht="15.75" customHeight="1" s="202"/>
+    <row r="521" ht="15.75" customHeight="1" s="202"/>
+    <row r="522" ht="15.75" customHeight="1" s="202"/>
+    <row r="523" ht="15.75" customHeight="1" s="202"/>
+    <row r="524" ht="15.75" customHeight="1" s="202"/>
+    <row r="525" ht="15.75" customHeight="1" s="202"/>
+    <row r="526" ht="15.75" customHeight="1" s="202"/>
+    <row r="527" ht="15.75" customHeight="1" s="202"/>
+    <row r="528" ht="15.75" customHeight="1" s="202"/>
+    <row r="529" ht="15.75" customHeight="1" s="202"/>
+    <row r="530" ht="15.75" customHeight="1" s="202"/>
+    <row r="531" ht="15.75" customHeight="1" s="202"/>
+    <row r="532" ht="15.75" customHeight="1" s="202"/>
+    <row r="533" ht="15.75" customHeight="1" s="202"/>
+    <row r="534" ht="15.75" customHeight="1" s="202"/>
+    <row r="535" ht="15.75" customHeight="1" s="202"/>
+    <row r="536" ht="15.75" customHeight="1" s="202"/>
+    <row r="537" ht="15.75" customHeight="1" s="202"/>
+    <row r="538" ht="15.75" customHeight="1" s="202"/>
+    <row r="539" ht="15.75" customHeight="1" s="202"/>
+    <row r="540" ht="15.75" customHeight="1" s="202"/>
+    <row r="541" ht="15.75" customHeight="1" s="202"/>
+    <row r="542" ht="15.75" customHeight="1" s="202"/>
+    <row r="543" ht="15.75" customHeight="1" s="202"/>
+    <row r="544" ht="15.75" customHeight="1" s="202"/>
+    <row r="545" ht="15.75" customHeight="1" s="202"/>
+    <row r="546" ht="15.75" customHeight="1" s="202"/>
+    <row r="547" ht="15.75" customHeight="1" s="202"/>
+    <row r="548" ht="15.75" customHeight="1" s="202"/>
+    <row r="549" ht="15.75" customHeight="1" s="202"/>
+    <row r="550" ht="15.75" customHeight="1" s="202"/>
+    <row r="551" ht="15.75" customHeight="1" s="202"/>
+    <row r="552" ht="15.75" customHeight="1" s="202"/>
+    <row r="553" ht="15.75" customHeight="1" s="202"/>
+    <row r="554" ht="15.75" customHeight="1" s="202"/>
+    <row r="555" ht="15.75" customHeight="1" s="202"/>
+    <row r="556" ht="15.75" customHeight="1" s="202"/>
+    <row r="557" ht="15.75" customHeight="1" s="202"/>
+    <row r="558" ht="15.75" customHeight="1" s="202"/>
+    <row r="559" ht="15.75" customHeight="1" s="202"/>
+    <row r="560" ht="15.75" customHeight="1" s="202"/>
+    <row r="561" ht="15.75" customHeight="1" s="202"/>
+    <row r="562" ht="15.75" customHeight="1" s="202"/>
+    <row r="563" ht="15.75" customHeight="1" s="202"/>
+    <row r="564" ht="15.75" customHeight="1" s="202"/>
+    <row r="565" ht="15.75" customHeight="1" s="202"/>
+    <row r="566" ht="15.75" customHeight="1" s="202"/>
+    <row r="567" ht="15.75" customHeight="1" s="202"/>
+    <row r="568" ht="15.75" customHeight="1" s="202"/>
+    <row r="569" ht="15.75" customHeight="1" s="202"/>
+    <row r="570" ht="15.75" customHeight="1" s="202"/>
+    <row r="571" ht="15.75" customHeight="1" s="202"/>
+    <row r="572" ht="15.75" customHeight="1" s="202"/>
+    <row r="573" ht="15.75" customHeight="1" s="202"/>
+    <row r="574" ht="15.75" customHeight="1" s="202"/>
+    <row r="575" ht="15.75" customHeight="1" s="202"/>
+    <row r="576" ht="15.75" customHeight="1" s="202"/>
+    <row r="577" ht="15.75" customHeight="1" s="202"/>
+    <row r="578" ht="15.75" customHeight="1" s="202"/>
+    <row r="579" ht="15.75" customHeight="1" s="202"/>
+    <row r="580" ht="15.75" customHeight="1" s="202"/>
+    <row r="581" ht="15.75" customHeight="1" s="202"/>
+    <row r="582" ht="15.75" customHeight="1" s="202"/>
+    <row r="583" ht="15.75" customHeight="1" s="202"/>
+    <row r="584" ht="15.75" customHeight="1" s="202"/>
+    <row r="585" ht="15.75" customHeight="1" s="202"/>
+    <row r="586" ht="15.75" customHeight="1" s="202"/>
+    <row r="587" ht="15.75" customHeight="1" s="202"/>
+    <row r="588" ht="15.75" customHeight="1" s="202"/>
+    <row r="589" ht="15.75" customHeight="1" s="202"/>
+    <row r="590" ht="15.75" customHeight="1" s="202"/>
+    <row r="591" ht="15.75" customHeight="1" s="202"/>
+    <row r="592" ht="15.75" customHeight="1" s="202"/>
+    <row r="593" ht="15.75" customHeight="1" s="202"/>
+    <row r="594" ht="15.75" customHeight="1" s="202"/>
+    <row r="595" ht="15.75" customHeight="1" s="202"/>
+    <row r="596" ht="15.75" customHeight="1" s="202"/>
+    <row r="597" ht="15.75" customHeight="1" s="202"/>
+    <row r="598" ht="15.75" customHeight="1" s="202"/>
+    <row r="599" ht="15.75" customHeight="1" s="202"/>
+    <row r="600" ht="15.75" customHeight="1" s="202"/>
+    <row r="601" ht="15.75" customHeight="1" s="202"/>
+    <row r="602" ht="15.75" customHeight="1" s="202"/>
+    <row r="603" ht="15.75" customHeight="1" s="202"/>
+    <row r="604" ht="15.75" customHeight="1" s="202"/>
+    <row r="605" ht="15.75" customHeight="1" s="202"/>
+    <row r="606" ht="15.75" customHeight="1" s="202"/>
+    <row r="607" ht="15.75" customHeight="1" s="202"/>
+    <row r="608" ht="15.75" customHeight="1" s="202"/>
+    <row r="609" ht="15.75" customHeight="1" s="202"/>
+    <row r="610" ht="15.75" customHeight="1" s="202"/>
+    <row r="611" ht="15.75" customHeight="1" s="202"/>
+    <row r="612" ht="15.75" customHeight="1" s="202"/>
+    <row r="613" ht="15.75" customHeight="1" s="202"/>
+    <row r="614" ht="15.75" customHeight="1" s="202"/>
+    <row r="615" ht="15.75" customHeight="1" s="202"/>
+    <row r="616" ht="15.75" customHeight="1" s="202"/>
+    <row r="617" ht="15.75" customHeight="1" s="202"/>
+    <row r="618" ht="15.75" customHeight="1" s="202"/>
+    <row r="619" ht="15.75" customHeight="1" s="202"/>
+    <row r="620" ht="15.75" customHeight="1" s="202"/>
+    <row r="621" ht="15.75" customHeight="1" s="202"/>
+    <row r="622" ht="15.75" customHeight="1" s="202"/>
+    <row r="623" ht="15.75" customHeight="1" s="202"/>
+    <row r="624" ht="15.75" customHeight="1" s="202"/>
+    <row r="625" ht="15.75" customHeight="1" s="202"/>
+    <row r="626" ht="15.75" customHeight="1" s="202"/>
+    <row r="627" ht="15.75" customHeight="1" s="202"/>
+    <row r="628" ht="15.75" customHeight="1" s="202"/>
+    <row r="629" ht="15.75" customHeight="1" s="202"/>
+    <row r="630" ht="15.75" customHeight="1" s="202"/>
+    <row r="631" ht="15.75" customHeight="1" s="202"/>
+    <row r="632" ht="15.75" customHeight="1" s="202"/>
+    <row r="633" ht="15.75" customHeight="1" s="202"/>
+    <row r="634" ht="15.75" customHeight="1" s="202"/>
+    <row r="635" ht="15.75" customHeight="1" s="202"/>
+    <row r="636" ht="15.75" customHeight="1" s="202"/>
+    <row r="637" ht="15.75" customHeight="1" s="202"/>
+    <row r="638" ht="15.75" customHeight="1" s="202"/>
+    <row r="639" ht="15.75" customHeight="1" s="202"/>
+    <row r="640" ht="15.75" customHeight="1" s="202"/>
+    <row r="641" ht="15.75" customHeight="1" s="202"/>
+    <row r="642" ht="15.75" customHeight="1" s="202"/>
+    <row r="643" ht="15.75" customHeight="1" s="202"/>
+    <row r="644" ht="15.75" customHeight="1" s="202"/>
+    <row r="645" ht="15.75" customHeight="1" s="202"/>
+    <row r="646" ht="15.75" customHeight="1" s="202"/>
+    <row r="647" ht="15.75" customHeight="1" s="202"/>
+    <row r="648" ht="15.75" customHeight="1" s="202"/>
+    <row r="649" ht="15.75" customHeight="1" s="202"/>
+    <row r="650" ht="15.75" customHeight="1" s="202"/>
+    <row r="651" ht="15.75" customHeight="1" s="202"/>
+    <row r="652" ht="15.75" customHeight="1" s="202"/>
+    <row r="653" ht="15.75" customHeight="1" s="202"/>
+    <row r="654" ht="15.75" customHeight="1" s="202"/>
+    <row r="655" ht="15.75" customHeight="1" s="202"/>
+    <row r="656" ht="15.75" customHeight="1" s="202"/>
+    <row r="657" ht="15.75" customHeight="1" s="202"/>
+    <row r="658" ht="15.75" customHeight="1" s="202"/>
+    <row r="659" ht="15.75" customHeight="1" s="202"/>
+    <row r="660" ht="15.75" customHeight="1" s="202"/>
+    <row r="661" ht="15.75" customHeight="1" s="202"/>
+    <row r="662" ht="15.75" customHeight="1" s="202"/>
+    <row r="663" ht="15.75" customHeight="1" s="202"/>
+    <row r="664" ht="15.75" customHeight="1" s="202"/>
+    <row r="665" ht="15.75" customHeight="1" s="202"/>
+    <row r="666" ht="15.75" customHeight="1" s="202"/>
+    <row r="667" ht="15.75" customHeight="1" s="202"/>
+    <row r="668" ht="15.75" customHeight="1" s="202"/>
+    <row r="669" ht="15.75" customHeight="1" s="202"/>
+    <row r="670" ht="15.75" customHeight="1" s="202"/>
+    <row r="671" ht="15.75" customHeight="1" s="202"/>
+    <row r="672" ht="15.75" customHeight="1" s="202"/>
+    <row r="673" ht="15.75" customHeight="1" s="202"/>
+    <row r="674" ht="15.75" customHeight="1" s="202"/>
+    <row r="675" ht="15.75" customHeight="1" s="202"/>
+    <row r="676" ht="15.75" customHeight="1" s="202"/>
+    <row r="677" ht="15.75" customHeight="1" s="202"/>
+    <row r="678" ht="15.75" customHeight="1" s="202"/>
+    <row r="679" ht="15.75" customHeight="1" s="202"/>
+    <row r="680" ht="15.75" customHeight="1" s="202"/>
+    <row r="681" ht="15.75" customHeight="1" s="202"/>
+    <row r="682" ht="15.75" customHeight="1" s="202"/>
+    <row r="683" ht="15.75" customHeight="1" s="202"/>
+    <row r="684" ht="15.75" customHeight="1" s="202"/>
+    <row r="685" ht="15.75" customHeight="1" s="202"/>
+    <row r="686" ht="15.75" customHeight="1" s="202"/>
+    <row r="687" ht="15.75" customHeight="1" s="202"/>
+    <row r="688" ht="15.75" customHeight="1" s="202"/>
+    <row r="689" ht="15.75" customHeight="1" s="202"/>
+    <row r="690" ht="15.75" customHeight="1" s="202"/>
+    <row r="691" ht="15.75" customHeight="1" s="202"/>
+    <row r="692" ht="15.75" customHeight="1" s="202"/>
+    <row r="693" ht="15.75" customHeight="1" s="202"/>
+    <row r="694" ht="15.75" customHeight="1" s="202"/>
+    <row r="695" ht="15.75" customHeight="1" s="202"/>
+    <row r="696" ht="15.75" customHeight="1" s="202"/>
+    <row r="697" ht="15.75" customHeight="1" s="202"/>
+    <row r="698" ht="15.75" customHeight="1" s="202"/>
+    <row r="699" ht="15.75" customHeight="1" s="202"/>
+    <row r="700" ht="15.75" customHeight="1" s="202"/>
+    <row r="701" ht="15.75" customHeight="1" s="202"/>
+    <row r="702" ht="15.75" customHeight="1" s="202"/>
+    <row r="703" ht="15.75" customHeight="1" s="202"/>
+    <row r="704" ht="15.75" customHeight="1" s="202"/>
+    <row r="705" ht="15.75" customHeight="1" s="202"/>
+    <row r="706" ht="15.75" customHeight="1" s="202"/>
+    <row r="707" ht="15.75" customHeight="1" s="202"/>
+    <row r="708" ht="15.75" customHeight="1" s="202"/>
+    <row r="709" ht="15.75" customHeight="1" s="202"/>
+    <row r="710" ht="15.75" customHeight="1" s="202"/>
+    <row r="711" ht="15.75" customHeight="1" s="202"/>
+    <row r="712" ht="15.75" customHeight="1" s="202"/>
+    <row r="713" ht="15.75" customHeight="1" s="202"/>
+    <row r="714" ht="15.75" customHeight="1" s="202"/>
+    <row r="715" ht="15.75" customHeight="1" s="202"/>
+    <row r="716" ht="15.75" customHeight="1" s="202"/>
+    <row r="717" ht="15.75" customHeight="1" s="202"/>
+    <row r="718" ht="15.75" customHeight="1" s="202"/>
+    <row r="719" ht="15.75" customHeight="1" s="202"/>
+    <row r="720" ht="15.75" customHeight="1" s="202"/>
+    <row r="721" ht="15.75" customHeight="1" s="202"/>
+    <row r="722" ht="15.75" customHeight="1" s="202"/>
+    <row r="723" ht="15.75" customHeight="1" s="202"/>
+    <row r="724" ht="15.75" customHeight="1" s="202"/>
+    <row r="725" ht="15.75" customHeight="1" s="202"/>
+    <row r="726" ht="15.75" customHeight="1" s="202"/>
+    <row r="727" ht="15.75" customHeight="1" s="202"/>
+    <row r="728" ht="15.75" customHeight="1" s="202"/>
+    <row r="729" ht="15.75" customHeight="1" s="202"/>
+    <row r="730" ht="15.75" customHeight="1" s="202"/>
+    <row r="731" ht="15.75" customHeight="1" s="202"/>
+    <row r="732" ht="15.75" customHeight="1" s="202"/>
+    <row r="733" ht="15.75" customHeight="1" s="202"/>
+    <row r="734" ht="15.75" customHeight="1" s="202"/>
+    <row r="735" ht="15.75" customHeight="1" s="202"/>
+    <row r="736" ht="15.75" customHeight="1" s="202"/>
+    <row r="737" ht="15.75" customHeight="1" s="202"/>
+    <row r="738" ht="15.75" customHeight="1" s="202"/>
+    <row r="739" ht="15.75" customHeight="1" s="202"/>
+    <row r="740" ht="15.75" customHeight="1" s="202"/>
+    <row r="741" ht="15.75" customHeight="1" s="202"/>
+    <row r="742" ht="15.75" customHeight="1" s="202"/>
+    <row r="743" ht="15.75" customHeight="1" s="202"/>
+    <row r="744" ht="15.75" customHeight="1" s="202"/>
+    <row r="745" ht="15.75" customHeight="1" s="202"/>
+    <row r="746" ht="15.75" customHeight="1" s="202"/>
+    <row r="747" ht="15.75" customHeight="1" s="202"/>
+    <row r="748" ht="15.75" customHeight="1" s="202"/>
+    <row r="749" ht="15.75" customHeight="1" s="202"/>
+    <row r="750" ht="15.75" customHeight="1" s="202"/>
+    <row r="751" ht="15.75" customHeight="1" s="202"/>
+    <row r="752" ht="15.75" customHeight="1" s="202"/>
+    <row r="753" ht="15.75" customHeight="1" s="202"/>
+    <row r="754" ht="15.75" customHeight="1" s="202"/>
+    <row r="755" ht="15.75" customHeight="1" s="202"/>
+    <row r="756" ht="15.75" customHeight="1" s="202"/>
+    <row r="757" ht="15.75" customHeight="1" s="202"/>
+    <row r="758" ht="15.75" customHeight="1" s="202"/>
+    <row r="759" ht="15.75" customHeight="1" s="202"/>
+    <row r="760" ht="15.75" customHeight="1" s="202"/>
+    <row r="761" ht="15.75" customHeight="1" s="202"/>
+    <row r="762" ht="15.75" customHeight="1" s="202"/>
+    <row r="763" ht="15.75" customHeight="1" s="202"/>
+    <row r="764" ht="15.75" customHeight="1" s="202"/>
+    <row r="765" ht="15.75" customHeight="1" s="202"/>
+    <row r="766" ht="15.75" customHeight="1" s="202"/>
+    <row r="767" ht="15.75" customHeight="1" s="202"/>
+    <row r="768" ht="15.75" customHeight="1" s="202"/>
+    <row r="769" ht="15.75" customHeight="1" s="202"/>
+    <row r="770" ht="15.75" customHeight="1" s="202"/>
+    <row r="771" ht="15.75" customHeight="1" s="202"/>
+    <row r="772" ht="15.75" customHeight="1" s="202"/>
+    <row r="773" ht="15.75" customHeight="1" s="202"/>
+    <row r="774" ht="15.75" customHeight="1" s="202"/>
+    <row r="775" ht="15.75" customHeight="1" s="202"/>
+    <row r="776" ht="15.75" customHeight="1" s="202"/>
+    <row r="777" ht="15.75" customHeight="1" s="202"/>
+    <row r="778" ht="15.75" customHeight="1" s="202"/>
+    <row r="779" ht="15.75" customHeight="1" s="202"/>
+    <row r="780" ht="15.75" customHeight="1" s="202"/>
+    <row r="781" ht="15.75" customHeight="1" s="202"/>
+    <row r="782" ht="15.75" customHeight="1" s="202"/>
+    <row r="783" ht="15.75" customHeight="1" s="202"/>
+    <row r="784" ht="15.75" customHeight="1" s="202"/>
+    <row r="785" ht="15.75" customHeight="1" s="202"/>
+    <row r="786" ht="15.75" customHeight="1" s="202"/>
+    <row r="787" ht="15.75" customHeight="1" s="202"/>
+    <row r="788" ht="15.75" customHeight="1" s="202"/>
+    <row r="789" ht="15.75" customHeight="1" s="202"/>
+    <row r="790" ht="15.75" customHeight="1" s="202"/>
+    <row r="791" ht="15.75" customHeight="1" s="202"/>
+    <row r="792" ht="15.75" customHeight="1" s="202"/>
+    <row r="793" ht="15.75" customHeight="1" s="202"/>
+    <row r="794" ht="15.75" customHeight="1" s="202"/>
+    <row r="795" ht="15.75" customHeight="1" s="202"/>
+    <row r="796" ht="15.75" customHeight="1" s="202"/>
+    <row r="797" ht="15.75" customHeight="1" s="202"/>
+    <row r="798" ht="15.75" customHeight="1" s="202"/>
+    <row r="799" ht="15.75" customHeight="1" s="202"/>
+    <row r="800" ht="15.75" customHeight="1" s="202"/>
+    <row r="801" ht="15.75" customHeight="1" s="202"/>
+    <row r="802" ht="15.75" customHeight="1" s="202"/>
+    <row r="803" ht="15.75" customHeight="1" s="202"/>
+    <row r="804" ht="15.75" customHeight="1" s="202"/>
+    <row r="805" ht="15.75" customHeight="1" s="202"/>
+    <row r="806" ht="15.75" customHeight="1" s="202"/>
+    <row r="807" ht="15.75" customHeight="1" s="202"/>
+    <row r="808" ht="15.75" customHeight="1" s="202"/>
+    <row r="809" ht="15.75" customHeight="1" s="202"/>
+    <row r="810" ht="15.75" customHeight="1" s="202"/>
+    <row r="811" ht="15.75" customHeight="1" s="202"/>
+    <row r="812" ht="15.75" customHeight="1" s="202"/>
+    <row r="813" ht="15.75" customHeight="1" s="202"/>
+    <row r="814" ht="15.75" customHeight="1" s="202"/>
+    <row r="815" ht="15.75" customHeight="1" s="202"/>
+    <row r="816" ht="15.75" customHeight="1" s="202"/>
+    <row r="817" ht="15.75" customHeight="1" s="202"/>
+    <row r="818" ht="15.75" customHeight="1" s="202"/>
+    <row r="819" ht="15.75" customHeight="1" s="202"/>
+    <row r="820" ht="15.75" customHeight="1" s="202"/>
+    <row r="821" ht="15.75" customHeight="1" s="202"/>
+    <row r="822" ht="15.75" customHeight="1" s="202"/>
+    <row r="823" ht="15.75" customHeight="1" s="202"/>
+    <row r="824" ht="15.75" customHeight="1" s="202"/>
+    <row r="825" ht="15.75" customHeight="1" s="202"/>
+    <row r="826" ht="15.75" customHeight="1" s="202"/>
+    <row r="827" ht="15.75" customHeight="1" s="202"/>
+    <row r="828" ht="15.75" customHeight="1" s="202"/>
+    <row r="829" ht="15.75" customHeight="1" s="202"/>
+    <row r="830" ht="15.75" customHeight="1" s="202"/>
+    <row r="831" ht="15.75" customHeight="1" s="202"/>
+    <row r="832" ht="15.75" customHeight="1" s="202"/>
+    <row r="833" ht="15.75" customHeight="1" s="202"/>
+    <row r="834" ht="15.75" customHeight="1" s="202"/>
+    <row r="835" ht="15.75" customHeight="1" s="202"/>
+    <row r="836" ht="15.75" customHeight="1" s="202"/>
+    <row r="837" ht="15.75" customHeight="1" s="202"/>
+    <row r="838" ht="15.75" customHeight="1" s="202"/>
+    <row r="839" ht="15.75" customHeight="1" s="202"/>
+    <row r="840" ht="15.75" customHeight="1" s="202"/>
+    <row r="841" ht="15.75" customHeight="1" s="202"/>
+    <row r="842" ht="15.75" customHeight="1" s="202"/>
+    <row r="843" ht="15.75" customHeight="1" s="202"/>
+    <row r="844" ht="15.75" customHeight="1" s="202"/>
+    <row r="845" ht="15.75" customHeight="1" s="202"/>
+    <row r="846" ht="15.75" customHeight="1" s="202"/>
+    <row r="847" ht="15.75" customHeight="1" s="202"/>
+    <row r="848" ht="15.75" customHeight="1" s="202"/>
+    <row r="849" ht="15.75" customHeight="1" s="202"/>
+    <row r="850" ht="15.75" customHeight="1" s="202"/>
+    <row r="851" ht="15.75" customHeight="1" s="202"/>
+    <row r="852" ht="15.75" customHeight="1" s="202"/>
+    <row r="853" ht="15.75" customHeight="1" s="202"/>
+    <row r="854" ht="15.75" customHeight="1" s="202"/>
+    <row r="855" ht="15.75" customHeight="1" s="202"/>
+    <row r="856" ht="15.75" customHeight="1" s="202"/>
+    <row r="857" ht="15.75" customHeight="1" s="202"/>
+    <row r="858" ht="15.75" customHeight="1" s="202"/>
+    <row r="859" ht="15.75" customHeight="1" s="202"/>
+    <row r="860" ht="15.75" customHeight="1" s="202"/>
+    <row r="861" ht="15.75" customHeight="1" s="202"/>
+    <row r="862" ht="15.75" customHeight="1" s="202"/>
+    <row r="863" ht="15.75" customHeight="1" s="202"/>
+    <row r="864" ht="15.75" customHeight="1" s="202"/>
+    <row r="865" ht="15.75" customHeight="1" s="202"/>
+    <row r="866" ht="15.75" customHeight="1" s="202"/>
+    <row r="867" ht="15.75" customHeight="1" s="202"/>
+    <row r="868" ht="15.75" customHeight="1" s="202"/>
+    <row r="869" ht="15.75" customHeight="1" s="202"/>
+    <row r="870" ht="15.75" customHeight="1" s="202"/>
+    <row r="871" ht="15.75" customHeight="1" s="202"/>
+    <row r="872" ht="15.75" customHeight="1" s="202"/>
+    <row r="873" ht="15.75" customHeight="1" s="202"/>
+    <row r="874" ht="15.75" customHeight="1" s="202"/>
+    <row r="875" ht="15.75" customHeight="1" s="202"/>
+    <row r="876" ht="15.75" customHeight="1" s="202"/>
+    <row r="877" ht="15.75" customHeight="1" s="202"/>
+    <row r="878" ht="15.75" customHeight="1" s="202"/>
+    <row r="879" ht="15.75" customHeight="1" s="202"/>
+    <row r="880" ht="15.75" customHeight="1" s="202"/>
+    <row r="881" ht="15.75" customHeight="1" s="202"/>
+    <row r="882" ht="15.75" customHeight="1" s="202"/>
+    <row r="883" ht="15.75" customHeight="1" s="202"/>
+    <row r="884" ht="15.75" customHeight="1" s="202"/>
+    <row r="885" ht="15.75" customHeight="1" s="202"/>
+    <row r="886" ht="15.75" customHeight="1" s="202"/>
+    <row r="887" ht="15.75" customHeight="1" s="202"/>
+    <row r="888" ht="15.75" customHeight="1" s="202"/>
+    <row r="889" ht="15.75" customHeight="1" s="202"/>
+    <row r="890" ht="15.75" customHeight="1" s="202"/>
+    <row r="891" ht="15.75" customHeight="1" s="202"/>
+    <row r="892" ht="15.75" customHeight="1" s="202"/>
+    <row r="893" ht="15.75" customHeight="1" s="202"/>
+    <row r="894" ht="15.75" customHeight="1" s="202"/>
+    <row r="895" ht="15.75" customHeight="1" s="202"/>
+    <row r="896" ht="15.75" customHeight="1" s="202"/>
+    <row r="897" ht="15.75" customHeight="1" s="202"/>
+    <row r="898" ht="15.75" customHeight="1" s="202"/>
+    <row r="899" ht="15.75" customHeight="1" s="202"/>
+    <row r="900" ht="15.75" customHeight="1" s="202"/>
+    <row r="901" ht="15.75" customHeight="1" s="202"/>
+    <row r="902" ht="15.75" customHeight="1" s="202"/>
+    <row r="903" ht="15.75" customHeight="1" s="202"/>
+    <row r="904" ht="15.75" customHeight="1" s="202"/>
+    <row r="905" ht="15.75" customHeight="1" s="202"/>
+    <row r="906" ht="15.75" customHeight="1" s="202"/>
+    <row r="907" ht="15.75" customHeight="1" s="202"/>
+    <row r="908" ht="15.75" customHeight="1" s="202"/>
+    <row r="909" ht="15.75" customHeight="1" s="202"/>
+    <row r="910" ht="15.75" customHeight="1" s="202"/>
+    <row r="911" ht="15.75" customHeight="1" s="202"/>
+    <row r="912" ht="15.75" customHeight="1" s="202"/>
+    <row r="913" ht="15.75" customHeight="1" s="202"/>
+    <row r="914" ht="15.75" customHeight="1" s="202"/>
+    <row r="915" ht="15.75" customHeight="1" s="202"/>
+    <row r="916" ht="15.75" customHeight="1" s="202"/>
+    <row r="917" ht="15.75" customHeight="1" s="202"/>
+    <row r="918" ht="15.75" customHeight="1" s="202"/>
+    <row r="919" ht="15.75" customHeight="1" s="202"/>
+    <row r="920" ht="15.75" customHeight="1" s="202"/>
+    <row r="921" ht="15.75" customHeight="1" s="202"/>
+    <row r="922" ht="15.75" customHeight="1" s="202"/>
+    <row r="923" ht="15.75" customHeight="1" s="202"/>
+    <row r="924" ht="15.75" customHeight="1" s="202"/>
+    <row r="925" ht="15.75" customHeight="1" s="202"/>
+    <row r="926" ht="15.75" customHeight="1" s="202"/>
+    <row r="927" ht="15.75" customHeight="1" s="202"/>
+    <row r="928" ht="15.75" customHeight="1" s="202"/>
+    <row r="929" ht="15.75" customHeight="1" s="202"/>
+    <row r="930" ht="15.75" customHeight="1" s="202"/>
+    <row r="931" ht="15.75" customHeight="1" s="202"/>
+    <row r="932" ht="15.75" customHeight="1" s="202"/>
+    <row r="933" ht="15.75" customHeight="1" s="202"/>
+    <row r="934" ht="15.75" customHeight="1" s="202"/>
+    <row r="935" ht="15.75" customHeight="1" s="202"/>
+    <row r="936" ht="15.75" customHeight="1" s="202"/>
+    <row r="937" ht="15.75" customHeight="1" s="202"/>
+    <row r="938" ht="15.75" customHeight="1" s="202"/>
+    <row r="939" ht="15.75" customHeight="1" s="202"/>
+    <row r="940" ht="15.75" customHeight="1" s="202"/>
+    <row r="941" ht="15.75" customHeight="1" s="202"/>
+    <row r="942" ht="15.75" customHeight="1" s="202"/>
+    <row r="943" ht="15.75" customHeight="1" s="202"/>
+    <row r="944" ht="15.75" customHeight="1" s="202"/>
+    <row r="945" ht="15.75" customHeight="1" s="202"/>
+    <row r="946" ht="15.75" customHeight="1" s="202"/>
+    <row r="947" ht="15.75" customHeight="1" s="202"/>
+    <row r="948" ht="15.75" customHeight="1" s="202"/>
+    <row r="949" ht="15.75" customHeight="1" s="202"/>
+    <row r="950" ht="15.75" customHeight="1" s="202"/>
+    <row r="951" ht="15.75" customHeight="1" s="202"/>
+    <row r="952" ht="15.75" customHeight="1" s="202"/>
+    <row r="953" ht="15.75" customHeight="1" s="202"/>
+    <row r="954" ht="15.75" customHeight="1" s="202"/>
+    <row r="955" ht="15.75" customHeight="1" s="202"/>
+    <row r="956" ht="15.75" customHeight="1" s="202"/>
+    <row r="957" ht="15.75" customHeight="1" s="202"/>
+    <row r="958" ht="15.75" customHeight="1" s="202"/>
+    <row r="959" ht="15.75" customHeight="1" s="202"/>
+    <row r="960" ht="15.75" customHeight="1" s="202"/>
+    <row r="961" ht="15.75" customHeight="1" s="202"/>
+    <row r="962" ht="15.75" customHeight="1" s="202"/>
+    <row r="963" ht="15.75" customHeight="1" s="202"/>
+    <row r="964" ht="15.75" customHeight="1" s="202"/>
+    <row r="965" ht="15.75" customHeight="1" s="202"/>
+    <row r="966" ht="15.75" customHeight="1" s="202"/>
+    <row r="967" ht="15.75" customHeight="1" s="202"/>
+    <row r="968" ht="15.75" customHeight="1" s="202"/>
+    <row r="969" ht="15.75" customHeight="1" s="202"/>
+    <row r="970" ht="15.75" customHeight="1" s="202"/>
+    <row r="971" ht="15.75" customHeight="1" s="202"/>
+    <row r="972" ht="15.75" customHeight="1" s="202"/>
+    <row r="973" ht="15.75" customHeight="1" s="202"/>
+    <row r="974" ht="15.75" customHeight="1" s="202"/>
+    <row r="975" ht="15.75" customHeight="1" s="202"/>
+    <row r="976" ht="15.75" customHeight="1" s="202"/>
+    <row r="977" ht="15.75" customHeight="1" s="202"/>
+    <row r="978" ht="15.75" customHeight="1" s="202"/>
+    <row r="979" ht="15.75" customHeight="1" s="202"/>
+    <row r="980" ht="15.75" customHeight="1" s="202"/>
+    <row r="981" ht="15.75" customHeight="1" s="202"/>
+    <row r="982" ht="15.75" customHeight="1" s="202"/>
+    <row r="983" ht="15.75" customHeight="1" s="202"/>
+    <row r="984" ht="15.75" customHeight="1" s="202"/>
+    <row r="985" ht="15.75" customHeight="1" s="202"/>
+    <row r="986" ht="15.75" customHeight="1" s="202"/>
+    <row r="987" ht="15.75" customHeight="1" s="202"/>
+    <row r="988" ht="15.75" customHeight="1" s="202"/>
+    <row r="989" ht="15.75" customHeight="1" s="202"/>
+    <row r="990" ht="15.75" customHeight="1" s="202"/>
+    <row r="991" ht="15.75" customHeight="1" s="202"/>
+    <row r="992" ht="15.75" customHeight="1" s="202"/>
+    <row r="993" ht="15.75" customHeight="1" s="202"/>
+    <row r="994" ht="15.75" customHeight="1" s="202"/>
+    <row r="995" ht="15.75" customHeight="1" s="202"/>
+    <row r="996" ht="15.75" customHeight="1" s="202"/>
+    <row r="997" ht="15.75" customHeight="1" s="202"/>
+    <row r="998" ht="15.75" customHeight="1" s="202"/>
+    <row r="999" ht="15.75" customHeight="1" s="202"/>
+    <row r="1000" ht="15.75" customHeight="1" s="202"/>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
     <mergeCell ref="S42:T42"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C16:L16"/>
@@ -6276,37 +6311,6 @@
     <mergeCell ref="H39:L40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="J59:J60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -6327,25 +6331,25 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="2.42578125" customWidth="1" style="217" min="1" max="1"/>
-    <col width="4.42578125" customWidth="1" style="217" min="2" max="2"/>
-    <col width="16.7109375" customWidth="1" style="217" min="3" max="4"/>
-    <col width="8.7109375" customWidth="1" style="217" min="5" max="5"/>
-    <col width="4.42578125" customWidth="1" style="217" min="6" max="6"/>
-    <col width="16.7109375" customWidth="1" style="217" min="7" max="8"/>
-    <col width="7.42578125" customWidth="1" style="217" min="9" max="9"/>
-    <col width="4" customWidth="1" style="217" min="10" max="10"/>
-    <col width="16.85546875" customWidth="1" style="217" min="11" max="12"/>
-    <col width="8.7109375" customWidth="1" style="217" min="13" max="13"/>
-    <col width="4.140625" customWidth="1" style="217" min="14" max="14"/>
-    <col width="16.7109375" customWidth="1" style="217" min="15" max="17"/>
-    <col width="8.7109375" customWidth="1" style="217" min="18" max="26"/>
-    <col width="14.42578125" customWidth="1" style="217" min="27" max="28"/>
-    <col width="14.42578125" customWidth="1" style="217" min="29" max="16384"/>
+    <col width="2.42578125" customWidth="1" style="211" min="1" max="1"/>
+    <col width="4.42578125" customWidth="1" style="211" min="2" max="2"/>
+    <col width="16.7109375" customWidth="1" style="211" min="3" max="4"/>
+    <col width="8.7109375" customWidth="1" style="211" min="5" max="5"/>
+    <col width="4.42578125" customWidth="1" style="211" min="6" max="6"/>
+    <col width="16.7109375" customWidth="1" style="211" min="7" max="8"/>
+    <col width="7.42578125" customWidth="1" style="211" min="9" max="9"/>
+    <col width="4" customWidth="1" style="211" min="10" max="10"/>
+    <col width="16.85546875" customWidth="1" style="211" min="11" max="12"/>
+    <col width="8.7109375" customWidth="1" style="211" min="13" max="13"/>
+    <col width="4.140625" customWidth="1" style="211" min="14" max="14"/>
+    <col width="16.7109375" customWidth="1" style="211" min="15" max="17"/>
+    <col width="8.7109375" customWidth="1" style="211" min="18" max="26"/>
+    <col width="14.42578125" customWidth="1" style="211" min="27" max="29"/>
+    <col width="14.42578125" customWidth="1" style="211" min="30" max="16384"/>
   </cols>
   <sheetData>
-    <row r="2" ht="26.25" customHeight="1" s="191">
-      <c r="C2" s="218" t="inlineStr">
+    <row r="2" ht="26.25" customHeight="1" s="202">
+      <c r="C2" s="212" t="inlineStr">
         <is>
           <t xml:space="preserve">EURO 2020 </t>
         </is>
@@ -6639,21 +6643,21 @@
       <c r="K15" s="100" t="n"/>
       <c r="L15" s="100" t="n"/>
     </row>
-    <row r="16" ht="39.75" customHeight="1" s="191">
-      <c r="C16" s="219" t="inlineStr">
+    <row r="16" ht="39.75" customHeight="1" s="202">
+      <c r="C16" s="213" t="inlineStr">
         <is>
           <t>Group Stage predictions are made in a single submission and are due by Thursday Evening June 10th, 2021.</t>
         </is>
       </c>
-      <c r="D16" s="220" t="n"/>
-      <c r="E16" s="220" t="n"/>
-      <c r="F16" s="220" t="n"/>
-      <c r="G16" s="220" t="n"/>
-      <c r="H16" s="220" t="n"/>
-      <c r="I16" s="220" t="n"/>
-      <c r="J16" s="220" t="n"/>
-      <c r="K16" s="220" t="n"/>
-      <c r="L16" s="220" t="n"/>
+      <c r="D16" s="214" t="n"/>
+      <c r="E16" s="214" t="n"/>
+      <c r="F16" s="214" t="n"/>
+      <c r="G16" s="214" t="n"/>
+      <c r="H16" s="214" t="n"/>
+      <c r="I16" s="214" t="n"/>
+      <c r="J16" s="214" t="n"/>
+      <c r="K16" s="214" t="n"/>
+      <c r="L16" s="214" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="136" t="inlineStr">
@@ -6661,19 +6665,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D17" s="221" t="n"/>
-      <c r="E17" s="222" t="n"/>
-      <c r="F17" s="222" t="n"/>
-      <c r="G17" s="223" t="n"/>
-      <c r="H17" s="224" t="inlineStr">
+      <c r="D17" s="215" t="n"/>
+      <c r="E17" s="216" t="n"/>
+      <c r="F17" s="216" t="n"/>
+      <c r="G17" s="217" t="n"/>
+      <c r="H17" s="218" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I17" s="222" t="n"/>
-      <c r="J17" s="222" t="n"/>
-      <c r="K17" s="222" t="n"/>
-      <c r="L17" s="223" t="n"/>
+      <c r="I17" s="216" t="n"/>
+      <c r="J17" s="216" t="n"/>
+      <c r="K17" s="216" t="n"/>
+      <c r="L17" s="217" t="n"/>
     </row>
     <row r="18">
       <c r="C18" s="137" t="inlineStr">
@@ -6681,15 +6685,15 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D18" s="227" t="n"/>
-      <c r="E18" s="220" t="n"/>
-      <c r="F18" s="220" t="n"/>
-      <c r="G18" s="226" t="n"/>
-      <c r="H18" s="225" t="n"/>
-      <c r="I18" s="220" t="n"/>
-      <c r="J18" s="220" t="n"/>
-      <c r="K18" s="220" t="n"/>
-      <c r="L18" s="226" t="n"/>
+      <c r="D18" s="221" t="n"/>
+      <c r="E18" s="214" t="n"/>
+      <c r="F18" s="214" t="n"/>
+      <c r="G18" s="220" t="n"/>
+      <c r="H18" s="219" t="n"/>
+      <c r="I18" s="214" t="n"/>
+      <c r="J18" s="214" t="n"/>
+      <c r="K18" s="214" t="n"/>
+      <c r="L18" s="220" t="n"/>
     </row>
     <row r="19">
       <c r="C19" s="100" t="n"/>
@@ -6697,36 +6701,36 @@
     <row r="20">
       <c r="A20" s="138" t="n"/>
       <c r="B20" s="138" t="n"/>
-      <c r="C20" s="228" t="inlineStr">
+      <c r="C20" s="222" t="inlineStr">
         <is>
           <t>Match Day 1</t>
         </is>
       </c>
-      <c r="D20" s="222" t="n"/>
+      <c r="D20" s="216" t="n"/>
       <c r="E20" s="139" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
-      <c r="F20" s="216" t="n"/>
-      <c r="G20" s="228" t="inlineStr">
+      <c r="F20" s="210" t="n"/>
+      <c r="G20" s="222" t="inlineStr">
         <is>
           <t>Match Day 2</t>
         </is>
       </c>
-      <c r="H20" s="222" t="n"/>
+      <c r="H20" s="216" t="n"/>
       <c r="I20" s="139" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
-      <c r="J20" s="216" t="n"/>
-      <c r="K20" s="228" t="inlineStr">
+      <c r="J20" s="210" t="n"/>
+      <c r="K20" s="222" t="inlineStr">
         <is>
           <t>Match Day 3</t>
         </is>
       </c>
-      <c r="L20" s="222" t="n"/>
+      <c r="L20" s="216" t="n"/>
       <c r="M20" s="139" t="inlineStr">
         <is>
           <t>Results</t>
@@ -6746,7 +6750,7 @@
       <c r="Y20" s="138" t="n"/>
       <c r="Z20" s="138" t="n"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1" s="191">
+    <row r="21" ht="15.75" customHeight="1" s="202">
       <c r="C21" s="140" t="inlineStr">
         <is>
           <t>Turkey</t>
@@ -6799,7 +6803,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1" s="191">
+    <row r="22" ht="15.75" customHeight="1" s="202">
       <c r="C22" s="148" t="n"/>
       <c r="D22" s="143" t="n"/>
       <c r="E22" s="149" t="n"/>
@@ -6836,7 +6840,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1" s="191">
+    <row r="23" ht="15.75" customHeight="1" s="202">
       <c r="C23" s="140" t="inlineStr">
         <is>
           <t>Wales</t>
@@ -6875,7 +6879,7 @@
       <c r="L23" s="143" t="n"/>
       <c r="M23" s="149" t="n"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1" s="191">
+    <row r="24" ht="15.75" customHeight="1" s="202">
       <c r="C24" s="144" t="inlineStr">
         <is>
           <t>Denmark</t>
@@ -6914,7 +6918,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1" s="191">
+    <row r="25" ht="15.75" customHeight="1" s="202">
       <c r="C25" s="144" t="inlineStr">
         <is>
           <t>Belgium</t>
@@ -6965,7 +6969,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1" s="191">
+    <row r="26" ht="15.75" customHeight="1" s="202">
       <c r="C26" s="148" t="n"/>
       <c r="D26" s="143" t="n"/>
       <c r="E26" s="149" t="n"/>
@@ -7002,7 +7006,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1" s="191">
+    <row r="27" ht="15.75" customHeight="1" s="202">
       <c r="C27" s="153" t="inlineStr">
         <is>
           <t>England</t>
@@ -7053,7 +7057,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1" s="191">
+    <row r="28" ht="15.75" customHeight="1" s="202">
       <c r="C28" s="150" t="inlineStr">
         <is>
           <t>Austria</t>
@@ -7080,7 +7084,7 @@
       <c r="L28" s="143" t="n"/>
       <c r="M28" s="149" t="n"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1" s="191">
+    <row r="29" ht="15.75" customHeight="1" s="202">
       <c r="C29" s="150" t="inlineStr">
         <is>
           <t>Netherlands</t>
@@ -7131,7 +7135,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1" s="191">
+    <row r="30" ht="15.75" customHeight="1" s="202">
       <c r="C30" s="148" t="n"/>
       <c r="D30" s="143" t="n"/>
       <c r="E30" s="149" t="n"/>
@@ -7168,7 +7172,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1" s="191">
+    <row r="31" ht="15.75" customHeight="1" s="202">
       <c r="C31" s="153" t="inlineStr">
         <is>
           <t>Scotland</t>
@@ -7207,7 +7211,7 @@
       <c r="L31" s="143" t="n"/>
       <c r="M31" s="149" t="n"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1" s="191">
+    <row r="32" ht="15.75" customHeight="1" s="202">
       <c r="C32" s="156" t="inlineStr">
         <is>
           <t>Poland</t>
@@ -7246,7 +7250,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1" s="191">
+    <row r="33" ht="15.75" customHeight="1" s="202">
       <c r="C33" s="156" t="inlineStr">
         <is>
           <t>Spain</t>
@@ -7297,7 +7301,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1" s="191">
+    <row r="34" ht="15.75" customHeight="1" s="202">
       <c r="C34" s="148" t="n"/>
       <c r="D34" s="143" t="n"/>
       <c r="E34" s="149" t="n"/>
@@ -7334,7 +7338,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1" s="191">
+    <row r="35" ht="15.75" customHeight="1" s="202">
       <c r="C35" s="159" t="inlineStr">
         <is>
           <t>Hungary</t>
@@ -7385,7 +7389,7 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1" s="191">
+    <row r="36" ht="15.75" customHeight="1" s="202">
       <c r="C36" s="162" t="inlineStr">
         <is>
           <t>France</t>
@@ -7412,70 +7416,70 @@
       <c r="L36" s="166" t="n"/>
       <c r="M36" s="167" t="n"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1" s="191"/>
-    <row r="38" ht="39.75" customHeight="1" s="191">
-      <c r="C38" s="219" t="inlineStr">
+    <row r="37" ht="15.75" customHeight="1" s="202"/>
+    <row r="38" ht="39.75" customHeight="1" s="202">
+      <c r="C38" s="213" t="inlineStr">
         <is>
           <t xml:space="preserve">We'll do the competition in two halves since the Round of 16 is heavily dependent on the Group Stages. </t>
         </is>
       </c>
-      <c r="D38" s="220" t="n"/>
-      <c r="E38" s="220" t="n"/>
-      <c r="F38" s="220" t="n"/>
-      <c r="G38" s="220" t="n"/>
-      <c r="H38" s="220" t="n"/>
-      <c r="I38" s="220" t="n"/>
-      <c r="J38" s="220" t="n"/>
-      <c r="K38" s="220" t="n"/>
-      <c r="L38" s="220" t="n"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1" s="191">
+      <c r="D38" s="214" t="n"/>
+      <c r="E38" s="214" t="n"/>
+      <c r="F38" s="214" t="n"/>
+      <c r="G38" s="214" t="n"/>
+      <c r="H38" s="214" t="n"/>
+      <c r="I38" s="214" t="n"/>
+      <c r="J38" s="214" t="n"/>
+      <c r="K38" s="214" t="n"/>
+      <c r="L38" s="214" t="n"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1" s="202">
       <c r="C39" s="136" t="inlineStr">
         <is>
           <t>Name:</t>
         </is>
       </c>
-      <c r="D39" s="221" t="n"/>
-      <c r="E39" s="222" t="n"/>
-      <c r="F39" s="222" t="n"/>
-      <c r="G39" s="223" t="n"/>
-      <c r="H39" s="224" t="inlineStr">
+      <c r="D39" s="215" t="n"/>
+      <c r="E39" s="216" t="n"/>
+      <c r="F39" s="216" t="n"/>
+      <c r="G39" s="217" t="n"/>
+      <c r="H39" s="218" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULTS         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I39" s="222" t="n"/>
-      <c r="J39" s="222" t="n"/>
-      <c r="K39" s="222" t="n"/>
-      <c r="L39" s="223" t="n"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1" s="191">
+      <c r="I39" s="216" t="n"/>
+      <c r="J39" s="216" t="n"/>
+      <c r="K39" s="216" t="n"/>
+      <c r="L39" s="217" t="n"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1" s="202">
       <c r="C40" s="137" t="inlineStr">
         <is>
           <t>Date:</t>
         </is>
       </c>
-      <c r="D40" s="227" t="n"/>
-      <c r="E40" s="220" t="n"/>
-      <c r="F40" s="220" t="n"/>
-      <c r="G40" s="226" t="n"/>
-      <c r="H40" s="225" t="n"/>
-      <c r="I40" s="220" t="n"/>
-      <c r="J40" s="220" t="n"/>
-      <c r="K40" s="220" t="n"/>
-      <c r="L40" s="226" t="n"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1" s="191">
+      <c r="D40" s="221" t="n"/>
+      <c r="E40" s="214" t="n"/>
+      <c r="F40" s="214" t="n"/>
+      <c r="G40" s="220" t="n"/>
+      <c r="H40" s="219" t="n"/>
+      <c r="I40" s="214" t="n"/>
+      <c r="J40" s="214" t="n"/>
+      <c r="K40" s="214" t="n"/>
+      <c r="L40" s="220" t="n"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1" s="202">
       <c r="B41" s="168" t="n"/>
       <c r="C41" s="169" t="n"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1" s="191">
-      <c r="B42" s="229" t="inlineStr">
+    <row r="42" ht="15.75" customHeight="1" s="202">
+      <c r="B42" s="223" t="inlineStr">
         <is>
           <t>Round of 16</t>
         </is>
       </c>
-      <c r="C42" s="220" t="n"/>
+      <c r="C42" s="214" t="n"/>
       <c r="D42" s="170" t="inlineStr">
         <is>
           <t>Results</t>
@@ -7519,12 +7523,12 @@
       </c>
       <c r="Q42" s="138" t="n"/>
       <c r="R42" s="171" t="n"/>
-      <c r="S42" s="216" t="n"/>
+      <c r="S42" s="210" t="n"/>
       <c r="U42" s="138" t="n"/>
       <c r="V42" s="171" t="n"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1" s="191">
-      <c r="B43" s="210" t="inlineStr">
+    <row r="43" ht="15.75" customHeight="1" s="202">
+      <c r="B43" s="224" t="inlineStr">
         <is>
           <t>R1</t>
         </is>
@@ -7534,7 +7538,7 @@
           <t>Winner Group A</t>
         </is>
       </c>
-      <c r="D43" s="212" t="n"/>
+      <c r="D43" s="226" t="n"/>
       <c r="E43" s="171" t="n"/>
       <c r="F43" s="171" t="n"/>
       <c r="O43" s="171" t="n"/>
@@ -7546,16 +7550,16 @@
       <c r="U43" s="171" t="n"/>
       <c r="V43" s="171" t="n"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B44" s="211" t="n"/>
+    <row r="44" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B44" s="225" t="n"/>
       <c r="C44" s="173" t="inlineStr">
         <is>
           <t>2nd Group C</t>
         </is>
       </c>
-      <c r="D44" s="211" t="n"/>
+      <c r="D44" s="225" t="n"/>
       <c r="E44" s="174" t="n"/>
-      <c r="F44" s="214" t="inlineStr">
+      <c r="F44" s="227" t="inlineStr">
         <is>
           <t>QF1</t>
         </is>
@@ -7565,7 +7569,7 @@
           <t>Winner R1</t>
         </is>
       </c>
-      <c r="H44" s="212" t="n"/>
+      <c r="H44" s="226" t="n"/>
       <c r="O44" s="171" t="n"/>
       <c r="P44" s="171" t="n"/>
       <c r="Q44" s="171" t="n"/>
@@ -7575,18 +7579,18 @@
       <c r="U44" s="171" t="n"/>
       <c r="V44" s="171" t="n"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1" s="191" thickBot="1">
+    <row r="45" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B45" s="138" t="n"/>
       <c r="C45" s="171" t="n"/>
       <c r="D45" s="176" t="n"/>
       <c r="E45" s="177" t="n"/>
-      <c r="F45" s="211" t="n"/>
+      <c r="F45" s="225" t="n"/>
       <c r="G45" s="178" t="inlineStr">
         <is>
           <t>Winner R2</t>
         </is>
       </c>
-      <c r="H45" s="211" t="n"/>
+      <c r="H45" s="225" t="n"/>
       <c r="O45" s="171" t="n"/>
       <c r="P45" s="171" t="n"/>
       <c r="Q45" s="171" t="n"/>
@@ -7596,8 +7600,8 @@
       <c r="U45" s="171" t="n"/>
       <c r="V45" s="171" t="n"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1" s="191">
-      <c r="B46" s="210" t="inlineStr">
+    <row r="46" ht="15.75" customHeight="1" s="202">
+      <c r="B46" s="224" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
@@ -7607,7 +7611,7 @@
           <t>Winner Group B</t>
         </is>
       </c>
-      <c r="D46" s="212" t="n"/>
+      <c r="D46" s="226" t="n"/>
       <c r="E46" s="171" t="n"/>
       <c r="F46" s="171" t="n"/>
       <c r="G46" s="179" t="n"/>
@@ -7621,20 +7625,20 @@
       <c r="U46" s="171" t="n"/>
       <c r="V46" s="171" t="n"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B47" s="211" t="n"/>
+    <row r="47" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B47" s="225" t="n"/>
       <c r="C47" s="173" t="inlineStr">
         <is>
           <t>3rd Group A/D/E/F</t>
         </is>
       </c>
-      <c r="D47" s="211" t="n"/>
+      <c r="D47" s="225" t="n"/>
       <c r="E47" s="171" t="n"/>
       <c r="F47" s="171" t="n"/>
       <c r="G47" s="179" t="n"/>
       <c r="H47" s="181" t="n"/>
       <c r="I47" s="177" t="n"/>
-      <c r="J47" s="213" t="inlineStr">
+      <c r="J47" s="228" t="inlineStr">
         <is>
           <t>SF1</t>
         </is>
@@ -7644,16 +7648,16 @@
           <t>Winner QF1</t>
         </is>
       </c>
-      <c r="L47" s="212" t="n"/>
+      <c r="L47" s="226" t="n"/>
       <c r="O47" s="171" t="n"/>
       <c r="P47" s="171" t="n"/>
       <c r="Q47" s="171" t="n"/>
       <c r="R47" s="171" t="n"/>
-      <c r="S47" s="216" t="n"/>
+      <c r="S47" s="210" t="n"/>
       <c r="U47" s="138" t="n"/>
       <c r="V47" s="171" t="n"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1" s="191">
+    <row r="48" ht="15.75" customHeight="1" s="202">
       <c r="B48" s="138" t="n"/>
       <c r="C48" s="171" t="n"/>
       <c r="D48" s="176" t="n"/>
@@ -7661,13 +7665,13 @@
       <c r="F48" s="171" t="n"/>
       <c r="G48" s="179" t="n"/>
       <c r="H48" s="181" t="n"/>
-      <c r="J48" s="211" t="n"/>
+      <c r="J48" s="225" t="n"/>
       <c r="K48" s="165" t="inlineStr">
         <is>
           <t>Winner QF2</t>
         </is>
       </c>
-      <c r="L48" s="211" t="n"/>
+      <c r="L48" s="225" t="n"/>
       <c r="O48" s="171" t="n"/>
       <c r="P48" s="171" t="n"/>
       <c r="Q48" s="171" t="n"/>
@@ -7677,8 +7681,8 @@
       <c r="U48" s="171" t="n"/>
       <c r="V48" s="171" t="n"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1" s="191">
-      <c r="B49" s="210" t="inlineStr">
+    <row r="49" ht="15.75" customHeight="1" s="202">
+      <c r="B49" s="224" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
@@ -7688,7 +7692,7 @@
           <t>Winner Group F</t>
         </is>
       </c>
-      <c r="D49" s="212" t="n"/>
+      <c r="D49" s="226" t="n"/>
       <c r="E49" s="171" t="n"/>
       <c r="F49" s="171" t="n"/>
       <c r="G49" s="179" t="n"/>
@@ -7696,16 +7700,16 @@
       <c r="K49" s="143" t="n"/>
       <c r="L49" s="180" t="n"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B50" s="211" t="n"/>
+    <row r="50" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B50" s="225" t="n"/>
       <c r="C50" s="173" t="inlineStr">
         <is>
           <t>3rd Group A/B/C</t>
         </is>
       </c>
-      <c r="D50" s="211" t="n"/>
+      <c r="D50" s="225" t="n"/>
       <c r="E50" s="177" t="n"/>
-      <c r="F50" s="214" t="inlineStr">
+      <c r="F50" s="227" t="inlineStr">
         <is>
           <t>QF2</t>
         </is>
@@ -7715,27 +7719,27 @@
           <t>Winner R3</t>
         </is>
       </c>
-      <c r="H50" s="212" t="n"/>
+      <c r="H50" s="226" t="n"/>
       <c r="K50" s="143" t="n"/>
       <c r="L50" s="181" t="n"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1" s="191" thickBot="1">
+    <row r="51" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B51" s="138" t="n"/>
       <c r="C51" s="171" t="n"/>
       <c r="D51" s="176" t="n"/>
       <c r="E51" s="177" t="n"/>
-      <c r="F51" s="211" t="n"/>
+      <c r="F51" s="225" t="n"/>
       <c r="G51" s="178" t="inlineStr">
         <is>
           <t>Winner R4</t>
         </is>
       </c>
-      <c r="H51" s="211" t="n"/>
+      <c r="H51" s="225" t="n"/>
       <c r="K51" s="143" t="n"/>
       <c r="L51" s="181" t="n"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B52" s="210" t="inlineStr">
+    <row r="52" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B52" s="224" t="inlineStr">
         <is>
           <t>R4</t>
         </is>
@@ -7745,7 +7749,7 @@
           <t>2nd Group D</t>
         </is>
       </c>
-      <c r="D52" s="212" t="n"/>
+      <c r="D52" s="226" t="n"/>
       <c r="E52" s="171" t="n"/>
       <c r="F52" s="171" t="n"/>
       <c r="G52" s="179" t="n"/>
@@ -7753,7 +7757,7 @@
       <c r="K52" s="143" t="n"/>
       <c r="L52" s="181" t="n"/>
       <c r="M52" s="177" t="n"/>
-      <c r="N52" s="215" t="inlineStr">
+      <c r="N52" s="229" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -7763,31 +7767,31 @@
           <t>Winner SF1</t>
         </is>
       </c>
-      <c r="P52" s="212" t="n"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1" s="191">
-      <c r="B53" s="211" t="n"/>
+      <c r="P52" s="226" t="n"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1" s="202">
+      <c r="B53" s="225" t="n"/>
       <c r="C53" s="173" t="inlineStr">
         <is>
           <t>2nd Group E</t>
         </is>
       </c>
-      <c r="D53" s="211" t="n"/>
+      <c r="D53" s="225" t="n"/>
       <c r="E53" s="171" t="n"/>
       <c r="F53" s="171" t="n"/>
       <c r="G53" s="179" t="n"/>
       <c r="H53" s="176" t="n"/>
       <c r="K53" s="143" t="n"/>
       <c r="L53" s="181" t="n"/>
-      <c r="N53" s="211" t="n"/>
+      <c r="N53" s="225" t="n"/>
       <c r="O53" s="165" t="inlineStr">
         <is>
           <t>Winner SF2</t>
         </is>
       </c>
-      <c r="P53" s="211" t="n"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1" s="191">
+      <c r="P53" s="225" t="n"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1" s="202">
       <c r="B54" s="138" t="n"/>
       <c r="C54" s="171" t="n"/>
       <c r="D54" s="176" t="n"/>
@@ -7798,8 +7802,8 @@
       <c r="K54" s="143" t="n"/>
       <c r="L54" s="181" t="n"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1" s="191">
-      <c r="B55" s="210" t="inlineStr">
+    <row r="55" ht="15.75" customHeight="1" s="202">
+      <c r="B55" s="224" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
@@ -7809,7 +7813,7 @@
           <t>Winner Group E</t>
         </is>
       </c>
-      <c r="D55" s="212" t="n"/>
+      <c r="D55" s="226" t="n"/>
       <c r="E55" s="171" t="n"/>
       <c r="F55" s="171" t="n"/>
       <c r="G55" s="179" t="n"/>
@@ -7817,16 +7821,16 @@
       <c r="K55" s="143" t="n"/>
       <c r="L55" s="181" t="n"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B56" s="211" t="n"/>
+    <row r="56" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B56" s="225" t="n"/>
       <c r="C56" s="173" t="inlineStr">
         <is>
           <t>3rd Group A/B/C/D</t>
         </is>
       </c>
-      <c r="D56" s="211" t="n"/>
+      <c r="D56" s="225" t="n"/>
       <c r="E56" s="174" t="n"/>
-      <c r="F56" s="214" t="inlineStr">
+      <c r="F56" s="227" t="inlineStr">
         <is>
           <t>QF3</t>
         </is>
@@ -7836,26 +7840,26 @@
           <t>Winner R5</t>
         </is>
       </c>
-      <c r="H56" s="212" t="n"/>
+      <c r="H56" s="226" t="n"/>
       <c r="K56" s="143" t="n"/>
       <c r="L56" s="181" t="n"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1" s="191" thickBot="1">
+    <row r="57" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B57" s="138" t="n"/>
       <c r="D57" s="176" t="n"/>
       <c r="E57" s="184" t="n"/>
-      <c r="F57" s="211" t="n"/>
+      <c r="F57" s="225" t="n"/>
       <c r="G57" s="178" t="inlineStr">
         <is>
           <t>Winner R6</t>
         </is>
       </c>
-      <c r="H57" s="211" t="n"/>
+      <c r="H57" s="225" t="n"/>
       <c r="K57" s="143" t="n"/>
       <c r="L57" s="181" t="n"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1" s="191">
-      <c r="B58" s="210" t="inlineStr">
+    <row r="58" ht="15.75" customHeight="1" s="202">
+      <c r="B58" s="224" t="inlineStr">
         <is>
           <t>R6</t>
         </is>
@@ -7865,24 +7869,24 @@
           <t>Winner Group D</t>
         </is>
       </c>
-      <c r="D58" s="212" t="n"/>
+      <c r="D58" s="226" t="n"/>
       <c r="G58" s="179" t="n"/>
       <c r="H58" s="180" t="n"/>
       <c r="K58" s="143" t="n"/>
       <c r="L58" s="183" t="n"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B59" s="211" t="n"/>
+    <row r="59" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B59" s="225" t="n"/>
       <c r="C59" s="173" t="inlineStr">
         <is>
           <t>2nd Group F</t>
         </is>
       </c>
-      <c r="D59" s="211" t="n"/>
+      <c r="D59" s="225" t="n"/>
       <c r="G59" s="179" t="n"/>
       <c r="H59" s="181" t="n"/>
       <c r="I59" s="177" t="n"/>
-      <c r="J59" s="213" t="inlineStr">
+      <c r="J59" s="228" t="inlineStr">
         <is>
           <t>SF2</t>
         </is>
@@ -7892,23 +7896,23 @@
           <t>Winner QF3</t>
         </is>
       </c>
-      <c r="L59" s="212" t="n"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1" s="191">
+      <c r="L59" s="226" t="n"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1" s="202">
       <c r="B60" s="138" t="n"/>
       <c r="D60" s="176" t="n"/>
       <c r="G60" s="179" t="n"/>
       <c r="H60" s="181" t="n"/>
-      <c r="J60" s="211" t="n"/>
+      <c r="J60" s="225" t="n"/>
       <c r="K60" s="165" t="inlineStr">
         <is>
           <t>Winner QF4</t>
         </is>
       </c>
-      <c r="L60" s="211" t="n"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1" s="191">
-      <c r="B61" s="210" t="inlineStr">
+      <c r="L60" s="225" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="202">
+      <c r="B61" s="224" t="inlineStr">
         <is>
           <t>R7</t>
         </is>
@@ -7918,20 +7922,20 @@
           <t>Winner GroupC</t>
         </is>
       </c>
-      <c r="D61" s="212" t="n"/>
+      <c r="D61" s="226" t="n"/>
       <c r="G61" s="179" t="n"/>
       <c r="H61" s="183" t="n"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B62" s="211" t="n"/>
+    <row r="62" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B62" s="225" t="n"/>
       <c r="C62" s="173" t="inlineStr">
         <is>
           <t>3rd Group D/E/F</t>
         </is>
       </c>
-      <c r="D62" s="211" t="n"/>
+      <c r="D62" s="225" t="n"/>
       <c r="E62" s="174" t="n"/>
-      <c r="F62" s="214" t="inlineStr">
+      <c r="F62" s="227" t="inlineStr">
         <is>
           <t>QF4</t>
         </is>
@@ -7941,22 +7945,22 @@
           <t>Winner R7</t>
         </is>
       </c>
-      <c r="H62" s="212" t="n"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="H62" s="226" t="n"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B63" s="138" t="n"/>
       <c r="D63" s="176" t="n"/>
       <c r="E63" s="184" t="n"/>
-      <c r="F63" s="211" t="n"/>
+      <c r="F63" s="225" t="n"/>
       <c r="G63" s="178" t="inlineStr">
         <is>
           <t>Winner R8</t>
         </is>
       </c>
-      <c r="H63" s="211" t="n"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1" s="191">
-      <c r="B64" s="210" t="inlineStr">
+      <c r="H63" s="225" t="n"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1" s="202">
+      <c r="B64" s="224" t="inlineStr">
         <is>
           <t>R8</t>
         </is>
@@ -7966,954 +7970,985 @@
           <t>2nd Group A</t>
         </is>
       </c>
-      <c r="D64" s="212" t="n"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1" s="191">
-      <c r="B65" s="211" t="n"/>
+      <c r="D64" s="226" t="n"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1" s="202">
+      <c r="B65" s="225" t="n"/>
       <c r="C65" s="173" t="inlineStr">
         <is>
           <t>2nd Group B</t>
         </is>
       </c>
-      <c r="D65" s="211" t="n"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1" s="191"/>
-    <row r="67" ht="15.75" customHeight="1" s="191"/>
-    <row r="68" ht="15.75" customHeight="1" s="191"/>
-    <row r="69" ht="15.75" customHeight="1" s="191"/>
-    <row r="70" ht="15.75" customHeight="1" s="191"/>
-    <row r="71" ht="15.75" customHeight="1" s="191"/>
-    <row r="72" ht="15.75" customHeight="1" s="191"/>
-    <row r="73" ht="15.75" customHeight="1" s="191"/>
-    <row r="74" ht="15.75" customHeight="1" s="191"/>
-    <row r="75" ht="15.75" customHeight="1" s="191"/>
-    <row r="76" ht="15.75" customHeight="1" s="191"/>
-    <row r="77" ht="15.75" customHeight="1" s="191"/>
-    <row r="78" ht="15.75" customHeight="1" s="191"/>
-    <row r="79" ht="15.75" customHeight="1" s="191"/>
-    <row r="80" ht="15.75" customHeight="1" s="191"/>
-    <row r="81" ht="15.75" customHeight="1" s="191"/>
-    <row r="82" ht="15.75" customHeight="1" s="191"/>
-    <row r="83" ht="15.75" customHeight="1" s="191"/>
-    <row r="84" ht="15.75" customHeight="1" s="191"/>
-    <row r="85" ht="15.75" customHeight="1" s="191"/>
-    <row r="86" ht="15.75" customHeight="1" s="191"/>
-    <row r="87" ht="15.75" customHeight="1" s="191"/>
-    <row r="88" ht="15.75" customHeight="1" s="191"/>
-    <row r="89" ht="15.75" customHeight="1" s="191"/>
-    <row r="90" ht="15.75" customHeight="1" s="191"/>
-    <row r="91" ht="15.75" customHeight="1" s="191"/>
-    <row r="92" ht="15.75" customHeight="1" s="191"/>
-    <row r="93" ht="15.75" customHeight="1" s="191"/>
-    <row r="94" ht="15.75" customHeight="1" s="191"/>
-    <row r="95" ht="15.75" customHeight="1" s="191"/>
-    <row r="96" ht="15.75" customHeight="1" s="191"/>
-    <row r="97" ht="15.75" customHeight="1" s="191"/>
-    <row r="98" ht="15.75" customHeight="1" s="191"/>
-    <row r="99" ht="15.75" customHeight="1" s="191"/>
-    <row r="100" ht="15.75" customHeight="1" s="191"/>
-    <row r="101" ht="15.75" customHeight="1" s="191"/>
-    <row r="102" ht="15.75" customHeight="1" s="191"/>
-    <row r="103" ht="15.75" customHeight="1" s="191"/>
-    <row r="104" ht="15.75" customHeight="1" s="191"/>
-    <row r="105" ht="15.75" customHeight="1" s="191"/>
-    <row r="106" ht="15.75" customHeight="1" s="191"/>
-    <row r="107" ht="15.75" customHeight="1" s="191"/>
-    <row r="108" ht="15.75" customHeight="1" s="191"/>
-    <row r="109" ht="15.75" customHeight="1" s="191"/>
-    <row r="110" ht="15.75" customHeight="1" s="191"/>
-    <row r="111" ht="15.75" customHeight="1" s="191"/>
-    <row r="112" ht="15.75" customHeight="1" s="191"/>
-    <row r="113" ht="15.75" customHeight="1" s="191"/>
-    <row r="114" ht="15.75" customHeight="1" s="191"/>
-    <row r="115" ht="15.75" customHeight="1" s="191"/>
-    <row r="116" ht="15.75" customHeight="1" s="191"/>
-    <row r="117" ht="15.75" customHeight="1" s="191"/>
-    <row r="118" ht="15.75" customHeight="1" s="191"/>
-    <row r="119" ht="15.75" customHeight="1" s="191"/>
-    <row r="120" ht="15.75" customHeight="1" s="191"/>
-    <row r="121" ht="15.75" customHeight="1" s="191"/>
-    <row r="122" ht="15.75" customHeight="1" s="191"/>
-    <row r="123" ht="15.75" customHeight="1" s="191"/>
-    <row r="124" ht="15.75" customHeight="1" s="191"/>
-    <row r="125" ht="15.75" customHeight="1" s="191"/>
-    <row r="126" ht="15.75" customHeight="1" s="191"/>
-    <row r="127" ht="15.75" customHeight="1" s="191"/>
-    <row r="128" ht="15.75" customHeight="1" s="191"/>
-    <row r="129" ht="15.75" customHeight="1" s="191"/>
-    <row r="130" ht="15.75" customHeight="1" s="191"/>
-    <row r="131" ht="15.75" customHeight="1" s="191"/>
-    <row r="132" ht="15.75" customHeight="1" s="191"/>
-    <row r="133" ht="15.75" customHeight="1" s="191"/>
-    <row r="134" ht="15.75" customHeight="1" s="191"/>
-    <row r="135" ht="15.75" customHeight="1" s="191"/>
-    <row r="136" ht="15.75" customHeight="1" s="191"/>
-    <row r="137" ht="15.75" customHeight="1" s="191"/>
-    <row r="138" ht="15.75" customHeight="1" s="191"/>
-    <row r="139" ht="15.75" customHeight="1" s="191"/>
-    <row r="140" ht="15.75" customHeight="1" s="191"/>
-    <row r="141" ht="15.75" customHeight="1" s="191"/>
-    <row r="142" ht="15.75" customHeight="1" s="191"/>
-    <row r="143" ht="15.75" customHeight="1" s="191"/>
-    <row r="144" ht="15.75" customHeight="1" s="191"/>
-    <row r="145" ht="15.75" customHeight="1" s="191"/>
-    <row r="146" ht="15.75" customHeight="1" s="191"/>
-    <row r="147" ht="15.75" customHeight="1" s="191"/>
-    <row r="148" ht="15.75" customHeight="1" s="191"/>
-    <row r="149" ht="15.75" customHeight="1" s="191"/>
-    <row r="150" ht="15.75" customHeight="1" s="191"/>
-    <row r="151" ht="15.75" customHeight="1" s="191"/>
-    <row r="152" ht="15.75" customHeight="1" s="191"/>
-    <row r="153" ht="15.75" customHeight="1" s="191"/>
-    <row r="154" ht="15.75" customHeight="1" s="191"/>
-    <row r="155" ht="15.75" customHeight="1" s="191"/>
-    <row r="156" ht="15.75" customHeight="1" s="191"/>
-    <row r="157" ht="15.75" customHeight="1" s="191"/>
-    <row r="158" ht="15.75" customHeight="1" s="191"/>
-    <row r="159" ht="15.75" customHeight="1" s="191"/>
-    <row r="160" ht="15.75" customHeight="1" s="191"/>
-    <row r="161" ht="15.75" customHeight="1" s="191"/>
-    <row r="162" ht="15.75" customHeight="1" s="191"/>
-    <row r="163" ht="15.75" customHeight="1" s="191"/>
-    <row r="164" ht="15.75" customHeight="1" s="191"/>
-    <row r="165" ht="15.75" customHeight="1" s="191"/>
-    <row r="166" ht="15.75" customHeight="1" s="191"/>
-    <row r="167" ht="15.75" customHeight="1" s="191"/>
-    <row r="168" ht="15.75" customHeight="1" s="191"/>
-    <row r="169" ht="15.75" customHeight="1" s="191"/>
-    <row r="170" ht="15.75" customHeight="1" s="191"/>
-    <row r="171" ht="15.75" customHeight="1" s="191"/>
-    <row r="172" ht="15.75" customHeight="1" s="191"/>
-    <row r="173" ht="15.75" customHeight="1" s="191"/>
-    <row r="174" ht="15.75" customHeight="1" s="191"/>
-    <row r="175" ht="15.75" customHeight="1" s="191"/>
-    <row r="176" ht="15.75" customHeight="1" s="191"/>
-    <row r="177" ht="15.75" customHeight="1" s="191"/>
-    <row r="178" ht="15.75" customHeight="1" s="191"/>
-    <row r="179" ht="15.75" customHeight="1" s="191"/>
-    <row r="180" ht="15.75" customHeight="1" s="191"/>
-    <row r="181" ht="15.75" customHeight="1" s="191"/>
-    <row r="182" ht="15.75" customHeight="1" s="191"/>
-    <row r="183" ht="15.75" customHeight="1" s="191"/>
-    <row r="184" ht="15.75" customHeight="1" s="191"/>
-    <row r="185" ht="15.75" customHeight="1" s="191"/>
-    <row r="186" ht="15.75" customHeight="1" s="191"/>
-    <row r="187" ht="15.75" customHeight="1" s="191"/>
-    <row r="188" ht="15.75" customHeight="1" s="191"/>
-    <row r="189" ht="15.75" customHeight="1" s="191"/>
-    <row r="190" ht="15.75" customHeight="1" s="191"/>
-    <row r="191" ht="15.75" customHeight="1" s="191"/>
-    <row r="192" ht="15.75" customHeight="1" s="191"/>
-    <row r="193" ht="15.75" customHeight="1" s="191"/>
-    <row r="194" ht="15.75" customHeight="1" s="191"/>
-    <row r="195" ht="15.75" customHeight="1" s="191"/>
-    <row r="196" ht="15.75" customHeight="1" s="191"/>
-    <row r="197" ht="15.75" customHeight="1" s="191"/>
-    <row r="198" ht="15.75" customHeight="1" s="191"/>
-    <row r="199" ht="15.75" customHeight="1" s="191"/>
-    <row r="200" ht="15.75" customHeight="1" s="191"/>
-    <row r="201" ht="15.75" customHeight="1" s="191"/>
-    <row r="202" ht="15.75" customHeight="1" s="191"/>
-    <row r="203" ht="15.75" customHeight="1" s="191"/>
-    <row r="204" ht="15.75" customHeight="1" s="191"/>
-    <row r="205" ht="15.75" customHeight="1" s="191"/>
-    <row r="206" ht="15.75" customHeight="1" s="191"/>
-    <row r="207" ht="15.75" customHeight="1" s="191"/>
-    <row r="208" ht="15.75" customHeight="1" s="191"/>
-    <row r="209" ht="15.75" customHeight="1" s="191"/>
-    <row r="210" ht="15.75" customHeight="1" s="191"/>
-    <row r="211" ht="15.75" customHeight="1" s="191"/>
-    <row r="212" ht="15.75" customHeight="1" s="191"/>
-    <row r="213" ht="15.75" customHeight="1" s="191"/>
-    <row r="214" ht="15.75" customHeight="1" s="191"/>
-    <row r="215" ht="15.75" customHeight="1" s="191"/>
-    <row r="216" ht="15.75" customHeight="1" s="191"/>
-    <row r="217" ht="15.75" customHeight="1" s="191"/>
-    <row r="218" ht="15.75" customHeight="1" s="191"/>
-    <row r="219" ht="15.75" customHeight="1" s="191"/>
-    <row r="220" ht="15.75" customHeight="1" s="191"/>
-    <row r="221" ht="15.75" customHeight="1" s="191"/>
-    <row r="222" ht="15.75" customHeight="1" s="191"/>
-    <row r="223" ht="15.75" customHeight="1" s="191"/>
-    <row r="224" ht="15.75" customHeight="1" s="191"/>
-    <row r="225" ht="15.75" customHeight="1" s="191"/>
-    <row r="226" ht="15.75" customHeight="1" s="191"/>
-    <row r="227" ht="15.75" customHeight="1" s="191"/>
-    <row r="228" ht="15.75" customHeight="1" s="191"/>
-    <row r="229" ht="15.75" customHeight="1" s="191"/>
-    <row r="230" ht="15.75" customHeight="1" s="191"/>
-    <row r="231" ht="15.75" customHeight="1" s="191"/>
-    <row r="232" ht="15.75" customHeight="1" s="191"/>
-    <row r="233" ht="15.75" customHeight="1" s="191"/>
-    <row r="234" ht="15.75" customHeight="1" s="191"/>
-    <row r="235" ht="15.75" customHeight="1" s="191"/>
-    <row r="236" ht="15.75" customHeight="1" s="191"/>
-    <row r="237" ht="15.75" customHeight="1" s="191"/>
-    <row r="238" ht="15.75" customHeight="1" s="191"/>
-    <row r="239" ht="15.75" customHeight="1" s="191"/>
-    <row r="240" ht="15.75" customHeight="1" s="191"/>
-    <row r="241" ht="15.75" customHeight="1" s="191"/>
-    <row r="242" ht="15.75" customHeight="1" s="191"/>
-    <row r="243" ht="15.75" customHeight="1" s="191"/>
-    <row r="244" ht="15.75" customHeight="1" s="191"/>
-    <row r="245" ht="15.75" customHeight="1" s="191"/>
-    <row r="246" ht="15.75" customHeight="1" s="191"/>
-    <row r="247" ht="15.75" customHeight="1" s="191"/>
-    <row r="248" ht="15.75" customHeight="1" s="191"/>
-    <row r="249" ht="15.75" customHeight="1" s="191"/>
-    <row r="250" ht="15.75" customHeight="1" s="191"/>
-    <row r="251" ht="15.75" customHeight="1" s="191"/>
-    <row r="252" ht="15.75" customHeight="1" s="191"/>
-    <row r="253" ht="15.75" customHeight="1" s="191"/>
-    <row r="254" ht="15.75" customHeight="1" s="191"/>
-    <row r="255" ht="15.75" customHeight="1" s="191"/>
-    <row r="256" ht="15.75" customHeight="1" s="191"/>
-    <row r="257" ht="15.75" customHeight="1" s="191"/>
-    <row r="258" ht="15.75" customHeight="1" s="191"/>
-    <row r="259" ht="15.75" customHeight="1" s="191"/>
-    <row r="260" ht="15.75" customHeight="1" s="191"/>
-    <row r="261" ht="15.75" customHeight="1" s="191"/>
-    <row r="262" ht="15.75" customHeight="1" s="191"/>
-    <row r="263" ht="15.75" customHeight="1" s="191"/>
-    <row r="264" ht="15.75" customHeight="1" s="191"/>
-    <row r="265" ht="15.75" customHeight="1" s="191"/>
-    <row r="266" ht="15.75" customHeight="1" s="191"/>
-    <row r="267" ht="15.75" customHeight="1" s="191"/>
-    <row r="268" ht="15.75" customHeight="1" s="191"/>
-    <row r="269" ht="15.75" customHeight="1" s="191"/>
-    <row r="270" ht="15.75" customHeight="1" s="191"/>
-    <row r="271" ht="15.75" customHeight="1" s="191"/>
-    <row r="272" ht="15.75" customHeight="1" s="191"/>
-    <row r="273" ht="15.75" customHeight="1" s="191"/>
-    <row r="274" ht="15.75" customHeight="1" s="191"/>
-    <row r="275" ht="15.75" customHeight="1" s="191"/>
-    <row r="276" ht="15.75" customHeight="1" s="191"/>
-    <row r="277" ht="15.75" customHeight="1" s="191"/>
-    <row r="278" ht="15.75" customHeight="1" s="191"/>
-    <row r="279" ht="15.75" customHeight="1" s="191"/>
-    <row r="280" ht="15.75" customHeight="1" s="191"/>
-    <row r="281" ht="15.75" customHeight="1" s="191"/>
-    <row r="282" ht="15.75" customHeight="1" s="191"/>
-    <row r="283" ht="15.75" customHeight="1" s="191"/>
-    <row r="284" ht="15.75" customHeight="1" s="191"/>
-    <row r="285" ht="15.75" customHeight="1" s="191"/>
-    <row r="286" ht="15.75" customHeight="1" s="191"/>
-    <row r="287" ht="15.75" customHeight="1" s="191"/>
-    <row r="288" ht="15.75" customHeight="1" s="191"/>
-    <row r="289" ht="15.75" customHeight="1" s="191"/>
-    <row r="290" ht="15.75" customHeight="1" s="191"/>
-    <row r="291" ht="15.75" customHeight="1" s="191"/>
-    <row r="292" ht="15.75" customHeight="1" s="191"/>
-    <row r="293" ht="15.75" customHeight="1" s="191"/>
-    <row r="294" ht="15.75" customHeight="1" s="191"/>
-    <row r="295" ht="15.75" customHeight="1" s="191"/>
-    <row r="296" ht="15.75" customHeight="1" s="191"/>
-    <row r="297" ht="15.75" customHeight="1" s="191"/>
-    <row r="298" ht="15.75" customHeight="1" s="191"/>
-    <row r="299" ht="15.75" customHeight="1" s="191"/>
-    <row r="300" ht="15.75" customHeight="1" s="191"/>
-    <row r="301" ht="15.75" customHeight="1" s="191"/>
-    <row r="302" ht="15.75" customHeight="1" s="191"/>
-    <row r="303" ht="15.75" customHeight="1" s="191"/>
-    <row r="304" ht="15.75" customHeight="1" s="191"/>
-    <row r="305" ht="15.75" customHeight="1" s="191"/>
-    <row r="306" ht="15.75" customHeight="1" s="191"/>
-    <row r="307" ht="15.75" customHeight="1" s="191"/>
-    <row r="308" ht="15.75" customHeight="1" s="191"/>
-    <row r="309" ht="15.75" customHeight="1" s="191"/>
-    <row r="310" ht="15.75" customHeight="1" s="191"/>
-    <row r="311" ht="15.75" customHeight="1" s="191"/>
-    <row r="312" ht="15.75" customHeight="1" s="191"/>
-    <row r="313" ht="15.75" customHeight="1" s="191"/>
-    <row r="314" ht="15.75" customHeight="1" s="191"/>
-    <row r="315" ht="15.75" customHeight="1" s="191"/>
-    <row r="316" ht="15.75" customHeight="1" s="191"/>
-    <row r="317" ht="15.75" customHeight="1" s="191"/>
-    <row r="318" ht="15.75" customHeight="1" s="191"/>
-    <row r="319" ht="15.75" customHeight="1" s="191"/>
-    <row r="320" ht="15.75" customHeight="1" s="191"/>
-    <row r="321" ht="15.75" customHeight="1" s="191"/>
-    <row r="322" ht="15.75" customHeight="1" s="191"/>
-    <row r="323" ht="15.75" customHeight="1" s="191"/>
-    <row r="324" ht="15.75" customHeight="1" s="191"/>
-    <row r="325" ht="15.75" customHeight="1" s="191"/>
-    <row r="326" ht="15.75" customHeight="1" s="191"/>
-    <row r="327" ht="15.75" customHeight="1" s="191"/>
-    <row r="328" ht="15.75" customHeight="1" s="191"/>
-    <row r="329" ht="15.75" customHeight="1" s="191"/>
-    <row r="330" ht="15.75" customHeight="1" s="191"/>
-    <row r="331" ht="15.75" customHeight="1" s="191"/>
-    <row r="332" ht="15.75" customHeight="1" s="191"/>
-    <row r="333" ht="15.75" customHeight="1" s="191"/>
-    <row r="334" ht="15.75" customHeight="1" s="191"/>
-    <row r="335" ht="15.75" customHeight="1" s="191"/>
-    <row r="336" ht="15.75" customHeight="1" s="191"/>
-    <row r="337" ht="15.75" customHeight="1" s="191"/>
-    <row r="338" ht="15.75" customHeight="1" s="191"/>
-    <row r="339" ht="15.75" customHeight="1" s="191"/>
-    <row r="340" ht="15.75" customHeight="1" s="191"/>
-    <row r="341" ht="15.75" customHeight="1" s="191"/>
-    <row r="342" ht="15.75" customHeight="1" s="191"/>
-    <row r="343" ht="15.75" customHeight="1" s="191"/>
-    <row r="344" ht="15.75" customHeight="1" s="191"/>
-    <row r="345" ht="15.75" customHeight="1" s="191"/>
-    <row r="346" ht="15.75" customHeight="1" s="191"/>
-    <row r="347" ht="15.75" customHeight="1" s="191"/>
-    <row r="348" ht="15.75" customHeight="1" s="191"/>
-    <row r="349" ht="15.75" customHeight="1" s="191"/>
-    <row r="350" ht="15.75" customHeight="1" s="191"/>
-    <row r="351" ht="15.75" customHeight="1" s="191"/>
-    <row r="352" ht="15.75" customHeight="1" s="191"/>
-    <row r="353" ht="15.75" customHeight="1" s="191"/>
-    <row r="354" ht="15.75" customHeight="1" s="191"/>
-    <row r="355" ht="15.75" customHeight="1" s="191"/>
-    <row r="356" ht="15.75" customHeight="1" s="191"/>
-    <row r="357" ht="15.75" customHeight="1" s="191"/>
-    <row r="358" ht="15.75" customHeight="1" s="191"/>
-    <row r="359" ht="15.75" customHeight="1" s="191"/>
-    <row r="360" ht="15.75" customHeight="1" s="191"/>
-    <row r="361" ht="15.75" customHeight="1" s="191"/>
-    <row r="362" ht="15.75" customHeight="1" s="191"/>
-    <row r="363" ht="15.75" customHeight="1" s="191"/>
-    <row r="364" ht="15.75" customHeight="1" s="191"/>
-    <row r="365" ht="15.75" customHeight="1" s="191"/>
-    <row r="366" ht="15.75" customHeight="1" s="191"/>
-    <row r="367" ht="15.75" customHeight="1" s="191"/>
-    <row r="368" ht="15.75" customHeight="1" s="191"/>
-    <row r="369" ht="15.75" customHeight="1" s="191"/>
-    <row r="370" ht="15.75" customHeight="1" s="191"/>
-    <row r="371" ht="15.75" customHeight="1" s="191"/>
-    <row r="372" ht="15.75" customHeight="1" s="191"/>
-    <row r="373" ht="15.75" customHeight="1" s="191"/>
-    <row r="374" ht="15.75" customHeight="1" s="191"/>
-    <row r="375" ht="15.75" customHeight="1" s="191"/>
-    <row r="376" ht="15.75" customHeight="1" s="191"/>
-    <row r="377" ht="15.75" customHeight="1" s="191"/>
-    <row r="378" ht="15.75" customHeight="1" s="191"/>
-    <row r="379" ht="15.75" customHeight="1" s="191"/>
-    <row r="380" ht="15.75" customHeight="1" s="191"/>
-    <row r="381" ht="15.75" customHeight="1" s="191"/>
-    <row r="382" ht="15.75" customHeight="1" s="191"/>
-    <row r="383" ht="15.75" customHeight="1" s="191"/>
-    <row r="384" ht="15.75" customHeight="1" s="191"/>
-    <row r="385" ht="15.75" customHeight="1" s="191"/>
-    <row r="386" ht="15.75" customHeight="1" s="191"/>
-    <row r="387" ht="15.75" customHeight="1" s="191"/>
-    <row r="388" ht="15.75" customHeight="1" s="191"/>
-    <row r="389" ht="15.75" customHeight="1" s="191"/>
-    <row r="390" ht="15.75" customHeight="1" s="191"/>
-    <row r="391" ht="15.75" customHeight="1" s="191"/>
-    <row r="392" ht="15.75" customHeight="1" s="191"/>
-    <row r="393" ht="15.75" customHeight="1" s="191"/>
-    <row r="394" ht="15.75" customHeight="1" s="191"/>
-    <row r="395" ht="15.75" customHeight="1" s="191"/>
-    <row r="396" ht="15.75" customHeight="1" s="191"/>
-    <row r="397" ht="15.75" customHeight="1" s="191"/>
-    <row r="398" ht="15.75" customHeight="1" s="191"/>
-    <row r="399" ht="15.75" customHeight="1" s="191"/>
-    <row r="400" ht="15.75" customHeight="1" s="191"/>
-    <row r="401" ht="15.75" customHeight="1" s="191"/>
-    <row r="402" ht="15.75" customHeight="1" s="191"/>
-    <row r="403" ht="15.75" customHeight="1" s="191"/>
-    <row r="404" ht="15.75" customHeight="1" s="191"/>
-    <row r="405" ht="15.75" customHeight="1" s="191"/>
-    <row r="406" ht="15.75" customHeight="1" s="191"/>
-    <row r="407" ht="15.75" customHeight="1" s="191"/>
-    <row r="408" ht="15.75" customHeight="1" s="191"/>
-    <row r="409" ht="15.75" customHeight="1" s="191"/>
-    <row r="410" ht="15.75" customHeight="1" s="191"/>
-    <row r="411" ht="15.75" customHeight="1" s="191"/>
-    <row r="412" ht="15.75" customHeight="1" s="191"/>
-    <row r="413" ht="15.75" customHeight="1" s="191"/>
-    <row r="414" ht="15.75" customHeight="1" s="191"/>
-    <row r="415" ht="15.75" customHeight="1" s="191"/>
-    <row r="416" ht="15.75" customHeight="1" s="191"/>
-    <row r="417" ht="15.75" customHeight="1" s="191"/>
-    <row r="418" ht="15.75" customHeight="1" s="191"/>
-    <row r="419" ht="15.75" customHeight="1" s="191"/>
-    <row r="420" ht="15.75" customHeight="1" s="191"/>
-    <row r="421" ht="15.75" customHeight="1" s="191"/>
-    <row r="422" ht="15.75" customHeight="1" s="191"/>
-    <row r="423" ht="15.75" customHeight="1" s="191"/>
-    <row r="424" ht="15.75" customHeight="1" s="191"/>
-    <row r="425" ht="15.75" customHeight="1" s="191"/>
-    <row r="426" ht="15.75" customHeight="1" s="191"/>
-    <row r="427" ht="15.75" customHeight="1" s="191"/>
-    <row r="428" ht="15.75" customHeight="1" s="191"/>
-    <row r="429" ht="15.75" customHeight="1" s="191"/>
-    <row r="430" ht="15.75" customHeight="1" s="191"/>
-    <row r="431" ht="15.75" customHeight="1" s="191"/>
-    <row r="432" ht="15.75" customHeight="1" s="191"/>
-    <row r="433" ht="15.75" customHeight="1" s="191"/>
-    <row r="434" ht="15.75" customHeight="1" s="191"/>
-    <row r="435" ht="15.75" customHeight="1" s="191"/>
-    <row r="436" ht="15.75" customHeight="1" s="191"/>
-    <row r="437" ht="15.75" customHeight="1" s="191"/>
-    <row r="438" ht="15.75" customHeight="1" s="191"/>
-    <row r="439" ht="15.75" customHeight="1" s="191"/>
-    <row r="440" ht="15.75" customHeight="1" s="191"/>
-    <row r="441" ht="15.75" customHeight="1" s="191"/>
-    <row r="442" ht="15.75" customHeight="1" s="191"/>
-    <row r="443" ht="15.75" customHeight="1" s="191"/>
-    <row r="444" ht="15.75" customHeight="1" s="191"/>
-    <row r="445" ht="15.75" customHeight="1" s="191"/>
-    <row r="446" ht="15.75" customHeight="1" s="191"/>
-    <row r="447" ht="15.75" customHeight="1" s="191"/>
-    <row r="448" ht="15.75" customHeight="1" s="191"/>
-    <row r="449" ht="15.75" customHeight="1" s="191"/>
-    <row r="450" ht="15.75" customHeight="1" s="191"/>
-    <row r="451" ht="15.75" customHeight="1" s="191"/>
-    <row r="452" ht="15.75" customHeight="1" s="191"/>
-    <row r="453" ht="15.75" customHeight="1" s="191"/>
-    <row r="454" ht="15.75" customHeight="1" s="191"/>
-    <row r="455" ht="15.75" customHeight="1" s="191"/>
-    <row r="456" ht="15.75" customHeight="1" s="191"/>
-    <row r="457" ht="15.75" customHeight="1" s="191"/>
-    <row r="458" ht="15.75" customHeight="1" s="191"/>
-    <row r="459" ht="15.75" customHeight="1" s="191"/>
-    <row r="460" ht="15.75" customHeight="1" s="191"/>
-    <row r="461" ht="15.75" customHeight="1" s="191"/>
-    <row r="462" ht="15.75" customHeight="1" s="191"/>
-    <row r="463" ht="15.75" customHeight="1" s="191"/>
-    <row r="464" ht="15.75" customHeight="1" s="191"/>
-    <row r="465" ht="15.75" customHeight="1" s="191"/>
-    <row r="466" ht="15.75" customHeight="1" s="191"/>
-    <row r="467" ht="15.75" customHeight="1" s="191"/>
-    <row r="468" ht="15.75" customHeight="1" s="191"/>
-    <row r="469" ht="15.75" customHeight="1" s="191"/>
-    <row r="470" ht="15.75" customHeight="1" s="191"/>
-    <row r="471" ht="15.75" customHeight="1" s="191"/>
-    <row r="472" ht="15.75" customHeight="1" s="191"/>
-    <row r="473" ht="15.75" customHeight="1" s="191"/>
-    <row r="474" ht="15.75" customHeight="1" s="191"/>
-    <row r="475" ht="15.75" customHeight="1" s="191"/>
-    <row r="476" ht="15.75" customHeight="1" s="191"/>
-    <row r="477" ht="15.75" customHeight="1" s="191"/>
-    <row r="478" ht="15.75" customHeight="1" s="191"/>
-    <row r="479" ht="15.75" customHeight="1" s="191"/>
-    <row r="480" ht="15.75" customHeight="1" s="191"/>
-    <row r="481" ht="15.75" customHeight="1" s="191"/>
-    <row r="482" ht="15.75" customHeight="1" s="191"/>
-    <row r="483" ht="15.75" customHeight="1" s="191"/>
-    <row r="484" ht="15.75" customHeight="1" s="191"/>
-    <row r="485" ht="15.75" customHeight="1" s="191"/>
-    <row r="486" ht="15.75" customHeight="1" s="191"/>
-    <row r="487" ht="15.75" customHeight="1" s="191"/>
-    <row r="488" ht="15.75" customHeight="1" s="191"/>
-    <row r="489" ht="15.75" customHeight="1" s="191"/>
-    <row r="490" ht="15.75" customHeight="1" s="191"/>
-    <row r="491" ht="15.75" customHeight="1" s="191"/>
-    <row r="492" ht="15.75" customHeight="1" s="191"/>
-    <row r="493" ht="15.75" customHeight="1" s="191"/>
-    <row r="494" ht="15.75" customHeight="1" s="191"/>
-    <row r="495" ht="15.75" customHeight="1" s="191"/>
-    <row r="496" ht="15.75" customHeight="1" s="191"/>
-    <row r="497" ht="15.75" customHeight="1" s="191"/>
-    <row r="498" ht="15.75" customHeight="1" s="191"/>
-    <row r="499" ht="15.75" customHeight="1" s="191"/>
-    <row r="500" ht="15.75" customHeight="1" s="191"/>
-    <row r="501" ht="15.75" customHeight="1" s="191"/>
-    <row r="502" ht="15.75" customHeight="1" s="191"/>
-    <row r="503" ht="15.75" customHeight="1" s="191"/>
-    <row r="504" ht="15.75" customHeight="1" s="191"/>
-    <row r="505" ht="15.75" customHeight="1" s="191"/>
-    <row r="506" ht="15.75" customHeight="1" s="191"/>
-    <row r="507" ht="15.75" customHeight="1" s="191"/>
-    <row r="508" ht="15.75" customHeight="1" s="191"/>
-    <row r="509" ht="15.75" customHeight="1" s="191"/>
-    <row r="510" ht="15.75" customHeight="1" s="191"/>
-    <row r="511" ht="15.75" customHeight="1" s="191"/>
-    <row r="512" ht="15.75" customHeight="1" s="191"/>
-    <row r="513" ht="15.75" customHeight="1" s="191"/>
-    <row r="514" ht="15.75" customHeight="1" s="191"/>
-    <row r="515" ht="15.75" customHeight="1" s="191"/>
-    <row r="516" ht="15.75" customHeight="1" s="191"/>
-    <row r="517" ht="15.75" customHeight="1" s="191"/>
-    <row r="518" ht="15.75" customHeight="1" s="191"/>
-    <row r="519" ht="15.75" customHeight="1" s="191"/>
-    <row r="520" ht="15.75" customHeight="1" s="191"/>
-    <row r="521" ht="15.75" customHeight="1" s="191"/>
-    <row r="522" ht="15.75" customHeight="1" s="191"/>
-    <row r="523" ht="15.75" customHeight="1" s="191"/>
-    <row r="524" ht="15.75" customHeight="1" s="191"/>
-    <row r="525" ht="15.75" customHeight="1" s="191"/>
-    <row r="526" ht="15.75" customHeight="1" s="191"/>
-    <row r="527" ht="15.75" customHeight="1" s="191"/>
-    <row r="528" ht="15.75" customHeight="1" s="191"/>
-    <row r="529" ht="15.75" customHeight="1" s="191"/>
-    <row r="530" ht="15.75" customHeight="1" s="191"/>
-    <row r="531" ht="15.75" customHeight="1" s="191"/>
-    <row r="532" ht="15.75" customHeight="1" s="191"/>
-    <row r="533" ht="15.75" customHeight="1" s="191"/>
-    <row r="534" ht="15.75" customHeight="1" s="191"/>
-    <row r="535" ht="15.75" customHeight="1" s="191"/>
-    <row r="536" ht="15.75" customHeight="1" s="191"/>
-    <row r="537" ht="15.75" customHeight="1" s="191"/>
-    <row r="538" ht="15.75" customHeight="1" s="191"/>
-    <row r="539" ht="15.75" customHeight="1" s="191"/>
-    <row r="540" ht="15.75" customHeight="1" s="191"/>
-    <row r="541" ht="15.75" customHeight="1" s="191"/>
-    <row r="542" ht="15.75" customHeight="1" s="191"/>
-    <row r="543" ht="15.75" customHeight="1" s="191"/>
-    <row r="544" ht="15.75" customHeight="1" s="191"/>
-    <row r="545" ht="15.75" customHeight="1" s="191"/>
-    <row r="546" ht="15.75" customHeight="1" s="191"/>
-    <row r="547" ht="15.75" customHeight="1" s="191"/>
-    <row r="548" ht="15.75" customHeight="1" s="191"/>
-    <row r="549" ht="15.75" customHeight="1" s="191"/>
-    <row r="550" ht="15.75" customHeight="1" s="191"/>
-    <row r="551" ht="15.75" customHeight="1" s="191"/>
-    <row r="552" ht="15.75" customHeight="1" s="191"/>
-    <row r="553" ht="15.75" customHeight="1" s="191"/>
-    <row r="554" ht="15.75" customHeight="1" s="191"/>
-    <row r="555" ht="15.75" customHeight="1" s="191"/>
-    <row r="556" ht="15.75" customHeight="1" s="191"/>
-    <row r="557" ht="15.75" customHeight="1" s="191"/>
-    <row r="558" ht="15.75" customHeight="1" s="191"/>
-    <row r="559" ht="15.75" customHeight="1" s="191"/>
-    <row r="560" ht="15.75" customHeight="1" s="191"/>
-    <row r="561" ht="15.75" customHeight="1" s="191"/>
-    <row r="562" ht="15.75" customHeight="1" s="191"/>
-    <row r="563" ht="15.75" customHeight="1" s="191"/>
-    <row r="564" ht="15.75" customHeight="1" s="191"/>
-    <row r="565" ht="15.75" customHeight="1" s="191"/>
-    <row r="566" ht="15.75" customHeight="1" s="191"/>
-    <row r="567" ht="15.75" customHeight="1" s="191"/>
-    <row r="568" ht="15.75" customHeight="1" s="191"/>
-    <row r="569" ht="15.75" customHeight="1" s="191"/>
-    <row r="570" ht="15.75" customHeight="1" s="191"/>
-    <row r="571" ht="15.75" customHeight="1" s="191"/>
-    <row r="572" ht="15.75" customHeight="1" s="191"/>
-    <row r="573" ht="15.75" customHeight="1" s="191"/>
-    <row r="574" ht="15.75" customHeight="1" s="191"/>
-    <row r="575" ht="15.75" customHeight="1" s="191"/>
-    <row r="576" ht="15.75" customHeight="1" s="191"/>
-    <row r="577" ht="15.75" customHeight="1" s="191"/>
-    <row r="578" ht="15.75" customHeight="1" s="191"/>
-    <row r="579" ht="15.75" customHeight="1" s="191"/>
-    <row r="580" ht="15.75" customHeight="1" s="191"/>
-    <row r="581" ht="15.75" customHeight="1" s="191"/>
-    <row r="582" ht="15.75" customHeight="1" s="191"/>
-    <row r="583" ht="15.75" customHeight="1" s="191"/>
-    <row r="584" ht="15.75" customHeight="1" s="191"/>
-    <row r="585" ht="15.75" customHeight="1" s="191"/>
-    <row r="586" ht="15.75" customHeight="1" s="191"/>
-    <row r="587" ht="15.75" customHeight="1" s="191"/>
-    <row r="588" ht="15.75" customHeight="1" s="191"/>
-    <row r="589" ht="15.75" customHeight="1" s="191"/>
-    <row r="590" ht="15.75" customHeight="1" s="191"/>
-    <row r="591" ht="15.75" customHeight="1" s="191"/>
-    <row r="592" ht="15.75" customHeight="1" s="191"/>
-    <row r="593" ht="15.75" customHeight="1" s="191"/>
-    <row r="594" ht="15.75" customHeight="1" s="191"/>
-    <row r="595" ht="15.75" customHeight="1" s="191"/>
-    <row r="596" ht="15.75" customHeight="1" s="191"/>
-    <row r="597" ht="15.75" customHeight="1" s="191"/>
-    <row r="598" ht="15.75" customHeight="1" s="191"/>
-    <row r="599" ht="15.75" customHeight="1" s="191"/>
-    <row r="600" ht="15.75" customHeight="1" s="191"/>
-    <row r="601" ht="15.75" customHeight="1" s="191"/>
-    <row r="602" ht="15.75" customHeight="1" s="191"/>
-    <row r="603" ht="15.75" customHeight="1" s="191"/>
-    <row r="604" ht="15.75" customHeight="1" s="191"/>
-    <row r="605" ht="15.75" customHeight="1" s="191"/>
-    <row r="606" ht="15.75" customHeight="1" s="191"/>
-    <row r="607" ht="15.75" customHeight="1" s="191"/>
-    <row r="608" ht="15.75" customHeight="1" s="191"/>
-    <row r="609" ht="15.75" customHeight="1" s="191"/>
-    <row r="610" ht="15.75" customHeight="1" s="191"/>
-    <row r="611" ht="15.75" customHeight="1" s="191"/>
-    <row r="612" ht="15.75" customHeight="1" s="191"/>
-    <row r="613" ht="15.75" customHeight="1" s="191"/>
-    <row r="614" ht="15.75" customHeight="1" s="191"/>
-    <row r="615" ht="15.75" customHeight="1" s="191"/>
-    <row r="616" ht="15.75" customHeight="1" s="191"/>
-    <row r="617" ht="15.75" customHeight="1" s="191"/>
-    <row r="618" ht="15.75" customHeight="1" s="191"/>
-    <row r="619" ht="15.75" customHeight="1" s="191"/>
-    <row r="620" ht="15.75" customHeight="1" s="191"/>
-    <row r="621" ht="15.75" customHeight="1" s="191"/>
-    <row r="622" ht="15.75" customHeight="1" s="191"/>
-    <row r="623" ht="15.75" customHeight="1" s="191"/>
-    <row r="624" ht="15.75" customHeight="1" s="191"/>
-    <row r="625" ht="15.75" customHeight="1" s="191"/>
-    <row r="626" ht="15.75" customHeight="1" s="191"/>
-    <row r="627" ht="15.75" customHeight="1" s="191"/>
-    <row r="628" ht="15.75" customHeight="1" s="191"/>
-    <row r="629" ht="15.75" customHeight="1" s="191"/>
-    <row r="630" ht="15.75" customHeight="1" s="191"/>
-    <row r="631" ht="15.75" customHeight="1" s="191"/>
-    <row r="632" ht="15.75" customHeight="1" s="191"/>
-    <row r="633" ht="15.75" customHeight="1" s="191"/>
-    <row r="634" ht="15.75" customHeight="1" s="191"/>
-    <row r="635" ht="15.75" customHeight="1" s="191"/>
-    <row r="636" ht="15.75" customHeight="1" s="191"/>
-    <row r="637" ht="15.75" customHeight="1" s="191"/>
-    <row r="638" ht="15.75" customHeight="1" s="191"/>
-    <row r="639" ht="15.75" customHeight="1" s="191"/>
-    <row r="640" ht="15.75" customHeight="1" s="191"/>
-    <row r="641" ht="15.75" customHeight="1" s="191"/>
-    <row r="642" ht="15.75" customHeight="1" s="191"/>
-    <row r="643" ht="15.75" customHeight="1" s="191"/>
-    <row r="644" ht="15.75" customHeight="1" s="191"/>
-    <row r="645" ht="15.75" customHeight="1" s="191"/>
-    <row r="646" ht="15.75" customHeight="1" s="191"/>
-    <row r="647" ht="15.75" customHeight="1" s="191"/>
-    <row r="648" ht="15.75" customHeight="1" s="191"/>
-    <row r="649" ht="15.75" customHeight="1" s="191"/>
-    <row r="650" ht="15.75" customHeight="1" s="191"/>
-    <row r="651" ht="15.75" customHeight="1" s="191"/>
-    <row r="652" ht="15.75" customHeight="1" s="191"/>
-    <row r="653" ht="15.75" customHeight="1" s="191"/>
-    <row r="654" ht="15.75" customHeight="1" s="191"/>
-    <row r="655" ht="15.75" customHeight="1" s="191"/>
-    <row r="656" ht="15.75" customHeight="1" s="191"/>
-    <row r="657" ht="15.75" customHeight="1" s="191"/>
-    <row r="658" ht="15.75" customHeight="1" s="191"/>
-    <row r="659" ht="15.75" customHeight="1" s="191"/>
-    <row r="660" ht="15.75" customHeight="1" s="191"/>
-    <row r="661" ht="15.75" customHeight="1" s="191"/>
-    <row r="662" ht="15.75" customHeight="1" s="191"/>
-    <row r="663" ht="15.75" customHeight="1" s="191"/>
-    <row r="664" ht="15.75" customHeight="1" s="191"/>
-    <row r="665" ht="15.75" customHeight="1" s="191"/>
-    <row r="666" ht="15.75" customHeight="1" s="191"/>
-    <row r="667" ht="15.75" customHeight="1" s="191"/>
-    <row r="668" ht="15.75" customHeight="1" s="191"/>
-    <row r="669" ht="15.75" customHeight="1" s="191"/>
-    <row r="670" ht="15.75" customHeight="1" s="191"/>
-    <row r="671" ht="15.75" customHeight="1" s="191"/>
-    <row r="672" ht="15.75" customHeight="1" s="191"/>
-    <row r="673" ht="15.75" customHeight="1" s="191"/>
-    <row r="674" ht="15.75" customHeight="1" s="191"/>
-    <row r="675" ht="15.75" customHeight="1" s="191"/>
-    <row r="676" ht="15.75" customHeight="1" s="191"/>
-    <row r="677" ht="15.75" customHeight="1" s="191"/>
-    <row r="678" ht="15.75" customHeight="1" s="191"/>
-    <row r="679" ht="15.75" customHeight="1" s="191"/>
-    <row r="680" ht="15.75" customHeight="1" s="191"/>
-    <row r="681" ht="15.75" customHeight="1" s="191"/>
-    <row r="682" ht="15.75" customHeight="1" s="191"/>
-    <row r="683" ht="15.75" customHeight="1" s="191"/>
-    <row r="684" ht="15.75" customHeight="1" s="191"/>
-    <row r="685" ht="15.75" customHeight="1" s="191"/>
-    <row r="686" ht="15.75" customHeight="1" s="191"/>
-    <row r="687" ht="15.75" customHeight="1" s="191"/>
-    <row r="688" ht="15.75" customHeight="1" s="191"/>
-    <row r="689" ht="15.75" customHeight="1" s="191"/>
-    <row r="690" ht="15.75" customHeight="1" s="191"/>
-    <row r="691" ht="15.75" customHeight="1" s="191"/>
-    <row r="692" ht="15.75" customHeight="1" s="191"/>
-    <row r="693" ht="15.75" customHeight="1" s="191"/>
-    <row r="694" ht="15.75" customHeight="1" s="191"/>
-    <row r="695" ht="15.75" customHeight="1" s="191"/>
-    <row r="696" ht="15.75" customHeight="1" s="191"/>
-    <row r="697" ht="15.75" customHeight="1" s="191"/>
-    <row r="698" ht="15.75" customHeight="1" s="191"/>
-    <row r="699" ht="15.75" customHeight="1" s="191"/>
-    <row r="700" ht="15.75" customHeight="1" s="191"/>
-    <row r="701" ht="15.75" customHeight="1" s="191"/>
-    <row r="702" ht="15.75" customHeight="1" s="191"/>
-    <row r="703" ht="15.75" customHeight="1" s="191"/>
-    <row r="704" ht="15.75" customHeight="1" s="191"/>
-    <row r="705" ht="15.75" customHeight="1" s="191"/>
-    <row r="706" ht="15.75" customHeight="1" s="191"/>
-    <row r="707" ht="15.75" customHeight="1" s="191"/>
-    <row r="708" ht="15.75" customHeight="1" s="191"/>
-    <row r="709" ht="15.75" customHeight="1" s="191"/>
-    <row r="710" ht="15.75" customHeight="1" s="191"/>
-    <row r="711" ht="15.75" customHeight="1" s="191"/>
-    <row r="712" ht="15.75" customHeight="1" s="191"/>
-    <row r="713" ht="15.75" customHeight="1" s="191"/>
-    <row r="714" ht="15.75" customHeight="1" s="191"/>
-    <row r="715" ht="15.75" customHeight="1" s="191"/>
-    <row r="716" ht="15.75" customHeight="1" s="191"/>
-    <row r="717" ht="15.75" customHeight="1" s="191"/>
-    <row r="718" ht="15.75" customHeight="1" s="191"/>
-    <row r="719" ht="15.75" customHeight="1" s="191"/>
-    <row r="720" ht="15.75" customHeight="1" s="191"/>
-    <row r="721" ht="15.75" customHeight="1" s="191"/>
-    <row r="722" ht="15.75" customHeight="1" s="191"/>
-    <row r="723" ht="15.75" customHeight="1" s="191"/>
-    <row r="724" ht="15.75" customHeight="1" s="191"/>
-    <row r="725" ht="15.75" customHeight="1" s="191"/>
-    <row r="726" ht="15.75" customHeight="1" s="191"/>
-    <row r="727" ht="15.75" customHeight="1" s="191"/>
-    <row r="728" ht="15.75" customHeight="1" s="191"/>
-    <row r="729" ht="15.75" customHeight="1" s="191"/>
-    <row r="730" ht="15.75" customHeight="1" s="191"/>
-    <row r="731" ht="15.75" customHeight="1" s="191"/>
-    <row r="732" ht="15.75" customHeight="1" s="191"/>
-    <row r="733" ht="15.75" customHeight="1" s="191"/>
-    <row r="734" ht="15.75" customHeight="1" s="191"/>
-    <row r="735" ht="15.75" customHeight="1" s="191"/>
-    <row r="736" ht="15.75" customHeight="1" s="191"/>
-    <row r="737" ht="15.75" customHeight="1" s="191"/>
-    <row r="738" ht="15.75" customHeight="1" s="191"/>
-    <row r="739" ht="15.75" customHeight="1" s="191"/>
-    <row r="740" ht="15.75" customHeight="1" s="191"/>
-    <row r="741" ht="15.75" customHeight="1" s="191"/>
-    <row r="742" ht="15.75" customHeight="1" s="191"/>
-    <row r="743" ht="15.75" customHeight="1" s="191"/>
-    <row r="744" ht="15.75" customHeight="1" s="191"/>
-    <row r="745" ht="15.75" customHeight="1" s="191"/>
-    <row r="746" ht="15.75" customHeight="1" s="191"/>
-    <row r="747" ht="15.75" customHeight="1" s="191"/>
-    <row r="748" ht="15.75" customHeight="1" s="191"/>
-    <row r="749" ht="15.75" customHeight="1" s="191"/>
-    <row r="750" ht="15.75" customHeight="1" s="191"/>
-    <row r="751" ht="15.75" customHeight="1" s="191"/>
-    <row r="752" ht="15.75" customHeight="1" s="191"/>
-    <row r="753" ht="15.75" customHeight="1" s="191"/>
-    <row r="754" ht="15.75" customHeight="1" s="191"/>
-    <row r="755" ht="15.75" customHeight="1" s="191"/>
-    <row r="756" ht="15.75" customHeight="1" s="191"/>
-    <row r="757" ht="15.75" customHeight="1" s="191"/>
-    <row r="758" ht="15.75" customHeight="1" s="191"/>
-    <row r="759" ht="15.75" customHeight="1" s="191"/>
-    <row r="760" ht="15.75" customHeight="1" s="191"/>
-    <row r="761" ht="15.75" customHeight="1" s="191"/>
-    <row r="762" ht="15.75" customHeight="1" s="191"/>
-    <row r="763" ht="15.75" customHeight="1" s="191"/>
-    <row r="764" ht="15.75" customHeight="1" s="191"/>
-    <row r="765" ht="15.75" customHeight="1" s="191"/>
-    <row r="766" ht="15.75" customHeight="1" s="191"/>
-    <row r="767" ht="15.75" customHeight="1" s="191"/>
-    <row r="768" ht="15.75" customHeight="1" s="191"/>
-    <row r="769" ht="15.75" customHeight="1" s="191"/>
-    <row r="770" ht="15.75" customHeight="1" s="191"/>
-    <row r="771" ht="15.75" customHeight="1" s="191"/>
-    <row r="772" ht="15.75" customHeight="1" s="191"/>
-    <row r="773" ht="15.75" customHeight="1" s="191"/>
-    <row r="774" ht="15.75" customHeight="1" s="191"/>
-    <row r="775" ht="15.75" customHeight="1" s="191"/>
-    <row r="776" ht="15.75" customHeight="1" s="191"/>
-    <row r="777" ht="15.75" customHeight="1" s="191"/>
-    <row r="778" ht="15.75" customHeight="1" s="191"/>
-    <row r="779" ht="15.75" customHeight="1" s="191"/>
-    <row r="780" ht="15.75" customHeight="1" s="191"/>
-    <row r="781" ht="15.75" customHeight="1" s="191"/>
-    <row r="782" ht="15.75" customHeight="1" s="191"/>
-    <row r="783" ht="15.75" customHeight="1" s="191"/>
-    <row r="784" ht="15.75" customHeight="1" s="191"/>
-    <row r="785" ht="15.75" customHeight="1" s="191"/>
-    <row r="786" ht="15.75" customHeight="1" s="191"/>
-    <row r="787" ht="15.75" customHeight="1" s="191"/>
-    <row r="788" ht="15.75" customHeight="1" s="191"/>
-    <row r="789" ht="15.75" customHeight="1" s="191"/>
-    <row r="790" ht="15.75" customHeight="1" s="191"/>
-    <row r="791" ht="15.75" customHeight="1" s="191"/>
-    <row r="792" ht="15.75" customHeight="1" s="191"/>
-    <row r="793" ht="15.75" customHeight="1" s="191"/>
-    <row r="794" ht="15.75" customHeight="1" s="191"/>
-    <row r="795" ht="15.75" customHeight="1" s="191"/>
-    <row r="796" ht="15.75" customHeight="1" s="191"/>
-    <row r="797" ht="15.75" customHeight="1" s="191"/>
-    <row r="798" ht="15.75" customHeight="1" s="191"/>
-    <row r="799" ht="15.75" customHeight="1" s="191"/>
-    <row r="800" ht="15.75" customHeight="1" s="191"/>
-    <row r="801" ht="15.75" customHeight="1" s="191"/>
-    <row r="802" ht="15.75" customHeight="1" s="191"/>
-    <row r="803" ht="15.75" customHeight="1" s="191"/>
-    <row r="804" ht="15.75" customHeight="1" s="191"/>
-    <row r="805" ht="15.75" customHeight="1" s="191"/>
-    <row r="806" ht="15.75" customHeight="1" s="191"/>
-    <row r="807" ht="15.75" customHeight="1" s="191"/>
-    <row r="808" ht="15.75" customHeight="1" s="191"/>
-    <row r="809" ht="15.75" customHeight="1" s="191"/>
-    <row r="810" ht="15.75" customHeight="1" s="191"/>
-    <row r="811" ht="15.75" customHeight="1" s="191"/>
-    <row r="812" ht="15.75" customHeight="1" s="191"/>
-    <row r="813" ht="15.75" customHeight="1" s="191"/>
-    <row r="814" ht="15.75" customHeight="1" s="191"/>
-    <row r="815" ht="15.75" customHeight="1" s="191"/>
-    <row r="816" ht="15.75" customHeight="1" s="191"/>
-    <row r="817" ht="15.75" customHeight="1" s="191"/>
-    <row r="818" ht="15.75" customHeight="1" s="191"/>
-    <row r="819" ht="15.75" customHeight="1" s="191"/>
-    <row r="820" ht="15.75" customHeight="1" s="191"/>
-    <row r="821" ht="15.75" customHeight="1" s="191"/>
-    <row r="822" ht="15.75" customHeight="1" s="191"/>
-    <row r="823" ht="15.75" customHeight="1" s="191"/>
-    <row r="824" ht="15.75" customHeight="1" s="191"/>
-    <row r="825" ht="15.75" customHeight="1" s="191"/>
-    <row r="826" ht="15.75" customHeight="1" s="191"/>
-    <row r="827" ht="15.75" customHeight="1" s="191"/>
-    <row r="828" ht="15.75" customHeight="1" s="191"/>
-    <row r="829" ht="15.75" customHeight="1" s="191"/>
-    <row r="830" ht="15.75" customHeight="1" s="191"/>
-    <row r="831" ht="15.75" customHeight="1" s="191"/>
-    <row r="832" ht="15.75" customHeight="1" s="191"/>
-    <row r="833" ht="15.75" customHeight="1" s="191"/>
-    <row r="834" ht="15.75" customHeight="1" s="191"/>
-    <row r="835" ht="15.75" customHeight="1" s="191"/>
-    <row r="836" ht="15.75" customHeight="1" s="191"/>
-    <row r="837" ht="15.75" customHeight="1" s="191"/>
-    <row r="838" ht="15.75" customHeight="1" s="191"/>
-    <row r="839" ht="15.75" customHeight="1" s="191"/>
-    <row r="840" ht="15.75" customHeight="1" s="191"/>
-    <row r="841" ht="15.75" customHeight="1" s="191"/>
-    <row r="842" ht="15.75" customHeight="1" s="191"/>
-    <row r="843" ht="15.75" customHeight="1" s="191"/>
-    <row r="844" ht="15.75" customHeight="1" s="191"/>
-    <row r="845" ht="15.75" customHeight="1" s="191"/>
-    <row r="846" ht="15.75" customHeight="1" s="191"/>
-    <row r="847" ht="15.75" customHeight="1" s="191"/>
-    <row r="848" ht="15.75" customHeight="1" s="191"/>
-    <row r="849" ht="15.75" customHeight="1" s="191"/>
-    <row r="850" ht="15.75" customHeight="1" s="191"/>
-    <row r="851" ht="15.75" customHeight="1" s="191"/>
-    <row r="852" ht="15.75" customHeight="1" s="191"/>
-    <row r="853" ht="15.75" customHeight="1" s="191"/>
-    <row r="854" ht="15.75" customHeight="1" s="191"/>
-    <row r="855" ht="15.75" customHeight="1" s="191"/>
-    <row r="856" ht="15.75" customHeight="1" s="191"/>
-    <row r="857" ht="15.75" customHeight="1" s="191"/>
-    <row r="858" ht="15.75" customHeight="1" s="191"/>
-    <row r="859" ht="15.75" customHeight="1" s="191"/>
-    <row r="860" ht="15.75" customHeight="1" s="191"/>
-    <row r="861" ht="15.75" customHeight="1" s="191"/>
-    <row r="862" ht="15.75" customHeight="1" s="191"/>
-    <row r="863" ht="15.75" customHeight="1" s="191"/>
-    <row r="864" ht="15.75" customHeight="1" s="191"/>
-    <row r="865" ht="15.75" customHeight="1" s="191"/>
-    <row r="866" ht="15.75" customHeight="1" s="191"/>
-    <row r="867" ht="15.75" customHeight="1" s="191"/>
-    <row r="868" ht="15.75" customHeight="1" s="191"/>
-    <row r="869" ht="15.75" customHeight="1" s="191"/>
-    <row r="870" ht="15.75" customHeight="1" s="191"/>
-    <row r="871" ht="15.75" customHeight="1" s="191"/>
-    <row r="872" ht="15.75" customHeight="1" s="191"/>
-    <row r="873" ht="15.75" customHeight="1" s="191"/>
-    <row r="874" ht="15.75" customHeight="1" s="191"/>
-    <row r="875" ht="15.75" customHeight="1" s="191"/>
-    <row r="876" ht="15.75" customHeight="1" s="191"/>
-    <row r="877" ht="15.75" customHeight="1" s="191"/>
-    <row r="878" ht="15.75" customHeight="1" s="191"/>
-    <row r="879" ht="15.75" customHeight="1" s="191"/>
-    <row r="880" ht="15.75" customHeight="1" s="191"/>
-    <row r="881" ht="15.75" customHeight="1" s="191"/>
-    <row r="882" ht="15.75" customHeight="1" s="191"/>
-    <row r="883" ht="15.75" customHeight="1" s="191"/>
-    <row r="884" ht="15.75" customHeight="1" s="191"/>
-    <row r="885" ht="15.75" customHeight="1" s="191"/>
-    <row r="886" ht="15.75" customHeight="1" s="191"/>
-    <row r="887" ht="15.75" customHeight="1" s="191"/>
-    <row r="888" ht="15.75" customHeight="1" s="191"/>
-    <row r="889" ht="15.75" customHeight="1" s="191"/>
-    <row r="890" ht="15.75" customHeight="1" s="191"/>
-    <row r="891" ht="15.75" customHeight="1" s="191"/>
-    <row r="892" ht="15.75" customHeight="1" s="191"/>
-    <row r="893" ht="15.75" customHeight="1" s="191"/>
-    <row r="894" ht="15.75" customHeight="1" s="191"/>
-    <row r="895" ht="15.75" customHeight="1" s="191"/>
-    <row r="896" ht="15.75" customHeight="1" s="191"/>
-    <row r="897" ht="15.75" customHeight="1" s="191"/>
-    <row r="898" ht="15.75" customHeight="1" s="191"/>
-    <row r="899" ht="15.75" customHeight="1" s="191"/>
-    <row r="900" ht="15.75" customHeight="1" s="191"/>
-    <row r="901" ht="15.75" customHeight="1" s="191"/>
-    <row r="902" ht="15.75" customHeight="1" s="191"/>
-    <row r="903" ht="15.75" customHeight="1" s="191"/>
-    <row r="904" ht="15.75" customHeight="1" s="191"/>
-    <row r="905" ht="15.75" customHeight="1" s="191"/>
-    <row r="906" ht="15.75" customHeight="1" s="191"/>
-    <row r="907" ht="15.75" customHeight="1" s="191"/>
-    <row r="908" ht="15.75" customHeight="1" s="191"/>
-    <row r="909" ht="15.75" customHeight="1" s="191"/>
-    <row r="910" ht="15.75" customHeight="1" s="191"/>
-    <row r="911" ht="15.75" customHeight="1" s="191"/>
-    <row r="912" ht="15.75" customHeight="1" s="191"/>
-    <row r="913" ht="15.75" customHeight="1" s="191"/>
-    <row r="914" ht="15.75" customHeight="1" s="191"/>
-    <row r="915" ht="15.75" customHeight="1" s="191"/>
-    <row r="916" ht="15.75" customHeight="1" s="191"/>
-    <row r="917" ht="15.75" customHeight="1" s="191"/>
-    <row r="918" ht="15.75" customHeight="1" s="191"/>
-    <row r="919" ht="15.75" customHeight="1" s="191"/>
-    <row r="920" ht="15.75" customHeight="1" s="191"/>
-    <row r="921" ht="15.75" customHeight="1" s="191"/>
-    <row r="922" ht="15.75" customHeight="1" s="191"/>
-    <row r="923" ht="15.75" customHeight="1" s="191"/>
-    <row r="924" ht="15.75" customHeight="1" s="191"/>
-    <row r="925" ht="15.75" customHeight="1" s="191"/>
-    <row r="926" ht="15.75" customHeight="1" s="191"/>
-    <row r="927" ht="15.75" customHeight="1" s="191"/>
-    <row r="928" ht="15.75" customHeight="1" s="191"/>
-    <row r="929" ht="15.75" customHeight="1" s="191"/>
-    <row r="930" ht="15.75" customHeight="1" s="191"/>
-    <row r="931" ht="15.75" customHeight="1" s="191"/>
-    <row r="932" ht="15.75" customHeight="1" s="191"/>
-    <row r="933" ht="15.75" customHeight="1" s="191"/>
-    <row r="934" ht="15.75" customHeight="1" s="191"/>
-    <row r="935" ht="15.75" customHeight="1" s="191"/>
-    <row r="936" ht="15.75" customHeight="1" s="191"/>
-    <row r="937" ht="15.75" customHeight="1" s="191"/>
-    <row r="938" ht="15.75" customHeight="1" s="191"/>
-    <row r="939" ht="15.75" customHeight="1" s="191"/>
-    <row r="940" ht="15.75" customHeight="1" s="191"/>
-    <row r="941" ht="15.75" customHeight="1" s="191"/>
-    <row r="942" ht="15.75" customHeight="1" s="191"/>
-    <row r="943" ht="15.75" customHeight="1" s="191"/>
-    <row r="944" ht="15.75" customHeight="1" s="191"/>
-    <row r="945" ht="15.75" customHeight="1" s="191"/>
-    <row r="946" ht="15.75" customHeight="1" s="191"/>
-    <row r="947" ht="15.75" customHeight="1" s="191"/>
-    <row r="948" ht="15.75" customHeight="1" s="191"/>
-    <row r="949" ht="15.75" customHeight="1" s="191"/>
-    <row r="950" ht="15.75" customHeight="1" s="191"/>
-    <row r="951" ht="15.75" customHeight="1" s="191"/>
-    <row r="952" ht="15.75" customHeight="1" s="191"/>
-    <row r="953" ht="15.75" customHeight="1" s="191"/>
-    <row r="954" ht="15.75" customHeight="1" s="191"/>
-    <row r="955" ht="15.75" customHeight="1" s="191"/>
-    <row r="956" ht="15.75" customHeight="1" s="191"/>
-    <row r="957" ht="15.75" customHeight="1" s="191"/>
-    <row r="958" ht="15.75" customHeight="1" s="191"/>
-    <row r="959" ht="15.75" customHeight="1" s="191"/>
-    <row r="960" ht="15.75" customHeight="1" s="191"/>
-    <row r="961" ht="15.75" customHeight="1" s="191"/>
-    <row r="962" ht="15.75" customHeight="1" s="191"/>
-    <row r="963" ht="15.75" customHeight="1" s="191"/>
-    <row r="964" ht="15.75" customHeight="1" s="191"/>
-    <row r="965" ht="15.75" customHeight="1" s="191"/>
-    <row r="966" ht="15.75" customHeight="1" s="191"/>
-    <row r="967" ht="15.75" customHeight="1" s="191"/>
-    <row r="968" ht="15.75" customHeight="1" s="191"/>
-    <row r="969" ht="15.75" customHeight="1" s="191"/>
-    <row r="970" ht="15.75" customHeight="1" s="191"/>
-    <row r="971" ht="15.75" customHeight="1" s="191"/>
-    <row r="972" ht="15.75" customHeight="1" s="191"/>
-    <row r="973" ht="15.75" customHeight="1" s="191"/>
-    <row r="974" ht="15.75" customHeight="1" s="191"/>
-    <row r="975" ht="15.75" customHeight="1" s="191"/>
-    <row r="976" ht="15.75" customHeight="1" s="191"/>
-    <row r="977" ht="15.75" customHeight="1" s="191"/>
-    <row r="978" ht="15.75" customHeight="1" s="191"/>
-    <row r="979" ht="15.75" customHeight="1" s="191"/>
-    <row r="980" ht="15.75" customHeight="1" s="191"/>
-    <row r="981" ht="15.75" customHeight="1" s="191"/>
-    <row r="982" ht="15.75" customHeight="1" s="191"/>
-    <row r="983" ht="15.75" customHeight="1" s="191"/>
-    <row r="984" ht="15.75" customHeight="1" s="191"/>
-    <row r="985" ht="15.75" customHeight="1" s="191"/>
-    <row r="986" ht="15.75" customHeight="1" s="191"/>
-    <row r="987" ht="15.75" customHeight="1" s="191"/>
-    <row r="988" ht="15.75" customHeight="1" s="191"/>
-    <row r="989" ht="15.75" customHeight="1" s="191"/>
-    <row r="990" ht="15.75" customHeight="1" s="191"/>
-    <row r="991" ht="15.75" customHeight="1" s="191"/>
-    <row r="992" ht="15.75" customHeight="1" s="191"/>
-    <row r="993" ht="15.75" customHeight="1" s="191"/>
-    <row r="994" ht="15.75" customHeight="1" s="191"/>
-    <row r="995" ht="15.75" customHeight="1" s="191"/>
-    <row r="996" ht="15.75" customHeight="1" s="191"/>
-    <row r="997" ht="15.75" customHeight="1" s="191"/>
-    <row r="998" ht="15.75" customHeight="1" s="191"/>
-    <row r="999" ht="15.75" customHeight="1" s="191"/>
-    <row r="1000" ht="15.75" customHeight="1" s="191"/>
+      <c r="D65" s="225" t="n"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1" s="202"/>
+    <row r="67" ht="15.75" customHeight="1" s="202"/>
+    <row r="68" ht="15.75" customHeight="1" s="202"/>
+    <row r="69" ht="15.75" customHeight="1" s="202"/>
+    <row r="70" ht="15.75" customHeight="1" s="202"/>
+    <row r="71" ht="15.75" customHeight="1" s="202"/>
+    <row r="72" ht="15.75" customHeight="1" s="202"/>
+    <row r="73" ht="15.75" customHeight="1" s="202"/>
+    <row r="74" ht="15.75" customHeight="1" s="202"/>
+    <row r="75" ht="15.75" customHeight="1" s="202"/>
+    <row r="76" ht="15.75" customHeight="1" s="202"/>
+    <row r="77" ht="15.75" customHeight="1" s="202"/>
+    <row r="78" ht="15.75" customHeight="1" s="202"/>
+    <row r="79" ht="15.75" customHeight="1" s="202"/>
+    <row r="80" ht="15.75" customHeight="1" s="202"/>
+    <row r="81" ht="15.75" customHeight="1" s="202"/>
+    <row r="82" ht="15.75" customHeight="1" s="202"/>
+    <row r="83" ht="15.75" customHeight="1" s="202"/>
+    <row r="84" ht="15.75" customHeight="1" s="202"/>
+    <row r="85" ht="15.75" customHeight="1" s="202"/>
+    <row r="86" ht="15.75" customHeight="1" s="202"/>
+    <row r="87" ht="15.75" customHeight="1" s="202"/>
+    <row r="88" ht="15.75" customHeight="1" s="202"/>
+    <row r="89" ht="15.75" customHeight="1" s="202"/>
+    <row r="90" ht="15.75" customHeight="1" s="202"/>
+    <row r="91" ht="15.75" customHeight="1" s="202"/>
+    <row r="92" ht="15.75" customHeight="1" s="202"/>
+    <row r="93" ht="15.75" customHeight="1" s="202"/>
+    <row r="94" ht="15.75" customHeight="1" s="202"/>
+    <row r="95" ht="15.75" customHeight="1" s="202"/>
+    <row r="96" ht="15.75" customHeight="1" s="202"/>
+    <row r="97" ht="15.75" customHeight="1" s="202"/>
+    <row r="98" ht="15.75" customHeight="1" s="202"/>
+    <row r="99" ht="15.75" customHeight="1" s="202"/>
+    <row r="100" ht="15.75" customHeight="1" s="202"/>
+    <row r="101" ht="15.75" customHeight="1" s="202"/>
+    <row r="102" ht="15.75" customHeight="1" s="202"/>
+    <row r="103" ht="15.75" customHeight="1" s="202"/>
+    <row r="104" ht="15.75" customHeight="1" s="202"/>
+    <row r="105" ht="15.75" customHeight="1" s="202"/>
+    <row r="106" ht="15.75" customHeight="1" s="202"/>
+    <row r="107" ht="15.75" customHeight="1" s="202"/>
+    <row r="108" ht="15.75" customHeight="1" s="202"/>
+    <row r="109" ht="15.75" customHeight="1" s="202"/>
+    <row r="110" ht="15.75" customHeight="1" s="202"/>
+    <row r="111" ht="15.75" customHeight="1" s="202"/>
+    <row r="112" ht="15.75" customHeight="1" s="202"/>
+    <row r="113" ht="15.75" customHeight="1" s="202"/>
+    <row r="114" ht="15.75" customHeight="1" s="202"/>
+    <row r="115" ht="15.75" customHeight="1" s="202"/>
+    <row r="116" ht="15.75" customHeight="1" s="202"/>
+    <row r="117" ht="15.75" customHeight="1" s="202"/>
+    <row r="118" ht="15.75" customHeight="1" s="202"/>
+    <row r="119" ht="15.75" customHeight="1" s="202"/>
+    <row r="120" ht="15.75" customHeight="1" s="202"/>
+    <row r="121" ht="15.75" customHeight="1" s="202"/>
+    <row r="122" ht="15.75" customHeight="1" s="202"/>
+    <row r="123" ht="15.75" customHeight="1" s="202"/>
+    <row r="124" ht="15.75" customHeight="1" s="202"/>
+    <row r="125" ht="15.75" customHeight="1" s="202"/>
+    <row r="126" ht="15.75" customHeight="1" s="202"/>
+    <row r="127" ht="15.75" customHeight="1" s="202"/>
+    <row r="128" ht="15.75" customHeight="1" s="202"/>
+    <row r="129" ht="15.75" customHeight="1" s="202"/>
+    <row r="130" ht="15.75" customHeight="1" s="202"/>
+    <row r="131" ht="15.75" customHeight="1" s="202"/>
+    <row r="132" ht="15.75" customHeight="1" s="202"/>
+    <row r="133" ht="15.75" customHeight="1" s="202"/>
+    <row r="134" ht="15.75" customHeight="1" s="202"/>
+    <row r="135" ht="15.75" customHeight="1" s="202"/>
+    <row r="136" ht="15.75" customHeight="1" s="202"/>
+    <row r="137" ht="15.75" customHeight="1" s="202"/>
+    <row r="138" ht="15.75" customHeight="1" s="202"/>
+    <row r="139" ht="15.75" customHeight="1" s="202"/>
+    <row r="140" ht="15.75" customHeight="1" s="202"/>
+    <row r="141" ht="15.75" customHeight="1" s="202"/>
+    <row r="142" ht="15.75" customHeight="1" s="202"/>
+    <row r="143" ht="15.75" customHeight="1" s="202"/>
+    <row r="144" ht="15.75" customHeight="1" s="202"/>
+    <row r="145" ht="15.75" customHeight="1" s="202"/>
+    <row r="146" ht="15.75" customHeight="1" s="202"/>
+    <row r="147" ht="15.75" customHeight="1" s="202"/>
+    <row r="148" ht="15.75" customHeight="1" s="202"/>
+    <row r="149" ht="15.75" customHeight="1" s="202"/>
+    <row r="150" ht="15.75" customHeight="1" s="202"/>
+    <row r="151" ht="15.75" customHeight="1" s="202"/>
+    <row r="152" ht="15.75" customHeight="1" s="202"/>
+    <row r="153" ht="15.75" customHeight="1" s="202"/>
+    <row r="154" ht="15.75" customHeight="1" s="202"/>
+    <row r="155" ht="15.75" customHeight="1" s="202"/>
+    <row r="156" ht="15.75" customHeight="1" s="202"/>
+    <row r="157" ht="15.75" customHeight="1" s="202"/>
+    <row r="158" ht="15.75" customHeight="1" s="202"/>
+    <row r="159" ht="15.75" customHeight="1" s="202"/>
+    <row r="160" ht="15.75" customHeight="1" s="202"/>
+    <row r="161" ht="15.75" customHeight="1" s="202"/>
+    <row r="162" ht="15.75" customHeight="1" s="202"/>
+    <row r="163" ht="15.75" customHeight="1" s="202"/>
+    <row r="164" ht="15.75" customHeight="1" s="202"/>
+    <row r="165" ht="15.75" customHeight="1" s="202"/>
+    <row r="166" ht="15.75" customHeight="1" s="202"/>
+    <row r="167" ht="15.75" customHeight="1" s="202"/>
+    <row r="168" ht="15.75" customHeight="1" s="202"/>
+    <row r="169" ht="15.75" customHeight="1" s="202"/>
+    <row r="170" ht="15.75" customHeight="1" s="202"/>
+    <row r="171" ht="15.75" customHeight="1" s="202"/>
+    <row r="172" ht="15.75" customHeight="1" s="202"/>
+    <row r="173" ht="15.75" customHeight="1" s="202"/>
+    <row r="174" ht="15.75" customHeight="1" s="202"/>
+    <row r="175" ht="15.75" customHeight="1" s="202"/>
+    <row r="176" ht="15.75" customHeight="1" s="202"/>
+    <row r="177" ht="15.75" customHeight="1" s="202"/>
+    <row r="178" ht="15.75" customHeight="1" s="202"/>
+    <row r="179" ht="15.75" customHeight="1" s="202"/>
+    <row r="180" ht="15.75" customHeight="1" s="202"/>
+    <row r="181" ht="15.75" customHeight="1" s="202"/>
+    <row r="182" ht="15.75" customHeight="1" s="202"/>
+    <row r="183" ht="15.75" customHeight="1" s="202"/>
+    <row r="184" ht="15.75" customHeight="1" s="202"/>
+    <row r="185" ht="15.75" customHeight="1" s="202"/>
+    <row r="186" ht="15.75" customHeight="1" s="202"/>
+    <row r="187" ht="15.75" customHeight="1" s="202"/>
+    <row r="188" ht="15.75" customHeight="1" s="202"/>
+    <row r="189" ht="15.75" customHeight="1" s="202"/>
+    <row r="190" ht="15.75" customHeight="1" s="202"/>
+    <row r="191" ht="15.75" customHeight="1" s="202"/>
+    <row r="192" ht="15.75" customHeight="1" s="202"/>
+    <row r="193" ht="15.75" customHeight="1" s="202"/>
+    <row r="194" ht="15.75" customHeight="1" s="202"/>
+    <row r="195" ht="15.75" customHeight="1" s="202"/>
+    <row r="196" ht="15.75" customHeight="1" s="202"/>
+    <row r="197" ht="15.75" customHeight="1" s="202"/>
+    <row r="198" ht="15.75" customHeight="1" s="202"/>
+    <row r="199" ht="15.75" customHeight="1" s="202"/>
+    <row r="200" ht="15.75" customHeight="1" s="202"/>
+    <row r="201" ht="15.75" customHeight="1" s="202"/>
+    <row r="202" ht="15.75" customHeight="1" s="202"/>
+    <row r="203" ht="15.75" customHeight="1" s="202"/>
+    <row r="204" ht="15.75" customHeight="1" s="202"/>
+    <row r="205" ht="15.75" customHeight="1" s="202"/>
+    <row r="206" ht="15.75" customHeight="1" s="202"/>
+    <row r="207" ht="15.75" customHeight="1" s="202"/>
+    <row r="208" ht="15.75" customHeight="1" s="202"/>
+    <row r="209" ht="15.75" customHeight="1" s="202"/>
+    <row r="210" ht="15.75" customHeight="1" s="202"/>
+    <row r="211" ht="15.75" customHeight="1" s="202"/>
+    <row r="212" ht="15.75" customHeight="1" s="202"/>
+    <row r="213" ht="15.75" customHeight="1" s="202"/>
+    <row r="214" ht="15.75" customHeight="1" s="202"/>
+    <row r="215" ht="15.75" customHeight="1" s="202"/>
+    <row r="216" ht="15.75" customHeight="1" s="202"/>
+    <row r="217" ht="15.75" customHeight="1" s="202"/>
+    <row r="218" ht="15.75" customHeight="1" s="202"/>
+    <row r="219" ht="15.75" customHeight="1" s="202"/>
+    <row r="220" ht="15.75" customHeight="1" s="202"/>
+    <row r="221" ht="15.75" customHeight="1" s="202"/>
+    <row r="222" ht="15.75" customHeight="1" s="202"/>
+    <row r="223" ht="15.75" customHeight="1" s="202"/>
+    <row r="224" ht="15.75" customHeight="1" s="202"/>
+    <row r="225" ht="15.75" customHeight="1" s="202"/>
+    <row r="226" ht="15.75" customHeight="1" s="202"/>
+    <row r="227" ht="15.75" customHeight="1" s="202"/>
+    <row r="228" ht="15.75" customHeight="1" s="202"/>
+    <row r="229" ht="15.75" customHeight="1" s="202"/>
+    <row r="230" ht="15.75" customHeight="1" s="202"/>
+    <row r="231" ht="15.75" customHeight="1" s="202"/>
+    <row r="232" ht="15.75" customHeight="1" s="202"/>
+    <row r="233" ht="15.75" customHeight="1" s="202"/>
+    <row r="234" ht="15.75" customHeight="1" s="202"/>
+    <row r="235" ht="15.75" customHeight="1" s="202"/>
+    <row r="236" ht="15.75" customHeight="1" s="202"/>
+    <row r="237" ht="15.75" customHeight="1" s="202"/>
+    <row r="238" ht="15.75" customHeight="1" s="202"/>
+    <row r="239" ht="15.75" customHeight="1" s="202"/>
+    <row r="240" ht="15.75" customHeight="1" s="202"/>
+    <row r="241" ht="15.75" customHeight="1" s="202"/>
+    <row r="242" ht="15.75" customHeight="1" s="202"/>
+    <row r="243" ht="15.75" customHeight="1" s="202"/>
+    <row r="244" ht="15.75" customHeight="1" s="202"/>
+    <row r="245" ht="15.75" customHeight="1" s="202"/>
+    <row r="246" ht="15.75" customHeight="1" s="202"/>
+    <row r="247" ht="15.75" customHeight="1" s="202"/>
+    <row r="248" ht="15.75" customHeight="1" s="202"/>
+    <row r="249" ht="15.75" customHeight="1" s="202"/>
+    <row r="250" ht="15.75" customHeight="1" s="202"/>
+    <row r="251" ht="15.75" customHeight="1" s="202"/>
+    <row r="252" ht="15.75" customHeight="1" s="202"/>
+    <row r="253" ht="15.75" customHeight="1" s="202"/>
+    <row r="254" ht="15.75" customHeight="1" s="202"/>
+    <row r="255" ht="15.75" customHeight="1" s="202"/>
+    <row r="256" ht="15.75" customHeight="1" s="202"/>
+    <row r="257" ht="15.75" customHeight="1" s="202"/>
+    <row r="258" ht="15.75" customHeight="1" s="202"/>
+    <row r="259" ht="15.75" customHeight="1" s="202"/>
+    <row r="260" ht="15.75" customHeight="1" s="202"/>
+    <row r="261" ht="15.75" customHeight="1" s="202"/>
+    <row r="262" ht="15.75" customHeight="1" s="202"/>
+    <row r="263" ht="15.75" customHeight="1" s="202"/>
+    <row r="264" ht="15.75" customHeight="1" s="202"/>
+    <row r="265" ht="15.75" customHeight="1" s="202"/>
+    <row r="266" ht="15.75" customHeight="1" s="202"/>
+    <row r="267" ht="15.75" customHeight="1" s="202"/>
+    <row r="268" ht="15.75" customHeight="1" s="202"/>
+    <row r="269" ht="15.75" customHeight="1" s="202"/>
+    <row r="270" ht="15.75" customHeight="1" s="202"/>
+    <row r="271" ht="15.75" customHeight="1" s="202"/>
+    <row r="272" ht="15.75" customHeight="1" s="202"/>
+    <row r="273" ht="15.75" customHeight="1" s="202"/>
+    <row r="274" ht="15.75" customHeight="1" s="202"/>
+    <row r="275" ht="15.75" customHeight="1" s="202"/>
+    <row r="276" ht="15.75" customHeight="1" s="202"/>
+    <row r="277" ht="15.75" customHeight="1" s="202"/>
+    <row r="278" ht="15.75" customHeight="1" s="202"/>
+    <row r="279" ht="15.75" customHeight="1" s="202"/>
+    <row r="280" ht="15.75" customHeight="1" s="202"/>
+    <row r="281" ht="15.75" customHeight="1" s="202"/>
+    <row r="282" ht="15.75" customHeight="1" s="202"/>
+    <row r="283" ht="15.75" customHeight="1" s="202"/>
+    <row r="284" ht="15.75" customHeight="1" s="202"/>
+    <row r="285" ht="15.75" customHeight="1" s="202"/>
+    <row r="286" ht="15.75" customHeight="1" s="202"/>
+    <row r="287" ht="15.75" customHeight="1" s="202"/>
+    <row r="288" ht="15.75" customHeight="1" s="202"/>
+    <row r="289" ht="15.75" customHeight="1" s="202"/>
+    <row r="290" ht="15.75" customHeight="1" s="202"/>
+    <row r="291" ht="15.75" customHeight="1" s="202"/>
+    <row r="292" ht="15.75" customHeight="1" s="202"/>
+    <row r="293" ht="15.75" customHeight="1" s="202"/>
+    <row r="294" ht="15.75" customHeight="1" s="202"/>
+    <row r="295" ht="15.75" customHeight="1" s="202"/>
+    <row r="296" ht="15.75" customHeight="1" s="202"/>
+    <row r="297" ht="15.75" customHeight="1" s="202"/>
+    <row r="298" ht="15.75" customHeight="1" s="202"/>
+    <row r="299" ht="15.75" customHeight="1" s="202"/>
+    <row r="300" ht="15.75" customHeight="1" s="202"/>
+    <row r="301" ht="15.75" customHeight="1" s="202"/>
+    <row r="302" ht="15.75" customHeight="1" s="202"/>
+    <row r="303" ht="15.75" customHeight="1" s="202"/>
+    <row r="304" ht="15.75" customHeight="1" s="202"/>
+    <row r="305" ht="15.75" customHeight="1" s="202"/>
+    <row r="306" ht="15.75" customHeight="1" s="202"/>
+    <row r="307" ht="15.75" customHeight="1" s="202"/>
+    <row r="308" ht="15.75" customHeight="1" s="202"/>
+    <row r="309" ht="15.75" customHeight="1" s="202"/>
+    <row r="310" ht="15.75" customHeight="1" s="202"/>
+    <row r="311" ht="15.75" customHeight="1" s="202"/>
+    <row r="312" ht="15.75" customHeight="1" s="202"/>
+    <row r="313" ht="15.75" customHeight="1" s="202"/>
+    <row r="314" ht="15.75" customHeight="1" s="202"/>
+    <row r="315" ht="15.75" customHeight="1" s="202"/>
+    <row r="316" ht="15.75" customHeight="1" s="202"/>
+    <row r="317" ht="15.75" customHeight="1" s="202"/>
+    <row r="318" ht="15.75" customHeight="1" s="202"/>
+    <row r="319" ht="15.75" customHeight="1" s="202"/>
+    <row r="320" ht="15.75" customHeight="1" s="202"/>
+    <row r="321" ht="15.75" customHeight="1" s="202"/>
+    <row r="322" ht="15.75" customHeight="1" s="202"/>
+    <row r="323" ht="15.75" customHeight="1" s="202"/>
+    <row r="324" ht="15.75" customHeight="1" s="202"/>
+    <row r="325" ht="15.75" customHeight="1" s="202"/>
+    <row r="326" ht="15.75" customHeight="1" s="202"/>
+    <row r="327" ht="15.75" customHeight="1" s="202"/>
+    <row r="328" ht="15.75" customHeight="1" s="202"/>
+    <row r="329" ht="15.75" customHeight="1" s="202"/>
+    <row r="330" ht="15.75" customHeight="1" s="202"/>
+    <row r="331" ht="15.75" customHeight="1" s="202"/>
+    <row r="332" ht="15.75" customHeight="1" s="202"/>
+    <row r="333" ht="15.75" customHeight="1" s="202"/>
+    <row r="334" ht="15.75" customHeight="1" s="202"/>
+    <row r="335" ht="15.75" customHeight="1" s="202"/>
+    <row r="336" ht="15.75" customHeight="1" s="202"/>
+    <row r="337" ht="15.75" customHeight="1" s="202"/>
+    <row r="338" ht="15.75" customHeight="1" s="202"/>
+    <row r="339" ht="15.75" customHeight="1" s="202"/>
+    <row r="340" ht="15.75" customHeight="1" s="202"/>
+    <row r="341" ht="15.75" customHeight="1" s="202"/>
+    <row r="342" ht="15.75" customHeight="1" s="202"/>
+    <row r="343" ht="15.75" customHeight="1" s="202"/>
+    <row r="344" ht="15.75" customHeight="1" s="202"/>
+    <row r="345" ht="15.75" customHeight="1" s="202"/>
+    <row r="346" ht="15.75" customHeight="1" s="202"/>
+    <row r="347" ht="15.75" customHeight="1" s="202"/>
+    <row r="348" ht="15.75" customHeight="1" s="202"/>
+    <row r="349" ht="15.75" customHeight="1" s="202"/>
+    <row r="350" ht="15.75" customHeight="1" s="202"/>
+    <row r="351" ht="15.75" customHeight="1" s="202"/>
+    <row r="352" ht="15.75" customHeight="1" s="202"/>
+    <row r="353" ht="15.75" customHeight="1" s="202"/>
+    <row r="354" ht="15.75" customHeight="1" s="202"/>
+    <row r="355" ht="15.75" customHeight="1" s="202"/>
+    <row r="356" ht="15.75" customHeight="1" s="202"/>
+    <row r="357" ht="15.75" customHeight="1" s="202"/>
+    <row r="358" ht="15.75" customHeight="1" s="202"/>
+    <row r="359" ht="15.75" customHeight="1" s="202"/>
+    <row r="360" ht="15.75" customHeight="1" s="202"/>
+    <row r="361" ht="15.75" customHeight="1" s="202"/>
+    <row r="362" ht="15.75" customHeight="1" s="202"/>
+    <row r="363" ht="15.75" customHeight="1" s="202"/>
+    <row r="364" ht="15.75" customHeight="1" s="202"/>
+    <row r="365" ht="15.75" customHeight="1" s="202"/>
+    <row r="366" ht="15.75" customHeight="1" s="202"/>
+    <row r="367" ht="15.75" customHeight="1" s="202"/>
+    <row r="368" ht="15.75" customHeight="1" s="202"/>
+    <row r="369" ht="15.75" customHeight="1" s="202"/>
+    <row r="370" ht="15.75" customHeight="1" s="202"/>
+    <row r="371" ht="15.75" customHeight="1" s="202"/>
+    <row r="372" ht="15.75" customHeight="1" s="202"/>
+    <row r="373" ht="15.75" customHeight="1" s="202"/>
+    <row r="374" ht="15.75" customHeight="1" s="202"/>
+    <row r="375" ht="15.75" customHeight="1" s="202"/>
+    <row r="376" ht="15.75" customHeight="1" s="202"/>
+    <row r="377" ht="15.75" customHeight="1" s="202"/>
+    <row r="378" ht="15.75" customHeight="1" s="202"/>
+    <row r="379" ht="15.75" customHeight="1" s="202"/>
+    <row r="380" ht="15.75" customHeight="1" s="202"/>
+    <row r="381" ht="15.75" customHeight="1" s="202"/>
+    <row r="382" ht="15.75" customHeight="1" s="202"/>
+    <row r="383" ht="15.75" customHeight="1" s="202"/>
+    <row r="384" ht="15.75" customHeight="1" s="202"/>
+    <row r="385" ht="15.75" customHeight="1" s="202"/>
+    <row r="386" ht="15.75" customHeight="1" s="202"/>
+    <row r="387" ht="15.75" customHeight="1" s="202"/>
+    <row r="388" ht="15.75" customHeight="1" s="202"/>
+    <row r="389" ht="15.75" customHeight="1" s="202"/>
+    <row r="390" ht="15.75" customHeight="1" s="202"/>
+    <row r="391" ht="15.75" customHeight="1" s="202"/>
+    <row r="392" ht="15.75" customHeight="1" s="202"/>
+    <row r="393" ht="15.75" customHeight="1" s="202"/>
+    <row r="394" ht="15.75" customHeight="1" s="202"/>
+    <row r="395" ht="15.75" customHeight="1" s="202"/>
+    <row r="396" ht="15.75" customHeight="1" s="202"/>
+    <row r="397" ht="15.75" customHeight="1" s="202"/>
+    <row r="398" ht="15.75" customHeight="1" s="202"/>
+    <row r="399" ht="15.75" customHeight="1" s="202"/>
+    <row r="400" ht="15.75" customHeight="1" s="202"/>
+    <row r="401" ht="15.75" customHeight="1" s="202"/>
+    <row r="402" ht="15.75" customHeight="1" s="202"/>
+    <row r="403" ht="15.75" customHeight="1" s="202"/>
+    <row r="404" ht="15.75" customHeight="1" s="202"/>
+    <row r="405" ht="15.75" customHeight="1" s="202"/>
+    <row r="406" ht="15.75" customHeight="1" s="202"/>
+    <row r="407" ht="15.75" customHeight="1" s="202"/>
+    <row r="408" ht="15.75" customHeight="1" s="202"/>
+    <row r="409" ht="15.75" customHeight="1" s="202"/>
+    <row r="410" ht="15.75" customHeight="1" s="202"/>
+    <row r="411" ht="15.75" customHeight="1" s="202"/>
+    <row r="412" ht="15.75" customHeight="1" s="202"/>
+    <row r="413" ht="15.75" customHeight="1" s="202"/>
+    <row r="414" ht="15.75" customHeight="1" s="202"/>
+    <row r="415" ht="15.75" customHeight="1" s="202"/>
+    <row r="416" ht="15.75" customHeight="1" s="202"/>
+    <row r="417" ht="15.75" customHeight="1" s="202"/>
+    <row r="418" ht="15.75" customHeight="1" s="202"/>
+    <row r="419" ht="15.75" customHeight="1" s="202"/>
+    <row r="420" ht="15.75" customHeight="1" s="202"/>
+    <row r="421" ht="15.75" customHeight="1" s="202"/>
+    <row r="422" ht="15.75" customHeight="1" s="202"/>
+    <row r="423" ht="15.75" customHeight="1" s="202"/>
+    <row r="424" ht="15.75" customHeight="1" s="202"/>
+    <row r="425" ht="15.75" customHeight="1" s="202"/>
+    <row r="426" ht="15.75" customHeight="1" s="202"/>
+    <row r="427" ht="15.75" customHeight="1" s="202"/>
+    <row r="428" ht="15.75" customHeight="1" s="202"/>
+    <row r="429" ht="15.75" customHeight="1" s="202"/>
+    <row r="430" ht="15.75" customHeight="1" s="202"/>
+    <row r="431" ht="15.75" customHeight="1" s="202"/>
+    <row r="432" ht="15.75" customHeight="1" s="202"/>
+    <row r="433" ht="15.75" customHeight="1" s="202"/>
+    <row r="434" ht="15.75" customHeight="1" s="202"/>
+    <row r="435" ht="15.75" customHeight="1" s="202"/>
+    <row r="436" ht="15.75" customHeight="1" s="202"/>
+    <row r="437" ht="15.75" customHeight="1" s="202"/>
+    <row r="438" ht="15.75" customHeight="1" s="202"/>
+    <row r="439" ht="15.75" customHeight="1" s="202"/>
+    <row r="440" ht="15.75" customHeight="1" s="202"/>
+    <row r="441" ht="15.75" customHeight="1" s="202"/>
+    <row r="442" ht="15.75" customHeight="1" s="202"/>
+    <row r="443" ht="15.75" customHeight="1" s="202"/>
+    <row r="444" ht="15.75" customHeight="1" s="202"/>
+    <row r="445" ht="15.75" customHeight="1" s="202"/>
+    <row r="446" ht="15.75" customHeight="1" s="202"/>
+    <row r="447" ht="15.75" customHeight="1" s="202"/>
+    <row r="448" ht="15.75" customHeight="1" s="202"/>
+    <row r="449" ht="15.75" customHeight="1" s="202"/>
+    <row r="450" ht="15.75" customHeight="1" s="202"/>
+    <row r="451" ht="15.75" customHeight="1" s="202"/>
+    <row r="452" ht="15.75" customHeight="1" s="202"/>
+    <row r="453" ht="15.75" customHeight="1" s="202"/>
+    <row r="454" ht="15.75" customHeight="1" s="202"/>
+    <row r="455" ht="15.75" customHeight="1" s="202"/>
+    <row r="456" ht="15.75" customHeight="1" s="202"/>
+    <row r="457" ht="15.75" customHeight="1" s="202"/>
+    <row r="458" ht="15.75" customHeight="1" s="202"/>
+    <row r="459" ht="15.75" customHeight="1" s="202"/>
+    <row r="460" ht="15.75" customHeight="1" s="202"/>
+    <row r="461" ht="15.75" customHeight="1" s="202"/>
+    <row r="462" ht="15.75" customHeight="1" s="202"/>
+    <row r="463" ht="15.75" customHeight="1" s="202"/>
+    <row r="464" ht="15.75" customHeight="1" s="202"/>
+    <row r="465" ht="15.75" customHeight="1" s="202"/>
+    <row r="466" ht="15.75" customHeight="1" s="202"/>
+    <row r="467" ht="15.75" customHeight="1" s="202"/>
+    <row r="468" ht="15.75" customHeight="1" s="202"/>
+    <row r="469" ht="15.75" customHeight="1" s="202"/>
+    <row r="470" ht="15.75" customHeight="1" s="202"/>
+    <row r="471" ht="15.75" customHeight="1" s="202"/>
+    <row r="472" ht="15.75" customHeight="1" s="202"/>
+    <row r="473" ht="15.75" customHeight="1" s="202"/>
+    <row r="474" ht="15.75" customHeight="1" s="202"/>
+    <row r="475" ht="15.75" customHeight="1" s="202"/>
+    <row r="476" ht="15.75" customHeight="1" s="202"/>
+    <row r="477" ht="15.75" customHeight="1" s="202"/>
+    <row r="478" ht="15.75" customHeight="1" s="202"/>
+    <row r="479" ht="15.75" customHeight="1" s="202"/>
+    <row r="480" ht="15.75" customHeight="1" s="202"/>
+    <row r="481" ht="15.75" customHeight="1" s="202"/>
+    <row r="482" ht="15.75" customHeight="1" s="202"/>
+    <row r="483" ht="15.75" customHeight="1" s="202"/>
+    <row r="484" ht="15.75" customHeight="1" s="202"/>
+    <row r="485" ht="15.75" customHeight="1" s="202"/>
+    <row r="486" ht="15.75" customHeight="1" s="202"/>
+    <row r="487" ht="15.75" customHeight="1" s="202"/>
+    <row r="488" ht="15.75" customHeight="1" s="202"/>
+    <row r="489" ht="15.75" customHeight="1" s="202"/>
+    <row r="490" ht="15.75" customHeight="1" s="202"/>
+    <row r="491" ht="15.75" customHeight="1" s="202"/>
+    <row r="492" ht="15.75" customHeight="1" s="202"/>
+    <row r="493" ht="15.75" customHeight="1" s="202"/>
+    <row r="494" ht="15.75" customHeight="1" s="202"/>
+    <row r="495" ht="15.75" customHeight="1" s="202"/>
+    <row r="496" ht="15.75" customHeight="1" s="202"/>
+    <row r="497" ht="15.75" customHeight="1" s="202"/>
+    <row r="498" ht="15.75" customHeight="1" s="202"/>
+    <row r="499" ht="15.75" customHeight="1" s="202"/>
+    <row r="500" ht="15.75" customHeight="1" s="202"/>
+    <row r="501" ht="15.75" customHeight="1" s="202"/>
+    <row r="502" ht="15.75" customHeight="1" s="202"/>
+    <row r="503" ht="15.75" customHeight="1" s="202"/>
+    <row r="504" ht="15.75" customHeight="1" s="202"/>
+    <row r="505" ht="15.75" customHeight="1" s="202"/>
+    <row r="506" ht="15.75" customHeight="1" s="202"/>
+    <row r="507" ht="15.75" customHeight="1" s="202"/>
+    <row r="508" ht="15.75" customHeight="1" s="202"/>
+    <row r="509" ht="15.75" customHeight="1" s="202"/>
+    <row r="510" ht="15.75" customHeight="1" s="202"/>
+    <row r="511" ht="15.75" customHeight="1" s="202"/>
+    <row r="512" ht="15.75" customHeight="1" s="202"/>
+    <row r="513" ht="15.75" customHeight="1" s="202"/>
+    <row r="514" ht="15.75" customHeight="1" s="202"/>
+    <row r="515" ht="15.75" customHeight="1" s="202"/>
+    <row r="516" ht="15.75" customHeight="1" s="202"/>
+    <row r="517" ht="15.75" customHeight="1" s="202"/>
+    <row r="518" ht="15.75" customHeight="1" s="202"/>
+    <row r="519" ht="15.75" customHeight="1" s="202"/>
+    <row r="520" ht="15.75" customHeight="1" s="202"/>
+    <row r="521" ht="15.75" customHeight="1" s="202"/>
+    <row r="522" ht="15.75" customHeight="1" s="202"/>
+    <row r="523" ht="15.75" customHeight="1" s="202"/>
+    <row r="524" ht="15.75" customHeight="1" s="202"/>
+    <row r="525" ht="15.75" customHeight="1" s="202"/>
+    <row r="526" ht="15.75" customHeight="1" s="202"/>
+    <row r="527" ht="15.75" customHeight="1" s="202"/>
+    <row r="528" ht="15.75" customHeight="1" s="202"/>
+    <row r="529" ht="15.75" customHeight="1" s="202"/>
+    <row r="530" ht="15.75" customHeight="1" s="202"/>
+    <row r="531" ht="15.75" customHeight="1" s="202"/>
+    <row r="532" ht="15.75" customHeight="1" s="202"/>
+    <row r="533" ht="15.75" customHeight="1" s="202"/>
+    <row r="534" ht="15.75" customHeight="1" s="202"/>
+    <row r="535" ht="15.75" customHeight="1" s="202"/>
+    <row r="536" ht="15.75" customHeight="1" s="202"/>
+    <row r="537" ht="15.75" customHeight="1" s="202"/>
+    <row r="538" ht="15.75" customHeight="1" s="202"/>
+    <row r="539" ht="15.75" customHeight="1" s="202"/>
+    <row r="540" ht="15.75" customHeight="1" s="202"/>
+    <row r="541" ht="15.75" customHeight="1" s="202"/>
+    <row r="542" ht="15.75" customHeight="1" s="202"/>
+    <row r="543" ht="15.75" customHeight="1" s="202"/>
+    <row r="544" ht="15.75" customHeight="1" s="202"/>
+    <row r="545" ht="15.75" customHeight="1" s="202"/>
+    <row r="546" ht="15.75" customHeight="1" s="202"/>
+    <row r="547" ht="15.75" customHeight="1" s="202"/>
+    <row r="548" ht="15.75" customHeight="1" s="202"/>
+    <row r="549" ht="15.75" customHeight="1" s="202"/>
+    <row r="550" ht="15.75" customHeight="1" s="202"/>
+    <row r="551" ht="15.75" customHeight="1" s="202"/>
+    <row r="552" ht="15.75" customHeight="1" s="202"/>
+    <row r="553" ht="15.75" customHeight="1" s="202"/>
+    <row r="554" ht="15.75" customHeight="1" s="202"/>
+    <row r="555" ht="15.75" customHeight="1" s="202"/>
+    <row r="556" ht="15.75" customHeight="1" s="202"/>
+    <row r="557" ht="15.75" customHeight="1" s="202"/>
+    <row r="558" ht="15.75" customHeight="1" s="202"/>
+    <row r="559" ht="15.75" customHeight="1" s="202"/>
+    <row r="560" ht="15.75" customHeight="1" s="202"/>
+    <row r="561" ht="15.75" customHeight="1" s="202"/>
+    <row r="562" ht="15.75" customHeight="1" s="202"/>
+    <row r="563" ht="15.75" customHeight="1" s="202"/>
+    <row r="564" ht="15.75" customHeight="1" s="202"/>
+    <row r="565" ht="15.75" customHeight="1" s="202"/>
+    <row r="566" ht="15.75" customHeight="1" s="202"/>
+    <row r="567" ht="15.75" customHeight="1" s="202"/>
+    <row r="568" ht="15.75" customHeight="1" s="202"/>
+    <row r="569" ht="15.75" customHeight="1" s="202"/>
+    <row r="570" ht="15.75" customHeight="1" s="202"/>
+    <row r="571" ht="15.75" customHeight="1" s="202"/>
+    <row r="572" ht="15.75" customHeight="1" s="202"/>
+    <row r="573" ht="15.75" customHeight="1" s="202"/>
+    <row r="574" ht="15.75" customHeight="1" s="202"/>
+    <row r="575" ht="15.75" customHeight="1" s="202"/>
+    <row r="576" ht="15.75" customHeight="1" s="202"/>
+    <row r="577" ht="15.75" customHeight="1" s="202"/>
+    <row r="578" ht="15.75" customHeight="1" s="202"/>
+    <row r="579" ht="15.75" customHeight="1" s="202"/>
+    <row r="580" ht="15.75" customHeight="1" s="202"/>
+    <row r="581" ht="15.75" customHeight="1" s="202"/>
+    <row r="582" ht="15.75" customHeight="1" s="202"/>
+    <row r="583" ht="15.75" customHeight="1" s="202"/>
+    <row r="584" ht="15.75" customHeight="1" s="202"/>
+    <row r="585" ht="15.75" customHeight="1" s="202"/>
+    <row r="586" ht="15.75" customHeight="1" s="202"/>
+    <row r="587" ht="15.75" customHeight="1" s="202"/>
+    <row r="588" ht="15.75" customHeight="1" s="202"/>
+    <row r="589" ht="15.75" customHeight="1" s="202"/>
+    <row r="590" ht="15.75" customHeight="1" s="202"/>
+    <row r="591" ht="15.75" customHeight="1" s="202"/>
+    <row r="592" ht="15.75" customHeight="1" s="202"/>
+    <row r="593" ht="15.75" customHeight="1" s="202"/>
+    <row r="594" ht="15.75" customHeight="1" s="202"/>
+    <row r="595" ht="15.75" customHeight="1" s="202"/>
+    <row r="596" ht="15.75" customHeight="1" s="202"/>
+    <row r="597" ht="15.75" customHeight="1" s="202"/>
+    <row r="598" ht="15.75" customHeight="1" s="202"/>
+    <row r="599" ht="15.75" customHeight="1" s="202"/>
+    <row r="600" ht="15.75" customHeight="1" s="202"/>
+    <row r="601" ht="15.75" customHeight="1" s="202"/>
+    <row r="602" ht="15.75" customHeight="1" s="202"/>
+    <row r="603" ht="15.75" customHeight="1" s="202"/>
+    <row r="604" ht="15.75" customHeight="1" s="202"/>
+    <row r="605" ht="15.75" customHeight="1" s="202"/>
+    <row r="606" ht="15.75" customHeight="1" s="202"/>
+    <row r="607" ht="15.75" customHeight="1" s="202"/>
+    <row r="608" ht="15.75" customHeight="1" s="202"/>
+    <row r="609" ht="15.75" customHeight="1" s="202"/>
+    <row r="610" ht="15.75" customHeight="1" s="202"/>
+    <row r="611" ht="15.75" customHeight="1" s="202"/>
+    <row r="612" ht="15.75" customHeight="1" s="202"/>
+    <row r="613" ht="15.75" customHeight="1" s="202"/>
+    <row r="614" ht="15.75" customHeight="1" s="202"/>
+    <row r="615" ht="15.75" customHeight="1" s="202"/>
+    <row r="616" ht="15.75" customHeight="1" s="202"/>
+    <row r="617" ht="15.75" customHeight="1" s="202"/>
+    <row r="618" ht="15.75" customHeight="1" s="202"/>
+    <row r="619" ht="15.75" customHeight="1" s="202"/>
+    <row r="620" ht="15.75" customHeight="1" s="202"/>
+    <row r="621" ht="15.75" customHeight="1" s="202"/>
+    <row r="622" ht="15.75" customHeight="1" s="202"/>
+    <row r="623" ht="15.75" customHeight="1" s="202"/>
+    <row r="624" ht="15.75" customHeight="1" s="202"/>
+    <row r="625" ht="15.75" customHeight="1" s="202"/>
+    <row r="626" ht="15.75" customHeight="1" s="202"/>
+    <row r="627" ht="15.75" customHeight="1" s="202"/>
+    <row r="628" ht="15.75" customHeight="1" s="202"/>
+    <row r="629" ht="15.75" customHeight="1" s="202"/>
+    <row r="630" ht="15.75" customHeight="1" s="202"/>
+    <row r="631" ht="15.75" customHeight="1" s="202"/>
+    <row r="632" ht="15.75" customHeight="1" s="202"/>
+    <row r="633" ht="15.75" customHeight="1" s="202"/>
+    <row r="634" ht="15.75" customHeight="1" s="202"/>
+    <row r="635" ht="15.75" customHeight="1" s="202"/>
+    <row r="636" ht="15.75" customHeight="1" s="202"/>
+    <row r="637" ht="15.75" customHeight="1" s="202"/>
+    <row r="638" ht="15.75" customHeight="1" s="202"/>
+    <row r="639" ht="15.75" customHeight="1" s="202"/>
+    <row r="640" ht="15.75" customHeight="1" s="202"/>
+    <row r="641" ht="15.75" customHeight="1" s="202"/>
+    <row r="642" ht="15.75" customHeight="1" s="202"/>
+    <row r="643" ht="15.75" customHeight="1" s="202"/>
+    <row r="644" ht="15.75" customHeight="1" s="202"/>
+    <row r="645" ht="15.75" customHeight="1" s="202"/>
+    <row r="646" ht="15.75" customHeight="1" s="202"/>
+    <row r="647" ht="15.75" customHeight="1" s="202"/>
+    <row r="648" ht="15.75" customHeight="1" s="202"/>
+    <row r="649" ht="15.75" customHeight="1" s="202"/>
+    <row r="650" ht="15.75" customHeight="1" s="202"/>
+    <row r="651" ht="15.75" customHeight="1" s="202"/>
+    <row r="652" ht="15.75" customHeight="1" s="202"/>
+    <row r="653" ht="15.75" customHeight="1" s="202"/>
+    <row r="654" ht="15.75" customHeight="1" s="202"/>
+    <row r="655" ht="15.75" customHeight="1" s="202"/>
+    <row r="656" ht="15.75" customHeight="1" s="202"/>
+    <row r="657" ht="15.75" customHeight="1" s="202"/>
+    <row r="658" ht="15.75" customHeight="1" s="202"/>
+    <row r="659" ht="15.75" customHeight="1" s="202"/>
+    <row r="660" ht="15.75" customHeight="1" s="202"/>
+    <row r="661" ht="15.75" customHeight="1" s="202"/>
+    <row r="662" ht="15.75" customHeight="1" s="202"/>
+    <row r="663" ht="15.75" customHeight="1" s="202"/>
+    <row r="664" ht="15.75" customHeight="1" s="202"/>
+    <row r="665" ht="15.75" customHeight="1" s="202"/>
+    <row r="666" ht="15.75" customHeight="1" s="202"/>
+    <row r="667" ht="15.75" customHeight="1" s="202"/>
+    <row r="668" ht="15.75" customHeight="1" s="202"/>
+    <row r="669" ht="15.75" customHeight="1" s="202"/>
+    <row r="670" ht="15.75" customHeight="1" s="202"/>
+    <row r="671" ht="15.75" customHeight="1" s="202"/>
+    <row r="672" ht="15.75" customHeight="1" s="202"/>
+    <row r="673" ht="15.75" customHeight="1" s="202"/>
+    <row r="674" ht="15.75" customHeight="1" s="202"/>
+    <row r="675" ht="15.75" customHeight="1" s="202"/>
+    <row r="676" ht="15.75" customHeight="1" s="202"/>
+    <row r="677" ht="15.75" customHeight="1" s="202"/>
+    <row r="678" ht="15.75" customHeight="1" s="202"/>
+    <row r="679" ht="15.75" customHeight="1" s="202"/>
+    <row r="680" ht="15.75" customHeight="1" s="202"/>
+    <row r="681" ht="15.75" customHeight="1" s="202"/>
+    <row r="682" ht="15.75" customHeight="1" s="202"/>
+    <row r="683" ht="15.75" customHeight="1" s="202"/>
+    <row r="684" ht="15.75" customHeight="1" s="202"/>
+    <row r="685" ht="15.75" customHeight="1" s="202"/>
+    <row r="686" ht="15.75" customHeight="1" s="202"/>
+    <row r="687" ht="15.75" customHeight="1" s="202"/>
+    <row r="688" ht="15.75" customHeight="1" s="202"/>
+    <row r="689" ht="15.75" customHeight="1" s="202"/>
+    <row r="690" ht="15.75" customHeight="1" s="202"/>
+    <row r="691" ht="15.75" customHeight="1" s="202"/>
+    <row r="692" ht="15.75" customHeight="1" s="202"/>
+    <row r="693" ht="15.75" customHeight="1" s="202"/>
+    <row r="694" ht="15.75" customHeight="1" s="202"/>
+    <row r="695" ht="15.75" customHeight="1" s="202"/>
+    <row r="696" ht="15.75" customHeight="1" s="202"/>
+    <row r="697" ht="15.75" customHeight="1" s="202"/>
+    <row r="698" ht="15.75" customHeight="1" s="202"/>
+    <row r="699" ht="15.75" customHeight="1" s="202"/>
+    <row r="700" ht="15.75" customHeight="1" s="202"/>
+    <row r="701" ht="15.75" customHeight="1" s="202"/>
+    <row r="702" ht="15.75" customHeight="1" s="202"/>
+    <row r="703" ht="15.75" customHeight="1" s="202"/>
+    <row r="704" ht="15.75" customHeight="1" s="202"/>
+    <row r="705" ht="15.75" customHeight="1" s="202"/>
+    <row r="706" ht="15.75" customHeight="1" s="202"/>
+    <row r="707" ht="15.75" customHeight="1" s="202"/>
+    <row r="708" ht="15.75" customHeight="1" s="202"/>
+    <row r="709" ht="15.75" customHeight="1" s="202"/>
+    <row r="710" ht="15.75" customHeight="1" s="202"/>
+    <row r="711" ht="15.75" customHeight="1" s="202"/>
+    <row r="712" ht="15.75" customHeight="1" s="202"/>
+    <row r="713" ht="15.75" customHeight="1" s="202"/>
+    <row r="714" ht="15.75" customHeight="1" s="202"/>
+    <row r="715" ht="15.75" customHeight="1" s="202"/>
+    <row r="716" ht="15.75" customHeight="1" s="202"/>
+    <row r="717" ht="15.75" customHeight="1" s="202"/>
+    <row r="718" ht="15.75" customHeight="1" s="202"/>
+    <row r="719" ht="15.75" customHeight="1" s="202"/>
+    <row r="720" ht="15.75" customHeight="1" s="202"/>
+    <row r="721" ht="15.75" customHeight="1" s="202"/>
+    <row r="722" ht="15.75" customHeight="1" s="202"/>
+    <row r="723" ht="15.75" customHeight="1" s="202"/>
+    <row r="724" ht="15.75" customHeight="1" s="202"/>
+    <row r="725" ht="15.75" customHeight="1" s="202"/>
+    <row r="726" ht="15.75" customHeight="1" s="202"/>
+    <row r="727" ht="15.75" customHeight="1" s="202"/>
+    <row r="728" ht="15.75" customHeight="1" s="202"/>
+    <row r="729" ht="15.75" customHeight="1" s="202"/>
+    <row r="730" ht="15.75" customHeight="1" s="202"/>
+    <row r="731" ht="15.75" customHeight="1" s="202"/>
+    <row r="732" ht="15.75" customHeight="1" s="202"/>
+    <row r="733" ht="15.75" customHeight="1" s="202"/>
+    <row r="734" ht="15.75" customHeight="1" s="202"/>
+    <row r="735" ht="15.75" customHeight="1" s="202"/>
+    <row r="736" ht="15.75" customHeight="1" s="202"/>
+    <row r="737" ht="15.75" customHeight="1" s="202"/>
+    <row r="738" ht="15.75" customHeight="1" s="202"/>
+    <row r="739" ht="15.75" customHeight="1" s="202"/>
+    <row r="740" ht="15.75" customHeight="1" s="202"/>
+    <row r="741" ht="15.75" customHeight="1" s="202"/>
+    <row r="742" ht="15.75" customHeight="1" s="202"/>
+    <row r="743" ht="15.75" customHeight="1" s="202"/>
+    <row r="744" ht="15.75" customHeight="1" s="202"/>
+    <row r="745" ht="15.75" customHeight="1" s="202"/>
+    <row r="746" ht="15.75" customHeight="1" s="202"/>
+    <row r="747" ht="15.75" customHeight="1" s="202"/>
+    <row r="748" ht="15.75" customHeight="1" s="202"/>
+    <row r="749" ht="15.75" customHeight="1" s="202"/>
+    <row r="750" ht="15.75" customHeight="1" s="202"/>
+    <row r="751" ht="15.75" customHeight="1" s="202"/>
+    <row r="752" ht="15.75" customHeight="1" s="202"/>
+    <row r="753" ht="15.75" customHeight="1" s="202"/>
+    <row r="754" ht="15.75" customHeight="1" s="202"/>
+    <row r="755" ht="15.75" customHeight="1" s="202"/>
+    <row r="756" ht="15.75" customHeight="1" s="202"/>
+    <row r="757" ht="15.75" customHeight="1" s="202"/>
+    <row r="758" ht="15.75" customHeight="1" s="202"/>
+    <row r="759" ht="15.75" customHeight="1" s="202"/>
+    <row r="760" ht="15.75" customHeight="1" s="202"/>
+    <row r="761" ht="15.75" customHeight="1" s="202"/>
+    <row r="762" ht="15.75" customHeight="1" s="202"/>
+    <row r="763" ht="15.75" customHeight="1" s="202"/>
+    <row r="764" ht="15.75" customHeight="1" s="202"/>
+    <row r="765" ht="15.75" customHeight="1" s="202"/>
+    <row r="766" ht="15.75" customHeight="1" s="202"/>
+    <row r="767" ht="15.75" customHeight="1" s="202"/>
+    <row r="768" ht="15.75" customHeight="1" s="202"/>
+    <row r="769" ht="15.75" customHeight="1" s="202"/>
+    <row r="770" ht="15.75" customHeight="1" s="202"/>
+    <row r="771" ht="15.75" customHeight="1" s="202"/>
+    <row r="772" ht="15.75" customHeight="1" s="202"/>
+    <row r="773" ht="15.75" customHeight="1" s="202"/>
+    <row r="774" ht="15.75" customHeight="1" s="202"/>
+    <row r="775" ht="15.75" customHeight="1" s="202"/>
+    <row r="776" ht="15.75" customHeight="1" s="202"/>
+    <row r="777" ht="15.75" customHeight="1" s="202"/>
+    <row r="778" ht="15.75" customHeight="1" s="202"/>
+    <row r="779" ht="15.75" customHeight="1" s="202"/>
+    <row r="780" ht="15.75" customHeight="1" s="202"/>
+    <row r="781" ht="15.75" customHeight="1" s="202"/>
+    <row r="782" ht="15.75" customHeight="1" s="202"/>
+    <row r="783" ht="15.75" customHeight="1" s="202"/>
+    <row r="784" ht="15.75" customHeight="1" s="202"/>
+    <row r="785" ht="15.75" customHeight="1" s="202"/>
+    <row r="786" ht="15.75" customHeight="1" s="202"/>
+    <row r="787" ht="15.75" customHeight="1" s="202"/>
+    <row r="788" ht="15.75" customHeight="1" s="202"/>
+    <row r="789" ht="15.75" customHeight="1" s="202"/>
+    <row r="790" ht="15.75" customHeight="1" s="202"/>
+    <row r="791" ht="15.75" customHeight="1" s="202"/>
+    <row r="792" ht="15.75" customHeight="1" s="202"/>
+    <row r="793" ht="15.75" customHeight="1" s="202"/>
+    <row r="794" ht="15.75" customHeight="1" s="202"/>
+    <row r="795" ht="15.75" customHeight="1" s="202"/>
+    <row r="796" ht="15.75" customHeight="1" s="202"/>
+    <row r="797" ht="15.75" customHeight="1" s="202"/>
+    <row r="798" ht="15.75" customHeight="1" s="202"/>
+    <row r="799" ht="15.75" customHeight="1" s="202"/>
+    <row r="800" ht="15.75" customHeight="1" s="202"/>
+    <row r="801" ht="15.75" customHeight="1" s="202"/>
+    <row r="802" ht="15.75" customHeight="1" s="202"/>
+    <row r="803" ht="15.75" customHeight="1" s="202"/>
+    <row r="804" ht="15.75" customHeight="1" s="202"/>
+    <row r="805" ht="15.75" customHeight="1" s="202"/>
+    <row r="806" ht="15.75" customHeight="1" s="202"/>
+    <row r="807" ht="15.75" customHeight="1" s="202"/>
+    <row r="808" ht="15.75" customHeight="1" s="202"/>
+    <row r="809" ht="15.75" customHeight="1" s="202"/>
+    <row r="810" ht="15.75" customHeight="1" s="202"/>
+    <row r="811" ht="15.75" customHeight="1" s="202"/>
+    <row r="812" ht="15.75" customHeight="1" s="202"/>
+    <row r="813" ht="15.75" customHeight="1" s="202"/>
+    <row r="814" ht="15.75" customHeight="1" s="202"/>
+    <row r="815" ht="15.75" customHeight="1" s="202"/>
+    <row r="816" ht="15.75" customHeight="1" s="202"/>
+    <row r="817" ht="15.75" customHeight="1" s="202"/>
+    <row r="818" ht="15.75" customHeight="1" s="202"/>
+    <row r="819" ht="15.75" customHeight="1" s="202"/>
+    <row r="820" ht="15.75" customHeight="1" s="202"/>
+    <row r="821" ht="15.75" customHeight="1" s="202"/>
+    <row r="822" ht="15.75" customHeight="1" s="202"/>
+    <row r="823" ht="15.75" customHeight="1" s="202"/>
+    <row r="824" ht="15.75" customHeight="1" s="202"/>
+    <row r="825" ht="15.75" customHeight="1" s="202"/>
+    <row r="826" ht="15.75" customHeight="1" s="202"/>
+    <row r="827" ht="15.75" customHeight="1" s="202"/>
+    <row r="828" ht="15.75" customHeight="1" s="202"/>
+    <row r="829" ht="15.75" customHeight="1" s="202"/>
+    <row r="830" ht="15.75" customHeight="1" s="202"/>
+    <row r="831" ht="15.75" customHeight="1" s="202"/>
+    <row r="832" ht="15.75" customHeight="1" s="202"/>
+    <row r="833" ht="15.75" customHeight="1" s="202"/>
+    <row r="834" ht="15.75" customHeight="1" s="202"/>
+    <row r="835" ht="15.75" customHeight="1" s="202"/>
+    <row r="836" ht="15.75" customHeight="1" s="202"/>
+    <row r="837" ht="15.75" customHeight="1" s="202"/>
+    <row r="838" ht="15.75" customHeight="1" s="202"/>
+    <row r="839" ht="15.75" customHeight="1" s="202"/>
+    <row r="840" ht="15.75" customHeight="1" s="202"/>
+    <row r="841" ht="15.75" customHeight="1" s="202"/>
+    <row r="842" ht="15.75" customHeight="1" s="202"/>
+    <row r="843" ht="15.75" customHeight="1" s="202"/>
+    <row r="844" ht="15.75" customHeight="1" s="202"/>
+    <row r="845" ht="15.75" customHeight="1" s="202"/>
+    <row r="846" ht="15.75" customHeight="1" s="202"/>
+    <row r="847" ht="15.75" customHeight="1" s="202"/>
+    <row r="848" ht="15.75" customHeight="1" s="202"/>
+    <row r="849" ht="15.75" customHeight="1" s="202"/>
+    <row r="850" ht="15.75" customHeight="1" s="202"/>
+    <row r="851" ht="15.75" customHeight="1" s="202"/>
+    <row r="852" ht="15.75" customHeight="1" s="202"/>
+    <row r="853" ht="15.75" customHeight="1" s="202"/>
+    <row r="854" ht="15.75" customHeight="1" s="202"/>
+    <row r="855" ht="15.75" customHeight="1" s="202"/>
+    <row r="856" ht="15.75" customHeight="1" s="202"/>
+    <row r="857" ht="15.75" customHeight="1" s="202"/>
+    <row r="858" ht="15.75" customHeight="1" s="202"/>
+    <row r="859" ht="15.75" customHeight="1" s="202"/>
+    <row r="860" ht="15.75" customHeight="1" s="202"/>
+    <row r="861" ht="15.75" customHeight="1" s="202"/>
+    <row r="862" ht="15.75" customHeight="1" s="202"/>
+    <row r="863" ht="15.75" customHeight="1" s="202"/>
+    <row r="864" ht="15.75" customHeight="1" s="202"/>
+    <row r="865" ht="15.75" customHeight="1" s="202"/>
+    <row r="866" ht="15.75" customHeight="1" s="202"/>
+    <row r="867" ht="15.75" customHeight="1" s="202"/>
+    <row r="868" ht="15.75" customHeight="1" s="202"/>
+    <row r="869" ht="15.75" customHeight="1" s="202"/>
+    <row r="870" ht="15.75" customHeight="1" s="202"/>
+    <row r="871" ht="15.75" customHeight="1" s="202"/>
+    <row r="872" ht="15.75" customHeight="1" s="202"/>
+    <row r="873" ht="15.75" customHeight="1" s="202"/>
+    <row r="874" ht="15.75" customHeight="1" s="202"/>
+    <row r="875" ht="15.75" customHeight="1" s="202"/>
+    <row r="876" ht="15.75" customHeight="1" s="202"/>
+    <row r="877" ht="15.75" customHeight="1" s="202"/>
+    <row r="878" ht="15.75" customHeight="1" s="202"/>
+    <row r="879" ht="15.75" customHeight="1" s="202"/>
+    <row r="880" ht="15.75" customHeight="1" s="202"/>
+    <row r="881" ht="15.75" customHeight="1" s="202"/>
+    <row r="882" ht="15.75" customHeight="1" s="202"/>
+    <row r="883" ht="15.75" customHeight="1" s="202"/>
+    <row r="884" ht="15.75" customHeight="1" s="202"/>
+    <row r="885" ht="15.75" customHeight="1" s="202"/>
+    <row r="886" ht="15.75" customHeight="1" s="202"/>
+    <row r="887" ht="15.75" customHeight="1" s="202"/>
+    <row r="888" ht="15.75" customHeight="1" s="202"/>
+    <row r="889" ht="15.75" customHeight="1" s="202"/>
+    <row r="890" ht="15.75" customHeight="1" s="202"/>
+    <row r="891" ht="15.75" customHeight="1" s="202"/>
+    <row r="892" ht="15.75" customHeight="1" s="202"/>
+    <row r="893" ht="15.75" customHeight="1" s="202"/>
+    <row r="894" ht="15.75" customHeight="1" s="202"/>
+    <row r="895" ht="15.75" customHeight="1" s="202"/>
+    <row r="896" ht="15.75" customHeight="1" s="202"/>
+    <row r="897" ht="15.75" customHeight="1" s="202"/>
+    <row r="898" ht="15.75" customHeight="1" s="202"/>
+    <row r="899" ht="15.75" customHeight="1" s="202"/>
+    <row r="900" ht="15.75" customHeight="1" s="202"/>
+    <row r="901" ht="15.75" customHeight="1" s="202"/>
+    <row r="902" ht="15.75" customHeight="1" s="202"/>
+    <row r="903" ht="15.75" customHeight="1" s="202"/>
+    <row r="904" ht="15.75" customHeight="1" s="202"/>
+    <row r="905" ht="15.75" customHeight="1" s="202"/>
+    <row r="906" ht="15.75" customHeight="1" s="202"/>
+    <row r="907" ht="15.75" customHeight="1" s="202"/>
+    <row r="908" ht="15.75" customHeight="1" s="202"/>
+    <row r="909" ht="15.75" customHeight="1" s="202"/>
+    <row r="910" ht="15.75" customHeight="1" s="202"/>
+    <row r="911" ht="15.75" customHeight="1" s="202"/>
+    <row r="912" ht="15.75" customHeight="1" s="202"/>
+    <row r="913" ht="15.75" customHeight="1" s="202"/>
+    <row r="914" ht="15.75" customHeight="1" s="202"/>
+    <row r="915" ht="15.75" customHeight="1" s="202"/>
+    <row r="916" ht="15.75" customHeight="1" s="202"/>
+    <row r="917" ht="15.75" customHeight="1" s="202"/>
+    <row r="918" ht="15.75" customHeight="1" s="202"/>
+    <row r="919" ht="15.75" customHeight="1" s="202"/>
+    <row r="920" ht="15.75" customHeight="1" s="202"/>
+    <row r="921" ht="15.75" customHeight="1" s="202"/>
+    <row r="922" ht="15.75" customHeight="1" s="202"/>
+    <row r="923" ht="15.75" customHeight="1" s="202"/>
+    <row r="924" ht="15.75" customHeight="1" s="202"/>
+    <row r="925" ht="15.75" customHeight="1" s="202"/>
+    <row r="926" ht="15.75" customHeight="1" s="202"/>
+    <row r="927" ht="15.75" customHeight="1" s="202"/>
+    <row r="928" ht="15.75" customHeight="1" s="202"/>
+    <row r="929" ht="15.75" customHeight="1" s="202"/>
+    <row r="930" ht="15.75" customHeight="1" s="202"/>
+    <row r="931" ht="15.75" customHeight="1" s="202"/>
+    <row r="932" ht="15.75" customHeight="1" s="202"/>
+    <row r="933" ht="15.75" customHeight="1" s="202"/>
+    <row r="934" ht="15.75" customHeight="1" s="202"/>
+    <row r="935" ht="15.75" customHeight="1" s="202"/>
+    <row r="936" ht="15.75" customHeight="1" s="202"/>
+    <row r="937" ht="15.75" customHeight="1" s="202"/>
+    <row r="938" ht="15.75" customHeight="1" s="202"/>
+    <row r="939" ht="15.75" customHeight="1" s="202"/>
+    <row r="940" ht="15.75" customHeight="1" s="202"/>
+    <row r="941" ht="15.75" customHeight="1" s="202"/>
+    <row r="942" ht="15.75" customHeight="1" s="202"/>
+    <row r="943" ht="15.75" customHeight="1" s="202"/>
+    <row r="944" ht="15.75" customHeight="1" s="202"/>
+    <row r="945" ht="15.75" customHeight="1" s="202"/>
+    <row r="946" ht="15.75" customHeight="1" s="202"/>
+    <row r="947" ht="15.75" customHeight="1" s="202"/>
+    <row r="948" ht="15.75" customHeight="1" s="202"/>
+    <row r="949" ht="15.75" customHeight="1" s="202"/>
+    <row r="950" ht="15.75" customHeight="1" s="202"/>
+    <row r="951" ht="15.75" customHeight="1" s="202"/>
+    <row r="952" ht="15.75" customHeight="1" s="202"/>
+    <row r="953" ht="15.75" customHeight="1" s="202"/>
+    <row r="954" ht="15.75" customHeight="1" s="202"/>
+    <row r="955" ht="15.75" customHeight="1" s="202"/>
+    <row r="956" ht="15.75" customHeight="1" s="202"/>
+    <row r="957" ht="15.75" customHeight="1" s="202"/>
+    <row r="958" ht="15.75" customHeight="1" s="202"/>
+    <row r="959" ht="15.75" customHeight="1" s="202"/>
+    <row r="960" ht="15.75" customHeight="1" s="202"/>
+    <row r="961" ht="15.75" customHeight="1" s="202"/>
+    <row r="962" ht="15.75" customHeight="1" s="202"/>
+    <row r="963" ht="15.75" customHeight="1" s="202"/>
+    <row r="964" ht="15.75" customHeight="1" s="202"/>
+    <row r="965" ht="15.75" customHeight="1" s="202"/>
+    <row r="966" ht="15.75" customHeight="1" s="202"/>
+    <row r="967" ht="15.75" customHeight="1" s="202"/>
+    <row r="968" ht="15.75" customHeight="1" s="202"/>
+    <row r="969" ht="15.75" customHeight="1" s="202"/>
+    <row r="970" ht="15.75" customHeight="1" s="202"/>
+    <row r="971" ht="15.75" customHeight="1" s="202"/>
+    <row r="972" ht="15.75" customHeight="1" s="202"/>
+    <row r="973" ht="15.75" customHeight="1" s="202"/>
+    <row r="974" ht="15.75" customHeight="1" s="202"/>
+    <row r="975" ht="15.75" customHeight="1" s="202"/>
+    <row r="976" ht="15.75" customHeight="1" s="202"/>
+    <row r="977" ht="15.75" customHeight="1" s="202"/>
+    <row r="978" ht="15.75" customHeight="1" s="202"/>
+    <row r="979" ht="15.75" customHeight="1" s="202"/>
+    <row r="980" ht="15.75" customHeight="1" s="202"/>
+    <row r="981" ht="15.75" customHeight="1" s="202"/>
+    <row r="982" ht="15.75" customHeight="1" s="202"/>
+    <row r="983" ht="15.75" customHeight="1" s="202"/>
+    <row r="984" ht="15.75" customHeight="1" s="202"/>
+    <row r="985" ht="15.75" customHeight="1" s="202"/>
+    <row r="986" ht="15.75" customHeight="1" s="202"/>
+    <row r="987" ht="15.75" customHeight="1" s="202"/>
+    <row r="988" ht="15.75" customHeight="1" s="202"/>
+    <row r="989" ht="15.75" customHeight="1" s="202"/>
+    <row r="990" ht="15.75" customHeight="1" s="202"/>
+    <row r="991" ht="15.75" customHeight="1" s="202"/>
+    <row r="992" ht="15.75" customHeight="1" s="202"/>
+    <row r="993" ht="15.75" customHeight="1" s="202"/>
+    <row r="994" ht="15.75" customHeight="1" s="202"/>
+    <row r="995" ht="15.75" customHeight="1" s="202"/>
+    <row r="996" ht="15.75" customHeight="1" s="202"/>
+    <row r="997" ht="15.75" customHeight="1" s="202"/>
+    <row r="998" ht="15.75" customHeight="1" s="202"/>
+    <row r="999" ht="15.75" customHeight="1" s="202"/>
+    <row r="1000" ht="15.75" customHeight="1" s="202"/>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
     <mergeCell ref="S42:T42"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C16:L16"/>
@@ -8928,37 +8963,6 @@
     <mergeCell ref="H39:L40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="J59:J60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -8979,20 +8983,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="2.42578125" customWidth="1" style="191" min="1" max="1"/>
-    <col width="4.42578125" customWidth="1" style="191" min="2" max="2"/>
-    <col width="16.7109375" customWidth="1" style="191" min="3" max="4"/>
-    <col width="4.42578125" bestFit="1" customWidth="1" style="191" min="6" max="6"/>
-    <col width="16.7109375" customWidth="1" style="191" min="7" max="8"/>
-    <col width="7.42578125" bestFit="1" customWidth="1" style="191" min="9" max="9"/>
-    <col width="4" customWidth="1" style="191" min="10" max="10"/>
-    <col width="16.85546875" customWidth="1" style="191" min="11" max="12"/>
-    <col width="4.140625" customWidth="1" style="191" min="14" max="14"/>
-    <col width="16.7109375" customWidth="1" style="191" min="15" max="17"/>
+    <col width="2.42578125" customWidth="1" style="202" min="1" max="1"/>
+    <col width="4.42578125" customWidth="1" style="202" min="2" max="2"/>
+    <col width="16.7109375" customWidth="1" style="202" min="3" max="4"/>
+    <col width="4.42578125" bestFit="1" customWidth="1" style="202" min="6" max="6"/>
+    <col width="16.7109375" customWidth="1" style="202" min="7" max="8"/>
+    <col width="7.42578125" bestFit="1" customWidth="1" style="202" min="9" max="9"/>
+    <col width="4" customWidth="1" style="202" min="10" max="10"/>
+    <col width="16.85546875" customWidth="1" style="202" min="11" max="12"/>
+    <col width="4.140625" customWidth="1" style="202" min="14" max="14"/>
+    <col width="16.7109375" customWidth="1" style="202" min="15" max="17"/>
   </cols>
   <sheetData>
-    <row r="2" ht="26.25" customHeight="1" s="191">
-      <c r="C2" s="190" t="inlineStr">
+    <row r="2" ht="26.25" customHeight="1" s="202">
+      <c r="C2" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">EURO 2020 </t>
         </is>
@@ -9286,21 +9290,21 @@
       <c r="K15" s="83" t="n"/>
       <c r="L15" s="83" t="n"/>
     </row>
-    <row r="16" ht="39.95" customHeight="1" s="191">
-      <c r="C16" s="208" t="inlineStr">
+    <row r="16" ht="39.95" customHeight="1" s="202">
+      <c r="C16" s="192" t="inlineStr">
         <is>
           <t>Group Stage predictions are made in a single submission and are due by Thursday Evening June 10th, 2021.</t>
         </is>
       </c>
-      <c r="D16" s="196" t="n"/>
-      <c r="E16" s="196" t="n"/>
-      <c r="F16" s="196" t="n"/>
-      <c r="G16" s="196" t="n"/>
-      <c r="H16" s="196" t="n"/>
-      <c r="I16" s="196" t="n"/>
-      <c r="J16" s="196" t="n"/>
-      <c r="K16" s="196" t="n"/>
-      <c r="L16" s="196" t="n"/>
+      <c r="D16" s="193" t="n"/>
+      <c r="E16" s="193" t="n"/>
+      <c r="F16" s="193" t="n"/>
+      <c r="G16" s="193" t="n"/>
+      <c r="H16" s="193" t="n"/>
+      <c r="I16" s="193" t="n"/>
+      <c r="J16" s="193" t="n"/>
+      <c r="K16" s="193" t="n"/>
+      <c r="L16" s="193" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="32" t="inlineStr">
@@ -9308,19 +9312,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D17" s="192" t="n"/>
-      <c r="E17" s="193" t="n"/>
-      <c r="F17" s="193" t="n"/>
-      <c r="G17" s="194" t="n"/>
-      <c r="H17" s="199" t="inlineStr">
+      <c r="D17" s="209" t="n"/>
+      <c r="E17" s="204" t="n"/>
+      <c r="F17" s="204" t="n"/>
+      <c r="G17" s="205" t="n"/>
+      <c r="H17" s="203" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I17" s="193" t="n"/>
-      <c r="J17" s="193" t="n"/>
-      <c r="K17" s="193" t="n"/>
-      <c r="L17" s="194" t="n"/>
+      <c r="I17" s="204" t="n"/>
+      <c r="J17" s="204" t="n"/>
+      <c r="K17" s="204" t="n"/>
+      <c r="L17" s="205" t="n"/>
     </row>
     <row r="18">
       <c r="C18" s="33" t="inlineStr">
@@ -9328,50 +9332,50 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D18" s="195" t="n"/>
-      <c r="E18" s="196" t="n"/>
-      <c r="F18" s="196" t="n"/>
+      <c r="D18" s="196" t="n"/>
+      <c r="E18" s="193" t="n"/>
+      <c r="F18" s="193" t="n"/>
       <c r="G18" s="197" t="n"/>
-      <c r="H18" s="200" t="n"/>
-      <c r="I18" s="196" t="n"/>
-      <c r="J18" s="196" t="n"/>
-      <c r="K18" s="196" t="n"/>
+      <c r="H18" s="206" t="n"/>
+      <c r="I18" s="193" t="n"/>
+      <c r="J18" s="193" t="n"/>
+      <c r="K18" s="193" t="n"/>
       <c r="L18" s="197" t="n"/>
     </row>
     <row r="19">
       <c r="C19" s="31" t="n"/>
     </row>
     <row r="20" customFormat="1" s="5">
-      <c r="C20" s="201" t="inlineStr">
+      <c r="C20" s="207" t="inlineStr">
         <is>
           <t>Match Day 1</t>
         </is>
       </c>
-      <c r="D20" s="193" t="n"/>
+      <c r="D20" s="204" t="n"/>
       <c r="E20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
       <c r="F20" s="36" t="n"/>
-      <c r="G20" s="201" t="inlineStr">
+      <c r="G20" s="207" t="inlineStr">
         <is>
           <t>Match Day 2</t>
         </is>
       </c>
-      <c r="H20" s="193" t="n"/>
+      <c r="H20" s="204" t="n"/>
       <c r="I20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
       <c r="J20" s="36" t="n"/>
-      <c r="K20" s="201" t="inlineStr">
+      <c r="K20" s="207" t="inlineStr">
         <is>
           <t>Match Day 3</t>
         </is>
       </c>
-      <c r="L20" s="193" t="n"/>
+      <c r="L20" s="204" t="n"/>
       <c r="M20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
@@ -10018,21 +10022,21 @@
       <c r="L36" s="97" t="n"/>
       <c r="M36" s="92" t="n"/>
     </row>
-    <row r="38" ht="39.95" customHeight="1" s="191">
-      <c r="C38" s="208" t="inlineStr">
+    <row r="38" ht="39.95" customHeight="1" s="202">
+      <c r="C38" s="192" t="inlineStr">
         <is>
           <t xml:space="preserve">We'll do the competition in two halves since the Round of 16 is heavily dependent on the Group Stages. </t>
         </is>
       </c>
-      <c r="D38" s="196" t="n"/>
-      <c r="E38" s="196" t="n"/>
-      <c r="F38" s="196" t="n"/>
-      <c r="G38" s="196" t="n"/>
-      <c r="H38" s="196" t="n"/>
-      <c r="I38" s="196" t="n"/>
-      <c r="J38" s="196" t="n"/>
-      <c r="K38" s="196" t="n"/>
-      <c r="L38" s="196" t="n"/>
+      <c r="D38" s="193" t="n"/>
+      <c r="E38" s="193" t="n"/>
+      <c r="F38" s="193" t="n"/>
+      <c r="G38" s="193" t="n"/>
+      <c r="H38" s="193" t="n"/>
+      <c r="I38" s="193" t="n"/>
+      <c r="J38" s="193" t="n"/>
+      <c r="K38" s="193" t="n"/>
+      <c r="L38" s="193" t="n"/>
     </row>
     <row r="39">
       <c r="C39" s="32" t="inlineStr">
@@ -10040,19 +10044,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D39" s="192" t="n"/>
-      <c r="E39" s="193" t="n"/>
-      <c r="F39" s="193" t="n"/>
-      <c r="G39" s="194" t="n"/>
-      <c r="H39" s="199" t="inlineStr">
+      <c r="D39" s="209" t="n"/>
+      <c r="E39" s="204" t="n"/>
+      <c r="F39" s="204" t="n"/>
+      <c r="G39" s="205" t="n"/>
+      <c r="H39" s="203" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULTS         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I39" s="193" t="n"/>
-      <c r="J39" s="193" t="n"/>
-      <c r="K39" s="193" t="n"/>
-      <c r="L39" s="194" t="n"/>
+      <c r="I39" s="204" t="n"/>
+      <c r="J39" s="204" t="n"/>
+      <c r="K39" s="204" t="n"/>
+      <c r="L39" s="205" t="n"/>
     </row>
     <row r="40">
       <c r="C40" s="33" t="inlineStr">
@@ -10060,27 +10064,27 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D40" s="195" t="n"/>
-      <c r="E40" s="196" t="n"/>
-      <c r="F40" s="196" t="n"/>
+      <c r="D40" s="196" t="n"/>
+      <c r="E40" s="193" t="n"/>
+      <c r="F40" s="193" t="n"/>
       <c r="G40" s="197" t="n"/>
-      <c r="H40" s="200" t="n"/>
-      <c r="I40" s="196" t="n"/>
-      <c r="J40" s="196" t="n"/>
-      <c r="K40" s="196" t="n"/>
+      <c r="H40" s="206" t="n"/>
+      <c r="I40" s="193" t="n"/>
+      <c r="J40" s="193" t="n"/>
+      <c r="K40" s="193" t="n"/>
       <c r="L40" s="197" t="n"/>
     </row>
     <row r="41">
       <c r="B41" s="46" t="n"/>
-      <c r="C41" s="196" t="n"/>
+      <c r="C41" s="193" t="n"/>
     </row>
     <row r="42">
-      <c r="B42" s="209" t="inlineStr">
+      <c r="B42" s="198" t="inlineStr">
         <is>
           <t>Round of 16</t>
         </is>
       </c>
-      <c r="C42" s="196" t="n"/>
+      <c r="C42" s="193" t="n"/>
       <c r="D42" s="30" t="inlineStr">
         <is>
           <t>Results</t>
@@ -10123,11 +10127,11 @@
         </is>
       </c>
       <c r="Q42" s="39" t="n"/>
-      <c r="S42" s="198" t="n"/>
+      <c r="S42" s="201" t="n"/>
       <c r="U42" s="39" t="n"/>
     </row>
     <row r="43">
-      <c r="B43" s="207" t="inlineStr">
+      <c r="B43" s="190" t="inlineStr">
         <is>
           <t>R1</t>
         </is>
@@ -10137,18 +10141,18 @@
           <t>Winner Group A</t>
         </is>
       </c>
-      <c r="D43" s="202" t="n"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B44" s="203" t="n"/>
-      <c r="C44" s="200" t="inlineStr">
+      <c r="D43" s="195" t="n"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B44" s="191" t="n"/>
+      <c r="C44" s="206" t="inlineStr">
         <is>
           <t>2nd Group C</t>
         </is>
       </c>
-      <c r="D44" s="203" t="n"/>
+      <c r="D44" s="191" t="n"/>
       <c r="E44" s="44" t="n"/>
-      <c r="F44" s="206" t="inlineStr">
+      <c r="F44" s="194" t="inlineStr">
         <is>
           <t>QF1</t>
         </is>
@@ -10158,22 +10162,22 @@
           <t>Winner R1</t>
         </is>
       </c>
-      <c r="H44" s="202" t="n"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="H44" s="195" t="n"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B45" s="5" t="n"/>
       <c r="D45" s="93" t="n"/>
       <c r="E45" s="43" t="n"/>
-      <c r="F45" s="203" t="n"/>
+      <c r="F45" s="191" t="n"/>
       <c r="G45" s="41" t="inlineStr">
         <is>
           <t>Winner R2</t>
         </is>
       </c>
-      <c r="H45" s="203" t="n"/>
+      <c r="H45" s="191" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="207" t="inlineStr">
+      <c r="B46" s="190" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
@@ -10183,22 +10187,22 @@
           <t>Winner Group B</t>
         </is>
       </c>
-      <c r="D46" s="202" t="n"/>
+      <c r="D46" s="195" t="n"/>
       <c r="G46" s="1" t="n"/>
       <c r="H46" s="94" t="n"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B47" s="203" t="n"/>
-      <c r="C47" s="200" t="inlineStr">
+    <row r="47" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B47" s="191" t="n"/>
+      <c r="C47" s="206" t="inlineStr">
         <is>
           <t>3rd Group A/D/E/F</t>
         </is>
       </c>
-      <c r="D47" s="203" t="n"/>
+      <c r="D47" s="191" t="n"/>
       <c r="G47" s="1" t="n"/>
       <c r="H47" s="95" t="n"/>
       <c r="I47" s="43" t="n"/>
-      <c r="J47" s="204" t="inlineStr">
+      <c r="J47" s="199" t="inlineStr">
         <is>
           <t>SF1</t>
         </is>
@@ -10208,8 +10212,8 @@
           <t>Winner QF1</t>
         </is>
       </c>
-      <c r="L47" s="202" t="n"/>
-      <c r="S47" s="198" t="n"/>
+      <c r="L47" s="195" t="n"/>
+      <c r="S47" s="201" t="n"/>
       <c r="U47" s="39" t="n"/>
     </row>
     <row r="48">
@@ -10217,16 +10221,16 @@
       <c r="D48" s="93" t="n"/>
       <c r="G48" s="1" t="n"/>
       <c r="H48" s="95" t="n"/>
-      <c r="J48" s="203" t="n"/>
+      <c r="J48" s="191" t="n"/>
       <c r="K48" s="42" t="inlineStr">
         <is>
           <t>Winner QF2</t>
         </is>
       </c>
-      <c r="L48" s="203" t="n"/>
+      <c r="L48" s="191" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="207" t="inlineStr">
+      <c r="B49" s="190" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
@@ -10236,22 +10240,22 @@
           <t>Winner Group F</t>
         </is>
       </c>
-      <c r="D49" s="202" t="n"/>
+      <c r="D49" s="195" t="n"/>
       <c r="G49" s="1" t="n"/>
       <c r="H49" s="96" t="n"/>
       <c r="K49" s="37" t="n"/>
       <c r="L49" s="94" t="n"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B50" s="203" t="n"/>
-      <c r="C50" s="200" t="inlineStr">
+    <row r="50" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B50" s="191" t="n"/>
+      <c r="C50" s="206" t="inlineStr">
         <is>
           <t>3rd Group A/B/C</t>
         </is>
       </c>
-      <c r="D50" s="203" t="n"/>
+      <c r="D50" s="191" t="n"/>
       <c r="E50" s="43" t="n"/>
-      <c r="F50" s="206" t="inlineStr">
+      <c r="F50" s="194" t="inlineStr">
         <is>
           <t>QF2</t>
         </is>
@@ -10261,26 +10265,26 @@
           <t>Winner R3</t>
         </is>
       </c>
-      <c r="H50" s="202" t="n"/>
+      <c r="H50" s="195" t="n"/>
       <c r="K50" s="37" t="n"/>
       <c r="L50" s="95" t="n"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1" s="191" thickBot="1">
+    <row r="51" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B51" s="5" t="n"/>
       <c r="D51" s="93" t="n"/>
       <c r="E51" s="43" t="n"/>
-      <c r="F51" s="203" t="n"/>
+      <c r="F51" s="191" t="n"/>
       <c r="G51" s="41" t="inlineStr">
         <is>
           <t>Winner R4</t>
         </is>
       </c>
-      <c r="H51" s="203" t="n"/>
+      <c r="H51" s="191" t="n"/>
       <c r="K51" s="37" t="n"/>
       <c r="L51" s="95" t="n"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B52" s="207" t="inlineStr">
+    <row r="52" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B52" s="190" t="inlineStr">
         <is>
           <t>R4</t>
         </is>
@@ -10290,13 +10294,13 @@
           <t>2nd Group D</t>
         </is>
       </c>
-      <c r="D52" s="202" t="n"/>
+      <c r="D52" s="195" t="n"/>
       <c r="G52" s="1" t="n"/>
       <c r="H52" s="93" t="n"/>
       <c r="K52" s="37" t="n"/>
       <c r="L52" s="95" t="n"/>
       <c r="M52" s="43" t="n"/>
-      <c r="N52" s="205" t="inlineStr">
+      <c r="N52" s="200" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -10306,27 +10310,27 @@
           <t>Winner SF1</t>
         </is>
       </c>
-      <c r="P52" s="202" t="n"/>
+      <c r="P52" s="195" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="203" t="n"/>
-      <c r="C53" s="200" t="inlineStr">
+      <c r="B53" s="191" t="n"/>
+      <c r="C53" s="206" t="inlineStr">
         <is>
           <t>2nd Group E</t>
         </is>
       </c>
-      <c r="D53" s="203" t="n"/>
+      <c r="D53" s="191" t="n"/>
       <c r="G53" s="1" t="n"/>
       <c r="H53" s="93" t="n"/>
       <c r="K53" s="37" t="n"/>
       <c r="L53" s="95" t="n"/>
-      <c r="N53" s="203" t="n"/>
+      <c r="N53" s="191" t="n"/>
       <c r="O53" s="42" t="inlineStr">
         <is>
           <t>Winner SF2</t>
         </is>
       </c>
-      <c r="P53" s="203" t="n"/>
+      <c r="P53" s="191" t="n"/>
     </row>
     <row r="54">
       <c r="B54" s="5" t="n"/>
@@ -10337,7 +10341,7 @@
       <c r="L54" s="95" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="207" t="inlineStr">
+      <c r="B55" s="190" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
@@ -10347,22 +10351,22 @@
           <t>Winner Group E</t>
         </is>
       </c>
-      <c r="D55" s="202" t="n"/>
+      <c r="D55" s="195" t="n"/>
       <c r="G55" s="1" t="n"/>
       <c r="H55" s="93" t="n"/>
       <c r="K55" s="37" t="n"/>
       <c r="L55" s="95" t="n"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B56" s="203" t="n"/>
-      <c r="C56" s="200" t="inlineStr">
+    <row r="56" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B56" s="191" t="n"/>
+      <c r="C56" s="206" t="inlineStr">
         <is>
           <t>3rd Group A/B/C/D</t>
         </is>
       </c>
-      <c r="D56" s="203" t="n"/>
+      <c r="D56" s="191" t="n"/>
       <c r="E56" s="44" t="n"/>
-      <c r="F56" s="206" t="inlineStr">
+      <c r="F56" s="194" t="inlineStr">
         <is>
           <t>QF3</t>
         </is>
@@ -10372,26 +10376,26 @@
           <t>Winner R5</t>
         </is>
       </c>
-      <c r="H56" s="202" t="n"/>
+      <c r="H56" s="195" t="n"/>
       <c r="K56" s="37" t="n"/>
       <c r="L56" s="95" t="n"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1" s="191" thickBot="1">
+    <row r="57" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B57" s="5" t="n"/>
       <c r="D57" s="93" t="n"/>
       <c r="E57" s="45" t="n"/>
-      <c r="F57" s="203" t="n"/>
+      <c r="F57" s="191" t="n"/>
       <c r="G57" s="41" t="inlineStr">
         <is>
           <t>Winner R6</t>
         </is>
       </c>
-      <c r="H57" s="203" t="n"/>
+      <c r="H57" s="191" t="n"/>
       <c r="K57" s="37" t="n"/>
       <c r="L57" s="95" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="207" t="inlineStr">
+      <c r="B58" s="190" t="inlineStr">
         <is>
           <t>R6</t>
         </is>
@@ -10401,24 +10405,24 @@
           <t>Winner Group D</t>
         </is>
       </c>
-      <c r="D58" s="202" t="n"/>
+      <c r="D58" s="195" t="n"/>
       <c r="G58" s="1" t="n"/>
       <c r="H58" s="94" t="n"/>
       <c r="K58" s="37" t="n"/>
       <c r="L58" s="96" t="n"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B59" s="203" t="n"/>
-      <c r="C59" s="200" t="inlineStr">
+    <row r="59" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B59" s="191" t="n"/>
+      <c r="C59" s="206" t="inlineStr">
         <is>
           <t>2nd Group F</t>
         </is>
       </c>
-      <c r="D59" s="203" t="n"/>
+      <c r="D59" s="191" t="n"/>
       <c r="G59" s="1" t="n"/>
       <c r="H59" s="95" t="n"/>
       <c r="I59" s="43" t="n"/>
-      <c r="J59" s="204" t="inlineStr">
+      <c r="J59" s="199" t="inlineStr">
         <is>
           <t>SF2</t>
         </is>
@@ -10428,23 +10432,23 @@
           <t>Winner QF3</t>
         </is>
       </c>
-      <c r="L59" s="202" t="n"/>
+      <c r="L59" s="195" t="n"/>
     </row>
     <row r="60">
       <c r="B60" s="5" t="n"/>
       <c r="D60" s="93" t="n"/>
       <c r="G60" s="1" t="n"/>
       <c r="H60" s="95" t="n"/>
-      <c r="J60" s="203" t="n"/>
+      <c r="J60" s="191" t="n"/>
       <c r="K60" s="42" t="inlineStr">
         <is>
           <t>Winner QF4</t>
         </is>
       </c>
-      <c r="L60" s="203" t="n"/>
+      <c r="L60" s="191" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="207" t="inlineStr">
+      <c r="B61" s="190" t="inlineStr">
         <is>
           <t>R7</t>
         </is>
@@ -10454,20 +10458,20 @@
           <t>Winner GroupC</t>
         </is>
       </c>
-      <c r="D61" s="202" t="n"/>
+      <c r="D61" s="195" t="n"/>
       <c r="G61" s="1" t="n"/>
       <c r="H61" s="96" t="n"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B62" s="203" t="n"/>
-      <c r="C62" s="200" t="inlineStr">
+    <row r="62" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B62" s="191" t="n"/>
+      <c r="C62" s="206" t="inlineStr">
         <is>
           <t>3rd Group D/E/F</t>
         </is>
       </c>
-      <c r="D62" s="203" t="n"/>
+      <c r="D62" s="191" t="n"/>
       <c r="E62" s="44" t="n"/>
-      <c r="F62" s="206" t="inlineStr">
+      <c r="F62" s="194" t="inlineStr">
         <is>
           <t>QF4</t>
         </is>
@@ -10477,22 +10481,22 @@
           <t>Winner R7</t>
         </is>
       </c>
-      <c r="H62" s="202" t="n"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="H62" s="195" t="n"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B63" s="5" t="n"/>
       <c r="D63" s="93" t="n"/>
       <c r="E63" s="45" t="n"/>
-      <c r="F63" s="203" t="n"/>
+      <c r="F63" s="191" t="n"/>
       <c r="G63" s="41" t="inlineStr">
         <is>
           <t>Winner R8</t>
         </is>
       </c>
-      <c r="H63" s="203" t="n"/>
+      <c r="H63" s="191" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="207" t="inlineStr">
+      <c r="B64" s="190" t="inlineStr">
         <is>
           <t>R8</t>
         </is>
@@ -10502,19 +10506,50 @@
           <t>2nd Group A</t>
         </is>
       </c>
-      <c r="D64" s="202" t="n"/>
+      <c r="D64" s="195" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" s="203" t="n"/>
-      <c r="C65" s="200" t="inlineStr">
+      <c r="B65" s="191" t="n"/>
+      <c r="C65" s="206" t="inlineStr">
         <is>
           <t>2nd Group B</t>
         </is>
       </c>
-      <c r="D65" s="203" t="n"/>
+      <c r="D65" s="191" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
     <mergeCell ref="S42:T42"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C16:L16"/>
@@ -10529,37 +10564,6 @@
     <mergeCell ref="H39:L40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="J59:J60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Euro2020/result_files/EC_2020.xlsx
+++ b/Euro2020/result_files/EC_2020.xlsx
@@ -1237,58 +1237,74 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="15"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="15"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="15"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="13">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="13">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
       <alignment horizontal="center"/>
@@ -1319,22 +1335,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -1731,25 +1731,25 @@
   <dimension ref="B2:U65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="2.42578125" customWidth="1" style="202" min="1" max="1"/>
-    <col width="4.42578125" customWidth="1" style="202" min="2" max="2"/>
-    <col width="16.7109375" customWidth="1" style="202" min="3" max="4"/>
-    <col width="4.42578125" bestFit="1" customWidth="1" style="202" min="6" max="6"/>
-    <col width="16.7109375" customWidth="1" style="202" min="7" max="8"/>
-    <col width="7.42578125" bestFit="1" customWidth="1" style="202" min="9" max="9"/>
-    <col width="4" customWidth="1" style="202" min="10" max="10"/>
-    <col width="16.85546875" customWidth="1" style="202" min="11" max="12"/>
-    <col width="4.140625" customWidth="1" style="202" min="14" max="14"/>
-    <col width="16.7109375" customWidth="1" style="202" min="15" max="17"/>
+    <col width="2.42578125" customWidth="1" style="191" min="1" max="1"/>
+    <col width="4.42578125" customWidth="1" style="191" min="2" max="2"/>
+    <col width="16.7109375" customWidth="1" style="191" min="3" max="4"/>
+    <col width="4.42578125" bestFit="1" customWidth="1" style="191" min="6" max="6"/>
+    <col width="16.7109375" customWidth="1" style="191" min="7" max="8"/>
+    <col width="7.42578125" bestFit="1" customWidth="1" style="191" min="9" max="9"/>
+    <col width="4" customWidth="1" style="191" min="10" max="10"/>
+    <col width="16.85546875" customWidth="1" style="191" min="11" max="12"/>
+    <col width="4.140625" customWidth="1" style="191" min="14" max="14"/>
+    <col width="16.7109375" customWidth="1" style="191" min="15" max="17"/>
   </cols>
   <sheetData>
-    <row r="2" ht="26.25" customHeight="1" s="202">
-      <c r="C2" s="208" t="inlineStr">
+    <row r="2" ht="26.25" customHeight="1" s="191">
+      <c r="C2" s="190" t="inlineStr">
         <is>
           <t xml:space="preserve">EURO 2020 </t>
         </is>
@@ -1966,17 +1966,17 @@
         </is>
       </c>
       <c r="D11" s="23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" s="83" t="n"/>
       <c r="F11" s="83" t="n"/>
       <c r="G11" s="26" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="H11" s="27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11" s="83" t="n"/>
       <c r="J11" s="83" t="n"/>
@@ -1996,17 +1996,17 @@
         </is>
       </c>
       <c r="D12" s="23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" s="83" t="n"/>
       <c r="F12" s="83" t="n"/>
       <c r="G12" s="26" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="H12" s="27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12" s="83" t="n"/>
       <c r="J12" s="83" t="n"/>
@@ -2026,13 +2026,13 @@
         </is>
       </c>
       <c r="D13" s="23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="83" t="n"/>
       <c r="F13" s="83" t="n"/>
       <c r="G13" s="26" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="H13" s="27" t="n">
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="D14" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="83" t="n"/>
       <c r="F14" s="83" t="n"/>
@@ -2091,21 +2091,21 @@
       <c r="K15" s="83" t="n"/>
       <c r="L15" s="83" t="n"/>
     </row>
-    <row r="16" ht="39.95" customHeight="1" s="202">
-      <c r="C16" s="192" t="inlineStr">
+    <row r="16" ht="39.95" customHeight="1" s="191">
+      <c r="C16" s="208" t="inlineStr">
         <is>
           <t>Group Stage predictions are made in a single submission and are due by Thursday Evening June 10th, 2021.</t>
         </is>
       </c>
-      <c r="D16" s="193" t="n"/>
-      <c r="E16" s="193" t="n"/>
-      <c r="F16" s="193" t="n"/>
-      <c r="G16" s="193" t="n"/>
-      <c r="H16" s="193" t="n"/>
-      <c r="I16" s="193" t="n"/>
-      <c r="J16" s="193" t="n"/>
-      <c r="K16" s="193" t="n"/>
-      <c r="L16" s="193" t="n"/>
+      <c r="D16" s="196" t="n"/>
+      <c r="E16" s="196" t="n"/>
+      <c r="F16" s="196" t="n"/>
+      <c r="G16" s="196" t="n"/>
+      <c r="H16" s="196" t="n"/>
+      <c r="I16" s="196" t="n"/>
+      <c r="J16" s="196" t="n"/>
+      <c r="K16" s="196" t="n"/>
+      <c r="L16" s="196" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="32" t="inlineStr">
@@ -2113,19 +2113,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D17" s="209" t="n"/>
-      <c r="E17" s="204" t="n"/>
-      <c r="F17" s="204" t="n"/>
-      <c r="G17" s="205" t="n"/>
-      <c r="H17" s="203" t="inlineStr">
+      <c r="D17" s="192" t="n"/>
+      <c r="E17" s="193" t="n"/>
+      <c r="F17" s="193" t="n"/>
+      <c r="G17" s="194" t="n"/>
+      <c r="H17" s="199" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I17" s="204" t="n"/>
-      <c r="J17" s="204" t="n"/>
-      <c r="K17" s="204" t="n"/>
-      <c r="L17" s="205" t="n"/>
+      <c r="I17" s="193" t="n"/>
+      <c r="J17" s="193" t="n"/>
+      <c r="K17" s="193" t="n"/>
+      <c r="L17" s="194" t="n"/>
     </row>
     <row r="18">
       <c r="C18" s="33" t="inlineStr">
@@ -2133,50 +2133,50 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D18" s="196" t="n"/>
-      <c r="E18" s="193" t="n"/>
-      <c r="F18" s="193" t="n"/>
+      <c r="D18" s="195" t="n"/>
+      <c r="E18" s="196" t="n"/>
+      <c r="F18" s="196" t="n"/>
       <c r="G18" s="197" t="n"/>
-      <c r="H18" s="206" t="n"/>
-      <c r="I18" s="193" t="n"/>
-      <c r="J18" s="193" t="n"/>
-      <c r="K18" s="193" t="n"/>
+      <c r="H18" s="200" t="n"/>
+      <c r="I18" s="196" t="n"/>
+      <c r="J18" s="196" t="n"/>
+      <c r="K18" s="196" t="n"/>
       <c r="L18" s="197" t="n"/>
     </row>
     <row r="19">
       <c r="C19" s="31" t="n"/>
     </row>
     <row r="20" customFormat="1" s="5">
-      <c r="C20" s="207" t="inlineStr">
+      <c r="C20" s="201" t="inlineStr">
         <is>
           <t>Match Day 1</t>
         </is>
       </c>
-      <c r="D20" s="204" t="n"/>
+      <c r="D20" s="193" t="n"/>
       <c r="E20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
       <c r="F20" s="36" t="n"/>
-      <c r="G20" s="207" t="inlineStr">
+      <c r="G20" s="201" t="inlineStr">
         <is>
           <t>Match Day 2</t>
         </is>
       </c>
-      <c r="H20" s="204" t="n"/>
+      <c r="H20" s="193" t="n"/>
       <c r="I20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
       <c r="J20" s="36" t="n"/>
-      <c r="K20" s="207" t="inlineStr">
+      <c r="K20" s="201" t="inlineStr">
         <is>
           <t>Match Day 3</t>
         </is>
       </c>
-      <c r="L20" s="204" t="n"/>
+      <c r="L20" s="193" t="n"/>
       <c r="M20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
@@ -2506,7 +2506,11 @@
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="I29" s="89" t="n"/>
+      <c r="I29" s="89" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
       <c r="J29" s="37" t="n"/>
       <c r="K29" s="55" t="inlineStr">
         <is>
@@ -2535,7 +2539,11 @@
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="I30" s="87" t="n"/>
+      <c r="I30" s="87" t="inlineStr">
+        <is>
+          <t>1-1</t>
+        </is>
+      </c>
       <c r="J30" s="37" t="n"/>
       <c r="K30" s="55" t="inlineStr">
         <is>
@@ -2576,7 +2584,11 @@
           <t>Scotland</t>
         </is>
       </c>
-      <c r="I31" s="87" t="n"/>
+      <c r="I31" s="87" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
       <c r="J31" s="37" t="n"/>
       <c r="K31" s="52" t="n"/>
       <c r="L31" s="37" t="n"/>
@@ -2751,21 +2763,21 @@
       <c r="L36" s="97" t="n"/>
       <c r="M36" s="92" t="n"/>
     </row>
-    <row r="38" ht="39.95" customHeight="1" s="202">
-      <c r="C38" s="192" t="inlineStr">
+    <row r="38" ht="39.95" customHeight="1" s="191">
+      <c r="C38" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">We'll do the competition in two halves since the Round of 16 is heavily dependent on the Group Stages. </t>
         </is>
       </c>
-      <c r="D38" s="193" t="n"/>
-      <c r="E38" s="193" t="n"/>
-      <c r="F38" s="193" t="n"/>
-      <c r="G38" s="193" t="n"/>
-      <c r="H38" s="193" t="n"/>
-      <c r="I38" s="193" t="n"/>
-      <c r="J38" s="193" t="n"/>
-      <c r="K38" s="193" t="n"/>
-      <c r="L38" s="193" t="n"/>
+      <c r="D38" s="196" t="n"/>
+      <c r="E38" s="196" t="n"/>
+      <c r="F38" s="196" t="n"/>
+      <c r="G38" s="196" t="n"/>
+      <c r="H38" s="196" t="n"/>
+      <c r="I38" s="196" t="n"/>
+      <c r="J38" s="196" t="n"/>
+      <c r="K38" s="196" t="n"/>
+      <c r="L38" s="196" t="n"/>
     </row>
     <row r="39">
       <c r="C39" s="32" t="inlineStr">
@@ -2773,19 +2785,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D39" s="209" t="n"/>
-      <c r="E39" s="204" t="n"/>
-      <c r="F39" s="204" t="n"/>
-      <c r="G39" s="205" t="n"/>
-      <c r="H39" s="203" t="inlineStr">
+      <c r="D39" s="192" t="n"/>
+      <c r="E39" s="193" t="n"/>
+      <c r="F39" s="193" t="n"/>
+      <c r="G39" s="194" t="n"/>
+      <c r="H39" s="199" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULTS         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I39" s="204" t="n"/>
-      <c r="J39" s="204" t="n"/>
-      <c r="K39" s="204" t="n"/>
-      <c r="L39" s="205" t="n"/>
+      <c r="I39" s="193" t="n"/>
+      <c r="J39" s="193" t="n"/>
+      <c r="K39" s="193" t="n"/>
+      <c r="L39" s="194" t="n"/>
     </row>
     <row r="40">
       <c r="C40" s="33" t="inlineStr">
@@ -2793,27 +2805,27 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D40" s="196" t="n"/>
-      <c r="E40" s="193" t="n"/>
-      <c r="F40" s="193" t="n"/>
+      <c r="D40" s="195" t="n"/>
+      <c r="E40" s="196" t="n"/>
+      <c r="F40" s="196" t="n"/>
       <c r="G40" s="197" t="n"/>
-      <c r="H40" s="206" t="n"/>
-      <c r="I40" s="193" t="n"/>
-      <c r="J40" s="193" t="n"/>
-      <c r="K40" s="193" t="n"/>
+      <c r="H40" s="200" t="n"/>
+      <c r="I40" s="196" t="n"/>
+      <c r="J40" s="196" t="n"/>
+      <c r="K40" s="196" t="n"/>
       <c r="L40" s="197" t="n"/>
     </row>
     <row r="41">
       <c r="B41" s="46" t="n"/>
-      <c r="C41" s="193" t="n"/>
+      <c r="C41" s="196" t="n"/>
     </row>
     <row r="42">
-      <c r="B42" s="198" t="inlineStr">
+      <c r="B42" s="209" t="inlineStr">
         <is>
           <t>Round of 16</t>
         </is>
       </c>
-      <c r="C42" s="193" t="n"/>
+      <c r="C42" s="196" t="n"/>
       <c r="D42" s="30" t="inlineStr">
         <is>
           <t>Results</t>
@@ -2856,11 +2868,11 @@
         </is>
       </c>
       <c r="Q42" s="39" t="n"/>
-      <c r="S42" s="201" t="n"/>
+      <c r="S42" s="198" t="n"/>
       <c r="U42" s="39" t="n"/>
     </row>
     <row r="43">
-      <c r="B43" s="190" t="inlineStr">
+      <c r="B43" s="207" t="inlineStr">
         <is>
           <t>R1</t>
         </is>
@@ -2870,18 +2882,18 @@
           <t>Winner Group A</t>
         </is>
       </c>
-      <c r="D43" s="195" t="n"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B44" s="191" t="n"/>
-      <c r="C44" s="206" t="inlineStr">
+      <c r="D43" s="202" t="n"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B44" s="203" t="n"/>
+      <c r="C44" s="200" t="inlineStr">
         <is>
           <t>2nd Group C</t>
         </is>
       </c>
-      <c r="D44" s="191" t="n"/>
+      <c r="D44" s="203" t="n"/>
       <c r="E44" s="44" t="n"/>
-      <c r="F44" s="194" t="inlineStr">
+      <c r="F44" s="206" t="inlineStr">
         <is>
           <t>QF1</t>
         </is>
@@ -2891,22 +2903,22 @@
           <t>Winner R1</t>
         </is>
       </c>
-      <c r="H44" s="195" t="n"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="H44" s="202" t="n"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1" s="191" thickBot="1">
       <c r="B45" s="5" t="n"/>
       <c r="D45" s="93" t="n"/>
       <c r="E45" s="43" t="n"/>
-      <c r="F45" s="191" t="n"/>
+      <c r="F45" s="203" t="n"/>
       <c r="G45" s="41" t="inlineStr">
         <is>
           <t>Winner R2</t>
         </is>
       </c>
-      <c r="H45" s="191" t="n"/>
+      <c r="H45" s="203" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="190" t="inlineStr">
+      <c r="B46" s="207" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
@@ -2916,22 +2928,22 @@
           <t>Winner Group B</t>
         </is>
       </c>
-      <c r="D46" s="195" t="n"/>
+      <c r="D46" s="202" t="n"/>
       <c r="G46" s="1" t="n"/>
       <c r="H46" s="94" t="n"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B47" s="191" t="n"/>
-      <c r="C47" s="206" t="inlineStr">
+    <row r="47" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B47" s="203" t="n"/>
+      <c r="C47" s="200" t="inlineStr">
         <is>
           <t>3rd Group A/D/E/F</t>
         </is>
       </c>
-      <c r="D47" s="191" t="n"/>
+      <c r="D47" s="203" t="n"/>
       <c r="G47" s="1" t="n"/>
       <c r="H47" s="95" t="n"/>
       <c r="I47" s="43" t="n"/>
-      <c r="J47" s="199" t="inlineStr">
+      <c r="J47" s="204" t="inlineStr">
         <is>
           <t>SF1</t>
         </is>
@@ -2941,8 +2953,8 @@
           <t>Winner QF1</t>
         </is>
       </c>
-      <c r="L47" s="195" t="n"/>
-      <c r="S47" s="201" t="n"/>
+      <c r="L47" s="202" t="n"/>
+      <c r="S47" s="198" t="n"/>
       <c r="U47" s="39" t="n"/>
     </row>
     <row r="48">
@@ -2950,16 +2962,16 @@
       <c r="D48" s="93" t="n"/>
       <c r="G48" s="1" t="n"/>
       <c r="H48" s="95" t="n"/>
-      <c r="J48" s="191" t="n"/>
+      <c r="J48" s="203" t="n"/>
       <c r="K48" s="42" t="inlineStr">
         <is>
           <t>Winner QF2</t>
         </is>
       </c>
-      <c r="L48" s="191" t="n"/>
+      <c r="L48" s="203" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="190" t="inlineStr">
+      <c r="B49" s="207" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
@@ -2969,22 +2981,22 @@
           <t>Winner Group F</t>
         </is>
       </c>
-      <c r="D49" s="195" t="n"/>
+      <c r="D49" s="202" t="n"/>
       <c r="G49" s="1" t="n"/>
       <c r="H49" s="96" t="n"/>
       <c r="K49" s="37" t="n"/>
       <c r="L49" s="94" t="n"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B50" s="191" t="n"/>
-      <c r="C50" s="206" t="inlineStr">
+    <row r="50" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B50" s="203" t="n"/>
+      <c r="C50" s="200" t="inlineStr">
         <is>
           <t>3rd Group A/B/C</t>
         </is>
       </c>
-      <c r="D50" s="191" t="n"/>
+      <c r="D50" s="203" t="n"/>
       <c r="E50" s="43" t="n"/>
-      <c r="F50" s="194" t="inlineStr">
+      <c r="F50" s="206" t="inlineStr">
         <is>
           <t>QF2</t>
         </is>
@@ -2994,26 +3006,26 @@
           <t>Winner R3</t>
         </is>
       </c>
-      <c r="H50" s="195" t="n"/>
+      <c r="H50" s="202" t="n"/>
       <c r="K50" s="37" t="n"/>
       <c r="L50" s="95" t="n"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1" s="202" thickBot="1">
+    <row r="51" ht="15.75" customHeight="1" s="191" thickBot="1">
       <c r="B51" s="5" t="n"/>
       <c r="D51" s="93" t="n"/>
       <c r="E51" s="43" t="n"/>
-      <c r="F51" s="191" t="n"/>
+      <c r="F51" s="203" t="n"/>
       <c r="G51" s="41" t="inlineStr">
         <is>
           <t>Winner R4</t>
         </is>
       </c>
-      <c r="H51" s="191" t="n"/>
+      <c r="H51" s="203" t="n"/>
       <c r="K51" s="37" t="n"/>
       <c r="L51" s="95" t="n"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B52" s="190" t="inlineStr">
+    <row r="52" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B52" s="207" t="inlineStr">
         <is>
           <t>R4</t>
         </is>
@@ -3023,13 +3035,13 @@
           <t>2nd Group D</t>
         </is>
       </c>
-      <c r="D52" s="195" t="n"/>
+      <c r="D52" s="202" t="n"/>
       <c r="G52" s="1" t="n"/>
       <c r="H52" s="93" t="n"/>
       <c r="K52" s="37" t="n"/>
       <c r="L52" s="95" t="n"/>
       <c r="M52" s="43" t="n"/>
-      <c r="N52" s="200" t="inlineStr">
+      <c r="N52" s="205" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -3039,27 +3051,27 @@
           <t>Winner SF1</t>
         </is>
       </c>
-      <c r="P52" s="195" t="n"/>
+      <c r="P52" s="202" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="191" t="n"/>
-      <c r="C53" s="206" t="inlineStr">
+      <c r="B53" s="203" t="n"/>
+      <c r="C53" s="200" t="inlineStr">
         <is>
           <t>2nd Group E</t>
         </is>
       </c>
-      <c r="D53" s="191" t="n"/>
+      <c r="D53" s="203" t="n"/>
       <c r="G53" s="1" t="n"/>
       <c r="H53" s="93" t="n"/>
       <c r="K53" s="37" t="n"/>
       <c r="L53" s="95" t="n"/>
-      <c r="N53" s="191" t="n"/>
+      <c r="N53" s="203" t="n"/>
       <c r="O53" s="42" t="inlineStr">
         <is>
           <t>Winner SF2</t>
         </is>
       </c>
-      <c r="P53" s="191" t="n"/>
+      <c r="P53" s="203" t="n"/>
     </row>
     <row r="54">
       <c r="B54" s="5" t="n"/>
@@ -3070,7 +3082,7 @@
       <c r="L54" s="95" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="190" t="inlineStr">
+      <c r="B55" s="207" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
@@ -3080,22 +3092,22 @@
           <t>Winner Group E</t>
         </is>
       </c>
-      <c r="D55" s="195" t="n"/>
+      <c r="D55" s="202" t="n"/>
       <c r="G55" s="1" t="n"/>
       <c r="H55" s="93" t="n"/>
       <c r="K55" s="37" t="n"/>
       <c r="L55" s="95" t="n"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B56" s="191" t="n"/>
-      <c r="C56" s="206" t="inlineStr">
+    <row r="56" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B56" s="203" t="n"/>
+      <c r="C56" s="200" t="inlineStr">
         <is>
           <t>3rd Group A/B/C/D</t>
         </is>
       </c>
-      <c r="D56" s="191" t="n"/>
+      <c r="D56" s="203" t="n"/>
       <c r="E56" s="44" t="n"/>
-      <c r="F56" s="194" t="inlineStr">
+      <c r="F56" s="206" t="inlineStr">
         <is>
           <t>QF3</t>
         </is>
@@ -3105,26 +3117,26 @@
           <t>Winner R5</t>
         </is>
       </c>
-      <c r="H56" s="195" t="n"/>
+      <c r="H56" s="202" t="n"/>
       <c r="K56" s="37" t="n"/>
       <c r="L56" s="95" t="n"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1" s="202" thickBot="1">
+    <row r="57" ht="15.75" customHeight="1" s="191" thickBot="1">
       <c r="B57" s="5" t="n"/>
       <c r="D57" s="93" t="n"/>
       <c r="E57" s="45" t="n"/>
-      <c r="F57" s="191" t="n"/>
+      <c r="F57" s="203" t="n"/>
       <c r="G57" s="41" t="inlineStr">
         <is>
           <t>Winner R6</t>
         </is>
       </c>
-      <c r="H57" s="191" t="n"/>
+      <c r="H57" s="203" t="n"/>
       <c r="K57" s="37" t="n"/>
       <c r="L57" s="95" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="190" t="inlineStr">
+      <c r="B58" s="207" t="inlineStr">
         <is>
           <t>R6</t>
         </is>
@@ -3134,24 +3146,24 @@
           <t>Winner Group D</t>
         </is>
       </c>
-      <c r="D58" s="195" t="n"/>
+      <c r="D58" s="202" t="n"/>
       <c r="G58" s="1" t="n"/>
       <c r="H58" s="94" t="n"/>
       <c r="K58" s="37" t="n"/>
       <c r="L58" s="96" t="n"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B59" s="191" t="n"/>
-      <c r="C59" s="206" t="inlineStr">
+    <row r="59" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B59" s="203" t="n"/>
+      <c r="C59" s="200" t="inlineStr">
         <is>
           <t>2nd Group F</t>
         </is>
       </c>
-      <c r="D59" s="191" t="n"/>
+      <c r="D59" s="203" t="n"/>
       <c r="G59" s="1" t="n"/>
       <c r="H59" s="95" t="n"/>
       <c r="I59" s="43" t="n"/>
-      <c r="J59" s="199" t="inlineStr">
+      <c r="J59" s="204" t="inlineStr">
         <is>
           <t>SF2</t>
         </is>
@@ -3161,23 +3173,23 @@
           <t>Winner QF3</t>
         </is>
       </c>
-      <c r="L59" s="195" t="n"/>
+      <c r="L59" s="202" t="n"/>
     </row>
     <row r="60">
       <c r="B60" s="5" t="n"/>
       <c r="D60" s="93" t="n"/>
       <c r="G60" s="1" t="n"/>
       <c r="H60" s="95" t="n"/>
-      <c r="J60" s="191" t="n"/>
+      <c r="J60" s="203" t="n"/>
       <c r="K60" s="42" t="inlineStr">
         <is>
           <t>Winner QF4</t>
         </is>
       </c>
-      <c r="L60" s="191" t="n"/>
+      <c r="L60" s="203" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="190" t="inlineStr">
+      <c r="B61" s="207" t="inlineStr">
         <is>
           <t>R7</t>
         </is>
@@ -3187,20 +3199,20 @@
           <t>Winner GroupC</t>
         </is>
       </c>
-      <c r="D61" s="195" t="n"/>
+      <c r="D61" s="202" t="n"/>
       <c r="G61" s="1" t="n"/>
       <c r="H61" s="96" t="n"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B62" s="191" t="n"/>
-      <c r="C62" s="206" t="inlineStr">
+    <row r="62" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B62" s="203" t="n"/>
+      <c r="C62" s="200" t="inlineStr">
         <is>
           <t>3rd Group D/E/F</t>
         </is>
       </c>
-      <c r="D62" s="191" t="n"/>
+      <c r="D62" s="203" t="n"/>
       <c r="E62" s="44" t="n"/>
-      <c r="F62" s="194" t="inlineStr">
+      <c r="F62" s="206" t="inlineStr">
         <is>
           <t>QF4</t>
         </is>
@@ -3210,22 +3222,22 @@
           <t>Winner R7</t>
         </is>
       </c>
-      <c r="H62" s="195" t="n"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="H62" s="202" t="n"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" s="191" thickBot="1">
       <c r="B63" s="5" t="n"/>
       <c r="D63" s="93" t="n"/>
       <c r="E63" s="45" t="n"/>
-      <c r="F63" s="191" t="n"/>
+      <c r="F63" s="203" t="n"/>
       <c r="G63" s="41" t="inlineStr">
         <is>
           <t>Winner R8</t>
         </is>
       </c>
-      <c r="H63" s="191" t="n"/>
+      <c r="H63" s="203" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="190" t="inlineStr">
+      <c r="B64" s="207" t="inlineStr">
         <is>
           <t>R8</t>
         </is>
@@ -3235,39 +3247,29 @@
           <t>2nd Group A</t>
         </is>
       </c>
-      <c r="D64" s="195" t="n"/>
+      <c r="D64" s="202" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" s="191" t="n"/>
-      <c r="C65" s="206" t="inlineStr">
+      <c r="B65" s="203" t="n"/>
+      <c r="C65" s="200" t="inlineStr">
         <is>
           <t>2nd Group B</t>
         </is>
       </c>
-      <c r="D65" s="191" t="n"/>
+      <c r="D65" s="203" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="H17:L18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="H39:L40"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C38:L38"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="F62:F63"/>
     <mergeCell ref="F56:F57"/>
     <mergeCell ref="F50:F51"/>
@@ -3283,16 +3285,26 @@
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="D64:D65"/>
     <mergeCell ref="D58:D59"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C38:L38"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="H17:L18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="H39:L40"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="S42:T42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -3313,15 +3325,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="5.28515625" customWidth="1" style="202" min="1" max="1"/>
-    <col width="15.140625" bestFit="1" customWidth="1" style="202" min="2" max="2"/>
-    <col width="5.7109375" customWidth="1" style="202" min="3" max="4"/>
-    <col width="16.7109375" customWidth="1" style="202" min="5" max="5"/>
-    <col width="5.7109375" customWidth="1" style="202" min="6" max="7"/>
-    <col width="16.7109375" customWidth="1" style="202" min="8" max="8"/>
-    <col width="5.7109375" customWidth="1" style="202" min="9" max="10"/>
-    <col width="16.7109375" customWidth="1" style="202" min="11" max="11"/>
-    <col width="5.7109375" customWidth="1" style="202" min="12" max="13"/>
+    <col width="5.28515625" customWidth="1" style="191" min="1" max="1"/>
+    <col width="15.140625" bestFit="1" customWidth="1" style="191" min="2" max="2"/>
+    <col width="5.7109375" customWidth="1" style="191" min="3" max="4"/>
+    <col width="16.7109375" customWidth="1" style="191" min="5" max="5"/>
+    <col width="5.7109375" customWidth="1" style="191" min="6" max="7"/>
+    <col width="16.7109375" customWidth="1" style="191" min="8" max="8"/>
+    <col width="5.7109375" customWidth="1" style="191" min="9" max="10"/>
+    <col width="16.7109375" customWidth="1" style="191" min="11" max="11"/>
+    <col width="5.7109375" customWidth="1" style="191" min="12" max="13"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -3375,7 +3387,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
@@ -3411,7 +3423,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="6" t="inlineStr">
         <is>
@@ -3447,7 +3459,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" s="6" t="inlineStr">
         <is>
@@ -3555,16 +3567,16 @@
         </is>
       </c>
       <c r="F9" s="23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" s="83" t="n"/>
       <c r="H9" s="26" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I9" s="27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" s="83" t="n"/>
       <c r="K9" s="18" t="inlineStr">
@@ -3583,16 +3595,16 @@
         </is>
       </c>
       <c r="F10" s="23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" s="83" t="n"/>
       <c r="H10" s="26" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="I10" s="27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" s="83" t="n"/>
       <c r="K10" s="18" t="inlineStr">
@@ -3611,12 +3623,12 @@
         </is>
       </c>
       <c r="F11" s="23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="83" t="n"/>
       <c r="H11" s="26" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I11" s="27" t="n">
@@ -3639,7 +3651,7 @@
         </is>
       </c>
       <c r="F12" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="83" t="n"/>
       <c r="H12" s="28" t="inlineStr">
@@ -3679,25 +3691,25 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="2.42578125" customWidth="1" style="211" min="1" max="1"/>
-    <col width="4.42578125" customWidth="1" style="211" min="2" max="2"/>
-    <col width="16.7109375" customWidth="1" style="211" min="3" max="4"/>
-    <col width="8.7109375" customWidth="1" style="211" min="5" max="5"/>
-    <col width="4.42578125" customWidth="1" style="211" min="6" max="6"/>
-    <col width="16.7109375" customWidth="1" style="211" min="7" max="8"/>
-    <col width="7.42578125" customWidth="1" style="211" min="9" max="9"/>
-    <col width="4" customWidth="1" style="211" min="10" max="10"/>
-    <col width="16.85546875" customWidth="1" style="211" min="11" max="12"/>
-    <col width="8.7109375" customWidth="1" style="211" min="13" max="13"/>
-    <col width="4.140625" customWidth="1" style="211" min="14" max="14"/>
-    <col width="16.7109375" customWidth="1" style="211" min="15" max="17"/>
-    <col width="8.7109375" customWidth="1" style="211" min="18" max="26"/>
-    <col width="14.42578125" customWidth="1" style="211" min="27" max="29"/>
-    <col width="14.42578125" customWidth="1" style="211" min="30" max="16384"/>
+    <col width="2.42578125" customWidth="1" style="217" min="1" max="1"/>
+    <col width="4.42578125" customWidth="1" style="217" min="2" max="2"/>
+    <col width="16.7109375" customWidth="1" style="217" min="3" max="4"/>
+    <col width="8.7109375" customWidth="1" style="217" min="5" max="5"/>
+    <col width="4.42578125" customWidth="1" style="217" min="6" max="6"/>
+    <col width="16.7109375" customWidth="1" style="217" min="7" max="8"/>
+    <col width="7.42578125" customWidth="1" style="217" min="9" max="9"/>
+    <col width="4" customWidth="1" style="217" min="10" max="10"/>
+    <col width="16.85546875" customWidth="1" style="217" min="11" max="12"/>
+    <col width="8.7109375" customWidth="1" style="217" min="13" max="13"/>
+    <col width="4.140625" customWidth="1" style="217" min="14" max="14"/>
+    <col width="16.7109375" customWidth="1" style="217" min="15" max="17"/>
+    <col width="8.7109375" customWidth="1" style="217" min="18" max="26"/>
+    <col width="14.42578125" customWidth="1" style="217" min="27" max="30"/>
+    <col width="14.42578125" customWidth="1" style="217" min="31" max="16384"/>
   </cols>
   <sheetData>
-    <row r="2" ht="26.25" customHeight="1" s="202">
-      <c r="C2" s="212" t="inlineStr">
+    <row r="2" ht="26.25" customHeight="1" s="191">
+      <c r="C2" s="218" t="inlineStr">
         <is>
           <t xml:space="preserve">EURO 2020 </t>
         </is>
@@ -3991,21 +4003,21 @@
       <c r="K15" s="100" t="n"/>
       <c r="L15" s="100" t="n"/>
     </row>
-    <row r="16" ht="39.75" customHeight="1" s="202">
-      <c r="C16" s="213" t="inlineStr">
+    <row r="16" ht="39.75" customHeight="1" s="191">
+      <c r="C16" s="219" t="inlineStr">
         <is>
           <t>Group Stage predictions are made in a single submission and are due by Thursday Evening June 10th, 2021.</t>
         </is>
       </c>
-      <c r="D16" s="214" t="n"/>
-      <c r="E16" s="214" t="n"/>
-      <c r="F16" s="214" t="n"/>
-      <c r="G16" s="214" t="n"/>
-      <c r="H16" s="214" t="n"/>
-      <c r="I16" s="214" t="n"/>
-      <c r="J16" s="214" t="n"/>
-      <c r="K16" s="214" t="n"/>
-      <c r="L16" s="214" t="n"/>
+      <c r="D16" s="220" t="n"/>
+      <c r="E16" s="220" t="n"/>
+      <c r="F16" s="220" t="n"/>
+      <c r="G16" s="220" t="n"/>
+      <c r="H16" s="220" t="n"/>
+      <c r="I16" s="220" t="n"/>
+      <c r="J16" s="220" t="n"/>
+      <c r="K16" s="220" t="n"/>
+      <c r="L16" s="220" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="136" t="inlineStr">
@@ -4013,19 +4025,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D17" s="215" t="n"/>
-      <c r="E17" s="216" t="n"/>
-      <c r="F17" s="216" t="n"/>
-      <c r="G17" s="217" t="n"/>
-      <c r="H17" s="218" t="inlineStr">
+      <c r="D17" s="221" t="n"/>
+      <c r="E17" s="222" t="n"/>
+      <c r="F17" s="222" t="n"/>
+      <c r="G17" s="223" t="n"/>
+      <c r="H17" s="224" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I17" s="216" t="n"/>
-      <c r="J17" s="216" t="n"/>
-      <c r="K17" s="216" t="n"/>
-      <c r="L17" s="217" t="n"/>
+      <c r="I17" s="222" t="n"/>
+      <c r="J17" s="222" t="n"/>
+      <c r="K17" s="222" t="n"/>
+      <c r="L17" s="223" t="n"/>
     </row>
     <row r="18">
       <c r="C18" s="137" t="inlineStr">
@@ -4033,15 +4045,15 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D18" s="221" t="n"/>
-      <c r="E18" s="214" t="n"/>
-      <c r="F18" s="214" t="n"/>
-      <c r="G18" s="220" t="n"/>
-      <c r="H18" s="219" t="n"/>
-      <c r="I18" s="214" t="n"/>
-      <c r="J18" s="214" t="n"/>
-      <c r="K18" s="214" t="n"/>
-      <c r="L18" s="220" t="n"/>
+      <c r="D18" s="227" t="n"/>
+      <c r="E18" s="220" t="n"/>
+      <c r="F18" s="220" t="n"/>
+      <c r="G18" s="226" t="n"/>
+      <c r="H18" s="225" t="n"/>
+      <c r="I18" s="220" t="n"/>
+      <c r="J18" s="220" t="n"/>
+      <c r="K18" s="220" t="n"/>
+      <c r="L18" s="226" t="n"/>
     </row>
     <row r="19">
       <c r="C19" s="100" t="n"/>
@@ -4049,36 +4061,36 @@
     <row r="20">
       <c r="A20" s="138" t="n"/>
       <c r="B20" s="138" t="n"/>
-      <c r="C20" s="222" t="inlineStr">
+      <c r="C20" s="228" t="inlineStr">
         <is>
           <t>Match Day 1</t>
         </is>
       </c>
-      <c r="D20" s="216" t="n"/>
+      <c r="D20" s="222" t="n"/>
       <c r="E20" s="139" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
-      <c r="F20" s="210" t="n"/>
-      <c r="G20" s="222" t="inlineStr">
+      <c r="F20" s="216" t="n"/>
+      <c r="G20" s="228" t="inlineStr">
         <is>
           <t>Match Day 2</t>
         </is>
       </c>
-      <c r="H20" s="216" t="n"/>
+      <c r="H20" s="222" t="n"/>
       <c r="I20" s="139" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
-      <c r="J20" s="210" t="n"/>
-      <c r="K20" s="222" t="inlineStr">
+      <c r="J20" s="216" t="n"/>
+      <c r="K20" s="228" t="inlineStr">
         <is>
           <t>Match Day 3</t>
         </is>
       </c>
-      <c r="L20" s="216" t="n"/>
+      <c r="L20" s="222" t="n"/>
       <c r="M20" s="139" t="inlineStr">
         <is>
           <t>Results</t>
@@ -4098,7 +4110,7 @@
       <c r="Y20" s="138" t="n"/>
       <c r="Z20" s="138" t="n"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1" s="202">
+    <row r="21" ht="15.75" customHeight="1" s="191">
       <c r="C21" s="140" t="inlineStr">
         <is>
           <t>Turkey</t>
@@ -4151,7 +4163,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1" s="202">
+    <row r="22" ht="15.75" customHeight="1" s="191">
       <c r="C22" s="148" t="n"/>
       <c r="D22" s="143" t="n"/>
       <c r="E22" s="149" t="n"/>
@@ -4188,7 +4200,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1" s="202">
+    <row r="23" ht="15.75" customHeight="1" s="191">
       <c r="C23" s="140" t="inlineStr">
         <is>
           <t>Wales</t>
@@ -4227,7 +4239,7 @@
       <c r="L23" s="143" t="n"/>
       <c r="M23" s="149" t="n"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1" s="202">
+    <row r="24" ht="15.75" customHeight="1" s="191">
       <c r="C24" s="144" t="inlineStr">
         <is>
           <t>Denmark</t>
@@ -4266,7 +4278,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1" s="202">
+    <row r="25" ht="15.75" customHeight="1" s="191">
       <c r="C25" s="144" t="inlineStr">
         <is>
           <t>Belgium</t>
@@ -4317,7 +4329,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1" s="202">
+    <row r="26" ht="15.75" customHeight="1" s="191">
       <c r="C26" s="148" t="n"/>
       <c r="D26" s="143" t="n"/>
       <c r="E26" s="149" t="n"/>
@@ -4354,7 +4366,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1" s="202">
+    <row r="27" ht="15.75" customHeight="1" s="191">
       <c r="C27" s="153" t="inlineStr">
         <is>
           <t>England</t>
@@ -4405,7 +4417,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1" s="202">
+    <row r="28" ht="15.75" customHeight="1" s="191">
       <c r="C28" s="150" t="inlineStr">
         <is>
           <t>Austria</t>
@@ -4432,7 +4444,7 @@
       <c r="L28" s="143" t="n"/>
       <c r="M28" s="149" t="n"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1" s="202">
+    <row r="29" ht="15.75" customHeight="1" s="191">
       <c r="C29" s="150" t="inlineStr">
         <is>
           <t>Netherlands</t>
@@ -4483,7 +4495,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1" s="202">
+    <row r="30" ht="15.75" customHeight="1" s="191">
       <c r="C30" s="148" t="n"/>
       <c r="D30" s="143" t="n"/>
       <c r="E30" s="149" t="n"/>
@@ -4520,7 +4532,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1" s="202">
+    <row r="31" ht="15.75" customHeight="1" s="191">
       <c r="C31" s="153" t="inlineStr">
         <is>
           <t>Scotland</t>
@@ -4559,7 +4571,7 @@
       <c r="L31" s="143" t="n"/>
       <c r="M31" s="149" t="n"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1" s="202">
+    <row r="32" ht="15.75" customHeight="1" s="191">
       <c r="C32" s="156" t="inlineStr">
         <is>
           <t>Poland</t>
@@ -4598,7 +4610,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1" s="202">
+    <row r="33" ht="15.75" customHeight="1" s="191">
       <c r="C33" s="156" t="inlineStr">
         <is>
           <t>Spain</t>
@@ -4649,7 +4661,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1" s="202">
+    <row r="34" ht="15.75" customHeight="1" s="191">
       <c r="C34" s="148" t="n"/>
       <c r="D34" s="143" t="n"/>
       <c r="E34" s="149" t="n"/>
@@ -4686,7 +4698,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1" s="202">
+    <row r="35" ht="15.75" customHeight="1" s="191">
       <c r="C35" s="159" t="inlineStr">
         <is>
           <t>Hungary</t>
@@ -4737,7 +4749,7 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1" s="202">
+    <row r="36" ht="15.75" customHeight="1" s="191">
       <c r="C36" s="162" t="inlineStr">
         <is>
           <t>France</t>
@@ -4764,70 +4776,70 @@
       <c r="L36" s="166" t="n"/>
       <c r="M36" s="167" t="n"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1" s="202"/>
-    <row r="38" ht="39.75" customHeight="1" s="202">
-      <c r="C38" s="213" t="inlineStr">
+    <row r="37" ht="15.75" customHeight="1" s="191"/>
+    <row r="38" ht="39.75" customHeight="1" s="191">
+      <c r="C38" s="219" t="inlineStr">
         <is>
           <t xml:space="preserve">We'll do the competition in two halves since the Round of 16 is heavily dependent on the Group Stages. </t>
         </is>
       </c>
-      <c r="D38" s="214" t="n"/>
-      <c r="E38" s="214" t="n"/>
-      <c r="F38" s="214" t="n"/>
-      <c r="G38" s="214" t="n"/>
-      <c r="H38" s="214" t="n"/>
-      <c r="I38" s="214" t="n"/>
-      <c r="J38" s="214" t="n"/>
-      <c r="K38" s="214" t="n"/>
-      <c r="L38" s="214" t="n"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1" s="202">
+      <c r="D38" s="220" t="n"/>
+      <c r="E38" s="220" t="n"/>
+      <c r="F38" s="220" t="n"/>
+      <c r="G38" s="220" t="n"/>
+      <c r="H38" s="220" t="n"/>
+      <c r="I38" s="220" t="n"/>
+      <c r="J38" s="220" t="n"/>
+      <c r="K38" s="220" t="n"/>
+      <c r="L38" s="220" t="n"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1" s="191">
       <c r="C39" s="136" t="inlineStr">
         <is>
           <t>Name:</t>
         </is>
       </c>
-      <c r="D39" s="215" t="n"/>
-      <c r="E39" s="216" t="n"/>
-      <c r="F39" s="216" t="n"/>
-      <c r="G39" s="217" t="n"/>
-      <c r="H39" s="218" t="inlineStr">
+      <c r="D39" s="221" t="n"/>
+      <c r="E39" s="222" t="n"/>
+      <c r="F39" s="222" t="n"/>
+      <c r="G39" s="223" t="n"/>
+      <c r="H39" s="224" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULTS         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I39" s="216" t="n"/>
-      <c r="J39" s="216" t="n"/>
-      <c r="K39" s="216" t="n"/>
-      <c r="L39" s="217" t="n"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1" s="202">
+      <c r="I39" s="222" t="n"/>
+      <c r="J39" s="222" t="n"/>
+      <c r="K39" s="222" t="n"/>
+      <c r="L39" s="223" t="n"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1" s="191">
       <c r="C40" s="137" t="inlineStr">
         <is>
           <t>Date:</t>
         </is>
       </c>
-      <c r="D40" s="221" t="n"/>
-      <c r="E40" s="214" t="n"/>
-      <c r="F40" s="214" t="n"/>
-      <c r="G40" s="220" t="n"/>
-      <c r="H40" s="219" t="n"/>
-      <c r="I40" s="214" t="n"/>
-      <c r="J40" s="214" t="n"/>
-      <c r="K40" s="214" t="n"/>
-      <c r="L40" s="220" t="n"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1" s="202">
+      <c r="D40" s="227" t="n"/>
+      <c r="E40" s="220" t="n"/>
+      <c r="F40" s="220" t="n"/>
+      <c r="G40" s="226" t="n"/>
+      <c r="H40" s="225" t="n"/>
+      <c r="I40" s="220" t="n"/>
+      <c r="J40" s="220" t="n"/>
+      <c r="K40" s="220" t="n"/>
+      <c r="L40" s="226" t="n"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1" s="191">
       <c r="B41" s="168" t="n"/>
       <c r="C41" s="169" t="n"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1" s="202">
-      <c r="B42" s="223" t="inlineStr">
+    <row r="42" ht="15.75" customHeight="1" s="191">
+      <c r="B42" s="229" t="inlineStr">
         <is>
           <t>Round of 16</t>
         </is>
       </c>
-      <c r="C42" s="214" t="n"/>
+      <c r="C42" s="220" t="n"/>
       <c r="D42" s="170" t="inlineStr">
         <is>
           <t>Results</t>
@@ -4871,12 +4883,12 @@
       </c>
       <c r="Q42" s="138" t="n"/>
       <c r="R42" s="171" t="n"/>
-      <c r="S42" s="210" t="n"/>
+      <c r="S42" s="216" t="n"/>
       <c r="U42" s="138" t="n"/>
       <c r="V42" s="171" t="n"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1" s="202">
-      <c r="B43" s="224" t="inlineStr">
+    <row r="43" ht="15.75" customHeight="1" s="191">
+      <c r="B43" s="210" t="inlineStr">
         <is>
           <t>R1</t>
         </is>
@@ -4886,7 +4898,7 @@
           <t>Winner Group A</t>
         </is>
       </c>
-      <c r="D43" s="226" t="n"/>
+      <c r="D43" s="212" t="n"/>
       <c r="E43" s="171" t="n"/>
       <c r="F43" s="171" t="n"/>
       <c r="O43" s="171" t="n"/>
@@ -4898,16 +4910,16 @@
       <c r="U43" s="171" t="n"/>
       <c r="V43" s="171" t="n"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B44" s="225" t="n"/>
+    <row r="44" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B44" s="211" t="n"/>
       <c r="C44" s="173" t="inlineStr">
         <is>
           <t>2nd Group C</t>
         </is>
       </c>
-      <c r="D44" s="225" t="n"/>
+      <c r="D44" s="211" t="n"/>
       <c r="E44" s="174" t="n"/>
-      <c r="F44" s="227" t="inlineStr">
+      <c r="F44" s="214" t="inlineStr">
         <is>
           <t>QF1</t>
         </is>
@@ -4917,7 +4929,7 @@
           <t>Winner R1</t>
         </is>
       </c>
-      <c r="H44" s="226" t="n"/>
+      <c r="H44" s="212" t="n"/>
       <c r="O44" s="171" t="n"/>
       <c r="P44" s="171" t="n"/>
       <c r="Q44" s="171" t="n"/>
@@ -4927,18 +4939,18 @@
       <c r="U44" s="171" t="n"/>
       <c r="V44" s="171" t="n"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1" s="202" thickBot="1">
+    <row r="45" ht="15.75" customHeight="1" s="191" thickBot="1">
       <c r="B45" s="138" t="n"/>
       <c r="C45" s="171" t="n"/>
       <c r="D45" s="176" t="n"/>
       <c r="E45" s="177" t="n"/>
-      <c r="F45" s="225" t="n"/>
+      <c r="F45" s="211" t="n"/>
       <c r="G45" s="178" t="inlineStr">
         <is>
           <t>Winner R2</t>
         </is>
       </c>
-      <c r="H45" s="225" t="n"/>
+      <c r="H45" s="211" t="n"/>
       <c r="O45" s="171" t="n"/>
       <c r="P45" s="171" t="n"/>
       <c r="Q45" s="171" t="n"/>
@@ -4948,8 +4960,8 @@
       <c r="U45" s="171" t="n"/>
       <c r="V45" s="171" t="n"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1" s="202">
-      <c r="B46" s="224" t="inlineStr">
+    <row r="46" ht="15.75" customHeight="1" s="191">
+      <c r="B46" s="210" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
@@ -4959,7 +4971,7 @@
           <t>Winner Group B</t>
         </is>
       </c>
-      <c r="D46" s="226" t="n"/>
+      <c r="D46" s="212" t="n"/>
       <c r="E46" s="171" t="n"/>
       <c r="F46" s="171" t="n"/>
       <c r="G46" s="179" t="n"/>
@@ -4973,20 +4985,20 @@
       <c r="U46" s="171" t="n"/>
       <c r="V46" s="171" t="n"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B47" s="225" t="n"/>
+    <row r="47" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B47" s="211" t="n"/>
       <c r="C47" s="173" t="inlineStr">
         <is>
           <t>3rd Group A/D/E/F</t>
         </is>
       </c>
-      <c r="D47" s="225" t="n"/>
+      <c r="D47" s="211" t="n"/>
       <c r="E47" s="171" t="n"/>
       <c r="F47" s="171" t="n"/>
       <c r="G47" s="179" t="n"/>
       <c r="H47" s="181" t="n"/>
       <c r="I47" s="177" t="n"/>
-      <c r="J47" s="228" t="inlineStr">
+      <c r="J47" s="213" t="inlineStr">
         <is>
           <t>SF1</t>
         </is>
@@ -4996,16 +5008,16 @@
           <t>Winner QF1</t>
         </is>
       </c>
-      <c r="L47" s="226" t="n"/>
+      <c r="L47" s="212" t="n"/>
       <c r="O47" s="171" t="n"/>
       <c r="P47" s="171" t="n"/>
       <c r="Q47" s="171" t="n"/>
       <c r="R47" s="171" t="n"/>
-      <c r="S47" s="210" t="n"/>
+      <c r="S47" s="216" t="n"/>
       <c r="U47" s="138" t="n"/>
       <c r="V47" s="171" t="n"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1" s="202">
+    <row r="48" ht="15.75" customHeight="1" s="191">
       <c r="B48" s="138" t="n"/>
       <c r="C48" s="171" t="n"/>
       <c r="D48" s="176" t="n"/>
@@ -5013,13 +5025,13 @@
       <c r="F48" s="171" t="n"/>
       <c r="G48" s="179" t="n"/>
       <c r="H48" s="181" t="n"/>
-      <c r="J48" s="225" t="n"/>
+      <c r="J48" s="211" t="n"/>
       <c r="K48" s="165" t="inlineStr">
         <is>
           <t>Winner QF2</t>
         </is>
       </c>
-      <c r="L48" s="225" t="n"/>
+      <c r="L48" s="211" t="n"/>
       <c r="O48" s="171" t="n"/>
       <c r="P48" s="171" t="n"/>
       <c r="Q48" s="171" t="n"/>
@@ -5029,8 +5041,8 @@
       <c r="U48" s="171" t="n"/>
       <c r="V48" s="171" t="n"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1" s="202">
-      <c r="B49" s="224" t="inlineStr">
+    <row r="49" ht="15.75" customHeight="1" s="191">
+      <c r="B49" s="210" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
@@ -5040,7 +5052,7 @@
           <t>Winner Group F</t>
         </is>
       </c>
-      <c r="D49" s="226" t="n"/>
+      <c r="D49" s="212" t="n"/>
       <c r="E49" s="171" t="n"/>
       <c r="F49" s="171" t="n"/>
       <c r="G49" s="179" t="n"/>
@@ -5048,16 +5060,16 @@
       <c r="K49" s="143" t="n"/>
       <c r="L49" s="180" t="n"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B50" s="225" t="n"/>
+    <row r="50" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B50" s="211" t="n"/>
       <c r="C50" s="173" t="inlineStr">
         <is>
           <t>3rd Group A/B/C</t>
         </is>
       </c>
-      <c r="D50" s="225" t="n"/>
+      <c r="D50" s="211" t="n"/>
       <c r="E50" s="177" t="n"/>
-      <c r="F50" s="227" t="inlineStr">
+      <c r="F50" s="214" t="inlineStr">
         <is>
           <t>QF2</t>
         </is>
@@ -5067,27 +5079,27 @@
           <t>Winner R3</t>
         </is>
       </c>
-      <c r="H50" s="226" t="n"/>
+      <c r="H50" s="212" t="n"/>
       <c r="K50" s="143" t="n"/>
       <c r="L50" s="181" t="n"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1" s="202" thickBot="1">
+    <row r="51" ht="15.75" customHeight="1" s="191" thickBot="1">
       <c r="B51" s="138" t="n"/>
       <c r="C51" s="171" t="n"/>
       <c r="D51" s="176" t="n"/>
       <c r="E51" s="177" t="n"/>
-      <c r="F51" s="225" t="n"/>
+      <c r="F51" s="211" t="n"/>
       <c r="G51" s="178" t="inlineStr">
         <is>
           <t>Winner R4</t>
         </is>
       </c>
-      <c r="H51" s="225" t="n"/>
+      <c r="H51" s="211" t="n"/>
       <c r="K51" s="143" t="n"/>
       <c r="L51" s="181" t="n"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B52" s="224" t="inlineStr">
+    <row r="52" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B52" s="210" t="inlineStr">
         <is>
           <t>R4</t>
         </is>
@@ -5097,7 +5109,7 @@
           <t>2nd Group D</t>
         </is>
       </c>
-      <c r="D52" s="226" t="n"/>
+      <c r="D52" s="212" t="n"/>
       <c r="E52" s="171" t="n"/>
       <c r="F52" s="171" t="n"/>
       <c r="G52" s="179" t="n"/>
@@ -5105,7 +5117,7 @@
       <c r="K52" s="143" t="n"/>
       <c r="L52" s="181" t="n"/>
       <c r="M52" s="177" t="n"/>
-      <c r="N52" s="229" t="inlineStr">
+      <c r="N52" s="215" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -5115,31 +5127,31 @@
           <t>Winner SF1</t>
         </is>
       </c>
-      <c r="P52" s="226" t="n"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1" s="202">
-      <c r="B53" s="225" t="n"/>
+      <c r="P52" s="212" t="n"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1" s="191">
+      <c r="B53" s="211" t="n"/>
       <c r="C53" s="173" t="inlineStr">
         <is>
           <t>2nd Group E</t>
         </is>
       </c>
-      <c r="D53" s="225" t="n"/>
+      <c r="D53" s="211" t="n"/>
       <c r="E53" s="171" t="n"/>
       <c r="F53" s="171" t="n"/>
       <c r="G53" s="179" t="n"/>
       <c r="H53" s="176" t="n"/>
       <c r="K53" s="143" t="n"/>
       <c r="L53" s="181" t="n"/>
-      <c r="N53" s="225" t="n"/>
+      <c r="N53" s="211" t="n"/>
       <c r="O53" s="165" t="inlineStr">
         <is>
           <t>Winner SF2</t>
         </is>
       </c>
-      <c r="P53" s="225" t="n"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1" s="202">
+      <c r="P53" s="211" t="n"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1" s="191">
       <c r="B54" s="138" t="n"/>
       <c r="C54" s="171" t="n"/>
       <c r="D54" s="176" t="n"/>
@@ -5150,8 +5162,8 @@
       <c r="K54" s="143" t="n"/>
       <c r="L54" s="181" t="n"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1" s="202">
-      <c r="B55" s="224" t="inlineStr">
+    <row r="55" ht="15.75" customHeight="1" s="191">
+      <c r="B55" s="210" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
@@ -5161,7 +5173,7 @@
           <t>Winner Group E</t>
         </is>
       </c>
-      <c r="D55" s="226" t="n"/>
+      <c r="D55" s="212" t="n"/>
       <c r="E55" s="171" t="n"/>
       <c r="F55" s="171" t="n"/>
       <c r="G55" s="179" t="n"/>
@@ -5169,16 +5181,16 @@
       <c r="K55" s="143" t="n"/>
       <c r="L55" s="181" t="n"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B56" s="225" t="n"/>
+    <row r="56" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B56" s="211" t="n"/>
       <c r="C56" s="173" t="inlineStr">
         <is>
           <t>3rd Group A/B/C/D</t>
         </is>
       </c>
-      <c r="D56" s="225" t="n"/>
+      <c r="D56" s="211" t="n"/>
       <c r="E56" s="174" t="n"/>
-      <c r="F56" s="227" t="inlineStr">
+      <c r="F56" s="214" t="inlineStr">
         <is>
           <t>QF3</t>
         </is>
@@ -5188,26 +5200,26 @@
           <t>Winner R5</t>
         </is>
       </c>
-      <c r="H56" s="226" t="n"/>
+      <c r="H56" s="212" t="n"/>
       <c r="K56" s="143" t="n"/>
       <c r="L56" s="181" t="n"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1" s="202" thickBot="1">
+    <row r="57" ht="15.75" customHeight="1" s="191" thickBot="1">
       <c r="B57" s="138" t="n"/>
       <c r="D57" s="176" t="n"/>
       <c r="E57" s="184" t="n"/>
-      <c r="F57" s="225" t="n"/>
+      <c r="F57" s="211" t="n"/>
       <c r="G57" s="178" t="inlineStr">
         <is>
           <t>Winner R6</t>
         </is>
       </c>
-      <c r="H57" s="225" t="n"/>
+      <c r="H57" s="211" t="n"/>
       <c r="K57" s="143" t="n"/>
       <c r="L57" s="181" t="n"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1" s="202">
-      <c r="B58" s="224" t="inlineStr">
+    <row r="58" ht="15.75" customHeight="1" s="191">
+      <c r="B58" s="210" t="inlineStr">
         <is>
           <t>R6</t>
         </is>
@@ -5217,24 +5229,24 @@
           <t>Winner Group D</t>
         </is>
       </c>
-      <c r="D58" s="226" t="n"/>
+      <c r="D58" s="212" t="n"/>
       <c r="G58" s="179" t="n"/>
       <c r="H58" s="180" t="n"/>
       <c r="K58" s="143" t="n"/>
       <c r="L58" s="183" t="n"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B59" s="225" t="n"/>
+    <row r="59" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B59" s="211" t="n"/>
       <c r="C59" s="173" t="inlineStr">
         <is>
           <t>2nd Group F</t>
         </is>
       </c>
-      <c r="D59" s="225" t="n"/>
+      <c r="D59" s="211" t="n"/>
       <c r="G59" s="179" t="n"/>
       <c r="H59" s="181" t="n"/>
       <c r="I59" s="177" t="n"/>
-      <c r="J59" s="228" t="inlineStr">
+      <c r="J59" s="213" t="inlineStr">
         <is>
           <t>SF2</t>
         </is>
@@ -5244,23 +5256,23 @@
           <t>Winner QF3</t>
         </is>
       </c>
-      <c r="L59" s="226" t="n"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1" s="202">
+      <c r="L59" s="212" t="n"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1" s="191">
       <c r="B60" s="138" t="n"/>
       <c r="D60" s="176" t="n"/>
       <c r="G60" s="179" t="n"/>
       <c r="H60" s="181" t="n"/>
-      <c r="J60" s="225" t="n"/>
+      <c r="J60" s="211" t="n"/>
       <c r="K60" s="165" t="inlineStr">
         <is>
           <t>Winner QF4</t>
         </is>
       </c>
-      <c r="L60" s="225" t="n"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1" s="202">
-      <c r="B61" s="224" t="inlineStr">
+      <c r="L60" s="211" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="191">
+      <c r="B61" s="210" t="inlineStr">
         <is>
           <t>R7</t>
         </is>
@@ -5270,20 +5282,20 @@
           <t>Winner GroupC</t>
         </is>
       </c>
-      <c r="D61" s="226" t="n"/>
+      <c r="D61" s="212" t="n"/>
       <c r="G61" s="179" t="n"/>
       <c r="H61" s="183" t="n"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B62" s="225" t="n"/>
+    <row r="62" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B62" s="211" t="n"/>
       <c r="C62" s="173" t="inlineStr">
         <is>
           <t>3rd Group D/E/F</t>
         </is>
       </c>
-      <c r="D62" s="225" t="n"/>
+      <c r="D62" s="211" t="n"/>
       <c r="E62" s="174" t="n"/>
-      <c r="F62" s="227" t="inlineStr">
+      <c r="F62" s="214" t="inlineStr">
         <is>
           <t>QF4</t>
         </is>
@@ -5293,22 +5305,22 @@
           <t>Winner R7</t>
         </is>
       </c>
-      <c r="H62" s="226" t="n"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="H62" s="212" t="n"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" s="191" thickBot="1">
       <c r="B63" s="138" t="n"/>
       <c r="D63" s="176" t="n"/>
       <c r="E63" s="184" t="n"/>
-      <c r="F63" s="225" t="n"/>
+      <c r="F63" s="211" t="n"/>
       <c r="G63" s="178" t="inlineStr">
         <is>
           <t>Winner R8</t>
         </is>
       </c>
-      <c r="H63" s="225" t="n"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1" s="202">
-      <c r="B64" s="224" t="inlineStr">
+      <c r="H63" s="211" t="n"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1" s="191">
+      <c r="B64" s="210" t="inlineStr">
         <is>
           <t>R8</t>
         </is>
@@ -5318,985 +5330,954 @@
           <t>2nd Group A</t>
         </is>
       </c>
-      <c r="D64" s="226" t="n"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1" s="202">
-      <c r="B65" s="225" t="n"/>
+      <c r="D64" s="212" t="n"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1" s="191">
+      <c r="B65" s="211" t="n"/>
       <c r="C65" s="173" t="inlineStr">
         <is>
           <t>2nd Group B</t>
         </is>
       </c>
-      <c r="D65" s="225" t="n"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1" s="202"/>
-    <row r="67" ht="15.75" customHeight="1" s="202"/>
-    <row r="68" ht="15.75" customHeight="1" s="202"/>
-    <row r="69" ht="15.75" customHeight="1" s="202"/>
-    <row r="70" ht="15.75" customHeight="1" s="202"/>
-    <row r="71" ht="15.75" customHeight="1" s="202"/>
-    <row r="72" ht="15.75" customHeight="1" s="202"/>
-    <row r="73" ht="15.75" customHeight="1" s="202"/>
-    <row r="74" ht="15.75" customHeight="1" s="202"/>
-    <row r="75" ht="15.75" customHeight="1" s="202"/>
-    <row r="76" ht="15.75" customHeight="1" s="202"/>
-    <row r="77" ht="15.75" customHeight="1" s="202"/>
-    <row r="78" ht="15.75" customHeight="1" s="202"/>
-    <row r="79" ht="15.75" customHeight="1" s="202"/>
-    <row r="80" ht="15.75" customHeight="1" s="202"/>
-    <row r="81" ht="15.75" customHeight="1" s="202"/>
-    <row r="82" ht="15.75" customHeight="1" s="202"/>
-    <row r="83" ht="15.75" customHeight="1" s="202"/>
-    <row r="84" ht="15.75" customHeight="1" s="202"/>
-    <row r="85" ht="15.75" customHeight="1" s="202"/>
-    <row r="86" ht="15.75" customHeight="1" s="202"/>
-    <row r="87" ht="15.75" customHeight="1" s="202"/>
-    <row r="88" ht="15.75" customHeight="1" s="202"/>
-    <row r="89" ht="15.75" customHeight="1" s="202"/>
-    <row r="90" ht="15.75" customHeight="1" s="202"/>
-    <row r="91" ht="15.75" customHeight="1" s="202"/>
-    <row r="92" ht="15.75" customHeight="1" s="202"/>
-    <row r="93" ht="15.75" customHeight="1" s="202"/>
-    <row r="94" ht="15.75" customHeight="1" s="202"/>
-    <row r="95" ht="15.75" customHeight="1" s="202"/>
-    <row r="96" ht="15.75" customHeight="1" s="202"/>
-    <row r="97" ht="15.75" customHeight="1" s="202"/>
-    <row r="98" ht="15.75" customHeight="1" s="202"/>
-    <row r="99" ht="15.75" customHeight="1" s="202"/>
-    <row r="100" ht="15.75" customHeight="1" s="202"/>
-    <row r="101" ht="15.75" customHeight="1" s="202"/>
-    <row r="102" ht="15.75" customHeight="1" s="202"/>
-    <row r="103" ht="15.75" customHeight="1" s="202"/>
-    <row r="104" ht="15.75" customHeight="1" s="202"/>
-    <row r="105" ht="15.75" customHeight="1" s="202"/>
-    <row r="106" ht="15.75" customHeight="1" s="202"/>
-    <row r="107" ht="15.75" customHeight="1" s="202"/>
-    <row r="108" ht="15.75" customHeight="1" s="202"/>
-    <row r="109" ht="15.75" customHeight="1" s="202"/>
-    <row r="110" ht="15.75" customHeight="1" s="202"/>
-    <row r="111" ht="15.75" customHeight="1" s="202"/>
-    <row r="112" ht="15.75" customHeight="1" s="202"/>
-    <row r="113" ht="15.75" customHeight="1" s="202"/>
-    <row r="114" ht="15.75" customHeight="1" s="202"/>
-    <row r="115" ht="15.75" customHeight="1" s="202"/>
-    <row r="116" ht="15.75" customHeight="1" s="202"/>
-    <row r="117" ht="15.75" customHeight="1" s="202"/>
-    <row r="118" ht="15.75" customHeight="1" s="202"/>
-    <row r="119" ht="15.75" customHeight="1" s="202"/>
-    <row r="120" ht="15.75" customHeight="1" s="202"/>
-    <row r="121" ht="15.75" customHeight="1" s="202"/>
-    <row r="122" ht="15.75" customHeight="1" s="202"/>
-    <row r="123" ht="15.75" customHeight="1" s="202"/>
-    <row r="124" ht="15.75" customHeight="1" s="202"/>
-    <row r="125" ht="15.75" customHeight="1" s="202"/>
-    <row r="126" ht="15.75" customHeight="1" s="202"/>
-    <row r="127" ht="15.75" customHeight="1" s="202"/>
-    <row r="128" ht="15.75" customHeight="1" s="202"/>
-    <row r="129" ht="15.75" customHeight="1" s="202"/>
-    <row r="130" ht="15.75" customHeight="1" s="202"/>
-    <row r="131" ht="15.75" customHeight="1" s="202"/>
-    <row r="132" ht="15.75" customHeight="1" s="202"/>
-    <row r="133" ht="15.75" customHeight="1" s="202"/>
-    <row r="134" ht="15.75" customHeight="1" s="202"/>
-    <row r="135" ht="15.75" customHeight="1" s="202"/>
-    <row r="136" ht="15.75" customHeight="1" s="202"/>
-    <row r="137" ht="15.75" customHeight="1" s="202"/>
-    <row r="138" ht="15.75" customHeight="1" s="202"/>
-    <row r="139" ht="15.75" customHeight="1" s="202"/>
-    <row r="140" ht="15.75" customHeight="1" s="202"/>
-    <row r="141" ht="15.75" customHeight="1" s="202"/>
-    <row r="142" ht="15.75" customHeight="1" s="202"/>
-    <row r="143" ht="15.75" customHeight="1" s="202"/>
-    <row r="144" ht="15.75" customHeight="1" s="202"/>
-    <row r="145" ht="15.75" customHeight="1" s="202"/>
-    <row r="146" ht="15.75" customHeight="1" s="202"/>
-    <row r="147" ht="15.75" customHeight="1" s="202"/>
-    <row r="148" ht="15.75" customHeight="1" s="202"/>
-    <row r="149" ht="15.75" customHeight="1" s="202"/>
-    <row r="150" ht="15.75" customHeight="1" s="202"/>
-    <row r="151" ht="15.75" customHeight="1" s="202"/>
-    <row r="152" ht="15.75" customHeight="1" s="202"/>
-    <row r="153" ht="15.75" customHeight="1" s="202"/>
-    <row r="154" ht="15.75" customHeight="1" s="202"/>
-    <row r="155" ht="15.75" customHeight="1" s="202"/>
-    <row r="156" ht="15.75" customHeight="1" s="202"/>
-    <row r="157" ht="15.75" customHeight="1" s="202"/>
-    <row r="158" ht="15.75" customHeight="1" s="202"/>
-    <row r="159" ht="15.75" customHeight="1" s="202"/>
-    <row r="160" ht="15.75" customHeight="1" s="202"/>
-    <row r="161" ht="15.75" customHeight="1" s="202"/>
-    <row r="162" ht="15.75" customHeight="1" s="202"/>
-    <row r="163" ht="15.75" customHeight="1" s="202"/>
-    <row r="164" ht="15.75" customHeight="1" s="202"/>
-    <row r="165" ht="15.75" customHeight="1" s="202"/>
-    <row r="166" ht="15.75" customHeight="1" s="202"/>
-    <row r="167" ht="15.75" customHeight="1" s="202"/>
-    <row r="168" ht="15.75" customHeight="1" s="202"/>
-    <row r="169" ht="15.75" customHeight="1" s="202"/>
-    <row r="170" ht="15.75" customHeight="1" s="202"/>
-    <row r="171" ht="15.75" customHeight="1" s="202"/>
-    <row r="172" ht="15.75" customHeight="1" s="202"/>
-    <row r="173" ht="15.75" customHeight="1" s="202"/>
-    <row r="174" ht="15.75" customHeight="1" s="202"/>
-    <row r="175" ht="15.75" customHeight="1" s="202"/>
-    <row r="176" ht="15.75" customHeight="1" s="202"/>
-    <row r="177" ht="15.75" customHeight="1" s="202"/>
-    <row r="178" ht="15.75" customHeight="1" s="202"/>
-    <row r="179" ht="15.75" customHeight="1" s="202"/>
-    <row r="180" ht="15.75" customHeight="1" s="202"/>
-    <row r="181" ht="15.75" customHeight="1" s="202"/>
-    <row r="182" ht="15.75" customHeight="1" s="202"/>
-    <row r="183" ht="15.75" customHeight="1" s="202"/>
-    <row r="184" ht="15.75" customHeight="1" s="202"/>
-    <row r="185" ht="15.75" customHeight="1" s="202"/>
-    <row r="186" ht="15.75" customHeight="1" s="202"/>
-    <row r="187" ht="15.75" customHeight="1" s="202"/>
-    <row r="188" ht="15.75" customHeight="1" s="202"/>
-    <row r="189" ht="15.75" customHeight="1" s="202"/>
-    <row r="190" ht="15.75" customHeight="1" s="202"/>
-    <row r="191" ht="15.75" customHeight="1" s="202"/>
-    <row r="192" ht="15.75" customHeight="1" s="202"/>
-    <row r="193" ht="15.75" customHeight="1" s="202"/>
-    <row r="194" ht="15.75" customHeight="1" s="202"/>
-    <row r="195" ht="15.75" customHeight="1" s="202"/>
-    <row r="196" ht="15.75" customHeight="1" s="202"/>
-    <row r="197" ht="15.75" customHeight="1" s="202"/>
-    <row r="198" ht="15.75" customHeight="1" s="202"/>
-    <row r="199" ht="15.75" customHeight="1" s="202"/>
-    <row r="200" ht="15.75" customHeight="1" s="202"/>
-    <row r="201" ht="15.75" customHeight="1" s="202"/>
-    <row r="202" ht="15.75" customHeight="1" s="202"/>
-    <row r="203" ht="15.75" customHeight="1" s="202"/>
-    <row r="204" ht="15.75" customHeight="1" s="202"/>
-    <row r="205" ht="15.75" customHeight="1" s="202"/>
-    <row r="206" ht="15.75" customHeight="1" s="202"/>
-    <row r="207" ht="15.75" customHeight="1" s="202"/>
-    <row r="208" ht="15.75" customHeight="1" s="202"/>
-    <row r="209" ht="15.75" customHeight="1" s="202"/>
-    <row r="210" ht="15.75" customHeight="1" s="202"/>
-    <row r="211" ht="15.75" customHeight="1" s="202"/>
-    <row r="212" ht="15.75" customHeight="1" s="202"/>
-    <row r="213" ht="15.75" customHeight="1" s="202"/>
-    <row r="214" ht="15.75" customHeight="1" s="202"/>
-    <row r="215" ht="15.75" customHeight="1" s="202"/>
-    <row r="216" ht="15.75" customHeight="1" s="202"/>
-    <row r="217" ht="15.75" customHeight="1" s="202"/>
-    <row r="218" ht="15.75" customHeight="1" s="202"/>
-    <row r="219" ht="15.75" customHeight="1" s="202"/>
-    <row r="220" ht="15.75" customHeight="1" s="202"/>
-    <row r="221" ht="15.75" customHeight="1" s="202"/>
-    <row r="222" ht="15.75" customHeight="1" s="202"/>
-    <row r="223" ht="15.75" customHeight="1" s="202"/>
-    <row r="224" ht="15.75" customHeight="1" s="202"/>
-    <row r="225" ht="15.75" customHeight="1" s="202"/>
-    <row r="226" ht="15.75" customHeight="1" s="202"/>
-    <row r="227" ht="15.75" customHeight="1" s="202"/>
-    <row r="228" ht="15.75" customHeight="1" s="202"/>
-    <row r="229" ht="15.75" customHeight="1" s="202"/>
-    <row r="230" ht="15.75" customHeight="1" s="202"/>
-    <row r="231" ht="15.75" customHeight="1" s="202"/>
-    <row r="232" ht="15.75" customHeight="1" s="202"/>
-    <row r="233" ht="15.75" customHeight="1" s="202"/>
-    <row r="234" ht="15.75" customHeight="1" s="202"/>
-    <row r="235" ht="15.75" customHeight="1" s="202"/>
-    <row r="236" ht="15.75" customHeight="1" s="202"/>
-    <row r="237" ht="15.75" customHeight="1" s="202"/>
-    <row r="238" ht="15.75" customHeight="1" s="202"/>
-    <row r="239" ht="15.75" customHeight="1" s="202"/>
-    <row r="240" ht="15.75" customHeight="1" s="202"/>
-    <row r="241" ht="15.75" customHeight="1" s="202"/>
-    <row r="242" ht="15.75" customHeight="1" s="202"/>
-    <row r="243" ht="15.75" customHeight="1" s="202"/>
-    <row r="244" ht="15.75" customHeight="1" s="202"/>
-    <row r="245" ht="15.75" customHeight="1" s="202"/>
-    <row r="246" ht="15.75" customHeight="1" s="202"/>
-    <row r="247" ht="15.75" customHeight="1" s="202"/>
-    <row r="248" ht="15.75" customHeight="1" s="202"/>
-    <row r="249" ht="15.75" customHeight="1" s="202"/>
-    <row r="250" ht="15.75" customHeight="1" s="202"/>
-    <row r="251" ht="15.75" customHeight="1" s="202"/>
-    <row r="252" ht="15.75" customHeight="1" s="202"/>
-    <row r="253" ht="15.75" customHeight="1" s="202"/>
-    <row r="254" ht="15.75" customHeight="1" s="202"/>
-    <row r="255" ht="15.75" customHeight="1" s="202"/>
-    <row r="256" ht="15.75" customHeight="1" s="202"/>
-    <row r="257" ht="15.75" customHeight="1" s="202"/>
-    <row r="258" ht="15.75" customHeight="1" s="202"/>
-    <row r="259" ht="15.75" customHeight="1" s="202"/>
-    <row r="260" ht="15.75" customHeight="1" s="202"/>
-    <row r="261" ht="15.75" customHeight="1" s="202"/>
-    <row r="262" ht="15.75" customHeight="1" s="202"/>
-    <row r="263" ht="15.75" customHeight="1" s="202"/>
-    <row r="264" ht="15.75" customHeight="1" s="202"/>
-    <row r="265" ht="15.75" customHeight="1" s="202"/>
-    <row r="266" ht="15.75" customHeight="1" s="202"/>
-    <row r="267" ht="15.75" customHeight="1" s="202"/>
-    <row r="268" ht="15.75" customHeight="1" s="202"/>
-    <row r="269" ht="15.75" customHeight="1" s="202"/>
-    <row r="270" ht="15.75" customHeight="1" s="202"/>
-    <row r="271" ht="15.75" customHeight="1" s="202"/>
-    <row r="272" ht="15.75" customHeight="1" s="202"/>
-    <row r="273" ht="15.75" customHeight="1" s="202"/>
-    <row r="274" ht="15.75" customHeight="1" s="202"/>
-    <row r="275" ht="15.75" customHeight="1" s="202"/>
-    <row r="276" ht="15.75" customHeight="1" s="202"/>
-    <row r="277" ht="15.75" customHeight="1" s="202"/>
-    <row r="278" ht="15.75" customHeight="1" s="202"/>
-    <row r="279" ht="15.75" customHeight="1" s="202"/>
-    <row r="280" ht="15.75" customHeight="1" s="202"/>
-    <row r="281" ht="15.75" customHeight="1" s="202"/>
-    <row r="282" ht="15.75" customHeight="1" s="202"/>
-    <row r="283" ht="15.75" customHeight="1" s="202"/>
-    <row r="284" ht="15.75" customHeight="1" s="202"/>
-    <row r="285" ht="15.75" customHeight="1" s="202"/>
-    <row r="286" ht="15.75" customHeight="1" s="202"/>
-    <row r="287" ht="15.75" customHeight="1" s="202"/>
-    <row r="288" ht="15.75" customHeight="1" s="202"/>
-    <row r="289" ht="15.75" customHeight="1" s="202"/>
-    <row r="290" ht="15.75" customHeight="1" s="202"/>
-    <row r="291" ht="15.75" customHeight="1" s="202"/>
-    <row r="292" ht="15.75" customHeight="1" s="202"/>
-    <row r="293" ht="15.75" customHeight="1" s="202"/>
-    <row r="294" ht="15.75" customHeight="1" s="202"/>
-    <row r="295" ht="15.75" customHeight="1" s="202"/>
-    <row r="296" ht="15.75" customHeight="1" s="202"/>
-    <row r="297" ht="15.75" customHeight="1" s="202"/>
-    <row r="298" ht="15.75" customHeight="1" s="202"/>
-    <row r="299" ht="15.75" customHeight="1" s="202"/>
-    <row r="300" ht="15.75" customHeight="1" s="202"/>
-    <row r="301" ht="15.75" customHeight="1" s="202"/>
-    <row r="302" ht="15.75" customHeight="1" s="202"/>
-    <row r="303" ht="15.75" customHeight="1" s="202"/>
-    <row r="304" ht="15.75" customHeight="1" s="202"/>
-    <row r="305" ht="15.75" customHeight="1" s="202"/>
-    <row r="306" ht="15.75" customHeight="1" s="202"/>
-    <row r="307" ht="15.75" customHeight="1" s="202"/>
-    <row r="308" ht="15.75" customHeight="1" s="202"/>
-    <row r="309" ht="15.75" customHeight="1" s="202"/>
-    <row r="310" ht="15.75" customHeight="1" s="202"/>
-    <row r="311" ht="15.75" customHeight="1" s="202"/>
-    <row r="312" ht="15.75" customHeight="1" s="202"/>
-    <row r="313" ht="15.75" customHeight="1" s="202"/>
-    <row r="314" ht="15.75" customHeight="1" s="202"/>
-    <row r="315" ht="15.75" customHeight="1" s="202"/>
-    <row r="316" ht="15.75" customHeight="1" s="202"/>
-    <row r="317" ht="15.75" customHeight="1" s="202"/>
-    <row r="318" ht="15.75" customHeight="1" s="202"/>
-    <row r="319" ht="15.75" customHeight="1" s="202"/>
-    <row r="320" ht="15.75" customHeight="1" s="202"/>
-    <row r="321" ht="15.75" customHeight="1" s="202"/>
-    <row r="322" ht="15.75" customHeight="1" s="202"/>
-    <row r="323" ht="15.75" customHeight="1" s="202"/>
-    <row r="324" ht="15.75" customHeight="1" s="202"/>
-    <row r="325" ht="15.75" customHeight="1" s="202"/>
-    <row r="326" ht="15.75" customHeight="1" s="202"/>
-    <row r="327" ht="15.75" customHeight="1" s="202"/>
-    <row r="328" ht="15.75" customHeight="1" s="202"/>
-    <row r="329" ht="15.75" customHeight="1" s="202"/>
-    <row r="330" ht="15.75" customHeight="1" s="202"/>
-    <row r="331" ht="15.75" customHeight="1" s="202"/>
-    <row r="332" ht="15.75" customHeight="1" s="202"/>
-    <row r="333" ht="15.75" customHeight="1" s="202"/>
-    <row r="334" ht="15.75" customHeight="1" s="202"/>
-    <row r="335" ht="15.75" customHeight="1" s="202"/>
-    <row r="336" ht="15.75" customHeight="1" s="202"/>
-    <row r="337" ht="15.75" customHeight="1" s="202"/>
-    <row r="338" ht="15.75" customHeight="1" s="202"/>
-    <row r="339" ht="15.75" customHeight="1" s="202"/>
-    <row r="340" ht="15.75" customHeight="1" s="202"/>
-    <row r="341" ht="15.75" customHeight="1" s="202"/>
-    <row r="342" ht="15.75" customHeight="1" s="202"/>
-    <row r="343" ht="15.75" customHeight="1" s="202"/>
-    <row r="344" ht="15.75" customHeight="1" s="202"/>
-    <row r="345" ht="15.75" customHeight="1" s="202"/>
-    <row r="346" ht="15.75" customHeight="1" s="202"/>
-    <row r="347" ht="15.75" customHeight="1" s="202"/>
-    <row r="348" ht="15.75" customHeight="1" s="202"/>
-    <row r="349" ht="15.75" customHeight="1" s="202"/>
-    <row r="350" ht="15.75" customHeight="1" s="202"/>
-    <row r="351" ht="15.75" customHeight="1" s="202"/>
-    <row r="352" ht="15.75" customHeight="1" s="202"/>
-    <row r="353" ht="15.75" customHeight="1" s="202"/>
-    <row r="354" ht="15.75" customHeight="1" s="202"/>
-    <row r="355" ht="15.75" customHeight="1" s="202"/>
-    <row r="356" ht="15.75" customHeight="1" s="202"/>
-    <row r="357" ht="15.75" customHeight="1" s="202"/>
-    <row r="358" ht="15.75" customHeight="1" s="202"/>
-    <row r="359" ht="15.75" customHeight="1" s="202"/>
-    <row r="360" ht="15.75" customHeight="1" s="202"/>
-    <row r="361" ht="15.75" customHeight="1" s="202"/>
-    <row r="362" ht="15.75" customHeight="1" s="202"/>
-    <row r="363" ht="15.75" customHeight="1" s="202"/>
-    <row r="364" ht="15.75" customHeight="1" s="202"/>
-    <row r="365" ht="15.75" customHeight="1" s="202"/>
-    <row r="366" ht="15.75" customHeight="1" s="202"/>
-    <row r="367" ht="15.75" customHeight="1" s="202"/>
-    <row r="368" ht="15.75" customHeight="1" s="202"/>
-    <row r="369" ht="15.75" customHeight="1" s="202"/>
-    <row r="370" ht="15.75" customHeight="1" s="202"/>
-    <row r="371" ht="15.75" customHeight="1" s="202"/>
-    <row r="372" ht="15.75" customHeight="1" s="202"/>
-    <row r="373" ht="15.75" customHeight="1" s="202"/>
-    <row r="374" ht="15.75" customHeight="1" s="202"/>
-    <row r="375" ht="15.75" customHeight="1" s="202"/>
-    <row r="376" ht="15.75" customHeight="1" s="202"/>
-    <row r="377" ht="15.75" customHeight="1" s="202"/>
-    <row r="378" ht="15.75" customHeight="1" s="202"/>
-    <row r="379" ht="15.75" customHeight="1" s="202"/>
-    <row r="380" ht="15.75" customHeight="1" s="202"/>
-    <row r="381" ht="15.75" customHeight="1" s="202"/>
-    <row r="382" ht="15.75" customHeight="1" s="202"/>
-    <row r="383" ht="15.75" customHeight="1" s="202"/>
-    <row r="384" ht="15.75" customHeight="1" s="202"/>
-    <row r="385" ht="15.75" customHeight="1" s="202"/>
-    <row r="386" ht="15.75" customHeight="1" s="202"/>
-    <row r="387" ht="15.75" customHeight="1" s="202"/>
-    <row r="388" ht="15.75" customHeight="1" s="202"/>
-    <row r="389" ht="15.75" customHeight="1" s="202"/>
-    <row r="390" ht="15.75" customHeight="1" s="202"/>
-    <row r="391" ht="15.75" customHeight="1" s="202"/>
-    <row r="392" ht="15.75" customHeight="1" s="202"/>
-    <row r="393" ht="15.75" customHeight="1" s="202"/>
-    <row r="394" ht="15.75" customHeight="1" s="202"/>
-    <row r="395" ht="15.75" customHeight="1" s="202"/>
-    <row r="396" ht="15.75" customHeight="1" s="202"/>
-    <row r="397" ht="15.75" customHeight="1" s="202"/>
-    <row r="398" ht="15.75" customHeight="1" s="202"/>
-    <row r="399" ht="15.75" customHeight="1" s="202"/>
-    <row r="400" ht="15.75" customHeight="1" s="202"/>
-    <row r="401" ht="15.75" customHeight="1" s="202"/>
-    <row r="402" ht="15.75" customHeight="1" s="202"/>
-    <row r="403" ht="15.75" customHeight="1" s="202"/>
-    <row r="404" ht="15.75" customHeight="1" s="202"/>
-    <row r="405" ht="15.75" customHeight="1" s="202"/>
-    <row r="406" ht="15.75" customHeight="1" s="202"/>
-    <row r="407" ht="15.75" customHeight="1" s="202"/>
-    <row r="408" ht="15.75" customHeight="1" s="202"/>
-    <row r="409" ht="15.75" customHeight="1" s="202"/>
-    <row r="410" ht="15.75" customHeight="1" s="202"/>
-    <row r="411" ht="15.75" customHeight="1" s="202"/>
-    <row r="412" ht="15.75" customHeight="1" s="202"/>
-    <row r="413" ht="15.75" customHeight="1" s="202"/>
-    <row r="414" ht="15.75" customHeight="1" s="202"/>
-    <row r="415" ht="15.75" customHeight="1" s="202"/>
-    <row r="416" ht="15.75" customHeight="1" s="202"/>
-    <row r="417" ht="15.75" customHeight="1" s="202"/>
-    <row r="418" ht="15.75" customHeight="1" s="202"/>
-    <row r="419" ht="15.75" customHeight="1" s="202"/>
-    <row r="420" ht="15.75" customHeight="1" s="202"/>
-    <row r="421" ht="15.75" customHeight="1" s="202"/>
-    <row r="422" ht="15.75" customHeight="1" s="202"/>
-    <row r="423" ht="15.75" customHeight="1" s="202"/>
-    <row r="424" ht="15.75" customHeight="1" s="202"/>
-    <row r="425" ht="15.75" customHeight="1" s="202"/>
-    <row r="426" ht="15.75" customHeight="1" s="202"/>
-    <row r="427" ht="15.75" customHeight="1" s="202"/>
-    <row r="428" ht="15.75" customHeight="1" s="202"/>
-    <row r="429" ht="15.75" customHeight="1" s="202"/>
-    <row r="430" ht="15.75" customHeight="1" s="202"/>
-    <row r="431" ht="15.75" customHeight="1" s="202"/>
-    <row r="432" ht="15.75" customHeight="1" s="202"/>
-    <row r="433" ht="15.75" customHeight="1" s="202"/>
-    <row r="434" ht="15.75" customHeight="1" s="202"/>
-    <row r="435" ht="15.75" customHeight="1" s="202"/>
-    <row r="436" ht="15.75" customHeight="1" s="202"/>
-    <row r="437" ht="15.75" customHeight="1" s="202"/>
-    <row r="438" ht="15.75" customHeight="1" s="202"/>
-    <row r="439" ht="15.75" customHeight="1" s="202"/>
-    <row r="440" ht="15.75" customHeight="1" s="202"/>
-    <row r="441" ht="15.75" customHeight="1" s="202"/>
-    <row r="442" ht="15.75" customHeight="1" s="202"/>
-    <row r="443" ht="15.75" customHeight="1" s="202"/>
-    <row r="444" ht="15.75" customHeight="1" s="202"/>
-    <row r="445" ht="15.75" customHeight="1" s="202"/>
-    <row r="446" ht="15.75" customHeight="1" s="202"/>
-    <row r="447" ht="15.75" customHeight="1" s="202"/>
-    <row r="448" ht="15.75" customHeight="1" s="202"/>
-    <row r="449" ht="15.75" customHeight="1" s="202"/>
-    <row r="450" ht="15.75" customHeight="1" s="202"/>
-    <row r="451" ht="15.75" customHeight="1" s="202"/>
-    <row r="452" ht="15.75" customHeight="1" s="202"/>
-    <row r="453" ht="15.75" customHeight="1" s="202"/>
-    <row r="454" ht="15.75" customHeight="1" s="202"/>
-    <row r="455" ht="15.75" customHeight="1" s="202"/>
-    <row r="456" ht="15.75" customHeight="1" s="202"/>
-    <row r="457" ht="15.75" customHeight="1" s="202"/>
-    <row r="458" ht="15.75" customHeight="1" s="202"/>
-    <row r="459" ht="15.75" customHeight="1" s="202"/>
-    <row r="460" ht="15.75" customHeight="1" s="202"/>
-    <row r="461" ht="15.75" customHeight="1" s="202"/>
-    <row r="462" ht="15.75" customHeight="1" s="202"/>
-    <row r="463" ht="15.75" customHeight="1" s="202"/>
-    <row r="464" ht="15.75" customHeight="1" s="202"/>
-    <row r="465" ht="15.75" customHeight="1" s="202"/>
-    <row r="466" ht="15.75" customHeight="1" s="202"/>
-    <row r="467" ht="15.75" customHeight="1" s="202"/>
-    <row r="468" ht="15.75" customHeight="1" s="202"/>
-    <row r="469" ht="15.75" customHeight="1" s="202"/>
-    <row r="470" ht="15.75" customHeight="1" s="202"/>
-    <row r="471" ht="15.75" customHeight="1" s="202"/>
-    <row r="472" ht="15.75" customHeight="1" s="202"/>
-    <row r="473" ht="15.75" customHeight="1" s="202"/>
-    <row r="474" ht="15.75" customHeight="1" s="202"/>
-    <row r="475" ht="15.75" customHeight="1" s="202"/>
-    <row r="476" ht="15.75" customHeight="1" s="202"/>
-    <row r="477" ht="15.75" customHeight="1" s="202"/>
-    <row r="478" ht="15.75" customHeight="1" s="202"/>
-    <row r="479" ht="15.75" customHeight="1" s="202"/>
-    <row r="480" ht="15.75" customHeight="1" s="202"/>
-    <row r="481" ht="15.75" customHeight="1" s="202"/>
-    <row r="482" ht="15.75" customHeight="1" s="202"/>
-    <row r="483" ht="15.75" customHeight="1" s="202"/>
-    <row r="484" ht="15.75" customHeight="1" s="202"/>
-    <row r="485" ht="15.75" customHeight="1" s="202"/>
-    <row r="486" ht="15.75" customHeight="1" s="202"/>
-    <row r="487" ht="15.75" customHeight="1" s="202"/>
-    <row r="488" ht="15.75" customHeight="1" s="202"/>
-    <row r="489" ht="15.75" customHeight="1" s="202"/>
-    <row r="490" ht="15.75" customHeight="1" s="202"/>
-    <row r="491" ht="15.75" customHeight="1" s="202"/>
-    <row r="492" ht="15.75" customHeight="1" s="202"/>
-    <row r="493" ht="15.75" customHeight="1" s="202"/>
-    <row r="494" ht="15.75" customHeight="1" s="202"/>
-    <row r="495" ht="15.75" customHeight="1" s="202"/>
-    <row r="496" ht="15.75" customHeight="1" s="202"/>
-    <row r="497" ht="15.75" customHeight="1" s="202"/>
-    <row r="498" ht="15.75" customHeight="1" s="202"/>
-    <row r="499" ht="15.75" customHeight="1" s="202"/>
-    <row r="500" ht="15.75" customHeight="1" s="202"/>
-    <row r="501" ht="15.75" customHeight="1" s="202"/>
-    <row r="502" ht="15.75" customHeight="1" s="202"/>
-    <row r="503" ht="15.75" customHeight="1" s="202"/>
-    <row r="504" ht="15.75" customHeight="1" s="202"/>
-    <row r="505" ht="15.75" customHeight="1" s="202"/>
-    <row r="506" ht="15.75" customHeight="1" s="202"/>
-    <row r="507" ht="15.75" customHeight="1" s="202"/>
-    <row r="508" ht="15.75" customHeight="1" s="202"/>
-    <row r="509" ht="15.75" customHeight="1" s="202"/>
-    <row r="510" ht="15.75" customHeight="1" s="202"/>
-    <row r="511" ht="15.75" customHeight="1" s="202"/>
-    <row r="512" ht="15.75" customHeight="1" s="202"/>
-    <row r="513" ht="15.75" customHeight="1" s="202"/>
-    <row r="514" ht="15.75" customHeight="1" s="202"/>
-    <row r="515" ht="15.75" customHeight="1" s="202"/>
-    <row r="516" ht="15.75" customHeight="1" s="202"/>
-    <row r="517" ht="15.75" customHeight="1" s="202"/>
-    <row r="518" ht="15.75" customHeight="1" s="202"/>
-    <row r="519" ht="15.75" customHeight="1" s="202"/>
-    <row r="520" ht="15.75" customHeight="1" s="202"/>
-    <row r="521" ht="15.75" customHeight="1" s="202"/>
-    <row r="522" ht="15.75" customHeight="1" s="202"/>
-    <row r="523" ht="15.75" customHeight="1" s="202"/>
-    <row r="524" ht="15.75" customHeight="1" s="202"/>
-    <row r="525" ht="15.75" customHeight="1" s="202"/>
-    <row r="526" ht="15.75" customHeight="1" s="202"/>
-    <row r="527" ht="15.75" customHeight="1" s="202"/>
-    <row r="528" ht="15.75" customHeight="1" s="202"/>
-    <row r="529" ht="15.75" customHeight="1" s="202"/>
-    <row r="530" ht="15.75" customHeight="1" s="202"/>
-    <row r="531" ht="15.75" customHeight="1" s="202"/>
-    <row r="532" ht="15.75" customHeight="1" s="202"/>
-    <row r="533" ht="15.75" customHeight="1" s="202"/>
-    <row r="534" ht="15.75" customHeight="1" s="202"/>
-    <row r="535" ht="15.75" customHeight="1" s="202"/>
-    <row r="536" ht="15.75" customHeight="1" s="202"/>
-    <row r="537" ht="15.75" customHeight="1" s="202"/>
-    <row r="538" ht="15.75" customHeight="1" s="202"/>
-    <row r="539" ht="15.75" customHeight="1" s="202"/>
-    <row r="540" ht="15.75" customHeight="1" s="202"/>
-    <row r="541" ht="15.75" customHeight="1" s="202"/>
-    <row r="542" ht="15.75" customHeight="1" s="202"/>
-    <row r="543" ht="15.75" customHeight="1" s="202"/>
-    <row r="544" ht="15.75" customHeight="1" s="202"/>
-    <row r="545" ht="15.75" customHeight="1" s="202"/>
-    <row r="546" ht="15.75" customHeight="1" s="202"/>
-    <row r="547" ht="15.75" customHeight="1" s="202"/>
-    <row r="548" ht="15.75" customHeight="1" s="202"/>
-    <row r="549" ht="15.75" customHeight="1" s="202"/>
-    <row r="550" ht="15.75" customHeight="1" s="202"/>
-    <row r="551" ht="15.75" customHeight="1" s="202"/>
-    <row r="552" ht="15.75" customHeight="1" s="202"/>
-    <row r="553" ht="15.75" customHeight="1" s="202"/>
-    <row r="554" ht="15.75" customHeight="1" s="202"/>
-    <row r="555" ht="15.75" customHeight="1" s="202"/>
-    <row r="556" ht="15.75" customHeight="1" s="202"/>
-    <row r="557" ht="15.75" customHeight="1" s="202"/>
-    <row r="558" ht="15.75" customHeight="1" s="202"/>
-    <row r="559" ht="15.75" customHeight="1" s="202"/>
-    <row r="560" ht="15.75" customHeight="1" s="202"/>
-    <row r="561" ht="15.75" customHeight="1" s="202"/>
-    <row r="562" ht="15.75" customHeight="1" s="202"/>
-    <row r="563" ht="15.75" customHeight="1" s="202"/>
-    <row r="564" ht="15.75" customHeight="1" s="202"/>
-    <row r="565" ht="15.75" customHeight="1" s="202"/>
-    <row r="566" ht="15.75" customHeight="1" s="202"/>
-    <row r="567" ht="15.75" customHeight="1" s="202"/>
-    <row r="568" ht="15.75" customHeight="1" s="202"/>
-    <row r="569" ht="15.75" customHeight="1" s="202"/>
-    <row r="570" ht="15.75" customHeight="1" s="202"/>
-    <row r="571" ht="15.75" customHeight="1" s="202"/>
-    <row r="572" ht="15.75" customHeight="1" s="202"/>
-    <row r="573" ht="15.75" customHeight="1" s="202"/>
-    <row r="574" ht="15.75" customHeight="1" s="202"/>
-    <row r="575" ht="15.75" customHeight="1" s="202"/>
-    <row r="576" ht="15.75" customHeight="1" s="202"/>
-    <row r="577" ht="15.75" customHeight="1" s="202"/>
-    <row r="578" ht="15.75" customHeight="1" s="202"/>
-    <row r="579" ht="15.75" customHeight="1" s="202"/>
-    <row r="580" ht="15.75" customHeight="1" s="202"/>
-    <row r="581" ht="15.75" customHeight="1" s="202"/>
-    <row r="582" ht="15.75" customHeight="1" s="202"/>
-    <row r="583" ht="15.75" customHeight="1" s="202"/>
-    <row r="584" ht="15.75" customHeight="1" s="202"/>
-    <row r="585" ht="15.75" customHeight="1" s="202"/>
-    <row r="586" ht="15.75" customHeight="1" s="202"/>
-    <row r="587" ht="15.75" customHeight="1" s="202"/>
-    <row r="588" ht="15.75" customHeight="1" s="202"/>
-    <row r="589" ht="15.75" customHeight="1" s="202"/>
-    <row r="590" ht="15.75" customHeight="1" s="202"/>
-    <row r="591" ht="15.75" customHeight="1" s="202"/>
-    <row r="592" ht="15.75" customHeight="1" s="202"/>
-    <row r="593" ht="15.75" customHeight="1" s="202"/>
-    <row r="594" ht="15.75" customHeight="1" s="202"/>
-    <row r="595" ht="15.75" customHeight="1" s="202"/>
-    <row r="596" ht="15.75" customHeight="1" s="202"/>
-    <row r="597" ht="15.75" customHeight="1" s="202"/>
-    <row r="598" ht="15.75" customHeight="1" s="202"/>
-    <row r="599" ht="15.75" customHeight="1" s="202"/>
-    <row r="600" ht="15.75" customHeight="1" s="202"/>
-    <row r="601" ht="15.75" customHeight="1" s="202"/>
-    <row r="602" ht="15.75" customHeight="1" s="202"/>
-    <row r="603" ht="15.75" customHeight="1" s="202"/>
-    <row r="604" ht="15.75" customHeight="1" s="202"/>
-    <row r="605" ht="15.75" customHeight="1" s="202"/>
-    <row r="606" ht="15.75" customHeight="1" s="202"/>
-    <row r="607" ht="15.75" customHeight="1" s="202"/>
-    <row r="608" ht="15.75" customHeight="1" s="202"/>
-    <row r="609" ht="15.75" customHeight="1" s="202"/>
-    <row r="610" ht="15.75" customHeight="1" s="202"/>
-    <row r="611" ht="15.75" customHeight="1" s="202"/>
-    <row r="612" ht="15.75" customHeight="1" s="202"/>
-    <row r="613" ht="15.75" customHeight="1" s="202"/>
-    <row r="614" ht="15.75" customHeight="1" s="202"/>
-    <row r="615" ht="15.75" customHeight="1" s="202"/>
-    <row r="616" ht="15.75" customHeight="1" s="202"/>
-    <row r="617" ht="15.75" customHeight="1" s="202"/>
-    <row r="618" ht="15.75" customHeight="1" s="202"/>
-    <row r="619" ht="15.75" customHeight="1" s="202"/>
-    <row r="620" ht="15.75" customHeight="1" s="202"/>
-    <row r="621" ht="15.75" customHeight="1" s="202"/>
-    <row r="622" ht="15.75" customHeight="1" s="202"/>
-    <row r="623" ht="15.75" customHeight="1" s="202"/>
-    <row r="624" ht="15.75" customHeight="1" s="202"/>
-    <row r="625" ht="15.75" customHeight="1" s="202"/>
-    <row r="626" ht="15.75" customHeight="1" s="202"/>
-    <row r="627" ht="15.75" customHeight="1" s="202"/>
-    <row r="628" ht="15.75" customHeight="1" s="202"/>
-    <row r="629" ht="15.75" customHeight="1" s="202"/>
-    <row r="630" ht="15.75" customHeight="1" s="202"/>
-    <row r="631" ht="15.75" customHeight="1" s="202"/>
-    <row r="632" ht="15.75" customHeight="1" s="202"/>
-    <row r="633" ht="15.75" customHeight="1" s="202"/>
-    <row r="634" ht="15.75" customHeight="1" s="202"/>
-    <row r="635" ht="15.75" customHeight="1" s="202"/>
-    <row r="636" ht="15.75" customHeight="1" s="202"/>
-    <row r="637" ht="15.75" customHeight="1" s="202"/>
-    <row r="638" ht="15.75" customHeight="1" s="202"/>
-    <row r="639" ht="15.75" customHeight="1" s="202"/>
-    <row r="640" ht="15.75" customHeight="1" s="202"/>
-    <row r="641" ht="15.75" customHeight="1" s="202"/>
-    <row r="642" ht="15.75" customHeight="1" s="202"/>
-    <row r="643" ht="15.75" customHeight="1" s="202"/>
-    <row r="644" ht="15.75" customHeight="1" s="202"/>
-    <row r="645" ht="15.75" customHeight="1" s="202"/>
-    <row r="646" ht="15.75" customHeight="1" s="202"/>
-    <row r="647" ht="15.75" customHeight="1" s="202"/>
-    <row r="648" ht="15.75" customHeight="1" s="202"/>
-    <row r="649" ht="15.75" customHeight="1" s="202"/>
-    <row r="650" ht="15.75" customHeight="1" s="202"/>
-    <row r="651" ht="15.75" customHeight="1" s="202"/>
-    <row r="652" ht="15.75" customHeight="1" s="202"/>
-    <row r="653" ht="15.75" customHeight="1" s="202"/>
-    <row r="654" ht="15.75" customHeight="1" s="202"/>
-    <row r="655" ht="15.75" customHeight="1" s="202"/>
-    <row r="656" ht="15.75" customHeight="1" s="202"/>
-    <row r="657" ht="15.75" customHeight="1" s="202"/>
-    <row r="658" ht="15.75" customHeight="1" s="202"/>
-    <row r="659" ht="15.75" customHeight="1" s="202"/>
-    <row r="660" ht="15.75" customHeight="1" s="202"/>
-    <row r="661" ht="15.75" customHeight="1" s="202"/>
-    <row r="662" ht="15.75" customHeight="1" s="202"/>
-    <row r="663" ht="15.75" customHeight="1" s="202"/>
-    <row r="664" ht="15.75" customHeight="1" s="202"/>
-    <row r="665" ht="15.75" customHeight="1" s="202"/>
-    <row r="666" ht="15.75" customHeight="1" s="202"/>
-    <row r="667" ht="15.75" customHeight="1" s="202"/>
-    <row r="668" ht="15.75" customHeight="1" s="202"/>
-    <row r="669" ht="15.75" customHeight="1" s="202"/>
-    <row r="670" ht="15.75" customHeight="1" s="202"/>
-    <row r="671" ht="15.75" customHeight="1" s="202"/>
-    <row r="672" ht="15.75" customHeight="1" s="202"/>
-    <row r="673" ht="15.75" customHeight="1" s="202"/>
-    <row r="674" ht="15.75" customHeight="1" s="202"/>
-    <row r="675" ht="15.75" customHeight="1" s="202"/>
-    <row r="676" ht="15.75" customHeight="1" s="202"/>
-    <row r="677" ht="15.75" customHeight="1" s="202"/>
-    <row r="678" ht="15.75" customHeight="1" s="202"/>
-    <row r="679" ht="15.75" customHeight="1" s="202"/>
-    <row r="680" ht="15.75" customHeight="1" s="202"/>
-    <row r="681" ht="15.75" customHeight="1" s="202"/>
-    <row r="682" ht="15.75" customHeight="1" s="202"/>
-    <row r="683" ht="15.75" customHeight="1" s="202"/>
-    <row r="684" ht="15.75" customHeight="1" s="202"/>
-    <row r="685" ht="15.75" customHeight="1" s="202"/>
-    <row r="686" ht="15.75" customHeight="1" s="202"/>
-    <row r="687" ht="15.75" customHeight="1" s="202"/>
-    <row r="688" ht="15.75" customHeight="1" s="202"/>
-    <row r="689" ht="15.75" customHeight="1" s="202"/>
-    <row r="690" ht="15.75" customHeight="1" s="202"/>
-    <row r="691" ht="15.75" customHeight="1" s="202"/>
-    <row r="692" ht="15.75" customHeight="1" s="202"/>
-    <row r="693" ht="15.75" customHeight="1" s="202"/>
-    <row r="694" ht="15.75" customHeight="1" s="202"/>
-    <row r="695" ht="15.75" customHeight="1" s="202"/>
-    <row r="696" ht="15.75" customHeight="1" s="202"/>
-    <row r="697" ht="15.75" customHeight="1" s="202"/>
-    <row r="698" ht="15.75" customHeight="1" s="202"/>
-    <row r="699" ht="15.75" customHeight="1" s="202"/>
-    <row r="700" ht="15.75" customHeight="1" s="202"/>
-    <row r="701" ht="15.75" customHeight="1" s="202"/>
-    <row r="702" ht="15.75" customHeight="1" s="202"/>
-    <row r="703" ht="15.75" customHeight="1" s="202"/>
-    <row r="704" ht="15.75" customHeight="1" s="202"/>
-    <row r="705" ht="15.75" customHeight="1" s="202"/>
-    <row r="706" ht="15.75" customHeight="1" s="202"/>
-    <row r="707" ht="15.75" customHeight="1" s="202"/>
-    <row r="708" ht="15.75" customHeight="1" s="202"/>
-    <row r="709" ht="15.75" customHeight="1" s="202"/>
-    <row r="710" ht="15.75" customHeight="1" s="202"/>
-    <row r="711" ht="15.75" customHeight="1" s="202"/>
-    <row r="712" ht="15.75" customHeight="1" s="202"/>
-    <row r="713" ht="15.75" customHeight="1" s="202"/>
-    <row r="714" ht="15.75" customHeight="1" s="202"/>
-    <row r="715" ht="15.75" customHeight="1" s="202"/>
-    <row r="716" ht="15.75" customHeight="1" s="202"/>
-    <row r="717" ht="15.75" customHeight="1" s="202"/>
-    <row r="718" ht="15.75" customHeight="1" s="202"/>
-    <row r="719" ht="15.75" customHeight="1" s="202"/>
-    <row r="720" ht="15.75" customHeight="1" s="202"/>
-    <row r="721" ht="15.75" customHeight="1" s="202"/>
-    <row r="722" ht="15.75" customHeight="1" s="202"/>
-    <row r="723" ht="15.75" customHeight="1" s="202"/>
-    <row r="724" ht="15.75" customHeight="1" s="202"/>
-    <row r="725" ht="15.75" customHeight="1" s="202"/>
-    <row r="726" ht="15.75" customHeight="1" s="202"/>
-    <row r="727" ht="15.75" customHeight="1" s="202"/>
-    <row r="728" ht="15.75" customHeight="1" s="202"/>
-    <row r="729" ht="15.75" customHeight="1" s="202"/>
-    <row r="730" ht="15.75" customHeight="1" s="202"/>
-    <row r="731" ht="15.75" customHeight="1" s="202"/>
-    <row r="732" ht="15.75" customHeight="1" s="202"/>
-    <row r="733" ht="15.75" customHeight="1" s="202"/>
-    <row r="734" ht="15.75" customHeight="1" s="202"/>
-    <row r="735" ht="15.75" customHeight="1" s="202"/>
-    <row r="736" ht="15.75" customHeight="1" s="202"/>
-    <row r="737" ht="15.75" customHeight="1" s="202"/>
-    <row r="738" ht="15.75" customHeight="1" s="202"/>
-    <row r="739" ht="15.75" customHeight="1" s="202"/>
-    <row r="740" ht="15.75" customHeight="1" s="202"/>
-    <row r="741" ht="15.75" customHeight="1" s="202"/>
-    <row r="742" ht="15.75" customHeight="1" s="202"/>
-    <row r="743" ht="15.75" customHeight="1" s="202"/>
-    <row r="744" ht="15.75" customHeight="1" s="202"/>
-    <row r="745" ht="15.75" customHeight="1" s="202"/>
-    <row r="746" ht="15.75" customHeight="1" s="202"/>
-    <row r="747" ht="15.75" customHeight="1" s="202"/>
-    <row r="748" ht="15.75" customHeight="1" s="202"/>
-    <row r="749" ht="15.75" customHeight="1" s="202"/>
-    <row r="750" ht="15.75" customHeight="1" s="202"/>
-    <row r="751" ht="15.75" customHeight="1" s="202"/>
-    <row r="752" ht="15.75" customHeight="1" s="202"/>
-    <row r="753" ht="15.75" customHeight="1" s="202"/>
-    <row r="754" ht="15.75" customHeight="1" s="202"/>
-    <row r="755" ht="15.75" customHeight="1" s="202"/>
-    <row r="756" ht="15.75" customHeight="1" s="202"/>
-    <row r="757" ht="15.75" customHeight="1" s="202"/>
-    <row r="758" ht="15.75" customHeight="1" s="202"/>
-    <row r="759" ht="15.75" customHeight="1" s="202"/>
-    <row r="760" ht="15.75" customHeight="1" s="202"/>
-    <row r="761" ht="15.75" customHeight="1" s="202"/>
-    <row r="762" ht="15.75" customHeight="1" s="202"/>
-    <row r="763" ht="15.75" customHeight="1" s="202"/>
-    <row r="764" ht="15.75" customHeight="1" s="202"/>
-    <row r="765" ht="15.75" customHeight="1" s="202"/>
-    <row r="766" ht="15.75" customHeight="1" s="202"/>
-    <row r="767" ht="15.75" customHeight="1" s="202"/>
-    <row r="768" ht="15.75" customHeight="1" s="202"/>
-    <row r="769" ht="15.75" customHeight="1" s="202"/>
-    <row r="770" ht="15.75" customHeight="1" s="202"/>
-    <row r="771" ht="15.75" customHeight="1" s="202"/>
-    <row r="772" ht="15.75" customHeight="1" s="202"/>
-    <row r="773" ht="15.75" customHeight="1" s="202"/>
-    <row r="774" ht="15.75" customHeight="1" s="202"/>
-    <row r="775" ht="15.75" customHeight="1" s="202"/>
-    <row r="776" ht="15.75" customHeight="1" s="202"/>
-    <row r="777" ht="15.75" customHeight="1" s="202"/>
-    <row r="778" ht="15.75" customHeight="1" s="202"/>
-    <row r="779" ht="15.75" customHeight="1" s="202"/>
-    <row r="780" ht="15.75" customHeight="1" s="202"/>
-    <row r="781" ht="15.75" customHeight="1" s="202"/>
-    <row r="782" ht="15.75" customHeight="1" s="202"/>
-    <row r="783" ht="15.75" customHeight="1" s="202"/>
-    <row r="784" ht="15.75" customHeight="1" s="202"/>
-    <row r="785" ht="15.75" customHeight="1" s="202"/>
-    <row r="786" ht="15.75" customHeight="1" s="202"/>
-    <row r="787" ht="15.75" customHeight="1" s="202"/>
-    <row r="788" ht="15.75" customHeight="1" s="202"/>
-    <row r="789" ht="15.75" customHeight="1" s="202"/>
-    <row r="790" ht="15.75" customHeight="1" s="202"/>
-    <row r="791" ht="15.75" customHeight="1" s="202"/>
-    <row r="792" ht="15.75" customHeight="1" s="202"/>
-    <row r="793" ht="15.75" customHeight="1" s="202"/>
-    <row r="794" ht="15.75" customHeight="1" s="202"/>
-    <row r="795" ht="15.75" customHeight="1" s="202"/>
-    <row r="796" ht="15.75" customHeight="1" s="202"/>
-    <row r="797" ht="15.75" customHeight="1" s="202"/>
-    <row r="798" ht="15.75" customHeight="1" s="202"/>
-    <row r="799" ht="15.75" customHeight="1" s="202"/>
-    <row r="800" ht="15.75" customHeight="1" s="202"/>
-    <row r="801" ht="15.75" customHeight="1" s="202"/>
-    <row r="802" ht="15.75" customHeight="1" s="202"/>
-    <row r="803" ht="15.75" customHeight="1" s="202"/>
-    <row r="804" ht="15.75" customHeight="1" s="202"/>
-    <row r="805" ht="15.75" customHeight="1" s="202"/>
-    <row r="806" ht="15.75" customHeight="1" s="202"/>
-    <row r="807" ht="15.75" customHeight="1" s="202"/>
-    <row r="808" ht="15.75" customHeight="1" s="202"/>
-    <row r="809" ht="15.75" customHeight="1" s="202"/>
-    <row r="810" ht="15.75" customHeight="1" s="202"/>
-    <row r="811" ht="15.75" customHeight="1" s="202"/>
-    <row r="812" ht="15.75" customHeight="1" s="202"/>
-    <row r="813" ht="15.75" customHeight="1" s="202"/>
-    <row r="814" ht="15.75" customHeight="1" s="202"/>
-    <row r="815" ht="15.75" customHeight="1" s="202"/>
-    <row r="816" ht="15.75" customHeight="1" s="202"/>
-    <row r="817" ht="15.75" customHeight="1" s="202"/>
-    <row r="818" ht="15.75" customHeight="1" s="202"/>
-    <row r="819" ht="15.75" customHeight="1" s="202"/>
-    <row r="820" ht="15.75" customHeight="1" s="202"/>
-    <row r="821" ht="15.75" customHeight="1" s="202"/>
-    <row r="822" ht="15.75" customHeight="1" s="202"/>
-    <row r="823" ht="15.75" customHeight="1" s="202"/>
-    <row r="824" ht="15.75" customHeight="1" s="202"/>
-    <row r="825" ht="15.75" customHeight="1" s="202"/>
-    <row r="826" ht="15.75" customHeight="1" s="202"/>
-    <row r="827" ht="15.75" customHeight="1" s="202"/>
-    <row r="828" ht="15.75" customHeight="1" s="202"/>
-    <row r="829" ht="15.75" customHeight="1" s="202"/>
-    <row r="830" ht="15.75" customHeight="1" s="202"/>
-    <row r="831" ht="15.75" customHeight="1" s="202"/>
-    <row r="832" ht="15.75" customHeight="1" s="202"/>
-    <row r="833" ht="15.75" customHeight="1" s="202"/>
-    <row r="834" ht="15.75" customHeight="1" s="202"/>
-    <row r="835" ht="15.75" customHeight="1" s="202"/>
-    <row r="836" ht="15.75" customHeight="1" s="202"/>
-    <row r="837" ht="15.75" customHeight="1" s="202"/>
-    <row r="838" ht="15.75" customHeight="1" s="202"/>
-    <row r="839" ht="15.75" customHeight="1" s="202"/>
-    <row r="840" ht="15.75" customHeight="1" s="202"/>
-    <row r="841" ht="15.75" customHeight="1" s="202"/>
-    <row r="842" ht="15.75" customHeight="1" s="202"/>
-    <row r="843" ht="15.75" customHeight="1" s="202"/>
-    <row r="844" ht="15.75" customHeight="1" s="202"/>
-    <row r="845" ht="15.75" customHeight="1" s="202"/>
-    <row r="846" ht="15.75" customHeight="1" s="202"/>
-    <row r="847" ht="15.75" customHeight="1" s="202"/>
-    <row r="848" ht="15.75" customHeight="1" s="202"/>
-    <row r="849" ht="15.75" customHeight="1" s="202"/>
-    <row r="850" ht="15.75" customHeight="1" s="202"/>
-    <row r="851" ht="15.75" customHeight="1" s="202"/>
-    <row r="852" ht="15.75" customHeight="1" s="202"/>
-    <row r="853" ht="15.75" customHeight="1" s="202"/>
-    <row r="854" ht="15.75" customHeight="1" s="202"/>
-    <row r="855" ht="15.75" customHeight="1" s="202"/>
-    <row r="856" ht="15.75" customHeight="1" s="202"/>
-    <row r="857" ht="15.75" customHeight="1" s="202"/>
-    <row r="858" ht="15.75" customHeight="1" s="202"/>
-    <row r="859" ht="15.75" customHeight="1" s="202"/>
-    <row r="860" ht="15.75" customHeight="1" s="202"/>
-    <row r="861" ht="15.75" customHeight="1" s="202"/>
-    <row r="862" ht="15.75" customHeight="1" s="202"/>
-    <row r="863" ht="15.75" customHeight="1" s="202"/>
-    <row r="864" ht="15.75" customHeight="1" s="202"/>
-    <row r="865" ht="15.75" customHeight="1" s="202"/>
-    <row r="866" ht="15.75" customHeight="1" s="202"/>
-    <row r="867" ht="15.75" customHeight="1" s="202"/>
-    <row r="868" ht="15.75" customHeight="1" s="202"/>
-    <row r="869" ht="15.75" customHeight="1" s="202"/>
-    <row r="870" ht="15.75" customHeight="1" s="202"/>
-    <row r="871" ht="15.75" customHeight="1" s="202"/>
-    <row r="872" ht="15.75" customHeight="1" s="202"/>
-    <row r="873" ht="15.75" customHeight="1" s="202"/>
-    <row r="874" ht="15.75" customHeight="1" s="202"/>
-    <row r="875" ht="15.75" customHeight="1" s="202"/>
-    <row r="876" ht="15.75" customHeight="1" s="202"/>
-    <row r="877" ht="15.75" customHeight="1" s="202"/>
-    <row r="878" ht="15.75" customHeight="1" s="202"/>
-    <row r="879" ht="15.75" customHeight="1" s="202"/>
-    <row r="880" ht="15.75" customHeight="1" s="202"/>
-    <row r="881" ht="15.75" customHeight="1" s="202"/>
-    <row r="882" ht="15.75" customHeight="1" s="202"/>
-    <row r="883" ht="15.75" customHeight="1" s="202"/>
-    <row r="884" ht="15.75" customHeight="1" s="202"/>
-    <row r="885" ht="15.75" customHeight="1" s="202"/>
-    <row r="886" ht="15.75" customHeight="1" s="202"/>
-    <row r="887" ht="15.75" customHeight="1" s="202"/>
-    <row r="888" ht="15.75" customHeight="1" s="202"/>
-    <row r="889" ht="15.75" customHeight="1" s="202"/>
-    <row r="890" ht="15.75" customHeight="1" s="202"/>
-    <row r="891" ht="15.75" customHeight="1" s="202"/>
-    <row r="892" ht="15.75" customHeight="1" s="202"/>
-    <row r="893" ht="15.75" customHeight="1" s="202"/>
-    <row r="894" ht="15.75" customHeight="1" s="202"/>
-    <row r="895" ht="15.75" customHeight="1" s="202"/>
-    <row r="896" ht="15.75" customHeight="1" s="202"/>
-    <row r="897" ht="15.75" customHeight="1" s="202"/>
-    <row r="898" ht="15.75" customHeight="1" s="202"/>
-    <row r="899" ht="15.75" customHeight="1" s="202"/>
-    <row r="900" ht="15.75" customHeight="1" s="202"/>
-    <row r="901" ht="15.75" customHeight="1" s="202"/>
-    <row r="902" ht="15.75" customHeight="1" s="202"/>
-    <row r="903" ht="15.75" customHeight="1" s="202"/>
-    <row r="904" ht="15.75" customHeight="1" s="202"/>
-    <row r="905" ht="15.75" customHeight="1" s="202"/>
-    <row r="906" ht="15.75" customHeight="1" s="202"/>
-    <row r="907" ht="15.75" customHeight="1" s="202"/>
-    <row r="908" ht="15.75" customHeight="1" s="202"/>
-    <row r="909" ht="15.75" customHeight="1" s="202"/>
-    <row r="910" ht="15.75" customHeight="1" s="202"/>
-    <row r="911" ht="15.75" customHeight="1" s="202"/>
-    <row r="912" ht="15.75" customHeight="1" s="202"/>
-    <row r="913" ht="15.75" customHeight="1" s="202"/>
-    <row r="914" ht="15.75" customHeight="1" s="202"/>
-    <row r="915" ht="15.75" customHeight="1" s="202"/>
-    <row r="916" ht="15.75" customHeight="1" s="202"/>
-    <row r="917" ht="15.75" customHeight="1" s="202"/>
-    <row r="918" ht="15.75" customHeight="1" s="202"/>
-    <row r="919" ht="15.75" customHeight="1" s="202"/>
-    <row r="920" ht="15.75" customHeight="1" s="202"/>
-    <row r="921" ht="15.75" customHeight="1" s="202"/>
-    <row r="922" ht="15.75" customHeight="1" s="202"/>
-    <row r="923" ht="15.75" customHeight="1" s="202"/>
-    <row r="924" ht="15.75" customHeight="1" s="202"/>
-    <row r="925" ht="15.75" customHeight="1" s="202"/>
-    <row r="926" ht="15.75" customHeight="1" s="202"/>
-    <row r="927" ht="15.75" customHeight="1" s="202"/>
-    <row r="928" ht="15.75" customHeight="1" s="202"/>
-    <row r="929" ht="15.75" customHeight="1" s="202"/>
-    <row r="930" ht="15.75" customHeight="1" s="202"/>
-    <row r="931" ht="15.75" customHeight="1" s="202"/>
-    <row r="932" ht="15.75" customHeight="1" s="202"/>
-    <row r="933" ht="15.75" customHeight="1" s="202"/>
-    <row r="934" ht="15.75" customHeight="1" s="202"/>
-    <row r="935" ht="15.75" customHeight="1" s="202"/>
-    <row r="936" ht="15.75" customHeight="1" s="202"/>
-    <row r="937" ht="15.75" customHeight="1" s="202"/>
-    <row r="938" ht="15.75" customHeight="1" s="202"/>
-    <row r="939" ht="15.75" customHeight="1" s="202"/>
-    <row r="940" ht="15.75" customHeight="1" s="202"/>
-    <row r="941" ht="15.75" customHeight="1" s="202"/>
-    <row r="942" ht="15.75" customHeight="1" s="202"/>
-    <row r="943" ht="15.75" customHeight="1" s="202"/>
-    <row r="944" ht="15.75" customHeight="1" s="202"/>
-    <row r="945" ht="15.75" customHeight="1" s="202"/>
-    <row r="946" ht="15.75" customHeight="1" s="202"/>
-    <row r="947" ht="15.75" customHeight="1" s="202"/>
-    <row r="948" ht="15.75" customHeight="1" s="202"/>
-    <row r="949" ht="15.75" customHeight="1" s="202"/>
-    <row r="950" ht="15.75" customHeight="1" s="202"/>
-    <row r="951" ht="15.75" customHeight="1" s="202"/>
-    <row r="952" ht="15.75" customHeight="1" s="202"/>
-    <row r="953" ht="15.75" customHeight="1" s="202"/>
-    <row r="954" ht="15.75" customHeight="1" s="202"/>
-    <row r="955" ht="15.75" customHeight="1" s="202"/>
-    <row r="956" ht="15.75" customHeight="1" s="202"/>
-    <row r="957" ht="15.75" customHeight="1" s="202"/>
-    <row r="958" ht="15.75" customHeight="1" s="202"/>
-    <row r="959" ht="15.75" customHeight="1" s="202"/>
-    <row r="960" ht="15.75" customHeight="1" s="202"/>
-    <row r="961" ht="15.75" customHeight="1" s="202"/>
-    <row r="962" ht="15.75" customHeight="1" s="202"/>
-    <row r="963" ht="15.75" customHeight="1" s="202"/>
-    <row r="964" ht="15.75" customHeight="1" s="202"/>
-    <row r="965" ht="15.75" customHeight="1" s="202"/>
-    <row r="966" ht="15.75" customHeight="1" s="202"/>
-    <row r="967" ht="15.75" customHeight="1" s="202"/>
-    <row r="968" ht="15.75" customHeight="1" s="202"/>
-    <row r="969" ht="15.75" customHeight="1" s="202"/>
-    <row r="970" ht="15.75" customHeight="1" s="202"/>
-    <row r="971" ht="15.75" customHeight="1" s="202"/>
-    <row r="972" ht="15.75" customHeight="1" s="202"/>
-    <row r="973" ht="15.75" customHeight="1" s="202"/>
-    <row r="974" ht="15.75" customHeight="1" s="202"/>
-    <row r="975" ht="15.75" customHeight="1" s="202"/>
-    <row r="976" ht="15.75" customHeight="1" s="202"/>
-    <row r="977" ht="15.75" customHeight="1" s="202"/>
-    <row r="978" ht="15.75" customHeight="1" s="202"/>
-    <row r="979" ht="15.75" customHeight="1" s="202"/>
-    <row r="980" ht="15.75" customHeight="1" s="202"/>
-    <row r="981" ht="15.75" customHeight="1" s="202"/>
-    <row r="982" ht="15.75" customHeight="1" s="202"/>
-    <row r="983" ht="15.75" customHeight="1" s="202"/>
-    <row r="984" ht="15.75" customHeight="1" s="202"/>
-    <row r="985" ht="15.75" customHeight="1" s="202"/>
-    <row r="986" ht="15.75" customHeight="1" s="202"/>
-    <row r="987" ht="15.75" customHeight="1" s="202"/>
-    <row r="988" ht="15.75" customHeight="1" s="202"/>
-    <row r="989" ht="15.75" customHeight="1" s="202"/>
-    <row r="990" ht="15.75" customHeight="1" s="202"/>
-    <row r="991" ht="15.75" customHeight="1" s="202"/>
-    <row r="992" ht="15.75" customHeight="1" s="202"/>
-    <row r="993" ht="15.75" customHeight="1" s="202"/>
-    <row r="994" ht="15.75" customHeight="1" s="202"/>
-    <row r="995" ht="15.75" customHeight="1" s="202"/>
-    <row r="996" ht="15.75" customHeight="1" s="202"/>
-    <row r="997" ht="15.75" customHeight="1" s="202"/>
-    <row r="998" ht="15.75" customHeight="1" s="202"/>
-    <row r="999" ht="15.75" customHeight="1" s="202"/>
-    <row r="1000" ht="15.75" customHeight="1" s="202"/>
+      <c r="D65" s="211" t="n"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1" s="191"/>
+    <row r="67" ht="15.75" customHeight="1" s="191"/>
+    <row r="68" ht="15.75" customHeight="1" s="191"/>
+    <row r="69" ht="15.75" customHeight="1" s="191"/>
+    <row r="70" ht="15.75" customHeight="1" s="191"/>
+    <row r="71" ht="15.75" customHeight="1" s="191"/>
+    <row r="72" ht="15.75" customHeight="1" s="191"/>
+    <row r="73" ht="15.75" customHeight="1" s="191"/>
+    <row r="74" ht="15.75" customHeight="1" s="191"/>
+    <row r="75" ht="15.75" customHeight="1" s="191"/>
+    <row r="76" ht="15.75" customHeight="1" s="191"/>
+    <row r="77" ht="15.75" customHeight="1" s="191"/>
+    <row r="78" ht="15.75" customHeight="1" s="191"/>
+    <row r="79" ht="15.75" customHeight="1" s="191"/>
+    <row r="80" ht="15.75" customHeight="1" s="191"/>
+    <row r="81" ht="15.75" customHeight="1" s="191"/>
+    <row r="82" ht="15.75" customHeight="1" s="191"/>
+    <row r="83" ht="15.75" customHeight="1" s="191"/>
+    <row r="84" ht="15.75" customHeight="1" s="191"/>
+    <row r="85" ht="15.75" customHeight="1" s="191"/>
+    <row r="86" ht="15.75" customHeight="1" s="191"/>
+    <row r="87" ht="15.75" customHeight="1" s="191"/>
+    <row r="88" ht="15.75" customHeight="1" s="191"/>
+    <row r="89" ht="15.75" customHeight="1" s="191"/>
+    <row r="90" ht="15.75" customHeight="1" s="191"/>
+    <row r="91" ht="15.75" customHeight="1" s="191"/>
+    <row r="92" ht="15.75" customHeight="1" s="191"/>
+    <row r="93" ht="15.75" customHeight="1" s="191"/>
+    <row r="94" ht="15.75" customHeight="1" s="191"/>
+    <row r="95" ht="15.75" customHeight="1" s="191"/>
+    <row r="96" ht="15.75" customHeight="1" s="191"/>
+    <row r="97" ht="15.75" customHeight="1" s="191"/>
+    <row r="98" ht="15.75" customHeight="1" s="191"/>
+    <row r="99" ht="15.75" customHeight="1" s="191"/>
+    <row r="100" ht="15.75" customHeight="1" s="191"/>
+    <row r="101" ht="15.75" customHeight="1" s="191"/>
+    <row r="102" ht="15.75" customHeight="1" s="191"/>
+    <row r="103" ht="15.75" customHeight="1" s="191"/>
+    <row r="104" ht="15.75" customHeight="1" s="191"/>
+    <row r="105" ht="15.75" customHeight="1" s="191"/>
+    <row r="106" ht="15.75" customHeight="1" s="191"/>
+    <row r="107" ht="15.75" customHeight="1" s="191"/>
+    <row r="108" ht="15.75" customHeight="1" s="191"/>
+    <row r="109" ht="15.75" customHeight="1" s="191"/>
+    <row r="110" ht="15.75" customHeight="1" s="191"/>
+    <row r="111" ht="15.75" customHeight="1" s="191"/>
+    <row r="112" ht="15.75" customHeight="1" s="191"/>
+    <row r="113" ht="15.75" customHeight="1" s="191"/>
+    <row r="114" ht="15.75" customHeight="1" s="191"/>
+    <row r="115" ht="15.75" customHeight="1" s="191"/>
+    <row r="116" ht="15.75" customHeight="1" s="191"/>
+    <row r="117" ht="15.75" customHeight="1" s="191"/>
+    <row r="118" ht="15.75" customHeight="1" s="191"/>
+    <row r="119" ht="15.75" customHeight="1" s="191"/>
+    <row r="120" ht="15.75" customHeight="1" s="191"/>
+    <row r="121" ht="15.75" customHeight="1" s="191"/>
+    <row r="122" ht="15.75" customHeight="1" s="191"/>
+    <row r="123" ht="15.75" customHeight="1" s="191"/>
+    <row r="124" ht="15.75" customHeight="1" s="191"/>
+    <row r="125" ht="15.75" customHeight="1" s="191"/>
+    <row r="126" ht="15.75" customHeight="1" s="191"/>
+    <row r="127" ht="15.75" customHeight="1" s="191"/>
+    <row r="128" ht="15.75" customHeight="1" s="191"/>
+    <row r="129" ht="15.75" customHeight="1" s="191"/>
+    <row r="130" ht="15.75" customHeight="1" s="191"/>
+    <row r="131" ht="15.75" customHeight="1" s="191"/>
+    <row r="132" ht="15.75" customHeight="1" s="191"/>
+    <row r="133" ht="15.75" customHeight="1" s="191"/>
+    <row r="134" ht="15.75" customHeight="1" s="191"/>
+    <row r="135" ht="15.75" customHeight="1" s="191"/>
+    <row r="136" ht="15.75" customHeight="1" s="191"/>
+    <row r="137" ht="15.75" customHeight="1" s="191"/>
+    <row r="138" ht="15.75" customHeight="1" s="191"/>
+    <row r="139" ht="15.75" customHeight="1" s="191"/>
+    <row r="140" ht="15.75" customHeight="1" s="191"/>
+    <row r="141" ht="15.75" customHeight="1" s="191"/>
+    <row r="142" ht="15.75" customHeight="1" s="191"/>
+    <row r="143" ht="15.75" customHeight="1" s="191"/>
+    <row r="144" ht="15.75" customHeight="1" s="191"/>
+    <row r="145" ht="15.75" customHeight="1" s="191"/>
+    <row r="146" ht="15.75" customHeight="1" s="191"/>
+    <row r="147" ht="15.75" customHeight="1" s="191"/>
+    <row r="148" ht="15.75" customHeight="1" s="191"/>
+    <row r="149" ht="15.75" customHeight="1" s="191"/>
+    <row r="150" ht="15.75" customHeight="1" s="191"/>
+    <row r="151" ht="15.75" customHeight="1" s="191"/>
+    <row r="152" ht="15.75" customHeight="1" s="191"/>
+    <row r="153" ht="15.75" customHeight="1" s="191"/>
+    <row r="154" ht="15.75" customHeight="1" s="191"/>
+    <row r="155" ht="15.75" customHeight="1" s="191"/>
+    <row r="156" ht="15.75" customHeight="1" s="191"/>
+    <row r="157" ht="15.75" customHeight="1" s="191"/>
+    <row r="158" ht="15.75" customHeight="1" s="191"/>
+    <row r="159" ht="15.75" customHeight="1" s="191"/>
+    <row r="160" ht="15.75" customHeight="1" s="191"/>
+    <row r="161" ht="15.75" customHeight="1" s="191"/>
+    <row r="162" ht="15.75" customHeight="1" s="191"/>
+    <row r="163" ht="15.75" customHeight="1" s="191"/>
+    <row r="164" ht="15.75" customHeight="1" s="191"/>
+    <row r="165" ht="15.75" customHeight="1" s="191"/>
+    <row r="166" ht="15.75" customHeight="1" s="191"/>
+    <row r="167" ht="15.75" customHeight="1" s="191"/>
+    <row r="168" ht="15.75" customHeight="1" s="191"/>
+    <row r="169" ht="15.75" customHeight="1" s="191"/>
+    <row r="170" ht="15.75" customHeight="1" s="191"/>
+    <row r="171" ht="15.75" customHeight="1" s="191"/>
+    <row r="172" ht="15.75" customHeight="1" s="191"/>
+    <row r="173" ht="15.75" customHeight="1" s="191"/>
+    <row r="174" ht="15.75" customHeight="1" s="191"/>
+    <row r="175" ht="15.75" customHeight="1" s="191"/>
+    <row r="176" ht="15.75" customHeight="1" s="191"/>
+    <row r="177" ht="15.75" customHeight="1" s="191"/>
+    <row r="178" ht="15.75" customHeight="1" s="191"/>
+    <row r="179" ht="15.75" customHeight="1" s="191"/>
+    <row r="180" ht="15.75" customHeight="1" s="191"/>
+    <row r="181" ht="15.75" customHeight="1" s="191"/>
+    <row r="182" ht="15.75" customHeight="1" s="191"/>
+    <row r="183" ht="15.75" customHeight="1" s="191"/>
+    <row r="184" ht="15.75" customHeight="1" s="191"/>
+    <row r="185" ht="15.75" customHeight="1" s="191"/>
+    <row r="186" ht="15.75" customHeight="1" s="191"/>
+    <row r="187" ht="15.75" customHeight="1" s="191"/>
+    <row r="188" ht="15.75" customHeight="1" s="191"/>
+    <row r="189" ht="15.75" customHeight="1" s="191"/>
+    <row r="190" ht="15.75" customHeight="1" s="191"/>
+    <row r="191" ht="15.75" customHeight="1" s="191"/>
+    <row r="192" ht="15.75" customHeight="1" s="191"/>
+    <row r="193" ht="15.75" customHeight="1" s="191"/>
+    <row r="194" ht="15.75" customHeight="1" s="191"/>
+    <row r="195" ht="15.75" customHeight="1" s="191"/>
+    <row r="196" ht="15.75" customHeight="1" s="191"/>
+    <row r="197" ht="15.75" customHeight="1" s="191"/>
+    <row r="198" ht="15.75" customHeight="1" s="191"/>
+    <row r="199" ht="15.75" customHeight="1" s="191"/>
+    <row r="200" ht="15.75" customHeight="1" s="191"/>
+    <row r="201" ht="15.75" customHeight="1" s="191"/>
+    <row r="202" ht="15.75" customHeight="1" s="191"/>
+    <row r="203" ht="15.75" customHeight="1" s="191"/>
+    <row r="204" ht="15.75" customHeight="1" s="191"/>
+    <row r="205" ht="15.75" customHeight="1" s="191"/>
+    <row r="206" ht="15.75" customHeight="1" s="191"/>
+    <row r="207" ht="15.75" customHeight="1" s="191"/>
+    <row r="208" ht="15.75" customHeight="1" s="191"/>
+    <row r="209" ht="15.75" customHeight="1" s="191"/>
+    <row r="210" ht="15.75" customHeight="1" s="191"/>
+    <row r="211" ht="15.75" customHeight="1" s="191"/>
+    <row r="212" ht="15.75" customHeight="1" s="191"/>
+    <row r="213" ht="15.75" customHeight="1" s="191"/>
+    <row r="214" ht="15.75" customHeight="1" s="191"/>
+    <row r="215" ht="15.75" customHeight="1" s="191"/>
+    <row r="216" ht="15.75" customHeight="1" s="191"/>
+    <row r="217" ht="15.75" customHeight="1" s="191"/>
+    <row r="218" ht="15.75" customHeight="1" s="191"/>
+    <row r="219" ht="15.75" customHeight="1" s="191"/>
+    <row r="220" ht="15.75" customHeight="1" s="191"/>
+    <row r="221" ht="15.75" customHeight="1" s="191"/>
+    <row r="222" ht="15.75" customHeight="1" s="191"/>
+    <row r="223" ht="15.75" customHeight="1" s="191"/>
+    <row r="224" ht="15.75" customHeight="1" s="191"/>
+    <row r="225" ht="15.75" customHeight="1" s="191"/>
+    <row r="226" ht="15.75" customHeight="1" s="191"/>
+    <row r="227" ht="15.75" customHeight="1" s="191"/>
+    <row r="228" ht="15.75" customHeight="1" s="191"/>
+    <row r="229" ht="15.75" customHeight="1" s="191"/>
+    <row r="230" ht="15.75" customHeight="1" s="191"/>
+    <row r="231" ht="15.75" customHeight="1" s="191"/>
+    <row r="232" ht="15.75" customHeight="1" s="191"/>
+    <row r="233" ht="15.75" customHeight="1" s="191"/>
+    <row r="234" ht="15.75" customHeight="1" s="191"/>
+    <row r="235" ht="15.75" customHeight="1" s="191"/>
+    <row r="236" ht="15.75" customHeight="1" s="191"/>
+    <row r="237" ht="15.75" customHeight="1" s="191"/>
+    <row r="238" ht="15.75" customHeight="1" s="191"/>
+    <row r="239" ht="15.75" customHeight="1" s="191"/>
+    <row r="240" ht="15.75" customHeight="1" s="191"/>
+    <row r="241" ht="15.75" customHeight="1" s="191"/>
+    <row r="242" ht="15.75" customHeight="1" s="191"/>
+    <row r="243" ht="15.75" customHeight="1" s="191"/>
+    <row r="244" ht="15.75" customHeight="1" s="191"/>
+    <row r="245" ht="15.75" customHeight="1" s="191"/>
+    <row r="246" ht="15.75" customHeight="1" s="191"/>
+    <row r="247" ht="15.75" customHeight="1" s="191"/>
+    <row r="248" ht="15.75" customHeight="1" s="191"/>
+    <row r="249" ht="15.75" customHeight="1" s="191"/>
+    <row r="250" ht="15.75" customHeight="1" s="191"/>
+    <row r="251" ht="15.75" customHeight="1" s="191"/>
+    <row r="252" ht="15.75" customHeight="1" s="191"/>
+    <row r="253" ht="15.75" customHeight="1" s="191"/>
+    <row r="254" ht="15.75" customHeight="1" s="191"/>
+    <row r="255" ht="15.75" customHeight="1" s="191"/>
+    <row r="256" ht="15.75" customHeight="1" s="191"/>
+    <row r="257" ht="15.75" customHeight="1" s="191"/>
+    <row r="258" ht="15.75" customHeight="1" s="191"/>
+    <row r="259" ht="15.75" customHeight="1" s="191"/>
+    <row r="260" ht="15.75" customHeight="1" s="191"/>
+    <row r="261" ht="15.75" customHeight="1" s="191"/>
+    <row r="262" ht="15.75" customHeight="1" s="191"/>
+    <row r="263" ht="15.75" customHeight="1" s="191"/>
+    <row r="264" ht="15.75" customHeight="1" s="191"/>
+    <row r="265" ht="15.75" customHeight="1" s="191"/>
+    <row r="266" ht="15.75" customHeight="1" s="191"/>
+    <row r="267" ht="15.75" customHeight="1" s="191"/>
+    <row r="268" ht="15.75" customHeight="1" s="191"/>
+    <row r="269" ht="15.75" customHeight="1" s="191"/>
+    <row r="270" ht="15.75" customHeight="1" s="191"/>
+    <row r="271" ht="15.75" customHeight="1" s="191"/>
+    <row r="272" ht="15.75" customHeight="1" s="191"/>
+    <row r="273" ht="15.75" customHeight="1" s="191"/>
+    <row r="274" ht="15.75" customHeight="1" s="191"/>
+    <row r="275" ht="15.75" customHeight="1" s="191"/>
+    <row r="276" ht="15.75" customHeight="1" s="191"/>
+    <row r="277" ht="15.75" customHeight="1" s="191"/>
+    <row r="278" ht="15.75" customHeight="1" s="191"/>
+    <row r="279" ht="15.75" customHeight="1" s="191"/>
+    <row r="280" ht="15.75" customHeight="1" s="191"/>
+    <row r="281" ht="15.75" customHeight="1" s="191"/>
+    <row r="282" ht="15.75" customHeight="1" s="191"/>
+    <row r="283" ht="15.75" customHeight="1" s="191"/>
+    <row r="284" ht="15.75" customHeight="1" s="191"/>
+    <row r="285" ht="15.75" customHeight="1" s="191"/>
+    <row r="286" ht="15.75" customHeight="1" s="191"/>
+    <row r="287" ht="15.75" customHeight="1" s="191"/>
+    <row r="288" ht="15.75" customHeight="1" s="191"/>
+    <row r="289" ht="15.75" customHeight="1" s="191"/>
+    <row r="290" ht="15.75" customHeight="1" s="191"/>
+    <row r="291" ht="15.75" customHeight="1" s="191"/>
+    <row r="292" ht="15.75" customHeight="1" s="191"/>
+    <row r="293" ht="15.75" customHeight="1" s="191"/>
+    <row r="294" ht="15.75" customHeight="1" s="191"/>
+    <row r="295" ht="15.75" customHeight="1" s="191"/>
+    <row r="296" ht="15.75" customHeight="1" s="191"/>
+    <row r="297" ht="15.75" customHeight="1" s="191"/>
+    <row r="298" ht="15.75" customHeight="1" s="191"/>
+    <row r="299" ht="15.75" customHeight="1" s="191"/>
+    <row r="300" ht="15.75" customHeight="1" s="191"/>
+    <row r="301" ht="15.75" customHeight="1" s="191"/>
+    <row r="302" ht="15.75" customHeight="1" s="191"/>
+    <row r="303" ht="15.75" customHeight="1" s="191"/>
+    <row r="304" ht="15.75" customHeight="1" s="191"/>
+    <row r="305" ht="15.75" customHeight="1" s="191"/>
+    <row r="306" ht="15.75" customHeight="1" s="191"/>
+    <row r="307" ht="15.75" customHeight="1" s="191"/>
+    <row r="308" ht="15.75" customHeight="1" s="191"/>
+    <row r="309" ht="15.75" customHeight="1" s="191"/>
+    <row r="310" ht="15.75" customHeight="1" s="191"/>
+    <row r="311" ht="15.75" customHeight="1" s="191"/>
+    <row r="312" ht="15.75" customHeight="1" s="191"/>
+    <row r="313" ht="15.75" customHeight="1" s="191"/>
+    <row r="314" ht="15.75" customHeight="1" s="191"/>
+    <row r="315" ht="15.75" customHeight="1" s="191"/>
+    <row r="316" ht="15.75" customHeight="1" s="191"/>
+    <row r="317" ht="15.75" customHeight="1" s="191"/>
+    <row r="318" ht="15.75" customHeight="1" s="191"/>
+    <row r="319" ht="15.75" customHeight="1" s="191"/>
+    <row r="320" ht="15.75" customHeight="1" s="191"/>
+    <row r="321" ht="15.75" customHeight="1" s="191"/>
+    <row r="322" ht="15.75" customHeight="1" s="191"/>
+    <row r="323" ht="15.75" customHeight="1" s="191"/>
+    <row r="324" ht="15.75" customHeight="1" s="191"/>
+    <row r="325" ht="15.75" customHeight="1" s="191"/>
+    <row r="326" ht="15.75" customHeight="1" s="191"/>
+    <row r="327" ht="15.75" customHeight="1" s="191"/>
+    <row r="328" ht="15.75" customHeight="1" s="191"/>
+    <row r="329" ht="15.75" customHeight="1" s="191"/>
+    <row r="330" ht="15.75" customHeight="1" s="191"/>
+    <row r="331" ht="15.75" customHeight="1" s="191"/>
+    <row r="332" ht="15.75" customHeight="1" s="191"/>
+    <row r="333" ht="15.75" customHeight="1" s="191"/>
+    <row r="334" ht="15.75" customHeight="1" s="191"/>
+    <row r="335" ht="15.75" customHeight="1" s="191"/>
+    <row r="336" ht="15.75" customHeight="1" s="191"/>
+    <row r="337" ht="15.75" customHeight="1" s="191"/>
+    <row r="338" ht="15.75" customHeight="1" s="191"/>
+    <row r="339" ht="15.75" customHeight="1" s="191"/>
+    <row r="340" ht="15.75" customHeight="1" s="191"/>
+    <row r="341" ht="15.75" customHeight="1" s="191"/>
+    <row r="342" ht="15.75" customHeight="1" s="191"/>
+    <row r="343" ht="15.75" customHeight="1" s="191"/>
+    <row r="344" ht="15.75" customHeight="1" s="191"/>
+    <row r="345" ht="15.75" customHeight="1" s="191"/>
+    <row r="346" ht="15.75" customHeight="1" s="191"/>
+    <row r="347" ht="15.75" customHeight="1" s="191"/>
+    <row r="348" ht="15.75" customHeight="1" s="191"/>
+    <row r="349" ht="15.75" customHeight="1" s="191"/>
+    <row r="350" ht="15.75" customHeight="1" s="191"/>
+    <row r="351" ht="15.75" customHeight="1" s="191"/>
+    <row r="352" ht="15.75" customHeight="1" s="191"/>
+    <row r="353" ht="15.75" customHeight="1" s="191"/>
+    <row r="354" ht="15.75" customHeight="1" s="191"/>
+    <row r="355" ht="15.75" customHeight="1" s="191"/>
+    <row r="356" ht="15.75" customHeight="1" s="191"/>
+    <row r="357" ht="15.75" customHeight="1" s="191"/>
+    <row r="358" ht="15.75" customHeight="1" s="191"/>
+    <row r="359" ht="15.75" customHeight="1" s="191"/>
+    <row r="360" ht="15.75" customHeight="1" s="191"/>
+    <row r="361" ht="15.75" customHeight="1" s="191"/>
+    <row r="362" ht="15.75" customHeight="1" s="191"/>
+    <row r="363" ht="15.75" customHeight="1" s="191"/>
+    <row r="364" ht="15.75" customHeight="1" s="191"/>
+    <row r="365" ht="15.75" customHeight="1" s="191"/>
+    <row r="366" ht="15.75" customHeight="1" s="191"/>
+    <row r="367" ht="15.75" customHeight="1" s="191"/>
+    <row r="368" ht="15.75" customHeight="1" s="191"/>
+    <row r="369" ht="15.75" customHeight="1" s="191"/>
+    <row r="370" ht="15.75" customHeight="1" s="191"/>
+    <row r="371" ht="15.75" customHeight="1" s="191"/>
+    <row r="372" ht="15.75" customHeight="1" s="191"/>
+    <row r="373" ht="15.75" customHeight="1" s="191"/>
+    <row r="374" ht="15.75" customHeight="1" s="191"/>
+    <row r="375" ht="15.75" customHeight="1" s="191"/>
+    <row r="376" ht="15.75" customHeight="1" s="191"/>
+    <row r="377" ht="15.75" customHeight="1" s="191"/>
+    <row r="378" ht="15.75" customHeight="1" s="191"/>
+    <row r="379" ht="15.75" customHeight="1" s="191"/>
+    <row r="380" ht="15.75" customHeight="1" s="191"/>
+    <row r="381" ht="15.75" customHeight="1" s="191"/>
+    <row r="382" ht="15.75" customHeight="1" s="191"/>
+    <row r="383" ht="15.75" customHeight="1" s="191"/>
+    <row r="384" ht="15.75" customHeight="1" s="191"/>
+    <row r="385" ht="15.75" customHeight="1" s="191"/>
+    <row r="386" ht="15.75" customHeight="1" s="191"/>
+    <row r="387" ht="15.75" customHeight="1" s="191"/>
+    <row r="388" ht="15.75" customHeight="1" s="191"/>
+    <row r="389" ht="15.75" customHeight="1" s="191"/>
+    <row r="390" ht="15.75" customHeight="1" s="191"/>
+    <row r="391" ht="15.75" customHeight="1" s="191"/>
+    <row r="392" ht="15.75" customHeight="1" s="191"/>
+    <row r="393" ht="15.75" customHeight="1" s="191"/>
+    <row r="394" ht="15.75" customHeight="1" s="191"/>
+    <row r="395" ht="15.75" customHeight="1" s="191"/>
+    <row r="396" ht="15.75" customHeight="1" s="191"/>
+    <row r="397" ht="15.75" customHeight="1" s="191"/>
+    <row r="398" ht="15.75" customHeight="1" s="191"/>
+    <row r="399" ht="15.75" customHeight="1" s="191"/>
+    <row r="400" ht="15.75" customHeight="1" s="191"/>
+    <row r="401" ht="15.75" customHeight="1" s="191"/>
+    <row r="402" ht="15.75" customHeight="1" s="191"/>
+    <row r="403" ht="15.75" customHeight="1" s="191"/>
+    <row r="404" ht="15.75" customHeight="1" s="191"/>
+    <row r="405" ht="15.75" customHeight="1" s="191"/>
+    <row r="406" ht="15.75" customHeight="1" s="191"/>
+    <row r="407" ht="15.75" customHeight="1" s="191"/>
+    <row r="408" ht="15.75" customHeight="1" s="191"/>
+    <row r="409" ht="15.75" customHeight="1" s="191"/>
+    <row r="410" ht="15.75" customHeight="1" s="191"/>
+    <row r="411" ht="15.75" customHeight="1" s="191"/>
+    <row r="412" ht="15.75" customHeight="1" s="191"/>
+    <row r="413" ht="15.75" customHeight="1" s="191"/>
+    <row r="414" ht="15.75" customHeight="1" s="191"/>
+    <row r="415" ht="15.75" customHeight="1" s="191"/>
+    <row r="416" ht="15.75" customHeight="1" s="191"/>
+    <row r="417" ht="15.75" customHeight="1" s="191"/>
+    <row r="418" ht="15.75" customHeight="1" s="191"/>
+    <row r="419" ht="15.75" customHeight="1" s="191"/>
+    <row r="420" ht="15.75" customHeight="1" s="191"/>
+    <row r="421" ht="15.75" customHeight="1" s="191"/>
+    <row r="422" ht="15.75" customHeight="1" s="191"/>
+    <row r="423" ht="15.75" customHeight="1" s="191"/>
+    <row r="424" ht="15.75" customHeight="1" s="191"/>
+    <row r="425" ht="15.75" customHeight="1" s="191"/>
+    <row r="426" ht="15.75" customHeight="1" s="191"/>
+    <row r="427" ht="15.75" customHeight="1" s="191"/>
+    <row r="428" ht="15.75" customHeight="1" s="191"/>
+    <row r="429" ht="15.75" customHeight="1" s="191"/>
+    <row r="430" ht="15.75" customHeight="1" s="191"/>
+    <row r="431" ht="15.75" customHeight="1" s="191"/>
+    <row r="432" ht="15.75" customHeight="1" s="191"/>
+    <row r="433" ht="15.75" customHeight="1" s="191"/>
+    <row r="434" ht="15.75" customHeight="1" s="191"/>
+    <row r="435" ht="15.75" customHeight="1" s="191"/>
+    <row r="436" ht="15.75" customHeight="1" s="191"/>
+    <row r="437" ht="15.75" customHeight="1" s="191"/>
+    <row r="438" ht="15.75" customHeight="1" s="191"/>
+    <row r="439" ht="15.75" customHeight="1" s="191"/>
+    <row r="440" ht="15.75" customHeight="1" s="191"/>
+    <row r="441" ht="15.75" customHeight="1" s="191"/>
+    <row r="442" ht="15.75" customHeight="1" s="191"/>
+    <row r="443" ht="15.75" customHeight="1" s="191"/>
+    <row r="444" ht="15.75" customHeight="1" s="191"/>
+    <row r="445" ht="15.75" customHeight="1" s="191"/>
+    <row r="446" ht="15.75" customHeight="1" s="191"/>
+    <row r="447" ht="15.75" customHeight="1" s="191"/>
+    <row r="448" ht="15.75" customHeight="1" s="191"/>
+    <row r="449" ht="15.75" customHeight="1" s="191"/>
+    <row r="450" ht="15.75" customHeight="1" s="191"/>
+    <row r="451" ht="15.75" customHeight="1" s="191"/>
+    <row r="452" ht="15.75" customHeight="1" s="191"/>
+    <row r="453" ht="15.75" customHeight="1" s="191"/>
+    <row r="454" ht="15.75" customHeight="1" s="191"/>
+    <row r="455" ht="15.75" customHeight="1" s="191"/>
+    <row r="456" ht="15.75" customHeight="1" s="191"/>
+    <row r="457" ht="15.75" customHeight="1" s="191"/>
+    <row r="458" ht="15.75" customHeight="1" s="191"/>
+    <row r="459" ht="15.75" customHeight="1" s="191"/>
+    <row r="460" ht="15.75" customHeight="1" s="191"/>
+    <row r="461" ht="15.75" customHeight="1" s="191"/>
+    <row r="462" ht="15.75" customHeight="1" s="191"/>
+    <row r="463" ht="15.75" customHeight="1" s="191"/>
+    <row r="464" ht="15.75" customHeight="1" s="191"/>
+    <row r="465" ht="15.75" customHeight="1" s="191"/>
+    <row r="466" ht="15.75" customHeight="1" s="191"/>
+    <row r="467" ht="15.75" customHeight="1" s="191"/>
+    <row r="468" ht="15.75" customHeight="1" s="191"/>
+    <row r="469" ht="15.75" customHeight="1" s="191"/>
+    <row r="470" ht="15.75" customHeight="1" s="191"/>
+    <row r="471" ht="15.75" customHeight="1" s="191"/>
+    <row r="472" ht="15.75" customHeight="1" s="191"/>
+    <row r="473" ht="15.75" customHeight="1" s="191"/>
+    <row r="474" ht="15.75" customHeight="1" s="191"/>
+    <row r="475" ht="15.75" customHeight="1" s="191"/>
+    <row r="476" ht="15.75" customHeight="1" s="191"/>
+    <row r="477" ht="15.75" customHeight="1" s="191"/>
+    <row r="478" ht="15.75" customHeight="1" s="191"/>
+    <row r="479" ht="15.75" customHeight="1" s="191"/>
+    <row r="480" ht="15.75" customHeight="1" s="191"/>
+    <row r="481" ht="15.75" customHeight="1" s="191"/>
+    <row r="482" ht="15.75" customHeight="1" s="191"/>
+    <row r="483" ht="15.75" customHeight="1" s="191"/>
+    <row r="484" ht="15.75" customHeight="1" s="191"/>
+    <row r="485" ht="15.75" customHeight="1" s="191"/>
+    <row r="486" ht="15.75" customHeight="1" s="191"/>
+    <row r="487" ht="15.75" customHeight="1" s="191"/>
+    <row r="488" ht="15.75" customHeight="1" s="191"/>
+    <row r="489" ht="15.75" customHeight="1" s="191"/>
+    <row r="490" ht="15.75" customHeight="1" s="191"/>
+    <row r="491" ht="15.75" customHeight="1" s="191"/>
+    <row r="492" ht="15.75" customHeight="1" s="191"/>
+    <row r="493" ht="15.75" customHeight="1" s="191"/>
+    <row r="494" ht="15.75" customHeight="1" s="191"/>
+    <row r="495" ht="15.75" customHeight="1" s="191"/>
+    <row r="496" ht="15.75" customHeight="1" s="191"/>
+    <row r="497" ht="15.75" customHeight="1" s="191"/>
+    <row r="498" ht="15.75" customHeight="1" s="191"/>
+    <row r="499" ht="15.75" customHeight="1" s="191"/>
+    <row r="500" ht="15.75" customHeight="1" s="191"/>
+    <row r="501" ht="15.75" customHeight="1" s="191"/>
+    <row r="502" ht="15.75" customHeight="1" s="191"/>
+    <row r="503" ht="15.75" customHeight="1" s="191"/>
+    <row r="504" ht="15.75" customHeight="1" s="191"/>
+    <row r="505" ht="15.75" customHeight="1" s="191"/>
+    <row r="506" ht="15.75" customHeight="1" s="191"/>
+    <row r="507" ht="15.75" customHeight="1" s="191"/>
+    <row r="508" ht="15.75" customHeight="1" s="191"/>
+    <row r="509" ht="15.75" customHeight="1" s="191"/>
+    <row r="510" ht="15.75" customHeight="1" s="191"/>
+    <row r="511" ht="15.75" customHeight="1" s="191"/>
+    <row r="512" ht="15.75" customHeight="1" s="191"/>
+    <row r="513" ht="15.75" customHeight="1" s="191"/>
+    <row r="514" ht="15.75" customHeight="1" s="191"/>
+    <row r="515" ht="15.75" customHeight="1" s="191"/>
+    <row r="516" ht="15.75" customHeight="1" s="191"/>
+    <row r="517" ht="15.75" customHeight="1" s="191"/>
+    <row r="518" ht="15.75" customHeight="1" s="191"/>
+    <row r="519" ht="15.75" customHeight="1" s="191"/>
+    <row r="520" ht="15.75" customHeight="1" s="191"/>
+    <row r="521" ht="15.75" customHeight="1" s="191"/>
+    <row r="522" ht="15.75" customHeight="1" s="191"/>
+    <row r="523" ht="15.75" customHeight="1" s="191"/>
+    <row r="524" ht="15.75" customHeight="1" s="191"/>
+    <row r="525" ht="15.75" customHeight="1" s="191"/>
+    <row r="526" ht="15.75" customHeight="1" s="191"/>
+    <row r="527" ht="15.75" customHeight="1" s="191"/>
+    <row r="528" ht="15.75" customHeight="1" s="191"/>
+    <row r="529" ht="15.75" customHeight="1" s="191"/>
+    <row r="530" ht="15.75" customHeight="1" s="191"/>
+    <row r="531" ht="15.75" customHeight="1" s="191"/>
+    <row r="532" ht="15.75" customHeight="1" s="191"/>
+    <row r="533" ht="15.75" customHeight="1" s="191"/>
+    <row r="534" ht="15.75" customHeight="1" s="191"/>
+    <row r="535" ht="15.75" customHeight="1" s="191"/>
+    <row r="536" ht="15.75" customHeight="1" s="191"/>
+    <row r="537" ht="15.75" customHeight="1" s="191"/>
+    <row r="538" ht="15.75" customHeight="1" s="191"/>
+    <row r="539" ht="15.75" customHeight="1" s="191"/>
+    <row r="540" ht="15.75" customHeight="1" s="191"/>
+    <row r="541" ht="15.75" customHeight="1" s="191"/>
+    <row r="542" ht="15.75" customHeight="1" s="191"/>
+    <row r="543" ht="15.75" customHeight="1" s="191"/>
+    <row r="544" ht="15.75" customHeight="1" s="191"/>
+    <row r="545" ht="15.75" customHeight="1" s="191"/>
+    <row r="546" ht="15.75" customHeight="1" s="191"/>
+    <row r="547" ht="15.75" customHeight="1" s="191"/>
+    <row r="548" ht="15.75" customHeight="1" s="191"/>
+    <row r="549" ht="15.75" customHeight="1" s="191"/>
+    <row r="550" ht="15.75" customHeight="1" s="191"/>
+    <row r="551" ht="15.75" customHeight="1" s="191"/>
+    <row r="552" ht="15.75" customHeight="1" s="191"/>
+    <row r="553" ht="15.75" customHeight="1" s="191"/>
+    <row r="554" ht="15.75" customHeight="1" s="191"/>
+    <row r="555" ht="15.75" customHeight="1" s="191"/>
+    <row r="556" ht="15.75" customHeight="1" s="191"/>
+    <row r="557" ht="15.75" customHeight="1" s="191"/>
+    <row r="558" ht="15.75" customHeight="1" s="191"/>
+    <row r="559" ht="15.75" customHeight="1" s="191"/>
+    <row r="560" ht="15.75" customHeight="1" s="191"/>
+    <row r="561" ht="15.75" customHeight="1" s="191"/>
+    <row r="562" ht="15.75" customHeight="1" s="191"/>
+    <row r="563" ht="15.75" customHeight="1" s="191"/>
+    <row r="564" ht="15.75" customHeight="1" s="191"/>
+    <row r="565" ht="15.75" customHeight="1" s="191"/>
+    <row r="566" ht="15.75" customHeight="1" s="191"/>
+    <row r="567" ht="15.75" customHeight="1" s="191"/>
+    <row r="568" ht="15.75" customHeight="1" s="191"/>
+    <row r="569" ht="15.75" customHeight="1" s="191"/>
+    <row r="570" ht="15.75" customHeight="1" s="191"/>
+    <row r="571" ht="15.75" customHeight="1" s="191"/>
+    <row r="572" ht="15.75" customHeight="1" s="191"/>
+    <row r="573" ht="15.75" customHeight="1" s="191"/>
+    <row r="574" ht="15.75" customHeight="1" s="191"/>
+    <row r="575" ht="15.75" customHeight="1" s="191"/>
+    <row r="576" ht="15.75" customHeight="1" s="191"/>
+    <row r="577" ht="15.75" customHeight="1" s="191"/>
+    <row r="578" ht="15.75" customHeight="1" s="191"/>
+    <row r="579" ht="15.75" customHeight="1" s="191"/>
+    <row r="580" ht="15.75" customHeight="1" s="191"/>
+    <row r="581" ht="15.75" customHeight="1" s="191"/>
+    <row r="582" ht="15.75" customHeight="1" s="191"/>
+    <row r="583" ht="15.75" customHeight="1" s="191"/>
+    <row r="584" ht="15.75" customHeight="1" s="191"/>
+    <row r="585" ht="15.75" customHeight="1" s="191"/>
+    <row r="586" ht="15.75" customHeight="1" s="191"/>
+    <row r="587" ht="15.75" customHeight="1" s="191"/>
+    <row r="588" ht="15.75" customHeight="1" s="191"/>
+    <row r="589" ht="15.75" customHeight="1" s="191"/>
+    <row r="590" ht="15.75" customHeight="1" s="191"/>
+    <row r="591" ht="15.75" customHeight="1" s="191"/>
+    <row r="592" ht="15.75" customHeight="1" s="191"/>
+    <row r="593" ht="15.75" customHeight="1" s="191"/>
+    <row r="594" ht="15.75" customHeight="1" s="191"/>
+    <row r="595" ht="15.75" customHeight="1" s="191"/>
+    <row r="596" ht="15.75" customHeight="1" s="191"/>
+    <row r="597" ht="15.75" customHeight="1" s="191"/>
+    <row r="598" ht="15.75" customHeight="1" s="191"/>
+    <row r="599" ht="15.75" customHeight="1" s="191"/>
+    <row r="600" ht="15.75" customHeight="1" s="191"/>
+    <row r="601" ht="15.75" customHeight="1" s="191"/>
+    <row r="602" ht="15.75" customHeight="1" s="191"/>
+    <row r="603" ht="15.75" customHeight="1" s="191"/>
+    <row r="604" ht="15.75" customHeight="1" s="191"/>
+    <row r="605" ht="15.75" customHeight="1" s="191"/>
+    <row r="606" ht="15.75" customHeight="1" s="191"/>
+    <row r="607" ht="15.75" customHeight="1" s="191"/>
+    <row r="608" ht="15.75" customHeight="1" s="191"/>
+    <row r="609" ht="15.75" customHeight="1" s="191"/>
+    <row r="610" ht="15.75" customHeight="1" s="191"/>
+    <row r="611" ht="15.75" customHeight="1" s="191"/>
+    <row r="612" ht="15.75" customHeight="1" s="191"/>
+    <row r="613" ht="15.75" customHeight="1" s="191"/>
+    <row r="614" ht="15.75" customHeight="1" s="191"/>
+    <row r="615" ht="15.75" customHeight="1" s="191"/>
+    <row r="616" ht="15.75" customHeight="1" s="191"/>
+    <row r="617" ht="15.75" customHeight="1" s="191"/>
+    <row r="618" ht="15.75" customHeight="1" s="191"/>
+    <row r="619" ht="15.75" customHeight="1" s="191"/>
+    <row r="620" ht="15.75" customHeight="1" s="191"/>
+    <row r="621" ht="15.75" customHeight="1" s="191"/>
+    <row r="622" ht="15.75" customHeight="1" s="191"/>
+    <row r="623" ht="15.75" customHeight="1" s="191"/>
+    <row r="624" ht="15.75" customHeight="1" s="191"/>
+    <row r="625" ht="15.75" customHeight="1" s="191"/>
+    <row r="626" ht="15.75" customHeight="1" s="191"/>
+    <row r="627" ht="15.75" customHeight="1" s="191"/>
+    <row r="628" ht="15.75" customHeight="1" s="191"/>
+    <row r="629" ht="15.75" customHeight="1" s="191"/>
+    <row r="630" ht="15.75" customHeight="1" s="191"/>
+    <row r="631" ht="15.75" customHeight="1" s="191"/>
+    <row r="632" ht="15.75" customHeight="1" s="191"/>
+    <row r="633" ht="15.75" customHeight="1" s="191"/>
+    <row r="634" ht="15.75" customHeight="1" s="191"/>
+    <row r="635" ht="15.75" customHeight="1" s="191"/>
+    <row r="636" ht="15.75" customHeight="1" s="191"/>
+    <row r="637" ht="15.75" customHeight="1" s="191"/>
+    <row r="638" ht="15.75" customHeight="1" s="191"/>
+    <row r="639" ht="15.75" customHeight="1" s="191"/>
+    <row r="640" ht="15.75" customHeight="1" s="191"/>
+    <row r="641" ht="15.75" customHeight="1" s="191"/>
+    <row r="642" ht="15.75" customHeight="1" s="191"/>
+    <row r="643" ht="15.75" customHeight="1" s="191"/>
+    <row r="644" ht="15.75" customHeight="1" s="191"/>
+    <row r="645" ht="15.75" customHeight="1" s="191"/>
+    <row r="646" ht="15.75" customHeight="1" s="191"/>
+    <row r="647" ht="15.75" customHeight="1" s="191"/>
+    <row r="648" ht="15.75" customHeight="1" s="191"/>
+    <row r="649" ht="15.75" customHeight="1" s="191"/>
+    <row r="650" ht="15.75" customHeight="1" s="191"/>
+    <row r="651" ht="15.75" customHeight="1" s="191"/>
+    <row r="652" ht="15.75" customHeight="1" s="191"/>
+    <row r="653" ht="15.75" customHeight="1" s="191"/>
+    <row r="654" ht="15.75" customHeight="1" s="191"/>
+    <row r="655" ht="15.75" customHeight="1" s="191"/>
+    <row r="656" ht="15.75" customHeight="1" s="191"/>
+    <row r="657" ht="15.75" customHeight="1" s="191"/>
+    <row r="658" ht="15.75" customHeight="1" s="191"/>
+    <row r="659" ht="15.75" customHeight="1" s="191"/>
+    <row r="660" ht="15.75" customHeight="1" s="191"/>
+    <row r="661" ht="15.75" customHeight="1" s="191"/>
+    <row r="662" ht="15.75" customHeight="1" s="191"/>
+    <row r="663" ht="15.75" customHeight="1" s="191"/>
+    <row r="664" ht="15.75" customHeight="1" s="191"/>
+    <row r="665" ht="15.75" customHeight="1" s="191"/>
+    <row r="666" ht="15.75" customHeight="1" s="191"/>
+    <row r="667" ht="15.75" customHeight="1" s="191"/>
+    <row r="668" ht="15.75" customHeight="1" s="191"/>
+    <row r="669" ht="15.75" customHeight="1" s="191"/>
+    <row r="670" ht="15.75" customHeight="1" s="191"/>
+    <row r="671" ht="15.75" customHeight="1" s="191"/>
+    <row r="672" ht="15.75" customHeight="1" s="191"/>
+    <row r="673" ht="15.75" customHeight="1" s="191"/>
+    <row r="674" ht="15.75" customHeight="1" s="191"/>
+    <row r="675" ht="15.75" customHeight="1" s="191"/>
+    <row r="676" ht="15.75" customHeight="1" s="191"/>
+    <row r="677" ht="15.75" customHeight="1" s="191"/>
+    <row r="678" ht="15.75" customHeight="1" s="191"/>
+    <row r="679" ht="15.75" customHeight="1" s="191"/>
+    <row r="680" ht="15.75" customHeight="1" s="191"/>
+    <row r="681" ht="15.75" customHeight="1" s="191"/>
+    <row r="682" ht="15.75" customHeight="1" s="191"/>
+    <row r="683" ht="15.75" customHeight="1" s="191"/>
+    <row r="684" ht="15.75" customHeight="1" s="191"/>
+    <row r="685" ht="15.75" customHeight="1" s="191"/>
+    <row r="686" ht="15.75" customHeight="1" s="191"/>
+    <row r="687" ht="15.75" customHeight="1" s="191"/>
+    <row r="688" ht="15.75" customHeight="1" s="191"/>
+    <row r="689" ht="15.75" customHeight="1" s="191"/>
+    <row r="690" ht="15.75" customHeight="1" s="191"/>
+    <row r="691" ht="15.75" customHeight="1" s="191"/>
+    <row r="692" ht="15.75" customHeight="1" s="191"/>
+    <row r="693" ht="15.75" customHeight="1" s="191"/>
+    <row r="694" ht="15.75" customHeight="1" s="191"/>
+    <row r="695" ht="15.75" customHeight="1" s="191"/>
+    <row r="696" ht="15.75" customHeight="1" s="191"/>
+    <row r="697" ht="15.75" customHeight="1" s="191"/>
+    <row r="698" ht="15.75" customHeight="1" s="191"/>
+    <row r="699" ht="15.75" customHeight="1" s="191"/>
+    <row r="700" ht="15.75" customHeight="1" s="191"/>
+    <row r="701" ht="15.75" customHeight="1" s="191"/>
+    <row r="702" ht="15.75" customHeight="1" s="191"/>
+    <row r="703" ht="15.75" customHeight="1" s="191"/>
+    <row r="704" ht="15.75" customHeight="1" s="191"/>
+    <row r="705" ht="15.75" customHeight="1" s="191"/>
+    <row r="706" ht="15.75" customHeight="1" s="191"/>
+    <row r="707" ht="15.75" customHeight="1" s="191"/>
+    <row r="708" ht="15.75" customHeight="1" s="191"/>
+    <row r="709" ht="15.75" customHeight="1" s="191"/>
+    <row r="710" ht="15.75" customHeight="1" s="191"/>
+    <row r="711" ht="15.75" customHeight="1" s="191"/>
+    <row r="712" ht="15.75" customHeight="1" s="191"/>
+    <row r="713" ht="15.75" customHeight="1" s="191"/>
+    <row r="714" ht="15.75" customHeight="1" s="191"/>
+    <row r="715" ht="15.75" customHeight="1" s="191"/>
+    <row r="716" ht="15.75" customHeight="1" s="191"/>
+    <row r="717" ht="15.75" customHeight="1" s="191"/>
+    <row r="718" ht="15.75" customHeight="1" s="191"/>
+    <row r="719" ht="15.75" customHeight="1" s="191"/>
+    <row r="720" ht="15.75" customHeight="1" s="191"/>
+    <row r="721" ht="15.75" customHeight="1" s="191"/>
+    <row r="722" ht="15.75" customHeight="1" s="191"/>
+    <row r="723" ht="15.75" customHeight="1" s="191"/>
+    <row r="724" ht="15.75" customHeight="1" s="191"/>
+    <row r="725" ht="15.75" customHeight="1" s="191"/>
+    <row r="726" ht="15.75" customHeight="1" s="191"/>
+    <row r="727" ht="15.75" customHeight="1" s="191"/>
+    <row r="728" ht="15.75" customHeight="1" s="191"/>
+    <row r="729" ht="15.75" customHeight="1" s="191"/>
+    <row r="730" ht="15.75" customHeight="1" s="191"/>
+    <row r="731" ht="15.75" customHeight="1" s="191"/>
+    <row r="732" ht="15.75" customHeight="1" s="191"/>
+    <row r="733" ht="15.75" customHeight="1" s="191"/>
+    <row r="734" ht="15.75" customHeight="1" s="191"/>
+    <row r="735" ht="15.75" customHeight="1" s="191"/>
+    <row r="736" ht="15.75" customHeight="1" s="191"/>
+    <row r="737" ht="15.75" customHeight="1" s="191"/>
+    <row r="738" ht="15.75" customHeight="1" s="191"/>
+    <row r="739" ht="15.75" customHeight="1" s="191"/>
+    <row r="740" ht="15.75" customHeight="1" s="191"/>
+    <row r="741" ht="15.75" customHeight="1" s="191"/>
+    <row r="742" ht="15.75" customHeight="1" s="191"/>
+    <row r="743" ht="15.75" customHeight="1" s="191"/>
+    <row r="744" ht="15.75" customHeight="1" s="191"/>
+    <row r="745" ht="15.75" customHeight="1" s="191"/>
+    <row r="746" ht="15.75" customHeight="1" s="191"/>
+    <row r="747" ht="15.75" customHeight="1" s="191"/>
+    <row r="748" ht="15.75" customHeight="1" s="191"/>
+    <row r="749" ht="15.75" customHeight="1" s="191"/>
+    <row r="750" ht="15.75" customHeight="1" s="191"/>
+    <row r="751" ht="15.75" customHeight="1" s="191"/>
+    <row r="752" ht="15.75" customHeight="1" s="191"/>
+    <row r="753" ht="15.75" customHeight="1" s="191"/>
+    <row r="754" ht="15.75" customHeight="1" s="191"/>
+    <row r="755" ht="15.75" customHeight="1" s="191"/>
+    <row r="756" ht="15.75" customHeight="1" s="191"/>
+    <row r="757" ht="15.75" customHeight="1" s="191"/>
+    <row r="758" ht="15.75" customHeight="1" s="191"/>
+    <row r="759" ht="15.75" customHeight="1" s="191"/>
+    <row r="760" ht="15.75" customHeight="1" s="191"/>
+    <row r="761" ht="15.75" customHeight="1" s="191"/>
+    <row r="762" ht="15.75" customHeight="1" s="191"/>
+    <row r="763" ht="15.75" customHeight="1" s="191"/>
+    <row r="764" ht="15.75" customHeight="1" s="191"/>
+    <row r="765" ht="15.75" customHeight="1" s="191"/>
+    <row r="766" ht="15.75" customHeight="1" s="191"/>
+    <row r="767" ht="15.75" customHeight="1" s="191"/>
+    <row r="768" ht="15.75" customHeight="1" s="191"/>
+    <row r="769" ht="15.75" customHeight="1" s="191"/>
+    <row r="770" ht="15.75" customHeight="1" s="191"/>
+    <row r="771" ht="15.75" customHeight="1" s="191"/>
+    <row r="772" ht="15.75" customHeight="1" s="191"/>
+    <row r="773" ht="15.75" customHeight="1" s="191"/>
+    <row r="774" ht="15.75" customHeight="1" s="191"/>
+    <row r="775" ht="15.75" customHeight="1" s="191"/>
+    <row r="776" ht="15.75" customHeight="1" s="191"/>
+    <row r="777" ht="15.75" customHeight="1" s="191"/>
+    <row r="778" ht="15.75" customHeight="1" s="191"/>
+    <row r="779" ht="15.75" customHeight="1" s="191"/>
+    <row r="780" ht="15.75" customHeight="1" s="191"/>
+    <row r="781" ht="15.75" customHeight="1" s="191"/>
+    <row r="782" ht="15.75" customHeight="1" s="191"/>
+    <row r="783" ht="15.75" customHeight="1" s="191"/>
+    <row r="784" ht="15.75" customHeight="1" s="191"/>
+    <row r="785" ht="15.75" customHeight="1" s="191"/>
+    <row r="786" ht="15.75" customHeight="1" s="191"/>
+    <row r="787" ht="15.75" customHeight="1" s="191"/>
+    <row r="788" ht="15.75" customHeight="1" s="191"/>
+    <row r="789" ht="15.75" customHeight="1" s="191"/>
+    <row r="790" ht="15.75" customHeight="1" s="191"/>
+    <row r="791" ht="15.75" customHeight="1" s="191"/>
+    <row r="792" ht="15.75" customHeight="1" s="191"/>
+    <row r="793" ht="15.75" customHeight="1" s="191"/>
+    <row r="794" ht="15.75" customHeight="1" s="191"/>
+    <row r="795" ht="15.75" customHeight="1" s="191"/>
+    <row r="796" ht="15.75" customHeight="1" s="191"/>
+    <row r="797" ht="15.75" customHeight="1" s="191"/>
+    <row r="798" ht="15.75" customHeight="1" s="191"/>
+    <row r="799" ht="15.75" customHeight="1" s="191"/>
+    <row r="800" ht="15.75" customHeight="1" s="191"/>
+    <row r="801" ht="15.75" customHeight="1" s="191"/>
+    <row r="802" ht="15.75" customHeight="1" s="191"/>
+    <row r="803" ht="15.75" customHeight="1" s="191"/>
+    <row r="804" ht="15.75" customHeight="1" s="191"/>
+    <row r="805" ht="15.75" customHeight="1" s="191"/>
+    <row r="806" ht="15.75" customHeight="1" s="191"/>
+    <row r="807" ht="15.75" customHeight="1" s="191"/>
+    <row r="808" ht="15.75" customHeight="1" s="191"/>
+    <row r="809" ht="15.75" customHeight="1" s="191"/>
+    <row r="810" ht="15.75" customHeight="1" s="191"/>
+    <row r="811" ht="15.75" customHeight="1" s="191"/>
+    <row r="812" ht="15.75" customHeight="1" s="191"/>
+    <row r="813" ht="15.75" customHeight="1" s="191"/>
+    <row r="814" ht="15.75" customHeight="1" s="191"/>
+    <row r="815" ht="15.75" customHeight="1" s="191"/>
+    <row r="816" ht="15.75" customHeight="1" s="191"/>
+    <row r="817" ht="15.75" customHeight="1" s="191"/>
+    <row r="818" ht="15.75" customHeight="1" s="191"/>
+    <row r="819" ht="15.75" customHeight="1" s="191"/>
+    <row r="820" ht="15.75" customHeight="1" s="191"/>
+    <row r="821" ht="15.75" customHeight="1" s="191"/>
+    <row r="822" ht="15.75" customHeight="1" s="191"/>
+    <row r="823" ht="15.75" customHeight="1" s="191"/>
+    <row r="824" ht="15.75" customHeight="1" s="191"/>
+    <row r="825" ht="15.75" customHeight="1" s="191"/>
+    <row r="826" ht="15.75" customHeight="1" s="191"/>
+    <row r="827" ht="15.75" customHeight="1" s="191"/>
+    <row r="828" ht="15.75" customHeight="1" s="191"/>
+    <row r="829" ht="15.75" customHeight="1" s="191"/>
+    <row r="830" ht="15.75" customHeight="1" s="191"/>
+    <row r="831" ht="15.75" customHeight="1" s="191"/>
+    <row r="832" ht="15.75" customHeight="1" s="191"/>
+    <row r="833" ht="15.75" customHeight="1" s="191"/>
+    <row r="834" ht="15.75" customHeight="1" s="191"/>
+    <row r="835" ht="15.75" customHeight="1" s="191"/>
+    <row r="836" ht="15.75" customHeight="1" s="191"/>
+    <row r="837" ht="15.75" customHeight="1" s="191"/>
+    <row r="838" ht="15.75" customHeight="1" s="191"/>
+    <row r="839" ht="15.75" customHeight="1" s="191"/>
+    <row r="840" ht="15.75" customHeight="1" s="191"/>
+    <row r="841" ht="15.75" customHeight="1" s="191"/>
+    <row r="842" ht="15.75" customHeight="1" s="191"/>
+    <row r="843" ht="15.75" customHeight="1" s="191"/>
+    <row r="844" ht="15.75" customHeight="1" s="191"/>
+    <row r="845" ht="15.75" customHeight="1" s="191"/>
+    <row r="846" ht="15.75" customHeight="1" s="191"/>
+    <row r="847" ht="15.75" customHeight="1" s="191"/>
+    <row r="848" ht="15.75" customHeight="1" s="191"/>
+    <row r="849" ht="15.75" customHeight="1" s="191"/>
+    <row r="850" ht="15.75" customHeight="1" s="191"/>
+    <row r="851" ht="15.75" customHeight="1" s="191"/>
+    <row r="852" ht="15.75" customHeight="1" s="191"/>
+    <row r="853" ht="15.75" customHeight="1" s="191"/>
+    <row r="854" ht="15.75" customHeight="1" s="191"/>
+    <row r="855" ht="15.75" customHeight="1" s="191"/>
+    <row r="856" ht="15.75" customHeight="1" s="191"/>
+    <row r="857" ht="15.75" customHeight="1" s="191"/>
+    <row r="858" ht="15.75" customHeight="1" s="191"/>
+    <row r="859" ht="15.75" customHeight="1" s="191"/>
+    <row r="860" ht="15.75" customHeight="1" s="191"/>
+    <row r="861" ht="15.75" customHeight="1" s="191"/>
+    <row r="862" ht="15.75" customHeight="1" s="191"/>
+    <row r="863" ht="15.75" customHeight="1" s="191"/>
+    <row r="864" ht="15.75" customHeight="1" s="191"/>
+    <row r="865" ht="15.75" customHeight="1" s="191"/>
+    <row r="866" ht="15.75" customHeight="1" s="191"/>
+    <row r="867" ht="15.75" customHeight="1" s="191"/>
+    <row r="868" ht="15.75" customHeight="1" s="191"/>
+    <row r="869" ht="15.75" customHeight="1" s="191"/>
+    <row r="870" ht="15.75" customHeight="1" s="191"/>
+    <row r="871" ht="15.75" customHeight="1" s="191"/>
+    <row r="872" ht="15.75" customHeight="1" s="191"/>
+    <row r="873" ht="15.75" customHeight="1" s="191"/>
+    <row r="874" ht="15.75" customHeight="1" s="191"/>
+    <row r="875" ht="15.75" customHeight="1" s="191"/>
+    <row r="876" ht="15.75" customHeight="1" s="191"/>
+    <row r="877" ht="15.75" customHeight="1" s="191"/>
+    <row r="878" ht="15.75" customHeight="1" s="191"/>
+    <row r="879" ht="15.75" customHeight="1" s="191"/>
+    <row r="880" ht="15.75" customHeight="1" s="191"/>
+    <row r="881" ht="15.75" customHeight="1" s="191"/>
+    <row r="882" ht="15.75" customHeight="1" s="191"/>
+    <row r="883" ht="15.75" customHeight="1" s="191"/>
+    <row r="884" ht="15.75" customHeight="1" s="191"/>
+    <row r="885" ht="15.75" customHeight="1" s="191"/>
+    <row r="886" ht="15.75" customHeight="1" s="191"/>
+    <row r="887" ht="15.75" customHeight="1" s="191"/>
+    <row r="888" ht="15.75" customHeight="1" s="191"/>
+    <row r="889" ht="15.75" customHeight="1" s="191"/>
+    <row r="890" ht="15.75" customHeight="1" s="191"/>
+    <row r="891" ht="15.75" customHeight="1" s="191"/>
+    <row r="892" ht="15.75" customHeight="1" s="191"/>
+    <row r="893" ht="15.75" customHeight="1" s="191"/>
+    <row r="894" ht="15.75" customHeight="1" s="191"/>
+    <row r="895" ht="15.75" customHeight="1" s="191"/>
+    <row r="896" ht="15.75" customHeight="1" s="191"/>
+    <row r="897" ht="15.75" customHeight="1" s="191"/>
+    <row r="898" ht="15.75" customHeight="1" s="191"/>
+    <row r="899" ht="15.75" customHeight="1" s="191"/>
+    <row r="900" ht="15.75" customHeight="1" s="191"/>
+    <row r="901" ht="15.75" customHeight="1" s="191"/>
+    <row r="902" ht="15.75" customHeight="1" s="191"/>
+    <row r="903" ht="15.75" customHeight="1" s="191"/>
+    <row r="904" ht="15.75" customHeight="1" s="191"/>
+    <row r="905" ht="15.75" customHeight="1" s="191"/>
+    <row r="906" ht="15.75" customHeight="1" s="191"/>
+    <row r="907" ht="15.75" customHeight="1" s="191"/>
+    <row r="908" ht="15.75" customHeight="1" s="191"/>
+    <row r="909" ht="15.75" customHeight="1" s="191"/>
+    <row r="910" ht="15.75" customHeight="1" s="191"/>
+    <row r="911" ht="15.75" customHeight="1" s="191"/>
+    <row r="912" ht="15.75" customHeight="1" s="191"/>
+    <row r="913" ht="15.75" customHeight="1" s="191"/>
+    <row r="914" ht="15.75" customHeight="1" s="191"/>
+    <row r="915" ht="15.75" customHeight="1" s="191"/>
+    <row r="916" ht="15.75" customHeight="1" s="191"/>
+    <row r="917" ht="15.75" customHeight="1" s="191"/>
+    <row r="918" ht="15.75" customHeight="1" s="191"/>
+    <row r="919" ht="15.75" customHeight="1" s="191"/>
+    <row r="920" ht="15.75" customHeight="1" s="191"/>
+    <row r="921" ht="15.75" customHeight="1" s="191"/>
+    <row r="922" ht="15.75" customHeight="1" s="191"/>
+    <row r="923" ht="15.75" customHeight="1" s="191"/>
+    <row r="924" ht="15.75" customHeight="1" s="191"/>
+    <row r="925" ht="15.75" customHeight="1" s="191"/>
+    <row r="926" ht="15.75" customHeight="1" s="191"/>
+    <row r="927" ht="15.75" customHeight="1" s="191"/>
+    <row r="928" ht="15.75" customHeight="1" s="191"/>
+    <row r="929" ht="15.75" customHeight="1" s="191"/>
+    <row r="930" ht="15.75" customHeight="1" s="191"/>
+    <row r="931" ht="15.75" customHeight="1" s="191"/>
+    <row r="932" ht="15.75" customHeight="1" s="191"/>
+    <row r="933" ht="15.75" customHeight="1" s="191"/>
+    <row r="934" ht="15.75" customHeight="1" s="191"/>
+    <row r="935" ht="15.75" customHeight="1" s="191"/>
+    <row r="936" ht="15.75" customHeight="1" s="191"/>
+    <row r="937" ht="15.75" customHeight="1" s="191"/>
+    <row r="938" ht="15.75" customHeight="1" s="191"/>
+    <row r="939" ht="15.75" customHeight="1" s="191"/>
+    <row r="940" ht="15.75" customHeight="1" s="191"/>
+    <row r="941" ht="15.75" customHeight="1" s="191"/>
+    <row r="942" ht="15.75" customHeight="1" s="191"/>
+    <row r="943" ht="15.75" customHeight="1" s="191"/>
+    <row r="944" ht="15.75" customHeight="1" s="191"/>
+    <row r="945" ht="15.75" customHeight="1" s="191"/>
+    <row r="946" ht="15.75" customHeight="1" s="191"/>
+    <row r="947" ht="15.75" customHeight="1" s="191"/>
+    <row r="948" ht="15.75" customHeight="1" s="191"/>
+    <row r="949" ht="15.75" customHeight="1" s="191"/>
+    <row r="950" ht="15.75" customHeight="1" s="191"/>
+    <row r="951" ht="15.75" customHeight="1" s="191"/>
+    <row r="952" ht="15.75" customHeight="1" s="191"/>
+    <row r="953" ht="15.75" customHeight="1" s="191"/>
+    <row r="954" ht="15.75" customHeight="1" s="191"/>
+    <row r="955" ht="15.75" customHeight="1" s="191"/>
+    <row r="956" ht="15.75" customHeight="1" s="191"/>
+    <row r="957" ht="15.75" customHeight="1" s="191"/>
+    <row r="958" ht="15.75" customHeight="1" s="191"/>
+    <row r="959" ht="15.75" customHeight="1" s="191"/>
+    <row r="960" ht="15.75" customHeight="1" s="191"/>
+    <row r="961" ht="15.75" customHeight="1" s="191"/>
+    <row r="962" ht="15.75" customHeight="1" s="191"/>
+    <row r="963" ht="15.75" customHeight="1" s="191"/>
+    <row r="964" ht="15.75" customHeight="1" s="191"/>
+    <row r="965" ht="15.75" customHeight="1" s="191"/>
+    <row r="966" ht="15.75" customHeight="1" s="191"/>
+    <row r="967" ht="15.75" customHeight="1" s="191"/>
+    <row r="968" ht="15.75" customHeight="1" s="191"/>
+    <row r="969" ht="15.75" customHeight="1" s="191"/>
+    <row r="970" ht="15.75" customHeight="1" s="191"/>
+    <row r="971" ht="15.75" customHeight="1" s="191"/>
+    <row r="972" ht="15.75" customHeight="1" s="191"/>
+    <row r="973" ht="15.75" customHeight="1" s="191"/>
+    <row r="974" ht="15.75" customHeight="1" s="191"/>
+    <row r="975" ht="15.75" customHeight="1" s="191"/>
+    <row r="976" ht="15.75" customHeight="1" s="191"/>
+    <row r="977" ht="15.75" customHeight="1" s="191"/>
+    <row r="978" ht="15.75" customHeight="1" s="191"/>
+    <row r="979" ht="15.75" customHeight="1" s="191"/>
+    <row r="980" ht="15.75" customHeight="1" s="191"/>
+    <row r="981" ht="15.75" customHeight="1" s="191"/>
+    <row r="982" ht="15.75" customHeight="1" s="191"/>
+    <row r="983" ht="15.75" customHeight="1" s="191"/>
+    <row r="984" ht="15.75" customHeight="1" s="191"/>
+    <row r="985" ht="15.75" customHeight="1" s="191"/>
+    <row r="986" ht="15.75" customHeight="1" s="191"/>
+    <row r="987" ht="15.75" customHeight="1" s="191"/>
+    <row r="988" ht="15.75" customHeight="1" s="191"/>
+    <row r="989" ht="15.75" customHeight="1" s="191"/>
+    <row r="990" ht="15.75" customHeight="1" s="191"/>
+    <row r="991" ht="15.75" customHeight="1" s="191"/>
+    <row r="992" ht="15.75" customHeight="1" s="191"/>
+    <row r="993" ht="15.75" customHeight="1" s="191"/>
+    <row r="994" ht="15.75" customHeight="1" s="191"/>
+    <row r="995" ht="15.75" customHeight="1" s="191"/>
+    <row r="996" ht="15.75" customHeight="1" s="191"/>
+    <row r="997" ht="15.75" customHeight="1" s="191"/>
+    <row r="998" ht="15.75" customHeight="1" s="191"/>
+    <row r="999" ht="15.75" customHeight="1" s="191"/>
+    <row r="1000" ht="15.75" customHeight="1" s="191"/>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
     <mergeCell ref="S42:T42"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C16:L16"/>
@@ -6311,6 +6292,37 @@
     <mergeCell ref="H39:L40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="J59:J60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -6331,25 +6343,25 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="2.42578125" customWidth="1" style="211" min="1" max="1"/>
-    <col width="4.42578125" customWidth="1" style="211" min="2" max="2"/>
-    <col width="16.7109375" customWidth="1" style="211" min="3" max="4"/>
-    <col width="8.7109375" customWidth="1" style="211" min="5" max="5"/>
-    <col width="4.42578125" customWidth="1" style="211" min="6" max="6"/>
-    <col width="16.7109375" customWidth="1" style="211" min="7" max="8"/>
-    <col width="7.42578125" customWidth="1" style="211" min="9" max="9"/>
-    <col width="4" customWidth="1" style="211" min="10" max="10"/>
-    <col width="16.85546875" customWidth="1" style="211" min="11" max="12"/>
-    <col width="8.7109375" customWidth="1" style="211" min="13" max="13"/>
-    <col width="4.140625" customWidth="1" style="211" min="14" max="14"/>
-    <col width="16.7109375" customWidth="1" style="211" min="15" max="17"/>
-    <col width="8.7109375" customWidth="1" style="211" min="18" max="26"/>
-    <col width="14.42578125" customWidth="1" style="211" min="27" max="29"/>
-    <col width="14.42578125" customWidth="1" style="211" min="30" max="16384"/>
+    <col width="2.42578125" customWidth="1" style="217" min="1" max="1"/>
+    <col width="4.42578125" customWidth="1" style="217" min="2" max="2"/>
+    <col width="16.7109375" customWidth="1" style="217" min="3" max="4"/>
+    <col width="8.7109375" customWidth="1" style="217" min="5" max="5"/>
+    <col width="4.42578125" customWidth="1" style="217" min="6" max="6"/>
+    <col width="16.7109375" customWidth="1" style="217" min="7" max="8"/>
+    <col width="7.42578125" customWidth="1" style="217" min="9" max="9"/>
+    <col width="4" customWidth="1" style="217" min="10" max="10"/>
+    <col width="16.85546875" customWidth="1" style="217" min="11" max="12"/>
+    <col width="8.7109375" customWidth="1" style="217" min="13" max="13"/>
+    <col width="4.140625" customWidth="1" style="217" min="14" max="14"/>
+    <col width="16.7109375" customWidth="1" style="217" min="15" max="17"/>
+    <col width="8.7109375" customWidth="1" style="217" min="18" max="26"/>
+    <col width="14.42578125" customWidth="1" style="217" min="27" max="30"/>
+    <col width="14.42578125" customWidth="1" style="217" min="31" max="16384"/>
   </cols>
   <sheetData>
-    <row r="2" ht="26.25" customHeight="1" s="202">
-      <c r="C2" s="212" t="inlineStr">
+    <row r="2" ht="26.25" customHeight="1" s="191">
+      <c r="C2" s="218" t="inlineStr">
         <is>
           <t xml:space="preserve">EURO 2020 </t>
         </is>
@@ -6643,21 +6655,21 @@
       <c r="K15" s="100" t="n"/>
       <c r="L15" s="100" t="n"/>
     </row>
-    <row r="16" ht="39.75" customHeight="1" s="202">
-      <c r="C16" s="213" t="inlineStr">
+    <row r="16" ht="39.75" customHeight="1" s="191">
+      <c r="C16" s="219" t="inlineStr">
         <is>
           <t>Group Stage predictions are made in a single submission and are due by Thursday Evening June 10th, 2021.</t>
         </is>
       </c>
-      <c r="D16" s="214" t="n"/>
-      <c r="E16" s="214" t="n"/>
-      <c r="F16" s="214" t="n"/>
-      <c r="G16" s="214" t="n"/>
-      <c r="H16" s="214" t="n"/>
-      <c r="I16" s="214" t="n"/>
-      <c r="J16" s="214" t="n"/>
-      <c r="K16" s="214" t="n"/>
-      <c r="L16" s="214" t="n"/>
+      <c r="D16" s="220" t="n"/>
+      <c r="E16" s="220" t="n"/>
+      <c r="F16" s="220" t="n"/>
+      <c r="G16" s="220" t="n"/>
+      <c r="H16" s="220" t="n"/>
+      <c r="I16" s="220" t="n"/>
+      <c r="J16" s="220" t="n"/>
+      <c r="K16" s="220" t="n"/>
+      <c r="L16" s="220" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="136" t="inlineStr">
@@ -6665,19 +6677,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D17" s="215" t="n"/>
-      <c r="E17" s="216" t="n"/>
-      <c r="F17" s="216" t="n"/>
-      <c r="G17" s="217" t="n"/>
-      <c r="H17" s="218" t="inlineStr">
+      <c r="D17" s="221" t="n"/>
+      <c r="E17" s="222" t="n"/>
+      <c r="F17" s="222" t="n"/>
+      <c r="G17" s="223" t="n"/>
+      <c r="H17" s="224" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I17" s="216" t="n"/>
-      <c r="J17" s="216" t="n"/>
-      <c r="K17" s="216" t="n"/>
-      <c r="L17" s="217" t="n"/>
+      <c r="I17" s="222" t="n"/>
+      <c r="J17" s="222" t="n"/>
+      <c r="K17" s="222" t="n"/>
+      <c r="L17" s="223" t="n"/>
     </row>
     <row r="18">
       <c r="C18" s="137" t="inlineStr">
@@ -6685,15 +6697,15 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D18" s="221" t="n"/>
-      <c r="E18" s="214" t="n"/>
-      <c r="F18" s="214" t="n"/>
-      <c r="G18" s="220" t="n"/>
-      <c r="H18" s="219" t="n"/>
-      <c r="I18" s="214" t="n"/>
-      <c r="J18" s="214" t="n"/>
-      <c r="K18" s="214" t="n"/>
-      <c r="L18" s="220" t="n"/>
+      <c r="D18" s="227" t="n"/>
+      <c r="E18" s="220" t="n"/>
+      <c r="F18" s="220" t="n"/>
+      <c r="G18" s="226" t="n"/>
+      <c r="H18" s="225" t="n"/>
+      <c r="I18" s="220" t="n"/>
+      <c r="J18" s="220" t="n"/>
+      <c r="K18" s="220" t="n"/>
+      <c r="L18" s="226" t="n"/>
     </row>
     <row r="19">
       <c r="C19" s="100" t="n"/>
@@ -6701,36 +6713,36 @@
     <row r="20">
       <c r="A20" s="138" t="n"/>
       <c r="B20" s="138" t="n"/>
-      <c r="C20" s="222" t="inlineStr">
+      <c r="C20" s="228" t="inlineStr">
         <is>
           <t>Match Day 1</t>
         </is>
       </c>
-      <c r="D20" s="216" t="n"/>
+      <c r="D20" s="222" t="n"/>
       <c r="E20" s="139" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
-      <c r="F20" s="210" t="n"/>
-      <c r="G20" s="222" t="inlineStr">
+      <c r="F20" s="216" t="n"/>
+      <c r="G20" s="228" t="inlineStr">
         <is>
           <t>Match Day 2</t>
         </is>
       </c>
-      <c r="H20" s="216" t="n"/>
+      <c r="H20" s="222" t="n"/>
       <c r="I20" s="139" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
-      <c r="J20" s="210" t="n"/>
-      <c r="K20" s="222" t="inlineStr">
+      <c r="J20" s="216" t="n"/>
+      <c r="K20" s="228" t="inlineStr">
         <is>
           <t>Match Day 3</t>
         </is>
       </c>
-      <c r="L20" s="216" t="n"/>
+      <c r="L20" s="222" t="n"/>
       <c r="M20" s="139" t="inlineStr">
         <is>
           <t>Results</t>
@@ -6750,7 +6762,7 @@
       <c r="Y20" s="138" t="n"/>
       <c r="Z20" s="138" t="n"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1" s="202">
+    <row r="21" ht="15.75" customHeight="1" s="191">
       <c r="C21" s="140" t="inlineStr">
         <is>
           <t>Turkey</t>
@@ -6803,7 +6815,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1" s="202">
+    <row r="22" ht="15.75" customHeight="1" s="191">
       <c r="C22" s="148" t="n"/>
       <c r="D22" s="143" t="n"/>
       <c r="E22" s="149" t="n"/>
@@ -6840,7 +6852,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1" s="202">
+    <row r="23" ht="15.75" customHeight="1" s="191">
       <c r="C23" s="140" t="inlineStr">
         <is>
           <t>Wales</t>
@@ -6879,7 +6891,7 @@
       <c r="L23" s="143" t="n"/>
       <c r="M23" s="149" t="n"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1" s="202">
+    <row r="24" ht="15.75" customHeight="1" s="191">
       <c r="C24" s="144" t="inlineStr">
         <is>
           <t>Denmark</t>
@@ -6918,7 +6930,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1" s="202">
+    <row r="25" ht="15.75" customHeight="1" s="191">
       <c r="C25" s="144" t="inlineStr">
         <is>
           <t>Belgium</t>
@@ -6969,7 +6981,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1" s="202">
+    <row r="26" ht="15.75" customHeight="1" s="191">
       <c r="C26" s="148" t="n"/>
       <c r="D26" s="143" t="n"/>
       <c r="E26" s="149" t="n"/>
@@ -7006,7 +7018,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1" s="202">
+    <row r="27" ht="15.75" customHeight="1" s="191">
       <c r="C27" s="153" t="inlineStr">
         <is>
           <t>England</t>
@@ -7057,7 +7069,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1" s="202">
+    <row r="28" ht="15.75" customHeight="1" s="191">
       <c r="C28" s="150" t="inlineStr">
         <is>
           <t>Austria</t>
@@ -7084,7 +7096,7 @@
       <c r="L28" s="143" t="n"/>
       <c r="M28" s="149" t="n"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1" s="202">
+    <row r="29" ht="15.75" customHeight="1" s="191">
       <c r="C29" s="150" t="inlineStr">
         <is>
           <t>Netherlands</t>
@@ -7135,7 +7147,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1" s="202">
+    <row r="30" ht="15.75" customHeight="1" s="191">
       <c r="C30" s="148" t="n"/>
       <c r="D30" s="143" t="n"/>
       <c r="E30" s="149" t="n"/>
@@ -7172,7 +7184,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1" s="202">
+    <row r="31" ht="15.75" customHeight="1" s="191">
       <c r="C31" s="153" t="inlineStr">
         <is>
           <t>Scotland</t>
@@ -7211,7 +7223,7 @@
       <c r="L31" s="143" t="n"/>
       <c r="M31" s="149" t="n"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1" s="202">
+    <row r="32" ht="15.75" customHeight="1" s="191">
       <c r="C32" s="156" t="inlineStr">
         <is>
           <t>Poland</t>
@@ -7250,7 +7262,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1" s="202">
+    <row r="33" ht="15.75" customHeight="1" s="191">
       <c r="C33" s="156" t="inlineStr">
         <is>
           <t>Spain</t>
@@ -7301,7 +7313,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1" s="202">
+    <row r="34" ht="15.75" customHeight="1" s="191">
       <c r="C34" s="148" t="n"/>
       <c r="D34" s="143" t="n"/>
       <c r="E34" s="149" t="n"/>
@@ -7338,7 +7350,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1" s="202">
+    <row r="35" ht="15.75" customHeight="1" s="191">
       <c r="C35" s="159" t="inlineStr">
         <is>
           <t>Hungary</t>
@@ -7389,7 +7401,7 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1" s="202">
+    <row r="36" ht="15.75" customHeight="1" s="191">
       <c r="C36" s="162" t="inlineStr">
         <is>
           <t>France</t>
@@ -7416,70 +7428,70 @@
       <c r="L36" s="166" t="n"/>
       <c r="M36" s="167" t="n"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1" s="202"/>
-    <row r="38" ht="39.75" customHeight="1" s="202">
-      <c r="C38" s="213" t="inlineStr">
+    <row r="37" ht="15.75" customHeight="1" s="191"/>
+    <row r="38" ht="39.75" customHeight="1" s="191">
+      <c r="C38" s="219" t="inlineStr">
         <is>
           <t xml:space="preserve">We'll do the competition in two halves since the Round of 16 is heavily dependent on the Group Stages. </t>
         </is>
       </c>
-      <c r="D38" s="214" t="n"/>
-      <c r="E38" s="214" t="n"/>
-      <c r="F38" s="214" t="n"/>
-      <c r="G38" s="214" t="n"/>
-      <c r="H38" s="214" t="n"/>
-      <c r="I38" s="214" t="n"/>
-      <c r="J38" s="214" t="n"/>
-      <c r="K38" s="214" t="n"/>
-      <c r="L38" s="214" t="n"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1" s="202">
+      <c r="D38" s="220" t="n"/>
+      <c r="E38" s="220" t="n"/>
+      <c r="F38" s="220" t="n"/>
+      <c r="G38" s="220" t="n"/>
+      <c r="H38" s="220" t="n"/>
+      <c r="I38" s="220" t="n"/>
+      <c r="J38" s="220" t="n"/>
+      <c r="K38" s="220" t="n"/>
+      <c r="L38" s="220" t="n"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1" s="191">
       <c r="C39" s="136" t="inlineStr">
         <is>
           <t>Name:</t>
         </is>
       </c>
-      <c r="D39" s="215" t="n"/>
-      <c r="E39" s="216" t="n"/>
-      <c r="F39" s="216" t="n"/>
-      <c r="G39" s="217" t="n"/>
-      <c r="H39" s="218" t="inlineStr">
+      <c r="D39" s="221" t="n"/>
+      <c r="E39" s="222" t="n"/>
+      <c r="F39" s="222" t="n"/>
+      <c r="G39" s="223" t="n"/>
+      <c r="H39" s="224" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULTS         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I39" s="216" t="n"/>
-      <c r="J39" s="216" t="n"/>
-      <c r="K39" s="216" t="n"/>
-      <c r="L39" s="217" t="n"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1" s="202">
+      <c r="I39" s="222" t="n"/>
+      <c r="J39" s="222" t="n"/>
+      <c r="K39" s="222" t="n"/>
+      <c r="L39" s="223" t="n"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1" s="191">
       <c r="C40" s="137" t="inlineStr">
         <is>
           <t>Date:</t>
         </is>
       </c>
-      <c r="D40" s="221" t="n"/>
-      <c r="E40" s="214" t="n"/>
-      <c r="F40" s="214" t="n"/>
-      <c r="G40" s="220" t="n"/>
-      <c r="H40" s="219" t="n"/>
-      <c r="I40" s="214" t="n"/>
-      <c r="J40" s="214" t="n"/>
-      <c r="K40" s="214" t="n"/>
-      <c r="L40" s="220" t="n"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1" s="202">
+      <c r="D40" s="227" t="n"/>
+      <c r="E40" s="220" t="n"/>
+      <c r="F40" s="220" t="n"/>
+      <c r="G40" s="226" t="n"/>
+      <c r="H40" s="225" t="n"/>
+      <c r="I40" s="220" t="n"/>
+      <c r="J40" s="220" t="n"/>
+      <c r="K40" s="220" t="n"/>
+      <c r="L40" s="226" t="n"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1" s="191">
       <c r="B41" s="168" t="n"/>
       <c r="C41" s="169" t="n"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1" s="202">
-      <c r="B42" s="223" t="inlineStr">
+    <row r="42" ht="15.75" customHeight="1" s="191">
+      <c r="B42" s="229" t="inlineStr">
         <is>
           <t>Round of 16</t>
         </is>
       </c>
-      <c r="C42" s="214" t="n"/>
+      <c r="C42" s="220" t="n"/>
       <c r="D42" s="170" t="inlineStr">
         <is>
           <t>Results</t>
@@ -7523,12 +7535,12 @@
       </c>
       <c r="Q42" s="138" t="n"/>
       <c r="R42" s="171" t="n"/>
-      <c r="S42" s="210" t="n"/>
+      <c r="S42" s="216" t="n"/>
       <c r="U42" s="138" t="n"/>
       <c r="V42" s="171" t="n"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1" s="202">
-      <c r="B43" s="224" t="inlineStr">
+    <row r="43" ht="15.75" customHeight="1" s="191">
+      <c r="B43" s="210" t="inlineStr">
         <is>
           <t>R1</t>
         </is>
@@ -7538,7 +7550,7 @@
           <t>Winner Group A</t>
         </is>
       </c>
-      <c r="D43" s="226" t="n"/>
+      <c r="D43" s="212" t="n"/>
       <c r="E43" s="171" t="n"/>
       <c r="F43" s="171" t="n"/>
       <c r="O43" s="171" t="n"/>
@@ -7550,16 +7562,16 @@
       <c r="U43" s="171" t="n"/>
       <c r="V43" s="171" t="n"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B44" s="225" t="n"/>
+    <row r="44" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B44" s="211" t="n"/>
       <c r="C44" s="173" t="inlineStr">
         <is>
           <t>2nd Group C</t>
         </is>
       </c>
-      <c r="D44" s="225" t="n"/>
+      <c r="D44" s="211" t="n"/>
       <c r="E44" s="174" t="n"/>
-      <c r="F44" s="227" t="inlineStr">
+      <c r="F44" s="214" t="inlineStr">
         <is>
           <t>QF1</t>
         </is>
@@ -7569,7 +7581,7 @@
           <t>Winner R1</t>
         </is>
       </c>
-      <c r="H44" s="226" t="n"/>
+      <c r="H44" s="212" t="n"/>
       <c r="O44" s="171" t="n"/>
       <c r="P44" s="171" t="n"/>
       <c r="Q44" s="171" t="n"/>
@@ -7579,18 +7591,18 @@
       <c r="U44" s="171" t="n"/>
       <c r="V44" s="171" t="n"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1" s="202" thickBot="1">
+    <row r="45" ht="15.75" customHeight="1" s="191" thickBot="1">
       <c r="B45" s="138" t="n"/>
       <c r="C45" s="171" t="n"/>
       <c r="D45" s="176" t="n"/>
       <c r="E45" s="177" t="n"/>
-      <c r="F45" s="225" t="n"/>
+      <c r="F45" s="211" t="n"/>
       <c r="G45" s="178" t="inlineStr">
         <is>
           <t>Winner R2</t>
         </is>
       </c>
-      <c r="H45" s="225" t="n"/>
+      <c r="H45" s="211" t="n"/>
       <c r="O45" s="171" t="n"/>
       <c r="P45" s="171" t="n"/>
       <c r="Q45" s="171" t="n"/>
@@ -7600,8 +7612,8 @@
       <c r="U45" s="171" t="n"/>
       <c r="V45" s="171" t="n"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1" s="202">
-      <c r="B46" s="224" t="inlineStr">
+    <row r="46" ht="15.75" customHeight="1" s="191">
+      <c r="B46" s="210" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
@@ -7611,7 +7623,7 @@
           <t>Winner Group B</t>
         </is>
       </c>
-      <c r="D46" s="226" t="n"/>
+      <c r="D46" s="212" t="n"/>
       <c r="E46" s="171" t="n"/>
       <c r="F46" s="171" t="n"/>
       <c r="G46" s="179" t="n"/>
@@ -7625,20 +7637,20 @@
       <c r="U46" s="171" t="n"/>
       <c r="V46" s="171" t="n"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B47" s="225" t="n"/>
+    <row r="47" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B47" s="211" t="n"/>
       <c r="C47" s="173" t="inlineStr">
         <is>
           <t>3rd Group A/D/E/F</t>
         </is>
       </c>
-      <c r="D47" s="225" t="n"/>
+      <c r="D47" s="211" t="n"/>
       <c r="E47" s="171" t="n"/>
       <c r="F47" s="171" t="n"/>
       <c r="G47" s="179" t="n"/>
       <c r="H47" s="181" t="n"/>
       <c r="I47" s="177" t="n"/>
-      <c r="J47" s="228" t="inlineStr">
+      <c r="J47" s="213" t="inlineStr">
         <is>
           <t>SF1</t>
         </is>
@@ -7648,16 +7660,16 @@
           <t>Winner QF1</t>
         </is>
       </c>
-      <c r="L47" s="226" t="n"/>
+      <c r="L47" s="212" t="n"/>
       <c r="O47" s="171" t="n"/>
       <c r="P47" s="171" t="n"/>
       <c r="Q47" s="171" t="n"/>
       <c r="R47" s="171" t="n"/>
-      <c r="S47" s="210" t="n"/>
+      <c r="S47" s="216" t="n"/>
       <c r="U47" s="138" t="n"/>
       <c r="V47" s="171" t="n"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1" s="202">
+    <row r="48" ht="15.75" customHeight="1" s="191">
       <c r="B48" s="138" t="n"/>
       <c r="C48" s="171" t="n"/>
       <c r="D48" s="176" t="n"/>
@@ -7665,13 +7677,13 @@
       <c r="F48" s="171" t="n"/>
       <c r="G48" s="179" t="n"/>
       <c r="H48" s="181" t="n"/>
-      <c r="J48" s="225" t="n"/>
+      <c r="J48" s="211" t="n"/>
       <c r="K48" s="165" t="inlineStr">
         <is>
           <t>Winner QF2</t>
         </is>
       </c>
-      <c r="L48" s="225" t="n"/>
+      <c r="L48" s="211" t="n"/>
       <c r="O48" s="171" t="n"/>
       <c r="P48" s="171" t="n"/>
       <c r="Q48" s="171" t="n"/>
@@ -7681,8 +7693,8 @@
       <c r="U48" s="171" t="n"/>
       <c r="V48" s="171" t="n"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1" s="202">
-      <c r="B49" s="224" t="inlineStr">
+    <row r="49" ht="15.75" customHeight="1" s="191">
+      <c r="B49" s="210" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
@@ -7692,7 +7704,7 @@
           <t>Winner Group F</t>
         </is>
       </c>
-      <c r="D49" s="226" t="n"/>
+      <c r="D49" s="212" t="n"/>
       <c r="E49" s="171" t="n"/>
       <c r="F49" s="171" t="n"/>
       <c r="G49" s="179" t="n"/>
@@ -7700,16 +7712,16 @@
       <c r="K49" s="143" t="n"/>
       <c r="L49" s="180" t="n"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B50" s="225" t="n"/>
+    <row r="50" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B50" s="211" t="n"/>
       <c r="C50" s="173" t="inlineStr">
         <is>
           <t>3rd Group A/B/C</t>
         </is>
       </c>
-      <c r="D50" s="225" t="n"/>
+      <c r="D50" s="211" t="n"/>
       <c r="E50" s="177" t="n"/>
-      <c r="F50" s="227" t="inlineStr">
+      <c r="F50" s="214" t="inlineStr">
         <is>
           <t>QF2</t>
         </is>
@@ -7719,27 +7731,27 @@
           <t>Winner R3</t>
         </is>
       </c>
-      <c r="H50" s="226" t="n"/>
+      <c r="H50" s="212" t="n"/>
       <c r="K50" s="143" t="n"/>
       <c r="L50" s="181" t="n"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1" s="202" thickBot="1">
+    <row r="51" ht="15.75" customHeight="1" s="191" thickBot="1">
       <c r="B51" s="138" t="n"/>
       <c r="C51" s="171" t="n"/>
       <c r="D51" s="176" t="n"/>
       <c r="E51" s="177" t="n"/>
-      <c r="F51" s="225" t="n"/>
+      <c r="F51" s="211" t="n"/>
       <c r="G51" s="178" t="inlineStr">
         <is>
           <t>Winner R4</t>
         </is>
       </c>
-      <c r="H51" s="225" t="n"/>
+      <c r="H51" s="211" t="n"/>
       <c r="K51" s="143" t="n"/>
       <c r="L51" s="181" t="n"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B52" s="224" t="inlineStr">
+    <row r="52" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B52" s="210" t="inlineStr">
         <is>
           <t>R4</t>
         </is>
@@ -7749,7 +7761,7 @@
           <t>2nd Group D</t>
         </is>
       </c>
-      <c r="D52" s="226" t="n"/>
+      <c r="D52" s="212" t="n"/>
       <c r="E52" s="171" t="n"/>
       <c r="F52" s="171" t="n"/>
       <c r="G52" s="179" t="n"/>
@@ -7757,7 +7769,7 @@
       <c r="K52" s="143" t="n"/>
       <c r="L52" s="181" t="n"/>
       <c r="M52" s="177" t="n"/>
-      <c r="N52" s="229" t="inlineStr">
+      <c r="N52" s="215" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -7767,31 +7779,31 @@
           <t>Winner SF1</t>
         </is>
       </c>
-      <c r="P52" s="226" t="n"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1" s="202">
-      <c r="B53" s="225" t="n"/>
+      <c r="P52" s="212" t="n"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1" s="191">
+      <c r="B53" s="211" t="n"/>
       <c r="C53" s="173" t="inlineStr">
         <is>
           <t>2nd Group E</t>
         </is>
       </c>
-      <c r="D53" s="225" t="n"/>
+      <c r="D53" s="211" t="n"/>
       <c r="E53" s="171" t="n"/>
       <c r="F53" s="171" t="n"/>
       <c r="G53" s="179" t="n"/>
       <c r="H53" s="176" t="n"/>
       <c r="K53" s="143" t="n"/>
       <c r="L53" s="181" t="n"/>
-      <c r="N53" s="225" t="n"/>
+      <c r="N53" s="211" t="n"/>
       <c r="O53" s="165" t="inlineStr">
         <is>
           <t>Winner SF2</t>
         </is>
       </c>
-      <c r="P53" s="225" t="n"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1" s="202">
+      <c r="P53" s="211" t="n"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1" s="191">
       <c r="B54" s="138" t="n"/>
       <c r="C54" s="171" t="n"/>
       <c r="D54" s="176" t="n"/>
@@ -7802,8 +7814,8 @@
       <c r="K54" s="143" t="n"/>
       <c r="L54" s="181" t="n"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1" s="202">
-      <c r="B55" s="224" t="inlineStr">
+    <row r="55" ht="15.75" customHeight="1" s="191">
+      <c r="B55" s="210" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
@@ -7813,7 +7825,7 @@
           <t>Winner Group E</t>
         </is>
       </c>
-      <c r="D55" s="226" t="n"/>
+      <c r="D55" s="212" t="n"/>
       <c r="E55" s="171" t="n"/>
       <c r="F55" s="171" t="n"/>
       <c r="G55" s="179" t="n"/>
@@ -7821,16 +7833,16 @@
       <c r="K55" s="143" t="n"/>
       <c r="L55" s="181" t="n"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B56" s="225" t="n"/>
+    <row r="56" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B56" s="211" t="n"/>
       <c r="C56" s="173" t="inlineStr">
         <is>
           <t>3rd Group A/B/C/D</t>
         </is>
       </c>
-      <c r="D56" s="225" t="n"/>
+      <c r="D56" s="211" t="n"/>
       <c r="E56" s="174" t="n"/>
-      <c r="F56" s="227" t="inlineStr">
+      <c r="F56" s="214" t="inlineStr">
         <is>
           <t>QF3</t>
         </is>
@@ -7840,26 +7852,26 @@
           <t>Winner R5</t>
         </is>
       </c>
-      <c r="H56" s="226" t="n"/>
+      <c r="H56" s="212" t="n"/>
       <c r="K56" s="143" t="n"/>
       <c r="L56" s="181" t="n"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1" s="202" thickBot="1">
+    <row r="57" ht="15.75" customHeight="1" s="191" thickBot="1">
       <c r="B57" s="138" t="n"/>
       <c r="D57" s="176" t="n"/>
       <c r="E57" s="184" t="n"/>
-      <c r="F57" s="225" t="n"/>
+      <c r="F57" s="211" t="n"/>
       <c r="G57" s="178" t="inlineStr">
         <is>
           <t>Winner R6</t>
         </is>
       </c>
-      <c r="H57" s="225" t="n"/>
+      <c r="H57" s="211" t="n"/>
       <c r="K57" s="143" t="n"/>
       <c r="L57" s="181" t="n"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1" s="202">
-      <c r="B58" s="224" t="inlineStr">
+    <row r="58" ht="15.75" customHeight="1" s="191">
+      <c r="B58" s="210" t="inlineStr">
         <is>
           <t>R6</t>
         </is>
@@ -7869,24 +7881,24 @@
           <t>Winner Group D</t>
         </is>
       </c>
-      <c r="D58" s="226" t="n"/>
+      <c r="D58" s="212" t="n"/>
       <c r="G58" s="179" t="n"/>
       <c r="H58" s="180" t="n"/>
       <c r="K58" s="143" t="n"/>
       <c r="L58" s="183" t="n"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B59" s="225" t="n"/>
+    <row r="59" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B59" s="211" t="n"/>
       <c r="C59" s="173" t="inlineStr">
         <is>
           <t>2nd Group F</t>
         </is>
       </c>
-      <c r="D59" s="225" t="n"/>
+      <c r="D59" s="211" t="n"/>
       <c r="G59" s="179" t="n"/>
       <c r="H59" s="181" t="n"/>
       <c r="I59" s="177" t="n"/>
-      <c r="J59" s="228" t="inlineStr">
+      <c r="J59" s="213" t="inlineStr">
         <is>
           <t>SF2</t>
         </is>
@@ -7896,23 +7908,23 @@
           <t>Winner QF3</t>
         </is>
       </c>
-      <c r="L59" s="226" t="n"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1" s="202">
+      <c r="L59" s="212" t="n"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1" s="191">
       <c r="B60" s="138" t="n"/>
       <c r="D60" s="176" t="n"/>
       <c r="G60" s="179" t="n"/>
       <c r="H60" s="181" t="n"/>
-      <c r="J60" s="225" t="n"/>
+      <c r="J60" s="211" t="n"/>
       <c r="K60" s="165" t="inlineStr">
         <is>
           <t>Winner QF4</t>
         </is>
       </c>
-      <c r="L60" s="225" t="n"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1" s="202">
-      <c r="B61" s="224" t="inlineStr">
+      <c r="L60" s="211" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="191">
+      <c r="B61" s="210" t="inlineStr">
         <is>
           <t>R7</t>
         </is>
@@ -7922,20 +7934,20 @@
           <t>Winner GroupC</t>
         </is>
       </c>
-      <c r="D61" s="226" t="n"/>
+      <c r="D61" s="212" t="n"/>
       <c r="G61" s="179" t="n"/>
       <c r="H61" s="183" t="n"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B62" s="225" t="n"/>
+    <row r="62" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B62" s="211" t="n"/>
       <c r="C62" s="173" t="inlineStr">
         <is>
           <t>3rd Group D/E/F</t>
         </is>
       </c>
-      <c r="D62" s="225" t="n"/>
+      <c r="D62" s="211" t="n"/>
       <c r="E62" s="174" t="n"/>
-      <c r="F62" s="227" t="inlineStr">
+      <c r="F62" s="214" t="inlineStr">
         <is>
           <t>QF4</t>
         </is>
@@ -7945,22 +7957,22 @@
           <t>Winner R7</t>
         </is>
       </c>
-      <c r="H62" s="226" t="n"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="H62" s="212" t="n"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" s="191" thickBot="1">
       <c r="B63" s="138" t="n"/>
       <c r="D63" s="176" t="n"/>
       <c r="E63" s="184" t="n"/>
-      <c r="F63" s="225" t="n"/>
+      <c r="F63" s="211" t="n"/>
       <c r="G63" s="178" t="inlineStr">
         <is>
           <t>Winner R8</t>
         </is>
       </c>
-      <c r="H63" s="225" t="n"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1" s="202">
-      <c r="B64" s="224" t="inlineStr">
+      <c r="H63" s="211" t="n"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1" s="191">
+      <c r="B64" s="210" t="inlineStr">
         <is>
           <t>R8</t>
         </is>
@@ -7970,985 +7982,954 @@
           <t>2nd Group A</t>
         </is>
       </c>
-      <c r="D64" s="226" t="n"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1" s="202">
-      <c r="B65" s="225" t="n"/>
+      <c r="D64" s="212" t="n"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1" s="191">
+      <c r="B65" s="211" t="n"/>
       <c r="C65" s="173" t="inlineStr">
         <is>
           <t>2nd Group B</t>
         </is>
       </c>
-      <c r="D65" s="225" t="n"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1" s="202"/>
-    <row r="67" ht="15.75" customHeight="1" s="202"/>
-    <row r="68" ht="15.75" customHeight="1" s="202"/>
-    <row r="69" ht="15.75" customHeight="1" s="202"/>
-    <row r="70" ht="15.75" customHeight="1" s="202"/>
-    <row r="71" ht="15.75" customHeight="1" s="202"/>
-    <row r="72" ht="15.75" customHeight="1" s="202"/>
-    <row r="73" ht="15.75" customHeight="1" s="202"/>
-    <row r="74" ht="15.75" customHeight="1" s="202"/>
-    <row r="75" ht="15.75" customHeight="1" s="202"/>
-    <row r="76" ht="15.75" customHeight="1" s="202"/>
-    <row r="77" ht="15.75" customHeight="1" s="202"/>
-    <row r="78" ht="15.75" customHeight="1" s="202"/>
-    <row r="79" ht="15.75" customHeight="1" s="202"/>
-    <row r="80" ht="15.75" customHeight="1" s="202"/>
-    <row r="81" ht="15.75" customHeight="1" s="202"/>
-    <row r="82" ht="15.75" customHeight="1" s="202"/>
-    <row r="83" ht="15.75" customHeight="1" s="202"/>
-    <row r="84" ht="15.75" customHeight="1" s="202"/>
-    <row r="85" ht="15.75" customHeight="1" s="202"/>
-    <row r="86" ht="15.75" customHeight="1" s="202"/>
-    <row r="87" ht="15.75" customHeight="1" s="202"/>
-    <row r="88" ht="15.75" customHeight="1" s="202"/>
-    <row r="89" ht="15.75" customHeight="1" s="202"/>
-    <row r="90" ht="15.75" customHeight="1" s="202"/>
-    <row r="91" ht="15.75" customHeight="1" s="202"/>
-    <row r="92" ht="15.75" customHeight="1" s="202"/>
-    <row r="93" ht="15.75" customHeight="1" s="202"/>
-    <row r="94" ht="15.75" customHeight="1" s="202"/>
-    <row r="95" ht="15.75" customHeight="1" s="202"/>
-    <row r="96" ht="15.75" customHeight="1" s="202"/>
-    <row r="97" ht="15.75" customHeight="1" s="202"/>
-    <row r="98" ht="15.75" customHeight="1" s="202"/>
-    <row r="99" ht="15.75" customHeight="1" s="202"/>
-    <row r="100" ht="15.75" customHeight="1" s="202"/>
-    <row r="101" ht="15.75" customHeight="1" s="202"/>
-    <row r="102" ht="15.75" customHeight="1" s="202"/>
-    <row r="103" ht="15.75" customHeight="1" s="202"/>
-    <row r="104" ht="15.75" customHeight="1" s="202"/>
-    <row r="105" ht="15.75" customHeight="1" s="202"/>
-    <row r="106" ht="15.75" customHeight="1" s="202"/>
-    <row r="107" ht="15.75" customHeight="1" s="202"/>
-    <row r="108" ht="15.75" customHeight="1" s="202"/>
-    <row r="109" ht="15.75" customHeight="1" s="202"/>
-    <row r="110" ht="15.75" customHeight="1" s="202"/>
-    <row r="111" ht="15.75" customHeight="1" s="202"/>
-    <row r="112" ht="15.75" customHeight="1" s="202"/>
-    <row r="113" ht="15.75" customHeight="1" s="202"/>
-    <row r="114" ht="15.75" customHeight="1" s="202"/>
-    <row r="115" ht="15.75" customHeight="1" s="202"/>
-    <row r="116" ht="15.75" customHeight="1" s="202"/>
-    <row r="117" ht="15.75" customHeight="1" s="202"/>
-    <row r="118" ht="15.75" customHeight="1" s="202"/>
-    <row r="119" ht="15.75" customHeight="1" s="202"/>
-    <row r="120" ht="15.75" customHeight="1" s="202"/>
-    <row r="121" ht="15.75" customHeight="1" s="202"/>
-    <row r="122" ht="15.75" customHeight="1" s="202"/>
-    <row r="123" ht="15.75" customHeight="1" s="202"/>
-    <row r="124" ht="15.75" customHeight="1" s="202"/>
-    <row r="125" ht="15.75" customHeight="1" s="202"/>
-    <row r="126" ht="15.75" customHeight="1" s="202"/>
-    <row r="127" ht="15.75" customHeight="1" s="202"/>
-    <row r="128" ht="15.75" customHeight="1" s="202"/>
-    <row r="129" ht="15.75" customHeight="1" s="202"/>
-    <row r="130" ht="15.75" customHeight="1" s="202"/>
-    <row r="131" ht="15.75" customHeight="1" s="202"/>
-    <row r="132" ht="15.75" customHeight="1" s="202"/>
-    <row r="133" ht="15.75" customHeight="1" s="202"/>
-    <row r="134" ht="15.75" customHeight="1" s="202"/>
-    <row r="135" ht="15.75" customHeight="1" s="202"/>
-    <row r="136" ht="15.75" customHeight="1" s="202"/>
-    <row r="137" ht="15.75" customHeight="1" s="202"/>
-    <row r="138" ht="15.75" customHeight="1" s="202"/>
-    <row r="139" ht="15.75" customHeight="1" s="202"/>
-    <row r="140" ht="15.75" customHeight="1" s="202"/>
-    <row r="141" ht="15.75" customHeight="1" s="202"/>
-    <row r="142" ht="15.75" customHeight="1" s="202"/>
-    <row r="143" ht="15.75" customHeight="1" s="202"/>
-    <row r="144" ht="15.75" customHeight="1" s="202"/>
-    <row r="145" ht="15.75" customHeight="1" s="202"/>
-    <row r="146" ht="15.75" customHeight="1" s="202"/>
-    <row r="147" ht="15.75" customHeight="1" s="202"/>
-    <row r="148" ht="15.75" customHeight="1" s="202"/>
-    <row r="149" ht="15.75" customHeight="1" s="202"/>
-    <row r="150" ht="15.75" customHeight="1" s="202"/>
-    <row r="151" ht="15.75" customHeight="1" s="202"/>
-    <row r="152" ht="15.75" customHeight="1" s="202"/>
-    <row r="153" ht="15.75" customHeight="1" s="202"/>
-    <row r="154" ht="15.75" customHeight="1" s="202"/>
-    <row r="155" ht="15.75" customHeight="1" s="202"/>
-    <row r="156" ht="15.75" customHeight="1" s="202"/>
-    <row r="157" ht="15.75" customHeight="1" s="202"/>
-    <row r="158" ht="15.75" customHeight="1" s="202"/>
-    <row r="159" ht="15.75" customHeight="1" s="202"/>
-    <row r="160" ht="15.75" customHeight="1" s="202"/>
-    <row r="161" ht="15.75" customHeight="1" s="202"/>
-    <row r="162" ht="15.75" customHeight="1" s="202"/>
-    <row r="163" ht="15.75" customHeight="1" s="202"/>
-    <row r="164" ht="15.75" customHeight="1" s="202"/>
-    <row r="165" ht="15.75" customHeight="1" s="202"/>
-    <row r="166" ht="15.75" customHeight="1" s="202"/>
-    <row r="167" ht="15.75" customHeight="1" s="202"/>
-    <row r="168" ht="15.75" customHeight="1" s="202"/>
-    <row r="169" ht="15.75" customHeight="1" s="202"/>
-    <row r="170" ht="15.75" customHeight="1" s="202"/>
-    <row r="171" ht="15.75" customHeight="1" s="202"/>
-    <row r="172" ht="15.75" customHeight="1" s="202"/>
-    <row r="173" ht="15.75" customHeight="1" s="202"/>
-    <row r="174" ht="15.75" customHeight="1" s="202"/>
-    <row r="175" ht="15.75" customHeight="1" s="202"/>
-    <row r="176" ht="15.75" customHeight="1" s="202"/>
-    <row r="177" ht="15.75" customHeight="1" s="202"/>
-    <row r="178" ht="15.75" customHeight="1" s="202"/>
-    <row r="179" ht="15.75" customHeight="1" s="202"/>
-    <row r="180" ht="15.75" customHeight="1" s="202"/>
-    <row r="181" ht="15.75" customHeight="1" s="202"/>
-    <row r="182" ht="15.75" customHeight="1" s="202"/>
-    <row r="183" ht="15.75" customHeight="1" s="202"/>
-    <row r="184" ht="15.75" customHeight="1" s="202"/>
-    <row r="185" ht="15.75" customHeight="1" s="202"/>
-    <row r="186" ht="15.75" customHeight="1" s="202"/>
-    <row r="187" ht="15.75" customHeight="1" s="202"/>
-    <row r="188" ht="15.75" customHeight="1" s="202"/>
-    <row r="189" ht="15.75" customHeight="1" s="202"/>
-    <row r="190" ht="15.75" customHeight="1" s="202"/>
-    <row r="191" ht="15.75" customHeight="1" s="202"/>
-    <row r="192" ht="15.75" customHeight="1" s="202"/>
-    <row r="193" ht="15.75" customHeight="1" s="202"/>
-    <row r="194" ht="15.75" customHeight="1" s="202"/>
-    <row r="195" ht="15.75" customHeight="1" s="202"/>
-    <row r="196" ht="15.75" customHeight="1" s="202"/>
-    <row r="197" ht="15.75" customHeight="1" s="202"/>
-    <row r="198" ht="15.75" customHeight="1" s="202"/>
-    <row r="199" ht="15.75" customHeight="1" s="202"/>
-    <row r="200" ht="15.75" customHeight="1" s="202"/>
-    <row r="201" ht="15.75" customHeight="1" s="202"/>
-    <row r="202" ht="15.75" customHeight="1" s="202"/>
-    <row r="203" ht="15.75" customHeight="1" s="202"/>
-    <row r="204" ht="15.75" customHeight="1" s="202"/>
-    <row r="205" ht="15.75" customHeight="1" s="202"/>
-    <row r="206" ht="15.75" customHeight="1" s="202"/>
-    <row r="207" ht="15.75" customHeight="1" s="202"/>
-    <row r="208" ht="15.75" customHeight="1" s="202"/>
-    <row r="209" ht="15.75" customHeight="1" s="202"/>
-    <row r="210" ht="15.75" customHeight="1" s="202"/>
-    <row r="211" ht="15.75" customHeight="1" s="202"/>
-    <row r="212" ht="15.75" customHeight="1" s="202"/>
-    <row r="213" ht="15.75" customHeight="1" s="202"/>
-    <row r="214" ht="15.75" customHeight="1" s="202"/>
-    <row r="215" ht="15.75" customHeight="1" s="202"/>
-    <row r="216" ht="15.75" customHeight="1" s="202"/>
-    <row r="217" ht="15.75" customHeight="1" s="202"/>
-    <row r="218" ht="15.75" customHeight="1" s="202"/>
-    <row r="219" ht="15.75" customHeight="1" s="202"/>
-    <row r="220" ht="15.75" customHeight="1" s="202"/>
-    <row r="221" ht="15.75" customHeight="1" s="202"/>
-    <row r="222" ht="15.75" customHeight="1" s="202"/>
-    <row r="223" ht="15.75" customHeight="1" s="202"/>
-    <row r="224" ht="15.75" customHeight="1" s="202"/>
-    <row r="225" ht="15.75" customHeight="1" s="202"/>
-    <row r="226" ht="15.75" customHeight="1" s="202"/>
-    <row r="227" ht="15.75" customHeight="1" s="202"/>
-    <row r="228" ht="15.75" customHeight="1" s="202"/>
-    <row r="229" ht="15.75" customHeight="1" s="202"/>
-    <row r="230" ht="15.75" customHeight="1" s="202"/>
-    <row r="231" ht="15.75" customHeight="1" s="202"/>
-    <row r="232" ht="15.75" customHeight="1" s="202"/>
-    <row r="233" ht="15.75" customHeight="1" s="202"/>
-    <row r="234" ht="15.75" customHeight="1" s="202"/>
-    <row r="235" ht="15.75" customHeight="1" s="202"/>
-    <row r="236" ht="15.75" customHeight="1" s="202"/>
-    <row r="237" ht="15.75" customHeight="1" s="202"/>
-    <row r="238" ht="15.75" customHeight="1" s="202"/>
-    <row r="239" ht="15.75" customHeight="1" s="202"/>
-    <row r="240" ht="15.75" customHeight="1" s="202"/>
-    <row r="241" ht="15.75" customHeight="1" s="202"/>
-    <row r="242" ht="15.75" customHeight="1" s="202"/>
-    <row r="243" ht="15.75" customHeight="1" s="202"/>
-    <row r="244" ht="15.75" customHeight="1" s="202"/>
-    <row r="245" ht="15.75" customHeight="1" s="202"/>
-    <row r="246" ht="15.75" customHeight="1" s="202"/>
-    <row r="247" ht="15.75" customHeight="1" s="202"/>
-    <row r="248" ht="15.75" customHeight="1" s="202"/>
-    <row r="249" ht="15.75" customHeight="1" s="202"/>
-    <row r="250" ht="15.75" customHeight="1" s="202"/>
-    <row r="251" ht="15.75" customHeight="1" s="202"/>
-    <row r="252" ht="15.75" customHeight="1" s="202"/>
-    <row r="253" ht="15.75" customHeight="1" s="202"/>
-    <row r="254" ht="15.75" customHeight="1" s="202"/>
-    <row r="255" ht="15.75" customHeight="1" s="202"/>
-    <row r="256" ht="15.75" customHeight="1" s="202"/>
-    <row r="257" ht="15.75" customHeight="1" s="202"/>
-    <row r="258" ht="15.75" customHeight="1" s="202"/>
-    <row r="259" ht="15.75" customHeight="1" s="202"/>
-    <row r="260" ht="15.75" customHeight="1" s="202"/>
-    <row r="261" ht="15.75" customHeight="1" s="202"/>
-    <row r="262" ht="15.75" customHeight="1" s="202"/>
-    <row r="263" ht="15.75" customHeight="1" s="202"/>
-    <row r="264" ht="15.75" customHeight="1" s="202"/>
-    <row r="265" ht="15.75" customHeight="1" s="202"/>
-    <row r="266" ht="15.75" customHeight="1" s="202"/>
-    <row r="267" ht="15.75" customHeight="1" s="202"/>
-    <row r="268" ht="15.75" customHeight="1" s="202"/>
-    <row r="269" ht="15.75" customHeight="1" s="202"/>
-    <row r="270" ht="15.75" customHeight="1" s="202"/>
-    <row r="271" ht="15.75" customHeight="1" s="202"/>
-    <row r="272" ht="15.75" customHeight="1" s="202"/>
-    <row r="273" ht="15.75" customHeight="1" s="202"/>
-    <row r="274" ht="15.75" customHeight="1" s="202"/>
-    <row r="275" ht="15.75" customHeight="1" s="202"/>
-    <row r="276" ht="15.75" customHeight="1" s="202"/>
-    <row r="277" ht="15.75" customHeight="1" s="202"/>
-    <row r="278" ht="15.75" customHeight="1" s="202"/>
-    <row r="279" ht="15.75" customHeight="1" s="202"/>
-    <row r="280" ht="15.75" customHeight="1" s="202"/>
-    <row r="281" ht="15.75" customHeight="1" s="202"/>
-    <row r="282" ht="15.75" customHeight="1" s="202"/>
-    <row r="283" ht="15.75" customHeight="1" s="202"/>
-    <row r="284" ht="15.75" customHeight="1" s="202"/>
-    <row r="285" ht="15.75" customHeight="1" s="202"/>
-    <row r="286" ht="15.75" customHeight="1" s="202"/>
-    <row r="287" ht="15.75" customHeight="1" s="202"/>
-    <row r="288" ht="15.75" customHeight="1" s="202"/>
-    <row r="289" ht="15.75" customHeight="1" s="202"/>
-    <row r="290" ht="15.75" customHeight="1" s="202"/>
-    <row r="291" ht="15.75" customHeight="1" s="202"/>
-    <row r="292" ht="15.75" customHeight="1" s="202"/>
-    <row r="293" ht="15.75" customHeight="1" s="202"/>
-    <row r="294" ht="15.75" customHeight="1" s="202"/>
-    <row r="295" ht="15.75" customHeight="1" s="202"/>
-    <row r="296" ht="15.75" customHeight="1" s="202"/>
-    <row r="297" ht="15.75" customHeight="1" s="202"/>
-    <row r="298" ht="15.75" customHeight="1" s="202"/>
-    <row r="299" ht="15.75" customHeight="1" s="202"/>
-    <row r="300" ht="15.75" customHeight="1" s="202"/>
-    <row r="301" ht="15.75" customHeight="1" s="202"/>
-    <row r="302" ht="15.75" customHeight="1" s="202"/>
-    <row r="303" ht="15.75" customHeight="1" s="202"/>
-    <row r="304" ht="15.75" customHeight="1" s="202"/>
-    <row r="305" ht="15.75" customHeight="1" s="202"/>
-    <row r="306" ht="15.75" customHeight="1" s="202"/>
-    <row r="307" ht="15.75" customHeight="1" s="202"/>
-    <row r="308" ht="15.75" customHeight="1" s="202"/>
-    <row r="309" ht="15.75" customHeight="1" s="202"/>
-    <row r="310" ht="15.75" customHeight="1" s="202"/>
-    <row r="311" ht="15.75" customHeight="1" s="202"/>
-    <row r="312" ht="15.75" customHeight="1" s="202"/>
-    <row r="313" ht="15.75" customHeight="1" s="202"/>
-    <row r="314" ht="15.75" customHeight="1" s="202"/>
-    <row r="315" ht="15.75" customHeight="1" s="202"/>
-    <row r="316" ht="15.75" customHeight="1" s="202"/>
-    <row r="317" ht="15.75" customHeight="1" s="202"/>
-    <row r="318" ht="15.75" customHeight="1" s="202"/>
-    <row r="319" ht="15.75" customHeight="1" s="202"/>
-    <row r="320" ht="15.75" customHeight="1" s="202"/>
-    <row r="321" ht="15.75" customHeight="1" s="202"/>
-    <row r="322" ht="15.75" customHeight="1" s="202"/>
-    <row r="323" ht="15.75" customHeight="1" s="202"/>
-    <row r="324" ht="15.75" customHeight="1" s="202"/>
-    <row r="325" ht="15.75" customHeight="1" s="202"/>
-    <row r="326" ht="15.75" customHeight="1" s="202"/>
-    <row r="327" ht="15.75" customHeight="1" s="202"/>
-    <row r="328" ht="15.75" customHeight="1" s="202"/>
-    <row r="329" ht="15.75" customHeight="1" s="202"/>
-    <row r="330" ht="15.75" customHeight="1" s="202"/>
-    <row r="331" ht="15.75" customHeight="1" s="202"/>
-    <row r="332" ht="15.75" customHeight="1" s="202"/>
-    <row r="333" ht="15.75" customHeight="1" s="202"/>
-    <row r="334" ht="15.75" customHeight="1" s="202"/>
-    <row r="335" ht="15.75" customHeight="1" s="202"/>
-    <row r="336" ht="15.75" customHeight="1" s="202"/>
-    <row r="337" ht="15.75" customHeight="1" s="202"/>
-    <row r="338" ht="15.75" customHeight="1" s="202"/>
-    <row r="339" ht="15.75" customHeight="1" s="202"/>
-    <row r="340" ht="15.75" customHeight="1" s="202"/>
-    <row r="341" ht="15.75" customHeight="1" s="202"/>
-    <row r="342" ht="15.75" customHeight="1" s="202"/>
-    <row r="343" ht="15.75" customHeight="1" s="202"/>
-    <row r="344" ht="15.75" customHeight="1" s="202"/>
-    <row r="345" ht="15.75" customHeight="1" s="202"/>
-    <row r="346" ht="15.75" customHeight="1" s="202"/>
-    <row r="347" ht="15.75" customHeight="1" s="202"/>
-    <row r="348" ht="15.75" customHeight="1" s="202"/>
-    <row r="349" ht="15.75" customHeight="1" s="202"/>
-    <row r="350" ht="15.75" customHeight="1" s="202"/>
-    <row r="351" ht="15.75" customHeight="1" s="202"/>
-    <row r="352" ht="15.75" customHeight="1" s="202"/>
-    <row r="353" ht="15.75" customHeight="1" s="202"/>
-    <row r="354" ht="15.75" customHeight="1" s="202"/>
-    <row r="355" ht="15.75" customHeight="1" s="202"/>
-    <row r="356" ht="15.75" customHeight="1" s="202"/>
-    <row r="357" ht="15.75" customHeight="1" s="202"/>
-    <row r="358" ht="15.75" customHeight="1" s="202"/>
-    <row r="359" ht="15.75" customHeight="1" s="202"/>
-    <row r="360" ht="15.75" customHeight="1" s="202"/>
-    <row r="361" ht="15.75" customHeight="1" s="202"/>
-    <row r="362" ht="15.75" customHeight="1" s="202"/>
-    <row r="363" ht="15.75" customHeight="1" s="202"/>
-    <row r="364" ht="15.75" customHeight="1" s="202"/>
-    <row r="365" ht="15.75" customHeight="1" s="202"/>
-    <row r="366" ht="15.75" customHeight="1" s="202"/>
-    <row r="367" ht="15.75" customHeight="1" s="202"/>
-    <row r="368" ht="15.75" customHeight="1" s="202"/>
-    <row r="369" ht="15.75" customHeight="1" s="202"/>
-    <row r="370" ht="15.75" customHeight="1" s="202"/>
-    <row r="371" ht="15.75" customHeight="1" s="202"/>
-    <row r="372" ht="15.75" customHeight="1" s="202"/>
-    <row r="373" ht="15.75" customHeight="1" s="202"/>
-    <row r="374" ht="15.75" customHeight="1" s="202"/>
-    <row r="375" ht="15.75" customHeight="1" s="202"/>
-    <row r="376" ht="15.75" customHeight="1" s="202"/>
-    <row r="377" ht="15.75" customHeight="1" s="202"/>
-    <row r="378" ht="15.75" customHeight="1" s="202"/>
-    <row r="379" ht="15.75" customHeight="1" s="202"/>
-    <row r="380" ht="15.75" customHeight="1" s="202"/>
-    <row r="381" ht="15.75" customHeight="1" s="202"/>
-    <row r="382" ht="15.75" customHeight="1" s="202"/>
-    <row r="383" ht="15.75" customHeight="1" s="202"/>
-    <row r="384" ht="15.75" customHeight="1" s="202"/>
-    <row r="385" ht="15.75" customHeight="1" s="202"/>
-    <row r="386" ht="15.75" customHeight="1" s="202"/>
-    <row r="387" ht="15.75" customHeight="1" s="202"/>
-    <row r="388" ht="15.75" customHeight="1" s="202"/>
-    <row r="389" ht="15.75" customHeight="1" s="202"/>
-    <row r="390" ht="15.75" customHeight="1" s="202"/>
-    <row r="391" ht="15.75" customHeight="1" s="202"/>
-    <row r="392" ht="15.75" customHeight="1" s="202"/>
-    <row r="393" ht="15.75" customHeight="1" s="202"/>
-    <row r="394" ht="15.75" customHeight="1" s="202"/>
-    <row r="395" ht="15.75" customHeight="1" s="202"/>
-    <row r="396" ht="15.75" customHeight="1" s="202"/>
-    <row r="397" ht="15.75" customHeight="1" s="202"/>
-    <row r="398" ht="15.75" customHeight="1" s="202"/>
-    <row r="399" ht="15.75" customHeight="1" s="202"/>
-    <row r="400" ht="15.75" customHeight="1" s="202"/>
-    <row r="401" ht="15.75" customHeight="1" s="202"/>
-    <row r="402" ht="15.75" customHeight="1" s="202"/>
-    <row r="403" ht="15.75" customHeight="1" s="202"/>
-    <row r="404" ht="15.75" customHeight="1" s="202"/>
-    <row r="405" ht="15.75" customHeight="1" s="202"/>
-    <row r="406" ht="15.75" customHeight="1" s="202"/>
-    <row r="407" ht="15.75" customHeight="1" s="202"/>
-    <row r="408" ht="15.75" customHeight="1" s="202"/>
-    <row r="409" ht="15.75" customHeight="1" s="202"/>
-    <row r="410" ht="15.75" customHeight="1" s="202"/>
-    <row r="411" ht="15.75" customHeight="1" s="202"/>
-    <row r="412" ht="15.75" customHeight="1" s="202"/>
-    <row r="413" ht="15.75" customHeight="1" s="202"/>
-    <row r="414" ht="15.75" customHeight="1" s="202"/>
-    <row r="415" ht="15.75" customHeight="1" s="202"/>
-    <row r="416" ht="15.75" customHeight="1" s="202"/>
-    <row r="417" ht="15.75" customHeight="1" s="202"/>
-    <row r="418" ht="15.75" customHeight="1" s="202"/>
-    <row r="419" ht="15.75" customHeight="1" s="202"/>
-    <row r="420" ht="15.75" customHeight="1" s="202"/>
-    <row r="421" ht="15.75" customHeight="1" s="202"/>
-    <row r="422" ht="15.75" customHeight="1" s="202"/>
-    <row r="423" ht="15.75" customHeight="1" s="202"/>
-    <row r="424" ht="15.75" customHeight="1" s="202"/>
-    <row r="425" ht="15.75" customHeight="1" s="202"/>
-    <row r="426" ht="15.75" customHeight="1" s="202"/>
-    <row r="427" ht="15.75" customHeight="1" s="202"/>
-    <row r="428" ht="15.75" customHeight="1" s="202"/>
-    <row r="429" ht="15.75" customHeight="1" s="202"/>
-    <row r="430" ht="15.75" customHeight="1" s="202"/>
-    <row r="431" ht="15.75" customHeight="1" s="202"/>
-    <row r="432" ht="15.75" customHeight="1" s="202"/>
-    <row r="433" ht="15.75" customHeight="1" s="202"/>
-    <row r="434" ht="15.75" customHeight="1" s="202"/>
-    <row r="435" ht="15.75" customHeight="1" s="202"/>
-    <row r="436" ht="15.75" customHeight="1" s="202"/>
-    <row r="437" ht="15.75" customHeight="1" s="202"/>
-    <row r="438" ht="15.75" customHeight="1" s="202"/>
-    <row r="439" ht="15.75" customHeight="1" s="202"/>
-    <row r="440" ht="15.75" customHeight="1" s="202"/>
-    <row r="441" ht="15.75" customHeight="1" s="202"/>
-    <row r="442" ht="15.75" customHeight="1" s="202"/>
-    <row r="443" ht="15.75" customHeight="1" s="202"/>
-    <row r="444" ht="15.75" customHeight="1" s="202"/>
-    <row r="445" ht="15.75" customHeight="1" s="202"/>
-    <row r="446" ht="15.75" customHeight="1" s="202"/>
-    <row r="447" ht="15.75" customHeight="1" s="202"/>
-    <row r="448" ht="15.75" customHeight="1" s="202"/>
-    <row r="449" ht="15.75" customHeight="1" s="202"/>
-    <row r="450" ht="15.75" customHeight="1" s="202"/>
-    <row r="451" ht="15.75" customHeight="1" s="202"/>
-    <row r="452" ht="15.75" customHeight="1" s="202"/>
-    <row r="453" ht="15.75" customHeight="1" s="202"/>
-    <row r="454" ht="15.75" customHeight="1" s="202"/>
-    <row r="455" ht="15.75" customHeight="1" s="202"/>
-    <row r="456" ht="15.75" customHeight="1" s="202"/>
-    <row r="457" ht="15.75" customHeight="1" s="202"/>
-    <row r="458" ht="15.75" customHeight="1" s="202"/>
-    <row r="459" ht="15.75" customHeight="1" s="202"/>
-    <row r="460" ht="15.75" customHeight="1" s="202"/>
-    <row r="461" ht="15.75" customHeight="1" s="202"/>
-    <row r="462" ht="15.75" customHeight="1" s="202"/>
-    <row r="463" ht="15.75" customHeight="1" s="202"/>
-    <row r="464" ht="15.75" customHeight="1" s="202"/>
-    <row r="465" ht="15.75" customHeight="1" s="202"/>
-    <row r="466" ht="15.75" customHeight="1" s="202"/>
-    <row r="467" ht="15.75" customHeight="1" s="202"/>
-    <row r="468" ht="15.75" customHeight="1" s="202"/>
-    <row r="469" ht="15.75" customHeight="1" s="202"/>
-    <row r="470" ht="15.75" customHeight="1" s="202"/>
-    <row r="471" ht="15.75" customHeight="1" s="202"/>
-    <row r="472" ht="15.75" customHeight="1" s="202"/>
-    <row r="473" ht="15.75" customHeight="1" s="202"/>
-    <row r="474" ht="15.75" customHeight="1" s="202"/>
-    <row r="475" ht="15.75" customHeight="1" s="202"/>
-    <row r="476" ht="15.75" customHeight="1" s="202"/>
-    <row r="477" ht="15.75" customHeight="1" s="202"/>
-    <row r="478" ht="15.75" customHeight="1" s="202"/>
-    <row r="479" ht="15.75" customHeight="1" s="202"/>
-    <row r="480" ht="15.75" customHeight="1" s="202"/>
-    <row r="481" ht="15.75" customHeight="1" s="202"/>
-    <row r="482" ht="15.75" customHeight="1" s="202"/>
-    <row r="483" ht="15.75" customHeight="1" s="202"/>
-    <row r="484" ht="15.75" customHeight="1" s="202"/>
-    <row r="485" ht="15.75" customHeight="1" s="202"/>
-    <row r="486" ht="15.75" customHeight="1" s="202"/>
-    <row r="487" ht="15.75" customHeight="1" s="202"/>
-    <row r="488" ht="15.75" customHeight="1" s="202"/>
-    <row r="489" ht="15.75" customHeight="1" s="202"/>
-    <row r="490" ht="15.75" customHeight="1" s="202"/>
-    <row r="491" ht="15.75" customHeight="1" s="202"/>
-    <row r="492" ht="15.75" customHeight="1" s="202"/>
-    <row r="493" ht="15.75" customHeight="1" s="202"/>
-    <row r="494" ht="15.75" customHeight="1" s="202"/>
-    <row r="495" ht="15.75" customHeight="1" s="202"/>
-    <row r="496" ht="15.75" customHeight="1" s="202"/>
-    <row r="497" ht="15.75" customHeight="1" s="202"/>
-    <row r="498" ht="15.75" customHeight="1" s="202"/>
-    <row r="499" ht="15.75" customHeight="1" s="202"/>
-    <row r="500" ht="15.75" customHeight="1" s="202"/>
-    <row r="501" ht="15.75" customHeight="1" s="202"/>
-    <row r="502" ht="15.75" customHeight="1" s="202"/>
-    <row r="503" ht="15.75" customHeight="1" s="202"/>
-    <row r="504" ht="15.75" customHeight="1" s="202"/>
-    <row r="505" ht="15.75" customHeight="1" s="202"/>
-    <row r="506" ht="15.75" customHeight="1" s="202"/>
-    <row r="507" ht="15.75" customHeight="1" s="202"/>
-    <row r="508" ht="15.75" customHeight="1" s="202"/>
-    <row r="509" ht="15.75" customHeight="1" s="202"/>
-    <row r="510" ht="15.75" customHeight="1" s="202"/>
-    <row r="511" ht="15.75" customHeight="1" s="202"/>
-    <row r="512" ht="15.75" customHeight="1" s="202"/>
-    <row r="513" ht="15.75" customHeight="1" s="202"/>
-    <row r="514" ht="15.75" customHeight="1" s="202"/>
-    <row r="515" ht="15.75" customHeight="1" s="202"/>
-    <row r="516" ht="15.75" customHeight="1" s="202"/>
-    <row r="517" ht="15.75" customHeight="1" s="202"/>
-    <row r="518" ht="15.75" customHeight="1" s="202"/>
-    <row r="519" ht="15.75" customHeight="1" s="202"/>
-    <row r="520" ht="15.75" customHeight="1" s="202"/>
-    <row r="521" ht="15.75" customHeight="1" s="202"/>
-    <row r="522" ht="15.75" customHeight="1" s="202"/>
-    <row r="523" ht="15.75" customHeight="1" s="202"/>
-    <row r="524" ht="15.75" customHeight="1" s="202"/>
-    <row r="525" ht="15.75" customHeight="1" s="202"/>
-    <row r="526" ht="15.75" customHeight="1" s="202"/>
-    <row r="527" ht="15.75" customHeight="1" s="202"/>
-    <row r="528" ht="15.75" customHeight="1" s="202"/>
-    <row r="529" ht="15.75" customHeight="1" s="202"/>
-    <row r="530" ht="15.75" customHeight="1" s="202"/>
-    <row r="531" ht="15.75" customHeight="1" s="202"/>
-    <row r="532" ht="15.75" customHeight="1" s="202"/>
-    <row r="533" ht="15.75" customHeight="1" s="202"/>
-    <row r="534" ht="15.75" customHeight="1" s="202"/>
-    <row r="535" ht="15.75" customHeight="1" s="202"/>
-    <row r="536" ht="15.75" customHeight="1" s="202"/>
-    <row r="537" ht="15.75" customHeight="1" s="202"/>
-    <row r="538" ht="15.75" customHeight="1" s="202"/>
-    <row r="539" ht="15.75" customHeight="1" s="202"/>
-    <row r="540" ht="15.75" customHeight="1" s="202"/>
-    <row r="541" ht="15.75" customHeight="1" s="202"/>
-    <row r="542" ht="15.75" customHeight="1" s="202"/>
-    <row r="543" ht="15.75" customHeight="1" s="202"/>
-    <row r="544" ht="15.75" customHeight="1" s="202"/>
-    <row r="545" ht="15.75" customHeight="1" s="202"/>
-    <row r="546" ht="15.75" customHeight="1" s="202"/>
-    <row r="547" ht="15.75" customHeight="1" s="202"/>
-    <row r="548" ht="15.75" customHeight="1" s="202"/>
-    <row r="549" ht="15.75" customHeight="1" s="202"/>
-    <row r="550" ht="15.75" customHeight="1" s="202"/>
-    <row r="551" ht="15.75" customHeight="1" s="202"/>
-    <row r="552" ht="15.75" customHeight="1" s="202"/>
-    <row r="553" ht="15.75" customHeight="1" s="202"/>
-    <row r="554" ht="15.75" customHeight="1" s="202"/>
-    <row r="555" ht="15.75" customHeight="1" s="202"/>
-    <row r="556" ht="15.75" customHeight="1" s="202"/>
-    <row r="557" ht="15.75" customHeight="1" s="202"/>
-    <row r="558" ht="15.75" customHeight="1" s="202"/>
-    <row r="559" ht="15.75" customHeight="1" s="202"/>
-    <row r="560" ht="15.75" customHeight="1" s="202"/>
-    <row r="561" ht="15.75" customHeight="1" s="202"/>
-    <row r="562" ht="15.75" customHeight="1" s="202"/>
-    <row r="563" ht="15.75" customHeight="1" s="202"/>
-    <row r="564" ht="15.75" customHeight="1" s="202"/>
-    <row r="565" ht="15.75" customHeight="1" s="202"/>
-    <row r="566" ht="15.75" customHeight="1" s="202"/>
-    <row r="567" ht="15.75" customHeight="1" s="202"/>
-    <row r="568" ht="15.75" customHeight="1" s="202"/>
-    <row r="569" ht="15.75" customHeight="1" s="202"/>
-    <row r="570" ht="15.75" customHeight="1" s="202"/>
-    <row r="571" ht="15.75" customHeight="1" s="202"/>
-    <row r="572" ht="15.75" customHeight="1" s="202"/>
-    <row r="573" ht="15.75" customHeight="1" s="202"/>
-    <row r="574" ht="15.75" customHeight="1" s="202"/>
-    <row r="575" ht="15.75" customHeight="1" s="202"/>
-    <row r="576" ht="15.75" customHeight="1" s="202"/>
-    <row r="577" ht="15.75" customHeight="1" s="202"/>
-    <row r="578" ht="15.75" customHeight="1" s="202"/>
-    <row r="579" ht="15.75" customHeight="1" s="202"/>
-    <row r="580" ht="15.75" customHeight="1" s="202"/>
-    <row r="581" ht="15.75" customHeight="1" s="202"/>
-    <row r="582" ht="15.75" customHeight="1" s="202"/>
-    <row r="583" ht="15.75" customHeight="1" s="202"/>
-    <row r="584" ht="15.75" customHeight="1" s="202"/>
-    <row r="585" ht="15.75" customHeight="1" s="202"/>
-    <row r="586" ht="15.75" customHeight="1" s="202"/>
-    <row r="587" ht="15.75" customHeight="1" s="202"/>
-    <row r="588" ht="15.75" customHeight="1" s="202"/>
-    <row r="589" ht="15.75" customHeight="1" s="202"/>
-    <row r="590" ht="15.75" customHeight="1" s="202"/>
-    <row r="591" ht="15.75" customHeight="1" s="202"/>
-    <row r="592" ht="15.75" customHeight="1" s="202"/>
-    <row r="593" ht="15.75" customHeight="1" s="202"/>
-    <row r="594" ht="15.75" customHeight="1" s="202"/>
-    <row r="595" ht="15.75" customHeight="1" s="202"/>
-    <row r="596" ht="15.75" customHeight="1" s="202"/>
-    <row r="597" ht="15.75" customHeight="1" s="202"/>
-    <row r="598" ht="15.75" customHeight="1" s="202"/>
-    <row r="599" ht="15.75" customHeight="1" s="202"/>
-    <row r="600" ht="15.75" customHeight="1" s="202"/>
-    <row r="601" ht="15.75" customHeight="1" s="202"/>
-    <row r="602" ht="15.75" customHeight="1" s="202"/>
-    <row r="603" ht="15.75" customHeight="1" s="202"/>
-    <row r="604" ht="15.75" customHeight="1" s="202"/>
-    <row r="605" ht="15.75" customHeight="1" s="202"/>
-    <row r="606" ht="15.75" customHeight="1" s="202"/>
-    <row r="607" ht="15.75" customHeight="1" s="202"/>
-    <row r="608" ht="15.75" customHeight="1" s="202"/>
-    <row r="609" ht="15.75" customHeight="1" s="202"/>
-    <row r="610" ht="15.75" customHeight="1" s="202"/>
-    <row r="611" ht="15.75" customHeight="1" s="202"/>
-    <row r="612" ht="15.75" customHeight="1" s="202"/>
-    <row r="613" ht="15.75" customHeight="1" s="202"/>
-    <row r="614" ht="15.75" customHeight="1" s="202"/>
-    <row r="615" ht="15.75" customHeight="1" s="202"/>
-    <row r="616" ht="15.75" customHeight="1" s="202"/>
-    <row r="617" ht="15.75" customHeight="1" s="202"/>
-    <row r="618" ht="15.75" customHeight="1" s="202"/>
-    <row r="619" ht="15.75" customHeight="1" s="202"/>
-    <row r="620" ht="15.75" customHeight="1" s="202"/>
-    <row r="621" ht="15.75" customHeight="1" s="202"/>
-    <row r="622" ht="15.75" customHeight="1" s="202"/>
-    <row r="623" ht="15.75" customHeight="1" s="202"/>
-    <row r="624" ht="15.75" customHeight="1" s="202"/>
-    <row r="625" ht="15.75" customHeight="1" s="202"/>
-    <row r="626" ht="15.75" customHeight="1" s="202"/>
-    <row r="627" ht="15.75" customHeight="1" s="202"/>
-    <row r="628" ht="15.75" customHeight="1" s="202"/>
-    <row r="629" ht="15.75" customHeight="1" s="202"/>
-    <row r="630" ht="15.75" customHeight="1" s="202"/>
-    <row r="631" ht="15.75" customHeight="1" s="202"/>
-    <row r="632" ht="15.75" customHeight="1" s="202"/>
-    <row r="633" ht="15.75" customHeight="1" s="202"/>
-    <row r="634" ht="15.75" customHeight="1" s="202"/>
-    <row r="635" ht="15.75" customHeight="1" s="202"/>
-    <row r="636" ht="15.75" customHeight="1" s="202"/>
-    <row r="637" ht="15.75" customHeight="1" s="202"/>
-    <row r="638" ht="15.75" customHeight="1" s="202"/>
-    <row r="639" ht="15.75" customHeight="1" s="202"/>
-    <row r="640" ht="15.75" customHeight="1" s="202"/>
-    <row r="641" ht="15.75" customHeight="1" s="202"/>
-    <row r="642" ht="15.75" customHeight="1" s="202"/>
-    <row r="643" ht="15.75" customHeight="1" s="202"/>
-    <row r="644" ht="15.75" customHeight="1" s="202"/>
-    <row r="645" ht="15.75" customHeight="1" s="202"/>
-    <row r="646" ht="15.75" customHeight="1" s="202"/>
-    <row r="647" ht="15.75" customHeight="1" s="202"/>
-    <row r="648" ht="15.75" customHeight="1" s="202"/>
-    <row r="649" ht="15.75" customHeight="1" s="202"/>
-    <row r="650" ht="15.75" customHeight="1" s="202"/>
-    <row r="651" ht="15.75" customHeight="1" s="202"/>
-    <row r="652" ht="15.75" customHeight="1" s="202"/>
-    <row r="653" ht="15.75" customHeight="1" s="202"/>
-    <row r="654" ht="15.75" customHeight="1" s="202"/>
-    <row r="655" ht="15.75" customHeight="1" s="202"/>
-    <row r="656" ht="15.75" customHeight="1" s="202"/>
-    <row r="657" ht="15.75" customHeight="1" s="202"/>
-    <row r="658" ht="15.75" customHeight="1" s="202"/>
-    <row r="659" ht="15.75" customHeight="1" s="202"/>
-    <row r="660" ht="15.75" customHeight="1" s="202"/>
-    <row r="661" ht="15.75" customHeight="1" s="202"/>
-    <row r="662" ht="15.75" customHeight="1" s="202"/>
-    <row r="663" ht="15.75" customHeight="1" s="202"/>
-    <row r="664" ht="15.75" customHeight="1" s="202"/>
-    <row r="665" ht="15.75" customHeight="1" s="202"/>
-    <row r="666" ht="15.75" customHeight="1" s="202"/>
-    <row r="667" ht="15.75" customHeight="1" s="202"/>
-    <row r="668" ht="15.75" customHeight="1" s="202"/>
-    <row r="669" ht="15.75" customHeight="1" s="202"/>
-    <row r="670" ht="15.75" customHeight="1" s="202"/>
-    <row r="671" ht="15.75" customHeight="1" s="202"/>
-    <row r="672" ht="15.75" customHeight="1" s="202"/>
-    <row r="673" ht="15.75" customHeight="1" s="202"/>
-    <row r="674" ht="15.75" customHeight="1" s="202"/>
-    <row r="675" ht="15.75" customHeight="1" s="202"/>
-    <row r="676" ht="15.75" customHeight="1" s="202"/>
-    <row r="677" ht="15.75" customHeight="1" s="202"/>
-    <row r="678" ht="15.75" customHeight="1" s="202"/>
-    <row r="679" ht="15.75" customHeight="1" s="202"/>
-    <row r="680" ht="15.75" customHeight="1" s="202"/>
-    <row r="681" ht="15.75" customHeight="1" s="202"/>
-    <row r="682" ht="15.75" customHeight="1" s="202"/>
-    <row r="683" ht="15.75" customHeight="1" s="202"/>
-    <row r="684" ht="15.75" customHeight="1" s="202"/>
-    <row r="685" ht="15.75" customHeight="1" s="202"/>
-    <row r="686" ht="15.75" customHeight="1" s="202"/>
-    <row r="687" ht="15.75" customHeight="1" s="202"/>
-    <row r="688" ht="15.75" customHeight="1" s="202"/>
-    <row r="689" ht="15.75" customHeight="1" s="202"/>
-    <row r="690" ht="15.75" customHeight="1" s="202"/>
-    <row r="691" ht="15.75" customHeight="1" s="202"/>
-    <row r="692" ht="15.75" customHeight="1" s="202"/>
-    <row r="693" ht="15.75" customHeight="1" s="202"/>
-    <row r="694" ht="15.75" customHeight="1" s="202"/>
-    <row r="695" ht="15.75" customHeight="1" s="202"/>
-    <row r="696" ht="15.75" customHeight="1" s="202"/>
-    <row r="697" ht="15.75" customHeight="1" s="202"/>
-    <row r="698" ht="15.75" customHeight="1" s="202"/>
-    <row r="699" ht="15.75" customHeight="1" s="202"/>
-    <row r="700" ht="15.75" customHeight="1" s="202"/>
-    <row r="701" ht="15.75" customHeight="1" s="202"/>
-    <row r="702" ht="15.75" customHeight="1" s="202"/>
-    <row r="703" ht="15.75" customHeight="1" s="202"/>
-    <row r="704" ht="15.75" customHeight="1" s="202"/>
-    <row r="705" ht="15.75" customHeight="1" s="202"/>
-    <row r="706" ht="15.75" customHeight="1" s="202"/>
-    <row r="707" ht="15.75" customHeight="1" s="202"/>
-    <row r="708" ht="15.75" customHeight="1" s="202"/>
-    <row r="709" ht="15.75" customHeight="1" s="202"/>
-    <row r="710" ht="15.75" customHeight="1" s="202"/>
-    <row r="711" ht="15.75" customHeight="1" s="202"/>
-    <row r="712" ht="15.75" customHeight="1" s="202"/>
-    <row r="713" ht="15.75" customHeight="1" s="202"/>
-    <row r="714" ht="15.75" customHeight="1" s="202"/>
-    <row r="715" ht="15.75" customHeight="1" s="202"/>
-    <row r="716" ht="15.75" customHeight="1" s="202"/>
-    <row r="717" ht="15.75" customHeight="1" s="202"/>
-    <row r="718" ht="15.75" customHeight="1" s="202"/>
-    <row r="719" ht="15.75" customHeight="1" s="202"/>
-    <row r="720" ht="15.75" customHeight="1" s="202"/>
-    <row r="721" ht="15.75" customHeight="1" s="202"/>
-    <row r="722" ht="15.75" customHeight="1" s="202"/>
-    <row r="723" ht="15.75" customHeight="1" s="202"/>
-    <row r="724" ht="15.75" customHeight="1" s="202"/>
-    <row r="725" ht="15.75" customHeight="1" s="202"/>
-    <row r="726" ht="15.75" customHeight="1" s="202"/>
-    <row r="727" ht="15.75" customHeight="1" s="202"/>
-    <row r="728" ht="15.75" customHeight="1" s="202"/>
-    <row r="729" ht="15.75" customHeight="1" s="202"/>
-    <row r="730" ht="15.75" customHeight="1" s="202"/>
-    <row r="731" ht="15.75" customHeight="1" s="202"/>
-    <row r="732" ht="15.75" customHeight="1" s="202"/>
-    <row r="733" ht="15.75" customHeight="1" s="202"/>
-    <row r="734" ht="15.75" customHeight="1" s="202"/>
-    <row r="735" ht="15.75" customHeight="1" s="202"/>
-    <row r="736" ht="15.75" customHeight="1" s="202"/>
-    <row r="737" ht="15.75" customHeight="1" s="202"/>
-    <row r="738" ht="15.75" customHeight="1" s="202"/>
-    <row r="739" ht="15.75" customHeight="1" s="202"/>
-    <row r="740" ht="15.75" customHeight="1" s="202"/>
-    <row r="741" ht="15.75" customHeight="1" s="202"/>
-    <row r="742" ht="15.75" customHeight="1" s="202"/>
-    <row r="743" ht="15.75" customHeight="1" s="202"/>
-    <row r="744" ht="15.75" customHeight="1" s="202"/>
-    <row r="745" ht="15.75" customHeight="1" s="202"/>
-    <row r="746" ht="15.75" customHeight="1" s="202"/>
-    <row r="747" ht="15.75" customHeight="1" s="202"/>
-    <row r="748" ht="15.75" customHeight="1" s="202"/>
-    <row r="749" ht="15.75" customHeight="1" s="202"/>
-    <row r="750" ht="15.75" customHeight="1" s="202"/>
-    <row r="751" ht="15.75" customHeight="1" s="202"/>
-    <row r="752" ht="15.75" customHeight="1" s="202"/>
-    <row r="753" ht="15.75" customHeight="1" s="202"/>
-    <row r="754" ht="15.75" customHeight="1" s="202"/>
-    <row r="755" ht="15.75" customHeight="1" s="202"/>
-    <row r="756" ht="15.75" customHeight="1" s="202"/>
-    <row r="757" ht="15.75" customHeight="1" s="202"/>
-    <row r="758" ht="15.75" customHeight="1" s="202"/>
-    <row r="759" ht="15.75" customHeight="1" s="202"/>
-    <row r="760" ht="15.75" customHeight="1" s="202"/>
-    <row r="761" ht="15.75" customHeight="1" s="202"/>
-    <row r="762" ht="15.75" customHeight="1" s="202"/>
-    <row r="763" ht="15.75" customHeight="1" s="202"/>
-    <row r="764" ht="15.75" customHeight="1" s="202"/>
-    <row r="765" ht="15.75" customHeight="1" s="202"/>
-    <row r="766" ht="15.75" customHeight="1" s="202"/>
-    <row r="767" ht="15.75" customHeight="1" s="202"/>
-    <row r="768" ht="15.75" customHeight="1" s="202"/>
-    <row r="769" ht="15.75" customHeight="1" s="202"/>
-    <row r="770" ht="15.75" customHeight="1" s="202"/>
-    <row r="771" ht="15.75" customHeight="1" s="202"/>
-    <row r="772" ht="15.75" customHeight="1" s="202"/>
-    <row r="773" ht="15.75" customHeight="1" s="202"/>
-    <row r="774" ht="15.75" customHeight="1" s="202"/>
-    <row r="775" ht="15.75" customHeight="1" s="202"/>
-    <row r="776" ht="15.75" customHeight="1" s="202"/>
-    <row r="777" ht="15.75" customHeight="1" s="202"/>
-    <row r="778" ht="15.75" customHeight="1" s="202"/>
-    <row r="779" ht="15.75" customHeight="1" s="202"/>
-    <row r="780" ht="15.75" customHeight="1" s="202"/>
-    <row r="781" ht="15.75" customHeight="1" s="202"/>
-    <row r="782" ht="15.75" customHeight="1" s="202"/>
-    <row r="783" ht="15.75" customHeight="1" s="202"/>
-    <row r="784" ht="15.75" customHeight="1" s="202"/>
-    <row r="785" ht="15.75" customHeight="1" s="202"/>
-    <row r="786" ht="15.75" customHeight="1" s="202"/>
-    <row r="787" ht="15.75" customHeight="1" s="202"/>
-    <row r="788" ht="15.75" customHeight="1" s="202"/>
-    <row r="789" ht="15.75" customHeight="1" s="202"/>
-    <row r="790" ht="15.75" customHeight="1" s="202"/>
-    <row r="791" ht="15.75" customHeight="1" s="202"/>
-    <row r="792" ht="15.75" customHeight="1" s="202"/>
-    <row r="793" ht="15.75" customHeight="1" s="202"/>
-    <row r="794" ht="15.75" customHeight="1" s="202"/>
-    <row r="795" ht="15.75" customHeight="1" s="202"/>
-    <row r="796" ht="15.75" customHeight="1" s="202"/>
-    <row r="797" ht="15.75" customHeight="1" s="202"/>
-    <row r="798" ht="15.75" customHeight="1" s="202"/>
-    <row r="799" ht="15.75" customHeight="1" s="202"/>
-    <row r="800" ht="15.75" customHeight="1" s="202"/>
-    <row r="801" ht="15.75" customHeight="1" s="202"/>
-    <row r="802" ht="15.75" customHeight="1" s="202"/>
-    <row r="803" ht="15.75" customHeight="1" s="202"/>
-    <row r="804" ht="15.75" customHeight="1" s="202"/>
-    <row r="805" ht="15.75" customHeight="1" s="202"/>
-    <row r="806" ht="15.75" customHeight="1" s="202"/>
-    <row r="807" ht="15.75" customHeight="1" s="202"/>
-    <row r="808" ht="15.75" customHeight="1" s="202"/>
-    <row r="809" ht="15.75" customHeight="1" s="202"/>
-    <row r="810" ht="15.75" customHeight="1" s="202"/>
-    <row r="811" ht="15.75" customHeight="1" s="202"/>
-    <row r="812" ht="15.75" customHeight="1" s="202"/>
-    <row r="813" ht="15.75" customHeight="1" s="202"/>
-    <row r="814" ht="15.75" customHeight="1" s="202"/>
-    <row r="815" ht="15.75" customHeight="1" s="202"/>
-    <row r="816" ht="15.75" customHeight="1" s="202"/>
-    <row r="817" ht="15.75" customHeight="1" s="202"/>
-    <row r="818" ht="15.75" customHeight="1" s="202"/>
-    <row r="819" ht="15.75" customHeight="1" s="202"/>
-    <row r="820" ht="15.75" customHeight="1" s="202"/>
-    <row r="821" ht="15.75" customHeight="1" s="202"/>
-    <row r="822" ht="15.75" customHeight="1" s="202"/>
-    <row r="823" ht="15.75" customHeight="1" s="202"/>
-    <row r="824" ht="15.75" customHeight="1" s="202"/>
-    <row r="825" ht="15.75" customHeight="1" s="202"/>
-    <row r="826" ht="15.75" customHeight="1" s="202"/>
-    <row r="827" ht="15.75" customHeight="1" s="202"/>
-    <row r="828" ht="15.75" customHeight="1" s="202"/>
-    <row r="829" ht="15.75" customHeight="1" s="202"/>
-    <row r="830" ht="15.75" customHeight="1" s="202"/>
-    <row r="831" ht="15.75" customHeight="1" s="202"/>
-    <row r="832" ht="15.75" customHeight="1" s="202"/>
-    <row r="833" ht="15.75" customHeight="1" s="202"/>
-    <row r="834" ht="15.75" customHeight="1" s="202"/>
-    <row r="835" ht="15.75" customHeight="1" s="202"/>
-    <row r="836" ht="15.75" customHeight="1" s="202"/>
-    <row r="837" ht="15.75" customHeight="1" s="202"/>
-    <row r="838" ht="15.75" customHeight="1" s="202"/>
-    <row r="839" ht="15.75" customHeight="1" s="202"/>
-    <row r="840" ht="15.75" customHeight="1" s="202"/>
-    <row r="841" ht="15.75" customHeight="1" s="202"/>
-    <row r="842" ht="15.75" customHeight="1" s="202"/>
-    <row r="843" ht="15.75" customHeight="1" s="202"/>
-    <row r="844" ht="15.75" customHeight="1" s="202"/>
-    <row r="845" ht="15.75" customHeight="1" s="202"/>
-    <row r="846" ht="15.75" customHeight="1" s="202"/>
-    <row r="847" ht="15.75" customHeight="1" s="202"/>
-    <row r="848" ht="15.75" customHeight="1" s="202"/>
-    <row r="849" ht="15.75" customHeight="1" s="202"/>
-    <row r="850" ht="15.75" customHeight="1" s="202"/>
-    <row r="851" ht="15.75" customHeight="1" s="202"/>
-    <row r="852" ht="15.75" customHeight="1" s="202"/>
-    <row r="853" ht="15.75" customHeight="1" s="202"/>
-    <row r="854" ht="15.75" customHeight="1" s="202"/>
-    <row r="855" ht="15.75" customHeight="1" s="202"/>
-    <row r="856" ht="15.75" customHeight="1" s="202"/>
-    <row r="857" ht="15.75" customHeight="1" s="202"/>
-    <row r="858" ht="15.75" customHeight="1" s="202"/>
-    <row r="859" ht="15.75" customHeight="1" s="202"/>
-    <row r="860" ht="15.75" customHeight="1" s="202"/>
-    <row r="861" ht="15.75" customHeight="1" s="202"/>
-    <row r="862" ht="15.75" customHeight="1" s="202"/>
-    <row r="863" ht="15.75" customHeight="1" s="202"/>
-    <row r="864" ht="15.75" customHeight="1" s="202"/>
-    <row r="865" ht="15.75" customHeight="1" s="202"/>
-    <row r="866" ht="15.75" customHeight="1" s="202"/>
-    <row r="867" ht="15.75" customHeight="1" s="202"/>
-    <row r="868" ht="15.75" customHeight="1" s="202"/>
-    <row r="869" ht="15.75" customHeight="1" s="202"/>
-    <row r="870" ht="15.75" customHeight="1" s="202"/>
-    <row r="871" ht="15.75" customHeight="1" s="202"/>
-    <row r="872" ht="15.75" customHeight="1" s="202"/>
-    <row r="873" ht="15.75" customHeight="1" s="202"/>
-    <row r="874" ht="15.75" customHeight="1" s="202"/>
-    <row r="875" ht="15.75" customHeight="1" s="202"/>
-    <row r="876" ht="15.75" customHeight="1" s="202"/>
-    <row r="877" ht="15.75" customHeight="1" s="202"/>
-    <row r="878" ht="15.75" customHeight="1" s="202"/>
-    <row r="879" ht="15.75" customHeight="1" s="202"/>
-    <row r="880" ht="15.75" customHeight="1" s="202"/>
-    <row r="881" ht="15.75" customHeight="1" s="202"/>
-    <row r="882" ht="15.75" customHeight="1" s="202"/>
-    <row r="883" ht="15.75" customHeight="1" s="202"/>
-    <row r="884" ht="15.75" customHeight="1" s="202"/>
-    <row r="885" ht="15.75" customHeight="1" s="202"/>
-    <row r="886" ht="15.75" customHeight="1" s="202"/>
-    <row r="887" ht="15.75" customHeight="1" s="202"/>
-    <row r="888" ht="15.75" customHeight="1" s="202"/>
-    <row r="889" ht="15.75" customHeight="1" s="202"/>
-    <row r="890" ht="15.75" customHeight="1" s="202"/>
-    <row r="891" ht="15.75" customHeight="1" s="202"/>
-    <row r="892" ht="15.75" customHeight="1" s="202"/>
-    <row r="893" ht="15.75" customHeight="1" s="202"/>
-    <row r="894" ht="15.75" customHeight="1" s="202"/>
-    <row r="895" ht="15.75" customHeight="1" s="202"/>
-    <row r="896" ht="15.75" customHeight="1" s="202"/>
-    <row r="897" ht="15.75" customHeight="1" s="202"/>
-    <row r="898" ht="15.75" customHeight="1" s="202"/>
-    <row r="899" ht="15.75" customHeight="1" s="202"/>
-    <row r="900" ht="15.75" customHeight="1" s="202"/>
-    <row r="901" ht="15.75" customHeight="1" s="202"/>
-    <row r="902" ht="15.75" customHeight="1" s="202"/>
-    <row r="903" ht="15.75" customHeight="1" s="202"/>
-    <row r="904" ht="15.75" customHeight="1" s="202"/>
-    <row r="905" ht="15.75" customHeight="1" s="202"/>
-    <row r="906" ht="15.75" customHeight="1" s="202"/>
-    <row r="907" ht="15.75" customHeight="1" s="202"/>
-    <row r="908" ht="15.75" customHeight="1" s="202"/>
-    <row r="909" ht="15.75" customHeight="1" s="202"/>
-    <row r="910" ht="15.75" customHeight="1" s="202"/>
-    <row r="911" ht="15.75" customHeight="1" s="202"/>
-    <row r="912" ht="15.75" customHeight="1" s="202"/>
-    <row r="913" ht="15.75" customHeight="1" s="202"/>
-    <row r="914" ht="15.75" customHeight="1" s="202"/>
-    <row r="915" ht="15.75" customHeight="1" s="202"/>
-    <row r="916" ht="15.75" customHeight="1" s="202"/>
-    <row r="917" ht="15.75" customHeight="1" s="202"/>
-    <row r="918" ht="15.75" customHeight="1" s="202"/>
-    <row r="919" ht="15.75" customHeight="1" s="202"/>
-    <row r="920" ht="15.75" customHeight="1" s="202"/>
-    <row r="921" ht="15.75" customHeight="1" s="202"/>
-    <row r="922" ht="15.75" customHeight="1" s="202"/>
-    <row r="923" ht="15.75" customHeight="1" s="202"/>
-    <row r="924" ht="15.75" customHeight="1" s="202"/>
-    <row r="925" ht="15.75" customHeight="1" s="202"/>
-    <row r="926" ht="15.75" customHeight="1" s="202"/>
-    <row r="927" ht="15.75" customHeight="1" s="202"/>
-    <row r="928" ht="15.75" customHeight="1" s="202"/>
-    <row r="929" ht="15.75" customHeight="1" s="202"/>
-    <row r="930" ht="15.75" customHeight="1" s="202"/>
-    <row r="931" ht="15.75" customHeight="1" s="202"/>
-    <row r="932" ht="15.75" customHeight="1" s="202"/>
-    <row r="933" ht="15.75" customHeight="1" s="202"/>
-    <row r="934" ht="15.75" customHeight="1" s="202"/>
-    <row r="935" ht="15.75" customHeight="1" s="202"/>
-    <row r="936" ht="15.75" customHeight="1" s="202"/>
-    <row r="937" ht="15.75" customHeight="1" s="202"/>
-    <row r="938" ht="15.75" customHeight="1" s="202"/>
-    <row r="939" ht="15.75" customHeight="1" s="202"/>
-    <row r="940" ht="15.75" customHeight="1" s="202"/>
-    <row r="941" ht="15.75" customHeight="1" s="202"/>
-    <row r="942" ht="15.75" customHeight="1" s="202"/>
-    <row r="943" ht="15.75" customHeight="1" s="202"/>
-    <row r="944" ht="15.75" customHeight="1" s="202"/>
-    <row r="945" ht="15.75" customHeight="1" s="202"/>
-    <row r="946" ht="15.75" customHeight="1" s="202"/>
-    <row r="947" ht="15.75" customHeight="1" s="202"/>
-    <row r="948" ht="15.75" customHeight="1" s="202"/>
-    <row r="949" ht="15.75" customHeight="1" s="202"/>
-    <row r="950" ht="15.75" customHeight="1" s="202"/>
-    <row r="951" ht="15.75" customHeight="1" s="202"/>
-    <row r="952" ht="15.75" customHeight="1" s="202"/>
-    <row r="953" ht="15.75" customHeight="1" s="202"/>
-    <row r="954" ht="15.75" customHeight="1" s="202"/>
-    <row r="955" ht="15.75" customHeight="1" s="202"/>
-    <row r="956" ht="15.75" customHeight="1" s="202"/>
-    <row r="957" ht="15.75" customHeight="1" s="202"/>
-    <row r="958" ht="15.75" customHeight="1" s="202"/>
-    <row r="959" ht="15.75" customHeight="1" s="202"/>
-    <row r="960" ht="15.75" customHeight="1" s="202"/>
-    <row r="961" ht="15.75" customHeight="1" s="202"/>
-    <row r="962" ht="15.75" customHeight="1" s="202"/>
-    <row r="963" ht="15.75" customHeight="1" s="202"/>
-    <row r="964" ht="15.75" customHeight="1" s="202"/>
-    <row r="965" ht="15.75" customHeight="1" s="202"/>
-    <row r="966" ht="15.75" customHeight="1" s="202"/>
-    <row r="967" ht="15.75" customHeight="1" s="202"/>
-    <row r="968" ht="15.75" customHeight="1" s="202"/>
-    <row r="969" ht="15.75" customHeight="1" s="202"/>
-    <row r="970" ht="15.75" customHeight="1" s="202"/>
-    <row r="971" ht="15.75" customHeight="1" s="202"/>
-    <row r="972" ht="15.75" customHeight="1" s="202"/>
-    <row r="973" ht="15.75" customHeight="1" s="202"/>
-    <row r="974" ht="15.75" customHeight="1" s="202"/>
-    <row r="975" ht="15.75" customHeight="1" s="202"/>
-    <row r="976" ht="15.75" customHeight="1" s="202"/>
-    <row r="977" ht="15.75" customHeight="1" s="202"/>
-    <row r="978" ht="15.75" customHeight="1" s="202"/>
-    <row r="979" ht="15.75" customHeight="1" s="202"/>
-    <row r="980" ht="15.75" customHeight="1" s="202"/>
-    <row r="981" ht="15.75" customHeight="1" s="202"/>
-    <row r="982" ht="15.75" customHeight="1" s="202"/>
-    <row r="983" ht="15.75" customHeight="1" s="202"/>
-    <row r="984" ht="15.75" customHeight="1" s="202"/>
-    <row r="985" ht="15.75" customHeight="1" s="202"/>
-    <row r="986" ht="15.75" customHeight="1" s="202"/>
-    <row r="987" ht="15.75" customHeight="1" s="202"/>
-    <row r="988" ht="15.75" customHeight="1" s="202"/>
-    <row r="989" ht="15.75" customHeight="1" s="202"/>
-    <row r="990" ht="15.75" customHeight="1" s="202"/>
-    <row r="991" ht="15.75" customHeight="1" s="202"/>
-    <row r="992" ht="15.75" customHeight="1" s="202"/>
-    <row r="993" ht="15.75" customHeight="1" s="202"/>
-    <row r="994" ht="15.75" customHeight="1" s="202"/>
-    <row r="995" ht="15.75" customHeight="1" s="202"/>
-    <row r="996" ht="15.75" customHeight="1" s="202"/>
-    <row r="997" ht="15.75" customHeight="1" s="202"/>
-    <row r="998" ht="15.75" customHeight="1" s="202"/>
-    <row r="999" ht="15.75" customHeight="1" s="202"/>
-    <row r="1000" ht="15.75" customHeight="1" s="202"/>
+      <c r="D65" s="211" t="n"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1" s="191"/>
+    <row r="67" ht="15.75" customHeight="1" s="191"/>
+    <row r="68" ht="15.75" customHeight="1" s="191"/>
+    <row r="69" ht="15.75" customHeight="1" s="191"/>
+    <row r="70" ht="15.75" customHeight="1" s="191"/>
+    <row r="71" ht="15.75" customHeight="1" s="191"/>
+    <row r="72" ht="15.75" customHeight="1" s="191"/>
+    <row r="73" ht="15.75" customHeight="1" s="191"/>
+    <row r="74" ht="15.75" customHeight="1" s="191"/>
+    <row r="75" ht="15.75" customHeight="1" s="191"/>
+    <row r="76" ht="15.75" customHeight="1" s="191"/>
+    <row r="77" ht="15.75" customHeight="1" s="191"/>
+    <row r="78" ht="15.75" customHeight="1" s="191"/>
+    <row r="79" ht="15.75" customHeight="1" s="191"/>
+    <row r="80" ht="15.75" customHeight="1" s="191"/>
+    <row r="81" ht="15.75" customHeight="1" s="191"/>
+    <row r="82" ht="15.75" customHeight="1" s="191"/>
+    <row r="83" ht="15.75" customHeight="1" s="191"/>
+    <row r="84" ht="15.75" customHeight="1" s="191"/>
+    <row r="85" ht="15.75" customHeight="1" s="191"/>
+    <row r="86" ht="15.75" customHeight="1" s="191"/>
+    <row r="87" ht="15.75" customHeight="1" s="191"/>
+    <row r="88" ht="15.75" customHeight="1" s="191"/>
+    <row r="89" ht="15.75" customHeight="1" s="191"/>
+    <row r="90" ht="15.75" customHeight="1" s="191"/>
+    <row r="91" ht="15.75" customHeight="1" s="191"/>
+    <row r="92" ht="15.75" customHeight="1" s="191"/>
+    <row r="93" ht="15.75" customHeight="1" s="191"/>
+    <row r="94" ht="15.75" customHeight="1" s="191"/>
+    <row r="95" ht="15.75" customHeight="1" s="191"/>
+    <row r="96" ht="15.75" customHeight="1" s="191"/>
+    <row r="97" ht="15.75" customHeight="1" s="191"/>
+    <row r="98" ht="15.75" customHeight="1" s="191"/>
+    <row r="99" ht="15.75" customHeight="1" s="191"/>
+    <row r="100" ht="15.75" customHeight="1" s="191"/>
+    <row r="101" ht="15.75" customHeight="1" s="191"/>
+    <row r="102" ht="15.75" customHeight="1" s="191"/>
+    <row r="103" ht="15.75" customHeight="1" s="191"/>
+    <row r="104" ht="15.75" customHeight="1" s="191"/>
+    <row r="105" ht="15.75" customHeight="1" s="191"/>
+    <row r="106" ht="15.75" customHeight="1" s="191"/>
+    <row r="107" ht="15.75" customHeight="1" s="191"/>
+    <row r="108" ht="15.75" customHeight="1" s="191"/>
+    <row r="109" ht="15.75" customHeight="1" s="191"/>
+    <row r="110" ht="15.75" customHeight="1" s="191"/>
+    <row r="111" ht="15.75" customHeight="1" s="191"/>
+    <row r="112" ht="15.75" customHeight="1" s="191"/>
+    <row r="113" ht="15.75" customHeight="1" s="191"/>
+    <row r="114" ht="15.75" customHeight="1" s="191"/>
+    <row r="115" ht="15.75" customHeight="1" s="191"/>
+    <row r="116" ht="15.75" customHeight="1" s="191"/>
+    <row r="117" ht="15.75" customHeight="1" s="191"/>
+    <row r="118" ht="15.75" customHeight="1" s="191"/>
+    <row r="119" ht="15.75" customHeight="1" s="191"/>
+    <row r="120" ht="15.75" customHeight="1" s="191"/>
+    <row r="121" ht="15.75" customHeight="1" s="191"/>
+    <row r="122" ht="15.75" customHeight="1" s="191"/>
+    <row r="123" ht="15.75" customHeight="1" s="191"/>
+    <row r="124" ht="15.75" customHeight="1" s="191"/>
+    <row r="125" ht="15.75" customHeight="1" s="191"/>
+    <row r="126" ht="15.75" customHeight="1" s="191"/>
+    <row r="127" ht="15.75" customHeight="1" s="191"/>
+    <row r="128" ht="15.75" customHeight="1" s="191"/>
+    <row r="129" ht="15.75" customHeight="1" s="191"/>
+    <row r="130" ht="15.75" customHeight="1" s="191"/>
+    <row r="131" ht="15.75" customHeight="1" s="191"/>
+    <row r="132" ht="15.75" customHeight="1" s="191"/>
+    <row r="133" ht="15.75" customHeight="1" s="191"/>
+    <row r="134" ht="15.75" customHeight="1" s="191"/>
+    <row r="135" ht="15.75" customHeight="1" s="191"/>
+    <row r="136" ht="15.75" customHeight="1" s="191"/>
+    <row r="137" ht="15.75" customHeight="1" s="191"/>
+    <row r="138" ht="15.75" customHeight="1" s="191"/>
+    <row r="139" ht="15.75" customHeight="1" s="191"/>
+    <row r="140" ht="15.75" customHeight="1" s="191"/>
+    <row r="141" ht="15.75" customHeight="1" s="191"/>
+    <row r="142" ht="15.75" customHeight="1" s="191"/>
+    <row r="143" ht="15.75" customHeight="1" s="191"/>
+    <row r="144" ht="15.75" customHeight="1" s="191"/>
+    <row r="145" ht="15.75" customHeight="1" s="191"/>
+    <row r="146" ht="15.75" customHeight="1" s="191"/>
+    <row r="147" ht="15.75" customHeight="1" s="191"/>
+    <row r="148" ht="15.75" customHeight="1" s="191"/>
+    <row r="149" ht="15.75" customHeight="1" s="191"/>
+    <row r="150" ht="15.75" customHeight="1" s="191"/>
+    <row r="151" ht="15.75" customHeight="1" s="191"/>
+    <row r="152" ht="15.75" customHeight="1" s="191"/>
+    <row r="153" ht="15.75" customHeight="1" s="191"/>
+    <row r="154" ht="15.75" customHeight="1" s="191"/>
+    <row r="155" ht="15.75" customHeight="1" s="191"/>
+    <row r="156" ht="15.75" customHeight="1" s="191"/>
+    <row r="157" ht="15.75" customHeight="1" s="191"/>
+    <row r="158" ht="15.75" customHeight="1" s="191"/>
+    <row r="159" ht="15.75" customHeight="1" s="191"/>
+    <row r="160" ht="15.75" customHeight="1" s="191"/>
+    <row r="161" ht="15.75" customHeight="1" s="191"/>
+    <row r="162" ht="15.75" customHeight="1" s="191"/>
+    <row r="163" ht="15.75" customHeight="1" s="191"/>
+    <row r="164" ht="15.75" customHeight="1" s="191"/>
+    <row r="165" ht="15.75" customHeight="1" s="191"/>
+    <row r="166" ht="15.75" customHeight="1" s="191"/>
+    <row r="167" ht="15.75" customHeight="1" s="191"/>
+    <row r="168" ht="15.75" customHeight="1" s="191"/>
+    <row r="169" ht="15.75" customHeight="1" s="191"/>
+    <row r="170" ht="15.75" customHeight="1" s="191"/>
+    <row r="171" ht="15.75" customHeight="1" s="191"/>
+    <row r="172" ht="15.75" customHeight="1" s="191"/>
+    <row r="173" ht="15.75" customHeight="1" s="191"/>
+    <row r="174" ht="15.75" customHeight="1" s="191"/>
+    <row r="175" ht="15.75" customHeight="1" s="191"/>
+    <row r="176" ht="15.75" customHeight="1" s="191"/>
+    <row r="177" ht="15.75" customHeight="1" s="191"/>
+    <row r="178" ht="15.75" customHeight="1" s="191"/>
+    <row r="179" ht="15.75" customHeight="1" s="191"/>
+    <row r="180" ht="15.75" customHeight="1" s="191"/>
+    <row r="181" ht="15.75" customHeight="1" s="191"/>
+    <row r="182" ht="15.75" customHeight="1" s="191"/>
+    <row r="183" ht="15.75" customHeight="1" s="191"/>
+    <row r="184" ht="15.75" customHeight="1" s="191"/>
+    <row r="185" ht="15.75" customHeight="1" s="191"/>
+    <row r="186" ht="15.75" customHeight="1" s="191"/>
+    <row r="187" ht="15.75" customHeight="1" s="191"/>
+    <row r="188" ht="15.75" customHeight="1" s="191"/>
+    <row r="189" ht="15.75" customHeight="1" s="191"/>
+    <row r="190" ht="15.75" customHeight="1" s="191"/>
+    <row r="191" ht="15.75" customHeight="1" s="191"/>
+    <row r="192" ht="15.75" customHeight="1" s="191"/>
+    <row r="193" ht="15.75" customHeight="1" s="191"/>
+    <row r="194" ht="15.75" customHeight="1" s="191"/>
+    <row r="195" ht="15.75" customHeight="1" s="191"/>
+    <row r="196" ht="15.75" customHeight="1" s="191"/>
+    <row r="197" ht="15.75" customHeight="1" s="191"/>
+    <row r="198" ht="15.75" customHeight="1" s="191"/>
+    <row r="199" ht="15.75" customHeight="1" s="191"/>
+    <row r="200" ht="15.75" customHeight="1" s="191"/>
+    <row r="201" ht="15.75" customHeight="1" s="191"/>
+    <row r="202" ht="15.75" customHeight="1" s="191"/>
+    <row r="203" ht="15.75" customHeight="1" s="191"/>
+    <row r="204" ht="15.75" customHeight="1" s="191"/>
+    <row r="205" ht="15.75" customHeight="1" s="191"/>
+    <row r="206" ht="15.75" customHeight="1" s="191"/>
+    <row r="207" ht="15.75" customHeight="1" s="191"/>
+    <row r="208" ht="15.75" customHeight="1" s="191"/>
+    <row r="209" ht="15.75" customHeight="1" s="191"/>
+    <row r="210" ht="15.75" customHeight="1" s="191"/>
+    <row r="211" ht="15.75" customHeight="1" s="191"/>
+    <row r="212" ht="15.75" customHeight="1" s="191"/>
+    <row r="213" ht="15.75" customHeight="1" s="191"/>
+    <row r="214" ht="15.75" customHeight="1" s="191"/>
+    <row r="215" ht="15.75" customHeight="1" s="191"/>
+    <row r="216" ht="15.75" customHeight="1" s="191"/>
+    <row r="217" ht="15.75" customHeight="1" s="191"/>
+    <row r="218" ht="15.75" customHeight="1" s="191"/>
+    <row r="219" ht="15.75" customHeight="1" s="191"/>
+    <row r="220" ht="15.75" customHeight="1" s="191"/>
+    <row r="221" ht="15.75" customHeight="1" s="191"/>
+    <row r="222" ht="15.75" customHeight="1" s="191"/>
+    <row r="223" ht="15.75" customHeight="1" s="191"/>
+    <row r="224" ht="15.75" customHeight="1" s="191"/>
+    <row r="225" ht="15.75" customHeight="1" s="191"/>
+    <row r="226" ht="15.75" customHeight="1" s="191"/>
+    <row r="227" ht="15.75" customHeight="1" s="191"/>
+    <row r="228" ht="15.75" customHeight="1" s="191"/>
+    <row r="229" ht="15.75" customHeight="1" s="191"/>
+    <row r="230" ht="15.75" customHeight="1" s="191"/>
+    <row r="231" ht="15.75" customHeight="1" s="191"/>
+    <row r="232" ht="15.75" customHeight="1" s="191"/>
+    <row r="233" ht="15.75" customHeight="1" s="191"/>
+    <row r="234" ht="15.75" customHeight="1" s="191"/>
+    <row r="235" ht="15.75" customHeight="1" s="191"/>
+    <row r="236" ht="15.75" customHeight="1" s="191"/>
+    <row r="237" ht="15.75" customHeight="1" s="191"/>
+    <row r="238" ht="15.75" customHeight="1" s="191"/>
+    <row r="239" ht="15.75" customHeight="1" s="191"/>
+    <row r="240" ht="15.75" customHeight="1" s="191"/>
+    <row r="241" ht="15.75" customHeight="1" s="191"/>
+    <row r="242" ht="15.75" customHeight="1" s="191"/>
+    <row r="243" ht="15.75" customHeight="1" s="191"/>
+    <row r="244" ht="15.75" customHeight="1" s="191"/>
+    <row r="245" ht="15.75" customHeight="1" s="191"/>
+    <row r="246" ht="15.75" customHeight="1" s="191"/>
+    <row r="247" ht="15.75" customHeight="1" s="191"/>
+    <row r="248" ht="15.75" customHeight="1" s="191"/>
+    <row r="249" ht="15.75" customHeight="1" s="191"/>
+    <row r="250" ht="15.75" customHeight="1" s="191"/>
+    <row r="251" ht="15.75" customHeight="1" s="191"/>
+    <row r="252" ht="15.75" customHeight="1" s="191"/>
+    <row r="253" ht="15.75" customHeight="1" s="191"/>
+    <row r="254" ht="15.75" customHeight="1" s="191"/>
+    <row r="255" ht="15.75" customHeight="1" s="191"/>
+    <row r="256" ht="15.75" customHeight="1" s="191"/>
+    <row r="257" ht="15.75" customHeight="1" s="191"/>
+    <row r="258" ht="15.75" customHeight="1" s="191"/>
+    <row r="259" ht="15.75" customHeight="1" s="191"/>
+    <row r="260" ht="15.75" customHeight="1" s="191"/>
+    <row r="261" ht="15.75" customHeight="1" s="191"/>
+    <row r="262" ht="15.75" customHeight="1" s="191"/>
+    <row r="263" ht="15.75" customHeight="1" s="191"/>
+    <row r="264" ht="15.75" customHeight="1" s="191"/>
+    <row r="265" ht="15.75" customHeight="1" s="191"/>
+    <row r="266" ht="15.75" customHeight="1" s="191"/>
+    <row r="267" ht="15.75" customHeight="1" s="191"/>
+    <row r="268" ht="15.75" customHeight="1" s="191"/>
+    <row r="269" ht="15.75" customHeight="1" s="191"/>
+    <row r="270" ht="15.75" customHeight="1" s="191"/>
+    <row r="271" ht="15.75" customHeight="1" s="191"/>
+    <row r="272" ht="15.75" customHeight="1" s="191"/>
+    <row r="273" ht="15.75" customHeight="1" s="191"/>
+    <row r="274" ht="15.75" customHeight="1" s="191"/>
+    <row r="275" ht="15.75" customHeight="1" s="191"/>
+    <row r="276" ht="15.75" customHeight="1" s="191"/>
+    <row r="277" ht="15.75" customHeight="1" s="191"/>
+    <row r="278" ht="15.75" customHeight="1" s="191"/>
+    <row r="279" ht="15.75" customHeight="1" s="191"/>
+    <row r="280" ht="15.75" customHeight="1" s="191"/>
+    <row r="281" ht="15.75" customHeight="1" s="191"/>
+    <row r="282" ht="15.75" customHeight="1" s="191"/>
+    <row r="283" ht="15.75" customHeight="1" s="191"/>
+    <row r="284" ht="15.75" customHeight="1" s="191"/>
+    <row r="285" ht="15.75" customHeight="1" s="191"/>
+    <row r="286" ht="15.75" customHeight="1" s="191"/>
+    <row r="287" ht="15.75" customHeight="1" s="191"/>
+    <row r="288" ht="15.75" customHeight="1" s="191"/>
+    <row r="289" ht="15.75" customHeight="1" s="191"/>
+    <row r="290" ht="15.75" customHeight="1" s="191"/>
+    <row r="291" ht="15.75" customHeight="1" s="191"/>
+    <row r="292" ht="15.75" customHeight="1" s="191"/>
+    <row r="293" ht="15.75" customHeight="1" s="191"/>
+    <row r="294" ht="15.75" customHeight="1" s="191"/>
+    <row r="295" ht="15.75" customHeight="1" s="191"/>
+    <row r="296" ht="15.75" customHeight="1" s="191"/>
+    <row r="297" ht="15.75" customHeight="1" s="191"/>
+    <row r="298" ht="15.75" customHeight="1" s="191"/>
+    <row r="299" ht="15.75" customHeight="1" s="191"/>
+    <row r="300" ht="15.75" customHeight="1" s="191"/>
+    <row r="301" ht="15.75" customHeight="1" s="191"/>
+    <row r="302" ht="15.75" customHeight="1" s="191"/>
+    <row r="303" ht="15.75" customHeight="1" s="191"/>
+    <row r="304" ht="15.75" customHeight="1" s="191"/>
+    <row r="305" ht="15.75" customHeight="1" s="191"/>
+    <row r="306" ht="15.75" customHeight="1" s="191"/>
+    <row r="307" ht="15.75" customHeight="1" s="191"/>
+    <row r="308" ht="15.75" customHeight="1" s="191"/>
+    <row r="309" ht="15.75" customHeight="1" s="191"/>
+    <row r="310" ht="15.75" customHeight="1" s="191"/>
+    <row r="311" ht="15.75" customHeight="1" s="191"/>
+    <row r="312" ht="15.75" customHeight="1" s="191"/>
+    <row r="313" ht="15.75" customHeight="1" s="191"/>
+    <row r="314" ht="15.75" customHeight="1" s="191"/>
+    <row r="315" ht="15.75" customHeight="1" s="191"/>
+    <row r="316" ht="15.75" customHeight="1" s="191"/>
+    <row r="317" ht="15.75" customHeight="1" s="191"/>
+    <row r="318" ht="15.75" customHeight="1" s="191"/>
+    <row r="319" ht="15.75" customHeight="1" s="191"/>
+    <row r="320" ht="15.75" customHeight="1" s="191"/>
+    <row r="321" ht="15.75" customHeight="1" s="191"/>
+    <row r="322" ht="15.75" customHeight="1" s="191"/>
+    <row r="323" ht="15.75" customHeight="1" s="191"/>
+    <row r="324" ht="15.75" customHeight="1" s="191"/>
+    <row r="325" ht="15.75" customHeight="1" s="191"/>
+    <row r="326" ht="15.75" customHeight="1" s="191"/>
+    <row r="327" ht="15.75" customHeight="1" s="191"/>
+    <row r="328" ht="15.75" customHeight="1" s="191"/>
+    <row r="329" ht="15.75" customHeight="1" s="191"/>
+    <row r="330" ht="15.75" customHeight="1" s="191"/>
+    <row r="331" ht="15.75" customHeight="1" s="191"/>
+    <row r="332" ht="15.75" customHeight="1" s="191"/>
+    <row r="333" ht="15.75" customHeight="1" s="191"/>
+    <row r="334" ht="15.75" customHeight="1" s="191"/>
+    <row r="335" ht="15.75" customHeight="1" s="191"/>
+    <row r="336" ht="15.75" customHeight="1" s="191"/>
+    <row r="337" ht="15.75" customHeight="1" s="191"/>
+    <row r="338" ht="15.75" customHeight="1" s="191"/>
+    <row r="339" ht="15.75" customHeight="1" s="191"/>
+    <row r="340" ht="15.75" customHeight="1" s="191"/>
+    <row r="341" ht="15.75" customHeight="1" s="191"/>
+    <row r="342" ht="15.75" customHeight="1" s="191"/>
+    <row r="343" ht="15.75" customHeight="1" s="191"/>
+    <row r="344" ht="15.75" customHeight="1" s="191"/>
+    <row r="345" ht="15.75" customHeight="1" s="191"/>
+    <row r="346" ht="15.75" customHeight="1" s="191"/>
+    <row r="347" ht="15.75" customHeight="1" s="191"/>
+    <row r="348" ht="15.75" customHeight="1" s="191"/>
+    <row r="349" ht="15.75" customHeight="1" s="191"/>
+    <row r="350" ht="15.75" customHeight="1" s="191"/>
+    <row r="351" ht="15.75" customHeight="1" s="191"/>
+    <row r="352" ht="15.75" customHeight="1" s="191"/>
+    <row r="353" ht="15.75" customHeight="1" s="191"/>
+    <row r="354" ht="15.75" customHeight="1" s="191"/>
+    <row r="355" ht="15.75" customHeight="1" s="191"/>
+    <row r="356" ht="15.75" customHeight="1" s="191"/>
+    <row r="357" ht="15.75" customHeight="1" s="191"/>
+    <row r="358" ht="15.75" customHeight="1" s="191"/>
+    <row r="359" ht="15.75" customHeight="1" s="191"/>
+    <row r="360" ht="15.75" customHeight="1" s="191"/>
+    <row r="361" ht="15.75" customHeight="1" s="191"/>
+    <row r="362" ht="15.75" customHeight="1" s="191"/>
+    <row r="363" ht="15.75" customHeight="1" s="191"/>
+    <row r="364" ht="15.75" customHeight="1" s="191"/>
+    <row r="365" ht="15.75" customHeight="1" s="191"/>
+    <row r="366" ht="15.75" customHeight="1" s="191"/>
+    <row r="367" ht="15.75" customHeight="1" s="191"/>
+    <row r="368" ht="15.75" customHeight="1" s="191"/>
+    <row r="369" ht="15.75" customHeight="1" s="191"/>
+    <row r="370" ht="15.75" customHeight="1" s="191"/>
+    <row r="371" ht="15.75" customHeight="1" s="191"/>
+    <row r="372" ht="15.75" customHeight="1" s="191"/>
+    <row r="373" ht="15.75" customHeight="1" s="191"/>
+    <row r="374" ht="15.75" customHeight="1" s="191"/>
+    <row r="375" ht="15.75" customHeight="1" s="191"/>
+    <row r="376" ht="15.75" customHeight="1" s="191"/>
+    <row r="377" ht="15.75" customHeight="1" s="191"/>
+    <row r="378" ht="15.75" customHeight="1" s="191"/>
+    <row r="379" ht="15.75" customHeight="1" s="191"/>
+    <row r="380" ht="15.75" customHeight="1" s="191"/>
+    <row r="381" ht="15.75" customHeight="1" s="191"/>
+    <row r="382" ht="15.75" customHeight="1" s="191"/>
+    <row r="383" ht="15.75" customHeight="1" s="191"/>
+    <row r="384" ht="15.75" customHeight="1" s="191"/>
+    <row r="385" ht="15.75" customHeight="1" s="191"/>
+    <row r="386" ht="15.75" customHeight="1" s="191"/>
+    <row r="387" ht="15.75" customHeight="1" s="191"/>
+    <row r="388" ht="15.75" customHeight="1" s="191"/>
+    <row r="389" ht="15.75" customHeight="1" s="191"/>
+    <row r="390" ht="15.75" customHeight="1" s="191"/>
+    <row r="391" ht="15.75" customHeight="1" s="191"/>
+    <row r="392" ht="15.75" customHeight="1" s="191"/>
+    <row r="393" ht="15.75" customHeight="1" s="191"/>
+    <row r="394" ht="15.75" customHeight="1" s="191"/>
+    <row r="395" ht="15.75" customHeight="1" s="191"/>
+    <row r="396" ht="15.75" customHeight="1" s="191"/>
+    <row r="397" ht="15.75" customHeight="1" s="191"/>
+    <row r="398" ht="15.75" customHeight="1" s="191"/>
+    <row r="399" ht="15.75" customHeight="1" s="191"/>
+    <row r="400" ht="15.75" customHeight="1" s="191"/>
+    <row r="401" ht="15.75" customHeight="1" s="191"/>
+    <row r="402" ht="15.75" customHeight="1" s="191"/>
+    <row r="403" ht="15.75" customHeight="1" s="191"/>
+    <row r="404" ht="15.75" customHeight="1" s="191"/>
+    <row r="405" ht="15.75" customHeight="1" s="191"/>
+    <row r="406" ht="15.75" customHeight="1" s="191"/>
+    <row r="407" ht="15.75" customHeight="1" s="191"/>
+    <row r="408" ht="15.75" customHeight="1" s="191"/>
+    <row r="409" ht="15.75" customHeight="1" s="191"/>
+    <row r="410" ht="15.75" customHeight="1" s="191"/>
+    <row r="411" ht="15.75" customHeight="1" s="191"/>
+    <row r="412" ht="15.75" customHeight="1" s="191"/>
+    <row r="413" ht="15.75" customHeight="1" s="191"/>
+    <row r="414" ht="15.75" customHeight="1" s="191"/>
+    <row r="415" ht="15.75" customHeight="1" s="191"/>
+    <row r="416" ht="15.75" customHeight="1" s="191"/>
+    <row r="417" ht="15.75" customHeight="1" s="191"/>
+    <row r="418" ht="15.75" customHeight="1" s="191"/>
+    <row r="419" ht="15.75" customHeight="1" s="191"/>
+    <row r="420" ht="15.75" customHeight="1" s="191"/>
+    <row r="421" ht="15.75" customHeight="1" s="191"/>
+    <row r="422" ht="15.75" customHeight="1" s="191"/>
+    <row r="423" ht="15.75" customHeight="1" s="191"/>
+    <row r="424" ht="15.75" customHeight="1" s="191"/>
+    <row r="425" ht="15.75" customHeight="1" s="191"/>
+    <row r="426" ht="15.75" customHeight="1" s="191"/>
+    <row r="427" ht="15.75" customHeight="1" s="191"/>
+    <row r="428" ht="15.75" customHeight="1" s="191"/>
+    <row r="429" ht="15.75" customHeight="1" s="191"/>
+    <row r="430" ht="15.75" customHeight="1" s="191"/>
+    <row r="431" ht="15.75" customHeight="1" s="191"/>
+    <row r="432" ht="15.75" customHeight="1" s="191"/>
+    <row r="433" ht="15.75" customHeight="1" s="191"/>
+    <row r="434" ht="15.75" customHeight="1" s="191"/>
+    <row r="435" ht="15.75" customHeight="1" s="191"/>
+    <row r="436" ht="15.75" customHeight="1" s="191"/>
+    <row r="437" ht="15.75" customHeight="1" s="191"/>
+    <row r="438" ht="15.75" customHeight="1" s="191"/>
+    <row r="439" ht="15.75" customHeight="1" s="191"/>
+    <row r="440" ht="15.75" customHeight="1" s="191"/>
+    <row r="441" ht="15.75" customHeight="1" s="191"/>
+    <row r="442" ht="15.75" customHeight="1" s="191"/>
+    <row r="443" ht="15.75" customHeight="1" s="191"/>
+    <row r="444" ht="15.75" customHeight="1" s="191"/>
+    <row r="445" ht="15.75" customHeight="1" s="191"/>
+    <row r="446" ht="15.75" customHeight="1" s="191"/>
+    <row r="447" ht="15.75" customHeight="1" s="191"/>
+    <row r="448" ht="15.75" customHeight="1" s="191"/>
+    <row r="449" ht="15.75" customHeight="1" s="191"/>
+    <row r="450" ht="15.75" customHeight="1" s="191"/>
+    <row r="451" ht="15.75" customHeight="1" s="191"/>
+    <row r="452" ht="15.75" customHeight="1" s="191"/>
+    <row r="453" ht="15.75" customHeight="1" s="191"/>
+    <row r="454" ht="15.75" customHeight="1" s="191"/>
+    <row r="455" ht="15.75" customHeight="1" s="191"/>
+    <row r="456" ht="15.75" customHeight="1" s="191"/>
+    <row r="457" ht="15.75" customHeight="1" s="191"/>
+    <row r="458" ht="15.75" customHeight="1" s="191"/>
+    <row r="459" ht="15.75" customHeight="1" s="191"/>
+    <row r="460" ht="15.75" customHeight="1" s="191"/>
+    <row r="461" ht="15.75" customHeight="1" s="191"/>
+    <row r="462" ht="15.75" customHeight="1" s="191"/>
+    <row r="463" ht="15.75" customHeight="1" s="191"/>
+    <row r="464" ht="15.75" customHeight="1" s="191"/>
+    <row r="465" ht="15.75" customHeight="1" s="191"/>
+    <row r="466" ht="15.75" customHeight="1" s="191"/>
+    <row r="467" ht="15.75" customHeight="1" s="191"/>
+    <row r="468" ht="15.75" customHeight="1" s="191"/>
+    <row r="469" ht="15.75" customHeight="1" s="191"/>
+    <row r="470" ht="15.75" customHeight="1" s="191"/>
+    <row r="471" ht="15.75" customHeight="1" s="191"/>
+    <row r="472" ht="15.75" customHeight="1" s="191"/>
+    <row r="473" ht="15.75" customHeight="1" s="191"/>
+    <row r="474" ht="15.75" customHeight="1" s="191"/>
+    <row r="475" ht="15.75" customHeight="1" s="191"/>
+    <row r="476" ht="15.75" customHeight="1" s="191"/>
+    <row r="477" ht="15.75" customHeight="1" s="191"/>
+    <row r="478" ht="15.75" customHeight="1" s="191"/>
+    <row r="479" ht="15.75" customHeight="1" s="191"/>
+    <row r="480" ht="15.75" customHeight="1" s="191"/>
+    <row r="481" ht="15.75" customHeight="1" s="191"/>
+    <row r="482" ht="15.75" customHeight="1" s="191"/>
+    <row r="483" ht="15.75" customHeight="1" s="191"/>
+    <row r="484" ht="15.75" customHeight="1" s="191"/>
+    <row r="485" ht="15.75" customHeight="1" s="191"/>
+    <row r="486" ht="15.75" customHeight="1" s="191"/>
+    <row r="487" ht="15.75" customHeight="1" s="191"/>
+    <row r="488" ht="15.75" customHeight="1" s="191"/>
+    <row r="489" ht="15.75" customHeight="1" s="191"/>
+    <row r="490" ht="15.75" customHeight="1" s="191"/>
+    <row r="491" ht="15.75" customHeight="1" s="191"/>
+    <row r="492" ht="15.75" customHeight="1" s="191"/>
+    <row r="493" ht="15.75" customHeight="1" s="191"/>
+    <row r="494" ht="15.75" customHeight="1" s="191"/>
+    <row r="495" ht="15.75" customHeight="1" s="191"/>
+    <row r="496" ht="15.75" customHeight="1" s="191"/>
+    <row r="497" ht="15.75" customHeight="1" s="191"/>
+    <row r="498" ht="15.75" customHeight="1" s="191"/>
+    <row r="499" ht="15.75" customHeight="1" s="191"/>
+    <row r="500" ht="15.75" customHeight="1" s="191"/>
+    <row r="501" ht="15.75" customHeight="1" s="191"/>
+    <row r="502" ht="15.75" customHeight="1" s="191"/>
+    <row r="503" ht="15.75" customHeight="1" s="191"/>
+    <row r="504" ht="15.75" customHeight="1" s="191"/>
+    <row r="505" ht="15.75" customHeight="1" s="191"/>
+    <row r="506" ht="15.75" customHeight="1" s="191"/>
+    <row r="507" ht="15.75" customHeight="1" s="191"/>
+    <row r="508" ht="15.75" customHeight="1" s="191"/>
+    <row r="509" ht="15.75" customHeight="1" s="191"/>
+    <row r="510" ht="15.75" customHeight="1" s="191"/>
+    <row r="511" ht="15.75" customHeight="1" s="191"/>
+    <row r="512" ht="15.75" customHeight="1" s="191"/>
+    <row r="513" ht="15.75" customHeight="1" s="191"/>
+    <row r="514" ht="15.75" customHeight="1" s="191"/>
+    <row r="515" ht="15.75" customHeight="1" s="191"/>
+    <row r="516" ht="15.75" customHeight="1" s="191"/>
+    <row r="517" ht="15.75" customHeight="1" s="191"/>
+    <row r="518" ht="15.75" customHeight="1" s="191"/>
+    <row r="519" ht="15.75" customHeight="1" s="191"/>
+    <row r="520" ht="15.75" customHeight="1" s="191"/>
+    <row r="521" ht="15.75" customHeight="1" s="191"/>
+    <row r="522" ht="15.75" customHeight="1" s="191"/>
+    <row r="523" ht="15.75" customHeight="1" s="191"/>
+    <row r="524" ht="15.75" customHeight="1" s="191"/>
+    <row r="525" ht="15.75" customHeight="1" s="191"/>
+    <row r="526" ht="15.75" customHeight="1" s="191"/>
+    <row r="527" ht="15.75" customHeight="1" s="191"/>
+    <row r="528" ht="15.75" customHeight="1" s="191"/>
+    <row r="529" ht="15.75" customHeight="1" s="191"/>
+    <row r="530" ht="15.75" customHeight="1" s="191"/>
+    <row r="531" ht="15.75" customHeight="1" s="191"/>
+    <row r="532" ht="15.75" customHeight="1" s="191"/>
+    <row r="533" ht="15.75" customHeight="1" s="191"/>
+    <row r="534" ht="15.75" customHeight="1" s="191"/>
+    <row r="535" ht="15.75" customHeight="1" s="191"/>
+    <row r="536" ht="15.75" customHeight="1" s="191"/>
+    <row r="537" ht="15.75" customHeight="1" s="191"/>
+    <row r="538" ht="15.75" customHeight="1" s="191"/>
+    <row r="539" ht="15.75" customHeight="1" s="191"/>
+    <row r="540" ht="15.75" customHeight="1" s="191"/>
+    <row r="541" ht="15.75" customHeight="1" s="191"/>
+    <row r="542" ht="15.75" customHeight="1" s="191"/>
+    <row r="543" ht="15.75" customHeight="1" s="191"/>
+    <row r="544" ht="15.75" customHeight="1" s="191"/>
+    <row r="545" ht="15.75" customHeight="1" s="191"/>
+    <row r="546" ht="15.75" customHeight="1" s="191"/>
+    <row r="547" ht="15.75" customHeight="1" s="191"/>
+    <row r="548" ht="15.75" customHeight="1" s="191"/>
+    <row r="549" ht="15.75" customHeight="1" s="191"/>
+    <row r="550" ht="15.75" customHeight="1" s="191"/>
+    <row r="551" ht="15.75" customHeight="1" s="191"/>
+    <row r="552" ht="15.75" customHeight="1" s="191"/>
+    <row r="553" ht="15.75" customHeight="1" s="191"/>
+    <row r="554" ht="15.75" customHeight="1" s="191"/>
+    <row r="555" ht="15.75" customHeight="1" s="191"/>
+    <row r="556" ht="15.75" customHeight="1" s="191"/>
+    <row r="557" ht="15.75" customHeight="1" s="191"/>
+    <row r="558" ht="15.75" customHeight="1" s="191"/>
+    <row r="559" ht="15.75" customHeight="1" s="191"/>
+    <row r="560" ht="15.75" customHeight="1" s="191"/>
+    <row r="561" ht="15.75" customHeight="1" s="191"/>
+    <row r="562" ht="15.75" customHeight="1" s="191"/>
+    <row r="563" ht="15.75" customHeight="1" s="191"/>
+    <row r="564" ht="15.75" customHeight="1" s="191"/>
+    <row r="565" ht="15.75" customHeight="1" s="191"/>
+    <row r="566" ht="15.75" customHeight="1" s="191"/>
+    <row r="567" ht="15.75" customHeight="1" s="191"/>
+    <row r="568" ht="15.75" customHeight="1" s="191"/>
+    <row r="569" ht="15.75" customHeight="1" s="191"/>
+    <row r="570" ht="15.75" customHeight="1" s="191"/>
+    <row r="571" ht="15.75" customHeight="1" s="191"/>
+    <row r="572" ht="15.75" customHeight="1" s="191"/>
+    <row r="573" ht="15.75" customHeight="1" s="191"/>
+    <row r="574" ht="15.75" customHeight="1" s="191"/>
+    <row r="575" ht="15.75" customHeight="1" s="191"/>
+    <row r="576" ht="15.75" customHeight="1" s="191"/>
+    <row r="577" ht="15.75" customHeight="1" s="191"/>
+    <row r="578" ht="15.75" customHeight="1" s="191"/>
+    <row r="579" ht="15.75" customHeight="1" s="191"/>
+    <row r="580" ht="15.75" customHeight="1" s="191"/>
+    <row r="581" ht="15.75" customHeight="1" s="191"/>
+    <row r="582" ht="15.75" customHeight="1" s="191"/>
+    <row r="583" ht="15.75" customHeight="1" s="191"/>
+    <row r="584" ht="15.75" customHeight="1" s="191"/>
+    <row r="585" ht="15.75" customHeight="1" s="191"/>
+    <row r="586" ht="15.75" customHeight="1" s="191"/>
+    <row r="587" ht="15.75" customHeight="1" s="191"/>
+    <row r="588" ht="15.75" customHeight="1" s="191"/>
+    <row r="589" ht="15.75" customHeight="1" s="191"/>
+    <row r="590" ht="15.75" customHeight="1" s="191"/>
+    <row r="591" ht="15.75" customHeight="1" s="191"/>
+    <row r="592" ht="15.75" customHeight="1" s="191"/>
+    <row r="593" ht="15.75" customHeight="1" s="191"/>
+    <row r="594" ht="15.75" customHeight="1" s="191"/>
+    <row r="595" ht="15.75" customHeight="1" s="191"/>
+    <row r="596" ht="15.75" customHeight="1" s="191"/>
+    <row r="597" ht="15.75" customHeight="1" s="191"/>
+    <row r="598" ht="15.75" customHeight="1" s="191"/>
+    <row r="599" ht="15.75" customHeight="1" s="191"/>
+    <row r="600" ht="15.75" customHeight="1" s="191"/>
+    <row r="601" ht="15.75" customHeight="1" s="191"/>
+    <row r="602" ht="15.75" customHeight="1" s="191"/>
+    <row r="603" ht="15.75" customHeight="1" s="191"/>
+    <row r="604" ht="15.75" customHeight="1" s="191"/>
+    <row r="605" ht="15.75" customHeight="1" s="191"/>
+    <row r="606" ht="15.75" customHeight="1" s="191"/>
+    <row r="607" ht="15.75" customHeight="1" s="191"/>
+    <row r="608" ht="15.75" customHeight="1" s="191"/>
+    <row r="609" ht="15.75" customHeight="1" s="191"/>
+    <row r="610" ht="15.75" customHeight="1" s="191"/>
+    <row r="611" ht="15.75" customHeight="1" s="191"/>
+    <row r="612" ht="15.75" customHeight="1" s="191"/>
+    <row r="613" ht="15.75" customHeight="1" s="191"/>
+    <row r="614" ht="15.75" customHeight="1" s="191"/>
+    <row r="615" ht="15.75" customHeight="1" s="191"/>
+    <row r="616" ht="15.75" customHeight="1" s="191"/>
+    <row r="617" ht="15.75" customHeight="1" s="191"/>
+    <row r="618" ht="15.75" customHeight="1" s="191"/>
+    <row r="619" ht="15.75" customHeight="1" s="191"/>
+    <row r="620" ht="15.75" customHeight="1" s="191"/>
+    <row r="621" ht="15.75" customHeight="1" s="191"/>
+    <row r="622" ht="15.75" customHeight="1" s="191"/>
+    <row r="623" ht="15.75" customHeight="1" s="191"/>
+    <row r="624" ht="15.75" customHeight="1" s="191"/>
+    <row r="625" ht="15.75" customHeight="1" s="191"/>
+    <row r="626" ht="15.75" customHeight="1" s="191"/>
+    <row r="627" ht="15.75" customHeight="1" s="191"/>
+    <row r="628" ht="15.75" customHeight="1" s="191"/>
+    <row r="629" ht="15.75" customHeight="1" s="191"/>
+    <row r="630" ht="15.75" customHeight="1" s="191"/>
+    <row r="631" ht="15.75" customHeight="1" s="191"/>
+    <row r="632" ht="15.75" customHeight="1" s="191"/>
+    <row r="633" ht="15.75" customHeight="1" s="191"/>
+    <row r="634" ht="15.75" customHeight="1" s="191"/>
+    <row r="635" ht="15.75" customHeight="1" s="191"/>
+    <row r="636" ht="15.75" customHeight="1" s="191"/>
+    <row r="637" ht="15.75" customHeight="1" s="191"/>
+    <row r="638" ht="15.75" customHeight="1" s="191"/>
+    <row r="639" ht="15.75" customHeight="1" s="191"/>
+    <row r="640" ht="15.75" customHeight="1" s="191"/>
+    <row r="641" ht="15.75" customHeight="1" s="191"/>
+    <row r="642" ht="15.75" customHeight="1" s="191"/>
+    <row r="643" ht="15.75" customHeight="1" s="191"/>
+    <row r="644" ht="15.75" customHeight="1" s="191"/>
+    <row r="645" ht="15.75" customHeight="1" s="191"/>
+    <row r="646" ht="15.75" customHeight="1" s="191"/>
+    <row r="647" ht="15.75" customHeight="1" s="191"/>
+    <row r="648" ht="15.75" customHeight="1" s="191"/>
+    <row r="649" ht="15.75" customHeight="1" s="191"/>
+    <row r="650" ht="15.75" customHeight="1" s="191"/>
+    <row r="651" ht="15.75" customHeight="1" s="191"/>
+    <row r="652" ht="15.75" customHeight="1" s="191"/>
+    <row r="653" ht="15.75" customHeight="1" s="191"/>
+    <row r="654" ht="15.75" customHeight="1" s="191"/>
+    <row r="655" ht="15.75" customHeight="1" s="191"/>
+    <row r="656" ht="15.75" customHeight="1" s="191"/>
+    <row r="657" ht="15.75" customHeight="1" s="191"/>
+    <row r="658" ht="15.75" customHeight="1" s="191"/>
+    <row r="659" ht="15.75" customHeight="1" s="191"/>
+    <row r="660" ht="15.75" customHeight="1" s="191"/>
+    <row r="661" ht="15.75" customHeight="1" s="191"/>
+    <row r="662" ht="15.75" customHeight="1" s="191"/>
+    <row r="663" ht="15.75" customHeight="1" s="191"/>
+    <row r="664" ht="15.75" customHeight="1" s="191"/>
+    <row r="665" ht="15.75" customHeight="1" s="191"/>
+    <row r="666" ht="15.75" customHeight="1" s="191"/>
+    <row r="667" ht="15.75" customHeight="1" s="191"/>
+    <row r="668" ht="15.75" customHeight="1" s="191"/>
+    <row r="669" ht="15.75" customHeight="1" s="191"/>
+    <row r="670" ht="15.75" customHeight="1" s="191"/>
+    <row r="671" ht="15.75" customHeight="1" s="191"/>
+    <row r="672" ht="15.75" customHeight="1" s="191"/>
+    <row r="673" ht="15.75" customHeight="1" s="191"/>
+    <row r="674" ht="15.75" customHeight="1" s="191"/>
+    <row r="675" ht="15.75" customHeight="1" s="191"/>
+    <row r="676" ht="15.75" customHeight="1" s="191"/>
+    <row r="677" ht="15.75" customHeight="1" s="191"/>
+    <row r="678" ht="15.75" customHeight="1" s="191"/>
+    <row r="679" ht="15.75" customHeight="1" s="191"/>
+    <row r="680" ht="15.75" customHeight="1" s="191"/>
+    <row r="681" ht="15.75" customHeight="1" s="191"/>
+    <row r="682" ht="15.75" customHeight="1" s="191"/>
+    <row r="683" ht="15.75" customHeight="1" s="191"/>
+    <row r="684" ht="15.75" customHeight="1" s="191"/>
+    <row r="685" ht="15.75" customHeight="1" s="191"/>
+    <row r="686" ht="15.75" customHeight="1" s="191"/>
+    <row r="687" ht="15.75" customHeight="1" s="191"/>
+    <row r="688" ht="15.75" customHeight="1" s="191"/>
+    <row r="689" ht="15.75" customHeight="1" s="191"/>
+    <row r="690" ht="15.75" customHeight="1" s="191"/>
+    <row r="691" ht="15.75" customHeight="1" s="191"/>
+    <row r="692" ht="15.75" customHeight="1" s="191"/>
+    <row r="693" ht="15.75" customHeight="1" s="191"/>
+    <row r="694" ht="15.75" customHeight="1" s="191"/>
+    <row r="695" ht="15.75" customHeight="1" s="191"/>
+    <row r="696" ht="15.75" customHeight="1" s="191"/>
+    <row r="697" ht="15.75" customHeight="1" s="191"/>
+    <row r="698" ht="15.75" customHeight="1" s="191"/>
+    <row r="699" ht="15.75" customHeight="1" s="191"/>
+    <row r="700" ht="15.75" customHeight="1" s="191"/>
+    <row r="701" ht="15.75" customHeight="1" s="191"/>
+    <row r="702" ht="15.75" customHeight="1" s="191"/>
+    <row r="703" ht="15.75" customHeight="1" s="191"/>
+    <row r="704" ht="15.75" customHeight="1" s="191"/>
+    <row r="705" ht="15.75" customHeight="1" s="191"/>
+    <row r="706" ht="15.75" customHeight="1" s="191"/>
+    <row r="707" ht="15.75" customHeight="1" s="191"/>
+    <row r="708" ht="15.75" customHeight="1" s="191"/>
+    <row r="709" ht="15.75" customHeight="1" s="191"/>
+    <row r="710" ht="15.75" customHeight="1" s="191"/>
+    <row r="711" ht="15.75" customHeight="1" s="191"/>
+    <row r="712" ht="15.75" customHeight="1" s="191"/>
+    <row r="713" ht="15.75" customHeight="1" s="191"/>
+    <row r="714" ht="15.75" customHeight="1" s="191"/>
+    <row r="715" ht="15.75" customHeight="1" s="191"/>
+    <row r="716" ht="15.75" customHeight="1" s="191"/>
+    <row r="717" ht="15.75" customHeight="1" s="191"/>
+    <row r="718" ht="15.75" customHeight="1" s="191"/>
+    <row r="719" ht="15.75" customHeight="1" s="191"/>
+    <row r="720" ht="15.75" customHeight="1" s="191"/>
+    <row r="721" ht="15.75" customHeight="1" s="191"/>
+    <row r="722" ht="15.75" customHeight="1" s="191"/>
+    <row r="723" ht="15.75" customHeight="1" s="191"/>
+    <row r="724" ht="15.75" customHeight="1" s="191"/>
+    <row r="725" ht="15.75" customHeight="1" s="191"/>
+    <row r="726" ht="15.75" customHeight="1" s="191"/>
+    <row r="727" ht="15.75" customHeight="1" s="191"/>
+    <row r="728" ht="15.75" customHeight="1" s="191"/>
+    <row r="729" ht="15.75" customHeight="1" s="191"/>
+    <row r="730" ht="15.75" customHeight="1" s="191"/>
+    <row r="731" ht="15.75" customHeight="1" s="191"/>
+    <row r="732" ht="15.75" customHeight="1" s="191"/>
+    <row r="733" ht="15.75" customHeight="1" s="191"/>
+    <row r="734" ht="15.75" customHeight="1" s="191"/>
+    <row r="735" ht="15.75" customHeight="1" s="191"/>
+    <row r="736" ht="15.75" customHeight="1" s="191"/>
+    <row r="737" ht="15.75" customHeight="1" s="191"/>
+    <row r="738" ht="15.75" customHeight="1" s="191"/>
+    <row r="739" ht="15.75" customHeight="1" s="191"/>
+    <row r="740" ht="15.75" customHeight="1" s="191"/>
+    <row r="741" ht="15.75" customHeight="1" s="191"/>
+    <row r="742" ht="15.75" customHeight="1" s="191"/>
+    <row r="743" ht="15.75" customHeight="1" s="191"/>
+    <row r="744" ht="15.75" customHeight="1" s="191"/>
+    <row r="745" ht="15.75" customHeight="1" s="191"/>
+    <row r="746" ht="15.75" customHeight="1" s="191"/>
+    <row r="747" ht="15.75" customHeight="1" s="191"/>
+    <row r="748" ht="15.75" customHeight="1" s="191"/>
+    <row r="749" ht="15.75" customHeight="1" s="191"/>
+    <row r="750" ht="15.75" customHeight="1" s="191"/>
+    <row r="751" ht="15.75" customHeight="1" s="191"/>
+    <row r="752" ht="15.75" customHeight="1" s="191"/>
+    <row r="753" ht="15.75" customHeight="1" s="191"/>
+    <row r="754" ht="15.75" customHeight="1" s="191"/>
+    <row r="755" ht="15.75" customHeight="1" s="191"/>
+    <row r="756" ht="15.75" customHeight="1" s="191"/>
+    <row r="757" ht="15.75" customHeight="1" s="191"/>
+    <row r="758" ht="15.75" customHeight="1" s="191"/>
+    <row r="759" ht="15.75" customHeight="1" s="191"/>
+    <row r="760" ht="15.75" customHeight="1" s="191"/>
+    <row r="761" ht="15.75" customHeight="1" s="191"/>
+    <row r="762" ht="15.75" customHeight="1" s="191"/>
+    <row r="763" ht="15.75" customHeight="1" s="191"/>
+    <row r="764" ht="15.75" customHeight="1" s="191"/>
+    <row r="765" ht="15.75" customHeight="1" s="191"/>
+    <row r="766" ht="15.75" customHeight="1" s="191"/>
+    <row r="767" ht="15.75" customHeight="1" s="191"/>
+    <row r="768" ht="15.75" customHeight="1" s="191"/>
+    <row r="769" ht="15.75" customHeight="1" s="191"/>
+    <row r="770" ht="15.75" customHeight="1" s="191"/>
+    <row r="771" ht="15.75" customHeight="1" s="191"/>
+    <row r="772" ht="15.75" customHeight="1" s="191"/>
+    <row r="773" ht="15.75" customHeight="1" s="191"/>
+    <row r="774" ht="15.75" customHeight="1" s="191"/>
+    <row r="775" ht="15.75" customHeight="1" s="191"/>
+    <row r="776" ht="15.75" customHeight="1" s="191"/>
+    <row r="777" ht="15.75" customHeight="1" s="191"/>
+    <row r="778" ht="15.75" customHeight="1" s="191"/>
+    <row r="779" ht="15.75" customHeight="1" s="191"/>
+    <row r="780" ht="15.75" customHeight="1" s="191"/>
+    <row r="781" ht="15.75" customHeight="1" s="191"/>
+    <row r="782" ht="15.75" customHeight="1" s="191"/>
+    <row r="783" ht="15.75" customHeight="1" s="191"/>
+    <row r="784" ht="15.75" customHeight="1" s="191"/>
+    <row r="785" ht="15.75" customHeight="1" s="191"/>
+    <row r="786" ht="15.75" customHeight="1" s="191"/>
+    <row r="787" ht="15.75" customHeight="1" s="191"/>
+    <row r="788" ht="15.75" customHeight="1" s="191"/>
+    <row r="789" ht="15.75" customHeight="1" s="191"/>
+    <row r="790" ht="15.75" customHeight="1" s="191"/>
+    <row r="791" ht="15.75" customHeight="1" s="191"/>
+    <row r="792" ht="15.75" customHeight="1" s="191"/>
+    <row r="793" ht="15.75" customHeight="1" s="191"/>
+    <row r="794" ht="15.75" customHeight="1" s="191"/>
+    <row r="795" ht="15.75" customHeight="1" s="191"/>
+    <row r="796" ht="15.75" customHeight="1" s="191"/>
+    <row r="797" ht="15.75" customHeight="1" s="191"/>
+    <row r="798" ht="15.75" customHeight="1" s="191"/>
+    <row r="799" ht="15.75" customHeight="1" s="191"/>
+    <row r="800" ht="15.75" customHeight="1" s="191"/>
+    <row r="801" ht="15.75" customHeight="1" s="191"/>
+    <row r="802" ht="15.75" customHeight="1" s="191"/>
+    <row r="803" ht="15.75" customHeight="1" s="191"/>
+    <row r="804" ht="15.75" customHeight="1" s="191"/>
+    <row r="805" ht="15.75" customHeight="1" s="191"/>
+    <row r="806" ht="15.75" customHeight="1" s="191"/>
+    <row r="807" ht="15.75" customHeight="1" s="191"/>
+    <row r="808" ht="15.75" customHeight="1" s="191"/>
+    <row r="809" ht="15.75" customHeight="1" s="191"/>
+    <row r="810" ht="15.75" customHeight="1" s="191"/>
+    <row r="811" ht="15.75" customHeight="1" s="191"/>
+    <row r="812" ht="15.75" customHeight="1" s="191"/>
+    <row r="813" ht="15.75" customHeight="1" s="191"/>
+    <row r="814" ht="15.75" customHeight="1" s="191"/>
+    <row r="815" ht="15.75" customHeight="1" s="191"/>
+    <row r="816" ht="15.75" customHeight="1" s="191"/>
+    <row r="817" ht="15.75" customHeight="1" s="191"/>
+    <row r="818" ht="15.75" customHeight="1" s="191"/>
+    <row r="819" ht="15.75" customHeight="1" s="191"/>
+    <row r="820" ht="15.75" customHeight="1" s="191"/>
+    <row r="821" ht="15.75" customHeight="1" s="191"/>
+    <row r="822" ht="15.75" customHeight="1" s="191"/>
+    <row r="823" ht="15.75" customHeight="1" s="191"/>
+    <row r="824" ht="15.75" customHeight="1" s="191"/>
+    <row r="825" ht="15.75" customHeight="1" s="191"/>
+    <row r="826" ht="15.75" customHeight="1" s="191"/>
+    <row r="827" ht="15.75" customHeight="1" s="191"/>
+    <row r="828" ht="15.75" customHeight="1" s="191"/>
+    <row r="829" ht="15.75" customHeight="1" s="191"/>
+    <row r="830" ht="15.75" customHeight="1" s="191"/>
+    <row r="831" ht="15.75" customHeight="1" s="191"/>
+    <row r="832" ht="15.75" customHeight="1" s="191"/>
+    <row r="833" ht="15.75" customHeight="1" s="191"/>
+    <row r="834" ht="15.75" customHeight="1" s="191"/>
+    <row r="835" ht="15.75" customHeight="1" s="191"/>
+    <row r="836" ht="15.75" customHeight="1" s="191"/>
+    <row r="837" ht="15.75" customHeight="1" s="191"/>
+    <row r="838" ht="15.75" customHeight="1" s="191"/>
+    <row r="839" ht="15.75" customHeight="1" s="191"/>
+    <row r="840" ht="15.75" customHeight="1" s="191"/>
+    <row r="841" ht="15.75" customHeight="1" s="191"/>
+    <row r="842" ht="15.75" customHeight="1" s="191"/>
+    <row r="843" ht="15.75" customHeight="1" s="191"/>
+    <row r="844" ht="15.75" customHeight="1" s="191"/>
+    <row r="845" ht="15.75" customHeight="1" s="191"/>
+    <row r="846" ht="15.75" customHeight="1" s="191"/>
+    <row r="847" ht="15.75" customHeight="1" s="191"/>
+    <row r="848" ht="15.75" customHeight="1" s="191"/>
+    <row r="849" ht="15.75" customHeight="1" s="191"/>
+    <row r="850" ht="15.75" customHeight="1" s="191"/>
+    <row r="851" ht="15.75" customHeight="1" s="191"/>
+    <row r="852" ht="15.75" customHeight="1" s="191"/>
+    <row r="853" ht="15.75" customHeight="1" s="191"/>
+    <row r="854" ht="15.75" customHeight="1" s="191"/>
+    <row r="855" ht="15.75" customHeight="1" s="191"/>
+    <row r="856" ht="15.75" customHeight="1" s="191"/>
+    <row r="857" ht="15.75" customHeight="1" s="191"/>
+    <row r="858" ht="15.75" customHeight="1" s="191"/>
+    <row r="859" ht="15.75" customHeight="1" s="191"/>
+    <row r="860" ht="15.75" customHeight="1" s="191"/>
+    <row r="861" ht="15.75" customHeight="1" s="191"/>
+    <row r="862" ht="15.75" customHeight="1" s="191"/>
+    <row r="863" ht="15.75" customHeight="1" s="191"/>
+    <row r="864" ht="15.75" customHeight="1" s="191"/>
+    <row r="865" ht="15.75" customHeight="1" s="191"/>
+    <row r="866" ht="15.75" customHeight="1" s="191"/>
+    <row r="867" ht="15.75" customHeight="1" s="191"/>
+    <row r="868" ht="15.75" customHeight="1" s="191"/>
+    <row r="869" ht="15.75" customHeight="1" s="191"/>
+    <row r="870" ht="15.75" customHeight="1" s="191"/>
+    <row r="871" ht="15.75" customHeight="1" s="191"/>
+    <row r="872" ht="15.75" customHeight="1" s="191"/>
+    <row r="873" ht="15.75" customHeight="1" s="191"/>
+    <row r="874" ht="15.75" customHeight="1" s="191"/>
+    <row r="875" ht="15.75" customHeight="1" s="191"/>
+    <row r="876" ht="15.75" customHeight="1" s="191"/>
+    <row r="877" ht="15.75" customHeight="1" s="191"/>
+    <row r="878" ht="15.75" customHeight="1" s="191"/>
+    <row r="879" ht="15.75" customHeight="1" s="191"/>
+    <row r="880" ht="15.75" customHeight="1" s="191"/>
+    <row r="881" ht="15.75" customHeight="1" s="191"/>
+    <row r="882" ht="15.75" customHeight="1" s="191"/>
+    <row r="883" ht="15.75" customHeight="1" s="191"/>
+    <row r="884" ht="15.75" customHeight="1" s="191"/>
+    <row r="885" ht="15.75" customHeight="1" s="191"/>
+    <row r="886" ht="15.75" customHeight="1" s="191"/>
+    <row r="887" ht="15.75" customHeight="1" s="191"/>
+    <row r="888" ht="15.75" customHeight="1" s="191"/>
+    <row r="889" ht="15.75" customHeight="1" s="191"/>
+    <row r="890" ht="15.75" customHeight="1" s="191"/>
+    <row r="891" ht="15.75" customHeight="1" s="191"/>
+    <row r="892" ht="15.75" customHeight="1" s="191"/>
+    <row r="893" ht="15.75" customHeight="1" s="191"/>
+    <row r="894" ht="15.75" customHeight="1" s="191"/>
+    <row r="895" ht="15.75" customHeight="1" s="191"/>
+    <row r="896" ht="15.75" customHeight="1" s="191"/>
+    <row r="897" ht="15.75" customHeight="1" s="191"/>
+    <row r="898" ht="15.75" customHeight="1" s="191"/>
+    <row r="899" ht="15.75" customHeight="1" s="191"/>
+    <row r="900" ht="15.75" customHeight="1" s="191"/>
+    <row r="901" ht="15.75" customHeight="1" s="191"/>
+    <row r="902" ht="15.75" customHeight="1" s="191"/>
+    <row r="903" ht="15.75" customHeight="1" s="191"/>
+    <row r="904" ht="15.75" customHeight="1" s="191"/>
+    <row r="905" ht="15.75" customHeight="1" s="191"/>
+    <row r="906" ht="15.75" customHeight="1" s="191"/>
+    <row r="907" ht="15.75" customHeight="1" s="191"/>
+    <row r="908" ht="15.75" customHeight="1" s="191"/>
+    <row r="909" ht="15.75" customHeight="1" s="191"/>
+    <row r="910" ht="15.75" customHeight="1" s="191"/>
+    <row r="911" ht="15.75" customHeight="1" s="191"/>
+    <row r="912" ht="15.75" customHeight="1" s="191"/>
+    <row r="913" ht="15.75" customHeight="1" s="191"/>
+    <row r="914" ht="15.75" customHeight="1" s="191"/>
+    <row r="915" ht="15.75" customHeight="1" s="191"/>
+    <row r="916" ht="15.75" customHeight="1" s="191"/>
+    <row r="917" ht="15.75" customHeight="1" s="191"/>
+    <row r="918" ht="15.75" customHeight="1" s="191"/>
+    <row r="919" ht="15.75" customHeight="1" s="191"/>
+    <row r="920" ht="15.75" customHeight="1" s="191"/>
+    <row r="921" ht="15.75" customHeight="1" s="191"/>
+    <row r="922" ht="15.75" customHeight="1" s="191"/>
+    <row r="923" ht="15.75" customHeight="1" s="191"/>
+    <row r="924" ht="15.75" customHeight="1" s="191"/>
+    <row r="925" ht="15.75" customHeight="1" s="191"/>
+    <row r="926" ht="15.75" customHeight="1" s="191"/>
+    <row r="927" ht="15.75" customHeight="1" s="191"/>
+    <row r="928" ht="15.75" customHeight="1" s="191"/>
+    <row r="929" ht="15.75" customHeight="1" s="191"/>
+    <row r="930" ht="15.75" customHeight="1" s="191"/>
+    <row r="931" ht="15.75" customHeight="1" s="191"/>
+    <row r="932" ht="15.75" customHeight="1" s="191"/>
+    <row r="933" ht="15.75" customHeight="1" s="191"/>
+    <row r="934" ht="15.75" customHeight="1" s="191"/>
+    <row r="935" ht="15.75" customHeight="1" s="191"/>
+    <row r="936" ht="15.75" customHeight="1" s="191"/>
+    <row r="937" ht="15.75" customHeight="1" s="191"/>
+    <row r="938" ht="15.75" customHeight="1" s="191"/>
+    <row r="939" ht="15.75" customHeight="1" s="191"/>
+    <row r="940" ht="15.75" customHeight="1" s="191"/>
+    <row r="941" ht="15.75" customHeight="1" s="191"/>
+    <row r="942" ht="15.75" customHeight="1" s="191"/>
+    <row r="943" ht="15.75" customHeight="1" s="191"/>
+    <row r="944" ht="15.75" customHeight="1" s="191"/>
+    <row r="945" ht="15.75" customHeight="1" s="191"/>
+    <row r="946" ht="15.75" customHeight="1" s="191"/>
+    <row r="947" ht="15.75" customHeight="1" s="191"/>
+    <row r="948" ht="15.75" customHeight="1" s="191"/>
+    <row r="949" ht="15.75" customHeight="1" s="191"/>
+    <row r="950" ht="15.75" customHeight="1" s="191"/>
+    <row r="951" ht="15.75" customHeight="1" s="191"/>
+    <row r="952" ht="15.75" customHeight="1" s="191"/>
+    <row r="953" ht="15.75" customHeight="1" s="191"/>
+    <row r="954" ht="15.75" customHeight="1" s="191"/>
+    <row r="955" ht="15.75" customHeight="1" s="191"/>
+    <row r="956" ht="15.75" customHeight="1" s="191"/>
+    <row r="957" ht="15.75" customHeight="1" s="191"/>
+    <row r="958" ht="15.75" customHeight="1" s="191"/>
+    <row r="959" ht="15.75" customHeight="1" s="191"/>
+    <row r="960" ht="15.75" customHeight="1" s="191"/>
+    <row r="961" ht="15.75" customHeight="1" s="191"/>
+    <row r="962" ht="15.75" customHeight="1" s="191"/>
+    <row r="963" ht="15.75" customHeight="1" s="191"/>
+    <row r="964" ht="15.75" customHeight="1" s="191"/>
+    <row r="965" ht="15.75" customHeight="1" s="191"/>
+    <row r="966" ht="15.75" customHeight="1" s="191"/>
+    <row r="967" ht="15.75" customHeight="1" s="191"/>
+    <row r="968" ht="15.75" customHeight="1" s="191"/>
+    <row r="969" ht="15.75" customHeight="1" s="191"/>
+    <row r="970" ht="15.75" customHeight="1" s="191"/>
+    <row r="971" ht="15.75" customHeight="1" s="191"/>
+    <row r="972" ht="15.75" customHeight="1" s="191"/>
+    <row r="973" ht="15.75" customHeight="1" s="191"/>
+    <row r="974" ht="15.75" customHeight="1" s="191"/>
+    <row r="975" ht="15.75" customHeight="1" s="191"/>
+    <row r="976" ht="15.75" customHeight="1" s="191"/>
+    <row r="977" ht="15.75" customHeight="1" s="191"/>
+    <row r="978" ht="15.75" customHeight="1" s="191"/>
+    <row r="979" ht="15.75" customHeight="1" s="191"/>
+    <row r="980" ht="15.75" customHeight="1" s="191"/>
+    <row r="981" ht="15.75" customHeight="1" s="191"/>
+    <row r="982" ht="15.75" customHeight="1" s="191"/>
+    <row r="983" ht="15.75" customHeight="1" s="191"/>
+    <row r="984" ht="15.75" customHeight="1" s="191"/>
+    <row r="985" ht="15.75" customHeight="1" s="191"/>
+    <row r="986" ht="15.75" customHeight="1" s="191"/>
+    <row r="987" ht="15.75" customHeight="1" s="191"/>
+    <row r="988" ht="15.75" customHeight="1" s="191"/>
+    <row r="989" ht="15.75" customHeight="1" s="191"/>
+    <row r="990" ht="15.75" customHeight="1" s="191"/>
+    <row r="991" ht="15.75" customHeight="1" s="191"/>
+    <row r="992" ht="15.75" customHeight="1" s="191"/>
+    <row r="993" ht="15.75" customHeight="1" s="191"/>
+    <row r="994" ht="15.75" customHeight="1" s="191"/>
+    <row r="995" ht="15.75" customHeight="1" s="191"/>
+    <row r="996" ht="15.75" customHeight="1" s="191"/>
+    <row r="997" ht="15.75" customHeight="1" s="191"/>
+    <row r="998" ht="15.75" customHeight="1" s="191"/>
+    <row r="999" ht="15.75" customHeight="1" s="191"/>
+    <row r="1000" ht="15.75" customHeight="1" s="191"/>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
     <mergeCell ref="S42:T42"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C16:L16"/>
@@ -8963,6 +8944,37 @@
     <mergeCell ref="H39:L40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="J59:J60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -8983,20 +8995,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="2.42578125" customWidth="1" style="202" min="1" max="1"/>
-    <col width="4.42578125" customWidth="1" style="202" min="2" max="2"/>
-    <col width="16.7109375" customWidth="1" style="202" min="3" max="4"/>
-    <col width="4.42578125" bestFit="1" customWidth="1" style="202" min="6" max="6"/>
-    <col width="16.7109375" customWidth="1" style="202" min="7" max="8"/>
-    <col width="7.42578125" bestFit="1" customWidth="1" style="202" min="9" max="9"/>
-    <col width="4" customWidth="1" style="202" min="10" max="10"/>
-    <col width="16.85546875" customWidth="1" style="202" min="11" max="12"/>
-    <col width="4.140625" customWidth="1" style="202" min="14" max="14"/>
-    <col width="16.7109375" customWidth="1" style="202" min="15" max="17"/>
+    <col width="2.42578125" customWidth="1" style="191" min="1" max="1"/>
+    <col width="4.42578125" customWidth="1" style="191" min="2" max="2"/>
+    <col width="16.7109375" customWidth="1" style="191" min="3" max="4"/>
+    <col width="4.42578125" bestFit="1" customWidth="1" style="191" min="6" max="6"/>
+    <col width="16.7109375" customWidth="1" style="191" min="7" max="8"/>
+    <col width="7.42578125" bestFit="1" customWidth="1" style="191" min="9" max="9"/>
+    <col width="4" customWidth="1" style="191" min="10" max="10"/>
+    <col width="16.85546875" customWidth="1" style="191" min="11" max="12"/>
+    <col width="4.140625" customWidth="1" style="191" min="14" max="14"/>
+    <col width="16.7109375" customWidth="1" style="191" min="15" max="17"/>
   </cols>
   <sheetData>
-    <row r="2" ht="26.25" customHeight="1" s="202">
-      <c r="C2" s="208" t="inlineStr">
+    <row r="2" ht="26.25" customHeight="1" s="191">
+      <c r="C2" s="190" t="inlineStr">
         <is>
           <t xml:space="preserve">EURO 2020 </t>
         </is>
@@ -9290,21 +9302,21 @@
       <c r="K15" s="83" t="n"/>
       <c r="L15" s="83" t="n"/>
     </row>
-    <row r="16" ht="39.95" customHeight="1" s="202">
-      <c r="C16" s="192" t="inlineStr">
+    <row r="16" ht="39.95" customHeight="1" s="191">
+      <c r="C16" s="208" t="inlineStr">
         <is>
           <t>Group Stage predictions are made in a single submission and are due by Thursday Evening June 10th, 2021.</t>
         </is>
       </c>
-      <c r="D16" s="193" t="n"/>
-      <c r="E16" s="193" t="n"/>
-      <c r="F16" s="193" t="n"/>
-      <c r="G16" s="193" t="n"/>
-      <c r="H16" s="193" t="n"/>
-      <c r="I16" s="193" t="n"/>
-      <c r="J16" s="193" t="n"/>
-      <c r="K16" s="193" t="n"/>
-      <c r="L16" s="193" t="n"/>
+      <c r="D16" s="196" t="n"/>
+      <c r="E16" s="196" t="n"/>
+      <c r="F16" s="196" t="n"/>
+      <c r="G16" s="196" t="n"/>
+      <c r="H16" s="196" t="n"/>
+      <c r="I16" s="196" t="n"/>
+      <c r="J16" s="196" t="n"/>
+      <c r="K16" s="196" t="n"/>
+      <c r="L16" s="196" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="32" t="inlineStr">
@@ -9312,19 +9324,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D17" s="209" t="n"/>
-      <c r="E17" s="204" t="n"/>
-      <c r="F17" s="204" t="n"/>
-      <c r="G17" s="205" t="n"/>
-      <c r="H17" s="203" t="inlineStr">
+      <c r="D17" s="192" t="n"/>
+      <c r="E17" s="193" t="n"/>
+      <c r="F17" s="193" t="n"/>
+      <c r="G17" s="194" t="n"/>
+      <c r="H17" s="199" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I17" s="204" t="n"/>
-      <c r="J17" s="204" t="n"/>
-      <c r="K17" s="204" t="n"/>
-      <c r="L17" s="205" t="n"/>
+      <c r="I17" s="193" t="n"/>
+      <c r="J17" s="193" t="n"/>
+      <c r="K17" s="193" t="n"/>
+      <c r="L17" s="194" t="n"/>
     </row>
     <row r="18">
       <c r="C18" s="33" t="inlineStr">
@@ -9332,50 +9344,50 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D18" s="196" t="n"/>
-      <c r="E18" s="193" t="n"/>
-      <c r="F18" s="193" t="n"/>
+      <c r="D18" s="195" t="n"/>
+      <c r="E18" s="196" t="n"/>
+      <c r="F18" s="196" t="n"/>
       <c r="G18" s="197" t="n"/>
-      <c r="H18" s="206" t="n"/>
-      <c r="I18" s="193" t="n"/>
-      <c r="J18" s="193" t="n"/>
-      <c r="K18" s="193" t="n"/>
+      <c r="H18" s="200" t="n"/>
+      <c r="I18" s="196" t="n"/>
+      <c r="J18" s="196" t="n"/>
+      <c r="K18" s="196" t="n"/>
       <c r="L18" s="197" t="n"/>
     </row>
     <row r="19">
       <c r="C19" s="31" t="n"/>
     </row>
     <row r="20" customFormat="1" s="5">
-      <c r="C20" s="207" t="inlineStr">
+      <c r="C20" s="201" t="inlineStr">
         <is>
           <t>Match Day 1</t>
         </is>
       </c>
-      <c r="D20" s="204" t="n"/>
+      <c r="D20" s="193" t="n"/>
       <c r="E20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
       <c r="F20" s="36" t="n"/>
-      <c r="G20" s="207" t="inlineStr">
+      <c r="G20" s="201" t="inlineStr">
         <is>
           <t>Match Day 2</t>
         </is>
       </c>
-      <c r="H20" s="204" t="n"/>
+      <c r="H20" s="193" t="n"/>
       <c r="I20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
       <c r="J20" s="36" t="n"/>
-      <c r="K20" s="207" t="inlineStr">
+      <c r="K20" s="201" t="inlineStr">
         <is>
           <t>Match Day 3</t>
         </is>
       </c>
-      <c r="L20" s="204" t="n"/>
+      <c r="L20" s="193" t="n"/>
       <c r="M20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
@@ -10022,21 +10034,21 @@
       <c r="L36" s="97" t="n"/>
       <c r="M36" s="92" t="n"/>
     </row>
-    <row r="38" ht="39.95" customHeight="1" s="202">
-      <c r="C38" s="192" t="inlineStr">
+    <row r="38" ht="39.95" customHeight="1" s="191">
+      <c r="C38" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">We'll do the competition in two halves since the Round of 16 is heavily dependent on the Group Stages. </t>
         </is>
       </c>
-      <c r="D38" s="193" t="n"/>
-      <c r="E38" s="193" t="n"/>
-      <c r="F38" s="193" t="n"/>
-      <c r="G38" s="193" t="n"/>
-      <c r="H38" s="193" t="n"/>
-      <c r="I38" s="193" t="n"/>
-      <c r="J38" s="193" t="n"/>
-      <c r="K38" s="193" t="n"/>
-      <c r="L38" s="193" t="n"/>
+      <c r="D38" s="196" t="n"/>
+      <c r="E38" s="196" t="n"/>
+      <c r="F38" s="196" t="n"/>
+      <c r="G38" s="196" t="n"/>
+      <c r="H38" s="196" t="n"/>
+      <c r="I38" s="196" t="n"/>
+      <c r="J38" s="196" t="n"/>
+      <c r="K38" s="196" t="n"/>
+      <c r="L38" s="196" t="n"/>
     </row>
     <row r="39">
       <c r="C39" s="32" t="inlineStr">
@@ -10044,19 +10056,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D39" s="209" t="n"/>
-      <c r="E39" s="204" t="n"/>
-      <c r="F39" s="204" t="n"/>
-      <c r="G39" s="205" t="n"/>
-      <c r="H39" s="203" t="inlineStr">
+      <c r="D39" s="192" t="n"/>
+      <c r="E39" s="193" t="n"/>
+      <c r="F39" s="193" t="n"/>
+      <c r="G39" s="194" t="n"/>
+      <c r="H39" s="199" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULTS         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I39" s="204" t="n"/>
-      <c r="J39" s="204" t="n"/>
-      <c r="K39" s="204" t="n"/>
-      <c r="L39" s="205" t="n"/>
+      <c r="I39" s="193" t="n"/>
+      <c r="J39" s="193" t="n"/>
+      <c r="K39" s="193" t="n"/>
+      <c r="L39" s="194" t="n"/>
     </row>
     <row r="40">
       <c r="C40" s="33" t="inlineStr">
@@ -10064,27 +10076,27 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D40" s="196" t="n"/>
-      <c r="E40" s="193" t="n"/>
-      <c r="F40" s="193" t="n"/>
+      <c r="D40" s="195" t="n"/>
+      <c r="E40" s="196" t="n"/>
+      <c r="F40" s="196" t="n"/>
       <c r="G40" s="197" t="n"/>
-      <c r="H40" s="206" t="n"/>
-      <c r="I40" s="193" t="n"/>
-      <c r="J40" s="193" t="n"/>
-      <c r="K40" s="193" t="n"/>
+      <c r="H40" s="200" t="n"/>
+      <c r="I40" s="196" t="n"/>
+      <c r="J40" s="196" t="n"/>
+      <c r="K40" s="196" t="n"/>
       <c r="L40" s="197" t="n"/>
     </row>
     <row r="41">
       <c r="B41" s="46" t="n"/>
-      <c r="C41" s="193" t="n"/>
+      <c r="C41" s="196" t="n"/>
     </row>
     <row r="42">
-      <c r="B42" s="198" t="inlineStr">
+      <c r="B42" s="209" t="inlineStr">
         <is>
           <t>Round of 16</t>
         </is>
       </c>
-      <c r="C42" s="193" t="n"/>
+      <c r="C42" s="196" t="n"/>
       <c r="D42" s="30" t="inlineStr">
         <is>
           <t>Results</t>
@@ -10127,11 +10139,11 @@
         </is>
       </c>
       <c r="Q42" s="39" t="n"/>
-      <c r="S42" s="201" t="n"/>
+      <c r="S42" s="198" t="n"/>
       <c r="U42" s="39" t="n"/>
     </row>
     <row r="43">
-      <c r="B43" s="190" t="inlineStr">
+      <c r="B43" s="207" t="inlineStr">
         <is>
           <t>R1</t>
         </is>
@@ -10141,18 +10153,18 @@
           <t>Winner Group A</t>
         </is>
       </c>
-      <c r="D43" s="195" t="n"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B44" s="191" t="n"/>
-      <c r="C44" s="206" t="inlineStr">
+      <c r="D43" s="202" t="n"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B44" s="203" t="n"/>
+      <c r="C44" s="200" t="inlineStr">
         <is>
           <t>2nd Group C</t>
         </is>
       </c>
-      <c r="D44" s="191" t="n"/>
+      <c r="D44" s="203" t="n"/>
       <c r="E44" s="44" t="n"/>
-      <c r="F44" s="194" t="inlineStr">
+      <c r="F44" s="206" t="inlineStr">
         <is>
           <t>QF1</t>
         </is>
@@ -10162,22 +10174,22 @@
           <t>Winner R1</t>
         </is>
       </c>
-      <c r="H44" s="195" t="n"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="H44" s="202" t="n"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1" s="191" thickBot="1">
       <c r="B45" s="5" t="n"/>
       <c r="D45" s="93" t="n"/>
       <c r="E45" s="43" t="n"/>
-      <c r="F45" s="191" t="n"/>
+      <c r="F45" s="203" t="n"/>
       <c r="G45" s="41" t="inlineStr">
         <is>
           <t>Winner R2</t>
         </is>
       </c>
-      <c r="H45" s="191" t="n"/>
+      <c r="H45" s="203" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="190" t="inlineStr">
+      <c r="B46" s="207" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
@@ -10187,22 +10199,22 @@
           <t>Winner Group B</t>
         </is>
       </c>
-      <c r="D46" s="195" t="n"/>
+      <c r="D46" s="202" t="n"/>
       <c r="G46" s="1" t="n"/>
       <c r="H46" s="94" t="n"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B47" s="191" t="n"/>
-      <c r="C47" s="206" t="inlineStr">
+    <row r="47" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B47" s="203" t="n"/>
+      <c r="C47" s="200" t="inlineStr">
         <is>
           <t>3rd Group A/D/E/F</t>
         </is>
       </c>
-      <c r="D47" s="191" t="n"/>
+      <c r="D47" s="203" t="n"/>
       <c r="G47" s="1" t="n"/>
       <c r="H47" s="95" t="n"/>
       <c r="I47" s="43" t="n"/>
-      <c r="J47" s="199" t="inlineStr">
+      <c r="J47" s="204" t="inlineStr">
         <is>
           <t>SF1</t>
         </is>
@@ -10212,8 +10224,8 @@
           <t>Winner QF1</t>
         </is>
       </c>
-      <c r="L47" s="195" t="n"/>
-      <c r="S47" s="201" t="n"/>
+      <c r="L47" s="202" t="n"/>
+      <c r="S47" s="198" t="n"/>
       <c r="U47" s="39" t="n"/>
     </row>
     <row r="48">
@@ -10221,16 +10233,16 @@
       <c r="D48" s="93" t="n"/>
       <c r="G48" s="1" t="n"/>
       <c r="H48" s="95" t="n"/>
-      <c r="J48" s="191" t="n"/>
+      <c r="J48" s="203" t="n"/>
       <c r="K48" s="42" t="inlineStr">
         <is>
           <t>Winner QF2</t>
         </is>
       </c>
-      <c r="L48" s="191" t="n"/>
+      <c r="L48" s="203" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="190" t="inlineStr">
+      <c r="B49" s="207" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
@@ -10240,22 +10252,22 @@
           <t>Winner Group F</t>
         </is>
       </c>
-      <c r="D49" s="195" t="n"/>
+      <c r="D49" s="202" t="n"/>
       <c r="G49" s="1" t="n"/>
       <c r="H49" s="96" t="n"/>
       <c r="K49" s="37" t="n"/>
       <c r="L49" s="94" t="n"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B50" s="191" t="n"/>
-      <c r="C50" s="206" t="inlineStr">
+    <row r="50" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B50" s="203" t="n"/>
+      <c r="C50" s="200" t="inlineStr">
         <is>
           <t>3rd Group A/B/C</t>
         </is>
       </c>
-      <c r="D50" s="191" t="n"/>
+      <c r="D50" s="203" t="n"/>
       <c r="E50" s="43" t="n"/>
-      <c r="F50" s="194" t="inlineStr">
+      <c r="F50" s="206" t="inlineStr">
         <is>
           <t>QF2</t>
         </is>
@@ -10265,26 +10277,26 @@
           <t>Winner R3</t>
         </is>
       </c>
-      <c r="H50" s="195" t="n"/>
+      <c r="H50" s="202" t="n"/>
       <c r="K50" s="37" t="n"/>
       <c r="L50" s="95" t="n"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1" s="202" thickBot="1">
+    <row r="51" ht="15.75" customHeight="1" s="191" thickBot="1">
       <c r="B51" s="5" t="n"/>
       <c r="D51" s="93" t="n"/>
       <c r="E51" s="43" t="n"/>
-      <c r="F51" s="191" t="n"/>
+      <c r="F51" s="203" t="n"/>
       <c r="G51" s="41" t="inlineStr">
         <is>
           <t>Winner R4</t>
         </is>
       </c>
-      <c r="H51" s="191" t="n"/>
+      <c r="H51" s="203" t="n"/>
       <c r="K51" s="37" t="n"/>
       <c r="L51" s="95" t="n"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B52" s="190" t="inlineStr">
+    <row r="52" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B52" s="207" t="inlineStr">
         <is>
           <t>R4</t>
         </is>
@@ -10294,13 +10306,13 @@
           <t>2nd Group D</t>
         </is>
       </c>
-      <c r="D52" s="195" t="n"/>
+      <c r="D52" s="202" t="n"/>
       <c r="G52" s="1" t="n"/>
       <c r="H52" s="93" t="n"/>
       <c r="K52" s="37" t="n"/>
       <c r="L52" s="95" t="n"/>
       <c r="M52" s="43" t="n"/>
-      <c r="N52" s="200" t="inlineStr">
+      <c r="N52" s="205" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -10310,27 +10322,27 @@
           <t>Winner SF1</t>
         </is>
       </c>
-      <c r="P52" s="195" t="n"/>
+      <c r="P52" s="202" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="191" t="n"/>
-      <c r="C53" s="206" t="inlineStr">
+      <c r="B53" s="203" t="n"/>
+      <c r="C53" s="200" t="inlineStr">
         <is>
           <t>2nd Group E</t>
         </is>
       </c>
-      <c r="D53" s="191" t="n"/>
+      <c r="D53" s="203" t="n"/>
       <c r="G53" s="1" t="n"/>
       <c r="H53" s="93" t="n"/>
       <c r="K53" s="37" t="n"/>
       <c r="L53" s="95" t="n"/>
-      <c r="N53" s="191" t="n"/>
+      <c r="N53" s="203" t="n"/>
       <c r="O53" s="42" t="inlineStr">
         <is>
           <t>Winner SF2</t>
         </is>
       </c>
-      <c r="P53" s="191" t="n"/>
+      <c r="P53" s="203" t="n"/>
     </row>
     <row r="54">
       <c r="B54" s="5" t="n"/>
@@ -10341,7 +10353,7 @@
       <c r="L54" s="95" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="190" t="inlineStr">
+      <c r="B55" s="207" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
@@ -10351,22 +10363,22 @@
           <t>Winner Group E</t>
         </is>
       </c>
-      <c r="D55" s="195" t="n"/>
+      <c r="D55" s="202" t="n"/>
       <c r="G55" s="1" t="n"/>
       <c r="H55" s="93" t="n"/>
       <c r="K55" s="37" t="n"/>
       <c r="L55" s="95" t="n"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B56" s="191" t="n"/>
-      <c r="C56" s="206" t="inlineStr">
+    <row r="56" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B56" s="203" t="n"/>
+      <c r="C56" s="200" t="inlineStr">
         <is>
           <t>3rd Group A/B/C/D</t>
         </is>
       </c>
-      <c r="D56" s="191" t="n"/>
+      <c r="D56" s="203" t="n"/>
       <c r="E56" s="44" t="n"/>
-      <c r="F56" s="194" t="inlineStr">
+      <c r="F56" s="206" t="inlineStr">
         <is>
           <t>QF3</t>
         </is>
@@ -10376,26 +10388,26 @@
           <t>Winner R5</t>
         </is>
       </c>
-      <c r="H56" s="195" t="n"/>
+      <c r="H56" s="202" t="n"/>
       <c r="K56" s="37" t="n"/>
       <c r="L56" s="95" t="n"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1" s="202" thickBot="1">
+    <row r="57" ht="15.75" customHeight="1" s="191" thickBot="1">
       <c r="B57" s="5" t="n"/>
       <c r="D57" s="93" t="n"/>
       <c r="E57" s="45" t="n"/>
-      <c r="F57" s="191" t="n"/>
+      <c r="F57" s="203" t="n"/>
       <c r="G57" s="41" t="inlineStr">
         <is>
           <t>Winner R6</t>
         </is>
       </c>
-      <c r="H57" s="191" t="n"/>
+      <c r="H57" s="203" t="n"/>
       <c r="K57" s="37" t="n"/>
       <c r="L57" s="95" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="190" t="inlineStr">
+      <c r="B58" s="207" t="inlineStr">
         <is>
           <t>R6</t>
         </is>
@@ -10405,24 +10417,24 @@
           <t>Winner Group D</t>
         </is>
       </c>
-      <c r="D58" s="195" t="n"/>
+      <c r="D58" s="202" t="n"/>
       <c r="G58" s="1" t="n"/>
       <c r="H58" s="94" t="n"/>
       <c r="K58" s="37" t="n"/>
       <c r="L58" s="96" t="n"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B59" s="191" t="n"/>
-      <c r="C59" s="206" t="inlineStr">
+    <row r="59" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B59" s="203" t="n"/>
+      <c r="C59" s="200" t="inlineStr">
         <is>
           <t>2nd Group F</t>
         </is>
       </c>
-      <c r="D59" s="191" t="n"/>
+      <c r="D59" s="203" t="n"/>
       <c r="G59" s="1" t="n"/>
       <c r="H59" s="95" t="n"/>
       <c r="I59" s="43" t="n"/>
-      <c r="J59" s="199" t="inlineStr">
+      <c r="J59" s="204" t="inlineStr">
         <is>
           <t>SF2</t>
         </is>
@@ -10432,23 +10444,23 @@
           <t>Winner QF3</t>
         </is>
       </c>
-      <c r="L59" s="195" t="n"/>
+      <c r="L59" s="202" t="n"/>
     </row>
     <row r="60">
       <c r="B60" s="5" t="n"/>
       <c r="D60" s="93" t="n"/>
       <c r="G60" s="1" t="n"/>
       <c r="H60" s="95" t="n"/>
-      <c r="J60" s="191" t="n"/>
+      <c r="J60" s="203" t="n"/>
       <c r="K60" s="42" t="inlineStr">
         <is>
           <t>Winner QF4</t>
         </is>
       </c>
-      <c r="L60" s="191" t="n"/>
+      <c r="L60" s="203" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="190" t="inlineStr">
+      <c r="B61" s="207" t="inlineStr">
         <is>
           <t>R7</t>
         </is>
@@ -10458,20 +10470,20 @@
           <t>Winner GroupC</t>
         </is>
       </c>
-      <c r="D61" s="195" t="n"/>
+      <c r="D61" s="202" t="n"/>
       <c r="G61" s="1" t="n"/>
       <c r="H61" s="96" t="n"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B62" s="191" t="n"/>
-      <c r="C62" s="206" t="inlineStr">
+    <row r="62" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B62" s="203" t="n"/>
+      <c r="C62" s="200" t="inlineStr">
         <is>
           <t>3rd Group D/E/F</t>
         </is>
       </c>
-      <c r="D62" s="191" t="n"/>
+      <c r="D62" s="203" t="n"/>
       <c r="E62" s="44" t="n"/>
-      <c r="F62" s="194" t="inlineStr">
+      <c r="F62" s="206" t="inlineStr">
         <is>
           <t>QF4</t>
         </is>
@@ -10481,22 +10493,22 @@
           <t>Winner R7</t>
         </is>
       </c>
-      <c r="H62" s="195" t="n"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="H62" s="202" t="n"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" s="191" thickBot="1">
       <c r="B63" s="5" t="n"/>
       <c r="D63" s="93" t="n"/>
       <c r="E63" s="45" t="n"/>
-      <c r="F63" s="191" t="n"/>
+      <c r="F63" s="203" t="n"/>
       <c r="G63" s="41" t="inlineStr">
         <is>
           <t>Winner R8</t>
         </is>
       </c>
-      <c r="H63" s="191" t="n"/>
+      <c r="H63" s="203" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="190" t="inlineStr">
+      <c r="B64" s="207" t="inlineStr">
         <is>
           <t>R8</t>
         </is>
@@ -10506,50 +10518,19 @@
           <t>2nd Group A</t>
         </is>
       </c>
-      <c r="D64" s="195" t="n"/>
+      <c r="D64" s="202" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" s="191" t="n"/>
-      <c r="C65" s="206" t="inlineStr">
+      <c r="B65" s="203" t="n"/>
+      <c r="C65" s="200" t="inlineStr">
         <is>
           <t>2nd Group B</t>
         </is>
       </c>
-      <c r="D65" s="191" t="n"/>
+      <c r="D65" s="203" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
     <mergeCell ref="S42:T42"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C16:L16"/>
@@ -10564,6 +10545,37 @@
     <mergeCell ref="H39:L40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="J59:J60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Euro2020/result_files/EC_2020.xlsx
+++ b/Euro2020/result_files/EC_2020.xlsx
@@ -1237,74 +1237,58 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="15"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="15"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="15"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="13">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="13">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
       <alignment horizontal="center"/>
@@ -1335,6 +1319,22 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -1731,25 +1731,25 @@
   <dimension ref="B2:U65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="2.42578125" customWidth="1" style="191" min="1" max="1"/>
-    <col width="4.42578125" customWidth="1" style="191" min="2" max="2"/>
-    <col width="16.7109375" customWidth="1" style="191" min="3" max="4"/>
-    <col width="4.42578125" bestFit="1" customWidth="1" style="191" min="6" max="6"/>
-    <col width="16.7109375" customWidth="1" style="191" min="7" max="8"/>
-    <col width="7.42578125" bestFit="1" customWidth="1" style="191" min="9" max="9"/>
-    <col width="4" customWidth="1" style="191" min="10" max="10"/>
-    <col width="16.85546875" customWidth="1" style="191" min="11" max="12"/>
-    <col width="4.140625" customWidth="1" style="191" min="14" max="14"/>
-    <col width="16.7109375" customWidth="1" style="191" min="15" max="17"/>
+    <col width="2.42578125" customWidth="1" style="202" min="1" max="1"/>
+    <col width="4.42578125" customWidth="1" style="202" min="2" max="2"/>
+    <col width="16.7109375" customWidth="1" style="202" min="3" max="4"/>
+    <col width="4.42578125" bestFit="1" customWidth="1" style="202" min="6" max="6"/>
+    <col width="16.7109375" customWidth="1" style="202" min="7" max="8"/>
+    <col width="7.42578125" bestFit="1" customWidth="1" style="202" min="9" max="9"/>
+    <col width="4" customWidth="1" style="202" min="10" max="10"/>
+    <col width="16.85546875" customWidth="1" style="202" min="11" max="12"/>
+    <col width="4.140625" customWidth="1" style="202" min="14" max="14"/>
+    <col width="16.7109375" customWidth="1" style="202" min="15" max="17"/>
   </cols>
   <sheetData>
-    <row r="2" ht="26.25" customHeight="1" s="191">
-      <c r="C2" s="190" t="inlineStr">
+    <row r="2" ht="26.25" customHeight="1" s="202">
+      <c r="C2" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">EURO 2020 </t>
         </is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="L11" s="19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -2036,7 +2036,7 @@
         </is>
       </c>
       <c r="H13" s="27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="83" t="n"/>
       <c r="J13" s="83" t="n"/>
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="L13" s="19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="H14" s="29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="83" t="n"/>
       <c r="J14" s="83" t="n"/>
@@ -2076,7 +2076,7 @@
         </is>
       </c>
       <c r="L14" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -2091,21 +2091,21 @@
       <c r="K15" s="83" t="n"/>
       <c r="L15" s="83" t="n"/>
     </row>
-    <row r="16" ht="39.95" customHeight="1" s="191">
-      <c r="C16" s="208" t="inlineStr">
+    <row r="16" ht="39.95" customHeight="1" s="202">
+      <c r="C16" s="192" t="inlineStr">
         <is>
           <t>Group Stage predictions are made in a single submission and are due by Thursday Evening June 10th, 2021.</t>
         </is>
       </c>
-      <c r="D16" s="196" t="n"/>
-      <c r="E16" s="196" t="n"/>
-      <c r="F16" s="196" t="n"/>
-      <c r="G16" s="196" t="n"/>
-      <c r="H16" s="196" t="n"/>
-      <c r="I16" s="196" t="n"/>
-      <c r="J16" s="196" t="n"/>
-      <c r="K16" s="196" t="n"/>
-      <c r="L16" s="196" t="n"/>
+      <c r="D16" s="193" t="n"/>
+      <c r="E16" s="193" t="n"/>
+      <c r="F16" s="193" t="n"/>
+      <c r="G16" s="193" t="n"/>
+      <c r="H16" s="193" t="n"/>
+      <c r="I16" s="193" t="n"/>
+      <c r="J16" s="193" t="n"/>
+      <c r="K16" s="193" t="n"/>
+      <c r="L16" s="193" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="32" t="inlineStr">
@@ -2113,19 +2113,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D17" s="192" t="n"/>
-      <c r="E17" s="193" t="n"/>
-      <c r="F17" s="193" t="n"/>
-      <c r="G17" s="194" t="n"/>
-      <c r="H17" s="199" t="inlineStr">
+      <c r="D17" s="209" t="n"/>
+      <c r="E17" s="204" t="n"/>
+      <c r="F17" s="204" t="n"/>
+      <c r="G17" s="205" t="n"/>
+      <c r="H17" s="203" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I17" s="193" t="n"/>
-      <c r="J17" s="193" t="n"/>
-      <c r="K17" s="193" t="n"/>
-      <c r="L17" s="194" t="n"/>
+      <c r="I17" s="204" t="n"/>
+      <c r="J17" s="204" t="n"/>
+      <c r="K17" s="204" t="n"/>
+      <c r="L17" s="205" t="n"/>
     </row>
     <row r="18">
       <c r="C18" s="33" t="inlineStr">
@@ -2133,50 +2133,50 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D18" s="195" t="n"/>
-      <c r="E18" s="196" t="n"/>
-      <c r="F18" s="196" t="n"/>
+      <c r="D18" s="196" t="n"/>
+      <c r="E18" s="193" t="n"/>
+      <c r="F18" s="193" t="n"/>
       <c r="G18" s="197" t="n"/>
-      <c r="H18" s="200" t="n"/>
-      <c r="I18" s="196" t="n"/>
-      <c r="J18" s="196" t="n"/>
-      <c r="K18" s="196" t="n"/>
+      <c r="H18" s="206" t="n"/>
+      <c r="I18" s="193" t="n"/>
+      <c r="J18" s="193" t="n"/>
+      <c r="K18" s="193" t="n"/>
       <c r="L18" s="197" t="n"/>
     </row>
     <row r="19">
       <c r="C19" s="31" t="n"/>
     </row>
     <row r="20" customFormat="1" s="5">
-      <c r="C20" s="201" t="inlineStr">
+      <c r="C20" s="207" t="inlineStr">
         <is>
           <t>Match Day 1</t>
         </is>
       </c>
-      <c r="D20" s="193" t="n"/>
+      <c r="D20" s="204" t="n"/>
       <c r="E20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
       <c r="F20" s="36" t="n"/>
-      <c r="G20" s="201" t="inlineStr">
+      <c r="G20" s="207" t="inlineStr">
         <is>
           <t>Match Day 2</t>
         </is>
       </c>
-      <c r="H20" s="193" t="n"/>
+      <c r="H20" s="204" t="n"/>
       <c r="I20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
       <c r="J20" s="36" t="n"/>
-      <c r="K20" s="201" t="inlineStr">
+      <c r="K20" s="207" t="inlineStr">
         <is>
           <t>Match Day 3</t>
         </is>
       </c>
-      <c r="L20" s="193" t="n"/>
+      <c r="L20" s="204" t="n"/>
       <c r="M20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
@@ -2654,7 +2654,11 @@
           <t>France</t>
         </is>
       </c>
-      <c r="I33" s="90" t="n"/>
+      <c r="I33" s="90" t="inlineStr">
+        <is>
+          <t>1-1</t>
+        </is>
+      </c>
       <c r="J33" s="37" t="n"/>
       <c r="K33" s="57" t="inlineStr">
         <is>
@@ -2683,7 +2687,11 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="I34" s="90" t="n"/>
+      <c r="I34" s="90" t="inlineStr">
+        <is>
+          <t>2-4</t>
+        </is>
+      </c>
       <c r="J34" s="37" t="n"/>
       <c r="K34" s="59" t="inlineStr">
         <is>
@@ -2724,7 +2732,11 @@
           <t>Poland</t>
         </is>
       </c>
-      <c r="I35" s="89" t="n"/>
+      <c r="I35" s="89" t="inlineStr">
+        <is>
+          <t>1-1</t>
+        </is>
+      </c>
       <c r="J35" s="37" t="n"/>
       <c r="K35" s="59" t="inlineStr">
         <is>
@@ -2763,21 +2775,21 @@
       <c r="L36" s="97" t="n"/>
       <c r="M36" s="92" t="n"/>
     </row>
-    <row r="38" ht="39.95" customHeight="1" s="191">
-      <c r="C38" s="208" t="inlineStr">
+    <row r="38" ht="39.95" customHeight="1" s="202">
+      <c r="C38" s="192" t="inlineStr">
         <is>
           <t xml:space="preserve">We'll do the competition in two halves since the Round of 16 is heavily dependent on the Group Stages. </t>
         </is>
       </c>
-      <c r="D38" s="196" t="n"/>
-      <c r="E38" s="196" t="n"/>
-      <c r="F38" s="196" t="n"/>
-      <c r="G38" s="196" t="n"/>
-      <c r="H38" s="196" t="n"/>
-      <c r="I38" s="196" t="n"/>
-      <c r="J38" s="196" t="n"/>
-      <c r="K38" s="196" t="n"/>
-      <c r="L38" s="196" t="n"/>
+      <c r="D38" s="193" t="n"/>
+      <c r="E38" s="193" t="n"/>
+      <c r="F38" s="193" t="n"/>
+      <c r="G38" s="193" t="n"/>
+      <c r="H38" s="193" t="n"/>
+      <c r="I38" s="193" t="n"/>
+      <c r="J38" s="193" t="n"/>
+      <c r="K38" s="193" t="n"/>
+      <c r="L38" s="193" t="n"/>
     </row>
     <row r="39">
       <c r="C39" s="32" t="inlineStr">
@@ -2785,19 +2797,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D39" s="192" t="n"/>
-      <c r="E39" s="193" t="n"/>
-      <c r="F39" s="193" t="n"/>
-      <c r="G39" s="194" t="n"/>
-      <c r="H39" s="199" t="inlineStr">
+      <c r="D39" s="209" t="n"/>
+      <c r="E39" s="204" t="n"/>
+      <c r="F39" s="204" t="n"/>
+      <c r="G39" s="205" t="n"/>
+      <c r="H39" s="203" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULTS         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I39" s="193" t="n"/>
-      <c r="J39" s="193" t="n"/>
-      <c r="K39" s="193" t="n"/>
-      <c r="L39" s="194" t="n"/>
+      <c r="I39" s="204" t="n"/>
+      <c r="J39" s="204" t="n"/>
+      <c r="K39" s="204" t="n"/>
+      <c r="L39" s="205" t="n"/>
     </row>
     <row r="40">
       <c r="C40" s="33" t="inlineStr">
@@ -2805,27 +2817,27 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D40" s="195" t="n"/>
-      <c r="E40" s="196" t="n"/>
-      <c r="F40" s="196" t="n"/>
+      <c r="D40" s="196" t="n"/>
+      <c r="E40" s="193" t="n"/>
+      <c r="F40" s="193" t="n"/>
       <c r="G40" s="197" t="n"/>
-      <c r="H40" s="200" t="n"/>
-      <c r="I40" s="196" t="n"/>
-      <c r="J40" s="196" t="n"/>
-      <c r="K40" s="196" t="n"/>
+      <c r="H40" s="206" t="n"/>
+      <c r="I40" s="193" t="n"/>
+      <c r="J40" s="193" t="n"/>
+      <c r="K40" s="193" t="n"/>
       <c r="L40" s="197" t="n"/>
     </row>
     <row r="41">
       <c r="B41" s="46" t="n"/>
-      <c r="C41" s="196" t="n"/>
+      <c r="C41" s="193" t="n"/>
     </row>
     <row r="42">
-      <c r="B42" s="209" t="inlineStr">
+      <c r="B42" s="198" t="inlineStr">
         <is>
           <t>Round of 16</t>
         </is>
       </c>
-      <c r="C42" s="196" t="n"/>
+      <c r="C42" s="193" t="n"/>
       <c r="D42" s="30" t="inlineStr">
         <is>
           <t>Results</t>
@@ -2868,11 +2880,11 @@
         </is>
       </c>
       <c r="Q42" s="39" t="n"/>
-      <c r="S42" s="198" t="n"/>
+      <c r="S42" s="201" t="n"/>
       <c r="U42" s="39" t="n"/>
     </row>
     <row r="43">
-      <c r="B43" s="207" t="inlineStr">
+      <c r="B43" s="190" t="inlineStr">
         <is>
           <t>R1</t>
         </is>
@@ -2882,18 +2894,18 @@
           <t>Winner Group A</t>
         </is>
       </c>
-      <c r="D43" s="202" t="n"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B44" s="203" t="n"/>
-      <c r="C44" s="200" t="inlineStr">
+      <c r="D43" s="195" t="n"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B44" s="191" t="n"/>
+      <c r="C44" s="206" t="inlineStr">
         <is>
           <t>2nd Group C</t>
         </is>
       </c>
-      <c r="D44" s="203" t="n"/>
+      <c r="D44" s="191" t="n"/>
       <c r="E44" s="44" t="n"/>
-      <c r="F44" s="206" t="inlineStr">
+      <c r="F44" s="194" t="inlineStr">
         <is>
           <t>QF1</t>
         </is>
@@ -2903,22 +2915,22 @@
           <t>Winner R1</t>
         </is>
       </c>
-      <c r="H44" s="202" t="n"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="H44" s="195" t="n"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B45" s="5" t="n"/>
       <c r="D45" s="93" t="n"/>
       <c r="E45" s="43" t="n"/>
-      <c r="F45" s="203" t="n"/>
+      <c r="F45" s="191" t="n"/>
       <c r="G45" s="41" t="inlineStr">
         <is>
           <t>Winner R2</t>
         </is>
       </c>
-      <c r="H45" s="203" t="n"/>
+      <c r="H45" s="191" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="207" t="inlineStr">
+      <c r="B46" s="190" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
@@ -2928,22 +2940,22 @@
           <t>Winner Group B</t>
         </is>
       </c>
-      <c r="D46" s="202" t="n"/>
+      <c r="D46" s="195" t="n"/>
       <c r="G46" s="1" t="n"/>
       <c r="H46" s="94" t="n"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B47" s="203" t="n"/>
-      <c r="C47" s="200" t="inlineStr">
+    <row r="47" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B47" s="191" t="n"/>
+      <c r="C47" s="206" t="inlineStr">
         <is>
           <t>3rd Group A/D/E/F</t>
         </is>
       </c>
-      <c r="D47" s="203" t="n"/>
+      <c r="D47" s="191" t="n"/>
       <c r="G47" s="1" t="n"/>
       <c r="H47" s="95" t="n"/>
       <c r="I47" s="43" t="n"/>
-      <c r="J47" s="204" t="inlineStr">
+      <c r="J47" s="199" t="inlineStr">
         <is>
           <t>SF1</t>
         </is>
@@ -2953,8 +2965,8 @@
           <t>Winner QF1</t>
         </is>
       </c>
-      <c r="L47" s="202" t="n"/>
-      <c r="S47" s="198" t="n"/>
+      <c r="L47" s="195" t="n"/>
+      <c r="S47" s="201" t="n"/>
       <c r="U47" s="39" t="n"/>
     </row>
     <row r="48">
@@ -2962,16 +2974,16 @@
       <c r="D48" s="93" t="n"/>
       <c r="G48" s="1" t="n"/>
       <c r="H48" s="95" t="n"/>
-      <c r="J48" s="203" t="n"/>
+      <c r="J48" s="191" t="n"/>
       <c r="K48" s="42" t="inlineStr">
         <is>
           <t>Winner QF2</t>
         </is>
       </c>
-      <c r="L48" s="203" t="n"/>
+      <c r="L48" s="191" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="207" t="inlineStr">
+      <c r="B49" s="190" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
@@ -2981,22 +2993,22 @@
           <t>Winner Group F</t>
         </is>
       </c>
-      <c r="D49" s="202" t="n"/>
+      <c r="D49" s="195" t="n"/>
       <c r="G49" s="1" t="n"/>
       <c r="H49" s="96" t="n"/>
       <c r="K49" s="37" t="n"/>
       <c r="L49" s="94" t="n"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B50" s="203" t="n"/>
-      <c r="C50" s="200" t="inlineStr">
+    <row r="50" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B50" s="191" t="n"/>
+      <c r="C50" s="206" t="inlineStr">
         <is>
           <t>3rd Group A/B/C</t>
         </is>
       </c>
-      <c r="D50" s="203" t="n"/>
+      <c r="D50" s="191" t="n"/>
       <c r="E50" s="43" t="n"/>
-      <c r="F50" s="206" t="inlineStr">
+      <c r="F50" s="194" t="inlineStr">
         <is>
           <t>QF2</t>
         </is>
@@ -3006,26 +3018,26 @@
           <t>Winner R3</t>
         </is>
       </c>
-      <c r="H50" s="202" t="n"/>
+      <c r="H50" s="195" t="n"/>
       <c r="K50" s="37" t="n"/>
       <c r="L50" s="95" t="n"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1" s="191" thickBot="1">
+    <row r="51" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B51" s="5" t="n"/>
       <c r="D51" s="93" t="n"/>
       <c r="E51" s="43" t="n"/>
-      <c r="F51" s="203" t="n"/>
+      <c r="F51" s="191" t="n"/>
       <c r="G51" s="41" t="inlineStr">
         <is>
           <t>Winner R4</t>
         </is>
       </c>
-      <c r="H51" s="203" t="n"/>
+      <c r="H51" s="191" t="n"/>
       <c r="K51" s="37" t="n"/>
       <c r="L51" s="95" t="n"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B52" s="207" t="inlineStr">
+    <row r="52" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B52" s="190" t="inlineStr">
         <is>
           <t>R4</t>
         </is>
@@ -3035,13 +3047,13 @@
           <t>2nd Group D</t>
         </is>
       </c>
-      <c r="D52" s="202" t="n"/>
+      <c r="D52" s="195" t="n"/>
       <c r="G52" s="1" t="n"/>
       <c r="H52" s="93" t="n"/>
       <c r="K52" s="37" t="n"/>
       <c r="L52" s="95" t="n"/>
       <c r="M52" s="43" t="n"/>
-      <c r="N52" s="205" t="inlineStr">
+      <c r="N52" s="200" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -3051,27 +3063,27 @@
           <t>Winner SF1</t>
         </is>
       </c>
-      <c r="P52" s="202" t="n"/>
+      <c r="P52" s="195" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="203" t="n"/>
-      <c r="C53" s="200" t="inlineStr">
+      <c r="B53" s="191" t="n"/>
+      <c r="C53" s="206" t="inlineStr">
         <is>
           <t>2nd Group E</t>
         </is>
       </c>
-      <c r="D53" s="203" t="n"/>
+      <c r="D53" s="191" t="n"/>
       <c r="G53" s="1" t="n"/>
       <c r="H53" s="93" t="n"/>
       <c r="K53" s="37" t="n"/>
       <c r="L53" s="95" t="n"/>
-      <c r="N53" s="203" t="n"/>
+      <c r="N53" s="191" t="n"/>
       <c r="O53" s="42" t="inlineStr">
         <is>
           <t>Winner SF2</t>
         </is>
       </c>
-      <c r="P53" s="203" t="n"/>
+      <c r="P53" s="191" t="n"/>
     </row>
     <row r="54">
       <c r="B54" s="5" t="n"/>
@@ -3082,7 +3094,7 @@
       <c r="L54" s="95" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="207" t="inlineStr">
+      <c r="B55" s="190" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
@@ -3092,22 +3104,22 @@
           <t>Winner Group E</t>
         </is>
       </c>
-      <c r="D55" s="202" t="n"/>
+      <c r="D55" s="195" t="n"/>
       <c r="G55" s="1" t="n"/>
       <c r="H55" s="93" t="n"/>
       <c r="K55" s="37" t="n"/>
       <c r="L55" s="95" t="n"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B56" s="203" t="n"/>
-      <c r="C56" s="200" t="inlineStr">
+    <row r="56" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B56" s="191" t="n"/>
+      <c r="C56" s="206" t="inlineStr">
         <is>
           <t>3rd Group A/B/C/D</t>
         </is>
       </c>
-      <c r="D56" s="203" t="n"/>
+      <c r="D56" s="191" t="n"/>
       <c r="E56" s="44" t="n"/>
-      <c r="F56" s="206" t="inlineStr">
+      <c r="F56" s="194" t="inlineStr">
         <is>
           <t>QF3</t>
         </is>
@@ -3117,26 +3129,26 @@
           <t>Winner R5</t>
         </is>
       </c>
-      <c r="H56" s="202" t="n"/>
+      <c r="H56" s="195" t="n"/>
       <c r="K56" s="37" t="n"/>
       <c r="L56" s="95" t="n"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1" s="191" thickBot="1">
+    <row r="57" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B57" s="5" t="n"/>
       <c r="D57" s="93" t="n"/>
       <c r="E57" s="45" t="n"/>
-      <c r="F57" s="203" t="n"/>
+      <c r="F57" s="191" t="n"/>
       <c r="G57" s="41" t="inlineStr">
         <is>
           <t>Winner R6</t>
         </is>
       </c>
-      <c r="H57" s="203" t="n"/>
+      <c r="H57" s="191" t="n"/>
       <c r="K57" s="37" t="n"/>
       <c r="L57" s="95" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="207" t="inlineStr">
+      <c r="B58" s="190" t="inlineStr">
         <is>
           <t>R6</t>
         </is>
@@ -3146,24 +3158,24 @@
           <t>Winner Group D</t>
         </is>
       </c>
-      <c r="D58" s="202" t="n"/>
+      <c r="D58" s="195" t="n"/>
       <c r="G58" s="1" t="n"/>
       <c r="H58" s="94" t="n"/>
       <c r="K58" s="37" t="n"/>
       <c r="L58" s="96" t="n"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B59" s="203" t="n"/>
-      <c r="C59" s="200" t="inlineStr">
+    <row r="59" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B59" s="191" t="n"/>
+      <c r="C59" s="206" t="inlineStr">
         <is>
           <t>2nd Group F</t>
         </is>
       </c>
-      <c r="D59" s="203" t="n"/>
+      <c r="D59" s="191" t="n"/>
       <c r="G59" s="1" t="n"/>
       <c r="H59" s="95" t="n"/>
       <c r="I59" s="43" t="n"/>
-      <c r="J59" s="204" t="inlineStr">
+      <c r="J59" s="199" t="inlineStr">
         <is>
           <t>SF2</t>
         </is>
@@ -3173,23 +3185,23 @@
           <t>Winner QF3</t>
         </is>
       </c>
-      <c r="L59" s="202" t="n"/>
+      <c r="L59" s="195" t="n"/>
     </row>
     <row r="60">
       <c r="B60" s="5" t="n"/>
       <c r="D60" s="93" t="n"/>
       <c r="G60" s="1" t="n"/>
       <c r="H60" s="95" t="n"/>
-      <c r="J60" s="203" t="n"/>
+      <c r="J60" s="191" t="n"/>
       <c r="K60" s="42" t="inlineStr">
         <is>
           <t>Winner QF4</t>
         </is>
       </c>
-      <c r="L60" s="203" t="n"/>
+      <c r="L60" s="191" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="207" t="inlineStr">
+      <c r="B61" s="190" t="inlineStr">
         <is>
           <t>R7</t>
         </is>
@@ -3199,20 +3211,20 @@
           <t>Winner GroupC</t>
         </is>
       </c>
-      <c r="D61" s="202" t="n"/>
+      <c r="D61" s="195" t="n"/>
       <c r="G61" s="1" t="n"/>
       <c r="H61" s="96" t="n"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B62" s="203" t="n"/>
-      <c r="C62" s="200" t="inlineStr">
+    <row r="62" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B62" s="191" t="n"/>
+      <c r="C62" s="206" t="inlineStr">
         <is>
           <t>3rd Group D/E/F</t>
         </is>
       </c>
-      <c r="D62" s="203" t="n"/>
+      <c r="D62" s="191" t="n"/>
       <c r="E62" s="44" t="n"/>
-      <c r="F62" s="206" t="inlineStr">
+      <c r="F62" s="194" t="inlineStr">
         <is>
           <t>QF4</t>
         </is>
@@ -3222,22 +3234,22 @@
           <t>Winner R7</t>
         </is>
       </c>
-      <c r="H62" s="202" t="n"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="H62" s="195" t="n"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B63" s="5" t="n"/>
       <c r="D63" s="93" t="n"/>
       <c r="E63" s="45" t="n"/>
-      <c r="F63" s="203" t="n"/>
+      <c r="F63" s="191" t="n"/>
       <c r="G63" s="41" t="inlineStr">
         <is>
           <t>Winner R8</t>
         </is>
       </c>
-      <c r="H63" s="203" t="n"/>
+      <c r="H63" s="191" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="207" t="inlineStr">
+      <c r="B64" s="190" t="inlineStr">
         <is>
           <t>R8</t>
         </is>
@@ -3247,29 +3259,39 @@
           <t>2nd Group A</t>
         </is>
       </c>
-      <c r="D64" s="202" t="n"/>
+      <c r="D64" s="195" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" s="203" t="n"/>
-      <c r="C65" s="200" t="inlineStr">
+      <c r="B65" s="191" t="n"/>
+      <c r="C65" s="206" t="inlineStr">
         <is>
           <t>2nd Group B</t>
         </is>
       </c>
-      <c r="D65" s="203" t="n"/>
+      <c r="D65" s="191" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C38:L38"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="H17:L18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="H39:L40"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="H50:H51"/>
     <mergeCell ref="F62:F63"/>
     <mergeCell ref="F56:F57"/>
     <mergeCell ref="F50:F51"/>
@@ -3285,26 +3307,16 @@
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="D64:D65"/>
     <mergeCell ref="D58:D59"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="H17:L18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="H39:L40"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C38:L38"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -3325,15 +3337,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="5.28515625" customWidth="1" style="191" min="1" max="1"/>
-    <col width="15.140625" bestFit="1" customWidth="1" style="191" min="2" max="2"/>
-    <col width="5.7109375" customWidth="1" style="191" min="3" max="4"/>
-    <col width="16.7109375" customWidth="1" style="191" min="5" max="5"/>
-    <col width="5.7109375" customWidth="1" style="191" min="6" max="7"/>
-    <col width="16.7109375" customWidth="1" style="191" min="8" max="8"/>
-    <col width="5.7109375" customWidth="1" style="191" min="9" max="10"/>
-    <col width="16.7109375" customWidth="1" style="191" min="11" max="11"/>
-    <col width="5.7109375" customWidth="1" style="191" min="12" max="13"/>
+    <col width="5.28515625" customWidth="1" style="202" min="1" max="1"/>
+    <col width="15.140625" bestFit="1" customWidth="1" style="202" min="2" max="2"/>
+    <col width="5.7109375" customWidth="1" style="202" min="3" max="4"/>
+    <col width="16.7109375" customWidth="1" style="202" min="5" max="5"/>
+    <col width="5.7109375" customWidth="1" style="202" min="6" max="7"/>
+    <col width="16.7109375" customWidth="1" style="202" min="8" max="8"/>
+    <col width="5.7109375" customWidth="1" style="202" min="9" max="10"/>
+    <col width="16.7109375" customWidth="1" style="202" min="11" max="11"/>
+    <col width="5.7109375" customWidth="1" style="202" min="12" max="13"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -3585,7 +3597,7 @@
         </is>
       </c>
       <c r="L9" s="19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -3632,7 +3644,7 @@
         </is>
       </c>
       <c r="I11" s="27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" s="83" t="n"/>
       <c r="K11" s="18" t="inlineStr">
@@ -3641,7 +3653,7 @@
         </is>
       </c>
       <c r="L11" s="19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -3660,7 +3672,7 @@
         </is>
       </c>
       <c r="I12" s="29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="83" t="n"/>
       <c r="K12" s="20" t="inlineStr">
@@ -3669,7 +3681,7 @@
         </is>
       </c>
       <c r="L12" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3691,25 +3703,25 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="2.42578125" customWidth="1" style="217" min="1" max="1"/>
-    <col width="4.42578125" customWidth="1" style="217" min="2" max="2"/>
-    <col width="16.7109375" customWidth="1" style="217" min="3" max="4"/>
-    <col width="8.7109375" customWidth="1" style="217" min="5" max="5"/>
-    <col width="4.42578125" customWidth="1" style="217" min="6" max="6"/>
-    <col width="16.7109375" customWidth="1" style="217" min="7" max="8"/>
-    <col width="7.42578125" customWidth="1" style="217" min="9" max="9"/>
-    <col width="4" customWidth="1" style="217" min="10" max="10"/>
-    <col width="16.85546875" customWidth="1" style="217" min="11" max="12"/>
-    <col width="8.7109375" customWidth="1" style="217" min="13" max="13"/>
-    <col width="4.140625" customWidth="1" style="217" min="14" max="14"/>
-    <col width="16.7109375" customWidth="1" style="217" min="15" max="17"/>
-    <col width="8.7109375" customWidth="1" style="217" min="18" max="26"/>
-    <col width="14.42578125" customWidth="1" style="217" min="27" max="30"/>
-    <col width="14.42578125" customWidth="1" style="217" min="31" max="16384"/>
+    <col width="2.42578125" customWidth="1" style="211" min="1" max="1"/>
+    <col width="4.42578125" customWidth="1" style="211" min="2" max="2"/>
+    <col width="16.7109375" customWidth="1" style="211" min="3" max="4"/>
+    <col width="8.7109375" customWidth="1" style="211" min="5" max="5"/>
+    <col width="4.42578125" customWidth="1" style="211" min="6" max="6"/>
+    <col width="16.7109375" customWidth="1" style="211" min="7" max="8"/>
+    <col width="7.42578125" customWidth="1" style="211" min="9" max="9"/>
+    <col width="4" customWidth="1" style="211" min="10" max="10"/>
+    <col width="16.85546875" customWidth="1" style="211" min="11" max="12"/>
+    <col width="8.7109375" customWidth="1" style="211" min="13" max="13"/>
+    <col width="4.140625" customWidth="1" style="211" min="14" max="14"/>
+    <col width="16.7109375" customWidth="1" style="211" min="15" max="17"/>
+    <col width="8.7109375" customWidth="1" style="211" min="18" max="26"/>
+    <col width="14.42578125" customWidth="1" style="211" min="27" max="31"/>
+    <col width="14.42578125" customWidth="1" style="211" min="32" max="16384"/>
   </cols>
   <sheetData>
-    <row r="2" ht="26.25" customHeight="1" s="191">
-      <c r="C2" s="218" t="inlineStr">
+    <row r="2" ht="26.25" customHeight="1" s="202">
+      <c r="C2" s="212" t="inlineStr">
         <is>
           <t xml:space="preserve">EURO 2020 </t>
         </is>
@@ -4003,21 +4015,21 @@
       <c r="K15" s="100" t="n"/>
       <c r="L15" s="100" t="n"/>
     </row>
-    <row r="16" ht="39.75" customHeight="1" s="191">
-      <c r="C16" s="219" t="inlineStr">
+    <row r="16" ht="39.75" customHeight="1" s="202">
+      <c r="C16" s="213" t="inlineStr">
         <is>
           <t>Group Stage predictions are made in a single submission and are due by Thursday Evening June 10th, 2021.</t>
         </is>
       </c>
-      <c r="D16" s="220" t="n"/>
-      <c r="E16" s="220" t="n"/>
-      <c r="F16" s="220" t="n"/>
-      <c r="G16" s="220" t="n"/>
-      <c r="H16" s="220" t="n"/>
-      <c r="I16" s="220" t="n"/>
-      <c r="J16" s="220" t="n"/>
-      <c r="K16" s="220" t="n"/>
-      <c r="L16" s="220" t="n"/>
+      <c r="D16" s="214" t="n"/>
+      <c r="E16" s="214" t="n"/>
+      <c r="F16" s="214" t="n"/>
+      <c r="G16" s="214" t="n"/>
+      <c r="H16" s="214" t="n"/>
+      <c r="I16" s="214" t="n"/>
+      <c r="J16" s="214" t="n"/>
+      <c r="K16" s="214" t="n"/>
+      <c r="L16" s="214" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="136" t="inlineStr">
@@ -4025,19 +4037,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D17" s="221" t="n"/>
-      <c r="E17" s="222" t="n"/>
-      <c r="F17" s="222" t="n"/>
-      <c r="G17" s="223" t="n"/>
-      <c r="H17" s="224" t="inlineStr">
+      <c r="D17" s="215" t="n"/>
+      <c r="E17" s="216" t="n"/>
+      <c r="F17" s="216" t="n"/>
+      <c r="G17" s="217" t="n"/>
+      <c r="H17" s="218" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I17" s="222" t="n"/>
-      <c r="J17" s="222" t="n"/>
-      <c r="K17" s="222" t="n"/>
-      <c r="L17" s="223" t="n"/>
+      <c r="I17" s="216" t="n"/>
+      <c r="J17" s="216" t="n"/>
+      <c r="K17" s="216" t="n"/>
+      <c r="L17" s="217" t="n"/>
     </row>
     <row r="18">
       <c r="C18" s="137" t="inlineStr">
@@ -4045,15 +4057,15 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D18" s="227" t="n"/>
-      <c r="E18" s="220" t="n"/>
-      <c r="F18" s="220" t="n"/>
-      <c r="G18" s="226" t="n"/>
-      <c r="H18" s="225" t="n"/>
-      <c r="I18" s="220" t="n"/>
-      <c r="J18" s="220" t="n"/>
-      <c r="K18" s="220" t="n"/>
-      <c r="L18" s="226" t="n"/>
+      <c r="D18" s="221" t="n"/>
+      <c r="E18" s="214" t="n"/>
+      <c r="F18" s="214" t="n"/>
+      <c r="G18" s="220" t="n"/>
+      <c r="H18" s="219" t="n"/>
+      <c r="I18" s="214" t="n"/>
+      <c r="J18" s="214" t="n"/>
+      <c r="K18" s="214" t="n"/>
+      <c r="L18" s="220" t="n"/>
     </row>
     <row r="19">
       <c r="C19" s="100" t="n"/>
@@ -4061,36 +4073,36 @@
     <row r="20">
       <c r="A20" s="138" t="n"/>
       <c r="B20" s="138" t="n"/>
-      <c r="C20" s="228" t="inlineStr">
+      <c r="C20" s="222" t="inlineStr">
         <is>
           <t>Match Day 1</t>
         </is>
       </c>
-      <c r="D20" s="222" t="n"/>
+      <c r="D20" s="216" t="n"/>
       <c r="E20" s="139" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
-      <c r="F20" s="216" t="n"/>
-      <c r="G20" s="228" t="inlineStr">
+      <c r="F20" s="210" t="n"/>
+      <c r="G20" s="222" t="inlineStr">
         <is>
           <t>Match Day 2</t>
         </is>
       </c>
-      <c r="H20" s="222" t="n"/>
+      <c r="H20" s="216" t="n"/>
       <c r="I20" s="139" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
-      <c r="J20" s="216" t="n"/>
-      <c r="K20" s="228" t="inlineStr">
+      <c r="J20" s="210" t="n"/>
+      <c r="K20" s="222" t="inlineStr">
         <is>
           <t>Match Day 3</t>
         </is>
       </c>
-      <c r="L20" s="222" t="n"/>
+      <c r="L20" s="216" t="n"/>
       <c r="M20" s="139" t="inlineStr">
         <is>
           <t>Results</t>
@@ -4110,7 +4122,7 @@
       <c r="Y20" s="138" t="n"/>
       <c r="Z20" s="138" t="n"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1" s="191">
+    <row r="21" ht="15.75" customHeight="1" s="202">
       <c r="C21" s="140" t="inlineStr">
         <is>
           <t>Turkey</t>
@@ -4163,7 +4175,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1" s="191">
+    <row r="22" ht="15.75" customHeight="1" s="202">
       <c r="C22" s="148" t="n"/>
       <c r="D22" s="143" t="n"/>
       <c r="E22" s="149" t="n"/>
@@ -4200,7 +4212,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1" s="191">
+    <row r="23" ht="15.75" customHeight="1" s="202">
       <c r="C23" s="140" t="inlineStr">
         <is>
           <t>Wales</t>
@@ -4239,7 +4251,7 @@
       <c r="L23" s="143" t="n"/>
       <c r="M23" s="149" t="n"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1" s="191">
+    <row r="24" ht="15.75" customHeight="1" s="202">
       <c r="C24" s="144" t="inlineStr">
         <is>
           <t>Denmark</t>
@@ -4278,7 +4290,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1" s="191">
+    <row r="25" ht="15.75" customHeight="1" s="202">
       <c r="C25" s="144" t="inlineStr">
         <is>
           <t>Belgium</t>
@@ -4329,7 +4341,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1" s="191">
+    <row r="26" ht="15.75" customHeight="1" s="202">
       <c r="C26" s="148" t="n"/>
       <c r="D26" s="143" t="n"/>
       <c r="E26" s="149" t="n"/>
@@ -4366,7 +4378,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1" s="191">
+    <row r="27" ht="15.75" customHeight="1" s="202">
       <c r="C27" s="153" t="inlineStr">
         <is>
           <t>England</t>
@@ -4417,7 +4429,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1" s="191">
+    <row r="28" ht="15.75" customHeight="1" s="202">
       <c r="C28" s="150" t="inlineStr">
         <is>
           <t>Austria</t>
@@ -4444,7 +4456,7 @@
       <c r="L28" s="143" t="n"/>
       <c r="M28" s="149" t="n"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1" s="191">
+    <row r="29" ht="15.75" customHeight="1" s="202">
       <c r="C29" s="150" t="inlineStr">
         <is>
           <t>Netherlands</t>
@@ -4495,7 +4507,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1" s="191">
+    <row r="30" ht="15.75" customHeight="1" s="202">
       <c r="C30" s="148" t="n"/>
       <c r="D30" s="143" t="n"/>
       <c r="E30" s="149" t="n"/>
@@ -4532,7 +4544,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1" s="191">
+    <row r="31" ht="15.75" customHeight="1" s="202">
       <c r="C31" s="153" t="inlineStr">
         <is>
           <t>Scotland</t>
@@ -4571,7 +4583,7 @@
       <c r="L31" s="143" t="n"/>
       <c r="M31" s="149" t="n"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1" s="191">
+    <row r="32" ht="15.75" customHeight="1" s="202">
       <c r="C32" s="156" t="inlineStr">
         <is>
           <t>Poland</t>
@@ -4610,7 +4622,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1" s="191">
+    <row r="33" ht="15.75" customHeight="1" s="202">
       <c r="C33" s="156" t="inlineStr">
         <is>
           <t>Spain</t>
@@ -4661,7 +4673,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1" s="191">
+    <row r="34" ht="15.75" customHeight="1" s="202">
       <c r="C34" s="148" t="n"/>
       <c r="D34" s="143" t="n"/>
       <c r="E34" s="149" t="n"/>
@@ -4698,7 +4710,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1" s="191">
+    <row r="35" ht="15.75" customHeight="1" s="202">
       <c r="C35" s="159" t="inlineStr">
         <is>
           <t>Hungary</t>
@@ -4749,7 +4761,7 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1" s="191">
+    <row r="36" ht="15.75" customHeight="1" s="202">
       <c r="C36" s="162" t="inlineStr">
         <is>
           <t>France</t>
@@ -4776,70 +4788,70 @@
       <c r="L36" s="166" t="n"/>
       <c r="M36" s="167" t="n"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1" s="191"/>
-    <row r="38" ht="39.75" customHeight="1" s="191">
-      <c r="C38" s="219" t="inlineStr">
+    <row r="37" ht="15.75" customHeight="1" s="202"/>
+    <row r="38" ht="39.75" customHeight="1" s="202">
+      <c r="C38" s="213" t="inlineStr">
         <is>
           <t xml:space="preserve">We'll do the competition in two halves since the Round of 16 is heavily dependent on the Group Stages. </t>
         </is>
       </c>
-      <c r="D38" s="220" t="n"/>
-      <c r="E38" s="220" t="n"/>
-      <c r="F38" s="220" t="n"/>
-      <c r="G38" s="220" t="n"/>
-      <c r="H38" s="220" t="n"/>
-      <c r="I38" s="220" t="n"/>
-      <c r="J38" s="220" t="n"/>
-      <c r="K38" s="220" t="n"/>
-      <c r="L38" s="220" t="n"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1" s="191">
+      <c r="D38" s="214" t="n"/>
+      <c r="E38" s="214" t="n"/>
+      <c r="F38" s="214" t="n"/>
+      <c r="G38" s="214" t="n"/>
+      <c r="H38" s="214" t="n"/>
+      <c r="I38" s="214" t="n"/>
+      <c r="J38" s="214" t="n"/>
+      <c r="K38" s="214" t="n"/>
+      <c r="L38" s="214" t="n"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1" s="202">
       <c r="C39" s="136" t="inlineStr">
         <is>
           <t>Name:</t>
         </is>
       </c>
-      <c r="D39" s="221" t="n"/>
-      <c r="E39" s="222" t="n"/>
-      <c r="F39" s="222" t="n"/>
-      <c r="G39" s="223" t="n"/>
-      <c r="H39" s="224" t="inlineStr">
+      <c r="D39" s="215" t="n"/>
+      <c r="E39" s="216" t="n"/>
+      <c r="F39" s="216" t="n"/>
+      <c r="G39" s="217" t="n"/>
+      <c r="H39" s="218" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULTS         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I39" s="222" t="n"/>
-      <c r="J39" s="222" t="n"/>
-      <c r="K39" s="222" t="n"/>
-      <c r="L39" s="223" t="n"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1" s="191">
+      <c r="I39" s="216" t="n"/>
+      <c r="J39" s="216" t="n"/>
+      <c r="K39" s="216" t="n"/>
+      <c r="L39" s="217" t="n"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1" s="202">
       <c r="C40" s="137" t="inlineStr">
         <is>
           <t>Date:</t>
         </is>
       </c>
-      <c r="D40" s="227" t="n"/>
-      <c r="E40" s="220" t="n"/>
-      <c r="F40" s="220" t="n"/>
-      <c r="G40" s="226" t="n"/>
-      <c r="H40" s="225" t="n"/>
-      <c r="I40" s="220" t="n"/>
-      <c r="J40" s="220" t="n"/>
-      <c r="K40" s="220" t="n"/>
-      <c r="L40" s="226" t="n"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1" s="191">
+      <c r="D40" s="221" t="n"/>
+      <c r="E40" s="214" t="n"/>
+      <c r="F40" s="214" t="n"/>
+      <c r="G40" s="220" t="n"/>
+      <c r="H40" s="219" t="n"/>
+      <c r="I40" s="214" t="n"/>
+      <c r="J40" s="214" t="n"/>
+      <c r="K40" s="214" t="n"/>
+      <c r="L40" s="220" t="n"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1" s="202">
       <c r="B41" s="168" t="n"/>
       <c r="C41" s="169" t="n"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1" s="191">
-      <c r="B42" s="229" t="inlineStr">
+    <row r="42" ht="15.75" customHeight="1" s="202">
+      <c r="B42" s="223" t="inlineStr">
         <is>
           <t>Round of 16</t>
         </is>
       </c>
-      <c r="C42" s="220" t="n"/>
+      <c r="C42" s="214" t="n"/>
       <c r="D42" s="170" t="inlineStr">
         <is>
           <t>Results</t>
@@ -4883,12 +4895,12 @@
       </c>
       <c r="Q42" s="138" t="n"/>
       <c r="R42" s="171" t="n"/>
-      <c r="S42" s="216" t="n"/>
+      <c r="S42" s="210" t="n"/>
       <c r="U42" s="138" t="n"/>
       <c r="V42" s="171" t="n"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1" s="191">
-      <c r="B43" s="210" t="inlineStr">
+    <row r="43" ht="15.75" customHeight="1" s="202">
+      <c r="B43" s="224" t="inlineStr">
         <is>
           <t>R1</t>
         </is>
@@ -4898,7 +4910,7 @@
           <t>Winner Group A</t>
         </is>
       </c>
-      <c r="D43" s="212" t="n"/>
+      <c r="D43" s="226" t="n"/>
       <c r="E43" s="171" t="n"/>
       <c r="F43" s="171" t="n"/>
       <c r="O43" s="171" t="n"/>
@@ -4910,16 +4922,16 @@
       <c r="U43" s="171" t="n"/>
       <c r="V43" s="171" t="n"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B44" s="211" t="n"/>
+    <row r="44" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B44" s="225" t="n"/>
       <c r="C44" s="173" t="inlineStr">
         <is>
           <t>2nd Group C</t>
         </is>
       </c>
-      <c r="D44" s="211" t="n"/>
+      <c r="D44" s="225" t="n"/>
       <c r="E44" s="174" t="n"/>
-      <c r="F44" s="214" t="inlineStr">
+      <c r="F44" s="227" t="inlineStr">
         <is>
           <t>QF1</t>
         </is>
@@ -4929,7 +4941,7 @@
           <t>Winner R1</t>
         </is>
       </c>
-      <c r="H44" s="212" t="n"/>
+      <c r="H44" s="226" t="n"/>
       <c r="O44" s="171" t="n"/>
       <c r="P44" s="171" t="n"/>
       <c r="Q44" s="171" t="n"/>
@@ -4939,18 +4951,18 @@
       <c r="U44" s="171" t="n"/>
       <c r="V44" s="171" t="n"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1" s="191" thickBot="1">
+    <row r="45" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B45" s="138" t="n"/>
       <c r="C45" s="171" t="n"/>
       <c r="D45" s="176" t="n"/>
       <c r="E45" s="177" t="n"/>
-      <c r="F45" s="211" t="n"/>
+      <c r="F45" s="225" t="n"/>
       <c r="G45" s="178" t="inlineStr">
         <is>
           <t>Winner R2</t>
         </is>
       </c>
-      <c r="H45" s="211" t="n"/>
+      <c r="H45" s="225" t="n"/>
       <c r="O45" s="171" t="n"/>
       <c r="P45" s="171" t="n"/>
       <c r="Q45" s="171" t="n"/>
@@ -4960,8 +4972,8 @@
       <c r="U45" s="171" t="n"/>
       <c r="V45" s="171" t="n"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1" s="191">
-      <c r="B46" s="210" t="inlineStr">
+    <row r="46" ht="15.75" customHeight="1" s="202">
+      <c r="B46" s="224" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
@@ -4971,7 +4983,7 @@
           <t>Winner Group B</t>
         </is>
       </c>
-      <c r="D46" s="212" t="n"/>
+      <c r="D46" s="226" t="n"/>
       <c r="E46" s="171" t="n"/>
       <c r="F46" s="171" t="n"/>
       <c r="G46" s="179" t="n"/>
@@ -4985,20 +4997,20 @@
       <c r="U46" s="171" t="n"/>
       <c r="V46" s="171" t="n"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B47" s="211" t="n"/>
+    <row r="47" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B47" s="225" t="n"/>
       <c r="C47" s="173" t="inlineStr">
         <is>
           <t>3rd Group A/D/E/F</t>
         </is>
       </c>
-      <c r="D47" s="211" t="n"/>
+      <c r="D47" s="225" t="n"/>
       <c r="E47" s="171" t="n"/>
       <c r="F47" s="171" t="n"/>
       <c r="G47" s="179" t="n"/>
       <c r="H47" s="181" t="n"/>
       <c r="I47" s="177" t="n"/>
-      <c r="J47" s="213" t="inlineStr">
+      <c r="J47" s="228" t="inlineStr">
         <is>
           <t>SF1</t>
         </is>
@@ -5008,16 +5020,16 @@
           <t>Winner QF1</t>
         </is>
       </c>
-      <c r="L47" s="212" t="n"/>
+      <c r="L47" s="226" t="n"/>
       <c r="O47" s="171" t="n"/>
       <c r="P47" s="171" t="n"/>
       <c r="Q47" s="171" t="n"/>
       <c r="R47" s="171" t="n"/>
-      <c r="S47" s="216" t="n"/>
+      <c r="S47" s="210" t="n"/>
       <c r="U47" s="138" t="n"/>
       <c r="V47" s="171" t="n"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1" s="191">
+    <row r="48" ht="15.75" customHeight="1" s="202">
       <c r="B48" s="138" t="n"/>
       <c r="C48" s="171" t="n"/>
       <c r="D48" s="176" t="n"/>
@@ -5025,13 +5037,13 @@
       <c r="F48" s="171" t="n"/>
       <c r="G48" s="179" t="n"/>
       <c r="H48" s="181" t="n"/>
-      <c r="J48" s="211" t="n"/>
+      <c r="J48" s="225" t="n"/>
       <c r="K48" s="165" t="inlineStr">
         <is>
           <t>Winner QF2</t>
         </is>
       </c>
-      <c r="L48" s="211" t="n"/>
+      <c r="L48" s="225" t="n"/>
       <c r="O48" s="171" t="n"/>
       <c r="P48" s="171" t="n"/>
       <c r="Q48" s="171" t="n"/>
@@ -5041,8 +5053,8 @@
       <c r="U48" s="171" t="n"/>
       <c r="V48" s="171" t="n"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1" s="191">
-      <c r="B49" s="210" t="inlineStr">
+    <row r="49" ht="15.75" customHeight="1" s="202">
+      <c r="B49" s="224" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
@@ -5052,7 +5064,7 @@
           <t>Winner Group F</t>
         </is>
       </c>
-      <c r="D49" s="212" t="n"/>
+      <c r="D49" s="226" t="n"/>
       <c r="E49" s="171" t="n"/>
       <c r="F49" s="171" t="n"/>
       <c r="G49" s="179" t="n"/>
@@ -5060,16 +5072,16 @@
       <c r="K49" s="143" t="n"/>
       <c r="L49" s="180" t="n"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B50" s="211" t="n"/>
+    <row r="50" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B50" s="225" t="n"/>
       <c r="C50" s="173" t="inlineStr">
         <is>
           <t>3rd Group A/B/C</t>
         </is>
       </c>
-      <c r="D50" s="211" t="n"/>
+      <c r="D50" s="225" t="n"/>
       <c r="E50" s="177" t="n"/>
-      <c r="F50" s="214" t="inlineStr">
+      <c r="F50" s="227" t="inlineStr">
         <is>
           <t>QF2</t>
         </is>
@@ -5079,27 +5091,27 @@
           <t>Winner R3</t>
         </is>
       </c>
-      <c r="H50" s="212" t="n"/>
+      <c r="H50" s="226" t="n"/>
       <c r="K50" s="143" t="n"/>
       <c r="L50" s="181" t="n"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1" s="191" thickBot="1">
+    <row r="51" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B51" s="138" t="n"/>
       <c r="C51" s="171" t="n"/>
       <c r="D51" s="176" t="n"/>
       <c r="E51" s="177" t="n"/>
-      <c r="F51" s="211" t="n"/>
+      <c r="F51" s="225" t="n"/>
       <c r="G51" s="178" t="inlineStr">
         <is>
           <t>Winner R4</t>
         </is>
       </c>
-      <c r="H51" s="211" t="n"/>
+      <c r="H51" s="225" t="n"/>
       <c r="K51" s="143" t="n"/>
       <c r="L51" s="181" t="n"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B52" s="210" t="inlineStr">
+    <row r="52" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B52" s="224" t="inlineStr">
         <is>
           <t>R4</t>
         </is>
@@ -5109,7 +5121,7 @@
           <t>2nd Group D</t>
         </is>
       </c>
-      <c r="D52" s="212" t="n"/>
+      <c r="D52" s="226" t="n"/>
       <c r="E52" s="171" t="n"/>
       <c r="F52" s="171" t="n"/>
       <c r="G52" s="179" t="n"/>
@@ -5117,7 +5129,7 @@
       <c r="K52" s="143" t="n"/>
       <c r="L52" s="181" t="n"/>
       <c r="M52" s="177" t="n"/>
-      <c r="N52" s="215" t="inlineStr">
+      <c r="N52" s="229" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -5127,31 +5139,31 @@
           <t>Winner SF1</t>
         </is>
       </c>
-      <c r="P52" s="212" t="n"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1" s="191">
-      <c r="B53" s="211" t="n"/>
+      <c r="P52" s="226" t="n"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1" s="202">
+      <c r="B53" s="225" t="n"/>
       <c r="C53" s="173" t="inlineStr">
         <is>
           <t>2nd Group E</t>
         </is>
       </c>
-      <c r="D53" s="211" t="n"/>
+      <c r="D53" s="225" t="n"/>
       <c r="E53" s="171" t="n"/>
       <c r="F53" s="171" t="n"/>
       <c r="G53" s="179" t="n"/>
       <c r="H53" s="176" t="n"/>
       <c r="K53" s="143" t="n"/>
       <c r="L53" s="181" t="n"/>
-      <c r="N53" s="211" t="n"/>
+      <c r="N53" s="225" t="n"/>
       <c r="O53" s="165" t="inlineStr">
         <is>
           <t>Winner SF2</t>
         </is>
       </c>
-      <c r="P53" s="211" t="n"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1" s="191">
+      <c r="P53" s="225" t="n"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1" s="202">
       <c r="B54" s="138" t="n"/>
       <c r="C54" s="171" t="n"/>
       <c r="D54" s="176" t="n"/>
@@ -5162,8 +5174,8 @@
       <c r="K54" s="143" t="n"/>
       <c r="L54" s="181" t="n"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1" s="191">
-      <c r="B55" s="210" t="inlineStr">
+    <row r="55" ht="15.75" customHeight="1" s="202">
+      <c r="B55" s="224" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
@@ -5173,7 +5185,7 @@
           <t>Winner Group E</t>
         </is>
       </c>
-      <c r="D55" s="212" t="n"/>
+      <c r="D55" s="226" t="n"/>
       <c r="E55" s="171" t="n"/>
       <c r="F55" s="171" t="n"/>
       <c r="G55" s="179" t="n"/>
@@ -5181,16 +5193,16 @@
       <c r="K55" s="143" t="n"/>
       <c r="L55" s="181" t="n"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B56" s="211" t="n"/>
+    <row r="56" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B56" s="225" t="n"/>
       <c r="C56" s="173" t="inlineStr">
         <is>
           <t>3rd Group A/B/C/D</t>
         </is>
       </c>
-      <c r="D56" s="211" t="n"/>
+      <c r="D56" s="225" t="n"/>
       <c r="E56" s="174" t="n"/>
-      <c r="F56" s="214" t="inlineStr">
+      <c r="F56" s="227" t="inlineStr">
         <is>
           <t>QF3</t>
         </is>
@@ -5200,26 +5212,26 @@
           <t>Winner R5</t>
         </is>
       </c>
-      <c r="H56" s="212" t="n"/>
+      <c r="H56" s="226" t="n"/>
       <c r="K56" s="143" t="n"/>
       <c r="L56" s="181" t="n"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1" s="191" thickBot="1">
+    <row r="57" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B57" s="138" t="n"/>
       <c r="D57" s="176" t="n"/>
       <c r="E57" s="184" t="n"/>
-      <c r="F57" s="211" t="n"/>
+      <c r="F57" s="225" t="n"/>
       <c r="G57" s="178" t="inlineStr">
         <is>
           <t>Winner R6</t>
         </is>
       </c>
-      <c r="H57" s="211" t="n"/>
+      <c r="H57" s="225" t="n"/>
       <c r="K57" s="143" t="n"/>
       <c r="L57" s="181" t="n"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1" s="191">
-      <c r="B58" s="210" t="inlineStr">
+    <row r="58" ht="15.75" customHeight="1" s="202">
+      <c r="B58" s="224" t="inlineStr">
         <is>
           <t>R6</t>
         </is>
@@ -5229,24 +5241,24 @@
           <t>Winner Group D</t>
         </is>
       </c>
-      <c r="D58" s="212" t="n"/>
+      <c r="D58" s="226" t="n"/>
       <c r="G58" s="179" t="n"/>
       <c r="H58" s="180" t="n"/>
       <c r="K58" s="143" t="n"/>
       <c r="L58" s="183" t="n"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B59" s="211" t="n"/>
+    <row r="59" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B59" s="225" t="n"/>
       <c r="C59" s="173" t="inlineStr">
         <is>
           <t>2nd Group F</t>
         </is>
       </c>
-      <c r="D59" s="211" t="n"/>
+      <c r="D59" s="225" t="n"/>
       <c r="G59" s="179" t="n"/>
       <c r="H59" s="181" t="n"/>
       <c r="I59" s="177" t="n"/>
-      <c r="J59" s="213" t="inlineStr">
+      <c r="J59" s="228" t="inlineStr">
         <is>
           <t>SF2</t>
         </is>
@@ -5256,23 +5268,23 @@
           <t>Winner QF3</t>
         </is>
       </c>
-      <c r="L59" s="212" t="n"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1" s="191">
+      <c r="L59" s="226" t="n"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1" s="202">
       <c r="B60" s="138" t="n"/>
       <c r="D60" s="176" t="n"/>
       <c r="G60" s="179" t="n"/>
       <c r="H60" s="181" t="n"/>
-      <c r="J60" s="211" t="n"/>
+      <c r="J60" s="225" t="n"/>
       <c r="K60" s="165" t="inlineStr">
         <is>
           <t>Winner QF4</t>
         </is>
       </c>
-      <c r="L60" s="211" t="n"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1" s="191">
-      <c r="B61" s="210" t="inlineStr">
+      <c r="L60" s="225" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="202">
+      <c r="B61" s="224" t="inlineStr">
         <is>
           <t>R7</t>
         </is>
@@ -5282,20 +5294,20 @@
           <t>Winner GroupC</t>
         </is>
       </c>
-      <c r="D61" s="212" t="n"/>
+      <c r="D61" s="226" t="n"/>
       <c r="G61" s="179" t="n"/>
       <c r="H61" s="183" t="n"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B62" s="211" t="n"/>
+    <row r="62" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B62" s="225" t="n"/>
       <c r="C62" s="173" t="inlineStr">
         <is>
           <t>3rd Group D/E/F</t>
         </is>
       </c>
-      <c r="D62" s="211" t="n"/>
+      <c r="D62" s="225" t="n"/>
       <c r="E62" s="174" t="n"/>
-      <c r="F62" s="214" t="inlineStr">
+      <c r="F62" s="227" t="inlineStr">
         <is>
           <t>QF4</t>
         </is>
@@ -5305,22 +5317,22 @@
           <t>Winner R7</t>
         </is>
       </c>
-      <c r="H62" s="212" t="n"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="H62" s="226" t="n"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B63" s="138" t="n"/>
       <c r="D63" s="176" t="n"/>
       <c r="E63" s="184" t="n"/>
-      <c r="F63" s="211" t="n"/>
+      <c r="F63" s="225" t="n"/>
       <c r="G63" s="178" t="inlineStr">
         <is>
           <t>Winner R8</t>
         </is>
       </c>
-      <c r="H63" s="211" t="n"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1" s="191">
-      <c r="B64" s="210" t="inlineStr">
+      <c r="H63" s="225" t="n"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1" s="202">
+      <c r="B64" s="224" t="inlineStr">
         <is>
           <t>R8</t>
         </is>
@@ -5330,954 +5342,985 @@
           <t>2nd Group A</t>
         </is>
       </c>
-      <c r="D64" s="212" t="n"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1" s="191">
-      <c r="B65" s="211" t="n"/>
+      <c r="D64" s="226" t="n"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1" s="202">
+      <c r="B65" s="225" t="n"/>
       <c r="C65" s="173" t="inlineStr">
         <is>
           <t>2nd Group B</t>
         </is>
       </c>
-      <c r="D65" s="211" t="n"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1" s="191"/>
-    <row r="67" ht="15.75" customHeight="1" s="191"/>
-    <row r="68" ht="15.75" customHeight="1" s="191"/>
-    <row r="69" ht="15.75" customHeight="1" s="191"/>
-    <row r="70" ht="15.75" customHeight="1" s="191"/>
-    <row r="71" ht="15.75" customHeight="1" s="191"/>
-    <row r="72" ht="15.75" customHeight="1" s="191"/>
-    <row r="73" ht="15.75" customHeight="1" s="191"/>
-    <row r="74" ht="15.75" customHeight="1" s="191"/>
-    <row r="75" ht="15.75" customHeight="1" s="191"/>
-    <row r="76" ht="15.75" customHeight="1" s="191"/>
-    <row r="77" ht="15.75" customHeight="1" s="191"/>
-    <row r="78" ht="15.75" customHeight="1" s="191"/>
-    <row r="79" ht="15.75" customHeight="1" s="191"/>
-    <row r="80" ht="15.75" customHeight="1" s="191"/>
-    <row r="81" ht="15.75" customHeight="1" s="191"/>
-    <row r="82" ht="15.75" customHeight="1" s="191"/>
-    <row r="83" ht="15.75" customHeight="1" s="191"/>
-    <row r="84" ht="15.75" customHeight="1" s="191"/>
-    <row r="85" ht="15.75" customHeight="1" s="191"/>
-    <row r="86" ht="15.75" customHeight="1" s="191"/>
-    <row r="87" ht="15.75" customHeight="1" s="191"/>
-    <row r="88" ht="15.75" customHeight="1" s="191"/>
-    <row r="89" ht="15.75" customHeight="1" s="191"/>
-    <row r="90" ht="15.75" customHeight="1" s="191"/>
-    <row r="91" ht="15.75" customHeight="1" s="191"/>
-    <row r="92" ht="15.75" customHeight="1" s="191"/>
-    <row r="93" ht="15.75" customHeight="1" s="191"/>
-    <row r="94" ht="15.75" customHeight="1" s="191"/>
-    <row r="95" ht="15.75" customHeight="1" s="191"/>
-    <row r="96" ht="15.75" customHeight="1" s="191"/>
-    <row r="97" ht="15.75" customHeight="1" s="191"/>
-    <row r="98" ht="15.75" customHeight="1" s="191"/>
-    <row r="99" ht="15.75" customHeight="1" s="191"/>
-    <row r="100" ht="15.75" customHeight="1" s="191"/>
-    <row r="101" ht="15.75" customHeight="1" s="191"/>
-    <row r="102" ht="15.75" customHeight="1" s="191"/>
-    <row r="103" ht="15.75" customHeight="1" s="191"/>
-    <row r="104" ht="15.75" customHeight="1" s="191"/>
-    <row r="105" ht="15.75" customHeight="1" s="191"/>
-    <row r="106" ht="15.75" customHeight="1" s="191"/>
-    <row r="107" ht="15.75" customHeight="1" s="191"/>
-    <row r="108" ht="15.75" customHeight="1" s="191"/>
-    <row r="109" ht="15.75" customHeight="1" s="191"/>
-    <row r="110" ht="15.75" customHeight="1" s="191"/>
-    <row r="111" ht="15.75" customHeight="1" s="191"/>
-    <row r="112" ht="15.75" customHeight="1" s="191"/>
-    <row r="113" ht="15.75" customHeight="1" s="191"/>
-    <row r="114" ht="15.75" customHeight="1" s="191"/>
-    <row r="115" ht="15.75" customHeight="1" s="191"/>
-    <row r="116" ht="15.75" customHeight="1" s="191"/>
-    <row r="117" ht="15.75" customHeight="1" s="191"/>
-    <row r="118" ht="15.75" customHeight="1" s="191"/>
-    <row r="119" ht="15.75" customHeight="1" s="191"/>
-    <row r="120" ht="15.75" customHeight="1" s="191"/>
-    <row r="121" ht="15.75" customHeight="1" s="191"/>
-    <row r="122" ht="15.75" customHeight="1" s="191"/>
-    <row r="123" ht="15.75" customHeight="1" s="191"/>
-    <row r="124" ht="15.75" customHeight="1" s="191"/>
-    <row r="125" ht="15.75" customHeight="1" s="191"/>
-    <row r="126" ht="15.75" customHeight="1" s="191"/>
-    <row r="127" ht="15.75" customHeight="1" s="191"/>
-    <row r="128" ht="15.75" customHeight="1" s="191"/>
-    <row r="129" ht="15.75" customHeight="1" s="191"/>
-    <row r="130" ht="15.75" customHeight="1" s="191"/>
-    <row r="131" ht="15.75" customHeight="1" s="191"/>
-    <row r="132" ht="15.75" customHeight="1" s="191"/>
-    <row r="133" ht="15.75" customHeight="1" s="191"/>
-    <row r="134" ht="15.75" customHeight="1" s="191"/>
-    <row r="135" ht="15.75" customHeight="1" s="191"/>
-    <row r="136" ht="15.75" customHeight="1" s="191"/>
-    <row r="137" ht="15.75" customHeight="1" s="191"/>
-    <row r="138" ht="15.75" customHeight="1" s="191"/>
-    <row r="139" ht="15.75" customHeight="1" s="191"/>
-    <row r="140" ht="15.75" customHeight="1" s="191"/>
-    <row r="141" ht="15.75" customHeight="1" s="191"/>
-    <row r="142" ht="15.75" customHeight="1" s="191"/>
-    <row r="143" ht="15.75" customHeight="1" s="191"/>
-    <row r="144" ht="15.75" customHeight="1" s="191"/>
-    <row r="145" ht="15.75" customHeight="1" s="191"/>
-    <row r="146" ht="15.75" customHeight="1" s="191"/>
-    <row r="147" ht="15.75" customHeight="1" s="191"/>
-    <row r="148" ht="15.75" customHeight="1" s="191"/>
-    <row r="149" ht="15.75" customHeight="1" s="191"/>
-    <row r="150" ht="15.75" customHeight="1" s="191"/>
-    <row r="151" ht="15.75" customHeight="1" s="191"/>
-    <row r="152" ht="15.75" customHeight="1" s="191"/>
-    <row r="153" ht="15.75" customHeight="1" s="191"/>
-    <row r="154" ht="15.75" customHeight="1" s="191"/>
-    <row r="155" ht="15.75" customHeight="1" s="191"/>
-    <row r="156" ht="15.75" customHeight="1" s="191"/>
-    <row r="157" ht="15.75" customHeight="1" s="191"/>
-    <row r="158" ht="15.75" customHeight="1" s="191"/>
-    <row r="159" ht="15.75" customHeight="1" s="191"/>
-    <row r="160" ht="15.75" customHeight="1" s="191"/>
-    <row r="161" ht="15.75" customHeight="1" s="191"/>
-    <row r="162" ht="15.75" customHeight="1" s="191"/>
-    <row r="163" ht="15.75" customHeight="1" s="191"/>
-    <row r="164" ht="15.75" customHeight="1" s="191"/>
-    <row r="165" ht="15.75" customHeight="1" s="191"/>
-    <row r="166" ht="15.75" customHeight="1" s="191"/>
-    <row r="167" ht="15.75" customHeight="1" s="191"/>
-    <row r="168" ht="15.75" customHeight="1" s="191"/>
-    <row r="169" ht="15.75" customHeight="1" s="191"/>
-    <row r="170" ht="15.75" customHeight="1" s="191"/>
-    <row r="171" ht="15.75" customHeight="1" s="191"/>
-    <row r="172" ht="15.75" customHeight="1" s="191"/>
-    <row r="173" ht="15.75" customHeight="1" s="191"/>
-    <row r="174" ht="15.75" customHeight="1" s="191"/>
-    <row r="175" ht="15.75" customHeight="1" s="191"/>
-    <row r="176" ht="15.75" customHeight="1" s="191"/>
-    <row r="177" ht="15.75" customHeight="1" s="191"/>
-    <row r="178" ht="15.75" customHeight="1" s="191"/>
-    <row r="179" ht="15.75" customHeight="1" s="191"/>
-    <row r="180" ht="15.75" customHeight="1" s="191"/>
-    <row r="181" ht="15.75" customHeight="1" s="191"/>
-    <row r="182" ht="15.75" customHeight="1" s="191"/>
-    <row r="183" ht="15.75" customHeight="1" s="191"/>
-    <row r="184" ht="15.75" customHeight="1" s="191"/>
-    <row r="185" ht="15.75" customHeight="1" s="191"/>
-    <row r="186" ht="15.75" customHeight="1" s="191"/>
-    <row r="187" ht="15.75" customHeight="1" s="191"/>
-    <row r="188" ht="15.75" customHeight="1" s="191"/>
-    <row r="189" ht="15.75" customHeight="1" s="191"/>
-    <row r="190" ht="15.75" customHeight="1" s="191"/>
-    <row r="191" ht="15.75" customHeight="1" s="191"/>
-    <row r="192" ht="15.75" customHeight="1" s="191"/>
-    <row r="193" ht="15.75" customHeight="1" s="191"/>
-    <row r="194" ht="15.75" customHeight="1" s="191"/>
-    <row r="195" ht="15.75" customHeight="1" s="191"/>
-    <row r="196" ht="15.75" customHeight="1" s="191"/>
-    <row r="197" ht="15.75" customHeight="1" s="191"/>
-    <row r="198" ht="15.75" customHeight="1" s="191"/>
-    <row r="199" ht="15.75" customHeight="1" s="191"/>
-    <row r="200" ht="15.75" customHeight="1" s="191"/>
-    <row r="201" ht="15.75" customHeight="1" s="191"/>
-    <row r="202" ht="15.75" customHeight="1" s="191"/>
-    <row r="203" ht="15.75" customHeight="1" s="191"/>
-    <row r="204" ht="15.75" customHeight="1" s="191"/>
-    <row r="205" ht="15.75" customHeight="1" s="191"/>
-    <row r="206" ht="15.75" customHeight="1" s="191"/>
-    <row r="207" ht="15.75" customHeight="1" s="191"/>
-    <row r="208" ht="15.75" customHeight="1" s="191"/>
-    <row r="209" ht="15.75" customHeight="1" s="191"/>
-    <row r="210" ht="15.75" customHeight="1" s="191"/>
-    <row r="211" ht="15.75" customHeight="1" s="191"/>
-    <row r="212" ht="15.75" customHeight="1" s="191"/>
-    <row r="213" ht="15.75" customHeight="1" s="191"/>
-    <row r="214" ht="15.75" customHeight="1" s="191"/>
-    <row r="215" ht="15.75" customHeight="1" s="191"/>
-    <row r="216" ht="15.75" customHeight="1" s="191"/>
-    <row r="217" ht="15.75" customHeight="1" s="191"/>
-    <row r="218" ht="15.75" customHeight="1" s="191"/>
-    <row r="219" ht="15.75" customHeight="1" s="191"/>
-    <row r="220" ht="15.75" customHeight="1" s="191"/>
-    <row r="221" ht="15.75" customHeight="1" s="191"/>
-    <row r="222" ht="15.75" customHeight="1" s="191"/>
-    <row r="223" ht="15.75" customHeight="1" s="191"/>
-    <row r="224" ht="15.75" customHeight="1" s="191"/>
-    <row r="225" ht="15.75" customHeight="1" s="191"/>
-    <row r="226" ht="15.75" customHeight="1" s="191"/>
-    <row r="227" ht="15.75" customHeight="1" s="191"/>
-    <row r="228" ht="15.75" customHeight="1" s="191"/>
-    <row r="229" ht="15.75" customHeight="1" s="191"/>
-    <row r="230" ht="15.75" customHeight="1" s="191"/>
-    <row r="231" ht="15.75" customHeight="1" s="191"/>
-    <row r="232" ht="15.75" customHeight="1" s="191"/>
-    <row r="233" ht="15.75" customHeight="1" s="191"/>
-    <row r="234" ht="15.75" customHeight="1" s="191"/>
-    <row r="235" ht="15.75" customHeight="1" s="191"/>
-    <row r="236" ht="15.75" customHeight="1" s="191"/>
-    <row r="237" ht="15.75" customHeight="1" s="191"/>
-    <row r="238" ht="15.75" customHeight="1" s="191"/>
-    <row r="239" ht="15.75" customHeight="1" s="191"/>
-    <row r="240" ht="15.75" customHeight="1" s="191"/>
-    <row r="241" ht="15.75" customHeight="1" s="191"/>
-    <row r="242" ht="15.75" customHeight="1" s="191"/>
-    <row r="243" ht="15.75" customHeight="1" s="191"/>
-    <row r="244" ht="15.75" customHeight="1" s="191"/>
-    <row r="245" ht="15.75" customHeight="1" s="191"/>
-    <row r="246" ht="15.75" customHeight="1" s="191"/>
-    <row r="247" ht="15.75" customHeight="1" s="191"/>
-    <row r="248" ht="15.75" customHeight="1" s="191"/>
-    <row r="249" ht="15.75" customHeight="1" s="191"/>
-    <row r="250" ht="15.75" customHeight="1" s="191"/>
-    <row r="251" ht="15.75" customHeight="1" s="191"/>
-    <row r="252" ht="15.75" customHeight="1" s="191"/>
-    <row r="253" ht="15.75" customHeight="1" s="191"/>
-    <row r="254" ht="15.75" customHeight="1" s="191"/>
-    <row r="255" ht="15.75" customHeight="1" s="191"/>
-    <row r="256" ht="15.75" customHeight="1" s="191"/>
-    <row r="257" ht="15.75" customHeight="1" s="191"/>
-    <row r="258" ht="15.75" customHeight="1" s="191"/>
-    <row r="259" ht="15.75" customHeight="1" s="191"/>
-    <row r="260" ht="15.75" customHeight="1" s="191"/>
-    <row r="261" ht="15.75" customHeight="1" s="191"/>
-    <row r="262" ht="15.75" customHeight="1" s="191"/>
-    <row r="263" ht="15.75" customHeight="1" s="191"/>
-    <row r="264" ht="15.75" customHeight="1" s="191"/>
-    <row r="265" ht="15.75" customHeight="1" s="191"/>
-    <row r="266" ht="15.75" customHeight="1" s="191"/>
-    <row r="267" ht="15.75" customHeight="1" s="191"/>
-    <row r="268" ht="15.75" customHeight="1" s="191"/>
-    <row r="269" ht="15.75" customHeight="1" s="191"/>
-    <row r="270" ht="15.75" customHeight="1" s="191"/>
-    <row r="271" ht="15.75" customHeight="1" s="191"/>
-    <row r="272" ht="15.75" customHeight="1" s="191"/>
-    <row r="273" ht="15.75" customHeight="1" s="191"/>
-    <row r="274" ht="15.75" customHeight="1" s="191"/>
-    <row r="275" ht="15.75" customHeight="1" s="191"/>
-    <row r="276" ht="15.75" customHeight="1" s="191"/>
-    <row r="277" ht="15.75" customHeight="1" s="191"/>
-    <row r="278" ht="15.75" customHeight="1" s="191"/>
-    <row r="279" ht="15.75" customHeight="1" s="191"/>
-    <row r="280" ht="15.75" customHeight="1" s="191"/>
-    <row r="281" ht="15.75" customHeight="1" s="191"/>
-    <row r="282" ht="15.75" customHeight="1" s="191"/>
-    <row r="283" ht="15.75" customHeight="1" s="191"/>
-    <row r="284" ht="15.75" customHeight="1" s="191"/>
-    <row r="285" ht="15.75" customHeight="1" s="191"/>
-    <row r="286" ht="15.75" customHeight="1" s="191"/>
-    <row r="287" ht="15.75" customHeight="1" s="191"/>
-    <row r="288" ht="15.75" customHeight="1" s="191"/>
-    <row r="289" ht="15.75" customHeight="1" s="191"/>
-    <row r="290" ht="15.75" customHeight="1" s="191"/>
-    <row r="291" ht="15.75" customHeight="1" s="191"/>
-    <row r="292" ht="15.75" customHeight="1" s="191"/>
-    <row r="293" ht="15.75" customHeight="1" s="191"/>
-    <row r="294" ht="15.75" customHeight="1" s="191"/>
-    <row r="295" ht="15.75" customHeight="1" s="191"/>
-    <row r="296" ht="15.75" customHeight="1" s="191"/>
-    <row r="297" ht="15.75" customHeight="1" s="191"/>
-    <row r="298" ht="15.75" customHeight="1" s="191"/>
-    <row r="299" ht="15.75" customHeight="1" s="191"/>
-    <row r="300" ht="15.75" customHeight="1" s="191"/>
-    <row r="301" ht="15.75" customHeight="1" s="191"/>
-    <row r="302" ht="15.75" customHeight="1" s="191"/>
-    <row r="303" ht="15.75" customHeight="1" s="191"/>
-    <row r="304" ht="15.75" customHeight="1" s="191"/>
-    <row r="305" ht="15.75" customHeight="1" s="191"/>
-    <row r="306" ht="15.75" customHeight="1" s="191"/>
-    <row r="307" ht="15.75" customHeight="1" s="191"/>
-    <row r="308" ht="15.75" customHeight="1" s="191"/>
-    <row r="309" ht="15.75" customHeight="1" s="191"/>
-    <row r="310" ht="15.75" customHeight="1" s="191"/>
-    <row r="311" ht="15.75" customHeight="1" s="191"/>
-    <row r="312" ht="15.75" customHeight="1" s="191"/>
-    <row r="313" ht="15.75" customHeight="1" s="191"/>
-    <row r="314" ht="15.75" customHeight="1" s="191"/>
-    <row r="315" ht="15.75" customHeight="1" s="191"/>
-    <row r="316" ht="15.75" customHeight="1" s="191"/>
-    <row r="317" ht="15.75" customHeight="1" s="191"/>
-    <row r="318" ht="15.75" customHeight="1" s="191"/>
-    <row r="319" ht="15.75" customHeight="1" s="191"/>
-    <row r="320" ht="15.75" customHeight="1" s="191"/>
-    <row r="321" ht="15.75" customHeight="1" s="191"/>
-    <row r="322" ht="15.75" customHeight="1" s="191"/>
-    <row r="323" ht="15.75" customHeight="1" s="191"/>
-    <row r="324" ht="15.75" customHeight="1" s="191"/>
-    <row r="325" ht="15.75" customHeight="1" s="191"/>
-    <row r="326" ht="15.75" customHeight="1" s="191"/>
-    <row r="327" ht="15.75" customHeight="1" s="191"/>
-    <row r="328" ht="15.75" customHeight="1" s="191"/>
-    <row r="329" ht="15.75" customHeight="1" s="191"/>
-    <row r="330" ht="15.75" customHeight="1" s="191"/>
-    <row r="331" ht="15.75" customHeight="1" s="191"/>
-    <row r="332" ht="15.75" customHeight="1" s="191"/>
-    <row r="333" ht="15.75" customHeight="1" s="191"/>
-    <row r="334" ht="15.75" customHeight="1" s="191"/>
-    <row r="335" ht="15.75" customHeight="1" s="191"/>
-    <row r="336" ht="15.75" customHeight="1" s="191"/>
-    <row r="337" ht="15.75" customHeight="1" s="191"/>
-    <row r="338" ht="15.75" customHeight="1" s="191"/>
-    <row r="339" ht="15.75" customHeight="1" s="191"/>
-    <row r="340" ht="15.75" customHeight="1" s="191"/>
-    <row r="341" ht="15.75" customHeight="1" s="191"/>
-    <row r="342" ht="15.75" customHeight="1" s="191"/>
-    <row r="343" ht="15.75" customHeight="1" s="191"/>
-    <row r="344" ht="15.75" customHeight="1" s="191"/>
-    <row r="345" ht="15.75" customHeight="1" s="191"/>
-    <row r="346" ht="15.75" customHeight="1" s="191"/>
-    <row r="347" ht="15.75" customHeight="1" s="191"/>
-    <row r="348" ht="15.75" customHeight="1" s="191"/>
-    <row r="349" ht="15.75" customHeight="1" s="191"/>
-    <row r="350" ht="15.75" customHeight="1" s="191"/>
-    <row r="351" ht="15.75" customHeight="1" s="191"/>
-    <row r="352" ht="15.75" customHeight="1" s="191"/>
-    <row r="353" ht="15.75" customHeight="1" s="191"/>
-    <row r="354" ht="15.75" customHeight="1" s="191"/>
-    <row r="355" ht="15.75" customHeight="1" s="191"/>
-    <row r="356" ht="15.75" customHeight="1" s="191"/>
-    <row r="357" ht="15.75" customHeight="1" s="191"/>
-    <row r="358" ht="15.75" customHeight="1" s="191"/>
-    <row r="359" ht="15.75" customHeight="1" s="191"/>
-    <row r="360" ht="15.75" customHeight="1" s="191"/>
-    <row r="361" ht="15.75" customHeight="1" s="191"/>
-    <row r="362" ht="15.75" customHeight="1" s="191"/>
-    <row r="363" ht="15.75" customHeight="1" s="191"/>
-    <row r="364" ht="15.75" customHeight="1" s="191"/>
-    <row r="365" ht="15.75" customHeight="1" s="191"/>
-    <row r="366" ht="15.75" customHeight="1" s="191"/>
-    <row r="367" ht="15.75" customHeight="1" s="191"/>
-    <row r="368" ht="15.75" customHeight="1" s="191"/>
-    <row r="369" ht="15.75" customHeight="1" s="191"/>
-    <row r="370" ht="15.75" customHeight="1" s="191"/>
-    <row r="371" ht="15.75" customHeight="1" s="191"/>
-    <row r="372" ht="15.75" customHeight="1" s="191"/>
-    <row r="373" ht="15.75" customHeight="1" s="191"/>
-    <row r="374" ht="15.75" customHeight="1" s="191"/>
-    <row r="375" ht="15.75" customHeight="1" s="191"/>
-    <row r="376" ht="15.75" customHeight="1" s="191"/>
-    <row r="377" ht="15.75" customHeight="1" s="191"/>
-    <row r="378" ht="15.75" customHeight="1" s="191"/>
-    <row r="379" ht="15.75" customHeight="1" s="191"/>
-    <row r="380" ht="15.75" customHeight="1" s="191"/>
-    <row r="381" ht="15.75" customHeight="1" s="191"/>
-    <row r="382" ht="15.75" customHeight="1" s="191"/>
-    <row r="383" ht="15.75" customHeight="1" s="191"/>
-    <row r="384" ht="15.75" customHeight="1" s="191"/>
-    <row r="385" ht="15.75" customHeight="1" s="191"/>
-    <row r="386" ht="15.75" customHeight="1" s="191"/>
-    <row r="387" ht="15.75" customHeight="1" s="191"/>
-    <row r="388" ht="15.75" customHeight="1" s="191"/>
-    <row r="389" ht="15.75" customHeight="1" s="191"/>
-    <row r="390" ht="15.75" customHeight="1" s="191"/>
-    <row r="391" ht="15.75" customHeight="1" s="191"/>
-    <row r="392" ht="15.75" customHeight="1" s="191"/>
-    <row r="393" ht="15.75" customHeight="1" s="191"/>
-    <row r="394" ht="15.75" customHeight="1" s="191"/>
-    <row r="395" ht="15.75" customHeight="1" s="191"/>
-    <row r="396" ht="15.75" customHeight="1" s="191"/>
-    <row r="397" ht="15.75" customHeight="1" s="191"/>
-    <row r="398" ht="15.75" customHeight="1" s="191"/>
-    <row r="399" ht="15.75" customHeight="1" s="191"/>
-    <row r="400" ht="15.75" customHeight="1" s="191"/>
-    <row r="401" ht="15.75" customHeight="1" s="191"/>
-    <row r="402" ht="15.75" customHeight="1" s="191"/>
-    <row r="403" ht="15.75" customHeight="1" s="191"/>
-    <row r="404" ht="15.75" customHeight="1" s="191"/>
-    <row r="405" ht="15.75" customHeight="1" s="191"/>
-    <row r="406" ht="15.75" customHeight="1" s="191"/>
-    <row r="407" ht="15.75" customHeight="1" s="191"/>
-    <row r="408" ht="15.75" customHeight="1" s="191"/>
-    <row r="409" ht="15.75" customHeight="1" s="191"/>
-    <row r="410" ht="15.75" customHeight="1" s="191"/>
-    <row r="411" ht="15.75" customHeight="1" s="191"/>
-    <row r="412" ht="15.75" customHeight="1" s="191"/>
-    <row r="413" ht="15.75" customHeight="1" s="191"/>
-    <row r="414" ht="15.75" customHeight="1" s="191"/>
-    <row r="415" ht="15.75" customHeight="1" s="191"/>
-    <row r="416" ht="15.75" customHeight="1" s="191"/>
-    <row r="417" ht="15.75" customHeight="1" s="191"/>
-    <row r="418" ht="15.75" customHeight="1" s="191"/>
-    <row r="419" ht="15.75" customHeight="1" s="191"/>
-    <row r="420" ht="15.75" customHeight="1" s="191"/>
-    <row r="421" ht="15.75" customHeight="1" s="191"/>
-    <row r="422" ht="15.75" customHeight="1" s="191"/>
-    <row r="423" ht="15.75" customHeight="1" s="191"/>
-    <row r="424" ht="15.75" customHeight="1" s="191"/>
-    <row r="425" ht="15.75" customHeight="1" s="191"/>
-    <row r="426" ht="15.75" customHeight="1" s="191"/>
-    <row r="427" ht="15.75" customHeight="1" s="191"/>
-    <row r="428" ht="15.75" customHeight="1" s="191"/>
-    <row r="429" ht="15.75" customHeight="1" s="191"/>
-    <row r="430" ht="15.75" customHeight="1" s="191"/>
-    <row r="431" ht="15.75" customHeight="1" s="191"/>
-    <row r="432" ht="15.75" customHeight="1" s="191"/>
-    <row r="433" ht="15.75" customHeight="1" s="191"/>
-    <row r="434" ht="15.75" customHeight="1" s="191"/>
-    <row r="435" ht="15.75" customHeight="1" s="191"/>
-    <row r="436" ht="15.75" customHeight="1" s="191"/>
-    <row r="437" ht="15.75" customHeight="1" s="191"/>
-    <row r="438" ht="15.75" customHeight="1" s="191"/>
-    <row r="439" ht="15.75" customHeight="1" s="191"/>
-    <row r="440" ht="15.75" customHeight="1" s="191"/>
-    <row r="441" ht="15.75" customHeight="1" s="191"/>
-    <row r="442" ht="15.75" customHeight="1" s="191"/>
-    <row r="443" ht="15.75" customHeight="1" s="191"/>
-    <row r="444" ht="15.75" customHeight="1" s="191"/>
-    <row r="445" ht="15.75" customHeight="1" s="191"/>
-    <row r="446" ht="15.75" customHeight="1" s="191"/>
-    <row r="447" ht="15.75" customHeight="1" s="191"/>
-    <row r="448" ht="15.75" customHeight="1" s="191"/>
-    <row r="449" ht="15.75" customHeight="1" s="191"/>
-    <row r="450" ht="15.75" customHeight="1" s="191"/>
-    <row r="451" ht="15.75" customHeight="1" s="191"/>
-    <row r="452" ht="15.75" customHeight="1" s="191"/>
-    <row r="453" ht="15.75" customHeight="1" s="191"/>
-    <row r="454" ht="15.75" customHeight="1" s="191"/>
-    <row r="455" ht="15.75" customHeight="1" s="191"/>
-    <row r="456" ht="15.75" customHeight="1" s="191"/>
-    <row r="457" ht="15.75" customHeight="1" s="191"/>
-    <row r="458" ht="15.75" customHeight="1" s="191"/>
-    <row r="459" ht="15.75" customHeight="1" s="191"/>
-    <row r="460" ht="15.75" customHeight="1" s="191"/>
-    <row r="461" ht="15.75" customHeight="1" s="191"/>
-    <row r="462" ht="15.75" customHeight="1" s="191"/>
-    <row r="463" ht="15.75" customHeight="1" s="191"/>
-    <row r="464" ht="15.75" customHeight="1" s="191"/>
-    <row r="465" ht="15.75" customHeight="1" s="191"/>
-    <row r="466" ht="15.75" customHeight="1" s="191"/>
-    <row r="467" ht="15.75" customHeight="1" s="191"/>
-    <row r="468" ht="15.75" customHeight="1" s="191"/>
-    <row r="469" ht="15.75" customHeight="1" s="191"/>
-    <row r="470" ht="15.75" customHeight="1" s="191"/>
-    <row r="471" ht="15.75" customHeight="1" s="191"/>
-    <row r="472" ht="15.75" customHeight="1" s="191"/>
-    <row r="473" ht="15.75" customHeight="1" s="191"/>
-    <row r="474" ht="15.75" customHeight="1" s="191"/>
-    <row r="475" ht="15.75" customHeight="1" s="191"/>
-    <row r="476" ht="15.75" customHeight="1" s="191"/>
-    <row r="477" ht="15.75" customHeight="1" s="191"/>
-    <row r="478" ht="15.75" customHeight="1" s="191"/>
-    <row r="479" ht="15.75" customHeight="1" s="191"/>
-    <row r="480" ht="15.75" customHeight="1" s="191"/>
-    <row r="481" ht="15.75" customHeight="1" s="191"/>
-    <row r="482" ht="15.75" customHeight="1" s="191"/>
-    <row r="483" ht="15.75" customHeight="1" s="191"/>
-    <row r="484" ht="15.75" customHeight="1" s="191"/>
-    <row r="485" ht="15.75" customHeight="1" s="191"/>
-    <row r="486" ht="15.75" customHeight="1" s="191"/>
-    <row r="487" ht="15.75" customHeight="1" s="191"/>
-    <row r="488" ht="15.75" customHeight="1" s="191"/>
-    <row r="489" ht="15.75" customHeight="1" s="191"/>
-    <row r="490" ht="15.75" customHeight="1" s="191"/>
-    <row r="491" ht="15.75" customHeight="1" s="191"/>
-    <row r="492" ht="15.75" customHeight="1" s="191"/>
-    <row r="493" ht="15.75" customHeight="1" s="191"/>
-    <row r="494" ht="15.75" customHeight="1" s="191"/>
-    <row r="495" ht="15.75" customHeight="1" s="191"/>
-    <row r="496" ht="15.75" customHeight="1" s="191"/>
-    <row r="497" ht="15.75" customHeight="1" s="191"/>
-    <row r="498" ht="15.75" customHeight="1" s="191"/>
-    <row r="499" ht="15.75" customHeight="1" s="191"/>
-    <row r="500" ht="15.75" customHeight="1" s="191"/>
-    <row r="501" ht="15.75" customHeight="1" s="191"/>
-    <row r="502" ht="15.75" customHeight="1" s="191"/>
-    <row r="503" ht="15.75" customHeight="1" s="191"/>
-    <row r="504" ht="15.75" customHeight="1" s="191"/>
-    <row r="505" ht="15.75" customHeight="1" s="191"/>
-    <row r="506" ht="15.75" customHeight="1" s="191"/>
-    <row r="507" ht="15.75" customHeight="1" s="191"/>
-    <row r="508" ht="15.75" customHeight="1" s="191"/>
-    <row r="509" ht="15.75" customHeight="1" s="191"/>
-    <row r="510" ht="15.75" customHeight="1" s="191"/>
-    <row r="511" ht="15.75" customHeight="1" s="191"/>
-    <row r="512" ht="15.75" customHeight="1" s="191"/>
-    <row r="513" ht="15.75" customHeight="1" s="191"/>
-    <row r="514" ht="15.75" customHeight="1" s="191"/>
-    <row r="515" ht="15.75" customHeight="1" s="191"/>
-    <row r="516" ht="15.75" customHeight="1" s="191"/>
-    <row r="517" ht="15.75" customHeight="1" s="191"/>
-    <row r="518" ht="15.75" customHeight="1" s="191"/>
-    <row r="519" ht="15.75" customHeight="1" s="191"/>
-    <row r="520" ht="15.75" customHeight="1" s="191"/>
-    <row r="521" ht="15.75" customHeight="1" s="191"/>
-    <row r="522" ht="15.75" customHeight="1" s="191"/>
-    <row r="523" ht="15.75" customHeight="1" s="191"/>
-    <row r="524" ht="15.75" customHeight="1" s="191"/>
-    <row r="525" ht="15.75" customHeight="1" s="191"/>
-    <row r="526" ht="15.75" customHeight="1" s="191"/>
-    <row r="527" ht="15.75" customHeight="1" s="191"/>
-    <row r="528" ht="15.75" customHeight="1" s="191"/>
-    <row r="529" ht="15.75" customHeight="1" s="191"/>
-    <row r="530" ht="15.75" customHeight="1" s="191"/>
-    <row r="531" ht="15.75" customHeight="1" s="191"/>
-    <row r="532" ht="15.75" customHeight="1" s="191"/>
-    <row r="533" ht="15.75" customHeight="1" s="191"/>
-    <row r="534" ht="15.75" customHeight="1" s="191"/>
-    <row r="535" ht="15.75" customHeight="1" s="191"/>
-    <row r="536" ht="15.75" customHeight="1" s="191"/>
-    <row r="537" ht="15.75" customHeight="1" s="191"/>
-    <row r="538" ht="15.75" customHeight="1" s="191"/>
-    <row r="539" ht="15.75" customHeight="1" s="191"/>
-    <row r="540" ht="15.75" customHeight="1" s="191"/>
-    <row r="541" ht="15.75" customHeight="1" s="191"/>
-    <row r="542" ht="15.75" customHeight="1" s="191"/>
-    <row r="543" ht="15.75" customHeight="1" s="191"/>
-    <row r="544" ht="15.75" customHeight="1" s="191"/>
-    <row r="545" ht="15.75" customHeight="1" s="191"/>
-    <row r="546" ht="15.75" customHeight="1" s="191"/>
-    <row r="547" ht="15.75" customHeight="1" s="191"/>
-    <row r="548" ht="15.75" customHeight="1" s="191"/>
-    <row r="549" ht="15.75" customHeight="1" s="191"/>
-    <row r="550" ht="15.75" customHeight="1" s="191"/>
-    <row r="551" ht="15.75" customHeight="1" s="191"/>
-    <row r="552" ht="15.75" customHeight="1" s="191"/>
-    <row r="553" ht="15.75" customHeight="1" s="191"/>
-    <row r="554" ht="15.75" customHeight="1" s="191"/>
-    <row r="555" ht="15.75" customHeight="1" s="191"/>
-    <row r="556" ht="15.75" customHeight="1" s="191"/>
-    <row r="557" ht="15.75" customHeight="1" s="191"/>
-    <row r="558" ht="15.75" customHeight="1" s="191"/>
-    <row r="559" ht="15.75" customHeight="1" s="191"/>
-    <row r="560" ht="15.75" customHeight="1" s="191"/>
-    <row r="561" ht="15.75" customHeight="1" s="191"/>
-    <row r="562" ht="15.75" customHeight="1" s="191"/>
-    <row r="563" ht="15.75" customHeight="1" s="191"/>
-    <row r="564" ht="15.75" customHeight="1" s="191"/>
-    <row r="565" ht="15.75" customHeight="1" s="191"/>
-    <row r="566" ht="15.75" customHeight="1" s="191"/>
-    <row r="567" ht="15.75" customHeight="1" s="191"/>
-    <row r="568" ht="15.75" customHeight="1" s="191"/>
-    <row r="569" ht="15.75" customHeight="1" s="191"/>
-    <row r="570" ht="15.75" customHeight="1" s="191"/>
-    <row r="571" ht="15.75" customHeight="1" s="191"/>
-    <row r="572" ht="15.75" customHeight="1" s="191"/>
-    <row r="573" ht="15.75" customHeight="1" s="191"/>
-    <row r="574" ht="15.75" customHeight="1" s="191"/>
-    <row r="575" ht="15.75" customHeight="1" s="191"/>
-    <row r="576" ht="15.75" customHeight="1" s="191"/>
-    <row r="577" ht="15.75" customHeight="1" s="191"/>
-    <row r="578" ht="15.75" customHeight="1" s="191"/>
-    <row r="579" ht="15.75" customHeight="1" s="191"/>
-    <row r="580" ht="15.75" customHeight="1" s="191"/>
-    <row r="581" ht="15.75" customHeight="1" s="191"/>
-    <row r="582" ht="15.75" customHeight="1" s="191"/>
-    <row r="583" ht="15.75" customHeight="1" s="191"/>
-    <row r="584" ht="15.75" customHeight="1" s="191"/>
-    <row r="585" ht="15.75" customHeight="1" s="191"/>
-    <row r="586" ht="15.75" customHeight="1" s="191"/>
-    <row r="587" ht="15.75" customHeight="1" s="191"/>
-    <row r="588" ht="15.75" customHeight="1" s="191"/>
-    <row r="589" ht="15.75" customHeight="1" s="191"/>
-    <row r="590" ht="15.75" customHeight="1" s="191"/>
-    <row r="591" ht="15.75" customHeight="1" s="191"/>
-    <row r="592" ht="15.75" customHeight="1" s="191"/>
-    <row r="593" ht="15.75" customHeight="1" s="191"/>
-    <row r="594" ht="15.75" customHeight="1" s="191"/>
-    <row r="595" ht="15.75" customHeight="1" s="191"/>
-    <row r="596" ht="15.75" customHeight="1" s="191"/>
-    <row r="597" ht="15.75" customHeight="1" s="191"/>
-    <row r="598" ht="15.75" customHeight="1" s="191"/>
-    <row r="599" ht="15.75" customHeight="1" s="191"/>
-    <row r="600" ht="15.75" customHeight="1" s="191"/>
-    <row r="601" ht="15.75" customHeight="1" s="191"/>
-    <row r="602" ht="15.75" customHeight="1" s="191"/>
-    <row r="603" ht="15.75" customHeight="1" s="191"/>
-    <row r="604" ht="15.75" customHeight="1" s="191"/>
-    <row r="605" ht="15.75" customHeight="1" s="191"/>
-    <row r="606" ht="15.75" customHeight="1" s="191"/>
-    <row r="607" ht="15.75" customHeight="1" s="191"/>
-    <row r="608" ht="15.75" customHeight="1" s="191"/>
-    <row r="609" ht="15.75" customHeight="1" s="191"/>
-    <row r="610" ht="15.75" customHeight="1" s="191"/>
-    <row r="611" ht="15.75" customHeight="1" s="191"/>
-    <row r="612" ht="15.75" customHeight="1" s="191"/>
-    <row r="613" ht="15.75" customHeight="1" s="191"/>
-    <row r="614" ht="15.75" customHeight="1" s="191"/>
-    <row r="615" ht="15.75" customHeight="1" s="191"/>
-    <row r="616" ht="15.75" customHeight="1" s="191"/>
-    <row r="617" ht="15.75" customHeight="1" s="191"/>
-    <row r="618" ht="15.75" customHeight="1" s="191"/>
-    <row r="619" ht="15.75" customHeight="1" s="191"/>
-    <row r="620" ht="15.75" customHeight="1" s="191"/>
-    <row r="621" ht="15.75" customHeight="1" s="191"/>
-    <row r="622" ht="15.75" customHeight="1" s="191"/>
-    <row r="623" ht="15.75" customHeight="1" s="191"/>
-    <row r="624" ht="15.75" customHeight="1" s="191"/>
-    <row r="625" ht="15.75" customHeight="1" s="191"/>
-    <row r="626" ht="15.75" customHeight="1" s="191"/>
-    <row r="627" ht="15.75" customHeight="1" s="191"/>
-    <row r="628" ht="15.75" customHeight="1" s="191"/>
-    <row r="629" ht="15.75" customHeight="1" s="191"/>
-    <row r="630" ht="15.75" customHeight="1" s="191"/>
-    <row r="631" ht="15.75" customHeight="1" s="191"/>
-    <row r="632" ht="15.75" customHeight="1" s="191"/>
-    <row r="633" ht="15.75" customHeight="1" s="191"/>
-    <row r="634" ht="15.75" customHeight="1" s="191"/>
-    <row r="635" ht="15.75" customHeight="1" s="191"/>
-    <row r="636" ht="15.75" customHeight="1" s="191"/>
-    <row r="637" ht="15.75" customHeight="1" s="191"/>
-    <row r="638" ht="15.75" customHeight="1" s="191"/>
-    <row r="639" ht="15.75" customHeight="1" s="191"/>
-    <row r="640" ht="15.75" customHeight="1" s="191"/>
-    <row r="641" ht="15.75" customHeight="1" s="191"/>
-    <row r="642" ht="15.75" customHeight="1" s="191"/>
-    <row r="643" ht="15.75" customHeight="1" s="191"/>
-    <row r="644" ht="15.75" customHeight="1" s="191"/>
-    <row r="645" ht="15.75" customHeight="1" s="191"/>
-    <row r="646" ht="15.75" customHeight="1" s="191"/>
-    <row r="647" ht="15.75" customHeight="1" s="191"/>
-    <row r="648" ht="15.75" customHeight="1" s="191"/>
-    <row r="649" ht="15.75" customHeight="1" s="191"/>
-    <row r="650" ht="15.75" customHeight="1" s="191"/>
-    <row r="651" ht="15.75" customHeight="1" s="191"/>
-    <row r="652" ht="15.75" customHeight="1" s="191"/>
-    <row r="653" ht="15.75" customHeight="1" s="191"/>
-    <row r="654" ht="15.75" customHeight="1" s="191"/>
-    <row r="655" ht="15.75" customHeight="1" s="191"/>
-    <row r="656" ht="15.75" customHeight="1" s="191"/>
-    <row r="657" ht="15.75" customHeight="1" s="191"/>
-    <row r="658" ht="15.75" customHeight="1" s="191"/>
-    <row r="659" ht="15.75" customHeight="1" s="191"/>
-    <row r="660" ht="15.75" customHeight="1" s="191"/>
-    <row r="661" ht="15.75" customHeight="1" s="191"/>
-    <row r="662" ht="15.75" customHeight="1" s="191"/>
-    <row r="663" ht="15.75" customHeight="1" s="191"/>
-    <row r="664" ht="15.75" customHeight="1" s="191"/>
-    <row r="665" ht="15.75" customHeight="1" s="191"/>
-    <row r="666" ht="15.75" customHeight="1" s="191"/>
-    <row r="667" ht="15.75" customHeight="1" s="191"/>
-    <row r="668" ht="15.75" customHeight="1" s="191"/>
-    <row r="669" ht="15.75" customHeight="1" s="191"/>
-    <row r="670" ht="15.75" customHeight="1" s="191"/>
-    <row r="671" ht="15.75" customHeight="1" s="191"/>
-    <row r="672" ht="15.75" customHeight="1" s="191"/>
-    <row r="673" ht="15.75" customHeight="1" s="191"/>
-    <row r="674" ht="15.75" customHeight="1" s="191"/>
-    <row r="675" ht="15.75" customHeight="1" s="191"/>
-    <row r="676" ht="15.75" customHeight="1" s="191"/>
-    <row r="677" ht="15.75" customHeight="1" s="191"/>
-    <row r="678" ht="15.75" customHeight="1" s="191"/>
-    <row r="679" ht="15.75" customHeight="1" s="191"/>
-    <row r="680" ht="15.75" customHeight="1" s="191"/>
-    <row r="681" ht="15.75" customHeight="1" s="191"/>
-    <row r="682" ht="15.75" customHeight="1" s="191"/>
-    <row r="683" ht="15.75" customHeight="1" s="191"/>
-    <row r="684" ht="15.75" customHeight="1" s="191"/>
-    <row r="685" ht="15.75" customHeight="1" s="191"/>
-    <row r="686" ht="15.75" customHeight="1" s="191"/>
-    <row r="687" ht="15.75" customHeight="1" s="191"/>
-    <row r="688" ht="15.75" customHeight="1" s="191"/>
-    <row r="689" ht="15.75" customHeight="1" s="191"/>
-    <row r="690" ht="15.75" customHeight="1" s="191"/>
-    <row r="691" ht="15.75" customHeight="1" s="191"/>
-    <row r="692" ht="15.75" customHeight="1" s="191"/>
-    <row r="693" ht="15.75" customHeight="1" s="191"/>
-    <row r="694" ht="15.75" customHeight="1" s="191"/>
-    <row r="695" ht="15.75" customHeight="1" s="191"/>
-    <row r="696" ht="15.75" customHeight="1" s="191"/>
-    <row r="697" ht="15.75" customHeight="1" s="191"/>
-    <row r="698" ht="15.75" customHeight="1" s="191"/>
-    <row r="699" ht="15.75" customHeight="1" s="191"/>
-    <row r="700" ht="15.75" customHeight="1" s="191"/>
-    <row r="701" ht="15.75" customHeight="1" s="191"/>
-    <row r="702" ht="15.75" customHeight="1" s="191"/>
-    <row r="703" ht="15.75" customHeight="1" s="191"/>
-    <row r="704" ht="15.75" customHeight="1" s="191"/>
-    <row r="705" ht="15.75" customHeight="1" s="191"/>
-    <row r="706" ht="15.75" customHeight="1" s="191"/>
-    <row r="707" ht="15.75" customHeight="1" s="191"/>
-    <row r="708" ht="15.75" customHeight="1" s="191"/>
-    <row r="709" ht="15.75" customHeight="1" s="191"/>
-    <row r="710" ht="15.75" customHeight="1" s="191"/>
-    <row r="711" ht="15.75" customHeight="1" s="191"/>
-    <row r="712" ht="15.75" customHeight="1" s="191"/>
-    <row r="713" ht="15.75" customHeight="1" s="191"/>
-    <row r="714" ht="15.75" customHeight="1" s="191"/>
-    <row r="715" ht="15.75" customHeight="1" s="191"/>
-    <row r="716" ht="15.75" customHeight="1" s="191"/>
-    <row r="717" ht="15.75" customHeight="1" s="191"/>
-    <row r="718" ht="15.75" customHeight="1" s="191"/>
-    <row r="719" ht="15.75" customHeight="1" s="191"/>
-    <row r="720" ht="15.75" customHeight="1" s="191"/>
-    <row r="721" ht="15.75" customHeight="1" s="191"/>
-    <row r="722" ht="15.75" customHeight="1" s="191"/>
-    <row r="723" ht="15.75" customHeight="1" s="191"/>
-    <row r="724" ht="15.75" customHeight="1" s="191"/>
-    <row r="725" ht="15.75" customHeight="1" s="191"/>
-    <row r="726" ht="15.75" customHeight="1" s="191"/>
-    <row r="727" ht="15.75" customHeight="1" s="191"/>
-    <row r="728" ht="15.75" customHeight="1" s="191"/>
-    <row r="729" ht="15.75" customHeight="1" s="191"/>
-    <row r="730" ht="15.75" customHeight="1" s="191"/>
-    <row r="731" ht="15.75" customHeight="1" s="191"/>
-    <row r="732" ht="15.75" customHeight="1" s="191"/>
-    <row r="733" ht="15.75" customHeight="1" s="191"/>
-    <row r="734" ht="15.75" customHeight="1" s="191"/>
-    <row r="735" ht="15.75" customHeight="1" s="191"/>
-    <row r="736" ht="15.75" customHeight="1" s="191"/>
-    <row r="737" ht="15.75" customHeight="1" s="191"/>
-    <row r="738" ht="15.75" customHeight="1" s="191"/>
-    <row r="739" ht="15.75" customHeight="1" s="191"/>
-    <row r="740" ht="15.75" customHeight="1" s="191"/>
-    <row r="741" ht="15.75" customHeight="1" s="191"/>
-    <row r="742" ht="15.75" customHeight="1" s="191"/>
-    <row r="743" ht="15.75" customHeight="1" s="191"/>
-    <row r="744" ht="15.75" customHeight="1" s="191"/>
-    <row r="745" ht="15.75" customHeight="1" s="191"/>
-    <row r="746" ht="15.75" customHeight="1" s="191"/>
-    <row r="747" ht="15.75" customHeight="1" s="191"/>
-    <row r="748" ht="15.75" customHeight="1" s="191"/>
-    <row r="749" ht="15.75" customHeight="1" s="191"/>
-    <row r="750" ht="15.75" customHeight="1" s="191"/>
-    <row r="751" ht="15.75" customHeight="1" s="191"/>
-    <row r="752" ht="15.75" customHeight="1" s="191"/>
-    <row r="753" ht="15.75" customHeight="1" s="191"/>
-    <row r="754" ht="15.75" customHeight="1" s="191"/>
-    <row r="755" ht="15.75" customHeight="1" s="191"/>
-    <row r="756" ht="15.75" customHeight="1" s="191"/>
-    <row r="757" ht="15.75" customHeight="1" s="191"/>
-    <row r="758" ht="15.75" customHeight="1" s="191"/>
-    <row r="759" ht="15.75" customHeight="1" s="191"/>
-    <row r="760" ht="15.75" customHeight="1" s="191"/>
-    <row r="761" ht="15.75" customHeight="1" s="191"/>
-    <row r="762" ht="15.75" customHeight="1" s="191"/>
-    <row r="763" ht="15.75" customHeight="1" s="191"/>
-    <row r="764" ht="15.75" customHeight="1" s="191"/>
-    <row r="765" ht="15.75" customHeight="1" s="191"/>
-    <row r="766" ht="15.75" customHeight="1" s="191"/>
-    <row r="767" ht="15.75" customHeight="1" s="191"/>
-    <row r="768" ht="15.75" customHeight="1" s="191"/>
-    <row r="769" ht="15.75" customHeight="1" s="191"/>
-    <row r="770" ht="15.75" customHeight="1" s="191"/>
-    <row r="771" ht="15.75" customHeight="1" s="191"/>
-    <row r="772" ht="15.75" customHeight="1" s="191"/>
-    <row r="773" ht="15.75" customHeight="1" s="191"/>
-    <row r="774" ht="15.75" customHeight="1" s="191"/>
-    <row r="775" ht="15.75" customHeight="1" s="191"/>
-    <row r="776" ht="15.75" customHeight="1" s="191"/>
-    <row r="777" ht="15.75" customHeight="1" s="191"/>
-    <row r="778" ht="15.75" customHeight="1" s="191"/>
-    <row r="779" ht="15.75" customHeight="1" s="191"/>
-    <row r="780" ht="15.75" customHeight="1" s="191"/>
-    <row r="781" ht="15.75" customHeight="1" s="191"/>
-    <row r="782" ht="15.75" customHeight="1" s="191"/>
-    <row r="783" ht="15.75" customHeight="1" s="191"/>
-    <row r="784" ht="15.75" customHeight="1" s="191"/>
-    <row r="785" ht="15.75" customHeight="1" s="191"/>
-    <row r="786" ht="15.75" customHeight="1" s="191"/>
-    <row r="787" ht="15.75" customHeight="1" s="191"/>
-    <row r="788" ht="15.75" customHeight="1" s="191"/>
-    <row r="789" ht="15.75" customHeight="1" s="191"/>
-    <row r="790" ht="15.75" customHeight="1" s="191"/>
-    <row r="791" ht="15.75" customHeight="1" s="191"/>
-    <row r="792" ht="15.75" customHeight="1" s="191"/>
-    <row r="793" ht="15.75" customHeight="1" s="191"/>
-    <row r="794" ht="15.75" customHeight="1" s="191"/>
-    <row r="795" ht="15.75" customHeight="1" s="191"/>
-    <row r="796" ht="15.75" customHeight="1" s="191"/>
-    <row r="797" ht="15.75" customHeight="1" s="191"/>
-    <row r="798" ht="15.75" customHeight="1" s="191"/>
-    <row r="799" ht="15.75" customHeight="1" s="191"/>
-    <row r="800" ht="15.75" customHeight="1" s="191"/>
-    <row r="801" ht="15.75" customHeight="1" s="191"/>
-    <row r="802" ht="15.75" customHeight="1" s="191"/>
-    <row r="803" ht="15.75" customHeight="1" s="191"/>
-    <row r="804" ht="15.75" customHeight="1" s="191"/>
-    <row r="805" ht="15.75" customHeight="1" s="191"/>
-    <row r="806" ht="15.75" customHeight="1" s="191"/>
-    <row r="807" ht="15.75" customHeight="1" s="191"/>
-    <row r="808" ht="15.75" customHeight="1" s="191"/>
-    <row r="809" ht="15.75" customHeight="1" s="191"/>
-    <row r="810" ht="15.75" customHeight="1" s="191"/>
-    <row r="811" ht="15.75" customHeight="1" s="191"/>
-    <row r="812" ht="15.75" customHeight="1" s="191"/>
-    <row r="813" ht="15.75" customHeight="1" s="191"/>
-    <row r="814" ht="15.75" customHeight="1" s="191"/>
-    <row r="815" ht="15.75" customHeight="1" s="191"/>
-    <row r="816" ht="15.75" customHeight="1" s="191"/>
-    <row r="817" ht="15.75" customHeight="1" s="191"/>
-    <row r="818" ht="15.75" customHeight="1" s="191"/>
-    <row r="819" ht="15.75" customHeight="1" s="191"/>
-    <row r="820" ht="15.75" customHeight="1" s="191"/>
-    <row r="821" ht="15.75" customHeight="1" s="191"/>
-    <row r="822" ht="15.75" customHeight="1" s="191"/>
-    <row r="823" ht="15.75" customHeight="1" s="191"/>
-    <row r="824" ht="15.75" customHeight="1" s="191"/>
-    <row r="825" ht="15.75" customHeight="1" s="191"/>
-    <row r="826" ht="15.75" customHeight="1" s="191"/>
-    <row r="827" ht="15.75" customHeight="1" s="191"/>
-    <row r="828" ht="15.75" customHeight="1" s="191"/>
-    <row r="829" ht="15.75" customHeight="1" s="191"/>
-    <row r="830" ht="15.75" customHeight="1" s="191"/>
-    <row r="831" ht="15.75" customHeight="1" s="191"/>
-    <row r="832" ht="15.75" customHeight="1" s="191"/>
-    <row r="833" ht="15.75" customHeight="1" s="191"/>
-    <row r="834" ht="15.75" customHeight="1" s="191"/>
-    <row r="835" ht="15.75" customHeight="1" s="191"/>
-    <row r="836" ht="15.75" customHeight="1" s="191"/>
-    <row r="837" ht="15.75" customHeight="1" s="191"/>
-    <row r="838" ht="15.75" customHeight="1" s="191"/>
-    <row r="839" ht="15.75" customHeight="1" s="191"/>
-    <row r="840" ht="15.75" customHeight="1" s="191"/>
-    <row r="841" ht="15.75" customHeight="1" s="191"/>
-    <row r="842" ht="15.75" customHeight="1" s="191"/>
-    <row r="843" ht="15.75" customHeight="1" s="191"/>
-    <row r="844" ht="15.75" customHeight="1" s="191"/>
-    <row r="845" ht="15.75" customHeight="1" s="191"/>
-    <row r="846" ht="15.75" customHeight="1" s="191"/>
-    <row r="847" ht="15.75" customHeight="1" s="191"/>
-    <row r="848" ht="15.75" customHeight="1" s="191"/>
-    <row r="849" ht="15.75" customHeight="1" s="191"/>
-    <row r="850" ht="15.75" customHeight="1" s="191"/>
-    <row r="851" ht="15.75" customHeight="1" s="191"/>
-    <row r="852" ht="15.75" customHeight="1" s="191"/>
-    <row r="853" ht="15.75" customHeight="1" s="191"/>
-    <row r="854" ht="15.75" customHeight="1" s="191"/>
-    <row r="855" ht="15.75" customHeight="1" s="191"/>
-    <row r="856" ht="15.75" customHeight="1" s="191"/>
-    <row r="857" ht="15.75" customHeight="1" s="191"/>
-    <row r="858" ht="15.75" customHeight="1" s="191"/>
-    <row r="859" ht="15.75" customHeight="1" s="191"/>
-    <row r="860" ht="15.75" customHeight="1" s="191"/>
-    <row r="861" ht="15.75" customHeight="1" s="191"/>
-    <row r="862" ht="15.75" customHeight="1" s="191"/>
-    <row r="863" ht="15.75" customHeight="1" s="191"/>
-    <row r="864" ht="15.75" customHeight="1" s="191"/>
-    <row r="865" ht="15.75" customHeight="1" s="191"/>
-    <row r="866" ht="15.75" customHeight="1" s="191"/>
-    <row r="867" ht="15.75" customHeight="1" s="191"/>
-    <row r="868" ht="15.75" customHeight="1" s="191"/>
-    <row r="869" ht="15.75" customHeight="1" s="191"/>
-    <row r="870" ht="15.75" customHeight="1" s="191"/>
-    <row r="871" ht="15.75" customHeight="1" s="191"/>
-    <row r="872" ht="15.75" customHeight="1" s="191"/>
-    <row r="873" ht="15.75" customHeight="1" s="191"/>
-    <row r="874" ht="15.75" customHeight="1" s="191"/>
-    <row r="875" ht="15.75" customHeight="1" s="191"/>
-    <row r="876" ht="15.75" customHeight="1" s="191"/>
-    <row r="877" ht="15.75" customHeight="1" s="191"/>
-    <row r="878" ht="15.75" customHeight="1" s="191"/>
-    <row r="879" ht="15.75" customHeight="1" s="191"/>
-    <row r="880" ht="15.75" customHeight="1" s="191"/>
-    <row r="881" ht="15.75" customHeight="1" s="191"/>
-    <row r="882" ht="15.75" customHeight="1" s="191"/>
-    <row r="883" ht="15.75" customHeight="1" s="191"/>
-    <row r="884" ht="15.75" customHeight="1" s="191"/>
-    <row r="885" ht="15.75" customHeight="1" s="191"/>
-    <row r="886" ht="15.75" customHeight="1" s="191"/>
-    <row r="887" ht="15.75" customHeight="1" s="191"/>
-    <row r="888" ht="15.75" customHeight="1" s="191"/>
-    <row r="889" ht="15.75" customHeight="1" s="191"/>
-    <row r="890" ht="15.75" customHeight="1" s="191"/>
-    <row r="891" ht="15.75" customHeight="1" s="191"/>
-    <row r="892" ht="15.75" customHeight="1" s="191"/>
-    <row r="893" ht="15.75" customHeight="1" s="191"/>
-    <row r="894" ht="15.75" customHeight="1" s="191"/>
-    <row r="895" ht="15.75" customHeight="1" s="191"/>
-    <row r="896" ht="15.75" customHeight="1" s="191"/>
-    <row r="897" ht="15.75" customHeight="1" s="191"/>
-    <row r="898" ht="15.75" customHeight="1" s="191"/>
-    <row r="899" ht="15.75" customHeight="1" s="191"/>
-    <row r="900" ht="15.75" customHeight="1" s="191"/>
-    <row r="901" ht="15.75" customHeight="1" s="191"/>
-    <row r="902" ht="15.75" customHeight="1" s="191"/>
-    <row r="903" ht="15.75" customHeight="1" s="191"/>
-    <row r="904" ht="15.75" customHeight="1" s="191"/>
-    <row r="905" ht="15.75" customHeight="1" s="191"/>
-    <row r="906" ht="15.75" customHeight="1" s="191"/>
-    <row r="907" ht="15.75" customHeight="1" s="191"/>
-    <row r="908" ht="15.75" customHeight="1" s="191"/>
-    <row r="909" ht="15.75" customHeight="1" s="191"/>
-    <row r="910" ht="15.75" customHeight="1" s="191"/>
-    <row r="911" ht="15.75" customHeight="1" s="191"/>
-    <row r="912" ht="15.75" customHeight="1" s="191"/>
-    <row r="913" ht="15.75" customHeight="1" s="191"/>
-    <row r="914" ht="15.75" customHeight="1" s="191"/>
-    <row r="915" ht="15.75" customHeight="1" s="191"/>
-    <row r="916" ht="15.75" customHeight="1" s="191"/>
-    <row r="917" ht="15.75" customHeight="1" s="191"/>
-    <row r="918" ht="15.75" customHeight="1" s="191"/>
-    <row r="919" ht="15.75" customHeight="1" s="191"/>
-    <row r="920" ht="15.75" customHeight="1" s="191"/>
-    <row r="921" ht="15.75" customHeight="1" s="191"/>
-    <row r="922" ht="15.75" customHeight="1" s="191"/>
-    <row r="923" ht="15.75" customHeight="1" s="191"/>
-    <row r="924" ht="15.75" customHeight="1" s="191"/>
-    <row r="925" ht="15.75" customHeight="1" s="191"/>
-    <row r="926" ht="15.75" customHeight="1" s="191"/>
-    <row r="927" ht="15.75" customHeight="1" s="191"/>
-    <row r="928" ht="15.75" customHeight="1" s="191"/>
-    <row r="929" ht="15.75" customHeight="1" s="191"/>
-    <row r="930" ht="15.75" customHeight="1" s="191"/>
-    <row r="931" ht="15.75" customHeight="1" s="191"/>
-    <row r="932" ht="15.75" customHeight="1" s="191"/>
-    <row r="933" ht="15.75" customHeight="1" s="191"/>
-    <row r="934" ht="15.75" customHeight="1" s="191"/>
-    <row r="935" ht="15.75" customHeight="1" s="191"/>
-    <row r="936" ht="15.75" customHeight="1" s="191"/>
-    <row r="937" ht="15.75" customHeight="1" s="191"/>
-    <row r="938" ht="15.75" customHeight="1" s="191"/>
-    <row r="939" ht="15.75" customHeight="1" s="191"/>
-    <row r="940" ht="15.75" customHeight="1" s="191"/>
-    <row r="941" ht="15.75" customHeight="1" s="191"/>
-    <row r="942" ht="15.75" customHeight="1" s="191"/>
-    <row r="943" ht="15.75" customHeight="1" s="191"/>
-    <row r="944" ht="15.75" customHeight="1" s="191"/>
-    <row r="945" ht="15.75" customHeight="1" s="191"/>
-    <row r="946" ht="15.75" customHeight="1" s="191"/>
-    <row r="947" ht="15.75" customHeight="1" s="191"/>
-    <row r="948" ht="15.75" customHeight="1" s="191"/>
-    <row r="949" ht="15.75" customHeight="1" s="191"/>
-    <row r="950" ht="15.75" customHeight="1" s="191"/>
-    <row r="951" ht="15.75" customHeight="1" s="191"/>
-    <row r="952" ht="15.75" customHeight="1" s="191"/>
-    <row r="953" ht="15.75" customHeight="1" s="191"/>
-    <row r="954" ht="15.75" customHeight="1" s="191"/>
-    <row r="955" ht="15.75" customHeight="1" s="191"/>
-    <row r="956" ht="15.75" customHeight="1" s="191"/>
-    <row r="957" ht="15.75" customHeight="1" s="191"/>
-    <row r="958" ht="15.75" customHeight="1" s="191"/>
-    <row r="959" ht="15.75" customHeight="1" s="191"/>
-    <row r="960" ht="15.75" customHeight="1" s="191"/>
-    <row r="961" ht="15.75" customHeight="1" s="191"/>
-    <row r="962" ht="15.75" customHeight="1" s="191"/>
-    <row r="963" ht="15.75" customHeight="1" s="191"/>
-    <row r="964" ht="15.75" customHeight="1" s="191"/>
-    <row r="965" ht="15.75" customHeight="1" s="191"/>
-    <row r="966" ht="15.75" customHeight="1" s="191"/>
-    <row r="967" ht="15.75" customHeight="1" s="191"/>
-    <row r="968" ht="15.75" customHeight="1" s="191"/>
-    <row r="969" ht="15.75" customHeight="1" s="191"/>
-    <row r="970" ht="15.75" customHeight="1" s="191"/>
-    <row r="971" ht="15.75" customHeight="1" s="191"/>
-    <row r="972" ht="15.75" customHeight="1" s="191"/>
-    <row r="973" ht="15.75" customHeight="1" s="191"/>
-    <row r="974" ht="15.75" customHeight="1" s="191"/>
-    <row r="975" ht="15.75" customHeight="1" s="191"/>
-    <row r="976" ht="15.75" customHeight="1" s="191"/>
-    <row r="977" ht="15.75" customHeight="1" s="191"/>
-    <row r="978" ht="15.75" customHeight="1" s="191"/>
-    <row r="979" ht="15.75" customHeight="1" s="191"/>
-    <row r="980" ht="15.75" customHeight="1" s="191"/>
-    <row r="981" ht="15.75" customHeight="1" s="191"/>
-    <row r="982" ht="15.75" customHeight="1" s="191"/>
-    <row r="983" ht="15.75" customHeight="1" s="191"/>
-    <row r="984" ht="15.75" customHeight="1" s="191"/>
-    <row r="985" ht="15.75" customHeight="1" s="191"/>
-    <row r="986" ht="15.75" customHeight="1" s="191"/>
-    <row r="987" ht="15.75" customHeight="1" s="191"/>
-    <row r="988" ht="15.75" customHeight="1" s="191"/>
-    <row r="989" ht="15.75" customHeight="1" s="191"/>
-    <row r="990" ht="15.75" customHeight="1" s="191"/>
-    <row r="991" ht="15.75" customHeight="1" s="191"/>
-    <row r="992" ht="15.75" customHeight="1" s="191"/>
-    <row r="993" ht="15.75" customHeight="1" s="191"/>
-    <row r="994" ht="15.75" customHeight="1" s="191"/>
-    <row r="995" ht="15.75" customHeight="1" s="191"/>
-    <row r="996" ht="15.75" customHeight="1" s="191"/>
-    <row r="997" ht="15.75" customHeight="1" s="191"/>
-    <row r="998" ht="15.75" customHeight="1" s="191"/>
-    <row r="999" ht="15.75" customHeight="1" s="191"/>
-    <row r="1000" ht="15.75" customHeight="1" s="191"/>
+      <c r="D65" s="225" t="n"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1" s="202"/>
+    <row r="67" ht="15.75" customHeight="1" s="202"/>
+    <row r="68" ht="15.75" customHeight="1" s="202"/>
+    <row r="69" ht="15.75" customHeight="1" s="202"/>
+    <row r="70" ht="15.75" customHeight="1" s="202"/>
+    <row r="71" ht="15.75" customHeight="1" s="202"/>
+    <row r="72" ht="15.75" customHeight="1" s="202"/>
+    <row r="73" ht="15.75" customHeight="1" s="202"/>
+    <row r="74" ht="15.75" customHeight="1" s="202"/>
+    <row r="75" ht="15.75" customHeight="1" s="202"/>
+    <row r="76" ht="15.75" customHeight="1" s="202"/>
+    <row r="77" ht="15.75" customHeight="1" s="202"/>
+    <row r="78" ht="15.75" customHeight="1" s="202"/>
+    <row r="79" ht="15.75" customHeight="1" s="202"/>
+    <row r="80" ht="15.75" customHeight="1" s="202"/>
+    <row r="81" ht="15.75" customHeight="1" s="202"/>
+    <row r="82" ht="15.75" customHeight="1" s="202"/>
+    <row r="83" ht="15.75" customHeight="1" s="202"/>
+    <row r="84" ht="15.75" customHeight="1" s="202"/>
+    <row r="85" ht="15.75" customHeight="1" s="202"/>
+    <row r="86" ht="15.75" customHeight="1" s="202"/>
+    <row r="87" ht="15.75" customHeight="1" s="202"/>
+    <row r="88" ht="15.75" customHeight="1" s="202"/>
+    <row r="89" ht="15.75" customHeight="1" s="202"/>
+    <row r="90" ht="15.75" customHeight="1" s="202"/>
+    <row r="91" ht="15.75" customHeight="1" s="202"/>
+    <row r="92" ht="15.75" customHeight="1" s="202"/>
+    <row r="93" ht="15.75" customHeight="1" s="202"/>
+    <row r="94" ht="15.75" customHeight="1" s="202"/>
+    <row r="95" ht="15.75" customHeight="1" s="202"/>
+    <row r="96" ht="15.75" customHeight="1" s="202"/>
+    <row r="97" ht="15.75" customHeight="1" s="202"/>
+    <row r="98" ht="15.75" customHeight="1" s="202"/>
+    <row r="99" ht="15.75" customHeight="1" s="202"/>
+    <row r="100" ht="15.75" customHeight="1" s="202"/>
+    <row r="101" ht="15.75" customHeight="1" s="202"/>
+    <row r="102" ht="15.75" customHeight="1" s="202"/>
+    <row r="103" ht="15.75" customHeight="1" s="202"/>
+    <row r="104" ht="15.75" customHeight="1" s="202"/>
+    <row r="105" ht="15.75" customHeight="1" s="202"/>
+    <row r="106" ht="15.75" customHeight="1" s="202"/>
+    <row r="107" ht="15.75" customHeight="1" s="202"/>
+    <row r="108" ht="15.75" customHeight="1" s="202"/>
+    <row r="109" ht="15.75" customHeight="1" s="202"/>
+    <row r="110" ht="15.75" customHeight="1" s="202"/>
+    <row r="111" ht="15.75" customHeight="1" s="202"/>
+    <row r="112" ht="15.75" customHeight="1" s="202"/>
+    <row r="113" ht="15.75" customHeight="1" s="202"/>
+    <row r="114" ht="15.75" customHeight="1" s="202"/>
+    <row r="115" ht="15.75" customHeight="1" s="202"/>
+    <row r="116" ht="15.75" customHeight="1" s="202"/>
+    <row r="117" ht="15.75" customHeight="1" s="202"/>
+    <row r="118" ht="15.75" customHeight="1" s="202"/>
+    <row r="119" ht="15.75" customHeight="1" s="202"/>
+    <row r="120" ht="15.75" customHeight="1" s="202"/>
+    <row r="121" ht="15.75" customHeight="1" s="202"/>
+    <row r="122" ht="15.75" customHeight="1" s="202"/>
+    <row r="123" ht="15.75" customHeight="1" s="202"/>
+    <row r="124" ht="15.75" customHeight="1" s="202"/>
+    <row r="125" ht="15.75" customHeight="1" s="202"/>
+    <row r="126" ht="15.75" customHeight="1" s="202"/>
+    <row r="127" ht="15.75" customHeight="1" s="202"/>
+    <row r="128" ht="15.75" customHeight="1" s="202"/>
+    <row r="129" ht="15.75" customHeight="1" s="202"/>
+    <row r="130" ht="15.75" customHeight="1" s="202"/>
+    <row r="131" ht="15.75" customHeight="1" s="202"/>
+    <row r="132" ht="15.75" customHeight="1" s="202"/>
+    <row r="133" ht="15.75" customHeight="1" s="202"/>
+    <row r="134" ht="15.75" customHeight="1" s="202"/>
+    <row r="135" ht="15.75" customHeight="1" s="202"/>
+    <row r="136" ht="15.75" customHeight="1" s="202"/>
+    <row r="137" ht="15.75" customHeight="1" s="202"/>
+    <row r="138" ht="15.75" customHeight="1" s="202"/>
+    <row r="139" ht="15.75" customHeight="1" s="202"/>
+    <row r="140" ht="15.75" customHeight="1" s="202"/>
+    <row r="141" ht="15.75" customHeight="1" s="202"/>
+    <row r="142" ht="15.75" customHeight="1" s="202"/>
+    <row r="143" ht="15.75" customHeight="1" s="202"/>
+    <row r="144" ht="15.75" customHeight="1" s="202"/>
+    <row r="145" ht="15.75" customHeight="1" s="202"/>
+    <row r="146" ht="15.75" customHeight="1" s="202"/>
+    <row r="147" ht="15.75" customHeight="1" s="202"/>
+    <row r="148" ht="15.75" customHeight="1" s="202"/>
+    <row r="149" ht="15.75" customHeight="1" s="202"/>
+    <row r="150" ht="15.75" customHeight="1" s="202"/>
+    <row r="151" ht="15.75" customHeight="1" s="202"/>
+    <row r="152" ht="15.75" customHeight="1" s="202"/>
+    <row r="153" ht="15.75" customHeight="1" s="202"/>
+    <row r="154" ht="15.75" customHeight="1" s="202"/>
+    <row r="155" ht="15.75" customHeight="1" s="202"/>
+    <row r="156" ht="15.75" customHeight="1" s="202"/>
+    <row r="157" ht="15.75" customHeight="1" s="202"/>
+    <row r="158" ht="15.75" customHeight="1" s="202"/>
+    <row r="159" ht="15.75" customHeight="1" s="202"/>
+    <row r="160" ht="15.75" customHeight="1" s="202"/>
+    <row r="161" ht="15.75" customHeight="1" s="202"/>
+    <row r="162" ht="15.75" customHeight="1" s="202"/>
+    <row r="163" ht="15.75" customHeight="1" s="202"/>
+    <row r="164" ht="15.75" customHeight="1" s="202"/>
+    <row r="165" ht="15.75" customHeight="1" s="202"/>
+    <row r="166" ht="15.75" customHeight="1" s="202"/>
+    <row r="167" ht="15.75" customHeight="1" s="202"/>
+    <row r="168" ht="15.75" customHeight="1" s="202"/>
+    <row r="169" ht="15.75" customHeight="1" s="202"/>
+    <row r="170" ht="15.75" customHeight="1" s="202"/>
+    <row r="171" ht="15.75" customHeight="1" s="202"/>
+    <row r="172" ht="15.75" customHeight="1" s="202"/>
+    <row r="173" ht="15.75" customHeight="1" s="202"/>
+    <row r="174" ht="15.75" customHeight="1" s="202"/>
+    <row r="175" ht="15.75" customHeight="1" s="202"/>
+    <row r="176" ht="15.75" customHeight="1" s="202"/>
+    <row r="177" ht="15.75" customHeight="1" s="202"/>
+    <row r="178" ht="15.75" customHeight="1" s="202"/>
+    <row r="179" ht="15.75" customHeight="1" s="202"/>
+    <row r="180" ht="15.75" customHeight="1" s="202"/>
+    <row r="181" ht="15.75" customHeight="1" s="202"/>
+    <row r="182" ht="15.75" customHeight="1" s="202"/>
+    <row r="183" ht="15.75" customHeight="1" s="202"/>
+    <row r="184" ht="15.75" customHeight="1" s="202"/>
+    <row r="185" ht="15.75" customHeight="1" s="202"/>
+    <row r="186" ht="15.75" customHeight="1" s="202"/>
+    <row r="187" ht="15.75" customHeight="1" s="202"/>
+    <row r="188" ht="15.75" customHeight="1" s="202"/>
+    <row r="189" ht="15.75" customHeight="1" s="202"/>
+    <row r="190" ht="15.75" customHeight="1" s="202"/>
+    <row r="191" ht="15.75" customHeight="1" s="202"/>
+    <row r="192" ht="15.75" customHeight="1" s="202"/>
+    <row r="193" ht="15.75" customHeight="1" s="202"/>
+    <row r="194" ht="15.75" customHeight="1" s="202"/>
+    <row r="195" ht="15.75" customHeight="1" s="202"/>
+    <row r="196" ht="15.75" customHeight="1" s="202"/>
+    <row r="197" ht="15.75" customHeight="1" s="202"/>
+    <row r="198" ht="15.75" customHeight="1" s="202"/>
+    <row r="199" ht="15.75" customHeight="1" s="202"/>
+    <row r="200" ht="15.75" customHeight="1" s="202"/>
+    <row r="201" ht="15.75" customHeight="1" s="202"/>
+    <row r="202" ht="15.75" customHeight="1" s="202"/>
+    <row r="203" ht="15.75" customHeight="1" s="202"/>
+    <row r="204" ht="15.75" customHeight="1" s="202"/>
+    <row r="205" ht="15.75" customHeight="1" s="202"/>
+    <row r="206" ht="15.75" customHeight="1" s="202"/>
+    <row r="207" ht="15.75" customHeight="1" s="202"/>
+    <row r="208" ht="15.75" customHeight="1" s="202"/>
+    <row r="209" ht="15.75" customHeight="1" s="202"/>
+    <row r="210" ht="15.75" customHeight="1" s="202"/>
+    <row r="211" ht="15.75" customHeight="1" s="202"/>
+    <row r="212" ht="15.75" customHeight="1" s="202"/>
+    <row r="213" ht="15.75" customHeight="1" s="202"/>
+    <row r="214" ht="15.75" customHeight="1" s="202"/>
+    <row r="215" ht="15.75" customHeight="1" s="202"/>
+    <row r="216" ht="15.75" customHeight="1" s="202"/>
+    <row r="217" ht="15.75" customHeight="1" s="202"/>
+    <row r="218" ht="15.75" customHeight="1" s="202"/>
+    <row r="219" ht="15.75" customHeight="1" s="202"/>
+    <row r="220" ht="15.75" customHeight="1" s="202"/>
+    <row r="221" ht="15.75" customHeight="1" s="202"/>
+    <row r="222" ht="15.75" customHeight="1" s="202"/>
+    <row r="223" ht="15.75" customHeight="1" s="202"/>
+    <row r="224" ht="15.75" customHeight="1" s="202"/>
+    <row r="225" ht="15.75" customHeight="1" s="202"/>
+    <row r="226" ht="15.75" customHeight="1" s="202"/>
+    <row r="227" ht="15.75" customHeight="1" s="202"/>
+    <row r="228" ht="15.75" customHeight="1" s="202"/>
+    <row r="229" ht="15.75" customHeight="1" s="202"/>
+    <row r="230" ht="15.75" customHeight="1" s="202"/>
+    <row r="231" ht="15.75" customHeight="1" s="202"/>
+    <row r="232" ht="15.75" customHeight="1" s="202"/>
+    <row r="233" ht="15.75" customHeight="1" s="202"/>
+    <row r="234" ht="15.75" customHeight="1" s="202"/>
+    <row r="235" ht="15.75" customHeight="1" s="202"/>
+    <row r="236" ht="15.75" customHeight="1" s="202"/>
+    <row r="237" ht="15.75" customHeight="1" s="202"/>
+    <row r="238" ht="15.75" customHeight="1" s="202"/>
+    <row r="239" ht="15.75" customHeight="1" s="202"/>
+    <row r="240" ht="15.75" customHeight="1" s="202"/>
+    <row r="241" ht="15.75" customHeight="1" s="202"/>
+    <row r="242" ht="15.75" customHeight="1" s="202"/>
+    <row r="243" ht="15.75" customHeight="1" s="202"/>
+    <row r="244" ht="15.75" customHeight="1" s="202"/>
+    <row r="245" ht="15.75" customHeight="1" s="202"/>
+    <row r="246" ht="15.75" customHeight="1" s="202"/>
+    <row r="247" ht="15.75" customHeight="1" s="202"/>
+    <row r="248" ht="15.75" customHeight="1" s="202"/>
+    <row r="249" ht="15.75" customHeight="1" s="202"/>
+    <row r="250" ht="15.75" customHeight="1" s="202"/>
+    <row r="251" ht="15.75" customHeight="1" s="202"/>
+    <row r="252" ht="15.75" customHeight="1" s="202"/>
+    <row r="253" ht="15.75" customHeight="1" s="202"/>
+    <row r="254" ht="15.75" customHeight="1" s="202"/>
+    <row r="255" ht="15.75" customHeight="1" s="202"/>
+    <row r="256" ht="15.75" customHeight="1" s="202"/>
+    <row r="257" ht="15.75" customHeight="1" s="202"/>
+    <row r="258" ht="15.75" customHeight="1" s="202"/>
+    <row r="259" ht="15.75" customHeight="1" s="202"/>
+    <row r="260" ht="15.75" customHeight="1" s="202"/>
+    <row r="261" ht="15.75" customHeight="1" s="202"/>
+    <row r="262" ht="15.75" customHeight="1" s="202"/>
+    <row r="263" ht="15.75" customHeight="1" s="202"/>
+    <row r="264" ht="15.75" customHeight="1" s="202"/>
+    <row r="265" ht="15.75" customHeight="1" s="202"/>
+    <row r="266" ht="15.75" customHeight="1" s="202"/>
+    <row r="267" ht="15.75" customHeight="1" s="202"/>
+    <row r="268" ht="15.75" customHeight="1" s="202"/>
+    <row r="269" ht="15.75" customHeight="1" s="202"/>
+    <row r="270" ht="15.75" customHeight="1" s="202"/>
+    <row r="271" ht="15.75" customHeight="1" s="202"/>
+    <row r="272" ht="15.75" customHeight="1" s="202"/>
+    <row r="273" ht="15.75" customHeight="1" s="202"/>
+    <row r="274" ht="15.75" customHeight="1" s="202"/>
+    <row r="275" ht="15.75" customHeight="1" s="202"/>
+    <row r="276" ht="15.75" customHeight="1" s="202"/>
+    <row r="277" ht="15.75" customHeight="1" s="202"/>
+    <row r="278" ht="15.75" customHeight="1" s="202"/>
+    <row r="279" ht="15.75" customHeight="1" s="202"/>
+    <row r="280" ht="15.75" customHeight="1" s="202"/>
+    <row r="281" ht="15.75" customHeight="1" s="202"/>
+    <row r="282" ht="15.75" customHeight="1" s="202"/>
+    <row r="283" ht="15.75" customHeight="1" s="202"/>
+    <row r="284" ht="15.75" customHeight="1" s="202"/>
+    <row r="285" ht="15.75" customHeight="1" s="202"/>
+    <row r="286" ht="15.75" customHeight="1" s="202"/>
+    <row r="287" ht="15.75" customHeight="1" s="202"/>
+    <row r="288" ht="15.75" customHeight="1" s="202"/>
+    <row r="289" ht="15.75" customHeight="1" s="202"/>
+    <row r="290" ht="15.75" customHeight="1" s="202"/>
+    <row r="291" ht="15.75" customHeight="1" s="202"/>
+    <row r="292" ht="15.75" customHeight="1" s="202"/>
+    <row r="293" ht="15.75" customHeight="1" s="202"/>
+    <row r="294" ht="15.75" customHeight="1" s="202"/>
+    <row r="295" ht="15.75" customHeight="1" s="202"/>
+    <row r="296" ht="15.75" customHeight="1" s="202"/>
+    <row r="297" ht="15.75" customHeight="1" s="202"/>
+    <row r="298" ht="15.75" customHeight="1" s="202"/>
+    <row r="299" ht="15.75" customHeight="1" s="202"/>
+    <row r="300" ht="15.75" customHeight="1" s="202"/>
+    <row r="301" ht="15.75" customHeight="1" s="202"/>
+    <row r="302" ht="15.75" customHeight="1" s="202"/>
+    <row r="303" ht="15.75" customHeight="1" s="202"/>
+    <row r="304" ht="15.75" customHeight="1" s="202"/>
+    <row r="305" ht="15.75" customHeight="1" s="202"/>
+    <row r="306" ht="15.75" customHeight="1" s="202"/>
+    <row r="307" ht="15.75" customHeight="1" s="202"/>
+    <row r="308" ht="15.75" customHeight="1" s="202"/>
+    <row r="309" ht="15.75" customHeight="1" s="202"/>
+    <row r="310" ht="15.75" customHeight="1" s="202"/>
+    <row r="311" ht="15.75" customHeight="1" s="202"/>
+    <row r="312" ht="15.75" customHeight="1" s="202"/>
+    <row r="313" ht="15.75" customHeight="1" s="202"/>
+    <row r="314" ht="15.75" customHeight="1" s="202"/>
+    <row r="315" ht="15.75" customHeight="1" s="202"/>
+    <row r="316" ht="15.75" customHeight="1" s="202"/>
+    <row r="317" ht="15.75" customHeight="1" s="202"/>
+    <row r="318" ht="15.75" customHeight="1" s="202"/>
+    <row r="319" ht="15.75" customHeight="1" s="202"/>
+    <row r="320" ht="15.75" customHeight="1" s="202"/>
+    <row r="321" ht="15.75" customHeight="1" s="202"/>
+    <row r="322" ht="15.75" customHeight="1" s="202"/>
+    <row r="323" ht="15.75" customHeight="1" s="202"/>
+    <row r="324" ht="15.75" customHeight="1" s="202"/>
+    <row r="325" ht="15.75" customHeight="1" s="202"/>
+    <row r="326" ht="15.75" customHeight="1" s="202"/>
+    <row r="327" ht="15.75" customHeight="1" s="202"/>
+    <row r="328" ht="15.75" customHeight="1" s="202"/>
+    <row r="329" ht="15.75" customHeight="1" s="202"/>
+    <row r="330" ht="15.75" customHeight="1" s="202"/>
+    <row r="331" ht="15.75" customHeight="1" s="202"/>
+    <row r="332" ht="15.75" customHeight="1" s="202"/>
+    <row r="333" ht="15.75" customHeight="1" s="202"/>
+    <row r="334" ht="15.75" customHeight="1" s="202"/>
+    <row r="335" ht="15.75" customHeight="1" s="202"/>
+    <row r="336" ht="15.75" customHeight="1" s="202"/>
+    <row r="337" ht="15.75" customHeight="1" s="202"/>
+    <row r="338" ht="15.75" customHeight="1" s="202"/>
+    <row r="339" ht="15.75" customHeight="1" s="202"/>
+    <row r="340" ht="15.75" customHeight="1" s="202"/>
+    <row r="341" ht="15.75" customHeight="1" s="202"/>
+    <row r="342" ht="15.75" customHeight="1" s="202"/>
+    <row r="343" ht="15.75" customHeight="1" s="202"/>
+    <row r="344" ht="15.75" customHeight="1" s="202"/>
+    <row r="345" ht="15.75" customHeight="1" s="202"/>
+    <row r="346" ht="15.75" customHeight="1" s="202"/>
+    <row r="347" ht="15.75" customHeight="1" s="202"/>
+    <row r="348" ht="15.75" customHeight="1" s="202"/>
+    <row r="349" ht="15.75" customHeight="1" s="202"/>
+    <row r="350" ht="15.75" customHeight="1" s="202"/>
+    <row r="351" ht="15.75" customHeight="1" s="202"/>
+    <row r="352" ht="15.75" customHeight="1" s="202"/>
+    <row r="353" ht="15.75" customHeight="1" s="202"/>
+    <row r="354" ht="15.75" customHeight="1" s="202"/>
+    <row r="355" ht="15.75" customHeight="1" s="202"/>
+    <row r="356" ht="15.75" customHeight="1" s="202"/>
+    <row r="357" ht="15.75" customHeight="1" s="202"/>
+    <row r="358" ht="15.75" customHeight="1" s="202"/>
+    <row r="359" ht="15.75" customHeight="1" s="202"/>
+    <row r="360" ht="15.75" customHeight="1" s="202"/>
+    <row r="361" ht="15.75" customHeight="1" s="202"/>
+    <row r="362" ht="15.75" customHeight="1" s="202"/>
+    <row r="363" ht="15.75" customHeight="1" s="202"/>
+    <row r="364" ht="15.75" customHeight="1" s="202"/>
+    <row r="365" ht="15.75" customHeight="1" s="202"/>
+    <row r="366" ht="15.75" customHeight="1" s="202"/>
+    <row r="367" ht="15.75" customHeight="1" s="202"/>
+    <row r="368" ht="15.75" customHeight="1" s="202"/>
+    <row r="369" ht="15.75" customHeight="1" s="202"/>
+    <row r="370" ht="15.75" customHeight="1" s="202"/>
+    <row r="371" ht="15.75" customHeight="1" s="202"/>
+    <row r="372" ht="15.75" customHeight="1" s="202"/>
+    <row r="373" ht="15.75" customHeight="1" s="202"/>
+    <row r="374" ht="15.75" customHeight="1" s="202"/>
+    <row r="375" ht="15.75" customHeight="1" s="202"/>
+    <row r="376" ht="15.75" customHeight="1" s="202"/>
+    <row r="377" ht="15.75" customHeight="1" s="202"/>
+    <row r="378" ht="15.75" customHeight="1" s="202"/>
+    <row r="379" ht="15.75" customHeight="1" s="202"/>
+    <row r="380" ht="15.75" customHeight="1" s="202"/>
+    <row r="381" ht="15.75" customHeight="1" s="202"/>
+    <row r="382" ht="15.75" customHeight="1" s="202"/>
+    <row r="383" ht="15.75" customHeight="1" s="202"/>
+    <row r="384" ht="15.75" customHeight="1" s="202"/>
+    <row r="385" ht="15.75" customHeight="1" s="202"/>
+    <row r="386" ht="15.75" customHeight="1" s="202"/>
+    <row r="387" ht="15.75" customHeight="1" s="202"/>
+    <row r="388" ht="15.75" customHeight="1" s="202"/>
+    <row r="389" ht="15.75" customHeight="1" s="202"/>
+    <row r="390" ht="15.75" customHeight="1" s="202"/>
+    <row r="391" ht="15.75" customHeight="1" s="202"/>
+    <row r="392" ht="15.75" customHeight="1" s="202"/>
+    <row r="393" ht="15.75" customHeight="1" s="202"/>
+    <row r="394" ht="15.75" customHeight="1" s="202"/>
+    <row r="395" ht="15.75" customHeight="1" s="202"/>
+    <row r="396" ht="15.75" customHeight="1" s="202"/>
+    <row r="397" ht="15.75" customHeight="1" s="202"/>
+    <row r="398" ht="15.75" customHeight="1" s="202"/>
+    <row r="399" ht="15.75" customHeight="1" s="202"/>
+    <row r="400" ht="15.75" customHeight="1" s="202"/>
+    <row r="401" ht="15.75" customHeight="1" s="202"/>
+    <row r="402" ht="15.75" customHeight="1" s="202"/>
+    <row r="403" ht="15.75" customHeight="1" s="202"/>
+    <row r="404" ht="15.75" customHeight="1" s="202"/>
+    <row r="405" ht="15.75" customHeight="1" s="202"/>
+    <row r="406" ht="15.75" customHeight="1" s="202"/>
+    <row r="407" ht="15.75" customHeight="1" s="202"/>
+    <row r="408" ht="15.75" customHeight="1" s="202"/>
+    <row r="409" ht="15.75" customHeight="1" s="202"/>
+    <row r="410" ht="15.75" customHeight="1" s="202"/>
+    <row r="411" ht="15.75" customHeight="1" s="202"/>
+    <row r="412" ht="15.75" customHeight="1" s="202"/>
+    <row r="413" ht="15.75" customHeight="1" s="202"/>
+    <row r="414" ht="15.75" customHeight="1" s="202"/>
+    <row r="415" ht="15.75" customHeight="1" s="202"/>
+    <row r="416" ht="15.75" customHeight="1" s="202"/>
+    <row r="417" ht="15.75" customHeight="1" s="202"/>
+    <row r="418" ht="15.75" customHeight="1" s="202"/>
+    <row r="419" ht="15.75" customHeight="1" s="202"/>
+    <row r="420" ht="15.75" customHeight="1" s="202"/>
+    <row r="421" ht="15.75" customHeight="1" s="202"/>
+    <row r="422" ht="15.75" customHeight="1" s="202"/>
+    <row r="423" ht="15.75" customHeight="1" s="202"/>
+    <row r="424" ht="15.75" customHeight="1" s="202"/>
+    <row r="425" ht="15.75" customHeight="1" s="202"/>
+    <row r="426" ht="15.75" customHeight="1" s="202"/>
+    <row r="427" ht="15.75" customHeight="1" s="202"/>
+    <row r="428" ht="15.75" customHeight="1" s="202"/>
+    <row r="429" ht="15.75" customHeight="1" s="202"/>
+    <row r="430" ht="15.75" customHeight="1" s="202"/>
+    <row r="431" ht="15.75" customHeight="1" s="202"/>
+    <row r="432" ht="15.75" customHeight="1" s="202"/>
+    <row r="433" ht="15.75" customHeight="1" s="202"/>
+    <row r="434" ht="15.75" customHeight="1" s="202"/>
+    <row r="435" ht="15.75" customHeight="1" s="202"/>
+    <row r="436" ht="15.75" customHeight="1" s="202"/>
+    <row r="437" ht="15.75" customHeight="1" s="202"/>
+    <row r="438" ht="15.75" customHeight="1" s="202"/>
+    <row r="439" ht="15.75" customHeight="1" s="202"/>
+    <row r="440" ht="15.75" customHeight="1" s="202"/>
+    <row r="441" ht="15.75" customHeight="1" s="202"/>
+    <row r="442" ht="15.75" customHeight="1" s="202"/>
+    <row r="443" ht="15.75" customHeight="1" s="202"/>
+    <row r="444" ht="15.75" customHeight="1" s="202"/>
+    <row r="445" ht="15.75" customHeight="1" s="202"/>
+    <row r="446" ht="15.75" customHeight="1" s="202"/>
+    <row r="447" ht="15.75" customHeight="1" s="202"/>
+    <row r="448" ht="15.75" customHeight="1" s="202"/>
+    <row r="449" ht="15.75" customHeight="1" s="202"/>
+    <row r="450" ht="15.75" customHeight="1" s="202"/>
+    <row r="451" ht="15.75" customHeight="1" s="202"/>
+    <row r="452" ht="15.75" customHeight="1" s="202"/>
+    <row r="453" ht="15.75" customHeight="1" s="202"/>
+    <row r="454" ht="15.75" customHeight="1" s="202"/>
+    <row r="455" ht="15.75" customHeight="1" s="202"/>
+    <row r="456" ht="15.75" customHeight="1" s="202"/>
+    <row r="457" ht="15.75" customHeight="1" s="202"/>
+    <row r="458" ht="15.75" customHeight="1" s="202"/>
+    <row r="459" ht="15.75" customHeight="1" s="202"/>
+    <row r="460" ht="15.75" customHeight="1" s="202"/>
+    <row r="461" ht="15.75" customHeight="1" s="202"/>
+    <row r="462" ht="15.75" customHeight="1" s="202"/>
+    <row r="463" ht="15.75" customHeight="1" s="202"/>
+    <row r="464" ht="15.75" customHeight="1" s="202"/>
+    <row r="465" ht="15.75" customHeight="1" s="202"/>
+    <row r="466" ht="15.75" customHeight="1" s="202"/>
+    <row r="467" ht="15.75" customHeight="1" s="202"/>
+    <row r="468" ht="15.75" customHeight="1" s="202"/>
+    <row r="469" ht="15.75" customHeight="1" s="202"/>
+    <row r="470" ht="15.75" customHeight="1" s="202"/>
+    <row r="471" ht="15.75" customHeight="1" s="202"/>
+    <row r="472" ht="15.75" customHeight="1" s="202"/>
+    <row r="473" ht="15.75" customHeight="1" s="202"/>
+    <row r="474" ht="15.75" customHeight="1" s="202"/>
+    <row r="475" ht="15.75" customHeight="1" s="202"/>
+    <row r="476" ht="15.75" customHeight="1" s="202"/>
+    <row r="477" ht="15.75" customHeight="1" s="202"/>
+    <row r="478" ht="15.75" customHeight="1" s="202"/>
+    <row r="479" ht="15.75" customHeight="1" s="202"/>
+    <row r="480" ht="15.75" customHeight="1" s="202"/>
+    <row r="481" ht="15.75" customHeight="1" s="202"/>
+    <row r="482" ht="15.75" customHeight="1" s="202"/>
+    <row r="483" ht="15.75" customHeight="1" s="202"/>
+    <row r="484" ht="15.75" customHeight="1" s="202"/>
+    <row r="485" ht="15.75" customHeight="1" s="202"/>
+    <row r="486" ht="15.75" customHeight="1" s="202"/>
+    <row r="487" ht="15.75" customHeight="1" s="202"/>
+    <row r="488" ht="15.75" customHeight="1" s="202"/>
+    <row r="489" ht="15.75" customHeight="1" s="202"/>
+    <row r="490" ht="15.75" customHeight="1" s="202"/>
+    <row r="491" ht="15.75" customHeight="1" s="202"/>
+    <row r="492" ht="15.75" customHeight="1" s="202"/>
+    <row r="493" ht="15.75" customHeight="1" s="202"/>
+    <row r="494" ht="15.75" customHeight="1" s="202"/>
+    <row r="495" ht="15.75" customHeight="1" s="202"/>
+    <row r="496" ht="15.75" customHeight="1" s="202"/>
+    <row r="497" ht="15.75" customHeight="1" s="202"/>
+    <row r="498" ht="15.75" customHeight="1" s="202"/>
+    <row r="499" ht="15.75" customHeight="1" s="202"/>
+    <row r="500" ht="15.75" customHeight="1" s="202"/>
+    <row r="501" ht="15.75" customHeight="1" s="202"/>
+    <row r="502" ht="15.75" customHeight="1" s="202"/>
+    <row r="503" ht="15.75" customHeight="1" s="202"/>
+    <row r="504" ht="15.75" customHeight="1" s="202"/>
+    <row r="505" ht="15.75" customHeight="1" s="202"/>
+    <row r="506" ht="15.75" customHeight="1" s="202"/>
+    <row r="507" ht="15.75" customHeight="1" s="202"/>
+    <row r="508" ht="15.75" customHeight="1" s="202"/>
+    <row r="509" ht="15.75" customHeight="1" s="202"/>
+    <row r="510" ht="15.75" customHeight="1" s="202"/>
+    <row r="511" ht="15.75" customHeight="1" s="202"/>
+    <row r="512" ht="15.75" customHeight="1" s="202"/>
+    <row r="513" ht="15.75" customHeight="1" s="202"/>
+    <row r="514" ht="15.75" customHeight="1" s="202"/>
+    <row r="515" ht="15.75" customHeight="1" s="202"/>
+    <row r="516" ht="15.75" customHeight="1" s="202"/>
+    <row r="517" ht="15.75" customHeight="1" s="202"/>
+    <row r="518" ht="15.75" customHeight="1" s="202"/>
+    <row r="519" ht="15.75" customHeight="1" s="202"/>
+    <row r="520" ht="15.75" customHeight="1" s="202"/>
+    <row r="521" ht="15.75" customHeight="1" s="202"/>
+    <row r="522" ht="15.75" customHeight="1" s="202"/>
+    <row r="523" ht="15.75" customHeight="1" s="202"/>
+    <row r="524" ht="15.75" customHeight="1" s="202"/>
+    <row r="525" ht="15.75" customHeight="1" s="202"/>
+    <row r="526" ht="15.75" customHeight="1" s="202"/>
+    <row r="527" ht="15.75" customHeight="1" s="202"/>
+    <row r="528" ht="15.75" customHeight="1" s="202"/>
+    <row r="529" ht="15.75" customHeight="1" s="202"/>
+    <row r="530" ht="15.75" customHeight="1" s="202"/>
+    <row r="531" ht="15.75" customHeight="1" s="202"/>
+    <row r="532" ht="15.75" customHeight="1" s="202"/>
+    <row r="533" ht="15.75" customHeight="1" s="202"/>
+    <row r="534" ht="15.75" customHeight="1" s="202"/>
+    <row r="535" ht="15.75" customHeight="1" s="202"/>
+    <row r="536" ht="15.75" customHeight="1" s="202"/>
+    <row r="537" ht="15.75" customHeight="1" s="202"/>
+    <row r="538" ht="15.75" customHeight="1" s="202"/>
+    <row r="539" ht="15.75" customHeight="1" s="202"/>
+    <row r="540" ht="15.75" customHeight="1" s="202"/>
+    <row r="541" ht="15.75" customHeight="1" s="202"/>
+    <row r="542" ht="15.75" customHeight="1" s="202"/>
+    <row r="543" ht="15.75" customHeight="1" s="202"/>
+    <row r="544" ht="15.75" customHeight="1" s="202"/>
+    <row r="545" ht="15.75" customHeight="1" s="202"/>
+    <row r="546" ht="15.75" customHeight="1" s="202"/>
+    <row r="547" ht="15.75" customHeight="1" s="202"/>
+    <row r="548" ht="15.75" customHeight="1" s="202"/>
+    <row r="549" ht="15.75" customHeight="1" s="202"/>
+    <row r="550" ht="15.75" customHeight="1" s="202"/>
+    <row r="551" ht="15.75" customHeight="1" s="202"/>
+    <row r="552" ht="15.75" customHeight="1" s="202"/>
+    <row r="553" ht="15.75" customHeight="1" s="202"/>
+    <row r="554" ht="15.75" customHeight="1" s="202"/>
+    <row r="555" ht="15.75" customHeight="1" s="202"/>
+    <row r="556" ht="15.75" customHeight="1" s="202"/>
+    <row r="557" ht="15.75" customHeight="1" s="202"/>
+    <row r="558" ht="15.75" customHeight="1" s="202"/>
+    <row r="559" ht="15.75" customHeight="1" s="202"/>
+    <row r="560" ht="15.75" customHeight="1" s="202"/>
+    <row r="561" ht="15.75" customHeight="1" s="202"/>
+    <row r="562" ht="15.75" customHeight="1" s="202"/>
+    <row r="563" ht="15.75" customHeight="1" s="202"/>
+    <row r="564" ht="15.75" customHeight="1" s="202"/>
+    <row r="565" ht="15.75" customHeight="1" s="202"/>
+    <row r="566" ht="15.75" customHeight="1" s="202"/>
+    <row r="567" ht="15.75" customHeight="1" s="202"/>
+    <row r="568" ht="15.75" customHeight="1" s="202"/>
+    <row r="569" ht="15.75" customHeight="1" s="202"/>
+    <row r="570" ht="15.75" customHeight="1" s="202"/>
+    <row r="571" ht="15.75" customHeight="1" s="202"/>
+    <row r="572" ht="15.75" customHeight="1" s="202"/>
+    <row r="573" ht="15.75" customHeight="1" s="202"/>
+    <row r="574" ht="15.75" customHeight="1" s="202"/>
+    <row r="575" ht="15.75" customHeight="1" s="202"/>
+    <row r="576" ht="15.75" customHeight="1" s="202"/>
+    <row r="577" ht="15.75" customHeight="1" s="202"/>
+    <row r="578" ht="15.75" customHeight="1" s="202"/>
+    <row r="579" ht="15.75" customHeight="1" s="202"/>
+    <row r="580" ht="15.75" customHeight="1" s="202"/>
+    <row r="581" ht="15.75" customHeight="1" s="202"/>
+    <row r="582" ht="15.75" customHeight="1" s="202"/>
+    <row r="583" ht="15.75" customHeight="1" s="202"/>
+    <row r="584" ht="15.75" customHeight="1" s="202"/>
+    <row r="585" ht="15.75" customHeight="1" s="202"/>
+    <row r="586" ht="15.75" customHeight="1" s="202"/>
+    <row r="587" ht="15.75" customHeight="1" s="202"/>
+    <row r="588" ht="15.75" customHeight="1" s="202"/>
+    <row r="589" ht="15.75" customHeight="1" s="202"/>
+    <row r="590" ht="15.75" customHeight="1" s="202"/>
+    <row r="591" ht="15.75" customHeight="1" s="202"/>
+    <row r="592" ht="15.75" customHeight="1" s="202"/>
+    <row r="593" ht="15.75" customHeight="1" s="202"/>
+    <row r="594" ht="15.75" customHeight="1" s="202"/>
+    <row r="595" ht="15.75" customHeight="1" s="202"/>
+    <row r="596" ht="15.75" customHeight="1" s="202"/>
+    <row r="597" ht="15.75" customHeight="1" s="202"/>
+    <row r="598" ht="15.75" customHeight="1" s="202"/>
+    <row r="599" ht="15.75" customHeight="1" s="202"/>
+    <row r="600" ht="15.75" customHeight="1" s="202"/>
+    <row r="601" ht="15.75" customHeight="1" s="202"/>
+    <row r="602" ht="15.75" customHeight="1" s="202"/>
+    <row r="603" ht="15.75" customHeight="1" s="202"/>
+    <row r="604" ht="15.75" customHeight="1" s="202"/>
+    <row r="605" ht="15.75" customHeight="1" s="202"/>
+    <row r="606" ht="15.75" customHeight="1" s="202"/>
+    <row r="607" ht="15.75" customHeight="1" s="202"/>
+    <row r="608" ht="15.75" customHeight="1" s="202"/>
+    <row r="609" ht="15.75" customHeight="1" s="202"/>
+    <row r="610" ht="15.75" customHeight="1" s="202"/>
+    <row r="611" ht="15.75" customHeight="1" s="202"/>
+    <row r="612" ht="15.75" customHeight="1" s="202"/>
+    <row r="613" ht="15.75" customHeight="1" s="202"/>
+    <row r="614" ht="15.75" customHeight="1" s="202"/>
+    <row r="615" ht="15.75" customHeight="1" s="202"/>
+    <row r="616" ht="15.75" customHeight="1" s="202"/>
+    <row r="617" ht="15.75" customHeight="1" s="202"/>
+    <row r="618" ht="15.75" customHeight="1" s="202"/>
+    <row r="619" ht="15.75" customHeight="1" s="202"/>
+    <row r="620" ht="15.75" customHeight="1" s="202"/>
+    <row r="621" ht="15.75" customHeight="1" s="202"/>
+    <row r="622" ht="15.75" customHeight="1" s="202"/>
+    <row r="623" ht="15.75" customHeight="1" s="202"/>
+    <row r="624" ht="15.75" customHeight="1" s="202"/>
+    <row r="625" ht="15.75" customHeight="1" s="202"/>
+    <row r="626" ht="15.75" customHeight="1" s="202"/>
+    <row r="627" ht="15.75" customHeight="1" s="202"/>
+    <row r="628" ht="15.75" customHeight="1" s="202"/>
+    <row r="629" ht="15.75" customHeight="1" s="202"/>
+    <row r="630" ht="15.75" customHeight="1" s="202"/>
+    <row r="631" ht="15.75" customHeight="1" s="202"/>
+    <row r="632" ht="15.75" customHeight="1" s="202"/>
+    <row r="633" ht="15.75" customHeight="1" s="202"/>
+    <row r="634" ht="15.75" customHeight="1" s="202"/>
+    <row r="635" ht="15.75" customHeight="1" s="202"/>
+    <row r="636" ht="15.75" customHeight="1" s="202"/>
+    <row r="637" ht="15.75" customHeight="1" s="202"/>
+    <row r="638" ht="15.75" customHeight="1" s="202"/>
+    <row r="639" ht="15.75" customHeight="1" s="202"/>
+    <row r="640" ht="15.75" customHeight="1" s="202"/>
+    <row r="641" ht="15.75" customHeight="1" s="202"/>
+    <row r="642" ht="15.75" customHeight="1" s="202"/>
+    <row r="643" ht="15.75" customHeight="1" s="202"/>
+    <row r="644" ht="15.75" customHeight="1" s="202"/>
+    <row r="645" ht="15.75" customHeight="1" s="202"/>
+    <row r="646" ht="15.75" customHeight="1" s="202"/>
+    <row r="647" ht="15.75" customHeight="1" s="202"/>
+    <row r="648" ht="15.75" customHeight="1" s="202"/>
+    <row r="649" ht="15.75" customHeight="1" s="202"/>
+    <row r="650" ht="15.75" customHeight="1" s="202"/>
+    <row r="651" ht="15.75" customHeight="1" s="202"/>
+    <row r="652" ht="15.75" customHeight="1" s="202"/>
+    <row r="653" ht="15.75" customHeight="1" s="202"/>
+    <row r="654" ht="15.75" customHeight="1" s="202"/>
+    <row r="655" ht="15.75" customHeight="1" s="202"/>
+    <row r="656" ht="15.75" customHeight="1" s="202"/>
+    <row r="657" ht="15.75" customHeight="1" s="202"/>
+    <row r="658" ht="15.75" customHeight="1" s="202"/>
+    <row r="659" ht="15.75" customHeight="1" s="202"/>
+    <row r="660" ht="15.75" customHeight="1" s="202"/>
+    <row r="661" ht="15.75" customHeight="1" s="202"/>
+    <row r="662" ht="15.75" customHeight="1" s="202"/>
+    <row r="663" ht="15.75" customHeight="1" s="202"/>
+    <row r="664" ht="15.75" customHeight="1" s="202"/>
+    <row r="665" ht="15.75" customHeight="1" s="202"/>
+    <row r="666" ht="15.75" customHeight="1" s="202"/>
+    <row r="667" ht="15.75" customHeight="1" s="202"/>
+    <row r="668" ht="15.75" customHeight="1" s="202"/>
+    <row r="669" ht="15.75" customHeight="1" s="202"/>
+    <row r="670" ht="15.75" customHeight="1" s="202"/>
+    <row r="671" ht="15.75" customHeight="1" s="202"/>
+    <row r="672" ht="15.75" customHeight="1" s="202"/>
+    <row r="673" ht="15.75" customHeight="1" s="202"/>
+    <row r="674" ht="15.75" customHeight="1" s="202"/>
+    <row r="675" ht="15.75" customHeight="1" s="202"/>
+    <row r="676" ht="15.75" customHeight="1" s="202"/>
+    <row r="677" ht="15.75" customHeight="1" s="202"/>
+    <row r="678" ht="15.75" customHeight="1" s="202"/>
+    <row r="679" ht="15.75" customHeight="1" s="202"/>
+    <row r="680" ht="15.75" customHeight="1" s="202"/>
+    <row r="681" ht="15.75" customHeight="1" s="202"/>
+    <row r="682" ht="15.75" customHeight="1" s="202"/>
+    <row r="683" ht="15.75" customHeight="1" s="202"/>
+    <row r="684" ht="15.75" customHeight="1" s="202"/>
+    <row r="685" ht="15.75" customHeight="1" s="202"/>
+    <row r="686" ht="15.75" customHeight="1" s="202"/>
+    <row r="687" ht="15.75" customHeight="1" s="202"/>
+    <row r="688" ht="15.75" customHeight="1" s="202"/>
+    <row r="689" ht="15.75" customHeight="1" s="202"/>
+    <row r="690" ht="15.75" customHeight="1" s="202"/>
+    <row r="691" ht="15.75" customHeight="1" s="202"/>
+    <row r="692" ht="15.75" customHeight="1" s="202"/>
+    <row r="693" ht="15.75" customHeight="1" s="202"/>
+    <row r="694" ht="15.75" customHeight="1" s="202"/>
+    <row r="695" ht="15.75" customHeight="1" s="202"/>
+    <row r="696" ht="15.75" customHeight="1" s="202"/>
+    <row r="697" ht="15.75" customHeight="1" s="202"/>
+    <row r="698" ht="15.75" customHeight="1" s="202"/>
+    <row r="699" ht="15.75" customHeight="1" s="202"/>
+    <row r="700" ht="15.75" customHeight="1" s="202"/>
+    <row r="701" ht="15.75" customHeight="1" s="202"/>
+    <row r="702" ht="15.75" customHeight="1" s="202"/>
+    <row r="703" ht="15.75" customHeight="1" s="202"/>
+    <row r="704" ht="15.75" customHeight="1" s="202"/>
+    <row r="705" ht="15.75" customHeight="1" s="202"/>
+    <row r="706" ht="15.75" customHeight="1" s="202"/>
+    <row r="707" ht="15.75" customHeight="1" s="202"/>
+    <row r="708" ht="15.75" customHeight="1" s="202"/>
+    <row r="709" ht="15.75" customHeight="1" s="202"/>
+    <row r="710" ht="15.75" customHeight="1" s="202"/>
+    <row r="711" ht="15.75" customHeight="1" s="202"/>
+    <row r="712" ht="15.75" customHeight="1" s="202"/>
+    <row r="713" ht="15.75" customHeight="1" s="202"/>
+    <row r="714" ht="15.75" customHeight="1" s="202"/>
+    <row r="715" ht="15.75" customHeight="1" s="202"/>
+    <row r="716" ht="15.75" customHeight="1" s="202"/>
+    <row r="717" ht="15.75" customHeight="1" s="202"/>
+    <row r="718" ht="15.75" customHeight="1" s="202"/>
+    <row r="719" ht="15.75" customHeight="1" s="202"/>
+    <row r="720" ht="15.75" customHeight="1" s="202"/>
+    <row r="721" ht="15.75" customHeight="1" s="202"/>
+    <row r="722" ht="15.75" customHeight="1" s="202"/>
+    <row r="723" ht="15.75" customHeight="1" s="202"/>
+    <row r="724" ht="15.75" customHeight="1" s="202"/>
+    <row r="725" ht="15.75" customHeight="1" s="202"/>
+    <row r="726" ht="15.75" customHeight="1" s="202"/>
+    <row r="727" ht="15.75" customHeight="1" s="202"/>
+    <row r="728" ht="15.75" customHeight="1" s="202"/>
+    <row r="729" ht="15.75" customHeight="1" s="202"/>
+    <row r="730" ht="15.75" customHeight="1" s="202"/>
+    <row r="731" ht="15.75" customHeight="1" s="202"/>
+    <row r="732" ht="15.75" customHeight="1" s="202"/>
+    <row r="733" ht="15.75" customHeight="1" s="202"/>
+    <row r="734" ht="15.75" customHeight="1" s="202"/>
+    <row r="735" ht="15.75" customHeight="1" s="202"/>
+    <row r="736" ht="15.75" customHeight="1" s="202"/>
+    <row r="737" ht="15.75" customHeight="1" s="202"/>
+    <row r="738" ht="15.75" customHeight="1" s="202"/>
+    <row r="739" ht="15.75" customHeight="1" s="202"/>
+    <row r="740" ht="15.75" customHeight="1" s="202"/>
+    <row r="741" ht="15.75" customHeight="1" s="202"/>
+    <row r="742" ht="15.75" customHeight="1" s="202"/>
+    <row r="743" ht="15.75" customHeight="1" s="202"/>
+    <row r="744" ht="15.75" customHeight="1" s="202"/>
+    <row r="745" ht="15.75" customHeight="1" s="202"/>
+    <row r="746" ht="15.75" customHeight="1" s="202"/>
+    <row r="747" ht="15.75" customHeight="1" s="202"/>
+    <row r="748" ht="15.75" customHeight="1" s="202"/>
+    <row r="749" ht="15.75" customHeight="1" s="202"/>
+    <row r="750" ht="15.75" customHeight="1" s="202"/>
+    <row r="751" ht="15.75" customHeight="1" s="202"/>
+    <row r="752" ht="15.75" customHeight="1" s="202"/>
+    <row r="753" ht="15.75" customHeight="1" s="202"/>
+    <row r="754" ht="15.75" customHeight="1" s="202"/>
+    <row r="755" ht="15.75" customHeight="1" s="202"/>
+    <row r="756" ht="15.75" customHeight="1" s="202"/>
+    <row r="757" ht="15.75" customHeight="1" s="202"/>
+    <row r="758" ht="15.75" customHeight="1" s="202"/>
+    <row r="759" ht="15.75" customHeight="1" s="202"/>
+    <row r="760" ht="15.75" customHeight="1" s="202"/>
+    <row r="761" ht="15.75" customHeight="1" s="202"/>
+    <row r="762" ht="15.75" customHeight="1" s="202"/>
+    <row r="763" ht="15.75" customHeight="1" s="202"/>
+    <row r="764" ht="15.75" customHeight="1" s="202"/>
+    <row r="765" ht="15.75" customHeight="1" s="202"/>
+    <row r="766" ht="15.75" customHeight="1" s="202"/>
+    <row r="767" ht="15.75" customHeight="1" s="202"/>
+    <row r="768" ht="15.75" customHeight="1" s="202"/>
+    <row r="769" ht="15.75" customHeight="1" s="202"/>
+    <row r="770" ht="15.75" customHeight="1" s="202"/>
+    <row r="771" ht="15.75" customHeight="1" s="202"/>
+    <row r="772" ht="15.75" customHeight="1" s="202"/>
+    <row r="773" ht="15.75" customHeight="1" s="202"/>
+    <row r="774" ht="15.75" customHeight="1" s="202"/>
+    <row r="775" ht="15.75" customHeight="1" s="202"/>
+    <row r="776" ht="15.75" customHeight="1" s="202"/>
+    <row r="777" ht="15.75" customHeight="1" s="202"/>
+    <row r="778" ht="15.75" customHeight="1" s="202"/>
+    <row r="779" ht="15.75" customHeight="1" s="202"/>
+    <row r="780" ht="15.75" customHeight="1" s="202"/>
+    <row r="781" ht="15.75" customHeight="1" s="202"/>
+    <row r="782" ht="15.75" customHeight="1" s="202"/>
+    <row r="783" ht="15.75" customHeight="1" s="202"/>
+    <row r="784" ht="15.75" customHeight="1" s="202"/>
+    <row r="785" ht="15.75" customHeight="1" s="202"/>
+    <row r="786" ht="15.75" customHeight="1" s="202"/>
+    <row r="787" ht="15.75" customHeight="1" s="202"/>
+    <row r="788" ht="15.75" customHeight="1" s="202"/>
+    <row r="789" ht="15.75" customHeight="1" s="202"/>
+    <row r="790" ht="15.75" customHeight="1" s="202"/>
+    <row r="791" ht="15.75" customHeight="1" s="202"/>
+    <row r="792" ht="15.75" customHeight="1" s="202"/>
+    <row r="793" ht="15.75" customHeight="1" s="202"/>
+    <row r="794" ht="15.75" customHeight="1" s="202"/>
+    <row r="795" ht="15.75" customHeight="1" s="202"/>
+    <row r="796" ht="15.75" customHeight="1" s="202"/>
+    <row r="797" ht="15.75" customHeight="1" s="202"/>
+    <row r="798" ht="15.75" customHeight="1" s="202"/>
+    <row r="799" ht="15.75" customHeight="1" s="202"/>
+    <row r="800" ht="15.75" customHeight="1" s="202"/>
+    <row r="801" ht="15.75" customHeight="1" s="202"/>
+    <row r="802" ht="15.75" customHeight="1" s="202"/>
+    <row r="803" ht="15.75" customHeight="1" s="202"/>
+    <row r="804" ht="15.75" customHeight="1" s="202"/>
+    <row r="805" ht="15.75" customHeight="1" s="202"/>
+    <row r="806" ht="15.75" customHeight="1" s="202"/>
+    <row r="807" ht="15.75" customHeight="1" s="202"/>
+    <row r="808" ht="15.75" customHeight="1" s="202"/>
+    <row r="809" ht="15.75" customHeight="1" s="202"/>
+    <row r="810" ht="15.75" customHeight="1" s="202"/>
+    <row r="811" ht="15.75" customHeight="1" s="202"/>
+    <row r="812" ht="15.75" customHeight="1" s="202"/>
+    <row r="813" ht="15.75" customHeight="1" s="202"/>
+    <row r="814" ht="15.75" customHeight="1" s="202"/>
+    <row r="815" ht="15.75" customHeight="1" s="202"/>
+    <row r="816" ht="15.75" customHeight="1" s="202"/>
+    <row r="817" ht="15.75" customHeight="1" s="202"/>
+    <row r="818" ht="15.75" customHeight="1" s="202"/>
+    <row r="819" ht="15.75" customHeight="1" s="202"/>
+    <row r="820" ht="15.75" customHeight="1" s="202"/>
+    <row r="821" ht="15.75" customHeight="1" s="202"/>
+    <row r="822" ht="15.75" customHeight="1" s="202"/>
+    <row r="823" ht="15.75" customHeight="1" s="202"/>
+    <row r="824" ht="15.75" customHeight="1" s="202"/>
+    <row r="825" ht="15.75" customHeight="1" s="202"/>
+    <row r="826" ht="15.75" customHeight="1" s="202"/>
+    <row r="827" ht="15.75" customHeight="1" s="202"/>
+    <row r="828" ht="15.75" customHeight="1" s="202"/>
+    <row r="829" ht="15.75" customHeight="1" s="202"/>
+    <row r="830" ht="15.75" customHeight="1" s="202"/>
+    <row r="831" ht="15.75" customHeight="1" s="202"/>
+    <row r="832" ht="15.75" customHeight="1" s="202"/>
+    <row r="833" ht="15.75" customHeight="1" s="202"/>
+    <row r="834" ht="15.75" customHeight="1" s="202"/>
+    <row r="835" ht="15.75" customHeight="1" s="202"/>
+    <row r="836" ht="15.75" customHeight="1" s="202"/>
+    <row r="837" ht="15.75" customHeight="1" s="202"/>
+    <row r="838" ht="15.75" customHeight="1" s="202"/>
+    <row r="839" ht="15.75" customHeight="1" s="202"/>
+    <row r="840" ht="15.75" customHeight="1" s="202"/>
+    <row r="841" ht="15.75" customHeight="1" s="202"/>
+    <row r="842" ht="15.75" customHeight="1" s="202"/>
+    <row r="843" ht="15.75" customHeight="1" s="202"/>
+    <row r="844" ht="15.75" customHeight="1" s="202"/>
+    <row r="845" ht="15.75" customHeight="1" s="202"/>
+    <row r="846" ht="15.75" customHeight="1" s="202"/>
+    <row r="847" ht="15.75" customHeight="1" s="202"/>
+    <row r="848" ht="15.75" customHeight="1" s="202"/>
+    <row r="849" ht="15.75" customHeight="1" s="202"/>
+    <row r="850" ht="15.75" customHeight="1" s="202"/>
+    <row r="851" ht="15.75" customHeight="1" s="202"/>
+    <row r="852" ht="15.75" customHeight="1" s="202"/>
+    <row r="853" ht="15.75" customHeight="1" s="202"/>
+    <row r="854" ht="15.75" customHeight="1" s="202"/>
+    <row r="855" ht="15.75" customHeight="1" s="202"/>
+    <row r="856" ht="15.75" customHeight="1" s="202"/>
+    <row r="857" ht="15.75" customHeight="1" s="202"/>
+    <row r="858" ht="15.75" customHeight="1" s="202"/>
+    <row r="859" ht="15.75" customHeight="1" s="202"/>
+    <row r="860" ht="15.75" customHeight="1" s="202"/>
+    <row r="861" ht="15.75" customHeight="1" s="202"/>
+    <row r="862" ht="15.75" customHeight="1" s="202"/>
+    <row r="863" ht="15.75" customHeight="1" s="202"/>
+    <row r="864" ht="15.75" customHeight="1" s="202"/>
+    <row r="865" ht="15.75" customHeight="1" s="202"/>
+    <row r="866" ht="15.75" customHeight="1" s="202"/>
+    <row r="867" ht="15.75" customHeight="1" s="202"/>
+    <row r="868" ht="15.75" customHeight="1" s="202"/>
+    <row r="869" ht="15.75" customHeight="1" s="202"/>
+    <row r="870" ht="15.75" customHeight="1" s="202"/>
+    <row r="871" ht="15.75" customHeight="1" s="202"/>
+    <row r="872" ht="15.75" customHeight="1" s="202"/>
+    <row r="873" ht="15.75" customHeight="1" s="202"/>
+    <row r="874" ht="15.75" customHeight="1" s="202"/>
+    <row r="875" ht="15.75" customHeight="1" s="202"/>
+    <row r="876" ht="15.75" customHeight="1" s="202"/>
+    <row r="877" ht="15.75" customHeight="1" s="202"/>
+    <row r="878" ht="15.75" customHeight="1" s="202"/>
+    <row r="879" ht="15.75" customHeight="1" s="202"/>
+    <row r="880" ht="15.75" customHeight="1" s="202"/>
+    <row r="881" ht="15.75" customHeight="1" s="202"/>
+    <row r="882" ht="15.75" customHeight="1" s="202"/>
+    <row r="883" ht="15.75" customHeight="1" s="202"/>
+    <row r="884" ht="15.75" customHeight="1" s="202"/>
+    <row r="885" ht="15.75" customHeight="1" s="202"/>
+    <row r="886" ht="15.75" customHeight="1" s="202"/>
+    <row r="887" ht="15.75" customHeight="1" s="202"/>
+    <row r="888" ht="15.75" customHeight="1" s="202"/>
+    <row r="889" ht="15.75" customHeight="1" s="202"/>
+    <row r="890" ht="15.75" customHeight="1" s="202"/>
+    <row r="891" ht="15.75" customHeight="1" s="202"/>
+    <row r="892" ht="15.75" customHeight="1" s="202"/>
+    <row r="893" ht="15.75" customHeight="1" s="202"/>
+    <row r="894" ht="15.75" customHeight="1" s="202"/>
+    <row r="895" ht="15.75" customHeight="1" s="202"/>
+    <row r="896" ht="15.75" customHeight="1" s="202"/>
+    <row r="897" ht="15.75" customHeight="1" s="202"/>
+    <row r="898" ht="15.75" customHeight="1" s="202"/>
+    <row r="899" ht="15.75" customHeight="1" s="202"/>
+    <row r="900" ht="15.75" customHeight="1" s="202"/>
+    <row r="901" ht="15.75" customHeight="1" s="202"/>
+    <row r="902" ht="15.75" customHeight="1" s="202"/>
+    <row r="903" ht="15.75" customHeight="1" s="202"/>
+    <row r="904" ht="15.75" customHeight="1" s="202"/>
+    <row r="905" ht="15.75" customHeight="1" s="202"/>
+    <row r="906" ht="15.75" customHeight="1" s="202"/>
+    <row r="907" ht="15.75" customHeight="1" s="202"/>
+    <row r="908" ht="15.75" customHeight="1" s="202"/>
+    <row r="909" ht="15.75" customHeight="1" s="202"/>
+    <row r="910" ht="15.75" customHeight="1" s="202"/>
+    <row r="911" ht="15.75" customHeight="1" s="202"/>
+    <row r="912" ht="15.75" customHeight="1" s="202"/>
+    <row r="913" ht="15.75" customHeight="1" s="202"/>
+    <row r="914" ht="15.75" customHeight="1" s="202"/>
+    <row r="915" ht="15.75" customHeight="1" s="202"/>
+    <row r="916" ht="15.75" customHeight="1" s="202"/>
+    <row r="917" ht="15.75" customHeight="1" s="202"/>
+    <row r="918" ht="15.75" customHeight="1" s="202"/>
+    <row r="919" ht="15.75" customHeight="1" s="202"/>
+    <row r="920" ht="15.75" customHeight="1" s="202"/>
+    <row r="921" ht="15.75" customHeight="1" s="202"/>
+    <row r="922" ht="15.75" customHeight="1" s="202"/>
+    <row r="923" ht="15.75" customHeight="1" s="202"/>
+    <row r="924" ht="15.75" customHeight="1" s="202"/>
+    <row r="925" ht="15.75" customHeight="1" s="202"/>
+    <row r="926" ht="15.75" customHeight="1" s="202"/>
+    <row r="927" ht="15.75" customHeight="1" s="202"/>
+    <row r="928" ht="15.75" customHeight="1" s="202"/>
+    <row r="929" ht="15.75" customHeight="1" s="202"/>
+    <row r="930" ht="15.75" customHeight="1" s="202"/>
+    <row r="931" ht="15.75" customHeight="1" s="202"/>
+    <row r="932" ht="15.75" customHeight="1" s="202"/>
+    <row r="933" ht="15.75" customHeight="1" s="202"/>
+    <row r="934" ht="15.75" customHeight="1" s="202"/>
+    <row r="935" ht="15.75" customHeight="1" s="202"/>
+    <row r="936" ht="15.75" customHeight="1" s="202"/>
+    <row r="937" ht="15.75" customHeight="1" s="202"/>
+    <row r="938" ht="15.75" customHeight="1" s="202"/>
+    <row r="939" ht="15.75" customHeight="1" s="202"/>
+    <row r="940" ht="15.75" customHeight="1" s="202"/>
+    <row r="941" ht="15.75" customHeight="1" s="202"/>
+    <row r="942" ht="15.75" customHeight="1" s="202"/>
+    <row r="943" ht="15.75" customHeight="1" s="202"/>
+    <row r="944" ht="15.75" customHeight="1" s="202"/>
+    <row r="945" ht="15.75" customHeight="1" s="202"/>
+    <row r="946" ht="15.75" customHeight="1" s="202"/>
+    <row r="947" ht="15.75" customHeight="1" s="202"/>
+    <row r="948" ht="15.75" customHeight="1" s="202"/>
+    <row r="949" ht="15.75" customHeight="1" s="202"/>
+    <row r="950" ht="15.75" customHeight="1" s="202"/>
+    <row r="951" ht="15.75" customHeight="1" s="202"/>
+    <row r="952" ht="15.75" customHeight="1" s="202"/>
+    <row r="953" ht="15.75" customHeight="1" s="202"/>
+    <row r="954" ht="15.75" customHeight="1" s="202"/>
+    <row r="955" ht="15.75" customHeight="1" s="202"/>
+    <row r="956" ht="15.75" customHeight="1" s="202"/>
+    <row r="957" ht="15.75" customHeight="1" s="202"/>
+    <row r="958" ht="15.75" customHeight="1" s="202"/>
+    <row r="959" ht="15.75" customHeight="1" s="202"/>
+    <row r="960" ht="15.75" customHeight="1" s="202"/>
+    <row r="961" ht="15.75" customHeight="1" s="202"/>
+    <row r="962" ht="15.75" customHeight="1" s="202"/>
+    <row r="963" ht="15.75" customHeight="1" s="202"/>
+    <row r="964" ht="15.75" customHeight="1" s="202"/>
+    <row r="965" ht="15.75" customHeight="1" s="202"/>
+    <row r="966" ht="15.75" customHeight="1" s="202"/>
+    <row r="967" ht="15.75" customHeight="1" s="202"/>
+    <row r="968" ht="15.75" customHeight="1" s="202"/>
+    <row r="969" ht="15.75" customHeight="1" s="202"/>
+    <row r="970" ht="15.75" customHeight="1" s="202"/>
+    <row r="971" ht="15.75" customHeight="1" s="202"/>
+    <row r="972" ht="15.75" customHeight="1" s="202"/>
+    <row r="973" ht="15.75" customHeight="1" s="202"/>
+    <row r="974" ht="15.75" customHeight="1" s="202"/>
+    <row r="975" ht="15.75" customHeight="1" s="202"/>
+    <row r="976" ht="15.75" customHeight="1" s="202"/>
+    <row r="977" ht="15.75" customHeight="1" s="202"/>
+    <row r="978" ht="15.75" customHeight="1" s="202"/>
+    <row r="979" ht="15.75" customHeight="1" s="202"/>
+    <row r="980" ht="15.75" customHeight="1" s="202"/>
+    <row r="981" ht="15.75" customHeight="1" s="202"/>
+    <row r="982" ht="15.75" customHeight="1" s="202"/>
+    <row r="983" ht="15.75" customHeight="1" s="202"/>
+    <row r="984" ht="15.75" customHeight="1" s="202"/>
+    <row r="985" ht="15.75" customHeight="1" s="202"/>
+    <row r="986" ht="15.75" customHeight="1" s="202"/>
+    <row r="987" ht="15.75" customHeight="1" s="202"/>
+    <row r="988" ht="15.75" customHeight="1" s="202"/>
+    <row r="989" ht="15.75" customHeight="1" s="202"/>
+    <row r="990" ht="15.75" customHeight="1" s="202"/>
+    <row r="991" ht="15.75" customHeight="1" s="202"/>
+    <row r="992" ht="15.75" customHeight="1" s="202"/>
+    <row r="993" ht="15.75" customHeight="1" s="202"/>
+    <row r="994" ht="15.75" customHeight="1" s="202"/>
+    <row r="995" ht="15.75" customHeight="1" s="202"/>
+    <row r="996" ht="15.75" customHeight="1" s="202"/>
+    <row r="997" ht="15.75" customHeight="1" s="202"/>
+    <row r="998" ht="15.75" customHeight="1" s="202"/>
+    <row r="999" ht="15.75" customHeight="1" s="202"/>
+    <row r="1000" ht="15.75" customHeight="1" s="202"/>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
     <mergeCell ref="S42:T42"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C16:L16"/>
@@ -6292,37 +6335,6 @@
     <mergeCell ref="H39:L40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="J59:J60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -6343,25 +6355,25 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="2.42578125" customWidth="1" style="217" min="1" max="1"/>
-    <col width="4.42578125" customWidth="1" style="217" min="2" max="2"/>
-    <col width="16.7109375" customWidth="1" style="217" min="3" max="4"/>
-    <col width="8.7109375" customWidth="1" style="217" min="5" max="5"/>
-    <col width="4.42578125" customWidth="1" style="217" min="6" max="6"/>
-    <col width="16.7109375" customWidth="1" style="217" min="7" max="8"/>
-    <col width="7.42578125" customWidth="1" style="217" min="9" max="9"/>
-    <col width="4" customWidth="1" style="217" min="10" max="10"/>
-    <col width="16.85546875" customWidth="1" style="217" min="11" max="12"/>
-    <col width="8.7109375" customWidth="1" style="217" min="13" max="13"/>
-    <col width="4.140625" customWidth="1" style="217" min="14" max="14"/>
-    <col width="16.7109375" customWidth="1" style="217" min="15" max="17"/>
-    <col width="8.7109375" customWidth="1" style="217" min="18" max="26"/>
-    <col width="14.42578125" customWidth="1" style="217" min="27" max="30"/>
-    <col width="14.42578125" customWidth="1" style="217" min="31" max="16384"/>
+    <col width="2.42578125" customWidth="1" style="211" min="1" max="1"/>
+    <col width="4.42578125" customWidth="1" style="211" min="2" max="2"/>
+    <col width="16.7109375" customWidth="1" style="211" min="3" max="4"/>
+    <col width="8.7109375" customWidth="1" style="211" min="5" max="5"/>
+    <col width="4.42578125" customWidth="1" style="211" min="6" max="6"/>
+    <col width="16.7109375" customWidth="1" style="211" min="7" max="8"/>
+    <col width="7.42578125" customWidth="1" style="211" min="9" max="9"/>
+    <col width="4" customWidth="1" style="211" min="10" max="10"/>
+    <col width="16.85546875" customWidth="1" style="211" min="11" max="12"/>
+    <col width="8.7109375" customWidth="1" style="211" min="13" max="13"/>
+    <col width="4.140625" customWidth="1" style="211" min="14" max="14"/>
+    <col width="16.7109375" customWidth="1" style="211" min="15" max="17"/>
+    <col width="8.7109375" customWidth="1" style="211" min="18" max="26"/>
+    <col width="14.42578125" customWidth="1" style="211" min="27" max="31"/>
+    <col width="14.42578125" customWidth="1" style="211" min="32" max="16384"/>
   </cols>
   <sheetData>
-    <row r="2" ht="26.25" customHeight="1" s="191">
-      <c r="C2" s="218" t="inlineStr">
+    <row r="2" ht="26.25" customHeight="1" s="202">
+      <c r="C2" s="212" t="inlineStr">
         <is>
           <t xml:space="preserve">EURO 2020 </t>
         </is>
@@ -6655,21 +6667,21 @@
       <c r="K15" s="100" t="n"/>
       <c r="L15" s="100" t="n"/>
     </row>
-    <row r="16" ht="39.75" customHeight="1" s="191">
-      <c r="C16" s="219" t="inlineStr">
+    <row r="16" ht="39.75" customHeight="1" s="202">
+      <c r="C16" s="213" t="inlineStr">
         <is>
           <t>Group Stage predictions are made in a single submission and are due by Thursday Evening June 10th, 2021.</t>
         </is>
       </c>
-      <c r="D16" s="220" t="n"/>
-      <c r="E16" s="220" t="n"/>
-      <c r="F16" s="220" t="n"/>
-      <c r="G16" s="220" t="n"/>
-      <c r="H16" s="220" t="n"/>
-      <c r="I16" s="220" t="n"/>
-      <c r="J16" s="220" t="n"/>
-      <c r="K16" s="220" t="n"/>
-      <c r="L16" s="220" t="n"/>
+      <c r="D16" s="214" t="n"/>
+      <c r="E16" s="214" t="n"/>
+      <c r="F16" s="214" t="n"/>
+      <c r="G16" s="214" t="n"/>
+      <c r="H16" s="214" t="n"/>
+      <c r="I16" s="214" t="n"/>
+      <c r="J16" s="214" t="n"/>
+      <c r="K16" s="214" t="n"/>
+      <c r="L16" s="214" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="136" t="inlineStr">
@@ -6677,19 +6689,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D17" s="221" t="n"/>
-      <c r="E17" s="222" t="n"/>
-      <c r="F17" s="222" t="n"/>
-      <c r="G17" s="223" t="n"/>
-      <c r="H17" s="224" t="inlineStr">
+      <c r="D17" s="215" t="n"/>
+      <c r="E17" s="216" t="n"/>
+      <c r="F17" s="216" t="n"/>
+      <c r="G17" s="217" t="n"/>
+      <c r="H17" s="218" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I17" s="222" t="n"/>
-      <c r="J17" s="222" t="n"/>
-      <c r="K17" s="222" t="n"/>
-      <c r="L17" s="223" t="n"/>
+      <c r="I17" s="216" t="n"/>
+      <c r="J17" s="216" t="n"/>
+      <c r="K17" s="216" t="n"/>
+      <c r="L17" s="217" t="n"/>
     </row>
     <row r="18">
       <c r="C18" s="137" t="inlineStr">
@@ -6697,15 +6709,15 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D18" s="227" t="n"/>
-      <c r="E18" s="220" t="n"/>
-      <c r="F18" s="220" t="n"/>
-      <c r="G18" s="226" t="n"/>
-      <c r="H18" s="225" t="n"/>
-      <c r="I18" s="220" t="n"/>
-      <c r="J18" s="220" t="n"/>
-      <c r="K18" s="220" t="n"/>
-      <c r="L18" s="226" t="n"/>
+      <c r="D18" s="221" t="n"/>
+      <c r="E18" s="214" t="n"/>
+      <c r="F18" s="214" t="n"/>
+      <c r="G18" s="220" t="n"/>
+      <c r="H18" s="219" t="n"/>
+      <c r="I18" s="214" t="n"/>
+      <c r="J18" s="214" t="n"/>
+      <c r="K18" s="214" t="n"/>
+      <c r="L18" s="220" t="n"/>
     </row>
     <row r="19">
       <c r="C19" s="100" t="n"/>
@@ -6713,36 +6725,36 @@
     <row r="20">
       <c r="A20" s="138" t="n"/>
       <c r="B20" s="138" t="n"/>
-      <c r="C20" s="228" t="inlineStr">
+      <c r="C20" s="222" t="inlineStr">
         <is>
           <t>Match Day 1</t>
         </is>
       </c>
-      <c r="D20" s="222" t="n"/>
+      <c r="D20" s="216" t="n"/>
       <c r="E20" s="139" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
-      <c r="F20" s="216" t="n"/>
-      <c r="G20" s="228" t="inlineStr">
+      <c r="F20" s="210" t="n"/>
+      <c r="G20" s="222" t="inlineStr">
         <is>
           <t>Match Day 2</t>
         </is>
       </c>
-      <c r="H20" s="222" t="n"/>
+      <c r="H20" s="216" t="n"/>
       <c r="I20" s="139" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
-      <c r="J20" s="216" t="n"/>
-      <c r="K20" s="228" t="inlineStr">
+      <c r="J20" s="210" t="n"/>
+      <c r="K20" s="222" t="inlineStr">
         <is>
           <t>Match Day 3</t>
         </is>
       </c>
-      <c r="L20" s="222" t="n"/>
+      <c r="L20" s="216" t="n"/>
       <c r="M20" s="139" t="inlineStr">
         <is>
           <t>Results</t>
@@ -6762,7 +6774,7 @@
       <c r="Y20" s="138" t="n"/>
       <c r="Z20" s="138" t="n"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1" s="191">
+    <row r="21" ht="15.75" customHeight="1" s="202">
       <c r="C21" s="140" t="inlineStr">
         <is>
           <t>Turkey</t>
@@ -6815,7 +6827,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1" s="191">
+    <row r="22" ht="15.75" customHeight="1" s="202">
       <c r="C22" s="148" t="n"/>
       <c r="D22" s="143" t="n"/>
       <c r="E22" s="149" t="n"/>
@@ -6852,7 +6864,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1" s="191">
+    <row r="23" ht="15.75" customHeight="1" s="202">
       <c r="C23" s="140" t="inlineStr">
         <is>
           <t>Wales</t>
@@ -6891,7 +6903,7 @@
       <c r="L23" s="143" t="n"/>
       <c r="M23" s="149" t="n"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1" s="191">
+    <row r="24" ht="15.75" customHeight="1" s="202">
       <c r="C24" s="144" t="inlineStr">
         <is>
           <t>Denmark</t>
@@ -6930,7 +6942,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1" s="191">
+    <row r="25" ht="15.75" customHeight="1" s="202">
       <c r="C25" s="144" t="inlineStr">
         <is>
           <t>Belgium</t>
@@ -6981,7 +6993,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1" s="191">
+    <row r="26" ht="15.75" customHeight="1" s="202">
       <c r="C26" s="148" t="n"/>
       <c r="D26" s="143" t="n"/>
       <c r="E26" s="149" t="n"/>
@@ -7018,7 +7030,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1" s="191">
+    <row r="27" ht="15.75" customHeight="1" s="202">
       <c r="C27" s="153" t="inlineStr">
         <is>
           <t>England</t>
@@ -7069,7 +7081,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1" s="191">
+    <row r="28" ht="15.75" customHeight="1" s="202">
       <c r="C28" s="150" t="inlineStr">
         <is>
           <t>Austria</t>
@@ -7096,7 +7108,7 @@
       <c r="L28" s="143" t="n"/>
       <c r="M28" s="149" t="n"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1" s="191">
+    <row r="29" ht="15.75" customHeight="1" s="202">
       <c r="C29" s="150" t="inlineStr">
         <is>
           <t>Netherlands</t>
@@ -7147,7 +7159,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1" s="191">
+    <row r="30" ht="15.75" customHeight="1" s="202">
       <c r="C30" s="148" t="n"/>
       <c r="D30" s="143" t="n"/>
       <c r="E30" s="149" t="n"/>
@@ -7184,7 +7196,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1" s="191">
+    <row r="31" ht="15.75" customHeight="1" s="202">
       <c r="C31" s="153" t="inlineStr">
         <is>
           <t>Scotland</t>
@@ -7223,7 +7235,7 @@
       <c r="L31" s="143" t="n"/>
       <c r="M31" s="149" t="n"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1" s="191">
+    <row r="32" ht="15.75" customHeight="1" s="202">
       <c r="C32" s="156" t="inlineStr">
         <is>
           <t>Poland</t>
@@ -7262,7 +7274,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1" s="191">
+    <row r="33" ht="15.75" customHeight="1" s="202">
       <c r="C33" s="156" t="inlineStr">
         <is>
           <t>Spain</t>
@@ -7313,7 +7325,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1" s="191">
+    <row r="34" ht="15.75" customHeight="1" s="202">
       <c r="C34" s="148" t="n"/>
       <c r="D34" s="143" t="n"/>
       <c r="E34" s="149" t="n"/>
@@ -7350,7 +7362,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1" s="191">
+    <row r="35" ht="15.75" customHeight="1" s="202">
       <c r="C35" s="159" t="inlineStr">
         <is>
           <t>Hungary</t>
@@ -7401,7 +7413,7 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1" s="191">
+    <row r="36" ht="15.75" customHeight="1" s="202">
       <c r="C36" s="162" t="inlineStr">
         <is>
           <t>France</t>
@@ -7428,70 +7440,70 @@
       <c r="L36" s="166" t="n"/>
       <c r="M36" s="167" t="n"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1" s="191"/>
-    <row r="38" ht="39.75" customHeight="1" s="191">
-      <c r="C38" s="219" t="inlineStr">
+    <row r="37" ht="15.75" customHeight="1" s="202"/>
+    <row r="38" ht="39.75" customHeight="1" s="202">
+      <c r="C38" s="213" t="inlineStr">
         <is>
           <t xml:space="preserve">We'll do the competition in two halves since the Round of 16 is heavily dependent on the Group Stages. </t>
         </is>
       </c>
-      <c r="D38" s="220" t="n"/>
-      <c r="E38" s="220" t="n"/>
-      <c r="F38" s="220" t="n"/>
-      <c r="G38" s="220" t="n"/>
-      <c r="H38" s="220" t="n"/>
-      <c r="I38" s="220" t="n"/>
-      <c r="J38" s="220" t="n"/>
-      <c r="K38" s="220" t="n"/>
-      <c r="L38" s="220" t="n"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1" s="191">
+      <c r="D38" s="214" t="n"/>
+      <c r="E38" s="214" t="n"/>
+      <c r="F38" s="214" t="n"/>
+      <c r="G38" s="214" t="n"/>
+      <c r="H38" s="214" t="n"/>
+      <c r="I38" s="214" t="n"/>
+      <c r="J38" s="214" t="n"/>
+      <c r="K38" s="214" t="n"/>
+      <c r="L38" s="214" t="n"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1" s="202">
       <c r="C39" s="136" t="inlineStr">
         <is>
           <t>Name:</t>
         </is>
       </c>
-      <c r="D39" s="221" t="n"/>
-      <c r="E39" s="222" t="n"/>
-      <c r="F39" s="222" t="n"/>
-      <c r="G39" s="223" t="n"/>
-      <c r="H39" s="224" t="inlineStr">
+      <c r="D39" s="215" t="n"/>
+      <c r="E39" s="216" t="n"/>
+      <c r="F39" s="216" t="n"/>
+      <c r="G39" s="217" t="n"/>
+      <c r="H39" s="218" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULTS         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I39" s="222" t="n"/>
-      <c r="J39" s="222" t="n"/>
-      <c r="K39" s="222" t="n"/>
-      <c r="L39" s="223" t="n"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1" s="191">
+      <c r="I39" s="216" t="n"/>
+      <c r="J39" s="216" t="n"/>
+      <c r="K39" s="216" t="n"/>
+      <c r="L39" s="217" t="n"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1" s="202">
       <c r="C40" s="137" t="inlineStr">
         <is>
           <t>Date:</t>
         </is>
       </c>
-      <c r="D40" s="227" t="n"/>
-      <c r="E40" s="220" t="n"/>
-      <c r="F40" s="220" t="n"/>
-      <c r="G40" s="226" t="n"/>
-      <c r="H40" s="225" t="n"/>
-      <c r="I40" s="220" t="n"/>
-      <c r="J40" s="220" t="n"/>
-      <c r="K40" s="220" t="n"/>
-      <c r="L40" s="226" t="n"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1" s="191">
+      <c r="D40" s="221" t="n"/>
+      <c r="E40" s="214" t="n"/>
+      <c r="F40" s="214" t="n"/>
+      <c r="G40" s="220" t="n"/>
+      <c r="H40" s="219" t="n"/>
+      <c r="I40" s="214" t="n"/>
+      <c r="J40" s="214" t="n"/>
+      <c r="K40" s="214" t="n"/>
+      <c r="L40" s="220" t="n"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1" s="202">
       <c r="B41" s="168" t="n"/>
       <c r="C41" s="169" t="n"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1" s="191">
-      <c r="B42" s="229" t="inlineStr">
+    <row r="42" ht="15.75" customHeight="1" s="202">
+      <c r="B42" s="223" t="inlineStr">
         <is>
           <t>Round of 16</t>
         </is>
       </c>
-      <c r="C42" s="220" t="n"/>
+      <c r="C42" s="214" t="n"/>
       <c r="D42" s="170" t="inlineStr">
         <is>
           <t>Results</t>
@@ -7535,12 +7547,12 @@
       </c>
       <c r="Q42" s="138" t="n"/>
       <c r="R42" s="171" t="n"/>
-      <c r="S42" s="216" t="n"/>
+      <c r="S42" s="210" t="n"/>
       <c r="U42" s="138" t="n"/>
       <c r="V42" s="171" t="n"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1" s="191">
-      <c r="B43" s="210" t="inlineStr">
+    <row r="43" ht="15.75" customHeight="1" s="202">
+      <c r="B43" s="224" t="inlineStr">
         <is>
           <t>R1</t>
         </is>
@@ -7550,7 +7562,7 @@
           <t>Winner Group A</t>
         </is>
       </c>
-      <c r="D43" s="212" t="n"/>
+      <c r="D43" s="226" t="n"/>
       <c r="E43" s="171" t="n"/>
       <c r="F43" s="171" t="n"/>
       <c r="O43" s="171" t="n"/>
@@ -7562,16 +7574,16 @@
       <c r="U43" s="171" t="n"/>
       <c r="V43" s="171" t="n"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B44" s="211" t="n"/>
+    <row r="44" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B44" s="225" t="n"/>
       <c r="C44" s="173" t="inlineStr">
         <is>
           <t>2nd Group C</t>
         </is>
       </c>
-      <c r="D44" s="211" t="n"/>
+      <c r="D44" s="225" t="n"/>
       <c r="E44" s="174" t="n"/>
-      <c r="F44" s="214" t="inlineStr">
+      <c r="F44" s="227" t="inlineStr">
         <is>
           <t>QF1</t>
         </is>
@@ -7581,7 +7593,7 @@
           <t>Winner R1</t>
         </is>
       </c>
-      <c r="H44" s="212" t="n"/>
+      <c r="H44" s="226" t="n"/>
       <c r="O44" s="171" t="n"/>
       <c r="P44" s="171" t="n"/>
       <c r="Q44" s="171" t="n"/>
@@ -7591,18 +7603,18 @@
       <c r="U44" s="171" t="n"/>
       <c r="V44" s="171" t="n"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1" s="191" thickBot="1">
+    <row r="45" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B45" s="138" t="n"/>
       <c r="C45" s="171" t="n"/>
       <c r="D45" s="176" t="n"/>
       <c r="E45" s="177" t="n"/>
-      <c r="F45" s="211" t="n"/>
+      <c r="F45" s="225" t="n"/>
       <c r="G45" s="178" t="inlineStr">
         <is>
           <t>Winner R2</t>
         </is>
       </c>
-      <c r="H45" s="211" t="n"/>
+      <c r="H45" s="225" t="n"/>
       <c r="O45" s="171" t="n"/>
       <c r="P45" s="171" t="n"/>
       <c r="Q45" s="171" t="n"/>
@@ -7612,8 +7624,8 @@
       <c r="U45" s="171" t="n"/>
       <c r="V45" s="171" t="n"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1" s="191">
-      <c r="B46" s="210" t="inlineStr">
+    <row r="46" ht="15.75" customHeight="1" s="202">
+      <c r="B46" s="224" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
@@ -7623,7 +7635,7 @@
           <t>Winner Group B</t>
         </is>
       </c>
-      <c r="D46" s="212" t="n"/>
+      <c r="D46" s="226" t="n"/>
       <c r="E46" s="171" t="n"/>
       <c r="F46" s="171" t="n"/>
       <c r="G46" s="179" t="n"/>
@@ -7637,20 +7649,20 @@
       <c r="U46" s="171" t="n"/>
       <c r="V46" s="171" t="n"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B47" s="211" t="n"/>
+    <row r="47" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B47" s="225" t="n"/>
       <c r="C47" s="173" t="inlineStr">
         <is>
           <t>3rd Group A/D/E/F</t>
         </is>
       </c>
-      <c r="D47" s="211" t="n"/>
+      <c r="D47" s="225" t="n"/>
       <c r="E47" s="171" t="n"/>
       <c r="F47" s="171" t="n"/>
       <c r="G47" s="179" t="n"/>
       <c r="H47" s="181" t="n"/>
       <c r="I47" s="177" t="n"/>
-      <c r="J47" s="213" t="inlineStr">
+      <c r="J47" s="228" t="inlineStr">
         <is>
           <t>SF1</t>
         </is>
@@ -7660,16 +7672,16 @@
           <t>Winner QF1</t>
         </is>
       </c>
-      <c r="L47" s="212" t="n"/>
+      <c r="L47" s="226" t="n"/>
       <c r="O47" s="171" t="n"/>
       <c r="P47" s="171" t="n"/>
       <c r="Q47" s="171" t="n"/>
       <c r="R47" s="171" t="n"/>
-      <c r="S47" s="216" t="n"/>
+      <c r="S47" s="210" t="n"/>
       <c r="U47" s="138" t="n"/>
       <c r="V47" s="171" t="n"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1" s="191">
+    <row r="48" ht="15.75" customHeight="1" s="202">
       <c r="B48" s="138" t="n"/>
       <c r="C48" s="171" t="n"/>
       <c r="D48" s="176" t="n"/>
@@ -7677,13 +7689,13 @@
       <c r="F48" s="171" t="n"/>
       <c r="G48" s="179" t="n"/>
       <c r="H48" s="181" t="n"/>
-      <c r="J48" s="211" t="n"/>
+      <c r="J48" s="225" t="n"/>
       <c r="K48" s="165" t="inlineStr">
         <is>
           <t>Winner QF2</t>
         </is>
       </c>
-      <c r="L48" s="211" t="n"/>
+      <c r="L48" s="225" t="n"/>
       <c r="O48" s="171" t="n"/>
       <c r="P48" s="171" t="n"/>
       <c r="Q48" s="171" t="n"/>
@@ -7693,8 +7705,8 @@
       <c r="U48" s="171" t="n"/>
       <c r="V48" s="171" t="n"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1" s="191">
-      <c r="B49" s="210" t="inlineStr">
+    <row r="49" ht="15.75" customHeight="1" s="202">
+      <c r="B49" s="224" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
@@ -7704,7 +7716,7 @@
           <t>Winner Group F</t>
         </is>
       </c>
-      <c r="D49" s="212" t="n"/>
+      <c r="D49" s="226" t="n"/>
       <c r="E49" s="171" t="n"/>
       <c r="F49" s="171" t="n"/>
       <c r="G49" s="179" t="n"/>
@@ -7712,16 +7724,16 @@
       <c r="K49" s="143" t="n"/>
       <c r="L49" s="180" t="n"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B50" s="211" t="n"/>
+    <row r="50" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B50" s="225" t="n"/>
       <c r="C50" s="173" t="inlineStr">
         <is>
           <t>3rd Group A/B/C</t>
         </is>
       </c>
-      <c r="D50" s="211" t="n"/>
+      <c r="D50" s="225" t="n"/>
       <c r="E50" s="177" t="n"/>
-      <c r="F50" s="214" t="inlineStr">
+      <c r="F50" s="227" t="inlineStr">
         <is>
           <t>QF2</t>
         </is>
@@ -7731,27 +7743,27 @@
           <t>Winner R3</t>
         </is>
       </c>
-      <c r="H50" s="212" t="n"/>
+      <c r="H50" s="226" t="n"/>
       <c r="K50" s="143" t="n"/>
       <c r="L50" s="181" t="n"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1" s="191" thickBot="1">
+    <row r="51" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B51" s="138" t="n"/>
       <c r="C51" s="171" t="n"/>
       <c r="D51" s="176" t="n"/>
       <c r="E51" s="177" t="n"/>
-      <c r="F51" s="211" t="n"/>
+      <c r="F51" s="225" t="n"/>
       <c r="G51" s="178" t="inlineStr">
         <is>
           <t>Winner R4</t>
         </is>
       </c>
-      <c r="H51" s="211" t="n"/>
+      <c r="H51" s="225" t="n"/>
       <c r="K51" s="143" t="n"/>
       <c r="L51" s="181" t="n"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B52" s="210" t="inlineStr">
+    <row r="52" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B52" s="224" t="inlineStr">
         <is>
           <t>R4</t>
         </is>
@@ -7761,7 +7773,7 @@
           <t>2nd Group D</t>
         </is>
       </c>
-      <c r="D52" s="212" t="n"/>
+      <c r="D52" s="226" t="n"/>
       <c r="E52" s="171" t="n"/>
       <c r="F52" s="171" t="n"/>
       <c r="G52" s="179" t="n"/>
@@ -7769,7 +7781,7 @@
       <c r="K52" s="143" t="n"/>
       <c r="L52" s="181" t="n"/>
       <c r="M52" s="177" t="n"/>
-      <c r="N52" s="215" t="inlineStr">
+      <c r="N52" s="229" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -7779,31 +7791,31 @@
           <t>Winner SF1</t>
         </is>
       </c>
-      <c r="P52" s="212" t="n"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1" s="191">
-      <c r="B53" s="211" t="n"/>
+      <c r="P52" s="226" t="n"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1" s="202">
+      <c r="B53" s="225" t="n"/>
       <c r="C53" s="173" t="inlineStr">
         <is>
           <t>2nd Group E</t>
         </is>
       </c>
-      <c r="D53" s="211" t="n"/>
+      <c r="D53" s="225" t="n"/>
       <c r="E53" s="171" t="n"/>
       <c r="F53" s="171" t="n"/>
       <c r="G53" s="179" t="n"/>
       <c r="H53" s="176" t="n"/>
       <c r="K53" s="143" t="n"/>
       <c r="L53" s="181" t="n"/>
-      <c r="N53" s="211" t="n"/>
+      <c r="N53" s="225" t="n"/>
       <c r="O53" s="165" t="inlineStr">
         <is>
           <t>Winner SF2</t>
         </is>
       </c>
-      <c r="P53" s="211" t="n"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1" s="191">
+      <c r="P53" s="225" t="n"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1" s="202">
       <c r="B54" s="138" t="n"/>
       <c r="C54" s="171" t="n"/>
       <c r="D54" s="176" t="n"/>
@@ -7814,8 +7826,8 @@
       <c r="K54" s="143" t="n"/>
       <c r="L54" s="181" t="n"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1" s="191">
-      <c r="B55" s="210" t="inlineStr">
+    <row r="55" ht="15.75" customHeight="1" s="202">
+      <c r="B55" s="224" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
@@ -7825,7 +7837,7 @@
           <t>Winner Group E</t>
         </is>
       </c>
-      <c r="D55" s="212" t="n"/>
+      <c r="D55" s="226" t="n"/>
       <c r="E55" s="171" t="n"/>
       <c r="F55" s="171" t="n"/>
       <c r="G55" s="179" t="n"/>
@@ -7833,16 +7845,16 @@
       <c r="K55" s="143" t="n"/>
       <c r="L55" s="181" t="n"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B56" s="211" t="n"/>
+    <row r="56" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B56" s="225" t="n"/>
       <c r="C56" s="173" t="inlineStr">
         <is>
           <t>3rd Group A/B/C/D</t>
         </is>
       </c>
-      <c r="D56" s="211" t="n"/>
+      <c r="D56" s="225" t="n"/>
       <c r="E56" s="174" t="n"/>
-      <c r="F56" s="214" t="inlineStr">
+      <c r="F56" s="227" t="inlineStr">
         <is>
           <t>QF3</t>
         </is>
@@ -7852,26 +7864,26 @@
           <t>Winner R5</t>
         </is>
       </c>
-      <c r="H56" s="212" t="n"/>
+      <c r="H56" s="226" t="n"/>
       <c r="K56" s="143" t="n"/>
       <c r="L56" s="181" t="n"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1" s="191" thickBot="1">
+    <row r="57" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B57" s="138" t="n"/>
       <c r="D57" s="176" t="n"/>
       <c r="E57" s="184" t="n"/>
-      <c r="F57" s="211" t="n"/>
+      <c r="F57" s="225" t="n"/>
       <c r="G57" s="178" t="inlineStr">
         <is>
           <t>Winner R6</t>
         </is>
       </c>
-      <c r="H57" s="211" t="n"/>
+      <c r="H57" s="225" t="n"/>
       <c r="K57" s="143" t="n"/>
       <c r="L57" s="181" t="n"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1" s="191">
-      <c r="B58" s="210" t="inlineStr">
+    <row r="58" ht="15.75" customHeight="1" s="202">
+      <c r="B58" s="224" t="inlineStr">
         <is>
           <t>R6</t>
         </is>
@@ -7881,24 +7893,24 @@
           <t>Winner Group D</t>
         </is>
       </c>
-      <c r="D58" s="212" t="n"/>
+      <c r="D58" s="226" t="n"/>
       <c r="G58" s="179" t="n"/>
       <c r="H58" s="180" t="n"/>
       <c r="K58" s="143" t="n"/>
       <c r="L58" s="183" t="n"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B59" s="211" t="n"/>
+    <row r="59" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B59" s="225" t="n"/>
       <c r="C59" s="173" t="inlineStr">
         <is>
           <t>2nd Group F</t>
         </is>
       </c>
-      <c r="D59" s="211" t="n"/>
+      <c r="D59" s="225" t="n"/>
       <c r="G59" s="179" t="n"/>
       <c r="H59" s="181" t="n"/>
       <c r="I59" s="177" t="n"/>
-      <c r="J59" s="213" t="inlineStr">
+      <c r="J59" s="228" t="inlineStr">
         <is>
           <t>SF2</t>
         </is>
@@ -7908,23 +7920,23 @@
           <t>Winner QF3</t>
         </is>
       </c>
-      <c r="L59" s="212" t="n"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1" s="191">
+      <c r="L59" s="226" t="n"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1" s="202">
       <c r="B60" s="138" t="n"/>
       <c r="D60" s="176" t="n"/>
       <c r="G60" s="179" t="n"/>
       <c r="H60" s="181" t="n"/>
-      <c r="J60" s="211" t="n"/>
+      <c r="J60" s="225" t="n"/>
       <c r="K60" s="165" t="inlineStr">
         <is>
           <t>Winner QF4</t>
         </is>
       </c>
-      <c r="L60" s="211" t="n"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1" s="191">
-      <c r="B61" s="210" t="inlineStr">
+      <c r="L60" s="225" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="202">
+      <c r="B61" s="224" t="inlineStr">
         <is>
           <t>R7</t>
         </is>
@@ -7934,20 +7946,20 @@
           <t>Winner GroupC</t>
         </is>
       </c>
-      <c r="D61" s="212" t="n"/>
+      <c r="D61" s="226" t="n"/>
       <c r="G61" s="179" t="n"/>
       <c r="H61" s="183" t="n"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B62" s="211" t="n"/>
+    <row r="62" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B62" s="225" t="n"/>
       <c r="C62" s="173" t="inlineStr">
         <is>
           <t>3rd Group D/E/F</t>
         </is>
       </c>
-      <c r="D62" s="211" t="n"/>
+      <c r="D62" s="225" t="n"/>
       <c r="E62" s="174" t="n"/>
-      <c r="F62" s="214" t="inlineStr">
+      <c r="F62" s="227" t="inlineStr">
         <is>
           <t>QF4</t>
         </is>
@@ -7957,22 +7969,22 @@
           <t>Winner R7</t>
         </is>
       </c>
-      <c r="H62" s="212" t="n"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="H62" s="226" t="n"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B63" s="138" t="n"/>
       <c r="D63" s="176" t="n"/>
       <c r="E63" s="184" t="n"/>
-      <c r="F63" s="211" t="n"/>
+      <c r="F63" s="225" t="n"/>
       <c r="G63" s="178" t="inlineStr">
         <is>
           <t>Winner R8</t>
         </is>
       </c>
-      <c r="H63" s="211" t="n"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1" s="191">
-      <c r="B64" s="210" t="inlineStr">
+      <c r="H63" s="225" t="n"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1" s="202">
+      <c r="B64" s="224" t="inlineStr">
         <is>
           <t>R8</t>
         </is>
@@ -7982,954 +7994,985 @@
           <t>2nd Group A</t>
         </is>
       </c>
-      <c r="D64" s="212" t="n"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1" s="191">
-      <c r="B65" s="211" t="n"/>
+      <c r="D64" s="226" t="n"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1" s="202">
+      <c r="B65" s="225" t="n"/>
       <c r="C65" s="173" t="inlineStr">
         <is>
           <t>2nd Group B</t>
         </is>
       </c>
-      <c r="D65" s="211" t="n"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1" s="191"/>
-    <row r="67" ht="15.75" customHeight="1" s="191"/>
-    <row r="68" ht="15.75" customHeight="1" s="191"/>
-    <row r="69" ht="15.75" customHeight="1" s="191"/>
-    <row r="70" ht="15.75" customHeight="1" s="191"/>
-    <row r="71" ht="15.75" customHeight="1" s="191"/>
-    <row r="72" ht="15.75" customHeight="1" s="191"/>
-    <row r="73" ht="15.75" customHeight="1" s="191"/>
-    <row r="74" ht="15.75" customHeight="1" s="191"/>
-    <row r="75" ht="15.75" customHeight="1" s="191"/>
-    <row r="76" ht="15.75" customHeight="1" s="191"/>
-    <row r="77" ht="15.75" customHeight="1" s="191"/>
-    <row r="78" ht="15.75" customHeight="1" s="191"/>
-    <row r="79" ht="15.75" customHeight="1" s="191"/>
-    <row r="80" ht="15.75" customHeight="1" s="191"/>
-    <row r="81" ht="15.75" customHeight="1" s="191"/>
-    <row r="82" ht="15.75" customHeight="1" s="191"/>
-    <row r="83" ht="15.75" customHeight="1" s="191"/>
-    <row r="84" ht="15.75" customHeight="1" s="191"/>
-    <row r="85" ht="15.75" customHeight="1" s="191"/>
-    <row r="86" ht="15.75" customHeight="1" s="191"/>
-    <row r="87" ht="15.75" customHeight="1" s="191"/>
-    <row r="88" ht="15.75" customHeight="1" s="191"/>
-    <row r="89" ht="15.75" customHeight="1" s="191"/>
-    <row r="90" ht="15.75" customHeight="1" s="191"/>
-    <row r="91" ht="15.75" customHeight="1" s="191"/>
-    <row r="92" ht="15.75" customHeight="1" s="191"/>
-    <row r="93" ht="15.75" customHeight="1" s="191"/>
-    <row r="94" ht="15.75" customHeight="1" s="191"/>
-    <row r="95" ht="15.75" customHeight="1" s="191"/>
-    <row r="96" ht="15.75" customHeight="1" s="191"/>
-    <row r="97" ht="15.75" customHeight="1" s="191"/>
-    <row r="98" ht="15.75" customHeight="1" s="191"/>
-    <row r="99" ht="15.75" customHeight="1" s="191"/>
-    <row r="100" ht="15.75" customHeight="1" s="191"/>
-    <row r="101" ht="15.75" customHeight="1" s="191"/>
-    <row r="102" ht="15.75" customHeight="1" s="191"/>
-    <row r="103" ht="15.75" customHeight="1" s="191"/>
-    <row r="104" ht="15.75" customHeight="1" s="191"/>
-    <row r="105" ht="15.75" customHeight="1" s="191"/>
-    <row r="106" ht="15.75" customHeight="1" s="191"/>
-    <row r="107" ht="15.75" customHeight="1" s="191"/>
-    <row r="108" ht="15.75" customHeight="1" s="191"/>
-    <row r="109" ht="15.75" customHeight="1" s="191"/>
-    <row r="110" ht="15.75" customHeight="1" s="191"/>
-    <row r="111" ht="15.75" customHeight="1" s="191"/>
-    <row r="112" ht="15.75" customHeight="1" s="191"/>
-    <row r="113" ht="15.75" customHeight="1" s="191"/>
-    <row r="114" ht="15.75" customHeight="1" s="191"/>
-    <row r="115" ht="15.75" customHeight="1" s="191"/>
-    <row r="116" ht="15.75" customHeight="1" s="191"/>
-    <row r="117" ht="15.75" customHeight="1" s="191"/>
-    <row r="118" ht="15.75" customHeight="1" s="191"/>
-    <row r="119" ht="15.75" customHeight="1" s="191"/>
-    <row r="120" ht="15.75" customHeight="1" s="191"/>
-    <row r="121" ht="15.75" customHeight="1" s="191"/>
-    <row r="122" ht="15.75" customHeight="1" s="191"/>
-    <row r="123" ht="15.75" customHeight="1" s="191"/>
-    <row r="124" ht="15.75" customHeight="1" s="191"/>
-    <row r="125" ht="15.75" customHeight="1" s="191"/>
-    <row r="126" ht="15.75" customHeight="1" s="191"/>
-    <row r="127" ht="15.75" customHeight="1" s="191"/>
-    <row r="128" ht="15.75" customHeight="1" s="191"/>
-    <row r="129" ht="15.75" customHeight="1" s="191"/>
-    <row r="130" ht="15.75" customHeight="1" s="191"/>
-    <row r="131" ht="15.75" customHeight="1" s="191"/>
-    <row r="132" ht="15.75" customHeight="1" s="191"/>
-    <row r="133" ht="15.75" customHeight="1" s="191"/>
-    <row r="134" ht="15.75" customHeight="1" s="191"/>
-    <row r="135" ht="15.75" customHeight="1" s="191"/>
-    <row r="136" ht="15.75" customHeight="1" s="191"/>
-    <row r="137" ht="15.75" customHeight="1" s="191"/>
-    <row r="138" ht="15.75" customHeight="1" s="191"/>
-    <row r="139" ht="15.75" customHeight="1" s="191"/>
-    <row r="140" ht="15.75" customHeight="1" s="191"/>
-    <row r="141" ht="15.75" customHeight="1" s="191"/>
-    <row r="142" ht="15.75" customHeight="1" s="191"/>
-    <row r="143" ht="15.75" customHeight="1" s="191"/>
-    <row r="144" ht="15.75" customHeight="1" s="191"/>
-    <row r="145" ht="15.75" customHeight="1" s="191"/>
-    <row r="146" ht="15.75" customHeight="1" s="191"/>
-    <row r="147" ht="15.75" customHeight="1" s="191"/>
-    <row r="148" ht="15.75" customHeight="1" s="191"/>
-    <row r="149" ht="15.75" customHeight="1" s="191"/>
-    <row r="150" ht="15.75" customHeight="1" s="191"/>
-    <row r="151" ht="15.75" customHeight="1" s="191"/>
-    <row r="152" ht="15.75" customHeight="1" s="191"/>
-    <row r="153" ht="15.75" customHeight="1" s="191"/>
-    <row r="154" ht="15.75" customHeight="1" s="191"/>
-    <row r="155" ht="15.75" customHeight="1" s="191"/>
-    <row r="156" ht="15.75" customHeight="1" s="191"/>
-    <row r="157" ht="15.75" customHeight="1" s="191"/>
-    <row r="158" ht="15.75" customHeight="1" s="191"/>
-    <row r="159" ht="15.75" customHeight="1" s="191"/>
-    <row r="160" ht="15.75" customHeight="1" s="191"/>
-    <row r="161" ht="15.75" customHeight="1" s="191"/>
-    <row r="162" ht="15.75" customHeight="1" s="191"/>
-    <row r="163" ht="15.75" customHeight="1" s="191"/>
-    <row r="164" ht="15.75" customHeight="1" s="191"/>
-    <row r="165" ht="15.75" customHeight="1" s="191"/>
-    <row r="166" ht="15.75" customHeight="1" s="191"/>
-    <row r="167" ht="15.75" customHeight="1" s="191"/>
-    <row r="168" ht="15.75" customHeight="1" s="191"/>
-    <row r="169" ht="15.75" customHeight="1" s="191"/>
-    <row r="170" ht="15.75" customHeight="1" s="191"/>
-    <row r="171" ht="15.75" customHeight="1" s="191"/>
-    <row r="172" ht="15.75" customHeight="1" s="191"/>
-    <row r="173" ht="15.75" customHeight="1" s="191"/>
-    <row r="174" ht="15.75" customHeight="1" s="191"/>
-    <row r="175" ht="15.75" customHeight="1" s="191"/>
-    <row r="176" ht="15.75" customHeight="1" s="191"/>
-    <row r="177" ht="15.75" customHeight="1" s="191"/>
-    <row r="178" ht="15.75" customHeight="1" s="191"/>
-    <row r="179" ht="15.75" customHeight="1" s="191"/>
-    <row r="180" ht="15.75" customHeight="1" s="191"/>
-    <row r="181" ht="15.75" customHeight="1" s="191"/>
-    <row r="182" ht="15.75" customHeight="1" s="191"/>
-    <row r="183" ht="15.75" customHeight="1" s="191"/>
-    <row r="184" ht="15.75" customHeight="1" s="191"/>
-    <row r="185" ht="15.75" customHeight="1" s="191"/>
-    <row r="186" ht="15.75" customHeight="1" s="191"/>
-    <row r="187" ht="15.75" customHeight="1" s="191"/>
-    <row r="188" ht="15.75" customHeight="1" s="191"/>
-    <row r="189" ht="15.75" customHeight="1" s="191"/>
-    <row r="190" ht="15.75" customHeight="1" s="191"/>
-    <row r="191" ht="15.75" customHeight="1" s="191"/>
-    <row r="192" ht="15.75" customHeight="1" s="191"/>
-    <row r="193" ht="15.75" customHeight="1" s="191"/>
-    <row r="194" ht="15.75" customHeight="1" s="191"/>
-    <row r="195" ht="15.75" customHeight="1" s="191"/>
-    <row r="196" ht="15.75" customHeight="1" s="191"/>
-    <row r="197" ht="15.75" customHeight="1" s="191"/>
-    <row r="198" ht="15.75" customHeight="1" s="191"/>
-    <row r="199" ht="15.75" customHeight="1" s="191"/>
-    <row r="200" ht="15.75" customHeight="1" s="191"/>
-    <row r="201" ht="15.75" customHeight="1" s="191"/>
-    <row r="202" ht="15.75" customHeight="1" s="191"/>
-    <row r="203" ht="15.75" customHeight="1" s="191"/>
-    <row r="204" ht="15.75" customHeight="1" s="191"/>
-    <row r="205" ht="15.75" customHeight="1" s="191"/>
-    <row r="206" ht="15.75" customHeight="1" s="191"/>
-    <row r="207" ht="15.75" customHeight="1" s="191"/>
-    <row r="208" ht="15.75" customHeight="1" s="191"/>
-    <row r="209" ht="15.75" customHeight="1" s="191"/>
-    <row r="210" ht="15.75" customHeight="1" s="191"/>
-    <row r="211" ht="15.75" customHeight="1" s="191"/>
-    <row r="212" ht="15.75" customHeight="1" s="191"/>
-    <row r="213" ht="15.75" customHeight="1" s="191"/>
-    <row r="214" ht="15.75" customHeight="1" s="191"/>
-    <row r="215" ht="15.75" customHeight="1" s="191"/>
-    <row r="216" ht="15.75" customHeight="1" s="191"/>
-    <row r="217" ht="15.75" customHeight="1" s="191"/>
-    <row r="218" ht="15.75" customHeight="1" s="191"/>
-    <row r="219" ht="15.75" customHeight="1" s="191"/>
-    <row r="220" ht="15.75" customHeight="1" s="191"/>
-    <row r="221" ht="15.75" customHeight="1" s="191"/>
-    <row r="222" ht="15.75" customHeight="1" s="191"/>
-    <row r="223" ht="15.75" customHeight="1" s="191"/>
-    <row r="224" ht="15.75" customHeight="1" s="191"/>
-    <row r="225" ht="15.75" customHeight="1" s="191"/>
-    <row r="226" ht="15.75" customHeight="1" s="191"/>
-    <row r="227" ht="15.75" customHeight="1" s="191"/>
-    <row r="228" ht="15.75" customHeight="1" s="191"/>
-    <row r="229" ht="15.75" customHeight="1" s="191"/>
-    <row r="230" ht="15.75" customHeight="1" s="191"/>
-    <row r="231" ht="15.75" customHeight="1" s="191"/>
-    <row r="232" ht="15.75" customHeight="1" s="191"/>
-    <row r="233" ht="15.75" customHeight="1" s="191"/>
-    <row r="234" ht="15.75" customHeight="1" s="191"/>
-    <row r="235" ht="15.75" customHeight="1" s="191"/>
-    <row r="236" ht="15.75" customHeight="1" s="191"/>
-    <row r="237" ht="15.75" customHeight="1" s="191"/>
-    <row r="238" ht="15.75" customHeight="1" s="191"/>
-    <row r="239" ht="15.75" customHeight="1" s="191"/>
-    <row r="240" ht="15.75" customHeight="1" s="191"/>
-    <row r="241" ht="15.75" customHeight="1" s="191"/>
-    <row r="242" ht="15.75" customHeight="1" s="191"/>
-    <row r="243" ht="15.75" customHeight="1" s="191"/>
-    <row r="244" ht="15.75" customHeight="1" s="191"/>
-    <row r="245" ht="15.75" customHeight="1" s="191"/>
-    <row r="246" ht="15.75" customHeight="1" s="191"/>
-    <row r="247" ht="15.75" customHeight="1" s="191"/>
-    <row r="248" ht="15.75" customHeight="1" s="191"/>
-    <row r="249" ht="15.75" customHeight="1" s="191"/>
-    <row r="250" ht="15.75" customHeight="1" s="191"/>
-    <row r="251" ht="15.75" customHeight="1" s="191"/>
-    <row r="252" ht="15.75" customHeight="1" s="191"/>
-    <row r="253" ht="15.75" customHeight="1" s="191"/>
-    <row r="254" ht="15.75" customHeight="1" s="191"/>
-    <row r="255" ht="15.75" customHeight="1" s="191"/>
-    <row r="256" ht="15.75" customHeight="1" s="191"/>
-    <row r="257" ht="15.75" customHeight="1" s="191"/>
-    <row r="258" ht="15.75" customHeight="1" s="191"/>
-    <row r="259" ht="15.75" customHeight="1" s="191"/>
-    <row r="260" ht="15.75" customHeight="1" s="191"/>
-    <row r="261" ht="15.75" customHeight="1" s="191"/>
-    <row r="262" ht="15.75" customHeight="1" s="191"/>
-    <row r="263" ht="15.75" customHeight="1" s="191"/>
-    <row r="264" ht="15.75" customHeight="1" s="191"/>
-    <row r="265" ht="15.75" customHeight="1" s="191"/>
-    <row r="266" ht="15.75" customHeight="1" s="191"/>
-    <row r="267" ht="15.75" customHeight="1" s="191"/>
-    <row r="268" ht="15.75" customHeight="1" s="191"/>
-    <row r="269" ht="15.75" customHeight="1" s="191"/>
-    <row r="270" ht="15.75" customHeight="1" s="191"/>
-    <row r="271" ht="15.75" customHeight="1" s="191"/>
-    <row r="272" ht="15.75" customHeight="1" s="191"/>
-    <row r="273" ht="15.75" customHeight="1" s="191"/>
-    <row r="274" ht="15.75" customHeight="1" s="191"/>
-    <row r="275" ht="15.75" customHeight="1" s="191"/>
-    <row r="276" ht="15.75" customHeight="1" s="191"/>
-    <row r="277" ht="15.75" customHeight="1" s="191"/>
-    <row r="278" ht="15.75" customHeight="1" s="191"/>
-    <row r="279" ht="15.75" customHeight="1" s="191"/>
-    <row r="280" ht="15.75" customHeight="1" s="191"/>
-    <row r="281" ht="15.75" customHeight="1" s="191"/>
-    <row r="282" ht="15.75" customHeight="1" s="191"/>
-    <row r="283" ht="15.75" customHeight="1" s="191"/>
-    <row r="284" ht="15.75" customHeight="1" s="191"/>
-    <row r="285" ht="15.75" customHeight="1" s="191"/>
-    <row r="286" ht="15.75" customHeight="1" s="191"/>
-    <row r="287" ht="15.75" customHeight="1" s="191"/>
-    <row r="288" ht="15.75" customHeight="1" s="191"/>
-    <row r="289" ht="15.75" customHeight="1" s="191"/>
-    <row r="290" ht="15.75" customHeight="1" s="191"/>
-    <row r="291" ht="15.75" customHeight="1" s="191"/>
-    <row r="292" ht="15.75" customHeight="1" s="191"/>
-    <row r="293" ht="15.75" customHeight="1" s="191"/>
-    <row r="294" ht="15.75" customHeight="1" s="191"/>
-    <row r="295" ht="15.75" customHeight="1" s="191"/>
-    <row r="296" ht="15.75" customHeight="1" s="191"/>
-    <row r="297" ht="15.75" customHeight="1" s="191"/>
-    <row r="298" ht="15.75" customHeight="1" s="191"/>
-    <row r="299" ht="15.75" customHeight="1" s="191"/>
-    <row r="300" ht="15.75" customHeight="1" s="191"/>
-    <row r="301" ht="15.75" customHeight="1" s="191"/>
-    <row r="302" ht="15.75" customHeight="1" s="191"/>
-    <row r="303" ht="15.75" customHeight="1" s="191"/>
-    <row r="304" ht="15.75" customHeight="1" s="191"/>
-    <row r="305" ht="15.75" customHeight="1" s="191"/>
-    <row r="306" ht="15.75" customHeight="1" s="191"/>
-    <row r="307" ht="15.75" customHeight="1" s="191"/>
-    <row r="308" ht="15.75" customHeight="1" s="191"/>
-    <row r="309" ht="15.75" customHeight="1" s="191"/>
-    <row r="310" ht="15.75" customHeight="1" s="191"/>
-    <row r="311" ht="15.75" customHeight="1" s="191"/>
-    <row r="312" ht="15.75" customHeight="1" s="191"/>
-    <row r="313" ht="15.75" customHeight="1" s="191"/>
-    <row r="314" ht="15.75" customHeight="1" s="191"/>
-    <row r="315" ht="15.75" customHeight="1" s="191"/>
-    <row r="316" ht="15.75" customHeight="1" s="191"/>
-    <row r="317" ht="15.75" customHeight="1" s="191"/>
-    <row r="318" ht="15.75" customHeight="1" s="191"/>
-    <row r="319" ht="15.75" customHeight="1" s="191"/>
-    <row r="320" ht="15.75" customHeight="1" s="191"/>
-    <row r="321" ht="15.75" customHeight="1" s="191"/>
-    <row r="322" ht="15.75" customHeight="1" s="191"/>
-    <row r="323" ht="15.75" customHeight="1" s="191"/>
-    <row r="324" ht="15.75" customHeight="1" s="191"/>
-    <row r="325" ht="15.75" customHeight="1" s="191"/>
-    <row r="326" ht="15.75" customHeight="1" s="191"/>
-    <row r="327" ht="15.75" customHeight="1" s="191"/>
-    <row r="328" ht="15.75" customHeight="1" s="191"/>
-    <row r="329" ht="15.75" customHeight="1" s="191"/>
-    <row r="330" ht="15.75" customHeight="1" s="191"/>
-    <row r="331" ht="15.75" customHeight="1" s="191"/>
-    <row r="332" ht="15.75" customHeight="1" s="191"/>
-    <row r="333" ht="15.75" customHeight="1" s="191"/>
-    <row r="334" ht="15.75" customHeight="1" s="191"/>
-    <row r="335" ht="15.75" customHeight="1" s="191"/>
-    <row r="336" ht="15.75" customHeight="1" s="191"/>
-    <row r="337" ht="15.75" customHeight="1" s="191"/>
-    <row r="338" ht="15.75" customHeight="1" s="191"/>
-    <row r="339" ht="15.75" customHeight="1" s="191"/>
-    <row r="340" ht="15.75" customHeight="1" s="191"/>
-    <row r="341" ht="15.75" customHeight="1" s="191"/>
-    <row r="342" ht="15.75" customHeight="1" s="191"/>
-    <row r="343" ht="15.75" customHeight="1" s="191"/>
-    <row r="344" ht="15.75" customHeight="1" s="191"/>
-    <row r="345" ht="15.75" customHeight="1" s="191"/>
-    <row r="346" ht="15.75" customHeight="1" s="191"/>
-    <row r="347" ht="15.75" customHeight="1" s="191"/>
-    <row r="348" ht="15.75" customHeight="1" s="191"/>
-    <row r="349" ht="15.75" customHeight="1" s="191"/>
-    <row r="350" ht="15.75" customHeight="1" s="191"/>
-    <row r="351" ht="15.75" customHeight="1" s="191"/>
-    <row r="352" ht="15.75" customHeight="1" s="191"/>
-    <row r="353" ht="15.75" customHeight="1" s="191"/>
-    <row r="354" ht="15.75" customHeight="1" s="191"/>
-    <row r="355" ht="15.75" customHeight="1" s="191"/>
-    <row r="356" ht="15.75" customHeight="1" s="191"/>
-    <row r="357" ht="15.75" customHeight="1" s="191"/>
-    <row r="358" ht="15.75" customHeight="1" s="191"/>
-    <row r="359" ht="15.75" customHeight="1" s="191"/>
-    <row r="360" ht="15.75" customHeight="1" s="191"/>
-    <row r="361" ht="15.75" customHeight="1" s="191"/>
-    <row r="362" ht="15.75" customHeight="1" s="191"/>
-    <row r="363" ht="15.75" customHeight="1" s="191"/>
-    <row r="364" ht="15.75" customHeight="1" s="191"/>
-    <row r="365" ht="15.75" customHeight="1" s="191"/>
-    <row r="366" ht="15.75" customHeight="1" s="191"/>
-    <row r="367" ht="15.75" customHeight="1" s="191"/>
-    <row r="368" ht="15.75" customHeight="1" s="191"/>
-    <row r="369" ht="15.75" customHeight="1" s="191"/>
-    <row r="370" ht="15.75" customHeight="1" s="191"/>
-    <row r="371" ht="15.75" customHeight="1" s="191"/>
-    <row r="372" ht="15.75" customHeight="1" s="191"/>
-    <row r="373" ht="15.75" customHeight="1" s="191"/>
-    <row r="374" ht="15.75" customHeight="1" s="191"/>
-    <row r="375" ht="15.75" customHeight="1" s="191"/>
-    <row r="376" ht="15.75" customHeight="1" s="191"/>
-    <row r="377" ht="15.75" customHeight="1" s="191"/>
-    <row r="378" ht="15.75" customHeight="1" s="191"/>
-    <row r="379" ht="15.75" customHeight="1" s="191"/>
-    <row r="380" ht="15.75" customHeight="1" s="191"/>
-    <row r="381" ht="15.75" customHeight="1" s="191"/>
-    <row r="382" ht="15.75" customHeight="1" s="191"/>
-    <row r="383" ht="15.75" customHeight="1" s="191"/>
-    <row r="384" ht="15.75" customHeight="1" s="191"/>
-    <row r="385" ht="15.75" customHeight="1" s="191"/>
-    <row r="386" ht="15.75" customHeight="1" s="191"/>
-    <row r="387" ht="15.75" customHeight="1" s="191"/>
-    <row r="388" ht="15.75" customHeight="1" s="191"/>
-    <row r="389" ht="15.75" customHeight="1" s="191"/>
-    <row r="390" ht="15.75" customHeight="1" s="191"/>
-    <row r="391" ht="15.75" customHeight="1" s="191"/>
-    <row r="392" ht="15.75" customHeight="1" s="191"/>
-    <row r="393" ht="15.75" customHeight="1" s="191"/>
-    <row r="394" ht="15.75" customHeight="1" s="191"/>
-    <row r="395" ht="15.75" customHeight="1" s="191"/>
-    <row r="396" ht="15.75" customHeight="1" s="191"/>
-    <row r="397" ht="15.75" customHeight="1" s="191"/>
-    <row r="398" ht="15.75" customHeight="1" s="191"/>
-    <row r="399" ht="15.75" customHeight="1" s="191"/>
-    <row r="400" ht="15.75" customHeight="1" s="191"/>
-    <row r="401" ht="15.75" customHeight="1" s="191"/>
-    <row r="402" ht="15.75" customHeight="1" s="191"/>
-    <row r="403" ht="15.75" customHeight="1" s="191"/>
-    <row r="404" ht="15.75" customHeight="1" s="191"/>
-    <row r="405" ht="15.75" customHeight="1" s="191"/>
-    <row r="406" ht="15.75" customHeight="1" s="191"/>
-    <row r="407" ht="15.75" customHeight="1" s="191"/>
-    <row r="408" ht="15.75" customHeight="1" s="191"/>
-    <row r="409" ht="15.75" customHeight="1" s="191"/>
-    <row r="410" ht="15.75" customHeight="1" s="191"/>
-    <row r="411" ht="15.75" customHeight="1" s="191"/>
-    <row r="412" ht="15.75" customHeight="1" s="191"/>
-    <row r="413" ht="15.75" customHeight="1" s="191"/>
-    <row r="414" ht="15.75" customHeight="1" s="191"/>
-    <row r="415" ht="15.75" customHeight="1" s="191"/>
-    <row r="416" ht="15.75" customHeight="1" s="191"/>
-    <row r="417" ht="15.75" customHeight="1" s="191"/>
-    <row r="418" ht="15.75" customHeight="1" s="191"/>
-    <row r="419" ht="15.75" customHeight="1" s="191"/>
-    <row r="420" ht="15.75" customHeight="1" s="191"/>
-    <row r="421" ht="15.75" customHeight="1" s="191"/>
-    <row r="422" ht="15.75" customHeight="1" s="191"/>
-    <row r="423" ht="15.75" customHeight="1" s="191"/>
-    <row r="424" ht="15.75" customHeight="1" s="191"/>
-    <row r="425" ht="15.75" customHeight="1" s="191"/>
-    <row r="426" ht="15.75" customHeight="1" s="191"/>
-    <row r="427" ht="15.75" customHeight="1" s="191"/>
-    <row r="428" ht="15.75" customHeight="1" s="191"/>
-    <row r="429" ht="15.75" customHeight="1" s="191"/>
-    <row r="430" ht="15.75" customHeight="1" s="191"/>
-    <row r="431" ht="15.75" customHeight="1" s="191"/>
-    <row r="432" ht="15.75" customHeight="1" s="191"/>
-    <row r="433" ht="15.75" customHeight="1" s="191"/>
-    <row r="434" ht="15.75" customHeight="1" s="191"/>
-    <row r="435" ht="15.75" customHeight="1" s="191"/>
-    <row r="436" ht="15.75" customHeight="1" s="191"/>
-    <row r="437" ht="15.75" customHeight="1" s="191"/>
-    <row r="438" ht="15.75" customHeight="1" s="191"/>
-    <row r="439" ht="15.75" customHeight="1" s="191"/>
-    <row r="440" ht="15.75" customHeight="1" s="191"/>
-    <row r="441" ht="15.75" customHeight="1" s="191"/>
-    <row r="442" ht="15.75" customHeight="1" s="191"/>
-    <row r="443" ht="15.75" customHeight="1" s="191"/>
-    <row r="444" ht="15.75" customHeight="1" s="191"/>
-    <row r="445" ht="15.75" customHeight="1" s="191"/>
-    <row r="446" ht="15.75" customHeight="1" s="191"/>
-    <row r="447" ht="15.75" customHeight="1" s="191"/>
-    <row r="448" ht="15.75" customHeight="1" s="191"/>
-    <row r="449" ht="15.75" customHeight="1" s="191"/>
-    <row r="450" ht="15.75" customHeight="1" s="191"/>
-    <row r="451" ht="15.75" customHeight="1" s="191"/>
-    <row r="452" ht="15.75" customHeight="1" s="191"/>
-    <row r="453" ht="15.75" customHeight="1" s="191"/>
-    <row r="454" ht="15.75" customHeight="1" s="191"/>
-    <row r="455" ht="15.75" customHeight="1" s="191"/>
-    <row r="456" ht="15.75" customHeight="1" s="191"/>
-    <row r="457" ht="15.75" customHeight="1" s="191"/>
-    <row r="458" ht="15.75" customHeight="1" s="191"/>
-    <row r="459" ht="15.75" customHeight="1" s="191"/>
-    <row r="460" ht="15.75" customHeight="1" s="191"/>
-    <row r="461" ht="15.75" customHeight="1" s="191"/>
-    <row r="462" ht="15.75" customHeight="1" s="191"/>
-    <row r="463" ht="15.75" customHeight="1" s="191"/>
-    <row r="464" ht="15.75" customHeight="1" s="191"/>
-    <row r="465" ht="15.75" customHeight="1" s="191"/>
-    <row r="466" ht="15.75" customHeight="1" s="191"/>
-    <row r="467" ht="15.75" customHeight="1" s="191"/>
-    <row r="468" ht="15.75" customHeight="1" s="191"/>
-    <row r="469" ht="15.75" customHeight="1" s="191"/>
-    <row r="470" ht="15.75" customHeight="1" s="191"/>
-    <row r="471" ht="15.75" customHeight="1" s="191"/>
-    <row r="472" ht="15.75" customHeight="1" s="191"/>
-    <row r="473" ht="15.75" customHeight="1" s="191"/>
-    <row r="474" ht="15.75" customHeight="1" s="191"/>
-    <row r="475" ht="15.75" customHeight="1" s="191"/>
-    <row r="476" ht="15.75" customHeight="1" s="191"/>
-    <row r="477" ht="15.75" customHeight="1" s="191"/>
-    <row r="478" ht="15.75" customHeight="1" s="191"/>
-    <row r="479" ht="15.75" customHeight="1" s="191"/>
-    <row r="480" ht="15.75" customHeight="1" s="191"/>
-    <row r="481" ht="15.75" customHeight="1" s="191"/>
-    <row r="482" ht="15.75" customHeight="1" s="191"/>
-    <row r="483" ht="15.75" customHeight="1" s="191"/>
-    <row r="484" ht="15.75" customHeight="1" s="191"/>
-    <row r="485" ht="15.75" customHeight="1" s="191"/>
-    <row r="486" ht="15.75" customHeight="1" s="191"/>
-    <row r="487" ht="15.75" customHeight="1" s="191"/>
-    <row r="488" ht="15.75" customHeight="1" s="191"/>
-    <row r="489" ht="15.75" customHeight="1" s="191"/>
-    <row r="490" ht="15.75" customHeight="1" s="191"/>
-    <row r="491" ht="15.75" customHeight="1" s="191"/>
-    <row r="492" ht="15.75" customHeight="1" s="191"/>
-    <row r="493" ht="15.75" customHeight="1" s="191"/>
-    <row r="494" ht="15.75" customHeight="1" s="191"/>
-    <row r="495" ht="15.75" customHeight="1" s="191"/>
-    <row r="496" ht="15.75" customHeight="1" s="191"/>
-    <row r="497" ht="15.75" customHeight="1" s="191"/>
-    <row r="498" ht="15.75" customHeight="1" s="191"/>
-    <row r="499" ht="15.75" customHeight="1" s="191"/>
-    <row r="500" ht="15.75" customHeight="1" s="191"/>
-    <row r="501" ht="15.75" customHeight="1" s="191"/>
-    <row r="502" ht="15.75" customHeight="1" s="191"/>
-    <row r="503" ht="15.75" customHeight="1" s="191"/>
-    <row r="504" ht="15.75" customHeight="1" s="191"/>
-    <row r="505" ht="15.75" customHeight="1" s="191"/>
-    <row r="506" ht="15.75" customHeight="1" s="191"/>
-    <row r="507" ht="15.75" customHeight="1" s="191"/>
-    <row r="508" ht="15.75" customHeight="1" s="191"/>
-    <row r="509" ht="15.75" customHeight="1" s="191"/>
-    <row r="510" ht="15.75" customHeight="1" s="191"/>
-    <row r="511" ht="15.75" customHeight="1" s="191"/>
-    <row r="512" ht="15.75" customHeight="1" s="191"/>
-    <row r="513" ht="15.75" customHeight="1" s="191"/>
-    <row r="514" ht="15.75" customHeight="1" s="191"/>
-    <row r="515" ht="15.75" customHeight="1" s="191"/>
-    <row r="516" ht="15.75" customHeight="1" s="191"/>
-    <row r="517" ht="15.75" customHeight="1" s="191"/>
-    <row r="518" ht="15.75" customHeight="1" s="191"/>
-    <row r="519" ht="15.75" customHeight="1" s="191"/>
-    <row r="520" ht="15.75" customHeight="1" s="191"/>
-    <row r="521" ht="15.75" customHeight="1" s="191"/>
-    <row r="522" ht="15.75" customHeight="1" s="191"/>
-    <row r="523" ht="15.75" customHeight="1" s="191"/>
-    <row r="524" ht="15.75" customHeight="1" s="191"/>
-    <row r="525" ht="15.75" customHeight="1" s="191"/>
-    <row r="526" ht="15.75" customHeight="1" s="191"/>
-    <row r="527" ht="15.75" customHeight="1" s="191"/>
-    <row r="528" ht="15.75" customHeight="1" s="191"/>
-    <row r="529" ht="15.75" customHeight="1" s="191"/>
-    <row r="530" ht="15.75" customHeight="1" s="191"/>
-    <row r="531" ht="15.75" customHeight="1" s="191"/>
-    <row r="532" ht="15.75" customHeight="1" s="191"/>
-    <row r="533" ht="15.75" customHeight="1" s="191"/>
-    <row r="534" ht="15.75" customHeight="1" s="191"/>
-    <row r="535" ht="15.75" customHeight="1" s="191"/>
-    <row r="536" ht="15.75" customHeight="1" s="191"/>
-    <row r="537" ht="15.75" customHeight="1" s="191"/>
-    <row r="538" ht="15.75" customHeight="1" s="191"/>
-    <row r="539" ht="15.75" customHeight="1" s="191"/>
-    <row r="540" ht="15.75" customHeight="1" s="191"/>
-    <row r="541" ht="15.75" customHeight="1" s="191"/>
-    <row r="542" ht="15.75" customHeight="1" s="191"/>
-    <row r="543" ht="15.75" customHeight="1" s="191"/>
-    <row r="544" ht="15.75" customHeight="1" s="191"/>
-    <row r="545" ht="15.75" customHeight="1" s="191"/>
-    <row r="546" ht="15.75" customHeight="1" s="191"/>
-    <row r="547" ht="15.75" customHeight="1" s="191"/>
-    <row r="548" ht="15.75" customHeight="1" s="191"/>
-    <row r="549" ht="15.75" customHeight="1" s="191"/>
-    <row r="550" ht="15.75" customHeight="1" s="191"/>
-    <row r="551" ht="15.75" customHeight="1" s="191"/>
-    <row r="552" ht="15.75" customHeight="1" s="191"/>
-    <row r="553" ht="15.75" customHeight="1" s="191"/>
-    <row r="554" ht="15.75" customHeight="1" s="191"/>
-    <row r="555" ht="15.75" customHeight="1" s="191"/>
-    <row r="556" ht="15.75" customHeight="1" s="191"/>
-    <row r="557" ht="15.75" customHeight="1" s="191"/>
-    <row r="558" ht="15.75" customHeight="1" s="191"/>
-    <row r="559" ht="15.75" customHeight="1" s="191"/>
-    <row r="560" ht="15.75" customHeight="1" s="191"/>
-    <row r="561" ht="15.75" customHeight="1" s="191"/>
-    <row r="562" ht="15.75" customHeight="1" s="191"/>
-    <row r="563" ht="15.75" customHeight="1" s="191"/>
-    <row r="564" ht="15.75" customHeight="1" s="191"/>
-    <row r="565" ht="15.75" customHeight="1" s="191"/>
-    <row r="566" ht="15.75" customHeight="1" s="191"/>
-    <row r="567" ht="15.75" customHeight="1" s="191"/>
-    <row r="568" ht="15.75" customHeight="1" s="191"/>
-    <row r="569" ht="15.75" customHeight="1" s="191"/>
-    <row r="570" ht="15.75" customHeight="1" s="191"/>
-    <row r="571" ht="15.75" customHeight="1" s="191"/>
-    <row r="572" ht="15.75" customHeight="1" s="191"/>
-    <row r="573" ht="15.75" customHeight="1" s="191"/>
-    <row r="574" ht="15.75" customHeight="1" s="191"/>
-    <row r="575" ht="15.75" customHeight="1" s="191"/>
-    <row r="576" ht="15.75" customHeight="1" s="191"/>
-    <row r="577" ht="15.75" customHeight="1" s="191"/>
-    <row r="578" ht="15.75" customHeight="1" s="191"/>
-    <row r="579" ht="15.75" customHeight="1" s="191"/>
-    <row r="580" ht="15.75" customHeight="1" s="191"/>
-    <row r="581" ht="15.75" customHeight="1" s="191"/>
-    <row r="582" ht="15.75" customHeight="1" s="191"/>
-    <row r="583" ht="15.75" customHeight="1" s="191"/>
-    <row r="584" ht="15.75" customHeight="1" s="191"/>
-    <row r="585" ht="15.75" customHeight="1" s="191"/>
-    <row r="586" ht="15.75" customHeight="1" s="191"/>
-    <row r="587" ht="15.75" customHeight="1" s="191"/>
-    <row r="588" ht="15.75" customHeight="1" s="191"/>
-    <row r="589" ht="15.75" customHeight="1" s="191"/>
-    <row r="590" ht="15.75" customHeight="1" s="191"/>
-    <row r="591" ht="15.75" customHeight="1" s="191"/>
-    <row r="592" ht="15.75" customHeight="1" s="191"/>
-    <row r="593" ht="15.75" customHeight="1" s="191"/>
-    <row r="594" ht="15.75" customHeight="1" s="191"/>
-    <row r="595" ht="15.75" customHeight="1" s="191"/>
-    <row r="596" ht="15.75" customHeight="1" s="191"/>
-    <row r="597" ht="15.75" customHeight="1" s="191"/>
-    <row r="598" ht="15.75" customHeight="1" s="191"/>
-    <row r="599" ht="15.75" customHeight="1" s="191"/>
-    <row r="600" ht="15.75" customHeight="1" s="191"/>
-    <row r="601" ht="15.75" customHeight="1" s="191"/>
-    <row r="602" ht="15.75" customHeight="1" s="191"/>
-    <row r="603" ht="15.75" customHeight="1" s="191"/>
-    <row r="604" ht="15.75" customHeight="1" s="191"/>
-    <row r="605" ht="15.75" customHeight="1" s="191"/>
-    <row r="606" ht="15.75" customHeight="1" s="191"/>
-    <row r="607" ht="15.75" customHeight="1" s="191"/>
-    <row r="608" ht="15.75" customHeight="1" s="191"/>
-    <row r="609" ht="15.75" customHeight="1" s="191"/>
-    <row r="610" ht="15.75" customHeight="1" s="191"/>
-    <row r="611" ht="15.75" customHeight="1" s="191"/>
-    <row r="612" ht="15.75" customHeight="1" s="191"/>
-    <row r="613" ht="15.75" customHeight="1" s="191"/>
-    <row r="614" ht="15.75" customHeight="1" s="191"/>
-    <row r="615" ht="15.75" customHeight="1" s="191"/>
-    <row r="616" ht="15.75" customHeight="1" s="191"/>
-    <row r="617" ht="15.75" customHeight="1" s="191"/>
-    <row r="618" ht="15.75" customHeight="1" s="191"/>
-    <row r="619" ht="15.75" customHeight="1" s="191"/>
-    <row r="620" ht="15.75" customHeight="1" s="191"/>
-    <row r="621" ht="15.75" customHeight="1" s="191"/>
-    <row r="622" ht="15.75" customHeight="1" s="191"/>
-    <row r="623" ht="15.75" customHeight="1" s="191"/>
-    <row r="624" ht="15.75" customHeight="1" s="191"/>
-    <row r="625" ht="15.75" customHeight="1" s="191"/>
-    <row r="626" ht="15.75" customHeight="1" s="191"/>
-    <row r="627" ht="15.75" customHeight="1" s="191"/>
-    <row r="628" ht="15.75" customHeight="1" s="191"/>
-    <row r="629" ht="15.75" customHeight="1" s="191"/>
-    <row r="630" ht="15.75" customHeight="1" s="191"/>
-    <row r="631" ht="15.75" customHeight="1" s="191"/>
-    <row r="632" ht="15.75" customHeight="1" s="191"/>
-    <row r="633" ht="15.75" customHeight="1" s="191"/>
-    <row r="634" ht="15.75" customHeight="1" s="191"/>
-    <row r="635" ht="15.75" customHeight="1" s="191"/>
-    <row r="636" ht="15.75" customHeight="1" s="191"/>
-    <row r="637" ht="15.75" customHeight="1" s="191"/>
-    <row r="638" ht="15.75" customHeight="1" s="191"/>
-    <row r="639" ht="15.75" customHeight="1" s="191"/>
-    <row r="640" ht="15.75" customHeight="1" s="191"/>
-    <row r="641" ht="15.75" customHeight="1" s="191"/>
-    <row r="642" ht="15.75" customHeight="1" s="191"/>
-    <row r="643" ht="15.75" customHeight="1" s="191"/>
-    <row r="644" ht="15.75" customHeight="1" s="191"/>
-    <row r="645" ht="15.75" customHeight="1" s="191"/>
-    <row r="646" ht="15.75" customHeight="1" s="191"/>
-    <row r="647" ht="15.75" customHeight="1" s="191"/>
-    <row r="648" ht="15.75" customHeight="1" s="191"/>
-    <row r="649" ht="15.75" customHeight="1" s="191"/>
-    <row r="650" ht="15.75" customHeight="1" s="191"/>
-    <row r="651" ht="15.75" customHeight="1" s="191"/>
-    <row r="652" ht="15.75" customHeight="1" s="191"/>
-    <row r="653" ht="15.75" customHeight="1" s="191"/>
-    <row r="654" ht="15.75" customHeight="1" s="191"/>
-    <row r="655" ht="15.75" customHeight="1" s="191"/>
-    <row r="656" ht="15.75" customHeight="1" s="191"/>
-    <row r="657" ht="15.75" customHeight="1" s="191"/>
-    <row r="658" ht="15.75" customHeight="1" s="191"/>
-    <row r="659" ht="15.75" customHeight="1" s="191"/>
-    <row r="660" ht="15.75" customHeight="1" s="191"/>
-    <row r="661" ht="15.75" customHeight="1" s="191"/>
-    <row r="662" ht="15.75" customHeight="1" s="191"/>
-    <row r="663" ht="15.75" customHeight="1" s="191"/>
-    <row r="664" ht="15.75" customHeight="1" s="191"/>
-    <row r="665" ht="15.75" customHeight="1" s="191"/>
-    <row r="666" ht="15.75" customHeight="1" s="191"/>
-    <row r="667" ht="15.75" customHeight="1" s="191"/>
-    <row r="668" ht="15.75" customHeight="1" s="191"/>
-    <row r="669" ht="15.75" customHeight="1" s="191"/>
-    <row r="670" ht="15.75" customHeight="1" s="191"/>
-    <row r="671" ht="15.75" customHeight="1" s="191"/>
-    <row r="672" ht="15.75" customHeight="1" s="191"/>
-    <row r="673" ht="15.75" customHeight="1" s="191"/>
-    <row r="674" ht="15.75" customHeight="1" s="191"/>
-    <row r="675" ht="15.75" customHeight="1" s="191"/>
-    <row r="676" ht="15.75" customHeight="1" s="191"/>
-    <row r="677" ht="15.75" customHeight="1" s="191"/>
-    <row r="678" ht="15.75" customHeight="1" s="191"/>
-    <row r="679" ht="15.75" customHeight="1" s="191"/>
-    <row r="680" ht="15.75" customHeight="1" s="191"/>
-    <row r="681" ht="15.75" customHeight="1" s="191"/>
-    <row r="682" ht="15.75" customHeight="1" s="191"/>
-    <row r="683" ht="15.75" customHeight="1" s="191"/>
-    <row r="684" ht="15.75" customHeight="1" s="191"/>
-    <row r="685" ht="15.75" customHeight="1" s="191"/>
-    <row r="686" ht="15.75" customHeight="1" s="191"/>
-    <row r="687" ht="15.75" customHeight="1" s="191"/>
-    <row r="688" ht="15.75" customHeight="1" s="191"/>
-    <row r="689" ht="15.75" customHeight="1" s="191"/>
-    <row r="690" ht="15.75" customHeight="1" s="191"/>
-    <row r="691" ht="15.75" customHeight="1" s="191"/>
-    <row r="692" ht="15.75" customHeight="1" s="191"/>
-    <row r="693" ht="15.75" customHeight="1" s="191"/>
-    <row r="694" ht="15.75" customHeight="1" s="191"/>
-    <row r="695" ht="15.75" customHeight="1" s="191"/>
-    <row r="696" ht="15.75" customHeight="1" s="191"/>
-    <row r="697" ht="15.75" customHeight="1" s="191"/>
-    <row r="698" ht="15.75" customHeight="1" s="191"/>
-    <row r="699" ht="15.75" customHeight="1" s="191"/>
-    <row r="700" ht="15.75" customHeight="1" s="191"/>
-    <row r="701" ht="15.75" customHeight="1" s="191"/>
-    <row r="702" ht="15.75" customHeight="1" s="191"/>
-    <row r="703" ht="15.75" customHeight="1" s="191"/>
-    <row r="704" ht="15.75" customHeight="1" s="191"/>
-    <row r="705" ht="15.75" customHeight="1" s="191"/>
-    <row r="706" ht="15.75" customHeight="1" s="191"/>
-    <row r="707" ht="15.75" customHeight="1" s="191"/>
-    <row r="708" ht="15.75" customHeight="1" s="191"/>
-    <row r="709" ht="15.75" customHeight="1" s="191"/>
-    <row r="710" ht="15.75" customHeight="1" s="191"/>
-    <row r="711" ht="15.75" customHeight="1" s="191"/>
-    <row r="712" ht="15.75" customHeight="1" s="191"/>
-    <row r="713" ht="15.75" customHeight="1" s="191"/>
-    <row r="714" ht="15.75" customHeight="1" s="191"/>
-    <row r="715" ht="15.75" customHeight="1" s="191"/>
-    <row r="716" ht="15.75" customHeight="1" s="191"/>
-    <row r="717" ht="15.75" customHeight="1" s="191"/>
-    <row r="718" ht="15.75" customHeight="1" s="191"/>
-    <row r="719" ht="15.75" customHeight="1" s="191"/>
-    <row r="720" ht="15.75" customHeight="1" s="191"/>
-    <row r="721" ht="15.75" customHeight="1" s="191"/>
-    <row r="722" ht="15.75" customHeight="1" s="191"/>
-    <row r="723" ht="15.75" customHeight="1" s="191"/>
-    <row r="724" ht="15.75" customHeight="1" s="191"/>
-    <row r="725" ht="15.75" customHeight="1" s="191"/>
-    <row r="726" ht="15.75" customHeight="1" s="191"/>
-    <row r="727" ht="15.75" customHeight="1" s="191"/>
-    <row r="728" ht="15.75" customHeight="1" s="191"/>
-    <row r="729" ht="15.75" customHeight="1" s="191"/>
-    <row r="730" ht="15.75" customHeight="1" s="191"/>
-    <row r="731" ht="15.75" customHeight="1" s="191"/>
-    <row r="732" ht="15.75" customHeight="1" s="191"/>
-    <row r="733" ht="15.75" customHeight="1" s="191"/>
-    <row r="734" ht="15.75" customHeight="1" s="191"/>
-    <row r="735" ht="15.75" customHeight="1" s="191"/>
-    <row r="736" ht="15.75" customHeight="1" s="191"/>
-    <row r="737" ht="15.75" customHeight="1" s="191"/>
-    <row r="738" ht="15.75" customHeight="1" s="191"/>
-    <row r="739" ht="15.75" customHeight="1" s="191"/>
-    <row r="740" ht="15.75" customHeight="1" s="191"/>
-    <row r="741" ht="15.75" customHeight="1" s="191"/>
-    <row r="742" ht="15.75" customHeight="1" s="191"/>
-    <row r="743" ht="15.75" customHeight="1" s="191"/>
-    <row r="744" ht="15.75" customHeight="1" s="191"/>
-    <row r="745" ht="15.75" customHeight="1" s="191"/>
-    <row r="746" ht="15.75" customHeight="1" s="191"/>
-    <row r="747" ht="15.75" customHeight="1" s="191"/>
-    <row r="748" ht="15.75" customHeight="1" s="191"/>
-    <row r="749" ht="15.75" customHeight="1" s="191"/>
-    <row r="750" ht="15.75" customHeight="1" s="191"/>
-    <row r="751" ht="15.75" customHeight="1" s="191"/>
-    <row r="752" ht="15.75" customHeight="1" s="191"/>
-    <row r="753" ht="15.75" customHeight="1" s="191"/>
-    <row r="754" ht="15.75" customHeight="1" s="191"/>
-    <row r="755" ht="15.75" customHeight="1" s="191"/>
-    <row r="756" ht="15.75" customHeight="1" s="191"/>
-    <row r="757" ht="15.75" customHeight="1" s="191"/>
-    <row r="758" ht="15.75" customHeight="1" s="191"/>
-    <row r="759" ht="15.75" customHeight="1" s="191"/>
-    <row r="760" ht="15.75" customHeight="1" s="191"/>
-    <row r="761" ht="15.75" customHeight="1" s="191"/>
-    <row r="762" ht="15.75" customHeight="1" s="191"/>
-    <row r="763" ht="15.75" customHeight="1" s="191"/>
-    <row r="764" ht="15.75" customHeight="1" s="191"/>
-    <row r="765" ht="15.75" customHeight="1" s="191"/>
-    <row r="766" ht="15.75" customHeight="1" s="191"/>
-    <row r="767" ht="15.75" customHeight="1" s="191"/>
-    <row r="768" ht="15.75" customHeight="1" s="191"/>
-    <row r="769" ht="15.75" customHeight="1" s="191"/>
-    <row r="770" ht="15.75" customHeight="1" s="191"/>
-    <row r="771" ht="15.75" customHeight="1" s="191"/>
-    <row r="772" ht="15.75" customHeight="1" s="191"/>
-    <row r="773" ht="15.75" customHeight="1" s="191"/>
-    <row r="774" ht="15.75" customHeight="1" s="191"/>
-    <row r="775" ht="15.75" customHeight="1" s="191"/>
-    <row r="776" ht="15.75" customHeight="1" s="191"/>
-    <row r="777" ht="15.75" customHeight="1" s="191"/>
-    <row r="778" ht="15.75" customHeight="1" s="191"/>
-    <row r="779" ht="15.75" customHeight="1" s="191"/>
-    <row r="780" ht="15.75" customHeight="1" s="191"/>
-    <row r="781" ht="15.75" customHeight="1" s="191"/>
-    <row r="782" ht="15.75" customHeight="1" s="191"/>
-    <row r="783" ht="15.75" customHeight="1" s="191"/>
-    <row r="784" ht="15.75" customHeight="1" s="191"/>
-    <row r="785" ht="15.75" customHeight="1" s="191"/>
-    <row r="786" ht="15.75" customHeight="1" s="191"/>
-    <row r="787" ht="15.75" customHeight="1" s="191"/>
-    <row r="788" ht="15.75" customHeight="1" s="191"/>
-    <row r="789" ht="15.75" customHeight="1" s="191"/>
-    <row r="790" ht="15.75" customHeight="1" s="191"/>
-    <row r="791" ht="15.75" customHeight="1" s="191"/>
-    <row r="792" ht="15.75" customHeight="1" s="191"/>
-    <row r="793" ht="15.75" customHeight="1" s="191"/>
-    <row r="794" ht="15.75" customHeight="1" s="191"/>
-    <row r="795" ht="15.75" customHeight="1" s="191"/>
-    <row r="796" ht="15.75" customHeight="1" s="191"/>
-    <row r="797" ht="15.75" customHeight="1" s="191"/>
-    <row r="798" ht="15.75" customHeight="1" s="191"/>
-    <row r="799" ht="15.75" customHeight="1" s="191"/>
-    <row r="800" ht="15.75" customHeight="1" s="191"/>
-    <row r="801" ht="15.75" customHeight="1" s="191"/>
-    <row r="802" ht="15.75" customHeight="1" s="191"/>
-    <row r="803" ht="15.75" customHeight="1" s="191"/>
-    <row r="804" ht="15.75" customHeight="1" s="191"/>
-    <row r="805" ht="15.75" customHeight="1" s="191"/>
-    <row r="806" ht="15.75" customHeight="1" s="191"/>
-    <row r="807" ht="15.75" customHeight="1" s="191"/>
-    <row r="808" ht="15.75" customHeight="1" s="191"/>
-    <row r="809" ht="15.75" customHeight="1" s="191"/>
-    <row r="810" ht="15.75" customHeight="1" s="191"/>
-    <row r="811" ht="15.75" customHeight="1" s="191"/>
-    <row r="812" ht="15.75" customHeight="1" s="191"/>
-    <row r="813" ht="15.75" customHeight="1" s="191"/>
-    <row r="814" ht="15.75" customHeight="1" s="191"/>
-    <row r="815" ht="15.75" customHeight="1" s="191"/>
-    <row r="816" ht="15.75" customHeight="1" s="191"/>
-    <row r="817" ht="15.75" customHeight="1" s="191"/>
-    <row r="818" ht="15.75" customHeight="1" s="191"/>
-    <row r="819" ht="15.75" customHeight="1" s="191"/>
-    <row r="820" ht="15.75" customHeight="1" s="191"/>
-    <row r="821" ht="15.75" customHeight="1" s="191"/>
-    <row r="822" ht="15.75" customHeight="1" s="191"/>
-    <row r="823" ht="15.75" customHeight="1" s="191"/>
-    <row r="824" ht="15.75" customHeight="1" s="191"/>
-    <row r="825" ht="15.75" customHeight="1" s="191"/>
-    <row r="826" ht="15.75" customHeight="1" s="191"/>
-    <row r="827" ht="15.75" customHeight="1" s="191"/>
-    <row r="828" ht="15.75" customHeight="1" s="191"/>
-    <row r="829" ht="15.75" customHeight="1" s="191"/>
-    <row r="830" ht="15.75" customHeight="1" s="191"/>
-    <row r="831" ht="15.75" customHeight="1" s="191"/>
-    <row r="832" ht="15.75" customHeight="1" s="191"/>
-    <row r="833" ht="15.75" customHeight="1" s="191"/>
-    <row r="834" ht="15.75" customHeight="1" s="191"/>
-    <row r="835" ht="15.75" customHeight="1" s="191"/>
-    <row r="836" ht="15.75" customHeight="1" s="191"/>
-    <row r="837" ht="15.75" customHeight="1" s="191"/>
-    <row r="838" ht="15.75" customHeight="1" s="191"/>
-    <row r="839" ht="15.75" customHeight="1" s="191"/>
-    <row r="840" ht="15.75" customHeight="1" s="191"/>
-    <row r="841" ht="15.75" customHeight="1" s="191"/>
-    <row r="842" ht="15.75" customHeight="1" s="191"/>
-    <row r="843" ht="15.75" customHeight="1" s="191"/>
-    <row r="844" ht="15.75" customHeight="1" s="191"/>
-    <row r="845" ht="15.75" customHeight="1" s="191"/>
-    <row r="846" ht="15.75" customHeight="1" s="191"/>
-    <row r="847" ht="15.75" customHeight="1" s="191"/>
-    <row r="848" ht="15.75" customHeight="1" s="191"/>
-    <row r="849" ht="15.75" customHeight="1" s="191"/>
-    <row r="850" ht="15.75" customHeight="1" s="191"/>
-    <row r="851" ht="15.75" customHeight="1" s="191"/>
-    <row r="852" ht="15.75" customHeight="1" s="191"/>
-    <row r="853" ht="15.75" customHeight="1" s="191"/>
-    <row r="854" ht="15.75" customHeight="1" s="191"/>
-    <row r="855" ht="15.75" customHeight="1" s="191"/>
-    <row r="856" ht="15.75" customHeight="1" s="191"/>
-    <row r="857" ht="15.75" customHeight="1" s="191"/>
-    <row r="858" ht="15.75" customHeight="1" s="191"/>
-    <row r="859" ht="15.75" customHeight="1" s="191"/>
-    <row r="860" ht="15.75" customHeight="1" s="191"/>
-    <row r="861" ht="15.75" customHeight="1" s="191"/>
-    <row r="862" ht="15.75" customHeight="1" s="191"/>
-    <row r="863" ht="15.75" customHeight="1" s="191"/>
-    <row r="864" ht="15.75" customHeight="1" s="191"/>
-    <row r="865" ht="15.75" customHeight="1" s="191"/>
-    <row r="866" ht="15.75" customHeight="1" s="191"/>
-    <row r="867" ht="15.75" customHeight="1" s="191"/>
-    <row r="868" ht="15.75" customHeight="1" s="191"/>
-    <row r="869" ht="15.75" customHeight="1" s="191"/>
-    <row r="870" ht="15.75" customHeight="1" s="191"/>
-    <row r="871" ht="15.75" customHeight="1" s="191"/>
-    <row r="872" ht="15.75" customHeight="1" s="191"/>
-    <row r="873" ht="15.75" customHeight="1" s="191"/>
-    <row r="874" ht="15.75" customHeight="1" s="191"/>
-    <row r="875" ht="15.75" customHeight="1" s="191"/>
-    <row r="876" ht="15.75" customHeight="1" s="191"/>
-    <row r="877" ht="15.75" customHeight="1" s="191"/>
-    <row r="878" ht="15.75" customHeight="1" s="191"/>
-    <row r="879" ht="15.75" customHeight="1" s="191"/>
-    <row r="880" ht="15.75" customHeight="1" s="191"/>
-    <row r="881" ht="15.75" customHeight="1" s="191"/>
-    <row r="882" ht="15.75" customHeight="1" s="191"/>
-    <row r="883" ht="15.75" customHeight="1" s="191"/>
-    <row r="884" ht="15.75" customHeight="1" s="191"/>
-    <row r="885" ht="15.75" customHeight="1" s="191"/>
-    <row r="886" ht="15.75" customHeight="1" s="191"/>
-    <row r="887" ht="15.75" customHeight="1" s="191"/>
-    <row r="888" ht="15.75" customHeight="1" s="191"/>
-    <row r="889" ht="15.75" customHeight="1" s="191"/>
-    <row r="890" ht="15.75" customHeight="1" s="191"/>
-    <row r="891" ht="15.75" customHeight="1" s="191"/>
-    <row r="892" ht="15.75" customHeight="1" s="191"/>
-    <row r="893" ht="15.75" customHeight="1" s="191"/>
-    <row r="894" ht="15.75" customHeight="1" s="191"/>
-    <row r="895" ht="15.75" customHeight="1" s="191"/>
-    <row r="896" ht="15.75" customHeight="1" s="191"/>
-    <row r="897" ht="15.75" customHeight="1" s="191"/>
-    <row r="898" ht="15.75" customHeight="1" s="191"/>
-    <row r="899" ht="15.75" customHeight="1" s="191"/>
-    <row r="900" ht="15.75" customHeight="1" s="191"/>
-    <row r="901" ht="15.75" customHeight="1" s="191"/>
-    <row r="902" ht="15.75" customHeight="1" s="191"/>
-    <row r="903" ht="15.75" customHeight="1" s="191"/>
-    <row r="904" ht="15.75" customHeight="1" s="191"/>
-    <row r="905" ht="15.75" customHeight="1" s="191"/>
-    <row r="906" ht="15.75" customHeight="1" s="191"/>
-    <row r="907" ht="15.75" customHeight="1" s="191"/>
-    <row r="908" ht="15.75" customHeight="1" s="191"/>
-    <row r="909" ht="15.75" customHeight="1" s="191"/>
-    <row r="910" ht="15.75" customHeight="1" s="191"/>
-    <row r="911" ht="15.75" customHeight="1" s="191"/>
-    <row r="912" ht="15.75" customHeight="1" s="191"/>
-    <row r="913" ht="15.75" customHeight="1" s="191"/>
-    <row r="914" ht="15.75" customHeight="1" s="191"/>
-    <row r="915" ht="15.75" customHeight="1" s="191"/>
-    <row r="916" ht="15.75" customHeight="1" s="191"/>
-    <row r="917" ht="15.75" customHeight="1" s="191"/>
-    <row r="918" ht="15.75" customHeight="1" s="191"/>
-    <row r="919" ht="15.75" customHeight="1" s="191"/>
-    <row r="920" ht="15.75" customHeight="1" s="191"/>
-    <row r="921" ht="15.75" customHeight="1" s="191"/>
-    <row r="922" ht="15.75" customHeight="1" s="191"/>
-    <row r="923" ht="15.75" customHeight="1" s="191"/>
-    <row r="924" ht="15.75" customHeight="1" s="191"/>
-    <row r="925" ht="15.75" customHeight="1" s="191"/>
-    <row r="926" ht="15.75" customHeight="1" s="191"/>
-    <row r="927" ht="15.75" customHeight="1" s="191"/>
-    <row r="928" ht="15.75" customHeight="1" s="191"/>
-    <row r="929" ht="15.75" customHeight="1" s="191"/>
-    <row r="930" ht="15.75" customHeight="1" s="191"/>
-    <row r="931" ht="15.75" customHeight="1" s="191"/>
-    <row r="932" ht="15.75" customHeight="1" s="191"/>
-    <row r="933" ht="15.75" customHeight="1" s="191"/>
-    <row r="934" ht="15.75" customHeight="1" s="191"/>
-    <row r="935" ht="15.75" customHeight="1" s="191"/>
-    <row r="936" ht="15.75" customHeight="1" s="191"/>
-    <row r="937" ht="15.75" customHeight="1" s="191"/>
-    <row r="938" ht="15.75" customHeight="1" s="191"/>
-    <row r="939" ht="15.75" customHeight="1" s="191"/>
-    <row r="940" ht="15.75" customHeight="1" s="191"/>
-    <row r="941" ht="15.75" customHeight="1" s="191"/>
-    <row r="942" ht="15.75" customHeight="1" s="191"/>
-    <row r="943" ht="15.75" customHeight="1" s="191"/>
-    <row r="944" ht="15.75" customHeight="1" s="191"/>
-    <row r="945" ht="15.75" customHeight="1" s="191"/>
-    <row r="946" ht="15.75" customHeight="1" s="191"/>
-    <row r="947" ht="15.75" customHeight="1" s="191"/>
-    <row r="948" ht="15.75" customHeight="1" s="191"/>
-    <row r="949" ht="15.75" customHeight="1" s="191"/>
-    <row r="950" ht="15.75" customHeight="1" s="191"/>
-    <row r="951" ht="15.75" customHeight="1" s="191"/>
-    <row r="952" ht="15.75" customHeight="1" s="191"/>
-    <row r="953" ht="15.75" customHeight="1" s="191"/>
-    <row r="954" ht="15.75" customHeight="1" s="191"/>
-    <row r="955" ht="15.75" customHeight="1" s="191"/>
-    <row r="956" ht="15.75" customHeight="1" s="191"/>
-    <row r="957" ht="15.75" customHeight="1" s="191"/>
-    <row r="958" ht="15.75" customHeight="1" s="191"/>
-    <row r="959" ht="15.75" customHeight="1" s="191"/>
-    <row r="960" ht="15.75" customHeight="1" s="191"/>
-    <row r="961" ht="15.75" customHeight="1" s="191"/>
-    <row r="962" ht="15.75" customHeight="1" s="191"/>
-    <row r="963" ht="15.75" customHeight="1" s="191"/>
-    <row r="964" ht="15.75" customHeight="1" s="191"/>
-    <row r="965" ht="15.75" customHeight="1" s="191"/>
-    <row r="966" ht="15.75" customHeight="1" s="191"/>
-    <row r="967" ht="15.75" customHeight="1" s="191"/>
-    <row r="968" ht="15.75" customHeight="1" s="191"/>
-    <row r="969" ht="15.75" customHeight="1" s="191"/>
-    <row r="970" ht="15.75" customHeight="1" s="191"/>
-    <row r="971" ht="15.75" customHeight="1" s="191"/>
-    <row r="972" ht="15.75" customHeight="1" s="191"/>
-    <row r="973" ht="15.75" customHeight="1" s="191"/>
-    <row r="974" ht="15.75" customHeight="1" s="191"/>
-    <row r="975" ht="15.75" customHeight="1" s="191"/>
-    <row r="976" ht="15.75" customHeight="1" s="191"/>
-    <row r="977" ht="15.75" customHeight="1" s="191"/>
-    <row r="978" ht="15.75" customHeight="1" s="191"/>
-    <row r="979" ht="15.75" customHeight="1" s="191"/>
-    <row r="980" ht="15.75" customHeight="1" s="191"/>
-    <row r="981" ht="15.75" customHeight="1" s="191"/>
-    <row r="982" ht="15.75" customHeight="1" s="191"/>
-    <row r="983" ht="15.75" customHeight="1" s="191"/>
-    <row r="984" ht="15.75" customHeight="1" s="191"/>
-    <row r="985" ht="15.75" customHeight="1" s="191"/>
-    <row r="986" ht="15.75" customHeight="1" s="191"/>
-    <row r="987" ht="15.75" customHeight="1" s="191"/>
-    <row r="988" ht="15.75" customHeight="1" s="191"/>
-    <row r="989" ht="15.75" customHeight="1" s="191"/>
-    <row r="990" ht="15.75" customHeight="1" s="191"/>
-    <row r="991" ht="15.75" customHeight="1" s="191"/>
-    <row r="992" ht="15.75" customHeight="1" s="191"/>
-    <row r="993" ht="15.75" customHeight="1" s="191"/>
-    <row r="994" ht="15.75" customHeight="1" s="191"/>
-    <row r="995" ht="15.75" customHeight="1" s="191"/>
-    <row r="996" ht="15.75" customHeight="1" s="191"/>
-    <row r="997" ht="15.75" customHeight="1" s="191"/>
-    <row r="998" ht="15.75" customHeight="1" s="191"/>
-    <row r="999" ht="15.75" customHeight="1" s="191"/>
-    <row r="1000" ht="15.75" customHeight="1" s="191"/>
+      <c r="D65" s="225" t="n"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1" s="202"/>
+    <row r="67" ht="15.75" customHeight="1" s="202"/>
+    <row r="68" ht="15.75" customHeight="1" s="202"/>
+    <row r="69" ht="15.75" customHeight="1" s="202"/>
+    <row r="70" ht="15.75" customHeight="1" s="202"/>
+    <row r="71" ht="15.75" customHeight="1" s="202"/>
+    <row r="72" ht="15.75" customHeight="1" s="202"/>
+    <row r="73" ht="15.75" customHeight="1" s="202"/>
+    <row r="74" ht="15.75" customHeight="1" s="202"/>
+    <row r="75" ht="15.75" customHeight="1" s="202"/>
+    <row r="76" ht="15.75" customHeight="1" s="202"/>
+    <row r="77" ht="15.75" customHeight="1" s="202"/>
+    <row r="78" ht="15.75" customHeight="1" s="202"/>
+    <row r="79" ht="15.75" customHeight="1" s="202"/>
+    <row r="80" ht="15.75" customHeight="1" s="202"/>
+    <row r="81" ht="15.75" customHeight="1" s="202"/>
+    <row r="82" ht="15.75" customHeight="1" s="202"/>
+    <row r="83" ht="15.75" customHeight="1" s="202"/>
+    <row r="84" ht="15.75" customHeight="1" s="202"/>
+    <row r="85" ht="15.75" customHeight="1" s="202"/>
+    <row r="86" ht="15.75" customHeight="1" s="202"/>
+    <row r="87" ht="15.75" customHeight="1" s="202"/>
+    <row r="88" ht="15.75" customHeight="1" s="202"/>
+    <row r="89" ht="15.75" customHeight="1" s="202"/>
+    <row r="90" ht="15.75" customHeight="1" s="202"/>
+    <row r="91" ht="15.75" customHeight="1" s="202"/>
+    <row r="92" ht="15.75" customHeight="1" s="202"/>
+    <row r="93" ht="15.75" customHeight="1" s="202"/>
+    <row r="94" ht="15.75" customHeight="1" s="202"/>
+    <row r="95" ht="15.75" customHeight="1" s="202"/>
+    <row r="96" ht="15.75" customHeight="1" s="202"/>
+    <row r="97" ht="15.75" customHeight="1" s="202"/>
+    <row r="98" ht="15.75" customHeight="1" s="202"/>
+    <row r="99" ht="15.75" customHeight="1" s="202"/>
+    <row r="100" ht="15.75" customHeight="1" s="202"/>
+    <row r="101" ht="15.75" customHeight="1" s="202"/>
+    <row r="102" ht="15.75" customHeight="1" s="202"/>
+    <row r="103" ht="15.75" customHeight="1" s="202"/>
+    <row r="104" ht="15.75" customHeight="1" s="202"/>
+    <row r="105" ht="15.75" customHeight="1" s="202"/>
+    <row r="106" ht="15.75" customHeight="1" s="202"/>
+    <row r="107" ht="15.75" customHeight="1" s="202"/>
+    <row r="108" ht="15.75" customHeight="1" s="202"/>
+    <row r="109" ht="15.75" customHeight="1" s="202"/>
+    <row r="110" ht="15.75" customHeight="1" s="202"/>
+    <row r="111" ht="15.75" customHeight="1" s="202"/>
+    <row r="112" ht="15.75" customHeight="1" s="202"/>
+    <row r="113" ht="15.75" customHeight="1" s="202"/>
+    <row r="114" ht="15.75" customHeight="1" s="202"/>
+    <row r="115" ht="15.75" customHeight="1" s="202"/>
+    <row r="116" ht="15.75" customHeight="1" s="202"/>
+    <row r="117" ht="15.75" customHeight="1" s="202"/>
+    <row r="118" ht="15.75" customHeight="1" s="202"/>
+    <row r="119" ht="15.75" customHeight="1" s="202"/>
+    <row r="120" ht="15.75" customHeight="1" s="202"/>
+    <row r="121" ht="15.75" customHeight="1" s="202"/>
+    <row r="122" ht="15.75" customHeight="1" s="202"/>
+    <row r="123" ht="15.75" customHeight="1" s="202"/>
+    <row r="124" ht="15.75" customHeight="1" s="202"/>
+    <row r="125" ht="15.75" customHeight="1" s="202"/>
+    <row r="126" ht="15.75" customHeight="1" s="202"/>
+    <row r="127" ht="15.75" customHeight="1" s="202"/>
+    <row r="128" ht="15.75" customHeight="1" s="202"/>
+    <row r="129" ht="15.75" customHeight="1" s="202"/>
+    <row r="130" ht="15.75" customHeight="1" s="202"/>
+    <row r="131" ht="15.75" customHeight="1" s="202"/>
+    <row r="132" ht="15.75" customHeight="1" s="202"/>
+    <row r="133" ht="15.75" customHeight="1" s="202"/>
+    <row r="134" ht="15.75" customHeight="1" s="202"/>
+    <row r="135" ht="15.75" customHeight="1" s="202"/>
+    <row r="136" ht="15.75" customHeight="1" s="202"/>
+    <row r="137" ht="15.75" customHeight="1" s="202"/>
+    <row r="138" ht="15.75" customHeight="1" s="202"/>
+    <row r="139" ht="15.75" customHeight="1" s="202"/>
+    <row r="140" ht="15.75" customHeight="1" s="202"/>
+    <row r="141" ht="15.75" customHeight="1" s="202"/>
+    <row r="142" ht="15.75" customHeight="1" s="202"/>
+    <row r="143" ht="15.75" customHeight="1" s="202"/>
+    <row r="144" ht="15.75" customHeight="1" s="202"/>
+    <row r="145" ht="15.75" customHeight="1" s="202"/>
+    <row r="146" ht="15.75" customHeight="1" s="202"/>
+    <row r="147" ht="15.75" customHeight="1" s="202"/>
+    <row r="148" ht="15.75" customHeight="1" s="202"/>
+    <row r="149" ht="15.75" customHeight="1" s="202"/>
+    <row r="150" ht="15.75" customHeight="1" s="202"/>
+    <row r="151" ht="15.75" customHeight="1" s="202"/>
+    <row r="152" ht="15.75" customHeight="1" s="202"/>
+    <row r="153" ht="15.75" customHeight="1" s="202"/>
+    <row r="154" ht="15.75" customHeight="1" s="202"/>
+    <row r="155" ht="15.75" customHeight="1" s="202"/>
+    <row r="156" ht="15.75" customHeight="1" s="202"/>
+    <row r="157" ht="15.75" customHeight="1" s="202"/>
+    <row r="158" ht="15.75" customHeight="1" s="202"/>
+    <row r="159" ht="15.75" customHeight="1" s="202"/>
+    <row r="160" ht="15.75" customHeight="1" s="202"/>
+    <row r="161" ht="15.75" customHeight="1" s="202"/>
+    <row r="162" ht="15.75" customHeight="1" s="202"/>
+    <row r="163" ht="15.75" customHeight="1" s="202"/>
+    <row r="164" ht="15.75" customHeight="1" s="202"/>
+    <row r="165" ht="15.75" customHeight="1" s="202"/>
+    <row r="166" ht="15.75" customHeight="1" s="202"/>
+    <row r="167" ht="15.75" customHeight="1" s="202"/>
+    <row r="168" ht="15.75" customHeight="1" s="202"/>
+    <row r="169" ht="15.75" customHeight="1" s="202"/>
+    <row r="170" ht="15.75" customHeight="1" s="202"/>
+    <row r="171" ht="15.75" customHeight="1" s="202"/>
+    <row r="172" ht="15.75" customHeight="1" s="202"/>
+    <row r="173" ht="15.75" customHeight="1" s="202"/>
+    <row r="174" ht="15.75" customHeight="1" s="202"/>
+    <row r="175" ht="15.75" customHeight="1" s="202"/>
+    <row r="176" ht="15.75" customHeight="1" s="202"/>
+    <row r="177" ht="15.75" customHeight="1" s="202"/>
+    <row r="178" ht="15.75" customHeight="1" s="202"/>
+    <row r="179" ht="15.75" customHeight="1" s="202"/>
+    <row r="180" ht="15.75" customHeight="1" s="202"/>
+    <row r="181" ht="15.75" customHeight="1" s="202"/>
+    <row r="182" ht="15.75" customHeight="1" s="202"/>
+    <row r="183" ht="15.75" customHeight="1" s="202"/>
+    <row r="184" ht="15.75" customHeight="1" s="202"/>
+    <row r="185" ht="15.75" customHeight="1" s="202"/>
+    <row r="186" ht="15.75" customHeight="1" s="202"/>
+    <row r="187" ht="15.75" customHeight="1" s="202"/>
+    <row r="188" ht="15.75" customHeight="1" s="202"/>
+    <row r="189" ht="15.75" customHeight="1" s="202"/>
+    <row r="190" ht="15.75" customHeight="1" s="202"/>
+    <row r="191" ht="15.75" customHeight="1" s="202"/>
+    <row r="192" ht="15.75" customHeight="1" s="202"/>
+    <row r="193" ht="15.75" customHeight="1" s="202"/>
+    <row r="194" ht="15.75" customHeight="1" s="202"/>
+    <row r="195" ht="15.75" customHeight="1" s="202"/>
+    <row r="196" ht="15.75" customHeight="1" s="202"/>
+    <row r="197" ht="15.75" customHeight="1" s="202"/>
+    <row r="198" ht="15.75" customHeight="1" s="202"/>
+    <row r="199" ht="15.75" customHeight="1" s="202"/>
+    <row r="200" ht="15.75" customHeight="1" s="202"/>
+    <row r="201" ht="15.75" customHeight="1" s="202"/>
+    <row r="202" ht="15.75" customHeight="1" s="202"/>
+    <row r="203" ht="15.75" customHeight="1" s="202"/>
+    <row r="204" ht="15.75" customHeight="1" s="202"/>
+    <row r="205" ht="15.75" customHeight="1" s="202"/>
+    <row r="206" ht="15.75" customHeight="1" s="202"/>
+    <row r="207" ht="15.75" customHeight="1" s="202"/>
+    <row r="208" ht="15.75" customHeight="1" s="202"/>
+    <row r="209" ht="15.75" customHeight="1" s="202"/>
+    <row r="210" ht="15.75" customHeight="1" s="202"/>
+    <row r="211" ht="15.75" customHeight="1" s="202"/>
+    <row r="212" ht="15.75" customHeight="1" s="202"/>
+    <row r="213" ht="15.75" customHeight="1" s="202"/>
+    <row r="214" ht="15.75" customHeight="1" s="202"/>
+    <row r="215" ht="15.75" customHeight="1" s="202"/>
+    <row r="216" ht="15.75" customHeight="1" s="202"/>
+    <row r="217" ht="15.75" customHeight="1" s="202"/>
+    <row r="218" ht="15.75" customHeight="1" s="202"/>
+    <row r="219" ht="15.75" customHeight="1" s="202"/>
+    <row r="220" ht="15.75" customHeight="1" s="202"/>
+    <row r="221" ht="15.75" customHeight="1" s="202"/>
+    <row r="222" ht="15.75" customHeight="1" s="202"/>
+    <row r="223" ht="15.75" customHeight="1" s="202"/>
+    <row r="224" ht="15.75" customHeight="1" s="202"/>
+    <row r="225" ht="15.75" customHeight="1" s="202"/>
+    <row r="226" ht="15.75" customHeight="1" s="202"/>
+    <row r="227" ht="15.75" customHeight="1" s="202"/>
+    <row r="228" ht="15.75" customHeight="1" s="202"/>
+    <row r="229" ht="15.75" customHeight="1" s="202"/>
+    <row r="230" ht="15.75" customHeight="1" s="202"/>
+    <row r="231" ht="15.75" customHeight="1" s="202"/>
+    <row r="232" ht="15.75" customHeight="1" s="202"/>
+    <row r="233" ht="15.75" customHeight="1" s="202"/>
+    <row r="234" ht="15.75" customHeight="1" s="202"/>
+    <row r="235" ht="15.75" customHeight="1" s="202"/>
+    <row r="236" ht="15.75" customHeight="1" s="202"/>
+    <row r="237" ht="15.75" customHeight="1" s="202"/>
+    <row r="238" ht="15.75" customHeight="1" s="202"/>
+    <row r="239" ht="15.75" customHeight="1" s="202"/>
+    <row r="240" ht="15.75" customHeight="1" s="202"/>
+    <row r="241" ht="15.75" customHeight="1" s="202"/>
+    <row r="242" ht="15.75" customHeight="1" s="202"/>
+    <row r="243" ht="15.75" customHeight="1" s="202"/>
+    <row r="244" ht="15.75" customHeight="1" s="202"/>
+    <row r="245" ht="15.75" customHeight="1" s="202"/>
+    <row r="246" ht="15.75" customHeight="1" s="202"/>
+    <row r="247" ht="15.75" customHeight="1" s="202"/>
+    <row r="248" ht="15.75" customHeight="1" s="202"/>
+    <row r="249" ht="15.75" customHeight="1" s="202"/>
+    <row r="250" ht="15.75" customHeight="1" s="202"/>
+    <row r="251" ht="15.75" customHeight="1" s="202"/>
+    <row r="252" ht="15.75" customHeight="1" s="202"/>
+    <row r="253" ht="15.75" customHeight="1" s="202"/>
+    <row r="254" ht="15.75" customHeight="1" s="202"/>
+    <row r="255" ht="15.75" customHeight="1" s="202"/>
+    <row r="256" ht="15.75" customHeight="1" s="202"/>
+    <row r="257" ht="15.75" customHeight="1" s="202"/>
+    <row r="258" ht="15.75" customHeight="1" s="202"/>
+    <row r="259" ht="15.75" customHeight="1" s="202"/>
+    <row r="260" ht="15.75" customHeight="1" s="202"/>
+    <row r="261" ht="15.75" customHeight="1" s="202"/>
+    <row r="262" ht="15.75" customHeight="1" s="202"/>
+    <row r="263" ht="15.75" customHeight="1" s="202"/>
+    <row r="264" ht="15.75" customHeight="1" s="202"/>
+    <row r="265" ht="15.75" customHeight="1" s="202"/>
+    <row r="266" ht="15.75" customHeight="1" s="202"/>
+    <row r="267" ht="15.75" customHeight="1" s="202"/>
+    <row r="268" ht="15.75" customHeight="1" s="202"/>
+    <row r="269" ht="15.75" customHeight="1" s="202"/>
+    <row r="270" ht="15.75" customHeight="1" s="202"/>
+    <row r="271" ht="15.75" customHeight="1" s="202"/>
+    <row r="272" ht="15.75" customHeight="1" s="202"/>
+    <row r="273" ht="15.75" customHeight="1" s="202"/>
+    <row r="274" ht="15.75" customHeight="1" s="202"/>
+    <row r="275" ht="15.75" customHeight="1" s="202"/>
+    <row r="276" ht="15.75" customHeight="1" s="202"/>
+    <row r="277" ht="15.75" customHeight="1" s="202"/>
+    <row r="278" ht="15.75" customHeight="1" s="202"/>
+    <row r="279" ht="15.75" customHeight="1" s="202"/>
+    <row r="280" ht="15.75" customHeight="1" s="202"/>
+    <row r="281" ht="15.75" customHeight="1" s="202"/>
+    <row r="282" ht="15.75" customHeight="1" s="202"/>
+    <row r="283" ht="15.75" customHeight="1" s="202"/>
+    <row r="284" ht="15.75" customHeight="1" s="202"/>
+    <row r="285" ht="15.75" customHeight="1" s="202"/>
+    <row r="286" ht="15.75" customHeight="1" s="202"/>
+    <row r="287" ht="15.75" customHeight="1" s="202"/>
+    <row r="288" ht="15.75" customHeight="1" s="202"/>
+    <row r="289" ht="15.75" customHeight="1" s="202"/>
+    <row r="290" ht="15.75" customHeight="1" s="202"/>
+    <row r="291" ht="15.75" customHeight="1" s="202"/>
+    <row r="292" ht="15.75" customHeight="1" s="202"/>
+    <row r="293" ht="15.75" customHeight="1" s="202"/>
+    <row r="294" ht="15.75" customHeight="1" s="202"/>
+    <row r="295" ht="15.75" customHeight="1" s="202"/>
+    <row r="296" ht="15.75" customHeight="1" s="202"/>
+    <row r="297" ht="15.75" customHeight="1" s="202"/>
+    <row r="298" ht="15.75" customHeight="1" s="202"/>
+    <row r="299" ht="15.75" customHeight="1" s="202"/>
+    <row r="300" ht="15.75" customHeight="1" s="202"/>
+    <row r="301" ht="15.75" customHeight="1" s="202"/>
+    <row r="302" ht="15.75" customHeight="1" s="202"/>
+    <row r="303" ht="15.75" customHeight="1" s="202"/>
+    <row r="304" ht="15.75" customHeight="1" s="202"/>
+    <row r="305" ht="15.75" customHeight="1" s="202"/>
+    <row r="306" ht="15.75" customHeight="1" s="202"/>
+    <row r="307" ht="15.75" customHeight="1" s="202"/>
+    <row r="308" ht="15.75" customHeight="1" s="202"/>
+    <row r="309" ht="15.75" customHeight="1" s="202"/>
+    <row r="310" ht="15.75" customHeight="1" s="202"/>
+    <row r="311" ht="15.75" customHeight="1" s="202"/>
+    <row r="312" ht="15.75" customHeight="1" s="202"/>
+    <row r="313" ht="15.75" customHeight="1" s="202"/>
+    <row r="314" ht="15.75" customHeight="1" s="202"/>
+    <row r="315" ht="15.75" customHeight="1" s="202"/>
+    <row r="316" ht="15.75" customHeight="1" s="202"/>
+    <row r="317" ht="15.75" customHeight="1" s="202"/>
+    <row r="318" ht="15.75" customHeight="1" s="202"/>
+    <row r="319" ht="15.75" customHeight="1" s="202"/>
+    <row r="320" ht="15.75" customHeight="1" s="202"/>
+    <row r="321" ht="15.75" customHeight="1" s="202"/>
+    <row r="322" ht="15.75" customHeight="1" s="202"/>
+    <row r="323" ht="15.75" customHeight="1" s="202"/>
+    <row r="324" ht="15.75" customHeight="1" s="202"/>
+    <row r="325" ht="15.75" customHeight="1" s="202"/>
+    <row r="326" ht="15.75" customHeight="1" s="202"/>
+    <row r="327" ht="15.75" customHeight="1" s="202"/>
+    <row r="328" ht="15.75" customHeight="1" s="202"/>
+    <row r="329" ht="15.75" customHeight="1" s="202"/>
+    <row r="330" ht="15.75" customHeight="1" s="202"/>
+    <row r="331" ht="15.75" customHeight="1" s="202"/>
+    <row r="332" ht="15.75" customHeight="1" s="202"/>
+    <row r="333" ht="15.75" customHeight="1" s="202"/>
+    <row r="334" ht="15.75" customHeight="1" s="202"/>
+    <row r="335" ht="15.75" customHeight="1" s="202"/>
+    <row r="336" ht="15.75" customHeight="1" s="202"/>
+    <row r="337" ht="15.75" customHeight="1" s="202"/>
+    <row r="338" ht="15.75" customHeight="1" s="202"/>
+    <row r="339" ht="15.75" customHeight="1" s="202"/>
+    <row r="340" ht="15.75" customHeight="1" s="202"/>
+    <row r="341" ht="15.75" customHeight="1" s="202"/>
+    <row r="342" ht="15.75" customHeight="1" s="202"/>
+    <row r="343" ht="15.75" customHeight="1" s="202"/>
+    <row r="344" ht="15.75" customHeight="1" s="202"/>
+    <row r="345" ht="15.75" customHeight="1" s="202"/>
+    <row r="346" ht="15.75" customHeight="1" s="202"/>
+    <row r="347" ht="15.75" customHeight="1" s="202"/>
+    <row r="348" ht="15.75" customHeight="1" s="202"/>
+    <row r="349" ht="15.75" customHeight="1" s="202"/>
+    <row r="350" ht="15.75" customHeight="1" s="202"/>
+    <row r="351" ht="15.75" customHeight="1" s="202"/>
+    <row r="352" ht="15.75" customHeight="1" s="202"/>
+    <row r="353" ht="15.75" customHeight="1" s="202"/>
+    <row r="354" ht="15.75" customHeight="1" s="202"/>
+    <row r="355" ht="15.75" customHeight="1" s="202"/>
+    <row r="356" ht="15.75" customHeight="1" s="202"/>
+    <row r="357" ht="15.75" customHeight="1" s="202"/>
+    <row r="358" ht="15.75" customHeight="1" s="202"/>
+    <row r="359" ht="15.75" customHeight="1" s="202"/>
+    <row r="360" ht="15.75" customHeight="1" s="202"/>
+    <row r="361" ht="15.75" customHeight="1" s="202"/>
+    <row r="362" ht="15.75" customHeight="1" s="202"/>
+    <row r="363" ht="15.75" customHeight="1" s="202"/>
+    <row r="364" ht="15.75" customHeight="1" s="202"/>
+    <row r="365" ht="15.75" customHeight="1" s="202"/>
+    <row r="366" ht="15.75" customHeight="1" s="202"/>
+    <row r="367" ht="15.75" customHeight="1" s="202"/>
+    <row r="368" ht="15.75" customHeight="1" s="202"/>
+    <row r="369" ht="15.75" customHeight="1" s="202"/>
+    <row r="370" ht="15.75" customHeight="1" s="202"/>
+    <row r="371" ht="15.75" customHeight="1" s="202"/>
+    <row r="372" ht="15.75" customHeight="1" s="202"/>
+    <row r="373" ht="15.75" customHeight="1" s="202"/>
+    <row r="374" ht="15.75" customHeight="1" s="202"/>
+    <row r="375" ht="15.75" customHeight="1" s="202"/>
+    <row r="376" ht="15.75" customHeight="1" s="202"/>
+    <row r="377" ht="15.75" customHeight="1" s="202"/>
+    <row r="378" ht="15.75" customHeight="1" s="202"/>
+    <row r="379" ht="15.75" customHeight="1" s="202"/>
+    <row r="380" ht="15.75" customHeight="1" s="202"/>
+    <row r="381" ht="15.75" customHeight="1" s="202"/>
+    <row r="382" ht="15.75" customHeight="1" s="202"/>
+    <row r="383" ht="15.75" customHeight="1" s="202"/>
+    <row r="384" ht="15.75" customHeight="1" s="202"/>
+    <row r="385" ht="15.75" customHeight="1" s="202"/>
+    <row r="386" ht="15.75" customHeight="1" s="202"/>
+    <row r="387" ht="15.75" customHeight="1" s="202"/>
+    <row r="388" ht="15.75" customHeight="1" s="202"/>
+    <row r="389" ht="15.75" customHeight="1" s="202"/>
+    <row r="390" ht="15.75" customHeight="1" s="202"/>
+    <row r="391" ht="15.75" customHeight="1" s="202"/>
+    <row r="392" ht="15.75" customHeight="1" s="202"/>
+    <row r="393" ht="15.75" customHeight="1" s="202"/>
+    <row r="394" ht="15.75" customHeight="1" s="202"/>
+    <row r="395" ht="15.75" customHeight="1" s="202"/>
+    <row r="396" ht="15.75" customHeight="1" s="202"/>
+    <row r="397" ht="15.75" customHeight="1" s="202"/>
+    <row r="398" ht="15.75" customHeight="1" s="202"/>
+    <row r="399" ht="15.75" customHeight="1" s="202"/>
+    <row r="400" ht="15.75" customHeight="1" s="202"/>
+    <row r="401" ht="15.75" customHeight="1" s="202"/>
+    <row r="402" ht="15.75" customHeight="1" s="202"/>
+    <row r="403" ht="15.75" customHeight="1" s="202"/>
+    <row r="404" ht="15.75" customHeight="1" s="202"/>
+    <row r="405" ht="15.75" customHeight="1" s="202"/>
+    <row r="406" ht="15.75" customHeight="1" s="202"/>
+    <row r="407" ht="15.75" customHeight="1" s="202"/>
+    <row r="408" ht="15.75" customHeight="1" s="202"/>
+    <row r="409" ht="15.75" customHeight="1" s="202"/>
+    <row r="410" ht="15.75" customHeight="1" s="202"/>
+    <row r="411" ht="15.75" customHeight="1" s="202"/>
+    <row r="412" ht="15.75" customHeight="1" s="202"/>
+    <row r="413" ht="15.75" customHeight="1" s="202"/>
+    <row r="414" ht="15.75" customHeight="1" s="202"/>
+    <row r="415" ht="15.75" customHeight="1" s="202"/>
+    <row r="416" ht="15.75" customHeight="1" s="202"/>
+    <row r="417" ht="15.75" customHeight="1" s="202"/>
+    <row r="418" ht="15.75" customHeight="1" s="202"/>
+    <row r="419" ht="15.75" customHeight="1" s="202"/>
+    <row r="420" ht="15.75" customHeight="1" s="202"/>
+    <row r="421" ht="15.75" customHeight="1" s="202"/>
+    <row r="422" ht="15.75" customHeight="1" s="202"/>
+    <row r="423" ht="15.75" customHeight="1" s="202"/>
+    <row r="424" ht="15.75" customHeight="1" s="202"/>
+    <row r="425" ht="15.75" customHeight="1" s="202"/>
+    <row r="426" ht="15.75" customHeight="1" s="202"/>
+    <row r="427" ht="15.75" customHeight="1" s="202"/>
+    <row r="428" ht="15.75" customHeight="1" s="202"/>
+    <row r="429" ht="15.75" customHeight="1" s="202"/>
+    <row r="430" ht="15.75" customHeight="1" s="202"/>
+    <row r="431" ht="15.75" customHeight="1" s="202"/>
+    <row r="432" ht="15.75" customHeight="1" s="202"/>
+    <row r="433" ht="15.75" customHeight="1" s="202"/>
+    <row r="434" ht="15.75" customHeight="1" s="202"/>
+    <row r="435" ht="15.75" customHeight="1" s="202"/>
+    <row r="436" ht="15.75" customHeight="1" s="202"/>
+    <row r="437" ht="15.75" customHeight="1" s="202"/>
+    <row r="438" ht="15.75" customHeight="1" s="202"/>
+    <row r="439" ht="15.75" customHeight="1" s="202"/>
+    <row r="440" ht="15.75" customHeight="1" s="202"/>
+    <row r="441" ht="15.75" customHeight="1" s="202"/>
+    <row r="442" ht="15.75" customHeight="1" s="202"/>
+    <row r="443" ht="15.75" customHeight="1" s="202"/>
+    <row r="444" ht="15.75" customHeight="1" s="202"/>
+    <row r="445" ht="15.75" customHeight="1" s="202"/>
+    <row r="446" ht="15.75" customHeight="1" s="202"/>
+    <row r="447" ht="15.75" customHeight="1" s="202"/>
+    <row r="448" ht="15.75" customHeight="1" s="202"/>
+    <row r="449" ht="15.75" customHeight="1" s="202"/>
+    <row r="450" ht="15.75" customHeight="1" s="202"/>
+    <row r="451" ht="15.75" customHeight="1" s="202"/>
+    <row r="452" ht="15.75" customHeight="1" s="202"/>
+    <row r="453" ht="15.75" customHeight="1" s="202"/>
+    <row r="454" ht="15.75" customHeight="1" s="202"/>
+    <row r="455" ht="15.75" customHeight="1" s="202"/>
+    <row r="456" ht="15.75" customHeight="1" s="202"/>
+    <row r="457" ht="15.75" customHeight="1" s="202"/>
+    <row r="458" ht="15.75" customHeight="1" s="202"/>
+    <row r="459" ht="15.75" customHeight="1" s="202"/>
+    <row r="460" ht="15.75" customHeight="1" s="202"/>
+    <row r="461" ht="15.75" customHeight="1" s="202"/>
+    <row r="462" ht="15.75" customHeight="1" s="202"/>
+    <row r="463" ht="15.75" customHeight="1" s="202"/>
+    <row r="464" ht="15.75" customHeight="1" s="202"/>
+    <row r="465" ht="15.75" customHeight="1" s="202"/>
+    <row r="466" ht="15.75" customHeight="1" s="202"/>
+    <row r="467" ht="15.75" customHeight="1" s="202"/>
+    <row r="468" ht="15.75" customHeight="1" s="202"/>
+    <row r="469" ht="15.75" customHeight="1" s="202"/>
+    <row r="470" ht="15.75" customHeight="1" s="202"/>
+    <row r="471" ht="15.75" customHeight="1" s="202"/>
+    <row r="472" ht="15.75" customHeight="1" s="202"/>
+    <row r="473" ht="15.75" customHeight="1" s="202"/>
+    <row r="474" ht="15.75" customHeight="1" s="202"/>
+    <row r="475" ht="15.75" customHeight="1" s="202"/>
+    <row r="476" ht="15.75" customHeight="1" s="202"/>
+    <row r="477" ht="15.75" customHeight="1" s="202"/>
+    <row r="478" ht="15.75" customHeight="1" s="202"/>
+    <row r="479" ht="15.75" customHeight="1" s="202"/>
+    <row r="480" ht="15.75" customHeight="1" s="202"/>
+    <row r="481" ht="15.75" customHeight="1" s="202"/>
+    <row r="482" ht="15.75" customHeight="1" s="202"/>
+    <row r="483" ht="15.75" customHeight="1" s="202"/>
+    <row r="484" ht="15.75" customHeight="1" s="202"/>
+    <row r="485" ht="15.75" customHeight="1" s="202"/>
+    <row r="486" ht="15.75" customHeight="1" s="202"/>
+    <row r="487" ht="15.75" customHeight="1" s="202"/>
+    <row r="488" ht="15.75" customHeight="1" s="202"/>
+    <row r="489" ht="15.75" customHeight="1" s="202"/>
+    <row r="490" ht="15.75" customHeight="1" s="202"/>
+    <row r="491" ht="15.75" customHeight="1" s="202"/>
+    <row r="492" ht="15.75" customHeight="1" s="202"/>
+    <row r="493" ht="15.75" customHeight="1" s="202"/>
+    <row r="494" ht="15.75" customHeight="1" s="202"/>
+    <row r="495" ht="15.75" customHeight="1" s="202"/>
+    <row r="496" ht="15.75" customHeight="1" s="202"/>
+    <row r="497" ht="15.75" customHeight="1" s="202"/>
+    <row r="498" ht="15.75" customHeight="1" s="202"/>
+    <row r="499" ht="15.75" customHeight="1" s="202"/>
+    <row r="500" ht="15.75" customHeight="1" s="202"/>
+    <row r="501" ht="15.75" customHeight="1" s="202"/>
+    <row r="502" ht="15.75" customHeight="1" s="202"/>
+    <row r="503" ht="15.75" customHeight="1" s="202"/>
+    <row r="504" ht="15.75" customHeight="1" s="202"/>
+    <row r="505" ht="15.75" customHeight="1" s="202"/>
+    <row r="506" ht="15.75" customHeight="1" s="202"/>
+    <row r="507" ht="15.75" customHeight="1" s="202"/>
+    <row r="508" ht="15.75" customHeight="1" s="202"/>
+    <row r="509" ht="15.75" customHeight="1" s="202"/>
+    <row r="510" ht="15.75" customHeight="1" s="202"/>
+    <row r="511" ht="15.75" customHeight="1" s="202"/>
+    <row r="512" ht="15.75" customHeight="1" s="202"/>
+    <row r="513" ht="15.75" customHeight="1" s="202"/>
+    <row r="514" ht="15.75" customHeight="1" s="202"/>
+    <row r="515" ht="15.75" customHeight="1" s="202"/>
+    <row r="516" ht="15.75" customHeight="1" s="202"/>
+    <row r="517" ht="15.75" customHeight="1" s="202"/>
+    <row r="518" ht="15.75" customHeight="1" s="202"/>
+    <row r="519" ht="15.75" customHeight="1" s="202"/>
+    <row r="520" ht="15.75" customHeight="1" s="202"/>
+    <row r="521" ht="15.75" customHeight="1" s="202"/>
+    <row r="522" ht="15.75" customHeight="1" s="202"/>
+    <row r="523" ht="15.75" customHeight="1" s="202"/>
+    <row r="524" ht="15.75" customHeight="1" s="202"/>
+    <row r="525" ht="15.75" customHeight="1" s="202"/>
+    <row r="526" ht="15.75" customHeight="1" s="202"/>
+    <row r="527" ht="15.75" customHeight="1" s="202"/>
+    <row r="528" ht="15.75" customHeight="1" s="202"/>
+    <row r="529" ht="15.75" customHeight="1" s="202"/>
+    <row r="530" ht="15.75" customHeight="1" s="202"/>
+    <row r="531" ht="15.75" customHeight="1" s="202"/>
+    <row r="532" ht="15.75" customHeight="1" s="202"/>
+    <row r="533" ht="15.75" customHeight="1" s="202"/>
+    <row r="534" ht="15.75" customHeight="1" s="202"/>
+    <row r="535" ht="15.75" customHeight="1" s="202"/>
+    <row r="536" ht="15.75" customHeight="1" s="202"/>
+    <row r="537" ht="15.75" customHeight="1" s="202"/>
+    <row r="538" ht="15.75" customHeight="1" s="202"/>
+    <row r="539" ht="15.75" customHeight="1" s="202"/>
+    <row r="540" ht="15.75" customHeight="1" s="202"/>
+    <row r="541" ht="15.75" customHeight="1" s="202"/>
+    <row r="542" ht="15.75" customHeight="1" s="202"/>
+    <row r="543" ht="15.75" customHeight="1" s="202"/>
+    <row r="544" ht="15.75" customHeight="1" s="202"/>
+    <row r="545" ht="15.75" customHeight="1" s="202"/>
+    <row r="546" ht="15.75" customHeight="1" s="202"/>
+    <row r="547" ht="15.75" customHeight="1" s="202"/>
+    <row r="548" ht="15.75" customHeight="1" s="202"/>
+    <row r="549" ht="15.75" customHeight="1" s="202"/>
+    <row r="550" ht="15.75" customHeight="1" s="202"/>
+    <row r="551" ht="15.75" customHeight="1" s="202"/>
+    <row r="552" ht="15.75" customHeight="1" s="202"/>
+    <row r="553" ht="15.75" customHeight="1" s="202"/>
+    <row r="554" ht="15.75" customHeight="1" s="202"/>
+    <row r="555" ht="15.75" customHeight="1" s="202"/>
+    <row r="556" ht="15.75" customHeight="1" s="202"/>
+    <row r="557" ht="15.75" customHeight="1" s="202"/>
+    <row r="558" ht="15.75" customHeight="1" s="202"/>
+    <row r="559" ht="15.75" customHeight="1" s="202"/>
+    <row r="560" ht="15.75" customHeight="1" s="202"/>
+    <row r="561" ht="15.75" customHeight="1" s="202"/>
+    <row r="562" ht="15.75" customHeight="1" s="202"/>
+    <row r="563" ht="15.75" customHeight="1" s="202"/>
+    <row r="564" ht="15.75" customHeight="1" s="202"/>
+    <row r="565" ht="15.75" customHeight="1" s="202"/>
+    <row r="566" ht="15.75" customHeight="1" s="202"/>
+    <row r="567" ht="15.75" customHeight="1" s="202"/>
+    <row r="568" ht="15.75" customHeight="1" s="202"/>
+    <row r="569" ht="15.75" customHeight="1" s="202"/>
+    <row r="570" ht="15.75" customHeight="1" s="202"/>
+    <row r="571" ht="15.75" customHeight="1" s="202"/>
+    <row r="572" ht="15.75" customHeight="1" s="202"/>
+    <row r="573" ht="15.75" customHeight="1" s="202"/>
+    <row r="574" ht="15.75" customHeight="1" s="202"/>
+    <row r="575" ht="15.75" customHeight="1" s="202"/>
+    <row r="576" ht="15.75" customHeight="1" s="202"/>
+    <row r="577" ht="15.75" customHeight="1" s="202"/>
+    <row r="578" ht="15.75" customHeight="1" s="202"/>
+    <row r="579" ht="15.75" customHeight="1" s="202"/>
+    <row r="580" ht="15.75" customHeight="1" s="202"/>
+    <row r="581" ht="15.75" customHeight="1" s="202"/>
+    <row r="582" ht="15.75" customHeight="1" s="202"/>
+    <row r="583" ht="15.75" customHeight="1" s="202"/>
+    <row r="584" ht="15.75" customHeight="1" s="202"/>
+    <row r="585" ht="15.75" customHeight="1" s="202"/>
+    <row r="586" ht="15.75" customHeight="1" s="202"/>
+    <row r="587" ht="15.75" customHeight="1" s="202"/>
+    <row r="588" ht="15.75" customHeight="1" s="202"/>
+    <row r="589" ht="15.75" customHeight="1" s="202"/>
+    <row r="590" ht="15.75" customHeight="1" s="202"/>
+    <row r="591" ht="15.75" customHeight="1" s="202"/>
+    <row r="592" ht="15.75" customHeight="1" s="202"/>
+    <row r="593" ht="15.75" customHeight="1" s="202"/>
+    <row r="594" ht="15.75" customHeight="1" s="202"/>
+    <row r="595" ht="15.75" customHeight="1" s="202"/>
+    <row r="596" ht="15.75" customHeight="1" s="202"/>
+    <row r="597" ht="15.75" customHeight="1" s="202"/>
+    <row r="598" ht="15.75" customHeight="1" s="202"/>
+    <row r="599" ht="15.75" customHeight="1" s="202"/>
+    <row r="600" ht="15.75" customHeight="1" s="202"/>
+    <row r="601" ht="15.75" customHeight="1" s="202"/>
+    <row r="602" ht="15.75" customHeight="1" s="202"/>
+    <row r="603" ht="15.75" customHeight="1" s="202"/>
+    <row r="604" ht="15.75" customHeight="1" s="202"/>
+    <row r="605" ht="15.75" customHeight="1" s="202"/>
+    <row r="606" ht="15.75" customHeight="1" s="202"/>
+    <row r="607" ht="15.75" customHeight="1" s="202"/>
+    <row r="608" ht="15.75" customHeight="1" s="202"/>
+    <row r="609" ht="15.75" customHeight="1" s="202"/>
+    <row r="610" ht="15.75" customHeight="1" s="202"/>
+    <row r="611" ht="15.75" customHeight="1" s="202"/>
+    <row r="612" ht="15.75" customHeight="1" s="202"/>
+    <row r="613" ht="15.75" customHeight="1" s="202"/>
+    <row r="614" ht="15.75" customHeight="1" s="202"/>
+    <row r="615" ht="15.75" customHeight="1" s="202"/>
+    <row r="616" ht="15.75" customHeight="1" s="202"/>
+    <row r="617" ht="15.75" customHeight="1" s="202"/>
+    <row r="618" ht="15.75" customHeight="1" s="202"/>
+    <row r="619" ht="15.75" customHeight="1" s="202"/>
+    <row r="620" ht="15.75" customHeight="1" s="202"/>
+    <row r="621" ht="15.75" customHeight="1" s="202"/>
+    <row r="622" ht="15.75" customHeight="1" s="202"/>
+    <row r="623" ht="15.75" customHeight="1" s="202"/>
+    <row r="624" ht="15.75" customHeight="1" s="202"/>
+    <row r="625" ht="15.75" customHeight="1" s="202"/>
+    <row r="626" ht="15.75" customHeight="1" s="202"/>
+    <row r="627" ht="15.75" customHeight="1" s="202"/>
+    <row r="628" ht="15.75" customHeight="1" s="202"/>
+    <row r="629" ht="15.75" customHeight="1" s="202"/>
+    <row r="630" ht="15.75" customHeight="1" s="202"/>
+    <row r="631" ht="15.75" customHeight="1" s="202"/>
+    <row r="632" ht="15.75" customHeight="1" s="202"/>
+    <row r="633" ht="15.75" customHeight="1" s="202"/>
+    <row r="634" ht="15.75" customHeight="1" s="202"/>
+    <row r="635" ht="15.75" customHeight="1" s="202"/>
+    <row r="636" ht="15.75" customHeight="1" s="202"/>
+    <row r="637" ht="15.75" customHeight="1" s="202"/>
+    <row r="638" ht="15.75" customHeight="1" s="202"/>
+    <row r="639" ht="15.75" customHeight="1" s="202"/>
+    <row r="640" ht="15.75" customHeight="1" s="202"/>
+    <row r="641" ht="15.75" customHeight="1" s="202"/>
+    <row r="642" ht="15.75" customHeight="1" s="202"/>
+    <row r="643" ht="15.75" customHeight="1" s="202"/>
+    <row r="644" ht="15.75" customHeight="1" s="202"/>
+    <row r="645" ht="15.75" customHeight="1" s="202"/>
+    <row r="646" ht="15.75" customHeight="1" s="202"/>
+    <row r="647" ht="15.75" customHeight="1" s="202"/>
+    <row r="648" ht="15.75" customHeight="1" s="202"/>
+    <row r="649" ht="15.75" customHeight="1" s="202"/>
+    <row r="650" ht="15.75" customHeight="1" s="202"/>
+    <row r="651" ht="15.75" customHeight="1" s="202"/>
+    <row r="652" ht="15.75" customHeight="1" s="202"/>
+    <row r="653" ht="15.75" customHeight="1" s="202"/>
+    <row r="654" ht="15.75" customHeight="1" s="202"/>
+    <row r="655" ht="15.75" customHeight="1" s="202"/>
+    <row r="656" ht="15.75" customHeight="1" s="202"/>
+    <row r="657" ht="15.75" customHeight="1" s="202"/>
+    <row r="658" ht="15.75" customHeight="1" s="202"/>
+    <row r="659" ht="15.75" customHeight="1" s="202"/>
+    <row r="660" ht="15.75" customHeight="1" s="202"/>
+    <row r="661" ht="15.75" customHeight="1" s="202"/>
+    <row r="662" ht="15.75" customHeight="1" s="202"/>
+    <row r="663" ht="15.75" customHeight="1" s="202"/>
+    <row r="664" ht="15.75" customHeight="1" s="202"/>
+    <row r="665" ht="15.75" customHeight="1" s="202"/>
+    <row r="666" ht="15.75" customHeight="1" s="202"/>
+    <row r="667" ht="15.75" customHeight="1" s="202"/>
+    <row r="668" ht="15.75" customHeight="1" s="202"/>
+    <row r="669" ht="15.75" customHeight="1" s="202"/>
+    <row r="670" ht="15.75" customHeight="1" s="202"/>
+    <row r="671" ht="15.75" customHeight="1" s="202"/>
+    <row r="672" ht="15.75" customHeight="1" s="202"/>
+    <row r="673" ht="15.75" customHeight="1" s="202"/>
+    <row r="674" ht="15.75" customHeight="1" s="202"/>
+    <row r="675" ht="15.75" customHeight="1" s="202"/>
+    <row r="676" ht="15.75" customHeight="1" s="202"/>
+    <row r="677" ht="15.75" customHeight="1" s="202"/>
+    <row r="678" ht="15.75" customHeight="1" s="202"/>
+    <row r="679" ht="15.75" customHeight="1" s="202"/>
+    <row r="680" ht="15.75" customHeight="1" s="202"/>
+    <row r="681" ht="15.75" customHeight="1" s="202"/>
+    <row r="682" ht="15.75" customHeight="1" s="202"/>
+    <row r="683" ht="15.75" customHeight="1" s="202"/>
+    <row r="684" ht="15.75" customHeight="1" s="202"/>
+    <row r="685" ht="15.75" customHeight="1" s="202"/>
+    <row r="686" ht="15.75" customHeight="1" s="202"/>
+    <row r="687" ht="15.75" customHeight="1" s="202"/>
+    <row r="688" ht="15.75" customHeight="1" s="202"/>
+    <row r="689" ht="15.75" customHeight="1" s="202"/>
+    <row r="690" ht="15.75" customHeight="1" s="202"/>
+    <row r="691" ht="15.75" customHeight="1" s="202"/>
+    <row r="692" ht="15.75" customHeight="1" s="202"/>
+    <row r="693" ht="15.75" customHeight="1" s="202"/>
+    <row r="694" ht="15.75" customHeight="1" s="202"/>
+    <row r="695" ht="15.75" customHeight="1" s="202"/>
+    <row r="696" ht="15.75" customHeight="1" s="202"/>
+    <row r="697" ht="15.75" customHeight="1" s="202"/>
+    <row r="698" ht="15.75" customHeight="1" s="202"/>
+    <row r="699" ht="15.75" customHeight="1" s="202"/>
+    <row r="700" ht="15.75" customHeight="1" s="202"/>
+    <row r="701" ht="15.75" customHeight="1" s="202"/>
+    <row r="702" ht="15.75" customHeight="1" s="202"/>
+    <row r="703" ht="15.75" customHeight="1" s="202"/>
+    <row r="704" ht="15.75" customHeight="1" s="202"/>
+    <row r="705" ht="15.75" customHeight="1" s="202"/>
+    <row r="706" ht="15.75" customHeight="1" s="202"/>
+    <row r="707" ht="15.75" customHeight="1" s="202"/>
+    <row r="708" ht="15.75" customHeight="1" s="202"/>
+    <row r="709" ht="15.75" customHeight="1" s="202"/>
+    <row r="710" ht="15.75" customHeight="1" s="202"/>
+    <row r="711" ht="15.75" customHeight="1" s="202"/>
+    <row r="712" ht="15.75" customHeight="1" s="202"/>
+    <row r="713" ht="15.75" customHeight="1" s="202"/>
+    <row r="714" ht="15.75" customHeight="1" s="202"/>
+    <row r="715" ht="15.75" customHeight="1" s="202"/>
+    <row r="716" ht="15.75" customHeight="1" s="202"/>
+    <row r="717" ht="15.75" customHeight="1" s="202"/>
+    <row r="718" ht="15.75" customHeight="1" s="202"/>
+    <row r="719" ht="15.75" customHeight="1" s="202"/>
+    <row r="720" ht="15.75" customHeight="1" s="202"/>
+    <row r="721" ht="15.75" customHeight="1" s="202"/>
+    <row r="722" ht="15.75" customHeight="1" s="202"/>
+    <row r="723" ht="15.75" customHeight="1" s="202"/>
+    <row r="724" ht="15.75" customHeight="1" s="202"/>
+    <row r="725" ht="15.75" customHeight="1" s="202"/>
+    <row r="726" ht="15.75" customHeight="1" s="202"/>
+    <row r="727" ht="15.75" customHeight="1" s="202"/>
+    <row r="728" ht="15.75" customHeight="1" s="202"/>
+    <row r="729" ht="15.75" customHeight="1" s="202"/>
+    <row r="730" ht="15.75" customHeight="1" s="202"/>
+    <row r="731" ht="15.75" customHeight="1" s="202"/>
+    <row r="732" ht="15.75" customHeight="1" s="202"/>
+    <row r="733" ht="15.75" customHeight="1" s="202"/>
+    <row r="734" ht="15.75" customHeight="1" s="202"/>
+    <row r="735" ht="15.75" customHeight="1" s="202"/>
+    <row r="736" ht="15.75" customHeight="1" s="202"/>
+    <row r="737" ht="15.75" customHeight="1" s="202"/>
+    <row r="738" ht="15.75" customHeight="1" s="202"/>
+    <row r="739" ht="15.75" customHeight="1" s="202"/>
+    <row r="740" ht="15.75" customHeight="1" s="202"/>
+    <row r="741" ht="15.75" customHeight="1" s="202"/>
+    <row r="742" ht="15.75" customHeight="1" s="202"/>
+    <row r="743" ht="15.75" customHeight="1" s="202"/>
+    <row r="744" ht="15.75" customHeight="1" s="202"/>
+    <row r="745" ht="15.75" customHeight="1" s="202"/>
+    <row r="746" ht="15.75" customHeight="1" s="202"/>
+    <row r="747" ht="15.75" customHeight="1" s="202"/>
+    <row r="748" ht="15.75" customHeight="1" s="202"/>
+    <row r="749" ht="15.75" customHeight="1" s="202"/>
+    <row r="750" ht="15.75" customHeight="1" s="202"/>
+    <row r="751" ht="15.75" customHeight="1" s="202"/>
+    <row r="752" ht="15.75" customHeight="1" s="202"/>
+    <row r="753" ht="15.75" customHeight="1" s="202"/>
+    <row r="754" ht="15.75" customHeight="1" s="202"/>
+    <row r="755" ht="15.75" customHeight="1" s="202"/>
+    <row r="756" ht="15.75" customHeight="1" s="202"/>
+    <row r="757" ht="15.75" customHeight="1" s="202"/>
+    <row r="758" ht="15.75" customHeight="1" s="202"/>
+    <row r="759" ht="15.75" customHeight="1" s="202"/>
+    <row r="760" ht="15.75" customHeight="1" s="202"/>
+    <row r="761" ht="15.75" customHeight="1" s="202"/>
+    <row r="762" ht="15.75" customHeight="1" s="202"/>
+    <row r="763" ht="15.75" customHeight="1" s="202"/>
+    <row r="764" ht="15.75" customHeight="1" s="202"/>
+    <row r="765" ht="15.75" customHeight="1" s="202"/>
+    <row r="766" ht="15.75" customHeight="1" s="202"/>
+    <row r="767" ht="15.75" customHeight="1" s="202"/>
+    <row r="768" ht="15.75" customHeight="1" s="202"/>
+    <row r="769" ht="15.75" customHeight="1" s="202"/>
+    <row r="770" ht="15.75" customHeight="1" s="202"/>
+    <row r="771" ht="15.75" customHeight="1" s="202"/>
+    <row r="772" ht="15.75" customHeight="1" s="202"/>
+    <row r="773" ht="15.75" customHeight="1" s="202"/>
+    <row r="774" ht="15.75" customHeight="1" s="202"/>
+    <row r="775" ht="15.75" customHeight="1" s="202"/>
+    <row r="776" ht="15.75" customHeight="1" s="202"/>
+    <row r="777" ht="15.75" customHeight="1" s="202"/>
+    <row r="778" ht="15.75" customHeight="1" s="202"/>
+    <row r="779" ht="15.75" customHeight="1" s="202"/>
+    <row r="780" ht="15.75" customHeight="1" s="202"/>
+    <row r="781" ht="15.75" customHeight="1" s="202"/>
+    <row r="782" ht="15.75" customHeight="1" s="202"/>
+    <row r="783" ht="15.75" customHeight="1" s="202"/>
+    <row r="784" ht="15.75" customHeight="1" s="202"/>
+    <row r="785" ht="15.75" customHeight="1" s="202"/>
+    <row r="786" ht="15.75" customHeight="1" s="202"/>
+    <row r="787" ht="15.75" customHeight="1" s="202"/>
+    <row r="788" ht="15.75" customHeight="1" s="202"/>
+    <row r="789" ht="15.75" customHeight="1" s="202"/>
+    <row r="790" ht="15.75" customHeight="1" s="202"/>
+    <row r="791" ht="15.75" customHeight="1" s="202"/>
+    <row r="792" ht="15.75" customHeight="1" s="202"/>
+    <row r="793" ht="15.75" customHeight="1" s="202"/>
+    <row r="794" ht="15.75" customHeight="1" s="202"/>
+    <row r="795" ht="15.75" customHeight="1" s="202"/>
+    <row r="796" ht="15.75" customHeight="1" s="202"/>
+    <row r="797" ht="15.75" customHeight="1" s="202"/>
+    <row r="798" ht="15.75" customHeight="1" s="202"/>
+    <row r="799" ht="15.75" customHeight="1" s="202"/>
+    <row r="800" ht="15.75" customHeight="1" s="202"/>
+    <row r="801" ht="15.75" customHeight="1" s="202"/>
+    <row r="802" ht="15.75" customHeight="1" s="202"/>
+    <row r="803" ht="15.75" customHeight="1" s="202"/>
+    <row r="804" ht="15.75" customHeight="1" s="202"/>
+    <row r="805" ht="15.75" customHeight="1" s="202"/>
+    <row r="806" ht="15.75" customHeight="1" s="202"/>
+    <row r="807" ht="15.75" customHeight="1" s="202"/>
+    <row r="808" ht="15.75" customHeight="1" s="202"/>
+    <row r="809" ht="15.75" customHeight="1" s="202"/>
+    <row r="810" ht="15.75" customHeight="1" s="202"/>
+    <row r="811" ht="15.75" customHeight="1" s="202"/>
+    <row r="812" ht="15.75" customHeight="1" s="202"/>
+    <row r="813" ht="15.75" customHeight="1" s="202"/>
+    <row r="814" ht="15.75" customHeight="1" s="202"/>
+    <row r="815" ht="15.75" customHeight="1" s="202"/>
+    <row r="816" ht="15.75" customHeight="1" s="202"/>
+    <row r="817" ht="15.75" customHeight="1" s="202"/>
+    <row r="818" ht="15.75" customHeight="1" s="202"/>
+    <row r="819" ht="15.75" customHeight="1" s="202"/>
+    <row r="820" ht="15.75" customHeight="1" s="202"/>
+    <row r="821" ht="15.75" customHeight="1" s="202"/>
+    <row r="822" ht="15.75" customHeight="1" s="202"/>
+    <row r="823" ht="15.75" customHeight="1" s="202"/>
+    <row r="824" ht="15.75" customHeight="1" s="202"/>
+    <row r="825" ht="15.75" customHeight="1" s="202"/>
+    <row r="826" ht="15.75" customHeight="1" s="202"/>
+    <row r="827" ht="15.75" customHeight="1" s="202"/>
+    <row r="828" ht="15.75" customHeight="1" s="202"/>
+    <row r="829" ht="15.75" customHeight="1" s="202"/>
+    <row r="830" ht="15.75" customHeight="1" s="202"/>
+    <row r="831" ht="15.75" customHeight="1" s="202"/>
+    <row r="832" ht="15.75" customHeight="1" s="202"/>
+    <row r="833" ht="15.75" customHeight="1" s="202"/>
+    <row r="834" ht="15.75" customHeight="1" s="202"/>
+    <row r="835" ht="15.75" customHeight="1" s="202"/>
+    <row r="836" ht="15.75" customHeight="1" s="202"/>
+    <row r="837" ht="15.75" customHeight="1" s="202"/>
+    <row r="838" ht="15.75" customHeight="1" s="202"/>
+    <row r="839" ht="15.75" customHeight="1" s="202"/>
+    <row r="840" ht="15.75" customHeight="1" s="202"/>
+    <row r="841" ht="15.75" customHeight="1" s="202"/>
+    <row r="842" ht="15.75" customHeight="1" s="202"/>
+    <row r="843" ht="15.75" customHeight="1" s="202"/>
+    <row r="844" ht="15.75" customHeight="1" s="202"/>
+    <row r="845" ht="15.75" customHeight="1" s="202"/>
+    <row r="846" ht="15.75" customHeight="1" s="202"/>
+    <row r="847" ht="15.75" customHeight="1" s="202"/>
+    <row r="848" ht="15.75" customHeight="1" s="202"/>
+    <row r="849" ht="15.75" customHeight="1" s="202"/>
+    <row r="850" ht="15.75" customHeight="1" s="202"/>
+    <row r="851" ht="15.75" customHeight="1" s="202"/>
+    <row r="852" ht="15.75" customHeight="1" s="202"/>
+    <row r="853" ht="15.75" customHeight="1" s="202"/>
+    <row r="854" ht="15.75" customHeight="1" s="202"/>
+    <row r="855" ht="15.75" customHeight="1" s="202"/>
+    <row r="856" ht="15.75" customHeight="1" s="202"/>
+    <row r="857" ht="15.75" customHeight="1" s="202"/>
+    <row r="858" ht="15.75" customHeight="1" s="202"/>
+    <row r="859" ht="15.75" customHeight="1" s="202"/>
+    <row r="860" ht="15.75" customHeight="1" s="202"/>
+    <row r="861" ht="15.75" customHeight="1" s="202"/>
+    <row r="862" ht="15.75" customHeight="1" s="202"/>
+    <row r="863" ht="15.75" customHeight="1" s="202"/>
+    <row r="864" ht="15.75" customHeight="1" s="202"/>
+    <row r="865" ht="15.75" customHeight="1" s="202"/>
+    <row r="866" ht="15.75" customHeight="1" s="202"/>
+    <row r="867" ht="15.75" customHeight="1" s="202"/>
+    <row r="868" ht="15.75" customHeight="1" s="202"/>
+    <row r="869" ht="15.75" customHeight="1" s="202"/>
+    <row r="870" ht="15.75" customHeight="1" s="202"/>
+    <row r="871" ht="15.75" customHeight="1" s="202"/>
+    <row r="872" ht="15.75" customHeight="1" s="202"/>
+    <row r="873" ht="15.75" customHeight="1" s="202"/>
+    <row r="874" ht="15.75" customHeight="1" s="202"/>
+    <row r="875" ht="15.75" customHeight="1" s="202"/>
+    <row r="876" ht="15.75" customHeight="1" s="202"/>
+    <row r="877" ht="15.75" customHeight="1" s="202"/>
+    <row r="878" ht="15.75" customHeight="1" s="202"/>
+    <row r="879" ht="15.75" customHeight="1" s="202"/>
+    <row r="880" ht="15.75" customHeight="1" s="202"/>
+    <row r="881" ht="15.75" customHeight="1" s="202"/>
+    <row r="882" ht="15.75" customHeight="1" s="202"/>
+    <row r="883" ht="15.75" customHeight="1" s="202"/>
+    <row r="884" ht="15.75" customHeight="1" s="202"/>
+    <row r="885" ht="15.75" customHeight="1" s="202"/>
+    <row r="886" ht="15.75" customHeight="1" s="202"/>
+    <row r="887" ht="15.75" customHeight="1" s="202"/>
+    <row r="888" ht="15.75" customHeight="1" s="202"/>
+    <row r="889" ht="15.75" customHeight="1" s="202"/>
+    <row r="890" ht="15.75" customHeight="1" s="202"/>
+    <row r="891" ht="15.75" customHeight="1" s="202"/>
+    <row r="892" ht="15.75" customHeight="1" s="202"/>
+    <row r="893" ht="15.75" customHeight="1" s="202"/>
+    <row r="894" ht="15.75" customHeight="1" s="202"/>
+    <row r="895" ht="15.75" customHeight="1" s="202"/>
+    <row r="896" ht="15.75" customHeight="1" s="202"/>
+    <row r="897" ht="15.75" customHeight="1" s="202"/>
+    <row r="898" ht="15.75" customHeight="1" s="202"/>
+    <row r="899" ht="15.75" customHeight="1" s="202"/>
+    <row r="900" ht="15.75" customHeight="1" s="202"/>
+    <row r="901" ht="15.75" customHeight="1" s="202"/>
+    <row r="902" ht="15.75" customHeight="1" s="202"/>
+    <row r="903" ht="15.75" customHeight="1" s="202"/>
+    <row r="904" ht="15.75" customHeight="1" s="202"/>
+    <row r="905" ht="15.75" customHeight="1" s="202"/>
+    <row r="906" ht="15.75" customHeight="1" s="202"/>
+    <row r="907" ht="15.75" customHeight="1" s="202"/>
+    <row r="908" ht="15.75" customHeight="1" s="202"/>
+    <row r="909" ht="15.75" customHeight="1" s="202"/>
+    <row r="910" ht="15.75" customHeight="1" s="202"/>
+    <row r="911" ht="15.75" customHeight="1" s="202"/>
+    <row r="912" ht="15.75" customHeight="1" s="202"/>
+    <row r="913" ht="15.75" customHeight="1" s="202"/>
+    <row r="914" ht="15.75" customHeight="1" s="202"/>
+    <row r="915" ht="15.75" customHeight="1" s="202"/>
+    <row r="916" ht="15.75" customHeight="1" s="202"/>
+    <row r="917" ht="15.75" customHeight="1" s="202"/>
+    <row r="918" ht="15.75" customHeight="1" s="202"/>
+    <row r="919" ht="15.75" customHeight="1" s="202"/>
+    <row r="920" ht="15.75" customHeight="1" s="202"/>
+    <row r="921" ht="15.75" customHeight="1" s="202"/>
+    <row r="922" ht="15.75" customHeight="1" s="202"/>
+    <row r="923" ht="15.75" customHeight="1" s="202"/>
+    <row r="924" ht="15.75" customHeight="1" s="202"/>
+    <row r="925" ht="15.75" customHeight="1" s="202"/>
+    <row r="926" ht="15.75" customHeight="1" s="202"/>
+    <row r="927" ht="15.75" customHeight="1" s="202"/>
+    <row r="928" ht="15.75" customHeight="1" s="202"/>
+    <row r="929" ht="15.75" customHeight="1" s="202"/>
+    <row r="930" ht="15.75" customHeight="1" s="202"/>
+    <row r="931" ht="15.75" customHeight="1" s="202"/>
+    <row r="932" ht="15.75" customHeight="1" s="202"/>
+    <row r="933" ht="15.75" customHeight="1" s="202"/>
+    <row r="934" ht="15.75" customHeight="1" s="202"/>
+    <row r="935" ht="15.75" customHeight="1" s="202"/>
+    <row r="936" ht="15.75" customHeight="1" s="202"/>
+    <row r="937" ht="15.75" customHeight="1" s="202"/>
+    <row r="938" ht="15.75" customHeight="1" s="202"/>
+    <row r="939" ht="15.75" customHeight="1" s="202"/>
+    <row r="940" ht="15.75" customHeight="1" s="202"/>
+    <row r="941" ht="15.75" customHeight="1" s="202"/>
+    <row r="942" ht="15.75" customHeight="1" s="202"/>
+    <row r="943" ht="15.75" customHeight="1" s="202"/>
+    <row r="944" ht="15.75" customHeight="1" s="202"/>
+    <row r="945" ht="15.75" customHeight="1" s="202"/>
+    <row r="946" ht="15.75" customHeight="1" s="202"/>
+    <row r="947" ht="15.75" customHeight="1" s="202"/>
+    <row r="948" ht="15.75" customHeight="1" s="202"/>
+    <row r="949" ht="15.75" customHeight="1" s="202"/>
+    <row r="950" ht="15.75" customHeight="1" s="202"/>
+    <row r="951" ht="15.75" customHeight="1" s="202"/>
+    <row r="952" ht="15.75" customHeight="1" s="202"/>
+    <row r="953" ht="15.75" customHeight="1" s="202"/>
+    <row r="954" ht="15.75" customHeight="1" s="202"/>
+    <row r="955" ht="15.75" customHeight="1" s="202"/>
+    <row r="956" ht="15.75" customHeight="1" s="202"/>
+    <row r="957" ht="15.75" customHeight="1" s="202"/>
+    <row r="958" ht="15.75" customHeight="1" s="202"/>
+    <row r="959" ht="15.75" customHeight="1" s="202"/>
+    <row r="960" ht="15.75" customHeight="1" s="202"/>
+    <row r="961" ht="15.75" customHeight="1" s="202"/>
+    <row r="962" ht="15.75" customHeight="1" s="202"/>
+    <row r="963" ht="15.75" customHeight="1" s="202"/>
+    <row r="964" ht="15.75" customHeight="1" s="202"/>
+    <row r="965" ht="15.75" customHeight="1" s="202"/>
+    <row r="966" ht="15.75" customHeight="1" s="202"/>
+    <row r="967" ht="15.75" customHeight="1" s="202"/>
+    <row r="968" ht="15.75" customHeight="1" s="202"/>
+    <row r="969" ht="15.75" customHeight="1" s="202"/>
+    <row r="970" ht="15.75" customHeight="1" s="202"/>
+    <row r="971" ht="15.75" customHeight="1" s="202"/>
+    <row r="972" ht="15.75" customHeight="1" s="202"/>
+    <row r="973" ht="15.75" customHeight="1" s="202"/>
+    <row r="974" ht="15.75" customHeight="1" s="202"/>
+    <row r="975" ht="15.75" customHeight="1" s="202"/>
+    <row r="976" ht="15.75" customHeight="1" s="202"/>
+    <row r="977" ht="15.75" customHeight="1" s="202"/>
+    <row r="978" ht="15.75" customHeight="1" s="202"/>
+    <row r="979" ht="15.75" customHeight="1" s="202"/>
+    <row r="980" ht="15.75" customHeight="1" s="202"/>
+    <row r="981" ht="15.75" customHeight="1" s="202"/>
+    <row r="982" ht="15.75" customHeight="1" s="202"/>
+    <row r="983" ht="15.75" customHeight="1" s="202"/>
+    <row r="984" ht="15.75" customHeight="1" s="202"/>
+    <row r="985" ht="15.75" customHeight="1" s="202"/>
+    <row r="986" ht="15.75" customHeight="1" s="202"/>
+    <row r="987" ht="15.75" customHeight="1" s="202"/>
+    <row r="988" ht="15.75" customHeight="1" s="202"/>
+    <row r="989" ht="15.75" customHeight="1" s="202"/>
+    <row r="990" ht="15.75" customHeight="1" s="202"/>
+    <row r="991" ht="15.75" customHeight="1" s="202"/>
+    <row r="992" ht="15.75" customHeight="1" s="202"/>
+    <row r="993" ht="15.75" customHeight="1" s="202"/>
+    <row r="994" ht="15.75" customHeight="1" s="202"/>
+    <row r="995" ht="15.75" customHeight="1" s="202"/>
+    <row r="996" ht="15.75" customHeight="1" s="202"/>
+    <row r="997" ht="15.75" customHeight="1" s="202"/>
+    <row r="998" ht="15.75" customHeight="1" s="202"/>
+    <row r="999" ht="15.75" customHeight="1" s="202"/>
+    <row r="1000" ht="15.75" customHeight="1" s="202"/>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
     <mergeCell ref="S42:T42"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C16:L16"/>
@@ -8944,37 +8987,6 @@
     <mergeCell ref="H39:L40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="J59:J60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -8995,20 +9007,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="2.42578125" customWidth="1" style="191" min="1" max="1"/>
-    <col width="4.42578125" customWidth="1" style="191" min="2" max="2"/>
-    <col width="16.7109375" customWidth="1" style="191" min="3" max="4"/>
-    <col width="4.42578125" bestFit="1" customWidth="1" style="191" min="6" max="6"/>
-    <col width="16.7109375" customWidth="1" style="191" min="7" max="8"/>
-    <col width="7.42578125" bestFit="1" customWidth="1" style="191" min="9" max="9"/>
-    <col width="4" customWidth="1" style="191" min="10" max="10"/>
-    <col width="16.85546875" customWidth="1" style="191" min="11" max="12"/>
-    <col width="4.140625" customWidth="1" style="191" min="14" max="14"/>
-    <col width="16.7109375" customWidth="1" style="191" min="15" max="17"/>
+    <col width="2.42578125" customWidth="1" style="202" min="1" max="1"/>
+    <col width="4.42578125" customWidth="1" style="202" min="2" max="2"/>
+    <col width="16.7109375" customWidth="1" style="202" min="3" max="4"/>
+    <col width="4.42578125" bestFit="1" customWidth="1" style="202" min="6" max="6"/>
+    <col width="16.7109375" customWidth="1" style="202" min="7" max="8"/>
+    <col width="7.42578125" bestFit="1" customWidth="1" style="202" min="9" max="9"/>
+    <col width="4" customWidth="1" style="202" min="10" max="10"/>
+    <col width="16.85546875" customWidth="1" style="202" min="11" max="12"/>
+    <col width="4.140625" customWidth="1" style="202" min="14" max="14"/>
+    <col width="16.7109375" customWidth="1" style="202" min="15" max="17"/>
   </cols>
   <sheetData>
-    <row r="2" ht="26.25" customHeight="1" s="191">
-      <c r="C2" s="190" t="inlineStr">
+    <row r="2" ht="26.25" customHeight="1" s="202">
+      <c r="C2" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">EURO 2020 </t>
         </is>
@@ -9302,21 +9314,21 @@
       <c r="K15" s="83" t="n"/>
       <c r="L15" s="83" t="n"/>
     </row>
-    <row r="16" ht="39.95" customHeight="1" s="191">
-      <c r="C16" s="208" t="inlineStr">
+    <row r="16" ht="39.95" customHeight="1" s="202">
+      <c r="C16" s="192" t="inlineStr">
         <is>
           <t>Group Stage predictions are made in a single submission and are due by Thursday Evening June 10th, 2021.</t>
         </is>
       </c>
-      <c r="D16" s="196" t="n"/>
-      <c r="E16" s="196" t="n"/>
-      <c r="F16" s="196" t="n"/>
-      <c r="G16" s="196" t="n"/>
-      <c r="H16" s="196" t="n"/>
-      <c r="I16" s="196" t="n"/>
-      <c r="J16" s="196" t="n"/>
-      <c r="K16" s="196" t="n"/>
-      <c r="L16" s="196" t="n"/>
+      <c r="D16" s="193" t="n"/>
+      <c r="E16" s="193" t="n"/>
+      <c r="F16" s="193" t="n"/>
+      <c r="G16" s="193" t="n"/>
+      <c r="H16" s="193" t="n"/>
+      <c r="I16" s="193" t="n"/>
+      <c r="J16" s="193" t="n"/>
+      <c r="K16" s="193" t="n"/>
+      <c r="L16" s="193" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="32" t="inlineStr">
@@ -9324,19 +9336,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D17" s="192" t="n"/>
-      <c r="E17" s="193" t="n"/>
-      <c r="F17" s="193" t="n"/>
-      <c r="G17" s="194" t="n"/>
-      <c r="H17" s="199" t="inlineStr">
+      <c r="D17" s="209" t="n"/>
+      <c r="E17" s="204" t="n"/>
+      <c r="F17" s="204" t="n"/>
+      <c r="G17" s="205" t="n"/>
+      <c r="H17" s="203" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I17" s="193" t="n"/>
-      <c r="J17" s="193" t="n"/>
-      <c r="K17" s="193" t="n"/>
-      <c r="L17" s="194" t="n"/>
+      <c r="I17" s="204" t="n"/>
+      <c r="J17" s="204" t="n"/>
+      <c r="K17" s="204" t="n"/>
+      <c r="L17" s="205" t="n"/>
     </row>
     <row r="18">
       <c r="C18" s="33" t="inlineStr">
@@ -9344,50 +9356,50 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D18" s="195" t="n"/>
-      <c r="E18" s="196" t="n"/>
-      <c r="F18" s="196" t="n"/>
+      <c r="D18" s="196" t="n"/>
+      <c r="E18" s="193" t="n"/>
+      <c r="F18" s="193" t="n"/>
       <c r="G18" s="197" t="n"/>
-      <c r="H18" s="200" t="n"/>
-      <c r="I18" s="196" t="n"/>
-      <c r="J18" s="196" t="n"/>
-      <c r="K18" s="196" t="n"/>
+      <c r="H18" s="206" t="n"/>
+      <c r="I18" s="193" t="n"/>
+      <c r="J18" s="193" t="n"/>
+      <c r="K18" s="193" t="n"/>
       <c r="L18" s="197" t="n"/>
     </row>
     <row r="19">
       <c r="C19" s="31" t="n"/>
     </row>
     <row r="20" customFormat="1" s="5">
-      <c r="C20" s="201" t="inlineStr">
+      <c r="C20" s="207" t="inlineStr">
         <is>
           <t>Match Day 1</t>
         </is>
       </c>
-      <c r="D20" s="193" t="n"/>
+      <c r="D20" s="204" t="n"/>
       <c r="E20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
       <c r="F20" s="36" t="n"/>
-      <c r="G20" s="201" t="inlineStr">
+      <c r="G20" s="207" t="inlineStr">
         <is>
           <t>Match Day 2</t>
         </is>
       </c>
-      <c r="H20" s="193" t="n"/>
+      <c r="H20" s="204" t="n"/>
       <c r="I20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
       <c r="J20" s="36" t="n"/>
-      <c r="K20" s="201" t="inlineStr">
+      <c r="K20" s="207" t="inlineStr">
         <is>
           <t>Match Day 3</t>
         </is>
       </c>
-      <c r="L20" s="193" t="n"/>
+      <c r="L20" s="204" t="n"/>
       <c r="M20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
@@ -10034,21 +10046,21 @@
       <c r="L36" s="97" t="n"/>
       <c r="M36" s="92" t="n"/>
     </row>
-    <row r="38" ht="39.95" customHeight="1" s="191">
-      <c r="C38" s="208" t="inlineStr">
+    <row r="38" ht="39.95" customHeight="1" s="202">
+      <c r="C38" s="192" t="inlineStr">
         <is>
           <t xml:space="preserve">We'll do the competition in two halves since the Round of 16 is heavily dependent on the Group Stages. </t>
         </is>
       </c>
-      <c r="D38" s="196" t="n"/>
-      <c r="E38" s="196" t="n"/>
-      <c r="F38" s="196" t="n"/>
-      <c r="G38" s="196" t="n"/>
-      <c r="H38" s="196" t="n"/>
-      <c r="I38" s="196" t="n"/>
-      <c r="J38" s="196" t="n"/>
-      <c r="K38" s="196" t="n"/>
-      <c r="L38" s="196" t="n"/>
+      <c r="D38" s="193" t="n"/>
+      <c r="E38" s="193" t="n"/>
+      <c r="F38" s="193" t="n"/>
+      <c r="G38" s="193" t="n"/>
+      <c r="H38" s="193" t="n"/>
+      <c r="I38" s="193" t="n"/>
+      <c r="J38" s="193" t="n"/>
+      <c r="K38" s="193" t="n"/>
+      <c r="L38" s="193" t="n"/>
     </row>
     <row r="39">
       <c r="C39" s="32" t="inlineStr">
@@ -10056,19 +10068,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D39" s="192" t="n"/>
-      <c r="E39" s="193" t="n"/>
-      <c r="F39" s="193" t="n"/>
-      <c r="G39" s="194" t="n"/>
-      <c r="H39" s="199" t="inlineStr">
+      <c r="D39" s="209" t="n"/>
+      <c r="E39" s="204" t="n"/>
+      <c r="F39" s="204" t="n"/>
+      <c r="G39" s="205" t="n"/>
+      <c r="H39" s="203" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULTS         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I39" s="193" t="n"/>
-      <c r="J39" s="193" t="n"/>
-      <c r="K39" s="193" t="n"/>
-      <c r="L39" s="194" t="n"/>
+      <c r="I39" s="204" t="n"/>
+      <c r="J39" s="204" t="n"/>
+      <c r="K39" s="204" t="n"/>
+      <c r="L39" s="205" t="n"/>
     </row>
     <row r="40">
       <c r="C40" s="33" t="inlineStr">
@@ -10076,27 +10088,27 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D40" s="195" t="n"/>
-      <c r="E40" s="196" t="n"/>
-      <c r="F40" s="196" t="n"/>
+      <c r="D40" s="196" t="n"/>
+      <c r="E40" s="193" t="n"/>
+      <c r="F40" s="193" t="n"/>
       <c r="G40" s="197" t="n"/>
-      <c r="H40" s="200" t="n"/>
-      <c r="I40" s="196" t="n"/>
-      <c r="J40" s="196" t="n"/>
-      <c r="K40" s="196" t="n"/>
+      <c r="H40" s="206" t="n"/>
+      <c r="I40" s="193" t="n"/>
+      <c r="J40" s="193" t="n"/>
+      <c r="K40" s="193" t="n"/>
       <c r="L40" s="197" t="n"/>
     </row>
     <row r="41">
       <c r="B41" s="46" t="n"/>
-      <c r="C41" s="196" t="n"/>
+      <c r="C41" s="193" t="n"/>
     </row>
     <row r="42">
-      <c r="B42" s="209" t="inlineStr">
+      <c r="B42" s="198" t="inlineStr">
         <is>
           <t>Round of 16</t>
         </is>
       </c>
-      <c r="C42" s="196" t="n"/>
+      <c r="C42" s="193" t="n"/>
       <c r="D42" s="30" t="inlineStr">
         <is>
           <t>Results</t>
@@ -10139,11 +10151,11 @@
         </is>
       </c>
       <c r="Q42" s="39" t="n"/>
-      <c r="S42" s="198" t="n"/>
+      <c r="S42" s="201" t="n"/>
       <c r="U42" s="39" t="n"/>
     </row>
     <row r="43">
-      <c r="B43" s="207" t="inlineStr">
+      <c r="B43" s="190" t="inlineStr">
         <is>
           <t>R1</t>
         </is>
@@ -10153,18 +10165,18 @@
           <t>Winner Group A</t>
         </is>
       </c>
-      <c r="D43" s="202" t="n"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B44" s="203" t="n"/>
-      <c r="C44" s="200" t="inlineStr">
+      <c r="D43" s="195" t="n"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B44" s="191" t="n"/>
+      <c r="C44" s="206" t="inlineStr">
         <is>
           <t>2nd Group C</t>
         </is>
       </c>
-      <c r="D44" s="203" t="n"/>
+      <c r="D44" s="191" t="n"/>
       <c r="E44" s="44" t="n"/>
-      <c r="F44" s="206" t="inlineStr">
+      <c r="F44" s="194" t="inlineStr">
         <is>
           <t>QF1</t>
         </is>
@@ -10174,22 +10186,22 @@
           <t>Winner R1</t>
         </is>
       </c>
-      <c r="H44" s="202" t="n"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="H44" s="195" t="n"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B45" s="5" t="n"/>
       <c r="D45" s="93" t="n"/>
       <c r="E45" s="43" t="n"/>
-      <c r="F45" s="203" t="n"/>
+      <c r="F45" s="191" t="n"/>
       <c r="G45" s="41" t="inlineStr">
         <is>
           <t>Winner R2</t>
         </is>
       </c>
-      <c r="H45" s="203" t="n"/>
+      <c r="H45" s="191" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="207" t="inlineStr">
+      <c r="B46" s="190" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
@@ -10199,22 +10211,22 @@
           <t>Winner Group B</t>
         </is>
       </c>
-      <c r="D46" s="202" t="n"/>
+      <c r="D46" s="195" t="n"/>
       <c r="G46" s="1" t="n"/>
       <c r="H46" s="94" t="n"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B47" s="203" t="n"/>
-      <c r="C47" s="200" t="inlineStr">
+    <row r="47" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B47" s="191" t="n"/>
+      <c r="C47" s="206" t="inlineStr">
         <is>
           <t>3rd Group A/D/E/F</t>
         </is>
       </c>
-      <c r="D47" s="203" t="n"/>
+      <c r="D47" s="191" t="n"/>
       <c r="G47" s="1" t="n"/>
       <c r="H47" s="95" t="n"/>
       <c r="I47" s="43" t="n"/>
-      <c r="J47" s="204" t="inlineStr">
+      <c r="J47" s="199" t="inlineStr">
         <is>
           <t>SF1</t>
         </is>
@@ -10224,8 +10236,8 @@
           <t>Winner QF1</t>
         </is>
       </c>
-      <c r="L47" s="202" t="n"/>
-      <c r="S47" s="198" t="n"/>
+      <c r="L47" s="195" t="n"/>
+      <c r="S47" s="201" t="n"/>
       <c r="U47" s="39" t="n"/>
     </row>
     <row r="48">
@@ -10233,16 +10245,16 @@
       <c r="D48" s="93" t="n"/>
       <c r="G48" s="1" t="n"/>
       <c r="H48" s="95" t="n"/>
-      <c r="J48" s="203" t="n"/>
+      <c r="J48" s="191" t="n"/>
       <c r="K48" s="42" t="inlineStr">
         <is>
           <t>Winner QF2</t>
         </is>
       </c>
-      <c r="L48" s="203" t="n"/>
+      <c r="L48" s="191" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="207" t="inlineStr">
+      <c r="B49" s="190" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
@@ -10252,22 +10264,22 @@
           <t>Winner Group F</t>
         </is>
       </c>
-      <c r="D49" s="202" t="n"/>
+      <c r="D49" s="195" t="n"/>
       <c r="G49" s="1" t="n"/>
       <c r="H49" s="96" t="n"/>
       <c r="K49" s="37" t="n"/>
       <c r="L49" s="94" t="n"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B50" s="203" t="n"/>
-      <c r="C50" s="200" t="inlineStr">
+    <row r="50" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B50" s="191" t="n"/>
+      <c r="C50" s="206" t="inlineStr">
         <is>
           <t>3rd Group A/B/C</t>
         </is>
       </c>
-      <c r="D50" s="203" t="n"/>
+      <c r="D50" s="191" t="n"/>
       <c r="E50" s="43" t="n"/>
-      <c r="F50" s="206" t="inlineStr">
+      <c r="F50" s="194" t="inlineStr">
         <is>
           <t>QF2</t>
         </is>
@@ -10277,26 +10289,26 @@
           <t>Winner R3</t>
         </is>
       </c>
-      <c r="H50" s="202" t="n"/>
+      <c r="H50" s="195" t="n"/>
       <c r="K50" s="37" t="n"/>
       <c r="L50" s="95" t="n"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1" s="191" thickBot="1">
+    <row r="51" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B51" s="5" t="n"/>
       <c r="D51" s="93" t="n"/>
       <c r="E51" s="43" t="n"/>
-      <c r="F51" s="203" t="n"/>
+      <c r="F51" s="191" t="n"/>
       <c r="G51" s="41" t="inlineStr">
         <is>
           <t>Winner R4</t>
         </is>
       </c>
-      <c r="H51" s="203" t="n"/>
+      <c r="H51" s="191" t="n"/>
       <c r="K51" s="37" t="n"/>
       <c r="L51" s="95" t="n"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B52" s="207" t="inlineStr">
+    <row r="52" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B52" s="190" t="inlineStr">
         <is>
           <t>R4</t>
         </is>
@@ -10306,13 +10318,13 @@
           <t>2nd Group D</t>
         </is>
       </c>
-      <c r="D52" s="202" t="n"/>
+      <c r="D52" s="195" t="n"/>
       <c r="G52" s="1" t="n"/>
       <c r="H52" s="93" t="n"/>
       <c r="K52" s="37" t="n"/>
       <c r="L52" s="95" t="n"/>
       <c r="M52" s="43" t="n"/>
-      <c r="N52" s="205" t="inlineStr">
+      <c r="N52" s="200" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -10322,27 +10334,27 @@
           <t>Winner SF1</t>
         </is>
       </c>
-      <c r="P52" s="202" t="n"/>
+      <c r="P52" s="195" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="203" t="n"/>
-      <c r="C53" s="200" t="inlineStr">
+      <c r="B53" s="191" t="n"/>
+      <c r="C53" s="206" t="inlineStr">
         <is>
           <t>2nd Group E</t>
         </is>
       </c>
-      <c r="D53" s="203" t="n"/>
+      <c r="D53" s="191" t="n"/>
       <c r="G53" s="1" t="n"/>
       <c r="H53" s="93" t="n"/>
       <c r="K53" s="37" t="n"/>
       <c r="L53" s="95" t="n"/>
-      <c r="N53" s="203" t="n"/>
+      <c r="N53" s="191" t="n"/>
       <c r="O53" s="42" t="inlineStr">
         <is>
           <t>Winner SF2</t>
         </is>
       </c>
-      <c r="P53" s="203" t="n"/>
+      <c r="P53" s="191" t="n"/>
     </row>
     <row r="54">
       <c r="B54" s="5" t="n"/>
@@ -10353,7 +10365,7 @@
       <c r="L54" s="95" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="207" t="inlineStr">
+      <c r="B55" s="190" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
@@ -10363,22 +10375,22 @@
           <t>Winner Group E</t>
         </is>
       </c>
-      <c r="D55" s="202" t="n"/>
+      <c r="D55" s="195" t="n"/>
       <c r="G55" s="1" t="n"/>
       <c r="H55" s="93" t="n"/>
       <c r="K55" s="37" t="n"/>
       <c r="L55" s="95" t="n"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B56" s="203" t="n"/>
-      <c r="C56" s="200" t="inlineStr">
+    <row r="56" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B56" s="191" t="n"/>
+      <c r="C56" s="206" t="inlineStr">
         <is>
           <t>3rd Group A/B/C/D</t>
         </is>
       </c>
-      <c r="D56" s="203" t="n"/>
+      <c r="D56" s="191" t="n"/>
       <c r="E56" s="44" t="n"/>
-      <c r="F56" s="206" t="inlineStr">
+      <c r="F56" s="194" t="inlineStr">
         <is>
           <t>QF3</t>
         </is>
@@ -10388,26 +10400,26 @@
           <t>Winner R5</t>
         </is>
       </c>
-      <c r="H56" s="202" t="n"/>
+      <c r="H56" s="195" t="n"/>
       <c r="K56" s="37" t="n"/>
       <c r="L56" s="95" t="n"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1" s="191" thickBot="1">
+    <row r="57" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B57" s="5" t="n"/>
       <c r="D57" s="93" t="n"/>
       <c r="E57" s="45" t="n"/>
-      <c r="F57" s="203" t="n"/>
+      <c r="F57" s="191" t="n"/>
       <c r="G57" s="41" t="inlineStr">
         <is>
           <t>Winner R6</t>
         </is>
       </c>
-      <c r="H57" s="203" t="n"/>
+      <c r="H57" s="191" t="n"/>
       <c r="K57" s="37" t="n"/>
       <c r="L57" s="95" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="207" t="inlineStr">
+      <c r="B58" s="190" t="inlineStr">
         <is>
           <t>R6</t>
         </is>
@@ -10417,24 +10429,24 @@
           <t>Winner Group D</t>
         </is>
       </c>
-      <c r="D58" s="202" t="n"/>
+      <c r="D58" s="195" t="n"/>
       <c r="G58" s="1" t="n"/>
       <c r="H58" s="94" t="n"/>
       <c r="K58" s="37" t="n"/>
       <c r="L58" s="96" t="n"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B59" s="203" t="n"/>
-      <c r="C59" s="200" t="inlineStr">
+    <row r="59" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B59" s="191" t="n"/>
+      <c r="C59" s="206" t="inlineStr">
         <is>
           <t>2nd Group F</t>
         </is>
       </c>
-      <c r="D59" s="203" t="n"/>
+      <c r="D59" s="191" t="n"/>
       <c r="G59" s="1" t="n"/>
       <c r="H59" s="95" t="n"/>
       <c r="I59" s="43" t="n"/>
-      <c r="J59" s="204" t="inlineStr">
+      <c r="J59" s="199" t="inlineStr">
         <is>
           <t>SF2</t>
         </is>
@@ -10444,23 +10456,23 @@
           <t>Winner QF3</t>
         </is>
       </c>
-      <c r="L59" s="202" t="n"/>
+      <c r="L59" s="195" t="n"/>
     </row>
     <row r="60">
       <c r="B60" s="5" t="n"/>
       <c r="D60" s="93" t="n"/>
       <c r="G60" s="1" t="n"/>
       <c r="H60" s="95" t="n"/>
-      <c r="J60" s="203" t="n"/>
+      <c r="J60" s="191" t="n"/>
       <c r="K60" s="42" t="inlineStr">
         <is>
           <t>Winner QF4</t>
         </is>
       </c>
-      <c r="L60" s="203" t="n"/>
+      <c r="L60" s="191" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="207" t="inlineStr">
+      <c r="B61" s="190" t="inlineStr">
         <is>
           <t>R7</t>
         </is>
@@ -10470,20 +10482,20 @@
           <t>Winner GroupC</t>
         </is>
       </c>
-      <c r="D61" s="202" t="n"/>
+      <c r="D61" s="195" t="n"/>
       <c r="G61" s="1" t="n"/>
       <c r="H61" s="96" t="n"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B62" s="203" t="n"/>
-      <c r="C62" s="200" t="inlineStr">
+    <row r="62" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B62" s="191" t="n"/>
+      <c r="C62" s="206" t="inlineStr">
         <is>
           <t>3rd Group D/E/F</t>
         </is>
       </c>
-      <c r="D62" s="203" t="n"/>
+      <c r="D62" s="191" t="n"/>
       <c r="E62" s="44" t="n"/>
-      <c r="F62" s="206" t="inlineStr">
+      <c r="F62" s="194" t="inlineStr">
         <is>
           <t>QF4</t>
         </is>
@@ -10493,22 +10505,22 @@
           <t>Winner R7</t>
         </is>
       </c>
-      <c r="H62" s="202" t="n"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="H62" s="195" t="n"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B63" s="5" t="n"/>
       <c r="D63" s="93" t="n"/>
       <c r="E63" s="45" t="n"/>
-      <c r="F63" s="203" t="n"/>
+      <c r="F63" s="191" t="n"/>
       <c r="G63" s="41" t="inlineStr">
         <is>
           <t>Winner R8</t>
         </is>
       </c>
-      <c r="H63" s="203" t="n"/>
+      <c r="H63" s="191" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="207" t="inlineStr">
+      <c r="B64" s="190" t="inlineStr">
         <is>
           <t>R8</t>
         </is>
@@ -10518,19 +10530,50 @@
           <t>2nd Group A</t>
         </is>
       </c>
-      <c r="D64" s="202" t="n"/>
+      <c r="D64" s="195" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" s="203" t="n"/>
-      <c r="C65" s="200" t="inlineStr">
+      <c r="B65" s="191" t="n"/>
+      <c r="C65" s="206" t="inlineStr">
         <is>
           <t>2nd Group B</t>
         </is>
       </c>
-      <c r="D65" s="203" t="n"/>
+      <c r="D65" s="191" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
     <mergeCell ref="S42:T42"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C16:L16"/>
@@ -10545,37 +10588,6 @@
     <mergeCell ref="H39:L40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="J59:J60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Euro2020/result_files/EC_2020.xlsx
+++ b/Euro2020/result_files/EC_2020.xlsx
@@ -1237,58 +1237,74 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="15"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="15"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="15"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="13">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="13">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
       <alignment horizontal="center"/>
@@ -1319,22 +1335,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -1731,25 +1731,25 @@
   <dimension ref="B2:U65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="2.42578125" customWidth="1" style="202" min="1" max="1"/>
-    <col width="4.42578125" customWidth="1" style="202" min="2" max="2"/>
-    <col width="16.7109375" customWidth="1" style="202" min="3" max="4"/>
-    <col width="4.42578125" bestFit="1" customWidth="1" style="202" min="6" max="6"/>
-    <col width="16.7109375" customWidth="1" style="202" min="7" max="8"/>
-    <col width="7.42578125" bestFit="1" customWidth="1" style="202" min="9" max="9"/>
-    <col width="4" customWidth="1" style="202" min="10" max="10"/>
-    <col width="16.85546875" customWidth="1" style="202" min="11" max="12"/>
-    <col width="4.140625" customWidth="1" style="202" min="14" max="14"/>
-    <col width="16.7109375" customWidth="1" style="202" min="15" max="17"/>
+    <col width="2.42578125" customWidth="1" style="191" min="1" max="1"/>
+    <col width="4.42578125" customWidth="1" style="191" min="2" max="2"/>
+    <col width="16.7109375" customWidth="1" style="191" min="3" max="4"/>
+    <col width="4.42578125" bestFit="1" customWidth="1" style="191" min="6" max="6"/>
+    <col width="16.7109375" customWidth="1" style="191" min="7" max="8"/>
+    <col width="7.42578125" bestFit="1" customWidth="1" style="191" min="9" max="9"/>
+    <col width="4" customWidth="1" style="191" min="10" max="10"/>
+    <col width="16.85546875" customWidth="1" style="191" min="11" max="12"/>
+    <col width="4.140625" customWidth="1" style="191" min="14" max="14"/>
+    <col width="16.7109375" customWidth="1" style="191" min="15" max="17"/>
   </cols>
   <sheetData>
-    <row r="2" ht="26.25" customHeight="1" s="202">
-      <c r="C2" s="208" t="inlineStr">
+    <row r="2" ht="26.25" customHeight="1" s="191">
+      <c r="C2" s="190" t="inlineStr">
         <is>
           <t xml:space="preserve">EURO 2020 </t>
         </is>
@@ -1798,7 +1798,7 @@
         </is>
       </c>
       <c r="D5" s="7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E5" s="83" t="n"/>
       <c r="F5" s="83" t="n"/>
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="D7" s="7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E7" s="83" t="n"/>
       <c r="F7" s="83" t="n"/>
@@ -2091,21 +2091,21 @@
       <c r="K15" s="83" t="n"/>
       <c r="L15" s="83" t="n"/>
     </row>
-    <row r="16" ht="39.95" customHeight="1" s="202">
-      <c r="C16" s="192" t="inlineStr">
+    <row r="16" ht="39.95" customHeight="1" s="191">
+      <c r="C16" s="208" t="inlineStr">
         <is>
           <t>Group Stage predictions are made in a single submission and are due by Thursday Evening June 10th, 2021.</t>
         </is>
       </c>
-      <c r="D16" s="193" t="n"/>
-      <c r="E16" s="193" t="n"/>
-      <c r="F16" s="193" t="n"/>
-      <c r="G16" s="193" t="n"/>
-      <c r="H16" s="193" t="n"/>
-      <c r="I16" s="193" t="n"/>
-      <c r="J16" s="193" t="n"/>
-      <c r="K16" s="193" t="n"/>
-      <c r="L16" s="193" t="n"/>
+      <c r="D16" s="196" t="n"/>
+      <c r="E16" s="196" t="n"/>
+      <c r="F16" s="196" t="n"/>
+      <c r="G16" s="196" t="n"/>
+      <c r="H16" s="196" t="n"/>
+      <c r="I16" s="196" t="n"/>
+      <c r="J16" s="196" t="n"/>
+      <c r="K16" s="196" t="n"/>
+      <c r="L16" s="196" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="32" t="inlineStr">
@@ -2113,19 +2113,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D17" s="209" t="n"/>
-      <c r="E17" s="204" t="n"/>
-      <c r="F17" s="204" t="n"/>
-      <c r="G17" s="205" t="n"/>
-      <c r="H17" s="203" t="inlineStr">
+      <c r="D17" s="192" t="n"/>
+      <c r="E17" s="193" t="n"/>
+      <c r="F17" s="193" t="n"/>
+      <c r="G17" s="194" t="n"/>
+      <c r="H17" s="199" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I17" s="204" t="n"/>
-      <c r="J17" s="204" t="n"/>
-      <c r="K17" s="204" t="n"/>
-      <c r="L17" s="205" t="n"/>
+      <c r="I17" s="193" t="n"/>
+      <c r="J17" s="193" t="n"/>
+      <c r="K17" s="193" t="n"/>
+      <c r="L17" s="194" t="n"/>
     </row>
     <row r="18">
       <c r="C18" s="33" t="inlineStr">
@@ -2133,50 +2133,50 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D18" s="196" t="n"/>
-      <c r="E18" s="193" t="n"/>
-      <c r="F18" s="193" t="n"/>
+      <c r="D18" s="195" t="n"/>
+      <c r="E18" s="196" t="n"/>
+      <c r="F18" s="196" t="n"/>
       <c r="G18" s="197" t="n"/>
-      <c r="H18" s="206" t="n"/>
-      <c r="I18" s="193" t="n"/>
-      <c r="J18" s="193" t="n"/>
-      <c r="K18" s="193" t="n"/>
+      <c r="H18" s="200" t="n"/>
+      <c r="I18" s="196" t="n"/>
+      <c r="J18" s="196" t="n"/>
+      <c r="K18" s="196" t="n"/>
       <c r="L18" s="197" t="n"/>
     </row>
     <row r="19">
       <c r="C19" s="31" t="n"/>
     </row>
     <row r="20" customFormat="1" s="5">
-      <c r="C20" s="207" t="inlineStr">
+      <c r="C20" s="201" t="inlineStr">
         <is>
           <t>Match Day 1</t>
         </is>
       </c>
-      <c r="D20" s="204" t="n"/>
+      <c r="D20" s="193" t="n"/>
       <c r="E20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
       <c r="F20" s="36" t="n"/>
-      <c r="G20" s="207" t="inlineStr">
+      <c r="G20" s="201" t="inlineStr">
         <is>
           <t>Match Day 2</t>
         </is>
       </c>
-      <c r="H20" s="204" t="n"/>
+      <c r="H20" s="193" t="n"/>
       <c r="I20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
       <c r="J20" s="36" t="n"/>
-      <c r="K20" s="207" t="inlineStr">
+      <c r="K20" s="201" t="inlineStr">
         <is>
           <t>Match Day 3</t>
         </is>
       </c>
-      <c r="L20" s="204" t="n"/>
+      <c r="L20" s="193" t="n"/>
       <c r="M20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
@@ -2226,7 +2226,11 @@
           <t>Wales</t>
         </is>
       </c>
-      <c r="M21" s="84" t="n"/>
+      <c r="M21" s="84" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="C22" s="52" t="n"/>
@@ -2259,7 +2263,11 @@
           <t>Turkey</t>
         </is>
       </c>
-      <c r="M22" s="84" t="n"/>
+      <c r="M22" s="84" t="inlineStr">
+        <is>
+          <t>3-1</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="C23" s="48" t="inlineStr">
@@ -2775,21 +2783,21 @@
       <c r="L36" s="97" t="n"/>
       <c r="M36" s="92" t="n"/>
     </row>
-    <row r="38" ht="39.95" customHeight="1" s="202">
-      <c r="C38" s="192" t="inlineStr">
+    <row r="38" ht="39.95" customHeight="1" s="191">
+      <c r="C38" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">We'll do the competition in two halves since the Round of 16 is heavily dependent on the Group Stages. </t>
         </is>
       </c>
-      <c r="D38" s="193" t="n"/>
-      <c r="E38" s="193" t="n"/>
-      <c r="F38" s="193" t="n"/>
-      <c r="G38" s="193" t="n"/>
-      <c r="H38" s="193" t="n"/>
-      <c r="I38" s="193" t="n"/>
-      <c r="J38" s="193" t="n"/>
-      <c r="K38" s="193" t="n"/>
-      <c r="L38" s="193" t="n"/>
+      <c r="D38" s="196" t="n"/>
+      <c r="E38" s="196" t="n"/>
+      <c r="F38" s="196" t="n"/>
+      <c r="G38" s="196" t="n"/>
+      <c r="H38" s="196" t="n"/>
+      <c r="I38" s="196" t="n"/>
+      <c r="J38" s="196" t="n"/>
+      <c r="K38" s="196" t="n"/>
+      <c r="L38" s="196" t="n"/>
     </row>
     <row r="39">
       <c r="C39" s="32" t="inlineStr">
@@ -2797,19 +2805,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D39" s="209" t="n"/>
-      <c r="E39" s="204" t="n"/>
-      <c r="F39" s="204" t="n"/>
-      <c r="G39" s="205" t="n"/>
-      <c r="H39" s="203" t="inlineStr">
+      <c r="D39" s="192" t="n"/>
+      <c r="E39" s="193" t="n"/>
+      <c r="F39" s="193" t="n"/>
+      <c r="G39" s="194" t="n"/>
+      <c r="H39" s="199" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULTS         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I39" s="204" t="n"/>
-      <c r="J39" s="204" t="n"/>
-      <c r="K39" s="204" t="n"/>
-      <c r="L39" s="205" t="n"/>
+      <c r="I39" s="193" t="n"/>
+      <c r="J39" s="193" t="n"/>
+      <c r="K39" s="193" t="n"/>
+      <c r="L39" s="194" t="n"/>
     </row>
     <row r="40">
       <c r="C40" s="33" t="inlineStr">
@@ -2817,27 +2825,27 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D40" s="196" t="n"/>
-      <c r="E40" s="193" t="n"/>
-      <c r="F40" s="193" t="n"/>
+      <c r="D40" s="195" t="n"/>
+      <c r="E40" s="196" t="n"/>
+      <c r="F40" s="196" t="n"/>
       <c r="G40" s="197" t="n"/>
-      <c r="H40" s="206" t="n"/>
-      <c r="I40" s="193" t="n"/>
-      <c r="J40" s="193" t="n"/>
-      <c r="K40" s="193" t="n"/>
+      <c r="H40" s="200" t="n"/>
+      <c r="I40" s="196" t="n"/>
+      <c r="J40" s="196" t="n"/>
+      <c r="K40" s="196" t="n"/>
       <c r="L40" s="197" t="n"/>
     </row>
     <row r="41">
       <c r="B41" s="46" t="n"/>
-      <c r="C41" s="193" t="n"/>
+      <c r="C41" s="196" t="n"/>
     </row>
     <row r="42">
-      <c r="B42" s="198" t="inlineStr">
+      <c r="B42" s="209" t="inlineStr">
         <is>
           <t>Round of 16</t>
         </is>
       </c>
-      <c r="C42" s="193" t="n"/>
+      <c r="C42" s="196" t="n"/>
       <c r="D42" s="30" t="inlineStr">
         <is>
           <t>Results</t>
@@ -2880,32 +2888,32 @@
         </is>
       </c>
       <c r="Q42" s="39" t="n"/>
-      <c r="S42" s="201" t="n"/>
+      <c r="S42" s="198" t="n"/>
       <c r="U42" s="39" t="n"/>
     </row>
     <row r="43">
-      <c r="B43" s="190" t="inlineStr">
+      <c r="B43" s="207" t="inlineStr">
         <is>
           <t>R1</t>
         </is>
       </c>
       <c r="C43" s="38" t="inlineStr">
         <is>
-          <t>Winner Group A</t>
-        </is>
-      </c>
-      <c r="D43" s="195" t="n"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B44" s="191" t="n"/>
-      <c r="C44" s="206" t="inlineStr">
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="D43" s="202" t="n"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B44" s="203" t="n"/>
+      <c r="C44" s="200" t="inlineStr">
         <is>
           <t>2nd Group C</t>
         </is>
       </c>
-      <c r="D44" s="191" t="n"/>
+      <c r="D44" s="203" t="n"/>
       <c r="E44" s="44" t="n"/>
-      <c r="F44" s="194" t="inlineStr">
+      <c r="F44" s="206" t="inlineStr">
         <is>
           <t>QF1</t>
         </is>
@@ -2915,22 +2923,22 @@
           <t>Winner R1</t>
         </is>
       </c>
-      <c r="H44" s="195" t="n"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="H44" s="202" t="n"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1" s="191" thickBot="1">
       <c r="B45" s="5" t="n"/>
       <c r="D45" s="93" t="n"/>
       <c r="E45" s="43" t="n"/>
-      <c r="F45" s="191" t="n"/>
+      <c r="F45" s="203" t="n"/>
       <c r="G45" s="41" t="inlineStr">
         <is>
           <t>Winner R2</t>
         </is>
       </c>
-      <c r="H45" s="191" t="n"/>
+      <c r="H45" s="203" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="190" t="inlineStr">
+      <c r="B46" s="207" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
@@ -2940,22 +2948,22 @@
           <t>Winner Group B</t>
         </is>
       </c>
-      <c r="D46" s="195" t="n"/>
+      <c r="D46" s="202" t="n"/>
       <c r="G46" s="1" t="n"/>
       <c r="H46" s="94" t="n"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B47" s="191" t="n"/>
-      <c r="C47" s="206" t="inlineStr">
+    <row r="47" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B47" s="203" t="n"/>
+      <c r="C47" s="200" t="inlineStr">
         <is>
           <t>3rd Group A/D/E/F</t>
         </is>
       </c>
-      <c r="D47" s="191" t="n"/>
+      <c r="D47" s="203" t="n"/>
       <c r="G47" s="1" t="n"/>
       <c r="H47" s="95" t="n"/>
       <c r="I47" s="43" t="n"/>
-      <c r="J47" s="199" t="inlineStr">
+      <c r="J47" s="204" t="inlineStr">
         <is>
           <t>SF1</t>
         </is>
@@ -2965,8 +2973,8 @@
           <t>Winner QF1</t>
         </is>
       </c>
-      <c r="L47" s="195" t="n"/>
-      <c r="S47" s="201" t="n"/>
+      <c r="L47" s="202" t="n"/>
+      <c r="S47" s="198" t="n"/>
       <c r="U47" s="39" t="n"/>
     </row>
     <row r="48">
@@ -2974,16 +2982,16 @@
       <c r="D48" s="93" t="n"/>
       <c r="G48" s="1" t="n"/>
       <c r="H48" s="95" t="n"/>
-      <c r="J48" s="191" t="n"/>
+      <c r="J48" s="203" t="n"/>
       <c r="K48" s="42" t="inlineStr">
         <is>
           <t>Winner QF2</t>
         </is>
       </c>
-      <c r="L48" s="191" t="n"/>
+      <c r="L48" s="203" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="190" t="inlineStr">
+      <c r="B49" s="207" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
@@ -2993,22 +3001,22 @@
           <t>Winner Group F</t>
         </is>
       </c>
-      <c r="D49" s="195" t="n"/>
+      <c r="D49" s="202" t="n"/>
       <c r="G49" s="1" t="n"/>
       <c r="H49" s="96" t="n"/>
       <c r="K49" s="37" t="n"/>
       <c r="L49" s="94" t="n"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B50" s="191" t="n"/>
-      <c r="C50" s="206" t="inlineStr">
+    <row r="50" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B50" s="203" t="n"/>
+      <c r="C50" s="200" t="inlineStr">
         <is>
           <t>3rd Group A/B/C</t>
         </is>
       </c>
-      <c r="D50" s="191" t="n"/>
+      <c r="D50" s="203" t="n"/>
       <c r="E50" s="43" t="n"/>
-      <c r="F50" s="194" t="inlineStr">
+      <c r="F50" s="206" t="inlineStr">
         <is>
           <t>QF2</t>
         </is>
@@ -3018,26 +3026,26 @@
           <t>Winner R3</t>
         </is>
       </c>
-      <c r="H50" s="195" t="n"/>
+      <c r="H50" s="202" t="n"/>
       <c r="K50" s="37" t="n"/>
       <c r="L50" s="95" t="n"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1" s="202" thickBot="1">
+    <row r="51" ht="15.75" customHeight="1" s="191" thickBot="1">
       <c r="B51" s="5" t="n"/>
       <c r="D51" s="93" t="n"/>
       <c r="E51" s="43" t="n"/>
-      <c r="F51" s="191" t="n"/>
+      <c r="F51" s="203" t="n"/>
       <c r="G51" s="41" t="inlineStr">
         <is>
           <t>Winner R4</t>
         </is>
       </c>
-      <c r="H51" s="191" t="n"/>
+      <c r="H51" s="203" t="n"/>
       <c r="K51" s="37" t="n"/>
       <c r="L51" s="95" t="n"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B52" s="190" t="inlineStr">
+    <row r="52" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B52" s="207" t="inlineStr">
         <is>
           <t>R4</t>
         </is>
@@ -3047,13 +3055,13 @@
           <t>2nd Group D</t>
         </is>
       </c>
-      <c r="D52" s="195" t="n"/>
+      <c r="D52" s="202" t="n"/>
       <c r="G52" s="1" t="n"/>
       <c r="H52" s="93" t="n"/>
       <c r="K52" s="37" t="n"/>
       <c r="L52" s="95" t="n"/>
       <c r="M52" s="43" t="n"/>
-      <c r="N52" s="200" t="inlineStr">
+      <c r="N52" s="205" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -3063,27 +3071,27 @@
           <t>Winner SF1</t>
         </is>
       </c>
-      <c r="P52" s="195" t="n"/>
+      <c r="P52" s="202" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="191" t="n"/>
-      <c r="C53" s="206" t="inlineStr">
+      <c r="B53" s="203" t="n"/>
+      <c r="C53" s="200" t="inlineStr">
         <is>
           <t>2nd Group E</t>
         </is>
       </c>
-      <c r="D53" s="191" t="n"/>
+      <c r="D53" s="203" t="n"/>
       <c r="G53" s="1" t="n"/>
       <c r="H53" s="93" t="n"/>
       <c r="K53" s="37" t="n"/>
       <c r="L53" s="95" t="n"/>
-      <c r="N53" s="191" t="n"/>
+      <c r="N53" s="203" t="n"/>
       <c r="O53" s="42" t="inlineStr">
         <is>
           <t>Winner SF2</t>
         </is>
       </c>
-      <c r="P53" s="191" t="n"/>
+      <c r="P53" s="203" t="n"/>
     </row>
     <row r="54">
       <c r="B54" s="5" t="n"/>
@@ -3094,7 +3102,7 @@
       <c r="L54" s="95" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="190" t="inlineStr">
+      <c r="B55" s="207" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
@@ -3104,22 +3112,22 @@
           <t>Winner Group E</t>
         </is>
       </c>
-      <c r="D55" s="195" t="n"/>
+      <c r="D55" s="202" t="n"/>
       <c r="G55" s="1" t="n"/>
       <c r="H55" s="93" t="n"/>
       <c r="K55" s="37" t="n"/>
       <c r="L55" s="95" t="n"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B56" s="191" t="n"/>
-      <c r="C56" s="206" t="inlineStr">
+    <row r="56" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B56" s="203" t="n"/>
+      <c r="C56" s="200" t="inlineStr">
         <is>
           <t>3rd Group A/B/C/D</t>
         </is>
       </c>
-      <c r="D56" s="191" t="n"/>
+      <c r="D56" s="203" t="n"/>
       <c r="E56" s="44" t="n"/>
-      <c r="F56" s="194" t="inlineStr">
+      <c r="F56" s="206" t="inlineStr">
         <is>
           <t>QF3</t>
         </is>
@@ -3129,26 +3137,26 @@
           <t>Winner R5</t>
         </is>
       </c>
-      <c r="H56" s="195" t="n"/>
+      <c r="H56" s="202" t="n"/>
       <c r="K56" s="37" t="n"/>
       <c r="L56" s="95" t="n"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1" s="202" thickBot="1">
+    <row r="57" ht="15.75" customHeight="1" s="191" thickBot="1">
       <c r="B57" s="5" t="n"/>
       <c r="D57" s="93" t="n"/>
       <c r="E57" s="45" t="n"/>
-      <c r="F57" s="191" t="n"/>
+      <c r="F57" s="203" t="n"/>
       <c r="G57" s="41" t="inlineStr">
         <is>
           <t>Winner R6</t>
         </is>
       </c>
-      <c r="H57" s="191" t="n"/>
+      <c r="H57" s="203" t="n"/>
       <c r="K57" s="37" t="n"/>
       <c r="L57" s="95" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="190" t="inlineStr">
+      <c r="B58" s="207" t="inlineStr">
         <is>
           <t>R6</t>
         </is>
@@ -3158,24 +3166,24 @@
           <t>Winner Group D</t>
         </is>
       </c>
-      <c r="D58" s="195" t="n"/>
+      <c r="D58" s="202" t="n"/>
       <c r="G58" s="1" t="n"/>
       <c r="H58" s="94" t="n"/>
       <c r="K58" s="37" t="n"/>
       <c r="L58" s="96" t="n"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B59" s="191" t="n"/>
-      <c r="C59" s="206" t="inlineStr">
+    <row r="59" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B59" s="203" t="n"/>
+      <c r="C59" s="200" t="inlineStr">
         <is>
           <t>2nd Group F</t>
         </is>
       </c>
-      <c r="D59" s="191" t="n"/>
+      <c r="D59" s="203" t="n"/>
       <c r="G59" s="1" t="n"/>
       <c r="H59" s="95" t="n"/>
       <c r="I59" s="43" t="n"/>
-      <c r="J59" s="199" t="inlineStr">
+      <c r="J59" s="204" t="inlineStr">
         <is>
           <t>SF2</t>
         </is>
@@ -3185,23 +3193,23 @@
           <t>Winner QF3</t>
         </is>
       </c>
-      <c r="L59" s="195" t="n"/>
+      <c r="L59" s="202" t="n"/>
     </row>
     <row r="60">
       <c r="B60" s="5" t="n"/>
       <c r="D60" s="93" t="n"/>
       <c r="G60" s="1" t="n"/>
       <c r="H60" s="95" t="n"/>
-      <c r="J60" s="191" t="n"/>
+      <c r="J60" s="203" t="n"/>
       <c r="K60" s="42" t="inlineStr">
         <is>
           <t>Winner QF4</t>
         </is>
       </c>
-      <c r="L60" s="191" t="n"/>
+      <c r="L60" s="203" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="190" t="inlineStr">
+      <c r="B61" s="207" t="inlineStr">
         <is>
           <t>R7</t>
         </is>
@@ -3211,20 +3219,20 @@
           <t>Winner GroupC</t>
         </is>
       </c>
-      <c r="D61" s="195" t="n"/>
+      <c r="D61" s="202" t="n"/>
       <c r="G61" s="1" t="n"/>
       <c r="H61" s="96" t="n"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B62" s="191" t="n"/>
-      <c r="C62" s="206" t="inlineStr">
+    <row r="62" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B62" s="203" t="n"/>
+      <c r="C62" s="200" t="inlineStr">
         <is>
           <t>3rd Group D/E/F</t>
         </is>
       </c>
-      <c r="D62" s="191" t="n"/>
+      <c r="D62" s="203" t="n"/>
       <c r="E62" s="44" t="n"/>
-      <c r="F62" s="194" t="inlineStr">
+      <c r="F62" s="206" t="inlineStr">
         <is>
           <t>QF4</t>
         </is>
@@ -3234,64 +3242,54 @@
           <t>Winner R7</t>
         </is>
       </c>
-      <c r="H62" s="195" t="n"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="H62" s="202" t="n"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" s="191" thickBot="1">
       <c r="B63" s="5" t="n"/>
       <c r="D63" s="93" t="n"/>
       <c r="E63" s="45" t="n"/>
-      <c r="F63" s="191" t="n"/>
+      <c r="F63" s="203" t="n"/>
       <c r="G63" s="41" t="inlineStr">
         <is>
           <t>Winner R8</t>
         </is>
       </c>
-      <c r="H63" s="191" t="n"/>
+      <c r="H63" s="203" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="190" t="inlineStr">
+      <c r="B64" s="207" t="inlineStr">
         <is>
           <t>R8</t>
         </is>
       </c>
       <c r="C64" s="38" t="inlineStr">
         <is>
-          <t>2nd Group A</t>
-        </is>
-      </c>
-      <c r="D64" s="195" t="n"/>
+          <t>Wales</t>
+        </is>
+      </c>
+      <c r="D64" s="202" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" s="191" t="n"/>
-      <c r="C65" s="206" t="inlineStr">
+      <c r="B65" s="203" t="n"/>
+      <c r="C65" s="200" t="inlineStr">
         <is>
           <t>2nd Group B</t>
         </is>
       </c>
-      <c r="D65" s="191" t="n"/>
+      <c r="D65" s="203" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="H17:L18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="H39:L40"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C38:L38"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="F62:F63"/>
     <mergeCell ref="F56:F57"/>
     <mergeCell ref="F50:F51"/>
@@ -3307,16 +3305,26 @@
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="D64:D65"/>
     <mergeCell ref="D58:D59"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C38:L38"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="H17:L18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="H39:L40"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="S42:T42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -3335,17 +3343,17 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5.28515625" customWidth="1" style="202" min="1" max="1"/>
-    <col width="15.140625" bestFit="1" customWidth="1" style="202" min="2" max="2"/>
-    <col width="5.7109375" customWidth="1" style="202" min="3" max="4"/>
-    <col width="16.7109375" customWidth="1" style="202" min="5" max="5"/>
-    <col width="5.7109375" customWidth="1" style="202" min="6" max="7"/>
-    <col width="16.7109375" customWidth="1" style="202" min="8" max="8"/>
-    <col width="5.7109375" customWidth="1" style="202" min="9" max="10"/>
-    <col width="16.7109375" customWidth="1" style="202" min="11" max="11"/>
-    <col width="5.7109375" customWidth="1" style="202" min="12" max="13"/>
+    <col width="5.28515625" customWidth="1" style="191" min="1" max="1"/>
+    <col width="15.140625" bestFit="1" customWidth="1" style="191" min="2" max="2"/>
+    <col width="5.7109375" customWidth="1" style="191" min="3" max="4"/>
+    <col width="16.7109375" customWidth="1" style="191" min="5" max="5"/>
+    <col width="5.7109375" customWidth="1" style="191" min="6" max="7"/>
+    <col width="16.7109375" customWidth="1" style="191" min="8" max="8"/>
+    <col width="5.7109375" customWidth="1" style="191" min="9" max="10"/>
+    <col width="16.7109375" customWidth="1" style="191" min="11" max="11"/>
+    <col width="5.7109375" customWidth="1" style="191" min="12" max="13"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -3399,7 +3407,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
@@ -3407,7 +3415,7 @@
         </is>
       </c>
       <c r="F3" s="7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G3" s="83" t="n"/>
       <c r="H3" s="10" t="inlineStr">
@@ -3435,7 +3443,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" s="6" t="inlineStr">
         <is>
@@ -3471,7 +3479,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="6" t="inlineStr">
         <is>
@@ -3479,7 +3487,7 @@
         </is>
       </c>
       <c r="F5" s="7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G5" s="83" t="n"/>
       <c r="H5" s="10" t="inlineStr">
@@ -3701,27 +3709,27 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col width="2.42578125" customWidth="1" style="211" min="1" max="1"/>
-    <col width="4.42578125" customWidth="1" style="211" min="2" max="2"/>
-    <col width="16.7109375" customWidth="1" style="211" min="3" max="4"/>
-    <col width="8.7109375" customWidth="1" style="211" min="5" max="5"/>
-    <col width="4.42578125" customWidth="1" style="211" min="6" max="6"/>
-    <col width="16.7109375" customWidth="1" style="211" min="7" max="8"/>
-    <col width="7.42578125" customWidth="1" style="211" min="9" max="9"/>
-    <col width="4" customWidth="1" style="211" min="10" max="10"/>
-    <col width="16.85546875" customWidth="1" style="211" min="11" max="12"/>
-    <col width="8.7109375" customWidth="1" style="211" min="13" max="13"/>
-    <col width="4.140625" customWidth="1" style="211" min="14" max="14"/>
-    <col width="16.7109375" customWidth="1" style="211" min="15" max="17"/>
-    <col width="8.7109375" customWidth="1" style="211" min="18" max="26"/>
-    <col width="14.42578125" customWidth="1" style="211" min="27" max="31"/>
-    <col width="14.42578125" customWidth="1" style="211" min="32" max="16384"/>
+    <col width="2.42578125" customWidth="1" style="217" min="1" max="1"/>
+    <col width="4.42578125" customWidth="1" style="217" min="2" max="2"/>
+    <col width="16.7109375" customWidth="1" style="217" min="3" max="4"/>
+    <col width="8.7109375" customWidth="1" style="217" min="5" max="5"/>
+    <col width="4.42578125" customWidth="1" style="217" min="6" max="6"/>
+    <col width="16.7109375" customWidth="1" style="217" min="7" max="8"/>
+    <col width="7.42578125" customWidth="1" style="217" min="9" max="9"/>
+    <col width="4" customWidth="1" style="217" min="10" max="10"/>
+    <col width="16.85546875" customWidth="1" style="217" min="11" max="12"/>
+    <col width="8.7109375" customWidth="1" style="217" min="13" max="13"/>
+    <col width="4.140625" customWidth="1" style="217" min="14" max="14"/>
+    <col width="16.7109375" customWidth="1" style="217" min="15" max="17"/>
+    <col width="8.7109375" customWidth="1" style="217" min="18" max="26"/>
+    <col width="14.42578125" customWidth="1" style="217" min="27" max="32"/>
+    <col width="14.42578125" customWidth="1" style="217" min="33" max="16384"/>
   </cols>
   <sheetData>
-    <row r="2" ht="26.25" customHeight="1" s="202">
-      <c r="C2" s="212" t="inlineStr">
+    <row r="2" ht="26.25" customHeight="1" s="191">
+      <c r="C2" s="218" t="inlineStr">
         <is>
           <t xml:space="preserve">EURO 2020 </t>
         </is>
@@ -4015,21 +4023,21 @@
       <c r="K15" s="100" t="n"/>
       <c r="L15" s="100" t="n"/>
     </row>
-    <row r="16" ht="39.75" customHeight="1" s="202">
-      <c r="C16" s="213" t="inlineStr">
+    <row r="16" ht="39.75" customHeight="1" s="191">
+      <c r="C16" s="219" t="inlineStr">
         <is>
           <t>Group Stage predictions are made in a single submission and are due by Thursday Evening June 10th, 2021.</t>
         </is>
       </c>
-      <c r="D16" s="214" t="n"/>
-      <c r="E16" s="214" t="n"/>
-      <c r="F16" s="214" t="n"/>
-      <c r="G16" s="214" t="n"/>
-      <c r="H16" s="214" t="n"/>
-      <c r="I16" s="214" t="n"/>
-      <c r="J16" s="214" t="n"/>
-      <c r="K16" s="214" t="n"/>
-      <c r="L16" s="214" t="n"/>
+      <c r="D16" s="220" t="n"/>
+      <c r="E16" s="220" t="n"/>
+      <c r="F16" s="220" t="n"/>
+      <c r="G16" s="220" t="n"/>
+      <c r="H16" s="220" t="n"/>
+      <c r="I16" s="220" t="n"/>
+      <c r="J16" s="220" t="n"/>
+      <c r="K16" s="220" t="n"/>
+      <c r="L16" s="220" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="136" t="inlineStr">
@@ -4037,19 +4045,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D17" s="215" t="n"/>
-      <c r="E17" s="216" t="n"/>
-      <c r="F17" s="216" t="n"/>
-      <c r="G17" s="217" t="n"/>
-      <c r="H17" s="218" t="inlineStr">
+      <c r="D17" s="221" t="n"/>
+      <c r="E17" s="222" t="n"/>
+      <c r="F17" s="222" t="n"/>
+      <c r="G17" s="223" t="n"/>
+      <c r="H17" s="224" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I17" s="216" t="n"/>
-      <c r="J17" s="216" t="n"/>
-      <c r="K17" s="216" t="n"/>
-      <c r="L17" s="217" t="n"/>
+      <c r="I17" s="222" t="n"/>
+      <c r="J17" s="222" t="n"/>
+      <c r="K17" s="222" t="n"/>
+      <c r="L17" s="223" t="n"/>
     </row>
     <row r="18">
       <c r="C18" s="137" t="inlineStr">
@@ -4057,15 +4065,15 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D18" s="221" t="n"/>
-      <c r="E18" s="214" t="n"/>
-      <c r="F18" s="214" t="n"/>
-      <c r="G18" s="220" t="n"/>
-      <c r="H18" s="219" t="n"/>
-      <c r="I18" s="214" t="n"/>
-      <c r="J18" s="214" t="n"/>
-      <c r="K18" s="214" t="n"/>
-      <c r="L18" s="220" t="n"/>
+      <c r="D18" s="227" t="n"/>
+      <c r="E18" s="220" t="n"/>
+      <c r="F18" s="220" t="n"/>
+      <c r="G18" s="226" t="n"/>
+      <c r="H18" s="225" t="n"/>
+      <c r="I18" s="220" t="n"/>
+      <c r="J18" s="220" t="n"/>
+      <c r="K18" s="220" t="n"/>
+      <c r="L18" s="226" t="n"/>
     </row>
     <row r="19">
       <c r="C19" s="100" t="n"/>
@@ -4073,36 +4081,36 @@
     <row r="20">
       <c r="A20" s="138" t="n"/>
       <c r="B20" s="138" t="n"/>
-      <c r="C20" s="222" t="inlineStr">
+      <c r="C20" s="228" t="inlineStr">
         <is>
           <t>Match Day 1</t>
         </is>
       </c>
-      <c r="D20" s="216" t="n"/>
+      <c r="D20" s="222" t="n"/>
       <c r="E20" s="139" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
-      <c r="F20" s="210" t="n"/>
-      <c r="G20" s="222" t="inlineStr">
+      <c r="F20" s="216" t="n"/>
+      <c r="G20" s="228" t="inlineStr">
         <is>
           <t>Match Day 2</t>
         </is>
       </c>
-      <c r="H20" s="216" t="n"/>
+      <c r="H20" s="222" t="n"/>
       <c r="I20" s="139" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
-      <c r="J20" s="210" t="n"/>
-      <c r="K20" s="222" t="inlineStr">
+      <c r="J20" s="216" t="n"/>
+      <c r="K20" s="228" t="inlineStr">
         <is>
           <t>Match Day 3</t>
         </is>
       </c>
-      <c r="L20" s="216" t="n"/>
+      <c r="L20" s="222" t="n"/>
       <c r="M20" s="139" t="inlineStr">
         <is>
           <t>Results</t>
@@ -4122,7 +4130,7 @@
       <c r="Y20" s="138" t="n"/>
       <c r="Z20" s="138" t="n"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1" s="202">
+    <row r="21" ht="15.75" customHeight="1" s="191">
       <c r="C21" s="140" t="inlineStr">
         <is>
           <t>Turkey</t>
@@ -4175,7 +4183,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1" s="202">
+    <row r="22" ht="15.75" customHeight="1" s="191">
       <c r="C22" s="148" t="n"/>
       <c r="D22" s="143" t="n"/>
       <c r="E22" s="149" t="n"/>
@@ -4212,7 +4220,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1" s="202">
+    <row r="23" ht="15.75" customHeight="1" s="191">
       <c r="C23" s="140" t="inlineStr">
         <is>
           <t>Wales</t>
@@ -4251,7 +4259,7 @@
       <c r="L23" s="143" t="n"/>
       <c r="M23" s="149" t="n"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1" s="202">
+    <row r="24" ht="15.75" customHeight="1" s="191">
       <c r="C24" s="144" t="inlineStr">
         <is>
           <t>Denmark</t>
@@ -4290,7 +4298,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1" s="202">
+    <row r="25" ht="15.75" customHeight="1" s="191">
       <c r="C25" s="144" t="inlineStr">
         <is>
           <t>Belgium</t>
@@ -4341,7 +4349,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1" s="202">
+    <row r="26" ht="15.75" customHeight="1" s="191">
       <c r="C26" s="148" t="n"/>
       <c r="D26" s="143" t="n"/>
       <c r="E26" s="149" t="n"/>
@@ -4378,7 +4386,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1" s="202">
+    <row r="27" ht="15.75" customHeight="1" s="191">
       <c r="C27" s="153" t="inlineStr">
         <is>
           <t>England</t>
@@ -4429,7 +4437,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1" s="202">
+    <row r="28" ht="15.75" customHeight="1" s="191">
       <c r="C28" s="150" t="inlineStr">
         <is>
           <t>Austria</t>
@@ -4456,7 +4464,7 @@
       <c r="L28" s="143" t="n"/>
       <c r="M28" s="149" t="n"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1" s="202">
+    <row r="29" ht="15.75" customHeight="1" s="191">
       <c r="C29" s="150" t="inlineStr">
         <is>
           <t>Netherlands</t>
@@ -4507,7 +4515,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1" s="202">
+    <row r="30" ht="15.75" customHeight="1" s="191">
       <c r="C30" s="148" t="n"/>
       <c r="D30" s="143" t="n"/>
       <c r="E30" s="149" t="n"/>
@@ -4544,7 +4552,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1" s="202">
+    <row r="31" ht="15.75" customHeight="1" s="191">
       <c r="C31" s="153" t="inlineStr">
         <is>
           <t>Scotland</t>
@@ -4583,7 +4591,7 @@
       <c r="L31" s="143" t="n"/>
       <c r="M31" s="149" t="n"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1" s="202">
+    <row r="32" ht="15.75" customHeight="1" s="191">
       <c r="C32" s="156" t="inlineStr">
         <is>
           <t>Poland</t>
@@ -4622,7 +4630,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1" s="202">
+    <row r="33" ht="15.75" customHeight="1" s="191">
       <c r="C33" s="156" t="inlineStr">
         <is>
           <t>Spain</t>
@@ -4673,7 +4681,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1" s="202">
+    <row r="34" ht="15.75" customHeight="1" s="191">
       <c r="C34" s="148" t="n"/>
       <c r="D34" s="143" t="n"/>
       <c r="E34" s="149" t="n"/>
@@ -4710,7 +4718,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1" s="202">
+    <row r="35" ht="15.75" customHeight="1" s="191">
       <c r="C35" s="159" t="inlineStr">
         <is>
           <t>Hungary</t>
@@ -4761,7 +4769,7 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1" s="202">
+    <row r="36" ht="15.75" customHeight="1" s="191">
       <c r="C36" s="162" t="inlineStr">
         <is>
           <t>France</t>
@@ -4788,70 +4796,70 @@
       <c r="L36" s="166" t="n"/>
       <c r="M36" s="167" t="n"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1" s="202"/>
-    <row r="38" ht="39.75" customHeight="1" s="202">
-      <c r="C38" s="213" t="inlineStr">
+    <row r="37" ht="15.75" customHeight="1" s="191"/>
+    <row r="38" ht="39.75" customHeight="1" s="191">
+      <c r="C38" s="219" t="inlineStr">
         <is>
           <t xml:space="preserve">We'll do the competition in two halves since the Round of 16 is heavily dependent on the Group Stages. </t>
         </is>
       </c>
-      <c r="D38" s="214" t="n"/>
-      <c r="E38" s="214" t="n"/>
-      <c r="F38" s="214" t="n"/>
-      <c r="G38" s="214" t="n"/>
-      <c r="H38" s="214" t="n"/>
-      <c r="I38" s="214" t="n"/>
-      <c r="J38" s="214" t="n"/>
-      <c r="K38" s="214" t="n"/>
-      <c r="L38" s="214" t="n"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1" s="202">
+      <c r="D38" s="220" t="n"/>
+      <c r="E38" s="220" t="n"/>
+      <c r="F38" s="220" t="n"/>
+      <c r="G38" s="220" t="n"/>
+      <c r="H38" s="220" t="n"/>
+      <c r="I38" s="220" t="n"/>
+      <c r="J38" s="220" t="n"/>
+      <c r="K38" s="220" t="n"/>
+      <c r="L38" s="220" t="n"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1" s="191">
       <c r="C39" s="136" t="inlineStr">
         <is>
           <t>Name:</t>
         </is>
       </c>
-      <c r="D39" s="215" t="n"/>
-      <c r="E39" s="216" t="n"/>
-      <c r="F39" s="216" t="n"/>
-      <c r="G39" s="217" t="n"/>
-      <c r="H39" s="218" t="inlineStr">
+      <c r="D39" s="221" t="n"/>
+      <c r="E39" s="222" t="n"/>
+      <c r="F39" s="222" t="n"/>
+      <c r="G39" s="223" t="n"/>
+      <c r="H39" s="224" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULTS         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I39" s="216" t="n"/>
-      <c r="J39" s="216" t="n"/>
-      <c r="K39" s="216" t="n"/>
-      <c r="L39" s="217" t="n"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1" s="202">
+      <c r="I39" s="222" t="n"/>
+      <c r="J39" s="222" t="n"/>
+      <c r="K39" s="222" t="n"/>
+      <c r="L39" s="223" t="n"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1" s="191">
       <c r="C40" s="137" t="inlineStr">
         <is>
           <t>Date:</t>
         </is>
       </c>
-      <c r="D40" s="221" t="n"/>
-      <c r="E40" s="214" t="n"/>
-      <c r="F40" s="214" t="n"/>
-      <c r="G40" s="220" t="n"/>
-      <c r="H40" s="219" t="n"/>
-      <c r="I40" s="214" t="n"/>
-      <c r="J40" s="214" t="n"/>
-      <c r="K40" s="214" t="n"/>
-      <c r="L40" s="220" t="n"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1" s="202">
+      <c r="D40" s="227" t="n"/>
+      <c r="E40" s="220" t="n"/>
+      <c r="F40" s="220" t="n"/>
+      <c r="G40" s="226" t="n"/>
+      <c r="H40" s="225" t="n"/>
+      <c r="I40" s="220" t="n"/>
+      <c r="J40" s="220" t="n"/>
+      <c r="K40" s="220" t="n"/>
+      <c r="L40" s="226" t="n"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1" s="191">
       <c r="B41" s="168" t="n"/>
       <c r="C41" s="169" t="n"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1" s="202">
-      <c r="B42" s="223" t="inlineStr">
+    <row r="42" ht="15.75" customHeight="1" s="191">
+      <c r="B42" s="229" t="inlineStr">
         <is>
           <t>Round of 16</t>
         </is>
       </c>
-      <c r="C42" s="214" t="n"/>
+      <c r="C42" s="220" t="n"/>
       <c r="D42" s="170" t="inlineStr">
         <is>
           <t>Results</t>
@@ -4895,22 +4903,22 @@
       </c>
       <c r="Q42" s="138" t="n"/>
       <c r="R42" s="171" t="n"/>
-      <c r="S42" s="210" t="n"/>
+      <c r="S42" s="216" t="n"/>
       <c r="U42" s="138" t="n"/>
       <c r="V42" s="171" t="n"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1" s="202">
-      <c r="B43" s="224" t="inlineStr">
+    <row r="43" ht="15.75" customHeight="1" s="191">
+      <c r="B43" s="210" t="inlineStr">
         <is>
           <t>R1</t>
         </is>
       </c>
       <c r="C43" s="172" t="inlineStr">
         <is>
-          <t>Winner Group A</t>
-        </is>
-      </c>
-      <c r="D43" s="226" t="n"/>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="D43" s="212" t="n"/>
       <c r="E43" s="171" t="n"/>
       <c r="F43" s="171" t="n"/>
       <c r="O43" s="171" t="n"/>
@@ -4922,16 +4930,16 @@
       <c r="U43" s="171" t="n"/>
       <c r="V43" s="171" t="n"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B44" s="225" t="n"/>
+    <row r="44" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B44" s="211" t="n"/>
       <c r="C44" s="173" t="inlineStr">
         <is>
           <t>2nd Group C</t>
         </is>
       </c>
-      <c r="D44" s="225" t="n"/>
+      <c r="D44" s="211" t="n"/>
       <c r="E44" s="174" t="n"/>
-      <c r="F44" s="227" t="inlineStr">
+      <c r="F44" s="214" t="inlineStr">
         <is>
           <t>QF1</t>
         </is>
@@ -4941,7 +4949,7 @@
           <t>Winner R1</t>
         </is>
       </c>
-      <c r="H44" s="226" t="n"/>
+      <c r="H44" s="212" t="n"/>
       <c r="O44" s="171" t="n"/>
       <c r="P44" s="171" t="n"/>
       <c r="Q44" s="171" t="n"/>
@@ -4951,18 +4959,18 @@
       <c r="U44" s="171" t="n"/>
       <c r="V44" s="171" t="n"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1" s="202" thickBot="1">
+    <row r="45" ht="15.75" customHeight="1" s="191" thickBot="1">
       <c r="B45" s="138" t="n"/>
       <c r="C45" s="171" t="n"/>
       <c r="D45" s="176" t="n"/>
       <c r="E45" s="177" t="n"/>
-      <c r="F45" s="225" t="n"/>
+      <c r="F45" s="211" t="n"/>
       <c r="G45" s="178" t="inlineStr">
         <is>
           <t>Winner R2</t>
         </is>
       </c>
-      <c r="H45" s="225" t="n"/>
+      <c r="H45" s="211" t="n"/>
       <c r="O45" s="171" t="n"/>
       <c r="P45" s="171" t="n"/>
       <c r="Q45" s="171" t="n"/>
@@ -4972,8 +4980,8 @@
       <c r="U45" s="171" t="n"/>
       <c r="V45" s="171" t="n"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1" s="202">
-      <c r="B46" s="224" t="inlineStr">
+    <row r="46" ht="15.75" customHeight="1" s="191">
+      <c r="B46" s="210" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
@@ -4983,7 +4991,7 @@
           <t>Winner Group B</t>
         </is>
       </c>
-      <c r="D46" s="226" t="n"/>
+      <c r="D46" s="212" t="n"/>
       <c r="E46" s="171" t="n"/>
       <c r="F46" s="171" t="n"/>
       <c r="G46" s="179" t="n"/>
@@ -4997,20 +5005,20 @@
       <c r="U46" s="171" t="n"/>
       <c r="V46" s="171" t="n"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B47" s="225" t="n"/>
+    <row r="47" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B47" s="211" t="n"/>
       <c r="C47" s="173" t="inlineStr">
         <is>
           <t>3rd Group A/D/E/F</t>
         </is>
       </c>
-      <c r="D47" s="225" t="n"/>
+      <c r="D47" s="211" t="n"/>
       <c r="E47" s="171" t="n"/>
       <c r="F47" s="171" t="n"/>
       <c r="G47" s="179" t="n"/>
       <c r="H47" s="181" t="n"/>
       <c r="I47" s="177" t="n"/>
-      <c r="J47" s="228" t="inlineStr">
+      <c r="J47" s="213" t="inlineStr">
         <is>
           <t>SF1</t>
         </is>
@@ -5020,16 +5028,16 @@
           <t>Winner QF1</t>
         </is>
       </c>
-      <c r="L47" s="226" t="n"/>
+      <c r="L47" s="212" t="n"/>
       <c r="O47" s="171" t="n"/>
       <c r="P47" s="171" t="n"/>
       <c r="Q47" s="171" t="n"/>
       <c r="R47" s="171" t="n"/>
-      <c r="S47" s="210" t="n"/>
+      <c r="S47" s="216" t="n"/>
       <c r="U47" s="138" t="n"/>
       <c r="V47" s="171" t="n"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1" s="202">
+    <row r="48" ht="15.75" customHeight="1" s="191">
       <c r="B48" s="138" t="n"/>
       <c r="C48" s="171" t="n"/>
       <c r="D48" s="176" t="n"/>
@@ -5037,13 +5045,13 @@
       <c r="F48" s="171" t="n"/>
       <c r="G48" s="179" t="n"/>
       <c r="H48" s="181" t="n"/>
-      <c r="J48" s="225" t="n"/>
+      <c r="J48" s="211" t="n"/>
       <c r="K48" s="165" t="inlineStr">
         <is>
           <t>Winner QF2</t>
         </is>
       </c>
-      <c r="L48" s="225" t="n"/>
+      <c r="L48" s="211" t="n"/>
       <c r="O48" s="171" t="n"/>
       <c r="P48" s="171" t="n"/>
       <c r="Q48" s="171" t="n"/>
@@ -5053,8 +5061,8 @@
       <c r="U48" s="171" t="n"/>
       <c r="V48" s="171" t="n"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1" s="202">
-      <c r="B49" s="224" t="inlineStr">
+    <row r="49" ht="15.75" customHeight="1" s="191">
+      <c r="B49" s="210" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
@@ -5064,7 +5072,7 @@
           <t>Winner Group F</t>
         </is>
       </c>
-      <c r="D49" s="226" t="n"/>
+      <c r="D49" s="212" t="n"/>
       <c r="E49" s="171" t="n"/>
       <c r="F49" s="171" t="n"/>
       <c r="G49" s="179" t="n"/>
@@ -5072,16 +5080,16 @@
       <c r="K49" s="143" t="n"/>
       <c r="L49" s="180" t="n"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B50" s="225" t="n"/>
+    <row r="50" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B50" s="211" t="n"/>
       <c r="C50" s="173" t="inlineStr">
         <is>
           <t>3rd Group A/B/C</t>
         </is>
       </c>
-      <c r="D50" s="225" t="n"/>
+      <c r="D50" s="211" t="n"/>
       <c r="E50" s="177" t="n"/>
-      <c r="F50" s="227" t="inlineStr">
+      <c r="F50" s="214" t="inlineStr">
         <is>
           <t>QF2</t>
         </is>
@@ -5091,27 +5099,27 @@
           <t>Winner R3</t>
         </is>
       </c>
-      <c r="H50" s="226" t="n"/>
+      <c r="H50" s="212" t="n"/>
       <c r="K50" s="143" t="n"/>
       <c r="L50" s="181" t="n"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1" s="202" thickBot="1">
+    <row r="51" ht="15.75" customHeight="1" s="191" thickBot="1">
       <c r="B51" s="138" t="n"/>
       <c r="C51" s="171" t="n"/>
       <c r="D51" s="176" t="n"/>
       <c r="E51" s="177" t="n"/>
-      <c r="F51" s="225" t="n"/>
+      <c r="F51" s="211" t="n"/>
       <c r="G51" s="178" t="inlineStr">
         <is>
           <t>Winner R4</t>
         </is>
       </c>
-      <c r="H51" s="225" t="n"/>
+      <c r="H51" s="211" t="n"/>
       <c r="K51" s="143" t="n"/>
       <c r="L51" s="181" t="n"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B52" s="224" t="inlineStr">
+    <row r="52" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B52" s="210" t="inlineStr">
         <is>
           <t>R4</t>
         </is>
@@ -5121,7 +5129,7 @@
           <t>2nd Group D</t>
         </is>
       </c>
-      <c r="D52" s="226" t="n"/>
+      <c r="D52" s="212" t="n"/>
       <c r="E52" s="171" t="n"/>
       <c r="F52" s="171" t="n"/>
       <c r="G52" s="179" t="n"/>
@@ -5129,7 +5137,7 @@
       <c r="K52" s="143" t="n"/>
       <c r="L52" s="181" t="n"/>
       <c r="M52" s="177" t="n"/>
-      <c r="N52" s="229" t="inlineStr">
+      <c r="N52" s="215" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -5139,31 +5147,31 @@
           <t>Winner SF1</t>
         </is>
       </c>
-      <c r="P52" s="226" t="n"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1" s="202">
-      <c r="B53" s="225" t="n"/>
+      <c r="P52" s="212" t="n"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1" s="191">
+      <c r="B53" s="211" t="n"/>
       <c r="C53" s="173" t="inlineStr">
         <is>
           <t>2nd Group E</t>
         </is>
       </c>
-      <c r="D53" s="225" t="n"/>
+      <c r="D53" s="211" t="n"/>
       <c r="E53" s="171" t="n"/>
       <c r="F53" s="171" t="n"/>
       <c r="G53" s="179" t="n"/>
       <c r="H53" s="176" t="n"/>
       <c r="K53" s="143" t="n"/>
       <c r="L53" s="181" t="n"/>
-      <c r="N53" s="225" t="n"/>
+      <c r="N53" s="211" t="n"/>
       <c r="O53" s="165" t="inlineStr">
         <is>
           <t>Winner SF2</t>
         </is>
       </c>
-      <c r="P53" s="225" t="n"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1" s="202">
+      <c r="P53" s="211" t="n"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1" s="191">
       <c r="B54" s="138" t="n"/>
       <c r="C54" s="171" t="n"/>
       <c r="D54" s="176" t="n"/>
@@ -5174,8 +5182,8 @@
       <c r="K54" s="143" t="n"/>
       <c r="L54" s="181" t="n"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1" s="202">
-      <c r="B55" s="224" t="inlineStr">
+    <row r="55" ht="15.75" customHeight="1" s="191">
+      <c r="B55" s="210" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
@@ -5185,7 +5193,7 @@
           <t>Winner Group E</t>
         </is>
       </c>
-      <c r="D55" s="226" t="n"/>
+      <c r="D55" s="212" t="n"/>
       <c r="E55" s="171" t="n"/>
       <c r="F55" s="171" t="n"/>
       <c r="G55" s="179" t="n"/>
@@ -5193,16 +5201,16 @@
       <c r="K55" s="143" t="n"/>
       <c r="L55" s="181" t="n"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B56" s="225" t="n"/>
+    <row r="56" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B56" s="211" t="n"/>
       <c r="C56" s="173" t="inlineStr">
         <is>
           <t>3rd Group A/B/C/D</t>
         </is>
       </c>
-      <c r="D56" s="225" t="n"/>
+      <c r="D56" s="211" t="n"/>
       <c r="E56" s="174" t="n"/>
-      <c r="F56" s="227" t="inlineStr">
+      <c r="F56" s="214" t="inlineStr">
         <is>
           <t>QF3</t>
         </is>
@@ -5212,26 +5220,26 @@
           <t>Winner R5</t>
         </is>
       </c>
-      <c r="H56" s="226" t="n"/>
+      <c r="H56" s="212" t="n"/>
       <c r="K56" s="143" t="n"/>
       <c r="L56" s="181" t="n"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1" s="202" thickBot="1">
+    <row r="57" ht="15.75" customHeight="1" s="191" thickBot="1">
       <c r="B57" s="138" t="n"/>
       <c r="D57" s="176" t="n"/>
       <c r="E57" s="184" t="n"/>
-      <c r="F57" s="225" t="n"/>
+      <c r="F57" s="211" t="n"/>
       <c r="G57" s="178" t="inlineStr">
         <is>
           <t>Winner R6</t>
         </is>
       </c>
-      <c r="H57" s="225" t="n"/>
+      <c r="H57" s="211" t="n"/>
       <c r="K57" s="143" t="n"/>
       <c r="L57" s="181" t="n"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1" s="202">
-      <c r="B58" s="224" t="inlineStr">
+    <row r="58" ht="15.75" customHeight="1" s="191">
+      <c r="B58" s="210" t="inlineStr">
         <is>
           <t>R6</t>
         </is>
@@ -5241,24 +5249,24 @@
           <t>Winner Group D</t>
         </is>
       </c>
-      <c r="D58" s="226" t="n"/>
+      <c r="D58" s="212" t="n"/>
       <c r="G58" s="179" t="n"/>
       <c r="H58" s="180" t="n"/>
       <c r="K58" s="143" t="n"/>
       <c r="L58" s="183" t="n"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B59" s="225" t="n"/>
+    <row r="59" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B59" s="211" t="n"/>
       <c r="C59" s="173" t="inlineStr">
         <is>
           <t>2nd Group F</t>
         </is>
       </c>
-      <c r="D59" s="225" t="n"/>
+      <c r="D59" s="211" t="n"/>
       <c r="G59" s="179" t="n"/>
       <c r="H59" s="181" t="n"/>
       <c r="I59" s="177" t="n"/>
-      <c r="J59" s="228" t="inlineStr">
+      <c r="J59" s="213" t="inlineStr">
         <is>
           <t>SF2</t>
         </is>
@@ -5268,23 +5276,23 @@
           <t>Winner QF3</t>
         </is>
       </c>
-      <c r="L59" s="226" t="n"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1" s="202">
+      <c r="L59" s="212" t="n"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1" s="191">
       <c r="B60" s="138" t="n"/>
       <c r="D60" s="176" t="n"/>
       <c r="G60" s="179" t="n"/>
       <c r="H60" s="181" t="n"/>
-      <c r="J60" s="225" t="n"/>
+      <c r="J60" s="211" t="n"/>
       <c r="K60" s="165" t="inlineStr">
         <is>
           <t>Winner QF4</t>
         </is>
       </c>
-      <c r="L60" s="225" t="n"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1" s="202">
-      <c r="B61" s="224" t="inlineStr">
+      <c r="L60" s="211" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="191">
+      <c r="B61" s="210" t="inlineStr">
         <is>
           <t>R7</t>
         </is>
@@ -5294,20 +5302,20 @@
           <t>Winner GroupC</t>
         </is>
       </c>
-      <c r="D61" s="226" t="n"/>
+      <c r="D61" s="212" t="n"/>
       <c r="G61" s="179" t="n"/>
       <c r="H61" s="183" t="n"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B62" s="225" t="n"/>
+    <row r="62" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B62" s="211" t="n"/>
       <c r="C62" s="173" t="inlineStr">
         <is>
           <t>3rd Group D/E/F</t>
         </is>
       </c>
-      <c r="D62" s="225" t="n"/>
+      <c r="D62" s="211" t="n"/>
       <c r="E62" s="174" t="n"/>
-      <c r="F62" s="227" t="inlineStr">
+      <c r="F62" s="214" t="inlineStr">
         <is>
           <t>QF4</t>
         </is>
@@ -5317,1010 +5325,979 @@
           <t>Winner R7</t>
         </is>
       </c>
-      <c r="H62" s="226" t="n"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="H62" s="212" t="n"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" s="191" thickBot="1">
       <c r="B63" s="138" t="n"/>
       <c r="D63" s="176" t="n"/>
       <c r="E63" s="184" t="n"/>
-      <c r="F63" s="225" t="n"/>
+      <c r="F63" s="211" t="n"/>
       <c r="G63" s="178" t="inlineStr">
         <is>
           <t>Winner R8</t>
         </is>
       </c>
-      <c r="H63" s="225" t="n"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1" s="202">
-      <c r="B64" s="224" t="inlineStr">
+      <c r="H63" s="211" t="n"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1" s="191">
+      <c r="B64" s="210" t="inlineStr">
         <is>
           <t>R8</t>
         </is>
       </c>
       <c r="C64" s="172" t="inlineStr">
         <is>
-          <t>2nd Group A</t>
-        </is>
-      </c>
-      <c r="D64" s="226" t="n"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1" s="202">
-      <c r="B65" s="225" t="n"/>
+          <t>Wales</t>
+        </is>
+      </c>
+      <c r="D64" s="212" t="n"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1" s="191">
+      <c r="B65" s="211" t="n"/>
       <c r="C65" s="173" t="inlineStr">
         <is>
           <t>2nd Group B</t>
         </is>
       </c>
-      <c r="D65" s="225" t="n"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1" s="202"/>
-    <row r="67" ht="15.75" customHeight="1" s="202"/>
-    <row r="68" ht="15.75" customHeight="1" s="202"/>
-    <row r="69" ht="15.75" customHeight="1" s="202"/>
-    <row r="70" ht="15.75" customHeight="1" s="202"/>
-    <row r="71" ht="15.75" customHeight="1" s="202"/>
-    <row r="72" ht="15.75" customHeight="1" s="202"/>
-    <row r="73" ht="15.75" customHeight="1" s="202"/>
-    <row r="74" ht="15.75" customHeight="1" s="202"/>
-    <row r="75" ht="15.75" customHeight="1" s="202"/>
-    <row r="76" ht="15.75" customHeight="1" s="202"/>
-    <row r="77" ht="15.75" customHeight="1" s="202"/>
-    <row r="78" ht="15.75" customHeight="1" s="202"/>
-    <row r="79" ht="15.75" customHeight="1" s="202"/>
-    <row r="80" ht="15.75" customHeight="1" s="202"/>
-    <row r="81" ht="15.75" customHeight="1" s="202"/>
-    <row r="82" ht="15.75" customHeight="1" s="202"/>
-    <row r="83" ht="15.75" customHeight="1" s="202"/>
-    <row r="84" ht="15.75" customHeight="1" s="202"/>
-    <row r="85" ht="15.75" customHeight="1" s="202"/>
-    <row r="86" ht="15.75" customHeight="1" s="202"/>
-    <row r="87" ht="15.75" customHeight="1" s="202"/>
-    <row r="88" ht="15.75" customHeight="1" s="202"/>
-    <row r="89" ht="15.75" customHeight="1" s="202"/>
-    <row r="90" ht="15.75" customHeight="1" s="202"/>
-    <row r="91" ht="15.75" customHeight="1" s="202"/>
-    <row r="92" ht="15.75" customHeight="1" s="202"/>
-    <row r="93" ht="15.75" customHeight="1" s="202"/>
-    <row r="94" ht="15.75" customHeight="1" s="202"/>
-    <row r="95" ht="15.75" customHeight="1" s="202"/>
-    <row r="96" ht="15.75" customHeight="1" s="202"/>
-    <row r="97" ht="15.75" customHeight="1" s="202"/>
-    <row r="98" ht="15.75" customHeight="1" s="202"/>
-    <row r="99" ht="15.75" customHeight="1" s="202"/>
-    <row r="100" ht="15.75" customHeight="1" s="202"/>
-    <row r="101" ht="15.75" customHeight="1" s="202"/>
-    <row r="102" ht="15.75" customHeight="1" s="202"/>
-    <row r="103" ht="15.75" customHeight="1" s="202"/>
-    <row r="104" ht="15.75" customHeight="1" s="202"/>
-    <row r="105" ht="15.75" customHeight="1" s="202"/>
-    <row r="106" ht="15.75" customHeight="1" s="202"/>
-    <row r="107" ht="15.75" customHeight="1" s="202"/>
-    <row r="108" ht="15.75" customHeight="1" s="202"/>
-    <row r="109" ht="15.75" customHeight="1" s="202"/>
-    <row r="110" ht="15.75" customHeight="1" s="202"/>
-    <row r="111" ht="15.75" customHeight="1" s="202"/>
-    <row r="112" ht="15.75" customHeight="1" s="202"/>
-    <row r="113" ht="15.75" customHeight="1" s="202"/>
-    <row r="114" ht="15.75" customHeight="1" s="202"/>
-    <row r="115" ht="15.75" customHeight="1" s="202"/>
-    <row r="116" ht="15.75" customHeight="1" s="202"/>
-    <row r="117" ht="15.75" customHeight="1" s="202"/>
-    <row r="118" ht="15.75" customHeight="1" s="202"/>
-    <row r="119" ht="15.75" customHeight="1" s="202"/>
-    <row r="120" ht="15.75" customHeight="1" s="202"/>
-    <row r="121" ht="15.75" customHeight="1" s="202"/>
-    <row r="122" ht="15.75" customHeight="1" s="202"/>
-    <row r="123" ht="15.75" customHeight="1" s="202"/>
-    <row r="124" ht="15.75" customHeight="1" s="202"/>
-    <row r="125" ht="15.75" customHeight="1" s="202"/>
-    <row r="126" ht="15.75" customHeight="1" s="202"/>
-    <row r="127" ht="15.75" customHeight="1" s="202"/>
-    <row r="128" ht="15.75" customHeight="1" s="202"/>
-    <row r="129" ht="15.75" customHeight="1" s="202"/>
-    <row r="130" ht="15.75" customHeight="1" s="202"/>
-    <row r="131" ht="15.75" customHeight="1" s="202"/>
-    <row r="132" ht="15.75" customHeight="1" s="202"/>
-    <row r="133" ht="15.75" customHeight="1" s="202"/>
-    <row r="134" ht="15.75" customHeight="1" s="202"/>
-    <row r="135" ht="15.75" customHeight="1" s="202"/>
-    <row r="136" ht="15.75" customHeight="1" s="202"/>
-    <row r="137" ht="15.75" customHeight="1" s="202"/>
-    <row r="138" ht="15.75" customHeight="1" s="202"/>
-    <row r="139" ht="15.75" customHeight="1" s="202"/>
-    <row r="140" ht="15.75" customHeight="1" s="202"/>
-    <row r="141" ht="15.75" customHeight="1" s="202"/>
-    <row r="142" ht="15.75" customHeight="1" s="202"/>
-    <row r="143" ht="15.75" customHeight="1" s="202"/>
-    <row r="144" ht="15.75" customHeight="1" s="202"/>
-    <row r="145" ht="15.75" customHeight="1" s="202"/>
-    <row r="146" ht="15.75" customHeight="1" s="202"/>
-    <row r="147" ht="15.75" customHeight="1" s="202"/>
-    <row r="148" ht="15.75" customHeight="1" s="202"/>
-    <row r="149" ht="15.75" customHeight="1" s="202"/>
-    <row r="150" ht="15.75" customHeight="1" s="202"/>
-    <row r="151" ht="15.75" customHeight="1" s="202"/>
-    <row r="152" ht="15.75" customHeight="1" s="202"/>
-    <row r="153" ht="15.75" customHeight="1" s="202"/>
-    <row r="154" ht="15.75" customHeight="1" s="202"/>
-    <row r="155" ht="15.75" customHeight="1" s="202"/>
-    <row r="156" ht="15.75" customHeight="1" s="202"/>
-    <row r="157" ht="15.75" customHeight="1" s="202"/>
-    <row r="158" ht="15.75" customHeight="1" s="202"/>
-    <row r="159" ht="15.75" customHeight="1" s="202"/>
-    <row r="160" ht="15.75" customHeight="1" s="202"/>
-    <row r="161" ht="15.75" customHeight="1" s="202"/>
-    <row r="162" ht="15.75" customHeight="1" s="202"/>
-    <row r="163" ht="15.75" customHeight="1" s="202"/>
-    <row r="164" ht="15.75" customHeight="1" s="202"/>
-    <row r="165" ht="15.75" customHeight="1" s="202"/>
-    <row r="166" ht="15.75" customHeight="1" s="202"/>
-    <row r="167" ht="15.75" customHeight="1" s="202"/>
-    <row r="168" ht="15.75" customHeight="1" s="202"/>
-    <row r="169" ht="15.75" customHeight="1" s="202"/>
-    <row r="170" ht="15.75" customHeight="1" s="202"/>
-    <row r="171" ht="15.75" customHeight="1" s="202"/>
-    <row r="172" ht="15.75" customHeight="1" s="202"/>
-    <row r="173" ht="15.75" customHeight="1" s="202"/>
-    <row r="174" ht="15.75" customHeight="1" s="202"/>
-    <row r="175" ht="15.75" customHeight="1" s="202"/>
-    <row r="176" ht="15.75" customHeight="1" s="202"/>
-    <row r="177" ht="15.75" customHeight="1" s="202"/>
-    <row r="178" ht="15.75" customHeight="1" s="202"/>
-    <row r="179" ht="15.75" customHeight="1" s="202"/>
-    <row r="180" ht="15.75" customHeight="1" s="202"/>
-    <row r="181" ht="15.75" customHeight="1" s="202"/>
-    <row r="182" ht="15.75" customHeight="1" s="202"/>
-    <row r="183" ht="15.75" customHeight="1" s="202"/>
-    <row r="184" ht="15.75" customHeight="1" s="202"/>
-    <row r="185" ht="15.75" customHeight="1" s="202"/>
-    <row r="186" ht="15.75" customHeight="1" s="202"/>
-    <row r="187" ht="15.75" customHeight="1" s="202"/>
-    <row r="188" ht="15.75" customHeight="1" s="202"/>
-    <row r="189" ht="15.75" customHeight="1" s="202"/>
-    <row r="190" ht="15.75" customHeight="1" s="202"/>
-    <row r="191" ht="15.75" customHeight="1" s="202"/>
-    <row r="192" ht="15.75" customHeight="1" s="202"/>
-    <row r="193" ht="15.75" customHeight="1" s="202"/>
-    <row r="194" ht="15.75" customHeight="1" s="202"/>
-    <row r="195" ht="15.75" customHeight="1" s="202"/>
-    <row r="196" ht="15.75" customHeight="1" s="202"/>
-    <row r="197" ht="15.75" customHeight="1" s="202"/>
-    <row r="198" ht="15.75" customHeight="1" s="202"/>
-    <row r="199" ht="15.75" customHeight="1" s="202"/>
-    <row r="200" ht="15.75" customHeight="1" s="202"/>
-    <row r="201" ht="15.75" customHeight="1" s="202"/>
-    <row r="202" ht="15.75" customHeight="1" s="202"/>
-    <row r="203" ht="15.75" customHeight="1" s="202"/>
-    <row r="204" ht="15.75" customHeight="1" s="202"/>
-    <row r="205" ht="15.75" customHeight="1" s="202"/>
-    <row r="206" ht="15.75" customHeight="1" s="202"/>
-    <row r="207" ht="15.75" customHeight="1" s="202"/>
-    <row r="208" ht="15.75" customHeight="1" s="202"/>
-    <row r="209" ht="15.75" customHeight="1" s="202"/>
-    <row r="210" ht="15.75" customHeight="1" s="202"/>
-    <row r="211" ht="15.75" customHeight="1" s="202"/>
-    <row r="212" ht="15.75" customHeight="1" s="202"/>
-    <row r="213" ht="15.75" customHeight="1" s="202"/>
-    <row r="214" ht="15.75" customHeight="1" s="202"/>
-    <row r="215" ht="15.75" customHeight="1" s="202"/>
-    <row r="216" ht="15.75" customHeight="1" s="202"/>
-    <row r="217" ht="15.75" customHeight="1" s="202"/>
-    <row r="218" ht="15.75" customHeight="1" s="202"/>
-    <row r="219" ht="15.75" customHeight="1" s="202"/>
-    <row r="220" ht="15.75" customHeight="1" s="202"/>
-    <row r="221" ht="15.75" customHeight="1" s="202"/>
-    <row r="222" ht="15.75" customHeight="1" s="202"/>
-    <row r="223" ht="15.75" customHeight="1" s="202"/>
-    <row r="224" ht="15.75" customHeight="1" s="202"/>
-    <row r="225" ht="15.75" customHeight="1" s="202"/>
-    <row r="226" ht="15.75" customHeight="1" s="202"/>
-    <row r="227" ht="15.75" customHeight="1" s="202"/>
-    <row r="228" ht="15.75" customHeight="1" s="202"/>
-    <row r="229" ht="15.75" customHeight="1" s="202"/>
-    <row r="230" ht="15.75" customHeight="1" s="202"/>
-    <row r="231" ht="15.75" customHeight="1" s="202"/>
-    <row r="232" ht="15.75" customHeight="1" s="202"/>
-    <row r="233" ht="15.75" customHeight="1" s="202"/>
-    <row r="234" ht="15.75" customHeight="1" s="202"/>
-    <row r="235" ht="15.75" customHeight="1" s="202"/>
-    <row r="236" ht="15.75" customHeight="1" s="202"/>
-    <row r="237" ht="15.75" customHeight="1" s="202"/>
-    <row r="238" ht="15.75" customHeight="1" s="202"/>
-    <row r="239" ht="15.75" customHeight="1" s="202"/>
-    <row r="240" ht="15.75" customHeight="1" s="202"/>
-    <row r="241" ht="15.75" customHeight="1" s="202"/>
-    <row r="242" ht="15.75" customHeight="1" s="202"/>
-    <row r="243" ht="15.75" customHeight="1" s="202"/>
-    <row r="244" ht="15.75" customHeight="1" s="202"/>
-    <row r="245" ht="15.75" customHeight="1" s="202"/>
-    <row r="246" ht="15.75" customHeight="1" s="202"/>
-    <row r="247" ht="15.75" customHeight="1" s="202"/>
-    <row r="248" ht="15.75" customHeight="1" s="202"/>
-    <row r="249" ht="15.75" customHeight="1" s="202"/>
-    <row r="250" ht="15.75" customHeight="1" s="202"/>
-    <row r="251" ht="15.75" customHeight="1" s="202"/>
-    <row r="252" ht="15.75" customHeight="1" s="202"/>
-    <row r="253" ht="15.75" customHeight="1" s="202"/>
-    <row r="254" ht="15.75" customHeight="1" s="202"/>
-    <row r="255" ht="15.75" customHeight="1" s="202"/>
-    <row r="256" ht="15.75" customHeight="1" s="202"/>
-    <row r="257" ht="15.75" customHeight="1" s="202"/>
-    <row r="258" ht="15.75" customHeight="1" s="202"/>
-    <row r="259" ht="15.75" customHeight="1" s="202"/>
-    <row r="260" ht="15.75" customHeight="1" s="202"/>
-    <row r="261" ht="15.75" customHeight="1" s="202"/>
-    <row r="262" ht="15.75" customHeight="1" s="202"/>
-    <row r="263" ht="15.75" customHeight="1" s="202"/>
-    <row r="264" ht="15.75" customHeight="1" s="202"/>
-    <row r="265" ht="15.75" customHeight="1" s="202"/>
-    <row r="266" ht="15.75" customHeight="1" s="202"/>
-    <row r="267" ht="15.75" customHeight="1" s="202"/>
-    <row r="268" ht="15.75" customHeight="1" s="202"/>
-    <row r="269" ht="15.75" customHeight="1" s="202"/>
-    <row r="270" ht="15.75" customHeight="1" s="202"/>
-    <row r="271" ht="15.75" customHeight="1" s="202"/>
-    <row r="272" ht="15.75" customHeight="1" s="202"/>
-    <row r="273" ht="15.75" customHeight="1" s="202"/>
-    <row r="274" ht="15.75" customHeight="1" s="202"/>
-    <row r="275" ht="15.75" customHeight="1" s="202"/>
-    <row r="276" ht="15.75" customHeight="1" s="202"/>
-    <row r="277" ht="15.75" customHeight="1" s="202"/>
-    <row r="278" ht="15.75" customHeight="1" s="202"/>
-    <row r="279" ht="15.75" customHeight="1" s="202"/>
-    <row r="280" ht="15.75" customHeight="1" s="202"/>
-    <row r="281" ht="15.75" customHeight="1" s="202"/>
-    <row r="282" ht="15.75" customHeight="1" s="202"/>
-    <row r="283" ht="15.75" customHeight="1" s="202"/>
-    <row r="284" ht="15.75" customHeight="1" s="202"/>
-    <row r="285" ht="15.75" customHeight="1" s="202"/>
-    <row r="286" ht="15.75" customHeight="1" s="202"/>
-    <row r="287" ht="15.75" customHeight="1" s="202"/>
-    <row r="288" ht="15.75" customHeight="1" s="202"/>
-    <row r="289" ht="15.75" customHeight="1" s="202"/>
-    <row r="290" ht="15.75" customHeight="1" s="202"/>
-    <row r="291" ht="15.75" customHeight="1" s="202"/>
-    <row r="292" ht="15.75" customHeight="1" s="202"/>
-    <row r="293" ht="15.75" customHeight="1" s="202"/>
-    <row r="294" ht="15.75" customHeight="1" s="202"/>
-    <row r="295" ht="15.75" customHeight="1" s="202"/>
-    <row r="296" ht="15.75" customHeight="1" s="202"/>
-    <row r="297" ht="15.75" customHeight="1" s="202"/>
-    <row r="298" ht="15.75" customHeight="1" s="202"/>
-    <row r="299" ht="15.75" customHeight="1" s="202"/>
-    <row r="300" ht="15.75" customHeight="1" s="202"/>
-    <row r="301" ht="15.75" customHeight="1" s="202"/>
-    <row r="302" ht="15.75" customHeight="1" s="202"/>
-    <row r="303" ht="15.75" customHeight="1" s="202"/>
-    <row r="304" ht="15.75" customHeight="1" s="202"/>
-    <row r="305" ht="15.75" customHeight="1" s="202"/>
-    <row r="306" ht="15.75" customHeight="1" s="202"/>
-    <row r="307" ht="15.75" customHeight="1" s="202"/>
-    <row r="308" ht="15.75" customHeight="1" s="202"/>
-    <row r="309" ht="15.75" customHeight="1" s="202"/>
-    <row r="310" ht="15.75" customHeight="1" s="202"/>
-    <row r="311" ht="15.75" customHeight="1" s="202"/>
-    <row r="312" ht="15.75" customHeight="1" s="202"/>
-    <row r="313" ht="15.75" customHeight="1" s="202"/>
-    <row r="314" ht="15.75" customHeight="1" s="202"/>
-    <row r="315" ht="15.75" customHeight="1" s="202"/>
-    <row r="316" ht="15.75" customHeight="1" s="202"/>
-    <row r="317" ht="15.75" customHeight="1" s="202"/>
-    <row r="318" ht="15.75" customHeight="1" s="202"/>
-    <row r="319" ht="15.75" customHeight="1" s="202"/>
-    <row r="320" ht="15.75" customHeight="1" s="202"/>
-    <row r="321" ht="15.75" customHeight="1" s="202"/>
-    <row r="322" ht="15.75" customHeight="1" s="202"/>
-    <row r="323" ht="15.75" customHeight="1" s="202"/>
-    <row r="324" ht="15.75" customHeight="1" s="202"/>
-    <row r="325" ht="15.75" customHeight="1" s="202"/>
-    <row r="326" ht="15.75" customHeight="1" s="202"/>
-    <row r="327" ht="15.75" customHeight="1" s="202"/>
-    <row r="328" ht="15.75" customHeight="1" s="202"/>
-    <row r="329" ht="15.75" customHeight="1" s="202"/>
-    <row r="330" ht="15.75" customHeight="1" s="202"/>
-    <row r="331" ht="15.75" customHeight="1" s="202"/>
-    <row r="332" ht="15.75" customHeight="1" s="202"/>
-    <row r="333" ht="15.75" customHeight="1" s="202"/>
-    <row r="334" ht="15.75" customHeight="1" s="202"/>
-    <row r="335" ht="15.75" customHeight="1" s="202"/>
-    <row r="336" ht="15.75" customHeight="1" s="202"/>
-    <row r="337" ht="15.75" customHeight="1" s="202"/>
-    <row r="338" ht="15.75" customHeight="1" s="202"/>
-    <row r="339" ht="15.75" customHeight="1" s="202"/>
-    <row r="340" ht="15.75" customHeight="1" s="202"/>
-    <row r="341" ht="15.75" customHeight="1" s="202"/>
-    <row r="342" ht="15.75" customHeight="1" s="202"/>
-    <row r="343" ht="15.75" customHeight="1" s="202"/>
-    <row r="344" ht="15.75" customHeight="1" s="202"/>
-    <row r="345" ht="15.75" customHeight="1" s="202"/>
-    <row r="346" ht="15.75" customHeight="1" s="202"/>
-    <row r="347" ht="15.75" customHeight="1" s="202"/>
-    <row r="348" ht="15.75" customHeight="1" s="202"/>
-    <row r="349" ht="15.75" customHeight="1" s="202"/>
-    <row r="350" ht="15.75" customHeight="1" s="202"/>
-    <row r="351" ht="15.75" customHeight="1" s="202"/>
-    <row r="352" ht="15.75" customHeight="1" s="202"/>
-    <row r="353" ht="15.75" customHeight="1" s="202"/>
-    <row r="354" ht="15.75" customHeight="1" s="202"/>
-    <row r="355" ht="15.75" customHeight="1" s="202"/>
-    <row r="356" ht="15.75" customHeight="1" s="202"/>
-    <row r="357" ht="15.75" customHeight="1" s="202"/>
-    <row r="358" ht="15.75" customHeight="1" s="202"/>
-    <row r="359" ht="15.75" customHeight="1" s="202"/>
-    <row r="360" ht="15.75" customHeight="1" s="202"/>
-    <row r="361" ht="15.75" customHeight="1" s="202"/>
-    <row r="362" ht="15.75" customHeight="1" s="202"/>
-    <row r="363" ht="15.75" customHeight="1" s="202"/>
-    <row r="364" ht="15.75" customHeight="1" s="202"/>
-    <row r="365" ht="15.75" customHeight="1" s="202"/>
-    <row r="366" ht="15.75" customHeight="1" s="202"/>
-    <row r="367" ht="15.75" customHeight="1" s="202"/>
-    <row r="368" ht="15.75" customHeight="1" s="202"/>
-    <row r="369" ht="15.75" customHeight="1" s="202"/>
-    <row r="370" ht="15.75" customHeight="1" s="202"/>
-    <row r="371" ht="15.75" customHeight="1" s="202"/>
-    <row r="372" ht="15.75" customHeight="1" s="202"/>
-    <row r="373" ht="15.75" customHeight="1" s="202"/>
-    <row r="374" ht="15.75" customHeight="1" s="202"/>
-    <row r="375" ht="15.75" customHeight="1" s="202"/>
-    <row r="376" ht="15.75" customHeight="1" s="202"/>
-    <row r="377" ht="15.75" customHeight="1" s="202"/>
-    <row r="378" ht="15.75" customHeight="1" s="202"/>
-    <row r="379" ht="15.75" customHeight="1" s="202"/>
-    <row r="380" ht="15.75" customHeight="1" s="202"/>
-    <row r="381" ht="15.75" customHeight="1" s="202"/>
-    <row r="382" ht="15.75" customHeight="1" s="202"/>
-    <row r="383" ht="15.75" customHeight="1" s="202"/>
-    <row r="384" ht="15.75" customHeight="1" s="202"/>
-    <row r="385" ht="15.75" customHeight="1" s="202"/>
-    <row r="386" ht="15.75" customHeight="1" s="202"/>
-    <row r="387" ht="15.75" customHeight="1" s="202"/>
-    <row r="388" ht="15.75" customHeight="1" s="202"/>
-    <row r="389" ht="15.75" customHeight="1" s="202"/>
-    <row r="390" ht="15.75" customHeight="1" s="202"/>
-    <row r="391" ht="15.75" customHeight="1" s="202"/>
-    <row r="392" ht="15.75" customHeight="1" s="202"/>
-    <row r="393" ht="15.75" customHeight="1" s="202"/>
-    <row r="394" ht="15.75" customHeight="1" s="202"/>
-    <row r="395" ht="15.75" customHeight="1" s="202"/>
-    <row r="396" ht="15.75" customHeight="1" s="202"/>
-    <row r="397" ht="15.75" customHeight="1" s="202"/>
-    <row r="398" ht="15.75" customHeight="1" s="202"/>
-    <row r="399" ht="15.75" customHeight="1" s="202"/>
-    <row r="400" ht="15.75" customHeight="1" s="202"/>
-    <row r="401" ht="15.75" customHeight="1" s="202"/>
-    <row r="402" ht="15.75" customHeight="1" s="202"/>
-    <row r="403" ht="15.75" customHeight="1" s="202"/>
-    <row r="404" ht="15.75" customHeight="1" s="202"/>
-    <row r="405" ht="15.75" customHeight="1" s="202"/>
-    <row r="406" ht="15.75" customHeight="1" s="202"/>
-    <row r="407" ht="15.75" customHeight="1" s="202"/>
-    <row r="408" ht="15.75" customHeight="1" s="202"/>
-    <row r="409" ht="15.75" customHeight="1" s="202"/>
-    <row r="410" ht="15.75" customHeight="1" s="202"/>
-    <row r="411" ht="15.75" customHeight="1" s="202"/>
-    <row r="412" ht="15.75" customHeight="1" s="202"/>
-    <row r="413" ht="15.75" customHeight="1" s="202"/>
-    <row r="414" ht="15.75" customHeight="1" s="202"/>
-    <row r="415" ht="15.75" customHeight="1" s="202"/>
-    <row r="416" ht="15.75" customHeight="1" s="202"/>
-    <row r="417" ht="15.75" customHeight="1" s="202"/>
-    <row r="418" ht="15.75" customHeight="1" s="202"/>
-    <row r="419" ht="15.75" customHeight="1" s="202"/>
-    <row r="420" ht="15.75" customHeight="1" s="202"/>
-    <row r="421" ht="15.75" customHeight="1" s="202"/>
-    <row r="422" ht="15.75" customHeight="1" s="202"/>
-    <row r="423" ht="15.75" customHeight="1" s="202"/>
-    <row r="424" ht="15.75" customHeight="1" s="202"/>
-    <row r="425" ht="15.75" customHeight="1" s="202"/>
-    <row r="426" ht="15.75" customHeight="1" s="202"/>
-    <row r="427" ht="15.75" customHeight="1" s="202"/>
-    <row r="428" ht="15.75" customHeight="1" s="202"/>
-    <row r="429" ht="15.75" customHeight="1" s="202"/>
-    <row r="430" ht="15.75" customHeight="1" s="202"/>
-    <row r="431" ht="15.75" customHeight="1" s="202"/>
-    <row r="432" ht="15.75" customHeight="1" s="202"/>
-    <row r="433" ht="15.75" customHeight="1" s="202"/>
-    <row r="434" ht="15.75" customHeight="1" s="202"/>
-    <row r="435" ht="15.75" customHeight="1" s="202"/>
-    <row r="436" ht="15.75" customHeight="1" s="202"/>
-    <row r="437" ht="15.75" customHeight="1" s="202"/>
-    <row r="438" ht="15.75" customHeight="1" s="202"/>
-    <row r="439" ht="15.75" customHeight="1" s="202"/>
-    <row r="440" ht="15.75" customHeight="1" s="202"/>
-    <row r="441" ht="15.75" customHeight="1" s="202"/>
-    <row r="442" ht="15.75" customHeight="1" s="202"/>
-    <row r="443" ht="15.75" customHeight="1" s="202"/>
-    <row r="444" ht="15.75" customHeight="1" s="202"/>
-    <row r="445" ht="15.75" customHeight="1" s="202"/>
-    <row r="446" ht="15.75" customHeight="1" s="202"/>
-    <row r="447" ht="15.75" customHeight="1" s="202"/>
-    <row r="448" ht="15.75" customHeight="1" s="202"/>
-    <row r="449" ht="15.75" customHeight="1" s="202"/>
-    <row r="450" ht="15.75" customHeight="1" s="202"/>
-    <row r="451" ht="15.75" customHeight="1" s="202"/>
-    <row r="452" ht="15.75" customHeight="1" s="202"/>
-    <row r="453" ht="15.75" customHeight="1" s="202"/>
-    <row r="454" ht="15.75" customHeight="1" s="202"/>
-    <row r="455" ht="15.75" customHeight="1" s="202"/>
-    <row r="456" ht="15.75" customHeight="1" s="202"/>
-    <row r="457" ht="15.75" customHeight="1" s="202"/>
-    <row r="458" ht="15.75" customHeight="1" s="202"/>
-    <row r="459" ht="15.75" customHeight="1" s="202"/>
-    <row r="460" ht="15.75" customHeight="1" s="202"/>
-    <row r="461" ht="15.75" customHeight="1" s="202"/>
-    <row r="462" ht="15.75" customHeight="1" s="202"/>
-    <row r="463" ht="15.75" customHeight="1" s="202"/>
-    <row r="464" ht="15.75" customHeight="1" s="202"/>
-    <row r="465" ht="15.75" customHeight="1" s="202"/>
-    <row r="466" ht="15.75" customHeight="1" s="202"/>
-    <row r="467" ht="15.75" customHeight="1" s="202"/>
-    <row r="468" ht="15.75" customHeight="1" s="202"/>
-    <row r="469" ht="15.75" customHeight="1" s="202"/>
-    <row r="470" ht="15.75" customHeight="1" s="202"/>
-    <row r="471" ht="15.75" customHeight="1" s="202"/>
-    <row r="472" ht="15.75" customHeight="1" s="202"/>
-    <row r="473" ht="15.75" customHeight="1" s="202"/>
-    <row r="474" ht="15.75" customHeight="1" s="202"/>
-    <row r="475" ht="15.75" customHeight="1" s="202"/>
-    <row r="476" ht="15.75" customHeight="1" s="202"/>
-    <row r="477" ht="15.75" customHeight="1" s="202"/>
-    <row r="478" ht="15.75" customHeight="1" s="202"/>
-    <row r="479" ht="15.75" customHeight="1" s="202"/>
-    <row r="480" ht="15.75" customHeight="1" s="202"/>
-    <row r="481" ht="15.75" customHeight="1" s="202"/>
-    <row r="482" ht="15.75" customHeight="1" s="202"/>
-    <row r="483" ht="15.75" customHeight="1" s="202"/>
-    <row r="484" ht="15.75" customHeight="1" s="202"/>
-    <row r="485" ht="15.75" customHeight="1" s="202"/>
-    <row r="486" ht="15.75" customHeight="1" s="202"/>
-    <row r="487" ht="15.75" customHeight="1" s="202"/>
-    <row r="488" ht="15.75" customHeight="1" s="202"/>
-    <row r="489" ht="15.75" customHeight="1" s="202"/>
-    <row r="490" ht="15.75" customHeight="1" s="202"/>
-    <row r="491" ht="15.75" customHeight="1" s="202"/>
-    <row r="492" ht="15.75" customHeight="1" s="202"/>
-    <row r="493" ht="15.75" customHeight="1" s="202"/>
-    <row r="494" ht="15.75" customHeight="1" s="202"/>
-    <row r="495" ht="15.75" customHeight="1" s="202"/>
-    <row r="496" ht="15.75" customHeight="1" s="202"/>
-    <row r="497" ht="15.75" customHeight="1" s="202"/>
-    <row r="498" ht="15.75" customHeight="1" s="202"/>
-    <row r="499" ht="15.75" customHeight="1" s="202"/>
-    <row r="500" ht="15.75" customHeight="1" s="202"/>
-    <row r="501" ht="15.75" customHeight="1" s="202"/>
-    <row r="502" ht="15.75" customHeight="1" s="202"/>
-    <row r="503" ht="15.75" customHeight="1" s="202"/>
-    <row r="504" ht="15.75" customHeight="1" s="202"/>
-    <row r="505" ht="15.75" customHeight="1" s="202"/>
-    <row r="506" ht="15.75" customHeight="1" s="202"/>
-    <row r="507" ht="15.75" customHeight="1" s="202"/>
-    <row r="508" ht="15.75" customHeight="1" s="202"/>
-    <row r="509" ht="15.75" customHeight="1" s="202"/>
-    <row r="510" ht="15.75" customHeight="1" s="202"/>
-    <row r="511" ht="15.75" customHeight="1" s="202"/>
-    <row r="512" ht="15.75" customHeight="1" s="202"/>
-    <row r="513" ht="15.75" customHeight="1" s="202"/>
-    <row r="514" ht="15.75" customHeight="1" s="202"/>
-    <row r="515" ht="15.75" customHeight="1" s="202"/>
-    <row r="516" ht="15.75" customHeight="1" s="202"/>
-    <row r="517" ht="15.75" customHeight="1" s="202"/>
-    <row r="518" ht="15.75" customHeight="1" s="202"/>
-    <row r="519" ht="15.75" customHeight="1" s="202"/>
-    <row r="520" ht="15.75" customHeight="1" s="202"/>
-    <row r="521" ht="15.75" customHeight="1" s="202"/>
-    <row r="522" ht="15.75" customHeight="1" s="202"/>
-    <row r="523" ht="15.75" customHeight="1" s="202"/>
-    <row r="524" ht="15.75" customHeight="1" s="202"/>
-    <row r="525" ht="15.75" customHeight="1" s="202"/>
-    <row r="526" ht="15.75" customHeight="1" s="202"/>
-    <row r="527" ht="15.75" customHeight="1" s="202"/>
-    <row r="528" ht="15.75" customHeight="1" s="202"/>
-    <row r="529" ht="15.75" customHeight="1" s="202"/>
-    <row r="530" ht="15.75" customHeight="1" s="202"/>
-    <row r="531" ht="15.75" customHeight="1" s="202"/>
-    <row r="532" ht="15.75" customHeight="1" s="202"/>
-    <row r="533" ht="15.75" customHeight="1" s="202"/>
-    <row r="534" ht="15.75" customHeight="1" s="202"/>
-    <row r="535" ht="15.75" customHeight="1" s="202"/>
-    <row r="536" ht="15.75" customHeight="1" s="202"/>
-    <row r="537" ht="15.75" customHeight="1" s="202"/>
-    <row r="538" ht="15.75" customHeight="1" s="202"/>
-    <row r="539" ht="15.75" customHeight="1" s="202"/>
-    <row r="540" ht="15.75" customHeight="1" s="202"/>
-    <row r="541" ht="15.75" customHeight="1" s="202"/>
-    <row r="542" ht="15.75" customHeight="1" s="202"/>
-    <row r="543" ht="15.75" customHeight="1" s="202"/>
-    <row r="544" ht="15.75" customHeight="1" s="202"/>
-    <row r="545" ht="15.75" customHeight="1" s="202"/>
-    <row r="546" ht="15.75" customHeight="1" s="202"/>
-    <row r="547" ht="15.75" customHeight="1" s="202"/>
-    <row r="548" ht="15.75" customHeight="1" s="202"/>
-    <row r="549" ht="15.75" customHeight="1" s="202"/>
-    <row r="550" ht="15.75" customHeight="1" s="202"/>
-    <row r="551" ht="15.75" customHeight="1" s="202"/>
-    <row r="552" ht="15.75" customHeight="1" s="202"/>
-    <row r="553" ht="15.75" customHeight="1" s="202"/>
-    <row r="554" ht="15.75" customHeight="1" s="202"/>
-    <row r="555" ht="15.75" customHeight="1" s="202"/>
-    <row r="556" ht="15.75" customHeight="1" s="202"/>
-    <row r="557" ht="15.75" customHeight="1" s="202"/>
-    <row r="558" ht="15.75" customHeight="1" s="202"/>
-    <row r="559" ht="15.75" customHeight="1" s="202"/>
-    <row r="560" ht="15.75" customHeight="1" s="202"/>
-    <row r="561" ht="15.75" customHeight="1" s="202"/>
-    <row r="562" ht="15.75" customHeight="1" s="202"/>
-    <row r="563" ht="15.75" customHeight="1" s="202"/>
-    <row r="564" ht="15.75" customHeight="1" s="202"/>
-    <row r="565" ht="15.75" customHeight="1" s="202"/>
-    <row r="566" ht="15.75" customHeight="1" s="202"/>
-    <row r="567" ht="15.75" customHeight="1" s="202"/>
-    <row r="568" ht="15.75" customHeight="1" s="202"/>
-    <row r="569" ht="15.75" customHeight="1" s="202"/>
-    <row r="570" ht="15.75" customHeight="1" s="202"/>
-    <row r="571" ht="15.75" customHeight="1" s="202"/>
-    <row r="572" ht="15.75" customHeight="1" s="202"/>
-    <row r="573" ht="15.75" customHeight="1" s="202"/>
-    <row r="574" ht="15.75" customHeight="1" s="202"/>
-    <row r="575" ht="15.75" customHeight="1" s="202"/>
-    <row r="576" ht="15.75" customHeight="1" s="202"/>
-    <row r="577" ht="15.75" customHeight="1" s="202"/>
-    <row r="578" ht="15.75" customHeight="1" s="202"/>
-    <row r="579" ht="15.75" customHeight="1" s="202"/>
-    <row r="580" ht="15.75" customHeight="1" s="202"/>
-    <row r="581" ht="15.75" customHeight="1" s="202"/>
-    <row r="582" ht="15.75" customHeight="1" s="202"/>
-    <row r="583" ht="15.75" customHeight="1" s="202"/>
-    <row r="584" ht="15.75" customHeight="1" s="202"/>
-    <row r="585" ht="15.75" customHeight="1" s="202"/>
-    <row r="586" ht="15.75" customHeight="1" s="202"/>
-    <row r="587" ht="15.75" customHeight="1" s="202"/>
-    <row r="588" ht="15.75" customHeight="1" s="202"/>
-    <row r="589" ht="15.75" customHeight="1" s="202"/>
-    <row r="590" ht="15.75" customHeight="1" s="202"/>
-    <row r="591" ht="15.75" customHeight="1" s="202"/>
-    <row r="592" ht="15.75" customHeight="1" s="202"/>
-    <row r="593" ht="15.75" customHeight="1" s="202"/>
-    <row r="594" ht="15.75" customHeight="1" s="202"/>
-    <row r="595" ht="15.75" customHeight="1" s="202"/>
-    <row r="596" ht="15.75" customHeight="1" s="202"/>
-    <row r="597" ht="15.75" customHeight="1" s="202"/>
-    <row r="598" ht="15.75" customHeight="1" s="202"/>
-    <row r="599" ht="15.75" customHeight="1" s="202"/>
-    <row r="600" ht="15.75" customHeight="1" s="202"/>
-    <row r="601" ht="15.75" customHeight="1" s="202"/>
-    <row r="602" ht="15.75" customHeight="1" s="202"/>
-    <row r="603" ht="15.75" customHeight="1" s="202"/>
-    <row r="604" ht="15.75" customHeight="1" s="202"/>
-    <row r="605" ht="15.75" customHeight="1" s="202"/>
-    <row r="606" ht="15.75" customHeight="1" s="202"/>
-    <row r="607" ht="15.75" customHeight="1" s="202"/>
-    <row r="608" ht="15.75" customHeight="1" s="202"/>
-    <row r="609" ht="15.75" customHeight="1" s="202"/>
-    <row r="610" ht="15.75" customHeight="1" s="202"/>
-    <row r="611" ht="15.75" customHeight="1" s="202"/>
-    <row r="612" ht="15.75" customHeight="1" s="202"/>
-    <row r="613" ht="15.75" customHeight="1" s="202"/>
-    <row r="614" ht="15.75" customHeight="1" s="202"/>
-    <row r="615" ht="15.75" customHeight="1" s="202"/>
-    <row r="616" ht="15.75" customHeight="1" s="202"/>
-    <row r="617" ht="15.75" customHeight="1" s="202"/>
-    <row r="618" ht="15.75" customHeight="1" s="202"/>
-    <row r="619" ht="15.75" customHeight="1" s="202"/>
-    <row r="620" ht="15.75" customHeight="1" s="202"/>
-    <row r="621" ht="15.75" customHeight="1" s="202"/>
-    <row r="622" ht="15.75" customHeight="1" s="202"/>
-    <row r="623" ht="15.75" customHeight="1" s="202"/>
-    <row r="624" ht="15.75" customHeight="1" s="202"/>
-    <row r="625" ht="15.75" customHeight="1" s="202"/>
-    <row r="626" ht="15.75" customHeight="1" s="202"/>
-    <row r="627" ht="15.75" customHeight="1" s="202"/>
-    <row r="628" ht="15.75" customHeight="1" s="202"/>
-    <row r="629" ht="15.75" customHeight="1" s="202"/>
-    <row r="630" ht="15.75" customHeight="1" s="202"/>
-    <row r="631" ht="15.75" customHeight="1" s="202"/>
-    <row r="632" ht="15.75" customHeight="1" s="202"/>
-    <row r="633" ht="15.75" customHeight="1" s="202"/>
-    <row r="634" ht="15.75" customHeight="1" s="202"/>
-    <row r="635" ht="15.75" customHeight="1" s="202"/>
-    <row r="636" ht="15.75" customHeight="1" s="202"/>
-    <row r="637" ht="15.75" customHeight="1" s="202"/>
-    <row r="638" ht="15.75" customHeight="1" s="202"/>
-    <row r="639" ht="15.75" customHeight="1" s="202"/>
-    <row r="640" ht="15.75" customHeight="1" s="202"/>
-    <row r="641" ht="15.75" customHeight="1" s="202"/>
-    <row r="642" ht="15.75" customHeight="1" s="202"/>
-    <row r="643" ht="15.75" customHeight="1" s="202"/>
-    <row r="644" ht="15.75" customHeight="1" s="202"/>
-    <row r="645" ht="15.75" customHeight="1" s="202"/>
-    <row r="646" ht="15.75" customHeight="1" s="202"/>
-    <row r="647" ht="15.75" customHeight="1" s="202"/>
-    <row r="648" ht="15.75" customHeight="1" s="202"/>
-    <row r="649" ht="15.75" customHeight="1" s="202"/>
-    <row r="650" ht="15.75" customHeight="1" s="202"/>
-    <row r="651" ht="15.75" customHeight="1" s="202"/>
-    <row r="652" ht="15.75" customHeight="1" s="202"/>
-    <row r="653" ht="15.75" customHeight="1" s="202"/>
-    <row r="654" ht="15.75" customHeight="1" s="202"/>
-    <row r="655" ht="15.75" customHeight="1" s="202"/>
-    <row r="656" ht="15.75" customHeight="1" s="202"/>
-    <row r="657" ht="15.75" customHeight="1" s="202"/>
-    <row r="658" ht="15.75" customHeight="1" s="202"/>
-    <row r="659" ht="15.75" customHeight="1" s="202"/>
-    <row r="660" ht="15.75" customHeight="1" s="202"/>
-    <row r="661" ht="15.75" customHeight="1" s="202"/>
-    <row r="662" ht="15.75" customHeight="1" s="202"/>
-    <row r="663" ht="15.75" customHeight="1" s="202"/>
-    <row r="664" ht="15.75" customHeight="1" s="202"/>
-    <row r="665" ht="15.75" customHeight="1" s="202"/>
-    <row r="666" ht="15.75" customHeight="1" s="202"/>
-    <row r="667" ht="15.75" customHeight="1" s="202"/>
-    <row r="668" ht="15.75" customHeight="1" s="202"/>
-    <row r="669" ht="15.75" customHeight="1" s="202"/>
-    <row r="670" ht="15.75" customHeight="1" s="202"/>
-    <row r="671" ht="15.75" customHeight="1" s="202"/>
-    <row r="672" ht="15.75" customHeight="1" s="202"/>
-    <row r="673" ht="15.75" customHeight="1" s="202"/>
-    <row r="674" ht="15.75" customHeight="1" s="202"/>
-    <row r="675" ht="15.75" customHeight="1" s="202"/>
-    <row r="676" ht="15.75" customHeight="1" s="202"/>
-    <row r="677" ht="15.75" customHeight="1" s="202"/>
-    <row r="678" ht="15.75" customHeight="1" s="202"/>
-    <row r="679" ht="15.75" customHeight="1" s="202"/>
-    <row r="680" ht="15.75" customHeight="1" s="202"/>
-    <row r="681" ht="15.75" customHeight="1" s="202"/>
-    <row r="682" ht="15.75" customHeight="1" s="202"/>
-    <row r="683" ht="15.75" customHeight="1" s="202"/>
-    <row r="684" ht="15.75" customHeight="1" s="202"/>
-    <row r="685" ht="15.75" customHeight="1" s="202"/>
-    <row r="686" ht="15.75" customHeight="1" s="202"/>
-    <row r="687" ht="15.75" customHeight="1" s="202"/>
-    <row r="688" ht="15.75" customHeight="1" s="202"/>
-    <row r="689" ht="15.75" customHeight="1" s="202"/>
-    <row r="690" ht="15.75" customHeight="1" s="202"/>
-    <row r="691" ht="15.75" customHeight="1" s="202"/>
-    <row r="692" ht="15.75" customHeight="1" s="202"/>
-    <row r="693" ht="15.75" customHeight="1" s="202"/>
-    <row r="694" ht="15.75" customHeight="1" s="202"/>
-    <row r="695" ht="15.75" customHeight="1" s="202"/>
-    <row r="696" ht="15.75" customHeight="1" s="202"/>
-    <row r="697" ht="15.75" customHeight="1" s="202"/>
-    <row r="698" ht="15.75" customHeight="1" s="202"/>
-    <row r="699" ht="15.75" customHeight="1" s="202"/>
-    <row r="700" ht="15.75" customHeight="1" s="202"/>
-    <row r="701" ht="15.75" customHeight="1" s="202"/>
-    <row r="702" ht="15.75" customHeight="1" s="202"/>
-    <row r="703" ht="15.75" customHeight="1" s="202"/>
-    <row r="704" ht="15.75" customHeight="1" s="202"/>
-    <row r="705" ht="15.75" customHeight="1" s="202"/>
-    <row r="706" ht="15.75" customHeight="1" s="202"/>
-    <row r="707" ht="15.75" customHeight="1" s="202"/>
-    <row r="708" ht="15.75" customHeight="1" s="202"/>
-    <row r="709" ht="15.75" customHeight="1" s="202"/>
-    <row r="710" ht="15.75" customHeight="1" s="202"/>
-    <row r="711" ht="15.75" customHeight="1" s="202"/>
-    <row r="712" ht="15.75" customHeight="1" s="202"/>
-    <row r="713" ht="15.75" customHeight="1" s="202"/>
-    <row r="714" ht="15.75" customHeight="1" s="202"/>
-    <row r="715" ht="15.75" customHeight="1" s="202"/>
-    <row r="716" ht="15.75" customHeight="1" s="202"/>
-    <row r="717" ht="15.75" customHeight="1" s="202"/>
-    <row r="718" ht="15.75" customHeight="1" s="202"/>
-    <row r="719" ht="15.75" customHeight="1" s="202"/>
-    <row r="720" ht="15.75" customHeight="1" s="202"/>
-    <row r="721" ht="15.75" customHeight="1" s="202"/>
-    <row r="722" ht="15.75" customHeight="1" s="202"/>
-    <row r="723" ht="15.75" customHeight="1" s="202"/>
-    <row r="724" ht="15.75" customHeight="1" s="202"/>
-    <row r="725" ht="15.75" customHeight="1" s="202"/>
-    <row r="726" ht="15.75" customHeight="1" s="202"/>
-    <row r="727" ht="15.75" customHeight="1" s="202"/>
-    <row r="728" ht="15.75" customHeight="1" s="202"/>
-    <row r="729" ht="15.75" customHeight="1" s="202"/>
-    <row r="730" ht="15.75" customHeight="1" s="202"/>
-    <row r="731" ht="15.75" customHeight="1" s="202"/>
-    <row r="732" ht="15.75" customHeight="1" s="202"/>
-    <row r="733" ht="15.75" customHeight="1" s="202"/>
-    <row r="734" ht="15.75" customHeight="1" s="202"/>
-    <row r="735" ht="15.75" customHeight="1" s="202"/>
-    <row r="736" ht="15.75" customHeight="1" s="202"/>
-    <row r="737" ht="15.75" customHeight="1" s="202"/>
-    <row r="738" ht="15.75" customHeight="1" s="202"/>
-    <row r="739" ht="15.75" customHeight="1" s="202"/>
-    <row r="740" ht="15.75" customHeight="1" s="202"/>
-    <row r="741" ht="15.75" customHeight="1" s="202"/>
-    <row r="742" ht="15.75" customHeight="1" s="202"/>
-    <row r="743" ht="15.75" customHeight="1" s="202"/>
-    <row r="744" ht="15.75" customHeight="1" s="202"/>
-    <row r="745" ht="15.75" customHeight="1" s="202"/>
-    <row r="746" ht="15.75" customHeight="1" s="202"/>
-    <row r="747" ht="15.75" customHeight="1" s="202"/>
-    <row r="748" ht="15.75" customHeight="1" s="202"/>
-    <row r="749" ht="15.75" customHeight="1" s="202"/>
-    <row r="750" ht="15.75" customHeight="1" s="202"/>
-    <row r="751" ht="15.75" customHeight="1" s="202"/>
-    <row r="752" ht="15.75" customHeight="1" s="202"/>
-    <row r="753" ht="15.75" customHeight="1" s="202"/>
-    <row r="754" ht="15.75" customHeight="1" s="202"/>
-    <row r="755" ht="15.75" customHeight="1" s="202"/>
-    <row r="756" ht="15.75" customHeight="1" s="202"/>
-    <row r="757" ht="15.75" customHeight="1" s="202"/>
-    <row r="758" ht="15.75" customHeight="1" s="202"/>
-    <row r="759" ht="15.75" customHeight="1" s="202"/>
-    <row r="760" ht="15.75" customHeight="1" s="202"/>
-    <row r="761" ht="15.75" customHeight="1" s="202"/>
-    <row r="762" ht="15.75" customHeight="1" s="202"/>
-    <row r="763" ht="15.75" customHeight="1" s="202"/>
-    <row r="764" ht="15.75" customHeight="1" s="202"/>
-    <row r="765" ht="15.75" customHeight="1" s="202"/>
-    <row r="766" ht="15.75" customHeight="1" s="202"/>
-    <row r="767" ht="15.75" customHeight="1" s="202"/>
-    <row r="768" ht="15.75" customHeight="1" s="202"/>
-    <row r="769" ht="15.75" customHeight="1" s="202"/>
-    <row r="770" ht="15.75" customHeight="1" s="202"/>
-    <row r="771" ht="15.75" customHeight="1" s="202"/>
-    <row r="772" ht="15.75" customHeight="1" s="202"/>
-    <row r="773" ht="15.75" customHeight="1" s="202"/>
-    <row r="774" ht="15.75" customHeight="1" s="202"/>
-    <row r="775" ht="15.75" customHeight="1" s="202"/>
-    <row r="776" ht="15.75" customHeight="1" s="202"/>
-    <row r="777" ht="15.75" customHeight="1" s="202"/>
-    <row r="778" ht="15.75" customHeight="1" s="202"/>
-    <row r="779" ht="15.75" customHeight="1" s="202"/>
-    <row r="780" ht="15.75" customHeight="1" s="202"/>
-    <row r="781" ht="15.75" customHeight="1" s="202"/>
-    <row r="782" ht="15.75" customHeight="1" s="202"/>
-    <row r="783" ht="15.75" customHeight="1" s="202"/>
-    <row r="784" ht="15.75" customHeight="1" s="202"/>
-    <row r="785" ht="15.75" customHeight="1" s="202"/>
-    <row r="786" ht="15.75" customHeight="1" s="202"/>
-    <row r="787" ht="15.75" customHeight="1" s="202"/>
-    <row r="788" ht="15.75" customHeight="1" s="202"/>
-    <row r="789" ht="15.75" customHeight="1" s="202"/>
-    <row r="790" ht="15.75" customHeight="1" s="202"/>
-    <row r="791" ht="15.75" customHeight="1" s="202"/>
-    <row r="792" ht="15.75" customHeight="1" s="202"/>
-    <row r="793" ht="15.75" customHeight="1" s="202"/>
-    <row r="794" ht="15.75" customHeight="1" s="202"/>
-    <row r="795" ht="15.75" customHeight="1" s="202"/>
-    <row r="796" ht="15.75" customHeight="1" s="202"/>
-    <row r="797" ht="15.75" customHeight="1" s="202"/>
-    <row r="798" ht="15.75" customHeight="1" s="202"/>
-    <row r="799" ht="15.75" customHeight="1" s="202"/>
-    <row r="800" ht="15.75" customHeight="1" s="202"/>
-    <row r="801" ht="15.75" customHeight="1" s="202"/>
-    <row r="802" ht="15.75" customHeight="1" s="202"/>
-    <row r="803" ht="15.75" customHeight="1" s="202"/>
-    <row r="804" ht="15.75" customHeight="1" s="202"/>
-    <row r="805" ht="15.75" customHeight="1" s="202"/>
-    <row r="806" ht="15.75" customHeight="1" s="202"/>
-    <row r="807" ht="15.75" customHeight="1" s="202"/>
-    <row r="808" ht="15.75" customHeight="1" s="202"/>
-    <row r="809" ht="15.75" customHeight="1" s="202"/>
-    <row r="810" ht="15.75" customHeight="1" s="202"/>
-    <row r="811" ht="15.75" customHeight="1" s="202"/>
-    <row r="812" ht="15.75" customHeight="1" s="202"/>
-    <row r="813" ht="15.75" customHeight="1" s="202"/>
-    <row r="814" ht="15.75" customHeight="1" s="202"/>
-    <row r="815" ht="15.75" customHeight="1" s="202"/>
-    <row r="816" ht="15.75" customHeight="1" s="202"/>
-    <row r="817" ht="15.75" customHeight="1" s="202"/>
-    <row r="818" ht="15.75" customHeight="1" s="202"/>
-    <row r="819" ht="15.75" customHeight="1" s="202"/>
-    <row r="820" ht="15.75" customHeight="1" s="202"/>
-    <row r="821" ht="15.75" customHeight="1" s="202"/>
-    <row r="822" ht="15.75" customHeight="1" s="202"/>
-    <row r="823" ht="15.75" customHeight="1" s="202"/>
-    <row r="824" ht="15.75" customHeight="1" s="202"/>
-    <row r="825" ht="15.75" customHeight="1" s="202"/>
-    <row r="826" ht="15.75" customHeight="1" s="202"/>
-    <row r="827" ht="15.75" customHeight="1" s="202"/>
-    <row r="828" ht="15.75" customHeight="1" s="202"/>
-    <row r="829" ht="15.75" customHeight="1" s="202"/>
-    <row r="830" ht="15.75" customHeight="1" s="202"/>
-    <row r="831" ht="15.75" customHeight="1" s="202"/>
-    <row r="832" ht="15.75" customHeight="1" s="202"/>
-    <row r="833" ht="15.75" customHeight="1" s="202"/>
-    <row r="834" ht="15.75" customHeight="1" s="202"/>
-    <row r="835" ht="15.75" customHeight="1" s="202"/>
-    <row r="836" ht="15.75" customHeight="1" s="202"/>
-    <row r="837" ht="15.75" customHeight="1" s="202"/>
-    <row r="838" ht="15.75" customHeight="1" s="202"/>
-    <row r="839" ht="15.75" customHeight="1" s="202"/>
-    <row r="840" ht="15.75" customHeight="1" s="202"/>
-    <row r="841" ht="15.75" customHeight="1" s="202"/>
-    <row r="842" ht="15.75" customHeight="1" s="202"/>
-    <row r="843" ht="15.75" customHeight="1" s="202"/>
-    <row r="844" ht="15.75" customHeight="1" s="202"/>
-    <row r="845" ht="15.75" customHeight="1" s="202"/>
-    <row r="846" ht="15.75" customHeight="1" s="202"/>
-    <row r="847" ht="15.75" customHeight="1" s="202"/>
-    <row r="848" ht="15.75" customHeight="1" s="202"/>
-    <row r="849" ht="15.75" customHeight="1" s="202"/>
-    <row r="850" ht="15.75" customHeight="1" s="202"/>
-    <row r="851" ht="15.75" customHeight="1" s="202"/>
-    <row r="852" ht="15.75" customHeight="1" s="202"/>
-    <row r="853" ht="15.75" customHeight="1" s="202"/>
-    <row r="854" ht="15.75" customHeight="1" s="202"/>
-    <row r="855" ht="15.75" customHeight="1" s="202"/>
-    <row r="856" ht="15.75" customHeight="1" s="202"/>
-    <row r="857" ht="15.75" customHeight="1" s="202"/>
-    <row r="858" ht="15.75" customHeight="1" s="202"/>
-    <row r="859" ht="15.75" customHeight="1" s="202"/>
-    <row r="860" ht="15.75" customHeight="1" s="202"/>
-    <row r="861" ht="15.75" customHeight="1" s="202"/>
-    <row r="862" ht="15.75" customHeight="1" s="202"/>
-    <row r="863" ht="15.75" customHeight="1" s="202"/>
-    <row r="864" ht="15.75" customHeight="1" s="202"/>
-    <row r="865" ht="15.75" customHeight="1" s="202"/>
-    <row r="866" ht="15.75" customHeight="1" s="202"/>
-    <row r="867" ht="15.75" customHeight="1" s="202"/>
-    <row r="868" ht="15.75" customHeight="1" s="202"/>
-    <row r="869" ht="15.75" customHeight="1" s="202"/>
-    <row r="870" ht="15.75" customHeight="1" s="202"/>
-    <row r="871" ht="15.75" customHeight="1" s="202"/>
-    <row r="872" ht="15.75" customHeight="1" s="202"/>
-    <row r="873" ht="15.75" customHeight="1" s="202"/>
-    <row r="874" ht="15.75" customHeight="1" s="202"/>
-    <row r="875" ht="15.75" customHeight="1" s="202"/>
-    <row r="876" ht="15.75" customHeight="1" s="202"/>
-    <row r="877" ht="15.75" customHeight="1" s="202"/>
-    <row r="878" ht="15.75" customHeight="1" s="202"/>
-    <row r="879" ht="15.75" customHeight="1" s="202"/>
-    <row r="880" ht="15.75" customHeight="1" s="202"/>
-    <row r="881" ht="15.75" customHeight="1" s="202"/>
-    <row r="882" ht="15.75" customHeight="1" s="202"/>
-    <row r="883" ht="15.75" customHeight="1" s="202"/>
-    <row r="884" ht="15.75" customHeight="1" s="202"/>
-    <row r="885" ht="15.75" customHeight="1" s="202"/>
-    <row r="886" ht="15.75" customHeight="1" s="202"/>
-    <row r="887" ht="15.75" customHeight="1" s="202"/>
-    <row r="888" ht="15.75" customHeight="1" s="202"/>
-    <row r="889" ht="15.75" customHeight="1" s="202"/>
-    <row r="890" ht="15.75" customHeight="1" s="202"/>
-    <row r="891" ht="15.75" customHeight="1" s="202"/>
-    <row r="892" ht="15.75" customHeight="1" s="202"/>
-    <row r="893" ht="15.75" customHeight="1" s="202"/>
-    <row r="894" ht="15.75" customHeight="1" s="202"/>
-    <row r="895" ht="15.75" customHeight="1" s="202"/>
-    <row r="896" ht="15.75" customHeight="1" s="202"/>
-    <row r="897" ht="15.75" customHeight="1" s="202"/>
-    <row r="898" ht="15.75" customHeight="1" s="202"/>
-    <row r="899" ht="15.75" customHeight="1" s="202"/>
-    <row r="900" ht="15.75" customHeight="1" s="202"/>
-    <row r="901" ht="15.75" customHeight="1" s="202"/>
-    <row r="902" ht="15.75" customHeight="1" s="202"/>
-    <row r="903" ht="15.75" customHeight="1" s="202"/>
-    <row r="904" ht="15.75" customHeight="1" s="202"/>
-    <row r="905" ht="15.75" customHeight="1" s="202"/>
-    <row r="906" ht="15.75" customHeight="1" s="202"/>
-    <row r="907" ht="15.75" customHeight="1" s="202"/>
-    <row r="908" ht="15.75" customHeight="1" s="202"/>
-    <row r="909" ht="15.75" customHeight="1" s="202"/>
-    <row r="910" ht="15.75" customHeight="1" s="202"/>
-    <row r="911" ht="15.75" customHeight="1" s="202"/>
-    <row r="912" ht="15.75" customHeight="1" s="202"/>
-    <row r="913" ht="15.75" customHeight="1" s="202"/>
-    <row r="914" ht="15.75" customHeight="1" s="202"/>
-    <row r="915" ht="15.75" customHeight="1" s="202"/>
-    <row r="916" ht="15.75" customHeight="1" s="202"/>
-    <row r="917" ht="15.75" customHeight="1" s="202"/>
-    <row r="918" ht="15.75" customHeight="1" s="202"/>
-    <row r="919" ht="15.75" customHeight="1" s="202"/>
-    <row r="920" ht="15.75" customHeight="1" s="202"/>
-    <row r="921" ht="15.75" customHeight="1" s="202"/>
-    <row r="922" ht="15.75" customHeight="1" s="202"/>
-    <row r="923" ht="15.75" customHeight="1" s="202"/>
-    <row r="924" ht="15.75" customHeight="1" s="202"/>
-    <row r="925" ht="15.75" customHeight="1" s="202"/>
-    <row r="926" ht="15.75" customHeight="1" s="202"/>
-    <row r="927" ht="15.75" customHeight="1" s="202"/>
-    <row r="928" ht="15.75" customHeight="1" s="202"/>
-    <row r="929" ht="15.75" customHeight="1" s="202"/>
-    <row r="930" ht="15.75" customHeight="1" s="202"/>
-    <row r="931" ht="15.75" customHeight="1" s="202"/>
-    <row r="932" ht="15.75" customHeight="1" s="202"/>
-    <row r="933" ht="15.75" customHeight="1" s="202"/>
-    <row r="934" ht="15.75" customHeight="1" s="202"/>
-    <row r="935" ht="15.75" customHeight="1" s="202"/>
-    <row r="936" ht="15.75" customHeight="1" s="202"/>
-    <row r="937" ht="15.75" customHeight="1" s="202"/>
-    <row r="938" ht="15.75" customHeight="1" s="202"/>
-    <row r="939" ht="15.75" customHeight="1" s="202"/>
-    <row r="940" ht="15.75" customHeight="1" s="202"/>
-    <row r="941" ht="15.75" customHeight="1" s="202"/>
-    <row r="942" ht="15.75" customHeight="1" s="202"/>
-    <row r="943" ht="15.75" customHeight="1" s="202"/>
-    <row r="944" ht="15.75" customHeight="1" s="202"/>
-    <row r="945" ht="15.75" customHeight="1" s="202"/>
-    <row r="946" ht="15.75" customHeight="1" s="202"/>
-    <row r="947" ht="15.75" customHeight="1" s="202"/>
-    <row r="948" ht="15.75" customHeight="1" s="202"/>
-    <row r="949" ht="15.75" customHeight="1" s="202"/>
-    <row r="950" ht="15.75" customHeight="1" s="202"/>
-    <row r="951" ht="15.75" customHeight="1" s="202"/>
-    <row r="952" ht="15.75" customHeight="1" s="202"/>
-    <row r="953" ht="15.75" customHeight="1" s="202"/>
-    <row r="954" ht="15.75" customHeight="1" s="202"/>
-    <row r="955" ht="15.75" customHeight="1" s="202"/>
-    <row r="956" ht="15.75" customHeight="1" s="202"/>
-    <row r="957" ht="15.75" customHeight="1" s="202"/>
-    <row r="958" ht="15.75" customHeight="1" s="202"/>
-    <row r="959" ht="15.75" customHeight="1" s="202"/>
-    <row r="960" ht="15.75" customHeight="1" s="202"/>
-    <row r="961" ht="15.75" customHeight="1" s="202"/>
-    <row r="962" ht="15.75" customHeight="1" s="202"/>
-    <row r="963" ht="15.75" customHeight="1" s="202"/>
-    <row r="964" ht="15.75" customHeight="1" s="202"/>
-    <row r="965" ht="15.75" customHeight="1" s="202"/>
-    <row r="966" ht="15.75" customHeight="1" s="202"/>
-    <row r="967" ht="15.75" customHeight="1" s="202"/>
-    <row r="968" ht="15.75" customHeight="1" s="202"/>
-    <row r="969" ht="15.75" customHeight="1" s="202"/>
-    <row r="970" ht="15.75" customHeight="1" s="202"/>
-    <row r="971" ht="15.75" customHeight="1" s="202"/>
-    <row r="972" ht="15.75" customHeight="1" s="202"/>
-    <row r="973" ht="15.75" customHeight="1" s="202"/>
-    <row r="974" ht="15.75" customHeight="1" s="202"/>
-    <row r="975" ht="15.75" customHeight="1" s="202"/>
-    <row r="976" ht="15.75" customHeight="1" s="202"/>
-    <row r="977" ht="15.75" customHeight="1" s="202"/>
-    <row r="978" ht="15.75" customHeight="1" s="202"/>
-    <row r="979" ht="15.75" customHeight="1" s="202"/>
-    <row r="980" ht="15.75" customHeight="1" s="202"/>
-    <row r="981" ht="15.75" customHeight="1" s="202"/>
-    <row r="982" ht="15.75" customHeight="1" s="202"/>
-    <row r="983" ht="15.75" customHeight="1" s="202"/>
-    <row r="984" ht="15.75" customHeight="1" s="202"/>
-    <row r="985" ht="15.75" customHeight="1" s="202"/>
-    <row r="986" ht="15.75" customHeight="1" s="202"/>
-    <row r="987" ht="15.75" customHeight="1" s="202"/>
-    <row r="988" ht="15.75" customHeight="1" s="202"/>
-    <row r="989" ht="15.75" customHeight="1" s="202"/>
-    <row r="990" ht="15.75" customHeight="1" s="202"/>
-    <row r="991" ht="15.75" customHeight="1" s="202"/>
-    <row r="992" ht="15.75" customHeight="1" s="202"/>
-    <row r="993" ht="15.75" customHeight="1" s="202"/>
-    <row r="994" ht="15.75" customHeight="1" s="202"/>
-    <row r="995" ht="15.75" customHeight="1" s="202"/>
-    <row r="996" ht="15.75" customHeight="1" s="202"/>
-    <row r="997" ht="15.75" customHeight="1" s="202"/>
-    <row r="998" ht="15.75" customHeight="1" s="202"/>
-    <row r="999" ht="15.75" customHeight="1" s="202"/>
-    <row r="1000" ht="15.75" customHeight="1" s="202"/>
+      <c r="D65" s="211" t="n"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1" s="191"/>
+    <row r="67" ht="15.75" customHeight="1" s="191"/>
+    <row r="68" ht="15.75" customHeight="1" s="191"/>
+    <row r="69" ht="15.75" customHeight="1" s="191"/>
+    <row r="70" ht="15.75" customHeight="1" s="191"/>
+    <row r="71" ht="15.75" customHeight="1" s="191"/>
+    <row r="72" ht="15.75" customHeight="1" s="191"/>
+    <row r="73" ht="15.75" customHeight="1" s="191"/>
+    <row r="74" ht="15.75" customHeight="1" s="191"/>
+    <row r="75" ht="15.75" customHeight="1" s="191"/>
+    <row r="76" ht="15.75" customHeight="1" s="191"/>
+    <row r="77" ht="15.75" customHeight="1" s="191"/>
+    <row r="78" ht="15.75" customHeight="1" s="191"/>
+    <row r="79" ht="15.75" customHeight="1" s="191"/>
+    <row r="80" ht="15.75" customHeight="1" s="191"/>
+    <row r="81" ht="15.75" customHeight="1" s="191"/>
+    <row r="82" ht="15.75" customHeight="1" s="191"/>
+    <row r="83" ht="15.75" customHeight="1" s="191"/>
+    <row r="84" ht="15.75" customHeight="1" s="191"/>
+    <row r="85" ht="15.75" customHeight="1" s="191"/>
+    <row r="86" ht="15.75" customHeight="1" s="191"/>
+    <row r="87" ht="15.75" customHeight="1" s="191"/>
+    <row r="88" ht="15.75" customHeight="1" s="191"/>
+    <row r="89" ht="15.75" customHeight="1" s="191"/>
+    <row r="90" ht="15.75" customHeight="1" s="191"/>
+    <row r="91" ht="15.75" customHeight="1" s="191"/>
+    <row r="92" ht="15.75" customHeight="1" s="191"/>
+    <row r="93" ht="15.75" customHeight="1" s="191"/>
+    <row r="94" ht="15.75" customHeight="1" s="191"/>
+    <row r="95" ht="15.75" customHeight="1" s="191"/>
+    <row r="96" ht="15.75" customHeight="1" s="191"/>
+    <row r="97" ht="15.75" customHeight="1" s="191"/>
+    <row r="98" ht="15.75" customHeight="1" s="191"/>
+    <row r="99" ht="15.75" customHeight="1" s="191"/>
+    <row r="100" ht="15.75" customHeight="1" s="191"/>
+    <row r="101" ht="15.75" customHeight="1" s="191"/>
+    <row r="102" ht="15.75" customHeight="1" s="191"/>
+    <row r="103" ht="15.75" customHeight="1" s="191"/>
+    <row r="104" ht="15.75" customHeight="1" s="191"/>
+    <row r="105" ht="15.75" customHeight="1" s="191"/>
+    <row r="106" ht="15.75" customHeight="1" s="191"/>
+    <row r="107" ht="15.75" customHeight="1" s="191"/>
+    <row r="108" ht="15.75" customHeight="1" s="191"/>
+    <row r="109" ht="15.75" customHeight="1" s="191"/>
+    <row r="110" ht="15.75" customHeight="1" s="191"/>
+    <row r="111" ht="15.75" customHeight="1" s="191"/>
+    <row r="112" ht="15.75" customHeight="1" s="191"/>
+    <row r="113" ht="15.75" customHeight="1" s="191"/>
+    <row r="114" ht="15.75" customHeight="1" s="191"/>
+    <row r="115" ht="15.75" customHeight="1" s="191"/>
+    <row r="116" ht="15.75" customHeight="1" s="191"/>
+    <row r="117" ht="15.75" customHeight="1" s="191"/>
+    <row r="118" ht="15.75" customHeight="1" s="191"/>
+    <row r="119" ht="15.75" customHeight="1" s="191"/>
+    <row r="120" ht="15.75" customHeight="1" s="191"/>
+    <row r="121" ht="15.75" customHeight="1" s="191"/>
+    <row r="122" ht="15.75" customHeight="1" s="191"/>
+    <row r="123" ht="15.75" customHeight="1" s="191"/>
+    <row r="124" ht="15.75" customHeight="1" s="191"/>
+    <row r="125" ht="15.75" customHeight="1" s="191"/>
+    <row r="126" ht="15.75" customHeight="1" s="191"/>
+    <row r="127" ht="15.75" customHeight="1" s="191"/>
+    <row r="128" ht="15.75" customHeight="1" s="191"/>
+    <row r="129" ht="15.75" customHeight="1" s="191"/>
+    <row r="130" ht="15.75" customHeight="1" s="191"/>
+    <row r="131" ht="15.75" customHeight="1" s="191"/>
+    <row r="132" ht="15.75" customHeight="1" s="191"/>
+    <row r="133" ht="15.75" customHeight="1" s="191"/>
+    <row r="134" ht="15.75" customHeight="1" s="191"/>
+    <row r="135" ht="15.75" customHeight="1" s="191"/>
+    <row r="136" ht="15.75" customHeight="1" s="191"/>
+    <row r="137" ht="15.75" customHeight="1" s="191"/>
+    <row r="138" ht="15.75" customHeight="1" s="191"/>
+    <row r="139" ht="15.75" customHeight="1" s="191"/>
+    <row r="140" ht="15.75" customHeight="1" s="191"/>
+    <row r="141" ht="15.75" customHeight="1" s="191"/>
+    <row r="142" ht="15.75" customHeight="1" s="191"/>
+    <row r="143" ht="15.75" customHeight="1" s="191"/>
+    <row r="144" ht="15.75" customHeight="1" s="191"/>
+    <row r="145" ht="15.75" customHeight="1" s="191"/>
+    <row r="146" ht="15.75" customHeight="1" s="191"/>
+    <row r="147" ht="15.75" customHeight="1" s="191"/>
+    <row r="148" ht="15.75" customHeight="1" s="191"/>
+    <row r="149" ht="15.75" customHeight="1" s="191"/>
+    <row r="150" ht="15.75" customHeight="1" s="191"/>
+    <row r="151" ht="15.75" customHeight="1" s="191"/>
+    <row r="152" ht="15.75" customHeight="1" s="191"/>
+    <row r="153" ht="15.75" customHeight="1" s="191"/>
+    <row r="154" ht="15.75" customHeight="1" s="191"/>
+    <row r="155" ht="15.75" customHeight="1" s="191"/>
+    <row r="156" ht="15.75" customHeight="1" s="191"/>
+    <row r="157" ht="15.75" customHeight="1" s="191"/>
+    <row r="158" ht="15.75" customHeight="1" s="191"/>
+    <row r="159" ht="15.75" customHeight="1" s="191"/>
+    <row r="160" ht="15.75" customHeight="1" s="191"/>
+    <row r="161" ht="15.75" customHeight="1" s="191"/>
+    <row r="162" ht="15.75" customHeight="1" s="191"/>
+    <row r="163" ht="15.75" customHeight="1" s="191"/>
+    <row r="164" ht="15.75" customHeight="1" s="191"/>
+    <row r="165" ht="15.75" customHeight="1" s="191"/>
+    <row r="166" ht="15.75" customHeight="1" s="191"/>
+    <row r="167" ht="15.75" customHeight="1" s="191"/>
+    <row r="168" ht="15.75" customHeight="1" s="191"/>
+    <row r="169" ht="15.75" customHeight="1" s="191"/>
+    <row r="170" ht="15.75" customHeight="1" s="191"/>
+    <row r="171" ht="15.75" customHeight="1" s="191"/>
+    <row r="172" ht="15.75" customHeight="1" s="191"/>
+    <row r="173" ht="15.75" customHeight="1" s="191"/>
+    <row r="174" ht="15.75" customHeight="1" s="191"/>
+    <row r="175" ht="15.75" customHeight="1" s="191"/>
+    <row r="176" ht="15.75" customHeight="1" s="191"/>
+    <row r="177" ht="15.75" customHeight="1" s="191"/>
+    <row r="178" ht="15.75" customHeight="1" s="191"/>
+    <row r="179" ht="15.75" customHeight="1" s="191"/>
+    <row r="180" ht="15.75" customHeight="1" s="191"/>
+    <row r="181" ht="15.75" customHeight="1" s="191"/>
+    <row r="182" ht="15.75" customHeight="1" s="191"/>
+    <row r="183" ht="15.75" customHeight="1" s="191"/>
+    <row r="184" ht="15.75" customHeight="1" s="191"/>
+    <row r="185" ht="15.75" customHeight="1" s="191"/>
+    <row r="186" ht="15.75" customHeight="1" s="191"/>
+    <row r="187" ht="15.75" customHeight="1" s="191"/>
+    <row r="188" ht="15.75" customHeight="1" s="191"/>
+    <row r="189" ht="15.75" customHeight="1" s="191"/>
+    <row r="190" ht="15.75" customHeight="1" s="191"/>
+    <row r="191" ht="15.75" customHeight="1" s="191"/>
+    <row r="192" ht="15.75" customHeight="1" s="191"/>
+    <row r="193" ht="15.75" customHeight="1" s="191"/>
+    <row r="194" ht="15.75" customHeight="1" s="191"/>
+    <row r="195" ht="15.75" customHeight="1" s="191"/>
+    <row r="196" ht="15.75" customHeight="1" s="191"/>
+    <row r="197" ht="15.75" customHeight="1" s="191"/>
+    <row r="198" ht="15.75" customHeight="1" s="191"/>
+    <row r="199" ht="15.75" customHeight="1" s="191"/>
+    <row r="200" ht="15.75" customHeight="1" s="191"/>
+    <row r="201" ht="15.75" customHeight="1" s="191"/>
+    <row r="202" ht="15.75" customHeight="1" s="191"/>
+    <row r="203" ht="15.75" customHeight="1" s="191"/>
+    <row r="204" ht="15.75" customHeight="1" s="191"/>
+    <row r="205" ht="15.75" customHeight="1" s="191"/>
+    <row r="206" ht="15.75" customHeight="1" s="191"/>
+    <row r="207" ht="15.75" customHeight="1" s="191"/>
+    <row r="208" ht="15.75" customHeight="1" s="191"/>
+    <row r="209" ht="15.75" customHeight="1" s="191"/>
+    <row r="210" ht="15.75" customHeight="1" s="191"/>
+    <row r="211" ht="15.75" customHeight="1" s="191"/>
+    <row r="212" ht="15.75" customHeight="1" s="191"/>
+    <row r="213" ht="15.75" customHeight="1" s="191"/>
+    <row r="214" ht="15.75" customHeight="1" s="191"/>
+    <row r="215" ht="15.75" customHeight="1" s="191"/>
+    <row r="216" ht="15.75" customHeight="1" s="191"/>
+    <row r="217" ht="15.75" customHeight="1" s="191"/>
+    <row r="218" ht="15.75" customHeight="1" s="191"/>
+    <row r="219" ht="15.75" customHeight="1" s="191"/>
+    <row r="220" ht="15.75" customHeight="1" s="191"/>
+    <row r="221" ht="15.75" customHeight="1" s="191"/>
+    <row r="222" ht="15.75" customHeight="1" s="191"/>
+    <row r="223" ht="15.75" customHeight="1" s="191"/>
+    <row r="224" ht="15.75" customHeight="1" s="191"/>
+    <row r="225" ht="15.75" customHeight="1" s="191"/>
+    <row r="226" ht="15.75" customHeight="1" s="191"/>
+    <row r="227" ht="15.75" customHeight="1" s="191"/>
+    <row r="228" ht="15.75" customHeight="1" s="191"/>
+    <row r="229" ht="15.75" customHeight="1" s="191"/>
+    <row r="230" ht="15.75" customHeight="1" s="191"/>
+    <row r="231" ht="15.75" customHeight="1" s="191"/>
+    <row r="232" ht="15.75" customHeight="1" s="191"/>
+    <row r="233" ht="15.75" customHeight="1" s="191"/>
+    <row r="234" ht="15.75" customHeight="1" s="191"/>
+    <row r="235" ht="15.75" customHeight="1" s="191"/>
+    <row r="236" ht="15.75" customHeight="1" s="191"/>
+    <row r="237" ht="15.75" customHeight="1" s="191"/>
+    <row r="238" ht="15.75" customHeight="1" s="191"/>
+    <row r="239" ht="15.75" customHeight="1" s="191"/>
+    <row r="240" ht="15.75" customHeight="1" s="191"/>
+    <row r="241" ht="15.75" customHeight="1" s="191"/>
+    <row r="242" ht="15.75" customHeight="1" s="191"/>
+    <row r="243" ht="15.75" customHeight="1" s="191"/>
+    <row r="244" ht="15.75" customHeight="1" s="191"/>
+    <row r="245" ht="15.75" customHeight="1" s="191"/>
+    <row r="246" ht="15.75" customHeight="1" s="191"/>
+    <row r="247" ht="15.75" customHeight="1" s="191"/>
+    <row r="248" ht="15.75" customHeight="1" s="191"/>
+    <row r="249" ht="15.75" customHeight="1" s="191"/>
+    <row r="250" ht="15.75" customHeight="1" s="191"/>
+    <row r="251" ht="15.75" customHeight="1" s="191"/>
+    <row r="252" ht="15.75" customHeight="1" s="191"/>
+    <row r="253" ht="15.75" customHeight="1" s="191"/>
+    <row r="254" ht="15.75" customHeight="1" s="191"/>
+    <row r="255" ht="15.75" customHeight="1" s="191"/>
+    <row r="256" ht="15.75" customHeight="1" s="191"/>
+    <row r="257" ht="15.75" customHeight="1" s="191"/>
+    <row r="258" ht="15.75" customHeight="1" s="191"/>
+    <row r="259" ht="15.75" customHeight="1" s="191"/>
+    <row r="260" ht="15.75" customHeight="1" s="191"/>
+    <row r="261" ht="15.75" customHeight="1" s="191"/>
+    <row r="262" ht="15.75" customHeight="1" s="191"/>
+    <row r="263" ht="15.75" customHeight="1" s="191"/>
+    <row r="264" ht="15.75" customHeight="1" s="191"/>
+    <row r="265" ht="15.75" customHeight="1" s="191"/>
+    <row r="266" ht="15.75" customHeight="1" s="191"/>
+    <row r="267" ht="15.75" customHeight="1" s="191"/>
+    <row r="268" ht="15.75" customHeight="1" s="191"/>
+    <row r="269" ht="15.75" customHeight="1" s="191"/>
+    <row r="270" ht="15.75" customHeight="1" s="191"/>
+    <row r="271" ht="15.75" customHeight="1" s="191"/>
+    <row r="272" ht="15.75" customHeight="1" s="191"/>
+    <row r="273" ht="15.75" customHeight="1" s="191"/>
+    <row r="274" ht="15.75" customHeight="1" s="191"/>
+    <row r="275" ht="15.75" customHeight="1" s="191"/>
+    <row r="276" ht="15.75" customHeight="1" s="191"/>
+    <row r="277" ht="15.75" customHeight="1" s="191"/>
+    <row r="278" ht="15.75" customHeight="1" s="191"/>
+    <row r="279" ht="15.75" customHeight="1" s="191"/>
+    <row r="280" ht="15.75" customHeight="1" s="191"/>
+    <row r="281" ht="15.75" customHeight="1" s="191"/>
+    <row r="282" ht="15.75" customHeight="1" s="191"/>
+    <row r="283" ht="15.75" customHeight="1" s="191"/>
+    <row r="284" ht="15.75" customHeight="1" s="191"/>
+    <row r="285" ht="15.75" customHeight="1" s="191"/>
+    <row r="286" ht="15.75" customHeight="1" s="191"/>
+    <row r="287" ht="15.75" customHeight="1" s="191"/>
+    <row r="288" ht="15.75" customHeight="1" s="191"/>
+    <row r="289" ht="15.75" customHeight="1" s="191"/>
+    <row r="290" ht="15.75" customHeight="1" s="191"/>
+    <row r="291" ht="15.75" customHeight="1" s="191"/>
+    <row r="292" ht="15.75" customHeight="1" s="191"/>
+    <row r="293" ht="15.75" customHeight="1" s="191"/>
+    <row r="294" ht="15.75" customHeight="1" s="191"/>
+    <row r="295" ht="15.75" customHeight="1" s="191"/>
+    <row r="296" ht="15.75" customHeight="1" s="191"/>
+    <row r="297" ht="15.75" customHeight="1" s="191"/>
+    <row r="298" ht="15.75" customHeight="1" s="191"/>
+    <row r="299" ht="15.75" customHeight="1" s="191"/>
+    <row r="300" ht="15.75" customHeight="1" s="191"/>
+    <row r="301" ht="15.75" customHeight="1" s="191"/>
+    <row r="302" ht="15.75" customHeight="1" s="191"/>
+    <row r="303" ht="15.75" customHeight="1" s="191"/>
+    <row r="304" ht="15.75" customHeight="1" s="191"/>
+    <row r="305" ht="15.75" customHeight="1" s="191"/>
+    <row r="306" ht="15.75" customHeight="1" s="191"/>
+    <row r="307" ht="15.75" customHeight="1" s="191"/>
+    <row r="308" ht="15.75" customHeight="1" s="191"/>
+    <row r="309" ht="15.75" customHeight="1" s="191"/>
+    <row r="310" ht="15.75" customHeight="1" s="191"/>
+    <row r="311" ht="15.75" customHeight="1" s="191"/>
+    <row r="312" ht="15.75" customHeight="1" s="191"/>
+    <row r="313" ht="15.75" customHeight="1" s="191"/>
+    <row r="314" ht="15.75" customHeight="1" s="191"/>
+    <row r="315" ht="15.75" customHeight="1" s="191"/>
+    <row r="316" ht="15.75" customHeight="1" s="191"/>
+    <row r="317" ht="15.75" customHeight="1" s="191"/>
+    <row r="318" ht="15.75" customHeight="1" s="191"/>
+    <row r="319" ht="15.75" customHeight="1" s="191"/>
+    <row r="320" ht="15.75" customHeight="1" s="191"/>
+    <row r="321" ht="15.75" customHeight="1" s="191"/>
+    <row r="322" ht="15.75" customHeight="1" s="191"/>
+    <row r="323" ht="15.75" customHeight="1" s="191"/>
+    <row r="324" ht="15.75" customHeight="1" s="191"/>
+    <row r="325" ht="15.75" customHeight="1" s="191"/>
+    <row r="326" ht="15.75" customHeight="1" s="191"/>
+    <row r="327" ht="15.75" customHeight="1" s="191"/>
+    <row r="328" ht="15.75" customHeight="1" s="191"/>
+    <row r="329" ht="15.75" customHeight="1" s="191"/>
+    <row r="330" ht="15.75" customHeight="1" s="191"/>
+    <row r="331" ht="15.75" customHeight="1" s="191"/>
+    <row r="332" ht="15.75" customHeight="1" s="191"/>
+    <row r="333" ht="15.75" customHeight="1" s="191"/>
+    <row r="334" ht="15.75" customHeight="1" s="191"/>
+    <row r="335" ht="15.75" customHeight="1" s="191"/>
+    <row r="336" ht="15.75" customHeight="1" s="191"/>
+    <row r="337" ht="15.75" customHeight="1" s="191"/>
+    <row r="338" ht="15.75" customHeight="1" s="191"/>
+    <row r="339" ht="15.75" customHeight="1" s="191"/>
+    <row r="340" ht="15.75" customHeight="1" s="191"/>
+    <row r="341" ht="15.75" customHeight="1" s="191"/>
+    <row r="342" ht="15.75" customHeight="1" s="191"/>
+    <row r="343" ht="15.75" customHeight="1" s="191"/>
+    <row r="344" ht="15.75" customHeight="1" s="191"/>
+    <row r="345" ht="15.75" customHeight="1" s="191"/>
+    <row r="346" ht="15.75" customHeight="1" s="191"/>
+    <row r="347" ht="15.75" customHeight="1" s="191"/>
+    <row r="348" ht="15.75" customHeight="1" s="191"/>
+    <row r="349" ht="15.75" customHeight="1" s="191"/>
+    <row r="350" ht="15.75" customHeight="1" s="191"/>
+    <row r="351" ht="15.75" customHeight="1" s="191"/>
+    <row r="352" ht="15.75" customHeight="1" s="191"/>
+    <row r="353" ht="15.75" customHeight="1" s="191"/>
+    <row r="354" ht="15.75" customHeight="1" s="191"/>
+    <row r="355" ht="15.75" customHeight="1" s="191"/>
+    <row r="356" ht="15.75" customHeight="1" s="191"/>
+    <row r="357" ht="15.75" customHeight="1" s="191"/>
+    <row r="358" ht="15.75" customHeight="1" s="191"/>
+    <row r="359" ht="15.75" customHeight="1" s="191"/>
+    <row r="360" ht="15.75" customHeight="1" s="191"/>
+    <row r="361" ht="15.75" customHeight="1" s="191"/>
+    <row r="362" ht="15.75" customHeight="1" s="191"/>
+    <row r="363" ht="15.75" customHeight="1" s="191"/>
+    <row r="364" ht="15.75" customHeight="1" s="191"/>
+    <row r="365" ht="15.75" customHeight="1" s="191"/>
+    <row r="366" ht="15.75" customHeight="1" s="191"/>
+    <row r="367" ht="15.75" customHeight="1" s="191"/>
+    <row r="368" ht="15.75" customHeight="1" s="191"/>
+    <row r="369" ht="15.75" customHeight="1" s="191"/>
+    <row r="370" ht="15.75" customHeight="1" s="191"/>
+    <row r="371" ht="15.75" customHeight="1" s="191"/>
+    <row r="372" ht="15.75" customHeight="1" s="191"/>
+    <row r="373" ht="15.75" customHeight="1" s="191"/>
+    <row r="374" ht="15.75" customHeight="1" s="191"/>
+    <row r="375" ht="15.75" customHeight="1" s="191"/>
+    <row r="376" ht="15.75" customHeight="1" s="191"/>
+    <row r="377" ht="15.75" customHeight="1" s="191"/>
+    <row r="378" ht="15.75" customHeight="1" s="191"/>
+    <row r="379" ht="15.75" customHeight="1" s="191"/>
+    <row r="380" ht="15.75" customHeight="1" s="191"/>
+    <row r="381" ht="15.75" customHeight="1" s="191"/>
+    <row r="382" ht="15.75" customHeight="1" s="191"/>
+    <row r="383" ht="15.75" customHeight="1" s="191"/>
+    <row r="384" ht="15.75" customHeight="1" s="191"/>
+    <row r="385" ht="15.75" customHeight="1" s="191"/>
+    <row r="386" ht="15.75" customHeight="1" s="191"/>
+    <row r="387" ht="15.75" customHeight="1" s="191"/>
+    <row r="388" ht="15.75" customHeight="1" s="191"/>
+    <row r="389" ht="15.75" customHeight="1" s="191"/>
+    <row r="390" ht="15.75" customHeight="1" s="191"/>
+    <row r="391" ht="15.75" customHeight="1" s="191"/>
+    <row r="392" ht="15.75" customHeight="1" s="191"/>
+    <row r="393" ht="15.75" customHeight="1" s="191"/>
+    <row r="394" ht="15.75" customHeight="1" s="191"/>
+    <row r="395" ht="15.75" customHeight="1" s="191"/>
+    <row r="396" ht="15.75" customHeight="1" s="191"/>
+    <row r="397" ht="15.75" customHeight="1" s="191"/>
+    <row r="398" ht="15.75" customHeight="1" s="191"/>
+    <row r="399" ht="15.75" customHeight="1" s="191"/>
+    <row r="400" ht="15.75" customHeight="1" s="191"/>
+    <row r="401" ht="15.75" customHeight="1" s="191"/>
+    <row r="402" ht="15.75" customHeight="1" s="191"/>
+    <row r="403" ht="15.75" customHeight="1" s="191"/>
+    <row r="404" ht="15.75" customHeight="1" s="191"/>
+    <row r="405" ht="15.75" customHeight="1" s="191"/>
+    <row r="406" ht="15.75" customHeight="1" s="191"/>
+    <row r="407" ht="15.75" customHeight="1" s="191"/>
+    <row r="408" ht="15.75" customHeight="1" s="191"/>
+    <row r="409" ht="15.75" customHeight="1" s="191"/>
+    <row r="410" ht="15.75" customHeight="1" s="191"/>
+    <row r="411" ht="15.75" customHeight="1" s="191"/>
+    <row r="412" ht="15.75" customHeight="1" s="191"/>
+    <row r="413" ht="15.75" customHeight="1" s="191"/>
+    <row r="414" ht="15.75" customHeight="1" s="191"/>
+    <row r="415" ht="15.75" customHeight="1" s="191"/>
+    <row r="416" ht="15.75" customHeight="1" s="191"/>
+    <row r="417" ht="15.75" customHeight="1" s="191"/>
+    <row r="418" ht="15.75" customHeight="1" s="191"/>
+    <row r="419" ht="15.75" customHeight="1" s="191"/>
+    <row r="420" ht="15.75" customHeight="1" s="191"/>
+    <row r="421" ht="15.75" customHeight="1" s="191"/>
+    <row r="422" ht="15.75" customHeight="1" s="191"/>
+    <row r="423" ht="15.75" customHeight="1" s="191"/>
+    <row r="424" ht="15.75" customHeight="1" s="191"/>
+    <row r="425" ht="15.75" customHeight="1" s="191"/>
+    <row r="426" ht="15.75" customHeight="1" s="191"/>
+    <row r="427" ht="15.75" customHeight="1" s="191"/>
+    <row r="428" ht="15.75" customHeight="1" s="191"/>
+    <row r="429" ht="15.75" customHeight="1" s="191"/>
+    <row r="430" ht="15.75" customHeight="1" s="191"/>
+    <row r="431" ht="15.75" customHeight="1" s="191"/>
+    <row r="432" ht="15.75" customHeight="1" s="191"/>
+    <row r="433" ht="15.75" customHeight="1" s="191"/>
+    <row r="434" ht="15.75" customHeight="1" s="191"/>
+    <row r="435" ht="15.75" customHeight="1" s="191"/>
+    <row r="436" ht="15.75" customHeight="1" s="191"/>
+    <row r="437" ht="15.75" customHeight="1" s="191"/>
+    <row r="438" ht="15.75" customHeight="1" s="191"/>
+    <row r="439" ht="15.75" customHeight="1" s="191"/>
+    <row r="440" ht="15.75" customHeight="1" s="191"/>
+    <row r="441" ht="15.75" customHeight="1" s="191"/>
+    <row r="442" ht="15.75" customHeight="1" s="191"/>
+    <row r="443" ht="15.75" customHeight="1" s="191"/>
+    <row r="444" ht="15.75" customHeight="1" s="191"/>
+    <row r="445" ht="15.75" customHeight="1" s="191"/>
+    <row r="446" ht="15.75" customHeight="1" s="191"/>
+    <row r="447" ht="15.75" customHeight="1" s="191"/>
+    <row r="448" ht="15.75" customHeight="1" s="191"/>
+    <row r="449" ht="15.75" customHeight="1" s="191"/>
+    <row r="450" ht="15.75" customHeight="1" s="191"/>
+    <row r="451" ht="15.75" customHeight="1" s="191"/>
+    <row r="452" ht="15.75" customHeight="1" s="191"/>
+    <row r="453" ht="15.75" customHeight="1" s="191"/>
+    <row r="454" ht="15.75" customHeight="1" s="191"/>
+    <row r="455" ht="15.75" customHeight="1" s="191"/>
+    <row r="456" ht="15.75" customHeight="1" s="191"/>
+    <row r="457" ht="15.75" customHeight="1" s="191"/>
+    <row r="458" ht="15.75" customHeight="1" s="191"/>
+    <row r="459" ht="15.75" customHeight="1" s="191"/>
+    <row r="460" ht="15.75" customHeight="1" s="191"/>
+    <row r="461" ht="15.75" customHeight="1" s="191"/>
+    <row r="462" ht="15.75" customHeight="1" s="191"/>
+    <row r="463" ht="15.75" customHeight="1" s="191"/>
+    <row r="464" ht="15.75" customHeight="1" s="191"/>
+    <row r="465" ht="15.75" customHeight="1" s="191"/>
+    <row r="466" ht="15.75" customHeight="1" s="191"/>
+    <row r="467" ht="15.75" customHeight="1" s="191"/>
+    <row r="468" ht="15.75" customHeight="1" s="191"/>
+    <row r="469" ht="15.75" customHeight="1" s="191"/>
+    <row r="470" ht="15.75" customHeight="1" s="191"/>
+    <row r="471" ht="15.75" customHeight="1" s="191"/>
+    <row r="472" ht="15.75" customHeight="1" s="191"/>
+    <row r="473" ht="15.75" customHeight="1" s="191"/>
+    <row r="474" ht="15.75" customHeight="1" s="191"/>
+    <row r="475" ht="15.75" customHeight="1" s="191"/>
+    <row r="476" ht="15.75" customHeight="1" s="191"/>
+    <row r="477" ht="15.75" customHeight="1" s="191"/>
+    <row r="478" ht="15.75" customHeight="1" s="191"/>
+    <row r="479" ht="15.75" customHeight="1" s="191"/>
+    <row r="480" ht="15.75" customHeight="1" s="191"/>
+    <row r="481" ht="15.75" customHeight="1" s="191"/>
+    <row r="482" ht="15.75" customHeight="1" s="191"/>
+    <row r="483" ht="15.75" customHeight="1" s="191"/>
+    <row r="484" ht="15.75" customHeight="1" s="191"/>
+    <row r="485" ht="15.75" customHeight="1" s="191"/>
+    <row r="486" ht="15.75" customHeight="1" s="191"/>
+    <row r="487" ht="15.75" customHeight="1" s="191"/>
+    <row r="488" ht="15.75" customHeight="1" s="191"/>
+    <row r="489" ht="15.75" customHeight="1" s="191"/>
+    <row r="490" ht="15.75" customHeight="1" s="191"/>
+    <row r="491" ht="15.75" customHeight="1" s="191"/>
+    <row r="492" ht="15.75" customHeight="1" s="191"/>
+    <row r="493" ht="15.75" customHeight="1" s="191"/>
+    <row r="494" ht="15.75" customHeight="1" s="191"/>
+    <row r="495" ht="15.75" customHeight="1" s="191"/>
+    <row r="496" ht="15.75" customHeight="1" s="191"/>
+    <row r="497" ht="15.75" customHeight="1" s="191"/>
+    <row r="498" ht="15.75" customHeight="1" s="191"/>
+    <row r="499" ht="15.75" customHeight="1" s="191"/>
+    <row r="500" ht="15.75" customHeight="1" s="191"/>
+    <row r="501" ht="15.75" customHeight="1" s="191"/>
+    <row r="502" ht="15.75" customHeight="1" s="191"/>
+    <row r="503" ht="15.75" customHeight="1" s="191"/>
+    <row r="504" ht="15.75" customHeight="1" s="191"/>
+    <row r="505" ht="15.75" customHeight="1" s="191"/>
+    <row r="506" ht="15.75" customHeight="1" s="191"/>
+    <row r="507" ht="15.75" customHeight="1" s="191"/>
+    <row r="508" ht="15.75" customHeight="1" s="191"/>
+    <row r="509" ht="15.75" customHeight="1" s="191"/>
+    <row r="510" ht="15.75" customHeight="1" s="191"/>
+    <row r="511" ht="15.75" customHeight="1" s="191"/>
+    <row r="512" ht="15.75" customHeight="1" s="191"/>
+    <row r="513" ht="15.75" customHeight="1" s="191"/>
+    <row r="514" ht="15.75" customHeight="1" s="191"/>
+    <row r="515" ht="15.75" customHeight="1" s="191"/>
+    <row r="516" ht="15.75" customHeight="1" s="191"/>
+    <row r="517" ht="15.75" customHeight="1" s="191"/>
+    <row r="518" ht="15.75" customHeight="1" s="191"/>
+    <row r="519" ht="15.75" customHeight="1" s="191"/>
+    <row r="520" ht="15.75" customHeight="1" s="191"/>
+    <row r="521" ht="15.75" customHeight="1" s="191"/>
+    <row r="522" ht="15.75" customHeight="1" s="191"/>
+    <row r="523" ht="15.75" customHeight="1" s="191"/>
+    <row r="524" ht="15.75" customHeight="1" s="191"/>
+    <row r="525" ht="15.75" customHeight="1" s="191"/>
+    <row r="526" ht="15.75" customHeight="1" s="191"/>
+    <row r="527" ht="15.75" customHeight="1" s="191"/>
+    <row r="528" ht="15.75" customHeight="1" s="191"/>
+    <row r="529" ht="15.75" customHeight="1" s="191"/>
+    <row r="530" ht="15.75" customHeight="1" s="191"/>
+    <row r="531" ht="15.75" customHeight="1" s="191"/>
+    <row r="532" ht="15.75" customHeight="1" s="191"/>
+    <row r="533" ht="15.75" customHeight="1" s="191"/>
+    <row r="534" ht="15.75" customHeight="1" s="191"/>
+    <row r="535" ht="15.75" customHeight="1" s="191"/>
+    <row r="536" ht="15.75" customHeight="1" s="191"/>
+    <row r="537" ht="15.75" customHeight="1" s="191"/>
+    <row r="538" ht="15.75" customHeight="1" s="191"/>
+    <row r="539" ht="15.75" customHeight="1" s="191"/>
+    <row r="540" ht="15.75" customHeight="1" s="191"/>
+    <row r="541" ht="15.75" customHeight="1" s="191"/>
+    <row r="542" ht="15.75" customHeight="1" s="191"/>
+    <row r="543" ht="15.75" customHeight="1" s="191"/>
+    <row r="544" ht="15.75" customHeight="1" s="191"/>
+    <row r="545" ht="15.75" customHeight="1" s="191"/>
+    <row r="546" ht="15.75" customHeight="1" s="191"/>
+    <row r="547" ht="15.75" customHeight="1" s="191"/>
+    <row r="548" ht="15.75" customHeight="1" s="191"/>
+    <row r="549" ht="15.75" customHeight="1" s="191"/>
+    <row r="550" ht="15.75" customHeight="1" s="191"/>
+    <row r="551" ht="15.75" customHeight="1" s="191"/>
+    <row r="552" ht="15.75" customHeight="1" s="191"/>
+    <row r="553" ht="15.75" customHeight="1" s="191"/>
+    <row r="554" ht="15.75" customHeight="1" s="191"/>
+    <row r="555" ht="15.75" customHeight="1" s="191"/>
+    <row r="556" ht="15.75" customHeight="1" s="191"/>
+    <row r="557" ht="15.75" customHeight="1" s="191"/>
+    <row r="558" ht="15.75" customHeight="1" s="191"/>
+    <row r="559" ht="15.75" customHeight="1" s="191"/>
+    <row r="560" ht="15.75" customHeight="1" s="191"/>
+    <row r="561" ht="15.75" customHeight="1" s="191"/>
+    <row r="562" ht="15.75" customHeight="1" s="191"/>
+    <row r="563" ht="15.75" customHeight="1" s="191"/>
+    <row r="564" ht="15.75" customHeight="1" s="191"/>
+    <row r="565" ht="15.75" customHeight="1" s="191"/>
+    <row r="566" ht="15.75" customHeight="1" s="191"/>
+    <row r="567" ht="15.75" customHeight="1" s="191"/>
+    <row r="568" ht="15.75" customHeight="1" s="191"/>
+    <row r="569" ht="15.75" customHeight="1" s="191"/>
+    <row r="570" ht="15.75" customHeight="1" s="191"/>
+    <row r="571" ht="15.75" customHeight="1" s="191"/>
+    <row r="572" ht="15.75" customHeight="1" s="191"/>
+    <row r="573" ht="15.75" customHeight="1" s="191"/>
+    <row r="574" ht="15.75" customHeight="1" s="191"/>
+    <row r="575" ht="15.75" customHeight="1" s="191"/>
+    <row r="576" ht="15.75" customHeight="1" s="191"/>
+    <row r="577" ht="15.75" customHeight="1" s="191"/>
+    <row r="578" ht="15.75" customHeight="1" s="191"/>
+    <row r="579" ht="15.75" customHeight="1" s="191"/>
+    <row r="580" ht="15.75" customHeight="1" s="191"/>
+    <row r="581" ht="15.75" customHeight="1" s="191"/>
+    <row r="582" ht="15.75" customHeight="1" s="191"/>
+    <row r="583" ht="15.75" customHeight="1" s="191"/>
+    <row r="584" ht="15.75" customHeight="1" s="191"/>
+    <row r="585" ht="15.75" customHeight="1" s="191"/>
+    <row r="586" ht="15.75" customHeight="1" s="191"/>
+    <row r="587" ht="15.75" customHeight="1" s="191"/>
+    <row r="588" ht="15.75" customHeight="1" s="191"/>
+    <row r="589" ht="15.75" customHeight="1" s="191"/>
+    <row r="590" ht="15.75" customHeight="1" s="191"/>
+    <row r="591" ht="15.75" customHeight="1" s="191"/>
+    <row r="592" ht="15.75" customHeight="1" s="191"/>
+    <row r="593" ht="15.75" customHeight="1" s="191"/>
+    <row r="594" ht="15.75" customHeight="1" s="191"/>
+    <row r="595" ht="15.75" customHeight="1" s="191"/>
+    <row r="596" ht="15.75" customHeight="1" s="191"/>
+    <row r="597" ht="15.75" customHeight="1" s="191"/>
+    <row r="598" ht="15.75" customHeight="1" s="191"/>
+    <row r="599" ht="15.75" customHeight="1" s="191"/>
+    <row r="600" ht="15.75" customHeight="1" s="191"/>
+    <row r="601" ht="15.75" customHeight="1" s="191"/>
+    <row r="602" ht="15.75" customHeight="1" s="191"/>
+    <row r="603" ht="15.75" customHeight="1" s="191"/>
+    <row r="604" ht="15.75" customHeight="1" s="191"/>
+    <row r="605" ht="15.75" customHeight="1" s="191"/>
+    <row r="606" ht="15.75" customHeight="1" s="191"/>
+    <row r="607" ht="15.75" customHeight="1" s="191"/>
+    <row r="608" ht="15.75" customHeight="1" s="191"/>
+    <row r="609" ht="15.75" customHeight="1" s="191"/>
+    <row r="610" ht="15.75" customHeight="1" s="191"/>
+    <row r="611" ht="15.75" customHeight="1" s="191"/>
+    <row r="612" ht="15.75" customHeight="1" s="191"/>
+    <row r="613" ht="15.75" customHeight="1" s="191"/>
+    <row r="614" ht="15.75" customHeight="1" s="191"/>
+    <row r="615" ht="15.75" customHeight="1" s="191"/>
+    <row r="616" ht="15.75" customHeight="1" s="191"/>
+    <row r="617" ht="15.75" customHeight="1" s="191"/>
+    <row r="618" ht="15.75" customHeight="1" s="191"/>
+    <row r="619" ht="15.75" customHeight="1" s="191"/>
+    <row r="620" ht="15.75" customHeight="1" s="191"/>
+    <row r="621" ht="15.75" customHeight="1" s="191"/>
+    <row r="622" ht="15.75" customHeight="1" s="191"/>
+    <row r="623" ht="15.75" customHeight="1" s="191"/>
+    <row r="624" ht="15.75" customHeight="1" s="191"/>
+    <row r="625" ht="15.75" customHeight="1" s="191"/>
+    <row r="626" ht="15.75" customHeight="1" s="191"/>
+    <row r="627" ht="15.75" customHeight="1" s="191"/>
+    <row r="628" ht="15.75" customHeight="1" s="191"/>
+    <row r="629" ht="15.75" customHeight="1" s="191"/>
+    <row r="630" ht="15.75" customHeight="1" s="191"/>
+    <row r="631" ht="15.75" customHeight="1" s="191"/>
+    <row r="632" ht="15.75" customHeight="1" s="191"/>
+    <row r="633" ht="15.75" customHeight="1" s="191"/>
+    <row r="634" ht="15.75" customHeight="1" s="191"/>
+    <row r="635" ht="15.75" customHeight="1" s="191"/>
+    <row r="636" ht="15.75" customHeight="1" s="191"/>
+    <row r="637" ht="15.75" customHeight="1" s="191"/>
+    <row r="638" ht="15.75" customHeight="1" s="191"/>
+    <row r="639" ht="15.75" customHeight="1" s="191"/>
+    <row r="640" ht="15.75" customHeight="1" s="191"/>
+    <row r="641" ht="15.75" customHeight="1" s="191"/>
+    <row r="642" ht="15.75" customHeight="1" s="191"/>
+    <row r="643" ht="15.75" customHeight="1" s="191"/>
+    <row r="644" ht="15.75" customHeight="1" s="191"/>
+    <row r="645" ht="15.75" customHeight="1" s="191"/>
+    <row r="646" ht="15.75" customHeight="1" s="191"/>
+    <row r="647" ht="15.75" customHeight="1" s="191"/>
+    <row r="648" ht="15.75" customHeight="1" s="191"/>
+    <row r="649" ht="15.75" customHeight="1" s="191"/>
+    <row r="650" ht="15.75" customHeight="1" s="191"/>
+    <row r="651" ht="15.75" customHeight="1" s="191"/>
+    <row r="652" ht="15.75" customHeight="1" s="191"/>
+    <row r="653" ht="15.75" customHeight="1" s="191"/>
+    <row r="654" ht="15.75" customHeight="1" s="191"/>
+    <row r="655" ht="15.75" customHeight="1" s="191"/>
+    <row r="656" ht="15.75" customHeight="1" s="191"/>
+    <row r="657" ht="15.75" customHeight="1" s="191"/>
+    <row r="658" ht="15.75" customHeight="1" s="191"/>
+    <row r="659" ht="15.75" customHeight="1" s="191"/>
+    <row r="660" ht="15.75" customHeight="1" s="191"/>
+    <row r="661" ht="15.75" customHeight="1" s="191"/>
+    <row r="662" ht="15.75" customHeight="1" s="191"/>
+    <row r="663" ht="15.75" customHeight="1" s="191"/>
+    <row r="664" ht="15.75" customHeight="1" s="191"/>
+    <row r="665" ht="15.75" customHeight="1" s="191"/>
+    <row r="666" ht="15.75" customHeight="1" s="191"/>
+    <row r="667" ht="15.75" customHeight="1" s="191"/>
+    <row r="668" ht="15.75" customHeight="1" s="191"/>
+    <row r="669" ht="15.75" customHeight="1" s="191"/>
+    <row r="670" ht="15.75" customHeight="1" s="191"/>
+    <row r="671" ht="15.75" customHeight="1" s="191"/>
+    <row r="672" ht="15.75" customHeight="1" s="191"/>
+    <row r="673" ht="15.75" customHeight="1" s="191"/>
+    <row r="674" ht="15.75" customHeight="1" s="191"/>
+    <row r="675" ht="15.75" customHeight="1" s="191"/>
+    <row r="676" ht="15.75" customHeight="1" s="191"/>
+    <row r="677" ht="15.75" customHeight="1" s="191"/>
+    <row r="678" ht="15.75" customHeight="1" s="191"/>
+    <row r="679" ht="15.75" customHeight="1" s="191"/>
+    <row r="680" ht="15.75" customHeight="1" s="191"/>
+    <row r="681" ht="15.75" customHeight="1" s="191"/>
+    <row r="682" ht="15.75" customHeight="1" s="191"/>
+    <row r="683" ht="15.75" customHeight="1" s="191"/>
+    <row r="684" ht="15.75" customHeight="1" s="191"/>
+    <row r="685" ht="15.75" customHeight="1" s="191"/>
+    <row r="686" ht="15.75" customHeight="1" s="191"/>
+    <row r="687" ht="15.75" customHeight="1" s="191"/>
+    <row r="688" ht="15.75" customHeight="1" s="191"/>
+    <row r="689" ht="15.75" customHeight="1" s="191"/>
+    <row r="690" ht="15.75" customHeight="1" s="191"/>
+    <row r="691" ht="15.75" customHeight="1" s="191"/>
+    <row r="692" ht="15.75" customHeight="1" s="191"/>
+    <row r="693" ht="15.75" customHeight="1" s="191"/>
+    <row r="694" ht="15.75" customHeight="1" s="191"/>
+    <row r="695" ht="15.75" customHeight="1" s="191"/>
+    <row r="696" ht="15.75" customHeight="1" s="191"/>
+    <row r="697" ht="15.75" customHeight="1" s="191"/>
+    <row r="698" ht="15.75" customHeight="1" s="191"/>
+    <row r="699" ht="15.75" customHeight="1" s="191"/>
+    <row r="700" ht="15.75" customHeight="1" s="191"/>
+    <row r="701" ht="15.75" customHeight="1" s="191"/>
+    <row r="702" ht="15.75" customHeight="1" s="191"/>
+    <row r="703" ht="15.75" customHeight="1" s="191"/>
+    <row r="704" ht="15.75" customHeight="1" s="191"/>
+    <row r="705" ht="15.75" customHeight="1" s="191"/>
+    <row r="706" ht="15.75" customHeight="1" s="191"/>
+    <row r="707" ht="15.75" customHeight="1" s="191"/>
+    <row r="708" ht="15.75" customHeight="1" s="191"/>
+    <row r="709" ht="15.75" customHeight="1" s="191"/>
+    <row r="710" ht="15.75" customHeight="1" s="191"/>
+    <row r="711" ht="15.75" customHeight="1" s="191"/>
+    <row r="712" ht="15.75" customHeight="1" s="191"/>
+    <row r="713" ht="15.75" customHeight="1" s="191"/>
+    <row r="714" ht="15.75" customHeight="1" s="191"/>
+    <row r="715" ht="15.75" customHeight="1" s="191"/>
+    <row r="716" ht="15.75" customHeight="1" s="191"/>
+    <row r="717" ht="15.75" customHeight="1" s="191"/>
+    <row r="718" ht="15.75" customHeight="1" s="191"/>
+    <row r="719" ht="15.75" customHeight="1" s="191"/>
+    <row r="720" ht="15.75" customHeight="1" s="191"/>
+    <row r="721" ht="15.75" customHeight="1" s="191"/>
+    <row r="722" ht="15.75" customHeight="1" s="191"/>
+    <row r="723" ht="15.75" customHeight="1" s="191"/>
+    <row r="724" ht="15.75" customHeight="1" s="191"/>
+    <row r="725" ht="15.75" customHeight="1" s="191"/>
+    <row r="726" ht="15.75" customHeight="1" s="191"/>
+    <row r="727" ht="15.75" customHeight="1" s="191"/>
+    <row r="728" ht="15.75" customHeight="1" s="191"/>
+    <row r="729" ht="15.75" customHeight="1" s="191"/>
+    <row r="730" ht="15.75" customHeight="1" s="191"/>
+    <row r="731" ht="15.75" customHeight="1" s="191"/>
+    <row r="732" ht="15.75" customHeight="1" s="191"/>
+    <row r="733" ht="15.75" customHeight="1" s="191"/>
+    <row r="734" ht="15.75" customHeight="1" s="191"/>
+    <row r="735" ht="15.75" customHeight="1" s="191"/>
+    <row r="736" ht="15.75" customHeight="1" s="191"/>
+    <row r="737" ht="15.75" customHeight="1" s="191"/>
+    <row r="738" ht="15.75" customHeight="1" s="191"/>
+    <row r="739" ht="15.75" customHeight="1" s="191"/>
+    <row r="740" ht="15.75" customHeight="1" s="191"/>
+    <row r="741" ht="15.75" customHeight="1" s="191"/>
+    <row r="742" ht="15.75" customHeight="1" s="191"/>
+    <row r="743" ht="15.75" customHeight="1" s="191"/>
+    <row r="744" ht="15.75" customHeight="1" s="191"/>
+    <row r="745" ht="15.75" customHeight="1" s="191"/>
+    <row r="746" ht="15.75" customHeight="1" s="191"/>
+    <row r="747" ht="15.75" customHeight="1" s="191"/>
+    <row r="748" ht="15.75" customHeight="1" s="191"/>
+    <row r="749" ht="15.75" customHeight="1" s="191"/>
+    <row r="750" ht="15.75" customHeight="1" s="191"/>
+    <row r="751" ht="15.75" customHeight="1" s="191"/>
+    <row r="752" ht="15.75" customHeight="1" s="191"/>
+    <row r="753" ht="15.75" customHeight="1" s="191"/>
+    <row r="754" ht="15.75" customHeight="1" s="191"/>
+    <row r="755" ht="15.75" customHeight="1" s="191"/>
+    <row r="756" ht="15.75" customHeight="1" s="191"/>
+    <row r="757" ht="15.75" customHeight="1" s="191"/>
+    <row r="758" ht="15.75" customHeight="1" s="191"/>
+    <row r="759" ht="15.75" customHeight="1" s="191"/>
+    <row r="760" ht="15.75" customHeight="1" s="191"/>
+    <row r="761" ht="15.75" customHeight="1" s="191"/>
+    <row r="762" ht="15.75" customHeight="1" s="191"/>
+    <row r="763" ht="15.75" customHeight="1" s="191"/>
+    <row r="764" ht="15.75" customHeight="1" s="191"/>
+    <row r="765" ht="15.75" customHeight="1" s="191"/>
+    <row r="766" ht="15.75" customHeight="1" s="191"/>
+    <row r="767" ht="15.75" customHeight="1" s="191"/>
+    <row r="768" ht="15.75" customHeight="1" s="191"/>
+    <row r="769" ht="15.75" customHeight="1" s="191"/>
+    <row r="770" ht="15.75" customHeight="1" s="191"/>
+    <row r="771" ht="15.75" customHeight="1" s="191"/>
+    <row r="772" ht="15.75" customHeight="1" s="191"/>
+    <row r="773" ht="15.75" customHeight="1" s="191"/>
+    <row r="774" ht="15.75" customHeight="1" s="191"/>
+    <row r="775" ht="15.75" customHeight="1" s="191"/>
+    <row r="776" ht="15.75" customHeight="1" s="191"/>
+    <row r="777" ht="15.75" customHeight="1" s="191"/>
+    <row r="778" ht="15.75" customHeight="1" s="191"/>
+    <row r="779" ht="15.75" customHeight="1" s="191"/>
+    <row r="780" ht="15.75" customHeight="1" s="191"/>
+    <row r="781" ht="15.75" customHeight="1" s="191"/>
+    <row r="782" ht="15.75" customHeight="1" s="191"/>
+    <row r="783" ht="15.75" customHeight="1" s="191"/>
+    <row r="784" ht="15.75" customHeight="1" s="191"/>
+    <row r="785" ht="15.75" customHeight="1" s="191"/>
+    <row r="786" ht="15.75" customHeight="1" s="191"/>
+    <row r="787" ht="15.75" customHeight="1" s="191"/>
+    <row r="788" ht="15.75" customHeight="1" s="191"/>
+    <row r="789" ht="15.75" customHeight="1" s="191"/>
+    <row r="790" ht="15.75" customHeight="1" s="191"/>
+    <row r="791" ht="15.75" customHeight="1" s="191"/>
+    <row r="792" ht="15.75" customHeight="1" s="191"/>
+    <row r="793" ht="15.75" customHeight="1" s="191"/>
+    <row r="794" ht="15.75" customHeight="1" s="191"/>
+    <row r="795" ht="15.75" customHeight="1" s="191"/>
+    <row r="796" ht="15.75" customHeight="1" s="191"/>
+    <row r="797" ht="15.75" customHeight="1" s="191"/>
+    <row r="798" ht="15.75" customHeight="1" s="191"/>
+    <row r="799" ht="15.75" customHeight="1" s="191"/>
+    <row r="800" ht="15.75" customHeight="1" s="191"/>
+    <row r="801" ht="15.75" customHeight="1" s="191"/>
+    <row r="802" ht="15.75" customHeight="1" s="191"/>
+    <row r="803" ht="15.75" customHeight="1" s="191"/>
+    <row r="804" ht="15.75" customHeight="1" s="191"/>
+    <row r="805" ht="15.75" customHeight="1" s="191"/>
+    <row r="806" ht="15.75" customHeight="1" s="191"/>
+    <row r="807" ht="15.75" customHeight="1" s="191"/>
+    <row r="808" ht="15.75" customHeight="1" s="191"/>
+    <row r="809" ht="15.75" customHeight="1" s="191"/>
+    <row r="810" ht="15.75" customHeight="1" s="191"/>
+    <row r="811" ht="15.75" customHeight="1" s="191"/>
+    <row r="812" ht="15.75" customHeight="1" s="191"/>
+    <row r="813" ht="15.75" customHeight="1" s="191"/>
+    <row r="814" ht="15.75" customHeight="1" s="191"/>
+    <row r="815" ht="15.75" customHeight="1" s="191"/>
+    <row r="816" ht="15.75" customHeight="1" s="191"/>
+    <row r="817" ht="15.75" customHeight="1" s="191"/>
+    <row r="818" ht="15.75" customHeight="1" s="191"/>
+    <row r="819" ht="15.75" customHeight="1" s="191"/>
+    <row r="820" ht="15.75" customHeight="1" s="191"/>
+    <row r="821" ht="15.75" customHeight="1" s="191"/>
+    <row r="822" ht="15.75" customHeight="1" s="191"/>
+    <row r="823" ht="15.75" customHeight="1" s="191"/>
+    <row r="824" ht="15.75" customHeight="1" s="191"/>
+    <row r="825" ht="15.75" customHeight="1" s="191"/>
+    <row r="826" ht="15.75" customHeight="1" s="191"/>
+    <row r="827" ht="15.75" customHeight="1" s="191"/>
+    <row r="828" ht="15.75" customHeight="1" s="191"/>
+    <row r="829" ht="15.75" customHeight="1" s="191"/>
+    <row r="830" ht="15.75" customHeight="1" s="191"/>
+    <row r="831" ht="15.75" customHeight="1" s="191"/>
+    <row r="832" ht="15.75" customHeight="1" s="191"/>
+    <row r="833" ht="15.75" customHeight="1" s="191"/>
+    <row r="834" ht="15.75" customHeight="1" s="191"/>
+    <row r="835" ht="15.75" customHeight="1" s="191"/>
+    <row r="836" ht="15.75" customHeight="1" s="191"/>
+    <row r="837" ht="15.75" customHeight="1" s="191"/>
+    <row r="838" ht="15.75" customHeight="1" s="191"/>
+    <row r="839" ht="15.75" customHeight="1" s="191"/>
+    <row r="840" ht="15.75" customHeight="1" s="191"/>
+    <row r="841" ht="15.75" customHeight="1" s="191"/>
+    <row r="842" ht="15.75" customHeight="1" s="191"/>
+    <row r="843" ht="15.75" customHeight="1" s="191"/>
+    <row r="844" ht="15.75" customHeight="1" s="191"/>
+    <row r="845" ht="15.75" customHeight="1" s="191"/>
+    <row r="846" ht="15.75" customHeight="1" s="191"/>
+    <row r="847" ht="15.75" customHeight="1" s="191"/>
+    <row r="848" ht="15.75" customHeight="1" s="191"/>
+    <row r="849" ht="15.75" customHeight="1" s="191"/>
+    <row r="850" ht="15.75" customHeight="1" s="191"/>
+    <row r="851" ht="15.75" customHeight="1" s="191"/>
+    <row r="852" ht="15.75" customHeight="1" s="191"/>
+    <row r="853" ht="15.75" customHeight="1" s="191"/>
+    <row r="854" ht="15.75" customHeight="1" s="191"/>
+    <row r="855" ht="15.75" customHeight="1" s="191"/>
+    <row r="856" ht="15.75" customHeight="1" s="191"/>
+    <row r="857" ht="15.75" customHeight="1" s="191"/>
+    <row r="858" ht="15.75" customHeight="1" s="191"/>
+    <row r="859" ht="15.75" customHeight="1" s="191"/>
+    <row r="860" ht="15.75" customHeight="1" s="191"/>
+    <row r="861" ht="15.75" customHeight="1" s="191"/>
+    <row r="862" ht="15.75" customHeight="1" s="191"/>
+    <row r="863" ht="15.75" customHeight="1" s="191"/>
+    <row r="864" ht="15.75" customHeight="1" s="191"/>
+    <row r="865" ht="15.75" customHeight="1" s="191"/>
+    <row r="866" ht="15.75" customHeight="1" s="191"/>
+    <row r="867" ht="15.75" customHeight="1" s="191"/>
+    <row r="868" ht="15.75" customHeight="1" s="191"/>
+    <row r="869" ht="15.75" customHeight="1" s="191"/>
+    <row r="870" ht="15.75" customHeight="1" s="191"/>
+    <row r="871" ht="15.75" customHeight="1" s="191"/>
+    <row r="872" ht="15.75" customHeight="1" s="191"/>
+    <row r="873" ht="15.75" customHeight="1" s="191"/>
+    <row r="874" ht="15.75" customHeight="1" s="191"/>
+    <row r="875" ht="15.75" customHeight="1" s="191"/>
+    <row r="876" ht="15.75" customHeight="1" s="191"/>
+    <row r="877" ht="15.75" customHeight="1" s="191"/>
+    <row r="878" ht="15.75" customHeight="1" s="191"/>
+    <row r="879" ht="15.75" customHeight="1" s="191"/>
+    <row r="880" ht="15.75" customHeight="1" s="191"/>
+    <row r="881" ht="15.75" customHeight="1" s="191"/>
+    <row r="882" ht="15.75" customHeight="1" s="191"/>
+    <row r="883" ht="15.75" customHeight="1" s="191"/>
+    <row r="884" ht="15.75" customHeight="1" s="191"/>
+    <row r="885" ht="15.75" customHeight="1" s="191"/>
+    <row r="886" ht="15.75" customHeight="1" s="191"/>
+    <row r="887" ht="15.75" customHeight="1" s="191"/>
+    <row r="888" ht="15.75" customHeight="1" s="191"/>
+    <row r="889" ht="15.75" customHeight="1" s="191"/>
+    <row r="890" ht="15.75" customHeight="1" s="191"/>
+    <row r="891" ht="15.75" customHeight="1" s="191"/>
+    <row r="892" ht="15.75" customHeight="1" s="191"/>
+    <row r="893" ht="15.75" customHeight="1" s="191"/>
+    <row r="894" ht="15.75" customHeight="1" s="191"/>
+    <row r="895" ht="15.75" customHeight="1" s="191"/>
+    <row r="896" ht="15.75" customHeight="1" s="191"/>
+    <row r="897" ht="15.75" customHeight="1" s="191"/>
+    <row r="898" ht="15.75" customHeight="1" s="191"/>
+    <row r="899" ht="15.75" customHeight="1" s="191"/>
+    <row r="900" ht="15.75" customHeight="1" s="191"/>
+    <row r="901" ht="15.75" customHeight="1" s="191"/>
+    <row r="902" ht="15.75" customHeight="1" s="191"/>
+    <row r="903" ht="15.75" customHeight="1" s="191"/>
+    <row r="904" ht="15.75" customHeight="1" s="191"/>
+    <row r="905" ht="15.75" customHeight="1" s="191"/>
+    <row r="906" ht="15.75" customHeight="1" s="191"/>
+    <row r="907" ht="15.75" customHeight="1" s="191"/>
+    <row r="908" ht="15.75" customHeight="1" s="191"/>
+    <row r="909" ht="15.75" customHeight="1" s="191"/>
+    <row r="910" ht="15.75" customHeight="1" s="191"/>
+    <row r="911" ht="15.75" customHeight="1" s="191"/>
+    <row r="912" ht="15.75" customHeight="1" s="191"/>
+    <row r="913" ht="15.75" customHeight="1" s="191"/>
+    <row r="914" ht="15.75" customHeight="1" s="191"/>
+    <row r="915" ht="15.75" customHeight="1" s="191"/>
+    <row r="916" ht="15.75" customHeight="1" s="191"/>
+    <row r="917" ht="15.75" customHeight="1" s="191"/>
+    <row r="918" ht="15.75" customHeight="1" s="191"/>
+    <row r="919" ht="15.75" customHeight="1" s="191"/>
+    <row r="920" ht="15.75" customHeight="1" s="191"/>
+    <row r="921" ht="15.75" customHeight="1" s="191"/>
+    <row r="922" ht="15.75" customHeight="1" s="191"/>
+    <row r="923" ht="15.75" customHeight="1" s="191"/>
+    <row r="924" ht="15.75" customHeight="1" s="191"/>
+    <row r="925" ht="15.75" customHeight="1" s="191"/>
+    <row r="926" ht="15.75" customHeight="1" s="191"/>
+    <row r="927" ht="15.75" customHeight="1" s="191"/>
+    <row r="928" ht="15.75" customHeight="1" s="191"/>
+    <row r="929" ht="15.75" customHeight="1" s="191"/>
+    <row r="930" ht="15.75" customHeight="1" s="191"/>
+    <row r="931" ht="15.75" customHeight="1" s="191"/>
+    <row r="932" ht="15.75" customHeight="1" s="191"/>
+    <row r="933" ht="15.75" customHeight="1" s="191"/>
+    <row r="934" ht="15.75" customHeight="1" s="191"/>
+    <row r="935" ht="15.75" customHeight="1" s="191"/>
+    <row r="936" ht="15.75" customHeight="1" s="191"/>
+    <row r="937" ht="15.75" customHeight="1" s="191"/>
+    <row r="938" ht="15.75" customHeight="1" s="191"/>
+    <row r="939" ht="15.75" customHeight="1" s="191"/>
+    <row r="940" ht="15.75" customHeight="1" s="191"/>
+    <row r="941" ht="15.75" customHeight="1" s="191"/>
+    <row r="942" ht="15.75" customHeight="1" s="191"/>
+    <row r="943" ht="15.75" customHeight="1" s="191"/>
+    <row r="944" ht="15.75" customHeight="1" s="191"/>
+    <row r="945" ht="15.75" customHeight="1" s="191"/>
+    <row r="946" ht="15.75" customHeight="1" s="191"/>
+    <row r="947" ht="15.75" customHeight="1" s="191"/>
+    <row r="948" ht="15.75" customHeight="1" s="191"/>
+    <row r="949" ht="15.75" customHeight="1" s="191"/>
+    <row r="950" ht="15.75" customHeight="1" s="191"/>
+    <row r="951" ht="15.75" customHeight="1" s="191"/>
+    <row r="952" ht="15.75" customHeight="1" s="191"/>
+    <row r="953" ht="15.75" customHeight="1" s="191"/>
+    <row r="954" ht="15.75" customHeight="1" s="191"/>
+    <row r="955" ht="15.75" customHeight="1" s="191"/>
+    <row r="956" ht="15.75" customHeight="1" s="191"/>
+    <row r="957" ht="15.75" customHeight="1" s="191"/>
+    <row r="958" ht="15.75" customHeight="1" s="191"/>
+    <row r="959" ht="15.75" customHeight="1" s="191"/>
+    <row r="960" ht="15.75" customHeight="1" s="191"/>
+    <row r="961" ht="15.75" customHeight="1" s="191"/>
+    <row r="962" ht="15.75" customHeight="1" s="191"/>
+    <row r="963" ht="15.75" customHeight="1" s="191"/>
+    <row r="964" ht="15.75" customHeight="1" s="191"/>
+    <row r="965" ht="15.75" customHeight="1" s="191"/>
+    <row r="966" ht="15.75" customHeight="1" s="191"/>
+    <row r="967" ht="15.75" customHeight="1" s="191"/>
+    <row r="968" ht="15.75" customHeight="1" s="191"/>
+    <row r="969" ht="15.75" customHeight="1" s="191"/>
+    <row r="970" ht="15.75" customHeight="1" s="191"/>
+    <row r="971" ht="15.75" customHeight="1" s="191"/>
+    <row r="972" ht="15.75" customHeight="1" s="191"/>
+    <row r="973" ht="15.75" customHeight="1" s="191"/>
+    <row r="974" ht="15.75" customHeight="1" s="191"/>
+    <row r="975" ht="15.75" customHeight="1" s="191"/>
+    <row r="976" ht="15.75" customHeight="1" s="191"/>
+    <row r="977" ht="15.75" customHeight="1" s="191"/>
+    <row r="978" ht="15.75" customHeight="1" s="191"/>
+    <row r="979" ht="15.75" customHeight="1" s="191"/>
+    <row r="980" ht="15.75" customHeight="1" s="191"/>
+    <row r="981" ht="15.75" customHeight="1" s="191"/>
+    <row r="982" ht="15.75" customHeight="1" s="191"/>
+    <row r="983" ht="15.75" customHeight="1" s="191"/>
+    <row r="984" ht="15.75" customHeight="1" s="191"/>
+    <row r="985" ht="15.75" customHeight="1" s="191"/>
+    <row r="986" ht="15.75" customHeight="1" s="191"/>
+    <row r="987" ht="15.75" customHeight="1" s="191"/>
+    <row r="988" ht="15.75" customHeight="1" s="191"/>
+    <row r="989" ht="15.75" customHeight="1" s="191"/>
+    <row r="990" ht="15.75" customHeight="1" s="191"/>
+    <row r="991" ht="15.75" customHeight="1" s="191"/>
+    <row r="992" ht="15.75" customHeight="1" s="191"/>
+    <row r="993" ht="15.75" customHeight="1" s="191"/>
+    <row r="994" ht="15.75" customHeight="1" s="191"/>
+    <row r="995" ht="15.75" customHeight="1" s="191"/>
+    <row r="996" ht="15.75" customHeight="1" s="191"/>
+    <row r="997" ht="15.75" customHeight="1" s="191"/>
+    <row r="998" ht="15.75" customHeight="1" s="191"/>
+    <row r="999" ht="15.75" customHeight="1" s="191"/>
+    <row r="1000" ht="15.75" customHeight="1" s="191"/>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
     <mergeCell ref="S42:T42"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C16:L16"/>
@@ -6335,6 +6312,37 @@
     <mergeCell ref="H39:L40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="J59:J60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -6353,27 +6361,27 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col width="2.42578125" customWidth="1" style="211" min="1" max="1"/>
-    <col width="4.42578125" customWidth="1" style="211" min="2" max="2"/>
-    <col width="16.7109375" customWidth="1" style="211" min="3" max="4"/>
-    <col width="8.7109375" customWidth="1" style="211" min="5" max="5"/>
-    <col width="4.42578125" customWidth="1" style="211" min="6" max="6"/>
-    <col width="16.7109375" customWidth="1" style="211" min="7" max="8"/>
-    <col width="7.42578125" customWidth="1" style="211" min="9" max="9"/>
-    <col width="4" customWidth="1" style="211" min="10" max="10"/>
-    <col width="16.85546875" customWidth="1" style="211" min="11" max="12"/>
-    <col width="8.7109375" customWidth="1" style="211" min="13" max="13"/>
-    <col width="4.140625" customWidth="1" style="211" min="14" max="14"/>
-    <col width="16.7109375" customWidth="1" style="211" min="15" max="17"/>
-    <col width="8.7109375" customWidth="1" style="211" min="18" max="26"/>
-    <col width="14.42578125" customWidth="1" style="211" min="27" max="31"/>
-    <col width="14.42578125" customWidth="1" style="211" min="32" max="16384"/>
+    <col width="2.42578125" customWidth="1" style="217" min="1" max="1"/>
+    <col width="4.42578125" customWidth="1" style="217" min="2" max="2"/>
+    <col width="16.7109375" customWidth="1" style="217" min="3" max="4"/>
+    <col width="8.7109375" customWidth="1" style="217" min="5" max="5"/>
+    <col width="4.42578125" customWidth="1" style="217" min="6" max="6"/>
+    <col width="16.7109375" customWidth="1" style="217" min="7" max="8"/>
+    <col width="7.42578125" customWidth="1" style="217" min="9" max="9"/>
+    <col width="4" customWidth="1" style="217" min="10" max="10"/>
+    <col width="16.85546875" customWidth="1" style="217" min="11" max="12"/>
+    <col width="8.7109375" customWidth="1" style="217" min="13" max="13"/>
+    <col width="4.140625" customWidth="1" style="217" min="14" max="14"/>
+    <col width="16.7109375" customWidth="1" style="217" min="15" max="17"/>
+    <col width="8.7109375" customWidth="1" style="217" min="18" max="26"/>
+    <col width="14.42578125" customWidth="1" style="217" min="27" max="32"/>
+    <col width="14.42578125" customWidth="1" style="217" min="33" max="16384"/>
   </cols>
   <sheetData>
-    <row r="2" ht="26.25" customHeight="1" s="202">
-      <c r="C2" s="212" t="inlineStr">
+    <row r="2" ht="26.25" customHeight="1" s="191">
+      <c r="C2" s="218" t="inlineStr">
         <is>
           <t xml:space="preserve">EURO 2020 </t>
         </is>
@@ -6667,21 +6675,21 @@
       <c r="K15" s="100" t="n"/>
       <c r="L15" s="100" t="n"/>
     </row>
-    <row r="16" ht="39.75" customHeight="1" s="202">
-      <c r="C16" s="213" t="inlineStr">
+    <row r="16" ht="39.75" customHeight="1" s="191">
+      <c r="C16" s="219" t="inlineStr">
         <is>
           <t>Group Stage predictions are made in a single submission and are due by Thursday Evening June 10th, 2021.</t>
         </is>
       </c>
-      <c r="D16" s="214" t="n"/>
-      <c r="E16" s="214" t="n"/>
-      <c r="F16" s="214" t="n"/>
-      <c r="G16" s="214" t="n"/>
-      <c r="H16" s="214" t="n"/>
-      <c r="I16" s="214" t="n"/>
-      <c r="J16" s="214" t="n"/>
-      <c r="K16" s="214" t="n"/>
-      <c r="L16" s="214" t="n"/>
+      <c r="D16" s="220" t="n"/>
+      <c r="E16" s="220" t="n"/>
+      <c r="F16" s="220" t="n"/>
+      <c r="G16" s="220" t="n"/>
+      <c r="H16" s="220" t="n"/>
+      <c r="I16" s="220" t="n"/>
+      <c r="J16" s="220" t="n"/>
+      <c r="K16" s="220" t="n"/>
+      <c r="L16" s="220" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="136" t="inlineStr">
@@ -6689,19 +6697,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D17" s="215" t="n"/>
-      <c r="E17" s="216" t="n"/>
-      <c r="F17" s="216" t="n"/>
-      <c r="G17" s="217" t="n"/>
-      <c r="H17" s="218" t="inlineStr">
+      <c r="D17" s="221" t="n"/>
+      <c r="E17" s="222" t="n"/>
+      <c r="F17" s="222" t="n"/>
+      <c r="G17" s="223" t="n"/>
+      <c r="H17" s="224" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I17" s="216" t="n"/>
-      <c r="J17" s="216" t="n"/>
-      <c r="K17" s="216" t="n"/>
-      <c r="L17" s="217" t="n"/>
+      <c r="I17" s="222" t="n"/>
+      <c r="J17" s="222" t="n"/>
+      <c r="K17" s="222" t="n"/>
+      <c r="L17" s="223" t="n"/>
     </row>
     <row r="18">
       <c r="C18" s="137" t="inlineStr">
@@ -6709,15 +6717,15 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D18" s="221" t="n"/>
-      <c r="E18" s="214" t="n"/>
-      <c r="F18" s="214" t="n"/>
-      <c r="G18" s="220" t="n"/>
-      <c r="H18" s="219" t="n"/>
-      <c r="I18" s="214" t="n"/>
-      <c r="J18" s="214" t="n"/>
-      <c r="K18" s="214" t="n"/>
-      <c r="L18" s="220" t="n"/>
+      <c r="D18" s="227" t="n"/>
+      <c r="E18" s="220" t="n"/>
+      <c r="F18" s="220" t="n"/>
+      <c r="G18" s="226" t="n"/>
+      <c r="H18" s="225" t="n"/>
+      <c r="I18" s="220" t="n"/>
+      <c r="J18" s="220" t="n"/>
+      <c r="K18" s="220" t="n"/>
+      <c r="L18" s="226" t="n"/>
     </row>
     <row r="19">
       <c r="C19" s="100" t="n"/>
@@ -6725,36 +6733,36 @@
     <row r="20">
       <c r="A20" s="138" t="n"/>
       <c r="B20" s="138" t="n"/>
-      <c r="C20" s="222" t="inlineStr">
+      <c r="C20" s="228" t="inlineStr">
         <is>
           <t>Match Day 1</t>
         </is>
       </c>
-      <c r="D20" s="216" t="n"/>
+      <c r="D20" s="222" t="n"/>
       <c r="E20" s="139" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
-      <c r="F20" s="210" t="n"/>
-      <c r="G20" s="222" t="inlineStr">
+      <c r="F20" s="216" t="n"/>
+      <c r="G20" s="228" t="inlineStr">
         <is>
           <t>Match Day 2</t>
         </is>
       </c>
-      <c r="H20" s="216" t="n"/>
+      <c r="H20" s="222" t="n"/>
       <c r="I20" s="139" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
-      <c r="J20" s="210" t="n"/>
-      <c r="K20" s="222" t="inlineStr">
+      <c r="J20" s="216" t="n"/>
+      <c r="K20" s="228" t="inlineStr">
         <is>
           <t>Match Day 3</t>
         </is>
       </c>
-      <c r="L20" s="216" t="n"/>
+      <c r="L20" s="222" t="n"/>
       <c r="M20" s="139" t="inlineStr">
         <is>
           <t>Results</t>
@@ -6774,7 +6782,7 @@
       <c r="Y20" s="138" t="n"/>
       <c r="Z20" s="138" t="n"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1" s="202">
+    <row r="21" ht="15.75" customHeight="1" s="191">
       <c r="C21" s="140" t="inlineStr">
         <is>
           <t>Turkey</t>
@@ -6827,7 +6835,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1" s="202">
+    <row r="22" ht="15.75" customHeight="1" s="191">
       <c r="C22" s="148" t="n"/>
       <c r="D22" s="143" t="n"/>
       <c r="E22" s="149" t="n"/>
@@ -6864,7 +6872,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1" s="202">
+    <row r="23" ht="15.75" customHeight="1" s="191">
       <c r="C23" s="140" t="inlineStr">
         <is>
           <t>Wales</t>
@@ -6903,7 +6911,7 @@
       <c r="L23" s="143" t="n"/>
       <c r="M23" s="149" t="n"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1" s="202">
+    <row r="24" ht="15.75" customHeight="1" s="191">
       <c r="C24" s="144" t="inlineStr">
         <is>
           <t>Denmark</t>
@@ -6942,7 +6950,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1" s="202">
+    <row r="25" ht="15.75" customHeight="1" s="191">
       <c r="C25" s="144" t="inlineStr">
         <is>
           <t>Belgium</t>
@@ -6993,7 +7001,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1" s="202">
+    <row r="26" ht="15.75" customHeight="1" s="191">
       <c r="C26" s="148" t="n"/>
       <c r="D26" s="143" t="n"/>
       <c r="E26" s="149" t="n"/>
@@ -7030,7 +7038,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1" s="202">
+    <row r="27" ht="15.75" customHeight="1" s="191">
       <c r="C27" s="153" t="inlineStr">
         <is>
           <t>England</t>
@@ -7081,7 +7089,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1" s="202">
+    <row r="28" ht="15.75" customHeight="1" s="191">
       <c r="C28" s="150" t="inlineStr">
         <is>
           <t>Austria</t>
@@ -7108,7 +7116,7 @@
       <c r="L28" s="143" t="n"/>
       <c r="M28" s="149" t="n"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1" s="202">
+    <row r="29" ht="15.75" customHeight="1" s="191">
       <c r="C29" s="150" t="inlineStr">
         <is>
           <t>Netherlands</t>
@@ -7159,7 +7167,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1" s="202">
+    <row r="30" ht="15.75" customHeight="1" s="191">
       <c r="C30" s="148" t="n"/>
       <c r="D30" s="143" t="n"/>
       <c r="E30" s="149" t="n"/>
@@ -7196,7 +7204,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1" s="202">
+    <row r="31" ht="15.75" customHeight="1" s="191">
       <c r="C31" s="153" t="inlineStr">
         <is>
           <t>Scotland</t>
@@ -7235,7 +7243,7 @@
       <c r="L31" s="143" t="n"/>
       <c r="M31" s="149" t="n"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1" s="202">
+    <row r="32" ht="15.75" customHeight="1" s="191">
       <c r="C32" s="156" t="inlineStr">
         <is>
           <t>Poland</t>
@@ -7274,7 +7282,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1" s="202">
+    <row r="33" ht="15.75" customHeight="1" s="191">
       <c r="C33" s="156" t="inlineStr">
         <is>
           <t>Spain</t>
@@ -7325,7 +7333,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1" s="202">
+    <row r="34" ht="15.75" customHeight="1" s="191">
       <c r="C34" s="148" t="n"/>
       <c r="D34" s="143" t="n"/>
       <c r="E34" s="149" t="n"/>
@@ -7362,7 +7370,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1" s="202">
+    <row r="35" ht="15.75" customHeight="1" s="191">
       <c r="C35" s="159" t="inlineStr">
         <is>
           <t>Hungary</t>
@@ -7413,7 +7421,7 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1" s="202">
+    <row r="36" ht="15.75" customHeight="1" s="191">
       <c r="C36" s="162" t="inlineStr">
         <is>
           <t>France</t>
@@ -7440,70 +7448,70 @@
       <c r="L36" s="166" t="n"/>
       <c r="M36" s="167" t="n"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1" s="202"/>
-    <row r="38" ht="39.75" customHeight="1" s="202">
-      <c r="C38" s="213" t="inlineStr">
+    <row r="37" ht="15.75" customHeight="1" s="191"/>
+    <row r="38" ht="39.75" customHeight="1" s="191">
+      <c r="C38" s="219" t="inlineStr">
         <is>
           <t xml:space="preserve">We'll do the competition in two halves since the Round of 16 is heavily dependent on the Group Stages. </t>
         </is>
       </c>
-      <c r="D38" s="214" t="n"/>
-      <c r="E38" s="214" t="n"/>
-      <c r="F38" s="214" t="n"/>
-      <c r="G38" s="214" t="n"/>
-      <c r="H38" s="214" t="n"/>
-      <c r="I38" s="214" t="n"/>
-      <c r="J38" s="214" t="n"/>
-      <c r="K38" s="214" t="n"/>
-      <c r="L38" s="214" t="n"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1" s="202">
+      <c r="D38" s="220" t="n"/>
+      <c r="E38" s="220" t="n"/>
+      <c r="F38" s="220" t="n"/>
+      <c r="G38" s="220" t="n"/>
+      <c r="H38" s="220" t="n"/>
+      <c r="I38" s="220" t="n"/>
+      <c r="J38" s="220" t="n"/>
+      <c r="K38" s="220" t="n"/>
+      <c r="L38" s="220" t="n"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1" s="191">
       <c r="C39" s="136" t="inlineStr">
         <is>
           <t>Name:</t>
         </is>
       </c>
-      <c r="D39" s="215" t="n"/>
-      <c r="E39" s="216" t="n"/>
-      <c r="F39" s="216" t="n"/>
-      <c r="G39" s="217" t="n"/>
-      <c r="H39" s="218" t="inlineStr">
+      <c r="D39" s="221" t="n"/>
+      <c r="E39" s="222" t="n"/>
+      <c r="F39" s="222" t="n"/>
+      <c r="G39" s="223" t="n"/>
+      <c r="H39" s="224" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULTS         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I39" s="216" t="n"/>
-      <c r="J39" s="216" t="n"/>
-      <c r="K39" s="216" t="n"/>
-      <c r="L39" s="217" t="n"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1" s="202">
+      <c r="I39" s="222" t="n"/>
+      <c r="J39" s="222" t="n"/>
+      <c r="K39" s="222" t="n"/>
+      <c r="L39" s="223" t="n"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1" s="191">
       <c r="C40" s="137" t="inlineStr">
         <is>
           <t>Date:</t>
         </is>
       </c>
-      <c r="D40" s="221" t="n"/>
-      <c r="E40" s="214" t="n"/>
-      <c r="F40" s="214" t="n"/>
-      <c r="G40" s="220" t="n"/>
-      <c r="H40" s="219" t="n"/>
-      <c r="I40" s="214" t="n"/>
-      <c r="J40" s="214" t="n"/>
-      <c r="K40" s="214" t="n"/>
-      <c r="L40" s="220" t="n"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1" s="202">
+      <c r="D40" s="227" t="n"/>
+      <c r="E40" s="220" t="n"/>
+      <c r="F40" s="220" t="n"/>
+      <c r="G40" s="226" t="n"/>
+      <c r="H40" s="225" t="n"/>
+      <c r="I40" s="220" t="n"/>
+      <c r="J40" s="220" t="n"/>
+      <c r="K40" s="220" t="n"/>
+      <c r="L40" s="226" t="n"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1" s="191">
       <c r="B41" s="168" t="n"/>
       <c r="C41" s="169" t="n"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1" s="202">
-      <c r="B42" s="223" t="inlineStr">
+    <row r="42" ht="15.75" customHeight="1" s="191">
+      <c r="B42" s="229" t="inlineStr">
         <is>
           <t>Round of 16</t>
         </is>
       </c>
-      <c r="C42" s="214" t="n"/>
+      <c r="C42" s="220" t="n"/>
       <c r="D42" s="170" t="inlineStr">
         <is>
           <t>Results</t>
@@ -7547,22 +7555,22 @@
       </c>
       <c r="Q42" s="138" t="n"/>
       <c r="R42" s="171" t="n"/>
-      <c r="S42" s="210" t="n"/>
+      <c r="S42" s="216" t="n"/>
       <c r="U42" s="138" t="n"/>
       <c r="V42" s="171" t="n"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1" s="202">
-      <c r="B43" s="224" t="inlineStr">
+    <row r="43" ht="15.75" customHeight="1" s="191">
+      <c r="B43" s="210" t="inlineStr">
         <is>
           <t>R1</t>
         </is>
       </c>
       <c r="C43" s="172" t="inlineStr">
         <is>
-          <t>Winner Group A</t>
-        </is>
-      </c>
-      <c r="D43" s="226" t="n"/>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="D43" s="212" t="n"/>
       <c r="E43" s="171" t="n"/>
       <c r="F43" s="171" t="n"/>
       <c r="O43" s="171" t="n"/>
@@ -7574,16 +7582,16 @@
       <c r="U43" s="171" t="n"/>
       <c r="V43" s="171" t="n"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B44" s="225" t="n"/>
+    <row r="44" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B44" s="211" t="n"/>
       <c r="C44" s="173" t="inlineStr">
         <is>
           <t>2nd Group C</t>
         </is>
       </c>
-      <c r="D44" s="225" t="n"/>
+      <c r="D44" s="211" t="n"/>
       <c r="E44" s="174" t="n"/>
-      <c r="F44" s="227" t="inlineStr">
+      <c r="F44" s="214" t="inlineStr">
         <is>
           <t>QF1</t>
         </is>
@@ -7593,7 +7601,7 @@
           <t>Winner R1</t>
         </is>
       </c>
-      <c r="H44" s="226" t="n"/>
+      <c r="H44" s="212" t="n"/>
       <c r="O44" s="171" t="n"/>
       <c r="P44" s="171" t="n"/>
       <c r="Q44" s="171" t="n"/>
@@ -7603,18 +7611,18 @@
       <c r="U44" s="171" t="n"/>
       <c r="V44" s="171" t="n"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1" s="202" thickBot="1">
+    <row r="45" ht="15.75" customHeight="1" s="191" thickBot="1">
       <c r="B45" s="138" t="n"/>
       <c r="C45" s="171" t="n"/>
       <c r="D45" s="176" t="n"/>
       <c r="E45" s="177" t="n"/>
-      <c r="F45" s="225" t="n"/>
+      <c r="F45" s="211" t="n"/>
       <c r="G45" s="178" t="inlineStr">
         <is>
           <t>Winner R2</t>
         </is>
       </c>
-      <c r="H45" s="225" t="n"/>
+      <c r="H45" s="211" t="n"/>
       <c r="O45" s="171" t="n"/>
       <c r="P45" s="171" t="n"/>
       <c r="Q45" s="171" t="n"/>
@@ -7624,8 +7632,8 @@
       <c r="U45" s="171" t="n"/>
       <c r="V45" s="171" t="n"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1" s="202">
-      <c r="B46" s="224" t="inlineStr">
+    <row r="46" ht="15.75" customHeight="1" s="191">
+      <c r="B46" s="210" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
@@ -7635,7 +7643,7 @@
           <t>Winner Group B</t>
         </is>
       </c>
-      <c r="D46" s="226" t="n"/>
+      <c r="D46" s="212" t="n"/>
       <c r="E46" s="171" t="n"/>
       <c r="F46" s="171" t="n"/>
       <c r="G46" s="179" t="n"/>
@@ -7649,20 +7657,20 @@
       <c r="U46" s="171" t="n"/>
       <c r="V46" s="171" t="n"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B47" s="225" t="n"/>
+    <row r="47" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B47" s="211" t="n"/>
       <c r="C47" s="173" t="inlineStr">
         <is>
           <t>3rd Group A/D/E/F</t>
         </is>
       </c>
-      <c r="D47" s="225" t="n"/>
+      <c r="D47" s="211" t="n"/>
       <c r="E47" s="171" t="n"/>
       <c r="F47" s="171" t="n"/>
       <c r="G47" s="179" t="n"/>
       <c r="H47" s="181" t="n"/>
       <c r="I47" s="177" t="n"/>
-      <c r="J47" s="228" t="inlineStr">
+      <c r="J47" s="213" t="inlineStr">
         <is>
           <t>SF1</t>
         </is>
@@ -7672,16 +7680,16 @@
           <t>Winner QF1</t>
         </is>
       </c>
-      <c r="L47" s="226" t="n"/>
+      <c r="L47" s="212" t="n"/>
       <c r="O47" s="171" t="n"/>
       <c r="P47" s="171" t="n"/>
       <c r="Q47" s="171" t="n"/>
       <c r="R47" s="171" t="n"/>
-      <c r="S47" s="210" t="n"/>
+      <c r="S47" s="216" t="n"/>
       <c r="U47" s="138" t="n"/>
       <c r="V47" s="171" t="n"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1" s="202">
+    <row r="48" ht="15.75" customHeight="1" s="191">
       <c r="B48" s="138" t="n"/>
       <c r="C48" s="171" t="n"/>
       <c r="D48" s="176" t="n"/>
@@ -7689,13 +7697,13 @@
       <c r="F48" s="171" t="n"/>
       <c r="G48" s="179" t="n"/>
       <c r="H48" s="181" t="n"/>
-      <c r="J48" s="225" t="n"/>
+      <c r="J48" s="211" t="n"/>
       <c r="K48" s="165" t="inlineStr">
         <is>
           <t>Winner QF2</t>
         </is>
       </c>
-      <c r="L48" s="225" t="n"/>
+      <c r="L48" s="211" t="n"/>
       <c r="O48" s="171" t="n"/>
       <c r="P48" s="171" t="n"/>
       <c r="Q48" s="171" t="n"/>
@@ -7705,8 +7713,8 @@
       <c r="U48" s="171" t="n"/>
       <c r="V48" s="171" t="n"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1" s="202">
-      <c r="B49" s="224" t="inlineStr">
+    <row r="49" ht="15.75" customHeight="1" s="191">
+      <c r="B49" s="210" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
@@ -7716,7 +7724,7 @@
           <t>Winner Group F</t>
         </is>
       </c>
-      <c r="D49" s="226" t="n"/>
+      <c r="D49" s="212" t="n"/>
       <c r="E49" s="171" t="n"/>
       <c r="F49" s="171" t="n"/>
       <c r="G49" s="179" t="n"/>
@@ -7724,16 +7732,16 @@
       <c r="K49" s="143" t="n"/>
       <c r="L49" s="180" t="n"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B50" s="225" t="n"/>
+    <row r="50" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B50" s="211" t="n"/>
       <c r="C50" s="173" t="inlineStr">
         <is>
           <t>3rd Group A/B/C</t>
         </is>
       </c>
-      <c r="D50" s="225" t="n"/>
+      <c r="D50" s="211" t="n"/>
       <c r="E50" s="177" t="n"/>
-      <c r="F50" s="227" t="inlineStr">
+      <c r="F50" s="214" t="inlineStr">
         <is>
           <t>QF2</t>
         </is>
@@ -7743,27 +7751,27 @@
           <t>Winner R3</t>
         </is>
       </c>
-      <c r="H50" s="226" t="n"/>
+      <c r="H50" s="212" t="n"/>
       <c r="K50" s="143" t="n"/>
       <c r="L50" s="181" t="n"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1" s="202" thickBot="1">
+    <row r="51" ht="15.75" customHeight="1" s="191" thickBot="1">
       <c r="B51" s="138" t="n"/>
       <c r="C51" s="171" t="n"/>
       <c r="D51" s="176" t="n"/>
       <c r="E51" s="177" t="n"/>
-      <c r="F51" s="225" t="n"/>
+      <c r="F51" s="211" t="n"/>
       <c r="G51" s="178" t="inlineStr">
         <is>
           <t>Winner R4</t>
         </is>
       </c>
-      <c r="H51" s="225" t="n"/>
+      <c r="H51" s="211" t="n"/>
       <c r="K51" s="143" t="n"/>
       <c r="L51" s="181" t="n"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B52" s="224" t="inlineStr">
+    <row r="52" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B52" s="210" t="inlineStr">
         <is>
           <t>R4</t>
         </is>
@@ -7773,7 +7781,7 @@
           <t>2nd Group D</t>
         </is>
       </c>
-      <c r="D52" s="226" t="n"/>
+      <c r="D52" s="212" t="n"/>
       <c r="E52" s="171" t="n"/>
       <c r="F52" s="171" t="n"/>
       <c r="G52" s="179" t="n"/>
@@ -7781,7 +7789,7 @@
       <c r="K52" s="143" t="n"/>
       <c r="L52" s="181" t="n"/>
       <c r="M52" s="177" t="n"/>
-      <c r="N52" s="229" t="inlineStr">
+      <c r="N52" s="215" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -7791,31 +7799,31 @@
           <t>Winner SF1</t>
         </is>
       </c>
-      <c r="P52" s="226" t="n"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1" s="202">
-      <c r="B53" s="225" t="n"/>
+      <c r="P52" s="212" t="n"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1" s="191">
+      <c r="B53" s="211" t="n"/>
       <c r="C53" s="173" t="inlineStr">
         <is>
           <t>2nd Group E</t>
         </is>
       </c>
-      <c r="D53" s="225" t="n"/>
+      <c r="D53" s="211" t="n"/>
       <c r="E53" s="171" t="n"/>
       <c r="F53" s="171" t="n"/>
       <c r="G53" s="179" t="n"/>
       <c r="H53" s="176" t="n"/>
       <c r="K53" s="143" t="n"/>
       <c r="L53" s="181" t="n"/>
-      <c r="N53" s="225" t="n"/>
+      <c r="N53" s="211" t="n"/>
       <c r="O53" s="165" t="inlineStr">
         <is>
           <t>Winner SF2</t>
         </is>
       </c>
-      <c r="P53" s="225" t="n"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1" s="202">
+      <c r="P53" s="211" t="n"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1" s="191">
       <c r="B54" s="138" t="n"/>
       <c r="C54" s="171" t="n"/>
       <c r="D54" s="176" t="n"/>
@@ -7826,8 +7834,8 @@
       <c r="K54" s="143" t="n"/>
       <c r="L54" s="181" t="n"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1" s="202">
-      <c r="B55" s="224" t="inlineStr">
+    <row r="55" ht="15.75" customHeight="1" s="191">
+      <c r="B55" s="210" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
@@ -7837,7 +7845,7 @@
           <t>Winner Group E</t>
         </is>
       </c>
-      <c r="D55" s="226" t="n"/>
+      <c r="D55" s="212" t="n"/>
       <c r="E55" s="171" t="n"/>
       <c r="F55" s="171" t="n"/>
       <c r="G55" s="179" t="n"/>
@@ -7845,16 +7853,16 @@
       <c r="K55" s="143" t="n"/>
       <c r="L55" s="181" t="n"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B56" s="225" t="n"/>
+    <row r="56" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B56" s="211" t="n"/>
       <c r="C56" s="173" t="inlineStr">
         <is>
           <t>3rd Group A/B/C/D</t>
         </is>
       </c>
-      <c r="D56" s="225" t="n"/>
+      <c r="D56" s="211" t="n"/>
       <c r="E56" s="174" t="n"/>
-      <c r="F56" s="227" t="inlineStr">
+      <c r="F56" s="214" t="inlineStr">
         <is>
           <t>QF3</t>
         </is>
@@ -7864,26 +7872,26 @@
           <t>Winner R5</t>
         </is>
       </c>
-      <c r="H56" s="226" t="n"/>
+      <c r="H56" s="212" t="n"/>
       <c r="K56" s="143" t="n"/>
       <c r="L56" s="181" t="n"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1" s="202" thickBot="1">
+    <row r="57" ht="15.75" customHeight="1" s="191" thickBot="1">
       <c r="B57" s="138" t="n"/>
       <c r="D57" s="176" t="n"/>
       <c r="E57" s="184" t="n"/>
-      <c r="F57" s="225" t="n"/>
+      <c r="F57" s="211" t="n"/>
       <c r="G57" s="178" t="inlineStr">
         <is>
           <t>Winner R6</t>
         </is>
       </c>
-      <c r="H57" s="225" t="n"/>
+      <c r="H57" s="211" t="n"/>
       <c r="K57" s="143" t="n"/>
       <c r="L57" s="181" t="n"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1" s="202">
-      <c r="B58" s="224" t="inlineStr">
+    <row r="58" ht="15.75" customHeight="1" s="191">
+      <c r="B58" s="210" t="inlineStr">
         <is>
           <t>R6</t>
         </is>
@@ -7893,24 +7901,24 @@
           <t>Winner Group D</t>
         </is>
       </c>
-      <c r="D58" s="226" t="n"/>
+      <c r="D58" s="212" t="n"/>
       <c r="G58" s="179" t="n"/>
       <c r="H58" s="180" t="n"/>
       <c r="K58" s="143" t="n"/>
       <c r="L58" s="183" t="n"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B59" s="225" t="n"/>
+    <row r="59" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B59" s="211" t="n"/>
       <c r="C59" s="173" t="inlineStr">
         <is>
           <t>2nd Group F</t>
         </is>
       </c>
-      <c r="D59" s="225" t="n"/>
+      <c r="D59" s="211" t="n"/>
       <c r="G59" s="179" t="n"/>
       <c r="H59" s="181" t="n"/>
       <c r="I59" s="177" t="n"/>
-      <c r="J59" s="228" t="inlineStr">
+      <c r="J59" s="213" t="inlineStr">
         <is>
           <t>SF2</t>
         </is>
@@ -7920,23 +7928,23 @@
           <t>Winner QF3</t>
         </is>
       </c>
-      <c r="L59" s="226" t="n"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1" s="202">
+      <c r="L59" s="212" t="n"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1" s="191">
       <c r="B60" s="138" t="n"/>
       <c r="D60" s="176" t="n"/>
       <c r="G60" s="179" t="n"/>
       <c r="H60" s="181" t="n"/>
-      <c r="J60" s="225" t="n"/>
+      <c r="J60" s="211" t="n"/>
       <c r="K60" s="165" t="inlineStr">
         <is>
           <t>Winner QF4</t>
         </is>
       </c>
-      <c r="L60" s="225" t="n"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1" s="202">
-      <c r="B61" s="224" t="inlineStr">
+      <c r="L60" s="211" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="191">
+      <c r="B61" s="210" t="inlineStr">
         <is>
           <t>R7</t>
         </is>
@@ -7946,20 +7954,20 @@
           <t>Winner GroupC</t>
         </is>
       </c>
-      <c r="D61" s="226" t="n"/>
+      <c r="D61" s="212" t="n"/>
       <c r="G61" s="179" t="n"/>
       <c r="H61" s="183" t="n"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B62" s="225" t="n"/>
+    <row r="62" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B62" s="211" t="n"/>
       <c r="C62" s="173" t="inlineStr">
         <is>
           <t>3rd Group D/E/F</t>
         </is>
       </c>
-      <c r="D62" s="225" t="n"/>
+      <c r="D62" s="211" t="n"/>
       <c r="E62" s="174" t="n"/>
-      <c r="F62" s="227" t="inlineStr">
+      <c r="F62" s="214" t="inlineStr">
         <is>
           <t>QF4</t>
         </is>
@@ -7969,1010 +7977,979 @@
           <t>Winner R7</t>
         </is>
       </c>
-      <c r="H62" s="226" t="n"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="H62" s="212" t="n"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" s="191" thickBot="1">
       <c r="B63" s="138" t="n"/>
       <c r="D63" s="176" t="n"/>
       <c r="E63" s="184" t="n"/>
-      <c r="F63" s="225" t="n"/>
+      <c r="F63" s="211" t="n"/>
       <c r="G63" s="178" t="inlineStr">
         <is>
           <t>Winner R8</t>
         </is>
       </c>
-      <c r="H63" s="225" t="n"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1" s="202">
-      <c r="B64" s="224" t="inlineStr">
+      <c r="H63" s="211" t="n"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1" s="191">
+      <c r="B64" s="210" t="inlineStr">
         <is>
           <t>R8</t>
         </is>
       </c>
       <c r="C64" s="172" t="inlineStr">
         <is>
-          <t>2nd Group A</t>
-        </is>
-      </c>
-      <c r="D64" s="226" t="n"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1" s="202">
-      <c r="B65" s="225" t="n"/>
+          <t>Wales</t>
+        </is>
+      </c>
+      <c r="D64" s="212" t="n"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1" s="191">
+      <c r="B65" s="211" t="n"/>
       <c r="C65" s="173" t="inlineStr">
         <is>
           <t>2nd Group B</t>
         </is>
       </c>
-      <c r="D65" s="225" t="n"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1" s="202"/>
-    <row r="67" ht="15.75" customHeight="1" s="202"/>
-    <row r="68" ht="15.75" customHeight="1" s="202"/>
-    <row r="69" ht="15.75" customHeight="1" s="202"/>
-    <row r="70" ht="15.75" customHeight="1" s="202"/>
-    <row r="71" ht="15.75" customHeight="1" s="202"/>
-    <row r="72" ht="15.75" customHeight="1" s="202"/>
-    <row r="73" ht="15.75" customHeight="1" s="202"/>
-    <row r="74" ht="15.75" customHeight="1" s="202"/>
-    <row r="75" ht="15.75" customHeight="1" s="202"/>
-    <row r="76" ht="15.75" customHeight="1" s="202"/>
-    <row r="77" ht="15.75" customHeight="1" s="202"/>
-    <row r="78" ht="15.75" customHeight="1" s="202"/>
-    <row r="79" ht="15.75" customHeight="1" s="202"/>
-    <row r="80" ht="15.75" customHeight="1" s="202"/>
-    <row r="81" ht="15.75" customHeight="1" s="202"/>
-    <row r="82" ht="15.75" customHeight="1" s="202"/>
-    <row r="83" ht="15.75" customHeight="1" s="202"/>
-    <row r="84" ht="15.75" customHeight="1" s="202"/>
-    <row r="85" ht="15.75" customHeight="1" s="202"/>
-    <row r="86" ht="15.75" customHeight="1" s="202"/>
-    <row r="87" ht="15.75" customHeight="1" s="202"/>
-    <row r="88" ht="15.75" customHeight="1" s="202"/>
-    <row r="89" ht="15.75" customHeight="1" s="202"/>
-    <row r="90" ht="15.75" customHeight="1" s="202"/>
-    <row r="91" ht="15.75" customHeight="1" s="202"/>
-    <row r="92" ht="15.75" customHeight="1" s="202"/>
-    <row r="93" ht="15.75" customHeight="1" s="202"/>
-    <row r="94" ht="15.75" customHeight="1" s="202"/>
-    <row r="95" ht="15.75" customHeight="1" s="202"/>
-    <row r="96" ht="15.75" customHeight="1" s="202"/>
-    <row r="97" ht="15.75" customHeight="1" s="202"/>
-    <row r="98" ht="15.75" customHeight="1" s="202"/>
-    <row r="99" ht="15.75" customHeight="1" s="202"/>
-    <row r="100" ht="15.75" customHeight="1" s="202"/>
-    <row r="101" ht="15.75" customHeight="1" s="202"/>
-    <row r="102" ht="15.75" customHeight="1" s="202"/>
-    <row r="103" ht="15.75" customHeight="1" s="202"/>
-    <row r="104" ht="15.75" customHeight="1" s="202"/>
-    <row r="105" ht="15.75" customHeight="1" s="202"/>
-    <row r="106" ht="15.75" customHeight="1" s="202"/>
-    <row r="107" ht="15.75" customHeight="1" s="202"/>
-    <row r="108" ht="15.75" customHeight="1" s="202"/>
-    <row r="109" ht="15.75" customHeight="1" s="202"/>
-    <row r="110" ht="15.75" customHeight="1" s="202"/>
-    <row r="111" ht="15.75" customHeight="1" s="202"/>
-    <row r="112" ht="15.75" customHeight="1" s="202"/>
-    <row r="113" ht="15.75" customHeight="1" s="202"/>
-    <row r="114" ht="15.75" customHeight="1" s="202"/>
-    <row r="115" ht="15.75" customHeight="1" s="202"/>
-    <row r="116" ht="15.75" customHeight="1" s="202"/>
-    <row r="117" ht="15.75" customHeight="1" s="202"/>
-    <row r="118" ht="15.75" customHeight="1" s="202"/>
-    <row r="119" ht="15.75" customHeight="1" s="202"/>
-    <row r="120" ht="15.75" customHeight="1" s="202"/>
-    <row r="121" ht="15.75" customHeight="1" s="202"/>
-    <row r="122" ht="15.75" customHeight="1" s="202"/>
-    <row r="123" ht="15.75" customHeight="1" s="202"/>
-    <row r="124" ht="15.75" customHeight="1" s="202"/>
-    <row r="125" ht="15.75" customHeight="1" s="202"/>
-    <row r="126" ht="15.75" customHeight="1" s="202"/>
-    <row r="127" ht="15.75" customHeight="1" s="202"/>
-    <row r="128" ht="15.75" customHeight="1" s="202"/>
-    <row r="129" ht="15.75" customHeight="1" s="202"/>
-    <row r="130" ht="15.75" customHeight="1" s="202"/>
-    <row r="131" ht="15.75" customHeight="1" s="202"/>
-    <row r="132" ht="15.75" customHeight="1" s="202"/>
-    <row r="133" ht="15.75" customHeight="1" s="202"/>
-    <row r="134" ht="15.75" customHeight="1" s="202"/>
-    <row r="135" ht="15.75" customHeight="1" s="202"/>
-    <row r="136" ht="15.75" customHeight="1" s="202"/>
-    <row r="137" ht="15.75" customHeight="1" s="202"/>
-    <row r="138" ht="15.75" customHeight="1" s="202"/>
-    <row r="139" ht="15.75" customHeight="1" s="202"/>
-    <row r="140" ht="15.75" customHeight="1" s="202"/>
-    <row r="141" ht="15.75" customHeight="1" s="202"/>
-    <row r="142" ht="15.75" customHeight="1" s="202"/>
-    <row r="143" ht="15.75" customHeight="1" s="202"/>
-    <row r="144" ht="15.75" customHeight="1" s="202"/>
-    <row r="145" ht="15.75" customHeight="1" s="202"/>
-    <row r="146" ht="15.75" customHeight="1" s="202"/>
-    <row r="147" ht="15.75" customHeight="1" s="202"/>
-    <row r="148" ht="15.75" customHeight="1" s="202"/>
-    <row r="149" ht="15.75" customHeight="1" s="202"/>
-    <row r="150" ht="15.75" customHeight="1" s="202"/>
-    <row r="151" ht="15.75" customHeight="1" s="202"/>
-    <row r="152" ht="15.75" customHeight="1" s="202"/>
-    <row r="153" ht="15.75" customHeight="1" s="202"/>
-    <row r="154" ht="15.75" customHeight="1" s="202"/>
-    <row r="155" ht="15.75" customHeight="1" s="202"/>
-    <row r="156" ht="15.75" customHeight="1" s="202"/>
-    <row r="157" ht="15.75" customHeight="1" s="202"/>
-    <row r="158" ht="15.75" customHeight="1" s="202"/>
-    <row r="159" ht="15.75" customHeight="1" s="202"/>
-    <row r="160" ht="15.75" customHeight="1" s="202"/>
-    <row r="161" ht="15.75" customHeight="1" s="202"/>
-    <row r="162" ht="15.75" customHeight="1" s="202"/>
-    <row r="163" ht="15.75" customHeight="1" s="202"/>
-    <row r="164" ht="15.75" customHeight="1" s="202"/>
-    <row r="165" ht="15.75" customHeight="1" s="202"/>
-    <row r="166" ht="15.75" customHeight="1" s="202"/>
-    <row r="167" ht="15.75" customHeight="1" s="202"/>
-    <row r="168" ht="15.75" customHeight="1" s="202"/>
-    <row r="169" ht="15.75" customHeight="1" s="202"/>
-    <row r="170" ht="15.75" customHeight="1" s="202"/>
-    <row r="171" ht="15.75" customHeight="1" s="202"/>
-    <row r="172" ht="15.75" customHeight="1" s="202"/>
-    <row r="173" ht="15.75" customHeight="1" s="202"/>
-    <row r="174" ht="15.75" customHeight="1" s="202"/>
-    <row r="175" ht="15.75" customHeight="1" s="202"/>
-    <row r="176" ht="15.75" customHeight="1" s="202"/>
-    <row r="177" ht="15.75" customHeight="1" s="202"/>
-    <row r="178" ht="15.75" customHeight="1" s="202"/>
-    <row r="179" ht="15.75" customHeight="1" s="202"/>
-    <row r="180" ht="15.75" customHeight="1" s="202"/>
-    <row r="181" ht="15.75" customHeight="1" s="202"/>
-    <row r="182" ht="15.75" customHeight="1" s="202"/>
-    <row r="183" ht="15.75" customHeight="1" s="202"/>
-    <row r="184" ht="15.75" customHeight="1" s="202"/>
-    <row r="185" ht="15.75" customHeight="1" s="202"/>
-    <row r="186" ht="15.75" customHeight="1" s="202"/>
-    <row r="187" ht="15.75" customHeight="1" s="202"/>
-    <row r="188" ht="15.75" customHeight="1" s="202"/>
-    <row r="189" ht="15.75" customHeight="1" s="202"/>
-    <row r="190" ht="15.75" customHeight="1" s="202"/>
-    <row r="191" ht="15.75" customHeight="1" s="202"/>
-    <row r="192" ht="15.75" customHeight="1" s="202"/>
-    <row r="193" ht="15.75" customHeight="1" s="202"/>
-    <row r="194" ht="15.75" customHeight="1" s="202"/>
-    <row r="195" ht="15.75" customHeight="1" s="202"/>
-    <row r="196" ht="15.75" customHeight="1" s="202"/>
-    <row r="197" ht="15.75" customHeight="1" s="202"/>
-    <row r="198" ht="15.75" customHeight="1" s="202"/>
-    <row r="199" ht="15.75" customHeight="1" s="202"/>
-    <row r="200" ht="15.75" customHeight="1" s="202"/>
-    <row r="201" ht="15.75" customHeight="1" s="202"/>
-    <row r="202" ht="15.75" customHeight="1" s="202"/>
-    <row r="203" ht="15.75" customHeight="1" s="202"/>
-    <row r="204" ht="15.75" customHeight="1" s="202"/>
-    <row r="205" ht="15.75" customHeight="1" s="202"/>
-    <row r="206" ht="15.75" customHeight="1" s="202"/>
-    <row r="207" ht="15.75" customHeight="1" s="202"/>
-    <row r="208" ht="15.75" customHeight="1" s="202"/>
-    <row r="209" ht="15.75" customHeight="1" s="202"/>
-    <row r="210" ht="15.75" customHeight="1" s="202"/>
-    <row r="211" ht="15.75" customHeight="1" s="202"/>
-    <row r="212" ht="15.75" customHeight="1" s="202"/>
-    <row r="213" ht="15.75" customHeight="1" s="202"/>
-    <row r="214" ht="15.75" customHeight="1" s="202"/>
-    <row r="215" ht="15.75" customHeight="1" s="202"/>
-    <row r="216" ht="15.75" customHeight="1" s="202"/>
-    <row r="217" ht="15.75" customHeight="1" s="202"/>
-    <row r="218" ht="15.75" customHeight="1" s="202"/>
-    <row r="219" ht="15.75" customHeight="1" s="202"/>
-    <row r="220" ht="15.75" customHeight="1" s="202"/>
-    <row r="221" ht="15.75" customHeight="1" s="202"/>
-    <row r="222" ht="15.75" customHeight="1" s="202"/>
-    <row r="223" ht="15.75" customHeight="1" s="202"/>
-    <row r="224" ht="15.75" customHeight="1" s="202"/>
-    <row r="225" ht="15.75" customHeight="1" s="202"/>
-    <row r="226" ht="15.75" customHeight="1" s="202"/>
-    <row r="227" ht="15.75" customHeight="1" s="202"/>
-    <row r="228" ht="15.75" customHeight="1" s="202"/>
-    <row r="229" ht="15.75" customHeight="1" s="202"/>
-    <row r="230" ht="15.75" customHeight="1" s="202"/>
-    <row r="231" ht="15.75" customHeight="1" s="202"/>
-    <row r="232" ht="15.75" customHeight="1" s="202"/>
-    <row r="233" ht="15.75" customHeight="1" s="202"/>
-    <row r="234" ht="15.75" customHeight="1" s="202"/>
-    <row r="235" ht="15.75" customHeight="1" s="202"/>
-    <row r="236" ht="15.75" customHeight="1" s="202"/>
-    <row r="237" ht="15.75" customHeight="1" s="202"/>
-    <row r="238" ht="15.75" customHeight="1" s="202"/>
-    <row r="239" ht="15.75" customHeight="1" s="202"/>
-    <row r="240" ht="15.75" customHeight="1" s="202"/>
-    <row r="241" ht="15.75" customHeight="1" s="202"/>
-    <row r="242" ht="15.75" customHeight="1" s="202"/>
-    <row r="243" ht="15.75" customHeight="1" s="202"/>
-    <row r="244" ht="15.75" customHeight="1" s="202"/>
-    <row r="245" ht="15.75" customHeight="1" s="202"/>
-    <row r="246" ht="15.75" customHeight="1" s="202"/>
-    <row r="247" ht="15.75" customHeight="1" s="202"/>
-    <row r="248" ht="15.75" customHeight="1" s="202"/>
-    <row r="249" ht="15.75" customHeight="1" s="202"/>
-    <row r="250" ht="15.75" customHeight="1" s="202"/>
-    <row r="251" ht="15.75" customHeight="1" s="202"/>
-    <row r="252" ht="15.75" customHeight="1" s="202"/>
-    <row r="253" ht="15.75" customHeight="1" s="202"/>
-    <row r="254" ht="15.75" customHeight="1" s="202"/>
-    <row r="255" ht="15.75" customHeight="1" s="202"/>
-    <row r="256" ht="15.75" customHeight="1" s="202"/>
-    <row r="257" ht="15.75" customHeight="1" s="202"/>
-    <row r="258" ht="15.75" customHeight="1" s="202"/>
-    <row r="259" ht="15.75" customHeight="1" s="202"/>
-    <row r="260" ht="15.75" customHeight="1" s="202"/>
-    <row r="261" ht="15.75" customHeight="1" s="202"/>
-    <row r="262" ht="15.75" customHeight="1" s="202"/>
-    <row r="263" ht="15.75" customHeight="1" s="202"/>
-    <row r="264" ht="15.75" customHeight="1" s="202"/>
-    <row r="265" ht="15.75" customHeight="1" s="202"/>
-    <row r="266" ht="15.75" customHeight="1" s="202"/>
-    <row r="267" ht="15.75" customHeight="1" s="202"/>
-    <row r="268" ht="15.75" customHeight="1" s="202"/>
-    <row r="269" ht="15.75" customHeight="1" s="202"/>
-    <row r="270" ht="15.75" customHeight="1" s="202"/>
-    <row r="271" ht="15.75" customHeight="1" s="202"/>
-    <row r="272" ht="15.75" customHeight="1" s="202"/>
-    <row r="273" ht="15.75" customHeight="1" s="202"/>
-    <row r="274" ht="15.75" customHeight="1" s="202"/>
-    <row r="275" ht="15.75" customHeight="1" s="202"/>
-    <row r="276" ht="15.75" customHeight="1" s="202"/>
-    <row r="277" ht="15.75" customHeight="1" s="202"/>
-    <row r="278" ht="15.75" customHeight="1" s="202"/>
-    <row r="279" ht="15.75" customHeight="1" s="202"/>
-    <row r="280" ht="15.75" customHeight="1" s="202"/>
-    <row r="281" ht="15.75" customHeight="1" s="202"/>
-    <row r="282" ht="15.75" customHeight="1" s="202"/>
-    <row r="283" ht="15.75" customHeight="1" s="202"/>
-    <row r="284" ht="15.75" customHeight="1" s="202"/>
-    <row r="285" ht="15.75" customHeight="1" s="202"/>
-    <row r="286" ht="15.75" customHeight="1" s="202"/>
-    <row r="287" ht="15.75" customHeight="1" s="202"/>
-    <row r="288" ht="15.75" customHeight="1" s="202"/>
-    <row r="289" ht="15.75" customHeight="1" s="202"/>
-    <row r="290" ht="15.75" customHeight="1" s="202"/>
-    <row r="291" ht="15.75" customHeight="1" s="202"/>
-    <row r="292" ht="15.75" customHeight="1" s="202"/>
-    <row r="293" ht="15.75" customHeight="1" s="202"/>
-    <row r="294" ht="15.75" customHeight="1" s="202"/>
-    <row r="295" ht="15.75" customHeight="1" s="202"/>
-    <row r="296" ht="15.75" customHeight="1" s="202"/>
-    <row r="297" ht="15.75" customHeight="1" s="202"/>
-    <row r="298" ht="15.75" customHeight="1" s="202"/>
-    <row r="299" ht="15.75" customHeight="1" s="202"/>
-    <row r="300" ht="15.75" customHeight="1" s="202"/>
-    <row r="301" ht="15.75" customHeight="1" s="202"/>
-    <row r="302" ht="15.75" customHeight="1" s="202"/>
-    <row r="303" ht="15.75" customHeight="1" s="202"/>
-    <row r="304" ht="15.75" customHeight="1" s="202"/>
-    <row r="305" ht="15.75" customHeight="1" s="202"/>
-    <row r="306" ht="15.75" customHeight="1" s="202"/>
-    <row r="307" ht="15.75" customHeight="1" s="202"/>
-    <row r="308" ht="15.75" customHeight="1" s="202"/>
-    <row r="309" ht="15.75" customHeight="1" s="202"/>
-    <row r="310" ht="15.75" customHeight="1" s="202"/>
-    <row r="311" ht="15.75" customHeight="1" s="202"/>
-    <row r="312" ht="15.75" customHeight="1" s="202"/>
-    <row r="313" ht="15.75" customHeight="1" s="202"/>
-    <row r="314" ht="15.75" customHeight="1" s="202"/>
-    <row r="315" ht="15.75" customHeight="1" s="202"/>
-    <row r="316" ht="15.75" customHeight="1" s="202"/>
-    <row r="317" ht="15.75" customHeight="1" s="202"/>
-    <row r="318" ht="15.75" customHeight="1" s="202"/>
-    <row r="319" ht="15.75" customHeight="1" s="202"/>
-    <row r="320" ht="15.75" customHeight="1" s="202"/>
-    <row r="321" ht="15.75" customHeight="1" s="202"/>
-    <row r="322" ht="15.75" customHeight="1" s="202"/>
-    <row r="323" ht="15.75" customHeight="1" s="202"/>
-    <row r="324" ht="15.75" customHeight="1" s="202"/>
-    <row r="325" ht="15.75" customHeight="1" s="202"/>
-    <row r="326" ht="15.75" customHeight="1" s="202"/>
-    <row r="327" ht="15.75" customHeight="1" s="202"/>
-    <row r="328" ht="15.75" customHeight="1" s="202"/>
-    <row r="329" ht="15.75" customHeight="1" s="202"/>
-    <row r="330" ht="15.75" customHeight="1" s="202"/>
-    <row r="331" ht="15.75" customHeight="1" s="202"/>
-    <row r="332" ht="15.75" customHeight="1" s="202"/>
-    <row r="333" ht="15.75" customHeight="1" s="202"/>
-    <row r="334" ht="15.75" customHeight="1" s="202"/>
-    <row r="335" ht="15.75" customHeight="1" s="202"/>
-    <row r="336" ht="15.75" customHeight="1" s="202"/>
-    <row r="337" ht="15.75" customHeight="1" s="202"/>
-    <row r="338" ht="15.75" customHeight="1" s="202"/>
-    <row r="339" ht="15.75" customHeight="1" s="202"/>
-    <row r="340" ht="15.75" customHeight="1" s="202"/>
-    <row r="341" ht="15.75" customHeight="1" s="202"/>
-    <row r="342" ht="15.75" customHeight="1" s="202"/>
-    <row r="343" ht="15.75" customHeight="1" s="202"/>
-    <row r="344" ht="15.75" customHeight="1" s="202"/>
-    <row r="345" ht="15.75" customHeight="1" s="202"/>
-    <row r="346" ht="15.75" customHeight="1" s="202"/>
-    <row r="347" ht="15.75" customHeight="1" s="202"/>
-    <row r="348" ht="15.75" customHeight="1" s="202"/>
-    <row r="349" ht="15.75" customHeight="1" s="202"/>
-    <row r="350" ht="15.75" customHeight="1" s="202"/>
-    <row r="351" ht="15.75" customHeight="1" s="202"/>
-    <row r="352" ht="15.75" customHeight="1" s="202"/>
-    <row r="353" ht="15.75" customHeight="1" s="202"/>
-    <row r="354" ht="15.75" customHeight="1" s="202"/>
-    <row r="355" ht="15.75" customHeight="1" s="202"/>
-    <row r="356" ht="15.75" customHeight="1" s="202"/>
-    <row r="357" ht="15.75" customHeight="1" s="202"/>
-    <row r="358" ht="15.75" customHeight="1" s="202"/>
-    <row r="359" ht="15.75" customHeight="1" s="202"/>
-    <row r="360" ht="15.75" customHeight="1" s="202"/>
-    <row r="361" ht="15.75" customHeight="1" s="202"/>
-    <row r="362" ht="15.75" customHeight="1" s="202"/>
-    <row r="363" ht="15.75" customHeight="1" s="202"/>
-    <row r="364" ht="15.75" customHeight="1" s="202"/>
-    <row r="365" ht="15.75" customHeight="1" s="202"/>
-    <row r="366" ht="15.75" customHeight="1" s="202"/>
-    <row r="367" ht="15.75" customHeight="1" s="202"/>
-    <row r="368" ht="15.75" customHeight="1" s="202"/>
-    <row r="369" ht="15.75" customHeight="1" s="202"/>
-    <row r="370" ht="15.75" customHeight="1" s="202"/>
-    <row r="371" ht="15.75" customHeight="1" s="202"/>
-    <row r="372" ht="15.75" customHeight="1" s="202"/>
-    <row r="373" ht="15.75" customHeight="1" s="202"/>
-    <row r="374" ht="15.75" customHeight="1" s="202"/>
-    <row r="375" ht="15.75" customHeight="1" s="202"/>
-    <row r="376" ht="15.75" customHeight="1" s="202"/>
-    <row r="377" ht="15.75" customHeight="1" s="202"/>
-    <row r="378" ht="15.75" customHeight="1" s="202"/>
-    <row r="379" ht="15.75" customHeight="1" s="202"/>
-    <row r="380" ht="15.75" customHeight="1" s="202"/>
-    <row r="381" ht="15.75" customHeight="1" s="202"/>
-    <row r="382" ht="15.75" customHeight="1" s="202"/>
-    <row r="383" ht="15.75" customHeight="1" s="202"/>
-    <row r="384" ht="15.75" customHeight="1" s="202"/>
-    <row r="385" ht="15.75" customHeight="1" s="202"/>
-    <row r="386" ht="15.75" customHeight="1" s="202"/>
-    <row r="387" ht="15.75" customHeight="1" s="202"/>
-    <row r="388" ht="15.75" customHeight="1" s="202"/>
-    <row r="389" ht="15.75" customHeight="1" s="202"/>
-    <row r="390" ht="15.75" customHeight="1" s="202"/>
-    <row r="391" ht="15.75" customHeight="1" s="202"/>
-    <row r="392" ht="15.75" customHeight="1" s="202"/>
-    <row r="393" ht="15.75" customHeight="1" s="202"/>
-    <row r="394" ht="15.75" customHeight="1" s="202"/>
-    <row r="395" ht="15.75" customHeight="1" s="202"/>
-    <row r="396" ht="15.75" customHeight="1" s="202"/>
-    <row r="397" ht="15.75" customHeight="1" s="202"/>
-    <row r="398" ht="15.75" customHeight="1" s="202"/>
-    <row r="399" ht="15.75" customHeight="1" s="202"/>
-    <row r="400" ht="15.75" customHeight="1" s="202"/>
-    <row r="401" ht="15.75" customHeight="1" s="202"/>
-    <row r="402" ht="15.75" customHeight="1" s="202"/>
-    <row r="403" ht="15.75" customHeight="1" s="202"/>
-    <row r="404" ht="15.75" customHeight="1" s="202"/>
-    <row r="405" ht="15.75" customHeight="1" s="202"/>
-    <row r="406" ht="15.75" customHeight="1" s="202"/>
-    <row r="407" ht="15.75" customHeight="1" s="202"/>
-    <row r="408" ht="15.75" customHeight="1" s="202"/>
-    <row r="409" ht="15.75" customHeight="1" s="202"/>
-    <row r="410" ht="15.75" customHeight="1" s="202"/>
-    <row r="411" ht="15.75" customHeight="1" s="202"/>
-    <row r="412" ht="15.75" customHeight="1" s="202"/>
-    <row r="413" ht="15.75" customHeight="1" s="202"/>
-    <row r="414" ht="15.75" customHeight="1" s="202"/>
-    <row r="415" ht="15.75" customHeight="1" s="202"/>
-    <row r="416" ht="15.75" customHeight="1" s="202"/>
-    <row r="417" ht="15.75" customHeight="1" s="202"/>
-    <row r="418" ht="15.75" customHeight="1" s="202"/>
-    <row r="419" ht="15.75" customHeight="1" s="202"/>
-    <row r="420" ht="15.75" customHeight="1" s="202"/>
-    <row r="421" ht="15.75" customHeight="1" s="202"/>
-    <row r="422" ht="15.75" customHeight="1" s="202"/>
-    <row r="423" ht="15.75" customHeight="1" s="202"/>
-    <row r="424" ht="15.75" customHeight="1" s="202"/>
-    <row r="425" ht="15.75" customHeight="1" s="202"/>
-    <row r="426" ht="15.75" customHeight="1" s="202"/>
-    <row r="427" ht="15.75" customHeight="1" s="202"/>
-    <row r="428" ht="15.75" customHeight="1" s="202"/>
-    <row r="429" ht="15.75" customHeight="1" s="202"/>
-    <row r="430" ht="15.75" customHeight="1" s="202"/>
-    <row r="431" ht="15.75" customHeight="1" s="202"/>
-    <row r="432" ht="15.75" customHeight="1" s="202"/>
-    <row r="433" ht="15.75" customHeight="1" s="202"/>
-    <row r="434" ht="15.75" customHeight="1" s="202"/>
-    <row r="435" ht="15.75" customHeight="1" s="202"/>
-    <row r="436" ht="15.75" customHeight="1" s="202"/>
-    <row r="437" ht="15.75" customHeight="1" s="202"/>
-    <row r="438" ht="15.75" customHeight="1" s="202"/>
-    <row r="439" ht="15.75" customHeight="1" s="202"/>
-    <row r="440" ht="15.75" customHeight="1" s="202"/>
-    <row r="441" ht="15.75" customHeight="1" s="202"/>
-    <row r="442" ht="15.75" customHeight="1" s="202"/>
-    <row r="443" ht="15.75" customHeight="1" s="202"/>
-    <row r="444" ht="15.75" customHeight="1" s="202"/>
-    <row r="445" ht="15.75" customHeight="1" s="202"/>
-    <row r="446" ht="15.75" customHeight="1" s="202"/>
-    <row r="447" ht="15.75" customHeight="1" s="202"/>
-    <row r="448" ht="15.75" customHeight="1" s="202"/>
-    <row r="449" ht="15.75" customHeight="1" s="202"/>
-    <row r="450" ht="15.75" customHeight="1" s="202"/>
-    <row r="451" ht="15.75" customHeight="1" s="202"/>
-    <row r="452" ht="15.75" customHeight="1" s="202"/>
-    <row r="453" ht="15.75" customHeight="1" s="202"/>
-    <row r="454" ht="15.75" customHeight="1" s="202"/>
-    <row r="455" ht="15.75" customHeight="1" s="202"/>
-    <row r="456" ht="15.75" customHeight="1" s="202"/>
-    <row r="457" ht="15.75" customHeight="1" s="202"/>
-    <row r="458" ht="15.75" customHeight="1" s="202"/>
-    <row r="459" ht="15.75" customHeight="1" s="202"/>
-    <row r="460" ht="15.75" customHeight="1" s="202"/>
-    <row r="461" ht="15.75" customHeight="1" s="202"/>
-    <row r="462" ht="15.75" customHeight="1" s="202"/>
-    <row r="463" ht="15.75" customHeight="1" s="202"/>
-    <row r="464" ht="15.75" customHeight="1" s="202"/>
-    <row r="465" ht="15.75" customHeight="1" s="202"/>
-    <row r="466" ht="15.75" customHeight="1" s="202"/>
-    <row r="467" ht="15.75" customHeight="1" s="202"/>
-    <row r="468" ht="15.75" customHeight="1" s="202"/>
-    <row r="469" ht="15.75" customHeight="1" s="202"/>
-    <row r="470" ht="15.75" customHeight="1" s="202"/>
-    <row r="471" ht="15.75" customHeight="1" s="202"/>
-    <row r="472" ht="15.75" customHeight="1" s="202"/>
-    <row r="473" ht="15.75" customHeight="1" s="202"/>
-    <row r="474" ht="15.75" customHeight="1" s="202"/>
-    <row r="475" ht="15.75" customHeight="1" s="202"/>
-    <row r="476" ht="15.75" customHeight="1" s="202"/>
-    <row r="477" ht="15.75" customHeight="1" s="202"/>
-    <row r="478" ht="15.75" customHeight="1" s="202"/>
-    <row r="479" ht="15.75" customHeight="1" s="202"/>
-    <row r="480" ht="15.75" customHeight="1" s="202"/>
-    <row r="481" ht="15.75" customHeight="1" s="202"/>
-    <row r="482" ht="15.75" customHeight="1" s="202"/>
-    <row r="483" ht="15.75" customHeight="1" s="202"/>
-    <row r="484" ht="15.75" customHeight="1" s="202"/>
-    <row r="485" ht="15.75" customHeight="1" s="202"/>
-    <row r="486" ht="15.75" customHeight="1" s="202"/>
-    <row r="487" ht="15.75" customHeight="1" s="202"/>
-    <row r="488" ht="15.75" customHeight="1" s="202"/>
-    <row r="489" ht="15.75" customHeight="1" s="202"/>
-    <row r="490" ht="15.75" customHeight="1" s="202"/>
-    <row r="491" ht="15.75" customHeight="1" s="202"/>
-    <row r="492" ht="15.75" customHeight="1" s="202"/>
-    <row r="493" ht="15.75" customHeight="1" s="202"/>
-    <row r="494" ht="15.75" customHeight="1" s="202"/>
-    <row r="495" ht="15.75" customHeight="1" s="202"/>
-    <row r="496" ht="15.75" customHeight="1" s="202"/>
-    <row r="497" ht="15.75" customHeight="1" s="202"/>
-    <row r="498" ht="15.75" customHeight="1" s="202"/>
-    <row r="499" ht="15.75" customHeight="1" s="202"/>
-    <row r="500" ht="15.75" customHeight="1" s="202"/>
-    <row r="501" ht="15.75" customHeight="1" s="202"/>
-    <row r="502" ht="15.75" customHeight="1" s="202"/>
-    <row r="503" ht="15.75" customHeight="1" s="202"/>
-    <row r="504" ht="15.75" customHeight="1" s="202"/>
-    <row r="505" ht="15.75" customHeight="1" s="202"/>
-    <row r="506" ht="15.75" customHeight="1" s="202"/>
-    <row r="507" ht="15.75" customHeight="1" s="202"/>
-    <row r="508" ht="15.75" customHeight="1" s="202"/>
-    <row r="509" ht="15.75" customHeight="1" s="202"/>
-    <row r="510" ht="15.75" customHeight="1" s="202"/>
-    <row r="511" ht="15.75" customHeight="1" s="202"/>
-    <row r="512" ht="15.75" customHeight="1" s="202"/>
-    <row r="513" ht="15.75" customHeight="1" s="202"/>
-    <row r="514" ht="15.75" customHeight="1" s="202"/>
-    <row r="515" ht="15.75" customHeight="1" s="202"/>
-    <row r="516" ht="15.75" customHeight="1" s="202"/>
-    <row r="517" ht="15.75" customHeight="1" s="202"/>
-    <row r="518" ht="15.75" customHeight="1" s="202"/>
-    <row r="519" ht="15.75" customHeight="1" s="202"/>
-    <row r="520" ht="15.75" customHeight="1" s="202"/>
-    <row r="521" ht="15.75" customHeight="1" s="202"/>
-    <row r="522" ht="15.75" customHeight="1" s="202"/>
-    <row r="523" ht="15.75" customHeight="1" s="202"/>
-    <row r="524" ht="15.75" customHeight="1" s="202"/>
-    <row r="525" ht="15.75" customHeight="1" s="202"/>
-    <row r="526" ht="15.75" customHeight="1" s="202"/>
-    <row r="527" ht="15.75" customHeight="1" s="202"/>
-    <row r="528" ht="15.75" customHeight="1" s="202"/>
-    <row r="529" ht="15.75" customHeight="1" s="202"/>
-    <row r="530" ht="15.75" customHeight="1" s="202"/>
-    <row r="531" ht="15.75" customHeight="1" s="202"/>
-    <row r="532" ht="15.75" customHeight="1" s="202"/>
-    <row r="533" ht="15.75" customHeight="1" s="202"/>
-    <row r="534" ht="15.75" customHeight="1" s="202"/>
-    <row r="535" ht="15.75" customHeight="1" s="202"/>
-    <row r="536" ht="15.75" customHeight="1" s="202"/>
-    <row r="537" ht="15.75" customHeight="1" s="202"/>
-    <row r="538" ht="15.75" customHeight="1" s="202"/>
-    <row r="539" ht="15.75" customHeight="1" s="202"/>
-    <row r="540" ht="15.75" customHeight="1" s="202"/>
-    <row r="541" ht="15.75" customHeight="1" s="202"/>
-    <row r="542" ht="15.75" customHeight="1" s="202"/>
-    <row r="543" ht="15.75" customHeight="1" s="202"/>
-    <row r="544" ht="15.75" customHeight="1" s="202"/>
-    <row r="545" ht="15.75" customHeight="1" s="202"/>
-    <row r="546" ht="15.75" customHeight="1" s="202"/>
-    <row r="547" ht="15.75" customHeight="1" s="202"/>
-    <row r="548" ht="15.75" customHeight="1" s="202"/>
-    <row r="549" ht="15.75" customHeight="1" s="202"/>
-    <row r="550" ht="15.75" customHeight="1" s="202"/>
-    <row r="551" ht="15.75" customHeight="1" s="202"/>
-    <row r="552" ht="15.75" customHeight="1" s="202"/>
-    <row r="553" ht="15.75" customHeight="1" s="202"/>
-    <row r="554" ht="15.75" customHeight="1" s="202"/>
-    <row r="555" ht="15.75" customHeight="1" s="202"/>
-    <row r="556" ht="15.75" customHeight="1" s="202"/>
-    <row r="557" ht="15.75" customHeight="1" s="202"/>
-    <row r="558" ht="15.75" customHeight="1" s="202"/>
-    <row r="559" ht="15.75" customHeight="1" s="202"/>
-    <row r="560" ht="15.75" customHeight="1" s="202"/>
-    <row r="561" ht="15.75" customHeight="1" s="202"/>
-    <row r="562" ht="15.75" customHeight="1" s="202"/>
-    <row r="563" ht="15.75" customHeight="1" s="202"/>
-    <row r="564" ht="15.75" customHeight="1" s="202"/>
-    <row r="565" ht="15.75" customHeight="1" s="202"/>
-    <row r="566" ht="15.75" customHeight="1" s="202"/>
-    <row r="567" ht="15.75" customHeight="1" s="202"/>
-    <row r="568" ht="15.75" customHeight="1" s="202"/>
-    <row r="569" ht="15.75" customHeight="1" s="202"/>
-    <row r="570" ht="15.75" customHeight="1" s="202"/>
-    <row r="571" ht="15.75" customHeight="1" s="202"/>
-    <row r="572" ht="15.75" customHeight="1" s="202"/>
-    <row r="573" ht="15.75" customHeight="1" s="202"/>
-    <row r="574" ht="15.75" customHeight="1" s="202"/>
-    <row r="575" ht="15.75" customHeight="1" s="202"/>
-    <row r="576" ht="15.75" customHeight="1" s="202"/>
-    <row r="577" ht="15.75" customHeight="1" s="202"/>
-    <row r="578" ht="15.75" customHeight="1" s="202"/>
-    <row r="579" ht="15.75" customHeight="1" s="202"/>
-    <row r="580" ht="15.75" customHeight="1" s="202"/>
-    <row r="581" ht="15.75" customHeight="1" s="202"/>
-    <row r="582" ht="15.75" customHeight="1" s="202"/>
-    <row r="583" ht="15.75" customHeight="1" s="202"/>
-    <row r="584" ht="15.75" customHeight="1" s="202"/>
-    <row r="585" ht="15.75" customHeight="1" s="202"/>
-    <row r="586" ht="15.75" customHeight="1" s="202"/>
-    <row r="587" ht="15.75" customHeight="1" s="202"/>
-    <row r="588" ht="15.75" customHeight="1" s="202"/>
-    <row r="589" ht="15.75" customHeight="1" s="202"/>
-    <row r="590" ht="15.75" customHeight="1" s="202"/>
-    <row r="591" ht="15.75" customHeight="1" s="202"/>
-    <row r="592" ht="15.75" customHeight="1" s="202"/>
-    <row r="593" ht="15.75" customHeight="1" s="202"/>
-    <row r="594" ht="15.75" customHeight="1" s="202"/>
-    <row r="595" ht="15.75" customHeight="1" s="202"/>
-    <row r="596" ht="15.75" customHeight="1" s="202"/>
-    <row r="597" ht="15.75" customHeight="1" s="202"/>
-    <row r="598" ht="15.75" customHeight="1" s="202"/>
-    <row r="599" ht="15.75" customHeight="1" s="202"/>
-    <row r="600" ht="15.75" customHeight="1" s="202"/>
-    <row r="601" ht="15.75" customHeight="1" s="202"/>
-    <row r="602" ht="15.75" customHeight="1" s="202"/>
-    <row r="603" ht="15.75" customHeight="1" s="202"/>
-    <row r="604" ht="15.75" customHeight="1" s="202"/>
-    <row r="605" ht="15.75" customHeight="1" s="202"/>
-    <row r="606" ht="15.75" customHeight="1" s="202"/>
-    <row r="607" ht="15.75" customHeight="1" s="202"/>
-    <row r="608" ht="15.75" customHeight="1" s="202"/>
-    <row r="609" ht="15.75" customHeight="1" s="202"/>
-    <row r="610" ht="15.75" customHeight="1" s="202"/>
-    <row r="611" ht="15.75" customHeight="1" s="202"/>
-    <row r="612" ht="15.75" customHeight="1" s="202"/>
-    <row r="613" ht="15.75" customHeight="1" s="202"/>
-    <row r="614" ht="15.75" customHeight="1" s="202"/>
-    <row r="615" ht="15.75" customHeight="1" s="202"/>
-    <row r="616" ht="15.75" customHeight="1" s="202"/>
-    <row r="617" ht="15.75" customHeight="1" s="202"/>
-    <row r="618" ht="15.75" customHeight="1" s="202"/>
-    <row r="619" ht="15.75" customHeight="1" s="202"/>
-    <row r="620" ht="15.75" customHeight="1" s="202"/>
-    <row r="621" ht="15.75" customHeight="1" s="202"/>
-    <row r="622" ht="15.75" customHeight="1" s="202"/>
-    <row r="623" ht="15.75" customHeight="1" s="202"/>
-    <row r="624" ht="15.75" customHeight="1" s="202"/>
-    <row r="625" ht="15.75" customHeight="1" s="202"/>
-    <row r="626" ht="15.75" customHeight="1" s="202"/>
-    <row r="627" ht="15.75" customHeight="1" s="202"/>
-    <row r="628" ht="15.75" customHeight="1" s="202"/>
-    <row r="629" ht="15.75" customHeight="1" s="202"/>
-    <row r="630" ht="15.75" customHeight="1" s="202"/>
-    <row r="631" ht="15.75" customHeight="1" s="202"/>
-    <row r="632" ht="15.75" customHeight="1" s="202"/>
-    <row r="633" ht="15.75" customHeight="1" s="202"/>
-    <row r="634" ht="15.75" customHeight="1" s="202"/>
-    <row r="635" ht="15.75" customHeight="1" s="202"/>
-    <row r="636" ht="15.75" customHeight="1" s="202"/>
-    <row r="637" ht="15.75" customHeight="1" s="202"/>
-    <row r="638" ht="15.75" customHeight="1" s="202"/>
-    <row r="639" ht="15.75" customHeight="1" s="202"/>
-    <row r="640" ht="15.75" customHeight="1" s="202"/>
-    <row r="641" ht="15.75" customHeight="1" s="202"/>
-    <row r="642" ht="15.75" customHeight="1" s="202"/>
-    <row r="643" ht="15.75" customHeight="1" s="202"/>
-    <row r="644" ht="15.75" customHeight="1" s="202"/>
-    <row r="645" ht="15.75" customHeight="1" s="202"/>
-    <row r="646" ht="15.75" customHeight="1" s="202"/>
-    <row r="647" ht="15.75" customHeight="1" s="202"/>
-    <row r="648" ht="15.75" customHeight="1" s="202"/>
-    <row r="649" ht="15.75" customHeight="1" s="202"/>
-    <row r="650" ht="15.75" customHeight="1" s="202"/>
-    <row r="651" ht="15.75" customHeight="1" s="202"/>
-    <row r="652" ht="15.75" customHeight="1" s="202"/>
-    <row r="653" ht="15.75" customHeight="1" s="202"/>
-    <row r="654" ht="15.75" customHeight="1" s="202"/>
-    <row r="655" ht="15.75" customHeight="1" s="202"/>
-    <row r="656" ht="15.75" customHeight="1" s="202"/>
-    <row r="657" ht="15.75" customHeight="1" s="202"/>
-    <row r="658" ht="15.75" customHeight="1" s="202"/>
-    <row r="659" ht="15.75" customHeight="1" s="202"/>
-    <row r="660" ht="15.75" customHeight="1" s="202"/>
-    <row r="661" ht="15.75" customHeight="1" s="202"/>
-    <row r="662" ht="15.75" customHeight="1" s="202"/>
-    <row r="663" ht="15.75" customHeight="1" s="202"/>
-    <row r="664" ht="15.75" customHeight="1" s="202"/>
-    <row r="665" ht="15.75" customHeight="1" s="202"/>
-    <row r="666" ht="15.75" customHeight="1" s="202"/>
-    <row r="667" ht="15.75" customHeight="1" s="202"/>
-    <row r="668" ht="15.75" customHeight="1" s="202"/>
-    <row r="669" ht="15.75" customHeight="1" s="202"/>
-    <row r="670" ht="15.75" customHeight="1" s="202"/>
-    <row r="671" ht="15.75" customHeight="1" s="202"/>
-    <row r="672" ht="15.75" customHeight="1" s="202"/>
-    <row r="673" ht="15.75" customHeight="1" s="202"/>
-    <row r="674" ht="15.75" customHeight="1" s="202"/>
-    <row r="675" ht="15.75" customHeight="1" s="202"/>
-    <row r="676" ht="15.75" customHeight="1" s="202"/>
-    <row r="677" ht="15.75" customHeight="1" s="202"/>
-    <row r="678" ht="15.75" customHeight="1" s="202"/>
-    <row r="679" ht="15.75" customHeight="1" s="202"/>
-    <row r="680" ht="15.75" customHeight="1" s="202"/>
-    <row r="681" ht="15.75" customHeight="1" s="202"/>
-    <row r="682" ht="15.75" customHeight="1" s="202"/>
-    <row r="683" ht="15.75" customHeight="1" s="202"/>
-    <row r="684" ht="15.75" customHeight="1" s="202"/>
-    <row r="685" ht="15.75" customHeight="1" s="202"/>
-    <row r="686" ht="15.75" customHeight="1" s="202"/>
-    <row r="687" ht="15.75" customHeight="1" s="202"/>
-    <row r="688" ht="15.75" customHeight="1" s="202"/>
-    <row r="689" ht="15.75" customHeight="1" s="202"/>
-    <row r="690" ht="15.75" customHeight="1" s="202"/>
-    <row r="691" ht="15.75" customHeight="1" s="202"/>
-    <row r="692" ht="15.75" customHeight="1" s="202"/>
-    <row r="693" ht="15.75" customHeight="1" s="202"/>
-    <row r="694" ht="15.75" customHeight="1" s="202"/>
-    <row r="695" ht="15.75" customHeight="1" s="202"/>
-    <row r="696" ht="15.75" customHeight="1" s="202"/>
-    <row r="697" ht="15.75" customHeight="1" s="202"/>
-    <row r="698" ht="15.75" customHeight="1" s="202"/>
-    <row r="699" ht="15.75" customHeight="1" s="202"/>
-    <row r="700" ht="15.75" customHeight="1" s="202"/>
-    <row r="701" ht="15.75" customHeight="1" s="202"/>
-    <row r="702" ht="15.75" customHeight="1" s="202"/>
-    <row r="703" ht="15.75" customHeight="1" s="202"/>
-    <row r="704" ht="15.75" customHeight="1" s="202"/>
-    <row r="705" ht="15.75" customHeight="1" s="202"/>
-    <row r="706" ht="15.75" customHeight="1" s="202"/>
-    <row r="707" ht="15.75" customHeight="1" s="202"/>
-    <row r="708" ht="15.75" customHeight="1" s="202"/>
-    <row r="709" ht="15.75" customHeight="1" s="202"/>
-    <row r="710" ht="15.75" customHeight="1" s="202"/>
-    <row r="711" ht="15.75" customHeight="1" s="202"/>
-    <row r="712" ht="15.75" customHeight="1" s="202"/>
-    <row r="713" ht="15.75" customHeight="1" s="202"/>
-    <row r="714" ht="15.75" customHeight="1" s="202"/>
-    <row r="715" ht="15.75" customHeight="1" s="202"/>
-    <row r="716" ht="15.75" customHeight="1" s="202"/>
-    <row r="717" ht="15.75" customHeight="1" s="202"/>
-    <row r="718" ht="15.75" customHeight="1" s="202"/>
-    <row r="719" ht="15.75" customHeight="1" s="202"/>
-    <row r="720" ht="15.75" customHeight="1" s="202"/>
-    <row r="721" ht="15.75" customHeight="1" s="202"/>
-    <row r="722" ht="15.75" customHeight="1" s="202"/>
-    <row r="723" ht="15.75" customHeight="1" s="202"/>
-    <row r="724" ht="15.75" customHeight="1" s="202"/>
-    <row r="725" ht="15.75" customHeight="1" s="202"/>
-    <row r="726" ht="15.75" customHeight="1" s="202"/>
-    <row r="727" ht="15.75" customHeight="1" s="202"/>
-    <row r="728" ht="15.75" customHeight="1" s="202"/>
-    <row r="729" ht="15.75" customHeight="1" s="202"/>
-    <row r="730" ht="15.75" customHeight="1" s="202"/>
-    <row r="731" ht="15.75" customHeight="1" s="202"/>
-    <row r="732" ht="15.75" customHeight="1" s="202"/>
-    <row r="733" ht="15.75" customHeight="1" s="202"/>
-    <row r="734" ht="15.75" customHeight="1" s="202"/>
-    <row r="735" ht="15.75" customHeight="1" s="202"/>
-    <row r="736" ht="15.75" customHeight="1" s="202"/>
-    <row r="737" ht="15.75" customHeight="1" s="202"/>
-    <row r="738" ht="15.75" customHeight="1" s="202"/>
-    <row r="739" ht="15.75" customHeight="1" s="202"/>
-    <row r="740" ht="15.75" customHeight="1" s="202"/>
-    <row r="741" ht="15.75" customHeight="1" s="202"/>
-    <row r="742" ht="15.75" customHeight="1" s="202"/>
-    <row r="743" ht="15.75" customHeight="1" s="202"/>
-    <row r="744" ht="15.75" customHeight="1" s="202"/>
-    <row r="745" ht="15.75" customHeight="1" s="202"/>
-    <row r="746" ht="15.75" customHeight="1" s="202"/>
-    <row r="747" ht="15.75" customHeight="1" s="202"/>
-    <row r="748" ht="15.75" customHeight="1" s="202"/>
-    <row r="749" ht="15.75" customHeight="1" s="202"/>
-    <row r="750" ht="15.75" customHeight="1" s="202"/>
-    <row r="751" ht="15.75" customHeight="1" s="202"/>
-    <row r="752" ht="15.75" customHeight="1" s="202"/>
-    <row r="753" ht="15.75" customHeight="1" s="202"/>
-    <row r="754" ht="15.75" customHeight="1" s="202"/>
-    <row r="755" ht="15.75" customHeight="1" s="202"/>
-    <row r="756" ht="15.75" customHeight="1" s="202"/>
-    <row r="757" ht="15.75" customHeight="1" s="202"/>
-    <row r="758" ht="15.75" customHeight="1" s="202"/>
-    <row r="759" ht="15.75" customHeight="1" s="202"/>
-    <row r="760" ht="15.75" customHeight="1" s="202"/>
-    <row r="761" ht="15.75" customHeight="1" s="202"/>
-    <row r="762" ht="15.75" customHeight="1" s="202"/>
-    <row r="763" ht="15.75" customHeight="1" s="202"/>
-    <row r="764" ht="15.75" customHeight="1" s="202"/>
-    <row r="765" ht="15.75" customHeight="1" s="202"/>
-    <row r="766" ht="15.75" customHeight="1" s="202"/>
-    <row r="767" ht="15.75" customHeight="1" s="202"/>
-    <row r="768" ht="15.75" customHeight="1" s="202"/>
-    <row r="769" ht="15.75" customHeight="1" s="202"/>
-    <row r="770" ht="15.75" customHeight="1" s="202"/>
-    <row r="771" ht="15.75" customHeight="1" s="202"/>
-    <row r="772" ht="15.75" customHeight="1" s="202"/>
-    <row r="773" ht="15.75" customHeight="1" s="202"/>
-    <row r="774" ht="15.75" customHeight="1" s="202"/>
-    <row r="775" ht="15.75" customHeight="1" s="202"/>
-    <row r="776" ht="15.75" customHeight="1" s="202"/>
-    <row r="777" ht="15.75" customHeight="1" s="202"/>
-    <row r="778" ht="15.75" customHeight="1" s="202"/>
-    <row r="779" ht="15.75" customHeight="1" s="202"/>
-    <row r="780" ht="15.75" customHeight="1" s="202"/>
-    <row r="781" ht="15.75" customHeight="1" s="202"/>
-    <row r="782" ht="15.75" customHeight="1" s="202"/>
-    <row r="783" ht="15.75" customHeight="1" s="202"/>
-    <row r="784" ht="15.75" customHeight="1" s="202"/>
-    <row r="785" ht="15.75" customHeight="1" s="202"/>
-    <row r="786" ht="15.75" customHeight="1" s="202"/>
-    <row r="787" ht="15.75" customHeight="1" s="202"/>
-    <row r="788" ht="15.75" customHeight="1" s="202"/>
-    <row r="789" ht="15.75" customHeight="1" s="202"/>
-    <row r="790" ht="15.75" customHeight="1" s="202"/>
-    <row r="791" ht="15.75" customHeight="1" s="202"/>
-    <row r="792" ht="15.75" customHeight="1" s="202"/>
-    <row r="793" ht="15.75" customHeight="1" s="202"/>
-    <row r="794" ht="15.75" customHeight="1" s="202"/>
-    <row r="795" ht="15.75" customHeight="1" s="202"/>
-    <row r="796" ht="15.75" customHeight="1" s="202"/>
-    <row r="797" ht="15.75" customHeight="1" s="202"/>
-    <row r="798" ht="15.75" customHeight="1" s="202"/>
-    <row r="799" ht="15.75" customHeight="1" s="202"/>
-    <row r="800" ht="15.75" customHeight="1" s="202"/>
-    <row r="801" ht="15.75" customHeight="1" s="202"/>
-    <row r="802" ht="15.75" customHeight="1" s="202"/>
-    <row r="803" ht="15.75" customHeight="1" s="202"/>
-    <row r="804" ht="15.75" customHeight="1" s="202"/>
-    <row r="805" ht="15.75" customHeight="1" s="202"/>
-    <row r="806" ht="15.75" customHeight="1" s="202"/>
-    <row r="807" ht="15.75" customHeight="1" s="202"/>
-    <row r="808" ht="15.75" customHeight="1" s="202"/>
-    <row r="809" ht="15.75" customHeight="1" s="202"/>
-    <row r="810" ht="15.75" customHeight="1" s="202"/>
-    <row r="811" ht="15.75" customHeight="1" s="202"/>
-    <row r="812" ht="15.75" customHeight="1" s="202"/>
-    <row r="813" ht="15.75" customHeight="1" s="202"/>
-    <row r="814" ht="15.75" customHeight="1" s="202"/>
-    <row r="815" ht="15.75" customHeight="1" s="202"/>
-    <row r="816" ht="15.75" customHeight="1" s="202"/>
-    <row r="817" ht="15.75" customHeight="1" s="202"/>
-    <row r="818" ht="15.75" customHeight="1" s="202"/>
-    <row r="819" ht="15.75" customHeight="1" s="202"/>
-    <row r="820" ht="15.75" customHeight="1" s="202"/>
-    <row r="821" ht="15.75" customHeight="1" s="202"/>
-    <row r="822" ht="15.75" customHeight="1" s="202"/>
-    <row r="823" ht="15.75" customHeight="1" s="202"/>
-    <row r="824" ht="15.75" customHeight="1" s="202"/>
-    <row r="825" ht="15.75" customHeight="1" s="202"/>
-    <row r="826" ht="15.75" customHeight="1" s="202"/>
-    <row r="827" ht="15.75" customHeight="1" s="202"/>
-    <row r="828" ht="15.75" customHeight="1" s="202"/>
-    <row r="829" ht="15.75" customHeight="1" s="202"/>
-    <row r="830" ht="15.75" customHeight="1" s="202"/>
-    <row r="831" ht="15.75" customHeight="1" s="202"/>
-    <row r="832" ht="15.75" customHeight="1" s="202"/>
-    <row r="833" ht="15.75" customHeight="1" s="202"/>
-    <row r="834" ht="15.75" customHeight="1" s="202"/>
-    <row r="835" ht="15.75" customHeight="1" s="202"/>
-    <row r="836" ht="15.75" customHeight="1" s="202"/>
-    <row r="837" ht="15.75" customHeight="1" s="202"/>
-    <row r="838" ht="15.75" customHeight="1" s="202"/>
-    <row r="839" ht="15.75" customHeight="1" s="202"/>
-    <row r="840" ht="15.75" customHeight="1" s="202"/>
-    <row r="841" ht="15.75" customHeight="1" s="202"/>
-    <row r="842" ht="15.75" customHeight="1" s="202"/>
-    <row r="843" ht="15.75" customHeight="1" s="202"/>
-    <row r="844" ht="15.75" customHeight="1" s="202"/>
-    <row r="845" ht="15.75" customHeight="1" s="202"/>
-    <row r="846" ht="15.75" customHeight="1" s="202"/>
-    <row r="847" ht="15.75" customHeight="1" s="202"/>
-    <row r="848" ht="15.75" customHeight="1" s="202"/>
-    <row r="849" ht="15.75" customHeight="1" s="202"/>
-    <row r="850" ht="15.75" customHeight="1" s="202"/>
-    <row r="851" ht="15.75" customHeight="1" s="202"/>
-    <row r="852" ht="15.75" customHeight="1" s="202"/>
-    <row r="853" ht="15.75" customHeight="1" s="202"/>
-    <row r="854" ht="15.75" customHeight="1" s="202"/>
-    <row r="855" ht="15.75" customHeight="1" s="202"/>
-    <row r="856" ht="15.75" customHeight="1" s="202"/>
-    <row r="857" ht="15.75" customHeight="1" s="202"/>
-    <row r="858" ht="15.75" customHeight="1" s="202"/>
-    <row r="859" ht="15.75" customHeight="1" s="202"/>
-    <row r="860" ht="15.75" customHeight="1" s="202"/>
-    <row r="861" ht="15.75" customHeight="1" s="202"/>
-    <row r="862" ht="15.75" customHeight="1" s="202"/>
-    <row r="863" ht="15.75" customHeight="1" s="202"/>
-    <row r="864" ht="15.75" customHeight="1" s="202"/>
-    <row r="865" ht="15.75" customHeight="1" s="202"/>
-    <row r="866" ht="15.75" customHeight="1" s="202"/>
-    <row r="867" ht="15.75" customHeight="1" s="202"/>
-    <row r="868" ht="15.75" customHeight="1" s="202"/>
-    <row r="869" ht="15.75" customHeight="1" s="202"/>
-    <row r="870" ht="15.75" customHeight="1" s="202"/>
-    <row r="871" ht="15.75" customHeight="1" s="202"/>
-    <row r="872" ht="15.75" customHeight="1" s="202"/>
-    <row r="873" ht="15.75" customHeight="1" s="202"/>
-    <row r="874" ht="15.75" customHeight="1" s="202"/>
-    <row r="875" ht="15.75" customHeight="1" s="202"/>
-    <row r="876" ht="15.75" customHeight="1" s="202"/>
-    <row r="877" ht="15.75" customHeight="1" s="202"/>
-    <row r="878" ht="15.75" customHeight="1" s="202"/>
-    <row r="879" ht="15.75" customHeight="1" s="202"/>
-    <row r="880" ht="15.75" customHeight="1" s="202"/>
-    <row r="881" ht="15.75" customHeight="1" s="202"/>
-    <row r="882" ht="15.75" customHeight="1" s="202"/>
-    <row r="883" ht="15.75" customHeight="1" s="202"/>
-    <row r="884" ht="15.75" customHeight="1" s="202"/>
-    <row r="885" ht="15.75" customHeight="1" s="202"/>
-    <row r="886" ht="15.75" customHeight="1" s="202"/>
-    <row r="887" ht="15.75" customHeight="1" s="202"/>
-    <row r="888" ht="15.75" customHeight="1" s="202"/>
-    <row r="889" ht="15.75" customHeight="1" s="202"/>
-    <row r="890" ht="15.75" customHeight="1" s="202"/>
-    <row r="891" ht="15.75" customHeight="1" s="202"/>
-    <row r="892" ht="15.75" customHeight="1" s="202"/>
-    <row r="893" ht="15.75" customHeight="1" s="202"/>
-    <row r="894" ht="15.75" customHeight="1" s="202"/>
-    <row r="895" ht="15.75" customHeight="1" s="202"/>
-    <row r="896" ht="15.75" customHeight="1" s="202"/>
-    <row r="897" ht="15.75" customHeight="1" s="202"/>
-    <row r="898" ht="15.75" customHeight="1" s="202"/>
-    <row r="899" ht="15.75" customHeight="1" s="202"/>
-    <row r="900" ht="15.75" customHeight="1" s="202"/>
-    <row r="901" ht="15.75" customHeight="1" s="202"/>
-    <row r="902" ht="15.75" customHeight="1" s="202"/>
-    <row r="903" ht="15.75" customHeight="1" s="202"/>
-    <row r="904" ht="15.75" customHeight="1" s="202"/>
-    <row r="905" ht="15.75" customHeight="1" s="202"/>
-    <row r="906" ht="15.75" customHeight="1" s="202"/>
-    <row r="907" ht="15.75" customHeight="1" s="202"/>
-    <row r="908" ht="15.75" customHeight="1" s="202"/>
-    <row r="909" ht="15.75" customHeight="1" s="202"/>
-    <row r="910" ht="15.75" customHeight="1" s="202"/>
-    <row r="911" ht="15.75" customHeight="1" s="202"/>
-    <row r="912" ht="15.75" customHeight="1" s="202"/>
-    <row r="913" ht="15.75" customHeight="1" s="202"/>
-    <row r="914" ht="15.75" customHeight="1" s="202"/>
-    <row r="915" ht="15.75" customHeight="1" s="202"/>
-    <row r="916" ht="15.75" customHeight="1" s="202"/>
-    <row r="917" ht="15.75" customHeight="1" s="202"/>
-    <row r="918" ht="15.75" customHeight="1" s="202"/>
-    <row r="919" ht="15.75" customHeight="1" s="202"/>
-    <row r="920" ht="15.75" customHeight="1" s="202"/>
-    <row r="921" ht="15.75" customHeight="1" s="202"/>
-    <row r="922" ht="15.75" customHeight="1" s="202"/>
-    <row r="923" ht="15.75" customHeight="1" s="202"/>
-    <row r="924" ht="15.75" customHeight="1" s="202"/>
-    <row r="925" ht="15.75" customHeight="1" s="202"/>
-    <row r="926" ht="15.75" customHeight="1" s="202"/>
-    <row r="927" ht="15.75" customHeight="1" s="202"/>
-    <row r="928" ht="15.75" customHeight="1" s="202"/>
-    <row r="929" ht="15.75" customHeight="1" s="202"/>
-    <row r="930" ht="15.75" customHeight="1" s="202"/>
-    <row r="931" ht="15.75" customHeight="1" s="202"/>
-    <row r="932" ht="15.75" customHeight="1" s="202"/>
-    <row r="933" ht="15.75" customHeight="1" s="202"/>
-    <row r="934" ht="15.75" customHeight="1" s="202"/>
-    <row r="935" ht="15.75" customHeight="1" s="202"/>
-    <row r="936" ht="15.75" customHeight="1" s="202"/>
-    <row r="937" ht="15.75" customHeight="1" s="202"/>
-    <row r="938" ht="15.75" customHeight="1" s="202"/>
-    <row r="939" ht="15.75" customHeight="1" s="202"/>
-    <row r="940" ht="15.75" customHeight="1" s="202"/>
-    <row r="941" ht="15.75" customHeight="1" s="202"/>
-    <row r="942" ht="15.75" customHeight="1" s="202"/>
-    <row r="943" ht="15.75" customHeight="1" s="202"/>
-    <row r="944" ht="15.75" customHeight="1" s="202"/>
-    <row r="945" ht="15.75" customHeight="1" s="202"/>
-    <row r="946" ht="15.75" customHeight="1" s="202"/>
-    <row r="947" ht="15.75" customHeight="1" s="202"/>
-    <row r="948" ht="15.75" customHeight="1" s="202"/>
-    <row r="949" ht="15.75" customHeight="1" s="202"/>
-    <row r="950" ht="15.75" customHeight="1" s="202"/>
-    <row r="951" ht="15.75" customHeight="1" s="202"/>
-    <row r="952" ht="15.75" customHeight="1" s="202"/>
-    <row r="953" ht="15.75" customHeight="1" s="202"/>
-    <row r="954" ht="15.75" customHeight="1" s="202"/>
-    <row r="955" ht="15.75" customHeight="1" s="202"/>
-    <row r="956" ht="15.75" customHeight="1" s="202"/>
-    <row r="957" ht="15.75" customHeight="1" s="202"/>
-    <row r="958" ht="15.75" customHeight="1" s="202"/>
-    <row r="959" ht="15.75" customHeight="1" s="202"/>
-    <row r="960" ht="15.75" customHeight="1" s="202"/>
-    <row r="961" ht="15.75" customHeight="1" s="202"/>
-    <row r="962" ht="15.75" customHeight="1" s="202"/>
-    <row r="963" ht="15.75" customHeight="1" s="202"/>
-    <row r="964" ht="15.75" customHeight="1" s="202"/>
-    <row r="965" ht="15.75" customHeight="1" s="202"/>
-    <row r="966" ht="15.75" customHeight="1" s="202"/>
-    <row r="967" ht="15.75" customHeight="1" s="202"/>
-    <row r="968" ht="15.75" customHeight="1" s="202"/>
-    <row r="969" ht="15.75" customHeight="1" s="202"/>
-    <row r="970" ht="15.75" customHeight="1" s="202"/>
-    <row r="971" ht="15.75" customHeight="1" s="202"/>
-    <row r="972" ht="15.75" customHeight="1" s="202"/>
-    <row r="973" ht="15.75" customHeight="1" s="202"/>
-    <row r="974" ht="15.75" customHeight="1" s="202"/>
-    <row r="975" ht="15.75" customHeight="1" s="202"/>
-    <row r="976" ht="15.75" customHeight="1" s="202"/>
-    <row r="977" ht="15.75" customHeight="1" s="202"/>
-    <row r="978" ht="15.75" customHeight="1" s="202"/>
-    <row r="979" ht="15.75" customHeight="1" s="202"/>
-    <row r="980" ht="15.75" customHeight="1" s="202"/>
-    <row r="981" ht="15.75" customHeight="1" s="202"/>
-    <row r="982" ht="15.75" customHeight="1" s="202"/>
-    <row r="983" ht="15.75" customHeight="1" s="202"/>
-    <row r="984" ht="15.75" customHeight="1" s="202"/>
-    <row r="985" ht="15.75" customHeight="1" s="202"/>
-    <row r="986" ht="15.75" customHeight="1" s="202"/>
-    <row r="987" ht="15.75" customHeight="1" s="202"/>
-    <row r="988" ht="15.75" customHeight="1" s="202"/>
-    <row r="989" ht="15.75" customHeight="1" s="202"/>
-    <row r="990" ht="15.75" customHeight="1" s="202"/>
-    <row r="991" ht="15.75" customHeight="1" s="202"/>
-    <row r="992" ht="15.75" customHeight="1" s="202"/>
-    <row r="993" ht="15.75" customHeight="1" s="202"/>
-    <row r="994" ht="15.75" customHeight="1" s="202"/>
-    <row r="995" ht="15.75" customHeight="1" s="202"/>
-    <row r="996" ht="15.75" customHeight="1" s="202"/>
-    <row r="997" ht="15.75" customHeight="1" s="202"/>
-    <row r="998" ht="15.75" customHeight="1" s="202"/>
-    <row r="999" ht="15.75" customHeight="1" s="202"/>
-    <row r="1000" ht="15.75" customHeight="1" s="202"/>
+      <c r="D65" s="211" t="n"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1" s="191"/>
+    <row r="67" ht="15.75" customHeight="1" s="191"/>
+    <row r="68" ht="15.75" customHeight="1" s="191"/>
+    <row r="69" ht="15.75" customHeight="1" s="191"/>
+    <row r="70" ht="15.75" customHeight="1" s="191"/>
+    <row r="71" ht="15.75" customHeight="1" s="191"/>
+    <row r="72" ht="15.75" customHeight="1" s="191"/>
+    <row r="73" ht="15.75" customHeight="1" s="191"/>
+    <row r="74" ht="15.75" customHeight="1" s="191"/>
+    <row r="75" ht="15.75" customHeight="1" s="191"/>
+    <row r="76" ht="15.75" customHeight="1" s="191"/>
+    <row r="77" ht="15.75" customHeight="1" s="191"/>
+    <row r="78" ht="15.75" customHeight="1" s="191"/>
+    <row r="79" ht="15.75" customHeight="1" s="191"/>
+    <row r="80" ht="15.75" customHeight="1" s="191"/>
+    <row r="81" ht="15.75" customHeight="1" s="191"/>
+    <row r="82" ht="15.75" customHeight="1" s="191"/>
+    <row r="83" ht="15.75" customHeight="1" s="191"/>
+    <row r="84" ht="15.75" customHeight="1" s="191"/>
+    <row r="85" ht="15.75" customHeight="1" s="191"/>
+    <row r="86" ht="15.75" customHeight="1" s="191"/>
+    <row r="87" ht="15.75" customHeight="1" s="191"/>
+    <row r="88" ht="15.75" customHeight="1" s="191"/>
+    <row r="89" ht="15.75" customHeight="1" s="191"/>
+    <row r="90" ht="15.75" customHeight="1" s="191"/>
+    <row r="91" ht="15.75" customHeight="1" s="191"/>
+    <row r="92" ht="15.75" customHeight="1" s="191"/>
+    <row r="93" ht="15.75" customHeight="1" s="191"/>
+    <row r="94" ht="15.75" customHeight="1" s="191"/>
+    <row r="95" ht="15.75" customHeight="1" s="191"/>
+    <row r="96" ht="15.75" customHeight="1" s="191"/>
+    <row r="97" ht="15.75" customHeight="1" s="191"/>
+    <row r="98" ht="15.75" customHeight="1" s="191"/>
+    <row r="99" ht="15.75" customHeight="1" s="191"/>
+    <row r="100" ht="15.75" customHeight="1" s="191"/>
+    <row r="101" ht="15.75" customHeight="1" s="191"/>
+    <row r="102" ht="15.75" customHeight="1" s="191"/>
+    <row r="103" ht="15.75" customHeight="1" s="191"/>
+    <row r="104" ht="15.75" customHeight="1" s="191"/>
+    <row r="105" ht="15.75" customHeight="1" s="191"/>
+    <row r="106" ht="15.75" customHeight="1" s="191"/>
+    <row r="107" ht="15.75" customHeight="1" s="191"/>
+    <row r="108" ht="15.75" customHeight="1" s="191"/>
+    <row r="109" ht="15.75" customHeight="1" s="191"/>
+    <row r="110" ht="15.75" customHeight="1" s="191"/>
+    <row r="111" ht="15.75" customHeight="1" s="191"/>
+    <row r="112" ht="15.75" customHeight="1" s="191"/>
+    <row r="113" ht="15.75" customHeight="1" s="191"/>
+    <row r="114" ht="15.75" customHeight="1" s="191"/>
+    <row r="115" ht="15.75" customHeight="1" s="191"/>
+    <row r="116" ht="15.75" customHeight="1" s="191"/>
+    <row r="117" ht="15.75" customHeight="1" s="191"/>
+    <row r="118" ht="15.75" customHeight="1" s="191"/>
+    <row r="119" ht="15.75" customHeight="1" s="191"/>
+    <row r="120" ht="15.75" customHeight="1" s="191"/>
+    <row r="121" ht="15.75" customHeight="1" s="191"/>
+    <row r="122" ht="15.75" customHeight="1" s="191"/>
+    <row r="123" ht="15.75" customHeight="1" s="191"/>
+    <row r="124" ht="15.75" customHeight="1" s="191"/>
+    <row r="125" ht="15.75" customHeight="1" s="191"/>
+    <row r="126" ht="15.75" customHeight="1" s="191"/>
+    <row r="127" ht="15.75" customHeight="1" s="191"/>
+    <row r="128" ht="15.75" customHeight="1" s="191"/>
+    <row r="129" ht="15.75" customHeight="1" s="191"/>
+    <row r="130" ht="15.75" customHeight="1" s="191"/>
+    <row r="131" ht="15.75" customHeight="1" s="191"/>
+    <row r="132" ht="15.75" customHeight="1" s="191"/>
+    <row r="133" ht="15.75" customHeight="1" s="191"/>
+    <row r="134" ht="15.75" customHeight="1" s="191"/>
+    <row r="135" ht="15.75" customHeight="1" s="191"/>
+    <row r="136" ht="15.75" customHeight="1" s="191"/>
+    <row r="137" ht="15.75" customHeight="1" s="191"/>
+    <row r="138" ht="15.75" customHeight="1" s="191"/>
+    <row r="139" ht="15.75" customHeight="1" s="191"/>
+    <row r="140" ht="15.75" customHeight="1" s="191"/>
+    <row r="141" ht="15.75" customHeight="1" s="191"/>
+    <row r="142" ht="15.75" customHeight="1" s="191"/>
+    <row r="143" ht="15.75" customHeight="1" s="191"/>
+    <row r="144" ht="15.75" customHeight="1" s="191"/>
+    <row r="145" ht="15.75" customHeight="1" s="191"/>
+    <row r="146" ht="15.75" customHeight="1" s="191"/>
+    <row r="147" ht="15.75" customHeight="1" s="191"/>
+    <row r="148" ht="15.75" customHeight="1" s="191"/>
+    <row r="149" ht="15.75" customHeight="1" s="191"/>
+    <row r="150" ht="15.75" customHeight="1" s="191"/>
+    <row r="151" ht="15.75" customHeight="1" s="191"/>
+    <row r="152" ht="15.75" customHeight="1" s="191"/>
+    <row r="153" ht="15.75" customHeight="1" s="191"/>
+    <row r="154" ht="15.75" customHeight="1" s="191"/>
+    <row r="155" ht="15.75" customHeight="1" s="191"/>
+    <row r="156" ht="15.75" customHeight="1" s="191"/>
+    <row r="157" ht="15.75" customHeight="1" s="191"/>
+    <row r="158" ht="15.75" customHeight="1" s="191"/>
+    <row r="159" ht="15.75" customHeight="1" s="191"/>
+    <row r="160" ht="15.75" customHeight="1" s="191"/>
+    <row r="161" ht="15.75" customHeight="1" s="191"/>
+    <row r="162" ht="15.75" customHeight="1" s="191"/>
+    <row r="163" ht="15.75" customHeight="1" s="191"/>
+    <row r="164" ht="15.75" customHeight="1" s="191"/>
+    <row r="165" ht="15.75" customHeight="1" s="191"/>
+    <row r="166" ht="15.75" customHeight="1" s="191"/>
+    <row r="167" ht="15.75" customHeight="1" s="191"/>
+    <row r="168" ht="15.75" customHeight="1" s="191"/>
+    <row r="169" ht="15.75" customHeight="1" s="191"/>
+    <row r="170" ht="15.75" customHeight="1" s="191"/>
+    <row r="171" ht="15.75" customHeight="1" s="191"/>
+    <row r="172" ht="15.75" customHeight="1" s="191"/>
+    <row r="173" ht="15.75" customHeight="1" s="191"/>
+    <row r="174" ht="15.75" customHeight="1" s="191"/>
+    <row r="175" ht="15.75" customHeight="1" s="191"/>
+    <row r="176" ht="15.75" customHeight="1" s="191"/>
+    <row r="177" ht="15.75" customHeight="1" s="191"/>
+    <row r="178" ht="15.75" customHeight="1" s="191"/>
+    <row r="179" ht="15.75" customHeight="1" s="191"/>
+    <row r="180" ht="15.75" customHeight="1" s="191"/>
+    <row r="181" ht="15.75" customHeight="1" s="191"/>
+    <row r="182" ht="15.75" customHeight="1" s="191"/>
+    <row r="183" ht="15.75" customHeight="1" s="191"/>
+    <row r="184" ht="15.75" customHeight="1" s="191"/>
+    <row r="185" ht="15.75" customHeight="1" s="191"/>
+    <row r="186" ht="15.75" customHeight="1" s="191"/>
+    <row r="187" ht="15.75" customHeight="1" s="191"/>
+    <row r="188" ht="15.75" customHeight="1" s="191"/>
+    <row r="189" ht="15.75" customHeight="1" s="191"/>
+    <row r="190" ht="15.75" customHeight="1" s="191"/>
+    <row r="191" ht="15.75" customHeight="1" s="191"/>
+    <row r="192" ht="15.75" customHeight="1" s="191"/>
+    <row r="193" ht="15.75" customHeight="1" s="191"/>
+    <row r="194" ht="15.75" customHeight="1" s="191"/>
+    <row r="195" ht="15.75" customHeight="1" s="191"/>
+    <row r="196" ht="15.75" customHeight="1" s="191"/>
+    <row r="197" ht="15.75" customHeight="1" s="191"/>
+    <row r="198" ht="15.75" customHeight="1" s="191"/>
+    <row r="199" ht="15.75" customHeight="1" s="191"/>
+    <row r="200" ht="15.75" customHeight="1" s="191"/>
+    <row r="201" ht="15.75" customHeight="1" s="191"/>
+    <row r="202" ht="15.75" customHeight="1" s="191"/>
+    <row r="203" ht="15.75" customHeight="1" s="191"/>
+    <row r="204" ht="15.75" customHeight="1" s="191"/>
+    <row r="205" ht="15.75" customHeight="1" s="191"/>
+    <row r="206" ht="15.75" customHeight="1" s="191"/>
+    <row r="207" ht="15.75" customHeight="1" s="191"/>
+    <row r="208" ht="15.75" customHeight="1" s="191"/>
+    <row r="209" ht="15.75" customHeight="1" s="191"/>
+    <row r="210" ht="15.75" customHeight="1" s="191"/>
+    <row r="211" ht="15.75" customHeight="1" s="191"/>
+    <row r="212" ht="15.75" customHeight="1" s="191"/>
+    <row r="213" ht="15.75" customHeight="1" s="191"/>
+    <row r="214" ht="15.75" customHeight="1" s="191"/>
+    <row r="215" ht="15.75" customHeight="1" s="191"/>
+    <row r="216" ht="15.75" customHeight="1" s="191"/>
+    <row r="217" ht="15.75" customHeight="1" s="191"/>
+    <row r="218" ht="15.75" customHeight="1" s="191"/>
+    <row r="219" ht="15.75" customHeight="1" s="191"/>
+    <row r="220" ht="15.75" customHeight="1" s="191"/>
+    <row r="221" ht="15.75" customHeight="1" s="191"/>
+    <row r="222" ht="15.75" customHeight="1" s="191"/>
+    <row r="223" ht="15.75" customHeight="1" s="191"/>
+    <row r="224" ht="15.75" customHeight="1" s="191"/>
+    <row r="225" ht="15.75" customHeight="1" s="191"/>
+    <row r="226" ht="15.75" customHeight="1" s="191"/>
+    <row r="227" ht="15.75" customHeight="1" s="191"/>
+    <row r="228" ht="15.75" customHeight="1" s="191"/>
+    <row r="229" ht="15.75" customHeight="1" s="191"/>
+    <row r="230" ht="15.75" customHeight="1" s="191"/>
+    <row r="231" ht="15.75" customHeight="1" s="191"/>
+    <row r="232" ht="15.75" customHeight="1" s="191"/>
+    <row r="233" ht="15.75" customHeight="1" s="191"/>
+    <row r="234" ht="15.75" customHeight="1" s="191"/>
+    <row r="235" ht="15.75" customHeight="1" s="191"/>
+    <row r="236" ht="15.75" customHeight="1" s="191"/>
+    <row r="237" ht="15.75" customHeight="1" s="191"/>
+    <row r="238" ht="15.75" customHeight="1" s="191"/>
+    <row r="239" ht="15.75" customHeight="1" s="191"/>
+    <row r="240" ht="15.75" customHeight="1" s="191"/>
+    <row r="241" ht="15.75" customHeight="1" s="191"/>
+    <row r="242" ht="15.75" customHeight="1" s="191"/>
+    <row r="243" ht="15.75" customHeight="1" s="191"/>
+    <row r="244" ht="15.75" customHeight="1" s="191"/>
+    <row r="245" ht="15.75" customHeight="1" s="191"/>
+    <row r="246" ht="15.75" customHeight="1" s="191"/>
+    <row r="247" ht="15.75" customHeight="1" s="191"/>
+    <row r="248" ht="15.75" customHeight="1" s="191"/>
+    <row r="249" ht="15.75" customHeight="1" s="191"/>
+    <row r="250" ht="15.75" customHeight="1" s="191"/>
+    <row r="251" ht="15.75" customHeight="1" s="191"/>
+    <row r="252" ht="15.75" customHeight="1" s="191"/>
+    <row r="253" ht="15.75" customHeight="1" s="191"/>
+    <row r="254" ht="15.75" customHeight="1" s="191"/>
+    <row r="255" ht="15.75" customHeight="1" s="191"/>
+    <row r="256" ht="15.75" customHeight="1" s="191"/>
+    <row r="257" ht="15.75" customHeight="1" s="191"/>
+    <row r="258" ht="15.75" customHeight="1" s="191"/>
+    <row r="259" ht="15.75" customHeight="1" s="191"/>
+    <row r="260" ht="15.75" customHeight="1" s="191"/>
+    <row r="261" ht="15.75" customHeight="1" s="191"/>
+    <row r="262" ht="15.75" customHeight="1" s="191"/>
+    <row r="263" ht="15.75" customHeight="1" s="191"/>
+    <row r="264" ht="15.75" customHeight="1" s="191"/>
+    <row r="265" ht="15.75" customHeight="1" s="191"/>
+    <row r="266" ht="15.75" customHeight="1" s="191"/>
+    <row r="267" ht="15.75" customHeight="1" s="191"/>
+    <row r="268" ht="15.75" customHeight="1" s="191"/>
+    <row r="269" ht="15.75" customHeight="1" s="191"/>
+    <row r="270" ht="15.75" customHeight="1" s="191"/>
+    <row r="271" ht="15.75" customHeight="1" s="191"/>
+    <row r="272" ht="15.75" customHeight="1" s="191"/>
+    <row r="273" ht="15.75" customHeight="1" s="191"/>
+    <row r="274" ht="15.75" customHeight="1" s="191"/>
+    <row r="275" ht="15.75" customHeight="1" s="191"/>
+    <row r="276" ht="15.75" customHeight="1" s="191"/>
+    <row r="277" ht="15.75" customHeight="1" s="191"/>
+    <row r="278" ht="15.75" customHeight="1" s="191"/>
+    <row r="279" ht="15.75" customHeight="1" s="191"/>
+    <row r="280" ht="15.75" customHeight="1" s="191"/>
+    <row r="281" ht="15.75" customHeight="1" s="191"/>
+    <row r="282" ht="15.75" customHeight="1" s="191"/>
+    <row r="283" ht="15.75" customHeight="1" s="191"/>
+    <row r="284" ht="15.75" customHeight="1" s="191"/>
+    <row r="285" ht="15.75" customHeight="1" s="191"/>
+    <row r="286" ht="15.75" customHeight="1" s="191"/>
+    <row r="287" ht="15.75" customHeight="1" s="191"/>
+    <row r="288" ht="15.75" customHeight="1" s="191"/>
+    <row r="289" ht="15.75" customHeight="1" s="191"/>
+    <row r="290" ht="15.75" customHeight="1" s="191"/>
+    <row r="291" ht="15.75" customHeight="1" s="191"/>
+    <row r="292" ht="15.75" customHeight="1" s="191"/>
+    <row r="293" ht="15.75" customHeight="1" s="191"/>
+    <row r="294" ht="15.75" customHeight="1" s="191"/>
+    <row r="295" ht="15.75" customHeight="1" s="191"/>
+    <row r="296" ht="15.75" customHeight="1" s="191"/>
+    <row r="297" ht="15.75" customHeight="1" s="191"/>
+    <row r="298" ht="15.75" customHeight="1" s="191"/>
+    <row r="299" ht="15.75" customHeight="1" s="191"/>
+    <row r="300" ht="15.75" customHeight="1" s="191"/>
+    <row r="301" ht="15.75" customHeight="1" s="191"/>
+    <row r="302" ht="15.75" customHeight="1" s="191"/>
+    <row r="303" ht="15.75" customHeight="1" s="191"/>
+    <row r="304" ht="15.75" customHeight="1" s="191"/>
+    <row r="305" ht="15.75" customHeight="1" s="191"/>
+    <row r="306" ht="15.75" customHeight="1" s="191"/>
+    <row r="307" ht="15.75" customHeight="1" s="191"/>
+    <row r="308" ht="15.75" customHeight="1" s="191"/>
+    <row r="309" ht="15.75" customHeight="1" s="191"/>
+    <row r="310" ht="15.75" customHeight="1" s="191"/>
+    <row r="311" ht="15.75" customHeight="1" s="191"/>
+    <row r="312" ht="15.75" customHeight="1" s="191"/>
+    <row r="313" ht="15.75" customHeight="1" s="191"/>
+    <row r="314" ht="15.75" customHeight="1" s="191"/>
+    <row r="315" ht="15.75" customHeight="1" s="191"/>
+    <row r="316" ht="15.75" customHeight="1" s="191"/>
+    <row r="317" ht="15.75" customHeight="1" s="191"/>
+    <row r="318" ht="15.75" customHeight="1" s="191"/>
+    <row r="319" ht="15.75" customHeight="1" s="191"/>
+    <row r="320" ht="15.75" customHeight="1" s="191"/>
+    <row r="321" ht="15.75" customHeight="1" s="191"/>
+    <row r="322" ht="15.75" customHeight="1" s="191"/>
+    <row r="323" ht="15.75" customHeight="1" s="191"/>
+    <row r="324" ht="15.75" customHeight="1" s="191"/>
+    <row r="325" ht="15.75" customHeight="1" s="191"/>
+    <row r="326" ht="15.75" customHeight="1" s="191"/>
+    <row r="327" ht="15.75" customHeight="1" s="191"/>
+    <row r="328" ht="15.75" customHeight="1" s="191"/>
+    <row r="329" ht="15.75" customHeight="1" s="191"/>
+    <row r="330" ht="15.75" customHeight="1" s="191"/>
+    <row r="331" ht="15.75" customHeight="1" s="191"/>
+    <row r="332" ht="15.75" customHeight="1" s="191"/>
+    <row r="333" ht="15.75" customHeight="1" s="191"/>
+    <row r="334" ht="15.75" customHeight="1" s="191"/>
+    <row r="335" ht="15.75" customHeight="1" s="191"/>
+    <row r="336" ht="15.75" customHeight="1" s="191"/>
+    <row r="337" ht="15.75" customHeight="1" s="191"/>
+    <row r="338" ht="15.75" customHeight="1" s="191"/>
+    <row r="339" ht="15.75" customHeight="1" s="191"/>
+    <row r="340" ht="15.75" customHeight="1" s="191"/>
+    <row r="341" ht="15.75" customHeight="1" s="191"/>
+    <row r="342" ht="15.75" customHeight="1" s="191"/>
+    <row r="343" ht="15.75" customHeight="1" s="191"/>
+    <row r="344" ht="15.75" customHeight="1" s="191"/>
+    <row r="345" ht="15.75" customHeight="1" s="191"/>
+    <row r="346" ht="15.75" customHeight="1" s="191"/>
+    <row r="347" ht="15.75" customHeight="1" s="191"/>
+    <row r="348" ht="15.75" customHeight="1" s="191"/>
+    <row r="349" ht="15.75" customHeight="1" s="191"/>
+    <row r="350" ht="15.75" customHeight="1" s="191"/>
+    <row r="351" ht="15.75" customHeight="1" s="191"/>
+    <row r="352" ht="15.75" customHeight="1" s="191"/>
+    <row r="353" ht="15.75" customHeight="1" s="191"/>
+    <row r="354" ht="15.75" customHeight="1" s="191"/>
+    <row r="355" ht="15.75" customHeight="1" s="191"/>
+    <row r="356" ht="15.75" customHeight="1" s="191"/>
+    <row r="357" ht="15.75" customHeight="1" s="191"/>
+    <row r="358" ht="15.75" customHeight="1" s="191"/>
+    <row r="359" ht="15.75" customHeight="1" s="191"/>
+    <row r="360" ht="15.75" customHeight="1" s="191"/>
+    <row r="361" ht="15.75" customHeight="1" s="191"/>
+    <row r="362" ht="15.75" customHeight="1" s="191"/>
+    <row r="363" ht="15.75" customHeight="1" s="191"/>
+    <row r="364" ht="15.75" customHeight="1" s="191"/>
+    <row r="365" ht="15.75" customHeight="1" s="191"/>
+    <row r="366" ht="15.75" customHeight="1" s="191"/>
+    <row r="367" ht="15.75" customHeight="1" s="191"/>
+    <row r="368" ht="15.75" customHeight="1" s="191"/>
+    <row r="369" ht="15.75" customHeight="1" s="191"/>
+    <row r="370" ht="15.75" customHeight="1" s="191"/>
+    <row r="371" ht="15.75" customHeight="1" s="191"/>
+    <row r="372" ht="15.75" customHeight="1" s="191"/>
+    <row r="373" ht="15.75" customHeight="1" s="191"/>
+    <row r="374" ht="15.75" customHeight="1" s="191"/>
+    <row r="375" ht="15.75" customHeight="1" s="191"/>
+    <row r="376" ht="15.75" customHeight="1" s="191"/>
+    <row r="377" ht="15.75" customHeight="1" s="191"/>
+    <row r="378" ht="15.75" customHeight="1" s="191"/>
+    <row r="379" ht="15.75" customHeight="1" s="191"/>
+    <row r="380" ht="15.75" customHeight="1" s="191"/>
+    <row r="381" ht="15.75" customHeight="1" s="191"/>
+    <row r="382" ht="15.75" customHeight="1" s="191"/>
+    <row r="383" ht="15.75" customHeight="1" s="191"/>
+    <row r="384" ht="15.75" customHeight="1" s="191"/>
+    <row r="385" ht="15.75" customHeight="1" s="191"/>
+    <row r="386" ht="15.75" customHeight="1" s="191"/>
+    <row r="387" ht="15.75" customHeight="1" s="191"/>
+    <row r="388" ht="15.75" customHeight="1" s="191"/>
+    <row r="389" ht="15.75" customHeight="1" s="191"/>
+    <row r="390" ht="15.75" customHeight="1" s="191"/>
+    <row r="391" ht="15.75" customHeight="1" s="191"/>
+    <row r="392" ht="15.75" customHeight="1" s="191"/>
+    <row r="393" ht="15.75" customHeight="1" s="191"/>
+    <row r="394" ht="15.75" customHeight="1" s="191"/>
+    <row r="395" ht="15.75" customHeight="1" s="191"/>
+    <row r="396" ht="15.75" customHeight="1" s="191"/>
+    <row r="397" ht="15.75" customHeight="1" s="191"/>
+    <row r="398" ht="15.75" customHeight="1" s="191"/>
+    <row r="399" ht="15.75" customHeight="1" s="191"/>
+    <row r="400" ht="15.75" customHeight="1" s="191"/>
+    <row r="401" ht="15.75" customHeight="1" s="191"/>
+    <row r="402" ht="15.75" customHeight="1" s="191"/>
+    <row r="403" ht="15.75" customHeight="1" s="191"/>
+    <row r="404" ht="15.75" customHeight="1" s="191"/>
+    <row r="405" ht="15.75" customHeight="1" s="191"/>
+    <row r="406" ht="15.75" customHeight="1" s="191"/>
+    <row r="407" ht="15.75" customHeight="1" s="191"/>
+    <row r="408" ht="15.75" customHeight="1" s="191"/>
+    <row r="409" ht="15.75" customHeight="1" s="191"/>
+    <row r="410" ht="15.75" customHeight="1" s="191"/>
+    <row r="411" ht="15.75" customHeight="1" s="191"/>
+    <row r="412" ht="15.75" customHeight="1" s="191"/>
+    <row r="413" ht="15.75" customHeight="1" s="191"/>
+    <row r="414" ht="15.75" customHeight="1" s="191"/>
+    <row r="415" ht="15.75" customHeight="1" s="191"/>
+    <row r="416" ht="15.75" customHeight="1" s="191"/>
+    <row r="417" ht="15.75" customHeight="1" s="191"/>
+    <row r="418" ht="15.75" customHeight="1" s="191"/>
+    <row r="419" ht="15.75" customHeight="1" s="191"/>
+    <row r="420" ht="15.75" customHeight="1" s="191"/>
+    <row r="421" ht="15.75" customHeight="1" s="191"/>
+    <row r="422" ht="15.75" customHeight="1" s="191"/>
+    <row r="423" ht="15.75" customHeight="1" s="191"/>
+    <row r="424" ht="15.75" customHeight="1" s="191"/>
+    <row r="425" ht="15.75" customHeight="1" s="191"/>
+    <row r="426" ht="15.75" customHeight="1" s="191"/>
+    <row r="427" ht="15.75" customHeight="1" s="191"/>
+    <row r="428" ht="15.75" customHeight="1" s="191"/>
+    <row r="429" ht="15.75" customHeight="1" s="191"/>
+    <row r="430" ht="15.75" customHeight="1" s="191"/>
+    <row r="431" ht="15.75" customHeight="1" s="191"/>
+    <row r="432" ht="15.75" customHeight="1" s="191"/>
+    <row r="433" ht="15.75" customHeight="1" s="191"/>
+    <row r="434" ht="15.75" customHeight="1" s="191"/>
+    <row r="435" ht="15.75" customHeight="1" s="191"/>
+    <row r="436" ht="15.75" customHeight="1" s="191"/>
+    <row r="437" ht="15.75" customHeight="1" s="191"/>
+    <row r="438" ht="15.75" customHeight="1" s="191"/>
+    <row r="439" ht="15.75" customHeight="1" s="191"/>
+    <row r="440" ht="15.75" customHeight="1" s="191"/>
+    <row r="441" ht="15.75" customHeight="1" s="191"/>
+    <row r="442" ht="15.75" customHeight="1" s="191"/>
+    <row r="443" ht="15.75" customHeight="1" s="191"/>
+    <row r="444" ht="15.75" customHeight="1" s="191"/>
+    <row r="445" ht="15.75" customHeight="1" s="191"/>
+    <row r="446" ht="15.75" customHeight="1" s="191"/>
+    <row r="447" ht="15.75" customHeight="1" s="191"/>
+    <row r="448" ht="15.75" customHeight="1" s="191"/>
+    <row r="449" ht="15.75" customHeight="1" s="191"/>
+    <row r="450" ht="15.75" customHeight="1" s="191"/>
+    <row r="451" ht="15.75" customHeight="1" s="191"/>
+    <row r="452" ht="15.75" customHeight="1" s="191"/>
+    <row r="453" ht="15.75" customHeight="1" s="191"/>
+    <row r="454" ht="15.75" customHeight="1" s="191"/>
+    <row r="455" ht="15.75" customHeight="1" s="191"/>
+    <row r="456" ht="15.75" customHeight="1" s="191"/>
+    <row r="457" ht="15.75" customHeight="1" s="191"/>
+    <row r="458" ht="15.75" customHeight="1" s="191"/>
+    <row r="459" ht="15.75" customHeight="1" s="191"/>
+    <row r="460" ht="15.75" customHeight="1" s="191"/>
+    <row r="461" ht="15.75" customHeight="1" s="191"/>
+    <row r="462" ht="15.75" customHeight="1" s="191"/>
+    <row r="463" ht="15.75" customHeight="1" s="191"/>
+    <row r="464" ht="15.75" customHeight="1" s="191"/>
+    <row r="465" ht="15.75" customHeight="1" s="191"/>
+    <row r="466" ht="15.75" customHeight="1" s="191"/>
+    <row r="467" ht="15.75" customHeight="1" s="191"/>
+    <row r="468" ht="15.75" customHeight="1" s="191"/>
+    <row r="469" ht="15.75" customHeight="1" s="191"/>
+    <row r="470" ht="15.75" customHeight="1" s="191"/>
+    <row r="471" ht="15.75" customHeight="1" s="191"/>
+    <row r="472" ht="15.75" customHeight="1" s="191"/>
+    <row r="473" ht="15.75" customHeight="1" s="191"/>
+    <row r="474" ht="15.75" customHeight="1" s="191"/>
+    <row r="475" ht="15.75" customHeight="1" s="191"/>
+    <row r="476" ht="15.75" customHeight="1" s="191"/>
+    <row r="477" ht="15.75" customHeight="1" s="191"/>
+    <row r="478" ht="15.75" customHeight="1" s="191"/>
+    <row r="479" ht="15.75" customHeight="1" s="191"/>
+    <row r="480" ht="15.75" customHeight="1" s="191"/>
+    <row r="481" ht="15.75" customHeight="1" s="191"/>
+    <row r="482" ht="15.75" customHeight="1" s="191"/>
+    <row r="483" ht="15.75" customHeight="1" s="191"/>
+    <row r="484" ht="15.75" customHeight="1" s="191"/>
+    <row r="485" ht="15.75" customHeight="1" s="191"/>
+    <row r="486" ht="15.75" customHeight="1" s="191"/>
+    <row r="487" ht="15.75" customHeight="1" s="191"/>
+    <row r="488" ht="15.75" customHeight="1" s="191"/>
+    <row r="489" ht="15.75" customHeight="1" s="191"/>
+    <row r="490" ht="15.75" customHeight="1" s="191"/>
+    <row r="491" ht="15.75" customHeight="1" s="191"/>
+    <row r="492" ht="15.75" customHeight="1" s="191"/>
+    <row r="493" ht="15.75" customHeight="1" s="191"/>
+    <row r="494" ht="15.75" customHeight="1" s="191"/>
+    <row r="495" ht="15.75" customHeight="1" s="191"/>
+    <row r="496" ht="15.75" customHeight="1" s="191"/>
+    <row r="497" ht="15.75" customHeight="1" s="191"/>
+    <row r="498" ht="15.75" customHeight="1" s="191"/>
+    <row r="499" ht="15.75" customHeight="1" s="191"/>
+    <row r="500" ht="15.75" customHeight="1" s="191"/>
+    <row r="501" ht="15.75" customHeight="1" s="191"/>
+    <row r="502" ht="15.75" customHeight="1" s="191"/>
+    <row r="503" ht="15.75" customHeight="1" s="191"/>
+    <row r="504" ht="15.75" customHeight="1" s="191"/>
+    <row r="505" ht="15.75" customHeight="1" s="191"/>
+    <row r="506" ht="15.75" customHeight="1" s="191"/>
+    <row r="507" ht="15.75" customHeight="1" s="191"/>
+    <row r="508" ht="15.75" customHeight="1" s="191"/>
+    <row r="509" ht="15.75" customHeight="1" s="191"/>
+    <row r="510" ht="15.75" customHeight="1" s="191"/>
+    <row r="511" ht="15.75" customHeight="1" s="191"/>
+    <row r="512" ht="15.75" customHeight="1" s="191"/>
+    <row r="513" ht="15.75" customHeight="1" s="191"/>
+    <row r="514" ht="15.75" customHeight="1" s="191"/>
+    <row r="515" ht="15.75" customHeight="1" s="191"/>
+    <row r="516" ht="15.75" customHeight="1" s="191"/>
+    <row r="517" ht="15.75" customHeight="1" s="191"/>
+    <row r="518" ht="15.75" customHeight="1" s="191"/>
+    <row r="519" ht="15.75" customHeight="1" s="191"/>
+    <row r="520" ht="15.75" customHeight="1" s="191"/>
+    <row r="521" ht="15.75" customHeight="1" s="191"/>
+    <row r="522" ht="15.75" customHeight="1" s="191"/>
+    <row r="523" ht="15.75" customHeight="1" s="191"/>
+    <row r="524" ht="15.75" customHeight="1" s="191"/>
+    <row r="525" ht="15.75" customHeight="1" s="191"/>
+    <row r="526" ht="15.75" customHeight="1" s="191"/>
+    <row r="527" ht="15.75" customHeight="1" s="191"/>
+    <row r="528" ht="15.75" customHeight="1" s="191"/>
+    <row r="529" ht="15.75" customHeight="1" s="191"/>
+    <row r="530" ht="15.75" customHeight="1" s="191"/>
+    <row r="531" ht="15.75" customHeight="1" s="191"/>
+    <row r="532" ht="15.75" customHeight="1" s="191"/>
+    <row r="533" ht="15.75" customHeight="1" s="191"/>
+    <row r="534" ht="15.75" customHeight="1" s="191"/>
+    <row r="535" ht="15.75" customHeight="1" s="191"/>
+    <row r="536" ht="15.75" customHeight="1" s="191"/>
+    <row r="537" ht="15.75" customHeight="1" s="191"/>
+    <row r="538" ht="15.75" customHeight="1" s="191"/>
+    <row r="539" ht="15.75" customHeight="1" s="191"/>
+    <row r="540" ht="15.75" customHeight="1" s="191"/>
+    <row r="541" ht="15.75" customHeight="1" s="191"/>
+    <row r="542" ht="15.75" customHeight="1" s="191"/>
+    <row r="543" ht="15.75" customHeight="1" s="191"/>
+    <row r="544" ht="15.75" customHeight="1" s="191"/>
+    <row r="545" ht="15.75" customHeight="1" s="191"/>
+    <row r="546" ht="15.75" customHeight="1" s="191"/>
+    <row r="547" ht="15.75" customHeight="1" s="191"/>
+    <row r="548" ht="15.75" customHeight="1" s="191"/>
+    <row r="549" ht="15.75" customHeight="1" s="191"/>
+    <row r="550" ht="15.75" customHeight="1" s="191"/>
+    <row r="551" ht="15.75" customHeight="1" s="191"/>
+    <row r="552" ht="15.75" customHeight="1" s="191"/>
+    <row r="553" ht="15.75" customHeight="1" s="191"/>
+    <row r="554" ht="15.75" customHeight="1" s="191"/>
+    <row r="555" ht="15.75" customHeight="1" s="191"/>
+    <row r="556" ht="15.75" customHeight="1" s="191"/>
+    <row r="557" ht="15.75" customHeight="1" s="191"/>
+    <row r="558" ht="15.75" customHeight="1" s="191"/>
+    <row r="559" ht="15.75" customHeight="1" s="191"/>
+    <row r="560" ht="15.75" customHeight="1" s="191"/>
+    <row r="561" ht="15.75" customHeight="1" s="191"/>
+    <row r="562" ht="15.75" customHeight="1" s="191"/>
+    <row r="563" ht="15.75" customHeight="1" s="191"/>
+    <row r="564" ht="15.75" customHeight="1" s="191"/>
+    <row r="565" ht="15.75" customHeight="1" s="191"/>
+    <row r="566" ht="15.75" customHeight="1" s="191"/>
+    <row r="567" ht="15.75" customHeight="1" s="191"/>
+    <row r="568" ht="15.75" customHeight="1" s="191"/>
+    <row r="569" ht="15.75" customHeight="1" s="191"/>
+    <row r="570" ht="15.75" customHeight="1" s="191"/>
+    <row r="571" ht="15.75" customHeight="1" s="191"/>
+    <row r="572" ht="15.75" customHeight="1" s="191"/>
+    <row r="573" ht="15.75" customHeight="1" s="191"/>
+    <row r="574" ht="15.75" customHeight="1" s="191"/>
+    <row r="575" ht="15.75" customHeight="1" s="191"/>
+    <row r="576" ht="15.75" customHeight="1" s="191"/>
+    <row r="577" ht="15.75" customHeight="1" s="191"/>
+    <row r="578" ht="15.75" customHeight="1" s="191"/>
+    <row r="579" ht="15.75" customHeight="1" s="191"/>
+    <row r="580" ht="15.75" customHeight="1" s="191"/>
+    <row r="581" ht="15.75" customHeight="1" s="191"/>
+    <row r="582" ht="15.75" customHeight="1" s="191"/>
+    <row r="583" ht="15.75" customHeight="1" s="191"/>
+    <row r="584" ht="15.75" customHeight="1" s="191"/>
+    <row r="585" ht="15.75" customHeight="1" s="191"/>
+    <row r="586" ht="15.75" customHeight="1" s="191"/>
+    <row r="587" ht="15.75" customHeight="1" s="191"/>
+    <row r="588" ht="15.75" customHeight="1" s="191"/>
+    <row r="589" ht="15.75" customHeight="1" s="191"/>
+    <row r="590" ht="15.75" customHeight="1" s="191"/>
+    <row r="591" ht="15.75" customHeight="1" s="191"/>
+    <row r="592" ht="15.75" customHeight="1" s="191"/>
+    <row r="593" ht="15.75" customHeight="1" s="191"/>
+    <row r="594" ht="15.75" customHeight="1" s="191"/>
+    <row r="595" ht="15.75" customHeight="1" s="191"/>
+    <row r="596" ht="15.75" customHeight="1" s="191"/>
+    <row r="597" ht="15.75" customHeight="1" s="191"/>
+    <row r="598" ht="15.75" customHeight="1" s="191"/>
+    <row r="599" ht="15.75" customHeight="1" s="191"/>
+    <row r="600" ht="15.75" customHeight="1" s="191"/>
+    <row r="601" ht="15.75" customHeight="1" s="191"/>
+    <row r="602" ht="15.75" customHeight="1" s="191"/>
+    <row r="603" ht="15.75" customHeight="1" s="191"/>
+    <row r="604" ht="15.75" customHeight="1" s="191"/>
+    <row r="605" ht="15.75" customHeight="1" s="191"/>
+    <row r="606" ht="15.75" customHeight="1" s="191"/>
+    <row r="607" ht="15.75" customHeight="1" s="191"/>
+    <row r="608" ht="15.75" customHeight="1" s="191"/>
+    <row r="609" ht="15.75" customHeight="1" s="191"/>
+    <row r="610" ht="15.75" customHeight="1" s="191"/>
+    <row r="611" ht="15.75" customHeight="1" s="191"/>
+    <row r="612" ht="15.75" customHeight="1" s="191"/>
+    <row r="613" ht="15.75" customHeight="1" s="191"/>
+    <row r="614" ht="15.75" customHeight="1" s="191"/>
+    <row r="615" ht="15.75" customHeight="1" s="191"/>
+    <row r="616" ht="15.75" customHeight="1" s="191"/>
+    <row r="617" ht="15.75" customHeight="1" s="191"/>
+    <row r="618" ht="15.75" customHeight="1" s="191"/>
+    <row r="619" ht="15.75" customHeight="1" s="191"/>
+    <row r="620" ht="15.75" customHeight="1" s="191"/>
+    <row r="621" ht="15.75" customHeight="1" s="191"/>
+    <row r="622" ht="15.75" customHeight="1" s="191"/>
+    <row r="623" ht="15.75" customHeight="1" s="191"/>
+    <row r="624" ht="15.75" customHeight="1" s="191"/>
+    <row r="625" ht="15.75" customHeight="1" s="191"/>
+    <row r="626" ht="15.75" customHeight="1" s="191"/>
+    <row r="627" ht="15.75" customHeight="1" s="191"/>
+    <row r="628" ht="15.75" customHeight="1" s="191"/>
+    <row r="629" ht="15.75" customHeight="1" s="191"/>
+    <row r="630" ht="15.75" customHeight="1" s="191"/>
+    <row r="631" ht="15.75" customHeight="1" s="191"/>
+    <row r="632" ht="15.75" customHeight="1" s="191"/>
+    <row r="633" ht="15.75" customHeight="1" s="191"/>
+    <row r="634" ht="15.75" customHeight="1" s="191"/>
+    <row r="635" ht="15.75" customHeight="1" s="191"/>
+    <row r="636" ht="15.75" customHeight="1" s="191"/>
+    <row r="637" ht="15.75" customHeight="1" s="191"/>
+    <row r="638" ht="15.75" customHeight="1" s="191"/>
+    <row r="639" ht="15.75" customHeight="1" s="191"/>
+    <row r="640" ht="15.75" customHeight="1" s="191"/>
+    <row r="641" ht="15.75" customHeight="1" s="191"/>
+    <row r="642" ht="15.75" customHeight="1" s="191"/>
+    <row r="643" ht="15.75" customHeight="1" s="191"/>
+    <row r="644" ht="15.75" customHeight="1" s="191"/>
+    <row r="645" ht="15.75" customHeight="1" s="191"/>
+    <row r="646" ht="15.75" customHeight="1" s="191"/>
+    <row r="647" ht="15.75" customHeight="1" s="191"/>
+    <row r="648" ht="15.75" customHeight="1" s="191"/>
+    <row r="649" ht="15.75" customHeight="1" s="191"/>
+    <row r="650" ht="15.75" customHeight="1" s="191"/>
+    <row r="651" ht="15.75" customHeight="1" s="191"/>
+    <row r="652" ht="15.75" customHeight="1" s="191"/>
+    <row r="653" ht="15.75" customHeight="1" s="191"/>
+    <row r="654" ht="15.75" customHeight="1" s="191"/>
+    <row r="655" ht="15.75" customHeight="1" s="191"/>
+    <row r="656" ht="15.75" customHeight="1" s="191"/>
+    <row r="657" ht="15.75" customHeight="1" s="191"/>
+    <row r="658" ht="15.75" customHeight="1" s="191"/>
+    <row r="659" ht="15.75" customHeight="1" s="191"/>
+    <row r="660" ht="15.75" customHeight="1" s="191"/>
+    <row r="661" ht="15.75" customHeight="1" s="191"/>
+    <row r="662" ht="15.75" customHeight="1" s="191"/>
+    <row r="663" ht="15.75" customHeight="1" s="191"/>
+    <row r="664" ht="15.75" customHeight="1" s="191"/>
+    <row r="665" ht="15.75" customHeight="1" s="191"/>
+    <row r="666" ht="15.75" customHeight="1" s="191"/>
+    <row r="667" ht="15.75" customHeight="1" s="191"/>
+    <row r="668" ht="15.75" customHeight="1" s="191"/>
+    <row r="669" ht="15.75" customHeight="1" s="191"/>
+    <row r="670" ht="15.75" customHeight="1" s="191"/>
+    <row r="671" ht="15.75" customHeight="1" s="191"/>
+    <row r="672" ht="15.75" customHeight="1" s="191"/>
+    <row r="673" ht="15.75" customHeight="1" s="191"/>
+    <row r="674" ht="15.75" customHeight="1" s="191"/>
+    <row r="675" ht="15.75" customHeight="1" s="191"/>
+    <row r="676" ht="15.75" customHeight="1" s="191"/>
+    <row r="677" ht="15.75" customHeight="1" s="191"/>
+    <row r="678" ht="15.75" customHeight="1" s="191"/>
+    <row r="679" ht="15.75" customHeight="1" s="191"/>
+    <row r="680" ht="15.75" customHeight="1" s="191"/>
+    <row r="681" ht="15.75" customHeight="1" s="191"/>
+    <row r="682" ht="15.75" customHeight="1" s="191"/>
+    <row r="683" ht="15.75" customHeight="1" s="191"/>
+    <row r="684" ht="15.75" customHeight="1" s="191"/>
+    <row r="685" ht="15.75" customHeight="1" s="191"/>
+    <row r="686" ht="15.75" customHeight="1" s="191"/>
+    <row r="687" ht="15.75" customHeight="1" s="191"/>
+    <row r="688" ht="15.75" customHeight="1" s="191"/>
+    <row r="689" ht="15.75" customHeight="1" s="191"/>
+    <row r="690" ht="15.75" customHeight="1" s="191"/>
+    <row r="691" ht="15.75" customHeight="1" s="191"/>
+    <row r="692" ht="15.75" customHeight="1" s="191"/>
+    <row r="693" ht="15.75" customHeight="1" s="191"/>
+    <row r="694" ht="15.75" customHeight="1" s="191"/>
+    <row r="695" ht="15.75" customHeight="1" s="191"/>
+    <row r="696" ht="15.75" customHeight="1" s="191"/>
+    <row r="697" ht="15.75" customHeight="1" s="191"/>
+    <row r="698" ht="15.75" customHeight="1" s="191"/>
+    <row r="699" ht="15.75" customHeight="1" s="191"/>
+    <row r="700" ht="15.75" customHeight="1" s="191"/>
+    <row r="701" ht="15.75" customHeight="1" s="191"/>
+    <row r="702" ht="15.75" customHeight="1" s="191"/>
+    <row r="703" ht="15.75" customHeight="1" s="191"/>
+    <row r="704" ht="15.75" customHeight="1" s="191"/>
+    <row r="705" ht="15.75" customHeight="1" s="191"/>
+    <row r="706" ht="15.75" customHeight="1" s="191"/>
+    <row r="707" ht="15.75" customHeight="1" s="191"/>
+    <row r="708" ht="15.75" customHeight="1" s="191"/>
+    <row r="709" ht="15.75" customHeight="1" s="191"/>
+    <row r="710" ht="15.75" customHeight="1" s="191"/>
+    <row r="711" ht="15.75" customHeight="1" s="191"/>
+    <row r="712" ht="15.75" customHeight="1" s="191"/>
+    <row r="713" ht="15.75" customHeight="1" s="191"/>
+    <row r="714" ht="15.75" customHeight="1" s="191"/>
+    <row r="715" ht="15.75" customHeight="1" s="191"/>
+    <row r="716" ht="15.75" customHeight="1" s="191"/>
+    <row r="717" ht="15.75" customHeight="1" s="191"/>
+    <row r="718" ht="15.75" customHeight="1" s="191"/>
+    <row r="719" ht="15.75" customHeight="1" s="191"/>
+    <row r="720" ht="15.75" customHeight="1" s="191"/>
+    <row r="721" ht="15.75" customHeight="1" s="191"/>
+    <row r="722" ht="15.75" customHeight="1" s="191"/>
+    <row r="723" ht="15.75" customHeight="1" s="191"/>
+    <row r="724" ht="15.75" customHeight="1" s="191"/>
+    <row r="725" ht="15.75" customHeight="1" s="191"/>
+    <row r="726" ht="15.75" customHeight="1" s="191"/>
+    <row r="727" ht="15.75" customHeight="1" s="191"/>
+    <row r="728" ht="15.75" customHeight="1" s="191"/>
+    <row r="729" ht="15.75" customHeight="1" s="191"/>
+    <row r="730" ht="15.75" customHeight="1" s="191"/>
+    <row r="731" ht="15.75" customHeight="1" s="191"/>
+    <row r="732" ht="15.75" customHeight="1" s="191"/>
+    <row r="733" ht="15.75" customHeight="1" s="191"/>
+    <row r="734" ht="15.75" customHeight="1" s="191"/>
+    <row r="735" ht="15.75" customHeight="1" s="191"/>
+    <row r="736" ht="15.75" customHeight="1" s="191"/>
+    <row r="737" ht="15.75" customHeight="1" s="191"/>
+    <row r="738" ht="15.75" customHeight="1" s="191"/>
+    <row r="739" ht="15.75" customHeight="1" s="191"/>
+    <row r="740" ht="15.75" customHeight="1" s="191"/>
+    <row r="741" ht="15.75" customHeight="1" s="191"/>
+    <row r="742" ht="15.75" customHeight="1" s="191"/>
+    <row r="743" ht="15.75" customHeight="1" s="191"/>
+    <row r="744" ht="15.75" customHeight="1" s="191"/>
+    <row r="745" ht="15.75" customHeight="1" s="191"/>
+    <row r="746" ht="15.75" customHeight="1" s="191"/>
+    <row r="747" ht="15.75" customHeight="1" s="191"/>
+    <row r="748" ht="15.75" customHeight="1" s="191"/>
+    <row r="749" ht="15.75" customHeight="1" s="191"/>
+    <row r="750" ht="15.75" customHeight="1" s="191"/>
+    <row r="751" ht="15.75" customHeight="1" s="191"/>
+    <row r="752" ht="15.75" customHeight="1" s="191"/>
+    <row r="753" ht="15.75" customHeight="1" s="191"/>
+    <row r="754" ht="15.75" customHeight="1" s="191"/>
+    <row r="755" ht="15.75" customHeight="1" s="191"/>
+    <row r="756" ht="15.75" customHeight="1" s="191"/>
+    <row r="757" ht="15.75" customHeight="1" s="191"/>
+    <row r="758" ht="15.75" customHeight="1" s="191"/>
+    <row r="759" ht="15.75" customHeight="1" s="191"/>
+    <row r="760" ht="15.75" customHeight="1" s="191"/>
+    <row r="761" ht="15.75" customHeight="1" s="191"/>
+    <row r="762" ht="15.75" customHeight="1" s="191"/>
+    <row r="763" ht="15.75" customHeight="1" s="191"/>
+    <row r="764" ht="15.75" customHeight="1" s="191"/>
+    <row r="765" ht="15.75" customHeight="1" s="191"/>
+    <row r="766" ht="15.75" customHeight="1" s="191"/>
+    <row r="767" ht="15.75" customHeight="1" s="191"/>
+    <row r="768" ht="15.75" customHeight="1" s="191"/>
+    <row r="769" ht="15.75" customHeight="1" s="191"/>
+    <row r="770" ht="15.75" customHeight="1" s="191"/>
+    <row r="771" ht="15.75" customHeight="1" s="191"/>
+    <row r="772" ht="15.75" customHeight="1" s="191"/>
+    <row r="773" ht="15.75" customHeight="1" s="191"/>
+    <row r="774" ht="15.75" customHeight="1" s="191"/>
+    <row r="775" ht="15.75" customHeight="1" s="191"/>
+    <row r="776" ht="15.75" customHeight="1" s="191"/>
+    <row r="777" ht="15.75" customHeight="1" s="191"/>
+    <row r="778" ht="15.75" customHeight="1" s="191"/>
+    <row r="779" ht="15.75" customHeight="1" s="191"/>
+    <row r="780" ht="15.75" customHeight="1" s="191"/>
+    <row r="781" ht="15.75" customHeight="1" s="191"/>
+    <row r="782" ht="15.75" customHeight="1" s="191"/>
+    <row r="783" ht="15.75" customHeight="1" s="191"/>
+    <row r="784" ht="15.75" customHeight="1" s="191"/>
+    <row r="785" ht="15.75" customHeight="1" s="191"/>
+    <row r="786" ht="15.75" customHeight="1" s="191"/>
+    <row r="787" ht="15.75" customHeight="1" s="191"/>
+    <row r="788" ht="15.75" customHeight="1" s="191"/>
+    <row r="789" ht="15.75" customHeight="1" s="191"/>
+    <row r="790" ht="15.75" customHeight="1" s="191"/>
+    <row r="791" ht="15.75" customHeight="1" s="191"/>
+    <row r="792" ht="15.75" customHeight="1" s="191"/>
+    <row r="793" ht="15.75" customHeight="1" s="191"/>
+    <row r="794" ht="15.75" customHeight="1" s="191"/>
+    <row r="795" ht="15.75" customHeight="1" s="191"/>
+    <row r="796" ht="15.75" customHeight="1" s="191"/>
+    <row r="797" ht="15.75" customHeight="1" s="191"/>
+    <row r="798" ht="15.75" customHeight="1" s="191"/>
+    <row r="799" ht="15.75" customHeight="1" s="191"/>
+    <row r="800" ht="15.75" customHeight="1" s="191"/>
+    <row r="801" ht="15.75" customHeight="1" s="191"/>
+    <row r="802" ht="15.75" customHeight="1" s="191"/>
+    <row r="803" ht="15.75" customHeight="1" s="191"/>
+    <row r="804" ht="15.75" customHeight="1" s="191"/>
+    <row r="805" ht="15.75" customHeight="1" s="191"/>
+    <row r="806" ht="15.75" customHeight="1" s="191"/>
+    <row r="807" ht="15.75" customHeight="1" s="191"/>
+    <row r="808" ht="15.75" customHeight="1" s="191"/>
+    <row r="809" ht="15.75" customHeight="1" s="191"/>
+    <row r="810" ht="15.75" customHeight="1" s="191"/>
+    <row r="811" ht="15.75" customHeight="1" s="191"/>
+    <row r="812" ht="15.75" customHeight="1" s="191"/>
+    <row r="813" ht="15.75" customHeight="1" s="191"/>
+    <row r="814" ht="15.75" customHeight="1" s="191"/>
+    <row r="815" ht="15.75" customHeight="1" s="191"/>
+    <row r="816" ht="15.75" customHeight="1" s="191"/>
+    <row r="817" ht="15.75" customHeight="1" s="191"/>
+    <row r="818" ht="15.75" customHeight="1" s="191"/>
+    <row r="819" ht="15.75" customHeight="1" s="191"/>
+    <row r="820" ht="15.75" customHeight="1" s="191"/>
+    <row r="821" ht="15.75" customHeight="1" s="191"/>
+    <row r="822" ht="15.75" customHeight="1" s="191"/>
+    <row r="823" ht="15.75" customHeight="1" s="191"/>
+    <row r="824" ht="15.75" customHeight="1" s="191"/>
+    <row r="825" ht="15.75" customHeight="1" s="191"/>
+    <row r="826" ht="15.75" customHeight="1" s="191"/>
+    <row r="827" ht="15.75" customHeight="1" s="191"/>
+    <row r="828" ht="15.75" customHeight="1" s="191"/>
+    <row r="829" ht="15.75" customHeight="1" s="191"/>
+    <row r="830" ht="15.75" customHeight="1" s="191"/>
+    <row r="831" ht="15.75" customHeight="1" s="191"/>
+    <row r="832" ht="15.75" customHeight="1" s="191"/>
+    <row r="833" ht="15.75" customHeight="1" s="191"/>
+    <row r="834" ht="15.75" customHeight="1" s="191"/>
+    <row r="835" ht="15.75" customHeight="1" s="191"/>
+    <row r="836" ht="15.75" customHeight="1" s="191"/>
+    <row r="837" ht="15.75" customHeight="1" s="191"/>
+    <row r="838" ht="15.75" customHeight="1" s="191"/>
+    <row r="839" ht="15.75" customHeight="1" s="191"/>
+    <row r="840" ht="15.75" customHeight="1" s="191"/>
+    <row r="841" ht="15.75" customHeight="1" s="191"/>
+    <row r="842" ht="15.75" customHeight="1" s="191"/>
+    <row r="843" ht="15.75" customHeight="1" s="191"/>
+    <row r="844" ht="15.75" customHeight="1" s="191"/>
+    <row r="845" ht="15.75" customHeight="1" s="191"/>
+    <row r="846" ht="15.75" customHeight="1" s="191"/>
+    <row r="847" ht="15.75" customHeight="1" s="191"/>
+    <row r="848" ht="15.75" customHeight="1" s="191"/>
+    <row r="849" ht="15.75" customHeight="1" s="191"/>
+    <row r="850" ht="15.75" customHeight="1" s="191"/>
+    <row r="851" ht="15.75" customHeight="1" s="191"/>
+    <row r="852" ht="15.75" customHeight="1" s="191"/>
+    <row r="853" ht="15.75" customHeight="1" s="191"/>
+    <row r="854" ht="15.75" customHeight="1" s="191"/>
+    <row r="855" ht="15.75" customHeight="1" s="191"/>
+    <row r="856" ht="15.75" customHeight="1" s="191"/>
+    <row r="857" ht="15.75" customHeight="1" s="191"/>
+    <row r="858" ht="15.75" customHeight="1" s="191"/>
+    <row r="859" ht="15.75" customHeight="1" s="191"/>
+    <row r="860" ht="15.75" customHeight="1" s="191"/>
+    <row r="861" ht="15.75" customHeight="1" s="191"/>
+    <row r="862" ht="15.75" customHeight="1" s="191"/>
+    <row r="863" ht="15.75" customHeight="1" s="191"/>
+    <row r="864" ht="15.75" customHeight="1" s="191"/>
+    <row r="865" ht="15.75" customHeight="1" s="191"/>
+    <row r="866" ht="15.75" customHeight="1" s="191"/>
+    <row r="867" ht="15.75" customHeight="1" s="191"/>
+    <row r="868" ht="15.75" customHeight="1" s="191"/>
+    <row r="869" ht="15.75" customHeight="1" s="191"/>
+    <row r="870" ht="15.75" customHeight="1" s="191"/>
+    <row r="871" ht="15.75" customHeight="1" s="191"/>
+    <row r="872" ht="15.75" customHeight="1" s="191"/>
+    <row r="873" ht="15.75" customHeight="1" s="191"/>
+    <row r="874" ht="15.75" customHeight="1" s="191"/>
+    <row r="875" ht="15.75" customHeight="1" s="191"/>
+    <row r="876" ht="15.75" customHeight="1" s="191"/>
+    <row r="877" ht="15.75" customHeight="1" s="191"/>
+    <row r="878" ht="15.75" customHeight="1" s="191"/>
+    <row r="879" ht="15.75" customHeight="1" s="191"/>
+    <row r="880" ht="15.75" customHeight="1" s="191"/>
+    <row r="881" ht="15.75" customHeight="1" s="191"/>
+    <row r="882" ht="15.75" customHeight="1" s="191"/>
+    <row r="883" ht="15.75" customHeight="1" s="191"/>
+    <row r="884" ht="15.75" customHeight="1" s="191"/>
+    <row r="885" ht="15.75" customHeight="1" s="191"/>
+    <row r="886" ht="15.75" customHeight="1" s="191"/>
+    <row r="887" ht="15.75" customHeight="1" s="191"/>
+    <row r="888" ht="15.75" customHeight="1" s="191"/>
+    <row r="889" ht="15.75" customHeight="1" s="191"/>
+    <row r="890" ht="15.75" customHeight="1" s="191"/>
+    <row r="891" ht="15.75" customHeight="1" s="191"/>
+    <row r="892" ht="15.75" customHeight="1" s="191"/>
+    <row r="893" ht="15.75" customHeight="1" s="191"/>
+    <row r="894" ht="15.75" customHeight="1" s="191"/>
+    <row r="895" ht="15.75" customHeight="1" s="191"/>
+    <row r="896" ht="15.75" customHeight="1" s="191"/>
+    <row r="897" ht="15.75" customHeight="1" s="191"/>
+    <row r="898" ht="15.75" customHeight="1" s="191"/>
+    <row r="899" ht="15.75" customHeight="1" s="191"/>
+    <row r="900" ht="15.75" customHeight="1" s="191"/>
+    <row r="901" ht="15.75" customHeight="1" s="191"/>
+    <row r="902" ht="15.75" customHeight="1" s="191"/>
+    <row r="903" ht="15.75" customHeight="1" s="191"/>
+    <row r="904" ht="15.75" customHeight="1" s="191"/>
+    <row r="905" ht="15.75" customHeight="1" s="191"/>
+    <row r="906" ht="15.75" customHeight="1" s="191"/>
+    <row r="907" ht="15.75" customHeight="1" s="191"/>
+    <row r="908" ht="15.75" customHeight="1" s="191"/>
+    <row r="909" ht="15.75" customHeight="1" s="191"/>
+    <row r="910" ht="15.75" customHeight="1" s="191"/>
+    <row r="911" ht="15.75" customHeight="1" s="191"/>
+    <row r="912" ht="15.75" customHeight="1" s="191"/>
+    <row r="913" ht="15.75" customHeight="1" s="191"/>
+    <row r="914" ht="15.75" customHeight="1" s="191"/>
+    <row r="915" ht="15.75" customHeight="1" s="191"/>
+    <row r="916" ht="15.75" customHeight="1" s="191"/>
+    <row r="917" ht="15.75" customHeight="1" s="191"/>
+    <row r="918" ht="15.75" customHeight="1" s="191"/>
+    <row r="919" ht="15.75" customHeight="1" s="191"/>
+    <row r="920" ht="15.75" customHeight="1" s="191"/>
+    <row r="921" ht="15.75" customHeight="1" s="191"/>
+    <row r="922" ht="15.75" customHeight="1" s="191"/>
+    <row r="923" ht="15.75" customHeight="1" s="191"/>
+    <row r="924" ht="15.75" customHeight="1" s="191"/>
+    <row r="925" ht="15.75" customHeight="1" s="191"/>
+    <row r="926" ht="15.75" customHeight="1" s="191"/>
+    <row r="927" ht="15.75" customHeight="1" s="191"/>
+    <row r="928" ht="15.75" customHeight="1" s="191"/>
+    <row r="929" ht="15.75" customHeight="1" s="191"/>
+    <row r="930" ht="15.75" customHeight="1" s="191"/>
+    <row r="931" ht="15.75" customHeight="1" s="191"/>
+    <row r="932" ht="15.75" customHeight="1" s="191"/>
+    <row r="933" ht="15.75" customHeight="1" s="191"/>
+    <row r="934" ht="15.75" customHeight="1" s="191"/>
+    <row r="935" ht="15.75" customHeight="1" s="191"/>
+    <row r="936" ht="15.75" customHeight="1" s="191"/>
+    <row r="937" ht="15.75" customHeight="1" s="191"/>
+    <row r="938" ht="15.75" customHeight="1" s="191"/>
+    <row r="939" ht="15.75" customHeight="1" s="191"/>
+    <row r="940" ht="15.75" customHeight="1" s="191"/>
+    <row r="941" ht="15.75" customHeight="1" s="191"/>
+    <row r="942" ht="15.75" customHeight="1" s="191"/>
+    <row r="943" ht="15.75" customHeight="1" s="191"/>
+    <row r="944" ht="15.75" customHeight="1" s="191"/>
+    <row r="945" ht="15.75" customHeight="1" s="191"/>
+    <row r="946" ht="15.75" customHeight="1" s="191"/>
+    <row r="947" ht="15.75" customHeight="1" s="191"/>
+    <row r="948" ht="15.75" customHeight="1" s="191"/>
+    <row r="949" ht="15.75" customHeight="1" s="191"/>
+    <row r="950" ht="15.75" customHeight="1" s="191"/>
+    <row r="951" ht="15.75" customHeight="1" s="191"/>
+    <row r="952" ht="15.75" customHeight="1" s="191"/>
+    <row r="953" ht="15.75" customHeight="1" s="191"/>
+    <row r="954" ht="15.75" customHeight="1" s="191"/>
+    <row r="955" ht="15.75" customHeight="1" s="191"/>
+    <row r="956" ht="15.75" customHeight="1" s="191"/>
+    <row r="957" ht="15.75" customHeight="1" s="191"/>
+    <row r="958" ht="15.75" customHeight="1" s="191"/>
+    <row r="959" ht="15.75" customHeight="1" s="191"/>
+    <row r="960" ht="15.75" customHeight="1" s="191"/>
+    <row r="961" ht="15.75" customHeight="1" s="191"/>
+    <row r="962" ht="15.75" customHeight="1" s="191"/>
+    <row r="963" ht="15.75" customHeight="1" s="191"/>
+    <row r="964" ht="15.75" customHeight="1" s="191"/>
+    <row r="965" ht="15.75" customHeight="1" s="191"/>
+    <row r="966" ht="15.75" customHeight="1" s="191"/>
+    <row r="967" ht="15.75" customHeight="1" s="191"/>
+    <row r="968" ht="15.75" customHeight="1" s="191"/>
+    <row r="969" ht="15.75" customHeight="1" s="191"/>
+    <row r="970" ht="15.75" customHeight="1" s="191"/>
+    <row r="971" ht="15.75" customHeight="1" s="191"/>
+    <row r="972" ht="15.75" customHeight="1" s="191"/>
+    <row r="973" ht="15.75" customHeight="1" s="191"/>
+    <row r="974" ht="15.75" customHeight="1" s="191"/>
+    <row r="975" ht="15.75" customHeight="1" s="191"/>
+    <row r="976" ht="15.75" customHeight="1" s="191"/>
+    <row r="977" ht="15.75" customHeight="1" s="191"/>
+    <row r="978" ht="15.75" customHeight="1" s="191"/>
+    <row r="979" ht="15.75" customHeight="1" s="191"/>
+    <row r="980" ht="15.75" customHeight="1" s="191"/>
+    <row r="981" ht="15.75" customHeight="1" s="191"/>
+    <row r="982" ht="15.75" customHeight="1" s="191"/>
+    <row r="983" ht="15.75" customHeight="1" s="191"/>
+    <row r="984" ht="15.75" customHeight="1" s="191"/>
+    <row r="985" ht="15.75" customHeight="1" s="191"/>
+    <row r="986" ht="15.75" customHeight="1" s="191"/>
+    <row r="987" ht="15.75" customHeight="1" s="191"/>
+    <row r="988" ht="15.75" customHeight="1" s="191"/>
+    <row r="989" ht="15.75" customHeight="1" s="191"/>
+    <row r="990" ht="15.75" customHeight="1" s="191"/>
+    <row r="991" ht="15.75" customHeight="1" s="191"/>
+    <row r="992" ht="15.75" customHeight="1" s="191"/>
+    <row r="993" ht="15.75" customHeight="1" s="191"/>
+    <row r="994" ht="15.75" customHeight="1" s="191"/>
+    <row r="995" ht="15.75" customHeight="1" s="191"/>
+    <row r="996" ht="15.75" customHeight="1" s="191"/>
+    <row r="997" ht="15.75" customHeight="1" s="191"/>
+    <row r="998" ht="15.75" customHeight="1" s="191"/>
+    <row r="999" ht="15.75" customHeight="1" s="191"/>
+    <row r="1000" ht="15.75" customHeight="1" s="191"/>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
     <mergeCell ref="S42:T42"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C16:L16"/>
@@ -8987,6 +8964,37 @@
     <mergeCell ref="H39:L40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="J59:J60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -9005,22 +9013,22 @@
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="2.42578125" customWidth="1" style="202" min="1" max="1"/>
-    <col width="4.42578125" customWidth="1" style="202" min="2" max="2"/>
-    <col width="16.7109375" customWidth="1" style="202" min="3" max="4"/>
-    <col width="4.42578125" bestFit="1" customWidth="1" style="202" min="6" max="6"/>
-    <col width="16.7109375" customWidth="1" style="202" min="7" max="8"/>
-    <col width="7.42578125" bestFit="1" customWidth="1" style="202" min="9" max="9"/>
-    <col width="4" customWidth="1" style="202" min="10" max="10"/>
-    <col width="16.85546875" customWidth="1" style="202" min="11" max="12"/>
-    <col width="4.140625" customWidth="1" style="202" min="14" max="14"/>
-    <col width="16.7109375" customWidth="1" style="202" min="15" max="17"/>
+    <col width="2.42578125" customWidth="1" style="191" min="1" max="1"/>
+    <col width="4.42578125" customWidth="1" style="191" min="2" max="2"/>
+    <col width="16.7109375" customWidth="1" style="191" min="3" max="4"/>
+    <col width="4.42578125" bestFit="1" customWidth="1" style="191" min="6" max="6"/>
+    <col width="16.7109375" customWidth="1" style="191" min="7" max="8"/>
+    <col width="7.42578125" bestFit="1" customWidth="1" style="191" min="9" max="9"/>
+    <col width="4" customWidth="1" style="191" min="10" max="10"/>
+    <col width="16.85546875" customWidth="1" style="191" min="11" max="12"/>
+    <col width="4.140625" customWidth="1" style="191" min="14" max="14"/>
+    <col width="16.7109375" customWidth="1" style="191" min="15" max="17"/>
   </cols>
   <sheetData>
-    <row r="2" ht="26.25" customHeight="1" s="202">
-      <c r="C2" s="208" t="inlineStr">
+    <row r="2" ht="26.25" customHeight="1" s="191">
+      <c r="C2" s="190" t="inlineStr">
         <is>
           <t xml:space="preserve">EURO 2020 </t>
         </is>
@@ -9314,21 +9322,21 @@
       <c r="K15" s="83" t="n"/>
       <c r="L15" s="83" t="n"/>
     </row>
-    <row r="16" ht="39.95" customHeight="1" s="202">
-      <c r="C16" s="192" t="inlineStr">
+    <row r="16" ht="39.95" customHeight="1" s="191">
+      <c r="C16" s="208" t="inlineStr">
         <is>
           <t>Group Stage predictions are made in a single submission and are due by Thursday Evening June 10th, 2021.</t>
         </is>
       </c>
-      <c r="D16" s="193" t="n"/>
-      <c r="E16" s="193" t="n"/>
-      <c r="F16" s="193" t="n"/>
-      <c r="G16" s="193" t="n"/>
-      <c r="H16" s="193" t="n"/>
-      <c r="I16" s="193" t="n"/>
-      <c r="J16" s="193" t="n"/>
-      <c r="K16" s="193" t="n"/>
-      <c r="L16" s="193" t="n"/>
+      <c r="D16" s="196" t="n"/>
+      <c r="E16" s="196" t="n"/>
+      <c r="F16" s="196" t="n"/>
+      <c r="G16" s="196" t="n"/>
+      <c r="H16" s="196" t="n"/>
+      <c r="I16" s="196" t="n"/>
+      <c r="J16" s="196" t="n"/>
+      <c r="K16" s="196" t="n"/>
+      <c r="L16" s="196" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="32" t="inlineStr">
@@ -9336,19 +9344,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D17" s="209" t="n"/>
-      <c r="E17" s="204" t="n"/>
-      <c r="F17" s="204" t="n"/>
-      <c r="G17" s="205" t="n"/>
-      <c r="H17" s="203" t="inlineStr">
+      <c r="D17" s="192" t="n"/>
+      <c r="E17" s="193" t="n"/>
+      <c r="F17" s="193" t="n"/>
+      <c r="G17" s="194" t="n"/>
+      <c r="H17" s="199" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I17" s="204" t="n"/>
-      <c r="J17" s="204" t="n"/>
-      <c r="K17" s="204" t="n"/>
-      <c r="L17" s="205" t="n"/>
+      <c r="I17" s="193" t="n"/>
+      <c r="J17" s="193" t="n"/>
+      <c r="K17" s="193" t="n"/>
+      <c r="L17" s="194" t="n"/>
     </row>
     <row r="18">
       <c r="C18" s="33" t="inlineStr">
@@ -9356,50 +9364,50 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D18" s="196" t="n"/>
-      <c r="E18" s="193" t="n"/>
-      <c r="F18" s="193" t="n"/>
+      <c r="D18" s="195" t="n"/>
+      <c r="E18" s="196" t="n"/>
+      <c r="F18" s="196" t="n"/>
       <c r="G18" s="197" t="n"/>
-      <c r="H18" s="206" t="n"/>
-      <c r="I18" s="193" t="n"/>
-      <c r="J18" s="193" t="n"/>
-      <c r="K18" s="193" t="n"/>
+      <c r="H18" s="200" t="n"/>
+      <c r="I18" s="196" t="n"/>
+      <c r="J18" s="196" t="n"/>
+      <c r="K18" s="196" t="n"/>
       <c r="L18" s="197" t="n"/>
     </row>
     <row r="19">
       <c r="C19" s="31" t="n"/>
     </row>
     <row r="20" customFormat="1" s="5">
-      <c r="C20" s="207" t="inlineStr">
+      <c r="C20" s="201" t="inlineStr">
         <is>
           <t>Match Day 1</t>
         </is>
       </c>
-      <c r="D20" s="204" t="n"/>
+      <c r="D20" s="193" t="n"/>
       <c r="E20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
       <c r="F20" s="36" t="n"/>
-      <c r="G20" s="207" t="inlineStr">
+      <c r="G20" s="201" t="inlineStr">
         <is>
           <t>Match Day 2</t>
         </is>
       </c>
-      <c r="H20" s="204" t="n"/>
+      <c r="H20" s="193" t="n"/>
       <c r="I20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
       <c r="J20" s="36" t="n"/>
-      <c r="K20" s="207" t="inlineStr">
+      <c r="K20" s="201" t="inlineStr">
         <is>
           <t>Match Day 3</t>
         </is>
       </c>
-      <c r="L20" s="204" t="n"/>
+      <c r="L20" s="193" t="n"/>
       <c r="M20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
@@ -10046,21 +10054,21 @@
       <c r="L36" s="97" t="n"/>
       <c r="M36" s="92" t="n"/>
     </row>
-    <row r="38" ht="39.95" customHeight="1" s="202">
-      <c r="C38" s="192" t="inlineStr">
+    <row r="38" ht="39.95" customHeight="1" s="191">
+      <c r="C38" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">We'll do the competition in two halves since the Round of 16 is heavily dependent on the Group Stages. </t>
         </is>
       </c>
-      <c r="D38" s="193" t="n"/>
-      <c r="E38" s="193" t="n"/>
-      <c r="F38" s="193" t="n"/>
-      <c r="G38" s="193" t="n"/>
-      <c r="H38" s="193" t="n"/>
-      <c r="I38" s="193" t="n"/>
-      <c r="J38" s="193" t="n"/>
-      <c r="K38" s="193" t="n"/>
-      <c r="L38" s="193" t="n"/>
+      <c r="D38" s="196" t="n"/>
+      <c r="E38" s="196" t="n"/>
+      <c r="F38" s="196" t="n"/>
+      <c r="G38" s="196" t="n"/>
+      <c r="H38" s="196" t="n"/>
+      <c r="I38" s="196" t="n"/>
+      <c r="J38" s="196" t="n"/>
+      <c r="K38" s="196" t="n"/>
+      <c r="L38" s="196" t="n"/>
     </row>
     <row r="39">
       <c r="C39" s="32" t="inlineStr">
@@ -10068,19 +10076,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D39" s="209" t="n"/>
-      <c r="E39" s="204" t="n"/>
-      <c r="F39" s="204" t="n"/>
-      <c r="G39" s="205" t="n"/>
-      <c r="H39" s="203" t="inlineStr">
+      <c r="D39" s="192" t="n"/>
+      <c r="E39" s="193" t="n"/>
+      <c r="F39" s="193" t="n"/>
+      <c r="G39" s="194" t="n"/>
+      <c r="H39" s="199" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULTS         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I39" s="204" t="n"/>
-      <c r="J39" s="204" t="n"/>
-      <c r="K39" s="204" t="n"/>
-      <c r="L39" s="205" t="n"/>
+      <c r="I39" s="193" t="n"/>
+      <c r="J39" s="193" t="n"/>
+      <c r="K39" s="193" t="n"/>
+      <c r="L39" s="194" t="n"/>
     </row>
     <row r="40">
       <c r="C40" s="33" t="inlineStr">
@@ -10088,27 +10096,27 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D40" s="196" t="n"/>
-      <c r="E40" s="193" t="n"/>
-      <c r="F40" s="193" t="n"/>
+      <c r="D40" s="195" t="n"/>
+      <c r="E40" s="196" t="n"/>
+      <c r="F40" s="196" t="n"/>
       <c r="G40" s="197" t="n"/>
-      <c r="H40" s="206" t="n"/>
-      <c r="I40" s="193" t="n"/>
-      <c r="J40" s="193" t="n"/>
-      <c r="K40" s="193" t="n"/>
+      <c r="H40" s="200" t="n"/>
+      <c r="I40" s="196" t="n"/>
+      <c r="J40" s="196" t="n"/>
+      <c r="K40" s="196" t="n"/>
       <c r="L40" s="197" t="n"/>
     </row>
     <row r="41">
       <c r="B41" s="46" t="n"/>
-      <c r="C41" s="193" t="n"/>
+      <c r="C41" s="196" t="n"/>
     </row>
     <row r="42">
-      <c r="B42" s="198" t="inlineStr">
+      <c r="B42" s="209" t="inlineStr">
         <is>
           <t>Round of 16</t>
         </is>
       </c>
-      <c r="C42" s="193" t="n"/>
+      <c r="C42" s="196" t="n"/>
       <c r="D42" s="30" t="inlineStr">
         <is>
           <t>Results</t>
@@ -10151,32 +10159,32 @@
         </is>
       </c>
       <c r="Q42" s="39" t="n"/>
-      <c r="S42" s="201" t="n"/>
+      <c r="S42" s="198" t="n"/>
       <c r="U42" s="39" t="n"/>
     </row>
     <row r="43">
-      <c r="B43" s="190" t="inlineStr">
+      <c r="B43" s="207" t="inlineStr">
         <is>
           <t>R1</t>
         </is>
       </c>
       <c r="C43" s="38" t="inlineStr">
         <is>
-          <t>Winner Group A</t>
-        </is>
-      </c>
-      <c r="D43" s="195" t="n"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B44" s="191" t="n"/>
-      <c r="C44" s="206" t="inlineStr">
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="D43" s="202" t="n"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B44" s="203" t="n"/>
+      <c r="C44" s="200" t="inlineStr">
         <is>
           <t>2nd Group C</t>
         </is>
       </c>
-      <c r="D44" s="191" t="n"/>
+      <c r="D44" s="203" t="n"/>
       <c r="E44" s="44" t="n"/>
-      <c r="F44" s="194" t="inlineStr">
+      <c r="F44" s="206" t="inlineStr">
         <is>
           <t>QF1</t>
         </is>
@@ -10186,22 +10194,22 @@
           <t>Winner R1</t>
         </is>
       </c>
-      <c r="H44" s="195" t="n"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="H44" s="202" t="n"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1" s="191" thickBot="1">
       <c r="B45" s="5" t="n"/>
       <c r="D45" s="93" t="n"/>
       <c r="E45" s="43" t="n"/>
-      <c r="F45" s="191" t="n"/>
+      <c r="F45" s="203" t="n"/>
       <c r="G45" s="41" t="inlineStr">
         <is>
           <t>Winner R2</t>
         </is>
       </c>
-      <c r="H45" s="191" t="n"/>
+      <c r="H45" s="203" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="190" t="inlineStr">
+      <c r="B46" s="207" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
@@ -10211,22 +10219,22 @@
           <t>Winner Group B</t>
         </is>
       </c>
-      <c r="D46" s="195" t="n"/>
+      <c r="D46" s="202" t="n"/>
       <c r="G46" s="1" t="n"/>
       <c r="H46" s="94" t="n"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B47" s="191" t="n"/>
-      <c r="C47" s="206" t="inlineStr">
+    <row r="47" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B47" s="203" t="n"/>
+      <c r="C47" s="200" t="inlineStr">
         <is>
           <t>3rd Group A/D/E/F</t>
         </is>
       </c>
-      <c r="D47" s="191" t="n"/>
+      <c r="D47" s="203" t="n"/>
       <c r="G47" s="1" t="n"/>
       <c r="H47" s="95" t="n"/>
       <c r="I47" s="43" t="n"/>
-      <c r="J47" s="199" t="inlineStr">
+      <c r="J47" s="204" t="inlineStr">
         <is>
           <t>SF1</t>
         </is>
@@ -10236,8 +10244,8 @@
           <t>Winner QF1</t>
         </is>
       </c>
-      <c r="L47" s="195" t="n"/>
-      <c r="S47" s="201" t="n"/>
+      <c r="L47" s="202" t="n"/>
+      <c r="S47" s="198" t="n"/>
       <c r="U47" s="39" t="n"/>
     </row>
     <row r="48">
@@ -10245,16 +10253,16 @@
       <c r="D48" s="93" t="n"/>
       <c r="G48" s="1" t="n"/>
       <c r="H48" s="95" t="n"/>
-      <c r="J48" s="191" t="n"/>
+      <c r="J48" s="203" t="n"/>
       <c r="K48" s="42" t="inlineStr">
         <is>
           <t>Winner QF2</t>
         </is>
       </c>
-      <c r="L48" s="191" t="n"/>
+      <c r="L48" s="203" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="190" t="inlineStr">
+      <c r="B49" s="207" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
@@ -10264,22 +10272,22 @@
           <t>Winner Group F</t>
         </is>
       </c>
-      <c r="D49" s="195" t="n"/>
+      <c r="D49" s="202" t="n"/>
       <c r="G49" s="1" t="n"/>
       <c r="H49" s="96" t="n"/>
       <c r="K49" s="37" t="n"/>
       <c r="L49" s="94" t="n"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B50" s="191" t="n"/>
-      <c r="C50" s="206" t="inlineStr">
+    <row r="50" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B50" s="203" t="n"/>
+      <c r="C50" s="200" t="inlineStr">
         <is>
           <t>3rd Group A/B/C</t>
         </is>
       </c>
-      <c r="D50" s="191" t="n"/>
+      <c r="D50" s="203" t="n"/>
       <c r="E50" s="43" t="n"/>
-      <c r="F50" s="194" t="inlineStr">
+      <c r="F50" s="206" t="inlineStr">
         <is>
           <t>QF2</t>
         </is>
@@ -10289,26 +10297,26 @@
           <t>Winner R3</t>
         </is>
       </c>
-      <c r="H50" s="195" t="n"/>
+      <c r="H50" s="202" t="n"/>
       <c r="K50" s="37" t="n"/>
       <c r="L50" s="95" t="n"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1" s="202" thickBot="1">
+    <row r="51" ht="15.75" customHeight="1" s="191" thickBot="1">
       <c r="B51" s="5" t="n"/>
       <c r="D51" s="93" t="n"/>
       <c r="E51" s="43" t="n"/>
-      <c r="F51" s="191" t="n"/>
+      <c r="F51" s="203" t="n"/>
       <c r="G51" s="41" t="inlineStr">
         <is>
           <t>Winner R4</t>
         </is>
       </c>
-      <c r="H51" s="191" t="n"/>
+      <c r="H51" s="203" t="n"/>
       <c r="K51" s="37" t="n"/>
       <c r="L51" s="95" t="n"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B52" s="190" t="inlineStr">
+    <row r="52" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B52" s="207" t="inlineStr">
         <is>
           <t>R4</t>
         </is>
@@ -10318,13 +10326,13 @@
           <t>2nd Group D</t>
         </is>
       </c>
-      <c r="D52" s="195" t="n"/>
+      <c r="D52" s="202" t="n"/>
       <c r="G52" s="1" t="n"/>
       <c r="H52" s="93" t="n"/>
       <c r="K52" s="37" t="n"/>
       <c r="L52" s="95" t="n"/>
       <c r="M52" s="43" t="n"/>
-      <c r="N52" s="200" t="inlineStr">
+      <c r="N52" s="205" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -10334,27 +10342,27 @@
           <t>Winner SF1</t>
         </is>
       </c>
-      <c r="P52" s="195" t="n"/>
+      <c r="P52" s="202" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="191" t="n"/>
-      <c r="C53" s="206" t="inlineStr">
+      <c r="B53" s="203" t="n"/>
+      <c r="C53" s="200" t="inlineStr">
         <is>
           <t>2nd Group E</t>
         </is>
       </c>
-      <c r="D53" s="191" t="n"/>
+      <c r="D53" s="203" t="n"/>
       <c r="G53" s="1" t="n"/>
       <c r="H53" s="93" t="n"/>
       <c r="K53" s="37" t="n"/>
       <c r="L53" s="95" t="n"/>
-      <c r="N53" s="191" t="n"/>
+      <c r="N53" s="203" t="n"/>
       <c r="O53" s="42" t="inlineStr">
         <is>
           <t>Winner SF2</t>
         </is>
       </c>
-      <c r="P53" s="191" t="n"/>
+      <c r="P53" s="203" t="n"/>
     </row>
     <row r="54">
       <c r="B54" s="5" t="n"/>
@@ -10365,7 +10373,7 @@
       <c r="L54" s="95" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="190" t="inlineStr">
+      <c r="B55" s="207" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
@@ -10375,22 +10383,22 @@
           <t>Winner Group E</t>
         </is>
       </c>
-      <c r="D55" s="195" t="n"/>
+      <c r="D55" s="202" t="n"/>
       <c r="G55" s="1" t="n"/>
       <c r="H55" s="93" t="n"/>
       <c r="K55" s="37" t="n"/>
       <c r="L55" s="95" t="n"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B56" s="191" t="n"/>
-      <c r="C56" s="206" t="inlineStr">
+    <row r="56" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B56" s="203" t="n"/>
+      <c r="C56" s="200" t="inlineStr">
         <is>
           <t>3rd Group A/B/C/D</t>
         </is>
       </c>
-      <c r="D56" s="191" t="n"/>
+      <c r="D56" s="203" t="n"/>
       <c r="E56" s="44" t="n"/>
-      <c r="F56" s="194" t="inlineStr">
+      <c r="F56" s="206" t="inlineStr">
         <is>
           <t>QF3</t>
         </is>
@@ -10400,26 +10408,26 @@
           <t>Winner R5</t>
         </is>
       </c>
-      <c r="H56" s="195" t="n"/>
+      <c r="H56" s="202" t="n"/>
       <c r="K56" s="37" t="n"/>
       <c r="L56" s="95" t="n"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1" s="202" thickBot="1">
+    <row r="57" ht="15.75" customHeight="1" s="191" thickBot="1">
       <c r="B57" s="5" t="n"/>
       <c r="D57" s="93" t="n"/>
       <c r="E57" s="45" t="n"/>
-      <c r="F57" s="191" t="n"/>
+      <c r="F57" s="203" t="n"/>
       <c r="G57" s="41" t="inlineStr">
         <is>
           <t>Winner R6</t>
         </is>
       </c>
-      <c r="H57" s="191" t="n"/>
+      <c r="H57" s="203" t="n"/>
       <c r="K57" s="37" t="n"/>
       <c r="L57" s="95" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="190" t="inlineStr">
+      <c r="B58" s="207" t="inlineStr">
         <is>
           <t>R6</t>
         </is>
@@ -10429,24 +10437,24 @@
           <t>Winner Group D</t>
         </is>
       </c>
-      <c r="D58" s="195" t="n"/>
+      <c r="D58" s="202" t="n"/>
       <c r="G58" s="1" t="n"/>
       <c r="H58" s="94" t="n"/>
       <c r="K58" s="37" t="n"/>
       <c r="L58" s="96" t="n"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B59" s="191" t="n"/>
-      <c r="C59" s="206" t="inlineStr">
+    <row r="59" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B59" s="203" t="n"/>
+      <c r="C59" s="200" t="inlineStr">
         <is>
           <t>2nd Group F</t>
         </is>
       </c>
-      <c r="D59" s="191" t="n"/>
+      <c r="D59" s="203" t="n"/>
       <c r="G59" s="1" t="n"/>
       <c r="H59" s="95" t="n"/>
       <c r="I59" s="43" t="n"/>
-      <c r="J59" s="199" t="inlineStr">
+      <c r="J59" s="204" t="inlineStr">
         <is>
           <t>SF2</t>
         </is>
@@ -10456,23 +10464,23 @@
           <t>Winner QF3</t>
         </is>
       </c>
-      <c r="L59" s="195" t="n"/>
+      <c r="L59" s="202" t="n"/>
     </row>
     <row r="60">
       <c r="B60" s="5" t="n"/>
       <c r="D60" s="93" t="n"/>
       <c r="G60" s="1" t="n"/>
       <c r="H60" s="95" t="n"/>
-      <c r="J60" s="191" t="n"/>
+      <c r="J60" s="203" t="n"/>
       <c r="K60" s="42" t="inlineStr">
         <is>
           <t>Winner QF4</t>
         </is>
       </c>
-      <c r="L60" s="191" t="n"/>
+      <c r="L60" s="203" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="190" t="inlineStr">
+      <c r="B61" s="207" t="inlineStr">
         <is>
           <t>R7</t>
         </is>
@@ -10482,20 +10490,20 @@
           <t>Winner GroupC</t>
         </is>
       </c>
-      <c r="D61" s="195" t="n"/>
+      <c r="D61" s="202" t="n"/>
       <c r="G61" s="1" t="n"/>
       <c r="H61" s="96" t="n"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1" s="202" thickBot="1">
-      <c r="B62" s="191" t="n"/>
-      <c r="C62" s="206" t="inlineStr">
+    <row r="62" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="B62" s="203" t="n"/>
+      <c r="C62" s="200" t="inlineStr">
         <is>
           <t>3rd Group D/E/F</t>
         </is>
       </c>
-      <c r="D62" s="191" t="n"/>
+      <c r="D62" s="203" t="n"/>
       <c r="E62" s="44" t="n"/>
-      <c r="F62" s="194" t="inlineStr">
+      <c r="F62" s="206" t="inlineStr">
         <is>
           <t>QF4</t>
         </is>
@@ -10505,75 +10513,44 @@
           <t>Winner R7</t>
         </is>
       </c>
-      <c r="H62" s="195" t="n"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="H62" s="202" t="n"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" s="191" thickBot="1">
       <c r="B63" s="5" t="n"/>
       <c r="D63" s="93" t="n"/>
       <c r="E63" s="45" t="n"/>
-      <c r="F63" s="191" t="n"/>
+      <c r="F63" s="203" t="n"/>
       <c r="G63" s="41" t="inlineStr">
         <is>
           <t>Winner R8</t>
         </is>
       </c>
-      <c r="H63" s="191" t="n"/>
+      <c r="H63" s="203" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="190" t="inlineStr">
+      <c r="B64" s="207" t="inlineStr">
         <is>
           <t>R8</t>
         </is>
       </c>
       <c r="C64" s="38" t="inlineStr">
         <is>
-          <t>2nd Group A</t>
-        </is>
-      </c>
-      <c r="D64" s="195" t="n"/>
+          <t>Wales</t>
+        </is>
+      </c>
+      <c r="D64" s="202" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" s="191" t="n"/>
-      <c r="C65" s="206" t="inlineStr">
+      <c r="B65" s="203" t="n"/>
+      <c r="C65" s="200" t="inlineStr">
         <is>
           <t>2nd Group B</t>
         </is>
       </c>
-      <c r="D65" s="191" t="n"/>
+      <c r="D65" s="203" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
     <mergeCell ref="S42:T42"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C16:L16"/>
@@ -10588,6 +10565,37 @@
     <mergeCell ref="H39:L40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="J59:J60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Euro2020/result_files/EC_2020.xlsx
+++ b/Euro2020/result_files/EC_2020.xlsx
@@ -1731,7 +1731,7 @@
   <dimension ref="B2:U65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1808,7 +1808,7 @@
         </is>
       </c>
       <c r="H5" s="11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I5" s="3" t="n"/>
       <c r="J5" s="83" t="n"/>
@@ -1818,7 +1818,7 @@
         </is>
       </c>
       <c r="L5" s="15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="L6" s="15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="H8" s="13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" s="3" t="n"/>
       <c r="J8" s="83" t="n"/>
@@ -2337,7 +2337,11 @@
           <t>Austria</t>
         </is>
       </c>
-      <c r="M24" s="88" t="n"/>
+      <c r="M24" s="88" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="C25" s="50" t="inlineStr">
@@ -2382,7 +2386,11 @@
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="M25" s="88" t="n"/>
+      <c r="M25" s="88" t="inlineStr">
+        <is>
+          <t>0-3</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="C26" s="52" t="n"/>
@@ -2415,7 +2423,11 @@
           <t>Belgium</t>
         </is>
       </c>
-      <c r="M26" s="86" t="n"/>
+      <c r="M26" s="86" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="C27" s="55" t="inlineStr">
@@ -2460,7 +2472,11 @@
           <t>Denmark</t>
         </is>
       </c>
-      <c r="M27" s="86" t="n"/>
+      <c r="M27" s="86" t="inlineStr">
+        <is>
+          <t>1-4</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="C28" s="53" t="inlineStr">
@@ -2908,7 +2924,7 @@
       <c r="B44" s="203" t="n"/>
       <c r="C44" s="200" t="inlineStr">
         <is>
-          <t>2nd Group C</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="D44" s="203" t="n"/>
@@ -2945,7 +2961,7 @@
       </c>
       <c r="C46" s="38" t="inlineStr">
         <is>
-          <t>Winner Group B</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D46" s="202" t="n"/>
@@ -3216,7 +3232,7 @@
       </c>
       <c r="C61" s="38" t="inlineStr">
         <is>
-          <t>Winner GroupC</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D61" s="202" t="n"/>
@@ -3273,7 +3289,7 @@
       <c r="B65" s="203" t="n"/>
       <c r="C65" s="200" t="inlineStr">
         <is>
-          <t>2nd Group B</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D65" s="203" t="n"/>
@@ -3403,11 +3419,11 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Srich</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
@@ -3424,7 +3440,7 @@
         </is>
       </c>
       <c r="I3" s="11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J3" s="3" t="n"/>
       <c r="K3" s="14" t="inlineStr">
@@ -3433,17 +3449,17 @@
         </is>
       </c>
       <c r="L3" s="15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Srich</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E4" s="6" t="inlineStr">
         <is>
@@ -3469,7 +3485,7 @@
         </is>
       </c>
       <c r="L4" s="15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3479,7 +3495,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E5" s="6" t="inlineStr">
         <is>
@@ -3524,7 +3540,7 @@
         </is>
       </c>
       <c r="I6" s="13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" s="3" t="n"/>
       <c r="K6" s="16" t="inlineStr">
@@ -3724,8 +3740,8 @@
     <col width="4.140625" customWidth="1" style="217" min="14" max="14"/>
     <col width="16.7109375" customWidth="1" style="217" min="15" max="17"/>
     <col width="8.7109375" customWidth="1" style="217" min="18" max="26"/>
-    <col width="14.42578125" customWidth="1" style="217" min="27" max="32"/>
-    <col width="14.42578125" customWidth="1" style="217" min="33" max="16384"/>
+    <col width="14.42578125" customWidth="1" style="217" min="27" max="34"/>
+    <col width="14.42578125" customWidth="1" style="217" min="35" max="16384"/>
   </cols>
   <sheetData>
     <row r="2" ht="26.25" customHeight="1" s="191">
@@ -4934,7 +4950,7 @@
       <c r="B44" s="211" t="n"/>
       <c r="C44" s="173" t="inlineStr">
         <is>
-          <t>2nd Group C</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="D44" s="211" t="n"/>
@@ -4988,7 +5004,7 @@
       </c>
       <c r="C46" s="172" t="inlineStr">
         <is>
-          <t>Winner Group B</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D46" s="212" t="n"/>
@@ -5299,7 +5315,7 @@
       </c>
       <c r="C61" s="172" t="inlineStr">
         <is>
-          <t>Winner GroupC</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D61" s="212" t="n"/>
@@ -5356,7 +5372,7 @@
       <c r="B65" s="211" t="n"/>
       <c r="C65" s="173" t="inlineStr">
         <is>
-          <t>2nd Group B</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D65" s="211" t="n"/>
@@ -6376,8 +6392,8 @@
     <col width="4.140625" customWidth="1" style="217" min="14" max="14"/>
     <col width="16.7109375" customWidth="1" style="217" min="15" max="17"/>
     <col width="8.7109375" customWidth="1" style="217" min="18" max="26"/>
-    <col width="14.42578125" customWidth="1" style="217" min="27" max="32"/>
-    <col width="14.42578125" customWidth="1" style="217" min="33" max="16384"/>
+    <col width="14.42578125" customWidth="1" style="217" min="27" max="34"/>
+    <col width="14.42578125" customWidth="1" style="217" min="35" max="16384"/>
   </cols>
   <sheetData>
     <row r="2" ht="26.25" customHeight="1" s="191">
@@ -7586,7 +7602,7 @@
       <c r="B44" s="211" t="n"/>
       <c r="C44" s="173" t="inlineStr">
         <is>
-          <t>2nd Group C</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="D44" s="211" t="n"/>
@@ -7640,7 +7656,7 @@
       </c>
       <c r="C46" s="172" t="inlineStr">
         <is>
-          <t>Winner Group B</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D46" s="212" t="n"/>
@@ -7951,7 +7967,7 @@
       </c>
       <c r="C61" s="172" t="inlineStr">
         <is>
-          <t>Winner GroupC</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D61" s="212" t="n"/>
@@ -8008,7 +8024,7 @@
       <c r="B65" s="211" t="n"/>
       <c r="C65" s="173" t="inlineStr">
         <is>
-          <t>2nd Group B</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D65" s="211" t="n"/>
@@ -10179,7 +10195,7 @@
       <c r="B44" s="203" t="n"/>
       <c r="C44" s="200" t="inlineStr">
         <is>
-          <t>2nd Group C</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="D44" s="203" t="n"/>
@@ -10216,7 +10232,7 @@
       </c>
       <c r="C46" s="38" t="inlineStr">
         <is>
-          <t>Winner Group B</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D46" s="202" t="n"/>
@@ -10487,7 +10503,7 @@
       </c>
       <c r="C61" s="38" t="inlineStr">
         <is>
-          <t>Winner GroupC</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D61" s="202" t="n"/>
@@ -10544,7 +10560,7 @@
       <c r="B65" s="203" t="n"/>
       <c r="C65" s="200" t="inlineStr">
         <is>
-          <t>2nd Group B</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D65" s="203" t="n"/>

--- a/Euro2020/result_files/EC_2020.xlsx
+++ b/Euro2020/result_files/EC_2020.xlsx
@@ -1237,74 +1237,58 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="15"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="15"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="15"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="13">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="13">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
       <alignment horizontal="center"/>
@@ -1335,6 +1319,22 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -1731,25 +1731,25 @@
   <dimension ref="B2:U65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="2.42578125" customWidth="1" style="191" min="1" max="1"/>
-    <col width="4.42578125" customWidth="1" style="191" min="2" max="2"/>
-    <col width="16.7109375" customWidth="1" style="191" min="3" max="4"/>
-    <col width="4.42578125" bestFit="1" customWidth="1" style="191" min="6" max="6"/>
-    <col width="16.7109375" customWidth="1" style="191" min="7" max="8"/>
-    <col width="7.42578125" bestFit="1" customWidth="1" style="191" min="9" max="9"/>
-    <col width="4" customWidth="1" style="191" min="10" max="10"/>
-    <col width="16.85546875" customWidth="1" style="191" min="11" max="12"/>
-    <col width="4.140625" customWidth="1" style="191" min="14" max="14"/>
-    <col width="16.7109375" customWidth="1" style="191" min="15" max="17"/>
+    <col width="2.42578125" customWidth="1" style="202" min="1" max="1"/>
+    <col width="4.42578125" customWidth="1" style="202" min="2" max="2"/>
+    <col width="16.7109375" customWidth="1" style="202" min="3" max="4"/>
+    <col width="4.42578125" bestFit="1" customWidth="1" style="202" min="6" max="6"/>
+    <col width="16.7109375" customWidth="1" style="202" min="7" max="8"/>
+    <col width="7.42578125" bestFit="1" customWidth="1" style="202" min="9" max="9"/>
+    <col width="4" customWidth="1" style="202" min="10" max="10"/>
+    <col width="16.85546875" customWidth="1" style="202" min="11" max="12"/>
+    <col width="4.140625" customWidth="1" style="202" min="14" max="14"/>
+    <col width="16.7109375" customWidth="1" style="202" min="15" max="17"/>
   </cols>
   <sheetData>
-    <row r="2" ht="26.25" customHeight="1" s="191">
-      <c r="C2" s="190" t="inlineStr">
+    <row r="2" ht="26.25" customHeight="1" s="202">
+      <c r="C2" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">EURO 2020 </t>
         </is>
@@ -1962,11 +1962,11 @@
     <row r="11">
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D11" s="23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E11" s="83" t="n"/>
       <c r="F11" s="83" t="n"/>
@@ -1992,7 +1992,7 @@
     <row r="12">
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D12" s="23" t="n">
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="D13" s="23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E13" s="83" t="n"/>
       <c r="F13" s="83" t="n"/>
@@ -2091,21 +2091,21 @@
       <c r="K15" s="83" t="n"/>
       <c r="L15" s="83" t="n"/>
     </row>
-    <row r="16" ht="39.95" customHeight="1" s="191">
-      <c r="C16" s="208" t="inlineStr">
+    <row r="16" ht="39.95" customHeight="1" s="202">
+      <c r="C16" s="192" t="inlineStr">
         <is>
           <t>Group Stage predictions are made in a single submission and are due by Thursday Evening June 10th, 2021.</t>
         </is>
       </c>
-      <c r="D16" s="196" t="n"/>
-      <c r="E16" s="196" t="n"/>
-      <c r="F16" s="196" t="n"/>
-      <c r="G16" s="196" t="n"/>
-      <c r="H16" s="196" t="n"/>
-      <c r="I16" s="196" t="n"/>
-      <c r="J16" s="196" t="n"/>
-      <c r="K16" s="196" t="n"/>
-      <c r="L16" s="196" t="n"/>
+      <c r="D16" s="193" t="n"/>
+      <c r="E16" s="193" t="n"/>
+      <c r="F16" s="193" t="n"/>
+      <c r="G16" s="193" t="n"/>
+      <c r="H16" s="193" t="n"/>
+      <c r="I16" s="193" t="n"/>
+      <c r="J16" s="193" t="n"/>
+      <c r="K16" s="193" t="n"/>
+      <c r="L16" s="193" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="32" t="inlineStr">
@@ -2113,19 +2113,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D17" s="192" t="n"/>
-      <c r="E17" s="193" t="n"/>
-      <c r="F17" s="193" t="n"/>
-      <c r="G17" s="194" t="n"/>
-      <c r="H17" s="199" t="inlineStr">
+      <c r="D17" s="209" t="n"/>
+      <c r="E17" s="204" t="n"/>
+      <c r="F17" s="204" t="n"/>
+      <c r="G17" s="205" t="n"/>
+      <c r="H17" s="203" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I17" s="193" t="n"/>
-      <c r="J17" s="193" t="n"/>
-      <c r="K17" s="193" t="n"/>
-      <c r="L17" s="194" t="n"/>
+      <c r="I17" s="204" t="n"/>
+      <c r="J17" s="204" t="n"/>
+      <c r="K17" s="204" t="n"/>
+      <c r="L17" s="205" t="n"/>
     </row>
     <row r="18">
       <c r="C18" s="33" t="inlineStr">
@@ -2133,50 +2133,50 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D18" s="195" t="n"/>
-      <c r="E18" s="196" t="n"/>
-      <c r="F18" s="196" t="n"/>
+      <c r="D18" s="196" t="n"/>
+      <c r="E18" s="193" t="n"/>
+      <c r="F18" s="193" t="n"/>
       <c r="G18" s="197" t="n"/>
-      <c r="H18" s="200" t="n"/>
-      <c r="I18" s="196" t="n"/>
-      <c r="J18" s="196" t="n"/>
-      <c r="K18" s="196" t="n"/>
+      <c r="H18" s="206" t="n"/>
+      <c r="I18" s="193" t="n"/>
+      <c r="J18" s="193" t="n"/>
+      <c r="K18" s="193" t="n"/>
       <c r="L18" s="197" t="n"/>
     </row>
     <row r="19">
       <c r="C19" s="31" t="n"/>
     </row>
     <row r="20" customFormat="1" s="5">
-      <c r="C20" s="201" t="inlineStr">
+      <c r="C20" s="207" t="inlineStr">
         <is>
           <t>Match Day 1</t>
         </is>
       </c>
-      <c r="D20" s="193" t="n"/>
+      <c r="D20" s="204" t="n"/>
       <c r="E20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
       <c r="F20" s="36" t="n"/>
-      <c r="G20" s="201" t="inlineStr">
+      <c r="G20" s="207" t="inlineStr">
         <is>
           <t>Match Day 2</t>
         </is>
       </c>
-      <c r="H20" s="193" t="n"/>
+      <c r="H20" s="204" t="n"/>
       <c r="I20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
       <c r="J20" s="36" t="n"/>
-      <c r="K20" s="201" t="inlineStr">
+      <c r="K20" s="207" t="inlineStr">
         <is>
           <t>Match Day 3</t>
         </is>
       </c>
-      <c r="L20" s="193" t="n"/>
+      <c r="L20" s="204" t="n"/>
       <c r="M20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
@@ -2546,7 +2546,11 @@
           <t>England</t>
         </is>
       </c>
-      <c r="M29" s="87" t="n"/>
+      <c r="M29" s="87" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="C30" s="52" t="n"/>
@@ -2579,7 +2583,11 @@
           <t>Scotland</t>
         </is>
       </c>
-      <c r="M30" s="87" t="n"/>
+      <c r="M30" s="87" t="inlineStr">
+        <is>
+          <t>3-1</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="C31" s="55" t="inlineStr">
@@ -2799,21 +2807,21 @@
       <c r="L36" s="97" t="n"/>
       <c r="M36" s="92" t="n"/>
     </row>
-    <row r="38" ht="39.95" customHeight="1" s="191">
-      <c r="C38" s="208" t="inlineStr">
+    <row r="38" ht="39.95" customHeight="1" s="202">
+      <c r="C38" s="192" t="inlineStr">
         <is>
           <t xml:space="preserve">We'll do the competition in two halves since the Round of 16 is heavily dependent on the Group Stages. </t>
         </is>
       </c>
-      <c r="D38" s="196" t="n"/>
-      <c r="E38" s="196" t="n"/>
-      <c r="F38" s="196" t="n"/>
-      <c r="G38" s="196" t="n"/>
-      <c r="H38" s="196" t="n"/>
-      <c r="I38" s="196" t="n"/>
-      <c r="J38" s="196" t="n"/>
-      <c r="K38" s="196" t="n"/>
-      <c r="L38" s="196" t="n"/>
+      <c r="D38" s="193" t="n"/>
+      <c r="E38" s="193" t="n"/>
+      <c r="F38" s="193" t="n"/>
+      <c r="G38" s="193" t="n"/>
+      <c r="H38" s="193" t="n"/>
+      <c r="I38" s="193" t="n"/>
+      <c r="J38" s="193" t="n"/>
+      <c r="K38" s="193" t="n"/>
+      <c r="L38" s="193" t="n"/>
     </row>
     <row r="39">
       <c r="C39" s="32" t="inlineStr">
@@ -2821,19 +2829,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D39" s="192" t="n"/>
-      <c r="E39" s="193" t="n"/>
-      <c r="F39" s="193" t="n"/>
-      <c r="G39" s="194" t="n"/>
-      <c r="H39" s="199" t="inlineStr">
+      <c r="D39" s="209" t="n"/>
+      <c r="E39" s="204" t="n"/>
+      <c r="F39" s="204" t="n"/>
+      <c r="G39" s="205" t="n"/>
+      <c r="H39" s="203" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULTS         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I39" s="193" t="n"/>
-      <c r="J39" s="193" t="n"/>
-      <c r="K39" s="193" t="n"/>
-      <c r="L39" s="194" t="n"/>
+      <c r="I39" s="204" t="n"/>
+      <c r="J39" s="204" t="n"/>
+      <c r="K39" s="204" t="n"/>
+      <c r="L39" s="205" t="n"/>
     </row>
     <row r="40">
       <c r="C40" s="33" t="inlineStr">
@@ -2841,27 +2849,27 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D40" s="195" t="n"/>
-      <c r="E40" s="196" t="n"/>
-      <c r="F40" s="196" t="n"/>
+      <c r="D40" s="196" t="n"/>
+      <c r="E40" s="193" t="n"/>
+      <c r="F40" s="193" t="n"/>
       <c r="G40" s="197" t="n"/>
-      <c r="H40" s="200" t="n"/>
-      <c r="I40" s="196" t="n"/>
-      <c r="J40" s="196" t="n"/>
-      <c r="K40" s="196" t="n"/>
+      <c r="H40" s="206" t="n"/>
+      <c r="I40" s="193" t="n"/>
+      <c r="J40" s="193" t="n"/>
+      <c r="K40" s="193" t="n"/>
       <c r="L40" s="197" t="n"/>
     </row>
     <row r="41">
       <c r="B41" s="46" t="n"/>
-      <c r="C41" s="196" t="n"/>
+      <c r="C41" s="193" t="n"/>
     </row>
     <row r="42">
-      <c r="B42" s="209" t="inlineStr">
+      <c r="B42" s="198" t="inlineStr">
         <is>
           <t>Round of 16</t>
         </is>
       </c>
-      <c r="C42" s="196" t="n"/>
+      <c r="C42" s="193" t="n"/>
       <c r="D42" s="30" t="inlineStr">
         <is>
           <t>Results</t>
@@ -2904,11 +2912,11 @@
         </is>
       </c>
       <c r="Q42" s="39" t="n"/>
-      <c r="S42" s="198" t="n"/>
+      <c r="S42" s="201" t="n"/>
       <c r="U42" s="39" t="n"/>
     </row>
     <row r="43">
-      <c r="B43" s="207" t="inlineStr">
+      <c r="B43" s="190" t="inlineStr">
         <is>
           <t>R1</t>
         </is>
@@ -2918,18 +2926,18 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="D43" s="202" t="n"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B44" s="203" t="n"/>
-      <c r="C44" s="200" t="inlineStr">
+      <c r="D43" s="195" t="n"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B44" s="191" t="n"/>
+      <c r="C44" s="206" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="D44" s="203" t="n"/>
+      <c r="D44" s="191" t="n"/>
       <c r="E44" s="44" t="n"/>
-      <c r="F44" s="206" t="inlineStr">
+      <c r="F44" s="194" t="inlineStr">
         <is>
           <t>QF1</t>
         </is>
@@ -2939,22 +2947,22 @@
           <t>Winner R1</t>
         </is>
       </c>
-      <c r="H44" s="202" t="n"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="H44" s="195" t="n"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B45" s="5" t="n"/>
       <c r="D45" s="93" t="n"/>
       <c r="E45" s="43" t="n"/>
-      <c r="F45" s="203" t="n"/>
+      <c r="F45" s="191" t="n"/>
       <c r="G45" s="41" t="inlineStr">
         <is>
           <t>Winner R2</t>
         </is>
       </c>
-      <c r="H45" s="203" t="n"/>
+      <c r="H45" s="191" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="207" t="inlineStr">
+      <c r="B46" s="190" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
@@ -2964,22 +2972,22 @@
           <t>Belgium</t>
         </is>
       </c>
-      <c r="D46" s="202" t="n"/>
+      <c r="D46" s="195" t="n"/>
       <c r="G46" s="1" t="n"/>
       <c r="H46" s="94" t="n"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B47" s="203" t="n"/>
-      <c r="C47" s="200" t="inlineStr">
+    <row r="47" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B47" s="191" t="n"/>
+      <c r="C47" s="206" t="inlineStr">
         <is>
           <t>3rd Group A/D/E/F</t>
         </is>
       </c>
-      <c r="D47" s="203" t="n"/>
+      <c r="D47" s="191" t="n"/>
       <c r="G47" s="1" t="n"/>
       <c r="H47" s="95" t="n"/>
       <c r="I47" s="43" t="n"/>
-      <c r="J47" s="204" t="inlineStr">
+      <c r="J47" s="199" t="inlineStr">
         <is>
           <t>SF1</t>
         </is>
@@ -2989,8 +2997,8 @@
           <t>Winner QF1</t>
         </is>
       </c>
-      <c r="L47" s="202" t="n"/>
-      <c r="S47" s="198" t="n"/>
+      <c r="L47" s="195" t="n"/>
+      <c r="S47" s="201" t="n"/>
       <c r="U47" s="39" t="n"/>
     </row>
     <row r="48">
@@ -2998,16 +3006,16 @@
       <c r="D48" s="93" t="n"/>
       <c r="G48" s="1" t="n"/>
       <c r="H48" s="95" t="n"/>
-      <c r="J48" s="203" t="n"/>
+      <c r="J48" s="191" t="n"/>
       <c r="K48" s="42" t="inlineStr">
         <is>
           <t>Winner QF2</t>
         </is>
       </c>
-      <c r="L48" s="203" t="n"/>
+      <c r="L48" s="191" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="207" t="inlineStr">
+      <c r="B49" s="190" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
@@ -3017,22 +3025,22 @@
           <t>Winner Group F</t>
         </is>
       </c>
-      <c r="D49" s="202" t="n"/>
+      <c r="D49" s="195" t="n"/>
       <c r="G49" s="1" t="n"/>
       <c r="H49" s="96" t="n"/>
       <c r="K49" s="37" t="n"/>
       <c r="L49" s="94" t="n"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B50" s="203" t="n"/>
-      <c r="C50" s="200" t="inlineStr">
+    <row r="50" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B50" s="191" t="n"/>
+      <c r="C50" s="206" t="inlineStr">
         <is>
           <t>3rd Group A/B/C</t>
         </is>
       </c>
-      <c r="D50" s="203" t="n"/>
+      <c r="D50" s="191" t="n"/>
       <c r="E50" s="43" t="n"/>
-      <c r="F50" s="206" t="inlineStr">
+      <c r="F50" s="194" t="inlineStr">
         <is>
           <t>QF2</t>
         </is>
@@ -3042,42 +3050,42 @@
           <t>Winner R3</t>
         </is>
       </c>
-      <c r="H50" s="202" t="n"/>
+      <c r="H50" s="195" t="n"/>
       <c r="K50" s="37" t="n"/>
       <c r="L50" s="95" t="n"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1" s="191" thickBot="1">
+    <row r="51" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B51" s="5" t="n"/>
       <c r="D51" s="93" t="n"/>
       <c r="E51" s="43" t="n"/>
-      <c r="F51" s="203" t="n"/>
+      <c r="F51" s="191" t="n"/>
       <c r="G51" s="41" t="inlineStr">
         <is>
           <t>Winner R4</t>
         </is>
       </c>
-      <c r="H51" s="203" t="n"/>
+      <c r="H51" s="191" t="n"/>
       <c r="K51" s="37" t="n"/>
       <c r="L51" s="95" t="n"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B52" s="207" t="inlineStr">
+    <row r="52" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B52" s="190" t="inlineStr">
         <is>
           <t>R4</t>
         </is>
       </c>
       <c r="C52" s="38" t="inlineStr">
         <is>
-          <t>2nd Group D</t>
-        </is>
-      </c>
-      <c r="D52" s="202" t="n"/>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="D52" s="195" t="n"/>
       <c r="G52" s="1" t="n"/>
       <c r="H52" s="93" t="n"/>
       <c r="K52" s="37" t="n"/>
       <c r="L52" s="95" t="n"/>
       <c r="M52" s="43" t="n"/>
-      <c r="N52" s="205" t="inlineStr">
+      <c r="N52" s="200" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -3087,27 +3095,27 @@
           <t>Winner SF1</t>
         </is>
       </c>
-      <c r="P52" s="202" t="n"/>
+      <c r="P52" s="195" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="203" t="n"/>
-      <c r="C53" s="200" t="inlineStr">
+      <c r="B53" s="191" t="n"/>
+      <c r="C53" s="206" t="inlineStr">
         <is>
           <t>2nd Group E</t>
         </is>
       </c>
-      <c r="D53" s="203" t="n"/>
+      <c r="D53" s="191" t="n"/>
       <c r="G53" s="1" t="n"/>
       <c r="H53" s="93" t="n"/>
       <c r="K53" s="37" t="n"/>
       <c r="L53" s="95" t="n"/>
-      <c r="N53" s="203" t="n"/>
+      <c r="N53" s="191" t="n"/>
       <c r="O53" s="42" t="inlineStr">
         <is>
           <t>Winner SF2</t>
         </is>
       </c>
-      <c r="P53" s="203" t="n"/>
+      <c r="P53" s="191" t="n"/>
     </row>
     <row r="54">
       <c r="B54" s="5" t="n"/>
@@ -3118,7 +3126,7 @@
       <c r="L54" s="95" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="207" t="inlineStr">
+      <c r="B55" s="190" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
@@ -3128,22 +3136,22 @@
           <t>Winner Group E</t>
         </is>
       </c>
-      <c r="D55" s="202" t="n"/>
+      <c r="D55" s="195" t="n"/>
       <c r="G55" s="1" t="n"/>
       <c r="H55" s="93" t="n"/>
       <c r="K55" s="37" t="n"/>
       <c r="L55" s="95" t="n"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B56" s="203" t="n"/>
-      <c r="C56" s="200" t="inlineStr">
+    <row r="56" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B56" s="191" t="n"/>
+      <c r="C56" s="206" t="inlineStr">
         <is>
           <t>3rd Group A/B/C/D</t>
         </is>
       </c>
-      <c r="D56" s="203" t="n"/>
+      <c r="D56" s="191" t="n"/>
       <c r="E56" s="44" t="n"/>
-      <c r="F56" s="206" t="inlineStr">
+      <c r="F56" s="194" t="inlineStr">
         <is>
           <t>QF3</t>
         </is>
@@ -3153,53 +3161,53 @@
           <t>Winner R5</t>
         </is>
       </c>
-      <c r="H56" s="202" t="n"/>
+      <c r="H56" s="195" t="n"/>
       <c r="K56" s="37" t="n"/>
       <c r="L56" s="95" t="n"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1" s="191" thickBot="1">
+    <row r="57" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B57" s="5" t="n"/>
       <c r="D57" s="93" t="n"/>
       <c r="E57" s="45" t="n"/>
-      <c r="F57" s="203" t="n"/>
+      <c r="F57" s="191" t="n"/>
       <c r="G57" s="41" t="inlineStr">
         <is>
           <t>Winner R6</t>
         </is>
       </c>
-      <c r="H57" s="203" t="n"/>
+      <c r="H57" s="191" t="n"/>
       <c r="K57" s="37" t="n"/>
       <c r="L57" s="95" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="207" t="inlineStr">
+      <c r="B58" s="190" t="inlineStr">
         <is>
           <t>R6</t>
         </is>
       </c>
       <c r="C58" s="38" t="inlineStr">
         <is>
-          <t>Winner Group D</t>
-        </is>
-      </c>
-      <c r="D58" s="202" t="n"/>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="D58" s="195" t="n"/>
       <c r="G58" s="1" t="n"/>
       <c r="H58" s="94" t="n"/>
       <c r="K58" s="37" t="n"/>
       <c r="L58" s="96" t="n"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B59" s="203" t="n"/>
-      <c r="C59" s="200" t="inlineStr">
+    <row r="59" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B59" s="191" t="n"/>
+      <c r="C59" s="206" t="inlineStr">
         <is>
           <t>2nd Group F</t>
         </is>
       </c>
-      <c r="D59" s="203" t="n"/>
+      <c r="D59" s="191" t="n"/>
       <c r="G59" s="1" t="n"/>
       <c r="H59" s="95" t="n"/>
       <c r="I59" s="43" t="n"/>
-      <c r="J59" s="204" t="inlineStr">
+      <c r="J59" s="199" t="inlineStr">
         <is>
           <t>SF2</t>
         </is>
@@ -3209,23 +3217,23 @@
           <t>Winner QF3</t>
         </is>
       </c>
-      <c r="L59" s="202" t="n"/>
+      <c r="L59" s="195" t="n"/>
     </row>
     <row r="60">
       <c r="B60" s="5" t="n"/>
       <c r="D60" s="93" t="n"/>
       <c r="G60" s="1" t="n"/>
       <c r="H60" s="95" t="n"/>
-      <c r="J60" s="203" t="n"/>
+      <c r="J60" s="191" t="n"/>
       <c r="K60" s="42" t="inlineStr">
         <is>
           <t>Winner QF4</t>
         </is>
       </c>
-      <c r="L60" s="203" t="n"/>
+      <c r="L60" s="191" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="207" t="inlineStr">
+      <c r="B61" s="190" t="inlineStr">
         <is>
           <t>R7</t>
         </is>
@@ -3235,20 +3243,20 @@
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="D61" s="202" t="n"/>
+      <c r="D61" s="195" t="n"/>
       <c r="G61" s="1" t="n"/>
       <c r="H61" s="96" t="n"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B62" s="203" t="n"/>
-      <c r="C62" s="200" t="inlineStr">
+    <row r="62" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B62" s="191" t="n"/>
+      <c r="C62" s="206" t="inlineStr">
         <is>
           <t>3rd Group D/E/F</t>
         </is>
       </c>
-      <c r="D62" s="203" t="n"/>
+      <c r="D62" s="191" t="n"/>
       <c r="E62" s="44" t="n"/>
-      <c r="F62" s="206" t="inlineStr">
+      <c r="F62" s="194" t="inlineStr">
         <is>
           <t>QF4</t>
         </is>
@@ -3258,22 +3266,22 @@
           <t>Winner R7</t>
         </is>
       </c>
-      <c r="H62" s="202" t="n"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="H62" s="195" t="n"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B63" s="5" t="n"/>
       <c r="D63" s="93" t="n"/>
       <c r="E63" s="45" t="n"/>
-      <c r="F63" s="203" t="n"/>
+      <c r="F63" s="191" t="n"/>
       <c r="G63" s="41" t="inlineStr">
         <is>
           <t>Winner R8</t>
         </is>
       </c>
-      <c r="H63" s="203" t="n"/>
+      <c r="H63" s="191" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="207" t="inlineStr">
+      <c r="B64" s="190" t="inlineStr">
         <is>
           <t>R8</t>
         </is>
@@ -3283,29 +3291,39 @@
           <t>Wales</t>
         </is>
       </c>
-      <c r="D64" s="202" t="n"/>
+      <c r="D64" s="195" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" s="203" t="n"/>
-      <c r="C65" s="200" t="inlineStr">
+      <c r="B65" s="191" t="n"/>
+      <c r="C65" s="206" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="D65" s="203" t="n"/>
+      <c r="D65" s="191" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C38:L38"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="H17:L18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="H39:L40"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="H50:H51"/>
     <mergeCell ref="F62:F63"/>
     <mergeCell ref="F56:F57"/>
     <mergeCell ref="F50:F51"/>
@@ -3321,26 +3339,16 @@
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="D64:D65"/>
     <mergeCell ref="D58:D59"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="H17:L18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="H39:L40"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C38:L38"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -3361,15 +3369,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5.28515625" customWidth="1" style="191" min="1" max="1"/>
-    <col width="15.140625" bestFit="1" customWidth="1" style="191" min="2" max="2"/>
-    <col width="5.7109375" customWidth="1" style="191" min="3" max="4"/>
-    <col width="16.7109375" customWidth="1" style="191" min="5" max="5"/>
-    <col width="5.7109375" customWidth="1" style="191" min="6" max="7"/>
-    <col width="16.7109375" customWidth="1" style="191" min="8" max="8"/>
-    <col width="5.7109375" customWidth="1" style="191" min="9" max="10"/>
-    <col width="16.7109375" customWidth="1" style="191" min="11" max="11"/>
-    <col width="5.7109375" customWidth="1" style="191" min="12" max="13"/>
+    <col width="5.28515625" customWidth="1" style="202" min="1" max="1"/>
+    <col width="15.140625" bestFit="1" customWidth="1" style="202" min="2" max="2"/>
+    <col width="5.7109375" customWidth="1" style="202" min="3" max="4"/>
+    <col width="16.7109375" customWidth="1" style="202" min="5" max="5"/>
+    <col width="5.7109375" customWidth="1" style="202" min="6" max="7"/>
+    <col width="16.7109375" customWidth="1" style="202" min="8" max="8"/>
+    <col width="5.7109375" customWidth="1" style="202" min="9" max="10"/>
+    <col width="16.7109375" customWidth="1" style="202" min="11" max="11"/>
+    <col width="5.7109375" customWidth="1" style="202" min="12" max="13"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -3423,7 +3431,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
@@ -3459,7 +3467,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="6" t="inlineStr">
         <is>
@@ -3495,7 +3503,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" s="6" t="inlineStr">
         <is>
@@ -3599,11 +3607,11 @@
     <row r="9">
       <c r="E9" s="22" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F9" s="23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G9" s="83" t="n"/>
       <c r="H9" s="26" t="inlineStr">
@@ -3627,7 +3635,7 @@
     <row r="10">
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="F10" s="23" t="n">
@@ -3659,7 +3667,7 @@
         </is>
       </c>
       <c r="F11" s="23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G11" s="83" t="n"/>
       <c r="H11" s="26" t="inlineStr">
@@ -3727,25 +3735,25 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col width="2.42578125" customWidth="1" style="217" min="1" max="1"/>
-    <col width="4.42578125" customWidth="1" style="217" min="2" max="2"/>
-    <col width="16.7109375" customWidth="1" style="217" min="3" max="4"/>
-    <col width="8.7109375" customWidth="1" style="217" min="5" max="5"/>
-    <col width="4.42578125" customWidth="1" style="217" min="6" max="6"/>
-    <col width="16.7109375" customWidth="1" style="217" min="7" max="8"/>
-    <col width="7.42578125" customWidth="1" style="217" min="9" max="9"/>
-    <col width="4" customWidth="1" style="217" min="10" max="10"/>
-    <col width="16.85546875" customWidth="1" style="217" min="11" max="12"/>
-    <col width="8.7109375" customWidth="1" style="217" min="13" max="13"/>
-    <col width="4.140625" customWidth="1" style="217" min="14" max="14"/>
-    <col width="16.7109375" customWidth="1" style="217" min="15" max="17"/>
-    <col width="8.7109375" customWidth="1" style="217" min="18" max="26"/>
-    <col width="14.42578125" customWidth="1" style="217" min="27" max="34"/>
-    <col width="14.42578125" customWidth="1" style="217" min="35" max="16384"/>
+    <col width="2.42578125" customWidth="1" style="211" min="1" max="1"/>
+    <col width="4.42578125" customWidth="1" style="211" min="2" max="2"/>
+    <col width="16.7109375" customWidth="1" style="211" min="3" max="4"/>
+    <col width="8.7109375" customWidth="1" style="211" min="5" max="5"/>
+    <col width="4.42578125" customWidth="1" style="211" min="6" max="6"/>
+    <col width="16.7109375" customWidth="1" style="211" min="7" max="8"/>
+    <col width="7.42578125" customWidth="1" style="211" min="9" max="9"/>
+    <col width="4" customWidth="1" style="211" min="10" max="10"/>
+    <col width="16.85546875" customWidth="1" style="211" min="11" max="12"/>
+    <col width="8.7109375" customWidth="1" style="211" min="13" max="13"/>
+    <col width="4.140625" customWidth="1" style="211" min="14" max="14"/>
+    <col width="16.7109375" customWidth="1" style="211" min="15" max="17"/>
+    <col width="8.7109375" customWidth="1" style="211" min="18" max="26"/>
+    <col width="14.42578125" customWidth="1" style="211" min="27" max="35"/>
+    <col width="14.42578125" customWidth="1" style="211" min="36" max="16384"/>
   </cols>
   <sheetData>
-    <row r="2" ht="26.25" customHeight="1" s="191">
-      <c r="C2" s="218" t="inlineStr">
+    <row r="2" ht="26.25" customHeight="1" s="202">
+      <c r="C2" s="212" t="inlineStr">
         <is>
           <t xml:space="preserve">EURO 2020 </t>
         </is>
@@ -4039,21 +4047,21 @@
       <c r="K15" s="100" t="n"/>
       <c r="L15" s="100" t="n"/>
     </row>
-    <row r="16" ht="39.75" customHeight="1" s="191">
-      <c r="C16" s="219" t="inlineStr">
+    <row r="16" ht="39.75" customHeight="1" s="202">
+      <c r="C16" s="213" t="inlineStr">
         <is>
           <t>Group Stage predictions are made in a single submission and are due by Thursday Evening June 10th, 2021.</t>
         </is>
       </c>
-      <c r="D16" s="220" t="n"/>
-      <c r="E16" s="220" t="n"/>
-      <c r="F16" s="220" t="n"/>
-      <c r="G16" s="220" t="n"/>
-      <c r="H16" s="220" t="n"/>
-      <c r="I16" s="220" t="n"/>
-      <c r="J16" s="220" t="n"/>
-      <c r="K16" s="220" t="n"/>
-      <c r="L16" s="220" t="n"/>
+      <c r="D16" s="214" t="n"/>
+      <c r="E16" s="214" t="n"/>
+      <c r="F16" s="214" t="n"/>
+      <c r="G16" s="214" t="n"/>
+      <c r="H16" s="214" t="n"/>
+      <c r="I16" s="214" t="n"/>
+      <c r="J16" s="214" t="n"/>
+      <c r="K16" s="214" t="n"/>
+      <c r="L16" s="214" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="136" t="inlineStr">
@@ -4061,19 +4069,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D17" s="221" t="n"/>
-      <c r="E17" s="222" t="n"/>
-      <c r="F17" s="222" t="n"/>
-      <c r="G17" s="223" t="n"/>
-      <c r="H17" s="224" t="inlineStr">
+      <c r="D17" s="215" t="n"/>
+      <c r="E17" s="216" t="n"/>
+      <c r="F17" s="216" t="n"/>
+      <c r="G17" s="217" t="n"/>
+      <c r="H17" s="218" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I17" s="222" t="n"/>
-      <c r="J17" s="222" t="n"/>
-      <c r="K17" s="222" t="n"/>
-      <c r="L17" s="223" t="n"/>
+      <c r="I17" s="216" t="n"/>
+      <c r="J17" s="216" t="n"/>
+      <c r="K17" s="216" t="n"/>
+      <c r="L17" s="217" t="n"/>
     </row>
     <row r="18">
       <c r="C18" s="137" t="inlineStr">
@@ -4081,15 +4089,15 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D18" s="227" t="n"/>
-      <c r="E18" s="220" t="n"/>
-      <c r="F18" s="220" t="n"/>
-      <c r="G18" s="226" t="n"/>
-      <c r="H18" s="225" t="n"/>
-      <c r="I18" s="220" t="n"/>
-      <c r="J18" s="220" t="n"/>
-      <c r="K18" s="220" t="n"/>
-      <c r="L18" s="226" t="n"/>
+      <c r="D18" s="221" t="n"/>
+      <c r="E18" s="214" t="n"/>
+      <c r="F18" s="214" t="n"/>
+      <c r="G18" s="220" t="n"/>
+      <c r="H18" s="219" t="n"/>
+      <c r="I18" s="214" t="n"/>
+      <c r="J18" s="214" t="n"/>
+      <c r="K18" s="214" t="n"/>
+      <c r="L18" s="220" t="n"/>
     </row>
     <row r="19">
       <c r="C19" s="100" t="n"/>
@@ -4097,36 +4105,36 @@
     <row r="20">
       <c r="A20" s="138" t="n"/>
       <c r="B20" s="138" t="n"/>
-      <c r="C20" s="228" t="inlineStr">
+      <c r="C20" s="222" t="inlineStr">
         <is>
           <t>Match Day 1</t>
         </is>
       </c>
-      <c r="D20" s="222" t="n"/>
+      <c r="D20" s="216" t="n"/>
       <c r="E20" s="139" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
-      <c r="F20" s="216" t="n"/>
-      <c r="G20" s="228" t="inlineStr">
+      <c r="F20" s="210" t="n"/>
+      <c r="G20" s="222" t="inlineStr">
         <is>
           <t>Match Day 2</t>
         </is>
       </c>
-      <c r="H20" s="222" t="n"/>
+      <c r="H20" s="216" t="n"/>
       <c r="I20" s="139" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
-      <c r="J20" s="216" t="n"/>
-      <c r="K20" s="228" t="inlineStr">
+      <c r="J20" s="210" t="n"/>
+      <c r="K20" s="222" t="inlineStr">
         <is>
           <t>Match Day 3</t>
         </is>
       </c>
-      <c r="L20" s="222" t="n"/>
+      <c r="L20" s="216" t="n"/>
       <c r="M20" s="139" t="inlineStr">
         <is>
           <t>Results</t>
@@ -4146,7 +4154,7 @@
       <c r="Y20" s="138" t="n"/>
       <c r="Z20" s="138" t="n"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1" s="191">
+    <row r="21" ht="15.75" customHeight="1" s="202">
       <c r="C21" s="140" t="inlineStr">
         <is>
           <t>Turkey</t>
@@ -4199,7 +4207,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1" s="191">
+    <row r="22" ht="15.75" customHeight="1" s="202">
       <c r="C22" s="148" t="n"/>
       <c r="D22" s="143" t="n"/>
       <c r="E22" s="149" t="n"/>
@@ -4236,7 +4244,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1" s="191">
+    <row r="23" ht="15.75" customHeight="1" s="202">
       <c r="C23" s="140" t="inlineStr">
         <is>
           <t>Wales</t>
@@ -4275,7 +4283,7 @@
       <c r="L23" s="143" t="n"/>
       <c r="M23" s="149" t="n"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1" s="191">
+    <row r="24" ht="15.75" customHeight="1" s="202">
       <c r="C24" s="144" t="inlineStr">
         <is>
           <t>Denmark</t>
@@ -4314,7 +4322,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1" s="191">
+    <row r="25" ht="15.75" customHeight="1" s="202">
       <c r="C25" s="144" t="inlineStr">
         <is>
           <t>Belgium</t>
@@ -4365,7 +4373,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1" s="191">
+    <row r="26" ht="15.75" customHeight="1" s="202">
       <c r="C26" s="148" t="n"/>
       <c r="D26" s="143" t="n"/>
       <c r="E26" s="149" t="n"/>
@@ -4402,7 +4410,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1" s="191">
+    <row r="27" ht="15.75" customHeight="1" s="202">
       <c r="C27" s="153" t="inlineStr">
         <is>
           <t>England</t>
@@ -4453,7 +4461,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1" s="191">
+    <row r="28" ht="15.75" customHeight="1" s="202">
       <c r="C28" s="150" t="inlineStr">
         <is>
           <t>Austria</t>
@@ -4480,7 +4488,7 @@
       <c r="L28" s="143" t="n"/>
       <c r="M28" s="149" t="n"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1" s="191">
+    <row r="29" ht="15.75" customHeight="1" s="202">
       <c r="C29" s="150" t="inlineStr">
         <is>
           <t>Netherlands</t>
@@ -4531,7 +4539,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1" s="191">
+    <row r="30" ht="15.75" customHeight="1" s="202">
       <c r="C30" s="148" t="n"/>
       <c r="D30" s="143" t="n"/>
       <c r="E30" s="149" t="n"/>
@@ -4568,7 +4576,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1" s="191">
+    <row r="31" ht="15.75" customHeight="1" s="202">
       <c r="C31" s="153" t="inlineStr">
         <is>
           <t>Scotland</t>
@@ -4607,7 +4615,7 @@
       <c r="L31" s="143" t="n"/>
       <c r="M31" s="149" t="n"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1" s="191">
+    <row r="32" ht="15.75" customHeight="1" s="202">
       <c r="C32" s="156" t="inlineStr">
         <is>
           <t>Poland</t>
@@ -4646,7 +4654,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1" s="191">
+    <row r="33" ht="15.75" customHeight="1" s="202">
       <c r="C33" s="156" t="inlineStr">
         <is>
           <t>Spain</t>
@@ -4697,7 +4705,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1" s="191">
+    <row r="34" ht="15.75" customHeight="1" s="202">
       <c r="C34" s="148" t="n"/>
       <c r="D34" s="143" t="n"/>
       <c r="E34" s="149" t="n"/>
@@ -4734,7 +4742,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1" s="191">
+    <row r="35" ht="15.75" customHeight="1" s="202">
       <c r="C35" s="159" t="inlineStr">
         <is>
           <t>Hungary</t>
@@ -4785,7 +4793,7 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1" s="191">
+    <row r="36" ht="15.75" customHeight="1" s="202">
       <c r="C36" s="162" t="inlineStr">
         <is>
           <t>France</t>
@@ -4812,70 +4820,70 @@
       <c r="L36" s="166" t="n"/>
       <c r="M36" s="167" t="n"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1" s="191"/>
-    <row r="38" ht="39.75" customHeight="1" s="191">
-      <c r="C38" s="219" t="inlineStr">
+    <row r="37" ht="15.75" customHeight="1" s="202"/>
+    <row r="38" ht="39.75" customHeight="1" s="202">
+      <c r="C38" s="213" t="inlineStr">
         <is>
           <t xml:space="preserve">We'll do the competition in two halves since the Round of 16 is heavily dependent on the Group Stages. </t>
         </is>
       </c>
-      <c r="D38" s="220" t="n"/>
-      <c r="E38" s="220" t="n"/>
-      <c r="F38" s="220" t="n"/>
-      <c r="G38" s="220" t="n"/>
-      <c r="H38" s="220" t="n"/>
-      <c r="I38" s="220" t="n"/>
-      <c r="J38" s="220" t="n"/>
-      <c r="K38" s="220" t="n"/>
-      <c r="L38" s="220" t="n"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1" s="191">
+      <c r="D38" s="214" t="n"/>
+      <c r="E38" s="214" t="n"/>
+      <c r="F38" s="214" t="n"/>
+      <c r="G38" s="214" t="n"/>
+      <c r="H38" s="214" t="n"/>
+      <c r="I38" s="214" t="n"/>
+      <c r="J38" s="214" t="n"/>
+      <c r="K38" s="214" t="n"/>
+      <c r="L38" s="214" t="n"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1" s="202">
       <c r="C39" s="136" t="inlineStr">
         <is>
           <t>Name:</t>
         </is>
       </c>
-      <c r="D39" s="221" t="n"/>
-      <c r="E39" s="222" t="n"/>
-      <c r="F39" s="222" t="n"/>
-      <c r="G39" s="223" t="n"/>
-      <c r="H39" s="224" t="inlineStr">
+      <c r="D39" s="215" t="n"/>
+      <c r="E39" s="216" t="n"/>
+      <c r="F39" s="216" t="n"/>
+      <c r="G39" s="217" t="n"/>
+      <c r="H39" s="218" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULTS         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I39" s="222" t="n"/>
-      <c r="J39" s="222" t="n"/>
-      <c r="K39" s="222" t="n"/>
-      <c r="L39" s="223" t="n"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1" s="191">
+      <c r="I39" s="216" t="n"/>
+      <c r="J39" s="216" t="n"/>
+      <c r="K39" s="216" t="n"/>
+      <c r="L39" s="217" t="n"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1" s="202">
       <c r="C40" s="137" t="inlineStr">
         <is>
           <t>Date:</t>
         </is>
       </c>
-      <c r="D40" s="227" t="n"/>
-      <c r="E40" s="220" t="n"/>
-      <c r="F40" s="220" t="n"/>
-      <c r="G40" s="226" t="n"/>
-      <c r="H40" s="225" t="n"/>
-      <c r="I40" s="220" t="n"/>
-      <c r="J40" s="220" t="n"/>
-      <c r="K40" s="220" t="n"/>
-      <c r="L40" s="226" t="n"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1" s="191">
+      <c r="D40" s="221" t="n"/>
+      <c r="E40" s="214" t="n"/>
+      <c r="F40" s="214" t="n"/>
+      <c r="G40" s="220" t="n"/>
+      <c r="H40" s="219" t="n"/>
+      <c r="I40" s="214" t="n"/>
+      <c r="J40" s="214" t="n"/>
+      <c r="K40" s="214" t="n"/>
+      <c r="L40" s="220" t="n"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1" s="202">
       <c r="B41" s="168" t="n"/>
       <c r="C41" s="169" t="n"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1" s="191">
-      <c r="B42" s="229" t="inlineStr">
+    <row r="42" ht="15.75" customHeight="1" s="202">
+      <c r="B42" s="223" t="inlineStr">
         <is>
           <t>Round of 16</t>
         </is>
       </c>
-      <c r="C42" s="220" t="n"/>
+      <c r="C42" s="214" t="n"/>
       <c r="D42" s="170" t="inlineStr">
         <is>
           <t>Results</t>
@@ -4919,12 +4927,12 @@
       </c>
       <c r="Q42" s="138" t="n"/>
       <c r="R42" s="171" t="n"/>
-      <c r="S42" s="216" t="n"/>
+      <c r="S42" s="210" t="n"/>
       <c r="U42" s="138" t="n"/>
       <c r="V42" s="171" t="n"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1" s="191">
-      <c r="B43" s="210" t="inlineStr">
+    <row r="43" ht="15.75" customHeight="1" s="202">
+      <c r="B43" s="224" t="inlineStr">
         <is>
           <t>R1</t>
         </is>
@@ -4934,7 +4942,7 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="D43" s="212" t="n"/>
+      <c r="D43" s="226" t="n"/>
       <c r="E43" s="171" t="n"/>
       <c r="F43" s="171" t="n"/>
       <c r="O43" s="171" t="n"/>
@@ -4946,16 +4954,16 @@
       <c r="U43" s="171" t="n"/>
       <c r="V43" s="171" t="n"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B44" s="211" t="n"/>
+    <row r="44" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B44" s="225" t="n"/>
       <c r="C44" s="173" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="D44" s="211" t="n"/>
+      <c r="D44" s="225" t="n"/>
       <c r="E44" s="174" t="n"/>
-      <c r="F44" s="214" t="inlineStr">
+      <c r="F44" s="227" t="inlineStr">
         <is>
           <t>QF1</t>
         </is>
@@ -4965,7 +4973,7 @@
           <t>Winner R1</t>
         </is>
       </c>
-      <c r="H44" s="212" t="n"/>
+      <c r="H44" s="226" t="n"/>
       <c r="O44" s="171" t="n"/>
       <c r="P44" s="171" t="n"/>
       <c r="Q44" s="171" t="n"/>
@@ -4975,18 +4983,18 @@
       <c r="U44" s="171" t="n"/>
       <c r="V44" s="171" t="n"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1" s="191" thickBot="1">
+    <row r="45" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B45" s="138" t="n"/>
       <c r="C45" s="171" t="n"/>
       <c r="D45" s="176" t="n"/>
       <c r="E45" s="177" t="n"/>
-      <c r="F45" s="211" t="n"/>
+      <c r="F45" s="225" t="n"/>
       <c r="G45" s="178" t="inlineStr">
         <is>
           <t>Winner R2</t>
         </is>
       </c>
-      <c r="H45" s="211" t="n"/>
+      <c r="H45" s="225" t="n"/>
       <c r="O45" s="171" t="n"/>
       <c r="P45" s="171" t="n"/>
       <c r="Q45" s="171" t="n"/>
@@ -4996,8 +5004,8 @@
       <c r="U45" s="171" t="n"/>
       <c r="V45" s="171" t="n"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1" s="191">
-      <c r="B46" s="210" t="inlineStr">
+    <row r="46" ht="15.75" customHeight="1" s="202">
+      <c r="B46" s="224" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
@@ -5007,7 +5015,7 @@
           <t>Belgium</t>
         </is>
       </c>
-      <c r="D46" s="212" t="n"/>
+      <c r="D46" s="226" t="n"/>
       <c r="E46" s="171" t="n"/>
       <c r="F46" s="171" t="n"/>
       <c r="G46" s="179" t="n"/>
@@ -5021,20 +5029,20 @@
       <c r="U46" s="171" t="n"/>
       <c r="V46" s="171" t="n"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B47" s="211" t="n"/>
+    <row r="47" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B47" s="225" t="n"/>
       <c r="C47" s="173" t="inlineStr">
         <is>
           <t>3rd Group A/D/E/F</t>
         </is>
       </c>
-      <c r="D47" s="211" t="n"/>
+      <c r="D47" s="225" t="n"/>
       <c r="E47" s="171" t="n"/>
       <c r="F47" s="171" t="n"/>
       <c r="G47" s="179" t="n"/>
       <c r="H47" s="181" t="n"/>
       <c r="I47" s="177" t="n"/>
-      <c r="J47" s="213" t="inlineStr">
+      <c r="J47" s="228" t="inlineStr">
         <is>
           <t>SF1</t>
         </is>
@@ -5044,16 +5052,16 @@
           <t>Winner QF1</t>
         </is>
       </c>
-      <c r="L47" s="212" t="n"/>
+      <c r="L47" s="226" t="n"/>
       <c r="O47" s="171" t="n"/>
       <c r="P47" s="171" t="n"/>
       <c r="Q47" s="171" t="n"/>
       <c r="R47" s="171" t="n"/>
-      <c r="S47" s="216" t="n"/>
+      <c r="S47" s="210" t="n"/>
       <c r="U47" s="138" t="n"/>
       <c r="V47" s="171" t="n"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1" s="191">
+    <row r="48" ht="15.75" customHeight="1" s="202">
       <c r="B48" s="138" t="n"/>
       <c r="C48" s="171" t="n"/>
       <c r="D48" s="176" t="n"/>
@@ -5061,13 +5069,13 @@
       <c r="F48" s="171" t="n"/>
       <c r="G48" s="179" t="n"/>
       <c r="H48" s="181" t="n"/>
-      <c r="J48" s="211" t="n"/>
+      <c r="J48" s="225" t="n"/>
       <c r="K48" s="165" t="inlineStr">
         <is>
           <t>Winner QF2</t>
         </is>
       </c>
-      <c r="L48" s="211" t="n"/>
+      <c r="L48" s="225" t="n"/>
       <c r="O48" s="171" t="n"/>
       <c r="P48" s="171" t="n"/>
       <c r="Q48" s="171" t="n"/>
@@ -5077,8 +5085,8 @@
       <c r="U48" s="171" t="n"/>
       <c r="V48" s="171" t="n"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1" s="191">
-      <c r="B49" s="210" t="inlineStr">
+    <row r="49" ht="15.75" customHeight="1" s="202">
+      <c r="B49" s="224" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
@@ -5088,7 +5096,7 @@
           <t>Winner Group F</t>
         </is>
       </c>
-      <c r="D49" s="212" t="n"/>
+      <c r="D49" s="226" t="n"/>
       <c r="E49" s="171" t="n"/>
       <c r="F49" s="171" t="n"/>
       <c r="G49" s="179" t="n"/>
@@ -5096,16 +5104,16 @@
       <c r="K49" s="143" t="n"/>
       <c r="L49" s="180" t="n"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B50" s="211" t="n"/>
+    <row r="50" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B50" s="225" t="n"/>
       <c r="C50" s="173" t="inlineStr">
         <is>
           <t>3rd Group A/B/C</t>
         </is>
       </c>
-      <c r="D50" s="211" t="n"/>
+      <c r="D50" s="225" t="n"/>
       <c r="E50" s="177" t="n"/>
-      <c r="F50" s="214" t="inlineStr">
+      <c r="F50" s="227" t="inlineStr">
         <is>
           <t>QF2</t>
         </is>
@@ -5115,37 +5123,37 @@
           <t>Winner R3</t>
         </is>
       </c>
-      <c r="H50" s="212" t="n"/>
+      <c r="H50" s="226" t="n"/>
       <c r="K50" s="143" t="n"/>
       <c r="L50" s="181" t="n"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1" s="191" thickBot="1">
+    <row r="51" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B51" s="138" t="n"/>
       <c r="C51" s="171" t="n"/>
       <c r="D51" s="176" t="n"/>
       <c r="E51" s="177" t="n"/>
-      <c r="F51" s="211" t="n"/>
+      <c r="F51" s="225" t="n"/>
       <c r="G51" s="178" t="inlineStr">
         <is>
           <t>Winner R4</t>
         </is>
       </c>
-      <c r="H51" s="211" t="n"/>
+      <c r="H51" s="225" t="n"/>
       <c r="K51" s="143" t="n"/>
       <c r="L51" s="181" t="n"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B52" s="210" t="inlineStr">
+    <row r="52" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B52" s="224" t="inlineStr">
         <is>
           <t>R4</t>
         </is>
       </c>
       <c r="C52" s="172" t="inlineStr">
         <is>
-          <t>2nd Group D</t>
-        </is>
-      </c>
-      <c r="D52" s="212" t="n"/>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="D52" s="226" t="n"/>
       <c r="E52" s="171" t="n"/>
       <c r="F52" s="171" t="n"/>
       <c r="G52" s="179" t="n"/>
@@ -5153,7 +5161,7 @@
       <c r="K52" s="143" t="n"/>
       <c r="L52" s="181" t="n"/>
       <c r="M52" s="177" t="n"/>
-      <c r="N52" s="215" t="inlineStr">
+      <c r="N52" s="229" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -5163,31 +5171,31 @@
           <t>Winner SF1</t>
         </is>
       </c>
-      <c r="P52" s="212" t="n"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1" s="191">
-      <c r="B53" s="211" t="n"/>
+      <c r="P52" s="226" t="n"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1" s="202">
+      <c r="B53" s="225" t="n"/>
       <c r="C53" s="173" t="inlineStr">
         <is>
           <t>2nd Group E</t>
         </is>
       </c>
-      <c r="D53" s="211" t="n"/>
+      <c r="D53" s="225" t="n"/>
       <c r="E53" s="171" t="n"/>
       <c r="F53" s="171" t="n"/>
       <c r="G53" s="179" t="n"/>
       <c r="H53" s="176" t="n"/>
       <c r="K53" s="143" t="n"/>
       <c r="L53" s="181" t="n"/>
-      <c r="N53" s="211" t="n"/>
+      <c r="N53" s="225" t="n"/>
       <c r="O53" s="165" t="inlineStr">
         <is>
           <t>Winner SF2</t>
         </is>
       </c>
-      <c r="P53" s="211" t="n"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1" s="191">
+      <c r="P53" s="225" t="n"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1" s="202">
       <c r="B54" s="138" t="n"/>
       <c r="C54" s="171" t="n"/>
       <c r="D54" s="176" t="n"/>
@@ -5198,8 +5206,8 @@
       <c r="K54" s="143" t="n"/>
       <c r="L54" s="181" t="n"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1" s="191">
-      <c r="B55" s="210" t="inlineStr">
+    <row r="55" ht="15.75" customHeight="1" s="202">
+      <c r="B55" s="224" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
@@ -5209,7 +5217,7 @@
           <t>Winner Group E</t>
         </is>
       </c>
-      <c r="D55" s="212" t="n"/>
+      <c r="D55" s="226" t="n"/>
       <c r="E55" s="171" t="n"/>
       <c r="F55" s="171" t="n"/>
       <c r="G55" s="179" t="n"/>
@@ -5217,16 +5225,16 @@
       <c r="K55" s="143" t="n"/>
       <c r="L55" s="181" t="n"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B56" s="211" t="n"/>
+    <row r="56" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B56" s="225" t="n"/>
       <c r="C56" s="173" t="inlineStr">
         <is>
           <t>3rd Group A/B/C/D</t>
         </is>
       </c>
-      <c r="D56" s="211" t="n"/>
+      <c r="D56" s="225" t="n"/>
       <c r="E56" s="174" t="n"/>
-      <c r="F56" s="214" t="inlineStr">
+      <c r="F56" s="227" t="inlineStr">
         <is>
           <t>QF3</t>
         </is>
@@ -5236,53 +5244,53 @@
           <t>Winner R5</t>
         </is>
       </c>
-      <c r="H56" s="212" t="n"/>
+      <c r="H56" s="226" t="n"/>
       <c r="K56" s="143" t="n"/>
       <c r="L56" s="181" t="n"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1" s="191" thickBot="1">
+    <row r="57" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B57" s="138" t="n"/>
       <c r="D57" s="176" t="n"/>
       <c r="E57" s="184" t="n"/>
-      <c r="F57" s="211" t="n"/>
+      <c r="F57" s="225" t="n"/>
       <c r="G57" s="178" t="inlineStr">
         <is>
           <t>Winner R6</t>
         </is>
       </c>
-      <c r="H57" s="211" t="n"/>
+      <c r="H57" s="225" t="n"/>
       <c r="K57" s="143" t="n"/>
       <c r="L57" s="181" t="n"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1" s="191">
-      <c r="B58" s="210" t="inlineStr">
+    <row r="58" ht="15.75" customHeight="1" s="202">
+      <c r="B58" s="224" t="inlineStr">
         <is>
           <t>R6</t>
         </is>
       </c>
       <c r="C58" s="172" t="inlineStr">
         <is>
-          <t>Winner Group D</t>
-        </is>
-      </c>
-      <c r="D58" s="212" t="n"/>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="D58" s="226" t="n"/>
       <c r="G58" s="179" t="n"/>
       <c r="H58" s="180" t="n"/>
       <c r="K58" s="143" t="n"/>
       <c r="L58" s="183" t="n"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B59" s="211" t="n"/>
+    <row r="59" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B59" s="225" t="n"/>
       <c r="C59" s="173" t="inlineStr">
         <is>
           <t>2nd Group F</t>
         </is>
       </c>
-      <c r="D59" s="211" t="n"/>
+      <c r="D59" s="225" t="n"/>
       <c r="G59" s="179" t="n"/>
       <c r="H59" s="181" t="n"/>
       <c r="I59" s="177" t="n"/>
-      <c r="J59" s="213" t="inlineStr">
+      <c r="J59" s="228" t="inlineStr">
         <is>
           <t>SF2</t>
         </is>
@@ -5292,23 +5300,23 @@
           <t>Winner QF3</t>
         </is>
       </c>
-      <c r="L59" s="212" t="n"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1" s="191">
+      <c r="L59" s="226" t="n"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1" s="202">
       <c r="B60" s="138" t="n"/>
       <c r="D60" s="176" t="n"/>
       <c r="G60" s="179" t="n"/>
       <c r="H60" s="181" t="n"/>
-      <c r="J60" s="211" t="n"/>
+      <c r="J60" s="225" t="n"/>
       <c r="K60" s="165" t="inlineStr">
         <is>
           <t>Winner QF4</t>
         </is>
       </c>
-      <c r="L60" s="211" t="n"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1" s="191">
-      <c r="B61" s="210" t="inlineStr">
+      <c r="L60" s="225" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="202">
+      <c r="B61" s="224" t="inlineStr">
         <is>
           <t>R7</t>
         </is>
@@ -5318,20 +5326,20 @@
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="D61" s="212" t="n"/>
+      <c r="D61" s="226" t="n"/>
       <c r="G61" s="179" t="n"/>
       <c r="H61" s="183" t="n"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B62" s="211" t="n"/>
+    <row r="62" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B62" s="225" t="n"/>
       <c r="C62" s="173" t="inlineStr">
         <is>
           <t>3rd Group D/E/F</t>
         </is>
       </c>
-      <c r="D62" s="211" t="n"/>
+      <c r="D62" s="225" t="n"/>
       <c r="E62" s="174" t="n"/>
-      <c r="F62" s="214" t="inlineStr">
+      <c r="F62" s="227" t="inlineStr">
         <is>
           <t>QF4</t>
         </is>
@@ -5341,22 +5349,22 @@
           <t>Winner R7</t>
         </is>
       </c>
-      <c r="H62" s="212" t="n"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="H62" s="226" t="n"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B63" s="138" t="n"/>
       <c r="D63" s="176" t="n"/>
       <c r="E63" s="184" t="n"/>
-      <c r="F63" s="211" t="n"/>
+      <c r="F63" s="225" t="n"/>
       <c r="G63" s="178" t="inlineStr">
         <is>
           <t>Winner R8</t>
         </is>
       </c>
-      <c r="H63" s="211" t="n"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1" s="191">
-      <c r="B64" s="210" t="inlineStr">
+      <c r="H63" s="225" t="n"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1" s="202">
+      <c r="B64" s="224" t="inlineStr">
         <is>
           <t>R8</t>
         </is>
@@ -5366,954 +5374,985 @@
           <t>Wales</t>
         </is>
       </c>
-      <c r="D64" s="212" t="n"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1" s="191">
-      <c r="B65" s="211" t="n"/>
+      <c r="D64" s="226" t="n"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1" s="202">
+      <c r="B65" s="225" t="n"/>
       <c r="C65" s="173" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="D65" s="211" t="n"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1" s="191"/>
-    <row r="67" ht="15.75" customHeight="1" s="191"/>
-    <row r="68" ht="15.75" customHeight="1" s="191"/>
-    <row r="69" ht="15.75" customHeight="1" s="191"/>
-    <row r="70" ht="15.75" customHeight="1" s="191"/>
-    <row r="71" ht="15.75" customHeight="1" s="191"/>
-    <row r="72" ht="15.75" customHeight="1" s="191"/>
-    <row r="73" ht="15.75" customHeight="1" s="191"/>
-    <row r="74" ht="15.75" customHeight="1" s="191"/>
-    <row r="75" ht="15.75" customHeight="1" s="191"/>
-    <row r="76" ht="15.75" customHeight="1" s="191"/>
-    <row r="77" ht="15.75" customHeight="1" s="191"/>
-    <row r="78" ht="15.75" customHeight="1" s="191"/>
-    <row r="79" ht="15.75" customHeight="1" s="191"/>
-    <row r="80" ht="15.75" customHeight="1" s="191"/>
-    <row r="81" ht="15.75" customHeight="1" s="191"/>
-    <row r="82" ht="15.75" customHeight="1" s="191"/>
-    <row r="83" ht="15.75" customHeight="1" s="191"/>
-    <row r="84" ht="15.75" customHeight="1" s="191"/>
-    <row r="85" ht="15.75" customHeight="1" s="191"/>
-    <row r="86" ht="15.75" customHeight="1" s="191"/>
-    <row r="87" ht="15.75" customHeight="1" s="191"/>
-    <row r="88" ht="15.75" customHeight="1" s="191"/>
-    <row r="89" ht="15.75" customHeight="1" s="191"/>
-    <row r="90" ht="15.75" customHeight="1" s="191"/>
-    <row r="91" ht="15.75" customHeight="1" s="191"/>
-    <row r="92" ht="15.75" customHeight="1" s="191"/>
-    <row r="93" ht="15.75" customHeight="1" s="191"/>
-    <row r="94" ht="15.75" customHeight="1" s="191"/>
-    <row r="95" ht="15.75" customHeight="1" s="191"/>
-    <row r="96" ht="15.75" customHeight="1" s="191"/>
-    <row r="97" ht="15.75" customHeight="1" s="191"/>
-    <row r="98" ht="15.75" customHeight="1" s="191"/>
-    <row r="99" ht="15.75" customHeight="1" s="191"/>
-    <row r="100" ht="15.75" customHeight="1" s="191"/>
-    <row r="101" ht="15.75" customHeight="1" s="191"/>
-    <row r="102" ht="15.75" customHeight="1" s="191"/>
-    <row r="103" ht="15.75" customHeight="1" s="191"/>
-    <row r="104" ht="15.75" customHeight="1" s="191"/>
-    <row r="105" ht="15.75" customHeight="1" s="191"/>
-    <row r="106" ht="15.75" customHeight="1" s="191"/>
-    <row r="107" ht="15.75" customHeight="1" s="191"/>
-    <row r="108" ht="15.75" customHeight="1" s="191"/>
-    <row r="109" ht="15.75" customHeight="1" s="191"/>
-    <row r="110" ht="15.75" customHeight="1" s="191"/>
-    <row r="111" ht="15.75" customHeight="1" s="191"/>
-    <row r="112" ht="15.75" customHeight="1" s="191"/>
-    <row r="113" ht="15.75" customHeight="1" s="191"/>
-    <row r="114" ht="15.75" customHeight="1" s="191"/>
-    <row r="115" ht="15.75" customHeight="1" s="191"/>
-    <row r="116" ht="15.75" customHeight="1" s="191"/>
-    <row r="117" ht="15.75" customHeight="1" s="191"/>
-    <row r="118" ht="15.75" customHeight="1" s="191"/>
-    <row r="119" ht="15.75" customHeight="1" s="191"/>
-    <row r="120" ht="15.75" customHeight="1" s="191"/>
-    <row r="121" ht="15.75" customHeight="1" s="191"/>
-    <row r="122" ht="15.75" customHeight="1" s="191"/>
-    <row r="123" ht="15.75" customHeight="1" s="191"/>
-    <row r="124" ht="15.75" customHeight="1" s="191"/>
-    <row r="125" ht="15.75" customHeight="1" s="191"/>
-    <row r="126" ht="15.75" customHeight="1" s="191"/>
-    <row r="127" ht="15.75" customHeight="1" s="191"/>
-    <row r="128" ht="15.75" customHeight="1" s="191"/>
-    <row r="129" ht="15.75" customHeight="1" s="191"/>
-    <row r="130" ht="15.75" customHeight="1" s="191"/>
-    <row r="131" ht="15.75" customHeight="1" s="191"/>
-    <row r="132" ht="15.75" customHeight="1" s="191"/>
-    <row r="133" ht="15.75" customHeight="1" s="191"/>
-    <row r="134" ht="15.75" customHeight="1" s="191"/>
-    <row r="135" ht="15.75" customHeight="1" s="191"/>
-    <row r="136" ht="15.75" customHeight="1" s="191"/>
-    <row r="137" ht="15.75" customHeight="1" s="191"/>
-    <row r="138" ht="15.75" customHeight="1" s="191"/>
-    <row r="139" ht="15.75" customHeight="1" s="191"/>
-    <row r="140" ht="15.75" customHeight="1" s="191"/>
-    <row r="141" ht="15.75" customHeight="1" s="191"/>
-    <row r="142" ht="15.75" customHeight="1" s="191"/>
-    <row r="143" ht="15.75" customHeight="1" s="191"/>
-    <row r="144" ht="15.75" customHeight="1" s="191"/>
-    <row r="145" ht="15.75" customHeight="1" s="191"/>
-    <row r="146" ht="15.75" customHeight="1" s="191"/>
-    <row r="147" ht="15.75" customHeight="1" s="191"/>
-    <row r="148" ht="15.75" customHeight="1" s="191"/>
-    <row r="149" ht="15.75" customHeight="1" s="191"/>
-    <row r="150" ht="15.75" customHeight="1" s="191"/>
-    <row r="151" ht="15.75" customHeight="1" s="191"/>
-    <row r="152" ht="15.75" customHeight="1" s="191"/>
-    <row r="153" ht="15.75" customHeight="1" s="191"/>
-    <row r="154" ht="15.75" customHeight="1" s="191"/>
-    <row r="155" ht="15.75" customHeight="1" s="191"/>
-    <row r="156" ht="15.75" customHeight="1" s="191"/>
-    <row r="157" ht="15.75" customHeight="1" s="191"/>
-    <row r="158" ht="15.75" customHeight="1" s="191"/>
-    <row r="159" ht="15.75" customHeight="1" s="191"/>
-    <row r="160" ht="15.75" customHeight="1" s="191"/>
-    <row r="161" ht="15.75" customHeight="1" s="191"/>
-    <row r="162" ht="15.75" customHeight="1" s="191"/>
-    <row r="163" ht="15.75" customHeight="1" s="191"/>
-    <row r="164" ht="15.75" customHeight="1" s="191"/>
-    <row r="165" ht="15.75" customHeight="1" s="191"/>
-    <row r="166" ht="15.75" customHeight="1" s="191"/>
-    <row r="167" ht="15.75" customHeight="1" s="191"/>
-    <row r="168" ht="15.75" customHeight="1" s="191"/>
-    <row r="169" ht="15.75" customHeight="1" s="191"/>
-    <row r="170" ht="15.75" customHeight="1" s="191"/>
-    <row r="171" ht="15.75" customHeight="1" s="191"/>
-    <row r="172" ht="15.75" customHeight="1" s="191"/>
-    <row r="173" ht="15.75" customHeight="1" s="191"/>
-    <row r="174" ht="15.75" customHeight="1" s="191"/>
-    <row r="175" ht="15.75" customHeight="1" s="191"/>
-    <row r="176" ht="15.75" customHeight="1" s="191"/>
-    <row r="177" ht="15.75" customHeight="1" s="191"/>
-    <row r="178" ht="15.75" customHeight="1" s="191"/>
-    <row r="179" ht="15.75" customHeight="1" s="191"/>
-    <row r="180" ht="15.75" customHeight="1" s="191"/>
-    <row r="181" ht="15.75" customHeight="1" s="191"/>
-    <row r="182" ht="15.75" customHeight="1" s="191"/>
-    <row r="183" ht="15.75" customHeight="1" s="191"/>
-    <row r="184" ht="15.75" customHeight="1" s="191"/>
-    <row r="185" ht="15.75" customHeight="1" s="191"/>
-    <row r="186" ht="15.75" customHeight="1" s="191"/>
-    <row r="187" ht="15.75" customHeight="1" s="191"/>
-    <row r="188" ht="15.75" customHeight="1" s="191"/>
-    <row r="189" ht="15.75" customHeight="1" s="191"/>
-    <row r="190" ht="15.75" customHeight="1" s="191"/>
-    <row r="191" ht="15.75" customHeight="1" s="191"/>
-    <row r="192" ht="15.75" customHeight="1" s="191"/>
-    <row r="193" ht="15.75" customHeight="1" s="191"/>
-    <row r="194" ht="15.75" customHeight="1" s="191"/>
-    <row r="195" ht="15.75" customHeight="1" s="191"/>
-    <row r="196" ht="15.75" customHeight="1" s="191"/>
-    <row r="197" ht="15.75" customHeight="1" s="191"/>
-    <row r="198" ht="15.75" customHeight="1" s="191"/>
-    <row r="199" ht="15.75" customHeight="1" s="191"/>
-    <row r="200" ht="15.75" customHeight="1" s="191"/>
-    <row r="201" ht="15.75" customHeight="1" s="191"/>
-    <row r="202" ht="15.75" customHeight="1" s="191"/>
-    <row r="203" ht="15.75" customHeight="1" s="191"/>
-    <row r="204" ht="15.75" customHeight="1" s="191"/>
-    <row r="205" ht="15.75" customHeight="1" s="191"/>
-    <row r="206" ht="15.75" customHeight="1" s="191"/>
-    <row r="207" ht="15.75" customHeight="1" s="191"/>
-    <row r="208" ht="15.75" customHeight="1" s="191"/>
-    <row r="209" ht="15.75" customHeight="1" s="191"/>
-    <row r="210" ht="15.75" customHeight="1" s="191"/>
-    <row r="211" ht="15.75" customHeight="1" s="191"/>
-    <row r="212" ht="15.75" customHeight="1" s="191"/>
-    <row r="213" ht="15.75" customHeight="1" s="191"/>
-    <row r="214" ht="15.75" customHeight="1" s="191"/>
-    <row r="215" ht="15.75" customHeight="1" s="191"/>
-    <row r="216" ht="15.75" customHeight="1" s="191"/>
-    <row r="217" ht="15.75" customHeight="1" s="191"/>
-    <row r="218" ht="15.75" customHeight="1" s="191"/>
-    <row r="219" ht="15.75" customHeight="1" s="191"/>
-    <row r="220" ht="15.75" customHeight="1" s="191"/>
-    <row r="221" ht="15.75" customHeight="1" s="191"/>
-    <row r="222" ht="15.75" customHeight="1" s="191"/>
-    <row r="223" ht="15.75" customHeight="1" s="191"/>
-    <row r="224" ht="15.75" customHeight="1" s="191"/>
-    <row r="225" ht="15.75" customHeight="1" s="191"/>
-    <row r="226" ht="15.75" customHeight="1" s="191"/>
-    <row r="227" ht="15.75" customHeight="1" s="191"/>
-    <row r="228" ht="15.75" customHeight="1" s="191"/>
-    <row r="229" ht="15.75" customHeight="1" s="191"/>
-    <row r="230" ht="15.75" customHeight="1" s="191"/>
-    <row r="231" ht="15.75" customHeight="1" s="191"/>
-    <row r="232" ht="15.75" customHeight="1" s="191"/>
-    <row r="233" ht="15.75" customHeight="1" s="191"/>
-    <row r="234" ht="15.75" customHeight="1" s="191"/>
-    <row r="235" ht="15.75" customHeight="1" s="191"/>
-    <row r="236" ht="15.75" customHeight="1" s="191"/>
-    <row r="237" ht="15.75" customHeight="1" s="191"/>
-    <row r="238" ht="15.75" customHeight="1" s="191"/>
-    <row r="239" ht="15.75" customHeight="1" s="191"/>
-    <row r="240" ht="15.75" customHeight="1" s="191"/>
-    <row r="241" ht="15.75" customHeight="1" s="191"/>
-    <row r="242" ht="15.75" customHeight="1" s="191"/>
-    <row r="243" ht="15.75" customHeight="1" s="191"/>
-    <row r="244" ht="15.75" customHeight="1" s="191"/>
-    <row r="245" ht="15.75" customHeight="1" s="191"/>
-    <row r="246" ht="15.75" customHeight="1" s="191"/>
-    <row r="247" ht="15.75" customHeight="1" s="191"/>
-    <row r="248" ht="15.75" customHeight="1" s="191"/>
-    <row r="249" ht="15.75" customHeight="1" s="191"/>
-    <row r="250" ht="15.75" customHeight="1" s="191"/>
-    <row r="251" ht="15.75" customHeight="1" s="191"/>
-    <row r="252" ht="15.75" customHeight="1" s="191"/>
-    <row r="253" ht="15.75" customHeight="1" s="191"/>
-    <row r="254" ht="15.75" customHeight="1" s="191"/>
-    <row r="255" ht="15.75" customHeight="1" s="191"/>
-    <row r="256" ht="15.75" customHeight="1" s="191"/>
-    <row r="257" ht="15.75" customHeight="1" s="191"/>
-    <row r="258" ht="15.75" customHeight="1" s="191"/>
-    <row r="259" ht="15.75" customHeight="1" s="191"/>
-    <row r="260" ht="15.75" customHeight="1" s="191"/>
-    <row r="261" ht="15.75" customHeight="1" s="191"/>
-    <row r="262" ht="15.75" customHeight="1" s="191"/>
-    <row r="263" ht="15.75" customHeight="1" s="191"/>
-    <row r="264" ht="15.75" customHeight="1" s="191"/>
-    <row r="265" ht="15.75" customHeight="1" s="191"/>
-    <row r="266" ht="15.75" customHeight="1" s="191"/>
-    <row r="267" ht="15.75" customHeight="1" s="191"/>
-    <row r="268" ht="15.75" customHeight="1" s="191"/>
-    <row r="269" ht="15.75" customHeight="1" s="191"/>
-    <row r="270" ht="15.75" customHeight="1" s="191"/>
-    <row r="271" ht="15.75" customHeight="1" s="191"/>
-    <row r="272" ht="15.75" customHeight="1" s="191"/>
-    <row r="273" ht="15.75" customHeight="1" s="191"/>
-    <row r="274" ht="15.75" customHeight="1" s="191"/>
-    <row r="275" ht="15.75" customHeight="1" s="191"/>
-    <row r="276" ht="15.75" customHeight="1" s="191"/>
-    <row r="277" ht="15.75" customHeight="1" s="191"/>
-    <row r="278" ht="15.75" customHeight="1" s="191"/>
-    <row r="279" ht="15.75" customHeight="1" s="191"/>
-    <row r="280" ht="15.75" customHeight="1" s="191"/>
-    <row r="281" ht="15.75" customHeight="1" s="191"/>
-    <row r="282" ht="15.75" customHeight="1" s="191"/>
-    <row r="283" ht="15.75" customHeight="1" s="191"/>
-    <row r="284" ht="15.75" customHeight="1" s="191"/>
-    <row r="285" ht="15.75" customHeight="1" s="191"/>
-    <row r="286" ht="15.75" customHeight="1" s="191"/>
-    <row r="287" ht="15.75" customHeight="1" s="191"/>
-    <row r="288" ht="15.75" customHeight="1" s="191"/>
-    <row r="289" ht="15.75" customHeight="1" s="191"/>
-    <row r="290" ht="15.75" customHeight="1" s="191"/>
-    <row r="291" ht="15.75" customHeight="1" s="191"/>
-    <row r="292" ht="15.75" customHeight="1" s="191"/>
-    <row r="293" ht="15.75" customHeight="1" s="191"/>
-    <row r="294" ht="15.75" customHeight="1" s="191"/>
-    <row r="295" ht="15.75" customHeight="1" s="191"/>
-    <row r="296" ht="15.75" customHeight="1" s="191"/>
-    <row r="297" ht="15.75" customHeight="1" s="191"/>
-    <row r="298" ht="15.75" customHeight="1" s="191"/>
-    <row r="299" ht="15.75" customHeight="1" s="191"/>
-    <row r="300" ht="15.75" customHeight="1" s="191"/>
-    <row r="301" ht="15.75" customHeight="1" s="191"/>
-    <row r="302" ht="15.75" customHeight="1" s="191"/>
-    <row r="303" ht="15.75" customHeight="1" s="191"/>
-    <row r="304" ht="15.75" customHeight="1" s="191"/>
-    <row r="305" ht="15.75" customHeight="1" s="191"/>
-    <row r="306" ht="15.75" customHeight="1" s="191"/>
-    <row r="307" ht="15.75" customHeight="1" s="191"/>
-    <row r="308" ht="15.75" customHeight="1" s="191"/>
-    <row r="309" ht="15.75" customHeight="1" s="191"/>
-    <row r="310" ht="15.75" customHeight="1" s="191"/>
-    <row r="311" ht="15.75" customHeight="1" s="191"/>
-    <row r="312" ht="15.75" customHeight="1" s="191"/>
-    <row r="313" ht="15.75" customHeight="1" s="191"/>
-    <row r="314" ht="15.75" customHeight="1" s="191"/>
-    <row r="315" ht="15.75" customHeight="1" s="191"/>
-    <row r="316" ht="15.75" customHeight="1" s="191"/>
-    <row r="317" ht="15.75" customHeight="1" s="191"/>
-    <row r="318" ht="15.75" customHeight="1" s="191"/>
-    <row r="319" ht="15.75" customHeight="1" s="191"/>
-    <row r="320" ht="15.75" customHeight="1" s="191"/>
-    <row r="321" ht="15.75" customHeight="1" s="191"/>
-    <row r="322" ht="15.75" customHeight="1" s="191"/>
-    <row r="323" ht="15.75" customHeight="1" s="191"/>
-    <row r="324" ht="15.75" customHeight="1" s="191"/>
-    <row r="325" ht="15.75" customHeight="1" s="191"/>
-    <row r="326" ht="15.75" customHeight="1" s="191"/>
-    <row r="327" ht="15.75" customHeight="1" s="191"/>
-    <row r="328" ht="15.75" customHeight="1" s="191"/>
-    <row r="329" ht="15.75" customHeight="1" s="191"/>
-    <row r="330" ht="15.75" customHeight="1" s="191"/>
-    <row r="331" ht="15.75" customHeight="1" s="191"/>
-    <row r="332" ht="15.75" customHeight="1" s="191"/>
-    <row r="333" ht="15.75" customHeight="1" s="191"/>
-    <row r="334" ht="15.75" customHeight="1" s="191"/>
-    <row r="335" ht="15.75" customHeight="1" s="191"/>
-    <row r="336" ht="15.75" customHeight="1" s="191"/>
-    <row r="337" ht="15.75" customHeight="1" s="191"/>
-    <row r="338" ht="15.75" customHeight="1" s="191"/>
-    <row r="339" ht="15.75" customHeight="1" s="191"/>
-    <row r="340" ht="15.75" customHeight="1" s="191"/>
-    <row r="341" ht="15.75" customHeight="1" s="191"/>
-    <row r="342" ht="15.75" customHeight="1" s="191"/>
-    <row r="343" ht="15.75" customHeight="1" s="191"/>
-    <row r="344" ht="15.75" customHeight="1" s="191"/>
-    <row r="345" ht="15.75" customHeight="1" s="191"/>
-    <row r="346" ht="15.75" customHeight="1" s="191"/>
-    <row r="347" ht="15.75" customHeight="1" s="191"/>
-    <row r="348" ht="15.75" customHeight="1" s="191"/>
-    <row r="349" ht="15.75" customHeight="1" s="191"/>
-    <row r="350" ht="15.75" customHeight="1" s="191"/>
-    <row r="351" ht="15.75" customHeight="1" s="191"/>
-    <row r="352" ht="15.75" customHeight="1" s="191"/>
-    <row r="353" ht="15.75" customHeight="1" s="191"/>
-    <row r="354" ht="15.75" customHeight="1" s="191"/>
-    <row r="355" ht="15.75" customHeight="1" s="191"/>
-    <row r="356" ht="15.75" customHeight="1" s="191"/>
-    <row r="357" ht="15.75" customHeight="1" s="191"/>
-    <row r="358" ht="15.75" customHeight="1" s="191"/>
-    <row r="359" ht="15.75" customHeight="1" s="191"/>
-    <row r="360" ht="15.75" customHeight="1" s="191"/>
-    <row r="361" ht="15.75" customHeight="1" s="191"/>
-    <row r="362" ht="15.75" customHeight="1" s="191"/>
-    <row r="363" ht="15.75" customHeight="1" s="191"/>
-    <row r="364" ht="15.75" customHeight="1" s="191"/>
-    <row r="365" ht="15.75" customHeight="1" s="191"/>
-    <row r="366" ht="15.75" customHeight="1" s="191"/>
-    <row r="367" ht="15.75" customHeight="1" s="191"/>
-    <row r="368" ht="15.75" customHeight="1" s="191"/>
-    <row r="369" ht="15.75" customHeight="1" s="191"/>
-    <row r="370" ht="15.75" customHeight="1" s="191"/>
-    <row r="371" ht="15.75" customHeight="1" s="191"/>
-    <row r="372" ht="15.75" customHeight="1" s="191"/>
-    <row r="373" ht="15.75" customHeight="1" s="191"/>
-    <row r="374" ht="15.75" customHeight="1" s="191"/>
-    <row r="375" ht="15.75" customHeight="1" s="191"/>
-    <row r="376" ht="15.75" customHeight="1" s="191"/>
-    <row r="377" ht="15.75" customHeight="1" s="191"/>
-    <row r="378" ht="15.75" customHeight="1" s="191"/>
-    <row r="379" ht="15.75" customHeight="1" s="191"/>
-    <row r="380" ht="15.75" customHeight="1" s="191"/>
-    <row r="381" ht="15.75" customHeight="1" s="191"/>
-    <row r="382" ht="15.75" customHeight="1" s="191"/>
-    <row r="383" ht="15.75" customHeight="1" s="191"/>
-    <row r="384" ht="15.75" customHeight="1" s="191"/>
-    <row r="385" ht="15.75" customHeight="1" s="191"/>
-    <row r="386" ht="15.75" customHeight="1" s="191"/>
-    <row r="387" ht="15.75" customHeight="1" s="191"/>
-    <row r="388" ht="15.75" customHeight="1" s="191"/>
-    <row r="389" ht="15.75" customHeight="1" s="191"/>
-    <row r="390" ht="15.75" customHeight="1" s="191"/>
-    <row r="391" ht="15.75" customHeight="1" s="191"/>
-    <row r="392" ht="15.75" customHeight="1" s="191"/>
-    <row r="393" ht="15.75" customHeight="1" s="191"/>
-    <row r="394" ht="15.75" customHeight="1" s="191"/>
-    <row r="395" ht="15.75" customHeight="1" s="191"/>
-    <row r="396" ht="15.75" customHeight="1" s="191"/>
-    <row r="397" ht="15.75" customHeight="1" s="191"/>
-    <row r="398" ht="15.75" customHeight="1" s="191"/>
-    <row r="399" ht="15.75" customHeight="1" s="191"/>
-    <row r="400" ht="15.75" customHeight="1" s="191"/>
-    <row r="401" ht="15.75" customHeight="1" s="191"/>
-    <row r="402" ht="15.75" customHeight="1" s="191"/>
-    <row r="403" ht="15.75" customHeight="1" s="191"/>
-    <row r="404" ht="15.75" customHeight="1" s="191"/>
-    <row r="405" ht="15.75" customHeight="1" s="191"/>
-    <row r="406" ht="15.75" customHeight="1" s="191"/>
-    <row r="407" ht="15.75" customHeight="1" s="191"/>
-    <row r="408" ht="15.75" customHeight="1" s="191"/>
-    <row r="409" ht="15.75" customHeight="1" s="191"/>
-    <row r="410" ht="15.75" customHeight="1" s="191"/>
-    <row r="411" ht="15.75" customHeight="1" s="191"/>
-    <row r="412" ht="15.75" customHeight="1" s="191"/>
-    <row r="413" ht="15.75" customHeight="1" s="191"/>
-    <row r="414" ht="15.75" customHeight="1" s="191"/>
-    <row r="415" ht="15.75" customHeight="1" s="191"/>
-    <row r="416" ht="15.75" customHeight="1" s="191"/>
-    <row r="417" ht="15.75" customHeight="1" s="191"/>
-    <row r="418" ht="15.75" customHeight="1" s="191"/>
-    <row r="419" ht="15.75" customHeight="1" s="191"/>
-    <row r="420" ht="15.75" customHeight="1" s="191"/>
-    <row r="421" ht="15.75" customHeight="1" s="191"/>
-    <row r="422" ht="15.75" customHeight="1" s="191"/>
-    <row r="423" ht="15.75" customHeight="1" s="191"/>
-    <row r="424" ht="15.75" customHeight="1" s="191"/>
-    <row r="425" ht="15.75" customHeight="1" s="191"/>
-    <row r="426" ht="15.75" customHeight="1" s="191"/>
-    <row r="427" ht="15.75" customHeight="1" s="191"/>
-    <row r="428" ht="15.75" customHeight="1" s="191"/>
-    <row r="429" ht="15.75" customHeight="1" s="191"/>
-    <row r="430" ht="15.75" customHeight="1" s="191"/>
-    <row r="431" ht="15.75" customHeight="1" s="191"/>
-    <row r="432" ht="15.75" customHeight="1" s="191"/>
-    <row r="433" ht="15.75" customHeight="1" s="191"/>
-    <row r="434" ht="15.75" customHeight="1" s="191"/>
-    <row r="435" ht="15.75" customHeight="1" s="191"/>
-    <row r="436" ht="15.75" customHeight="1" s="191"/>
-    <row r="437" ht="15.75" customHeight="1" s="191"/>
-    <row r="438" ht="15.75" customHeight="1" s="191"/>
-    <row r="439" ht="15.75" customHeight="1" s="191"/>
-    <row r="440" ht="15.75" customHeight="1" s="191"/>
-    <row r="441" ht="15.75" customHeight="1" s="191"/>
-    <row r="442" ht="15.75" customHeight="1" s="191"/>
-    <row r="443" ht="15.75" customHeight="1" s="191"/>
-    <row r="444" ht="15.75" customHeight="1" s="191"/>
-    <row r="445" ht="15.75" customHeight="1" s="191"/>
-    <row r="446" ht="15.75" customHeight="1" s="191"/>
-    <row r="447" ht="15.75" customHeight="1" s="191"/>
-    <row r="448" ht="15.75" customHeight="1" s="191"/>
-    <row r="449" ht="15.75" customHeight="1" s="191"/>
-    <row r="450" ht="15.75" customHeight="1" s="191"/>
-    <row r="451" ht="15.75" customHeight="1" s="191"/>
-    <row r="452" ht="15.75" customHeight="1" s="191"/>
-    <row r="453" ht="15.75" customHeight="1" s="191"/>
-    <row r="454" ht="15.75" customHeight="1" s="191"/>
-    <row r="455" ht="15.75" customHeight="1" s="191"/>
-    <row r="456" ht="15.75" customHeight="1" s="191"/>
-    <row r="457" ht="15.75" customHeight="1" s="191"/>
-    <row r="458" ht="15.75" customHeight="1" s="191"/>
-    <row r="459" ht="15.75" customHeight="1" s="191"/>
-    <row r="460" ht="15.75" customHeight="1" s="191"/>
-    <row r="461" ht="15.75" customHeight="1" s="191"/>
-    <row r="462" ht="15.75" customHeight="1" s="191"/>
-    <row r="463" ht="15.75" customHeight="1" s="191"/>
-    <row r="464" ht="15.75" customHeight="1" s="191"/>
-    <row r="465" ht="15.75" customHeight="1" s="191"/>
-    <row r="466" ht="15.75" customHeight="1" s="191"/>
-    <row r="467" ht="15.75" customHeight="1" s="191"/>
-    <row r="468" ht="15.75" customHeight="1" s="191"/>
-    <row r="469" ht="15.75" customHeight="1" s="191"/>
-    <row r="470" ht="15.75" customHeight="1" s="191"/>
-    <row r="471" ht="15.75" customHeight="1" s="191"/>
-    <row r="472" ht="15.75" customHeight="1" s="191"/>
-    <row r="473" ht="15.75" customHeight="1" s="191"/>
-    <row r="474" ht="15.75" customHeight="1" s="191"/>
-    <row r="475" ht="15.75" customHeight="1" s="191"/>
-    <row r="476" ht="15.75" customHeight="1" s="191"/>
-    <row r="477" ht="15.75" customHeight="1" s="191"/>
-    <row r="478" ht="15.75" customHeight="1" s="191"/>
-    <row r="479" ht="15.75" customHeight="1" s="191"/>
-    <row r="480" ht="15.75" customHeight="1" s="191"/>
-    <row r="481" ht="15.75" customHeight="1" s="191"/>
-    <row r="482" ht="15.75" customHeight="1" s="191"/>
-    <row r="483" ht="15.75" customHeight="1" s="191"/>
-    <row r="484" ht="15.75" customHeight="1" s="191"/>
-    <row r="485" ht="15.75" customHeight="1" s="191"/>
-    <row r="486" ht="15.75" customHeight="1" s="191"/>
-    <row r="487" ht="15.75" customHeight="1" s="191"/>
-    <row r="488" ht="15.75" customHeight="1" s="191"/>
-    <row r="489" ht="15.75" customHeight="1" s="191"/>
-    <row r="490" ht="15.75" customHeight="1" s="191"/>
-    <row r="491" ht="15.75" customHeight="1" s="191"/>
-    <row r="492" ht="15.75" customHeight="1" s="191"/>
-    <row r="493" ht="15.75" customHeight="1" s="191"/>
-    <row r="494" ht="15.75" customHeight="1" s="191"/>
-    <row r="495" ht="15.75" customHeight="1" s="191"/>
-    <row r="496" ht="15.75" customHeight="1" s="191"/>
-    <row r="497" ht="15.75" customHeight="1" s="191"/>
-    <row r="498" ht="15.75" customHeight="1" s="191"/>
-    <row r="499" ht="15.75" customHeight="1" s="191"/>
-    <row r="500" ht="15.75" customHeight="1" s="191"/>
-    <row r="501" ht="15.75" customHeight="1" s="191"/>
-    <row r="502" ht="15.75" customHeight="1" s="191"/>
-    <row r="503" ht="15.75" customHeight="1" s="191"/>
-    <row r="504" ht="15.75" customHeight="1" s="191"/>
-    <row r="505" ht="15.75" customHeight="1" s="191"/>
-    <row r="506" ht="15.75" customHeight="1" s="191"/>
-    <row r="507" ht="15.75" customHeight="1" s="191"/>
-    <row r="508" ht="15.75" customHeight="1" s="191"/>
-    <row r="509" ht="15.75" customHeight="1" s="191"/>
-    <row r="510" ht="15.75" customHeight="1" s="191"/>
-    <row r="511" ht="15.75" customHeight="1" s="191"/>
-    <row r="512" ht="15.75" customHeight="1" s="191"/>
-    <row r="513" ht="15.75" customHeight="1" s="191"/>
-    <row r="514" ht="15.75" customHeight="1" s="191"/>
-    <row r="515" ht="15.75" customHeight="1" s="191"/>
-    <row r="516" ht="15.75" customHeight="1" s="191"/>
-    <row r="517" ht="15.75" customHeight="1" s="191"/>
-    <row r="518" ht="15.75" customHeight="1" s="191"/>
-    <row r="519" ht="15.75" customHeight="1" s="191"/>
-    <row r="520" ht="15.75" customHeight="1" s="191"/>
-    <row r="521" ht="15.75" customHeight="1" s="191"/>
-    <row r="522" ht="15.75" customHeight="1" s="191"/>
-    <row r="523" ht="15.75" customHeight="1" s="191"/>
-    <row r="524" ht="15.75" customHeight="1" s="191"/>
-    <row r="525" ht="15.75" customHeight="1" s="191"/>
-    <row r="526" ht="15.75" customHeight="1" s="191"/>
-    <row r="527" ht="15.75" customHeight="1" s="191"/>
-    <row r="528" ht="15.75" customHeight="1" s="191"/>
-    <row r="529" ht="15.75" customHeight="1" s="191"/>
-    <row r="530" ht="15.75" customHeight="1" s="191"/>
-    <row r="531" ht="15.75" customHeight="1" s="191"/>
-    <row r="532" ht="15.75" customHeight="1" s="191"/>
-    <row r="533" ht="15.75" customHeight="1" s="191"/>
-    <row r="534" ht="15.75" customHeight="1" s="191"/>
-    <row r="535" ht="15.75" customHeight="1" s="191"/>
-    <row r="536" ht="15.75" customHeight="1" s="191"/>
-    <row r="537" ht="15.75" customHeight="1" s="191"/>
-    <row r="538" ht="15.75" customHeight="1" s="191"/>
-    <row r="539" ht="15.75" customHeight="1" s="191"/>
-    <row r="540" ht="15.75" customHeight="1" s="191"/>
-    <row r="541" ht="15.75" customHeight="1" s="191"/>
-    <row r="542" ht="15.75" customHeight="1" s="191"/>
-    <row r="543" ht="15.75" customHeight="1" s="191"/>
-    <row r="544" ht="15.75" customHeight="1" s="191"/>
-    <row r="545" ht="15.75" customHeight="1" s="191"/>
-    <row r="546" ht="15.75" customHeight="1" s="191"/>
-    <row r="547" ht="15.75" customHeight="1" s="191"/>
-    <row r="548" ht="15.75" customHeight="1" s="191"/>
-    <row r="549" ht="15.75" customHeight="1" s="191"/>
-    <row r="550" ht="15.75" customHeight="1" s="191"/>
-    <row r="551" ht="15.75" customHeight="1" s="191"/>
-    <row r="552" ht="15.75" customHeight="1" s="191"/>
-    <row r="553" ht="15.75" customHeight="1" s="191"/>
-    <row r="554" ht="15.75" customHeight="1" s="191"/>
-    <row r="555" ht="15.75" customHeight="1" s="191"/>
-    <row r="556" ht="15.75" customHeight="1" s="191"/>
-    <row r="557" ht="15.75" customHeight="1" s="191"/>
-    <row r="558" ht="15.75" customHeight="1" s="191"/>
-    <row r="559" ht="15.75" customHeight="1" s="191"/>
-    <row r="560" ht="15.75" customHeight="1" s="191"/>
-    <row r="561" ht="15.75" customHeight="1" s="191"/>
-    <row r="562" ht="15.75" customHeight="1" s="191"/>
-    <row r="563" ht="15.75" customHeight="1" s="191"/>
-    <row r="564" ht="15.75" customHeight="1" s="191"/>
-    <row r="565" ht="15.75" customHeight="1" s="191"/>
-    <row r="566" ht="15.75" customHeight="1" s="191"/>
-    <row r="567" ht="15.75" customHeight="1" s="191"/>
-    <row r="568" ht="15.75" customHeight="1" s="191"/>
-    <row r="569" ht="15.75" customHeight="1" s="191"/>
-    <row r="570" ht="15.75" customHeight="1" s="191"/>
-    <row r="571" ht="15.75" customHeight="1" s="191"/>
-    <row r="572" ht="15.75" customHeight="1" s="191"/>
-    <row r="573" ht="15.75" customHeight="1" s="191"/>
-    <row r="574" ht="15.75" customHeight="1" s="191"/>
-    <row r="575" ht="15.75" customHeight="1" s="191"/>
-    <row r="576" ht="15.75" customHeight="1" s="191"/>
-    <row r="577" ht="15.75" customHeight="1" s="191"/>
-    <row r="578" ht="15.75" customHeight="1" s="191"/>
-    <row r="579" ht="15.75" customHeight="1" s="191"/>
-    <row r="580" ht="15.75" customHeight="1" s="191"/>
-    <row r="581" ht="15.75" customHeight="1" s="191"/>
-    <row r="582" ht="15.75" customHeight="1" s="191"/>
-    <row r="583" ht="15.75" customHeight="1" s="191"/>
-    <row r="584" ht="15.75" customHeight="1" s="191"/>
-    <row r="585" ht="15.75" customHeight="1" s="191"/>
-    <row r="586" ht="15.75" customHeight="1" s="191"/>
-    <row r="587" ht="15.75" customHeight="1" s="191"/>
-    <row r="588" ht="15.75" customHeight="1" s="191"/>
-    <row r="589" ht="15.75" customHeight="1" s="191"/>
-    <row r="590" ht="15.75" customHeight="1" s="191"/>
-    <row r="591" ht="15.75" customHeight="1" s="191"/>
-    <row r="592" ht="15.75" customHeight="1" s="191"/>
-    <row r="593" ht="15.75" customHeight="1" s="191"/>
-    <row r="594" ht="15.75" customHeight="1" s="191"/>
-    <row r="595" ht="15.75" customHeight="1" s="191"/>
-    <row r="596" ht="15.75" customHeight="1" s="191"/>
-    <row r="597" ht="15.75" customHeight="1" s="191"/>
-    <row r="598" ht="15.75" customHeight="1" s="191"/>
-    <row r="599" ht="15.75" customHeight="1" s="191"/>
-    <row r="600" ht="15.75" customHeight="1" s="191"/>
-    <row r="601" ht="15.75" customHeight="1" s="191"/>
-    <row r="602" ht="15.75" customHeight="1" s="191"/>
-    <row r="603" ht="15.75" customHeight="1" s="191"/>
-    <row r="604" ht="15.75" customHeight="1" s="191"/>
-    <row r="605" ht="15.75" customHeight="1" s="191"/>
-    <row r="606" ht="15.75" customHeight="1" s="191"/>
-    <row r="607" ht="15.75" customHeight="1" s="191"/>
-    <row r="608" ht="15.75" customHeight="1" s="191"/>
-    <row r="609" ht="15.75" customHeight="1" s="191"/>
-    <row r="610" ht="15.75" customHeight="1" s="191"/>
-    <row r="611" ht="15.75" customHeight="1" s="191"/>
-    <row r="612" ht="15.75" customHeight="1" s="191"/>
-    <row r="613" ht="15.75" customHeight="1" s="191"/>
-    <row r="614" ht="15.75" customHeight="1" s="191"/>
-    <row r="615" ht="15.75" customHeight="1" s="191"/>
-    <row r="616" ht="15.75" customHeight="1" s="191"/>
-    <row r="617" ht="15.75" customHeight="1" s="191"/>
-    <row r="618" ht="15.75" customHeight="1" s="191"/>
-    <row r="619" ht="15.75" customHeight="1" s="191"/>
-    <row r="620" ht="15.75" customHeight="1" s="191"/>
-    <row r="621" ht="15.75" customHeight="1" s="191"/>
-    <row r="622" ht="15.75" customHeight="1" s="191"/>
-    <row r="623" ht="15.75" customHeight="1" s="191"/>
-    <row r="624" ht="15.75" customHeight="1" s="191"/>
-    <row r="625" ht="15.75" customHeight="1" s="191"/>
-    <row r="626" ht="15.75" customHeight="1" s="191"/>
-    <row r="627" ht="15.75" customHeight="1" s="191"/>
-    <row r="628" ht="15.75" customHeight="1" s="191"/>
-    <row r="629" ht="15.75" customHeight="1" s="191"/>
-    <row r="630" ht="15.75" customHeight="1" s="191"/>
-    <row r="631" ht="15.75" customHeight="1" s="191"/>
-    <row r="632" ht="15.75" customHeight="1" s="191"/>
-    <row r="633" ht="15.75" customHeight="1" s="191"/>
-    <row r="634" ht="15.75" customHeight="1" s="191"/>
-    <row r="635" ht="15.75" customHeight="1" s="191"/>
-    <row r="636" ht="15.75" customHeight="1" s="191"/>
-    <row r="637" ht="15.75" customHeight="1" s="191"/>
-    <row r="638" ht="15.75" customHeight="1" s="191"/>
-    <row r="639" ht="15.75" customHeight="1" s="191"/>
-    <row r="640" ht="15.75" customHeight="1" s="191"/>
-    <row r="641" ht="15.75" customHeight="1" s="191"/>
-    <row r="642" ht="15.75" customHeight="1" s="191"/>
-    <row r="643" ht="15.75" customHeight="1" s="191"/>
-    <row r="644" ht="15.75" customHeight="1" s="191"/>
-    <row r="645" ht="15.75" customHeight="1" s="191"/>
-    <row r="646" ht="15.75" customHeight="1" s="191"/>
-    <row r="647" ht="15.75" customHeight="1" s="191"/>
-    <row r="648" ht="15.75" customHeight="1" s="191"/>
-    <row r="649" ht="15.75" customHeight="1" s="191"/>
-    <row r="650" ht="15.75" customHeight="1" s="191"/>
-    <row r="651" ht="15.75" customHeight="1" s="191"/>
-    <row r="652" ht="15.75" customHeight="1" s="191"/>
-    <row r="653" ht="15.75" customHeight="1" s="191"/>
-    <row r="654" ht="15.75" customHeight="1" s="191"/>
-    <row r="655" ht="15.75" customHeight="1" s="191"/>
-    <row r="656" ht="15.75" customHeight="1" s="191"/>
-    <row r="657" ht="15.75" customHeight="1" s="191"/>
-    <row r="658" ht="15.75" customHeight="1" s="191"/>
-    <row r="659" ht="15.75" customHeight="1" s="191"/>
-    <row r="660" ht="15.75" customHeight="1" s="191"/>
-    <row r="661" ht="15.75" customHeight="1" s="191"/>
-    <row r="662" ht="15.75" customHeight="1" s="191"/>
-    <row r="663" ht="15.75" customHeight="1" s="191"/>
-    <row r="664" ht="15.75" customHeight="1" s="191"/>
-    <row r="665" ht="15.75" customHeight="1" s="191"/>
-    <row r="666" ht="15.75" customHeight="1" s="191"/>
-    <row r="667" ht="15.75" customHeight="1" s="191"/>
-    <row r="668" ht="15.75" customHeight="1" s="191"/>
-    <row r="669" ht="15.75" customHeight="1" s="191"/>
-    <row r="670" ht="15.75" customHeight="1" s="191"/>
-    <row r="671" ht="15.75" customHeight="1" s="191"/>
-    <row r="672" ht="15.75" customHeight="1" s="191"/>
-    <row r="673" ht="15.75" customHeight="1" s="191"/>
-    <row r="674" ht="15.75" customHeight="1" s="191"/>
-    <row r="675" ht="15.75" customHeight="1" s="191"/>
-    <row r="676" ht="15.75" customHeight="1" s="191"/>
-    <row r="677" ht="15.75" customHeight="1" s="191"/>
-    <row r="678" ht="15.75" customHeight="1" s="191"/>
-    <row r="679" ht="15.75" customHeight="1" s="191"/>
-    <row r="680" ht="15.75" customHeight="1" s="191"/>
-    <row r="681" ht="15.75" customHeight="1" s="191"/>
-    <row r="682" ht="15.75" customHeight="1" s="191"/>
-    <row r="683" ht="15.75" customHeight="1" s="191"/>
-    <row r="684" ht="15.75" customHeight="1" s="191"/>
-    <row r="685" ht="15.75" customHeight="1" s="191"/>
-    <row r="686" ht="15.75" customHeight="1" s="191"/>
-    <row r="687" ht="15.75" customHeight="1" s="191"/>
-    <row r="688" ht="15.75" customHeight="1" s="191"/>
-    <row r="689" ht="15.75" customHeight="1" s="191"/>
-    <row r="690" ht="15.75" customHeight="1" s="191"/>
-    <row r="691" ht="15.75" customHeight="1" s="191"/>
-    <row r="692" ht="15.75" customHeight="1" s="191"/>
-    <row r="693" ht="15.75" customHeight="1" s="191"/>
-    <row r="694" ht="15.75" customHeight="1" s="191"/>
-    <row r="695" ht="15.75" customHeight="1" s="191"/>
-    <row r="696" ht="15.75" customHeight="1" s="191"/>
-    <row r="697" ht="15.75" customHeight="1" s="191"/>
-    <row r="698" ht="15.75" customHeight="1" s="191"/>
-    <row r="699" ht="15.75" customHeight="1" s="191"/>
-    <row r="700" ht="15.75" customHeight="1" s="191"/>
-    <row r="701" ht="15.75" customHeight="1" s="191"/>
-    <row r="702" ht="15.75" customHeight="1" s="191"/>
-    <row r="703" ht="15.75" customHeight="1" s="191"/>
-    <row r="704" ht="15.75" customHeight="1" s="191"/>
-    <row r="705" ht="15.75" customHeight="1" s="191"/>
-    <row r="706" ht="15.75" customHeight="1" s="191"/>
-    <row r="707" ht="15.75" customHeight="1" s="191"/>
-    <row r="708" ht="15.75" customHeight="1" s="191"/>
-    <row r="709" ht="15.75" customHeight="1" s="191"/>
-    <row r="710" ht="15.75" customHeight="1" s="191"/>
-    <row r="711" ht="15.75" customHeight="1" s="191"/>
-    <row r="712" ht="15.75" customHeight="1" s="191"/>
-    <row r="713" ht="15.75" customHeight="1" s="191"/>
-    <row r="714" ht="15.75" customHeight="1" s="191"/>
-    <row r="715" ht="15.75" customHeight="1" s="191"/>
-    <row r="716" ht="15.75" customHeight="1" s="191"/>
-    <row r="717" ht="15.75" customHeight="1" s="191"/>
-    <row r="718" ht="15.75" customHeight="1" s="191"/>
-    <row r="719" ht="15.75" customHeight="1" s="191"/>
-    <row r="720" ht="15.75" customHeight="1" s="191"/>
-    <row r="721" ht="15.75" customHeight="1" s="191"/>
-    <row r="722" ht="15.75" customHeight="1" s="191"/>
-    <row r="723" ht="15.75" customHeight="1" s="191"/>
-    <row r="724" ht="15.75" customHeight="1" s="191"/>
-    <row r="725" ht="15.75" customHeight="1" s="191"/>
-    <row r="726" ht="15.75" customHeight="1" s="191"/>
-    <row r="727" ht="15.75" customHeight="1" s="191"/>
-    <row r="728" ht="15.75" customHeight="1" s="191"/>
-    <row r="729" ht="15.75" customHeight="1" s="191"/>
-    <row r="730" ht="15.75" customHeight="1" s="191"/>
-    <row r="731" ht="15.75" customHeight="1" s="191"/>
-    <row r="732" ht="15.75" customHeight="1" s="191"/>
-    <row r="733" ht="15.75" customHeight="1" s="191"/>
-    <row r="734" ht="15.75" customHeight="1" s="191"/>
-    <row r="735" ht="15.75" customHeight="1" s="191"/>
-    <row r="736" ht="15.75" customHeight="1" s="191"/>
-    <row r="737" ht="15.75" customHeight="1" s="191"/>
-    <row r="738" ht="15.75" customHeight="1" s="191"/>
-    <row r="739" ht="15.75" customHeight="1" s="191"/>
-    <row r="740" ht="15.75" customHeight="1" s="191"/>
-    <row r="741" ht="15.75" customHeight="1" s="191"/>
-    <row r="742" ht="15.75" customHeight="1" s="191"/>
-    <row r="743" ht="15.75" customHeight="1" s="191"/>
-    <row r="744" ht="15.75" customHeight="1" s="191"/>
-    <row r="745" ht="15.75" customHeight="1" s="191"/>
-    <row r="746" ht="15.75" customHeight="1" s="191"/>
-    <row r="747" ht="15.75" customHeight="1" s="191"/>
-    <row r="748" ht="15.75" customHeight="1" s="191"/>
-    <row r="749" ht="15.75" customHeight="1" s="191"/>
-    <row r="750" ht="15.75" customHeight="1" s="191"/>
-    <row r="751" ht="15.75" customHeight="1" s="191"/>
-    <row r="752" ht="15.75" customHeight="1" s="191"/>
-    <row r="753" ht="15.75" customHeight="1" s="191"/>
-    <row r="754" ht="15.75" customHeight="1" s="191"/>
-    <row r="755" ht="15.75" customHeight="1" s="191"/>
-    <row r="756" ht="15.75" customHeight="1" s="191"/>
-    <row r="757" ht="15.75" customHeight="1" s="191"/>
-    <row r="758" ht="15.75" customHeight="1" s="191"/>
-    <row r="759" ht="15.75" customHeight="1" s="191"/>
-    <row r="760" ht="15.75" customHeight="1" s="191"/>
-    <row r="761" ht="15.75" customHeight="1" s="191"/>
-    <row r="762" ht="15.75" customHeight="1" s="191"/>
-    <row r="763" ht="15.75" customHeight="1" s="191"/>
-    <row r="764" ht="15.75" customHeight="1" s="191"/>
-    <row r="765" ht="15.75" customHeight="1" s="191"/>
-    <row r="766" ht="15.75" customHeight="1" s="191"/>
-    <row r="767" ht="15.75" customHeight="1" s="191"/>
-    <row r="768" ht="15.75" customHeight="1" s="191"/>
-    <row r="769" ht="15.75" customHeight="1" s="191"/>
-    <row r="770" ht="15.75" customHeight="1" s="191"/>
-    <row r="771" ht="15.75" customHeight="1" s="191"/>
-    <row r="772" ht="15.75" customHeight="1" s="191"/>
-    <row r="773" ht="15.75" customHeight="1" s="191"/>
-    <row r="774" ht="15.75" customHeight="1" s="191"/>
-    <row r="775" ht="15.75" customHeight="1" s="191"/>
-    <row r="776" ht="15.75" customHeight="1" s="191"/>
-    <row r="777" ht="15.75" customHeight="1" s="191"/>
-    <row r="778" ht="15.75" customHeight="1" s="191"/>
-    <row r="779" ht="15.75" customHeight="1" s="191"/>
-    <row r="780" ht="15.75" customHeight="1" s="191"/>
-    <row r="781" ht="15.75" customHeight="1" s="191"/>
-    <row r="782" ht="15.75" customHeight="1" s="191"/>
-    <row r="783" ht="15.75" customHeight="1" s="191"/>
-    <row r="784" ht="15.75" customHeight="1" s="191"/>
-    <row r="785" ht="15.75" customHeight="1" s="191"/>
-    <row r="786" ht="15.75" customHeight="1" s="191"/>
-    <row r="787" ht="15.75" customHeight="1" s="191"/>
-    <row r="788" ht="15.75" customHeight="1" s="191"/>
-    <row r="789" ht="15.75" customHeight="1" s="191"/>
-    <row r="790" ht="15.75" customHeight="1" s="191"/>
-    <row r="791" ht="15.75" customHeight="1" s="191"/>
-    <row r="792" ht="15.75" customHeight="1" s="191"/>
-    <row r="793" ht="15.75" customHeight="1" s="191"/>
-    <row r="794" ht="15.75" customHeight="1" s="191"/>
-    <row r="795" ht="15.75" customHeight="1" s="191"/>
-    <row r="796" ht="15.75" customHeight="1" s="191"/>
-    <row r="797" ht="15.75" customHeight="1" s="191"/>
-    <row r="798" ht="15.75" customHeight="1" s="191"/>
-    <row r="799" ht="15.75" customHeight="1" s="191"/>
-    <row r="800" ht="15.75" customHeight="1" s="191"/>
-    <row r="801" ht="15.75" customHeight="1" s="191"/>
-    <row r="802" ht="15.75" customHeight="1" s="191"/>
-    <row r="803" ht="15.75" customHeight="1" s="191"/>
-    <row r="804" ht="15.75" customHeight="1" s="191"/>
-    <row r="805" ht="15.75" customHeight="1" s="191"/>
-    <row r="806" ht="15.75" customHeight="1" s="191"/>
-    <row r="807" ht="15.75" customHeight="1" s="191"/>
-    <row r="808" ht="15.75" customHeight="1" s="191"/>
-    <row r="809" ht="15.75" customHeight="1" s="191"/>
-    <row r="810" ht="15.75" customHeight="1" s="191"/>
-    <row r="811" ht="15.75" customHeight="1" s="191"/>
-    <row r="812" ht="15.75" customHeight="1" s="191"/>
-    <row r="813" ht="15.75" customHeight="1" s="191"/>
-    <row r="814" ht="15.75" customHeight="1" s="191"/>
-    <row r="815" ht="15.75" customHeight="1" s="191"/>
-    <row r="816" ht="15.75" customHeight="1" s="191"/>
-    <row r="817" ht="15.75" customHeight="1" s="191"/>
-    <row r="818" ht="15.75" customHeight="1" s="191"/>
-    <row r="819" ht="15.75" customHeight="1" s="191"/>
-    <row r="820" ht="15.75" customHeight="1" s="191"/>
-    <row r="821" ht="15.75" customHeight="1" s="191"/>
-    <row r="822" ht="15.75" customHeight="1" s="191"/>
-    <row r="823" ht="15.75" customHeight="1" s="191"/>
-    <row r="824" ht="15.75" customHeight="1" s="191"/>
-    <row r="825" ht="15.75" customHeight="1" s="191"/>
-    <row r="826" ht="15.75" customHeight="1" s="191"/>
-    <row r="827" ht="15.75" customHeight="1" s="191"/>
-    <row r="828" ht="15.75" customHeight="1" s="191"/>
-    <row r="829" ht="15.75" customHeight="1" s="191"/>
-    <row r="830" ht="15.75" customHeight="1" s="191"/>
-    <row r="831" ht="15.75" customHeight="1" s="191"/>
-    <row r="832" ht="15.75" customHeight="1" s="191"/>
-    <row r="833" ht="15.75" customHeight="1" s="191"/>
-    <row r="834" ht="15.75" customHeight="1" s="191"/>
-    <row r="835" ht="15.75" customHeight="1" s="191"/>
-    <row r="836" ht="15.75" customHeight="1" s="191"/>
-    <row r="837" ht="15.75" customHeight="1" s="191"/>
-    <row r="838" ht="15.75" customHeight="1" s="191"/>
-    <row r="839" ht="15.75" customHeight="1" s="191"/>
-    <row r="840" ht="15.75" customHeight="1" s="191"/>
-    <row r="841" ht="15.75" customHeight="1" s="191"/>
-    <row r="842" ht="15.75" customHeight="1" s="191"/>
-    <row r="843" ht="15.75" customHeight="1" s="191"/>
-    <row r="844" ht="15.75" customHeight="1" s="191"/>
-    <row r="845" ht="15.75" customHeight="1" s="191"/>
-    <row r="846" ht="15.75" customHeight="1" s="191"/>
-    <row r="847" ht="15.75" customHeight="1" s="191"/>
-    <row r="848" ht="15.75" customHeight="1" s="191"/>
-    <row r="849" ht="15.75" customHeight="1" s="191"/>
-    <row r="850" ht="15.75" customHeight="1" s="191"/>
-    <row r="851" ht="15.75" customHeight="1" s="191"/>
-    <row r="852" ht="15.75" customHeight="1" s="191"/>
-    <row r="853" ht="15.75" customHeight="1" s="191"/>
-    <row r="854" ht="15.75" customHeight="1" s="191"/>
-    <row r="855" ht="15.75" customHeight="1" s="191"/>
-    <row r="856" ht="15.75" customHeight="1" s="191"/>
-    <row r="857" ht="15.75" customHeight="1" s="191"/>
-    <row r="858" ht="15.75" customHeight="1" s="191"/>
-    <row r="859" ht="15.75" customHeight="1" s="191"/>
-    <row r="860" ht="15.75" customHeight="1" s="191"/>
-    <row r="861" ht="15.75" customHeight="1" s="191"/>
-    <row r="862" ht="15.75" customHeight="1" s="191"/>
-    <row r="863" ht="15.75" customHeight="1" s="191"/>
-    <row r="864" ht="15.75" customHeight="1" s="191"/>
-    <row r="865" ht="15.75" customHeight="1" s="191"/>
-    <row r="866" ht="15.75" customHeight="1" s="191"/>
-    <row r="867" ht="15.75" customHeight="1" s="191"/>
-    <row r="868" ht="15.75" customHeight="1" s="191"/>
-    <row r="869" ht="15.75" customHeight="1" s="191"/>
-    <row r="870" ht="15.75" customHeight="1" s="191"/>
-    <row r="871" ht="15.75" customHeight="1" s="191"/>
-    <row r="872" ht="15.75" customHeight="1" s="191"/>
-    <row r="873" ht="15.75" customHeight="1" s="191"/>
-    <row r="874" ht="15.75" customHeight="1" s="191"/>
-    <row r="875" ht="15.75" customHeight="1" s="191"/>
-    <row r="876" ht="15.75" customHeight="1" s="191"/>
-    <row r="877" ht="15.75" customHeight="1" s="191"/>
-    <row r="878" ht="15.75" customHeight="1" s="191"/>
-    <row r="879" ht="15.75" customHeight="1" s="191"/>
-    <row r="880" ht="15.75" customHeight="1" s="191"/>
-    <row r="881" ht="15.75" customHeight="1" s="191"/>
-    <row r="882" ht="15.75" customHeight="1" s="191"/>
-    <row r="883" ht="15.75" customHeight="1" s="191"/>
-    <row r="884" ht="15.75" customHeight="1" s="191"/>
-    <row r="885" ht="15.75" customHeight="1" s="191"/>
-    <row r="886" ht="15.75" customHeight="1" s="191"/>
-    <row r="887" ht="15.75" customHeight="1" s="191"/>
-    <row r="888" ht="15.75" customHeight="1" s="191"/>
-    <row r="889" ht="15.75" customHeight="1" s="191"/>
-    <row r="890" ht="15.75" customHeight="1" s="191"/>
-    <row r="891" ht="15.75" customHeight="1" s="191"/>
-    <row r="892" ht="15.75" customHeight="1" s="191"/>
-    <row r="893" ht="15.75" customHeight="1" s="191"/>
-    <row r="894" ht="15.75" customHeight="1" s="191"/>
-    <row r="895" ht="15.75" customHeight="1" s="191"/>
-    <row r="896" ht="15.75" customHeight="1" s="191"/>
-    <row r="897" ht="15.75" customHeight="1" s="191"/>
-    <row r="898" ht="15.75" customHeight="1" s="191"/>
-    <row r="899" ht="15.75" customHeight="1" s="191"/>
-    <row r="900" ht="15.75" customHeight="1" s="191"/>
-    <row r="901" ht="15.75" customHeight="1" s="191"/>
-    <row r="902" ht="15.75" customHeight="1" s="191"/>
-    <row r="903" ht="15.75" customHeight="1" s="191"/>
-    <row r="904" ht="15.75" customHeight="1" s="191"/>
-    <row r="905" ht="15.75" customHeight="1" s="191"/>
-    <row r="906" ht="15.75" customHeight="1" s="191"/>
-    <row r="907" ht="15.75" customHeight="1" s="191"/>
-    <row r="908" ht="15.75" customHeight="1" s="191"/>
-    <row r="909" ht="15.75" customHeight="1" s="191"/>
-    <row r="910" ht="15.75" customHeight="1" s="191"/>
-    <row r="911" ht="15.75" customHeight="1" s="191"/>
-    <row r="912" ht="15.75" customHeight="1" s="191"/>
-    <row r="913" ht="15.75" customHeight="1" s="191"/>
-    <row r="914" ht="15.75" customHeight="1" s="191"/>
-    <row r="915" ht="15.75" customHeight="1" s="191"/>
-    <row r="916" ht="15.75" customHeight="1" s="191"/>
-    <row r="917" ht="15.75" customHeight="1" s="191"/>
-    <row r="918" ht="15.75" customHeight="1" s="191"/>
-    <row r="919" ht="15.75" customHeight="1" s="191"/>
-    <row r="920" ht="15.75" customHeight="1" s="191"/>
-    <row r="921" ht="15.75" customHeight="1" s="191"/>
-    <row r="922" ht="15.75" customHeight="1" s="191"/>
-    <row r="923" ht="15.75" customHeight="1" s="191"/>
-    <row r="924" ht="15.75" customHeight="1" s="191"/>
-    <row r="925" ht="15.75" customHeight="1" s="191"/>
-    <row r="926" ht="15.75" customHeight="1" s="191"/>
-    <row r="927" ht="15.75" customHeight="1" s="191"/>
-    <row r="928" ht="15.75" customHeight="1" s="191"/>
-    <row r="929" ht="15.75" customHeight="1" s="191"/>
-    <row r="930" ht="15.75" customHeight="1" s="191"/>
-    <row r="931" ht="15.75" customHeight="1" s="191"/>
-    <row r="932" ht="15.75" customHeight="1" s="191"/>
-    <row r="933" ht="15.75" customHeight="1" s="191"/>
-    <row r="934" ht="15.75" customHeight="1" s="191"/>
-    <row r="935" ht="15.75" customHeight="1" s="191"/>
-    <row r="936" ht="15.75" customHeight="1" s="191"/>
-    <row r="937" ht="15.75" customHeight="1" s="191"/>
-    <row r="938" ht="15.75" customHeight="1" s="191"/>
-    <row r="939" ht="15.75" customHeight="1" s="191"/>
-    <row r="940" ht="15.75" customHeight="1" s="191"/>
-    <row r="941" ht="15.75" customHeight="1" s="191"/>
-    <row r="942" ht="15.75" customHeight="1" s="191"/>
-    <row r="943" ht="15.75" customHeight="1" s="191"/>
-    <row r="944" ht="15.75" customHeight="1" s="191"/>
-    <row r="945" ht="15.75" customHeight="1" s="191"/>
-    <row r="946" ht="15.75" customHeight="1" s="191"/>
-    <row r="947" ht="15.75" customHeight="1" s="191"/>
-    <row r="948" ht="15.75" customHeight="1" s="191"/>
-    <row r="949" ht="15.75" customHeight="1" s="191"/>
-    <row r="950" ht="15.75" customHeight="1" s="191"/>
-    <row r="951" ht="15.75" customHeight="1" s="191"/>
-    <row r="952" ht="15.75" customHeight="1" s="191"/>
-    <row r="953" ht="15.75" customHeight="1" s="191"/>
-    <row r="954" ht="15.75" customHeight="1" s="191"/>
-    <row r="955" ht="15.75" customHeight="1" s="191"/>
-    <row r="956" ht="15.75" customHeight="1" s="191"/>
-    <row r="957" ht="15.75" customHeight="1" s="191"/>
-    <row r="958" ht="15.75" customHeight="1" s="191"/>
-    <row r="959" ht="15.75" customHeight="1" s="191"/>
-    <row r="960" ht="15.75" customHeight="1" s="191"/>
-    <row r="961" ht="15.75" customHeight="1" s="191"/>
-    <row r="962" ht="15.75" customHeight="1" s="191"/>
-    <row r="963" ht="15.75" customHeight="1" s="191"/>
-    <row r="964" ht="15.75" customHeight="1" s="191"/>
-    <row r="965" ht="15.75" customHeight="1" s="191"/>
-    <row r="966" ht="15.75" customHeight="1" s="191"/>
-    <row r="967" ht="15.75" customHeight="1" s="191"/>
-    <row r="968" ht="15.75" customHeight="1" s="191"/>
-    <row r="969" ht="15.75" customHeight="1" s="191"/>
-    <row r="970" ht="15.75" customHeight="1" s="191"/>
-    <row r="971" ht="15.75" customHeight="1" s="191"/>
-    <row r="972" ht="15.75" customHeight="1" s="191"/>
-    <row r="973" ht="15.75" customHeight="1" s="191"/>
-    <row r="974" ht="15.75" customHeight="1" s="191"/>
-    <row r="975" ht="15.75" customHeight="1" s="191"/>
-    <row r="976" ht="15.75" customHeight="1" s="191"/>
-    <row r="977" ht="15.75" customHeight="1" s="191"/>
-    <row r="978" ht="15.75" customHeight="1" s="191"/>
-    <row r="979" ht="15.75" customHeight="1" s="191"/>
-    <row r="980" ht="15.75" customHeight="1" s="191"/>
-    <row r="981" ht="15.75" customHeight="1" s="191"/>
-    <row r="982" ht="15.75" customHeight="1" s="191"/>
-    <row r="983" ht="15.75" customHeight="1" s="191"/>
-    <row r="984" ht="15.75" customHeight="1" s="191"/>
-    <row r="985" ht="15.75" customHeight="1" s="191"/>
-    <row r="986" ht="15.75" customHeight="1" s="191"/>
-    <row r="987" ht="15.75" customHeight="1" s="191"/>
-    <row r="988" ht="15.75" customHeight="1" s="191"/>
-    <row r="989" ht="15.75" customHeight="1" s="191"/>
-    <row r="990" ht="15.75" customHeight="1" s="191"/>
-    <row r="991" ht="15.75" customHeight="1" s="191"/>
-    <row r="992" ht="15.75" customHeight="1" s="191"/>
-    <row r="993" ht="15.75" customHeight="1" s="191"/>
-    <row r="994" ht="15.75" customHeight="1" s="191"/>
-    <row r="995" ht="15.75" customHeight="1" s="191"/>
-    <row r="996" ht="15.75" customHeight="1" s="191"/>
-    <row r="997" ht="15.75" customHeight="1" s="191"/>
-    <row r="998" ht="15.75" customHeight="1" s="191"/>
-    <row r="999" ht="15.75" customHeight="1" s="191"/>
-    <row r="1000" ht="15.75" customHeight="1" s="191"/>
+      <c r="D65" s="225" t="n"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1" s="202"/>
+    <row r="67" ht="15.75" customHeight="1" s="202"/>
+    <row r="68" ht="15.75" customHeight="1" s="202"/>
+    <row r="69" ht="15.75" customHeight="1" s="202"/>
+    <row r="70" ht="15.75" customHeight="1" s="202"/>
+    <row r="71" ht="15.75" customHeight="1" s="202"/>
+    <row r="72" ht="15.75" customHeight="1" s="202"/>
+    <row r="73" ht="15.75" customHeight="1" s="202"/>
+    <row r="74" ht="15.75" customHeight="1" s="202"/>
+    <row r="75" ht="15.75" customHeight="1" s="202"/>
+    <row r="76" ht="15.75" customHeight="1" s="202"/>
+    <row r="77" ht="15.75" customHeight="1" s="202"/>
+    <row r="78" ht="15.75" customHeight="1" s="202"/>
+    <row r="79" ht="15.75" customHeight="1" s="202"/>
+    <row r="80" ht="15.75" customHeight="1" s="202"/>
+    <row r="81" ht="15.75" customHeight="1" s="202"/>
+    <row r="82" ht="15.75" customHeight="1" s="202"/>
+    <row r="83" ht="15.75" customHeight="1" s="202"/>
+    <row r="84" ht="15.75" customHeight="1" s="202"/>
+    <row r="85" ht="15.75" customHeight="1" s="202"/>
+    <row r="86" ht="15.75" customHeight="1" s="202"/>
+    <row r="87" ht="15.75" customHeight="1" s="202"/>
+    <row r="88" ht="15.75" customHeight="1" s="202"/>
+    <row r="89" ht="15.75" customHeight="1" s="202"/>
+    <row r="90" ht="15.75" customHeight="1" s="202"/>
+    <row r="91" ht="15.75" customHeight="1" s="202"/>
+    <row r="92" ht="15.75" customHeight="1" s="202"/>
+    <row r="93" ht="15.75" customHeight="1" s="202"/>
+    <row r="94" ht="15.75" customHeight="1" s="202"/>
+    <row r="95" ht="15.75" customHeight="1" s="202"/>
+    <row r="96" ht="15.75" customHeight="1" s="202"/>
+    <row r="97" ht="15.75" customHeight="1" s="202"/>
+    <row r="98" ht="15.75" customHeight="1" s="202"/>
+    <row r="99" ht="15.75" customHeight="1" s="202"/>
+    <row r="100" ht="15.75" customHeight="1" s="202"/>
+    <row r="101" ht="15.75" customHeight="1" s="202"/>
+    <row r="102" ht="15.75" customHeight="1" s="202"/>
+    <row r="103" ht="15.75" customHeight="1" s="202"/>
+    <row r="104" ht="15.75" customHeight="1" s="202"/>
+    <row r="105" ht="15.75" customHeight="1" s="202"/>
+    <row r="106" ht="15.75" customHeight="1" s="202"/>
+    <row r="107" ht="15.75" customHeight="1" s="202"/>
+    <row r="108" ht="15.75" customHeight="1" s="202"/>
+    <row r="109" ht="15.75" customHeight="1" s="202"/>
+    <row r="110" ht="15.75" customHeight="1" s="202"/>
+    <row r="111" ht="15.75" customHeight="1" s="202"/>
+    <row r="112" ht="15.75" customHeight="1" s="202"/>
+    <row r="113" ht="15.75" customHeight="1" s="202"/>
+    <row r="114" ht="15.75" customHeight="1" s="202"/>
+    <row r="115" ht="15.75" customHeight="1" s="202"/>
+    <row r="116" ht="15.75" customHeight="1" s="202"/>
+    <row r="117" ht="15.75" customHeight="1" s="202"/>
+    <row r="118" ht="15.75" customHeight="1" s="202"/>
+    <row r="119" ht="15.75" customHeight="1" s="202"/>
+    <row r="120" ht="15.75" customHeight="1" s="202"/>
+    <row r="121" ht="15.75" customHeight="1" s="202"/>
+    <row r="122" ht="15.75" customHeight="1" s="202"/>
+    <row r="123" ht="15.75" customHeight="1" s="202"/>
+    <row r="124" ht="15.75" customHeight="1" s="202"/>
+    <row r="125" ht="15.75" customHeight="1" s="202"/>
+    <row r="126" ht="15.75" customHeight="1" s="202"/>
+    <row r="127" ht="15.75" customHeight="1" s="202"/>
+    <row r="128" ht="15.75" customHeight="1" s="202"/>
+    <row r="129" ht="15.75" customHeight="1" s="202"/>
+    <row r="130" ht="15.75" customHeight="1" s="202"/>
+    <row r="131" ht="15.75" customHeight="1" s="202"/>
+    <row r="132" ht="15.75" customHeight="1" s="202"/>
+    <row r="133" ht="15.75" customHeight="1" s="202"/>
+    <row r="134" ht="15.75" customHeight="1" s="202"/>
+    <row r="135" ht="15.75" customHeight="1" s="202"/>
+    <row r="136" ht="15.75" customHeight="1" s="202"/>
+    <row r="137" ht="15.75" customHeight="1" s="202"/>
+    <row r="138" ht="15.75" customHeight="1" s="202"/>
+    <row r="139" ht="15.75" customHeight="1" s="202"/>
+    <row r="140" ht="15.75" customHeight="1" s="202"/>
+    <row r="141" ht="15.75" customHeight="1" s="202"/>
+    <row r="142" ht="15.75" customHeight="1" s="202"/>
+    <row r="143" ht="15.75" customHeight="1" s="202"/>
+    <row r="144" ht="15.75" customHeight="1" s="202"/>
+    <row r="145" ht="15.75" customHeight="1" s="202"/>
+    <row r="146" ht="15.75" customHeight="1" s="202"/>
+    <row r="147" ht="15.75" customHeight="1" s="202"/>
+    <row r="148" ht="15.75" customHeight="1" s="202"/>
+    <row r="149" ht="15.75" customHeight="1" s="202"/>
+    <row r="150" ht="15.75" customHeight="1" s="202"/>
+    <row r="151" ht="15.75" customHeight="1" s="202"/>
+    <row r="152" ht="15.75" customHeight="1" s="202"/>
+    <row r="153" ht="15.75" customHeight="1" s="202"/>
+    <row r="154" ht="15.75" customHeight="1" s="202"/>
+    <row r="155" ht="15.75" customHeight="1" s="202"/>
+    <row r="156" ht="15.75" customHeight="1" s="202"/>
+    <row r="157" ht="15.75" customHeight="1" s="202"/>
+    <row r="158" ht="15.75" customHeight="1" s="202"/>
+    <row r="159" ht="15.75" customHeight="1" s="202"/>
+    <row r="160" ht="15.75" customHeight="1" s="202"/>
+    <row r="161" ht="15.75" customHeight="1" s="202"/>
+    <row r="162" ht="15.75" customHeight="1" s="202"/>
+    <row r="163" ht="15.75" customHeight="1" s="202"/>
+    <row r="164" ht="15.75" customHeight="1" s="202"/>
+    <row r="165" ht="15.75" customHeight="1" s="202"/>
+    <row r="166" ht="15.75" customHeight="1" s="202"/>
+    <row r="167" ht="15.75" customHeight="1" s="202"/>
+    <row r="168" ht="15.75" customHeight="1" s="202"/>
+    <row r="169" ht="15.75" customHeight="1" s="202"/>
+    <row r="170" ht="15.75" customHeight="1" s="202"/>
+    <row r="171" ht="15.75" customHeight="1" s="202"/>
+    <row r="172" ht="15.75" customHeight="1" s="202"/>
+    <row r="173" ht="15.75" customHeight="1" s="202"/>
+    <row r="174" ht="15.75" customHeight="1" s="202"/>
+    <row r="175" ht="15.75" customHeight="1" s="202"/>
+    <row r="176" ht="15.75" customHeight="1" s="202"/>
+    <row r="177" ht="15.75" customHeight="1" s="202"/>
+    <row r="178" ht="15.75" customHeight="1" s="202"/>
+    <row r="179" ht="15.75" customHeight="1" s="202"/>
+    <row r="180" ht="15.75" customHeight="1" s="202"/>
+    <row r="181" ht="15.75" customHeight="1" s="202"/>
+    <row r="182" ht="15.75" customHeight="1" s="202"/>
+    <row r="183" ht="15.75" customHeight="1" s="202"/>
+    <row r="184" ht="15.75" customHeight="1" s="202"/>
+    <row r="185" ht="15.75" customHeight="1" s="202"/>
+    <row r="186" ht="15.75" customHeight="1" s="202"/>
+    <row r="187" ht="15.75" customHeight="1" s="202"/>
+    <row r="188" ht="15.75" customHeight="1" s="202"/>
+    <row r="189" ht="15.75" customHeight="1" s="202"/>
+    <row r="190" ht="15.75" customHeight="1" s="202"/>
+    <row r="191" ht="15.75" customHeight="1" s="202"/>
+    <row r="192" ht="15.75" customHeight="1" s="202"/>
+    <row r="193" ht="15.75" customHeight="1" s="202"/>
+    <row r="194" ht="15.75" customHeight="1" s="202"/>
+    <row r="195" ht="15.75" customHeight="1" s="202"/>
+    <row r="196" ht="15.75" customHeight="1" s="202"/>
+    <row r="197" ht="15.75" customHeight="1" s="202"/>
+    <row r="198" ht="15.75" customHeight="1" s="202"/>
+    <row r="199" ht="15.75" customHeight="1" s="202"/>
+    <row r="200" ht="15.75" customHeight="1" s="202"/>
+    <row r="201" ht="15.75" customHeight="1" s="202"/>
+    <row r="202" ht="15.75" customHeight="1" s="202"/>
+    <row r="203" ht="15.75" customHeight="1" s="202"/>
+    <row r="204" ht="15.75" customHeight="1" s="202"/>
+    <row r="205" ht="15.75" customHeight="1" s="202"/>
+    <row r="206" ht="15.75" customHeight="1" s="202"/>
+    <row r="207" ht="15.75" customHeight="1" s="202"/>
+    <row r="208" ht="15.75" customHeight="1" s="202"/>
+    <row r="209" ht="15.75" customHeight="1" s="202"/>
+    <row r="210" ht="15.75" customHeight="1" s="202"/>
+    <row r="211" ht="15.75" customHeight="1" s="202"/>
+    <row r="212" ht="15.75" customHeight="1" s="202"/>
+    <row r="213" ht="15.75" customHeight="1" s="202"/>
+    <row r="214" ht="15.75" customHeight="1" s="202"/>
+    <row r="215" ht="15.75" customHeight="1" s="202"/>
+    <row r="216" ht="15.75" customHeight="1" s="202"/>
+    <row r="217" ht="15.75" customHeight="1" s="202"/>
+    <row r="218" ht="15.75" customHeight="1" s="202"/>
+    <row r="219" ht="15.75" customHeight="1" s="202"/>
+    <row r="220" ht="15.75" customHeight="1" s="202"/>
+    <row r="221" ht="15.75" customHeight="1" s="202"/>
+    <row r="222" ht="15.75" customHeight="1" s="202"/>
+    <row r="223" ht="15.75" customHeight="1" s="202"/>
+    <row r="224" ht="15.75" customHeight="1" s="202"/>
+    <row r="225" ht="15.75" customHeight="1" s="202"/>
+    <row r="226" ht="15.75" customHeight="1" s="202"/>
+    <row r="227" ht="15.75" customHeight="1" s="202"/>
+    <row r="228" ht="15.75" customHeight="1" s="202"/>
+    <row r="229" ht="15.75" customHeight="1" s="202"/>
+    <row r="230" ht="15.75" customHeight="1" s="202"/>
+    <row r="231" ht="15.75" customHeight="1" s="202"/>
+    <row r="232" ht="15.75" customHeight="1" s="202"/>
+    <row r="233" ht="15.75" customHeight="1" s="202"/>
+    <row r="234" ht="15.75" customHeight="1" s="202"/>
+    <row r="235" ht="15.75" customHeight="1" s="202"/>
+    <row r="236" ht="15.75" customHeight="1" s="202"/>
+    <row r="237" ht="15.75" customHeight="1" s="202"/>
+    <row r="238" ht="15.75" customHeight="1" s="202"/>
+    <row r="239" ht="15.75" customHeight="1" s="202"/>
+    <row r="240" ht="15.75" customHeight="1" s="202"/>
+    <row r="241" ht="15.75" customHeight="1" s="202"/>
+    <row r="242" ht="15.75" customHeight="1" s="202"/>
+    <row r="243" ht="15.75" customHeight="1" s="202"/>
+    <row r="244" ht="15.75" customHeight="1" s="202"/>
+    <row r="245" ht="15.75" customHeight="1" s="202"/>
+    <row r="246" ht="15.75" customHeight="1" s="202"/>
+    <row r="247" ht="15.75" customHeight="1" s="202"/>
+    <row r="248" ht="15.75" customHeight="1" s="202"/>
+    <row r="249" ht="15.75" customHeight="1" s="202"/>
+    <row r="250" ht="15.75" customHeight="1" s="202"/>
+    <row r="251" ht="15.75" customHeight="1" s="202"/>
+    <row r="252" ht="15.75" customHeight="1" s="202"/>
+    <row r="253" ht="15.75" customHeight="1" s="202"/>
+    <row r="254" ht="15.75" customHeight="1" s="202"/>
+    <row r="255" ht="15.75" customHeight="1" s="202"/>
+    <row r="256" ht="15.75" customHeight="1" s="202"/>
+    <row r="257" ht="15.75" customHeight="1" s="202"/>
+    <row r="258" ht="15.75" customHeight="1" s="202"/>
+    <row r="259" ht="15.75" customHeight="1" s="202"/>
+    <row r="260" ht="15.75" customHeight="1" s="202"/>
+    <row r="261" ht="15.75" customHeight="1" s="202"/>
+    <row r="262" ht="15.75" customHeight="1" s="202"/>
+    <row r="263" ht="15.75" customHeight="1" s="202"/>
+    <row r="264" ht="15.75" customHeight="1" s="202"/>
+    <row r="265" ht="15.75" customHeight="1" s="202"/>
+    <row r="266" ht="15.75" customHeight="1" s="202"/>
+    <row r="267" ht="15.75" customHeight="1" s="202"/>
+    <row r="268" ht="15.75" customHeight="1" s="202"/>
+    <row r="269" ht="15.75" customHeight="1" s="202"/>
+    <row r="270" ht="15.75" customHeight="1" s="202"/>
+    <row r="271" ht="15.75" customHeight="1" s="202"/>
+    <row r="272" ht="15.75" customHeight="1" s="202"/>
+    <row r="273" ht="15.75" customHeight="1" s="202"/>
+    <row r="274" ht="15.75" customHeight="1" s="202"/>
+    <row r="275" ht="15.75" customHeight="1" s="202"/>
+    <row r="276" ht="15.75" customHeight="1" s="202"/>
+    <row r="277" ht="15.75" customHeight="1" s="202"/>
+    <row r="278" ht="15.75" customHeight="1" s="202"/>
+    <row r="279" ht="15.75" customHeight="1" s="202"/>
+    <row r="280" ht="15.75" customHeight="1" s="202"/>
+    <row r="281" ht="15.75" customHeight="1" s="202"/>
+    <row r="282" ht="15.75" customHeight="1" s="202"/>
+    <row r="283" ht="15.75" customHeight="1" s="202"/>
+    <row r="284" ht="15.75" customHeight="1" s="202"/>
+    <row r="285" ht="15.75" customHeight="1" s="202"/>
+    <row r="286" ht="15.75" customHeight="1" s="202"/>
+    <row r="287" ht="15.75" customHeight="1" s="202"/>
+    <row r="288" ht="15.75" customHeight="1" s="202"/>
+    <row r="289" ht="15.75" customHeight="1" s="202"/>
+    <row r="290" ht="15.75" customHeight="1" s="202"/>
+    <row r="291" ht="15.75" customHeight="1" s="202"/>
+    <row r="292" ht="15.75" customHeight="1" s="202"/>
+    <row r="293" ht="15.75" customHeight="1" s="202"/>
+    <row r="294" ht="15.75" customHeight="1" s="202"/>
+    <row r="295" ht="15.75" customHeight="1" s="202"/>
+    <row r="296" ht="15.75" customHeight="1" s="202"/>
+    <row r="297" ht="15.75" customHeight="1" s="202"/>
+    <row r="298" ht="15.75" customHeight="1" s="202"/>
+    <row r="299" ht="15.75" customHeight="1" s="202"/>
+    <row r="300" ht="15.75" customHeight="1" s="202"/>
+    <row r="301" ht="15.75" customHeight="1" s="202"/>
+    <row r="302" ht="15.75" customHeight="1" s="202"/>
+    <row r="303" ht="15.75" customHeight="1" s="202"/>
+    <row r="304" ht="15.75" customHeight="1" s="202"/>
+    <row r="305" ht="15.75" customHeight="1" s="202"/>
+    <row r="306" ht="15.75" customHeight="1" s="202"/>
+    <row r="307" ht="15.75" customHeight="1" s="202"/>
+    <row r="308" ht="15.75" customHeight="1" s="202"/>
+    <row r="309" ht="15.75" customHeight="1" s="202"/>
+    <row r="310" ht="15.75" customHeight="1" s="202"/>
+    <row r="311" ht="15.75" customHeight="1" s="202"/>
+    <row r="312" ht="15.75" customHeight="1" s="202"/>
+    <row r="313" ht="15.75" customHeight="1" s="202"/>
+    <row r="314" ht="15.75" customHeight="1" s="202"/>
+    <row r="315" ht="15.75" customHeight="1" s="202"/>
+    <row r="316" ht="15.75" customHeight="1" s="202"/>
+    <row r="317" ht="15.75" customHeight="1" s="202"/>
+    <row r="318" ht="15.75" customHeight="1" s="202"/>
+    <row r="319" ht="15.75" customHeight="1" s="202"/>
+    <row r="320" ht="15.75" customHeight="1" s="202"/>
+    <row r="321" ht="15.75" customHeight="1" s="202"/>
+    <row r="322" ht="15.75" customHeight="1" s="202"/>
+    <row r="323" ht="15.75" customHeight="1" s="202"/>
+    <row r="324" ht="15.75" customHeight="1" s="202"/>
+    <row r="325" ht="15.75" customHeight="1" s="202"/>
+    <row r="326" ht="15.75" customHeight="1" s="202"/>
+    <row r="327" ht="15.75" customHeight="1" s="202"/>
+    <row r="328" ht="15.75" customHeight="1" s="202"/>
+    <row r="329" ht="15.75" customHeight="1" s="202"/>
+    <row r="330" ht="15.75" customHeight="1" s="202"/>
+    <row r="331" ht="15.75" customHeight="1" s="202"/>
+    <row r="332" ht="15.75" customHeight="1" s="202"/>
+    <row r="333" ht="15.75" customHeight="1" s="202"/>
+    <row r="334" ht="15.75" customHeight="1" s="202"/>
+    <row r="335" ht="15.75" customHeight="1" s="202"/>
+    <row r="336" ht="15.75" customHeight="1" s="202"/>
+    <row r="337" ht="15.75" customHeight="1" s="202"/>
+    <row r="338" ht="15.75" customHeight="1" s="202"/>
+    <row r="339" ht="15.75" customHeight="1" s="202"/>
+    <row r="340" ht="15.75" customHeight="1" s="202"/>
+    <row r="341" ht="15.75" customHeight="1" s="202"/>
+    <row r="342" ht="15.75" customHeight="1" s="202"/>
+    <row r="343" ht="15.75" customHeight="1" s="202"/>
+    <row r="344" ht="15.75" customHeight="1" s="202"/>
+    <row r="345" ht="15.75" customHeight="1" s="202"/>
+    <row r="346" ht="15.75" customHeight="1" s="202"/>
+    <row r="347" ht="15.75" customHeight="1" s="202"/>
+    <row r="348" ht="15.75" customHeight="1" s="202"/>
+    <row r="349" ht="15.75" customHeight="1" s="202"/>
+    <row r="350" ht="15.75" customHeight="1" s="202"/>
+    <row r="351" ht="15.75" customHeight="1" s="202"/>
+    <row r="352" ht="15.75" customHeight="1" s="202"/>
+    <row r="353" ht="15.75" customHeight="1" s="202"/>
+    <row r="354" ht="15.75" customHeight="1" s="202"/>
+    <row r="355" ht="15.75" customHeight="1" s="202"/>
+    <row r="356" ht="15.75" customHeight="1" s="202"/>
+    <row r="357" ht="15.75" customHeight="1" s="202"/>
+    <row r="358" ht="15.75" customHeight="1" s="202"/>
+    <row r="359" ht="15.75" customHeight="1" s="202"/>
+    <row r="360" ht="15.75" customHeight="1" s="202"/>
+    <row r="361" ht="15.75" customHeight="1" s="202"/>
+    <row r="362" ht="15.75" customHeight="1" s="202"/>
+    <row r="363" ht="15.75" customHeight="1" s="202"/>
+    <row r="364" ht="15.75" customHeight="1" s="202"/>
+    <row r="365" ht="15.75" customHeight="1" s="202"/>
+    <row r="366" ht="15.75" customHeight="1" s="202"/>
+    <row r="367" ht="15.75" customHeight="1" s="202"/>
+    <row r="368" ht="15.75" customHeight="1" s="202"/>
+    <row r="369" ht="15.75" customHeight="1" s="202"/>
+    <row r="370" ht="15.75" customHeight="1" s="202"/>
+    <row r="371" ht="15.75" customHeight="1" s="202"/>
+    <row r="372" ht="15.75" customHeight="1" s="202"/>
+    <row r="373" ht="15.75" customHeight="1" s="202"/>
+    <row r="374" ht="15.75" customHeight="1" s="202"/>
+    <row r="375" ht="15.75" customHeight="1" s="202"/>
+    <row r="376" ht="15.75" customHeight="1" s="202"/>
+    <row r="377" ht="15.75" customHeight="1" s="202"/>
+    <row r="378" ht="15.75" customHeight="1" s="202"/>
+    <row r="379" ht="15.75" customHeight="1" s="202"/>
+    <row r="380" ht="15.75" customHeight="1" s="202"/>
+    <row r="381" ht="15.75" customHeight="1" s="202"/>
+    <row r="382" ht="15.75" customHeight="1" s="202"/>
+    <row r="383" ht="15.75" customHeight="1" s="202"/>
+    <row r="384" ht="15.75" customHeight="1" s="202"/>
+    <row r="385" ht="15.75" customHeight="1" s="202"/>
+    <row r="386" ht="15.75" customHeight="1" s="202"/>
+    <row r="387" ht="15.75" customHeight="1" s="202"/>
+    <row r="388" ht="15.75" customHeight="1" s="202"/>
+    <row r="389" ht="15.75" customHeight="1" s="202"/>
+    <row r="390" ht="15.75" customHeight="1" s="202"/>
+    <row r="391" ht="15.75" customHeight="1" s="202"/>
+    <row r="392" ht="15.75" customHeight="1" s="202"/>
+    <row r="393" ht="15.75" customHeight="1" s="202"/>
+    <row r="394" ht="15.75" customHeight="1" s="202"/>
+    <row r="395" ht="15.75" customHeight="1" s="202"/>
+    <row r="396" ht="15.75" customHeight="1" s="202"/>
+    <row r="397" ht="15.75" customHeight="1" s="202"/>
+    <row r="398" ht="15.75" customHeight="1" s="202"/>
+    <row r="399" ht="15.75" customHeight="1" s="202"/>
+    <row r="400" ht="15.75" customHeight="1" s="202"/>
+    <row r="401" ht="15.75" customHeight="1" s="202"/>
+    <row r="402" ht="15.75" customHeight="1" s="202"/>
+    <row r="403" ht="15.75" customHeight="1" s="202"/>
+    <row r="404" ht="15.75" customHeight="1" s="202"/>
+    <row r="405" ht="15.75" customHeight="1" s="202"/>
+    <row r="406" ht="15.75" customHeight="1" s="202"/>
+    <row r="407" ht="15.75" customHeight="1" s="202"/>
+    <row r="408" ht="15.75" customHeight="1" s="202"/>
+    <row r="409" ht="15.75" customHeight="1" s="202"/>
+    <row r="410" ht="15.75" customHeight="1" s="202"/>
+    <row r="411" ht="15.75" customHeight="1" s="202"/>
+    <row r="412" ht="15.75" customHeight="1" s="202"/>
+    <row r="413" ht="15.75" customHeight="1" s="202"/>
+    <row r="414" ht="15.75" customHeight="1" s="202"/>
+    <row r="415" ht="15.75" customHeight="1" s="202"/>
+    <row r="416" ht="15.75" customHeight="1" s="202"/>
+    <row r="417" ht="15.75" customHeight="1" s="202"/>
+    <row r="418" ht="15.75" customHeight="1" s="202"/>
+    <row r="419" ht="15.75" customHeight="1" s="202"/>
+    <row r="420" ht="15.75" customHeight="1" s="202"/>
+    <row r="421" ht="15.75" customHeight="1" s="202"/>
+    <row r="422" ht="15.75" customHeight="1" s="202"/>
+    <row r="423" ht="15.75" customHeight="1" s="202"/>
+    <row r="424" ht="15.75" customHeight="1" s="202"/>
+    <row r="425" ht="15.75" customHeight="1" s="202"/>
+    <row r="426" ht="15.75" customHeight="1" s="202"/>
+    <row r="427" ht="15.75" customHeight="1" s="202"/>
+    <row r="428" ht="15.75" customHeight="1" s="202"/>
+    <row r="429" ht="15.75" customHeight="1" s="202"/>
+    <row r="430" ht="15.75" customHeight="1" s="202"/>
+    <row r="431" ht="15.75" customHeight="1" s="202"/>
+    <row r="432" ht="15.75" customHeight="1" s="202"/>
+    <row r="433" ht="15.75" customHeight="1" s="202"/>
+    <row r="434" ht="15.75" customHeight="1" s="202"/>
+    <row r="435" ht="15.75" customHeight="1" s="202"/>
+    <row r="436" ht="15.75" customHeight="1" s="202"/>
+    <row r="437" ht="15.75" customHeight="1" s="202"/>
+    <row r="438" ht="15.75" customHeight="1" s="202"/>
+    <row r="439" ht="15.75" customHeight="1" s="202"/>
+    <row r="440" ht="15.75" customHeight="1" s="202"/>
+    <row r="441" ht="15.75" customHeight="1" s="202"/>
+    <row r="442" ht="15.75" customHeight="1" s="202"/>
+    <row r="443" ht="15.75" customHeight="1" s="202"/>
+    <row r="444" ht="15.75" customHeight="1" s="202"/>
+    <row r="445" ht="15.75" customHeight="1" s="202"/>
+    <row r="446" ht="15.75" customHeight="1" s="202"/>
+    <row r="447" ht="15.75" customHeight="1" s="202"/>
+    <row r="448" ht="15.75" customHeight="1" s="202"/>
+    <row r="449" ht="15.75" customHeight="1" s="202"/>
+    <row r="450" ht="15.75" customHeight="1" s="202"/>
+    <row r="451" ht="15.75" customHeight="1" s="202"/>
+    <row r="452" ht="15.75" customHeight="1" s="202"/>
+    <row r="453" ht="15.75" customHeight="1" s="202"/>
+    <row r="454" ht="15.75" customHeight="1" s="202"/>
+    <row r="455" ht="15.75" customHeight="1" s="202"/>
+    <row r="456" ht="15.75" customHeight="1" s="202"/>
+    <row r="457" ht="15.75" customHeight="1" s="202"/>
+    <row r="458" ht="15.75" customHeight="1" s="202"/>
+    <row r="459" ht="15.75" customHeight="1" s="202"/>
+    <row r="460" ht="15.75" customHeight="1" s="202"/>
+    <row r="461" ht="15.75" customHeight="1" s="202"/>
+    <row r="462" ht="15.75" customHeight="1" s="202"/>
+    <row r="463" ht="15.75" customHeight="1" s="202"/>
+    <row r="464" ht="15.75" customHeight="1" s="202"/>
+    <row r="465" ht="15.75" customHeight="1" s="202"/>
+    <row r="466" ht="15.75" customHeight="1" s="202"/>
+    <row r="467" ht="15.75" customHeight="1" s="202"/>
+    <row r="468" ht="15.75" customHeight="1" s="202"/>
+    <row r="469" ht="15.75" customHeight="1" s="202"/>
+    <row r="470" ht="15.75" customHeight="1" s="202"/>
+    <row r="471" ht="15.75" customHeight="1" s="202"/>
+    <row r="472" ht="15.75" customHeight="1" s="202"/>
+    <row r="473" ht="15.75" customHeight="1" s="202"/>
+    <row r="474" ht="15.75" customHeight="1" s="202"/>
+    <row r="475" ht="15.75" customHeight="1" s="202"/>
+    <row r="476" ht="15.75" customHeight="1" s="202"/>
+    <row r="477" ht="15.75" customHeight="1" s="202"/>
+    <row r="478" ht="15.75" customHeight="1" s="202"/>
+    <row r="479" ht="15.75" customHeight="1" s="202"/>
+    <row r="480" ht="15.75" customHeight="1" s="202"/>
+    <row r="481" ht="15.75" customHeight="1" s="202"/>
+    <row r="482" ht="15.75" customHeight="1" s="202"/>
+    <row r="483" ht="15.75" customHeight="1" s="202"/>
+    <row r="484" ht="15.75" customHeight="1" s="202"/>
+    <row r="485" ht="15.75" customHeight="1" s="202"/>
+    <row r="486" ht="15.75" customHeight="1" s="202"/>
+    <row r="487" ht="15.75" customHeight="1" s="202"/>
+    <row r="488" ht="15.75" customHeight="1" s="202"/>
+    <row r="489" ht="15.75" customHeight="1" s="202"/>
+    <row r="490" ht="15.75" customHeight="1" s="202"/>
+    <row r="491" ht="15.75" customHeight="1" s="202"/>
+    <row r="492" ht="15.75" customHeight="1" s="202"/>
+    <row r="493" ht="15.75" customHeight="1" s="202"/>
+    <row r="494" ht="15.75" customHeight="1" s="202"/>
+    <row r="495" ht="15.75" customHeight="1" s="202"/>
+    <row r="496" ht="15.75" customHeight="1" s="202"/>
+    <row r="497" ht="15.75" customHeight="1" s="202"/>
+    <row r="498" ht="15.75" customHeight="1" s="202"/>
+    <row r="499" ht="15.75" customHeight="1" s="202"/>
+    <row r="500" ht="15.75" customHeight="1" s="202"/>
+    <row r="501" ht="15.75" customHeight="1" s="202"/>
+    <row r="502" ht="15.75" customHeight="1" s="202"/>
+    <row r="503" ht="15.75" customHeight="1" s="202"/>
+    <row r="504" ht="15.75" customHeight="1" s="202"/>
+    <row r="505" ht="15.75" customHeight="1" s="202"/>
+    <row r="506" ht="15.75" customHeight="1" s="202"/>
+    <row r="507" ht="15.75" customHeight="1" s="202"/>
+    <row r="508" ht="15.75" customHeight="1" s="202"/>
+    <row r="509" ht="15.75" customHeight="1" s="202"/>
+    <row r="510" ht="15.75" customHeight="1" s="202"/>
+    <row r="511" ht="15.75" customHeight="1" s="202"/>
+    <row r="512" ht="15.75" customHeight="1" s="202"/>
+    <row r="513" ht="15.75" customHeight="1" s="202"/>
+    <row r="514" ht="15.75" customHeight="1" s="202"/>
+    <row r="515" ht="15.75" customHeight="1" s="202"/>
+    <row r="516" ht="15.75" customHeight="1" s="202"/>
+    <row r="517" ht="15.75" customHeight="1" s="202"/>
+    <row r="518" ht="15.75" customHeight="1" s="202"/>
+    <row r="519" ht="15.75" customHeight="1" s="202"/>
+    <row r="520" ht="15.75" customHeight="1" s="202"/>
+    <row r="521" ht="15.75" customHeight="1" s="202"/>
+    <row r="522" ht="15.75" customHeight="1" s="202"/>
+    <row r="523" ht="15.75" customHeight="1" s="202"/>
+    <row r="524" ht="15.75" customHeight="1" s="202"/>
+    <row r="525" ht="15.75" customHeight="1" s="202"/>
+    <row r="526" ht="15.75" customHeight="1" s="202"/>
+    <row r="527" ht="15.75" customHeight="1" s="202"/>
+    <row r="528" ht="15.75" customHeight="1" s="202"/>
+    <row r="529" ht="15.75" customHeight="1" s="202"/>
+    <row r="530" ht="15.75" customHeight="1" s="202"/>
+    <row r="531" ht="15.75" customHeight="1" s="202"/>
+    <row r="532" ht="15.75" customHeight="1" s="202"/>
+    <row r="533" ht="15.75" customHeight="1" s="202"/>
+    <row r="534" ht="15.75" customHeight="1" s="202"/>
+    <row r="535" ht="15.75" customHeight="1" s="202"/>
+    <row r="536" ht="15.75" customHeight="1" s="202"/>
+    <row r="537" ht="15.75" customHeight="1" s="202"/>
+    <row r="538" ht="15.75" customHeight="1" s="202"/>
+    <row r="539" ht="15.75" customHeight="1" s="202"/>
+    <row r="540" ht="15.75" customHeight="1" s="202"/>
+    <row r="541" ht="15.75" customHeight="1" s="202"/>
+    <row r="542" ht="15.75" customHeight="1" s="202"/>
+    <row r="543" ht="15.75" customHeight="1" s="202"/>
+    <row r="544" ht="15.75" customHeight="1" s="202"/>
+    <row r="545" ht="15.75" customHeight="1" s="202"/>
+    <row r="546" ht="15.75" customHeight="1" s="202"/>
+    <row r="547" ht="15.75" customHeight="1" s="202"/>
+    <row r="548" ht="15.75" customHeight="1" s="202"/>
+    <row r="549" ht="15.75" customHeight="1" s="202"/>
+    <row r="550" ht="15.75" customHeight="1" s="202"/>
+    <row r="551" ht="15.75" customHeight="1" s="202"/>
+    <row r="552" ht="15.75" customHeight="1" s="202"/>
+    <row r="553" ht="15.75" customHeight="1" s="202"/>
+    <row r="554" ht="15.75" customHeight="1" s="202"/>
+    <row r="555" ht="15.75" customHeight="1" s="202"/>
+    <row r="556" ht="15.75" customHeight="1" s="202"/>
+    <row r="557" ht="15.75" customHeight="1" s="202"/>
+    <row r="558" ht="15.75" customHeight="1" s="202"/>
+    <row r="559" ht="15.75" customHeight="1" s="202"/>
+    <row r="560" ht="15.75" customHeight="1" s="202"/>
+    <row r="561" ht="15.75" customHeight="1" s="202"/>
+    <row r="562" ht="15.75" customHeight="1" s="202"/>
+    <row r="563" ht="15.75" customHeight="1" s="202"/>
+    <row r="564" ht="15.75" customHeight="1" s="202"/>
+    <row r="565" ht="15.75" customHeight="1" s="202"/>
+    <row r="566" ht="15.75" customHeight="1" s="202"/>
+    <row r="567" ht="15.75" customHeight="1" s="202"/>
+    <row r="568" ht="15.75" customHeight="1" s="202"/>
+    <row r="569" ht="15.75" customHeight="1" s="202"/>
+    <row r="570" ht="15.75" customHeight="1" s="202"/>
+    <row r="571" ht="15.75" customHeight="1" s="202"/>
+    <row r="572" ht="15.75" customHeight="1" s="202"/>
+    <row r="573" ht="15.75" customHeight="1" s="202"/>
+    <row r="574" ht="15.75" customHeight="1" s="202"/>
+    <row r="575" ht="15.75" customHeight="1" s="202"/>
+    <row r="576" ht="15.75" customHeight="1" s="202"/>
+    <row r="577" ht="15.75" customHeight="1" s="202"/>
+    <row r="578" ht="15.75" customHeight="1" s="202"/>
+    <row r="579" ht="15.75" customHeight="1" s="202"/>
+    <row r="580" ht="15.75" customHeight="1" s="202"/>
+    <row r="581" ht="15.75" customHeight="1" s="202"/>
+    <row r="582" ht="15.75" customHeight="1" s="202"/>
+    <row r="583" ht="15.75" customHeight="1" s="202"/>
+    <row r="584" ht="15.75" customHeight="1" s="202"/>
+    <row r="585" ht="15.75" customHeight="1" s="202"/>
+    <row r="586" ht="15.75" customHeight="1" s="202"/>
+    <row r="587" ht="15.75" customHeight="1" s="202"/>
+    <row r="588" ht="15.75" customHeight="1" s="202"/>
+    <row r="589" ht="15.75" customHeight="1" s="202"/>
+    <row r="590" ht="15.75" customHeight="1" s="202"/>
+    <row r="591" ht="15.75" customHeight="1" s="202"/>
+    <row r="592" ht="15.75" customHeight="1" s="202"/>
+    <row r="593" ht="15.75" customHeight="1" s="202"/>
+    <row r="594" ht="15.75" customHeight="1" s="202"/>
+    <row r="595" ht="15.75" customHeight="1" s="202"/>
+    <row r="596" ht="15.75" customHeight="1" s="202"/>
+    <row r="597" ht="15.75" customHeight="1" s="202"/>
+    <row r="598" ht="15.75" customHeight="1" s="202"/>
+    <row r="599" ht="15.75" customHeight="1" s="202"/>
+    <row r="600" ht="15.75" customHeight="1" s="202"/>
+    <row r="601" ht="15.75" customHeight="1" s="202"/>
+    <row r="602" ht="15.75" customHeight="1" s="202"/>
+    <row r="603" ht="15.75" customHeight="1" s="202"/>
+    <row r="604" ht="15.75" customHeight="1" s="202"/>
+    <row r="605" ht="15.75" customHeight="1" s="202"/>
+    <row r="606" ht="15.75" customHeight="1" s="202"/>
+    <row r="607" ht="15.75" customHeight="1" s="202"/>
+    <row r="608" ht="15.75" customHeight="1" s="202"/>
+    <row r="609" ht="15.75" customHeight="1" s="202"/>
+    <row r="610" ht="15.75" customHeight="1" s="202"/>
+    <row r="611" ht="15.75" customHeight="1" s="202"/>
+    <row r="612" ht="15.75" customHeight="1" s="202"/>
+    <row r="613" ht="15.75" customHeight="1" s="202"/>
+    <row r="614" ht="15.75" customHeight="1" s="202"/>
+    <row r="615" ht="15.75" customHeight="1" s="202"/>
+    <row r="616" ht="15.75" customHeight="1" s="202"/>
+    <row r="617" ht="15.75" customHeight="1" s="202"/>
+    <row r="618" ht="15.75" customHeight="1" s="202"/>
+    <row r="619" ht="15.75" customHeight="1" s="202"/>
+    <row r="620" ht="15.75" customHeight="1" s="202"/>
+    <row r="621" ht="15.75" customHeight="1" s="202"/>
+    <row r="622" ht="15.75" customHeight="1" s="202"/>
+    <row r="623" ht="15.75" customHeight="1" s="202"/>
+    <row r="624" ht="15.75" customHeight="1" s="202"/>
+    <row r="625" ht="15.75" customHeight="1" s="202"/>
+    <row r="626" ht="15.75" customHeight="1" s="202"/>
+    <row r="627" ht="15.75" customHeight="1" s="202"/>
+    <row r="628" ht="15.75" customHeight="1" s="202"/>
+    <row r="629" ht="15.75" customHeight="1" s="202"/>
+    <row r="630" ht="15.75" customHeight="1" s="202"/>
+    <row r="631" ht="15.75" customHeight="1" s="202"/>
+    <row r="632" ht="15.75" customHeight="1" s="202"/>
+    <row r="633" ht="15.75" customHeight="1" s="202"/>
+    <row r="634" ht="15.75" customHeight="1" s="202"/>
+    <row r="635" ht="15.75" customHeight="1" s="202"/>
+    <row r="636" ht="15.75" customHeight="1" s="202"/>
+    <row r="637" ht="15.75" customHeight="1" s="202"/>
+    <row r="638" ht="15.75" customHeight="1" s="202"/>
+    <row r="639" ht="15.75" customHeight="1" s="202"/>
+    <row r="640" ht="15.75" customHeight="1" s="202"/>
+    <row r="641" ht="15.75" customHeight="1" s="202"/>
+    <row r="642" ht="15.75" customHeight="1" s="202"/>
+    <row r="643" ht="15.75" customHeight="1" s="202"/>
+    <row r="644" ht="15.75" customHeight="1" s="202"/>
+    <row r="645" ht="15.75" customHeight="1" s="202"/>
+    <row r="646" ht="15.75" customHeight="1" s="202"/>
+    <row r="647" ht="15.75" customHeight="1" s="202"/>
+    <row r="648" ht="15.75" customHeight="1" s="202"/>
+    <row r="649" ht="15.75" customHeight="1" s="202"/>
+    <row r="650" ht="15.75" customHeight="1" s="202"/>
+    <row r="651" ht="15.75" customHeight="1" s="202"/>
+    <row r="652" ht="15.75" customHeight="1" s="202"/>
+    <row r="653" ht="15.75" customHeight="1" s="202"/>
+    <row r="654" ht="15.75" customHeight="1" s="202"/>
+    <row r="655" ht="15.75" customHeight="1" s="202"/>
+    <row r="656" ht="15.75" customHeight="1" s="202"/>
+    <row r="657" ht="15.75" customHeight="1" s="202"/>
+    <row r="658" ht="15.75" customHeight="1" s="202"/>
+    <row r="659" ht="15.75" customHeight="1" s="202"/>
+    <row r="660" ht="15.75" customHeight="1" s="202"/>
+    <row r="661" ht="15.75" customHeight="1" s="202"/>
+    <row r="662" ht="15.75" customHeight="1" s="202"/>
+    <row r="663" ht="15.75" customHeight="1" s="202"/>
+    <row r="664" ht="15.75" customHeight="1" s="202"/>
+    <row r="665" ht="15.75" customHeight="1" s="202"/>
+    <row r="666" ht="15.75" customHeight="1" s="202"/>
+    <row r="667" ht="15.75" customHeight="1" s="202"/>
+    <row r="668" ht="15.75" customHeight="1" s="202"/>
+    <row r="669" ht="15.75" customHeight="1" s="202"/>
+    <row r="670" ht="15.75" customHeight="1" s="202"/>
+    <row r="671" ht="15.75" customHeight="1" s="202"/>
+    <row r="672" ht="15.75" customHeight="1" s="202"/>
+    <row r="673" ht="15.75" customHeight="1" s="202"/>
+    <row r="674" ht="15.75" customHeight="1" s="202"/>
+    <row r="675" ht="15.75" customHeight="1" s="202"/>
+    <row r="676" ht="15.75" customHeight="1" s="202"/>
+    <row r="677" ht="15.75" customHeight="1" s="202"/>
+    <row r="678" ht="15.75" customHeight="1" s="202"/>
+    <row r="679" ht="15.75" customHeight="1" s="202"/>
+    <row r="680" ht="15.75" customHeight="1" s="202"/>
+    <row r="681" ht="15.75" customHeight="1" s="202"/>
+    <row r="682" ht="15.75" customHeight="1" s="202"/>
+    <row r="683" ht="15.75" customHeight="1" s="202"/>
+    <row r="684" ht="15.75" customHeight="1" s="202"/>
+    <row r="685" ht="15.75" customHeight="1" s="202"/>
+    <row r="686" ht="15.75" customHeight="1" s="202"/>
+    <row r="687" ht="15.75" customHeight="1" s="202"/>
+    <row r="688" ht="15.75" customHeight="1" s="202"/>
+    <row r="689" ht="15.75" customHeight="1" s="202"/>
+    <row r="690" ht="15.75" customHeight="1" s="202"/>
+    <row r="691" ht="15.75" customHeight="1" s="202"/>
+    <row r="692" ht="15.75" customHeight="1" s="202"/>
+    <row r="693" ht="15.75" customHeight="1" s="202"/>
+    <row r="694" ht="15.75" customHeight="1" s="202"/>
+    <row r="695" ht="15.75" customHeight="1" s="202"/>
+    <row r="696" ht="15.75" customHeight="1" s="202"/>
+    <row r="697" ht="15.75" customHeight="1" s="202"/>
+    <row r="698" ht="15.75" customHeight="1" s="202"/>
+    <row r="699" ht="15.75" customHeight="1" s="202"/>
+    <row r="700" ht="15.75" customHeight="1" s="202"/>
+    <row r="701" ht="15.75" customHeight="1" s="202"/>
+    <row r="702" ht="15.75" customHeight="1" s="202"/>
+    <row r="703" ht="15.75" customHeight="1" s="202"/>
+    <row r="704" ht="15.75" customHeight="1" s="202"/>
+    <row r="705" ht="15.75" customHeight="1" s="202"/>
+    <row r="706" ht="15.75" customHeight="1" s="202"/>
+    <row r="707" ht="15.75" customHeight="1" s="202"/>
+    <row r="708" ht="15.75" customHeight="1" s="202"/>
+    <row r="709" ht="15.75" customHeight="1" s="202"/>
+    <row r="710" ht="15.75" customHeight="1" s="202"/>
+    <row r="711" ht="15.75" customHeight="1" s="202"/>
+    <row r="712" ht="15.75" customHeight="1" s="202"/>
+    <row r="713" ht="15.75" customHeight="1" s="202"/>
+    <row r="714" ht="15.75" customHeight="1" s="202"/>
+    <row r="715" ht="15.75" customHeight="1" s="202"/>
+    <row r="716" ht="15.75" customHeight="1" s="202"/>
+    <row r="717" ht="15.75" customHeight="1" s="202"/>
+    <row r="718" ht="15.75" customHeight="1" s="202"/>
+    <row r="719" ht="15.75" customHeight="1" s="202"/>
+    <row r="720" ht="15.75" customHeight="1" s="202"/>
+    <row r="721" ht="15.75" customHeight="1" s="202"/>
+    <row r="722" ht="15.75" customHeight="1" s="202"/>
+    <row r="723" ht="15.75" customHeight="1" s="202"/>
+    <row r="724" ht="15.75" customHeight="1" s="202"/>
+    <row r="725" ht="15.75" customHeight="1" s="202"/>
+    <row r="726" ht="15.75" customHeight="1" s="202"/>
+    <row r="727" ht="15.75" customHeight="1" s="202"/>
+    <row r="728" ht="15.75" customHeight="1" s="202"/>
+    <row r="729" ht="15.75" customHeight="1" s="202"/>
+    <row r="730" ht="15.75" customHeight="1" s="202"/>
+    <row r="731" ht="15.75" customHeight="1" s="202"/>
+    <row r="732" ht="15.75" customHeight="1" s="202"/>
+    <row r="733" ht="15.75" customHeight="1" s="202"/>
+    <row r="734" ht="15.75" customHeight="1" s="202"/>
+    <row r="735" ht="15.75" customHeight="1" s="202"/>
+    <row r="736" ht="15.75" customHeight="1" s="202"/>
+    <row r="737" ht="15.75" customHeight="1" s="202"/>
+    <row r="738" ht="15.75" customHeight="1" s="202"/>
+    <row r="739" ht="15.75" customHeight="1" s="202"/>
+    <row r="740" ht="15.75" customHeight="1" s="202"/>
+    <row r="741" ht="15.75" customHeight="1" s="202"/>
+    <row r="742" ht="15.75" customHeight="1" s="202"/>
+    <row r="743" ht="15.75" customHeight="1" s="202"/>
+    <row r="744" ht="15.75" customHeight="1" s="202"/>
+    <row r="745" ht="15.75" customHeight="1" s="202"/>
+    <row r="746" ht="15.75" customHeight="1" s="202"/>
+    <row r="747" ht="15.75" customHeight="1" s="202"/>
+    <row r="748" ht="15.75" customHeight="1" s="202"/>
+    <row r="749" ht="15.75" customHeight="1" s="202"/>
+    <row r="750" ht="15.75" customHeight="1" s="202"/>
+    <row r="751" ht="15.75" customHeight="1" s="202"/>
+    <row r="752" ht="15.75" customHeight="1" s="202"/>
+    <row r="753" ht="15.75" customHeight="1" s="202"/>
+    <row r="754" ht="15.75" customHeight="1" s="202"/>
+    <row r="755" ht="15.75" customHeight="1" s="202"/>
+    <row r="756" ht="15.75" customHeight="1" s="202"/>
+    <row r="757" ht="15.75" customHeight="1" s="202"/>
+    <row r="758" ht="15.75" customHeight="1" s="202"/>
+    <row r="759" ht="15.75" customHeight="1" s="202"/>
+    <row r="760" ht="15.75" customHeight="1" s="202"/>
+    <row r="761" ht="15.75" customHeight="1" s="202"/>
+    <row r="762" ht="15.75" customHeight="1" s="202"/>
+    <row r="763" ht="15.75" customHeight="1" s="202"/>
+    <row r="764" ht="15.75" customHeight="1" s="202"/>
+    <row r="765" ht="15.75" customHeight="1" s="202"/>
+    <row r="766" ht="15.75" customHeight="1" s="202"/>
+    <row r="767" ht="15.75" customHeight="1" s="202"/>
+    <row r="768" ht="15.75" customHeight="1" s="202"/>
+    <row r="769" ht="15.75" customHeight="1" s="202"/>
+    <row r="770" ht="15.75" customHeight="1" s="202"/>
+    <row r="771" ht="15.75" customHeight="1" s="202"/>
+    <row r="772" ht="15.75" customHeight="1" s="202"/>
+    <row r="773" ht="15.75" customHeight="1" s="202"/>
+    <row r="774" ht="15.75" customHeight="1" s="202"/>
+    <row r="775" ht="15.75" customHeight="1" s="202"/>
+    <row r="776" ht="15.75" customHeight="1" s="202"/>
+    <row r="777" ht="15.75" customHeight="1" s="202"/>
+    <row r="778" ht="15.75" customHeight="1" s="202"/>
+    <row r="779" ht="15.75" customHeight="1" s="202"/>
+    <row r="780" ht="15.75" customHeight="1" s="202"/>
+    <row r="781" ht="15.75" customHeight="1" s="202"/>
+    <row r="782" ht="15.75" customHeight="1" s="202"/>
+    <row r="783" ht="15.75" customHeight="1" s="202"/>
+    <row r="784" ht="15.75" customHeight="1" s="202"/>
+    <row r="785" ht="15.75" customHeight="1" s="202"/>
+    <row r="786" ht="15.75" customHeight="1" s="202"/>
+    <row r="787" ht="15.75" customHeight="1" s="202"/>
+    <row r="788" ht="15.75" customHeight="1" s="202"/>
+    <row r="789" ht="15.75" customHeight="1" s="202"/>
+    <row r="790" ht="15.75" customHeight="1" s="202"/>
+    <row r="791" ht="15.75" customHeight="1" s="202"/>
+    <row r="792" ht="15.75" customHeight="1" s="202"/>
+    <row r="793" ht="15.75" customHeight="1" s="202"/>
+    <row r="794" ht="15.75" customHeight="1" s="202"/>
+    <row r="795" ht="15.75" customHeight="1" s="202"/>
+    <row r="796" ht="15.75" customHeight="1" s="202"/>
+    <row r="797" ht="15.75" customHeight="1" s="202"/>
+    <row r="798" ht="15.75" customHeight="1" s="202"/>
+    <row r="799" ht="15.75" customHeight="1" s="202"/>
+    <row r="800" ht="15.75" customHeight="1" s="202"/>
+    <row r="801" ht="15.75" customHeight="1" s="202"/>
+    <row r="802" ht="15.75" customHeight="1" s="202"/>
+    <row r="803" ht="15.75" customHeight="1" s="202"/>
+    <row r="804" ht="15.75" customHeight="1" s="202"/>
+    <row r="805" ht="15.75" customHeight="1" s="202"/>
+    <row r="806" ht="15.75" customHeight="1" s="202"/>
+    <row r="807" ht="15.75" customHeight="1" s="202"/>
+    <row r="808" ht="15.75" customHeight="1" s="202"/>
+    <row r="809" ht="15.75" customHeight="1" s="202"/>
+    <row r="810" ht="15.75" customHeight="1" s="202"/>
+    <row r="811" ht="15.75" customHeight="1" s="202"/>
+    <row r="812" ht="15.75" customHeight="1" s="202"/>
+    <row r="813" ht="15.75" customHeight="1" s="202"/>
+    <row r="814" ht="15.75" customHeight="1" s="202"/>
+    <row r="815" ht="15.75" customHeight="1" s="202"/>
+    <row r="816" ht="15.75" customHeight="1" s="202"/>
+    <row r="817" ht="15.75" customHeight="1" s="202"/>
+    <row r="818" ht="15.75" customHeight="1" s="202"/>
+    <row r="819" ht="15.75" customHeight="1" s="202"/>
+    <row r="820" ht="15.75" customHeight="1" s="202"/>
+    <row r="821" ht="15.75" customHeight="1" s="202"/>
+    <row r="822" ht="15.75" customHeight="1" s="202"/>
+    <row r="823" ht="15.75" customHeight="1" s="202"/>
+    <row r="824" ht="15.75" customHeight="1" s="202"/>
+    <row r="825" ht="15.75" customHeight="1" s="202"/>
+    <row r="826" ht="15.75" customHeight="1" s="202"/>
+    <row r="827" ht="15.75" customHeight="1" s="202"/>
+    <row r="828" ht="15.75" customHeight="1" s="202"/>
+    <row r="829" ht="15.75" customHeight="1" s="202"/>
+    <row r="830" ht="15.75" customHeight="1" s="202"/>
+    <row r="831" ht="15.75" customHeight="1" s="202"/>
+    <row r="832" ht="15.75" customHeight="1" s="202"/>
+    <row r="833" ht="15.75" customHeight="1" s="202"/>
+    <row r="834" ht="15.75" customHeight="1" s="202"/>
+    <row r="835" ht="15.75" customHeight="1" s="202"/>
+    <row r="836" ht="15.75" customHeight="1" s="202"/>
+    <row r="837" ht="15.75" customHeight="1" s="202"/>
+    <row r="838" ht="15.75" customHeight="1" s="202"/>
+    <row r="839" ht="15.75" customHeight="1" s="202"/>
+    <row r="840" ht="15.75" customHeight="1" s="202"/>
+    <row r="841" ht="15.75" customHeight="1" s="202"/>
+    <row r="842" ht="15.75" customHeight="1" s="202"/>
+    <row r="843" ht="15.75" customHeight="1" s="202"/>
+    <row r="844" ht="15.75" customHeight="1" s="202"/>
+    <row r="845" ht="15.75" customHeight="1" s="202"/>
+    <row r="846" ht="15.75" customHeight="1" s="202"/>
+    <row r="847" ht="15.75" customHeight="1" s="202"/>
+    <row r="848" ht="15.75" customHeight="1" s="202"/>
+    <row r="849" ht="15.75" customHeight="1" s="202"/>
+    <row r="850" ht="15.75" customHeight="1" s="202"/>
+    <row r="851" ht="15.75" customHeight="1" s="202"/>
+    <row r="852" ht="15.75" customHeight="1" s="202"/>
+    <row r="853" ht="15.75" customHeight="1" s="202"/>
+    <row r="854" ht="15.75" customHeight="1" s="202"/>
+    <row r="855" ht="15.75" customHeight="1" s="202"/>
+    <row r="856" ht="15.75" customHeight="1" s="202"/>
+    <row r="857" ht="15.75" customHeight="1" s="202"/>
+    <row r="858" ht="15.75" customHeight="1" s="202"/>
+    <row r="859" ht="15.75" customHeight="1" s="202"/>
+    <row r="860" ht="15.75" customHeight="1" s="202"/>
+    <row r="861" ht="15.75" customHeight="1" s="202"/>
+    <row r="862" ht="15.75" customHeight="1" s="202"/>
+    <row r="863" ht="15.75" customHeight="1" s="202"/>
+    <row r="864" ht="15.75" customHeight="1" s="202"/>
+    <row r="865" ht="15.75" customHeight="1" s="202"/>
+    <row r="866" ht="15.75" customHeight="1" s="202"/>
+    <row r="867" ht="15.75" customHeight="1" s="202"/>
+    <row r="868" ht="15.75" customHeight="1" s="202"/>
+    <row r="869" ht="15.75" customHeight="1" s="202"/>
+    <row r="870" ht="15.75" customHeight="1" s="202"/>
+    <row r="871" ht="15.75" customHeight="1" s="202"/>
+    <row r="872" ht="15.75" customHeight="1" s="202"/>
+    <row r="873" ht="15.75" customHeight="1" s="202"/>
+    <row r="874" ht="15.75" customHeight="1" s="202"/>
+    <row r="875" ht="15.75" customHeight="1" s="202"/>
+    <row r="876" ht="15.75" customHeight="1" s="202"/>
+    <row r="877" ht="15.75" customHeight="1" s="202"/>
+    <row r="878" ht="15.75" customHeight="1" s="202"/>
+    <row r="879" ht="15.75" customHeight="1" s="202"/>
+    <row r="880" ht="15.75" customHeight="1" s="202"/>
+    <row r="881" ht="15.75" customHeight="1" s="202"/>
+    <row r="882" ht="15.75" customHeight="1" s="202"/>
+    <row r="883" ht="15.75" customHeight="1" s="202"/>
+    <row r="884" ht="15.75" customHeight="1" s="202"/>
+    <row r="885" ht="15.75" customHeight="1" s="202"/>
+    <row r="886" ht="15.75" customHeight="1" s="202"/>
+    <row r="887" ht="15.75" customHeight="1" s="202"/>
+    <row r="888" ht="15.75" customHeight="1" s="202"/>
+    <row r="889" ht="15.75" customHeight="1" s="202"/>
+    <row r="890" ht="15.75" customHeight="1" s="202"/>
+    <row r="891" ht="15.75" customHeight="1" s="202"/>
+    <row r="892" ht="15.75" customHeight="1" s="202"/>
+    <row r="893" ht="15.75" customHeight="1" s="202"/>
+    <row r="894" ht="15.75" customHeight="1" s="202"/>
+    <row r="895" ht="15.75" customHeight="1" s="202"/>
+    <row r="896" ht="15.75" customHeight="1" s="202"/>
+    <row r="897" ht="15.75" customHeight="1" s="202"/>
+    <row r="898" ht="15.75" customHeight="1" s="202"/>
+    <row r="899" ht="15.75" customHeight="1" s="202"/>
+    <row r="900" ht="15.75" customHeight="1" s="202"/>
+    <row r="901" ht="15.75" customHeight="1" s="202"/>
+    <row r="902" ht="15.75" customHeight="1" s="202"/>
+    <row r="903" ht="15.75" customHeight="1" s="202"/>
+    <row r="904" ht="15.75" customHeight="1" s="202"/>
+    <row r="905" ht="15.75" customHeight="1" s="202"/>
+    <row r="906" ht="15.75" customHeight="1" s="202"/>
+    <row r="907" ht="15.75" customHeight="1" s="202"/>
+    <row r="908" ht="15.75" customHeight="1" s="202"/>
+    <row r="909" ht="15.75" customHeight="1" s="202"/>
+    <row r="910" ht="15.75" customHeight="1" s="202"/>
+    <row r="911" ht="15.75" customHeight="1" s="202"/>
+    <row r="912" ht="15.75" customHeight="1" s="202"/>
+    <row r="913" ht="15.75" customHeight="1" s="202"/>
+    <row r="914" ht="15.75" customHeight="1" s="202"/>
+    <row r="915" ht="15.75" customHeight="1" s="202"/>
+    <row r="916" ht="15.75" customHeight="1" s="202"/>
+    <row r="917" ht="15.75" customHeight="1" s="202"/>
+    <row r="918" ht="15.75" customHeight="1" s="202"/>
+    <row r="919" ht="15.75" customHeight="1" s="202"/>
+    <row r="920" ht="15.75" customHeight="1" s="202"/>
+    <row r="921" ht="15.75" customHeight="1" s="202"/>
+    <row r="922" ht="15.75" customHeight="1" s="202"/>
+    <row r="923" ht="15.75" customHeight="1" s="202"/>
+    <row r="924" ht="15.75" customHeight="1" s="202"/>
+    <row r="925" ht="15.75" customHeight="1" s="202"/>
+    <row r="926" ht="15.75" customHeight="1" s="202"/>
+    <row r="927" ht="15.75" customHeight="1" s="202"/>
+    <row r="928" ht="15.75" customHeight="1" s="202"/>
+    <row r="929" ht="15.75" customHeight="1" s="202"/>
+    <row r="930" ht="15.75" customHeight="1" s="202"/>
+    <row r="931" ht="15.75" customHeight="1" s="202"/>
+    <row r="932" ht="15.75" customHeight="1" s="202"/>
+    <row r="933" ht="15.75" customHeight="1" s="202"/>
+    <row r="934" ht="15.75" customHeight="1" s="202"/>
+    <row r="935" ht="15.75" customHeight="1" s="202"/>
+    <row r="936" ht="15.75" customHeight="1" s="202"/>
+    <row r="937" ht="15.75" customHeight="1" s="202"/>
+    <row r="938" ht="15.75" customHeight="1" s="202"/>
+    <row r="939" ht="15.75" customHeight="1" s="202"/>
+    <row r="940" ht="15.75" customHeight="1" s="202"/>
+    <row r="941" ht="15.75" customHeight="1" s="202"/>
+    <row r="942" ht="15.75" customHeight="1" s="202"/>
+    <row r="943" ht="15.75" customHeight="1" s="202"/>
+    <row r="944" ht="15.75" customHeight="1" s="202"/>
+    <row r="945" ht="15.75" customHeight="1" s="202"/>
+    <row r="946" ht="15.75" customHeight="1" s="202"/>
+    <row r="947" ht="15.75" customHeight="1" s="202"/>
+    <row r="948" ht="15.75" customHeight="1" s="202"/>
+    <row r="949" ht="15.75" customHeight="1" s="202"/>
+    <row r="950" ht="15.75" customHeight="1" s="202"/>
+    <row r="951" ht="15.75" customHeight="1" s="202"/>
+    <row r="952" ht="15.75" customHeight="1" s="202"/>
+    <row r="953" ht="15.75" customHeight="1" s="202"/>
+    <row r="954" ht="15.75" customHeight="1" s="202"/>
+    <row r="955" ht="15.75" customHeight="1" s="202"/>
+    <row r="956" ht="15.75" customHeight="1" s="202"/>
+    <row r="957" ht="15.75" customHeight="1" s="202"/>
+    <row r="958" ht="15.75" customHeight="1" s="202"/>
+    <row r="959" ht="15.75" customHeight="1" s="202"/>
+    <row r="960" ht="15.75" customHeight="1" s="202"/>
+    <row r="961" ht="15.75" customHeight="1" s="202"/>
+    <row r="962" ht="15.75" customHeight="1" s="202"/>
+    <row r="963" ht="15.75" customHeight="1" s="202"/>
+    <row r="964" ht="15.75" customHeight="1" s="202"/>
+    <row r="965" ht="15.75" customHeight="1" s="202"/>
+    <row r="966" ht="15.75" customHeight="1" s="202"/>
+    <row r="967" ht="15.75" customHeight="1" s="202"/>
+    <row r="968" ht="15.75" customHeight="1" s="202"/>
+    <row r="969" ht="15.75" customHeight="1" s="202"/>
+    <row r="970" ht="15.75" customHeight="1" s="202"/>
+    <row r="971" ht="15.75" customHeight="1" s="202"/>
+    <row r="972" ht="15.75" customHeight="1" s="202"/>
+    <row r="973" ht="15.75" customHeight="1" s="202"/>
+    <row r="974" ht="15.75" customHeight="1" s="202"/>
+    <row r="975" ht="15.75" customHeight="1" s="202"/>
+    <row r="976" ht="15.75" customHeight="1" s="202"/>
+    <row r="977" ht="15.75" customHeight="1" s="202"/>
+    <row r="978" ht="15.75" customHeight="1" s="202"/>
+    <row r="979" ht="15.75" customHeight="1" s="202"/>
+    <row r="980" ht="15.75" customHeight="1" s="202"/>
+    <row r="981" ht="15.75" customHeight="1" s="202"/>
+    <row r="982" ht="15.75" customHeight="1" s="202"/>
+    <row r="983" ht="15.75" customHeight="1" s="202"/>
+    <row r="984" ht="15.75" customHeight="1" s="202"/>
+    <row r="985" ht="15.75" customHeight="1" s="202"/>
+    <row r="986" ht="15.75" customHeight="1" s="202"/>
+    <row r="987" ht="15.75" customHeight="1" s="202"/>
+    <row r="988" ht="15.75" customHeight="1" s="202"/>
+    <row r="989" ht="15.75" customHeight="1" s="202"/>
+    <row r="990" ht="15.75" customHeight="1" s="202"/>
+    <row r="991" ht="15.75" customHeight="1" s="202"/>
+    <row r="992" ht="15.75" customHeight="1" s="202"/>
+    <row r="993" ht="15.75" customHeight="1" s="202"/>
+    <row r="994" ht="15.75" customHeight="1" s="202"/>
+    <row r="995" ht="15.75" customHeight="1" s="202"/>
+    <row r="996" ht="15.75" customHeight="1" s="202"/>
+    <row r="997" ht="15.75" customHeight="1" s="202"/>
+    <row r="998" ht="15.75" customHeight="1" s="202"/>
+    <row r="999" ht="15.75" customHeight="1" s="202"/>
+    <row r="1000" ht="15.75" customHeight="1" s="202"/>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
     <mergeCell ref="S42:T42"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C16:L16"/>
@@ -6328,37 +6367,6 @@
     <mergeCell ref="H39:L40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="J59:J60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -6379,25 +6387,25 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col width="2.42578125" customWidth="1" style="217" min="1" max="1"/>
-    <col width="4.42578125" customWidth="1" style="217" min="2" max="2"/>
-    <col width="16.7109375" customWidth="1" style="217" min="3" max="4"/>
-    <col width="8.7109375" customWidth="1" style="217" min="5" max="5"/>
-    <col width="4.42578125" customWidth="1" style="217" min="6" max="6"/>
-    <col width="16.7109375" customWidth="1" style="217" min="7" max="8"/>
-    <col width="7.42578125" customWidth="1" style="217" min="9" max="9"/>
-    <col width="4" customWidth="1" style="217" min="10" max="10"/>
-    <col width="16.85546875" customWidth="1" style="217" min="11" max="12"/>
-    <col width="8.7109375" customWidth="1" style="217" min="13" max="13"/>
-    <col width="4.140625" customWidth="1" style="217" min="14" max="14"/>
-    <col width="16.7109375" customWidth="1" style="217" min="15" max="17"/>
-    <col width="8.7109375" customWidth="1" style="217" min="18" max="26"/>
-    <col width="14.42578125" customWidth="1" style="217" min="27" max="34"/>
-    <col width="14.42578125" customWidth="1" style="217" min="35" max="16384"/>
+    <col width="2.42578125" customWidth="1" style="211" min="1" max="1"/>
+    <col width="4.42578125" customWidth="1" style="211" min="2" max="2"/>
+    <col width="16.7109375" customWidth="1" style="211" min="3" max="4"/>
+    <col width="8.7109375" customWidth="1" style="211" min="5" max="5"/>
+    <col width="4.42578125" customWidth="1" style="211" min="6" max="6"/>
+    <col width="16.7109375" customWidth="1" style="211" min="7" max="8"/>
+    <col width="7.42578125" customWidth="1" style="211" min="9" max="9"/>
+    <col width="4" customWidth="1" style="211" min="10" max="10"/>
+    <col width="16.85546875" customWidth="1" style="211" min="11" max="12"/>
+    <col width="8.7109375" customWidth="1" style="211" min="13" max="13"/>
+    <col width="4.140625" customWidth="1" style="211" min="14" max="14"/>
+    <col width="16.7109375" customWidth="1" style="211" min="15" max="17"/>
+    <col width="8.7109375" customWidth="1" style="211" min="18" max="26"/>
+    <col width="14.42578125" customWidth="1" style="211" min="27" max="35"/>
+    <col width="14.42578125" customWidth="1" style="211" min="36" max="16384"/>
   </cols>
   <sheetData>
-    <row r="2" ht="26.25" customHeight="1" s="191">
-      <c r="C2" s="218" t="inlineStr">
+    <row r="2" ht="26.25" customHeight="1" s="202">
+      <c r="C2" s="212" t="inlineStr">
         <is>
           <t xml:space="preserve">EURO 2020 </t>
         </is>
@@ -6691,21 +6699,21 @@
       <c r="K15" s="100" t="n"/>
       <c r="L15" s="100" t="n"/>
     </row>
-    <row r="16" ht="39.75" customHeight="1" s="191">
-      <c r="C16" s="219" t="inlineStr">
+    <row r="16" ht="39.75" customHeight="1" s="202">
+      <c r="C16" s="213" t="inlineStr">
         <is>
           <t>Group Stage predictions are made in a single submission and are due by Thursday Evening June 10th, 2021.</t>
         </is>
       </c>
-      <c r="D16" s="220" t="n"/>
-      <c r="E16" s="220" t="n"/>
-      <c r="F16" s="220" t="n"/>
-      <c r="G16" s="220" t="n"/>
-      <c r="H16" s="220" t="n"/>
-      <c r="I16" s="220" t="n"/>
-      <c r="J16" s="220" t="n"/>
-      <c r="K16" s="220" t="n"/>
-      <c r="L16" s="220" t="n"/>
+      <c r="D16" s="214" t="n"/>
+      <c r="E16" s="214" t="n"/>
+      <c r="F16" s="214" t="n"/>
+      <c r="G16" s="214" t="n"/>
+      <c r="H16" s="214" t="n"/>
+      <c r="I16" s="214" t="n"/>
+      <c r="J16" s="214" t="n"/>
+      <c r="K16" s="214" t="n"/>
+      <c r="L16" s="214" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="136" t="inlineStr">
@@ -6713,19 +6721,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D17" s="221" t="n"/>
-      <c r="E17" s="222" t="n"/>
-      <c r="F17" s="222" t="n"/>
-      <c r="G17" s="223" t="n"/>
-      <c r="H17" s="224" t="inlineStr">
+      <c r="D17" s="215" t="n"/>
+      <c r="E17" s="216" t="n"/>
+      <c r="F17" s="216" t="n"/>
+      <c r="G17" s="217" t="n"/>
+      <c r="H17" s="218" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I17" s="222" t="n"/>
-      <c r="J17" s="222" t="n"/>
-      <c r="K17" s="222" t="n"/>
-      <c r="L17" s="223" t="n"/>
+      <c r="I17" s="216" t="n"/>
+      <c r="J17" s="216" t="n"/>
+      <c r="K17" s="216" t="n"/>
+      <c r="L17" s="217" t="n"/>
     </row>
     <row r="18">
       <c r="C18" s="137" t="inlineStr">
@@ -6733,15 +6741,15 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D18" s="227" t="n"/>
-      <c r="E18" s="220" t="n"/>
-      <c r="F18" s="220" t="n"/>
-      <c r="G18" s="226" t="n"/>
-      <c r="H18" s="225" t="n"/>
-      <c r="I18" s="220" t="n"/>
-      <c r="J18" s="220" t="n"/>
-      <c r="K18" s="220" t="n"/>
-      <c r="L18" s="226" t="n"/>
+      <c r="D18" s="221" t="n"/>
+      <c r="E18" s="214" t="n"/>
+      <c r="F18" s="214" t="n"/>
+      <c r="G18" s="220" t="n"/>
+      <c r="H18" s="219" t="n"/>
+      <c r="I18" s="214" t="n"/>
+      <c r="J18" s="214" t="n"/>
+      <c r="K18" s="214" t="n"/>
+      <c r="L18" s="220" t="n"/>
     </row>
     <row r="19">
       <c r="C19" s="100" t="n"/>
@@ -6749,36 +6757,36 @@
     <row r="20">
       <c r="A20" s="138" t="n"/>
       <c r="B20" s="138" t="n"/>
-      <c r="C20" s="228" t="inlineStr">
+      <c r="C20" s="222" t="inlineStr">
         <is>
           <t>Match Day 1</t>
         </is>
       </c>
-      <c r="D20" s="222" t="n"/>
+      <c r="D20" s="216" t="n"/>
       <c r="E20" s="139" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
-      <c r="F20" s="216" t="n"/>
-      <c r="G20" s="228" t="inlineStr">
+      <c r="F20" s="210" t="n"/>
+      <c r="G20" s="222" t="inlineStr">
         <is>
           <t>Match Day 2</t>
         </is>
       </c>
-      <c r="H20" s="222" t="n"/>
+      <c r="H20" s="216" t="n"/>
       <c r="I20" s="139" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
-      <c r="J20" s="216" t="n"/>
-      <c r="K20" s="228" t="inlineStr">
+      <c r="J20" s="210" t="n"/>
+      <c r="K20" s="222" t="inlineStr">
         <is>
           <t>Match Day 3</t>
         </is>
       </c>
-      <c r="L20" s="222" t="n"/>
+      <c r="L20" s="216" t="n"/>
       <c r="M20" s="139" t="inlineStr">
         <is>
           <t>Results</t>
@@ -6798,7 +6806,7 @@
       <c r="Y20" s="138" t="n"/>
       <c r="Z20" s="138" t="n"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1" s="191">
+    <row r="21" ht="15.75" customHeight="1" s="202">
       <c r="C21" s="140" t="inlineStr">
         <is>
           <t>Turkey</t>
@@ -6851,7 +6859,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1" s="191">
+    <row r="22" ht="15.75" customHeight="1" s="202">
       <c r="C22" s="148" t="n"/>
       <c r="D22" s="143" t="n"/>
       <c r="E22" s="149" t="n"/>
@@ -6888,7 +6896,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1" s="191">
+    <row r="23" ht="15.75" customHeight="1" s="202">
       <c r="C23" s="140" t="inlineStr">
         <is>
           <t>Wales</t>
@@ -6927,7 +6935,7 @@
       <c r="L23" s="143" t="n"/>
       <c r="M23" s="149" t="n"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1" s="191">
+    <row r="24" ht="15.75" customHeight="1" s="202">
       <c r="C24" s="144" t="inlineStr">
         <is>
           <t>Denmark</t>
@@ -6966,7 +6974,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1" s="191">
+    <row r="25" ht="15.75" customHeight="1" s="202">
       <c r="C25" s="144" t="inlineStr">
         <is>
           <t>Belgium</t>
@@ -7017,7 +7025,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1" s="191">
+    <row r="26" ht="15.75" customHeight="1" s="202">
       <c r="C26" s="148" t="n"/>
       <c r="D26" s="143" t="n"/>
       <c r="E26" s="149" t="n"/>
@@ -7054,7 +7062,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1" s="191">
+    <row r="27" ht="15.75" customHeight="1" s="202">
       <c r="C27" s="153" t="inlineStr">
         <is>
           <t>England</t>
@@ -7105,7 +7113,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1" s="191">
+    <row r="28" ht="15.75" customHeight="1" s="202">
       <c r="C28" s="150" t="inlineStr">
         <is>
           <t>Austria</t>
@@ -7132,7 +7140,7 @@
       <c r="L28" s="143" t="n"/>
       <c r="M28" s="149" t="n"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1" s="191">
+    <row r="29" ht="15.75" customHeight="1" s="202">
       <c r="C29" s="150" t="inlineStr">
         <is>
           <t>Netherlands</t>
@@ -7183,7 +7191,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1" s="191">
+    <row r="30" ht="15.75" customHeight="1" s="202">
       <c r="C30" s="148" t="n"/>
       <c r="D30" s="143" t="n"/>
       <c r="E30" s="149" t="n"/>
@@ -7220,7 +7228,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1" s="191">
+    <row r="31" ht="15.75" customHeight="1" s="202">
       <c r="C31" s="153" t="inlineStr">
         <is>
           <t>Scotland</t>
@@ -7259,7 +7267,7 @@
       <c r="L31" s="143" t="n"/>
       <c r="M31" s="149" t="n"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1" s="191">
+    <row r="32" ht="15.75" customHeight="1" s="202">
       <c r="C32" s="156" t="inlineStr">
         <is>
           <t>Poland</t>
@@ -7298,7 +7306,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1" s="191">
+    <row r="33" ht="15.75" customHeight="1" s="202">
       <c r="C33" s="156" t="inlineStr">
         <is>
           <t>Spain</t>
@@ -7349,7 +7357,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1" s="191">
+    <row r="34" ht="15.75" customHeight="1" s="202">
       <c r="C34" s="148" t="n"/>
       <c r="D34" s="143" t="n"/>
       <c r="E34" s="149" t="n"/>
@@ -7386,7 +7394,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1" s="191">
+    <row r="35" ht="15.75" customHeight="1" s="202">
       <c r="C35" s="159" t="inlineStr">
         <is>
           <t>Hungary</t>
@@ -7437,7 +7445,7 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1" s="191">
+    <row r="36" ht="15.75" customHeight="1" s="202">
       <c r="C36" s="162" t="inlineStr">
         <is>
           <t>France</t>
@@ -7464,70 +7472,70 @@
       <c r="L36" s="166" t="n"/>
       <c r="M36" s="167" t="n"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1" s="191"/>
-    <row r="38" ht="39.75" customHeight="1" s="191">
-      <c r="C38" s="219" t="inlineStr">
+    <row r="37" ht="15.75" customHeight="1" s="202"/>
+    <row r="38" ht="39.75" customHeight="1" s="202">
+      <c r="C38" s="213" t="inlineStr">
         <is>
           <t xml:space="preserve">We'll do the competition in two halves since the Round of 16 is heavily dependent on the Group Stages. </t>
         </is>
       </c>
-      <c r="D38" s="220" t="n"/>
-      <c r="E38" s="220" t="n"/>
-      <c r="F38" s="220" t="n"/>
-      <c r="G38" s="220" t="n"/>
-      <c r="H38" s="220" t="n"/>
-      <c r="I38" s="220" t="n"/>
-      <c r="J38" s="220" t="n"/>
-      <c r="K38" s="220" t="n"/>
-      <c r="L38" s="220" t="n"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1" s="191">
+      <c r="D38" s="214" t="n"/>
+      <c r="E38" s="214" t="n"/>
+      <c r="F38" s="214" t="n"/>
+      <c r="G38" s="214" t="n"/>
+      <c r="H38" s="214" t="n"/>
+      <c r="I38" s="214" t="n"/>
+      <c r="J38" s="214" t="n"/>
+      <c r="K38" s="214" t="n"/>
+      <c r="L38" s="214" t="n"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1" s="202">
       <c r="C39" s="136" t="inlineStr">
         <is>
           <t>Name:</t>
         </is>
       </c>
-      <c r="D39" s="221" t="n"/>
-      <c r="E39" s="222" t="n"/>
-      <c r="F39" s="222" t="n"/>
-      <c r="G39" s="223" t="n"/>
-      <c r="H39" s="224" t="inlineStr">
+      <c r="D39" s="215" t="n"/>
+      <c r="E39" s="216" t="n"/>
+      <c r="F39" s="216" t="n"/>
+      <c r="G39" s="217" t="n"/>
+      <c r="H39" s="218" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULTS         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I39" s="222" t="n"/>
-      <c r="J39" s="222" t="n"/>
-      <c r="K39" s="222" t="n"/>
-      <c r="L39" s="223" t="n"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1" s="191">
+      <c r="I39" s="216" t="n"/>
+      <c r="J39" s="216" t="n"/>
+      <c r="K39" s="216" t="n"/>
+      <c r="L39" s="217" t="n"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1" s="202">
       <c r="C40" s="137" t="inlineStr">
         <is>
           <t>Date:</t>
         </is>
       </c>
-      <c r="D40" s="227" t="n"/>
-      <c r="E40" s="220" t="n"/>
-      <c r="F40" s="220" t="n"/>
-      <c r="G40" s="226" t="n"/>
-      <c r="H40" s="225" t="n"/>
-      <c r="I40" s="220" t="n"/>
-      <c r="J40" s="220" t="n"/>
-      <c r="K40" s="220" t="n"/>
-      <c r="L40" s="226" t="n"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1" s="191">
+      <c r="D40" s="221" t="n"/>
+      <c r="E40" s="214" t="n"/>
+      <c r="F40" s="214" t="n"/>
+      <c r="G40" s="220" t="n"/>
+      <c r="H40" s="219" t="n"/>
+      <c r="I40" s="214" t="n"/>
+      <c r="J40" s="214" t="n"/>
+      <c r="K40" s="214" t="n"/>
+      <c r="L40" s="220" t="n"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1" s="202">
       <c r="B41" s="168" t="n"/>
       <c r="C41" s="169" t="n"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1" s="191">
-      <c r="B42" s="229" t="inlineStr">
+    <row r="42" ht="15.75" customHeight="1" s="202">
+      <c r="B42" s="223" t="inlineStr">
         <is>
           <t>Round of 16</t>
         </is>
       </c>
-      <c r="C42" s="220" t="n"/>
+      <c r="C42" s="214" t="n"/>
       <c r="D42" s="170" t="inlineStr">
         <is>
           <t>Results</t>
@@ -7571,12 +7579,12 @@
       </c>
       <c r="Q42" s="138" t="n"/>
       <c r="R42" s="171" t="n"/>
-      <c r="S42" s="216" t="n"/>
+      <c r="S42" s="210" t="n"/>
       <c r="U42" s="138" t="n"/>
       <c r="V42" s="171" t="n"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1" s="191">
-      <c r="B43" s="210" t="inlineStr">
+    <row r="43" ht="15.75" customHeight="1" s="202">
+      <c r="B43" s="224" t="inlineStr">
         <is>
           <t>R1</t>
         </is>
@@ -7586,7 +7594,7 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="D43" s="212" t="n"/>
+      <c r="D43" s="226" t="n"/>
       <c r="E43" s="171" t="n"/>
       <c r="F43" s="171" t="n"/>
       <c r="O43" s="171" t="n"/>
@@ -7598,16 +7606,16 @@
       <c r="U43" s="171" t="n"/>
       <c r="V43" s="171" t="n"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B44" s="211" t="n"/>
+    <row r="44" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B44" s="225" t="n"/>
       <c r="C44" s="173" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="D44" s="211" t="n"/>
+      <c r="D44" s="225" t="n"/>
       <c r="E44" s="174" t="n"/>
-      <c r="F44" s="214" t="inlineStr">
+      <c r="F44" s="227" t="inlineStr">
         <is>
           <t>QF1</t>
         </is>
@@ -7617,7 +7625,7 @@
           <t>Winner R1</t>
         </is>
       </c>
-      <c r="H44" s="212" t="n"/>
+      <c r="H44" s="226" t="n"/>
       <c r="O44" s="171" t="n"/>
       <c r="P44" s="171" t="n"/>
       <c r="Q44" s="171" t="n"/>
@@ -7627,18 +7635,18 @@
       <c r="U44" s="171" t="n"/>
       <c r="V44" s="171" t="n"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1" s="191" thickBot="1">
+    <row r="45" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B45" s="138" t="n"/>
       <c r="C45" s="171" t="n"/>
       <c r="D45" s="176" t="n"/>
       <c r="E45" s="177" t="n"/>
-      <c r="F45" s="211" t="n"/>
+      <c r="F45" s="225" t="n"/>
       <c r="G45" s="178" t="inlineStr">
         <is>
           <t>Winner R2</t>
         </is>
       </c>
-      <c r="H45" s="211" t="n"/>
+      <c r="H45" s="225" t="n"/>
       <c r="O45" s="171" t="n"/>
       <c r="P45" s="171" t="n"/>
       <c r="Q45" s="171" t="n"/>
@@ -7648,8 +7656,8 @@
       <c r="U45" s="171" t="n"/>
       <c r="V45" s="171" t="n"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1" s="191">
-      <c r="B46" s="210" t="inlineStr">
+    <row r="46" ht="15.75" customHeight="1" s="202">
+      <c r="B46" s="224" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
@@ -7659,7 +7667,7 @@
           <t>Belgium</t>
         </is>
       </c>
-      <c r="D46" s="212" t="n"/>
+      <c r="D46" s="226" t="n"/>
       <c r="E46" s="171" t="n"/>
       <c r="F46" s="171" t="n"/>
       <c r="G46" s="179" t="n"/>
@@ -7673,20 +7681,20 @@
       <c r="U46" s="171" t="n"/>
       <c r="V46" s="171" t="n"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B47" s="211" t="n"/>
+    <row r="47" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B47" s="225" t="n"/>
       <c r="C47" s="173" t="inlineStr">
         <is>
           <t>3rd Group A/D/E/F</t>
         </is>
       </c>
-      <c r="D47" s="211" t="n"/>
+      <c r="D47" s="225" t="n"/>
       <c r="E47" s="171" t="n"/>
       <c r="F47" s="171" t="n"/>
       <c r="G47" s="179" t="n"/>
       <c r="H47" s="181" t="n"/>
       <c r="I47" s="177" t="n"/>
-      <c r="J47" s="213" t="inlineStr">
+      <c r="J47" s="228" t="inlineStr">
         <is>
           <t>SF1</t>
         </is>
@@ -7696,16 +7704,16 @@
           <t>Winner QF1</t>
         </is>
       </c>
-      <c r="L47" s="212" t="n"/>
+      <c r="L47" s="226" t="n"/>
       <c r="O47" s="171" t="n"/>
       <c r="P47" s="171" t="n"/>
       <c r="Q47" s="171" t="n"/>
       <c r="R47" s="171" t="n"/>
-      <c r="S47" s="216" t="n"/>
+      <c r="S47" s="210" t="n"/>
       <c r="U47" s="138" t="n"/>
       <c r="V47" s="171" t="n"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1" s="191">
+    <row r="48" ht="15.75" customHeight="1" s="202">
       <c r="B48" s="138" t="n"/>
       <c r="C48" s="171" t="n"/>
       <c r="D48" s="176" t="n"/>
@@ -7713,13 +7721,13 @@
       <c r="F48" s="171" t="n"/>
       <c r="G48" s="179" t="n"/>
       <c r="H48" s="181" t="n"/>
-      <c r="J48" s="211" t="n"/>
+      <c r="J48" s="225" t="n"/>
       <c r="K48" s="165" t="inlineStr">
         <is>
           <t>Winner QF2</t>
         </is>
       </c>
-      <c r="L48" s="211" t="n"/>
+      <c r="L48" s="225" t="n"/>
       <c r="O48" s="171" t="n"/>
       <c r="P48" s="171" t="n"/>
       <c r="Q48" s="171" t="n"/>
@@ -7729,8 +7737,8 @@
       <c r="U48" s="171" t="n"/>
       <c r="V48" s="171" t="n"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1" s="191">
-      <c r="B49" s="210" t="inlineStr">
+    <row r="49" ht="15.75" customHeight="1" s="202">
+      <c r="B49" s="224" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
@@ -7740,7 +7748,7 @@
           <t>Winner Group F</t>
         </is>
       </c>
-      <c r="D49" s="212" t="n"/>
+      <c r="D49" s="226" t="n"/>
       <c r="E49" s="171" t="n"/>
       <c r="F49" s="171" t="n"/>
       <c r="G49" s="179" t="n"/>
@@ -7748,16 +7756,16 @@
       <c r="K49" s="143" t="n"/>
       <c r="L49" s="180" t="n"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B50" s="211" t="n"/>
+    <row r="50" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B50" s="225" t="n"/>
       <c r="C50" s="173" t="inlineStr">
         <is>
           <t>3rd Group A/B/C</t>
         </is>
       </c>
-      <c r="D50" s="211" t="n"/>
+      <c r="D50" s="225" t="n"/>
       <c r="E50" s="177" t="n"/>
-      <c r="F50" s="214" t="inlineStr">
+      <c r="F50" s="227" t="inlineStr">
         <is>
           <t>QF2</t>
         </is>
@@ -7767,37 +7775,37 @@
           <t>Winner R3</t>
         </is>
       </c>
-      <c r="H50" s="212" t="n"/>
+      <c r="H50" s="226" t="n"/>
       <c r="K50" s="143" t="n"/>
       <c r="L50" s="181" t="n"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1" s="191" thickBot="1">
+    <row r="51" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B51" s="138" t="n"/>
       <c r="C51" s="171" t="n"/>
       <c r="D51" s="176" t="n"/>
       <c r="E51" s="177" t="n"/>
-      <c r="F51" s="211" t="n"/>
+      <c r="F51" s="225" t="n"/>
       <c r="G51" s="178" t="inlineStr">
         <is>
           <t>Winner R4</t>
         </is>
       </c>
-      <c r="H51" s="211" t="n"/>
+      <c r="H51" s="225" t="n"/>
       <c r="K51" s="143" t="n"/>
       <c r="L51" s="181" t="n"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B52" s="210" t="inlineStr">
+    <row r="52" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B52" s="224" t="inlineStr">
         <is>
           <t>R4</t>
         </is>
       </c>
       <c r="C52" s="172" t="inlineStr">
         <is>
-          <t>2nd Group D</t>
-        </is>
-      </c>
-      <c r="D52" s="212" t="n"/>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="D52" s="226" t="n"/>
       <c r="E52" s="171" t="n"/>
       <c r="F52" s="171" t="n"/>
       <c r="G52" s="179" t="n"/>
@@ -7805,7 +7813,7 @@
       <c r="K52" s="143" t="n"/>
       <c r="L52" s="181" t="n"/>
       <c r="M52" s="177" t="n"/>
-      <c r="N52" s="215" t="inlineStr">
+      <c r="N52" s="229" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -7815,31 +7823,31 @@
           <t>Winner SF1</t>
         </is>
       </c>
-      <c r="P52" s="212" t="n"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1" s="191">
-      <c r="B53" s="211" t="n"/>
+      <c r="P52" s="226" t="n"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1" s="202">
+      <c r="B53" s="225" t="n"/>
       <c r="C53" s="173" t="inlineStr">
         <is>
           <t>2nd Group E</t>
         </is>
       </c>
-      <c r="D53" s="211" t="n"/>
+      <c r="D53" s="225" t="n"/>
       <c r="E53" s="171" t="n"/>
       <c r="F53" s="171" t="n"/>
       <c r="G53" s="179" t="n"/>
       <c r="H53" s="176" t="n"/>
       <c r="K53" s="143" t="n"/>
       <c r="L53" s="181" t="n"/>
-      <c r="N53" s="211" t="n"/>
+      <c r="N53" s="225" t="n"/>
       <c r="O53" s="165" t="inlineStr">
         <is>
           <t>Winner SF2</t>
         </is>
       </c>
-      <c r="P53" s="211" t="n"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1" s="191">
+      <c r="P53" s="225" t="n"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1" s="202">
       <c r="B54" s="138" t="n"/>
       <c r="C54" s="171" t="n"/>
       <c r="D54" s="176" t="n"/>
@@ -7850,8 +7858,8 @@
       <c r="K54" s="143" t="n"/>
       <c r="L54" s="181" t="n"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1" s="191">
-      <c r="B55" s="210" t="inlineStr">
+    <row r="55" ht="15.75" customHeight="1" s="202">
+      <c r="B55" s="224" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
@@ -7861,7 +7869,7 @@
           <t>Winner Group E</t>
         </is>
       </c>
-      <c r="D55" s="212" t="n"/>
+      <c r="D55" s="226" t="n"/>
       <c r="E55" s="171" t="n"/>
       <c r="F55" s="171" t="n"/>
       <c r="G55" s="179" t="n"/>
@@ -7869,16 +7877,16 @@
       <c r="K55" s="143" t="n"/>
       <c r="L55" s="181" t="n"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B56" s="211" t="n"/>
+    <row r="56" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B56" s="225" t="n"/>
       <c r="C56" s="173" t="inlineStr">
         <is>
           <t>3rd Group A/B/C/D</t>
         </is>
       </c>
-      <c r="D56" s="211" t="n"/>
+      <c r="D56" s="225" t="n"/>
       <c r="E56" s="174" t="n"/>
-      <c r="F56" s="214" t="inlineStr">
+      <c r="F56" s="227" t="inlineStr">
         <is>
           <t>QF3</t>
         </is>
@@ -7888,53 +7896,53 @@
           <t>Winner R5</t>
         </is>
       </c>
-      <c r="H56" s="212" t="n"/>
+      <c r="H56" s="226" t="n"/>
       <c r="K56" s="143" t="n"/>
       <c r="L56" s="181" t="n"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1" s="191" thickBot="1">
+    <row r="57" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B57" s="138" t="n"/>
       <c r="D57" s="176" t="n"/>
       <c r="E57" s="184" t="n"/>
-      <c r="F57" s="211" t="n"/>
+      <c r="F57" s="225" t="n"/>
       <c r="G57" s="178" t="inlineStr">
         <is>
           <t>Winner R6</t>
         </is>
       </c>
-      <c r="H57" s="211" t="n"/>
+      <c r="H57" s="225" t="n"/>
       <c r="K57" s="143" t="n"/>
       <c r="L57" s="181" t="n"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1" s="191">
-      <c r="B58" s="210" t="inlineStr">
+    <row r="58" ht="15.75" customHeight="1" s="202">
+      <c r="B58" s="224" t="inlineStr">
         <is>
           <t>R6</t>
         </is>
       </c>
       <c r="C58" s="172" t="inlineStr">
         <is>
-          <t>Winner Group D</t>
-        </is>
-      </c>
-      <c r="D58" s="212" t="n"/>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="D58" s="226" t="n"/>
       <c r="G58" s="179" t="n"/>
       <c r="H58" s="180" t="n"/>
       <c r="K58" s="143" t="n"/>
       <c r="L58" s="183" t="n"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B59" s="211" t="n"/>
+    <row r="59" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B59" s="225" t="n"/>
       <c r="C59" s="173" t="inlineStr">
         <is>
           <t>2nd Group F</t>
         </is>
       </c>
-      <c r="D59" s="211" t="n"/>
+      <c r="D59" s="225" t="n"/>
       <c r="G59" s="179" t="n"/>
       <c r="H59" s="181" t="n"/>
       <c r="I59" s="177" t="n"/>
-      <c r="J59" s="213" t="inlineStr">
+      <c r="J59" s="228" t="inlineStr">
         <is>
           <t>SF2</t>
         </is>
@@ -7944,23 +7952,23 @@
           <t>Winner QF3</t>
         </is>
       </c>
-      <c r="L59" s="212" t="n"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1" s="191">
+      <c r="L59" s="226" t="n"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1" s="202">
       <c r="B60" s="138" t="n"/>
       <c r="D60" s="176" t="n"/>
       <c r="G60" s="179" t="n"/>
       <c r="H60" s="181" t="n"/>
-      <c r="J60" s="211" t="n"/>
+      <c r="J60" s="225" t="n"/>
       <c r="K60" s="165" t="inlineStr">
         <is>
           <t>Winner QF4</t>
         </is>
       </c>
-      <c r="L60" s="211" t="n"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1" s="191">
-      <c r="B61" s="210" t="inlineStr">
+      <c r="L60" s="225" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="202">
+      <c r="B61" s="224" t="inlineStr">
         <is>
           <t>R7</t>
         </is>
@@ -7970,20 +7978,20 @@
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="D61" s="212" t="n"/>
+      <c r="D61" s="226" t="n"/>
       <c r="G61" s="179" t="n"/>
       <c r="H61" s="183" t="n"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B62" s="211" t="n"/>
+    <row r="62" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B62" s="225" t="n"/>
       <c r="C62" s="173" t="inlineStr">
         <is>
           <t>3rd Group D/E/F</t>
         </is>
       </c>
-      <c r="D62" s="211" t="n"/>
+      <c r="D62" s="225" t="n"/>
       <c r="E62" s="174" t="n"/>
-      <c r="F62" s="214" t="inlineStr">
+      <c r="F62" s="227" t="inlineStr">
         <is>
           <t>QF4</t>
         </is>
@@ -7993,22 +8001,22 @@
           <t>Winner R7</t>
         </is>
       </c>
-      <c r="H62" s="212" t="n"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="H62" s="226" t="n"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B63" s="138" t="n"/>
       <c r="D63" s="176" t="n"/>
       <c r="E63" s="184" t="n"/>
-      <c r="F63" s="211" t="n"/>
+      <c r="F63" s="225" t="n"/>
       <c r="G63" s="178" t="inlineStr">
         <is>
           <t>Winner R8</t>
         </is>
       </c>
-      <c r="H63" s="211" t="n"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1" s="191">
-      <c r="B64" s="210" t="inlineStr">
+      <c r="H63" s="225" t="n"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1" s="202">
+      <c r="B64" s="224" t="inlineStr">
         <is>
           <t>R8</t>
         </is>
@@ -8018,954 +8026,985 @@
           <t>Wales</t>
         </is>
       </c>
-      <c r="D64" s="212" t="n"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1" s="191">
-      <c r="B65" s="211" t="n"/>
+      <c r="D64" s="226" t="n"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1" s="202">
+      <c r="B65" s="225" t="n"/>
       <c r="C65" s="173" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="D65" s="211" t="n"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1" s="191"/>
-    <row r="67" ht="15.75" customHeight="1" s="191"/>
-    <row r="68" ht="15.75" customHeight="1" s="191"/>
-    <row r="69" ht="15.75" customHeight="1" s="191"/>
-    <row r="70" ht="15.75" customHeight="1" s="191"/>
-    <row r="71" ht="15.75" customHeight="1" s="191"/>
-    <row r="72" ht="15.75" customHeight="1" s="191"/>
-    <row r="73" ht="15.75" customHeight="1" s="191"/>
-    <row r="74" ht="15.75" customHeight="1" s="191"/>
-    <row r="75" ht="15.75" customHeight="1" s="191"/>
-    <row r="76" ht="15.75" customHeight="1" s="191"/>
-    <row r="77" ht="15.75" customHeight="1" s="191"/>
-    <row r="78" ht="15.75" customHeight="1" s="191"/>
-    <row r="79" ht="15.75" customHeight="1" s="191"/>
-    <row r="80" ht="15.75" customHeight="1" s="191"/>
-    <row r="81" ht="15.75" customHeight="1" s="191"/>
-    <row r="82" ht="15.75" customHeight="1" s="191"/>
-    <row r="83" ht="15.75" customHeight="1" s="191"/>
-    <row r="84" ht="15.75" customHeight="1" s="191"/>
-    <row r="85" ht="15.75" customHeight="1" s="191"/>
-    <row r="86" ht="15.75" customHeight="1" s="191"/>
-    <row r="87" ht="15.75" customHeight="1" s="191"/>
-    <row r="88" ht="15.75" customHeight="1" s="191"/>
-    <row r="89" ht="15.75" customHeight="1" s="191"/>
-    <row r="90" ht="15.75" customHeight="1" s="191"/>
-    <row r="91" ht="15.75" customHeight="1" s="191"/>
-    <row r="92" ht="15.75" customHeight="1" s="191"/>
-    <row r="93" ht="15.75" customHeight="1" s="191"/>
-    <row r="94" ht="15.75" customHeight="1" s="191"/>
-    <row r="95" ht="15.75" customHeight="1" s="191"/>
-    <row r="96" ht="15.75" customHeight="1" s="191"/>
-    <row r="97" ht="15.75" customHeight="1" s="191"/>
-    <row r="98" ht="15.75" customHeight="1" s="191"/>
-    <row r="99" ht="15.75" customHeight="1" s="191"/>
-    <row r="100" ht="15.75" customHeight="1" s="191"/>
-    <row r="101" ht="15.75" customHeight="1" s="191"/>
-    <row r="102" ht="15.75" customHeight="1" s="191"/>
-    <row r="103" ht="15.75" customHeight="1" s="191"/>
-    <row r="104" ht="15.75" customHeight="1" s="191"/>
-    <row r="105" ht="15.75" customHeight="1" s="191"/>
-    <row r="106" ht="15.75" customHeight="1" s="191"/>
-    <row r="107" ht="15.75" customHeight="1" s="191"/>
-    <row r="108" ht="15.75" customHeight="1" s="191"/>
-    <row r="109" ht="15.75" customHeight="1" s="191"/>
-    <row r="110" ht="15.75" customHeight="1" s="191"/>
-    <row r="111" ht="15.75" customHeight="1" s="191"/>
-    <row r="112" ht="15.75" customHeight="1" s="191"/>
-    <row r="113" ht="15.75" customHeight="1" s="191"/>
-    <row r="114" ht="15.75" customHeight="1" s="191"/>
-    <row r="115" ht="15.75" customHeight="1" s="191"/>
-    <row r="116" ht="15.75" customHeight="1" s="191"/>
-    <row r="117" ht="15.75" customHeight="1" s="191"/>
-    <row r="118" ht="15.75" customHeight="1" s="191"/>
-    <row r="119" ht="15.75" customHeight="1" s="191"/>
-    <row r="120" ht="15.75" customHeight="1" s="191"/>
-    <row r="121" ht="15.75" customHeight="1" s="191"/>
-    <row r="122" ht="15.75" customHeight="1" s="191"/>
-    <row r="123" ht="15.75" customHeight="1" s="191"/>
-    <row r="124" ht="15.75" customHeight="1" s="191"/>
-    <row r="125" ht="15.75" customHeight="1" s="191"/>
-    <row r="126" ht="15.75" customHeight="1" s="191"/>
-    <row r="127" ht="15.75" customHeight="1" s="191"/>
-    <row r="128" ht="15.75" customHeight="1" s="191"/>
-    <row r="129" ht="15.75" customHeight="1" s="191"/>
-    <row r="130" ht="15.75" customHeight="1" s="191"/>
-    <row r="131" ht="15.75" customHeight="1" s="191"/>
-    <row r="132" ht="15.75" customHeight="1" s="191"/>
-    <row r="133" ht="15.75" customHeight="1" s="191"/>
-    <row r="134" ht="15.75" customHeight="1" s="191"/>
-    <row r="135" ht="15.75" customHeight="1" s="191"/>
-    <row r="136" ht="15.75" customHeight="1" s="191"/>
-    <row r="137" ht="15.75" customHeight="1" s="191"/>
-    <row r="138" ht="15.75" customHeight="1" s="191"/>
-    <row r="139" ht="15.75" customHeight="1" s="191"/>
-    <row r="140" ht="15.75" customHeight="1" s="191"/>
-    <row r="141" ht="15.75" customHeight="1" s="191"/>
-    <row r="142" ht="15.75" customHeight="1" s="191"/>
-    <row r="143" ht="15.75" customHeight="1" s="191"/>
-    <row r="144" ht="15.75" customHeight="1" s="191"/>
-    <row r="145" ht="15.75" customHeight="1" s="191"/>
-    <row r="146" ht="15.75" customHeight="1" s="191"/>
-    <row r="147" ht="15.75" customHeight="1" s="191"/>
-    <row r="148" ht="15.75" customHeight="1" s="191"/>
-    <row r="149" ht="15.75" customHeight="1" s="191"/>
-    <row r="150" ht="15.75" customHeight="1" s="191"/>
-    <row r="151" ht="15.75" customHeight="1" s="191"/>
-    <row r="152" ht="15.75" customHeight="1" s="191"/>
-    <row r="153" ht="15.75" customHeight="1" s="191"/>
-    <row r="154" ht="15.75" customHeight="1" s="191"/>
-    <row r="155" ht="15.75" customHeight="1" s="191"/>
-    <row r="156" ht="15.75" customHeight="1" s="191"/>
-    <row r="157" ht="15.75" customHeight="1" s="191"/>
-    <row r="158" ht="15.75" customHeight="1" s="191"/>
-    <row r="159" ht="15.75" customHeight="1" s="191"/>
-    <row r="160" ht="15.75" customHeight="1" s="191"/>
-    <row r="161" ht="15.75" customHeight="1" s="191"/>
-    <row r="162" ht="15.75" customHeight="1" s="191"/>
-    <row r="163" ht="15.75" customHeight="1" s="191"/>
-    <row r="164" ht="15.75" customHeight="1" s="191"/>
-    <row r="165" ht="15.75" customHeight="1" s="191"/>
-    <row r="166" ht="15.75" customHeight="1" s="191"/>
-    <row r="167" ht="15.75" customHeight="1" s="191"/>
-    <row r="168" ht="15.75" customHeight="1" s="191"/>
-    <row r="169" ht="15.75" customHeight="1" s="191"/>
-    <row r="170" ht="15.75" customHeight="1" s="191"/>
-    <row r="171" ht="15.75" customHeight="1" s="191"/>
-    <row r="172" ht="15.75" customHeight="1" s="191"/>
-    <row r="173" ht="15.75" customHeight="1" s="191"/>
-    <row r="174" ht="15.75" customHeight="1" s="191"/>
-    <row r="175" ht="15.75" customHeight="1" s="191"/>
-    <row r="176" ht="15.75" customHeight="1" s="191"/>
-    <row r="177" ht="15.75" customHeight="1" s="191"/>
-    <row r="178" ht="15.75" customHeight="1" s="191"/>
-    <row r="179" ht="15.75" customHeight="1" s="191"/>
-    <row r="180" ht="15.75" customHeight="1" s="191"/>
-    <row r="181" ht="15.75" customHeight="1" s="191"/>
-    <row r="182" ht="15.75" customHeight="1" s="191"/>
-    <row r="183" ht="15.75" customHeight="1" s="191"/>
-    <row r="184" ht="15.75" customHeight="1" s="191"/>
-    <row r="185" ht="15.75" customHeight="1" s="191"/>
-    <row r="186" ht="15.75" customHeight="1" s="191"/>
-    <row r="187" ht="15.75" customHeight="1" s="191"/>
-    <row r="188" ht="15.75" customHeight="1" s="191"/>
-    <row r="189" ht="15.75" customHeight="1" s="191"/>
-    <row r="190" ht="15.75" customHeight="1" s="191"/>
-    <row r="191" ht="15.75" customHeight="1" s="191"/>
-    <row r="192" ht="15.75" customHeight="1" s="191"/>
-    <row r="193" ht="15.75" customHeight="1" s="191"/>
-    <row r="194" ht="15.75" customHeight="1" s="191"/>
-    <row r="195" ht="15.75" customHeight="1" s="191"/>
-    <row r="196" ht="15.75" customHeight="1" s="191"/>
-    <row r="197" ht="15.75" customHeight="1" s="191"/>
-    <row r="198" ht="15.75" customHeight="1" s="191"/>
-    <row r="199" ht="15.75" customHeight="1" s="191"/>
-    <row r="200" ht="15.75" customHeight="1" s="191"/>
-    <row r="201" ht="15.75" customHeight="1" s="191"/>
-    <row r="202" ht="15.75" customHeight="1" s="191"/>
-    <row r="203" ht="15.75" customHeight="1" s="191"/>
-    <row r="204" ht="15.75" customHeight="1" s="191"/>
-    <row r="205" ht="15.75" customHeight="1" s="191"/>
-    <row r="206" ht="15.75" customHeight="1" s="191"/>
-    <row r="207" ht="15.75" customHeight="1" s="191"/>
-    <row r="208" ht="15.75" customHeight="1" s="191"/>
-    <row r="209" ht="15.75" customHeight="1" s="191"/>
-    <row r="210" ht="15.75" customHeight="1" s="191"/>
-    <row r="211" ht="15.75" customHeight="1" s="191"/>
-    <row r="212" ht="15.75" customHeight="1" s="191"/>
-    <row r="213" ht="15.75" customHeight="1" s="191"/>
-    <row r="214" ht="15.75" customHeight="1" s="191"/>
-    <row r="215" ht="15.75" customHeight="1" s="191"/>
-    <row r="216" ht="15.75" customHeight="1" s="191"/>
-    <row r="217" ht="15.75" customHeight="1" s="191"/>
-    <row r="218" ht="15.75" customHeight="1" s="191"/>
-    <row r="219" ht="15.75" customHeight="1" s="191"/>
-    <row r="220" ht="15.75" customHeight="1" s="191"/>
-    <row r="221" ht="15.75" customHeight="1" s="191"/>
-    <row r="222" ht="15.75" customHeight="1" s="191"/>
-    <row r="223" ht="15.75" customHeight="1" s="191"/>
-    <row r="224" ht="15.75" customHeight="1" s="191"/>
-    <row r="225" ht="15.75" customHeight="1" s="191"/>
-    <row r="226" ht="15.75" customHeight="1" s="191"/>
-    <row r="227" ht="15.75" customHeight="1" s="191"/>
-    <row r="228" ht="15.75" customHeight="1" s="191"/>
-    <row r="229" ht="15.75" customHeight="1" s="191"/>
-    <row r="230" ht="15.75" customHeight="1" s="191"/>
-    <row r="231" ht="15.75" customHeight="1" s="191"/>
-    <row r="232" ht="15.75" customHeight="1" s="191"/>
-    <row r="233" ht="15.75" customHeight="1" s="191"/>
-    <row r="234" ht="15.75" customHeight="1" s="191"/>
-    <row r="235" ht="15.75" customHeight="1" s="191"/>
-    <row r="236" ht="15.75" customHeight="1" s="191"/>
-    <row r="237" ht="15.75" customHeight="1" s="191"/>
-    <row r="238" ht="15.75" customHeight="1" s="191"/>
-    <row r="239" ht="15.75" customHeight="1" s="191"/>
-    <row r="240" ht="15.75" customHeight="1" s="191"/>
-    <row r="241" ht="15.75" customHeight="1" s="191"/>
-    <row r="242" ht="15.75" customHeight="1" s="191"/>
-    <row r="243" ht="15.75" customHeight="1" s="191"/>
-    <row r="244" ht="15.75" customHeight="1" s="191"/>
-    <row r="245" ht="15.75" customHeight="1" s="191"/>
-    <row r="246" ht="15.75" customHeight="1" s="191"/>
-    <row r="247" ht="15.75" customHeight="1" s="191"/>
-    <row r="248" ht="15.75" customHeight="1" s="191"/>
-    <row r="249" ht="15.75" customHeight="1" s="191"/>
-    <row r="250" ht="15.75" customHeight="1" s="191"/>
-    <row r="251" ht="15.75" customHeight="1" s="191"/>
-    <row r="252" ht="15.75" customHeight="1" s="191"/>
-    <row r="253" ht="15.75" customHeight="1" s="191"/>
-    <row r="254" ht="15.75" customHeight="1" s="191"/>
-    <row r="255" ht="15.75" customHeight="1" s="191"/>
-    <row r="256" ht="15.75" customHeight="1" s="191"/>
-    <row r="257" ht="15.75" customHeight="1" s="191"/>
-    <row r="258" ht="15.75" customHeight="1" s="191"/>
-    <row r="259" ht="15.75" customHeight="1" s="191"/>
-    <row r="260" ht="15.75" customHeight="1" s="191"/>
-    <row r="261" ht="15.75" customHeight="1" s="191"/>
-    <row r="262" ht="15.75" customHeight="1" s="191"/>
-    <row r="263" ht="15.75" customHeight="1" s="191"/>
-    <row r="264" ht="15.75" customHeight="1" s="191"/>
-    <row r="265" ht="15.75" customHeight="1" s="191"/>
-    <row r="266" ht="15.75" customHeight="1" s="191"/>
-    <row r="267" ht="15.75" customHeight="1" s="191"/>
-    <row r="268" ht="15.75" customHeight="1" s="191"/>
-    <row r="269" ht="15.75" customHeight="1" s="191"/>
-    <row r="270" ht="15.75" customHeight="1" s="191"/>
-    <row r="271" ht="15.75" customHeight="1" s="191"/>
-    <row r="272" ht="15.75" customHeight="1" s="191"/>
-    <row r="273" ht="15.75" customHeight="1" s="191"/>
-    <row r="274" ht="15.75" customHeight="1" s="191"/>
-    <row r="275" ht="15.75" customHeight="1" s="191"/>
-    <row r="276" ht="15.75" customHeight="1" s="191"/>
-    <row r="277" ht="15.75" customHeight="1" s="191"/>
-    <row r="278" ht="15.75" customHeight="1" s="191"/>
-    <row r="279" ht="15.75" customHeight="1" s="191"/>
-    <row r="280" ht="15.75" customHeight="1" s="191"/>
-    <row r="281" ht="15.75" customHeight="1" s="191"/>
-    <row r="282" ht="15.75" customHeight="1" s="191"/>
-    <row r="283" ht="15.75" customHeight="1" s="191"/>
-    <row r="284" ht="15.75" customHeight="1" s="191"/>
-    <row r="285" ht="15.75" customHeight="1" s="191"/>
-    <row r="286" ht="15.75" customHeight="1" s="191"/>
-    <row r="287" ht="15.75" customHeight="1" s="191"/>
-    <row r="288" ht="15.75" customHeight="1" s="191"/>
-    <row r="289" ht="15.75" customHeight="1" s="191"/>
-    <row r="290" ht="15.75" customHeight="1" s="191"/>
-    <row r="291" ht="15.75" customHeight="1" s="191"/>
-    <row r="292" ht="15.75" customHeight="1" s="191"/>
-    <row r="293" ht="15.75" customHeight="1" s="191"/>
-    <row r="294" ht="15.75" customHeight="1" s="191"/>
-    <row r="295" ht="15.75" customHeight="1" s="191"/>
-    <row r="296" ht="15.75" customHeight="1" s="191"/>
-    <row r="297" ht="15.75" customHeight="1" s="191"/>
-    <row r="298" ht="15.75" customHeight="1" s="191"/>
-    <row r="299" ht="15.75" customHeight="1" s="191"/>
-    <row r="300" ht="15.75" customHeight="1" s="191"/>
-    <row r="301" ht="15.75" customHeight="1" s="191"/>
-    <row r="302" ht="15.75" customHeight="1" s="191"/>
-    <row r="303" ht="15.75" customHeight="1" s="191"/>
-    <row r="304" ht="15.75" customHeight="1" s="191"/>
-    <row r="305" ht="15.75" customHeight="1" s="191"/>
-    <row r="306" ht="15.75" customHeight="1" s="191"/>
-    <row r="307" ht="15.75" customHeight="1" s="191"/>
-    <row r="308" ht="15.75" customHeight="1" s="191"/>
-    <row r="309" ht="15.75" customHeight="1" s="191"/>
-    <row r="310" ht="15.75" customHeight="1" s="191"/>
-    <row r="311" ht="15.75" customHeight="1" s="191"/>
-    <row r="312" ht="15.75" customHeight="1" s="191"/>
-    <row r="313" ht="15.75" customHeight="1" s="191"/>
-    <row r="314" ht="15.75" customHeight="1" s="191"/>
-    <row r="315" ht="15.75" customHeight="1" s="191"/>
-    <row r="316" ht="15.75" customHeight="1" s="191"/>
-    <row r="317" ht="15.75" customHeight="1" s="191"/>
-    <row r="318" ht="15.75" customHeight="1" s="191"/>
-    <row r="319" ht="15.75" customHeight="1" s="191"/>
-    <row r="320" ht="15.75" customHeight="1" s="191"/>
-    <row r="321" ht="15.75" customHeight="1" s="191"/>
-    <row r="322" ht="15.75" customHeight="1" s="191"/>
-    <row r="323" ht="15.75" customHeight="1" s="191"/>
-    <row r="324" ht="15.75" customHeight="1" s="191"/>
-    <row r="325" ht="15.75" customHeight="1" s="191"/>
-    <row r="326" ht="15.75" customHeight="1" s="191"/>
-    <row r="327" ht="15.75" customHeight="1" s="191"/>
-    <row r="328" ht="15.75" customHeight="1" s="191"/>
-    <row r="329" ht="15.75" customHeight="1" s="191"/>
-    <row r="330" ht="15.75" customHeight="1" s="191"/>
-    <row r="331" ht="15.75" customHeight="1" s="191"/>
-    <row r="332" ht="15.75" customHeight="1" s="191"/>
-    <row r="333" ht="15.75" customHeight="1" s="191"/>
-    <row r="334" ht="15.75" customHeight="1" s="191"/>
-    <row r="335" ht="15.75" customHeight="1" s="191"/>
-    <row r="336" ht="15.75" customHeight="1" s="191"/>
-    <row r="337" ht="15.75" customHeight="1" s="191"/>
-    <row r="338" ht="15.75" customHeight="1" s="191"/>
-    <row r="339" ht="15.75" customHeight="1" s="191"/>
-    <row r="340" ht="15.75" customHeight="1" s="191"/>
-    <row r="341" ht="15.75" customHeight="1" s="191"/>
-    <row r="342" ht="15.75" customHeight="1" s="191"/>
-    <row r="343" ht="15.75" customHeight="1" s="191"/>
-    <row r="344" ht="15.75" customHeight="1" s="191"/>
-    <row r="345" ht="15.75" customHeight="1" s="191"/>
-    <row r="346" ht="15.75" customHeight="1" s="191"/>
-    <row r="347" ht="15.75" customHeight="1" s="191"/>
-    <row r="348" ht="15.75" customHeight="1" s="191"/>
-    <row r="349" ht="15.75" customHeight="1" s="191"/>
-    <row r="350" ht="15.75" customHeight="1" s="191"/>
-    <row r="351" ht="15.75" customHeight="1" s="191"/>
-    <row r="352" ht="15.75" customHeight="1" s="191"/>
-    <row r="353" ht="15.75" customHeight="1" s="191"/>
-    <row r="354" ht="15.75" customHeight="1" s="191"/>
-    <row r="355" ht="15.75" customHeight="1" s="191"/>
-    <row r="356" ht="15.75" customHeight="1" s="191"/>
-    <row r="357" ht="15.75" customHeight="1" s="191"/>
-    <row r="358" ht="15.75" customHeight="1" s="191"/>
-    <row r="359" ht="15.75" customHeight="1" s="191"/>
-    <row r="360" ht="15.75" customHeight="1" s="191"/>
-    <row r="361" ht="15.75" customHeight="1" s="191"/>
-    <row r="362" ht="15.75" customHeight="1" s="191"/>
-    <row r="363" ht="15.75" customHeight="1" s="191"/>
-    <row r="364" ht="15.75" customHeight="1" s="191"/>
-    <row r="365" ht="15.75" customHeight="1" s="191"/>
-    <row r="366" ht="15.75" customHeight="1" s="191"/>
-    <row r="367" ht="15.75" customHeight="1" s="191"/>
-    <row r="368" ht="15.75" customHeight="1" s="191"/>
-    <row r="369" ht="15.75" customHeight="1" s="191"/>
-    <row r="370" ht="15.75" customHeight="1" s="191"/>
-    <row r="371" ht="15.75" customHeight="1" s="191"/>
-    <row r="372" ht="15.75" customHeight="1" s="191"/>
-    <row r="373" ht="15.75" customHeight="1" s="191"/>
-    <row r="374" ht="15.75" customHeight="1" s="191"/>
-    <row r="375" ht="15.75" customHeight="1" s="191"/>
-    <row r="376" ht="15.75" customHeight="1" s="191"/>
-    <row r="377" ht="15.75" customHeight="1" s="191"/>
-    <row r="378" ht="15.75" customHeight="1" s="191"/>
-    <row r="379" ht="15.75" customHeight="1" s="191"/>
-    <row r="380" ht="15.75" customHeight="1" s="191"/>
-    <row r="381" ht="15.75" customHeight="1" s="191"/>
-    <row r="382" ht="15.75" customHeight="1" s="191"/>
-    <row r="383" ht="15.75" customHeight="1" s="191"/>
-    <row r="384" ht="15.75" customHeight="1" s="191"/>
-    <row r="385" ht="15.75" customHeight="1" s="191"/>
-    <row r="386" ht="15.75" customHeight="1" s="191"/>
-    <row r="387" ht="15.75" customHeight="1" s="191"/>
-    <row r="388" ht="15.75" customHeight="1" s="191"/>
-    <row r="389" ht="15.75" customHeight="1" s="191"/>
-    <row r="390" ht="15.75" customHeight="1" s="191"/>
-    <row r="391" ht="15.75" customHeight="1" s="191"/>
-    <row r="392" ht="15.75" customHeight="1" s="191"/>
-    <row r="393" ht="15.75" customHeight="1" s="191"/>
-    <row r="394" ht="15.75" customHeight="1" s="191"/>
-    <row r="395" ht="15.75" customHeight="1" s="191"/>
-    <row r="396" ht="15.75" customHeight="1" s="191"/>
-    <row r="397" ht="15.75" customHeight="1" s="191"/>
-    <row r="398" ht="15.75" customHeight="1" s="191"/>
-    <row r="399" ht="15.75" customHeight="1" s="191"/>
-    <row r="400" ht="15.75" customHeight="1" s="191"/>
-    <row r="401" ht="15.75" customHeight="1" s="191"/>
-    <row r="402" ht="15.75" customHeight="1" s="191"/>
-    <row r="403" ht="15.75" customHeight="1" s="191"/>
-    <row r="404" ht="15.75" customHeight="1" s="191"/>
-    <row r="405" ht="15.75" customHeight="1" s="191"/>
-    <row r="406" ht="15.75" customHeight="1" s="191"/>
-    <row r="407" ht="15.75" customHeight="1" s="191"/>
-    <row r="408" ht="15.75" customHeight="1" s="191"/>
-    <row r="409" ht="15.75" customHeight="1" s="191"/>
-    <row r="410" ht="15.75" customHeight="1" s="191"/>
-    <row r="411" ht="15.75" customHeight="1" s="191"/>
-    <row r="412" ht="15.75" customHeight="1" s="191"/>
-    <row r="413" ht="15.75" customHeight="1" s="191"/>
-    <row r="414" ht="15.75" customHeight="1" s="191"/>
-    <row r="415" ht="15.75" customHeight="1" s="191"/>
-    <row r="416" ht="15.75" customHeight="1" s="191"/>
-    <row r="417" ht="15.75" customHeight="1" s="191"/>
-    <row r="418" ht="15.75" customHeight="1" s="191"/>
-    <row r="419" ht="15.75" customHeight="1" s="191"/>
-    <row r="420" ht="15.75" customHeight="1" s="191"/>
-    <row r="421" ht="15.75" customHeight="1" s="191"/>
-    <row r="422" ht="15.75" customHeight="1" s="191"/>
-    <row r="423" ht="15.75" customHeight="1" s="191"/>
-    <row r="424" ht="15.75" customHeight="1" s="191"/>
-    <row r="425" ht="15.75" customHeight="1" s="191"/>
-    <row r="426" ht="15.75" customHeight="1" s="191"/>
-    <row r="427" ht="15.75" customHeight="1" s="191"/>
-    <row r="428" ht="15.75" customHeight="1" s="191"/>
-    <row r="429" ht="15.75" customHeight="1" s="191"/>
-    <row r="430" ht="15.75" customHeight="1" s="191"/>
-    <row r="431" ht="15.75" customHeight="1" s="191"/>
-    <row r="432" ht="15.75" customHeight="1" s="191"/>
-    <row r="433" ht="15.75" customHeight="1" s="191"/>
-    <row r="434" ht="15.75" customHeight="1" s="191"/>
-    <row r="435" ht="15.75" customHeight="1" s="191"/>
-    <row r="436" ht="15.75" customHeight="1" s="191"/>
-    <row r="437" ht="15.75" customHeight="1" s="191"/>
-    <row r="438" ht="15.75" customHeight="1" s="191"/>
-    <row r="439" ht="15.75" customHeight="1" s="191"/>
-    <row r="440" ht="15.75" customHeight="1" s="191"/>
-    <row r="441" ht="15.75" customHeight="1" s="191"/>
-    <row r="442" ht="15.75" customHeight="1" s="191"/>
-    <row r="443" ht="15.75" customHeight="1" s="191"/>
-    <row r="444" ht="15.75" customHeight="1" s="191"/>
-    <row r="445" ht="15.75" customHeight="1" s="191"/>
-    <row r="446" ht="15.75" customHeight="1" s="191"/>
-    <row r="447" ht="15.75" customHeight="1" s="191"/>
-    <row r="448" ht="15.75" customHeight="1" s="191"/>
-    <row r="449" ht="15.75" customHeight="1" s="191"/>
-    <row r="450" ht="15.75" customHeight="1" s="191"/>
-    <row r="451" ht="15.75" customHeight="1" s="191"/>
-    <row r="452" ht="15.75" customHeight="1" s="191"/>
-    <row r="453" ht="15.75" customHeight="1" s="191"/>
-    <row r="454" ht="15.75" customHeight="1" s="191"/>
-    <row r="455" ht="15.75" customHeight="1" s="191"/>
-    <row r="456" ht="15.75" customHeight="1" s="191"/>
-    <row r="457" ht="15.75" customHeight="1" s="191"/>
-    <row r="458" ht="15.75" customHeight="1" s="191"/>
-    <row r="459" ht="15.75" customHeight="1" s="191"/>
-    <row r="460" ht="15.75" customHeight="1" s="191"/>
-    <row r="461" ht="15.75" customHeight="1" s="191"/>
-    <row r="462" ht="15.75" customHeight="1" s="191"/>
-    <row r="463" ht="15.75" customHeight="1" s="191"/>
-    <row r="464" ht="15.75" customHeight="1" s="191"/>
-    <row r="465" ht="15.75" customHeight="1" s="191"/>
-    <row r="466" ht="15.75" customHeight="1" s="191"/>
-    <row r="467" ht="15.75" customHeight="1" s="191"/>
-    <row r="468" ht="15.75" customHeight="1" s="191"/>
-    <row r="469" ht="15.75" customHeight="1" s="191"/>
-    <row r="470" ht="15.75" customHeight="1" s="191"/>
-    <row r="471" ht="15.75" customHeight="1" s="191"/>
-    <row r="472" ht="15.75" customHeight="1" s="191"/>
-    <row r="473" ht="15.75" customHeight="1" s="191"/>
-    <row r="474" ht="15.75" customHeight="1" s="191"/>
-    <row r="475" ht="15.75" customHeight="1" s="191"/>
-    <row r="476" ht="15.75" customHeight="1" s="191"/>
-    <row r="477" ht="15.75" customHeight="1" s="191"/>
-    <row r="478" ht="15.75" customHeight="1" s="191"/>
-    <row r="479" ht="15.75" customHeight="1" s="191"/>
-    <row r="480" ht="15.75" customHeight="1" s="191"/>
-    <row r="481" ht="15.75" customHeight="1" s="191"/>
-    <row r="482" ht="15.75" customHeight="1" s="191"/>
-    <row r="483" ht="15.75" customHeight="1" s="191"/>
-    <row r="484" ht="15.75" customHeight="1" s="191"/>
-    <row r="485" ht="15.75" customHeight="1" s="191"/>
-    <row r="486" ht="15.75" customHeight="1" s="191"/>
-    <row r="487" ht="15.75" customHeight="1" s="191"/>
-    <row r="488" ht="15.75" customHeight="1" s="191"/>
-    <row r="489" ht="15.75" customHeight="1" s="191"/>
-    <row r="490" ht="15.75" customHeight="1" s="191"/>
-    <row r="491" ht="15.75" customHeight="1" s="191"/>
-    <row r="492" ht="15.75" customHeight="1" s="191"/>
-    <row r="493" ht="15.75" customHeight="1" s="191"/>
-    <row r="494" ht="15.75" customHeight="1" s="191"/>
-    <row r="495" ht="15.75" customHeight="1" s="191"/>
-    <row r="496" ht="15.75" customHeight="1" s="191"/>
-    <row r="497" ht="15.75" customHeight="1" s="191"/>
-    <row r="498" ht="15.75" customHeight="1" s="191"/>
-    <row r="499" ht="15.75" customHeight="1" s="191"/>
-    <row r="500" ht="15.75" customHeight="1" s="191"/>
-    <row r="501" ht="15.75" customHeight="1" s="191"/>
-    <row r="502" ht="15.75" customHeight="1" s="191"/>
-    <row r="503" ht="15.75" customHeight="1" s="191"/>
-    <row r="504" ht="15.75" customHeight="1" s="191"/>
-    <row r="505" ht="15.75" customHeight="1" s="191"/>
-    <row r="506" ht="15.75" customHeight="1" s="191"/>
-    <row r="507" ht="15.75" customHeight="1" s="191"/>
-    <row r="508" ht="15.75" customHeight="1" s="191"/>
-    <row r="509" ht="15.75" customHeight="1" s="191"/>
-    <row r="510" ht="15.75" customHeight="1" s="191"/>
-    <row r="511" ht="15.75" customHeight="1" s="191"/>
-    <row r="512" ht="15.75" customHeight="1" s="191"/>
-    <row r="513" ht="15.75" customHeight="1" s="191"/>
-    <row r="514" ht="15.75" customHeight="1" s="191"/>
-    <row r="515" ht="15.75" customHeight="1" s="191"/>
-    <row r="516" ht="15.75" customHeight="1" s="191"/>
-    <row r="517" ht="15.75" customHeight="1" s="191"/>
-    <row r="518" ht="15.75" customHeight="1" s="191"/>
-    <row r="519" ht="15.75" customHeight="1" s="191"/>
-    <row r="520" ht="15.75" customHeight="1" s="191"/>
-    <row r="521" ht="15.75" customHeight="1" s="191"/>
-    <row r="522" ht="15.75" customHeight="1" s="191"/>
-    <row r="523" ht="15.75" customHeight="1" s="191"/>
-    <row r="524" ht="15.75" customHeight="1" s="191"/>
-    <row r="525" ht="15.75" customHeight="1" s="191"/>
-    <row r="526" ht="15.75" customHeight="1" s="191"/>
-    <row r="527" ht="15.75" customHeight="1" s="191"/>
-    <row r="528" ht="15.75" customHeight="1" s="191"/>
-    <row r="529" ht="15.75" customHeight="1" s="191"/>
-    <row r="530" ht="15.75" customHeight="1" s="191"/>
-    <row r="531" ht="15.75" customHeight="1" s="191"/>
-    <row r="532" ht="15.75" customHeight="1" s="191"/>
-    <row r="533" ht="15.75" customHeight="1" s="191"/>
-    <row r="534" ht="15.75" customHeight="1" s="191"/>
-    <row r="535" ht="15.75" customHeight="1" s="191"/>
-    <row r="536" ht="15.75" customHeight="1" s="191"/>
-    <row r="537" ht="15.75" customHeight="1" s="191"/>
-    <row r="538" ht="15.75" customHeight="1" s="191"/>
-    <row r="539" ht="15.75" customHeight="1" s="191"/>
-    <row r="540" ht="15.75" customHeight="1" s="191"/>
-    <row r="541" ht="15.75" customHeight="1" s="191"/>
-    <row r="542" ht="15.75" customHeight="1" s="191"/>
-    <row r="543" ht="15.75" customHeight="1" s="191"/>
-    <row r="544" ht="15.75" customHeight="1" s="191"/>
-    <row r="545" ht="15.75" customHeight="1" s="191"/>
-    <row r="546" ht="15.75" customHeight="1" s="191"/>
-    <row r="547" ht="15.75" customHeight="1" s="191"/>
-    <row r="548" ht="15.75" customHeight="1" s="191"/>
-    <row r="549" ht="15.75" customHeight="1" s="191"/>
-    <row r="550" ht="15.75" customHeight="1" s="191"/>
-    <row r="551" ht="15.75" customHeight="1" s="191"/>
-    <row r="552" ht="15.75" customHeight="1" s="191"/>
-    <row r="553" ht="15.75" customHeight="1" s="191"/>
-    <row r="554" ht="15.75" customHeight="1" s="191"/>
-    <row r="555" ht="15.75" customHeight="1" s="191"/>
-    <row r="556" ht="15.75" customHeight="1" s="191"/>
-    <row r="557" ht="15.75" customHeight="1" s="191"/>
-    <row r="558" ht="15.75" customHeight="1" s="191"/>
-    <row r="559" ht="15.75" customHeight="1" s="191"/>
-    <row r="560" ht="15.75" customHeight="1" s="191"/>
-    <row r="561" ht="15.75" customHeight="1" s="191"/>
-    <row r="562" ht="15.75" customHeight="1" s="191"/>
-    <row r="563" ht="15.75" customHeight="1" s="191"/>
-    <row r="564" ht="15.75" customHeight="1" s="191"/>
-    <row r="565" ht="15.75" customHeight="1" s="191"/>
-    <row r="566" ht="15.75" customHeight="1" s="191"/>
-    <row r="567" ht="15.75" customHeight="1" s="191"/>
-    <row r="568" ht="15.75" customHeight="1" s="191"/>
-    <row r="569" ht="15.75" customHeight="1" s="191"/>
-    <row r="570" ht="15.75" customHeight="1" s="191"/>
-    <row r="571" ht="15.75" customHeight="1" s="191"/>
-    <row r="572" ht="15.75" customHeight="1" s="191"/>
-    <row r="573" ht="15.75" customHeight="1" s="191"/>
-    <row r="574" ht="15.75" customHeight="1" s="191"/>
-    <row r="575" ht="15.75" customHeight="1" s="191"/>
-    <row r="576" ht="15.75" customHeight="1" s="191"/>
-    <row r="577" ht="15.75" customHeight="1" s="191"/>
-    <row r="578" ht="15.75" customHeight="1" s="191"/>
-    <row r="579" ht="15.75" customHeight="1" s="191"/>
-    <row r="580" ht="15.75" customHeight="1" s="191"/>
-    <row r="581" ht="15.75" customHeight="1" s="191"/>
-    <row r="582" ht="15.75" customHeight="1" s="191"/>
-    <row r="583" ht="15.75" customHeight="1" s="191"/>
-    <row r="584" ht="15.75" customHeight="1" s="191"/>
-    <row r="585" ht="15.75" customHeight="1" s="191"/>
-    <row r="586" ht="15.75" customHeight="1" s="191"/>
-    <row r="587" ht="15.75" customHeight="1" s="191"/>
-    <row r="588" ht="15.75" customHeight="1" s="191"/>
-    <row r="589" ht="15.75" customHeight="1" s="191"/>
-    <row r="590" ht="15.75" customHeight="1" s="191"/>
-    <row r="591" ht="15.75" customHeight="1" s="191"/>
-    <row r="592" ht="15.75" customHeight="1" s="191"/>
-    <row r="593" ht="15.75" customHeight="1" s="191"/>
-    <row r="594" ht="15.75" customHeight="1" s="191"/>
-    <row r="595" ht="15.75" customHeight="1" s="191"/>
-    <row r="596" ht="15.75" customHeight="1" s="191"/>
-    <row r="597" ht="15.75" customHeight="1" s="191"/>
-    <row r="598" ht="15.75" customHeight="1" s="191"/>
-    <row r="599" ht="15.75" customHeight="1" s="191"/>
-    <row r="600" ht="15.75" customHeight="1" s="191"/>
-    <row r="601" ht="15.75" customHeight="1" s="191"/>
-    <row r="602" ht="15.75" customHeight="1" s="191"/>
-    <row r="603" ht="15.75" customHeight="1" s="191"/>
-    <row r="604" ht="15.75" customHeight="1" s="191"/>
-    <row r="605" ht="15.75" customHeight="1" s="191"/>
-    <row r="606" ht="15.75" customHeight="1" s="191"/>
-    <row r="607" ht="15.75" customHeight="1" s="191"/>
-    <row r="608" ht="15.75" customHeight="1" s="191"/>
-    <row r="609" ht="15.75" customHeight="1" s="191"/>
-    <row r="610" ht="15.75" customHeight="1" s="191"/>
-    <row r="611" ht="15.75" customHeight="1" s="191"/>
-    <row r="612" ht="15.75" customHeight="1" s="191"/>
-    <row r="613" ht="15.75" customHeight="1" s="191"/>
-    <row r="614" ht="15.75" customHeight="1" s="191"/>
-    <row r="615" ht="15.75" customHeight="1" s="191"/>
-    <row r="616" ht="15.75" customHeight="1" s="191"/>
-    <row r="617" ht="15.75" customHeight="1" s="191"/>
-    <row r="618" ht="15.75" customHeight="1" s="191"/>
-    <row r="619" ht="15.75" customHeight="1" s="191"/>
-    <row r="620" ht="15.75" customHeight="1" s="191"/>
-    <row r="621" ht="15.75" customHeight="1" s="191"/>
-    <row r="622" ht="15.75" customHeight="1" s="191"/>
-    <row r="623" ht="15.75" customHeight="1" s="191"/>
-    <row r="624" ht="15.75" customHeight="1" s="191"/>
-    <row r="625" ht="15.75" customHeight="1" s="191"/>
-    <row r="626" ht="15.75" customHeight="1" s="191"/>
-    <row r="627" ht="15.75" customHeight="1" s="191"/>
-    <row r="628" ht="15.75" customHeight="1" s="191"/>
-    <row r="629" ht="15.75" customHeight="1" s="191"/>
-    <row r="630" ht="15.75" customHeight="1" s="191"/>
-    <row r="631" ht="15.75" customHeight="1" s="191"/>
-    <row r="632" ht="15.75" customHeight="1" s="191"/>
-    <row r="633" ht="15.75" customHeight="1" s="191"/>
-    <row r="634" ht="15.75" customHeight="1" s="191"/>
-    <row r="635" ht="15.75" customHeight="1" s="191"/>
-    <row r="636" ht="15.75" customHeight="1" s="191"/>
-    <row r="637" ht="15.75" customHeight="1" s="191"/>
-    <row r="638" ht="15.75" customHeight="1" s="191"/>
-    <row r="639" ht="15.75" customHeight="1" s="191"/>
-    <row r="640" ht="15.75" customHeight="1" s="191"/>
-    <row r="641" ht="15.75" customHeight="1" s="191"/>
-    <row r="642" ht="15.75" customHeight="1" s="191"/>
-    <row r="643" ht="15.75" customHeight="1" s="191"/>
-    <row r="644" ht="15.75" customHeight="1" s="191"/>
-    <row r="645" ht="15.75" customHeight="1" s="191"/>
-    <row r="646" ht="15.75" customHeight="1" s="191"/>
-    <row r="647" ht="15.75" customHeight="1" s="191"/>
-    <row r="648" ht="15.75" customHeight="1" s="191"/>
-    <row r="649" ht="15.75" customHeight="1" s="191"/>
-    <row r="650" ht="15.75" customHeight="1" s="191"/>
-    <row r="651" ht="15.75" customHeight="1" s="191"/>
-    <row r="652" ht="15.75" customHeight="1" s="191"/>
-    <row r="653" ht="15.75" customHeight="1" s="191"/>
-    <row r="654" ht="15.75" customHeight="1" s="191"/>
-    <row r="655" ht="15.75" customHeight="1" s="191"/>
-    <row r="656" ht="15.75" customHeight="1" s="191"/>
-    <row r="657" ht="15.75" customHeight="1" s="191"/>
-    <row r="658" ht="15.75" customHeight="1" s="191"/>
-    <row r="659" ht="15.75" customHeight="1" s="191"/>
-    <row r="660" ht="15.75" customHeight="1" s="191"/>
-    <row r="661" ht="15.75" customHeight="1" s="191"/>
-    <row r="662" ht="15.75" customHeight="1" s="191"/>
-    <row r="663" ht="15.75" customHeight="1" s="191"/>
-    <row r="664" ht="15.75" customHeight="1" s="191"/>
-    <row r="665" ht="15.75" customHeight="1" s="191"/>
-    <row r="666" ht="15.75" customHeight="1" s="191"/>
-    <row r="667" ht="15.75" customHeight="1" s="191"/>
-    <row r="668" ht="15.75" customHeight="1" s="191"/>
-    <row r="669" ht="15.75" customHeight="1" s="191"/>
-    <row r="670" ht="15.75" customHeight="1" s="191"/>
-    <row r="671" ht="15.75" customHeight="1" s="191"/>
-    <row r="672" ht="15.75" customHeight="1" s="191"/>
-    <row r="673" ht="15.75" customHeight="1" s="191"/>
-    <row r="674" ht="15.75" customHeight="1" s="191"/>
-    <row r="675" ht="15.75" customHeight="1" s="191"/>
-    <row r="676" ht="15.75" customHeight="1" s="191"/>
-    <row r="677" ht="15.75" customHeight="1" s="191"/>
-    <row r="678" ht="15.75" customHeight="1" s="191"/>
-    <row r="679" ht="15.75" customHeight="1" s="191"/>
-    <row r="680" ht="15.75" customHeight="1" s="191"/>
-    <row r="681" ht="15.75" customHeight="1" s="191"/>
-    <row r="682" ht="15.75" customHeight="1" s="191"/>
-    <row r="683" ht="15.75" customHeight="1" s="191"/>
-    <row r="684" ht="15.75" customHeight="1" s="191"/>
-    <row r="685" ht="15.75" customHeight="1" s="191"/>
-    <row r="686" ht="15.75" customHeight="1" s="191"/>
-    <row r="687" ht="15.75" customHeight="1" s="191"/>
-    <row r="688" ht="15.75" customHeight="1" s="191"/>
-    <row r="689" ht="15.75" customHeight="1" s="191"/>
-    <row r="690" ht="15.75" customHeight="1" s="191"/>
-    <row r="691" ht="15.75" customHeight="1" s="191"/>
-    <row r="692" ht="15.75" customHeight="1" s="191"/>
-    <row r="693" ht="15.75" customHeight="1" s="191"/>
-    <row r="694" ht="15.75" customHeight="1" s="191"/>
-    <row r="695" ht="15.75" customHeight="1" s="191"/>
-    <row r="696" ht="15.75" customHeight="1" s="191"/>
-    <row r="697" ht="15.75" customHeight="1" s="191"/>
-    <row r="698" ht="15.75" customHeight="1" s="191"/>
-    <row r="699" ht="15.75" customHeight="1" s="191"/>
-    <row r="700" ht="15.75" customHeight="1" s="191"/>
-    <row r="701" ht="15.75" customHeight="1" s="191"/>
-    <row r="702" ht="15.75" customHeight="1" s="191"/>
-    <row r="703" ht="15.75" customHeight="1" s="191"/>
-    <row r="704" ht="15.75" customHeight="1" s="191"/>
-    <row r="705" ht="15.75" customHeight="1" s="191"/>
-    <row r="706" ht="15.75" customHeight="1" s="191"/>
-    <row r="707" ht="15.75" customHeight="1" s="191"/>
-    <row r="708" ht="15.75" customHeight="1" s="191"/>
-    <row r="709" ht="15.75" customHeight="1" s="191"/>
-    <row r="710" ht="15.75" customHeight="1" s="191"/>
-    <row r="711" ht="15.75" customHeight="1" s="191"/>
-    <row r="712" ht="15.75" customHeight="1" s="191"/>
-    <row r="713" ht="15.75" customHeight="1" s="191"/>
-    <row r="714" ht="15.75" customHeight="1" s="191"/>
-    <row r="715" ht="15.75" customHeight="1" s="191"/>
-    <row r="716" ht="15.75" customHeight="1" s="191"/>
-    <row r="717" ht="15.75" customHeight="1" s="191"/>
-    <row r="718" ht="15.75" customHeight="1" s="191"/>
-    <row r="719" ht="15.75" customHeight="1" s="191"/>
-    <row r="720" ht="15.75" customHeight="1" s="191"/>
-    <row r="721" ht="15.75" customHeight="1" s="191"/>
-    <row r="722" ht="15.75" customHeight="1" s="191"/>
-    <row r="723" ht="15.75" customHeight="1" s="191"/>
-    <row r="724" ht="15.75" customHeight="1" s="191"/>
-    <row r="725" ht="15.75" customHeight="1" s="191"/>
-    <row r="726" ht="15.75" customHeight="1" s="191"/>
-    <row r="727" ht="15.75" customHeight="1" s="191"/>
-    <row r="728" ht="15.75" customHeight="1" s="191"/>
-    <row r="729" ht="15.75" customHeight="1" s="191"/>
-    <row r="730" ht="15.75" customHeight="1" s="191"/>
-    <row r="731" ht="15.75" customHeight="1" s="191"/>
-    <row r="732" ht="15.75" customHeight="1" s="191"/>
-    <row r="733" ht="15.75" customHeight="1" s="191"/>
-    <row r="734" ht="15.75" customHeight="1" s="191"/>
-    <row r="735" ht="15.75" customHeight="1" s="191"/>
-    <row r="736" ht="15.75" customHeight="1" s="191"/>
-    <row r="737" ht="15.75" customHeight="1" s="191"/>
-    <row r="738" ht="15.75" customHeight="1" s="191"/>
-    <row r="739" ht="15.75" customHeight="1" s="191"/>
-    <row r="740" ht="15.75" customHeight="1" s="191"/>
-    <row r="741" ht="15.75" customHeight="1" s="191"/>
-    <row r="742" ht="15.75" customHeight="1" s="191"/>
-    <row r="743" ht="15.75" customHeight="1" s="191"/>
-    <row r="744" ht="15.75" customHeight="1" s="191"/>
-    <row r="745" ht="15.75" customHeight="1" s="191"/>
-    <row r="746" ht="15.75" customHeight="1" s="191"/>
-    <row r="747" ht="15.75" customHeight="1" s="191"/>
-    <row r="748" ht="15.75" customHeight="1" s="191"/>
-    <row r="749" ht="15.75" customHeight="1" s="191"/>
-    <row r="750" ht="15.75" customHeight="1" s="191"/>
-    <row r="751" ht="15.75" customHeight="1" s="191"/>
-    <row r="752" ht="15.75" customHeight="1" s="191"/>
-    <row r="753" ht="15.75" customHeight="1" s="191"/>
-    <row r="754" ht="15.75" customHeight="1" s="191"/>
-    <row r="755" ht="15.75" customHeight="1" s="191"/>
-    <row r="756" ht="15.75" customHeight="1" s="191"/>
-    <row r="757" ht="15.75" customHeight="1" s="191"/>
-    <row r="758" ht="15.75" customHeight="1" s="191"/>
-    <row r="759" ht="15.75" customHeight="1" s="191"/>
-    <row r="760" ht="15.75" customHeight="1" s="191"/>
-    <row r="761" ht="15.75" customHeight="1" s="191"/>
-    <row r="762" ht="15.75" customHeight="1" s="191"/>
-    <row r="763" ht="15.75" customHeight="1" s="191"/>
-    <row r="764" ht="15.75" customHeight="1" s="191"/>
-    <row r="765" ht="15.75" customHeight="1" s="191"/>
-    <row r="766" ht="15.75" customHeight="1" s="191"/>
-    <row r="767" ht="15.75" customHeight="1" s="191"/>
-    <row r="768" ht="15.75" customHeight="1" s="191"/>
-    <row r="769" ht="15.75" customHeight="1" s="191"/>
-    <row r="770" ht="15.75" customHeight="1" s="191"/>
-    <row r="771" ht="15.75" customHeight="1" s="191"/>
-    <row r="772" ht="15.75" customHeight="1" s="191"/>
-    <row r="773" ht="15.75" customHeight="1" s="191"/>
-    <row r="774" ht="15.75" customHeight="1" s="191"/>
-    <row r="775" ht="15.75" customHeight="1" s="191"/>
-    <row r="776" ht="15.75" customHeight="1" s="191"/>
-    <row r="777" ht="15.75" customHeight="1" s="191"/>
-    <row r="778" ht="15.75" customHeight="1" s="191"/>
-    <row r="779" ht="15.75" customHeight="1" s="191"/>
-    <row r="780" ht="15.75" customHeight="1" s="191"/>
-    <row r="781" ht="15.75" customHeight="1" s="191"/>
-    <row r="782" ht="15.75" customHeight="1" s="191"/>
-    <row r="783" ht="15.75" customHeight="1" s="191"/>
-    <row r="784" ht="15.75" customHeight="1" s="191"/>
-    <row r="785" ht="15.75" customHeight="1" s="191"/>
-    <row r="786" ht="15.75" customHeight="1" s="191"/>
-    <row r="787" ht="15.75" customHeight="1" s="191"/>
-    <row r="788" ht="15.75" customHeight="1" s="191"/>
-    <row r="789" ht="15.75" customHeight="1" s="191"/>
-    <row r="790" ht="15.75" customHeight="1" s="191"/>
-    <row r="791" ht="15.75" customHeight="1" s="191"/>
-    <row r="792" ht="15.75" customHeight="1" s="191"/>
-    <row r="793" ht="15.75" customHeight="1" s="191"/>
-    <row r="794" ht="15.75" customHeight="1" s="191"/>
-    <row r="795" ht="15.75" customHeight="1" s="191"/>
-    <row r="796" ht="15.75" customHeight="1" s="191"/>
-    <row r="797" ht="15.75" customHeight="1" s="191"/>
-    <row r="798" ht="15.75" customHeight="1" s="191"/>
-    <row r="799" ht="15.75" customHeight="1" s="191"/>
-    <row r="800" ht="15.75" customHeight="1" s="191"/>
-    <row r="801" ht="15.75" customHeight="1" s="191"/>
-    <row r="802" ht="15.75" customHeight="1" s="191"/>
-    <row r="803" ht="15.75" customHeight="1" s="191"/>
-    <row r="804" ht="15.75" customHeight="1" s="191"/>
-    <row r="805" ht="15.75" customHeight="1" s="191"/>
-    <row r="806" ht="15.75" customHeight="1" s="191"/>
-    <row r="807" ht="15.75" customHeight="1" s="191"/>
-    <row r="808" ht="15.75" customHeight="1" s="191"/>
-    <row r="809" ht="15.75" customHeight="1" s="191"/>
-    <row r="810" ht="15.75" customHeight="1" s="191"/>
-    <row r="811" ht="15.75" customHeight="1" s="191"/>
-    <row r="812" ht="15.75" customHeight="1" s="191"/>
-    <row r="813" ht="15.75" customHeight="1" s="191"/>
-    <row r="814" ht="15.75" customHeight="1" s="191"/>
-    <row r="815" ht="15.75" customHeight="1" s="191"/>
-    <row r="816" ht="15.75" customHeight="1" s="191"/>
-    <row r="817" ht="15.75" customHeight="1" s="191"/>
-    <row r="818" ht="15.75" customHeight="1" s="191"/>
-    <row r="819" ht="15.75" customHeight="1" s="191"/>
-    <row r="820" ht="15.75" customHeight="1" s="191"/>
-    <row r="821" ht="15.75" customHeight="1" s="191"/>
-    <row r="822" ht="15.75" customHeight="1" s="191"/>
-    <row r="823" ht="15.75" customHeight="1" s="191"/>
-    <row r="824" ht="15.75" customHeight="1" s="191"/>
-    <row r="825" ht="15.75" customHeight="1" s="191"/>
-    <row r="826" ht="15.75" customHeight="1" s="191"/>
-    <row r="827" ht="15.75" customHeight="1" s="191"/>
-    <row r="828" ht="15.75" customHeight="1" s="191"/>
-    <row r="829" ht="15.75" customHeight="1" s="191"/>
-    <row r="830" ht="15.75" customHeight="1" s="191"/>
-    <row r="831" ht="15.75" customHeight="1" s="191"/>
-    <row r="832" ht="15.75" customHeight="1" s="191"/>
-    <row r="833" ht="15.75" customHeight="1" s="191"/>
-    <row r="834" ht="15.75" customHeight="1" s="191"/>
-    <row r="835" ht="15.75" customHeight="1" s="191"/>
-    <row r="836" ht="15.75" customHeight="1" s="191"/>
-    <row r="837" ht="15.75" customHeight="1" s="191"/>
-    <row r="838" ht="15.75" customHeight="1" s="191"/>
-    <row r="839" ht="15.75" customHeight="1" s="191"/>
-    <row r="840" ht="15.75" customHeight="1" s="191"/>
-    <row r="841" ht="15.75" customHeight="1" s="191"/>
-    <row r="842" ht="15.75" customHeight="1" s="191"/>
-    <row r="843" ht="15.75" customHeight="1" s="191"/>
-    <row r="844" ht="15.75" customHeight="1" s="191"/>
-    <row r="845" ht="15.75" customHeight="1" s="191"/>
-    <row r="846" ht="15.75" customHeight="1" s="191"/>
-    <row r="847" ht="15.75" customHeight="1" s="191"/>
-    <row r="848" ht="15.75" customHeight="1" s="191"/>
-    <row r="849" ht="15.75" customHeight="1" s="191"/>
-    <row r="850" ht="15.75" customHeight="1" s="191"/>
-    <row r="851" ht="15.75" customHeight="1" s="191"/>
-    <row r="852" ht="15.75" customHeight="1" s="191"/>
-    <row r="853" ht="15.75" customHeight="1" s="191"/>
-    <row r="854" ht="15.75" customHeight="1" s="191"/>
-    <row r="855" ht="15.75" customHeight="1" s="191"/>
-    <row r="856" ht="15.75" customHeight="1" s="191"/>
-    <row r="857" ht="15.75" customHeight="1" s="191"/>
-    <row r="858" ht="15.75" customHeight="1" s="191"/>
-    <row r="859" ht="15.75" customHeight="1" s="191"/>
-    <row r="860" ht="15.75" customHeight="1" s="191"/>
-    <row r="861" ht="15.75" customHeight="1" s="191"/>
-    <row r="862" ht="15.75" customHeight="1" s="191"/>
-    <row r="863" ht="15.75" customHeight="1" s="191"/>
-    <row r="864" ht="15.75" customHeight="1" s="191"/>
-    <row r="865" ht="15.75" customHeight="1" s="191"/>
-    <row r="866" ht="15.75" customHeight="1" s="191"/>
-    <row r="867" ht="15.75" customHeight="1" s="191"/>
-    <row r="868" ht="15.75" customHeight="1" s="191"/>
-    <row r="869" ht="15.75" customHeight="1" s="191"/>
-    <row r="870" ht="15.75" customHeight="1" s="191"/>
-    <row r="871" ht="15.75" customHeight="1" s="191"/>
-    <row r="872" ht="15.75" customHeight="1" s="191"/>
-    <row r="873" ht="15.75" customHeight="1" s="191"/>
-    <row r="874" ht="15.75" customHeight="1" s="191"/>
-    <row r="875" ht="15.75" customHeight="1" s="191"/>
-    <row r="876" ht="15.75" customHeight="1" s="191"/>
-    <row r="877" ht="15.75" customHeight="1" s="191"/>
-    <row r="878" ht="15.75" customHeight="1" s="191"/>
-    <row r="879" ht="15.75" customHeight="1" s="191"/>
-    <row r="880" ht="15.75" customHeight="1" s="191"/>
-    <row r="881" ht="15.75" customHeight="1" s="191"/>
-    <row r="882" ht="15.75" customHeight="1" s="191"/>
-    <row r="883" ht="15.75" customHeight="1" s="191"/>
-    <row r="884" ht="15.75" customHeight="1" s="191"/>
-    <row r="885" ht="15.75" customHeight="1" s="191"/>
-    <row r="886" ht="15.75" customHeight="1" s="191"/>
-    <row r="887" ht="15.75" customHeight="1" s="191"/>
-    <row r="888" ht="15.75" customHeight="1" s="191"/>
-    <row r="889" ht="15.75" customHeight="1" s="191"/>
-    <row r="890" ht="15.75" customHeight="1" s="191"/>
-    <row r="891" ht="15.75" customHeight="1" s="191"/>
-    <row r="892" ht="15.75" customHeight="1" s="191"/>
-    <row r="893" ht="15.75" customHeight="1" s="191"/>
-    <row r="894" ht="15.75" customHeight="1" s="191"/>
-    <row r="895" ht="15.75" customHeight="1" s="191"/>
-    <row r="896" ht="15.75" customHeight="1" s="191"/>
-    <row r="897" ht="15.75" customHeight="1" s="191"/>
-    <row r="898" ht="15.75" customHeight="1" s="191"/>
-    <row r="899" ht="15.75" customHeight="1" s="191"/>
-    <row r="900" ht="15.75" customHeight="1" s="191"/>
-    <row r="901" ht="15.75" customHeight="1" s="191"/>
-    <row r="902" ht="15.75" customHeight="1" s="191"/>
-    <row r="903" ht="15.75" customHeight="1" s="191"/>
-    <row r="904" ht="15.75" customHeight="1" s="191"/>
-    <row r="905" ht="15.75" customHeight="1" s="191"/>
-    <row r="906" ht="15.75" customHeight="1" s="191"/>
-    <row r="907" ht="15.75" customHeight="1" s="191"/>
-    <row r="908" ht="15.75" customHeight="1" s="191"/>
-    <row r="909" ht="15.75" customHeight="1" s="191"/>
-    <row r="910" ht="15.75" customHeight="1" s="191"/>
-    <row r="911" ht="15.75" customHeight="1" s="191"/>
-    <row r="912" ht="15.75" customHeight="1" s="191"/>
-    <row r="913" ht="15.75" customHeight="1" s="191"/>
-    <row r="914" ht="15.75" customHeight="1" s="191"/>
-    <row r="915" ht="15.75" customHeight="1" s="191"/>
-    <row r="916" ht="15.75" customHeight="1" s="191"/>
-    <row r="917" ht="15.75" customHeight="1" s="191"/>
-    <row r="918" ht="15.75" customHeight="1" s="191"/>
-    <row r="919" ht="15.75" customHeight="1" s="191"/>
-    <row r="920" ht="15.75" customHeight="1" s="191"/>
-    <row r="921" ht="15.75" customHeight="1" s="191"/>
-    <row r="922" ht="15.75" customHeight="1" s="191"/>
-    <row r="923" ht="15.75" customHeight="1" s="191"/>
-    <row r="924" ht="15.75" customHeight="1" s="191"/>
-    <row r="925" ht="15.75" customHeight="1" s="191"/>
-    <row r="926" ht="15.75" customHeight="1" s="191"/>
-    <row r="927" ht="15.75" customHeight="1" s="191"/>
-    <row r="928" ht="15.75" customHeight="1" s="191"/>
-    <row r="929" ht="15.75" customHeight="1" s="191"/>
-    <row r="930" ht="15.75" customHeight="1" s="191"/>
-    <row r="931" ht="15.75" customHeight="1" s="191"/>
-    <row r="932" ht="15.75" customHeight="1" s="191"/>
-    <row r="933" ht="15.75" customHeight="1" s="191"/>
-    <row r="934" ht="15.75" customHeight="1" s="191"/>
-    <row r="935" ht="15.75" customHeight="1" s="191"/>
-    <row r="936" ht="15.75" customHeight="1" s="191"/>
-    <row r="937" ht="15.75" customHeight="1" s="191"/>
-    <row r="938" ht="15.75" customHeight="1" s="191"/>
-    <row r="939" ht="15.75" customHeight="1" s="191"/>
-    <row r="940" ht="15.75" customHeight="1" s="191"/>
-    <row r="941" ht="15.75" customHeight="1" s="191"/>
-    <row r="942" ht="15.75" customHeight="1" s="191"/>
-    <row r="943" ht="15.75" customHeight="1" s="191"/>
-    <row r="944" ht="15.75" customHeight="1" s="191"/>
-    <row r="945" ht="15.75" customHeight="1" s="191"/>
-    <row r="946" ht="15.75" customHeight="1" s="191"/>
-    <row r="947" ht="15.75" customHeight="1" s="191"/>
-    <row r="948" ht="15.75" customHeight="1" s="191"/>
-    <row r="949" ht="15.75" customHeight="1" s="191"/>
-    <row r="950" ht="15.75" customHeight="1" s="191"/>
-    <row r="951" ht="15.75" customHeight="1" s="191"/>
-    <row r="952" ht="15.75" customHeight="1" s="191"/>
-    <row r="953" ht="15.75" customHeight="1" s="191"/>
-    <row r="954" ht="15.75" customHeight="1" s="191"/>
-    <row r="955" ht="15.75" customHeight="1" s="191"/>
-    <row r="956" ht="15.75" customHeight="1" s="191"/>
-    <row r="957" ht="15.75" customHeight="1" s="191"/>
-    <row r="958" ht="15.75" customHeight="1" s="191"/>
-    <row r="959" ht="15.75" customHeight="1" s="191"/>
-    <row r="960" ht="15.75" customHeight="1" s="191"/>
-    <row r="961" ht="15.75" customHeight="1" s="191"/>
-    <row r="962" ht="15.75" customHeight="1" s="191"/>
-    <row r="963" ht="15.75" customHeight="1" s="191"/>
-    <row r="964" ht="15.75" customHeight="1" s="191"/>
-    <row r="965" ht="15.75" customHeight="1" s="191"/>
-    <row r="966" ht="15.75" customHeight="1" s="191"/>
-    <row r="967" ht="15.75" customHeight="1" s="191"/>
-    <row r="968" ht="15.75" customHeight="1" s="191"/>
-    <row r="969" ht="15.75" customHeight="1" s="191"/>
-    <row r="970" ht="15.75" customHeight="1" s="191"/>
-    <row r="971" ht="15.75" customHeight="1" s="191"/>
-    <row r="972" ht="15.75" customHeight="1" s="191"/>
-    <row r="973" ht="15.75" customHeight="1" s="191"/>
-    <row r="974" ht="15.75" customHeight="1" s="191"/>
-    <row r="975" ht="15.75" customHeight="1" s="191"/>
-    <row r="976" ht="15.75" customHeight="1" s="191"/>
-    <row r="977" ht="15.75" customHeight="1" s="191"/>
-    <row r="978" ht="15.75" customHeight="1" s="191"/>
-    <row r="979" ht="15.75" customHeight="1" s="191"/>
-    <row r="980" ht="15.75" customHeight="1" s="191"/>
-    <row r="981" ht="15.75" customHeight="1" s="191"/>
-    <row r="982" ht="15.75" customHeight="1" s="191"/>
-    <row r="983" ht="15.75" customHeight="1" s="191"/>
-    <row r="984" ht="15.75" customHeight="1" s="191"/>
-    <row r="985" ht="15.75" customHeight="1" s="191"/>
-    <row r="986" ht="15.75" customHeight="1" s="191"/>
-    <row r="987" ht="15.75" customHeight="1" s="191"/>
-    <row r="988" ht="15.75" customHeight="1" s="191"/>
-    <row r="989" ht="15.75" customHeight="1" s="191"/>
-    <row r="990" ht="15.75" customHeight="1" s="191"/>
-    <row r="991" ht="15.75" customHeight="1" s="191"/>
-    <row r="992" ht="15.75" customHeight="1" s="191"/>
-    <row r="993" ht="15.75" customHeight="1" s="191"/>
-    <row r="994" ht="15.75" customHeight="1" s="191"/>
-    <row r="995" ht="15.75" customHeight="1" s="191"/>
-    <row r="996" ht="15.75" customHeight="1" s="191"/>
-    <row r="997" ht="15.75" customHeight="1" s="191"/>
-    <row r="998" ht="15.75" customHeight="1" s="191"/>
-    <row r="999" ht="15.75" customHeight="1" s="191"/>
-    <row r="1000" ht="15.75" customHeight="1" s="191"/>
+      <c r="D65" s="225" t="n"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1" s="202"/>
+    <row r="67" ht="15.75" customHeight="1" s="202"/>
+    <row r="68" ht="15.75" customHeight="1" s="202"/>
+    <row r="69" ht="15.75" customHeight="1" s="202"/>
+    <row r="70" ht="15.75" customHeight="1" s="202"/>
+    <row r="71" ht="15.75" customHeight="1" s="202"/>
+    <row r="72" ht="15.75" customHeight="1" s="202"/>
+    <row r="73" ht="15.75" customHeight="1" s="202"/>
+    <row r="74" ht="15.75" customHeight="1" s="202"/>
+    <row r="75" ht="15.75" customHeight="1" s="202"/>
+    <row r="76" ht="15.75" customHeight="1" s="202"/>
+    <row r="77" ht="15.75" customHeight="1" s="202"/>
+    <row r="78" ht="15.75" customHeight="1" s="202"/>
+    <row r="79" ht="15.75" customHeight="1" s="202"/>
+    <row r="80" ht="15.75" customHeight="1" s="202"/>
+    <row r="81" ht="15.75" customHeight="1" s="202"/>
+    <row r="82" ht="15.75" customHeight="1" s="202"/>
+    <row r="83" ht="15.75" customHeight="1" s="202"/>
+    <row r="84" ht="15.75" customHeight="1" s="202"/>
+    <row r="85" ht="15.75" customHeight="1" s="202"/>
+    <row r="86" ht="15.75" customHeight="1" s="202"/>
+    <row r="87" ht="15.75" customHeight="1" s="202"/>
+    <row r="88" ht="15.75" customHeight="1" s="202"/>
+    <row r="89" ht="15.75" customHeight="1" s="202"/>
+    <row r="90" ht="15.75" customHeight="1" s="202"/>
+    <row r="91" ht="15.75" customHeight="1" s="202"/>
+    <row r="92" ht="15.75" customHeight="1" s="202"/>
+    <row r="93" ht="15.75" customHeight="1" s="202"/>
+    <row r="94" ht="15.75" customHeight="1" s="202"/>
+    <row r="95" ht="15.75" customHeight="1" s="202"/>
+    <row r="96" ht="15.75" customHeight="1" s="202"/>
+    <row r="97" ht="15.75" customHeight="1" s="202"/>
+    <row r="98" ht="15.75" customHeight="1" s="202"/>
+    <row r="99" ht="15.75" customHeight="1" s="202"/>
+    <row r="100" ht="15.75" customHeight="1" s="202"/>
+    <row r="101" ht="15.75" customHeight="1" s="202"/>
+    <row r="102" ht="15.75" customHeight="1" s="202"/>
+    <row r="103" ht="15.75" customHeight="1" s="202"/>
+    <row r="104" ht="15.75" customHeight="1" s="202"/>
+    <row r="105" ht="15.75" customHeight="1" s="202"/>
+    <row r="106" ht="15.75" customHeight="1" s="202"/>
+    <row r="107" ht="15.75" customHeight="1" s="202"/>
+    <row r="108" ht="15.75" customHeight="1" s="202"/>
+    <row r="109" ht="15.75" customHeight="1" s="202"/>
+    <row r="110" ht="15.75" customHeight="1" s="202"/>
+    <row r="111" ht="15.75" customHeight="1" s="202"/>
+    <row r="112" ht="15.75" customHeight="1" s="202"/>
+    <row r="113" ht="15.75" customHeight="1" s="202"/>
+    <row r="114" ht="15.75" customHeight="1" s="202"/>
+    <row r="115" ht="15.75" customHeight="1" s="202"/>
+    <row r="116" ht="15.75" customHeight="1" s="202"/>
+    <row r="117" ht="15.75" customHeight="1" s="202"/>
+    <row r="118" ht="15.75" customHeight="1" s="202"/>
+    <row r="119" ht="15.75" customHeight="1" s="202"/>
+    <row r="120" ht="15.75" customHeight="1" s="202"/>
+    <row r="121" ht="15.75" customHeight="1" s="202"/>
+    <row r="122" ht="15.75" customHeight="1" s="202"/>
+    <row r="123" ht="15.75" customHeight="1" s="202"/>
+    <row r="124" ht="15.75" customHeight="1" s="202"/>
+    <row r="125" ht="15.75" customHeight="1" s="202"/>
+    <row r="126" ht="15.75" customHeight="1" s="202"/>
+    <row r="127" ht="15.75" customHeight="1" s="202"/>
+    <row r="128" ht="15.75" customHeight="1" s="202"/>
+    <row r="129" ht="15.75" customHeight="1" s="202"/>
+    <row r="130" ht="15.75" customHeight="1" s="202"/>
+    <row r="131" ht="15.75" customHeight="1" s="202"/>
+    <row r="132" ht="15.75" customHeight="1" s="202"/>
+    <row r="133" ht="15.75" customHeight="1" s="202"/>
+    <row r="134" ht="15.75" customHeight="1" s="202"/>
+    <row r="135" ht="15.75" customHeight="1" s="202"/>
+    <row r="136" ht="15.75" customHeight="1" s="202"/>
+    <row r="137" ht="15.75" customHeight="1" s="202"/>
+    <row r="138" ht="15.75" customHeight="1" s="202"/>
+    <row r="139" ht="15.75" customHeight="1" s="202"/>
+    <row r="140" ht="15.75" customHeight="1" s="202"/>
+    <row r="141" ht="15.75" customHeight="1" s="202"/>
+    <row r="142" ht="15.75" customHeight="1" s="202"/>
+    <row r="143" ht="15.75" customHeight="1" s="202"/>
+    <row r="144" ht="15.75" customHeight="1" s="202"/>
+    <row r="145" ht="15.75" customHeight="1" s="202"/>
+    <row r="146" ht="15.75" customHeight="1" s="202"/>
+    <row r="147" ht="15.75" customHeight="1" s="202"/>
+    <row r="148" ht="15.75" customHeight="1" s="202"/>
+    <row r="149" ht="15.75" customHeight="1" s="202"/>
+    <row r="150" ht="15.75" customHeight="1" s="202"/>
+    <row r="151" ht="15.75" customHeight="1" s="202"/>
+    <row r="152" ht="15.75" customHeight="1" s="202"/>
+    <row r="153" ht="15.75" customHeight="1" s="202"/>
+    <row r="154" ht="15.75" customHeight="1" s="202"/>
+    <row r="155" ht="15.75" customHeight="1" s="202"/>
+    <row r="156" ht="15.75" customHeight="1" s="202"/>
+    <row r="157" ht="15.75" customHeight="1" s="202"/>
+    <row r="158" ht="15.75" customHeight="1" s="202"/>
+    <row r="159" ht="15.75" customHeight="1" s="202"/>
+    <row r="160" ht="15.75" customHeight="1" s="202"/>
+    <row r="161" ht="15.75" customHeight="1" s="202"/>
+    <row r="162" ht="15.75" customHeight="1" s="202"/>
+    <row r="163" ht="15.75" customHeight="1" s="202"/>
+    <row r="164" ht="15.75" customHeight="1" s="202"/>
+    <row r="165" ht="15.75" customHeight="1" s="202"/>
+    <row r="166" ht="15.75" customHeight="1" s="202"/>
+    <row r="167" ht="15.75" customHeight="1" s="202"/>
+    <row r="168" ht="15.75" customHeight="1" s="202"/>
+    <row r="169" ht="15.75" customHeight="1" s="202"/>
+    <row r="170" ht="15.75" customHeight="1" s="202"/>
+    <row r="171" ht="15.75" customHeight="1" s="202"/>
+    <row r="172" ht="15.75" customHeight="1" s="202"/>
+    <row r="173" ht="15.75" customHeight="1" s="202"/>
+    <row r="174" ht="15.75" customHeight="1" s="202"/>
+    <row r="175" ht="15.75" customHeight="1" s="202"/>
+    <row r="176" ht="15.75" customHeight="1" s="202"/>
+    <row r="177" ht="15.75" customHeight="1" s="202"/>
+    <row r="178" ht="15.75" customHeight="1" s="202"/>
+    <row r="179" ht="15.75" customHeight="1" s="202"/>
+    <row r="180" ht="15.75" customHeight="1" s="202"/>
+    <row r="181" ht="15.75" customHeight="1" s="202"/>
+    <row r="182" ht="15.75" customHeight="1" s="202"/>
+    <row r="183" ht="15.75" customHeight="1" s="202"/>
+    <row r="184" ht="15.75" customHeight="1" s="202"/>
+    <row r="185" ht="15.75" customHeight="1" s="202"/>
+    <row r="186" ht="15.75" customHeight="1" s="202"/>
+    <row r="187" ht="15.75" customHeight="1" s="202"/>
+    <row r="188" ht="15.75" customHeight="1" s="202"/>
+    <row r="189" ht="15.75" customHeight="1" s="202"/>
+    <row r="190" ht="15.75" customHeight="1" s="202"/>
+    <row r="191" ht="15.75" customHeight="1" s="202"/>
+    <row r="192" ht="15.75" customHeight="1" s="202"/>
+    <row r="193" ht="15.75" customHeight="1" s="202"/>
+    <row r="194" ht="15.75" customHeight="1" s="202"/>
+    <row r="195" ht="15.75" customHeight="1" s="202"/>
+    <row r="196" ht="15.75" customHeight="1" s="202"/>
+    <row r="197" ht="15.75" customHeight="1" s="202"/>
+    <row r="198" ht="15.75" customHeight="1" s="202"/>
+    <row r="199" ht="15.75" customHeight="1" s="202"/>
+    <row r="200" ht="15.75" customHeight="1" s="202"/>
+    <row r="201" ht="15.75" customHeight="1" s="202"/>
+    <row r="202" ht="15.75" customHeight="1" s="202"/>
+    <row r="203" ht="15.75" customHeight="1" s="202"/>
+    <row r="204" ht="15.75" customHeight="1" s="202"/>
+    <row r="205" ht="15.75" customHeight="1" s="202"/>
+    <row r="206" ht="15.75" customHeight="1" s="202"/>
+    <row r="207" ht="15.75" customHeight="1" s="202"/>
+    <row r="208" ht="15.75" customHeight="1" s="202"/>
+    <row r="209" ht="15.75" customHeight="1" s="202"/>
+    <row r="210" ht="15.75" customHeight="1" s="202"/>
+    <row r="211" ht="15.75" customHeight="1" s="202"/>
+    <row r="212" ht="15.75" customHeight="1" s="202"/>
+    <row r="213" ht="15.75" customHeight="1" s="202"/>
+    <row r="214" ht="15.75" customHeight="1" s="202"/>
+    <row r="215" ht="15.75" customHeight="1" s="202"/>
+    <row r="216" ht="15.75" customHeight="1" s="202"/>
+    <row r="217" ht="15.75" customHeight="1" s="202"/>
+    <row r="218" ht="15.75" customHeight="1" s="202"/>
+    <row r="219" ht="15.75" customHeight="1" s="202"/>
+    <row r="220" ht="15.75" customHeight="1" s="202"/>
+    <row r="221" ht="15.75" customHeight="1" s="202"/>
+    <row r="222" ht="15.75" customHeight="1" s="202"/>
+    <row r="223" ht="15.75" customHeight="1" s="202"/>
+    <row r="224" ht="15.75" customHeight="1" s="202"/>
+    <row r="225" ht="15.75" customHeight="1" s="202"/>
+    <row r="226" ht="15.75" customHeight="1" s="202"/>
+    <row r="227" ht="15.75" customHeight="1" s="202"/>
+    <row r="228" ht="15.75" customHeight="1" s="202"/>
+    <row r="229" ht="15.75" customHeight="1" s="202"/>
+    <row r="230" ht="15.75" customHeight="1" s="202"/>
+    <row r="231" ht="15.75" customHeight="1" s="202"/>
+    <row r="232" ht="15.75" customHeight="1" s="202"/>
+    <row r="233" ht="15.75" customHeight="1" s="202"/>
+    <row r="234" ht="15.75" customHeight="1" s="202"/>
+    <row r="235" ht="15.75" customHeight="1" s="202"/>
+    <row r="236" ht="15.75" customHeight="1" s="202"/>
+    <row r="237" ht="15.75" customHeight="1" s="202"/>
+    <row r="238" ht="15.75" customHeight="1" s="202"/>
+    <row r="239" ht="15.75" customHeight="1" s="202"/>
+    <row r="240" ht="15.75" customHeight="1" s="202"/>
+    <row r="241" ht="15.75" customHeight="1" s="202"/>
+    <row r="242" ht="15.75" customHeight="1" s="202"/>
+    <row r="243" ht="15.75" customHeight="1" s="202"/>
+    <row r="244" ht="15.75" customHeight="1" s="202"/>
+    <row r="245" ht="15.75" customHeight="1" s="202"/>
+    <row r="246" ht="15.75" customHeight="1" s="202"/>
+    <row r="247" ht="15.75" customHeight="1" s="202"/>
+    <row r="248" ht="15.75" customHeight="1" s="202"/>
+    <row r="249" ht="15.75" customHeight="1" s="202"/>
+    <row r="250" ht="15.75" customHeight="1" s="202"/>
+    <row r="251" ht="15.75" customHeight="1" s="202"/>
+    <row r="252" ht="15.75" customHeight="1" s="202"/>
+    <row r="253" ht="15.75" customHeight="1" s="202"/>
+    <row r="254" ht="15.75" customHeight="1" s="202"/>
+    <row r="255" ht="15.75" customHeight="1" s="202"/>
+    <row r="256" ht="15.75" customHeight="1" s="202"/>
+    <row r="257" ht="15.75" customHeight="1" s="202"/>
+    <row r="258" ht="15.75" customHeight="1" s="202"/>
+    <row r="259" ht="15.75" customHeight="1" s="202"/>
+    <row r="260" ht="15.75" customHeight="1" s="202"/>
+    <row r="261" ht="15.75" customHeight="1" s="202"/>
+    <row r="262" ht="15.75" customHeight="1" s="202"/>
+    <row r="263" ht="15.75" customHeight="1" s="202"/>
+    <row r="264" ht="15.75" customHeight="1" s="202"/>
+    <row r="265" ht="15.75" customHeight="1" s="202"/>
+    <row r="266" ht="15.75" customHeight="1" s="202"/>
+    <row r="267" ht="15.75" customHeight="1" s="202"/>
+    <row r="268" ht="15.75" customHeight="1" s="202"/>
+    <row r="269" ht="15.75" customHeight="1" s="202"/>
+    <row r="270" ht="15.75" customHeight="1" s="202"/>
+    <row r="271" ht="15.75" customHeight="1" s="202"/>
+    <row r="272" ht="15.75" customHeight="1" s="202"/>
+    <row r="273" ht="15.75" customHeight="1" s="202"/>
+    <row r="274" ht="15.75" customHeight="1" s="202"/>
+    <row r="275" ht="15.75" customHeight="1" s="202"/>
+    <row r="276" ht="15.75" customHeight="1" s="202"/>
+    <row r="277" ht="15.75" customHeight="1" s="202"/>
+    <row r="278" ht="15.75" customHeight="1" s="202"/>
+    <row r="279" ht="15.75" customHeight="1" s="202"/>
+    <row r="280" ht="15.75" customHeight="1" s="202"/>
+    <row r="281" ht="15.75" customHeight="1" s="202"/>
+    <row r="282" ht="15.75" customHeight="1" s="202"/>
+    <row r="283" ht="15.75" customHeight="1" s="202"/>
+    <row r="284" ht="15.75" customHeight="1" s="202"/>
+    <row r="285" ht="15.75" customHeight="1" s="202"/>
+    <row r="286" ht="15.75" customHeight="1" s="202"/>
+    <row r="287" ht="15.75" customHeight="1" s="202"/>
+    <row r="288" ht="15.75" customHeight="1" s="202"/>
+    <row r="289" ht="15.75" customHeight="1" s="202"/>
+    <row r="290" ht="15.75" customHeight="1" s="202"/>
+    <row r="291" ht="15.75" customHeight="1" s="202"/>
+    <row r="292" ht="15.75" customHeight="1" s="202"/>
+    <row r="293" ht="15.75" customHeight="1" s="202"/>
+    <row r="294" ht="15.75" customHeight="1" s="202"/>
+    <row r="295" ht="15.75" customHeight="1" s="202"/>
+    <row r="296" ht="15.75" customHeight="1" s="202"/>
+    <row r="297" ht="15.75" customHeight="1" s="202"/>
+    <row r="298" ht="15.75" customHeight="1" s="202"/>
+    <row r="299" ht="15.75" customHeight="1" s="202"/>
+    <row r="300" ht="15.75" customHeight="1" s="202"/>
+    <row r="301" ht="15.75" customHeight="1" s="202"/>
+    <row r="302" ht="15.75" customHeight="1" s="202"/>
+    <row r="303" ht="15.75" customHeight="1" s="202"/>
+    <row r="304" ht="15.75" customHeight="1" s="202"/>
+    <row r="305" ht="15.75" customHeight="1" s="202"/>
+    <row r="306" ht="15.75" customHeight="1" s="202"/>
+    <row r="307" ht="15.75" customHeight="1" s="202"/>
+    <row r="308" ht="15.75" customHeight="1" s="202"/>
+    <row r="309" ht="15.75" customHeight="1" s="202"/>
+    <row r="310" ht="15.75" customHeight="1" s="202"/>
+    <row r="311" ht="15.75" customHeight="1" s="202"/>
+    <row r="312" ht="15.75" customHeight="1" s="202"/>
+    <row r="313" ht="15.75" customHeight="1" s="202"/>
+    <row r="314" ht="15.75" customHeight="1" s="202"/>
+    <row r="315" ht="15.75" customHeight="1" s="202"/>
+    <row r="316" ht="15.75" customHeight="1" s="202"/>
+    <row r="317" ht="15.75" customHeight="1" s="202"/>
+    <row r="318" ht="15.75" customHeight="1" s="202"/>
+    <row r="319" ht="15.75" customHeight="1" s="202"/>
+    <row r="320" ht="15.75" customHeight="1" s="202"/>
+    <row r="321" ht="15.75" customHeight="1" s="202"/>
+    <row r="322" ht="15.75" customHeight="1" s="202"/>
+    <row r="323" ht="15.75" customHeight="1" s="202"/>
+    <row r="324" ht="15.75" customHeight="1" s="202"/>
+    <row r="325" ht="15.75" customHeight="1" s="202"/>
+    <row r="326" ht="15.75" customHeight="1" s="202"/>
+    <row r="327" ht="15.75" customHeight="1" s="202"/>
+    <row r="328" ht="15.75" customHeight="1" s="202"/>
+    <row r="329" ht="15.75" customHeight="1" s="202"/>
+    <row r="330" ht="15.75" customHeight="1" s="202"/>
+    <row r="331" ht="15.75" customHeight="1" s="202"/>
+    <row r="332" ht="15.75" customHeight="1" s="202"/>
+    <row r="333" ht="15.75" customHeight="1" s="202"/>
+    <row r="334" ht="15.75" customHeight="1" s="202"/>
+    <row r="335" ht="15.75" customHeight="1" s="202"/>
+    <row r="336" ht="15.75" customHeight="1" s="202"/>
+    <row r="337" ht="15.75" customHeight="1" s="202"/>
+    <row r="338" ht="15.75" customHeight="1" s="202"/>
+    <row r="339" ht="15.75" customHeight="1" s="202"/>
+    <row r="340" ht="15.75" customHeight="1" s="202"/>
+    <row r="341" ht="15.75" customHeight="1" s="202"/>
+    <row r="342" ht="15.75" customHeight="1" s="202"/>
+    <row r="343" ht="15.75" customHeight="1" s="202"/>
+    <row r="344" ht="15.75" customHeight="1" s="202"/>
+    <row r="345" ht="15.75" customHeight="1" s="202"/>
+    <row r="346" ht="15.75" customHeight="1" s="202"/>
+    <row r="347" ht="15.75" customHeight="1" s="202"/>
+    <row r="348" ht="15.75" customHeight="1" s="202"/>
+    <row r="349" ht="15.75" customHeight="1" s="202"/>
+    <row r="350" ht="15.75" customHeight="1" s="202"/>
+    <row r="351" ht="15.75" customHeight="1" s="202"/>
+    <row r="352" ht="15.75" customHeight="1" s="202"/>
+    <row r="353" ht="15.75" customHeight="1" s="202"/>
+    <row r="354" ht="15.75" customHeight="1" s="202"/>
+    <row r="355" ht="15.75" customHeight="1" s="202"/>
+    <row r="356" ht="15.75" customHeight="1" s="202"/>
+    <row r="357" ht="15.75" customHeight="1" s="202"/>
+    <row r="358" ht="15.75" customHeight="1" s="202"/>
+    <row r="359" ht="15.75" customHeight="1" s="202"/>
+    <row r="360" ht="15.75" customHeight="1" s="202"/>
+    <row r="361" ht="15.75" customHeight="1" s="202"/>
+    <row r="362" ht="15.75" customHeight="1" s="202"/>
+    <row r="363" ht="15.75" customHeight="1" s="202"/>
+    <row r="364" ht="15.75" customHeight="1" s="202"/>
+    <row r="365" ht="15.75" customHeight="1" s="202"/>
+    <row r="366" ht="15.75" customHeight="1" s="202"/>
+    <row r="367" ht="15.75" customHeight="1" s="202"/>
+    <row r="368" ht="15.75" customHeight="1" s="202"/>
+    <row r="369" ht="15.75" customHeight="1" s="202"/>
+    <row r="370" ht="15.75" customHeight="1" s="202"/>
+    <row r="371" ht="15.75" customHeight="1" s="202"/>
+    <row r="372" ht="15.75" customHeight="1" s="202"/>
+    <row r="373" ht="15.75" customHeight="1" s="202"/>
+    <row r="374" ht="15.75" customHeight="1" s="202"/>
+    <row r="375" ht="15.75" customHeight="1" s="202"/>
+    <row r="376" ht="15.75" customHeight="1" s="202"/>
+    <row r="377" ht="15.75" customHeight="1" s="202"/>
+    <row r="378" ht="15.75" customHeight="1" s="202"/>
+    <row r="379" ht="15.75" customHeight="1" s="202"/>
+    <row r="380" ht="15.75" customHeight="1" s="202"/>
+    <row r="381" ht="15.75" customHeight="1" s="202"/>
+    <row r="382" ht="15.75" customHeight="1" s="202"/>
+    <row r="383" ht="15.75" customHeight="1" s="202"/>
+    <row r="384" ht="15.75" customHeight="1" s="202"/>
+    <row r="385" ht="15.75" customHeight="1" s="202"/>
+    <row r="386" ht="15.75" customHeight="1" s="202"/>
+    <row r="387" ht="15.75" customHeight="1" s="202"/>
+    <row r="388" ht="15.75" customHeight="1" s="202"/>
+    <row r="389" ht="15.75" customHeight="1" s="202"/>
+    <row r="390" ht="15.75" customHeight="1" s="202"/>
+    <row r="391" ht="15.75" customHeight="1" s="202"/>
+    <row r="392" ht="15.75" customHeight="1" s="202"/>
+    <row r="393" ht="15.75" customHeight="1" s="202"/>
+    <row r="394" ht="15.75" customHeight="1" s="202"/>
+    <row r="395" ht="15.75" customHeight="1" s="202"/>
+    <row r="396" ht="15.75" customHeight="1" s="202"/>
+    <row r="397" ht="15.75" customHeight="1" s="202"/>
+    <row r="398" ht="15.75" customHeight="1" s="202"/>
+    <row r="399" ht="15.75" customHeight="1" s="202"/>
+    <row r="400" ht="15.75" customHeight="1" s="202"/>
+    <row r="401" ht="15.75" customHeight="1" s="202"/>
+    <row r="402" ht="15.75" customHeight="1" s="202"/>
+    <row r="403" ht="15.75" customHeight="1" s="202"/>
+    <row r="404" ht="15.75" customHeight="1" s="202"/>
+    <row r="405" ht="15.75" customHeight="1" s="202"/>
+    <row r="406" ht="15.75" customHeight="1" s="202"/>
+    <row r="407" ht="15.75" customHeight="1" s="202"/>
+    <row r="408" ht="15.75" customHeight="1" s="202"/>
+    <row r="409" ht="15.75" customHeight="1" s="202"/>
+    <row r="410" ht="15.75" customHeight="1" s="202"/>
+    <row r="411" ht="15.75" customHeight="1" s="202"/>
+    <row r="412" ht="15.75" customHeight="1" s="202"/>
+    <row r="413" ht="15.75" customHeight="1" s="202"/>
+    <row r="414" ht="15.75" customHeight="1" s="202"/>
+    <row r="415" ht="15.75" customHeight="1" s="202"/>
+    <row r="416" ht="15.75" customHeight="1" s="202"/>
+    <row r="417" ht="15.75" customHeight="1" s="202"/>
+    <row r="418" ht="15.75" customHeight="1" s="202"/>
+    <row r="419" ht="15.75" customHeight="1" s="202"/>
+    <row r="420" ht="15.75" customHeight="1" s="202"/>
+    <row r="421" ht="15.75" customHeight="1" s="202"/>
+    <row r="422" ht="15.75" customHeight="1" s="202"/>
+    <row r="423" ht="15.75" customHeight="1" s="202"/>
+    <row r="424" ht="15.75" customHeight="1" s="202"/>
+    <row r="425" ht="15.75" customHeight="1" s="202"/>
+    <row r="426" ht="15.75" customHeight="1" s="202"/>
+    <row r="427" ht="15.75" customHeight="1" s="202"/>
+    <row r="428" ht="15.75" customHeight="1" s="202"/>
+    <row r="429" ht="15.75" customHeight="1" s="202"/>
+    <row r="430" ht="15.75" customHeight="1" s="202"/>
+    <row r="431" ht="15.75" customHeight="1" s="202"/>
+    <row r="432" ht="15.75" customHeight="1" s="202"/>
+    <row r="433" ht="15.75" customHeight="1" s="202"/>
+    <row r="434" ht="15.75" customHeight="1" s="202"/>
+    <row r="435" ht="15.75" customHeight="1" s="202"/>
+    <row r="436" ht="15.75" customHeight="1" s="202"/>
+    <row r="437" ht="15.75" customHeight="1" s="202"/>
+    <row r="438" ht="15.75" customHeight="1" s="202"/>
+    <row r="439" ht="15.75" customHeight="1" s="202"/>
+    <row r="440" ht="15.75" customHeight="1" s="202"/>
+    <row r="441" ht="15.75" customHeight="1" s="202"/>
+    <row r="442" ht="15.75" customHeight="1" s="202"/>
+    <row r="443" ht="15.75" customHeight="1" s="202"/>
+    <row r="444" ht="15.75" customHeight="1" s="202"/>
+    <row r="445" ht="15.75" customHeight="1" s="202"/>
+    <row r="446" ht="15.75" customHeight="1" s="202"/>
+    <row r="447" ht="15.75" customHeight="1" s="202"/>
+    <row r="448" ht="15.75" customHeight="1" s="202"/>
+    <row r="449" ht="15.75" customHeight="1" s="202"/>
+    <row r="450" ht="15.75" customHeight="1" s="202"/>
+    <row r="451" ht="15.75" customHeight="1" s="202"/>
+    <row r="452" ht="15.75" customHeight="1" s="202"/>
+    <row r="453" ht="15.75" customHeight="1" s="202"/>
+    <row r="454" ht="15.75" customHeight="1" s="202"/>
+    <row r="455" ht="15.75" customHeight="1" s="202"/>
+    <row r="456" ht="15.75" customHeight="1" s="202"/>
+    <row r="457" ht="15.75" customHeight="1" s="202"/>
+    <row r="458" ht="15.75" customHeight="1" s="202"/>
+    <row r="459" ht="15.75" customHeight="1" s="202"/>
+    <row r="460" ht="15.75" customHeight="1" s="202"/>
+    <row r="461" ht="15.75" customHeight="1" s="202"/>
+    <row r="462" ht="15.75" customHeight="1" s="202"/>
+    <row r="463" ht="15.75" customHeight="1" s="202"/>
+    <row r="464" ht="15.75" customHeight="1" s="202"/>
+    <row r="465" ht="15.75" customHeight="1" s="202"/>
+    <row r="466" ht="15.75" customHeight="1" s="202"/>
+    <row r="467" ht="15.75" customHeight="1" s="202"/>
+    <row r="468" ht="15.75" customHeight="1" s="202"/>
+    <row r="469" ht="15.75" customHeight="1" s="202"/>
+    <row r="470" ht="15.75" customHeight="1" s="202"/>
+    <row r="471" ht="15.75" customHeight="1" s="202"/>
+    <row r="472" ht="15.75" customHeight="1" s="202"/>
+    <row r="473" ht="15.75" customHeight="1" s="202"/>
+    <row r="474" ht="15.75" customHeight="1" s="202"/>
+    <row r="475" ht="15.75" customHeight="1" s="202"/>
+    <row r="476" ht="15.75" customHeight="1" s="202"/>
+    <row r="477" ht="15.75" customHeight="1" s="202"/>
+    <row r="478" ht="15.75" customHeight="1" s="202"/>
+    <row r="479" ht="15.75" customHeight="1" s="202"/>
+    <row r="480" ht="15.75" customHeight="1" s="202"/>
+    <row r="481" ht="15.75" customHeight="1" s="202"/>
+    <row r="482" ht="15.75" customHeight="1" s="202"/>
+    <row r="483" ht="15.75" customHeight="1" s="202"/>
+    <row r="484" ht="15.75" customHeight="1" s="202"/>
+    <row r="485" ht="15.75" customHeight="1" s="202"/>
+    <row r="486" ht="15.75" customHeight="1" s="202"/>
+    <row r="487" ht="15.75" customHeight="1" s="202"/>
+    <row r="488" ht="15.75" customHeight="1" s="202"/>
+    <row r="489" ht="15.75" customHeight="1" s="202"/>
+    <row r="490" ht="15.75" customHeight="1" s="202"/>
+    <row r="491" ht="15.75" customHeight="1" s="202"/>
+    <row r="492" ht="15.75" customHeight="1" s="202"/>
+    <row r="493" ht="15.75" customHeight="1" s="202"/>
+    <row r="494" ht="15.75" customHeight="1" s="202"/>
+    <row r="495" ht="15.75" customHeight="1" s="202"/>
+    <row r="496" ht="15.75" customHeight="1" s="202"/>
+    <row r="497" ht="15.75" customHeight="1" s="202"/>
+    <row r="498" ht="15.75" customHeight="1" s="202"/>
+    <row r="499" ht="15.75" customHeight="1" s="202"/>
+    <row r="500" ht="15.75" customHeight="1" s="202"/>
+    <row r="501" ht="15.75" customHeight="1" s="202"/>
+    <row r="502" ht="15.75" customHeight="1" s="202"/>
+    <row r="503" ht="15.75" customHeight="1" s="202"/>
+    <row r="504" ht="15.75" customHeight="1" s="202"/>
+    <row r="505" ht="15.75" customHeight="1" s="202"/>
+    <row r="506" ht="15.75" customHeight="1" s="202"/>
+    <row r="507" ht="15.75" customHeight="1" s="202"/>
+    <row r="508" ht="15.75" customHeight="1" s="202"/>
+    <row r="509" ht="15.75" customHeight="1" s="202"/>
+    <row r="510" ht="15.75" customHeight="1" s="202"/>
+    <row r="511" ht="15.75" customHeight="1" s="202"/>
+    <row r="512" ht="15.75" customHeight="1" s="202"/>
+    <row r="513" ht="15.75" customHeight="1" s="202"/>
+    <row r="514" ht="15.75" customHeight="1" s="202"/>
+    <row r="515" ht="15.75" customHeight="1" s="202"/>
+    <row r="516" ht="15.75" customHeight="1" s="202"/>
+    <row r="517" ht="15.75" customHeight="1" s="202"/>
+    <row r="518" ht="15.75" customHeight="1" s="202"/>
+    <row r="519" ht="15.75" customHeight="1" s="202"/>
+    <row r="520" ht="15.75" customHeight="1" s="202"/>
+    <row r="521" ht="15.75" customHeight="1" s="202"/>
+    <row r="522" ht="15.75" customHeight="1" s="202"/>
+    <row r="523" ht="15.75" customHeight="1" s="202"/>
+    <row r="524" ht="15.75" customHeight="1" s="202"/>
+    <row r="525" ht="15.75" customHeight="1" s="202"/>
+    <row r="526" ht="15.75" customHeight="1" s="202"/>
+    <row r="527" ht="15.75" customHeight="1" s="202"/>
+    <row r="528" ht="15.75" customHeight="1" s="202"/>
+    <row r="529" ht="15.75" customHeight="1" s="202"/>
+    <row r="530" ht="15.75" customHeight="1" s="202"/>
+    <row r="531" ht="15.75" customHeight="1" s="202"/>
+    <row r="532" ht="15.75" customHeight="1" s="202"/>
+    <row r="533" ht="15.75" customHeight="1" s="202"/>
+    <row r="534" ht="15.75" customHeight="1" s="202"/>
+    <row r="535" ht="15.75" customHeight="1" s="202"/>
+    <row r="536" ht="15.75" customHeight="1" s="202"/>
+    <row r="537" ht="15.75" customHeight="1" s="202"/>
+    <row r="538" ht="15.75" customHeight="1" s="202"/>
+    <row r="539" ht="15.75" customHeight="1" s="202"/>
+    <row r="540" ht="15.75" customHeight="1" s="202"/>
+    <row r="541" ht="15.75" customHeight="1" s="202"/>
+    <row r="542" ht="15.75" customHeight="1" s="202"/>
+    <row r="543" ht="15.75" customHeight="1" s="202"/>
+    <row r="544" ht="15.75" customHeight="1" s="202"/>
+    <row r="545" ht="15.75" customHeight="1" s="202"/>
+    <row r="546" ht="15.75" customHeight="1" s="202"/>
+    <row r="547" ht="15.75" customHeight="1" s="202"/>
+    <row r="548" ht="15.75" customHeight="1" s="202"/>
+    <row r="549" ht="15.75" customHeight="1" s="202"/>
+    <row r="550" ht="15.75" customHeight="1" s="202"/>
+    <row r="551" ht="15.75" customHeight="1" s="202"/>
+    <row r="552" ht="15.75" customHeight="1" s="202"/>
+    <row r="553" ht="15.75" customHeight="1" s="202"/>
+    <row r="554" ht="15.75" customHeight="1" s="202"/>
+    <row r="555" ht="15.75" customHeight="1" s="202"/>
+    <row r="556" ht="15.75" customHeight="1" s="202"/>
+    <row r="557" ht="15.75" customHeight="1" s="202"/>
+    <row r="558" ht="15.75" customHeight="1" s="202"/>
+    <row r="559" ht="15.75" customHeight="1" s="202"/>
+    <row r="560" ht="15.75" customHeight="1" s="202"/>
+    <row r="561" ht="15.75" customHeight="1" s="202"/>
+    <row r="562" ht="15.75" customHeight="1" s="202"/>
+    <row r="563" ht="15.75" customHeight="1" s="202"/>
+    <row r="564" ht="15.75" customHeight="1" s="202"/>
+    <row r="565" ht="15.75" customHeight="1" s="202"/>
+    <row r="566" ht="15.75" customHeight="1" s="202"/>
+    <row r="567" ht="15.75" customHeight="1" s="202"/>
+    <row r="568" ht="15.75" customHeight="1" s="202"/>
+    <row r="569" ht="15.75" customHeight="1" s="202"/>
+    <row r="570" ht="15.75" customHeight="1" s="202"/>
+    <row r="571" ht="15.75" customHeight="1" s="202"/>
+    <row r="572" ht="15.75" customHeight="1" s="202"/>
+    <row r="573" ht="15.75" customHeight="1" s="202"/>
+    <row r="574" ht="15.75" customHeight="1" s="202"/>
+    <row r="575" ht="15.75" customHeight="1" s="202"/>
+    <row r="576" ht="15.75" customHeight="1" s="202"/>
+    <row r="577" ht="15.75" customHeight="1" s="202"/>
+    <row r="578" ht="15.75" customHeight="1" s="202"/>
+    <row r="579" ht="15.75" customHeight="1" s="202"/>
+    <row r="580" ht="15.75" customHeight="1" s="202"/>
+    <row r="581" ht="15.75" customHeight="1" s="202"/>
+    <row r="582" ht="15.75" customHeight="1" s="202"/>
+    <row r="583" ht="15.75" customHeight="1" s="202"/>
+    <row r="584" ht="15.75" customHeight="1" s="202"/>
+    <row r="585" ht="15.75" customHeight="1" s="202"/>
+    <row r="586" ht="15.75" customHeight="1" s="202"/>
+    <row r="587" ht="15.75" customHeight="1" s="202"/>
+    <row r="588" ht="15.75" customHeight="1" s="202"/>
+    <row r="589" ht="15.75" customHeight="1" s="202"/>
+    <row r="590" ht="15.75" customHeight="1" s="202"/>
+    <row r="591" ht="15.75" customHeight="1" s="202"/>
+    <row r="592" ht="15.75" customHeight="1" s="202"/>
+    <row r="593" ht="15.75" customHeight="1" s="202"/>
+    <row r="594" ht="15.75" customHeight="1" s="202"/>
+    <row r="595" ht="15.75" customHeight="1" s="202"/>
+    <row r="596" ht="15.75" customHeight="1" s="202"/>
+    <row r="597" ht="15.75" customHeight="1" s="202"/>
+    <row r="598" ht="15.75" customHeight="1" s="202"/>
+    <row r="599" ht="15.75" customHeight="1" s="202"/>
+    <row r="600" ht="15.75" customHeight="1" s="202"/>
+    <row r="601" ht="15.75" customHeight="1" s="202"/>
+    <row r="602" ht="15.75" customHeight="1" s="202"/>
+    <row r="603" ht="15.75" customHeight="1" s="202"/>
+    <row r="604" ht="15.75" customHeight="1" s="202"/>
+    <row r="605" ht="15.75" customHeight="1" s="202"/>
+    <row r="606" ht="15.75" customHeight="1" s="202"/>
+    <row r="607" ht="15.75" customHeight="1" s="202"/>
+    <row r="608" ht="15.75" customHeight="1" s="202"/>
+    <row r="609" ht="15.75" customHeight="1" s="202"/>
+    <row r="610" ht="15.75" customHeight="1" s="202"/>
+    <row r="611" ht="15.75" customHeight="1" s="202"/>
+    <row r="612" ht="15.75" customHeight="1" s="202"/>
+    <row r="613" ht="15.75" customHeight="1" s="202"/>
+    <row r="614" ht="15.75" customHeight="1" s="202"/>
+    <row r="615" ht="15.75" customHeight="1" s="202"/>
+    <row r="616" ht="15.75" customHeight="1" s="202"/>
+    <row r="617" ht="15.75" customHeight="1" s="202"/>
+    <row r="618" ht="15.75" customHeight="1" s="202"/>
+    <row r="619" ht="15.75" customHeight="1" s="202"/>
+    <row r="620" ht="15.75" customHeight="1" s="202"/>
+    <row r="621" ht="15.75" customHeight="1" s="202"/>
+    <row r="622" ht="15.75" customHeight="1" s="202"/>
+    <row r="623" ht="15.75" customHeight="1" s="202"/>
+    <row r="624" ht="15.75" customHeight="1" s="202"/>
+    <row r="625" ht="15.75" customHeight="1" s="202"/>
+    <row r="626" ht="15.75" customHeight="1" s="202"/>
+    <row r="627" ht="15.75" customHeight="1" s="202"/>
+    <row r="628" ht="15.75" customHeight="1" s="202"/>
+    <row r="629" ht="15.75" customHeight="1" s="202"/>
+    <row r="630" ht="15.75" customHeight="1" s="202"/>
+    <row r="631" ht="15.75" customHeight="1" s="202"/>
+    <row r="632" ht="15.75" customHeight="1" s="202"/>
+    <row r="633" ht="15.75" customHeight="1" s="202"/>
+    <row r="634" ht="15.75" customHeight="1" s="202"/>
+    <row r="635" ht="15.75" customHeight="1" s="202"/>
+    <row r="636" ht="15.75" customHeight="1" s="202"/>
+    <row r="637" ht="15.75" customHeight="1" s="202"/>
+    <row r="638" ht="15.75" customHeight="1" s="202"/>
+    <row r="639" ht="15.75" customHeight="1" s="202"/>
+    <row r="640" ht="15.75" customHeight="1" s="202"/>
+    <row r="641" ht="15.75" customHeight="1" s="202"/>
+    <row r="642" ht="15.75" customHeight="1" s="202"/>
+    <row r="643" ht="15.75" customHeight="1" s="202"/>
+    <row r="644" ht="15.75" customHeight="1" s="202"/>
+    <row r="645" ht="15.75" customHeight="1" s="202"/>
+    <row r="646" ht="15.75" customHeight="1" s="202"/>
+    <row r="647" ht="15.75" customHeight="1" s="202"/>
+    <row r="648" ht="15.75" customHeight="1" s="202"/>
+    <row r="649" ht="15.75" customHeight="1" s="202"/>
+    <row r="650" ht="15.75" customHeight="1" s="202"/>
+    <row r="651" ht="15.75" customHeight="1" s="202"/>
+    <row r="652" ht="15.75" customHeight="1" s="202"/>
+    <row r="653" ht="15.75" customHeight="1" s="202"/>
+    <row r="654" ht="15.75" customHeight="1" s="202"/>
+    <row r="655" ht="15.75" customHeight="1" s="202"/>
+    <row r="656" ht="15.75" customHeight="1" s="202"/>
+    <row r="657" ht="15.75" customHeight="1" s="202"/>
+    <row r="658" ht="15.75" customHeight="1" s="202"/>
+    <row r="659" ht="15.75" customHeight="1" s="202"/>
+    <row r="660" ht="15.75" customHeight="1" s="202"/>
+    <row r="661" ht="15.75" customHeight="1" s="202"/>
+    <row r="662" ht="15.75" customHeight="1" s="202"/>
+    <row r="663" ht="15.75" customHeight="1" s="202"/>
+    <row r="664" ht="15.75" customHeight="1" s="202"/>
+    <row r="665" ht="15.75" customHeight="1" s="202"/>
+    <row r="666" ht="15.75" customHeight="1" s="202"/>
+    <row r="667" ht="15.75" customHeight="1" s="202"/>
+    <row r="668" ht="15.75" customHeight="1" s="202"/>
+    <row r="669" ht="15.75" customHeight="1" s="202"/>
+    <row r="670" ht="15.75" customHeight="1" s="202"/>
+    <row r="671" ht="15.75" customHeight="1" s="202"/>
+    <row r="672" ht="15.75" customHeight="1" s="202"/>
+    <row r="673" ht="15.75" customHeight="1" s="202"/>
+    <row r="674" ht="15.75" customHeight="1" s="202"/>
+    <row r="675" ht="15.75" customHeight="1" s="202"/>
+    <row r="676" ht="15.75" customHeight="1" s="202"/>
+    <row r="677" ht="15.75" customHeight="1" s="202"/>
+    <row r="678" ht="15.75" customHeight="1" s="202"/>
+    <row r="679" ht="15.75" customHeight="1" s="202"/>
+    <row r="680" ht="15.75" customHeight="1" s="202"/>
+    <row r="681" ht="15.75" customHeight="1" s="202"/>
+    <row r="682" ht="15.75" customHeight="1" s="202"/>
+    <row r="683" ht="15.75" customHeight="1" s="202"/>
+    <row r="684" ht="15.75" customHeight="1" s="202"/>
+    <row r="685" ht="15.75" customHeight="1" s="202"/>
+    <row r="686" ht="15.75" customHeight="1" s="202"/>
+    <row r="687" ht="15.75" customHeight="1" s="202"/>
+    <row r="688" ht="15.75" customHeight="1" s="202"/>
+    <row r="689" ht="15.75" customHeight="1" s="202"/>
+    <row r="690" ht="15.75" customHeight="1" s="202"/>
+    <row r="691" ht="15.75" customHeight="1" s="202"/>
+    <row r="692" ht="15.75" customHeight="1" s="202"/>
+    <row r="693" ht="15.75" customHeight="1" s="202"/>
+    <row r="694" ht="15.75" customHeight="1" s="202"/>
+    <row r="695" ht="15.75" customHeight="1" s="202"/>
+    <row r="696" ht="15.75" customHeight="1" s="202"/>
+    <row r="697" ht="15.75" customHeight="1" s="202"/>
+    <row r="698" ht="15.75" customHeight="1" s="202"/>
+    <row r="699" ht="15.75" customHeight="1" s="202"/>
+    <row r="700" ht="15.75" customHeight="1" s="202"/>
+    <row r="701" ht="15.75" customHeight="1" s="202"/>
+    <row r="702" ht="15.75" customHeight="1" s="202"/>
+    <row r="703" ht="15.75" customHeight="1" s="202"/>
+    <row r="704" ht="15.75" customHeight="1" s="202"/>
+    <row r="705" ht="15.75" customHeight="1" s="202"/>
+    <row r="706" ht="15.75" customHeight="1" s="202"/>
+    <row r="707" ht="15.75" customHeight="1" s="202"/>
+    <row r="708" ht="15.75" customHeight="1" s="202"/>
+    <row r="709" ht="15.75" customHeight="1" s="202"/>
+    <row r="710" ht="15.75" customHeight="1" s="202"/>
+    <row r="711" ht="15.75" customHeight="1" s="202"/>
+    <row r="712" ht="15.75" customHeight="1" s="202"/>
+    <row r="713" ht="15.75" customHeight="1" s="202"/>
+    <row r="714" ht="15.75" customHeight="1" s="202"/>
+    <row r="715" ht="15.75" customHeight="1" s="202"/>
+    <row r="716" ht="15.75" customHeight="1" s="202"/>
+    <row r="717" ht="15.75" customHeight="1" s="202"/>
+    <row r="718" ht="15.75" customHeight="1" s="202"/>
+    <row r="719" ht="15.75" customHeight="1" s="202"/>
+    <row r="720" ht="15.75" customHeight="1" s="202"/>
+    <row r="721" ht="15.75" customHeight="1" s="202"/>
+    <row r="722" ht="15.75" customHeight="1" s="202"/>
+    <row r="723" ht="15.75" customHeight="1" s="202"/>
+    <row r="724" ht="15.75" customHeight="1" s="202"/>
+    <row r="725" ht="15.75" customHeight="1" s="202"/>
+    <row r="726" ht="15.75" customHeight="1" s="202"/>
+    <row r="727" ht="15.75" customHeight="1" s="202"/>
+    <row r="728" ht="15.75" customHeight="1" s="202"/>
+    <row r="729" ht="15.75" customHeight="1" s="202"/>
+    <row r="730" ht="15.75" customHeight="1" s="202"/>
+    <row r="731" ht="15.75" customHeight="1" s="202"/>
+    <row r="732" ht="15.75" customHeight="1" s="202"/>
+    <row r="733" ht="15.75" customHeight="1" s="202"/>
+    <row r="734" ht="15.75" customHeight="1" s="202"/>
+    <row r="735" ht="15.75" customHeight="1" s="202"/>
+    <row r="736" ht="15.75" customHeight="1" s="202"/>
+    <row r="737" ht="15.75" customHeight="1" s="202"/>
+    <row r="738" ht="15.75" customHeight="1" s="202"/>
+    <row r="739" ht="15.75" customHeight="1" s="202"/>
+    <row r="740" ht="15.75" customHeight="1" s="202"/>
+    <row r="741" ht="15.75" customHeight="1" s="202"/>
+    <row r="742" ht="15.75" customHeight="1" s="202"/>
+    <row r="743" ht="15.75" customHeight="1" s="202"/>
+    <row r="744" ht="15.75" customHeight="1" s="202"/>
+    <row r="745" ht="15.75" customHeight="1" s="202"/>
+    <row r="746" ht="15.75" customHeight="1" s="202"/>
+    <row r="747" ht="15.75" customHeight="1" s="202"/>
+    <row r="748" ht="15.75" customHeight="1" s="202"/>
+    <row r="749" ht="15.75" customHeight="1" s="202"/>
+    <row r="750" ht="15.75" customHeight="1" s="202"/>
+    <row r="751" ht="15.75" customHeight="1" s="202"/>
+    <row r="752" ht="15.75" customHeight="1" s="202"/>
+    <row r="753" ht="15.75" customHeight="1" s="202"/>
+    <row r="754" ht="15.75" customHeight="1" s="202"/>
+    <row r="755" ht="15.75" customHeight="1" s="202"/>
+    <row r="756" ht="15.75" customHeight="1" s="202"/>
+    <row r="757" ht="15.75" customHeight="1" s="202"/>
+    <row r="758" ht="15.75" customHeight="1" s="202"/>
+    <row r="759" ht="15.75" customHeight="1" s="202"/>
+    <row r="760" ht="15.75" customHeight="1" s="202"/>
+    <row r="761" ht="15.75" customHeight="1" s="202"/>
+    <row r="762" ht="15.75" customHeight="1" s="202"/>
+    <row r="763" ht="15.75" customHeight="1" s="202"/>
+    <row r="764" ht="15.75" customHeight="1" s="202"/>
+    <row r="765" ht="15.75" customHeight="1" s="202"/>
+    <row r="766" ht="15.75" customHeight="1" s="202"/>
+    <row r="767" ht="15.75" customHeight="1" s="202"/>
+    <row r="768" ht="15.75" customHeight="1" s="202"/>
+    <row r="769" ht="15.75" customHeight="1" s="202"/>
+    <row r="770" ht="15.75" customHeight="1" s="202"/>
+    <row r="771" ht="15.75" customHeight="1" s="202"/>
+    <row r="772" ht="15.75" customHeight="1" s="202"/>
+    <row r="773" ht="15.75" customHeight="1" s="202"/>
+    <row r="774" ht="15.75" customHeight="1" s="202"/>
+    <row r="775" ht="15.75" customHeight="1" s="202"/>
+    <row r="776" ht="15.75" customHeight="1" s="202"/>
+    <row r="777" ht="15.75" customHeight="1" s="202"/>
+    <row r="778" ht="15.75" customHeight="1" s="202"/>
+    <row r="779" ht="15.75" customHeight="1" s="202"/>
+    <row r="780" ht="15.75" customHeight="1" s="202"/>
+    <row r="781" ht="15.75" customHeight="1" s="202"/>
+    <row r="782" ht="15.75" customHeight="1" s="202"/>
+    <row r="783" ht="15.75" customHeight="1" s="202"/>
+    <row r="784" ht="15.75" customHeight="1" s="202"/>
+    <row r="785" ht="15.75" customHeight="1" s="202"/>
+    <row r="786" ht="15.75" customHeight="1" s="202"/>
+    <row r="787" ht="15.75" customHeight="1" s="202"/>
+    <row r="788" ht="15.75" customHeight="1" s="202"/>
+    <row r="789" ht="15.75" customHeight="1" s="202"/>
+    <row r="790" ht="15.75" customHeight="1" s="202"/>
+    <row r="791" ht="15.75" customHeight="1" s="202"/>
+    <row r="792" ht="15.75" customHeight="1" s="202"/>
+    <row r="793" ht="15.75" customHeight="1" s="202"/>
+    <row r="794" ht="15.75" customHeight="1" s="202"/>
+    <row r="795" ht="15.75" customHeight="1" s="202"/>
+    <row r="796" ht="15.75" customHeight="1" s="202"/>
+    <row r="797" ht="15.75" customHeight="1" s="202"/>
+    <row r="798" ht="15.75" customHeight="1" s="202"/>
+    <row r="799" ht="15.75" customHeight="1" s="202"/>
+    <row r="800" ht="15.75" customHeight="1" s="202"/>
+    <row r="801" ht="15.75" customHeight="1" s="202"/>
+    <row r="802" ht="15.75" customHeight="1" s="202"/>
+    <row r="803" ht="15.75" customHeight="1" s="202"/>
+    <row r="804" ht="15.75" customHeight="1" s="202"/>
+    <row r="805" ht="15.75" customHeight="1" s="202"/>
+    <row r="806" ht="15.75" customHeight="1" s="202"/>
+    <row r="807" ht="15.75" customHeight="1" s="202"/>
+    <row r="808" ht="15.75" customHeight="1" s="202"/>
+    <row r="809" ht="15.75" customHeight="1" s="202"/>
+    <row r="810" ht="15.75" customHeight="1" s="202"/>
+    <row r="811" ht="15.75" customHeight="1" s="202"/>
+    <row r="812" ht="15.75" customHeight="1" s="202"/>
+    <row r="813" ht="15.75" customHeight="1" s="202"/>
+    <row r="814" ht="15.75" customHeight="1" s="202"/>
+    <row r="815" ht="15.75" customHeight="1" s="202"/>
+    <row r="816" ht="15.75" customHeight="1" s="202"/>
+    <row r="817" ht="15.75" customHeight="1" s="202"/>
+    <row r="818" ht="15.75" customHeight="1" s="202"/>
+    <row r="819" ht="15.75" customHeight="1" s="202"/>
+    <row r="820" ht="15.75" customHeight="1" s="202"/>
+    <row r="821" ht="15.75" customHeight="1" s="202"/>
+    <row r="822" ht="15.75" customHeight="1" s="202"/>
+    <row r="823" ht="15.75" customHeight="1" s="202"/>
+    <row r="824" ht="15.75" customHeight="1" s="202"/>
+    <row r="825" ht="15.75" customHeight="1" s="202"/>
+    <row r="826" ht="15.75" customHeight="1" s="202"/>
+    <row r="827" ht="15.75" customHeight="1" s="202"/>
+    <row r="828" ht="15.75" customHeight="1" s="202"/>
+    <row r="829" ht="15.75" customHeight="1" s="202"/>
+    <row r="830" ht="15.75" customHeight="1" s="202"/>
+    <row r="831" ht="15.75" customHeight="1" s="202"/>
+    <row r="832" ht="15.75" customHeight="1" s="202"/>
+    <row r="833" ht="15.75" customHeight="1" s="202"/>
+    <row r="834" ht="15.75" customHeight="1" s="202"/>
+    <row r="835" ht="15.75" customHeight="1" s="202"/>
+    <row r="836" ht="15.75" customHeight="1" s="202"/>
+    <row r="837" ht="15.75" customHeight="1" s="202"/>
+    <row r="838" ht="15.75" customHeight="1" s="202"/>
+    <row r="839" ht="15.75" customHeight="1" s="202"/>
+    <row r="840" ht="15.75" customHeight="1" s="202"/>
+    <row r="841" ht="15.75" customHeight="1" s="202"/>
+    <row r="842" ht="15.75" customHeight="1" s="202"/>
+    <row r="843" ht="15.75" customHeight="1" s="202"/>
+    <row r="844" ht="15.75" customHeight="1" s="202"/>
+    <row r="845" ht="15.75" customHeight="1" s="202"/>
+    <row r="846" ht="15.75" customHeight="1" s="202"/>
+    <row r="847" ht="15.75" customHeight="1" s="202"/>
+    <row r="848" ht="15.75" customHeight="1" s="202"/>
+    <row r="849" ht="15.75" customHeight="1" s="202"/>
+    <row r="850" ht="15.75" customHeight="1" s="202"/>
+    <row r="851" ht="15.75" customHeight="1" s="202"/>
+    <row r="852" ht="15.75" customHeight="1" s="202"/>
+    <row r="853" ht="15.75" customHeight="1" s="202"/>
+    <row r="854" ht="15.75" customHeight="1" s="202"/>
+    <row r="855" ht="15.75" customHeight="1" s="202"/>
+    <row r="856" ht="15.75" customHeight="1" s="202"/>
+    <row r="857" ht="15.75" customHeight="1" s="202"/>
+    <row r="858" ht="15.75" customHeight="1" s="202"/>
+    <row r="859" ht="15.75" customHeight="1" s="202"/>
+    <row r="860" ht="15.75" customHeight="1" s="202"/>
+    <row r="861" ht="15.75" customHeight="1" s="202"/>
+    <row r="862" ht="15.75" customHeight="1" s="202"/>
+    <row r="863" ht="15.75" customHeight="1" s="202"/>
+    <row r="864" ht="15.75" customHeight="1" s="202"/>
+    <row r="865" ht="15.75" customHeight="1" s="202"/>
+    <row r="866" ht="15.75" customHeight="1" s="202"/>
+    <row r="867" ht="15.75" customHeight="1" s="202"/>
+    <row r="868" ht="15.75" customHeight="1" s="202"/>
+    <row r="869" ht="15.75" customHeight="1" s="202"/>
+    <row r="870" ht="15.75" customHeight="1" s="202"/>
+    <row r="871" ht="15.75" customHeight="1" s="202"/>
+    <row r="872" ht="15.75" customHeight="1" s="202"/>
+    <row r="873" ht="15.75" customHeight="1" s="202"/>
+    <row r="874" ht="15.75" customHeight="1" s="202"/>
+    <row r="875" ht="15.75" customHeight="1" s="202"/>
+    <row r="876" ht="15.75" customHeight="1" s="202"/>
+    <row r="877" ht="15.75" customHeight="1" s="202"/>
+    <row r="878" ht="15.75" customHeight="1" s="202"/>
+    <row r="879" ht="15.75" customHeight="1" s="202"/>
+    <row r="880" ht="15.75" customHeight="1" s="202"/>
+    <row r="881" ht="15.75" customHeight="1" s="202"/>
+    <row r="882" ht="15.75" customHeight="1" s="202"/>
+    <row r="883" ht="15.75" customHeight="1" s="202"/>
+    <row r="884" ht="15.75" customHeight="1" s="202"/>
+    <row r="885" ht="15.75" customHeight="1" s="202"/>
+    <row r="886" ht="15.75" customHeight="1" s="202"/>
+    <row r="887" ht="15.75" customHeight="1" s="202"/>
+    <row r="888" ht="15.75" customHeight="1" s="202"/>
+    <row r="889" ht="15.75" customHeight="1" s="202"/>
+    <row r="890" ht="15.75" customHeight="1" s="202"/>
+    <row r="891" ht="15.75" customHeight="1" s="202"/>
+    <row r="892" ht="15.75" customHeight="1" s="202"/>
+    <row r="893" ht="15.75" customHeight="1" s="202"/>
+    <row r="894" ht="15.75" customHeight="1" s="202"/>
+    <row r="895" ht="15.75" customHeight="1" s="202"/>
+    <row r="896" ht="15.75" customHeight="1" s="202"/>
+    <row r="897" ht="15.75" customHeight="1" s="202"/>
+    <row r="898" ht="15.75" customHeight="1" s="202"/>
+    <row r="899" ht="15.75" customHeight="1" s="202"/>
+    <row r="900" ht="15.75" customHeight="1" s="202"/>
+    <row r="901" ht="15.75" customHeight="1" s="202"/>
+    <row r="902" ht="15.75" customHeight="1" s="202"/>
+    <row r="903" ht="15.75" customHeight="1" s="202"/>
+    <row r="904" ht="15.75" customHeight="1" s="202"/>
+    <row r="905" ht="15.75" customHeight="1" s="202"/>
+    <row r="906" ht="15.75" customHeight="1" s="202"/>
+    <row r="907" ht="15.75" customHeight="1" s="202"/>
+    <row r="908" ht="15.75" customHeight="1" s="202"/>
+    <row r="909" ht="15.75" customHeight="1" s="202"/>
+    <row r="910" ht="15.75" customHeight="1" s="202"/>
+    <row r="911" ht="15.75" customHeight="1" s="202"/>
+    <row r="912" ht="15.75" customHeight="1" s="202"/>
+    <row r="913" ht="15.75" customHeight="1" s="202"/>
+    <row r="914" ht="15.75" customHeight="1" s="202"/>
+    <row r="915" ht="15.75" customHeight="1" s="202"/>
+    <row r="916" ht="15.75" customHeight="1" s="202"/>
+    <row r="917" ht="15.75" customHeight="1" s="202"/>
+    <row r="918" ht="15.75" customHeight="1" s="202"/>
+    <row r="919" ht="15.75" customHeight="1" s="202"/>
+    <row r="920" ht="15.75" customHeight="1" s="202"/>
+    <row r="921" ht="15.75" customHeight="1" s="202"/>
+    <row r="922" ht="15.75" customHeight="1" s="202"/>
+    <row r="923" ht="15.75" customHeight="1" s="202"/>
+    <row r="924" ht="15.75" customHeight="1" s="202"/>
+    <row r="925" ht="15.75" customHeight="1" s="202"/>
+    <row r="926" ht="15.75" customHeight="1" s="202"/>
+    <row r="927" ht="15.75" customHeight="1" s="202"/>
+    <row r="928" ht="15.75" customHeight="1" s="202"/>
+    <row r="929" ht="15.75" customHeight="1" s="202"/>
+    <row r="930" ht="15.75" customHeight="1" s="202"/>
+    <row r="931" ht="15.75" customHeight="1" s="202"/>
+    <row r="932" ht="15.75" customHeight="1" s="202"/>
+    <row r="933" ht="15.75" customHeight="1" s="202"/>
+    <row r="934" ht="15.75" customHeight="1" s="202"/>
+    <row r="935" ht="15.75" customHeight="1" s="202"/>
+    <row r="936" ht="15.75" customHeight="1" s="202"/>
+    <row r="937" ht="15.75" customHeight="1" s="202"/>
+    <row r="938" ht="15.75" customHeight="1" s="202"/>
+    <row r="939" ht="15.75" customHeight="1" s="202"/>
+    <row r="940" ht="15.75" customHeight="1" s="202"/>
+    <row r="941" ht="15.75" customHeight="1" s="202"/>
+    <row r="942" ht="15.75" customHeight="1" s="202"/>
+    <row r="943" ht="15.75" customHeight="1" s="202"/>
+    <row r="944" ht="15.75" customHeight="1" s="202"/>
+    <row r="945" ht="15.75" customHeight="1" s="202"/>
+    <row r="946" ht="15.75" customHeight="1" s="202"/>
+    <row r="947" ht="15.75" customHeight="1" s="202"/>
+    <row r="948" ht="15.75" customHeight="1" s="202"/>
+    <row r="949" ht="15.75" customHeight="1" s="202"/>
+    <row r="950" ht="15.75" customHeight="1" s="202"/>
+    <row r="951" ht="15.75" customHeight="1" s="202"/>
+    <row r="952" ht="15.75" customHeight="1" s="202"/>
+    <row r="953" ht="15.75" customHeight="1" s="202"/>
+    <row r="954" ht="15.75" customHeight="1" s="202"/>
+    <row r="955" ht="15.75" customHeight="1" s="202"/>
+    <row r="956" ht="15.75" customHeight="1" s="202"/>
+    <row r="957" ht="15.75" customHeight="1" s="202"/>
+    <row r="958" ht="15.75" customHeight="1" s="202"/>
+    <row r="959" ht="15.75" customHeight="1" s="202"/>
+    <row r="960" ht="15.75" customHeight="1" s="202"/>
+    <row r="961" ht="15.75" customHeight="1" s="202"/>
+    <row r="962" ht="15.75" customHeight="1" s="202"/>
+    <row r="963" ht="15.75" customHeight="1" s="202"/>
+    <row r="964" ht="15.75" customHeight="1" s="202"/>
+    <row r="965" ht="15.75" customHeight="1" s="202"/>
+    <row r="966" ht="15.75" customHeight="1" s="202"/>
+    <row r="967" ht="15.75" customHeight="1" s="202"/>
+    <row r="968" ht="15.75" customHeight="1" s="202"/>
+    <row r="969" ht="15.75" customHeight="1" s="202"/>
+    <row r="970" ht="15.75" customHeight="1" s="202"/>
+    <row r="971" ht="15.75" customHeight="1" s="202"/>
+    <row r="972" ht="15.75" customHeight="1" s="202"/>
+    <row r="973" ht="15.75" customHeight="1" s="202"/>
+    <row r="974" ht="15.75" customHeight="1" s="202"/>
+    <row r="975" ht="15.75" customHeight="1" s="202"/>
+    <row r="976" ht="15.75" customHeight="1" s="202"/>
+    <row r="977" ht="15.75" customHeight="1" s="202"/>
+    <row r="978" ht="15.75" customHeight="1" s="202"/>
+    <row r="979" ht="15.75" customHeight="1" s="202"/>
+    <row r="980" ht="15.75" customHeight="1" s="202"/>
+    <row r="981" ht="15.75" customHeight="1" s="202"/>
+    <row r="982" ht="15.75" customHeight="1" s="202"/>
+    <row r="983" ht="15.75" customHeight="1" s="202"/>
+    <row r="984" ht="15.75" customHeight="1" s="202"/>
+    <row r="985" ht="15.75" customHeight="1" s="202"/>
+    <row r="986" ht="15.75" customHeight="1" s="202"/>
+    <row r="987" ht="15.75" customHeight="1" s="202"/>
+    <row r="988" ht="15.75" customHeight="1" s="202"/>
+    <row r="989" ht="15.75" customHeight="1" s="202"/>
+    <row r="990" ht="15.75" customHeight="1" s="202"/>
+    <row r="991" ht="15.75" customHeight="1" s="202"/>
+    <row r="992" ht="15.75" customHeight="1" s="202"/>
+    <row r="993" ht="15.75" customHeight="1" s="202"/>
+    <row r="994" ht="15.75" customHeight="1" s="202"/>
+    <row r="995" ht="15.75" customHeight="1" s="202"/>
+    <row r="996" ht="15.75" customHeight="1" s="202"/>
+    <row r="997" ht="15.75" customHeight="1" s="202"/>
+    <row r="998" ht="15.75" customHeight="1" s="202"/>
+    <row r="999" ht="15.75" customHeight="1" s="202"/>
+    <row r="1000" ht="15.75" customHeight="1" s="202"/>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
     <mergeCell ref="S42:T42"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C16:L16"/>
@@ -8980,37 +9019,6 @@
     <mergeCell ref="H39:L40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="J59:J60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -9031,20 +9039,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="2.42578125" customWidth="1" style="191" min="1" max="1"/>
-    <col width="4.42578125" customWidth="1" style="191" min="2" max="2"/>
-    <col width="16.7109375" customWidth="1" style="191" min="3" max="4"/>
-    <col width="4.42578125" bestFit="1" customWidth="1" style="191" min="6" max="6"/>
-    <col width="16.7109375" customWidth="1" style="191" min="7" max="8"/>
-    <col width="7.42578125" bestFit="1" customWidth="1" style="191" min="9" max="9"/>
-    <col width="4" customWidth="1" style="191" min="10" max="10"/>
-    <col width="16.85546875" customWidth="1" style="191" min="11" max="12"/>
-    <col width="4.140625" customWidth="1" style="191" min="14" max="14"/>
-    <col width="16.7109375" customWidth="1" style="191" min="15" max="17"/>
+    <col width="2.42578125" customWidth="1" style="202" min="1" max="1"/>
+    <col width="4.42578125" customWidth="1" style="202" min="2" max="2"/>
+    <col width="16.7109375" customWidth="1" style="202" min="3" max="4"/>
+    <col width="4.42578125" bestFit="1" customWidth="1" style="202" min="6" max="6"/>
+    <col width="16.7109375" customWidth="1" style="202" min="7" max="8"/>
+    <col width="7.42578125" bestFit="1" customWidth="1" style="202" min="9" max="9"/>
+    <col width="4" customWidth="1" style="202" min="10" max="10"/>
+    <col width="16.85546875" customWidth="1" style="202" min="11" max="12"/>
+    <col width="4.140625" customWidth="1" style="202" min="14" max="14"/>
+    <col width="16.7109375" customWidth="1" style="202" min="15" max="17"/>
   </cols>
   <sheetData>
-    <row r="2" ht="26.25" customHeight="1" s="191">
-      <c r="C2" s="190" t="inlineStr">
+    <row r="2" ht="26.25" customHeight="1" s="202">
+      <c r="C2" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">EURO 2020 </t>
         </is>
@@ -9338,21 +9346,21 @@
       <c r="K15" s="83" t="n"/>
       <c r="L15" s="83" t="n"/>
     </row>
-    <row r="16" ht="39.95" customHeight="1" s="191">
-      <c r="C16" s="208" t="inlineStr">
+    <row r="16" ht="39.95" customHeight="1" s="202">
+      <c r="C16" s="192" t="inlineStr">
         <is>
           <t>Group Stage predictions are made in a single submission and are due by Thursday Evening June 10th, 2021.</t>
         </is>
       </c>
-      <c r="D16" s="196" t="n"/>
-      <c r="E16" s="196" t="n"/>
-      <c r="F16" s="196" t="n"/>
-      <c r="G16" s="196" t="n"/>
-      <c r="H16" s="196" t="n"/>
-      <c r="I16" s="196" t="n"/>
-      <c r="J16" s="196" t="n"/>
-      <c r="K16" s="196" t="n"/>
-      <c r="L16" s="196" t="n"/>
+      <c r="D16" s="193" t="n"/>
+      <c r="E16" s="193" t="n"/>
+      <c r="F16" s="193" t="n"/>
+      <c r="G16" s="193" t="n"/>
+      <c r="H16" s="193" t="n"/>
+      <c r="I16" s="193" t="n"/>
+      <c r="J16" s="193" t="n"/>
+      <c r="K16" s="193" t="n"/>
+      <c r="L16" s="193" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="32" t="inlineStr">
@@ -9360,19 +9368,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D17" s="192" t="n"/>
-      <c r="E17" s="193" t="n"/>
-      <c r="F17" s="193" t="n"/>
-      <c r="G17" s="194" t="n"/>
-      <c r="H17" s="199" t="inlineStr">
+      <c r="D17" s="209" t="n"/>
+      <c r="E17" s="204" t="n"/>
+      <c r="F17" s="204" t="n"/>
+      <c r="G17" s="205" t="n"/>
+      <c r="H17" s="203" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I17" s="193" t="n"/>
-      <c r="J17" s="193" t="n"/>
-      <c r="K17" s="193" t="n"/>
-      <c r="L17" s="194" t="n"/>
+      <c r="I17" s="204" t="n"/>
+      <c r="J17" s="204" t="n"/>
+      <c r="K17" s="204" t="n"/>
+      <c r="L17" s="205" t="n"/>
     </row>
     <row r="18">
       <c r="C18" s="33" t="inlineStr">
@@ -9380,50 +9388,50 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D18" s="195" t="n"/>
-      <c r="E18" s="196" t="n"/>
-      <c r="F18" s="196" t="n"/>
+      <c r="D18" s="196" t="n"/>
+      <c r="E18" s="193" t="n"/>
+      <c r="F18" s="193" t="n"/>
       <c r="G18" s="197" t="n"/>
-      <c r="H18" s="200" t="n"/>
-      <c r="I18" s="196" t="n"/>
-      <c r="J18" s="196" t="n"/>
-      <c r="K18" s="196" t="n"/>
+      <c r="H18" s="206" t="n"/>
+      <c r="I18" s="193" t="n"/>
+      <c r="J18" s="193" t="n"/>
+      <c r="K18" s="193" t="n"/>
       <c r="L18" s="197" t="n"/>
     </row>
     <row r="19">
       <c r="C19" s="31" t="n"/>
     </row>
     <row r="20" customFormat="1" s="5">
-      <c r="C20" s="201" t="inlineStr">
+      <c r="C20" s="207" t="inlineStr">
         <is>
           <t>Match Day 1</t>
         </is>
       </c>
-      <c r="D20" s="193" t="n"/>
+      <c r="D20" s="204" t="n"/>
       <c r="E20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
       <c r="F20" s="36" t="n"/>
-      <c r="G20" s="201" t="inlineStr">
+      <c r="G20" s="207" t="inlineStr">
         <is>
           <t>Match Day 2</t>
         </is>
       </c>
-      <c r="H20" s="193" t="n"/>
+      <c r="H20" s="204" t="n"/>
       <c r="I20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
       <c r="J20" s="36" t="n"/>
-      <c r="K20" s="201" t="inlineStr">
+      <c r="K20" s="207" t="inlineStr">
         <is>
           <t>Match Day 3</t>
         </is>
       </c>
-      <c r="L20" s="193" t="n"/>
+      <c r="L20" s="204" t="n"/>
       <c r="M20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
@@ -10070,21 +10078,21 @@
       <c r="L36" s="97" t="n"/>
       <c r="M36" s="92" t="n"/>
     </row>
-    <row r="38" ht="39.95" customHeight="1" s="191">
-      <c r="C38" s="208" t="inlineStr">
+    <row r="38" ht="39.95" customHeight="1" s="202">
+      <c r="C38" s="192" t="inlineStr">
         <is>
           <t xml:space="preserve">We'll do the competition in two halves since the Round of 16 is heavily dependent on the Group Stages. </t>
         </is>
       </c>
-      <c r="D38" s="196" t="n"/>
-      <c r="E38" s="196" t="n"/>
-      <c r="F38" s="196" t="n"/>
-      <c r="G38" s="196" t="n"/>
-      <c r="H38" s="196" t="n"/>
-      <c r="I38" s="196" t="n"/>
-      <c r="J38" s="196" t="n"/>
-      <c r="K38" s="196" t="n"/>
-      <c r="L38" s="196" t="n"/>
+      <c r="D38" s="193" t="n"/>
+      <c r="E38" s="193" t="n"/>
+      <c r="F38" s="193" t="n"/>
+      <c r="G38" s="193" t="n"/>
+      <c r="H38" s="193" t="n"/>
+      <c r="I38" s="193" t="n"/>
+      <c r="J38" s="193" t="n"/>
+      <c r="K38" s="193" t="n"/>
+      <c r="L38" s="193" t="n"/>
     </row>
     <row r="39">
       <c r="C39" s="32" t="inlineStr">
@@ -10092,19 +10100,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D39" s="192" t="n"/>
-      <c r="E39" s="193" t="n"/>
-      <c r="F39" s="193" t="n"/>
-      <c r="G39" s="194" t="n"/>
-      <c r="H39" s="199" t="inlineStr">
+      <c r="D39" s="209" t="n"/>
+      <c r="E39" s="204" t="n"/>
+      <c r="F39" s="204" t="n"/>
+      <c r="G39" s="205" t="n"/>
+      <c r="H39" s="203" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULTS         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I39" s="193" t="n"/>
-      <c r="J39" s="193" t="n"/>
-      <c r="K39" s="193" t="n"/>
-      <c r="L39" s="194" t="n"/>
+      <c r="I39" s="204" t="n"/>
+      <c r="J39" s="204" t="n"/>
+      <c r="K39" s="204" t="n"/>
+      <c r="L39" s="205" t="n"/>
     </row>
     <row r="40">
       <c r="C40" s="33" t="inlineStr">
@@ -10112,27 +10120,27 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D40" s="195" t="n"/>
-      <c r="E40" s="196" t="n"/>
-      <c r="F40" s="196" t="n"/>
+      <c r="D40" s="196" t="n"/>
+      <c r="E40" s="193" t="n"/>
+      <c r="F40" s="193" t="n"/>
       <c r="G40" s="197" t="n"/>
-      <c r="H40" s="200" t="n"/>
-      <c r="I40" s="196" t="n"/>
-      <c r="J40" s="196" t="n"/>
-      <c r="K40" s="196" t="n"/>
+      <c r="H40" s="206" t="n"/>
+      <c r="I40" s="193" t="n"/>
+      <c r="J40" s="193" t="n"/>
+      <c r="K40" s="193" t="n"/>
       <c r="L40" s="197" t="n"/>
     </row>
     <row r="41">
       <c r="B41" s="46" t="n"/>
-      <c r="C41" s="196" t="n"/>
+      <c r="C41" s="193" t="n"/>
     </row>
     <row r="42">
-      <c r="B42" s="209" t="inlineStr">
+      <c r="B42" s="198" t="inlineStr">
         <is>
           <t>Round of 16</t>
         </is>
       </c>
-      <c r="C42" s="196" t="n"/>
+      <c r="C42" s="193" t="n"/>
       <c r="D42" s="30" t="inlineStr">
         <is>
           <t>Results</t>
@@ -10175,11 +10183,11 @@
         </is>
       </c>
       <c r="Q42" s="39" t="n"/>
-      <c r="S42" s="198" t="n"/>
+      <c r="S42" s="201" t="n"/>
       <c r="U42" s="39" t="n"/>
     </row>
     <row r="43">
-      <c r="B43" s="207" t="inlineStr">
+      <c r="B43" s="190" t="inlineStr">
         <is>
           <t>R1</t>
         </is>
@@ -10189,18 +10197,18 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="D43" s="202" t="n"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B44" s="203" t="n"/>
-      <c r="C44" s="200" t="inlineStr">
+      <c r="D43" s="195" t="n"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B44" s="191" t="n"/>
+      <c r="C44" s="206" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="D44" s="203" t="n"/>
+      <c r="D44" s="191" t="n"/>
       <c r="E44" s="44" t="n"/>
-      <c r="F44" s="206" t="inlineStr">
+      <c r="F44" s="194" t="inlineStr">
         <is>
           <t>QF1</t>
         </is>
@@ -10210,22 +10218,22 @@
           <t>Winner R1</t>
         </is>
       </c>
-      <c r="H44" s="202" t="n"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="H44" s="195" t="n"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B45" s="5" t="n"/>
       <c r="D45" s="93" t="n"/>
       <c r="E45" s="43" t="n"/>
-      <c r="F45" s="203" t="n"/>
+      <c r="F45" s="191" t="n"/>
       <c r="G45" s="41" t="inlineStr">
         <is>
           <t>Winner R2</t>
         </is>
       </c>
-      <c r="H45" s="203" t="n"/>
+      <c r="H45" s="191" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="207" t="inlineStr">
+      <c r="B46" s="190" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
@@ -10235,22 +10243,22 @@
           <t>Belgium</t>
         </is>
       </c>
-      <c r="D46" s="202" t="n"/>
+      <c r="D46" s="195" t="n"/>
       <c r="G46" s="1" t="n"/>
       <c r="H46" s="94" t="n"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B47" s="203" t="n"/>
-      <c r="C47" s="200" t="inlineStr">
+    <row r="47" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B47" s="191" t="n"/>
+      <c r="C47" s="206" t="inlineStr">
         <is>
           <t>3rd Group A/D/E/F</t>
         </is>
       </c>
-      <c r="D47" s="203" t="n"/>
+      <c r="D47" s="191" t="n"/>
       <c r="G47" s="1" t="n"/>
       <c r="H47" s="95" t="n"/>
       <c r="I47" s="43" t="n"/>
-      <c r="J47" s="204" t="inlineStr">
+      <c r="J47" s="199" t="inlineStr">
         <is>
           <t>SF1</t>
         </is>
@@ -10260,8 +10268,8 @@
           <t>Winner QF1</t>
         </is>
       </c>
-      <c r="L47" s="202" t="n"/>
-      <c r="S47" s="198" t="n"/>
+      <c r="L47" s="195" t="n"/>
+      <c r="S47" s="201" t="n"/>
       <c r="U47" s="39" t="n"/>
     </row>
     <row r="48">
@@ -10269,16 +10277,16 @@
       <c r="D48" s="93" t="n"/>
       <c r="G48" s="1" t="n"/>
       <c r="H48" s="95" t="n"/>
-      <c r="J48" s="203" t="n"/>
+      <c r="J48" s="191" t="n"/>
       <c r="K48" s="42" t="inlineStr">
         <is>
           <t>Winner QF2</t>
         </is>
       </c>
-      <c r="L48" s="203" t="n"/>
+      <c r="L48" s="191" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="207" t="inlineStr">
+      <c r="B49" s="190" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
@@ -10288,22 +10296,22 @@
           <t>Winner Group F</t>
         </is>
       </c>
-      <c r="D49" s="202" t="n"/>
+      <c r="D49" s="195" t="n"/>
       <c r="G49" s="1" t="n"/>
       <c r="H49" s="96" t="n"/>
       <c r="K49" s="37" t="n"/>
       <c r="L49" s="94" t="n"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B50" s="203" t="n"/>
-      <c r="C50" s="200" t="inlineStr">
+    <row r="50" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B50" s="191" t="n"/>
+      <c r="C50" s="206" t="inlineStr">
         <is>
           <t>3rd Group A/B/C</t>
         </is>
       </c>
-      <c r="D50" s="203" t="n"/>
+      <c r="D50" s="191" t="n"/>
       <c r="E50" s="43" t="n"/>
-      <c r="F50" s="206" t="inlineStr">
+      <c r="F50" s="194" t="inlineStr">
         <is>
           <t>QF2</t>
         </is>
@@ -10313,42 +10321,42 @@
           <t>Winner R3</t>
         </is>
       </c>
-      <c r="H50" s="202" t="n"/>
+      <c r="H50" s="195" t="n"/>
       <c r="K50" s="37" t="n"/>
       <c r="L50" s="95" t="n"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1" s="191" thickBot="1">
+    <row r="51" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B51" s="5" t="n"/>
       <c r="D51" s="93" t="n"/>
       <c r="E51" s="43" t="n"/>
-      <c r="F51" s="203" t="n"/>
+      <c r="F51" s="191" t="n"/>
       <c r="G51" s="41" t="inlineStr">
         <is>
           <t>Winner R4</t>
         </is>
       </c>
-      <c r="H51" s="203" t="n"/>
+      <c r="H51" s="191" t="n"/>
       <c r="K51" s="37" t="n"/>
       <c r="L51" s="95" t="n"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B52" s="207" t="inlineStr">
+    <row r="52" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B52" s="190" t="inlineStr">
         <is>
           <t>R4</t>
         </is>
       </c>
       <c r="C52" s="38" t="inlineStr">
         <is>
-          <t>2nd Group D</t>
-        </is>
-      </c>
-      <c r="D52" s="202" t="n"/>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="D52" s="195" t="n"/>
       <c r="G52" s="1" t="n"/>
       <c r="H52" s="93" t="n"/>
       <c r="K52" s="37" t="n"/>
       <c r="L52" s="95" t="n"/>
       <c r="M52" s="43" t="n"/>
-      <c r="N52" s="205" t="inlineStr">
+      <c r="N52" s="200" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -10358,27 +10366,27 @@
           <t>Winner SF1</t>
         </is>
       </c>
-      <c r="P52" s="202" t="n"/>
+      <c r="P52" s="195" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="203" t="n"/>
-      <c r="C53" s="200" t="inlineStr">
+      <c r="B53" s="191" t="n"/>
+      <c r="C53" s="206" t="inlineStr">
         <is>
           <t>2nd Group E</t>
         </is>
       </c>
-      <c r="D53" s="203" t="n"/>
+      <c r="D53" s="191" t="n"/>
       <c r="G53" s="1" t="n"/>
       <c r="H53" s="93" t="n"/>
       <c r="K53" s="37" t="n"/>
       <c r="L53" s="95" t="n"/>
-      <c r="N53" s="203" t="n"/>
+      <c r="N53" s="191" t="n"/>
       <c r="O53" s="42" t="inlineStr">
         <is>
           <t>Winner SF2</t>
         </is>
       </c>
-      <c r="P53" s="203" t="n"/>
+      <c r="P53" s="191" t="n"/>
     </row>
     <row r="54">
       <c r="B54" s="5" t="n"/>
@@ -10389,7 +10397,7 @@
       <c r="L54" s="95" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="207" t="inlineStr">
+      <c r="B55" s="190" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
@@ -10399,22 +10407,22 @@
           <t>Winner Group E</t>
         </is>
       </c>
-      <c r="D55" s="202" t="n"/>
+      <c r="D55" s="195" t="n"/>
       <c r="G55" s="1" t="n"/>
       <c r="H55" s="93" t="n"/>
       <c r="K55" s="37" t="n"/>
       <c r="L55" s="95" t="n"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B56" s="203" t="n"/>
-      <c r="C56" s="200" t="inlineStr">
+    <row r="56" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B56" s="191" t="n"/>
+      <c r="C56" s="206" t="inlineStr">
         <is>
           <t>3rd Group A/B/C/D</t>
         </is>
       </c>
-      <c r="D56" s="203" t="n"/>
+      <c r="D56" s="191" t="n"/>
       <c r="E56" s="44" t="n"/>
-      <c r="F56" s="206" t="inlineStr">
+      <c r="F56" s="194" t="inlineStr">
         <is>
           <t>QF3</t>
         </is>
@@ -10424,53 +10432,53 @@
           <t>Winner R5</t>
         </is>
       </c>
-      <c r="H56" s="202" t="n"/>
+      <c r="H56" s="195" t="n"/>
       <c r="K56" s="37" t="n"/>
       <c r="L56" s="95" t="n"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1" s="191" thickBot="1">
+    <row r="57" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B57" s="5" t="n"/>
       <c r="D57" s="93" t="n"/>
       <c r="E57" s="45" t="n"/>
-      <c r="F57" s="203" t="n"/>
+      <c r="F57" s="191" t="n"/>
       <c r="G57" s="41" t="inlineStr">
         <is>
           <t>Winner R6</t>
         </is>
       </c>
-      <c r="H57" s="203" t="n"/>
+      <c r="H57" s="191" t="n"/>
       <c r="K57" s="37" t="n"/>
       <c r="L57" s="95" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="207" t="inlineStr">
+      <c r="B58" s="190" t="inlineStr">
         <is>
           <t>R6</t>
         </is>
       </c>
       <c r="C58" s="38" t="inlineStr">
         <is>
-          <t>Winner Group D</t>
-        </is>
-      </c>
-      <c r="D58" s="202" t="n"/>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="D58" s="195" t="n"/>
       <c r="G58" s="1" t="n"/>
       <c r="H58" s="94" t="n"/>
       <c r="K58" s="37" t="n"/>
       <c r="L58" s="96" t="n"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B59" s="203" t="n"/>
-      <c r="C59" s="200" t="inlineStr">
+    <row r="59" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B59" s="191" t="n"/>
+      <c r="C59" s="206" t="inlineStr">
         <is>
           <t>2nd Group F</t>
         </is>
       </c>
-      <c r="D59" s="203" t="n"/>
+      <c r="D59" s="191" t="n"/>
       <c r="G59" s="1" t="n"/>
       <c r="H59" s="95" t="n"/>
       <c r="I59" s="43" t="n"/>
-      <c r="J59" s="204" t="inlineStr">
+      <c r="J59" s="199" t="inlineStr">
         <is>
           <t>SF2</t>
         </is>
@@ -10480,23 +10488,23 @@
           <t>Winner QF3</t>
         </is>
       </c>
-      <c r="L59" s="202" t="n"/>
+      <c r="L59" s="195" t="n"/>
     </row>
     <row r="60">
       <c r="B60" s="5" t="n"/>
       <c r="D60" s="93" t="n"/>
       <c r="G60" s="1" t="n"/>
       <c r="H60" s="95" t="n"/>
-      <c r="J60" s="203" t="n"/>
+      <c r="J60" s="191" t="n"/>
       <c r="K60" s="42" t="inlineStr">
         <is>
           <t>Winner QF4</t>
         </is>
       </c>
-      <c r="L60" s="203" t="n"/>
+      <c r="L60" s="191" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="207" t="inlineStr">
+      <c r="B61" s="190" t="inlineStr">
         <is>
           <t>R7</t>
         </is>
@@ -10506,20 +10514,20 @@
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="D61" s="202" t="n"/>
+      <c r="D61" s="195" t="n"/>
       <c r="G61" s="1" t="n"/>
       <c r="H61" s="96" t="n"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1" s="191" thickBot="1">
-      <c r="B62" s="203" t="n"/>
-      <c r="C62" s="200" t="inlineStr">
+    <row r="62" ht="15.75" customHeight="1" s="202" thickBot="1">
+      <c r="B62" s="191" t="n"/>
+      <c r="C62" s="206" t="inlineStr">
         <is>
           <t>3rd Group D/E/F</t>
         </is>
       </c>
-      <c r="D62" s="203" t="n"/>
+      <c r="D62" s="191" t="n"/>
       <c r="E62" s="44" t="n"/>
-      <c r="F62" s="206" t="inlineStr">
+      <c r="F62" s="194" t="inlineStr">
         <is>
           <t>QF4</t>
         </is>
@@ -10529,22 +10537,22 @@
           <t>Winner R7</t>
         </is>
       </c>
-      <c r="H62" s="202" t="n"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1" s="191" thickBot="1">
+      <c r="H62" s="195" t="n"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" s="202" thickBot="1">
       <c r="B63" s="5" t="n"/>
       <c r="D63" s="93" t="n"/>
       <c r="E63" s="45" t="n"/>
-      <c r="F63" s="203" t="n"/>
+      <c r="F63" s="191" t="n"/>
       <c r="G63" s="41" t="inlineStr">
         <is>
           <t>Winner R8</t>
         </is>
       </c>
-      <c r="H63" s="203" t="n"/>
+      <c r="H63" s="191" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="207" t="inlineStr">
+      <c r="B64" s="190" t="inlineStr">
         <is>
           <t>R8</t>
         </is>
@@ -10554,19 +10562,50 @@
           <t>Wales</t>
         </is>
       </c>
-      <c r="D64" s="202" t="n"/>
+      <c r="D64" s="195" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" s="203" t="n"/>
-      <c r="C65" s="200" t="inlineStr">
+      <c r="B65" s="191" t="n"/>
+      <c r="C65" s="206" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="D65" s="203" t="n"/>
+      <c r="D65" s="191" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
     <mergeCell ref="S42:T42"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C16:L16"/>
@@ -10581,37 +10620,6 @@
     <mergeCell ref="H39:L40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="J59:J60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Euro2020/result_files/EC_2020.xlsx
+++ b/Euro2020/result_files/EC_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lina\git\Euro2020\Euro2020\result_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BC414D-CBDF-43C8-BBE7-57313B5A8494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED97BD44-43A2-4BE0-B70B-08802830A92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matches" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="100">
   <si>
     <t xml:space="preserve">EURO 2020 </t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>3-3</t>
+  </si>
+  <si>
+    <t>2-3</t>
   </si>
 </sst>
 </file>
@@ -1529,51 +1532,67 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="15"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="31" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="31" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="32" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="32" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="32" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="32" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="32" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1604,22 +1623,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="22" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="32" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="32" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="32" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="32" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="32" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -1952,7 +1955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:U65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -1971,18 +1974,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="208" t="s">
+      <c r="C2" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C4" s="77" t="s">
@@ -2249,73 +2252,73 @@
       <c r="L15" s="83"/>
     </row>
     <row r="16" spans="3:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="192" t="s">
+      <c r="C16" s="208" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="193"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="193"/>
-      <c r="I16" s="193"/>
-      <c r="J16" s="193"/>
-      <c r="K16" s="193"/>
-      <c r="L16" s="193"/>
+      <c r="D16" s="196"/>
+      <c r="E16" s="196"/>
+      <c r="F16" s="196"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="196"/>
+      <c r="I16" s="196"/>
+      <c r="J16" s="196"/>
+      <c r="K16" s="196"/>
+      <c r="L16" s="196"/>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="209"/>
-      <c r="E17" s="204"/>
-      <c r="F17" s="204"/>
-      <c r="G17" s="205"/>
-      <c r="H17" s="203" t="s">
+      <c r="D17" s="192"/>
+      <c r="E17" s="193"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="199" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="204"/>
-      <c r="J17" s="204"/>
-      <c r="K17" s="204"/>
-      <c r="L17" s="205"/>
+      <c r="I17" s="193"/>
+      <c r="J17" s="193"/>
+      <c r="K17" s="193"/>
+      <c r="L17" s="194"/>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="196"/>
-      <c r="E18" s="193"/>
-      <c r="F18" s="193"/>
+      <c r="D18" s="195"/>
+      <c r="E18" s="196"/>
+      <c r="F18" s="196"/>
       <c r="G18" s="197"/>
-      <c r="H18" s="206"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="193"/>
-      <c r="K18" s="193"/>
+      <c r="H18" s="200"/>
+      <c r="I18" s="196"/>
+      <c r="J18" s="196"/>
+      <c r="K18" s="196"/>
       <c r="L18" s="197"/>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C19" s="31"/>
     </row>
     <row r="20" spans="3:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="207" t="s">
+      <c r="C20" s="201" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="204"/>
+      <c r="D20" s="193"/>
       <c r="E20" s="35" t="s">
         <v>37</v>
       </c>
       <c r="F20" s="36"/>
-      <c r="G20" s="207" t="s">
+      <c r="G20" s="201" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="204"/>
+      <c r="H20" s="193"/>
       <c r="I20" s="35" t="s">
         <v>37</v>
       </c>
       <c r="J20" s="36"/>
-      <c r="K20" s="207" t="s">
+      <c r="K20" s="201" t="s">
         <v>39</v>
       </c>
-      <c r="L20" s="204"/>
+      <c r="L20" s="193"/>
       <c r="M20" s="35" t="s">
         <v>37</v>
       </c>
@@ -2745,47 +2748,47 @@
       <c r="M36" s="92"/>
     </row>
     <row r="38" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="192" t="s">
+      <c r="C38" s="208" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="193"/>
-      <c r="E38" s="193"/>
-      <c r="F38" s="193"/>
-      <c r="G38" s="193"/>
-      <c r="H38" s="193"/>
-      <c r="I38" s="193"/>
-      <c r="J38" s="193"/>
-      <c r="K38" s="193"/>
-      <c r="L38" s="193"/>
+      <c r="D38" s="196"/>
+      <c r="E38" s="196"/>
+      <c r="F38" s="196"/>
+      <c r="G38" s="196"/>
+      <c r="H38" s="196"/>
+      <c r="I38" s="196"/>
+      <c r="J38" s="196"/>
+      <c r="K38" s="196"/>
+      <c r="L38" s="196"/>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C39" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="209"/>
-      <c r="E39" s="204"/>
-      <c r="F39" s="204"/>
-      <c r="G39" s="205"/>
-      <c r="H39" s="203" t="s">
+      <c r="D39" s="192"/>
+      <c r="E39" s="193"/>
+      <c r="F39" s="193"/>
+      <c r="G39" s="194"/>
+      <c r="H39" s="199" t="s">
         <v>57</v>
       </c>
-      <c r="I39" s="204"/>
-      <c r="J39" s="204"/>
-      <c r="K39" s="204"/>
-      <c r="L39" s="205"/>
+      <c r="I39" s="193"/>
+      <c r="J39" s="193"/>
+      <c r="K39" s="193"/>
+      <c r="L39" s="194"/>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C40" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="196"/>
-      <c r="E40" s="193"/>
-      <c r="F40" s="193"/>
+      <c r="D40" s="195"/>
+      <c r="E40" s="196"/>
+      <c r="F40" s="196"/>
       <c r="G40" s="197"/>
-      <c r="H40" s="206"/>
-      <c r="I40" s="193"/>
-      <c r="J40" s="193"/>
-      <c r="K40" s="193"/>
+      <c r="H40" s="200"/>
+      <c r="I40" s="196"/>
+      <c r="J40" s="196"/>
+      <c r="K40" s="196"/>
       <c r="L40" s="197"/>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.25">
@@ -2793,10 +2796,10 @@
       <c r="C41" s="186"/>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B42" s="198" t="s">
+      <c r="B42" s="209" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="193"/>
+      <c r="C42" s="196"/>
       <c r="D42" s="30" t="s">
         <v>37</v>
       </c>
@@ -2825,73 +2828,73 @@
         <v>37</v>
       </c>
       <c r="Q42" s="39"/>
-      <c r="S42" s="201"/>
-      <c r="T42" s="202"/>
+      <c r="S42" s="198"/>
+      <c r="T42" s="191"/>
       <c r="U42" s="39"/>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B43" s="190" t="s">
+      <c r="B43" s="207" t="s">
         <v>62</v>
       </c>
       <c r="C43" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="195"/>
+      <c r="D43" s="202"/>
     </row>
     <row r="44" spans="2:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="191"/>
+      <c r="B44" s="203"/>
       <c r="C44" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="191"/>
+      <c r="D44" s="203"/>
       <c r="E44" s="44"/>
-      <c r="F44" s="194" t="s">
+      <c r="F44" s="206" t="s">
         <v>63</v>
       </c>
       <c r="G44" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="H44" s="195"/>
+      <c r="H44" s="202"/>
     </row>
     <row r="45" spans="2:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="5"/>
       <c r="D45" s="93"/>
       <c r="E45" s="43"/>
-      <c r="F45" s="191"/>
+      <c r="F45" s="203"/>
       <c r="G45" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="H45" s="191"/>
+      <c r="H45" s="203"/>
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B46" s="190" t="s">
+      <c r="B46" s="207" t="s">
         <v>66</v>
       </c>
       <c r="C46" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="195"/>
+      <c r="D46" s="202"/>
       <c r="G46" s="1"/>
       <c r="H46" s="94"/>
     </row>
     <row r="47" spans="2:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="191"/>
+      <c r="B47" s="203"/>
       <c r="C47" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="191"/>
+      <c r="D47" s="203"/>
       <c r="G47" s="1"/>
       <c r="H47" s="95"/>
       <c r="I47" s="43"/>
-      <c r="J47" s="199" t="s">
+      <c r="J47" s="204" t="s">
         <v>67</v>
       </c>
       <c r="K47" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="L47" s="195"/>
-      <c r="S47" s="201"/>
-      <c r="T47" s="202"/>
+      <c r="L47" s="202"/>
+      <c r="S47" s="198"/>
+      <c r="T47" s="191"/>
       <c r="U47" s="39"/>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.25">
@@ -2899,39 +2902,39 @@
       <c r="D48" s="93"/>
       <c r="G48" s="1"/>
       <c r="H48" s="95"/>
-      <c r="J48" s="191"/>
+      <c r="J48" s="203"/>
       <c r="K48" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="L48" s="191"/>
+      <c r="L48" s="203"/>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B49" s="190" t="s">
+      <c r="B49" s="207" t="s">
         <v>70</v>
       </c>
       <c r="C49" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="195"/>
+      <c r="D49" s="202"/>
       <c r="G49" s="1"/>
       <c r="H49" s="96"/>
       <c r="K49" s="37"/>
       <c r="L49" s="94"/>
     </row>
     <row r="50" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="191"/>
+      <c r="B50" s="203"/>
       <c r="C50" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="191"/>
+      <c r="D50" s="203"/>
       <c r="E50" s="43"/>
-      <c r="F50" s="194" t="s">
+      <c r="F50" s="206" t="s">
         <v>71</v>
       </c>
       <c r="G50" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="H50" s="195"/>
+      <c r="H50" s="202"/>
       <c r="K50" s="37"/>
       <c r="L50" s="95"/>
     </row>
@@ -2939,50 +2942,50 @@
       <c r="B51" s="5"/>
       <c r="D51" s="93"/>
       <c r="E51" s="43"/>
-      <c r="F51" s="191"/>
+      <c r="F51" s="203"/>
       <c r="G51" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="H51" s="191"/>
+      <c r="H51" s="203"/>
       <c r="K51" s="37"/>
       <c r="L51" s="95"/>
     </row>
     <row r="52" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="190" t="s">
+      <c r="B52" s="207" t="s">
         <v>74</v>
       </c>
       <c r="C52" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="195"/>
+      <c r="D52" s="202"/>
       <c r="G52" s="1"/>
       <c r="H52" s="93"/>
       <c r="K52" s="37"/>
       <c r="L52" s="95"/>
       <c r="M52" s="43"/>
-      <c r="N52" s="200" t="s">
+      <c r="N52" s="205" t="s">
         <v>75</v>
       </c>
       <c r="O52" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="P52" s="195"/>
+      <c r="P52" s="202"/>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B53" s="191"/>
+      <c r="B53" s="203"/>
       <c r="C53" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="191"/>
+      <c r="D53" s="203"/>
       <c r="G53" s="1"/>
       <c r="H53" s="93"/>
       <c r="K53" s="37"/>
       <c r="L53" s="95"/>
-      <c r="N53" s="191"/>
+      <c r="N53" s="203"/>
       <c r="O53" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="P53" s="191"/>
+      <c r="P53" s="203"/>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
@@ -2993,32 +2996,32 @@
       <c r="L54" s="95"/>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B55" s="190" t="s">
+      <c r="B55" s="207" t="s">
         <v>78</v>
       </c>
       <c r="C55" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="195"/>
+      <c r="D55" s="202"/>
       <c r="G55" s="1"/>
       <c r="H55" s="93"/>
       <c r="K55" s="37"/>
       <c r="L55" s="95"/>
     </row>
     <row r="56" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="191"/>
+      <c r="B56" s="203"/>
       <c r="C56" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="D56" s="191"/>
+      <c r="D56" s="203"/>
       <c r="E56" s="44"/>
-      <c r="F56" s="194" t="s">
+      <c r="F56" s="206" t="s">
         <v>79</v>
       </c>
       <c r="G56" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="H56" s="195"/>
+      <c r="H56" s="202"/>
       <c r="K56" s="37"/>
       <c r="L56" s="95"/>
     </row>
@@ -3026,129 +3029,119 @@
       <c r="B57" s="5"/>
       <c r="D57" s="93"/>
       <c r="E57" s="45"/>
-      <c r="F57" s="191"/>
+      <c r="F57" s="203"/>
       <c r="G57" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="H57" s="191"/>
+      <c r="H57" s="203"/>
       <c r="K57" s="37"/>
       <c r="L57" s="95"/>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B58" s="190" t="s">
+      <c r="B58" s="207" t="s">
         <v>82</v>
       </c>
       <c r="C58" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="195"/>
+      <c r="D58" s="202"/>
       <c r="G58" s="1"/>
       <c r="H58" s="94"/>
       <c r="K58" s="37"/>
       <c r="L58" s="96"/>
     </row>
     <row r="59" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="191"/>
+      <c r="B59" s="203"/>
       <c r="C59" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="D59" s="191"/>
+      <c r="D59" s="203"/>
       <c r="G59" s="1"/>
       <c r="H59" s="95"/>
       <c r="I59" s="43"/>
-      <c r="J59" s="199" t="s">
+      <c r="J59" s="204" t="s">
         <v>83</v>
       </c>
       <c r="K59" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="L59" s="195"/>
+      <c r="L59" s="202"/>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B60" s="5"/>
       <c r="D60" s="93"/>
       <c r="G60" s="1"/>
       <c r="H60" s="95"/>
-      <c r="J60" s="191"/>
+      <c r="J60" s="203"/>
       <c r="K60" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="L60" s="191"/>
+      <c r="L60" s="203"/>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B61" s="190" t="s">
+      <c r="B61" s="207" t="s">
         <v>86</v>
       </c>
       <c r="C61" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D61" s="195"/>
+      <c r="D61" s="202"/>
       <c r="G61" s="1"/>
       <c r="H61" s="96"/>
     </row>
     <row r="62" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="191"/>
+      <c r="B62" s="203"/>
       <c r="C62" s="187" t="s">
         <v>23</v>
       </c>
-      <c r="D62" s="191"/>
+      <c r="D62" s="203"/>
       <c r="E62" s="44"/>
-      <c r="F62" s="194" t="s">
+      <c r="F62" s="206" t="s">
         <v>87</v>
       </c>
       <c r="G62" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="H62" s="195"/>
+      <c r="H62" s="202"/>
     </row>
     <row r="63" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="5"/>
       <c r="D63" s="93"/>
       <c r="E63" s="45"/>
-      <c r="F63" s="191"/>
+      <c r="F63" s="203"/>
       <c r="G63" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="H63" s="191"/>
+      <c r="H63" s="203"/>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B64" s="190" t="s">
+      <c r="B64" s="207" t="s">
         <v>90</v>
       </c>
       <c r="C64" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="195"/>
+      <c r="D64" s="202"/>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="191"/>
+      <c r="B65" s="203"/>
       <c r="C65" s="187" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="191"/>
+      <c r="D65" s="203"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="H17:L18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="H39:L40"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C38:L38"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="F62:F63"/>
     <mergeCell ref="F56:F57"/>
     <mergeCell ref="F50:F51"/>
@@ -3164,16 +3157,26 @@
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="D64:D65"/>
     <mergeCell ref="D58:D59"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C38:L38"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="H17:L18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="H39:L40"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="S42:T42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -3486,18 +3489,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="212" t="s">
+      <c r="C2" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
-      <c r="L2" s="211"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="217"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="217"/>
+      <c r="H2" s="217"/>
+      <c r="I2" s="217"/>
+      <c r="J2" s="217"/>
+      <c r="K2" s="217"/>
+      <c r="L2" s="217"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C4" s="98" t="s">
@@ -3716,48 +3719,48 @@
       <c r="L15" s="100"/>
     </row>
     <row r="16" spans="3:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="213" t="s">
+      <c r="C16" s="219" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="214"/>
-      <c r="E16" s="214"/>
-      <c r="F16" s="214"/>
-      <c r="G16" s="214"/>
-      <c r="H16" s="214"/>
-      <c r="I16" s="214"/>
-      <c r="J16" s="214"/>
-      <c r="K16" s="214"/>
-      <c r="L16" s="214"/>
+      <c r="D16" s="220"/>
+      <c r="E16" s="220"/>
+      <c r="F16" s="220"/>
+      <c r="G16" s="220"/>
+      <c r="H16" s="220"/>
+      <c r="I16" s="220"/>
+      <c r="J16" s="220"/>
+      <c r="K16" s="220"/>
+      <c r="L16" s="220"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C17" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="215"/>
-      <c r="E17" s="216"/>
-      <c r="F17" s="216"/>
-      <c r="G17" s="217"/>
-      <c r="H17" s="218" t="s">
+      <c r="D17" s="221"/>
+      <c r="E17" s="222"/>
+      <c r="F17" s="222"/>
+      <c r="G17" s="223"/>
+      <c r="H17" s="224" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="216"/>
-      <c r="J17" s="216"/>
-      <c r="K17" s="216"/>
-      <c r="L17" s="217"/>
+      <c r="I17" s="222"/>
+      <c r="J17" s="222"/>
+      <c r="K17" s="222"/>
+      <c r="L17" s="223"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C18" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="221"/>
-      <c r="E18" s="214"/>
-      <c r="F18" s="214"/>
-      <c r="G18" s="220"/>
-      <c r="H18" s="219"/>
-      <c r="I18" s="214"/>
-      <c r="J18" s="214"/>
-      <c r="K18" s="214"/>
-      <c r="L18" s="220"/>
+      <c r="D18" s="227"/>
+      <c r="E18" s="220"/>
+      <c r="F18" s="220"/>
+      <c r="G18" s="226"/>
+      <c r="H18" s="225"/>
+      <c r="I18" s="220"/>
+      <c r="J18" s="220"/>
+      <c r="K18" s="220"/>
+      <c r="L18" s="226"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C19" s="100"/>
@@ -3765,26 +3768,26 @@
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="138"/>
       <c r="B20" s="138"/>
-      <c r="C20" s="222" t="s">
+      <c r="C20" s="228" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="216"/>
+      <c r="D20" s="222"/>
       <c r="E20" s="139" t="s">
         <v>37</v>
       </c>
       <c r="F20" s="188"/>
-      <c r="G20" s="222" t="s">
+      <c r="G20" s="228" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="216"/>
+      <c r="H20" s="222"/>
       <c r="I20" s="139" t="s">
         <v>37</v>
       </c>
       <c r="J20" s="188"/>
-      <c r="K20" s="222" t="s">
+      <c r="K20" s="228" t="s">
         <v>39</v>
       </c>
-      <c r="L20" s="216"/>
+      <c r="L20" s="222"/>
       <c r="M20" s="139" t="s">
         <v>37</v>
       </c>
@@ -4254,58 +4257,58 @@
     </row>
     <row r="37" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="2:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="213" t="s">
+      <c r="C38" s="219" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="214"/>
-      <c r="E38" s="214"/>
-      <c r="F38" s="214"/>
-      <c r="G38" s="214"/>
-      <c r="H38" s="214"/>
-      <c r="I38" s="214"/>
-      <c r="J38" s="214"/>
-      <c r="K38" s="214"/>
-      <c r="L38" s="214"/>
+      <c r="D38" s="220"/>
+      <c r="E38" s="220"/>
+      <c r="F38" s="220"/>
+      <c r="G38" s="220"/>
+      <c r="H38" s="220"/>
+      <c r="I38" s="220"/>
+      <c r="J38" s="220"/>
+      <c r="K38" s="220"/>
+      <c r="L38" s="220"/>
     </row>
     <row r="39" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="215"/>
-      <c r="E39" s="216"/>
-      <c r="F39" s="216"/>
-      <c r="G39" s="217"/>
-      <c r="H39" s="218" t="s">
+      <c r="D39" s="221"/>
+      <c r="E39" s="222"/>
+      <c r="F39" s="222"/>
+      <c r="G39" s="223"/>
+      <c r="H39" s="224" t="s">
         <v>57</v>
       </c>
-      <c r="I39" s="216"/>
-      <c r="J39" s="216"/>
-      <c r="K39" s="216"/>
-      <c r="L39" s="217"/>
+      <c r="I39" s="222"/>
+      <c r="J39" s="222"/>
+      <c r="K39" s="222"/>
+      <c r="L39" s="223"/>
     </row>
     <row r="40" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="221"/>
-      <c r="E40" s="214"/>
-      <c r="F40" s="214"/>
-      <c r="G40" s="220"/>
-      <c r="H40" s="219"/>
-      <c r="I40" s="214"/>
-      <c r="J40" s="214"/>
-      <c r="K40" s="214"/>
-      <c r="L40" s="220"/>
+      <c r="D40" s="227"/>
+      <c r="E40" s="220"/>
+      <c r="F40" s="220"/>
+      <c r="G40" s="226"/>
+      <c r="H40" s="225"/>
+      <c r="I40" s="220"/>
+      <c r="J40" s="220"/>
+      <c r="K40" s="220"/>
+      <c r="L40" s="226"/>
     </row>
     <row r="41" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="168"/>
       <c r="C41" s="169"/>
     </row>
     <row r="42" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="223" t="s">
+      <c r="B42" s="229" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="214"/>
+      <c r="C42" s="220"/>
       <c r="D42" s="170" t="s">
         <v>37</v>
       </c>
@@ -4335,19 +4338,19 @@
       </c>
       <c r="Q42" s="138"/>
       <c r="R42" s="171"/>
-      <c r="S42" s="210"/>
-      <c r="T42" s="211"/>
+      <c r="S42" s="216"/>
+      <c r="T42" s="217"/>
       <c r="U42" s="138"/>
       <c r="V42" s="171"/>
     </row>
     <row r="43" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="224" t="s">
+      <c r="B43" s="210" t="s">
         <v>62</v>
       </c>
       <c r="C43" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="226"/>
+      <c r="D43" s="212"/>
       <c r="E43" s="171"/>
       <c r="F43" s="171"/>
       <c r="O43" s="171"/>
@@ -4360,19 +4363,19 @@
       <c r="V43" s="171"/>
     </row>
     <row r="44" spans="2:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="225"/>
+      <c r="B44" s="211"/>
       <c r="C44" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="225"/>
+      <c r="D44" s="211"/>
       <c r="E44" s="174"/>
-      <c r="F44" s="227" t="s">
+      <c r="F44" s="214" t="s">
         <v>63</v>
       </c>
       <c r="G44" s="175" t="s">
         <v>64</v>
       </c>
-      <c r="H44" s="226"/>
+      <c r="H44" s="212"/>
       <c r="O44" s="171"/>
       <c r="P44" s="171"/>
       <c r="Q44" s="171"/>
@@ -4387,11 +4390,11 @@
       <c r="C45" s="171"/>
       <c r="D45" s="176"/>
       <c r="E45" s="177"/>
-      <c r="F45" s="225"/>
+      <c r="F45" s="211"/>
       <c r="G45" s="178" t="s">
         <v>65</v>
       </c>
-      <c r="H45" s="225"/>
+      <c r="H45" s="211"/>
       <c r="O45" s="171"/>
       <c r="P45" s="171"/>
       <c r="Q45" s="171"/>
@@ -4402,13 +4405,13 @@
       <c r="V45" s="171"/>
     </row>
     <row r="46" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="224" t="s">
+      <c r="B46" s="210" t="s">
         <v>66</v>
       </c>
       <c r="C46" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="226"/>
+      <c r="D46" s="212"/>
       <c r="E46" s="171"/>
       <c r="F46" s="171"/>
       <c r="G46" s="179"/>
@@ -4423,29 +4426,29 @@
       <c r="V46" s="171"/>
     </row>
     <row r="47" spans="2:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="225"/>
+      <c r="B47" s="211"/>
       <c r="C47" s="173" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="225"/>
+      <c r="D47" s="211"/>
       <c r="E47" s="171"/>
       <c r="F47" s="171"/>
       <c r="G47" s="179"/>
       <c r="H47" s="181"/>
       <c r="I47" s="177"/>
-      <c r="J47" s="228" t="s">
+      <c r="J47" s="213" t="s">
         <v>67</v>
       </c>
       <c r="K47" s="182" t="s">
         <v>68</v>
       </c>
-      <c r="L47" s="226"/>
+      <c r="L47" s="212"/>
       <c r="O47" s="171"/>
       <c r="P47" s="171"/>
       <c r="Q47" s="171"/>
       <c r="R47" s="171"/>
-      <c r="S47" s="210"/>
-      <c r="T47" s="211"/>
+      <c r="S47" s="216"/>
+      <c r="T47" s="217"/>
       <c r="U47" s="138"/>
       <c r="V47" s="171"/>
     </row>
@@ -4457,11 +4460,11 @@
       <c r="F48" s="171"/>
       <c r="G48" s="179"/>
       <c r="H48" s="181"/>
-      <c r="J48" s="225"/>
+      <c r="J48" s="211"/>
       <c r="K48" s="165" t="s">
         <v>69</v>
       </c>
-      <c r="L48" s="225"/>
+      <c r="L48" s="211"/>
       <c r="O48" s="171"/>
       <c r="P48" s="171"/>
       <c r="Q48" s="171"/>
@@ -4472,13 +4475,13 @@
       <c r="V48" s="171"/>
     </row>
     <row r="49" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="224" t="s">
+      <c r="B49" s="210" t="s">
         <v>70</v>
       </c>
       <c r="C49" s="172" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="226"/>
+      <c r="D49" s="212"/>
       <c r="E49" s="171"/>
       <c r="F49" s="171"/>
       <c r="G49" s="179"/>
@@ -4487,19 +4490,19 @@
       <c r="L49" s="180"/>
     </row>
     <row r="50" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="225"/>
+      <c r="B50" s="211"/>
       <c r="C50" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="225"/>
+      <c r="D50" s="211"/>
       <c r="E50" s="177"/>
-      <c r="F50" s="227" t="s">
+      <c r="F50" s="214" t="s">
         <v>71</v>
       </c>
       <c r="G50" s="175" t="s">
         <v>72</v>
       </c>
-      <c r="H50" s="226"/>
+      <c r="H50" s="212"/>
       <c r="K50" s="143"/>
       <c r="L50" s="181"/>
     </row>
@@ -4508,22 +4511,22 @@
       <c r="C51" s="171"/>
       <c r="D51" s="176"/>
       <c r="E51" s="177"/>
-      <c r="F51" s="225"/>
+      <c r="F51" s="211"/>
       <c r="G51" s="178" t="s">
         <v>73</v>
       </c>
-      <c r="H51" s="225"/>
+      <c r="H51" s="211"/>
       <c r="K51" s="143"/>
       <c r="L51" s="181"/>
     </row>
     <row r="52" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="224" t="s">
+      <c r="B52" s="210" t="s">
         <v>74</v>
       </c>
       <c r="C52" s="172" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="226"/>
+      <c r="D52" s="212"/>
       <c r="E52" s="171"/>
       <c r="F52" s="171"/>
       <c r="G52" s="179"/>
@@ -4531,31 +4534,31 @@
       <c r="K52" s="143"/>
       <c r="L52" s="181"/>
       <c r="M52" s="177"/>
-      <c r="N52" s="229" t="s">
+      <c r="N52" s="215" t="s">
         <v>75</v>
       </c>
       <c r="O52" s="182" t="s">
         <v>76</v>
       </c>
-      <c r="P52" s="226"/>
+      <c r="P52" s="212"/>
     </row>
     <row r="53" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="225"/>
+      <c r="B53" s="211"/>
       <c r="C53" s="173" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="225"/>
+      <c r="D53" s="211"/>
       <c r="E53" s="171"/>
       <c r="F53" s="171"/>
       <c r="G53" s="179"/>
       <c r="H53" s="176"/>
       <c r="K53" s="143"/>
       <c r="L53" s="181"/>
-      <c r="N53" s="225"/>
+      <c r="N53" s="211"/>
       <c r="O53" s="165" t="s">
         <v>77</v>
       </c>
-      <c r="P53" s="225"/>
+      <c r="P53" s="211"/>
     </row>
     <row r="54" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="138"/>
@@ -4569,13 +4572,13 @@
       <c r="L54" s="181"/>
     </row>
     <row r="55" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="224" t="s">
+      <c r="B55" s="210" t="s">
         <v>78</v>
       </c>
       <c r="C55" s="172" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="226"/>
+      <c r="D55" s="212"/>
       <c r="E55" s="171"/>
       <c r="F55" s="171"/>
       <c r="G55" s="179"/>
@@ -4584,19 +4587,19 @@
       <c r="L55" s="181"/>
     </row>
     <row r="56" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="225"/>
+      <c r="B56" s="211"/>
       <c r="C56" s="173" t="s">
         <v>13</v>
       </c>
-      <c r="D56" s="225"/>
+      <c r="D56" s="211"/>
       <c r="E56" s="174"/>
-      <c r="F56" s="227" t="s">
+      <c r="F56" s="214" t="s">
         <v>79</v>
       </c>
       <c r="G56" s="175" t="s">
         <v>80</v>
       </c>
-      <c r="H56" s="226"/>
+      <c r="H56" s="212"/>
       <c r="K56" s="143"/>
       <c r="L56" s="181"/>
     </row>
@@ -4604,106 +4607,106 @@
       <c r="B57" s="138"/>
       <c r="D57" s="176"/>
       <c r="E57" s="184"/>
-      <c r="F57" s="225"/>
+      <c r="F57" s="211"/>
       <c r="G57" s="178" t="s">
         <v>81</v>
       </c>
-      <c r="H57" s="225"/>
+      <c r="H57" s="211"/>
       <c r="K57" s="143"/>
       <c r="L57" s="181"/>
     </row>
     <row r="58" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="224" t="s">
+      <c r="B58" s="210" t="s">
         <v>82</v>
       </c>
       <c r="C58" s="172" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="226"/>
+      <c r="D58" s="212"/>
       <c r="G58" s="179"/>
       <c r="H58" s="180"/>
       <c r="K58" s="143"/>
       <c r="L58" s="183"/>
     </row>
     <row r="59" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="225"/>
+      <c r="B59" s="211"/>
       <c r="C59" s="173" t="s">
         <v>28</v>
       </c>
-      <c r="D59" s="225"/>
+      <c r="D59" s="211"/>
       <c r="G59" s="179"/>
       <c r="H59" s="181"/>
       <c r="I59" s="177"/>
-      <c r="J59" s="228" t="s">
+      <c r="J59" s="213" t="s">
         <v>83</v>
       </c>
       <c r="K59" s="182" t="s">
         <v>84</v>
       </c>
-      <c r="L59" s="226"/>
+      <c r="L59" s="212"/>
     </row>
     <row r="60" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="138"/>
       <c r="D60" s="176"/>
       <c r="G60" s="179"/>
       <c r="H60" s="181"/>
-      <c r="J60" s="225"/>
+      <c r="J60" s="211"/>
       <c r="K60" s="165" t="s">
         <v>85</v>
       </c>
-      <c r="L60" s="225"/>
+      <c r="L60" s="211"/>
     </row>
     <row r="61" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="224" t="s">
+      <c r="B61" s="210" t="s">
         <v>86</v>
       </c>
       <c r="C61" s="172" t="s">
         <v>7</v>
       </c>
-      <c r="D61" s="226"/>
+      <c r="D61" s="212"/>
       <c r="G61" s="179"/>
       <c r="H61" s="183"/>
     </row>
     <row r="62" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="225"/>
+      <c r="B62" s="211"/>
       <c r="C62" s="173" t="s">
         <v>23</v>
       </c>
-      <c r="D62" s="225"/>
+      <c r="D62" s="211"/>
       <c r="E62" s="174"/>
-      <c r="F62" s="227" t="s">
+      <c r="F62" s="214" t="s">
         <v>87</v>
       </c>
       <c r="G62" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="H62" s="226"/>
+      <c r="H62" s="212"/>
     </row>
     <row r="63" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="138"/>
       <c r="D63" s="176"/>
       <c r="E63" s="184"/>
-      <c r="F63" s="225"/>
+      <c r="F63" s="211"/>
       <c r="G63" s="178" t="s">
         <v>89</v>
       </c>
-      <c r="H63" s="225"/>
+      <c r="H63" s="211"/>
     </row>
     <row r="64" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="224" t="s">
+      <c r="B64" s="210" t="s">
         <v>90</v>
       </c>
       <c r="C64" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="226"/>
+      <c r="D64" s="212"/>
     </row>
     <row r="65" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="225"/>
+      <c r="B65" s="211"/>
       <c r="C65" s="173" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="225"/>
+      <c r="D65" s="211"/>
     </row>
     <row r="66" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5642,37 +5645,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
     <mergeCell ref="S42:T42"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C16:L16"/>
@@ -5687,6 +5659,37 @@
     <mergeCell ref="H39:L40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="J59:J60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -5719,18 +5722,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="212" t="s">
+      <c r="C2" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
-      <c r="L2" s="211"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="217"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="217"/>
+      <c r="H2" s="217"/>
+      <c r="I2" s="217"/>
+      <c r="J2" s="217"/>
+      <c r="K2" s="217"/>
+      <c r="L2" s="217"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C4" s="98" t="s">
@@ -5949,48 +5952,48 @@
       <c r="L15" s="100"/>
     </row>
     <row r="16" spans="3:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="213" t="s">
+      <c r="C16" s="219" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="214"/>
-      <c r="E16" s="214"/>
-      <c r="F16" s="214"/>
-      <c r="G16" s="214"/>
-      <c r="H16" s="214"/>
-      <c r="I16" s="214"/>
-      <c r="J16" s="214"/>
-      <c r="K16" s="214"/>
-      <c r="L16" s="214"/>
+      <c r="D16" s="220"/>
+      <c r="E16" s="220"/>
+      <c r="F16" s="220"/>
+      <c r="G16" s="220"/>
+      <c r="H16" s="220"/>
+      <c r="I16" s="220"/>
+      <c r="J16" s="220"/>
+      <c r="K16" s="220"/>
+      <c r="L16" s="220"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C17" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="215"/>
-      <c r="E17" s="216"/>
-      <c r="F17" s="216"/>
-      <c r="G17" s="217"/>
-      <c r="H17" s="218" t="s">
+      <c r="D17" s="221"/>
+      <c r="E17" s="222"/>
+      <c r="F17" s="222"/>
+      <c r="G17" s="223"/>
+      <c r="H17" s="224" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="216"/>
-      <c r="J17" s="216"/>
-      <c r="K17" s="216"/>
-      <c r="L17" s="217"/>
+      <c r="I17" s="222"/>
+      <c r="J17" s="222"/>
+      <c r="K17" s="222"/>
+      <c r="L17" s="223"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C18" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="221"/>
-      <c r="E18" s="214"/>
-      <c r="F18" s="214"/>
-      <c r="G18" s="220"/>
-      <c r="H18" s="219"/>
-      <c r="I18" s="214"/>
-      <c r="J18" s="214"/>
-      <c r="K18" s="214"/>
-      <c r="L18" s="220"/>
+      <c r="D18" s="227"/>
+      <c r="E18" s="220"/>
+      <c r="F18" s="220"/>
+      <c r="G18" s="226"/>
+      <c r="H18" s="225"/>
+      <c r="I18" s="220"/>
+      <c r="J18" s="220"/>
+      <c r="K18" s="220"/>
+      <c r="L18" s="226"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C19" s="100"/>
@@ -5998,26 +6001,26 @@
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="138"/>
       <c r="B20" s="138"/>
-      <c r="C20" s="222" t="s">
+      <c r="C20" s="228" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="216"/>
+      <c r="D20" s="222"/>
       <c r="E20" s="139" t="s">
         <v>37</v>
       </c>
       <c r="F20" s="188"/>
-      <c r="G20" s="222" t="s">
+      <c r="G20" s="228" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="216"/>
+      <c r="H20" s="222"/>
       <c r="I20" s="139" t="s">
         <v>37</v>
       </c>
       <c r="J20" s="188"/>
-      <c r="K20" s="222" t="s">
+      <c r="K20" s="228" t="s">
         <v>39</v>
       </c>
-      <c r="L20" s="216"/>
+      <c r="L20" s="222"/>
       <c r="M20" s="139" t="s">
         <v>37</v>
       </c>
@@ -6487,58 +6490,58 @@
     </row>
     <row r="37" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="2:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="213" t="s">
+      <c r="C38" s="219" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="214"/>
-      <c r="E38" s="214"/>
-      <c r="F38" s="214"/>
-      <c r="G38" s="214"/>
-      <c r="H38" s="214"/>
-      <c r="I38" s="214"/>
-      <c r="J38" s="214"/>
-      <c r="K38" s="214"/>
-      <c r="L38" s="214"/>
+      <c r="D38" s="220"/>
+      <c r="E38" s="220"/>
+      <c r="F38" s="220"/>
+      <c r="G38" s="220"/>
+      <c r="H38" s="220"/>
+      <c r="I38" s="220"/>
+      <c r="J38" s="220"/>
+      <c r="K38" s="220"/>
+      <c r="L38" s="220"/>
     </row>
     <row r="39" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="215"/>
-      <c r="E39" s="216"/>
-      <c r="F39" s="216"/>
-      <c r="G39" s="217"/>
-      <c r="H39" s="218" t="s">
+      <c r="D39" s="221"/>
+      <c r="E39" s="222"/>
+      <c r="F39" s="222"/>
+      <c r="G39" s="223"/>
+      <c r="H39" s="224" t="s">
         <v>57</v>
       </c>
-      <c r="I39" s="216"/>
-      <c r="J39" s="216"/>
-      <c r="K39" s="216"/>
-      <c r="L39" s="217"/>
+      <c r="I39" s="222"/>
+      <c r="J39" s="222"/>
+      <c r="K39" s="222"/>
+      <c r="L39" s="223"/>
     </row>
     <row r="40" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="221"/>
-      <c r="E40" s="214"/>
-      <c r="F40" s="214"/>
-      <c r="G40" s="220"/>
-      <c r="H40" s="219"/>
-      <c r="I40" s="214"/>
-      <c r="J40" s="214"/>
-      <c r="K40" s="214"/>
-      <c r="L40" s="220"/>
+      <c r="D40" s="227"/>
+      <c r="E40" s="220"/>
+      <c r="F40" s="220"/>
+      <c r="G40" s="226"/>
+      <c r="H40" s="225"/>
+      <c r="I40" s="220"/>
+      <c r="J40" s="220"/>
+      <c r="K40" s="220"/>
+      <c r="L40" s="226"/>
     </row>
     <row r="41" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="168"/>
       <c r="C41" s="169"/>
     </row>
     <row r="42" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="223" t="s">
+      <c r="B42" s="229" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="214"/>
+      <c r="C42" s="220"/>
       <c r="D42" s="170" t="s">
         <v>37</v>
       </c>
@@ -6568,19 +6571,19 @@
       </c>
       <c r="Q42" s="138"/>
       <c r="R42" s="171"/>
-      <c r="S42" s="210"/>
-      <c r="T42" s="211"/>
+      <c r="S42" s="216"/>
+      <c r="T42" s="217"/>
       <c r="U42" s="138"/>
       <c r="V42" s="171"/>
     </row>
     <row r="43" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="224" t="s">
+      <c r="B43" s="210" t="s">
         <v>62</v>
       </c>
       <c r="C43" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="226"/>
+      <c r="D43" s="212"/>
       <c r="E43" s="171"/>
       <c r="F43" s="171"/>
       <c r="O43" s="171"/>
@@ -6593,19 +6596,19 @@
       <c r="V43" s="171"/>
     </row>
     <row r="44" spans="2:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="225"/>
+      <c r="B44" s="211"/>
       <c r="C44" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="225"/>
+      <c r="D44" s="211"/>
       <c r="E44" s="174"/>
-      <c r="F44" s="227" t="s">
+      <c r="F44" s="214" t="s">
         <v>63</v>
       </c>
       <c r="G44" s="175" t="s">
         <v>64</v>
       </c>
-      <c r="H44" s="226"/>
+      <c r="H44" s="212"/>
       <c r="O44" s="171"/>
       <c r="P44" s="171"/>
       <c r="Q44" s="171"/>
@@ -6620,11 +6623,11 @@
       <c r="C45" s="171"/>
       <c r="D45" s="176"/>
       <c r="E45" s="177"/>
-      <c r="F45" s="225"/>
+      <c r="F45" s="211"/>
       <c r="G45" s="178" t="s">
         <v>65</v>
       </c>
-      <c r="H45" s="225"/>
+      <c r="H45" s="211"/>
       <c r="O45" s="171"/>
       <c r="P45" s="171"/>
       <c r="Q45" s="171"/>
@@ -6635,13 +6638,13 @@
       <c r="V45" s="171"/>
     </row>
     <row r="46" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="224" t="s">
+      <c r="B46" s="210" t="s">
         <v>66</v>
       </c>
       <c r="C46" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="226"/>
+      <c r="D46" s="212"/>
       <c r="E46" s="171"/>
       <c r="F46" s="171"/>
       <c r="G46" s="179"/>
@@ -6656,29 +6659,29 @@
       <c r="V46" s="171"/>
     </row>
     <row r="47" spans="2:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="225"/>
+      <c r="B47" s="211"/>
       <c r="C47" s="173" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="225"/>
+      <c r="D47" s="211"/>
       <c r="E47" s="171"/>
       <c r="F47" s="171"/>
       <c r="G47" s="179"/>
       <c r="H47" s="181"/>
       <c r="I47" s="177"/>
-      <c r="J47" s="228" t="s">
+      <c r="J47" s="213" t="s">
         <v>67</v>
       </c>
       <c r="K47" s="182" t="s">
         <v>68</v>
       </c>
-      <c r="L47" s="226"/>
+      <c r="L47" s="212"/>
       <c r="O47" s="171"/>
       <c r="P47" s="171"/>
       <c r="Q47" s="171"/>
       <c r="R47" s="171"/>
-      <c r="S47" s="210"/>
-      <c r="T47" s="211"/>
+      <c r="S47" s="216"/>
+      <c r="T47" s="217"/>
       <c r="U47" s="138"/>
       <c r="V47" s="171"/>
     </row>
@@ -6690,11 +6693,11 @@
       <c r="F48" s="171"/>
       <c r="G48" s="179"/>
       <c r="H48" s="181"/>
-      <c r="J48" s="225"/>
+      <c r="J48" s="211"/>
       <c r="K48" s="165" t="s">
         <v>69</v>
       </c>
-      <c r="L48" s="225"/>
+      <c r="L48" s="211"/>
       <c r="O48" s="171"/>
       <c r="P48" s="171"/>
       <c r="Q48" s="171"/>
@@ -6705,13 +6708,13 @@
       <c r="V48" s="171"/>
     </row>
     <row r="49" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="224" t="s">
+      <c r="B49" s="210" t="s">
         <v>70</v>
       </c>
       <c r="C49" s="172" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="226"/>
+      <c r="D49" s="212"/>
       <c r="E49" s="171"/>
       <c r="F49" s="171"/>
       <c r="G49" s="179"/>
@@ -6720,19 +6723,19 @@
       <c r="L49" s="180"/>
     </row>
     <row r="50" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="225"/>
+      <c r="B50" s="211"/>
       <c r="C50" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="225"/>
+      <c r="D50" s="211"/>
       <c r="E50" s="177"/>
-      <c r="F50" s="227" t="s">
+      <c r="F50" s="214" t="s">
         <v>71</v>
       </c>
       <c r="G50" s="175" t="s">
         <v>72</v>
       </c>
-      <c r="H50" s="226"/>
+      <c r="H50" s="212"/>
       <c r="K50" s="143"/>
       <c r="L50" s="181"/>
     </row>
@@ -6741,22 +6744,22 @@
       <c r="C51" s="171"/>
       <c r="D51" s="176"/>
       <c r="E51" s="177"/>
-      <c r="F51" s="225"/>
+      <c r="F51" s="211"/>
       <c r="G51" s="178" t="s">
         <v>73</v>
       </c>
-      <c r="H51" s="225"/>
+      <c r="H51" s="211"/>
       <c r="K51" s="143"/>
       <c r="L51" s="181"/>
     </row>
     <row r="52" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="224" t="s">
+      <c r="B52" s="210" t="s">
         <v>74</v>
       </c>
       <c r="C52" s="172" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="226"/>
+      <c r="D52" s="212"/>
       <c r="E52" s="171"/>
       <c r="F52" s="171"/>
       <c r="G52" s="179"/>
@@ -6764,31 +6767,31 @@
       <c r="K52" s="143"/>
       <c r="L52" s="181"/>
       <c r="M52" s="177"/>
-      <c r="N52" s="229" t="s">
+      <c r="N52" s="215" t="s">
         <v>75</v>
       </c>
       <c r="O52" s="182" t="s">
         <v>76</v>
       </c>
-      <c r="P52" s="226"/>
+      <c r="P52" s="212"/>
     </row>
     <row r="53" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="225"/>
+      <c r="B53" s="211"/>
       <c r="C53" s="173" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="225"/>
+      <c r="D53" s="211"/>
       <c r="E53" s="171"/>
       <c r="F53" s="171"/>
       <c r="G53" s="179"/>
       <c r="H53" s="176"/>
       <c r="K53" s="143"/>
       <c r="L53" s="181"/>
-      <c r="N53" s="225"/>
+      <c r="N53" s="211"/>
       <c r="O53" s="165" t="s">
         <v>77</v>
       </c>
-      <c r="P53" s="225"/>
+      <c r="P53" s="211"/>
     </row>
     <row r="54" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="138"/>
@@ -6802,13 +6805,13 @@
       <c r="L54" s="181"/>
     </row>
     <row r="55" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="224" t="s">
+      <c r="B55" s="210" t="s">
         <v>78</v>
       </c>
       <c r="C55" s="172" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="226"/>
+      <c r="D55" s="212"/>
       <c r="E55" s="171"/>
       <c r="F55" s="171"/>
       <c r="G55" s="179"/>
@@ -6817,19 +6820,19 @@
       <c r="L55" s="181"/>
     </row>
     <row r="56" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="225"/>
+      <c r="B56" s="211"/>
       <c r="C56" s="173" t="s">
         <v>13</v>
       </c>
-      <c r="D56" s="225"/>
+      <c r="D56" s="211"/>
       <c r="E56" s="174"/>
-      <c r="F56" s="227" t="s">
+      <c r="F56" s="214" t="s">
         <v>79</v>
       </c>
       <c r="G56" s="175" t="s">
         <v>80</v>
       </c>
-      <c r="H56" s="226"/>
+      <c r="H56" s="212"/>
       <c r="K56" s="143"/>
       <c r="L56" s="181"/>
     </row>
@@ -6837,106 +6840,106 @@
       <c r="B57" s="138"/>
       <c r="D57" s="176"/>
       <c r="E57" s="184"/>
-      <c r="F57" s="225"/>
+      <c r="F57" s="211"/>
       <c r="G57" s="178" t="s">
         <v>81</v>
       </c>
-      <c r="H57" s="225"/>
+      <c r="H57" s="211"/>
       <c r="K57" s="143"/>
       <c r="L57" s="181"/>
     </row>
     <row r="58" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="224" t="s">
+      <c r="B58" s="210" t="s">
         <v>82</v>
       </c>
       <c r="C58" s="172" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="226"/>
+      <c r="D58" s="212"/>
       <c r="G58" s="179"/>
       <c r="H58" s="180"/>
       <c r="K58" s="143"/>
       <c r="L58" s="183"/>
     </row>
     <row r="59" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="225"/>
+      <c r="B59" s="211"/>
       <c r="C59" s="173" t="s">
         <v>28</v>
       </c>
-      <c r="D59" s="225"/>
+      <c r="D59" s="211"/>
       <c r="G59" s="179"/>
       <c r="H59" s="181"/>
       <c r="I59" s="177"/>
-      <c r="J59" s="228" t="s">
+      <c r="J59" s="213" t="s">
         <v>83</v>
       </c>
       <c r="K59" s="182" t="s">
         <v>84</v>
       </c>
-      <c r="L59" s="226"/>
+      <c r="L59" s="212"/>
     </row>
     <row r="60" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="138"/>
       <c r="D60" s="176"/>
       <c r="G60" s="179"/>
       <c r="H60" s="181"/>
-      <c r="J60" s="225"/>
+      <c r="J60" s="211"/>
       <c r="K60" s="165" t="s">
         <v>85</v>
       </c>
-      <c r="L60" s="225"/>
+      <c r="L60" s="211"/>
     </row>
     <row r="61" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="224" t="s">
+      <c r="B61" s="210" t="s">
         <v>86</v>
       </c>
       <c r="C61" s="172" t="s">
         <v>7</v>
       </c>
-      <c r="D61" s="226"/>
+      <c r="D61" s="212"/>
       <c r="G61" s="179"/>
       <c r="H61" s="183"/>
     </row>
     <row r="62" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="225"/>
+      <c r="B62" s="211"/>
       <c r="C62" s="173" t="s">
         <v>23</v>
       </c>
-      <c r="D62" s="225"/>
+      <c r="D62" s="211"/>
       <c r="E62" s="174"/>
-      <c r="F62" s="227" t="s">
+      <c r="F62" s="214" t="s">
         <v>87</v>
       </c>
       <c r="G62" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="H62" s="226"/>
+      <c r="H62" s="212"/>
     </row>
     <row r="63" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="138"/>
       <c r="D63" s="176"/>
       <c r="E63" s="184"/>
-      <c r="F63" s="225"/>
+      <c r="F63" s="211"/>
       <c r="G63" s="178" t="s">
         <v>89</v>
       </c>
-      <c r="H63" s="225"/>
+      <c r="H63" s="211"/>
     </row>
     <row r="64" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="224" t="s">
+      <c r="B64" s="210" t="s">
         <v>90</v>
       </c>
       <c r="C64" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="226"/>
+      <c r="D64" s="212"/>
     </row>
     <row r="65" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="225"/>
+      <c r="B65" s="211"/>
       <c r="C65" s="173" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="225"/>
+      <c r="D65" s="211"/>
     </row>
     <row r="66" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7875,37 +7878,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
     <mergeCell ref="S42:T42"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C16:L16"/>
@@ -7920,6 +7892,37 @@
     <mergeCell ref="H39:L40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="J59:J60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -7930,8 +7933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:U65"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7949,18 +7952,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="208" t="s">
+      <c r="C2" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C4" s="77" t="s">
@@ -8179,73 +8182,73 @@
       <c r="L15" s="83"/>
     </row>
     <row r="16" spans="3:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="192" t="s">
+      <c r="C16" s="208" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="193"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="193"/>
-      <c r="I16" s="193"/>
-      <c r="J16" s="193"/>
-      <c r="K16" s="193"/>
-      <c r="L16" s="193"/>
+      <c r="D16" s="196"/>
+      <c r="E16" s="196"/>
+      <c r="F16" s="196"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="196"/>
+      <c r="I16" s="196"/>
+      <c r="J16" s="196"/>
+      <c r="K16" s="196"/>
+      <c r="L16" s="196"/>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="209"/>
-      <c r="E17" s="204"/>
-      <c r="F17" s="204"/>
-      <c r="G17" s="205"/>
-      <c r="H17" s="203" t="s">
+      <c r="D17" s="192"/>
+      <c r="E17" s="193"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="199" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="204"/>
-      <c r="J17" s="204"/>
-      <c r="K17" s="204"/>
-      <c r="L17" s="205"/>
+      <c r="I17" s="193"/>
+      <c r="J17" s="193"/>
+      <c r="K17" s="193"/>
+      <c r="L17" s="194"/>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="196"/>
-      <c r="E18" s="193"/>
-      <c r="F18" s="193"/>
+      <c r="D18" s="195"/>
+      <c r="E18" s="196"/>
+      <c r="F18" s="196"/>
       <c r="G18" s="197"/>
-      <c r="H18" s="206"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="193"/>
-      <c r="K18" s="193"/>
+      <c r="H18" s="200"/>
+      <c r="I18" s="196"/>
+      <c r="J18" s="196"/>
+      <c r="K18" s="196"/>
       <c r="L18" s="197"/>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C19" s="31"/>
     </row>
     <row r="20" spans="3:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="207" t="s">
+      <c r="C20" s="201" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="204"/>
+      <c r="D20" s="193"/>
       <c r="E20" s="35" t="s">
         <v>37</v>
       </c>
       <c r="F20" s="36"/>
-      <c r="G20" s="207" t="s">
+      <c r="G20" s="201" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="204"/>
+      <c r="H20" s="193"/>
       <c r="I20" s="35" t="s">
         <v>37</v>
       </c>
       <c r="J20" s="36"/>
-      <c r="K20" s="207" t="s">
+      <c r="K20" s="201" t="s">
         <v>39</v>
       </c>
-      <c r="L20" s="204"/>
+      <c r="L20" s="193"/>
       <c r="M20" s="35" t="s">
         <v>37</v>
       </c>
@@ -8675,47 +8678,47 @@
       <c r="M36" s="92"/>
     </row>
     <row r="38" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="192" t="s">
+      <c r="C38" s="208" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="193"/>
-      <c r="E38" s="193"/>
-      <c r="F38" s="193"/>
-      <c r="G38" s="193"/>
-      <c r="H38" s="193"/>
-      <c r="I38" s="193"/>
-      <c r="J38" s="193"/>
-      <c r="K38" s="193"/>
-      <c r="L38" s="193"/>
+      <c r="D38" s="196"/>
+      <c r="E38" s="196"/>
+      <c r="F38" s="196"/>
+      <c r="G38" s="196"/>
+      <c r="H38" s="196"/>
+      <c r="I38" s="196"/>
+      <c r="J38" s="196"/>
+      <c r="K38" s="196"/>
+      <c r="L38" s="196"/>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C39" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="209"/>
-      <c r="E39" s="204"/>
-      <c r="F39" s="204"/>
-      <c r="G39" s="205"/>
-      <c r="H39" s="203" t="s">
+      <c r="D39" s="192"/>
+      <c r="E39" s="193"/>
+      <c r="F39" s="193"/>
+      <c r="G39" s="194"/>
+      <c r="H39" s="199" t="s">
         <v>57</v>
       </c>
-      <c r="I39" s="204"/>
-      <c r="J39" s="204"/>
-      <c r="K39" s="204"/>
-      <c r="L39" s="205"/>
+      <c r="I39" s="193"/>
+      <c r="J39" s="193"/>
+      <c r="K39" s="193"/>
+      <c r="L39" s="194"/>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C40" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="196"/>
-      <c r="E40" s="193"/>
-      <c r="F40" s="193"/>
+      <c r="D40" s="195"/>
+      <c r="E40" s="196"/>
+      <c r="F40" s="196"/>
       <c r="G40" s="197"/>
-      <c r="H40" s="206"/>
-      <c r="I40" s="193"/>
-      <c r="J40" s="193"/>
-      <c r="K40" s="193"/>
+      <c r="H40" s="200"/>
+      <c r="I40" s="196"/>
+      <c r="J40" s="196"/>
+      <c r="K40" s="196"/>
       <c r="L40" s="197"/>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.25">
@@ -8723,10 +8726,10 @@
       <c r="C41" s="186"/>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B42" s="198" t="s">
+      <c r="B42" s="209" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="193"/>
+      <c r="C42" s="196"/>
       <c r="D42" s="30" t="s">
         <v>37</v>
       </c>
@@ -8755,73 +8758,77 @@
         <v>37</v>
       </c>
       <c r="Q42" s="39"/>
-      <c r="S42" s="201"/>
-      <c r="T42" s="202"/>
+      <c r="S42" s="198"/>
+      <c r="T42" s="191"/>
       <c r="U42" s="39"/>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B43" s="190" t="s">
+      <c r="B43" s="207" t="s">
         <v>62</v>
       </c>
       <c r="C43" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="195"/>
+      <c r="D43" s="202" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="44" spans="2:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="191"/>
+      <c r="B44" s="203"/>
       <c r="C44" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="191"/>
+      <c r="D44" s="203"/>
       <c r="E44" s="44"/>
-      <c r="F44" s="194" t="s">
+      <c r="F44" s="206" t="s">
         <v>63</v>
       </c>
       <c r="G44" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="H44" s="195"/>
+      <c r="H44" s="202"/>
     </row>
     <row r="45" spans="2:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="5"/>
       <c r="D45" s="93"/>
       <c r="E45" s="43"/>
-      <c r="F45" s="191"/>
+      <c r="F45" s="203"/>
       <c r="G45" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="H45" s="191"/>
+      <c r="H45" s="203"/>
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B46" s="190" t="s">
+      <c r="B46" s="207" t="s">
         <v>66</v>
       </c>
       <c r="C46" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="195"/>
+      <c r="D46" s="202" t="s">
+        <v>99</v>
+      </c>
       <c r="G46" s="1"/>
       <c r="H46" s="94"/>
     </row>
     <row r="47" spans="2:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="191"/>
+      <c r="B47" s="203"/>
       <c r="C47" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="191"/>
+      <c r="D47" s="203"/>
       <c r="G47" s="1"/>
       <c r="H47" s="95"/>
       <c r="I47" s="43"/>
-      <c r="J47" s="199" t="s">
+      <c r="J47" s="204" t="s">
         <v>67</v>
       </c>
       <c r="K47" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="L47" s="195"/>
-      <c r="S47" s="201"/>
-      <c r="T47" s="202"/>
+      <c r="L47" s="202"/>
+      <c r="S47" s="198"/>
+      <c r="T47" s="191"/>
       <c r="U47" s="39"/>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.25">
@@ -8829,39 +8836,41 @@
       <c r="D48" s="93"/>
       <c r="G48" s="1"/>
       <c r="H48" s="95"/>
-      <c r="J48" s="191"/>
+      <c r="J48" s="203"/>
       <c r="K48" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="L48" s="191"/>
+      <c r="L48" s="203"/>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B49" s="190" t="s">
+      <c r="B49" s="207" t="s">
         <v>70</v>
       </c>
       <c r="C49" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="195"/>
+      <c r="D49" s="202" t="s">
+        <v>49</v>
+      </c>
       <c r="G49" s="1"/>
       <c r="H49" s="96"/>
       <c r="K49" s="37"/>
       <c r="L49" s="94"/>
     </row>
     <row r="50" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="191"/>
+      <c r="B50" s="203"/>
       <c r="C50" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="191"/>
+      <c r="D50" s="203"/>
       <c r="E50" s="43"/>
-      <c r="F50" s="194" t="s">
+      <c r="F50" s="206" t="s">
         <v>71</v>
       </c>
       <c r="G50" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="H50" s="195"/>
+      <c r="H50" s="202"/>
       <c r="K50" s="37"/>
       <c r="L50" s="95"/>
     </row>
@@ -8869,50 +8878,52 @@
       <c r="B51" s="5"/>
       <c r="D51" s="93"/>
       <c r="E51" s="43"/>
-      <c r="F51" s="191"/>
+      <c r="F51" s="203"/>
       <c r="G51" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="H51" s="191"/>
+      <c r="H51" s="203"/>
       <c r="K51" s="37"/>
       <c r="L51" s="95"/>
     </row>
     <row r="52" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="190" t="s">
+      <c r="B52" s="207" t="s">
         <v>74</v>
       </c>
       <c r="C52" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="195"/>
+      <c r="D52" s="202" t="s">
+        <v>97</v>
+      </c>
       <c r="G52" s="1"/>
       <c r="H52" s="93"/>
       <c r="K52" s="37"/>
       <c r="L52" s="95"/>
       <c r="M52" s="43"/>
-      <c r="N52" s="200" t="s">
+      <c r="N52" s="205" t="s">
         <v>75</v>
       </c>
       <c r="O52" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="P52" s="195"/>
+      <c r="P52" s="202"/>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B53" s="191"/>
+      <c r="B53" s="203"/>
       <c r="C53" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="191"/>
+      <c r="D53" s="203"/>
       <c r="G53" s="1"/>
       <c r="H53" s="93"/>
       <c r="K53" s="37"/>
       <c r="L53" s="95"/>
-      <c r="N53" s="191"/>
+      <c r="N53" s="203"/>
       <c r="O53" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="P53" s="191"/>
+      <c r="P53" s="203"/>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
@@ -8923,32 +8934,34 @@
       <c r="L54" s="95"/>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B55" s="190" t="s">
+      <c r="B55" s="207" t="s">
         <v>78</v>
       </c>
       <c r="C55" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="195"/>
+      <c r="D55" s="202" t="s">
+        <v>47</v>
+      </c>
       <c r="G55" s="1"/>
       <c r="H55" s="93"/>
       <c r="K55" s="37"/>
       <c r="L55" s="95"/>
     </row>
     <row r="56" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="191"/>
+      <c r="B56" s="203"/>
       <c r="C56" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="D56" s="191"/>
+      <c r="D56" s="203"/>
       <c r="E56" s="44"/>
-      <c r="F56" s="194" t="s">
+      <c r="F56" s="206" t="s">
         <v>79</v>
       </c>
       <c r="G56" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="H56" s="195"/>
+      <c r="H56" s="202"/>
       <c r="K56" s="37"/>
       <c r="L56" s="95"/>
     </row>
@@ -8956,140 +8969,115 @@
       <c r="B57" s="5"/>
       <c r="D57" s="93"/>
       <c r="E57" s="45"/>
-      <c r="F57" s="191"/>
+      <c r="F57" s="203"/>
       <c r="G57" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="H57" s="191"/>
+      <c r="H57" s="203"/>
       <c r="K57" s="37"/>
       <c r="L57" s="95"/>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B58" s="190" t="s">
+      <c r="B58" s="207" t="s">
         <v>82</v>
       </c>
       <c r="C58" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="195"/>
+      <c r="D58" s="202" t="s">
+        <v>47</v>
+      </c>
       <c r="G58" s="1"/>
       <c r="H58" s="94"/>
       <c r="K58" s="37"/>
       <c r="L58" s="96"/>
     </row>
     <row r="59" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="191"/>
+      <c r="B59" s="203"/>
       <c r="C59" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="D59" s="191"/>
+      <c r="D59" s="203"/>
       <c r="G59" s="1"/>
       <c r="H59" s="95"/>
       <c r="I59" s="43"/>
-      <c r="J59" s="199" t="s">
+      <c r="J59" s="204" t="s">
         <v>83</v>
       </c>
       <c r="K59" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="L59" s="195"/>
+      <c r="L59" s="202"/>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B60" s="5"/>
       <c r="D60" s="93"/>
       <c r="G60" s="1"/>
       <c r="H60" s="95"/>
-      <c r="J60" s="191"/>
+      <c r="J60" s="203"/>
       <c r="K60" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="L60" s="191"/>
+      <c r="L60" s="203"/>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B61" s="190" t="s">
+      <c r="B61" s="207" t="s">
         <v>86</v>
       </c>
       <c r="C61" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D61" s="195"/>
+      <c r="D61" s="202" t="s">
+        <v>47</v>
+      </c>
       <c r="G61" s="1"/>
       <c r="H61" s="96"/>
     </row>
     <row r="62" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="191"/>
+      <c r="B62" s="203"/>
       <c r="C62" s="187" t="s">
         <v>23</v>
       </c>
-      <c r="D62" s="191"/>
+      <c r="D62" s="203"/>
       <c r="E62" s="44"/>
-      <c r="F62" s="194" t="s">
+      <c r="F62" s="206" t="s">
         <v>87</v>
       </c>
       <c r="G62" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="H62" s="195"/>
+      <c r="H62" s="202"/>
     </row>
     <row r="63" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="5"/>
       <c r="D63" s="93"/>
       <c r="E63" s="45"/>
-      <c r="F63" s="191"/>
+      <c r="F63" s="203"/>
       <c r="G63" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="H63" s="191"/>
+      <c r="H63" s="203"/>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B64" s="190" t="s">
+      <c r="B64" s="207" t="s">
         <v>90</v>
       </c>
       <c r="C64" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="195"/>
+      <c r="D64" s="202" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="191"/>
+      <c r="B65" s="203"/>
       <c r="C65" s="187" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="191"/>
+      <c r="D65" s="203"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
     <mergeCell ref="S42:T42"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C16:L16"/>
@@ -9104,6 +9092,37 @@
     <mergeCell ref="H39:L40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="J59:J60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Euro2020/result_files/EC_2020.xlsx
+++ b/Euro2020/result_files/EC_2020.xlsx
@@ -113,7 +113,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="50">
     <fill>
       <patternFill/>
     </fill>
@@ -378,11 +378,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.3999755851924192"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.3999755851924192"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.3999755851924192"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.3999755851924192"/>
       </patternFill>
     </fill>
     <fill>
@@ -391,7 +404,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -753,19 +766,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -793,19 +793,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="43" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="47" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="41" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="46" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="40" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1302,129 +1302,172 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="15"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="15"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="43" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="44" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="44" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="43" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="15"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="45" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+    <xf numFmtId="0" fontId="10" fillId="46" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="44" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+    <xf numFmtId="0" fontId="10" fillId="47" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="13">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="13">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
       <alignment horizontal="center"/>
@@ -1456,53 +1499,16 @@
     <xf numFmtId="0" fontId="9" fillId="35" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="48" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="46" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="47" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+    <xf numFmtId="0" fontId="10" fillId="49" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1900,25 +1906,25 @@
   <dimension ref="B2:U65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="2.42578125" customWidth="1" style="222" min="1" max="1"/>
-    <col width="4.42578125" customWidth="1" style="222" min="2" max="2"/>
-    <col width="16.7109375" customWidth="1" style="222" min="3" max="4"/>
-    <col width="4.42578125" bestFit="1" customWidth="1" style="222" min="6" max="6"/>
-    <col width="16.7109375" customWidth="1" style="222" min="7" max="8"/>
-    <col width="7.42578125" bestFit="1" customWidth="1" style="222" min="9" max="9"/>
-    <col width="4" customWidth="1" style="222" min="10" max="10"/>
-    <col width="16.85546875" customWidth="1" style="222" min="11" max="12"/>
-    <col width="4.140625" customWidth="1" style="222" min="14" max="14"/>
-    <col width="16.7109375" customWidth="1" style="222" min="15" max="17"/>
+    <col width="2.42578125" customWidth="1" style="219" min="1" max="1"/>
+    <col width="4.42578125" customWidth="1" style="219" min="2" max="2"/>
+    <col width="16.7109375" customWidth="1" style="219" min="3" max="4"/>
+    <col width="4.42578125" bestFit="1" customWidth="1" style="219" min="6" max="6"/>
+    <col width="16.7109375" customWidth="1" style="219" min="7" max="8"/>
+    <col width="7.42578125" bestFit="1" customWidth="1" style="219" min="9" max="9"/>
+    <col width="4" customWidth="1" style="219" min="10" max="10"/>
+    <col width="16.85546875" customWidth="1" style="219" min="11" max="12"/>
+    <col width="4.140625" customWidth="1" style="219" min="14" max="14"/>
+    <col width="16.7109375" customWidth="1" style="219" min="15" max="17"/>
   </cols>
   <sheetData>
-    <row r="2" ht="26.25" customHeight="1" s="222">
-      <c r="C2" s="228" t="inlineStr">
+    <row r="2" ht="26.25" customHeight="1" s="219">
+      <c r="C2" s="218" t="inlineStr">
         <is>
           <t xml:space="preserve">EURO 2020 </t>
         </is>
@@ -2260,21 +2266,21 @@
       <c r="K15" s="82" t="n"/>
       <c r="L15" s="82" t="n"/>
     </row>
-    <row r="16" ht="39.95" customHeight="1" s="222">
-      <c r="C16" s="212" t="inlineStr">
+    <row r="16" ht="39.95" customHeight="1" s="219">
+      <c r="C16" s="236" t="inlineStr">
         <is>
           <t>Group Stage predictions are made in a single submission and are due by Thursday Evening June 10th, 2021.</t>
         </is>
       </c>
-      <c r="D16" s="213" t="n"/>
-      <c r="E16" s="213" t="n"/>
-      <c r="F16" s="213" t="n"/>
-      <c r="G16" s="213" t="n"/>
-      <c r="H16" s="213" t="n"/>
-      <c r="I16" s="213" t="n"/>
-      <c r="J16" s="213" t="n"/>
-      <c r="K16" s="213" t="n"/>
-      <c r="L16" s="213" t="n"/>
+      <c r="D16" s="224" t="n"/>
+      <c r="E16" s="224" t="n"/>
+      <c r="F16" s="224" t="n"/>
+      <c r="G16" s="224" t="n"/>
+      <c r="H16" s="224" t="n"/>
+      <c r="I16" s="224" t="n"/>
+      <c r="J16" s="224" t="n"/>
+      <c r="K16" s="224" t="n"/>
+      <c r="L16" s="224" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="32" t="inlineStr">
@@ -2282,19 +2288,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D17" s="229" t="n"/>
-      <c r="E17" s="224" t="n"/>
-      <c r="F17" s="224" t="n"/>
-      <c r="G17" s="225" t="n"/>
-      <c r="H17" s="223" t="inlineStr">
+      <c r="D17" s="220" t="n"/>
+      <c r="E17" s="221" t="n"/>
+      <c r="F17" s="221" t="n"/>
+      <c r="G17" s="222" t="n"/>
+      <c r="H17" s="227" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I17" s="224" t="n"/>
-      <c r="J17" s="224" t="n"/>
-      <c r="K17" s="224" t="n"/>
-      <c r="L17" s="225" t="n"/>
+      <c r="I17" s="221" t="n"/>
+      <c r="J17" s="221" t="n"/>
+      <c r="K17" s="221" t="n"/>
+      <c r="L17" s="222" t="n"/>
     </row>
     <row r="18">
       <c r="C18" s="33" t="inlineStr">
@@ -2302,50 +2308,50 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D18" s="216" t="n"/>
-      <c r="E18" s="213" t="n"/>
-      <c r="F18" s="213" t="n"/>
-      <c r="G18" s="217" t="n"/>
-      <c r="H18" s="226" t="n"/>
-      <c r="I18" s="213" t="n"/>
-      <c r="J18" s="213" t="n"/>
-      <c r="K18" s="213" t="n"/>
-      <c r="L18" s="217" t="n"/>
+      <c r="D18" s="223" t="n"/>
+      <c r="E18" s="224" t="n"/>
+      <c r="F18" s="224" t="n"/>
+      <c r="G18" s="225" t="n"/>
+      <c r="H18" s="228" t="n"/>
+      <c r="I18" s="224" t="n"/>
+      <c r="J18" s="224" t="n"/>
+      <c r="K18" s="224" t="n"/>
+      <c r="L18" s="225" t="n"/>
     </row>
     <row r="19">
       <c r="C19" s="31" t="n"/>
     </row>
     <row r="20" customFormat="1" s="5">
-      <c r="C20" s="227" t="inlineStr">
+      <c r="C20" s="229" t="inlineStr">
         <is>
           <t>Match Day 1</t>
         </is>
       </c>
-      <c r="D20" s="224" t="n"/>
+      <c r="D20" s="221" t="n"/>
       <c r="E20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
       <c r="F20" s="36" t="n"/>
-      <c r="G20" s="227" t="inlineStr">
+      <c r="G20" s="229" t="inlineStr">
         <is>
           <t>Match Day 2</t>
         </is>
       </c>
-      <c r="H20" s="224" t="n"/>
+      <c r="H20" s="221" t="n"/>
       <c r="I20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
       <c r="J20" s="36" t="n"/>
-      <c r="K20" s="227" t="inlineStr">
+      <c r="K20" s="229" t="inlineStr">
         <is>
           <t>Match Day 3</t>
         </is>
       </c>
-      <c r="L20" s="224" t="n"/>
+      <c r="L20" s="221" t="n"/>
       <c r="M20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
@@ -2992,21 +2998,21 @@
       <c r="L36" s="96" t="n"/>
       <c r="M36" s="91" t="n"/>
     </row>
-    <row r="38" ht="39.95" customHeight="1" s="222">
-      <c r="C38" s="212" t="inlineStr">
+    <row r="38" ht="39.95" customHeight="1" s="219">
+      <c r="C38" s="236" t="inlineStr">
         <is>
           <t xml:space="preserve">We'll do the competition in two halves since the Round of 16 is heavily dependent on the Group Stages. </t>
         </is>
       </c>
-      <c r="D38" s="213" t="n"/>
-      <c r="E38" s="213" t="n"/>
-      <c r="F38" s="213" t="n"/>
-      <c r="G38" s="213" t="n"/>
-      <c r="H38" s="213" t="n"/>
-      <c r="I38" s="213" t="n"/>
-      <c r="J38" s="213" t="n"/>
-      <c r="K38" s="213" t="n"/>
-      <c r="L38" s="213" t="n"/>
+      <c r="D38" s="224" t="n"/>
+      <c r="E38" s="224" t="n"/>
+      <c r="F38" s="224" t="n"/>
+      <c r="G38" s="224" t="n"/>
+      <c r="H38" s="224" t="n"/>
+      <c r="I38" s="224" t="n"/>
+      <c r="J38" s="224" t="n"/>
+      <c r="K38" s="224" t="n"/>
+      <c r="L38" s="224" t="n"/>
     </row>
     <row r="39">
       <c r="C39" s="32" t="inlineStr">
@@ -3014,19 +3020,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D39" s="229" t="n"/>
-      <c r="E39" s="224" t="n"/>
-      <c r="F39" s="224" t="n"/>
-      <c r="G39" s="225" t="n"/>
-      <c r="H39" s="223" t="inlineStr">
+      <c r="D39" s="220" t="n"/>
+      <c r="E39" s="221" t="n"/>
+      <c r="F39" s="221" t="n"/>
+      <c r="G39" s="222" t="n"/>
+      <c r="H39" s="227" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULTS         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I39" s="224" t="n"/>
-      <c r="J39" s="224" t="n"/>
-      <c r="K39" s="224" t="n"/>
-      <c r="L39" s="225" t="n"/>
+      <c r="I39" s="221" t="n"/>
+      <c r="J39" s="221" t="n"/>
+      <c r="K39" s="221" t="n"/>
+      <c r="L39" s="222" t="n"/>
     </row>
     <row r="40">
       <c r="C40" s="33" t="inlineStr">
@@ -3034,27 +3040,27 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D40" s="216" t="n"/>
-      <c r="E40" s="213" t="n"/>
-      <c r="F40" s="213" t="n"/>
-      <c r="G40" s="217" t="n"/>
-      <c r="H40" s="226" t="n"/>
-      <c r="I40" s="213" t="n"/>
-      <c r="J40" s="213" t="n"/>
-      <c r="K40" s="213" t="n"/>
-      <c r="L40" s="217" t="n"/>
+      <c r="D40" s="223" t="n"/>
+      <c r="E40" s="224" t="n"/>
+      <c r="F40" s="224" t="n"/>
+      <c r="G40" s="225" t="n"/>
+      <c r="H40" s="228" t="n"/>
+      <c r="I40" s="224" t="n"/>
+      <c r="J40" s="224" t="n"/>
+      <c r="K40" s="224" t="n"/>
+      <c r="L40" s="225" t="n"/>
     </row>
     <row r="41">
       <c r="B41" s="45" t="n"/>
-      <c r="C41" s="213" t="n"/>
+      <c r="C41" s="224" t="n"/>
     </row>
     <row r="42">
-      <c r="B42" s="218" t="inlineStr">
+      <c r="B42" s="237" t="inlineStr">
         <is>
           <t>Round of 16</t>
         </is>
       </c>
-      <c r="C42" s="213" t="n"/>
+      <c r="C42" s="224" t="n"/>
       <c r="D42" s="30" t="inlineStr">
         <is>
           <t>Results</t>
@@ -3097,71 +3103,71 @@
         </is>
       </c>
       <c r="Q42" s="38" t="n"/>
-      <c r="S42" s="221" t="n"/>
+      <c r="S42" s="226" t="n"/>
       <c r="U42" s="38" t="n"/>
     </row>
     <row r="43">
-      <c r="B43" s="210" t="inlineStr">
+      <c r="B43" s="235" t="inlineStr">
         <is>
           <t>R1</t>
         </is>
       </c>
-      <c r="C43" s="186" t="inlineStr">
+      <c r="C43" s="182" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="D43" s="215" t="inlineStr">
+      <c r="D43" s="230" t="inlineStr">
         <is>
           <t>2-1</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1" s="222" thickBot="1">
-      <c r="B44" s="211" t="n"/>
-      <c r="C44" s="187" t="inlineStr">
+    <row r="44" ht="15.75" customHeight="1" s="219" thickBot="1">
+      <c r="B44" s="231" t="n"/>
+      <c r="C44" s="183" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="D44" s="211" t="n"/>
+      <c r="D44" s="231" t="n"/>
       <c r="E44" s="43" t="n"/>
-      <c r="F44" s="214" t="inlineStr">
+      <c r="F44" s="234" t="inlineStr">
         <is>
           <t>QF1</t>
         </is>
       </c>
-      <c r="G44" s="253" t="inlineStr">
+      <c r="G44" s="210" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="H44" s="215" t="n"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1" s="222" thickBot="1">
+      <c r="H44" s="230" t="n"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1" s="219" thickBot="1">
       <c r="B45" s="5" t="n"/>
       <c r="D45" s="92" t="n"/>
       <c r="E45" s="42" t="n"/>
-      <c r="F45" s="211" t="n"/>
-      <c r="G45" s="254" t="inlineStr">
+      <c r="F45" s="231" t="n"/>
+      <c r="G45" s="211" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="H45" s="211" t="n"/>
+      <c r="H45" s="231" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="210" t="inlineStr">
+      <c r="B46" s="235" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
       </c>
-      <c r="C46" s="188" t="inlineStr">
+      <c r="C46" s="184" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="D46" s="215" t="inlineStr">
+      <c r="D46" s="230" t="inlineStr">
         <is>
           <t>1-0</t>
         </is>
@@ -3169,18 +3175,18 @@
       <c r="G46" s="1" t="n"/>
       <c r="H46" s="93" t="n"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="222" thickBot="1">
-      <c r="B47" s="211" t="n"/>
-      <c r="C47" s="189" t="inlineStr">
+    <row r="47" ht="15.75" customHeight="1" s="219" thickBot="1">
+      <c r="B47" s="231" t="n"/>
+      <c r="C47" s="185" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="D47" s="211" t="n"/>
+      <c r="D47" s="231" t="n"/>
       <c r="G47" s="1" t="n"/>
       <c r="H47" s="94" t="n"/>
       <c r="I47" s="42" t="n"/>
-      <c r="J47" s="219" t="inlineStr">
+      <c r="J47" s="232" t="inlineStr">
         <is>
           <t>SF1</t>
         </is>
@@ -3190,8 +3196,8 @@
           <t>Winner QF1</t>
         </is>
       </c>
-      <c r="L47" s="215" t="n"/>
-      <c r="S47" s="221" t="n"/>
+      <c r="L47" s="230" t="n"/>
+      <c r="S47" s="226" t="n"/>
       <c r="U47" s="38" t="n"/>
     </row>
     <row r="48">
@@ -3199,26 +3205,26 @@
       <c r="D48" s="92" t="n"/>
       <c r="G48" s="1" t="n"/>
       <c r="H48" s="94" t="n"/>
-      <c r="J48" s="211" t="n"/>
+      <c r="J48" s="231" t="n"/>
       <c r="K48" s="41" t="inlineStr">
         <is>
           <t>Winner QF2</t>
         </is>
       </c>
-      <c r="L48" s="211" t="n"/>
+      <c r="L48" s="231" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="210" t="inlineStr">
+      <c r="B49" s="235" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
       </c>
-      <c r="C49" s="190" t="inlineStr">
+      <c r="C49" s="186" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="D49" s="215" t="inlineStr">
+      <c r="D49" s="230" t="inlineStr">
         <is>
           <t>3-4</t>
         </is>
@@ -3228,55 +3234,55 @@
       <c r="K49" s="37" t="n"/>
       <c r="L49" s="93" t="n"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1" s="222" thickBot="1">
-      <c r="B50" s="211" t="n"/>
-      <c r="C50" s="191" t="inlineStr">
+    <row r="50" ht="15.75" customHeight="1" s="219" thickBot="1">
+      <c r="B50" s="231" t="n"/>
+      <c r="C50" s="187" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="D50" s="211" t="n"/>
+      <c r="D50" s="231" t="n"/>
       <c r="E50" s="42" t="n"/>
-      <c r="F50" s="214" t="inlineStr">
+      <c r="F50" s="234" t="inlineStr">
         <is>
           <t>QF2</t>
         </is>
       </c>
-      <c r="G50" s="253" t="inlineStr">
+      <c r="G50" s="210" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="H50" s="215" t="n"/>
+      <c r="H50" s="230" t="n"/>
       <c r="K50" s="37" t="n"/>
       <c r="L50" s="94" t="n"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1" s="222" thickBot="1">
+    <row r="51" ht="15.75" customHeight="1" s="219" thickBot="1">
       <c r="B51" s="5" t="n"/>
       <c r="D51" s="92" t="n"/>
       <c r="E51" s="42" t="n"/>
-      <c r="F51" s="211" t="n"/>
-      <c r="G51" s="255" t="inlineStr">
+      <c r="F51" s="231" t="n"/>
+      <c r="G51" s="212" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="H51" s="211" t="n"/>
+      <c r="H51" s="231" t="n"/>
       <c r="K51" s="37" t="n"/>
       <c r="L51" s="94" t="n"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" s="222" thickBot="1">
-      <c r="B52" s="210" t="inlineStr">
+    <row r="52" ht="15.75" customHeight="1" s="219" thickBot="1">
+      <c r="B52" s="235" t="inlineStr">
         <is>
           <t>R4</t>
         </is>
       </c>
-      <c r="C52" s="192" t="inlineStr">
+      <c r="C52" s="188" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="D52" s="215" t="inlineStr">
+      <c r="D52" s="230" t="inlineStr">
         <is>
           <t>3-5</t>
         </is>
@@ -3286,7 +3292,7 @@
       <c r="K52" s="37" t="n"/>
       <c r="L52" s="94" t="n"/>
       <c r="M52" s="42" t="n"/>
-      <c r="N52" s="220" t="inlineStr">
+      <c r="N52" s="233" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -3296,27 +3302,27 @@
           <t>Winner SF1</t>
         </is>
       </c>
-      <c r="P52" s="215" t="n"/>
+      <c r="P52" s="230" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="211" t="n"/>
-      <c r="C53" s="193" t="inlineStr">
+      <c r="B53" s="231" t="n"/>
+      <c r="C53" s="212" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="D53" s="211" t="n"/>
+      <c r="D53" s="231" t="n"/>
       <c r="G53" s="1" t="n"/>
       <c r="H53" s="92" t="n"/>
       <c r="K53" s="37" t="n"/>
       <c r="L53" s="94" t="n"/>
-      <c r="N53" s="211" t="n"/>
+      <c r="N53" s="231" t="n"/>
       <c r="O53" s="41" t="inlineStr">
         <is>
           <t>Winner SF2</t>
         </is>
       </c>
-      <c r="P53" s="211" t="n"/>
+      <c r="P53" s="231" t="n"/>
     </row>
     <row r="54">
       <c r="B54" s="5" t="n"/>
@@ -3327,88 +3333,96 @@
       <c r="L54" s="94" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="210" t="inlineStr">
+      <c r="B55" s="235" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
       </c>
-      <c r="C55" s="194" t="inlineStr">
+      <c r="C55" s="190" t="inlineStr">
         <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="D55" s="215" t="n"/>
+      <c r="D55" s="230" t="inlineStr">
+        <is>
+          <t>1-2</t>
+        </is>
+      </c>
       <c r="G55" s="1" t="n"/>
       <c r="H55" s="92" t="n"/>
       <c r="K55" s="37" t="n"/>
       <c r="L55" s="94" t="n"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1" s="222" thickBot="1">
-      <c r="B56" s="211" t="n"/>
-      <c r="C56" s="187" t="inlineStr">
+    <row r="56" ht="15.75" customHeight="1" s="219" thickBot="1">
+      <c r="B56" s="231" t="n"/>
+      <c r="C56" s="183" t="inlineStr">
         <is>
           <t>Ukraine</t>
         </is>
       </c>
-      <c r="D56" s="211" t="n"/>
+      <c r="D56" s="231" t="n"/>
       <c r="E56" s="43" t="n"/>
-      <c r="F56" s="214" t="inlineStr">
+      <c r="F56" s="234" t="inlineStr">
         <is>
           <t>QF3</t>
         </is>
       </c>
-      <c r="G56" s="39" t="inlineStr">
-        <is>
-          <t>Winner R5</t>
-        </is>
-      </c>
-      <c r="H56" s="215" t="n"/>
+      <c r="G56" s="259" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="H56" s="230" t="n"/>
       <c r="K56" s="37" t="n"/>
       <c r="L56" s="94" t="n"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1" s="222" thickBot="1">
+    <row r="57" ht="15.75" customHeight="1" s="219" thickBot="1">
       <c r="B57" s="5" t="n"/>
       <c r="D57" s="92" t="n"/>
       <c r="E57" s="44" t="n"/>
-      <c r="F57" s="211" t="n"/>
-      <c r="G57" s="40" t="inlineStr">
-        <is>
-          <t>Winner R6</t>
-        </is>
-      </c>
-      <c r="H57" s="211" t="n"/>
+      <c r="F57" s="231" t="n"/>
+      <c r="G57" s="260" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="H57" s="231" t="n"/>
       <c r="K57" s="37" t="n"/>
       <c r="L57" s="94" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="210" t="inlineStr">
+      <c r="B58" s="235" t="inlineStr">
         <is>
           <t>R6</t>
         </is>
       </c>
-      <c r="C58" s="192" t="inlineStr">
+      <c r="C58" s="188" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="D58" s="215" t="n"/>
+      <c r="D58" s="230" t="inlineStr">
+        <is>
+          <t>2-0</t>
+        </is>
+      </c>
       <c r="G58" s="1" t="n"/>
       <c r="H58" s="93" t="n"/>
       <c r="K58" s="37" t="n"/>
       <c r="L58" s="95" t="n"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1" s="222" thickBot="1">
-      <c r="B59" s="211" t="n"/>
-      <c r="C59" s="189" t="inlineStr">
+    <row r="59" ht="15.75" customHeight="1" s="219" thickBot="1">
+      <c r="B59" s="231" t="n"/>
+      <c r="C59" s="185" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="D59" s="211" t="n"/>
+      <c r="D59" s="231" t="n"/>
       <c r="G59" s="1" t="n"/>
       <c r="H59" s="94" t="n"/>
       <c r="I59" s="42" t="n"/>
-      <c r="J59" s="219" t="inlineStr">
+      <c r="J59" s="232" t="inlineStr">
         <is>
           <t>SF2</t>
         </is>
@@ -3418,33 +3432,33 @@
           <t>Winner QF3</t>
         </is>
       </c>
-      <c r="L59" s="215" t="n"/>
+      <c r="L59" s="230" t="n"/>
     </row>
     <row r="60">
       <c r="B60" s="5" t="n"/>
       <c r="D60" s="92" t="n"/>
       <c r="G60" s="1" t="n"/>
       <c r="H60" s="94" t="n"/>
-      <c r="J60" s="211" t="n"/>
+      <c r="J60" s="231" t="n"/>
       <c r="K60" s="41" t="inlineStr">
         <is>
           <t>Winner QF4</t>
         </is>
       </c>
-      <c r="L60" s="211" t="n"/>
+      <c r="L60" s="231" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="210" t="inlineStr">
+      <c r="B61" s="235" t="inlineStr">
         <is>
           <t>R7</t>
         </is>
       </c>
-      <c r="C61" s="195" t="inlineStr">
+      <c r="C61" s="191" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="D61" s="215" t="inlineStr">
+      <c r="D61" s="230" t="inlineStr">
         <is>
           <t>0-2</t>
         </is>
@@ -3452,87 +3466,77 @@
       <c r="G61" s="1" t="n"/>
       <c r="H61" s="95" t="n"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1" s="222" thickBot="1">
-      <c r="B62" s="211" t="n"/>
-      <c r="C62" s="196" t="inlineStr">
+    <row r="62" ht="15.75" customHeight="1" s="219" thickBot="1">
+      <c r="B62" s="231" t="n"/>
+      <c r="C62" s="192" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="D62" s="211" t="n"/>
+      <c r="D62" s="231" t="n"/>
       <c r="E62" s="43" t="n"/>
-      <c r="F62" s="214" t="inlineStr">
+      <c r="F62" s="234" t="inlineStr">
         <is>
           <t>QF4</t>
         </is>
       </c>
-      <c r="G62" s="256" t="inlineStr">
+      <c r="G62" s="213" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="H62" s="215" t="n"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1" s="222" thickBot="1">
+      <c r="H62" s="230" t="n"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" s="219" thickBot="1">
       <c r="B63" s="5" t="n"/>
       <c r="D63" s="92" t="n"/>
       <c r="E63" s="44" t="n"/>
-      <c r="F63" s="211" t="n"/>
-      <c r="G63" s="254" t="inlineStr">
+      <c r="F63" s="231" t="n"/>
+      <c r="G63" s="211" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="H63" s="211" t="n"/>
+      <c r="H63" s="231" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="210" t="inlineStr">
+      <c r="B64" s="235" t="inlineStr">
         <is>
           <t>R8</t>
         </is>
       </c>
-      <c r="C64" s="186" t="inlineStr">
+      <c r="C64" s="182" t="inlineStr">
         <is>
           <t>Wales</t>
         </is>
       </c>
-      <c r="D64" s="215" t="inlineStr">
+      <c r="D64" s="230" t="inlineStr">
         <is>
           <t>0-4</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="B65" s="211" t="n"/>
-      <c r="C65" s="197" t="inlineStr">
+      <c r="B65" s="231" t="n"/>
+      <c r="C65" s="193" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="D65" s="211" t="n"/>
+      <c r="D65" s="231" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="H17:L18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="H39:L40"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C38:L38"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="F62:F63"/>
     <mergeCell ref="F56:F57"/>
     <mergeCell ref="F50:F51"/>
@@ -3548,16 +3552,26 @@
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="D64:D65"/>
     <mergeCell ref="D58:D59"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C38:L38"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="H17:L18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="H39:L40"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="S42:T42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -3578,15 +3592,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5.28515625" customWidth="1" style="222" min="1" max="1"/>
-    <col width="15.140625" bestFit="1" customWidth="1" style="222" min="2" max="2"/>
-    <col width="5.7109375" customWidth="1" style="222" min="3" max="4"/>
-    <col width="16.7109375" customWidth="1" style="222" min="5" max="5"/>
-    <col width="5.7109375" customWidth="1" style="222" min="6" max="7"/>
-    <col width="16.7109375" customWidth="1" style="222" min="8" max="8"/>
-    <col width="5.7109375" customWidth="1" style="222" min="9" max="10"/>
-    <col width="16.7109375" customWidth="1" style="222" min="11" max="11"/>
-    <col width="5.7109375" customWidth="1" style="222" min="12" max="13"/>
+    <col width="5.28515625" customWidth="1" style="219" min="1" max="1"/>
+    <col width="15.140625" bestFit="1" customWidth="1" style="219" min="2" max="2"/>
+    <col width="5.7109375" customWidth="1" style="219" min="3" max="4"/>
+    <col width="16.7109375" customWidth="1" style="219" min="5" max="5"/>
+    <col width="5.7109375" customWidth="1" style="219" min="6" max="7"/>
+    <col width="16.7109375" customWidth="1" style="219" min="8" max="8"/>
+    <col width="5.7109375" customWidth="1" style="219" min="9" max="10"/>
+    <col width="16.7109375" customWidth="1" style="219" min="11" max="11"/>
+    <col width="5.7109375" customWidth="1" style="219" min="12" max="13"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -3640,7 +3654,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
@@ -3676,7 +3690,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="6" t="inlineStr">
         <is>
@@ -3712,7 +3726,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="6" t="inlineStr">
         <is>
@@ -3944,25 +3958,25 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col width="2.42578125" customWidth="1" style="231" min="1" max="1"/>
-    <col width="4.42578125" customWidth="1" style="231" min="2" max="2"/>
-    <col width="16.7109375" customWidth="1" style="231" min="3" max="4"/>
-    <col width="8.7109375" customWidth="1" style="231" min="5" max="5"/>
-    <col width="4.42578125" customWidth="1" style="231" min="6" max="6"/>
-    <col width="16.7109375" customWidth="1" style="231" min="7" max="8"/>
-    <col width="7.42578125" customWidth="1" style="231" min="9" max="9"/>
-    <col width="4" customWidth="1" style="231" min="10" max="10"/>
-    <col width="16.85546875" customWidth="1" style="231" min="11" max="12"/>
-    <col width="8.7109375" customWidth="1" style="231" min="13" max="13"/>
-    <col width="4.140625" customWidth="1" style="231" min="14" max="14"/>
-    <col width="16.7109375" customWidth="1" style="231" min="15" max="17"/>
-    <col width="8.7109375" customWidth="1" style="231" min="18" max="26"/>
-    <col width="14.42578125" customWidth="1" style="231" min="27" max="38"/>
-    <col width="14.42578125" customWidth="1" style="231" min="39" max="16384"/>
+    <col width="2.42578125" customWidth="1" style="246" min="1" max="1"/>
+    <col width="4.42578125" customWidth="1" style="246" min="2" max="2"/>
+    <col width="16.7109375" customWidth="1" style="246" min="3" max="4"/>
+    <col width="8.7109375" customWidth="1" style="246" min="5" max="5"/>
+    <col width="4.42578125" customWidth="1" style="246" min="6" max="6"/>
+    <col width="16.7109375" customWidth="1" style="246" min="7" max="8"/>
+    <col width="7.42578125" customWidth="1" style="246" min="9" max="9"/>
+    <col width="4" customWidth="1" style="246" min="10" max="10"/>
+    <col width="16.85546875" customWidth="1" style="246" min="11" max="12"/>
+    <col width="8.7109375" customWidth="1" style="246" min="13" max="13"/>
+    <col width="4.140625" customWidth="1" style="246" min="14" max="14"/>
+    <col width="16.7109375" customWidth="1" style="246" min="15" max="17"/>
+    <col width="8.7109375" customWidth="1" style="246" min="18" max="26"/>
+    <col width="14.42578125" customWidth="1" style="246" min="27" max="39"/>
+    <col width="14.42578125" customWidth="1" style="246" min="40" max="16384"/>
   </cols>
   <sheetData>
-    <row r="2" ht="26.25" customHeight="1" s="222">
-      <c r="C2" s="232" t="inlineStr">
+    <row r="2" ht="26.25" customHeight="1" s="219">
+      <c r="C2" s="247" t="inlineStr">
         <is>
           <t xml:space="preserve">EURO 2020 </t>
         </is>
@@ -4256,21 +4270,21 @@
       <c r="K15" s="99" t="n"/>
       <c r="L15" s="99" t="n"/>
     </row>
-    <row r="16" ht="39.75" customHeight="1" s="222">
-      <c r="C16" s="233" t="inlineStr">
+    <row r="16" ht="39.75" customHeight="1" s="219">
+      <c r="C16" s="248" t="inlineStr">
         <is>
           <t>Group Stage predictions are made in a single submission and are due by Thursday Evening June 10th, 2021.</t>
         </is>
       </c>
-      <c r="D16" s="234" t="n"/>
-      <c r="E16" s="234" t="n"/>
-      <c r="F16" s="234" t="n"/>
-      <c r="G16" s="234" t="n"/>
-      <c r="H16" s="234" t="n"/>
-      <c r="I16" s="234" t="n"/>
-      <c r="J16" s="234" t="n"/>
-      <c r="K16" s="234" t="n"/>
-      <c r="L16" s="234" t="n"/>
+      <c r="D16" s="249" t="n"/>
+      <c r="E16" s="249" t="n"/>
+      <c r="F16" s="249" t="n"/>
+      <c r="G16" s="249" t="n"/>
+      <c r="H16" s="249" t="n"/>
+      <c r="I16" s="249" t="n"/>
+      <c r="J16" s="249" t="n"/>
+      <c r="K16" s="249" t="n"/>
+      <c r="L16" s="249" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="135" t="inlineStr">
@@ -4278,19 +4292,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D17" s="235" t="n"/>
-      <c r="E17" s="236" t="n"/>
-      <c r="F17" s="236" t="n"/>
-      <c r="G17" s="237" t="n"/>
-      <c r="H17" s="238" t="inlineStr">
+      <c r="D17" s="250" t="n"/>
+      <c r="E17" s="251" t="n"/>
+      <c r="F17" s="251" t="n"/>
+      <c r="G17" s="252" t="n"/>
+      <c r="H17" s="253" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I17" s="236" t="n"/>
-      <c r="J17" s="236" t="n"/>
-      <c r="K17" s="236" t="n"/>
-      <c r="L17" s="237" t="n"/>
+      <c r="I17" s="251" t="n"/>
+      <c r="J17" s="251" t="n"/>
+      <c r="K17" s="251" t="n"/>
+      <c r="L17" s="252" t="n"/>
     </row>
     <row r="18">
       <c r="C18" s="136" t="inlineStr">
@@ -4298,15 +4312,15 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D18" s="241" t="n"/>
-      <c r="E18" s="234" t="n"/>
-      <c r="F18" s="234" t="n"/>
-      <c r="G18" s="240" t="n"/>
-      <c r="H18" s="239" t="n"/>
-      <c r="I18" s="234" t="n"/>
-      <c r="J18" s="234" t="n"/>
-      <c r="K18" s="234" t="n"/>
-      <c r="L18" s="240" t="n"/>
+      <c r="D18" s="256" t="n"/>
+      <c r="E18" s="249" t="n"/>
+      <c r="F18" s="249" t="n"/>
+      <c r="G18" s="255" t="n"/>
+      <c r="H18" s="254" t="n"/>
+      <c r="I18" s="249" t="n"/>
+      <c r="J18" s="249" t="n"/>
+      <c r="K18" s="249" t="n"/>
+      <c r="L18" s="255" t="n"/>
     </row>
     <row r="19">
       <c r="C19" s="99" t="n"/>
@@ -4314,36 +4328,36 @@
     <row r="20">
       <c r="A20" s="137" t="n"/>
       <c r="B20" s="137" t="n"/>
-      <c r="C20" s="242" t="inlineStr">
+      <c r="C20" s="257" t="inlineStr">
         <is>
           <t>Match Day 1</t>
         </is>
       </c>
-      <c r="D20" s="236" t="n"/>
+      <c r="D20" s="251" t="n"/>
       <c r="E20" s="138" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
-      <c r="F20" s="230" t="n"/>
-      <c r="G20" s="242" t="inlineStr">
+      <c r="F20" s="245" t="n"/>
+      <c r="G20" s="257" t="inlineStr">
         <is>
           <t>Match Day 2</t>
         </is>
       </c>
-      <c r="H20" s="236" t="n"/>
+      <c r="H20" s="251" t="n"/>
       <c r="I20" s="138" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
-      <c r="J20" s="230" t="n"/>
-      <c r="K20" s="242" t="inlineStr">
+      <c r="J20" s="245" t="n"/>
+      <c r="K20" s="257" t="inlineStr">
         <is>
           <t>Match Day 3</t>
         </is>
       </c>
-      <c r="L20" s="236" t="n"/>
+      <c r="L20" s="251" t="n"/>
       <c r="M20" s="138" t="inlineStr">
         <is>
           <t>Results</t>
@@ -4363,7 +4377,7 @@
       <c r="Y20" s="137" t="n"/>
       <c r="Z20" s="137" t="n"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1" s="222">
+    <row r="21" ht="15.75" customHeight="1" s="219">
       <c r="C21" s="139" t="inlineStr">
         <is>
           <t>Turkey</t>
@@ -4416,7 +4430,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1" s="222">
+    <row r="22" ht="15.75" customHeight="1" s="219">
       <c r="C22" s="147" t="n"/>
       <c r="D22" s="142" t="n"/>
       <c r="E22" s="148" t="n"/>
@@ -4453,7 +4467,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1" s="222">
+    <row r="23" ht="15.75" customHeight="1" s="219">
       <c r="C23" s="139" t="inlineStr">
         <is>
           <t>Wales</t>
@@ -4492,7 +4506,7 @@
       <c r="L23" s="142" t="n"/>
       <c r="M23" s="148" t="n"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1" s="222">
+    <row r="24" ht="15.75" customHeight="1" s="219">
       <c r="C24" s="143" t="inlineStr">
         <is>
           <t>Denmark</t>
@@ -4531,7 +4545,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1" s="222">
+    <row r="25" ht="15.75" customHeight="1" s="219">
       <c r="C25" s="143" t="inlineStr">
         <is>
           <t>Belgium</t>
@@ -4582,7 +4596,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1" s="222">
+    <row r="26" ht="15.75" customHeight="1" s="219">
       <c r="C26" s="147" t="n"/>
       <c r="D26" s="142" t="n"/>
       <c r="E26" s="148" t="n"/>
@@ -4619,7 +4633,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1" s="222">
+    <row r="27" ht="15.75" customHeight="1" s="219">
       <c r="C27" s="152" t="inlineStr">
         <is>
           <t>England</t>
@@ -4670,7 +4684,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1" s="222">
+    <row r="28" ht="15.75" customHeight="1" s="219">
       <c r="C28" s="149" t="inlineStr">
         <is>
           <t>Austria</t>
@@ -4697,7 +4711,7 @@
       <c r="L28" s="142" t="n"/>
       <c r="M28" s="148" t="n"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1" s="222">
+    <row r="29" ht="15.75" customHeight="1" s="219">
       <c r="C29" s="149" t="inlineStr">
         <is>
           <t>Netherlands</t>
@@ -4748,7 +4762,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1" s="222">
+    <row r="30" ht="15.75" customHeight="1" s="219">
       <c r="C30" s="147" t="n"/>
       <c r="D30" s="142" t="n"/>
       <c r="E30" s="148" t="n"/>
@@ -4785,7 +4799,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1" s="222">
+    <row r="31" ht="15.75" customHeight="1" s="219">
       <c r="C31" s="152" t="inlineStr">
         <is>
           <t>Scotland</t>
@@ -4824,7 +4838,7 @@
       <c r="L31" s="142" t="n"/>
       <c r="M31" s="148" t="n"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1" s="222">
+    <row r="32" ht="15.75" customHeight="1" s="219">
       <c r="C32" s="155" t="inlineStr">
         <is>
           <t>Poland</t>
@@ -4863,7 +4877,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1" s="222">
+    <row r="33" ht="15.75" customHeight="1" s="219">
       <c r="C33" s="155" t="inlineStr">
         <is>
           <t>Spain</t>
@@ -4914,7 +4928,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1" s="222">
+    <row r="34" ht="15.75" customHeight="1" s="219">
       <c r="C34" s="147" t="n"/>
       <c r="D34" s="142" t="n"/>
       <c r="E34" s="148" t="n"/>
@@ -4951,7 +4965,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1" s="222">
+    <row r="35" ht="15.75" customHeight="1" s="219">
       <c r="C35" s="158" t="inlineStr">
         <is>
           <t>Hungary</t>
@@ -5002,7 +5016,7 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1" s="222">
+    <row r="36" ht="15.75" customHeight="1" s="219">
       <c r="C36" s="161" t="inlineStr">
         <is>
           <t>France</t>
@@ -5029,70 +5043,70 @@
       <c r="L36" s="165" t="n"/>
       <c r="M36" s="166" t="n"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1" s="222"/>
-    <row r="38" ht="39.75" customHeight="1" s="222">
-      <c r="C38" s="233" t="inlineStr">
+    <row r="37" ht="15.75" customHeight="1" s="219"/>
+    <row r="38" ht="39.75" customHeight="1" s="219">
+      <c r="C38" s="248" t="inlineStr">
         <is>
           <t xml:space="preserve">We'll do the competition in two halves since the Round of 16 is heavily dependent on the Group Stages. </t>
         </is>
       </c>
-      <c r="D38" s="234" t="n"/>
-      <c r="E38" s="234" t="n"/>
-      <c r="F38" s="234" t="n"/>
-      <c r="G38" s="234" t="n"/>
-      <c r="H38" s="234" t="n"/>
-      <c r="I38" s="234" t="n"/>
-      <c r="J38" s="234" t="n"/>
-      <c r="K38" s="234" t="n"/>
-      <c r="L38" s="234" t="n"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1" s="222">
+      <c r="D38" s="249" t="n"/>
+      <c r="E38" s="249" t="n"/>
+      <c r="F38" s="249" t="n"/>
+      <c r="G38" s="249" t="n"/>
+      <c r="H38" s="249" t="n"/>
+      <c r="I38" s="249" t="n"/>
+      <c r="J38" s="249" t="n"/>
+      <c r="K38" s="249" t="n"/>
+      <c r="L38" s="249" t="n"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1" s="219">
       <c r="C39" s="135" t="inlineStr">
         <is>
           <t>Name:</t>
         </is>
       </c>
-      <c r="D39" s="235" t="n"/>
-      <c r="E39" s="236" t="n"/>
-      <c r="F39" s="236" t="n"/>
-      <c r="G39" s="237" t="n"/>
-      <c r="H39" s="238" t="inlineStr">
+      <c r="D39" s="250" t="n"/>
+      <c r="E39" s="251" t="n"/>
+      <c r="F39" s="251" t="n"/>
+      <c r="G39" s="252" t="n"/>
+      <c r="H39" s="253" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULTS         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I39" s="236" t="n"/>
-      <c r="J39" s="236" t="n"/>
-      <c r="K39" s="236" t="n"/>
-      <c r="L39" s="237" t="n"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1" s="222">
+      <c r="I39" s="251" t="n"/>
+      <c r="J39" s="251" t="n"/>
+      <c r="K39" s="251" t="n"/>
+      <c r="L39" s="252" t="n"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1" s="219">
       <c r="C40" s="136" t="inlineStr">
         <is>
           <t>Date:</t>
         </is>
       </c>
-      <c r="D40" s="241" t="n"/>
-      <c r="E40" s="234" t="n"/>
-      <c r="F40" s="234" t="n"/>
-      <c r="G40" s="240" t="n"/>
-      <c r="H40" s="239" t="n"/>
-      <c r="I40" s="234" t="n"/>
-      <c r="J40" s="234" t="n"/>
-      <c r="K40" s="234" t="n"/>
-      <c r="L40" s="240" t="n"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1" s="222">
+      <c r="D40" s="256" t="n"/>
+      <c r="E40" s="249" t="n"/>
+      <c r="F40" s="249" t="n"/>
+      <c r="G40" s="255" t="n"/>
+      <c r="H40" s="254" t="n"/>
+      <c r="I40" s="249" t="n"/>
+      <c r="J40" s="249" t="n"/>
+      <c r="K40" s="249" t="n"/>
+      <c r="L40" s="255" t="n"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1" s="219">
       <c r="B41" s="167" t="n"/>
       <c r="C41" s="168" t="n"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1" s="222">
-      <c r="B42" s="243" t="inlineStr">
+    <row r="42" ht="15.75" customHeight="1" s="219">
+      <c r="B42" s="258" t="inlineStr">
         <is>
           <t>Round of 16</t>
         </is>
       </c>
-      <c r="C42" s="234" t="n"/>
+      <c r="C42" s="249" t="n"/>
       <c r="D42" s="169" t="inlineStr">
         <is>
           <t>Results</t>
@@ -5136,22 +5150,22 @@
       </c>
       <c r="Q42" s="137" t="n"/>
       <c r="R42" s="170" t="n"/>
-      <c r="S42" s="230" t="n"/>
+      <c r="S42" s="245" t="n"/>
       <c r="U42" s="137" t="n"/>
       <c r="V42" s="170" t="n"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1" s="222">
-      <c r="B43" s="244" t="inlineStr">
+    <row r="43" ht="15.75" customHeight="1" s="219">
+      <c r="B43" s="238" t="inlineStr">
         <is>
           <t>R1</t>
         </is>
       </c>
-      <c r="C43" s="198" t="inlineStr">
+      <c r="C43" s="194" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="D43" s="252" t="inlineStr">
+      <c r="D43" s="240" t="inlineStr">
         <is>
           <t>2-0</t>
         </is>
@@ -5167,26 +5181,26 @@
       <c r="U43" s="170" t="n"/>
       <c r="V43" s="170" t="n"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1" s="222" thickBot="1">
-      <c r="B44" s="245" t="n"/>
-      <c r="C44" s="199" t="inlineStr">
+    <row r="44" ht="15.75" customHeight="1" s="219" thickBot="1">
+      <c r="B44" s="239" t="n"/>
+      <c r="C44" s="195" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="D44" s="245" t="n"/>
+      <c r="D44" s="239" t="n"/>
       <c r="E44" s="171" t="n"/>
-      <c r="F44" s="247" t="inlineStr">
+      <c r="F44" s="243" t="inlineStr">
         <is>
           <t>QF1</t>
         </is>
       </c>
-      <c r="G44" s="257" t="inlineStr">
+      <c r="G44" s="214" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="H44" s="246" t="n"/>
+      <c r="H44" s="242" t="n"/>
       <c r="O44" s="170" t="n"/>
       <c r="P44" s="170" t="n"/>
       <c r="Q44" s="170" t="n"/>
@@ -5196,18 +5210,18 @@
       <c r="U44" s="170" t="n"/>
       <c r="V44" s="170" t="n"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1" s="222" thickBot="1">
+    <row r="45" ht="15.75" customHeight="1" s="219" thickBot="1">
       <c r="B45" s="137" t="n"/>
       <c r="C45" s="170" t="n"/>
       <c r="D45" s="173" t="n"/>
       <c r="E45" s="174" t="n"/>
-      <c r="F45" s="245" t="n"/>
-      <c r="G45" s="258" t="inlineStr">
+      <c r="F45" s="239" t="n"/>
+      <c r="G45" s="215" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="H45" s="245" t="n"/>
+      <c r="H45" s="239" t="n"/>
       <c r="O45" s="170" t="n"/>
       <c r="P45" s="170" t="n"/>
       <c r="Q45" s="170" t="n"/>
@@ -5217,18 +5231,18 @@
       <c r="U45" s="170" t="n"/>
       <c r="V45" s="170" t="n"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1" s="222">
-      <c r="B46" s="244" t="inlineStr">
+    <row r="46" ht="15.75" customHeight="1" s="219">
+      <c r="B46" s="238" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
       </c>
-      <c r="C46" s="200" t="inlineStr">
+      <c r="C46" s="196" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="D46" s="252" t="inlineStr">
+      <c r="D46" s="240" t="inlineStr">
         <is>
           <t>2-1</t>
         </is>
@@ -5246,20 +5260,20 @@
       <c r="U46" s="170" t="n"/>
       <c r="V46" s="170" t="n"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="222" thickBot="1">
-      <c r="B47" s="245" t="n"/>
-      <c r="C47" s="201" t="inlineStr">
+    <row r="47" ht="15.75" customHeight="1" s="219" thickBot="1">
+      <c r="B47" s="239" t="n"/>
+      <c r="C47" s="197" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="D47" s="245" t="n"/>
+      <c r="D47" s="239" t="n"/>
       <c r="E47" s="170" t="n"/>
       <c r="F47" s="170" t="n"/>
       <c r="G47" s="176" t="n"/>
       <c r="H47" s="178" t="n"/>
       <c r="I47" s="174" t="n"/>
-      <c r="J47" s="248" t="inlineStr">
+      <c r="J47" s="241" t="inlineStr">
         <is>
           <t>SF1</t>
         </is>
@@ -5269,16 +5283,16 @@
           <t>Winner QF1</t>
         </is>
       </c>
-      <c r="L47" s="246" t="n"/>
+      <c r="L47" s="242" t="n"/>
       <c r="O47" s="170" t="n"/>
       <c r="P47" s="170" t="n"/>
       <c r="Q47" s="170" t="n"/>
       <c r="R47" s="170" t="n"/>
-      <c r="S47" s="230" t="n"/>
+      <c r="S47" s="245" t="n"/>
       <c r="U47" s="137" t="n"/>
       <c r="V47" s="170" t="n"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1" s="222">
+    <row r="48" ht="15.75" customHeight="1" s="219">
       <c r="B48" s="137" t="n"/>
       <c r="C48" s="170" t="n"/>
       <c r="D48" s="173" t="n"/>
@@ -5286,13 +5300,13 @@
       <c r="F48" s="170" t="n"/>
       <c r="G48" s="176" t="n"/>
       <c r="H48" s="178" t="n"/>
-      <c r="J48" s="245" t="n"/>
+      <c r="J48" s="239" t="n"/>
       <c r="K48" s="164" t="inlineStr">
         <is>
           <t>Winner QF2</t>
         </is>
       </c>
-      <c r="L48" s="245" t="n"/>
+      <c r="L48" s="239" t="n"/>
       <c r="O48" s="170" t="n"/>
       <c r="P48" s="170" t="n"/>
       <c r="Q48" s="170" t="n"/>
@@ -5302,18 +5316,18 @@
       <c r="U48" s="170" t="n"/>
       <c r="V48" s="170" t="n"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1" s="222">
-      <c r="B49" s="244" t="inlineStr">
+    <row r="49" ht="15.75" customHeight="1" s="219">
+      <c r="B49" s="238" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
       </c>
-      <c r="C49" s="202" t="inlineStr">
+      <c r="C49" s="198" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="D49" s="252" t="inlineStr">
+      <c r="D49" s="240" t="inlineStr">
         <is>
           <t>2-0</t>
         </is>
@@ -5325,56 +5339,56 @@
       <c r="K49" s="142" t="n"/>
       <c r="L49" s="177" t="n"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1" s="222" thickBot="1">
-      <c r="B50" s="245" t="n"/>
-      <c r="C50" s="203" t="inlineStr">
+    <row r="50" ht="15.75" customHeight="1" s="219" thickBot="1">
+      <c r="B50" s="239" t="n"/>
+      <c r="C50" s="199" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="D50" s="245" t="n"/>
+      <c r="D50" s="239" t="n"/>
       <c r="E50" s="174" t="n"/>
-      <c r="F50" s="247" t="inlineStr">
+      <c r="F50" s="243" t="inlineStr">
         <is>
           <t>QF2</t>
         </is>
       </c>
-      <c r="G50" s="257" t="inlineStr">
+      <c r="G50" s="214" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="H50" s="246" t="n"/>
+      <c r="H50" s="242" t="n"/>
       <c r="K50" s="142" t="n"/>
       <c r="L50" s="178" t="n"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1" s="222" thickBot="1">
+    <row r="51" ht="15.75" customHeight="1" s="219" thickBot="1">
       <c r="B51" s="137" t="n"/>
       <c r="C51" s="170" t="n"/>
       <c r="D51" s="173" t="n"/>
       <c r="E51" s="174" t="n"/>
-      <c r="F51" s="245" t="n"/>
-      <c r="G51" s="259" t="inlineStr">
+      <c r="F51" s="239" t="n"/>
+      <c r="G51" s="216" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="H51" s="245" t="n"/>
+      <c r="H51" s="239" t="n"/>
       <c r="K51" s="142" t="n"/>
       <c r="L51" s="178" t="n"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" s="222" thickBot="1">
-      <c r="B52" s="244" t="inlineStr">
+    <row r="52" ht="15.75" customHeight="1" s="219" thickBot="1">
+      <c r="B52" s="238" t="inlineStr">
         <is>
           <t>R4</t>
         </is>
       </c>
-      <c r="C52" s="204" t="inlineStr">
+      <c r="C52" s="200" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="D52" s="252" t="inlineStr">
+      <c r="D52" s="240" t="inlineStr">
         <is>
           <t>2-1</t>
         </is>
@@ -5386,7 +5400,7 @@
       <c r="K52" s="142" t="n"/>
       <c r="L52" s="178" t="n"/>
       <c r="M52" s="174" t="n"/>
-      <c r="N52" s="249" t="inlineStr">
+      <c r="N52" s="244" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -5396,31 +5410,31 @@
           <t>Winner SF1</t>
         </is>
       </c>
-      <c r="P52" s="246" t="n"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1" s="222">
-      <c r="B53" s="245" t="n"/>
-      <c r="C53" s="205" t="inlineStr">
+      <c r="P52" s="242" t="n"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1" s="219">
+      <c r="B53" s="239" t="n"/>
+      <c r="C53" s="216" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="D53" s="245" t="n"/>
+      <c r="D53" s="239" t="n"/>
       <c r="E53" s="170" t="n"/>
       <c r="F53" s="170" t="n"/>
       <c r="G53" s="176" t="n"/>
       <c r="H53" s="173" t="n"/>
       <c r="K53" s="142" t="n"/>
       <c r="L53" s="178" t="n"/>
-      <c r="N53" s="245" t="n"/>
+      <c r="N53" s="239" t="n"/>
       <c r="O53" s="164" t="inlineStr">
         <is>
           <t>Winner SF2</t>
         </is>
       </c>
-      <c r="P53" s="245" t="n"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1" s="222">
+      <c r="P53" s="239" t="n"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1" s="219">
       <c r="B54" s="137" t="n"/>
       <c r="C54" s="170" t="n"/>
       <c r="D54" s="173" t="n"/>
@@ -5431,18 +5445,18 @@
       <c r="K54" s="142" t="n"/>
       <c r="L54" s="178" t="n"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1" s="222">
-      <c r="B55" s="244" t="inlineStr">
+    <row r="55" ht="15.75" customHeight="1" s="219">
+      <c r="B55" s="238" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
       </c>
-      <c r="C55" s="206" t="inlineStr">
+      <c r="C55" s="202" t="inlineStr">
         <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="D55" s="252" t="inlineStr">
+      <c r="D55" s="240" t="inlineStr">
         <is>
           <t>1-0</t>
         </is>
@@ -5454,55 +5468,55 @@
       <c r="K55" s="142" t="n"/>
       <c r="L55" s="178" t="n"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1" s="222" thickBot="1">
-      <c r="B56" s="245" t="n"/>
-      <c r="C56" s="199" t="inlineStr">
+    <row r="56" ht="15.75" customHeight="1" s="219" thickBot="1">
+      <c r="B56" s="239" t="n"/>
+      <c r="C56" s="195" t="inlineStr">
         <is>
           <t>Ukraine</t>
         </is>
       </c>
-      <c r="D56" s="245" t="n"/>
+      <c r="D56" s="239" t="n"/>
       <c r="E56" s="171" t="n"/>
-      <c r="F56" s="247" t="inlineStr">
+      <c r="F56" s="243" t="inlineStr">
         <is>
           <t>QF3</t>
         </is>
       </c>
-      <c r="G56" s="172" t="inlineStr">
-        <is>
-          <t>Winner R5</t>
-        </is>
-      </c>
-      <c r="H56" s="246" t="n"/>
+      <c r="G56" s="261" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="H56" s="242" t="n"/>
       <c r="K56" s="142" t="n"/>
       <c r="L56" s="178" t="n"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1" s="222" thickBot="1">
+    <row r="57" ht="15.75" customHeight="1" s="219" thickBot="1">
       <c r="B57" s="137" t="n"/>
       <c r="D57" s="173" t="n"/>
       <c r="E57" s="181" t="n"/>
-      <c r="F57" s="245" t="n"/>
-      <c r="G57" s="175" t="inlineStr">
-        <is>
-          <t>Winner R6</t>
-        </is>
-      </c>
-      <c r="H57" s="245" t="n"/>
+      <c r="F57" s="239" t="n"/>
+      <c r="G57" s="262" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="H57" s="239" t="n"/>
       <c r="K57" s="142" t="n"/>
       <c r="L57" s="178" t="n"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1" s="222">
-      <c r="B58" s="244" t="inlineStr">
+    <row r="58" ht="15.75" customHeight="1" s="219">
+      <c r="B58" s="238" t="inlineStr">
         <is>
           <t>R6</t>
         </is>
       </c>
-      <c r="C58" s="204" t="inlineStr">
+      <c r="C58" s="200" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="D58" s="252" t="inlineStr">
+      <c r="D58" s="240" t="inlineStr">
         <is>
           <t>1-0</t>
         </is>
@@ -5512,18 +5526,18 @@
       <c r="K58" s="142" t="n"/>
       <c r="L58" s="180" t="n"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1" s="222" thickBot="1">
-      <c r="B59" s="245" t="n"/>
-      <c r="C59" s="201" t="inlineStr">
+    <row r="59" ht="15.75" customHeight="1" s="219" thickBot="1">
+      <c r="B59" s="239" t="n"/>
+      <c r="C59" s="197" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="D59" s="245" t="n"/>
+      <c r="D59" s="239" t="n"/>
       <c r="G59" s="176" t="n"/>
       <c r="H59" s="178" t="n"/>
       <c r="I59" s="174" t="n"/>
-      <c r="J59" s="248" t="inlineStr">
+      <c r="J59" s="241" t="inlineStr">
         <is>
           <t>SF2</t>
         </is>
@@ -5533,33 +5547,33 @@
           <t>Winner QF3</t>
         </is>
       </c>
-      <c r="L59" s="246" t="n"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1" s="222">
+      <c r="L59" s="242" t="n"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1" s="219">
       <c r="B60" s="137" t="n"/>
       <c r="D60" s="173" t="n"/>
       <c r="G60" s="176" t="n"/>
       <c r="H60" s="178" t="n"/>
-      <c r="J60" s="245" t="n"/>
+      <c r="J60" s="239" t="n"/>
       <c r="K60" s="164" t="inlineStr">
         <is>
           <t>Winner QF4</t>
         </is>
       </c>
-      <c r="L60" s="245" t="n"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1" s="222">
-      <c r="B61" s="244" t="inlineStr">
+      <c r="L60" s="239" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="219">
+      <c r="B61" s="238" t="inlineStr">
         <is>
           <t>R7</t>
         </is>
       </c>
-      <c r="C61" s="207" t="inlineStr">
+      <c r="C61" s="203" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="D61" s="252" t="inlineStr">
+      <c r="D61" s="240" t="inlineStr">
         <is>
           <t>2-1</t>
         </is>
@@ -5567,1033 +5581,1002 @@
       <c r="G61" s="176" t="n"/>
       <c r="H61" s="180" t="n"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1" s="222" thickBot="1">
-      <c r="B62" s="245" t="n"/>
-      <c r="C62" s="208" t="inlineStr">
+    <row r="62" ht="15.75" customHeight="1" s="219" thickBot="1">
+      <c r="B62" s="239" t="n"/>
+      <c r="C62" s="204" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="D62" s="245" t="n"/>
+      <c r="D62" s="239" t="n"/>
       <c r="E62" s="171" t="n"/>
-      <c r="F62" s="247" t="inlineStr">
+      <c r="F62" s="243" t="inlineStr">
         <is>
           <t>QF4</t>
         </is>
       </c>
-      <c r="G62" s="260" t="inlineStr">
+      <c r="G62" s="217" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="H62" s="246" t="n"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1" s="222" thickBot="1">
+      <c r="H62" s="242" t="n"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" s="219" thickBot="1">
       <c r="B63" s="137" t="n"/>
       <c r="D63" s="173" t="n"/>
       <c r="E63" s="181" t="n"/>
-      <c r="F63" s="245" t="n"/>
-      <c r="G63" s="258" t="inlineStr">
+      <c r="F63" s="239" t="n"/>
+      <c r="G63" s="215" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="H63" s="245" t="n"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1" s="222">
-      <c r="B64" s="244" t="inlineStr">
+      <c r="H63" s="239" t="n"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1" s="219">
+      <c r="B64" s="238" t="inlineStr">
         <is>
           <t>R8</t>
         </is>
       </c>
-      <c r="C64" s="198" t="inlineStr">
+      <c r="C64" s="194" t="inlineStr">
         <is>
           <t>Wales</t>
         </is>
       </c>
-      <c r="D64" s="252" t="inlineStr">
+      <c r="D64" s="240" t="inlineStr">
         <is>
           <t>2-1</t>
         </is>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1" s="222">
-      <c r="B65" s="245" t="n"/>
-      <c r="C65" s="209" t="inlineStr">
+    <row r="65" ht="15.75" customHeight="1" s="219">
+      <c r="B65" s="239" t="n"/>
+      <c r="C65" s="205" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="D65" s="245" t="n"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1" s="222"/>
-    <row r="67" ht="15.75" customHeight="1" s="222"/>
-    <row r="68" ht="15.75" customHeight="1" s="222"/>
-    <row r="69" ht="15.75" customHeight="1" s="222"/>
-    <row r="70" ht="15.75" customHeight="1" s="222"/>
-    <row r="71" ht="15.75" customHeight="1" s="222"/>
-    <row r="72" ht="15.75" customHeight="1" s="222"/>
-    <row r="73" ht="15.75" customHeight="1" s="222"/>
-    <row r="74" ht="15.75" customHeight="1" s="222"/>
-    <row r="75" ht="15.75" customHeight="1" s="222"/>
-    <row r="76" ht="15.75" customHeight="1" s="222"/>
-    <row r="77" ht="15.75" customHeight="1" s="222"/>
-    <row r="78" ht="15.75" customHeight="1" s="222"/>
-    <row r="79" ht="15.75" customHeight="1" s="222"/>
-    <row r="80" ht="15.75" customHeight="1" s="222"/>
-    <row r="81" ht="15.75" customHeight="1" s="222"/>
-    <row r="82" ht="15.75" customHeight="1" s="222"/>
-    <row r="83" ht="15.75" customHeight="1" s="222"/>
-    <row r="84" ht="15.75" customHeight="1" s="222"/>
-    <row r="85" ht="15.75" customHeight="1" s="222"/>
-    <row r="86" ht="15.75" customHeight="1" s="222"/>
-    <row r="87" ht="15.75" customHeight="1" s="222"/>
-    <row r="88" ht="15.75" customHeight="1" s="222"/>
-    <row r="89" ht="15.75" customHeight="1" s="222"/>
-    <row r="90" ht="15.75" customHeight="1" s="222"/>
-    <row r="91" ht="15.75" customHeight="1" s="222"/>
-    <row r="92" ht="15.75" customHeight="1" s="222"/>
-    <row r="93" ht="15.75" customHeight="1" s="222"/>
-    <row r="94" ht="15.75" customHeight="1" s="222"/>
-    <row r="95" ht="15.75" customHeight="1" s="222"/>
-    <row r="96" ht="15.75" customHeight="1" s="222"/>
-    <row r="97" ht="15.75" customHeight="1" s="222"/>
-    <row r="98" ht="15.75" customHeight="1" s="222"/>
-    <row r="99" ht="15.75" customHeight="1" s="222"/>
-    <row r="100" ht="15.75" customHeight="1" s="222"/>
-    <row r="101" ht="15.75" customHeight="1" s="222"/>
-    <row r="102" ht="15.75" customHeight="1" s="222"/>
-    <row r="103" ht="15.75" customHeight="1" s="222"/>
-    <row r="104" ht="15.75" customHeight="1" s="222"/>
-    <row r="105" ht="15.75" customHeight="1" s="222"/>
-    <row r="106" ht="15.75" customHeight="1" s="222"/>
-    <row r="107" ht="15.75" customHeight="1" s="222"/>
-    <row r="108" ht="15.75" customHeight="1" s="222"/>
-    <row r="109" ht="15.75" customHeight="1" s="222"/>
-    <row r="110" ht="15.75" customHeight="1" s="222"/>
-    <row r="111" ht="15.75" customHeight="1" s="222"/>
-    <row r="112" ht="15.75" customHeight="1" s="222"/>
-    <row r="113" ht="15.75" customHeight="1" s="222"/>
-    <row r="114" ht="15.75" customHeight="1" s="222"/>
-    <row r="115" ht="15.75" customHeight="1" s="222"/>
-    <row r="116" ht="15.75" customHeight="1" s="222"/>
-    <row r="117" ht="15.75" customHeight="1" s="222"/>
-    <row r="118" ht="15.75" customHeight="1" s="222"/>
-    <row r="119" ht="15.75" customHeight="1" s="222"/>
-    <row r="120" ht="15.75" customHeight="1" s="222"/>
-    <row r="121" ht="15.75" customHeight="1" s="222"/>
-    <row r="122" ht="15.75" customHeight="1" s="222"/>
-    <row r="123" ht="15.75" customHeight="1" s="222"/>
-    <row r="124" ht="15.75" customHeight="1" s="222"/>
-    <row r="125" ht="15.75" customHeight="1" s="222"/>
-    <row r="126" ht="15.75" customHeight="1" s="222"/>
-    <row r="127" ht="15.75" customHeight="1" s="222"/>
-    <row r="128" ht="15.75" customHeight="1" s="222"/>
-    <row r="129" ht="15.75" customHeight="1" s="222"/>
-    <row r="130" ht="15.75" customHeight="1" s="222"/>
-    <row r="131" ht="15.75" customHeight="1" s="222"/>
-    <row r="132" ht="15.75" customHeight="1" s="222"/>
-    <row r="133" ht="15.75" customHeight="1" s="222"/>
-    <row r="134" ht="15.75" customHeight="1" s="222"/>
-    <row r="135" ht="15.75" customHeight="1" s="222"/>
-    <row r="136" ht="15.75" customHeight="1" s="222"/>
-    <row r="137" ht="15.75" customHeight="1" s="222"/>
-    <row r="138" ht="15.75" customHeight="1" s="222"/>
-    <row r="139" ht="15.75" customHeight="1" s="222"/>
-    <row r="140" ht="15.75" customHeight="1" s="222"/>
-    <row r="141" ht="15.75" customHeight="1" s="222"/>
-    <row r="142" ht="15.75" customHeight="1" s="222"/>
-    <row r="143" ht="15.75" customHeight="1" s="222"/>
-    <row r="144" ht="15.75" customHeight="1" s="222"/>
-    <row r="145" ht="15.75" customHeight="1" s="222"/>
-    <row r="146" ht="15.75" customHeight="1" s="222"/>
-    <row r="147" ht="15.75" customHeight="1" s="222"/>
-    <row r="148" ht="15.75" customHeight="1" s="222"/>
-    <row r="149" ht="15.75" customHeight="1" s="222"/>
-    <row r="150" ht="15.75" customHeight="1" s="222"/>
-    <row r="151" ht="15.75" customHeight="1" s="222"/>
-    <row r="152" ht="15.75" customHeight="1" s="222"/>
-    <row r="153" ht="15.75" customHeight="1" s="222"/>
-    <row r="154" ht="15.75" customHeight="1" s="222"/>
-    <row r="155" ht="15.75" customHeight="1" s="222"/>
-    <row r="156" ht="15.75" customHeight="1" s="222"/>
-    <row r="157" ht="15.75" customHeight="1" s="222"/>
-    <row r="158" ht="15.75" customHeight="1" s="222"/>
-    <row r="159" ht="15.75" customHeight="1" s="222"/>
-    <row r="160" ht="15.75" customHeight="1" s="222"/>
-    <row r="161" ht="15.75" customHeight="1" s="222"/>
-    <row r="162" ht="15.75" customHeight="1" s="222"/>
-    <row r="163" ht="15.75" customHeight="1" s="222"/>
-    <row r="164" ht="15.75" customHeight="1" s="222"/>
-    <row r="165" ht="15.75" customHeight="1" s="222"/>
-    <row r="166" ht="15.75" customHeight="1" s="222"/>
-    <row r="167" ht="15.75" customHeight="1" s="222"/>
-    <row r="168" ht="15.75" customHeight="1" s="222"/>
-    <row r="169" ht="15.75" customHeight="1" s="222"/>
-    <row r="170" ht="15.75" customHeight="1" s="222"/>
-    <row r="171" ht="15.75" customHeight="1" s="222"/>
-    <row r="172" ht="15.75" customHeight="1" s="222"/>
-    <row r="173" ht="15.75" customHeight="1" s="222"/>
-    <row r="174" ht="15.75" customHeight="1" s="222"/>
-    <row r="175" ht="15.75" customHeight="1" s="222"/>
-    <row r="176" ht="15.75" customHeight="1" s="222"/>
-    <row r="177" ht="15.75" customHeight="1" s="222"/>
-    <row r="178" ht="15.75" customHeight="1" s="222"/>
-    <row r="179" ht="15.75" customHeight="1" s="222"/>
-    <row r="180" ht="15.75" customHeight="1" s="222"/>
-    <row r="181" ht="15.75" customHeight="1" s="222"/>
-    <row r="182" ht="15.75" customHeight="1" s="222"/>
-    <row r="183" ht="15.75" customHeight="1" s="222"/>
-    <row r="184" ht="15.75" customHeight="1" s="222"/>
-    <row r="185" ht="15.75" customHeight="1" s="222"/>
-    <row r="186" ht="15.75" customHeight="1" s="222"/>
-    <row r="187" ht="15.75" customHeight="1" s="222"/>
-    <row r="188" ht="15.75" customHeight="1" s="222"/>
-    <row r="189" ht="15.75" customHeight="1" s="222"/>
-    <row r="190" ht="15.75" customHeight="1" s="222"/>
-    <row r="191" ht="15.75" customHeight="1" s="222"/>
-    <row r="192" ht="15.75" customHeight="1" s="222"/>
-    <row r="193" ht="15.75" customHeight="1" s="222"/>
-    <row r="194" ht="15.75" customHeight="1" s="222"/>
-    <row r="195" ht="15.75" customHeight="1" s="222"/>
-    <row r="196" ht="15.75" customHeight="1" s="222"/>
-    <row r="197" ht="15.75" customHeight="1" s="222"/>
-    <row r="198" ht="15.75" customHeight="1" s="222"/>
-    <row r="199" ht="15.75" customHeight="1" s="222"/>
-    <row r="200" ht="15.75" customHeight="1" s="222"/>
-    <row r="201" ht="15.75" customHeight="1" s="222"/>
-    <row r="202" ht="15.75" customHeight="1" s="222"/>
-    <row r="203" ht="15.75" customHeight="1" s="222"/>
-    <row r="204" ht="15.75" customHeight="1" s="222"/>
-    <row r="205" ht="15.75" customHeight="1" s="222"/>
-    <row r="206" ht="15.75" customHeight="1" s="222"/>
-    <row r="207" ht="15.75" customHeight="1" s="222"/>
-    <row r="208" ht="15.75" customHeight="1" s="222"/>
-    <row r="209" ht="15.75" customHeight="1" s="222"/>
-    <row r="210" ht="15.75" customHeight="1" s="222"/>
-    <row r="211" ht="15.75" customHeight="1" s="222"/>
-    <row r="212" ht="15.75" customHeight="1" s="222"/>
-    <row r="213" ht="15.75" customHeight="1" s="222"/>
-    <row r="214" ht="15.75" customHeight="1" s="222"/>
-    <row r="215" ht="15.75" customHeight="1" s="222"/>
-    <row r="216" ht="15.75" customHeight="1" s="222"/>
-    <row r="217" ht="15.75" customHeight="1" s="222"/>
-    <row r="218" ht="15.75" customHeight="1" s="222"/>
-    <row r="219" ht="15.75" customHeight="1" s="222"/>
-    <row r="220" ht="15.75" customHeight="1" s="222"/>
-    <row r="221" ht="15.75" customHeight="1" s="222"/>
-    <row r="222" ht="15.75" customHeight="1" s="222"/>
-    <row r="223" ht="15.75" customHeight="1" s="222"/>
-    <row r="224" ht="15.75" customHeight="1" s="222"/>
-    <row r="225" ht="15.75" customHeight="1" s="222"/>
-    <row r="226" ht="15.75" customHeight="1" s="222"/>
-    <row r="227" ht="15.75" customHeight="1" s="222"/>
-    <row r="228" ht="15.75" customHeight="1" s="222"/>
-    <row r="229" ht="15.75" customHeight="1" s="222"/>
-    <row r="230" ht="15.75" customHeight="1" s="222"/>
-    <row r="231" ht="15.75" customHeight="1" s="222"/>
-    <row r="232" ht="15.75" customHeight="1" s="222"/>
-    <row r="233" ht="15.75" customHeight="1" s="222"/>
-    <row r="234" ht="15.75" customHeight="1" s="222"/>
-    <row r="235" ht="15.75" customHeight="1" s="222"/>
-    <row r="236" ht="15.75" customHeight="1" s="222"/>
-    <row r="237" ht="15.75" customHeight="1" s="222"/>
-    <row r="238" ht="15.75" customHeight="1" s="222"/>
-    <row r="239" ht="15.75" customHeight="1" s="222"/>
-    <row r="240" ht="15.75" customHeight="1" s="222"/>
-    <row r="241" ht="15.75" customHeight="1" s="222"/>
-    <row r="242" ht="15.75" customHeight="1" s="222"/>
-    <row r="243" ht="15.75" customHeight="1" s="222"/>
-    <row r="244" ht="15.75" customHeight="1" s="222"/>
-    <row r="245" ht="15.75" customHeight="1" s="222"/>
-    <row r="246" ht="15.75" customHeight="1" s="222"/>
-    <row r="247" ht="15.75" customHeight="1" s="222"/>
-    <row r="248" ht="15.75" customHeight="1" s="222"/>
-    <row r="249" ht="15.75" customHeight="1" s="222"/>
-    <row r="250" ht="15.75" customHeight="1" s="222"/>
-    <row r="251" ht="15.75" customHeight="1" s="222"/>
-    <row r="252" ht="15.75" customHeight="1" s="222"/>
-    <row r="253" ht="15.75" customHeight="1" s="222"/>
-    <row r="254" ht="15.75" customHeight="1" s="222"/>
-    <row r="255" ht="15.75" customHeight="1" s="222"/>
-    <row r="256" ht="15.75" customHeight="1" s="222"/>
-    <row r="257" ht="15.75" customHeight="1" s="222"/>
-    <row r="258" ht="15.75" customHeight="1" s="222"/>
-    <row r="259" ht="15.75" customHeight="1" s="222"/>
-    <row r="260" ht="15.75" customHeight="1" s="222"/>
-    <row r="261" ht="15.75" customHeight="1" s="222"/>
-    <row r="262" ht="15.75" customHeight="1" s="222"/>
-    <row r="263" ht="15.75" customHeight="1" s="222"/>
-    <row r="264" ht="15.75" customHeight="1" s="222"/>
-    <row r="265" ht="15.75" customHeight="1" s="222"/>
-    <row r="266" ht="15.75" customHeight="1" s="222"/>
-    <row r="267" ht="15.75" customHeight="1" s="222"/>
-    <row r="268" ht="15.75" customHeight="1" s="222"/>
-    <row r="269" ht="15.75" customHeight="1" s="222"/>
-    <row r="270" ht="15.75" customHeight="1" s="222"/>
-    <row r="271" ht="15.75" customHeight="1" s="222"/>
-    <row r="272" ht="15.75" customHeight="1" s="222"/>
-    <row r="273" ht="15.75" customHeight="1" s="222"/>
-    <row r="274" ht="15.75" customHeight="1" s="222"/>
-    <row r="275" ht="15.75" customHeight="1" s="222"/>
-    <row r="276" ht="15.75" customHeight="1" s="222"/>
-    <row r="277" ht="15.75" customHeight="1" s="222"/>
-    <row r="278" ht="15.75" customHeight="1" s="222"/>
-    <row r="279" ht="15.75" customHeight="1" s="222"/>
-    <row r="280" ht="15.75" customHeight="1" s="222"/>
-    <row r="281" ht="15.75" customHeight="1" s="222"/>
-    <row r="282" ht="15.75" customHeight="1" s="222"/>
-    <row r="283" ht="15.75" customHeight="1" s="222"/>
-    <row r="284" ht="15.75" customHeight="1" s="222"/>
-    <row r="285" ht="15.75" customHeight="1" s="222"/>
-    <row r="286" ht="15.75" customHeight="1" s="222"/>
-    <row r="287" ht="15.75" customHeight="1" s="222"/>
-    <row r="288" ht="15.75" customHeight="1" s="222"/>
-    <row r="289" ht="15.75" customHeight="1" s="222"/>
-    <row r="290" ht="15.75" customHeight="1" s="222"/>
-    <row r="291" ht="15.75" customHeight="1" s="222"/>
-    <row r="292" ht="15.75" customHeight="1" s="222"/>
-    <row r="293" ht="15.75" customHeight="1" s="222"/>
-    <row r="294" ht="15.75" customHeight="1" s="222"/>
-    <row r="295" ht="15.75" customHeight="1" s="222"/>
-    <row r="296" ht="15.75" customHeight="1" s="222"/>
-    <row r="297" ht="15.75" customHeight="1" s="222"/>
-    <row r="298" ht="15.75" customHeight="1" s="222"/>
-    <row r="299" ht="15.75" customHeight="1" s="222"/>
-    <row r="300" ht="15.75" customHeight="1" s="222"/>
-    <row r="301" ht="15.75" customHeight="1" s="222"/>
-    <row r="302" ht="15.75" customHeight="1" s="222"/>
-    <row r="303" ht="15.75" customHeight="1" s="222"/>
-    <row r="304" ht="15.75" customHeight="1" s="222"/>
-    <row r="305" ht="15.75" customHeight="1" s="222"/>
-    <row r="306" ht="15.75" customHeight="1" s="222"/>
-    <row r="307" ht="15.75" customHeight="1" s="222"/>
-    <row r="308" ht="15.75" customHeight="1" s="222"/>
-    <row r="309" ht="15.75" customHeight="1" s="222"/>
-    <row r="310" ht="15.75" customHeight="1" s="222"/>
-    <row r="311" ht="15.75" customHeight="1" s="222"/>
-    <row r="312" ht="15.75" customHeight="1" s="222"/>
-    <row r="313" ht="15.75" customHeight="1" s="222"/>
-    <row r="314" ht="15.75" customHeight="1" s="222"/>
-    <row r="315" ht="15.75" customHeight="1" s="222"/>
-    <row r="316" ht="15.75" customHeight="1" s="222"/>
-    <row r="317" ht="15.75" customHeight="1" s="222"/>
-    <row r="318" ht="15.75" customHeight="1" s="222"/>
-    <row r="319" ht="15.75" customHeight="1" s="222"/>
-    <row r="320" ht="15.75" customHeight="1" s="222"/>
-    <row r="321" ht="15.75" customHeight="1" s="222"/>
-    <row r="322" ht="15.75" customHeight="1" s="222"/>
-    <row r="323" ht="15.75" customHeight="1" s="222"/>
-    <row r="324" ht="15.75" customHeight="1" s="222"/>
-    <row r="325" ht="15.75" customHeight="1" s="222"/>
-    <row r="326" ht="15.75" customHeight="1" s="222"/>
-    <row r="327" ht="15.75" customHeight="1" s="222"/>
-    <row r="328" ht="15.75" customHeight="1" s="222"/>
-    <row r="329" ht="15.75" customHeight="1" s="222"/>
-    <row r="330" ht="15.75" customHeight="1" s="222"/>
-    <row r="331" ht="15.75" customHeight="1" s="222"/>
-    <row r="332" ht="15.75" customHeight="1" s="222"/>
-    <row r="333" ht="15.75" customHeight="1" s="222"/>
-    <row r="334" ht="15.75" customHeight="1" s="222"/>
-    <row r="335" ht="15.75" customHeight="1" s="222"/>
-    <row r="336" ht="15.75" customHeight="1" s="222"/>
-    <row r="337" ht="15.75" customHeight="1" s="222"/>
-    <row r="338" ht="15.75" customHeight="1" s="222"/>
-    <row r="339" ht="15.75" customHeight="1" s="222"/>
-    <row r="340" ht="15.75" customHeight="1" s="222"/>
-    <row r="341" ht="15.75" customHeight="1" s="222"/>
-    <row r="342" ht="15.75" customHeight="1" s="222"/>
-    <row r="343" ht="15.75" customHeight="1" s="222"/>
-    <row r="344" ht="15.75" customHeight="1" s="222"/>
-    <row r="345" ht="15.75" customHeight="1" s="222"/>
-    <row r="346" ht="15.75" customHeight="1" s="222"/>
-    <row r="347" ht="15.75" customHeight="1" s="222"/>
-    <row r="348" ht="15.75" customHeight="1" s="222"/>
-    <row r="349" ht="15.75" customHeight="1" s="222"/>
-    <row r="350" ht="15.75" customHeight="1" s="222"/>
-    <row r="351" ht="15.75" customHeight="1" s="222"/>
-    <row r="352" ht="15.75" customHeight="1" s="222"/>
-    <row r="353" ht="15.75" customHeight="1" s="222"/>
-    <row r="354" ht="15.75" customHeight="1" s="222"/>
-    <row r="355" ht="15.75" customHeight="1" s="222"/>
-    <row r="356" ht="15.75" customHeight="1" s="222"/>
-    <row r="357" ht="15.75" customHeight="1" s="222"/>
-    <row r="358" ht="15.75" customHeight="1" s="222"/>
-    <row r="359" ht="15.75" customHeight="1" s="222"/>
-    <row r="360" ht="15.75" customHeight="1" s="222"/>
-    <row r="361" ht="15.75" customHeight="1" s="222"/>
-    <row r="362" ht="15.75" customHeight="1" s="222"/>
-    <row r="363" ht="15.75" customHeight="1" s="222"/>
-    <row r="364" ht="15.75" customHeight="1" s="222"/>
-    <row r="365" ht="15.75" customHeight="1" s="222"/>
-    <row r="366" ht="15.75" customHeight="1" s="222"/>
-    <row r="367" ht="15.75" customHeight="1" s="222"/>
-    <row r="368" ht="15.75" customHeight="1" s="222"/>
-    <row r="369" ht="15.75" customHeight="1" s="222"/>
-    <row r="370" ht="15.75" customHeight="1" s="222"/>
-    <row r="371" ht="15.75" customHeight="1" s="222"/>
-    <row r="372" ht="15.75" customHeight="1" s="222"/>
-    <row r="373" ht="15.75" customHeight="1" s="222"/>
-    <row r="374" ht="15.75" customHeight="1" s="222"/>
-    <row r="375" ht="15.75" customHeight="1" s="222"/>
-    <row r="376" ht="15.75" customHeight="1" s="222"/>
-    <row r="377" ht="15.75" customHeight="1" s="222"/>
-    <row r="378" ht="15.75" customHeight="1" s="222"/>
-    <row r="379" ht="15.75" customHeight="1" s="222"/>
-    <row r="380" ht="15.75" customHeight="1" s="222"/>
-    <row r="381" ht="15.75" customHeight="1" s="222"/>
-    <row r="382" ht="15.75" customHeight="1" s="222"/>
-    <row r="383" ht="15.75" customHeight="1" s="222"/>
-    <row r="384" ht="15.75" customHeight="1" s="222"/>
-    <row r="385" ht="15.75" customHeight="1" s="222"/>
-    <row r="386" ht="15.75" customHeight="1" s="222"/>
-    <row r="387" ht="15.75" customHeight="1" s="222"/>
-    <row r="388" ht="15.75" customHeight="1" s="222"/>
-    <row r="389" ht="15.75" customHeight="1" s="222"/>
-    <row r="390" ht="15.75" customHeight="1" s="222"/>
-    <row r="391" ht="15.75" customHeight="1" s="222"/>
-    <row r="392" ht="15.75" customHeight="1" s="222"/>
-    <row r="393" ht="15.75" customHeight="1" s="222"/>
-    <row r="394" ht="15.75" customHeight="1" s="222"/>
-    <row r="395" ht="15.75" customHeight="1" s="222"/>
-    <row r="396" ht="15.75" customHeight="1" s="222"/>
-    <row r="397" ht="15.75" customHeight="1" s="222"/>
-    <row r="398" ht="15.75" customHeight="1" s="222"/>
-    <row r="399" ht="15.75" customHeight="1" s="222"/>
-    <row r="400" ht="15.75" customHeight="1" s="222"/>
-    <row r="401" ht="15.75" customHeight="1" s="222"/>
-    <row r="402" ht="15.75" customHeight="1" s="222"/>
-    <row r="403" ht="15.75" customHeight="1" s="222"/>
-    <row r="404" ht="15.75" customHeight="1" s="222"/>
-    <row r="405" ht="15.75" customHeight="1" s="222"/>
-    <row r="406" ht="15.75" customHeight="1" s="222"/>
-    <row r="407" ht="15.75" customHeight="1" s="222"/>
-    <row r="408" ht="15.75" customHeight="1" s="222"/>
-    <row r="409" ht="15.75" customHeight="1" s="222"/>
-    <row r="410" ht="15.75" customHeight="1" s="222"/>
-    <row r="411" ht="15.75" customHeight="1" s="222"/>
-    <row r="412" ht="15.75" customHeight="1" s="222"/>
-    <row r="413" ht="15.75" customHeight="1" s="222"/>
-    <row r="414" ht="15.75" customHeight="1" s="222"/>
-    <row r="415" ht="15.75" customHeight="1" s="222"/>
-    <row r="416" ht="15.75" customHeight="1" s="222"/>
-    <row r="417" ht="15.75" customHeight="1" s="222"/>
-    <row r="418" ht="15.75" customHeight="1" s="222"/>
-    <row r="419" ht="15.75" customHeight="1" s="222"/>
-    <row r="420" ht="15.75" customHeight="1" s="222"/>
-    <row r="421" ht="15.75" customHeight="1" s="222"/>
-    <row r="422" ht="15.75" customHeight="1" s="222"/>
-    <row r="423" ht="15.75" customHeight="1" s="222"/>
-    <row r="424" ht="15.75" customHeight="1" s="222"/>
-    <row r="425" ht="15.75" customHeight="1" s="222"/>
-    <row r="426" ht="15.75" customHeight="1" s="222"/>
-    <row r="427" ht="15.75" customHeight="1" s="222"/>
-    <row r="428" ht="15.75" customHeight="1" s="222"/>
-    <row r="429" ht="15.75" customHeight="1" s="222"/>
-    <row r="430" ht="15.75" customHeight="1" s="222"/>
-    <row r="431" ht="15.75" customHeight="1" s="222"/>
-    <row r="432" ht="15.75" customHeight="1" s="222"/>
-    <row r="433" ht="15.75" customHeight="1" s="222"/>
-    <row r="434" ht="15.75" customHeight="1" s="222"/>
-    <row r="435" ht="15.75" customHeight="1" s="222"/>
-    <row r="436" ht="15.75" customHeight="1" s="222"/>
-    <row r="437" ht="15.75" customHeight="1" s="222"/>
-    <row r="438" ht="15.75" customHeight="1" s="222"/>
-    <row r="439" ht="15.75" customHeight="1" s="222"/>
-    <row r="440" ht="15.75" customHeight="1" s="222"/>
-    <row r="441" ht="15.75" customHeight="1" s="222"/>
-    <row r="442" ht="15.75" customHeight="1" s="222"/>
-    <row r="443" ht="15.75" customHeight="1" s="222"/>
-    <row r="444" ht="15.75" customHeight="1" s="222"/>
-    <row r="445" ht="15.75" customHeight="1" s="222"/>
-    <row r="446" ht="15.75" customHeight="1" s="222"/>
-    <row r="447" ht="15.75" customHeight="1" s="222"/>
-    <row r="448" ht="15.75" customHeight="1" s="222"/>
-    <row r="449" ht="15.75" customHeight="1" s="222"/>
-    <row r="450" ht="15.75" customHeight="1" s="222"/>
-    <row r="451" ht="15.75" customHeight="1" s="222"/>
-    <row r="452" ht="15.75" customHeight="1" s="222"/>
-    <row r="453" ht="15.75" customHeight="1" s="222"/>
-    <row r="454" ht="15.75" customHeight="1" s="222"/>
-    <row r="455" ht="15.75" customHeight="1" s="222"/>
-    <row r="456" ht="15.75" customHeight="1" s="222"/>
-    <row r="457" ht="15.75" customHeight="1" s="222"/>
-    <row r="458" ht="15.75" customHeight="1" s="222"/>
-    <row r="459" ht="15.75" customHeight="1" s="222"/>
-    <row r="460" ht="15.75" customHeight="1" s="222"/>
-    <row r="461" ht="15.75" customHeight="1" s="222"/>
-    <row r="462" ht="15.75" customHeight="1" s="222"/>
-    <row r="463" ht="15.75" customHeight="1" s="222"/>
-    <row r="464" ht="15.75" customHeight="1" s="222"/>
-    <row r="465" ht="15.75" customHeight="1" s="222"/>
-    <row r="466" ht="15.75" customHeight="1" s="222"/>
-    <row r="467" ht="15.75" customHeight="1" s="222"/>
-    <row r="468" ht="15.75" customHeight="1" s="222"/>
-    <row r="469" ht="15.75" customHeight="1" s="222"/>
-    <row r="470" ht="15.75" customHeight="1" s="222"/>
-    <row r="471" ht="15.75" customHeight="1" s="222"/>
-    <row r="472" ht="15.75" customHeight="1" s="222"/>
-    <row r="473" ht="15.75" customHeight="1" s="222"/>
-    <row r="474" ht="15.75" customHeight="1" s="222"/>
-    <row r="475" ht="15.75" customHeight="1" s="222"/>
-    <row r="476" ht="15.75" customHeight="1" s="222"/>
-    <row r="477" ht="15.75" customHeight="1" s="222"/>
-    <row r="478" ht="15.75" customHeight="1" s="222"/>
-    <row r="479" ht="15.75" customHeight="1" s="222"/>
-    <row r="480" ht="15.75" customHeight="1" s="222"/>
-    <row r="481" ht="15.75" customHeight="1" s="222"/>
-    <row r="482" ht="15.75" customHeight="1" s="222"/>
-    <row r="483" ht="15.75" customHeight="1" s="222"/>
-    <row r="484" ht="15.75" customHeight="1" s="222"/>
-    <row r="485" ht="15.75" customHeight="1" s="222"/>
-    <row r="486" ht="15.75" customHeight="1" s="222"/>
-    <row r="487" ht="15.75" customHeight="1" s="222"/>
-    <row r="488" ht="15.75" customHeight="1" s="222"/>
-    <row r="489" ht="15.75" customHeight="1" s="222"/>
-    <row r="490" ht="15.75" customHeight="1" s="222"/>
-    <row r="491" ht="15.75" customHeight="1" s="222"/>
-    <row r="492" ht="15.75" customHeight="1" s="222"/>
-    <row r="493" ht="15.75" customHeight="1" s="222"/>
-    <row r="494" ht="15.75" customHeight="1" s="222"/>
-    <row r="495" ht="15.75" customHeight="1" s="222"/>
-    <row r="496" ht="15.75" customHeight="1" s="222"/>
-    <row r="497" ht="15.75" customHeight="1" s="222"/>
-    <row r="498" ht="15.75" customHeight="1" s="222"/>
-    <row r="499" ht="15.75" customHeight="1" s="222"/>
-    <row r="500" ht="15.75" customHeight="1" s="222"/>
-    <row r="501" ht="15.75" customHeight="1" s="222"/>
-    <row r="502" ht="15.75" customHeight="1" s="222"/>
-    <row r="503" ht="15.75" customHeight="1" s="222"/>
-    <row r="504" ht="15.75" customHeight="1" s="222"/>
-    <row r="505" ht="15.75" customHeight="1" s="222"/>
-    <row r="506" ht="15.75" customHeight="1" s="222"/>
-    <row r="507" ht="15.75" customHeight="1" s="222"/>
-    <row r="508" ht="15.75" customHeight="1" s="222"/>
-    <row r="509" ht="15.75" customHeight="1" s="222"/>
-    <row r="510" ht="15.75" customHeight="1" s="222"/>
-    <row r="511" ht="15.75" customHeight="1" s="222"/>
-    <row r="512" ht="15.75" customHeight="1" s="222"/>
-    <row r="513" ht="15.75" customHeight="1" s="222"/>
-    <row r="514" ht="15.75" customHeight="1" s="222"/>
-    <row r="515" ht="15.75" customHeight="1" s="222"/>
-    <row r="516" ht="15.75" customHeight="1" s="222"/>
-    <row r="517" ht="15.75" customHeight="1" s="222"/>
-    <row r="518" ht="15.75" customHeight="1" s="222"/>
-    <row r="519" ht="15.75" customHeight="1" s="222"/>
-    <row r="520" ht="15.75" customHeight="1" s="222"/>
-    <row r="521" ht="15.75" customHeight="1" s="222"/>
-    <row r="522" ht="15.75" customHeight="1" s="222"/>
-    <row r="523" ht="15.75" customHeight="1" s="222"/>
-    <row r="524" ht="15.75" customHeight="1" s="222"/>
-    <row r="525" ht="15.75" customHeight="1" s="222"/>
-    <row r="526" ht="15.75" customHeight="1" s="222"/>
-    <row r="527" ht="15.75" customHeight="1" s="222"/>
-    <row r="528" ht="15.75" customHeight="1" s="222"/>
-    <row r="529" ht="15.75" customHeight="1" s="222"/>
-    <row r="530" ht="15.75" customHeight="1" s="222"/>
-    <row r="531" ht="15.75" customHeight="1" s="222"/>
-    <row r="532" ht="15.75" customHeight="1" s="222"/>
-    <row r="533" ht="15.75" customHeight="1" s="222"/>
-    <row r="534" ht="15.75" customHeight="1" s="222"/>
-    <row r="535" ht="15.75" customHeight="1" s="222"/>
-    <row r="536" ht="15.75" customHeight="1" s="222"/>
-    <row r="537" ht="15.75" customHeight="1" s="222"/>
-    <row r="538" ht="15.75" customHeight="1" s="222"/>
-    <row r="539" ht="15.75" customHeight="1" s="222"/>
-    <row r="540" ht="15.75" customHeight="1" s="222"/>
-    <row r="541" ht="15.75" customHeight="1" s="222"/>
-    <row r="542" ht="15.75" customHeight="1" s="222"/>
-    <row r="543" ht="15.75" customHeight="1" s="222"/>
-    <row r="544" ht="15.75" customHeight="1" s="222"/>
-    <row r="545" ht="15.75" customHeight="1" s="222"/>
-    <row r="546" ht="15.75" customHeight="1" s="222"/>
-    <row r="547" ht="15.75" customHeight="1" s="222"/>
-    <row r="548" ht="15.75" customHeight="1" s="222"/>
-    <row r="549" ht="15.75" customHeight="1" s="222"/>
-    <row r="550" ht="15.75" customHeight="1" s="222"/>
-    <row r="551" ht="15.75" customHeight="1" s="222"/>
-    <row r="552" ht="15.75" customHeight="1" s="222"/>
-    <row r="553" ht="15.75" customHeight="1" s="222"/>
-    <row r="554" ht="15.75" customHeight="1" s="222"/>
-    <row r="555" ht="15.75" customHeight="1" s="222"/>
-    <row r="556" ht="15.75" customHeight="1" s="222"/>
-    <row r="557" ht="15.75" customHeight="1" s="222"/>
-    <row r="558" ht="15.75" customHeight="1" s="222"/>
-    <row r="559" ht="15.75" customHeight="1" s="222"/>
-    <row r="560" ht="15.75" customHeight="1" s="222"/>
-    <row r="561" ht="15.75" customHeight="1" s="222"/>
-    <row r="562" ht="15.75" customHeight="1" s="222"/>
-    <row r="563" ht="15.75" customHeight="1" s="222"/>
-    <row r="564" ht="15.75" customHeight="1" s="222"/>
-    <row r="565" ht="15.75" customHeight="1" s="222"/>
-    <row r="566" ht="15.75" customHeight="1" s="222"/>
-    <row r="567" ht="15.75" customHeight="1" s="222"/>
-    <row r="568" ht="15.75" customHeight="1" s="222"/>
-    <row r="569" ht="15.75" customHeight="1" s="222"/>
-    <row r="570" ht="15.75" customHeight="1" s="222"/>
-    <row r="571" ht="15.75" customHeight="1" s="222"/>
-    <row r="572" ht="15.75" customHeight="1" s="222"/>
-    <row r="573" ht="15.75" customHeight="1" s="222"/>
-    <row r="574" ht="15.75" customHeight="1" s="222"/>
-    <row r="575" ht="15.75" customHeight="1" s="222"/>
-    <row r="576" ht="15.75" customHeight="1" s="222"/>
-    <row r="577" ht="15.75" customHeight="1" s="222"/>
-    <row r="578" ht="15.75" customHeight="1" s="222"/>
-    <row r="579" ht="15.75" customHeight="1" s="222"/>
-    <row r="580" ht="15.75" customHeight="1" s="222"/>
-    <row r="581" ht="15.75" customHeight="1" s="222"/>
-    <row r="582" ht="15.75" customHeight="1" s="222"/>
-    <row r="583" ht="15.75" customHeight="1" s="222"/>
-    <row r="584" ht="15.75" customHeight="1" s="222"/>
-    <row r="585" ht="15.75" customHeight="1" s="222"/>
-    <row r="586" ht="15.75" customHeight="1" s="222"/>
-    <row r="587" ht="15.75" customHeight="1" s="222"/>
-    <row r="588" ht="15.75" customHeight="1" s="222"/>
-    <row r="589" ht="15.75" customHeight="1" s="222"/>
-    <row r="590" ht="15.75" customHeight="1" s="222"/>
-    <row r="591" ht="15.75" customHeight="1" s="222"/>
-    <row r="592" ht="15.75" customHeight="1" s="222"/>
-    <row r="593" ht="15.75" customHeight="1" s="222"/>
-    <row r="594" ht="15.75" customHeight="1" s="222"/>
-    <row r="595" ht="15.75" customHeight="1" s="222"/>
-    <row r="596" ht="15.75" customHeight="1" s="222"/>
-    <row r="597" ht="15.75" customHeight="1" s="222"/>
-    <row r="598" ht="15.75" customHeight="1" s="222"/>
-    <row r="599" ht="15.75" customHeight="1" s="222"/>
-    <row r="600" ht="15.75" customHeight="1" s="222"/>
-    <row r="601" ht="15.75" customHeight="1" s="222"/>
-    <row r="602" ht="15.75" customHeight="1" s="222"/>
-    <row r="603" ht="15.75" customHeight="1" s="222"/>
-    <row r="604" ht="15.75" customHeight="1" s="222"/>
-    <row r="605" ht="15.75" customHeight="1" s="222"/>
-    <row r="606" ht="15.75" customHeight="1" s="222"/>
-    <row r="607" ht="15.75" customHeight="1" s="222"/>
-    <row r="608" ht="15.75" customHeight="1" s="222"/>
-    <row r="609" ht="15.75" customHeight="1" s="222"/>
-    <row r="610" ht="15.75" customHeight="1" s="222"/>
-    <row r="611" ht="15.75" customHeight="1" s="222"/>
-    <row r="612" ht="15.75" customHeight="1" s="222"/>
-    <row r="613" ht="15.75" customHeight="1" s="222"/>
-    <row r="614" ht="15.75" customHeight="1" s="222"/>
-    <row r="615" ht="15.75" customHeight="1" s="222"/>
-    <row r="616" ht="15.75" customHeight="1" s="222"/>
-    <row r="617" ht="15.75" customHeight="1" s="222"/>
-    <row r="618" ht="15.75" customHeight="1" s="222"/>
-    <row r="619" ht="15.75" customHeight="1" s="222"/>
-    <row r="620" ht="15.75" customHeight="1" s="222"/>
-    <row r="621" ht="15.75" customHeight="1" s="222"/>
-    <row r="622" ht="15.75" customHeight="1" s="222"/>
-    <row r="623" ht="15.75" customHeight="1" s="222"/>
-    <row r="624" ht="15.75" customHeight="1" s="222"/>
-    <row r="625" ht="15.75" customHeight="1" s="222"/>
-    <row r="626" ht="15.75" customHeight="1" s="222"/>
-    <row r="627" ht="15.75" customHeight="1" s="222"/>
-    <row r="628" ht="15.75" customHeight="1" s="222"/>
-    <row r="629" ht="15.75" customHeight="1" s="222"/>
-    <row r="630" ht="15.75" customHeight="1" s="222"/>
-    <row r="631" ht="15.75" customHeight="1" s="222"/>
-    <row r="632" ht="15.75" customHeight="1" s="222"/>
-    <row r="633" ht="15.75" customHeight="1" s="222"/>
-    <row r="634" ht="15.75" customHeight="1" s="222"/>
-    <row r="635" ht="15.75" customHeight="1" s="222"/>
-    <row r="636" ht="15.75" customHeight="1" s="222"/>
-    <row r="637" ht="15.75" customHeight="1" s="222"/>
-    <row r="638" ht="15.75" customHeight="1" s="222"/>
-    <row r="639" ht="15.75" customHeight="1" s="222"/>
-    <row r="640" ht="15.75" customHeight="1" s="222"/>
-    <row r="641" ht="15.75" customHeight="1" s="222"/>
-    <row r="642" ht="15.75" customHeight="1" s="222"/>
-    <row r="643" ht="15.75" customHeight="1" s="222"/>
-    <row r="644" ht="15.75" customHeight="1" s="222"/>
-    <row r="645" ht="15.75" customHeight="1" s="222"/>
-    <row r="646" ht="15.75" customHeight="1" s="222"/>
-    <row r="647" ht="15.75" customHeight="1" s="222"/>
-    <row r="648" ht="15.75" customHeight="1" s="222"/>
-    <row r="649" ht="15.75" customHeight="1" s="222"/>
-    <row r="650" ht="15.75" customHeight="1" s="222"/>
-    <row r="651" ht="15.75" customHeight="1" s="222"/>
-    <row r="652" ht="15.75" customHeight="1" s="222"/>
-    <row r="653" ht="15.75" customHeight="1" s="222"/>
-    <row r="654" ht="15.75" customHeight="1" s="222"/>
-    <row r="655" ht="15.75" customHeight="1" s="222"/>
-    <row r="656" ht="15.75" customHeight="1" s="222"/>
-    <row r="657" ht="15.75" customHeight="1" s="222"/>
-    <row r="658" ht="15.75" customHeight="1" s="222"/>
-    <row r="659" ht="15.75" customHeight="1" s="222"/>
-    <row r="660" ht="15.75" customHeight="1" s="222"/>
-    <row r="661" ht="15.75" customHeight="1" s="222"/>
-    <row r="662" ht="15.75" customHeight="1" s="222"/>
-    <row r="663" ht="15.75" customHeight="1" s="222"/>
-    <row r="664" ht="15.75" customHeight="1" s="222"/>
-    <row r="665" ht="15.75" customHeight="1" s="222"/>
-    <row r="666" ht="15.75" customHeight="1" s="222"/>
-    <row r="667" ht="15.75" customHeight="1" s="222"/>
-    <row r="668" ht="15.75" customHeight="1" s="222"/>
-    <row r="669" ht="15.75" customHeight="1" s="222"/>
-    <row r="670" ht="15.75" customHeight="1" s="222"/>
-    <row r="671" ht="15.75" customHeight="1" s="222"/>
-    <row r="672" ht="15.75" customHeight="1" s="222"/>
-    <row r="673" ht="15.75" customHeight="1" s="222"/>
-    <row r="674" ht="15.75" customHeight="1" s="222"/>
-    <row r="675" ht="15.75" customHeight="1" s="222"/>
-    <row r="676" ht="15.75" customHeight="1" s="222"/>
-    <row r="677" ht="15.75" customHeight="1" s="222"/>
-    <row r="678" ht="15.75" customHeight="1" s="222"/>
-    <row r="679" ht="15.75" customHeight="1" s="222"/>
-    <row r="680" ht="15.75" customHeight="1" s="222"/>
-    <row r="681" ht="15.75" customHeight="1" s="222"/>
-    <row r="682" ht="15.75" customHeight="1" s="222"/>
-    <row r="683" ht="15.75" customHeight="1" s="222"/>
-    <row r="684" ht="15.75" customHeight="1" s="222"/>
-    <row r="685" ht="15.75" customHeight="1" s="222"/>
-    <row r="686" ht="15.75" customHeight="1" s="222"/>
-    <row r="687" ht="15.75" customHeight="1" s="222"/>
-    <row r="688" ht="15.75" customHeight="1" s="222"/>
-    <row r="689" ht="15.75" customHeight="1" s="222"/>
-    <row r="690" ht="15.75" customHeight="1" s="222"/>
-    <row r="691" ht="15.75" customHeight="1" s="222"/>
-    <row r="692" ht="15.75" customHeight="1" s="222"/>
-    <row r="693" ht="15.75" customHeight="1" s="222"/>
-    <row r="694" ht="15.75" customHeight="1" s="222"/>
-    <row r="695" ht="15.75" customHeight="1" s="222"/>
-    <row r="696" ht="15.75" customHeight="1" s="222"/>
-    <row r="697" ht="15.75" customHeight="1" s="222"/>
-    <row r="698" ht="15.75" customHeight="1" s="222"/>
-    <row r="699" ht="15.75" customHeight="1" s="222"/>
-    <row r="700" ht="15.75" customHeight="1" s="222"/>
-    <row r="701" ht="15.75" customHeight="1" s="222"/>
-    <row r="702" ht="15.75" customHeight="1" s="222"/>
-    <row r="703" ht="15.75" customHeight="1" s="222"/>
-    <row r="704" ht="15.75" customHeight="1" s="222"/>
-    <row r="705" ht="15.75" customHeight="1" s="222"/>
-    <row r="706" ht="15.75" customHeight="1" s="222"/>
-    <row r="707" ht="15.75" customHeight="1" s="222"/>
-    <row r="708" ht="15.75" customHeight="1" s="222"/>
-    <row r="709" ht="15.75" customHeight="1" s="222"/>
-    <row r="710" ht="15.75" customHeight="1" s="222"/>
-    <row r="711" ht="15.75" customHeight="1" s="222"/>
-    <row r="712" ht="15.75" customHeight="1" s="222"/>
-    <row r="713" ht="15.75" customHeight="1" s="222"/>
-    <row r="714" ht="15.75" customHeight="1" s="222"/>
-    <row r="715" ht="15.75" customHeight="1" s="222"/>
-    <row r="716" ht="15.75" customHeight="1" s="222"/>
-    <row r="717" ht="15.75" customHeight="1" s="222"/>
-    <row r="718" ht="15.75" customHeight="1" s="222"/>
-    <row r="719" ht="15.75" customHeight="1" s="222"/>
-    <row r="720" ht="15.75" customHeight="1" s="222"/>
-    <row r="721" ht="15.75" customHeight="1" s="222"/>
-    <row r="722" ht="15.75" customHeight="1" s="222"/>
-    <row r="723" ht="15.75" customHeight="1" s="222"/>
-    <row r="724" ht="15.75" customHeight="1" s="222"/>
-    <row r="725" ht="15.75" customHeight="1" s="222"/>
-    <row r="726" ht="15.75" customHeight="1" s="222"/>
-    <row r="727" ht="15.75" customHeight="1" s="222"/>
-    <row r="728" ht="15.75" customHeight="1" s="222"/>
-    <row r="729" ht="15.75" customHeight="1" s="222"/>
-    <row r="730" ht="15.75" customHeight="1" s="222"/>
-    <row r="731" ht="15.75" customHeight="1" s="222"/>
-    <row r="732" ht="15.75" customHeight="1" s="222"/>
-    <row r="733" ht="15.75" customHeight="1" s="222"/>
-    <row r="734" ht="15.75" customHeight="1" s="222"/>
-    <row r="735" ht="15.75" customHeight="1" s="222"/>
-    <row r="736" ht="15.75" customHeight="1" s="222"/>
-    <row r="737" ht="15.75" customHeight="1" s="222"/>
-    <row r="738" ht="15.75" customHeight="1" s="222"/>
-    <row r="739" ht="15.75" customHeight="1" s="222"/>
-    <row r="740" ht="15.75" customHeight="1" s="222"/>
-    <row r="741" ht="15.75" customHeight="1" s="222"/>
-    <row r="742" ht="15.75" customHeight="1" s="222"/>
-    <row r="743" ht="15.75" customHeight="1" s="222"/>
-    <row r="744" ht="15.75" customHeight="1" s="222"/>
-    <row r="745" ht="15.75" customHeight="1" s="222"/>
-    <row r="746" ht="15.75" customHeight="1" s="222"/>
-    <row r="747" ht="15.75" customHeight="1" s="222"/>
-    <row r="748" ht="15.75" customHeight="1" s="222"/>
-    <row r="749" ht="15.75" customHeight="1" s="222"/>
-    <row r="750" ht="15.75" customHeight="1" s="222"/>
-    <row r="751" ht="15.75" customHeight="1" s="222"/>
-    <row r="752" ht="15.75" customHeight="1" s="222"/>
-    <row r="753" ht="15.75" customHeight="1" s="222"/>
-    <row r="754" ht="15.75" customHeight="1" s="222"/>
-    <row r="755" ht="15.75" customHeight="1" s="222"/>
-    <row r="756" ht="15.75" customHeight="1" s="222"/>
-    <row r="757" ht="15.75" customHeight="1" s="222"/>
-    <row r="758" ht="15.75" customHeight="1" s="222"/>
-    <row r="759" ht="15.75" customHeight="1" s="222"/>
-    <row r="760" ht="15.75" customHeight="1" s="222"/>
-    <row r="761" ht="15.75" customHeight="1" s="222"/>
-    <row r="762" ht="15.75" customHeight="1" s="222"/>
-    <row r="763" ht="15.75" customHeight="1" s="222"/>
-    <row r="764" ht="15.75" customHeight="1" s="222"/>
-    <row r="765" ht="15.75" customHeight="1" s="222"/>
-    <row r="766" ht="15.75" customHeight="1" s="222"/>
-    <row r="767" ht="15.75" customHeight="1" s="222"/>
-    <row r="768" ht="15.75" customHeight="1" s="222"/>
-    <row r="769" ht="15.75" customHeight="1" s="222"/>
-    <row r="770" ht="15.75" customHeight="1" s="222"/>
-    <row r="771" ht="15.75" customHeight="1" s="222"/>
-    <row r="772" ht="15.75" customHeight="1" s="222"/>
-    <row r="773" ht="15.75" customHeight="1" s="222"/>
-    <row r="774" ht="15.75" customHeight="1" s="222"/>
-    <row r="775" ht="15.75" customHeight="1" s="222"/>
-    <row r="776" ht="15.75" customHeight="1" s="222"/>
-    <row r="777" ht="15.75" customHeight="1" s="222"/>
-    <row r="778" ht="15.75" customHeight="1" s="222"/>
-    <row r="779" ht="15.75" customHeight="1" s="222"/>
-    <row r="780" ht="15.75" customHeight="1" s="222"/>
-    <row r="781" ht="15.75" customHeight="1" s="222"/>
-    <row r="782" ht="15.75" customHeight="1" s="222"/>
-    <row r="783" ht="15.75" customHeight="1" s="222"/>
-    <row r="784" ht="15.75" customHeight="1" s="222"/>
-    <row r="785" ht="15.75" customHeight="1" s="222"/>
-    <row r="786" ht="15.75" customHeight="1" s="222"/>
-    <row r="787" ht="15.75" customHeight="1" s="222"/>
-    <row r="788" ht="15.75" customHeight="1" s="222"/>
-    <row r="789" ht="15.75" customHeight="1" s="222"/>
-    <row r="790" ht="15.75" customHeight="1" s="222"/>
-    <row r="791" ht="15.75" customHeight="1" s="222"/>
-    <row r="792" ht="15.75" customHeight="1" s="222"/>
-    <row r="793" ht="15.75" customHeight="1" s="222"/>
-    <row r="794" ht="15.75" customHeight="1" s="222"/>
-    <row r="795" ht="15.75" customHeight="1" s="222"/>
-    <row r="796" ht="15.75" customHeight="1" s="222"/>
-    <row r="797" ht="15.75" customHeight="1" s="222"/>
-    <row r="798" ht="15.75" customHeight="1" s="222"/>
-    <row r="799" ht="15.75" customHeight="1" s="222"/>
-    <row r="800" ht="15.75" customHeight="1" s="222"/>
-    <row r="801" ht="15.75" customHeight="1" s="222"/>
-    <row r="802" ht="15.75" customHeight="1" s="222"/>
-    <row r="803" ht="15.75" customHeight="1" s="222"/>
-    <row r="804" ht="15.75" customHeight="1" s="222"/>
-    <row r="805" ht="15.75" customHeight="1" s="222"/>
-    <row r="806" ht="15.75" customHeight="1" s="222"/>
-    <row r="807" ht="15.75" customHeight="1" s="222"/>
-    <row r="808" ht="15.75" customHeight="1" s="222"/>
-    <row r="809" ht="15.75" customHeight="1" s="222"/>
-    <row r="810" ht="15.75" customHeight="1" s="222"/>
-    <row r="811" ht="15.75" customHeight="1" s="222"/>
-    <row r="812" ht="15.75" customHeight="1" s="222"/>
-    <row r="813" ht="15.75" customHeight="1" s="222"/>
-    <row r="814" ht="15.75" customHeight="1" s="222"/>
-    <row r="815" ht="15.75" customHeight="1" s="222"/>
-    <row r="816" ht="15.75" customHeight="1" s="222"/>
-    <row r="817" ht="15.75" customHeight="1" s="222"/>
-    <row r="818" ht="15.75" customHeight="1" s="222"/>
-    <row r="819" ht="15.75" customHeight="1" s="222"/>
-    <row r="820" ht="15.75" customHeight="1" s="222"/>
-    <row r="821" ht="15.75" customHeight="1" s="222"/>
-    <row r="822" ht="15.75" customHeight="1" s="222"/>
-    <row r="823" ht="15.75" customHeight="1" s="222"/>
-    <row r="824" ht="15.75" customHeight="1" s="222"/>
-    <row r="825" ht="15.75" customHeight="1" s="222"/>
-    <row r="826" ht="15.75" customHeight="1" s="222"/>
-    <row r="827" ht="15.75" customHeight="1" s="222"/>
-    <row r="828" ht="15.75" customHeight="1" s="222"/>
-    <row r="829" ht="15.75" customHeight="1" s="222"/>
-    <row r="830" ht="15.75" customHeight="1" s="222"/>
-    <row r="831" ht="15.75" customHeight="1" s="222"/>
-    <row r="832" ht="15.75" customHeight="1" s="222"/>
-    <row r="833" ht="15.75" customHeight="1" s="222"/>
-    <row r="834" ht="15.75" customHeight="1" s="222"/>
-    <row r="835" ht="15.75" customHeight="1" s="222"/>
-    <row r="836" ht="15.75" customHeight="1" s="222"/>
-    <row r="837" ht="15.75" customHeight="1" s="222"/>
-    <row r="838" ht="15.75" customHeight="1" s="222"/>
-    <row r="839" ht="15.75" customHeight="1" s="222"/>
-    <row r="840" ht="15.75" customHeight="1" s="222"/>
-    <row r="841" ht="15.75" customHeight="1" s="222"/>
-    <row r="842" ht="15.75" customHeight="1" s="222"/>
-    <row r="843" ht="15.75" customHeight="1" s="222"/>
-    <row r="844" ht="15.75" customHeight="1" s="222"/>
-    <row r="845" ht="15.75" customHeight="1" s="222"/>
-    <row r="846" ht="15.75" customHeight="1" s="222"/>
-    <row r="847" ht="15.75" customHeight="1" s="222"/>
-    <row r="848" ht="15.75" customHeight="1" s="222"/>
-    <row r="849" ht="15.75" customHeight="1" s="222"/>
-    <row r="850" ht="15.75" customHeight="1" s="222"/>
-    <row r="851" ht="15.75" customHeight="1" s="222"/>
-    <row r="852" ht="15.75" customHeight="1" s="222"/>
-    <row r="853" ht="15.75" customHeight="1" s="222"/>
-    <row r="854" ht="15.75" customHeight="1" s="222"/>
-    <row r="855" ht="15.75" customHeight="1" s="222"/>
-    <row r="856" ht="15.75" customHeight="1" s="222"/>
-    <row r="857" ht="15.75" customHeight="1" s="222"/>
-    <row r="858" ht="15.75" customHeight="1" s="222"/>
-    <row r="859" ht="15.75" customHeight="1" s="222"/>
-    <row r="860" ht="15.75" customHeight="1" s="222"/>
-    <row r="861" ht="15.75" customHeight="1" s="222"/>
-    <row r="862" ht="15.75" customHeight="1" s="222"/>
-    <row r="863" ht="15.75" customHeight="1" s="222"/>
-    <row r="864" ht="15.75" customHeight="1" s="222"/>
-    <row r="865" ht="15.75" customHeight="1" s="222"/>
-    <row r="866" ht="15.75" customHeight="1" s="222"/>
-    <row r="867" ht="15.75" customHeight="1" s="222"/>
-    <row r="868" ht="15.75" customHeight="1" s="222"/>
-    <row r="869" ht="15.75" customHeight="1" s="222"/>
-    <row r="870" ht="15.75" customHeight="1" s="222"/>
-    <row r="871" ht="15.75" customHeight="1" s="222"/>
-    <row r="872" ht="15.75" customHeight="1" s="222"/>
-    <row r="873" ht="15.75" customHeight="1" s="222"/>
-    <row r="874" ht="15.75" customHeight="1" s="222"/>
-    <row r="875" ht="15.75" customHeight="1" s="222"/>
-    <row r="876" ht="15.75" customHeight="1" s="222"/>
-    <row r="877" ht="15.75" customHeight="1" s="222"/>
-    <row r="878" ht="15.75" customHeight="1" s="222"/>
-    <row r="879" ht="15.75" customHeight="1" s="222"/>
-    <row r="880" ht="15.75" customHeight="1" s="222"/>
-    <row r="881" ht="15.75" customHeight="1" s="222"/>
-    <row r="882" ht="15.75" customHeight="1" s="222"/>
-    <row r="883" ht="15.75" customHeight="1" s="222"/>
-    <row r="884" ht="15.75" customHeight="1" s="222"/>
-    <row r="885" ht="15.75" customHeight="1" s="222"/>
-    <row r="886" ht="15.75" customHeight="1" s="222"/>
-    <row r="887" ht="15.75" customHeight="1" s="222"/>
-    <row r="888" ht="15.75" customHeight="1" s="222"/>
-    <row r="889" ht="15.75" customHeight="1" s="222"/>
-    <row r="890" ht="15.75" customHeight="1" s="222"/>
-    <row r="891" ht="15.75" customHeight="1" s="222"/>
-    <row r="892" ht="15.75" customHeight="1" s="222"/>
-    <row r="893" ht="15.75" customHeight="1" s="222"/>
-    <row r="894" ht="15.75" customHeight="1" s="222"/>
-    <row r="895" ht="15.75" customHeight="1" s="222"/>
-    <row r="896" ht="15.75" customHeight="1" s="222"/>
-    <row r="897" ht="15.75" customHeight="1" s="222"/>
-    <row r="898" ht="15.75" customHeight="1" s="222"/>
-    <row r="899" ht="15.75" customHeight="1" s="222"/>
-    <row r="900" ht="15.75" customHeight="1" s="222"/>
-    <row r="901" ht="15.75" customHeight="1" s="222"/>
-    <row r="902" ht="15.75" customHeight="1" s="222"/>
-    <row r="903" ht="15.75" customHeight="1" s="222"/>
-    <row r="904" ht="15.75" customHeight="1" s="222"/>
-    <row r="905" ht="15.75" customHeight="1" s="222"/>
-    <row r="906" ht="15.75" customHeight="1" s="222"/>
-    <row r="907" ht="15.75" customHeight="1" s="222"/>
-    <row r="908" ht="15.75" customHeight="1" s="222"/>
-    <row r="909" ht="15.75" customHeight="1" s="222"/>
-    <row r="910" ht="15.75" customHeight="1" s="222"/>
-    <row r="911" ht="15.75" customHeight="1" s="222"/>
-    <row r="912" ht="15.75" customHeight="1" s="222"/>
-    <row r="913" ht="15.75" customHeight="1" s="222"/>
-    <row r="914" ht="15.75" customHeight="1" s="222"/>
-    <row r="915" ht="15.75" customHeight="1" s="222"/>
-    <row r="916" ht="15.75" customHeight="1" s="222"/>
-    <row r="917" ht="15.75" customHeight="1" s="222"/>
-    <row r="918" ht="15.75" customHeight="1" s="222"/>
-    <row r="919" ht="15.75" customHeight="1" s="222"/>
-    <row r="920" ht="15.75" customHeight="1" s="222"/>
-    <row r="921" ht="15.75" customHeight="1" s="222"/>
-    <row r="922" ht="15.75" customHeight="1" s="222"/>
-    <row r="923" ht="15.75" customHeight="1" s="222"/>
-    <row r="924" ht="15.75" customHeight="1" s="222"/>
-    <row r="925" ht="15.75" customHeight="1" s="222"/>
-    <row r="926" ht="15.75" customHeight="1" s="222"/>
-    <row r="927" ht="15.75" customHeight="1" s="222"/>
-    <row r="928" ht="15.75" customHeight="1" s="222"/>
-    <row r="929" ht="15.75" customHeight="1" s="222"/>
-    <row r="930" ht="15.75" customHeight="1" s="222"/>
-    <row r="931" ht="15.75" customHeight="1" s="222"/>
-    <row r="932" ht="15.75" customHeight="1" s="222"/>
-    <row r="933" ht="15.75" customHeight="1" s="222"/>
-    <row r="934" ht="15.75" customHeight="1" s="222"/>
-    <row r="935" ht="15.75" customHeight="1" s="222"/>
-    <row r="936" ht="15.75" customHeight="1" s="222"/>
-    <row r="937" ht="15.75" customHeight="1" s="222"/>
-    <row r="938" ht="15.75" customHeight="1" s="222"/>
-    <row r="939" ht="15.75" customHeight="1" s="222"/>
-    <row r="940" ht="15.75" customHeight="1" s="222"/>
-    <row r="941" ht="15.75" customHeight="1" s="222"/>
-    <row r="942" ht="15.75" customHeight="1" s="222"/>
-    <row r="943" ht="15.75" customHeight="1" s="222"/>
-    <row r="944" ht="15.75" customHeight="1" s="222"/>
-    <row r="945" ht="15.75" customHeight="1" s="222"/>
-    <row r="946" ht="15.75" customHeight="1" s="222"/>
-    <row r="947" ht="15.75" customHeight="1" s="222"/>
-    <row r="948" ht="15.75" customHeight="1" s="222"/>
-    <row r="949" ht="15.75" customHeight="1" s="222"/>
-    <row r="950" ht="15.75" customHeight="1" s="222"/>
-    <row r="951" ht="15.75" customHeight="1" s="222"/>
-    <row r="952" ht="15.75" customHeight="1" s="222"/>
-    <row r="953" ht="15.75" customHeight="1" s="222"/>
-    <row r="954" ht="15.75" customHeight="1" s="222"/>
-    <row r="955" ht="15.75" customHeight="1" s="222"/>
-    <row r="956" ht="15.75" customHeight="1" s="222"/>
-    <row r="957" ht="15.75" customHeight="1" s="222"/>
-    <row r="958" ht="15.75" customHeight="1" s="222"/>
-    <row r="959" ht="15.75" customHeight="1" s="222"/>
-    <row r="960" ht="15.75" customHeight="1" s="222"/>
-    <row r="961" ht="15.75" customHeight="1" s="222"/>
-    <row r="962" ht="15.75" customHeight="1" s="222"/>
-    <row r="963" ht="15.75" customHeight="1" s="222"/>
-    <row r="964" ht="15.75" customHeight="1" s="222"/>
-    <row r="965" ht="15.75" customHeight="1" s="222"/>
-    <row r="966" ht="15.75" customHeight="1" s="222"/>
-    <row r="967" ht="15.75" customHeight="1" s="222"/>
-    <row r="968" ht="15.75" customHeight="1" s="222"/>
-    <row r="969" ht="15.75" customHeight="1" s="222"/>
-    <row r="970" ht="15.75" customHeight="1" s="222"/>
-    <row r="971" ht="15.75" customHeight="1" s="222"/>
-    <row r="972" ht="15.75" customHeight="1" s="222"/>
-    <row r="973" ht="15.75" customHeight="1" s="222"/>
-    <row r="974" ht="15.75" customHeight="1" s="222"/>
-    <row r="975" ht="15.75" customHeight="1" s="222"/>
-    <row r="976" ht="15.75" customHeight="1" s="222"/>
-    <row r="977" ht="15.75" customHeight="1" s="222"/>
-    <row r="978" ht="15.75" customHeight="1" s="222"/>
-    <row r="979" ht="15.75" customHeight="1" s="222"/>
-    <row r="980" ht="15.75" customHeight="1" s="222"/>
-    <row r="981" ht="15.75" customHeight="1" s="222"/>
-    <row r="982" ht="15.75" customHeight="1" s="222"/>
-    <row r="983" ht="15.75" customHeight="1" s="222"/>
-    <row r="984" ht="15.75" customHeight="1" s="222"/>
-    <row r="985" ht="15.75" customHeight="1" s="222"/>
-    <row r="986" ht="15.75" customHeight="1" s="222"/>
-    <row r="987" ht="15.75" customHeight="1" s="222"/>
-    <row r="988" ht="15.75" customHeight="1" s="222"/>
-    <row r="989" ht="15.75" customHeight="1" s="222"/>
-    <row r="990" ht="15.75" customHeight="1" s="222"/>
-    <row r="991" ht="15.75" customHeight="1" s="222"/>
-    <row r="992" ht="15.75" customHeight="1" s="222"/>
-    <row r="993" ht="15.75" customHeight="1" s="222"/>
-    <row r="994" ht="15.75" customHeight="1" s="222"/>
-    <row r="995" ht="15.75" customHeight="1" s="222"/>
-    <row r="996" ht="15.75" customHeight="1" s="222"/>
-    <row r="997" ht="15.75" customHeight="1" s="222"/>
-    <row r="998" ht="15.75" customHeight="1" s="222"/>
-    <row r="999" ht="15.75" customHeight="1" s="222"/>
-    <row r="1000" ht="15.75" customHeight="1" s="222"/>
+      <c r="D65" s="239" t="n"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1" s="219"/>
+    <row r="67" ht="15.75" customHeight="1" s="219"/>
+    <row r="68" ht="15.75" customHeight="1" s="219"/>
+    <row r="69" ht="15.75" customHeight="1" s="219"/>
+    <row r="70" ht="15.75" customHeight="1" s="219"/>
+    <row r="71" ht="15.75" customHeight="1" s="219"/>
+    <row r="72" ht="15.75" customHeight="1" s="219"/>
+    <row r="73" ht="15.75" customHeight="1" s="219"/>
+    <row r="74" ht="15.75" customHeight="1" s="219"/>
+    <row r="75" ht="15.75" customHeight="1" s="219"/>
+    <row r="76" ht="15.75" customHeight="1" s="219"/>
+    <row r="77" ht="15.75" customHeight="1" s="219"/>
+    <row r="78" ht="15.75" customHeight="1" s="219"/>
+    <row r="79" ht="15.75" customHeight="1" s="219"/>
+    <row r="80" ht="15.75" customHeight="1" s="219"/>
+    <row r="81" ht="15.75" customHeight="1" s="219"/>
+    <row r="82" ht="15.75" customHeight="1" s="219"/>
+    <row r="83" ht="15.75" customHeight="1" s="219"/>
+    <row r="84" ht="15.75" customHeight="1" s="219"/>
+    <row r="85" ht="15.75" customHeight="1" s="219"/>
+    <row r="86" ht="15.75" customHeight="1" s="219"/>
+    <row r="87" ht="15.75" customHeight="1" s="219"/>
+    <row r="88" ht="15.75" customHeight="1" s="219"/>
+    <row r="89" ht="15.75" customHeight="1" s="219"/>
+    <row r="90" ht="15.75" customHeight="1" s="219"/>
+    <row r="91" ht="15.75" customHeight="1" s="219"/>
+    <row r="92" ht="15.75" customHeight="1" s="219"/>
+    <row r="93" ht="15.75" customHeight="1" s="219"/>
+    <row r="94" ht="15.75" customHeight="1" s="219"/>
+    <row r="95" ht="15.75" customHeight="1" s="219"/>
+    <row r="96" ht="15.75" customHeight="1" s="219"/>
+    <row r="97" ht="15.75" customHeight="1" s="219"/>
+    <row r="98" ht="15.75" customHeight="1" s="219"/>
+    <row r="99" ht="15.75" customHeight="1" s="219"/>
+    <row r="100" ht="15.75" customHeight="1" s="219"/>
+    <row r="101" ht="15.75" customHeight="1" s="219"/>
+    <row r="102" ht="15.75" customHeight="1" s="219"/>
+    <row r="103" ht="15.75" customHeight="1" s="219"/>
+    <row r="104" ht="15.75" customHeight="1" s="219"/>
+    <row r="105" ht="15.75" customHeight="1" s="219"/>
+    <row r="106" ht="15.75" customHeight="1" s="219"/>
+    <row r="107" ht="15.75" customHeight="1" s="219"/>
+    <row r="108" ht="15.75" customHeight="1" s="219"/>
+    <row r="109" ht="15.75" customHeight="1" s="219"/>
+    <row r="110" ht="15.75" customHeight="1" s="219"/>
+    <row r="111" ht="15.75" customHeight="1" s="219"/>
+    <row r="112" ht="15.75" customHeight="1" s="219"/>
+    <row r="113" ht="15.75" customHeight="1" s="219"/>
+    <row r="114" ht="15.75" customHeight="1" s="219"/>
+    <row r="115" ht="15.75" customHeight="1" s="219"/>
+    <row r="116" ht="15.75" customHeight="1" s="219"/>
+    <row r="117" ht="15.75" customHeight="1" s="219"/>
+    <row r="118" ht="15.75" customHeight="1" s="219"/>
+    <row r="119" ht="15.75" customHeight="1" s="219"/>
+    <row r="120" ht="15.75" customHeight="1" s="219"/>
+    <row r="121" ht="15.75" customHeight="1" s="219"/>
+    <row r="122" ht="15.75" customHeight="1" s="219"/>
+    <row r="123" ht="15.75" customHeight="1" s="219"/>
+    <row r="124" ht="15.75" customHeight="1" s="219"/>
+    <row r="125" ht="15.75" customHeight="1" s="219"/>
+    <row r="126" ht="15.75" customHeight="1" s="219"/>
+    <row r="127" ht="15.75" customHeight="1" s="219"/>
+    <row r="128" ht="15.75" customHeight="1" s="219"/>
+    <row r="129" ht="15.75" customHeight="1" s="219"/>
+    <row r="130" ht="15.75" customHeight="1" s="219"/>
+    <row r="131" ht="15.75" customHeight="1" s="219"/>
+    <row r="132" ht="15.75" customHeight="1" s="219"/>
+    <row r="133" ht="15.75" customHeight="1" s="219"/>
+    <row r="134" ht="15.75" customHeight="1" s="219"/>
+    <row r="135" ht="15.75" customHeight="1" s="219"/>
+    <row r="136" ht="15.75" customHeight="1" s="219"/>
+    <row r="137" ht="15.75" customHeight="1" s="219"/>
+    <row r="138" ht="15.75" customHeight="1" s="219"/>
+    <row r="139" ht="15.75" customHeight="1" s="219"/>
+    <row r="140" ht="15.75" customHeight="1" s="219"/>
+    <row r="141" ht="15.75" customHeight="1" s="219"/>
+    <row r="142" ht="15.75" customHeight="1" s="219"/>
+    <row r="143" ht="15.75" customHeight="1" s="219"/>
+    <row r="144" ht="15.75" customHeight="1" s="219"/>
+    <row r="145" ht="15.75" customHeight="1" s="219"/>
+    <row r="146" ht="15.75" customHeight="1" s="219"/>
+    <row r="147" ht="15.75" customHeight="1" s="219"/>
+    <row r="148" ht="15.75" customHeight="1" s="219"/>
+    <row r="149" ht="15.75" customHeight="1" s="219"/>
+    <row r="150" ht="15.75" customHeight="1" s="219"/>
+    <row r="151" ht="15.75" customHeight="1" s="219"/>
+    <row r="152" ht="15.75" customHeight="1" s="219"/>
+    <row r="153" ht="15.75" customHeight="1" s="219"/>
+    <row r="154" ht="15.75" customHeight="1" s="219"/>
+    <row r="155" ht="15.75" customHeight="1" s="219"/>
+    <row r="156" ht="15.75" customHeight="1" s="219"/>
+    <row r="157" ht="15.75" customHeight="1" s="219"/>
+    <row r="158" ht="15.75" customHeight="1" s="219"/>
+    <row r="159" ht="15.75" customHeight="1" s="219"/>
+    <row r="160" ht="15.75" customHeight="1" s="219"/>
+    <row r="161" ht="15.75" customHeight="1" s="219"/>
+    <row r="162" ht="15.75" customHeight="1" s="219"/>
+    <row r="163" ht="15.75" customHeight="1" s="219"/>
+    <row r="164" ht="15.75" customHeight="1" s="219"/>
+    <row r="165" ht="15.75" customHeight="1" s="219"/>
+    <row r="166" ht="15.75" customHeight="1" s="219"/>
+    <row r="167" ht="15.75" customHeight="1" s="219"/>
+    <row r="168" ht="15.75" customHeight="1" s="219"/>
+    <row r="169" ht="15.75" customHeight="1" s="219"/>
+    <row r="170" ht="15.75" customHeight="1" s="219"/>
+    <row r="171" ht="15.75" customHeight="1" s="219"/>
+    <row r="172" ht="15.75" customHeight="1" s="219"/>
+    <row r="173" ht="15.75" customHeight="1" s="219"/>
+    <row r="174" ht="15.75" customHeight="1" s="219"/>
+    <row r="175" ht="15.75" customHeight="1" s="219"/>
+    <row r="176" ht="15.75" customHeight="1" s="219"/>
+    <row r="177" ht="15.75" customHeight="1" s="219"/>
+    <row r="178" ht="15.75" customHeight="1" s="219"/>
+    <row r="179" ht="15.75" customHeight="1" s="219"/>
+    <row r="180" ht="15.75" customHeight="1" s="219"/>
+    <row r="181" ht="15.75" customHeight="1" s="219"/>
+    <row r="182" ht="15.75" customHeight="1" s="219"/>
+    <row r="183" ht="15.75" customHeight="1" s="219"/>
+    <row r="184" ht="15.75" customHeight="1" s="219"/>
+    <row r="185" ht="15.75" customHeight="1" s="219"/>
+    <row r="186" ht="15.75" customHeight="1" s="219"/>
+    <row r="187" ht="15.75" customHeight="1" s="219"/>
+    <row r="188" ht="15.75" customHeight="1" s="219"/>
+    <row r="189" ht="15.75" customHeight="1" s="219"/>
+    <row r="190" ht="15.75" customHeight="1" s="219"/>
+    <row r="191" ht="15.75" customHeight="1" s="219"/>
+    <row r="192" ht="15.75" customHeight="1" s="219"/>
+    <row r="193" ht="15.75" customHeight="1" s="219"/>
+    <row r="194" ht="15.75" customHeight="1" s="219"/>
+    <row r="195" ht="15.75" customHeight="1" s="219"/>
+    <row r="196" ht="15.75" customHeight="1" s="219"/>
+    <row r="197" ht="15.75" customHeight="1" s="219"/>
+    <row r="198" ht="15.75" customHeight="1" s="219"/>
+    <row r="199" ht="15.75" customHeight="1" s="219"/>
+    <row r="200" ht="15.75" customHeight="1" s="219"/>
+    <row r="201" ht="15.75" customHeight="1" s="219"/>
+    <row r="202" ht="15.75" customHeight="1" s="219"/>
+    <row r="203" ht="15.75" customHeight="1" s="219"/>
+    <row r="204" ht="15.75" customHeight="1" s="219"/>
+    <row r="205" ht="15.75" customHeight="1" s="219"/>
+    <row r="206" ht="15.75" customHeight="1" s="219"/>
+    <row r="207" ht="15.75" customHeight="1" s="219"/>
+    <row r="208" ht="15.75" customHeight="1" s="219"/>
+    <row r="209" ht="15.75" customHeight="1" s="219"/>
+    <row r="210" ht="15.75" customHeight="1" s="219"/>
+    <row r="211" ht="15.75" customHeight="1" s="219"/>
+    <row r="212" ht="15.75" customHeight="1" s="219"/>
+    <row r="213" ht="15.75" customHeight="1" s="219"/>
+    <row r="214" ht="15.75" customHeight="1" s="219"/>
+    <row r="215" ht="15.75" customHeight="1" s="219"/>
+    <row r="216" ht="15.75" customHeight="1" s="219"/>
+    <row r="217" ht="15.75" customHeight="1" s="219"/>
+    <row r="218" ht="15.75" customHeight="1" s="219"/>
+    <row r="219" ht="15.75" customHeight="1" s="219"/>
+    <row r="220" ht="15.75" customHeight="1" s="219"/>
+    <row r="221" ht="15.75" customHeight="1" s="219"/>
+    <row r="222" ht="15.75" customHeight="1" s="219"/>
+    <row r="223" ht="15.75" customHeight="1" s="219"/>
+    <row r="224" ht="15.75" customHeight="1" s="219"/>
+    <row r="225" ht="15.75" customHeight="1" s="219"/>
+    <row r="226" ht="15.75" customHeight="1" s="219"/>
+    <row r="227" ht="15.75" customHeight="1" s="219"/>
+    <row r="228" ht="15.75" customHeight="1" s="219"/>
+    <row r="229" ht="15.75" customHeight="1" s="219"/>
+    <row r="230" ht="15.75" customHeight="1" s="219"/>
+    <row r="231" ht="15.75" customHeight="1" s="219"/>
+    <row r="232" ht="15.75" customHeight="1" s="219"/>
+    <row r="233" ht="15.75" customHeight="1" s="219"/>
+    <row r="234" ht="15.75" customHeight="1" s="219"/>
+    <row r="235" ht="15.75" customHeight="1" s="219"/>
+    <row r="236" ht="15.75" customHeight="1" s="219"/>
+    <row r="237" ht="15.75" customHeight="1" s="219"/>
+    <row r="238" ht="15.75" customHeight="1" s="219"/>
+    <row r="239" ht="15.75" customHeight="1" s="219"/>
+    <row r="240" ht="15.75" customHeight="1" s="219"/>
+    <row r="241" ht="15.75" customHeight="1" s="219"/>
+    <row r="242" ht="15.75" customHeight="1" s="219"/>
+    <row r="243" ht="15.75" customHeight="1" s="219"/>
+    <row r="244" ht="15.75" customHeight="1" s="219"/>
+    <row r="245" ht="15.75" customHeight="1" s="219"/>
+    <row r="246" ht="15.75" customHeight="1" s="219"/>
+    <row r="247" ht="15.75" customHeight="1" s="219"/>
+    <row r="248" ht="15.75" customHeight="1" s="219"/>
+    <row r="249" ht="15.75" customHeight="1" s="219"/>
+    <row r="250" ht="15.75" customHeight="1" s="219"/>
+    <row r="251" ht="15.75" customHeight="1" s="219"/>
+    <row r="252" ht="15.75" customHeight="1" s="219"/>
+    <row r="253" ht="15.75" customHeight="1" s="219"/>
+    <row r="254" ht="15.75" customHeight="1" s="219"/>
+    <row r="255" ht="15.75" customHeight="1" s="219"/>
+    <row r="256" ht="15.75" customHeight="1" s="219"/>
+    <row r="257" ht="15.75" customHeight="1" s="219"/>
+    <row r="258" ht="15.75" customHeight="1" s="219"/>
+    <row r="259" ht="15.75" customHeight="1" s="219"/>
+    <row r="260" ht="15.75" customHeight="1" s="219"/>
+    <row r="261" ht="15.75" customHeight="1" s="219"/>
+    <row r="262" ht="15.75" customHeight="1" s="219"/>
+    <row r="263" ht="15.75" customHeight="1" s="219"/>
+    <row r="264" ht="15.75" customHeight="1" s="219"/>
+    <row r="265" ht="15.75" customHeight="1" s="219"/>
+    <row r="266" ht="15.75" customHeight="1" s="219"/>
+    <row r="267" ht="15.75" customHeight="1" s="219"/>
+    <row r="268" ht="15.75" customHeight="1" s="219"/>
+    <row r="269" ht="15.75" customHeight="1" s="219"/>
+    <row r="270" ht="15.75" customHeight="1" s="219"/>
+    <row r="271" ht="15.75" customHeight="1" s="219"/>
+    <row r="272" ht="15.75" customHeight="1" s="219"/>
+    <row r="273" ht="15.75" customHeight="1" s="219"/>
+    <row r="274" ht="15.75" customHeight="1" s="219"/>
+    <row r="275" ht="15.75" customHeight="1" s="219"/>
+    <row r="276" ht="15.75" customHeight="1" s="219"/>
+    <row r="277" ht="15.75" customHeight="1" s="219"/>
+    <row r="278" ht="15.75" customHeight="1" s="219"/>
+    <row r="279" ht="15.75" customHeight="1" s="219"/>
+    <row r="280" ht="15.75" customHeight="1" s="219"/>
+    <row r="281" ht="15.75" customHeight="1" s="219"/>
+    <row r="282" ht="15.75" customHeight="1" s="219"/>
+    <row r="283" ht="15.75" customHeight="1" s="219"/>
+    <row r="284" ht="15.75" customHeight="1" s="219"/>
+    <row r="285" ht="15.75" customHeight="1" s="219"/>
+    <row r="286" ht="15.75" customHeight="1" s="219"/>
+    <row r="287" ht="15.75" customHeight="1" s="219"/>
+    <row r="288" ht="15.75" customHeight="1" s="219"/>
+    <row r="289" ht="15.75" customHeight="1" s="219"/>
+    <row r="290" ht="15.75" customHeight="1" s="219"/>
+    <row r="291" ht="15.75" customHeight="1" s="219"/>
+    <row r="292" ht="15.75" customHeight="1" s="219"/>
+    <row r="293" ht="15.75" customHeight="1" s="219"/>
+    <row r="294" ht="15.75" customHeight="1" s="219"/>
+    <row r="295" ht="15.75" customHeight="1" s="219"/>
+    <row r="296" ht="15.75" customHeight="1" s="219"/>
+    <row r="297" ht="15.75" customHeight="1" s="219"/>
+    <row r="298" ht="15.75" customHeight="1" s="219"/>
+    <row r="299" ht="15.75" customHeight="1" s="219"/>
+    <row r="300" ht="15.75" customHeight="1" s="219"/>
+    <row r="301" ht="15.75" customHeight="1" s="219"/>
+    <row r="302" ht="15.75" customHeight="1" s="219"/>
+    <row r="303" ht="15.75" customHeight="1" s="219"/>
+    <row r="304" ht="15.75" customHeight="1" s="219"/>
+    <row r="305" ht="15.75" customHeight="1" s="219"/>
+    <row r="306" ht="15.75" customHeight="1" s="219"/>
+    <row r="307" ht="15.75" customHeight="1" s="219"/>
+    <row r="308" ht="15.75" customHeight="1" s="219"/>
+    <row r="309" ht="15.75" customHeight="1" s="219"/>
+    <row r="310" ht="15.75" customHeight="1" s="219"/>
+    <row r="311" ht="15.75" customHeight="1" s="219"/>
+    <row r="312" ht="15.75" customHeight="1" s="219"/>
+    <row r="313" ht="15.75" customHeight="1" s="219"/>
+    <row r="314" ht="15.75" customHeight="1" s="219"/>
+    <row r="315" ht="15.75" customHeight="1" s="219"/>
+    <row r="316" ht="15.75" customHeight="1" s="219"/>
+    <row r="317" ht="15.75" customHeight="1" s="219"/>
+    <row r="318" ht="15.75" customHeight="1" s="219"/>
+    <row r="319" ht="15.75" customHeight="1" s="219"/>
+    <row r="320" ht="15.75" customHeight="1" s="219"/>
+    <row r="321" ht="15.75" customHeight="1" s="219"/>
+    <row r="322" ht="15.75" customHeight="1" s="219"/>
+    <row r="323" ht="15.75" customHeight="1" s="219"/>
+    <row r="324" ht="15.75" customHeight="1" s="219"/>
+    <row r="325" ht="15.75" customHeight="1" s="219"/>
+    <row r="326" ht="15.75" customHeight="1" s="219"/>
+    <row r="327" ht="15.75" customHeight="1" s="219"/>
+    <row r="328" ht="15.75" customHeight="1" s="219"/>
+    <row r="329" ht="15.75" customHeight="1" s="219"/>
+    <row r="330" ht="15.75" customHeight="1" s="219"/>
+    <row r="331" ht="15.75" customHeight="1" s="219"/>
+    <row r="332" ht="15.75" customHeight="1" s="219"/>
+    <row r="333" ht="15.75" customHeight="1" s="219"/>
+    <row r="334" ht="15.75" customHeight="1" s="219"/>
+    <row r="335" ht="15.75" customHeight="1" s="219"/>
+    <row r="336" ht="15.75" customHeight="1" s="219"/>
+    <row r="337" ht="15.75" customHeight="1" s="219"/>
+    <row r="338" ht="15.75" customHeight="1" s="219"/>
+    <row r="339" ht="15.75" customHeight="1" s="219"/>
+    <row r="340" ht="15.75" customHeight="1" s="219"/>
+    <row r="341" ht="15.75" customHeight="1" s="219"/>
+    <row r="342" ht="15.75" customHeight="1" s="219"/>
+    <row r="343" ht="15.75" customHeight="1" s="219"/>
+    <row r="344" ht="15.75" customHeight="1" s="219"/>
+    <row r="345" ht="15.75" customHeight="1" s="219"/>
+    <row r="346" ht="15.75" customHeight="1" s="219"/>
+    <row r="347" ht="15.75" customHeight="1" s="219"/>
+    <row r="348" ht="15.75" customHeight="1" s="219"/>
+    <row r="349" ht="15.75" customHeight="1" s="219"/>
+    <row r="350" ht="15.75" customHeight="1" s="219"/>
+    <row r="351" ht="15.75" customHeight="1" s="219"/>
+    <row r="352" ht="15.75" customHeight="1" s="219"/>
+    <row r="353" ht="15.75" customHeight="1" s="219"/>
+    <row r="354" ht="15.75" customHeight="1" s="219"/>
+    <row r="355" ht="15.75" customHeight="1" s="219"/>
+    <row r="356" ht="15.75" customHeight="1" s="219"/>
+    <row r="357" ht="15.75" customHeight="1" s="219"/>
+    <row r="358" ht="15.75" customHeight="1" s="219"/>
+    <row r="359" ht="15.75" customHeight="1" s="219"/>
+    <row r="360" ht="15.75" customHeight="1" s="219"/>
+    <row r="361" ht="15.75" customHeight="1" s="219"/>
+    <row r="362" ht="15.75" customHeight="1" s="219"/>
+    <row r="363" ht="15.75" customHeight="1" s="219"/>
+    <row r="364" ht="15.75" customHeight="1" s="219"/>
+    <row r="365" ht="15.75" customHeight="1" s="219"/>
+    <row r="366" ht="15.75" customHeight="1" s="219"/>
+    <row r="367" ht="15.75" customHeight="1" s="219"/>
+    <row r="368" ht="15.75" customHeight="1" s="219"/>
+    <row r="369" ht="15.75" customHeight="1" s="219"/>
+    <row r="370" ht="15.75" customHeight="1" s="219"/>
+    <row r="371" ht="15.75" customHeight="1" s="219"/>
+    <row r="372" ht="15.75" customHeight="1" s="219"/>
+    <row r="373" ht="15.75" customHeight="1" s="219"/>
+    <row r="374" ht="15.75" customHeight="1" s="219"/>
+    <row r="375" ht="15.75" customHeight="1" s="219"/>
+    <row r="376" ht="15.75" customHeight="1" s="219"/>
+    <row r="377" ht="15.75" customHeight="1" s="219"/>
+    <row r="378" ht="15.75" customHeight="1" s="219"/>
+    <row r="379" ht="15.75" customHeight="1" s="219"/>
+    <row r="380" ht="15.75" customHeight="1" s="219"/>
+    <row r="381" ht="15.75" customHeight="1" s="219"/>
+    <row r="382" ht="15.75" customHeight="1" s="219"/>
+    <row r="383" ht="15.75" customHeight="1" s="219"/>
+    <row r="384" ht="15.75" customHeight="1" s="219"/>
+    <row r="385" ht="15.75" customHeight="1" s="219"/>
+    <row r="386" ht="15.75" customHeight="1" s="219"/>
+    <row r="387" ht="15.75" customHeight="1" s="219"/>
+    <row r="388" ht="15.75" customHeight="1" s="219"/>
+    <row r="389" ht="15.75" customHeight="1" s="219"/>
+    <row r="390" ht="15.75" customHeight="1" s="219"/>
+    <row r="391" ht="15.75" customHeight="1" s="219"/>
+    <row r="392" ht="15.75" customHeight="1" s="219"/>
+    <row r="393" ht="15.75" customHeight="1" s="219"/>
+    <row r="394" ht="15.75" customHeight="1" s="219"/>
+    <row r="395" ht="15.75" customHeight="1" s="219"/>
+    <row r="396" ht="15.75" customHeight="1" s="219"/>
+    <row r="397" ht="15.75" customHeight="1" s="219"/>
+    <row r="398" ht="15.75" customHeight="1" s="219"/>
+    <row r="399" ht="15.75" customHeight="1" s="219"/>
+    <row r="400" ht="15.75" customHeight="1" s="219"/>
+    <row r="401" ht="15.75" customHeight="1" s="219"/>
+    <row r="402" ht="15.75" customHeight="1" s="219"/>
+    <row r="403" ht="15.75" customHeight="1" s="219"/>
+    <row r="404" ht="15.75" customHeight="1" s="219"/>
+    <row r="405" ht="15.75" customHeight="1" s="219"/>
+    <row r="406" ht="15.75" customHeight="1" s="219"/>
+    <row r="407" ht="15.75" customHeight="1" s="219"/>
+    <row r="408" ht="15.75" customHeight="1" s="219"/>
+    <row r="409" ht="15.75" customHeight="1" s="219"/>
+    <row r="410" ht="15.75" customHeight="1" s="219"/>
+    <row r="411" ht="15.75" customHeight="1" s="219"/>
+    <row r="412" ht="15.75" customHeight="1" s="219"/>
+    <row r="413" ht="15.75" customHeight="1" s="219"/>
+    <row r="414" ht="15.75" customHeight="1" s="219"/>
+    <row r="415" ht="15.75" customHeight="1" s="219"/>
+    <row r="416" ht="15.75" customHeight="1" s="219"/>
+    <row r="417" ht="15.75" customHeight="1" s="219"/>
+    <row r="418" ht="15.75" customHeight="1" s="219"/>
+    <row r="419" ht="15.75" customHeight="1" s="219"/>
+    <row r="420" ht="15.75" customHeight="1" s="219"/>
+    <row r="421" ht="15.75" customHeight="1" s="219"/>
+    <row r="422" ht="15.75" customHeight="1" s="219"/>
+    <row r="423" ht="15.75" customHeight="1" s="219"/>
+    <row r="424" ht="15.75" customHeight="1" s="219"/>
+    <row r="425" ht="15.75" customHeight="1" s="219"/>
+    <row r="426" ht="15.75" customHeight="1" s="219"/>
+    <row r="427" ht="15.75" customHeight="1" s="219"/>
+    <row r="428" ht="15.75" customHeight="1" s="219"/>
+    <row r="429" ht="15.75" customHeight="1" s="219"/>
+    <row r="430" ht="15.75" customHeight="1" s="219"/>
+    <row r="431" ht="15.75" customHeight="1" s="219"/>
+    <row r="432" ht="15.75" customHeight="1" s="219"/>
+    <row r="433" ht="15.75" customHeight="1" s="219"/>
+    <row r="434" ht="15.75" customHeight="1" s="219"/>
+    <row r="435" ht="15.75" customHeight="1" s="219"/>
+    <row r="436" ht="15.75" customHeight="1" s="219"/>
+    <row r="437" ht="15.75" customHeight="1" s="219"/>
+    <row r="438" ht="15.75" customHeight="1" s="219"/>
+    <row r="439" ht="15.75" customHeight="1" s="219"/>
+    <row r="440" ht="15.75" customHeight="1" s="219"/>
+    <row r="441" ht="15.75" customHeight="1" s="219"/>
+    <row r="442" ht="15.75" customHeight="1" s="219"/>
+    <row r="443" ht="15.75" customHeight="1" s="219"/>
+    <row r="444" ht="15.75" customHeight="1" s="219"/>
+    <row r="445" ht="15.75" customHeight="1" s="219"/>
+    <row r="446" ht="15.75" customHeight="1" s="219"/>
+    <row r="447" ht="15.75" customHeight="1" s="219"/>
+    <row r="448" ht="15.75" customHeight="1" s="219"/>
+    <row r="449" ht="15.75" customHeight="1" s="219"/>
+    <row r="450" ht="15.75" customHeight="1" s="219"/>
+    <row r="451" ht="15.75" customHeight="1" s="219"/>
+    <row r="452" ht="15.75" customHeight="1" s="219"/>
+    <row r="453" ht="15.75" customHeight="1" s="219"/>
+    <row r="454" ht="15.75" customHeight="1" s="219"/>
+    <row r="455" ht="15.75" customHeight="1" s="219"/>
+    <row r="456" ht="15.75" customHeight="1" s="219"/>
+    <row r="457" ht="15.75" customHeight="1" s="219"/>
+    <row r="458" ht="15.75" customHeight="1" s="219"/>
+    <row r="459" ht="15.75" customHeight="1" s="219"/>
+    <row r="460" ht="15.75" customHeight="1" s="219"/>
+    <row r="461" ht="15.75" customHeight="1" s="219"/>
+    <row r="462" ht="15.75" customHeight="1" s="219"/>
+    <row r="463" ht="15.75" customHeight="1" s="219"/>
+    <row r="464" ht="15.75" customHeight="1" s="219"/>
+    <row r="465" ht="15.75" customHeight="1" s="219"/>
+    <row r="466" ht="15.75" customHeight="1" s="219"/>
+    <row r="467" ht="15.75" customHeight="1" s="219"/>
+    <row r="468" ht="15.75" customHeight="1" s="219"/>
+    <row r="469" ht="15.75" customHeight="1" s="219"/>
+    <row r="470" ht="15.75" customHeight="1" s="219"/>
+    <row r="471" ht="15.75" customHeight="1" s="219"/>
+    <row r="472" ht="15.75" customHeight="1" s="219"/>
+    <row r="473" ht="15.75" customHeight="1" s="219"/>
+    <row r="474" ht="15.75" customHeight="1" s="219"/>
+    <row r="475" ht="15.75" customHeight="1" s="219"/>
+    <row r="476" ht="15.75" customHeight="1" s="219"/>
+    <row r="477" ht="15.75" customHeight="1" s="219"/>
+    <row r="478" ht="15.75" customHeight="1" s="219"/>
+    <row r="479" ht="15.75" customHeight="1" s="219"/>
+    <row r="480" ht="15.75" customHeight="1" s="219"/>
+    <row r="481" ht="15.75" customHeight="1" s="219"/>
+    <row r="482" ht="15.75" customHeight="1" s="219"/>
+    <row r="483" ht="15.75" customHeight="1" s="219"/>
+    <row r="484" ht="15.75" customHeight="1" s="219"/>
+    <row r="485" ht="15.75" customHeight="1" s="219"/>
+    <row r="486" ht="15.75" customHeight="1" s="219"/>
+    <row r="487" ht="15.75" customHeight="1" s="219"/>
+    <row r="488" ht="15.75" customHeight="1" s="219"/>
+    <row r="489" ht="15.75" customHeight="1" s="219"/>
+    <row r="490" ht="15.75" customHeight="1" s="219"/>
+    <row r="491" ht="15.75" customHeight="1" s="219"/>
+    <row r="492" ht="15.75" customHeight="1" s="219"/>
+    <row r="493" ht="15.75" customHeight="1" s="219"/>
+    <row r="494" ht="15.75" customHeight="1" s="219"/>
+    <row r="495" ht="15.75" customHeight="1" s="219"/>
+    <row r="496" ht="15.75" customHeight="1" s="219"/>
+    <row r="497" ht="15.75" customHeight="1" s="219"/>
+    <row r="498" ht="15.75" customHeight="1" s="219"/>
+    <row r="499" ht="15.75" customHeight="1" s="219"/>
+    <row r="500" ht="15.75" customHeight="1" s="219"/>
+    <row r="501" ht="15.75" customHeight="1" s="219"/>
+    <row r="502" ht="15.75" customHeight="1" s="219"/>
+    <row r="503" ht="15.75" customHeight="1" s="219"/>
+    <row r="504" ht="15.75" customHeight="1" s="219"/>
+    <row r="505" ht="15.75" customHeight="1" s="219"/>
+    <row r="506" ht="15.75" customHeight="1" s="219"/>
+    <row r="507" ht="15.75" customHeight="1" s="219"/>
+    <row r="508" ht="15.75" customHeight="1" s="219"/>
+    <row r="509" ht="15.75" customHeight="1" s="219"/>
+    <row r="510" ht="15.75" customHeight="1" s="219"/>
+    <row r="511" ht="15.75" customHeight="1" s="219"/>
+    <row r="512" ht="15.75" customHeight="1" s="219"/>
+    <row r="513" ht="15.75" customHeight="1" s="219"/>
+    <row r="514" ht="15.75" customHeight="1" s="219"/>
+    <row r="515" ht="15.75" customHeight="1" s="219"/>
+    <row r="516" ht="15.75" customHeight="1" s="219"/>
+    <row r="517" ht="15.75" customHeight="1" s="219"/>
+    <row r="518" ht="15.75" customHeight="1" s="219"/>
+    <row r="519" ht="15.75" customHeight="1" s="219"/>
+    <row r="520" ht="15.75" customHeight="1" s="219"/>
+    <row r="521" ht="15.75" customHeight="1" s="219"/>
+    <row r="522" ht="15.75" customHeight="1" s="219"/>
+    <row r="523" ht="15.75" customHeight="1" s="219"/>
+    <row r="524" ht="15.75" customHeight="1" s="219"/>
+    <row r="525" ht="15.75" customHeight="1" s="219"/>
+    <row r="526" ht="15.75" customHeight="1" s="219"/>
+    <row r="527" ht="15.75" customHeight="1" s="219"/>
+    <row r="528" ht="15.75" customHeight="1" s="219"/>
+    <row r="529" ht="15.75" customHeight="1" s="219"/>
+    <row r="530" ht="15.75" customHeight="1" s="219"/>
+    <row r="531" ht="15.75" customHeight="1" s="219"/>
+    <row r="532" ht="15.75" customHeight="1" s="219"/>
+    <row r="533" ht="15.75" customHeight="1" s="219"/>
+    <row r="534" ht="15.75" customHeight="1" s="219"/>
+    <row r="535" ht="15.75" customHeight="1" s="219"/>
+    <row r="536" ht="15.75" customHeight="1" s="219"/>
+    <row r="537" ht="15.75" customHeight="1" s="219"/>
+    <row r="538" ht="15.75" customHeight="1" s="219"/>
+    <row r="539" ht="15.75" customHeight="1" s="219"/>
+    <row r="540" ht="15.75" customHeight="1" s="219"/>
+    <row r="541" ht="15.75" customHeight="1" s="219"/>
+    <row r="542" ht="15.75" customHeight="1" s="219"/>
+    <row r="543" ht="15.75" customHeight="1" s="219"/>
+    <row r="544" ht="15.75" customHeight="1" s="219"/>
+    <row r="545" ht="15.75" customHeight="1" s="219"/>
+    <row r="546" ht="15.75" customHeight="1" s="219"/>
+    <row r="547" ht="15.75" customHeight="1" s="219"/>
+    <row r="548" ht="15.75" customHeight="1" s="219"/>
+    <row r="549" ht="15.75" customHeight="1" s="219"/>
+    <row r="550" ht="15.75" customHeight="1" s="219"/>
+    <row r="551" ht="15.75" customHeight="1" s="219"/>
+    <row r="552" ht="15.75" customHeight="1" s="219"/>
+    <row r="553" ht="15.75" customHeight="1" s="219"/>
+    <row r="554" ht="15.75" customHeight="1" s="219"/>
+    <row r="555" ht="15.75" customHeight="1" s="219"/>
+    <row r="556" ht="15.75" customHeight="1" s="219"/>
+    <row r="557" ht="15.75" customHeight="1" s="219"/>
+    <row r="558" ht="15.75" customHeight="1" s="219"/>
+    <row r="559" ht="15.75" customHeight="1" s="219"/>
+    <row r="560" ht="15.75" customHeight="1" s="219"/>
+    <row r="561" ht="15.75" customHeight="1" s="219"/>
+    <row r="562" ht="15.75" customHeight="1" s="219"/>
+    <row r="563" ht="15.75" customHeight="1" s="219"/>
+    <row r="564" ht="15.75" customHeight="1" s="219"/>
+    <row r="565" ht="15.75" customHeight="1" s="219"/>
+    <row r="566" ht="15.75" customHeight="1" s="219"/>
+    <row r="567" ht="15.75" customHeight="1" s="219"/>
+    <row r="568" ht="15.75" customHeight="1" s="219"/>
+    <row r="569" ht="15.75" customHeight="1" s="219"/>
+    <row r="570" ht="15.75" customHeight="1" s="219"/>
+    <row r="571" ht="15.75" customHeight="1" s="219"/>
+    <row r="572" ht="15.75" customHeight="1" s="219"/>
+    <row r="573" ht="15.75" customHeight="1" s="219"/>
+    <row r="574" ht="15.75" customHeight="1" s="219"/>
+    <row r="575" ht="15.75" customHeight="1" s="219"/>
+    <row r="576" ht="15.75" customHeight="1" s="219"/>
+    <row r="577" ht="15.75" customHeight="1" s="219"/>
+    <row r="578" ht="15.75" customHeight="1" s="219"/>
+    <row r="579" ht="15.75" customHeight="1" s="219"/>
+    <row r="580" ht="15.75" customHeight="1" s="219"/>
+    <row r="581" ht="15.75" customHeight="1" s="219"/>
+    <row r="582" ht="15.75" customHeight="1" s="219"/>
+    <row r="583" ht="15.75" customHeight="1" s="219"/>
+    <row r="584" ht="15.75" customHeight="1" s="219"/>
+    <row r="585" ht="15.75" customHeight="1" s="219"/>
+    <row r="586" ht="15.75" customHeight="1" s="219"/>
+    <row r="587" ht="15.75" customHeight="1" s="219"/>
+    <row r="588" ht="15.75" customHeight="1" s="219"/>
+    <row r="589" ht="15.75" customHeight="1" s="219"/>
+    <row r="590" ht="15.75" customHeight="1" s="219"/>
+    <row r="591" ht="15.75" customHeight="1" s="219"/>
+    <row r="592" ht="15.75" customHeight="1" s="219"/>
+    <row r="593" ht="15.75" customHeight="1" s="219"/>
+    <row r="594" ht="15.75" customHeight="1" s="219"/>
+    <row r="595" ht="15.75" customHeight="1" s="219"/>
+    <row r="596" ht="15.75" customHeight="1" s="219"/>
+    <row r="597" ht="15.75" customHeight="1" s="219"/>
+    <row r="598" ht="15.75" customHeight="1" s="219"/>
+    <row r="599" ht="15.75" customHeight="1" s="219"/>
+    <row r="600" ht="15.75" customHeight="1" s="219"/>
+    <row r="601" ht="15.75" customHeight="1" s="219"/>
+    <row r="602" ht="15.75" customHeight="1" s="219"/>
+    <row r="603" ht="15.75" customHeight="1" s="219"/>
+    <row r="604" ht="15.75" customHeight="1" s="219"/>
+    <row r="605" ht="15.75" customHeight="1" s="219"/>
+    <row r="606" ht="15.75" customHeight="1" s="219"/>
+    <row r="607" ht="15.75" customHeight="1" s="219"/>
+    <row r="608" ht="15.75" customHeight="1" s="219"/>
+    <row r="609" ht="15.75" customHeight="1" s="219"/>
+    <row r="610" ht="15.75" customHeight="1" s="219"/>
+    <row r="611" ht="15.75" customHeight="1" s="219"/>
+    <row r="612" ht="15.75" customHeight="1" s="219"/>
+    <row r="613" ht="15.75" customHeight="1" s="219"/>
+    <row r="614" ht="15.75" customHeight="1" s="219"/>
+    <row r="615" ht="15.75" customHeight="1" s="219"/>
+    <row r="616" ht="15.75" customHeight="1" s="219"/>
+    <row r="617" ht="15.75" customHeight="1" s="219"/>
+    <row r="618" ht="15.75" customHeight="1" s="219"/>
+    <row r="619" ht="15.75" customHeight="1" s="219"/>
+    <row r="620" ht="15.75" customHeight="1" s="219"/>
+    <row r="621" ht="15.75" customHeight="1" s="219"/>
+    <row r="622" ht="15.75" customHeight="1" s="219"/>
+    <row r="623" ht="15.75" customHeight="1" s="219"/>
+    <row r="624" ht="15.75" customHeight="1" s="219"/>
+    <row r="625" ht="15.75" customHeight="1" s="219"/>
+    <row r="626" ht="15.75" customHeight="1" s="219"/>
+    <row r="627" ht="15.75" customHeight="1" s="219"/>
+    <row r="628" ht="15.75" customHeight="1" s="219"/>
+    <row r="629" ht="15.75" customHeight="1" s="219"/>
+    <row r="630" ht="15.75" customHeight="1" s="219"/>
+    <row r="631" ht="15.75" customHeight="1" s="219"/>
+    <row r="632" ht="15.75" customHeight="1" s="219"/>
+    <row r="633" ht="15.75" customHeight="1" s="219"/>
+    <row r="634" ht="15.75" customHeight="1" s="219"/>
+    <row r="635" ht="15.75" customHeight="1" s="219"/>
+    <row r="636" ht="15.75" customHeight="1" s="219"/>
+    <row r="637" ht="15.75" customHeight="1" s="219"/>
+    <row r="638" ht="15.75" customHeight="1" s="219"/>
+    <row r="639" ht="15.75" customHeight="1" s="219"/>
+    <row r="640" ht="15.75" customHeight="1" s="219"/>
+    <row r="641" ht="15.75" customHeight="1" s="219"/>
+    <row r="642" ht="15.75" customHeight="1" s="219"/>
+    <row r="643" ht="15.75" customHeight="1" s="219"/>
+    <row r="644" ht="15.75" customHeight="1" s="219"/>
+    <row r="645" ht="15.75" customHeight="1" s="219"/>
+    <row r="646" ht="15.75" customHeight="1" s="219"/>
+    <row r="647" ht="15.75" customHeight="1" s="219"/>
+    <row r="648" ht="15.75" customHeight="1" s="219"/>
+    <row r="649" ht="15.75" customHeight="1" s="219"/>
+    <row r="650" ht="15.75" customHeight="1" s="219"/>
+    <row r="651" ht="15.75" customHeight="1" s="219"/>
+    <row r="652" ht="15.75" customHeight="1" s="219"/>
+    <row r="653" ht="15.75" customHeight="1" s="219"/>
+    <row r="654" ht="15.75" customHeight="1" s="219"/>
+    <row r="655" ht="15.75" customHeight="1" s="219"/>
+    <row r="656" ht="15.75" customHeight="1" s="219"/>
+    <row r="657" ht="15.75" customHeight="1" s="219"/>
+    <row r="658" ht="15.75" customHeight="1" s="219"/>
+    <row r="659" ht="15.75" customHeight="1" s="219"/>
+    <row r="660" ht="15.75" customHeight="1" s="219"/>
+    <row r="661" ht="15.75" customHeight="1" s="219"/>
+    <row r="662" ht="15.75" customHeight="1" s="219"/>
+    <row r="663" ht="15.75" customHeight="1" s="219"/>
+    <row r="664" ht="15.75" customHeight="1" s="219"/>
+    <row r="665" ht="15.75" customHeight="1" s="219"/>
+    <row r="666" ht="15.75" customHeight="1" s="219"/>
+    <row r="667" ht="15.75" customHeight="1" s="219"/>
+    <row r="668" ht="15.75" customHeight="1" s="219"/>
+    <row r="669" ht="15.75" customHeight="1" s="219"/>
+    <row r="670" ht="15.75" customHeight="1" s="219"/>
+    <row r="671" ht="15.75" customHeight="1" s="219"/>
+    <row r="672" ht="15.75" customHeight="1" s="219"/>
+    <row r="673" ht="15.75" customHeight="1" s="219"/>
+    <row r="674" ht="15.75" customHeight="1" s="219"/>
+    <row r="675" ht="15.75" customHeight="1" s="219"/>
+    <row r="676" ht="15.75" customHeight="1" s="219"/>
+    <row r="677" ht="15.75" customHeight="1" s="219"/>
+    <row r="678" ht="15.75" customHeight="1" s="219"/>
+    <row r="679" ht="15.75" customHeight="1" s="219"/>
+    <row r="680" ht="15.75" customHeight="1" s="219"/>
+    <row r="681" ht="15.75" customHeight="1" s="219"/>
+    <row r="682" ht="15.75" customHeight="1" s="219"/>
+    <row r="683" ht="15.75" customHeight="1" s="219"/>
+    <row r="684" ht="15.75" customHeight="1" s="219"/>
+    <row r="685" ht="15.75" customHeight="1" s="219"/>
+    <row r="686" ht="15.75" customHeight="1" s="219"/>
+    <row r="687" ht="15.75" customHeight="1" s="219"/>
+    <row r="688" ht="15.75" customHeight="1" s="219"/>
+    <row r="689" ht="15.75" customHeight="1" s="219"/>
+    <row r="690" ht="15.75" customHeight="1" s="219"/>
+    <row r="691" ht="15.75" customHeight="1" s="219"/>
+    <row r="692" ht="15.75" customHeight="1" s="219"/>
+    <row r="693" ht="15.75" customHeight="1" s="219"/>
+    <row r="694" ht="15.75" customHeight="1" s="219"/>
+    <row r="695" ht="15.75" customHeight="1" s="219"/>
+    <row r="696" ht="15.75" customHeight="1" s="219"/>
+    <row r="697" ht="15.75" customHeight="1" s="219"/>
+    <row r="698" ht="15.75" customHeight="1" s="219"/>
+    <row r="699" ht="15.75" customHeight="1" s="219"/>
+    <row r="700" ht="15.75" customHeight="1" s="219"/>
+    <row r="701" ht="15.75" customHeight="1" s="219"/>
+    <row r="702" ht="15.75" customHeight="1" s="219"/>
+    <row r="703" ht="15.75" customHeight="1" s="219"/>
+    <row r="704" ht="15.75" customHeight="1" s="219"/>
+    <row r="705" ht="15.75" customHeight="1" s="219"/>
+    <row r="706" ht="15.75" customHeight="1" s="219"/>
+    <row r="707" ht="15.75" customHeight="1" s="219"/>
+    <row r="708" ht="15.75" customHeight="1" s="219"/>
+    <row r="709" ht="15.75" customHeight="1" s="219"/>
+    <row r="710" ht="15.75" customHeight="1" s="219"/>
+    <row r="711" ht="15.75" customHeight="1" s="219"/>
+    <row r="712" ht="15.75" customHeight="1" s="219"/>
+    <row r="713" ht="15.75" customHeight="1" s="219"/>
+    <row r="714" ht="15.75" customHeight="1" s="219"/>
+    <row r="715" ht="15.75" customHeight="1" s="219"/>
+    <row r="716" ht="15.75" customHeight="1" s="219"/>
+    <row r="717" ht="15.75" customHeight="1" s="219"/>
+    <row r="718" ht="15.75" customHeight="1" s="219"/>
+    <row r="719" ht="15.75" customHeight="1" s="219"/>
+    <row r="720" ht="15.75" customHeight="1" s="219"/>
+    <row r="721" ht="15.75" customHeight="1" s="219"/>
+    <row r="722" ht="15.75" customHeight="1" s="219"/>
+    <row r="723" ht="15.75" customHeight="1" s="219"/>
+    <row r="724" ht="15.75" customHeight="1" s="219"/>
+    <row r="725" ht="15.75" customHeight="1" s="219"/>
+    <row r="726" ht="15.75" customHeight="1" s="219"/>
+    <row r="727" ht="15.75" customHeight="1" s="219"/>
+    <row r="728" ht="15.75" customHeight="1" s="219"/>
+    <row r="729" ht="15.75" customHeight="1" s="219"/>
+    <row r="730" ht="15.75" customHeight="1" s="219"/>
+    <row r="731" ht="15.75" customHeight="1" s="219"/>
+    <row r="732" ht="15.75" customHeight="1" s="219"/>
+    <row r="733" ht="15.75" customHeight="1" s="219"/>
+    <row r="734" ht="15.75" customHeight="1" s="219"/>
+    <row r="735" ht="15.75" customHeight="1" s="219"/>
+    <row r="736" ht="15.75" customHeight="1" s="219"/>
+    <row r="737" ht="15.75" customHeight="1" s="219"/>
+    <row r="738" ht="15.75" customHeight="1" s="219"/>
+    <row r="739" ht="15.75" customHeight="1" s="219"/>
+    <row r="740" ht="15.75" customHeight="1" s="219"/>
+    <row r="741" ht="15.75" customHeight="1" s="219"/>
+    <row r="742" ht="15.75" customHeight="1" s="219"/>
+    <row r="743" ht="15.75" customHeight="1" s="219"/>
+    <row r="744" ht="15.75" customHeight="1" s="219"/>
+    <row r="745" ht="15.75" customHeight="1" s="219"/>
+    <row r="746" ht="15.75" customHeight="1" s="219"/>
+    <row r="747" ht="15.75" customHeight="1" s="219"/>
+    <row r="748" ht="15.75" customHeight="1" s="219"/>
+    <row r="749" ht="15.75" customHeight="1" s="219"/>
+    <row r="750" ht="15.75" customHeight="1" s="219"/>
+    <row r="751" ht="15.75" customHeight="1" s="219"/>
+    <row r="752" ht="15.75" customHeight="1" s="219"/>
+    <row r="753" ht="15.75" customHeight="1" s="219"/>
+    <row r="754" ht="15.75" customHeight="1" s="219"/>
+    <row r="755" ht="15.75" customHeight="1" s="219"/>
+    <row r="756" ht="15.75" customHeight="1" s="219"/>
+    <row r="757" ht="15.75" customHeight="1" s="219"/>
+    <row r="758" ht="15.75" customHeight="1" s="219"/>
+    <row r="759" ht="15.75" customHeight="1" s="219"/>
+    <row r="760" ht="15.75" customHeight="1" s="219"/>
+    <row r="761" ht="15.75" customHeight="1" s="219"/>
+    <row r="762" ht="15.75" customHeight="1" s="219"/>
+    <row r="763" ht="15.75" customHeight="1" s="219"/>
+    <row r="764" ht="15.75" customHeight="1" s="219"/>
+    <row r="765" ht="15.75" customHeight="1" s="219"/>
+    <row r="766" ht="15.75" customHeight="1" s="219"/>
+    <row r="767" ht="15.75" customHeight="1" s="219"/>
+    <row r="768" ht="15.75" customHeight="1" s="219"/>
+    <row r="769" ht="15.75" customHeight="1" s="219"/>
+    <row r="770" ht="15.75" customHeight="1" s="219"/>
+    <row r="771" ht="15.75" customHeight="1" s="219"/>
+    <row r="772" ht="15.75" customHeight="1" s="219"/>
+    <row r="773" ht="15.75" customHeight="1" s="219"/>
+    <row r="774" ht="15.75" customHeight="1" s="219"/>
+    <row r="775" ht="15.75" customHeight="1" s="219"/>
+    <row r="776" ht="15.75" customHeight="1" s="219"/>
+    <row r="777" ht="15.75" customHeight="1" s="219"/>
+    <row r="778" ht="15.75" customHeight="1" s="219"/>
+    <row r="779" ht="15.75" customHeight="1" s="219"/>
+    <row r="780" ht="15.75" customHeight="1" s="219"/>
+    <row r="781" ht="15.75" customHeight="1" s="219"/>
+    <row r="782" ht="15.75" customHeight="1" s="219"/>
+    <row r="783" ht="15.75" customHeight="1" s="219"/>
+    <row r="784" ht="15.75" customHeight="1" s="219"/>
+    <row r="785" ht="15.75" customHeight="1" s="219"/>
+    <row r="786" ht="15.75" customHeight="1" s="219"/>
+    <row r="787" ht="15.75" customHeight="1" s="219"/>
+    <row r="788" ht="15.75" customHeight="1" s="219"/>
+    <row r="789" ht="15.75" customHeight="1" s="219"/>
+    <row r="790" ht="15.75" customHeight="1" s="219"/>
+    <row r="791" ht="15.75" customHeight="1" s="219"/>
+    <row r="792" ht="15.75" customHeight="1" s="219"/>
+    <row r="793" ht="15.75" customHeight="1" s="219"/>
+    <row r="794" ht="15.75" customHeight="1" s="219"/>
+    <row r="795" ht="15.75" customHeight="1" s="219"/>
+    <row r="796" ht="15.75" customHeight="1" s="219"/>
+    <row r="797" ht="15.75" customHeight="1" s="219"/>
+    <row r="798" ht="15.75" customHeight="1" s="219"/>
+    <row r="799" ht="15.75" customHeight="1" s="219"/>
+    <row r="800" ht="15.75" customHeight="1" s="219"/>
+    <row r="801" ht="15.75" customHeight="1" s="219"/>
+    <row r="802" ht="15.75" customHeight="1" s="219"/>
+    <row r="803" ht="15.75" customHeight="1" s="219"/>
+    <row r="804" ht="15.75" customHeight="1" s="219"/>
+    <row r="805" ht="15.75" customHeight="1" s="219"/>
+    <row r="806" ht="15.75" customHeight="1" s="219"/>
+    <row r="807" ht="15.75" customHeight="1" s="219"/>
+    <row r="808" ht="15.75" customHeight="1" s="219"/>
+    <row r="809" ht="15.75" customHeight="1" s="219"/>
+    <row r="810" ht="15.75" customHeight="1" s="219"/>
+    <row r="811" ht="15.75" customHeight="1" s="219"/>
+    <row r="812" ht="15.75" customHeight="1" s="219"/>
+    <row r="813" ht="15.75" customHeight="1" s="219"/>
+    <row r="814" ht="15.75" customHeight="1" s="219"/>
+    <row r="815" ht="15.75" customHeight="1" s="219"/>
+    <row r="816" ht="15.75" customHeight="1" s="219"/>
+    <row r="817" ht="15.75" customHeight="1" s="219"/>
+    <row r="818" ht="15.75" customHeight="1" s="219"/>
+    <row r="819" ht="15.75" customHeight="1" s="219"/>
+    <row r="820" ht="15.75" customHeight="1" s="219"/>
+    <row r="821" ht="15.75" customHeight="1" s="219"/>
+    <row r="822" ht="15.75" customHeight="1" s="219"/>
+    <row r="823" ht="15.75" customHeight="1" s="219"/>
+    <row r="824" ht="15.75" customHeight="1" s="219"/>
+    <row r="825" ht="15.75" customHeight="1" s="219"/>
+    <row r="826" ht="15.75" customHeight="1" s="219"/>
+    <row r="827" ht="15.75" customHeight="1" s="219"/>
+    <row r="828" ht="15.75" customHeight="1" s="219"/>
+    <row r="829" ht="15.75" customHeight="1" s="219"/>
+    <row r="830" ht="15.75" customHeight="1" s="219"/>
+    <row r="831" ht="15.75" customHeight="1" s="219"/>
+    <row r="832" ht="15.75" customHeight="1" s="219"/>
+    <row r="833" ht="15.75" customHeight="1" s="219"/>
+    <row r="834" ht="15.75" customHeight="1" s="219"/>
+    <row r="835" ht="15.75" customHeight="1" s="219"/>
+    <row r="836" ht="15.75" customHeight="1" s="219"/>
+    <row r="837" ht="15.75" customHeight="1" s="219"/>
+    <row r="838" ht="15.75" customHeight="1" s="219"/>
+    <row r="839" ht="15.75" customHeight="1" s="219"/>
+    <row r="840" ht="15.75" customHeight="1" s="219"/>
+    <row r="841" ht="15.75" customHeight="1" s="219"/>
+    <row r="842" ht="15.75" customHeight="1" s="219"/>
+    <row r="843" ht="15.75" customHeight="1" s="219"/>
+    <row r="844" ht="15.75" customHeight="1" s="219"/>
+    <row r="845" ht="15.75" customHeight="1" s="219"/>
+    <row r="846" ht="15.75" customHeight="1" s="219"/>
+    <row r="847" ht="15.75" customHeight="1" s="219"/>
+    <row r="848" ht="15.75" customHeight="1" s="219"/>
+    <row r="849" ht="15.75" customHeight="1" s="219"/>
+    <row r="850" ht="15.75" customHeight="1" s="219"/>
+    <row r="851" ht="15.75" customHeight="1" s="219"/>
+    <row r="852" ht="15.75" customHeight="1" s="219"/>
+    <row r="853" ht="15.75" customHeight="1" s="219"/>
+    <row r="854" ht="15.75" customHeight="1" s="219"/>
+    <row r="855" ht="15.75" customHeight="1" s="219"/>
+    <row r="856" ht="15.75" customHeight="1" s="219"/>
+    <row r="857" ht="15.75" customHeight="1" s="219"/>
+    <row r="858" ht="15.75" customHeight="1" s="219"/>
+    <row r="859" ht="15.75" customHeight="1" s="219"/>
+    <row r="860" ht="15.75" customHeight="1" s="219"/>
+    <row r="861" ht="15.75" customHeight="1" s="219"/>
+    <row r="862" ht="15.75" customHeight="1" s="219"/>
+    <row r="863" ht="15.75" customHeight="1" s="219"/>
+    <row r="864" ht="15.75" customHeight="1" s="219"/>
+    <row r="865" ht="15.75" customHeight="1" s="219"/>
+    <row r="866" ht="15.75" customHeight="1" s="219"/>
+    <row r="867" ht="15.75" customHeight="1" s="219"/>
+    <row r="868" ht="15.75" customHeight="1" s="219"/>
+    <row r="869" ht="15.75" customHeight="1" s="219"/>
+    <row r="870" ht="15.75" customHeight="1" s="219"/>
+    <row r="871" ht="15.75" customHeight="1" s="219"/>
+    <row r="872" ht="15.75" customHeight="1" s="219"/>
+    <row r="873" ht="15.75" customHeight="1" s="219"/>
+    <row r="874" ht="15.75" customHeight="1" s="219"/>
+    <row r="875" ht="15.75" customHeight="1" s="219"/>
+    <row r="876" ht="15.75" customHeight="1" s="219"/>
+    <row r="877" ht="15.75" customHeight="1" s="219"/>
+    <row r="878" ht="15.75" customHeight="1" s="219"/>
+    <row r="879" ht="15.75" customHeight="1" s="219"/>
+    <row r="880" ht="15.75" customHeight="1" s="219"/>
+    <row r="881" ht="15.75" customHeight="1" s="219"/>
+    <row r="882" ht="15.75" customHeight="1" s="219"/>
+    <row r="883" ht="15.75" customHeight="1" s="219"/>
+    <row r="884" ht="15.75" customHeight="1" s="219"/>
+    <row r="885" ht="15.75" customHeight="1" s="219"/>
+    <row r="886" ht="15.75" customHeight="1" s="219"/>
+    <row r="887" ht="15.75" customHeight="1" s="219"/>
+    <row r="888" ht="15.75" customHeight="1" s="219"/>
+    <row r="889" ht="15.75" customHeight="1" s="219"/>
+    <row r="890" ht="15.75" customHeight="1" s="219"/>
+    <row r="891" ht="15.75" customHeight="1" s="219"/>
+    <row r="892" ht="15.75" customHeight="1" s="219"/>
+    <row r="893" ht="15.75" customHeight="1" s="219"/>
+    <row r="894" ht="15.75" customHeight="1" s="219"/>
+    <row r="895" ht="15.75" customHeight="1" s="219"/>
+    <row r="896" ht="15.75" customHeight="1" s="219"/>
+    <row r="897" ht="15.75" customHeight="1" s="219"/>
+    <row r="898" ht="15.75" customHeight="1" s="219"/>
+    <row r="899" ht="15.75" customHeight="1" s="219"/>
+    <row r="900" ht="15.75" customHeight="1" s="219"/>
+    <row r="901" ht="15.75" customHeight="1" s="219"/>
+    <row r="902" ht="15.75" customHeight="1" s="219"/>
+    <row r="903" ht="15.75" customHeight="1" s="219"/>
+    <row r="904" ht="15.75" customHeight="1" s="219"/>
+    <row r="905" ht="15.75" customHeight="1" s="219"/>
+    <row r="906" ht="15.75" customHeight="1" s="219"/>
+    <row r="907" ht="15.75" customHeight="1" s="219"/>
+    <row r="908" ht="15.75" customHeight="1" s="219"/>
+    <row r="909" ht="15.75" customHeight="1" s="219"/>
+    <row r="910" ht="15.75" customHeight="1" s="219"/>
+    <row r="911" ht="15.75" customHeight="1" s="219"/>
+    <row r="912" ht="15.75" customHeight="1" s="219"/>
+    <row r="913" ht="15.75" customHeight="1" s="219"/>
+    <row r="914" ht="15.75" customHeight="1" s="219"/>
+    <row r="915" ht="15.75" customHeight="1" s="219"/>
+    <row r="916" ht="15.75" customHeight="1" s="219"/>
+    <row r="917" ht="15.75" customHeight="1" s="219"/>
+    <row r="918" ht="15.75" customHeight="1" s="219"/>
+    <row r="919" ht="15.75" customHeight="1" s="219"/>
+    <row r="920" ht="15.75" customHeight="1" s="219"/>
+    <row r="921" ht="15.75" customHeight="1" s="219"/>
+    <row r="922" ht="15.75" customHeight="1" s="219"/>
+    <row r="923" ht="15.75" customHeight="1" s="219"/>
+    <row r="924" ht="15.75" customHeight="1" s="219"/>
+    <row r="925" ht="15.75" customHeight="1" s="219"/>
+    <row r="926" ht="15.75" customHeight="1" s="219"/>
+    <row r="927" ht="15.75" customHeight="1" s="219"/>
+    <row r="928" ht="15.75" customHeight="1" s="219"/>
+    <row r="929" ht="15.75" customHeight="1" s="219"/>
+    <row r="930" ht="15.75" customHeight="1" s="219"/>
+    <row r="931" ht="15.75" customHeight="1" s="219"/>
+    <row r="932" ht="15.75" customHeight="1" s="219"/>
+    <row r="933" ht="15.75" customHeight="1" s="219"/>
+    <row r="934" ht="15.75" customHeight="1" s="219"/>
+    <row r="935" ht="15.75" customHeight="1" s="219"/>
+    <row r="936" ht="15.75" customHeight="1" s="219"/>
+    <row r="937" ht="15.75" customHeight="1" s="219"/>
+    <row r="938" ht="15.75" customHeight="1" s="219"/>
+    <row r="939" ht="15.75" customHeight="1" s="219"/>
+    <row r="940" ht="15.75" customHeight="1" s="219"/>
+    <row r="941" ht="15.75" customHeight="1" s="219"/>
+    <row r="942" ht="15.75" customHeight="1" s="219"/>
+    <row r="943" ht="15.75" customHeight="1" s="219"/>
+    <row r="944" ht="15.75" customHeight="1" s="219"/>
+    <row r="945" ht="15.75" customHeight="1" s="219"/>
+    <row r="946" ht="15.75" customHeight="1" s="219"/>
+    <row r="947" ht="15.75" customHeight="1" s="219"/>
+    <row r="948" ht="15.75" customHeight="1" s="219"/>
+    <row r="949" ht="15.75" customHeight="1" s="219"/>
+    <row r="950" ht="15.75" customHeight="1" s="219"/>
+    <row r="951" ht="15.75" customHeight="1" s="219"/>
+    <row r="952" ht="15.75" customHeight="1" s="219"/>
+    <row r="953" ht="15.75" customHeight="1" s="219"/>
+    <row r="954" ht="15.75" customHeight="1" s="219"/>
+    <row r="955" ht="15.75" customHeight="1" s="219"/>
+    <row r="956" ht="15.75" customHeight="1" s="219"/>
+    <row r="957" ht="15.75" customHeight="1" s="219"/>
+    <row r="958" ht="15.75" customHeight="1" s="219"/>
+    <row r="959" ht="15.75" customHeight="1" s="219"/>
+    <row r="960" ht="15.75" customHeight="1" s="219"/>
+    <row r="961" ht="15.75" customHeight="1" s="219"/>
+    <row r="962" ht="15.75" customHeight="1" s="219"/>
+    <row r="963" ht="15.75" customHeight="1" s="219"/>
+    <row r="964" ht="15.75" customHeight="1" s="219"/>
+    <row r="965" ht="15.75" customHeight="1" s="219"/>
+    <row r="966" ht="15.75" customHeight="1" s="219"/>
+    <row r="967" ht="15.75" customHeight="1" s="219"/>
+    <row r="968" ht="15.75" customHeight="1" s="219"/>
+    <row r="969" ht="15.75" customHeight="1" s="219"/>
+    <row r="970" ht="15.75" customHeight="1" s="219"/>
+    <row r="971" ht="15.75" customHeight="1" s="219"/>
+    <row r="972" ht="15.75" customHeight="1" s="219"/>
+    <row r="973" ht="15.75" customHeight="1" s="219"/>
+    <row r="974" ht="15.75" customHeight="1" s="219"/>
+    <row r="975" ht="15.75" customHeight="1" s="219"/>
+    <row r="976" ht="15.75" customHeight="1" s="219"/>
+    <row r="977" ht="15.75" customHeight="1" s="219"/>
+    <row r="978" ht="15.75" customHeight="1" s="219"/>
+    <row r="979" ht="15.75" customHeight="1" s="219"/>
+    <row r="980" ht="15.75" customHeight="1" s="219"/>
+    <row r="981" ht="15.75" customHeight="1" s="219"/>
+    <row r="982" ht="15.75" customHeight="1" s="219"/>
+    <row r="983" ht="15.75" customHeight="1" s="219"/>
+    <row r="984" ht="15.75" customHeight="1" s="219"/>
+    <row r="985" ht="15.75" customHeight="1" s="219"/>
+    <row r="986" ht="15.75" customHeight="1" s="219"/>
+    <row r="987" ht="15.75" customHeight="1" s="219"/>
+    <row r="988" ht="15.75" customHeight="1" s="219"/>
+    <row r="989" ht="15.75" customHeight="1" s="219"/>
+    <row r="990" ht="15.75" customHeight="1" s="219"/>
+    <row r="991" ht="15.75" customHeight="1" s="219"/>
+    <row r="992" ht="15.75" customHeight="1" s="219"/>
+    <row r="993" ht="15.75" customHeight="1" s="219"/>
+    <row r="994" ht="15.75" customHeight="1" s="219"/>
+    <row r="995" ht="15.75" customHeight="1" s="219"/>
+    <row r="996" ht="15.75" customHeight="1" s="219"/>
+    <row r="997" ht="15.75" customHeight="1" s="219"/>
+    <row r="998" ht="15.75" customHeight="1" s="219"/>
+    <row r="999" ht="15.75" customHeight="1" s="219"/>
+    <row r="1000" ht="15.75" customHeight="1" s="219"/>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
     <mergeCell ref="S42:T42"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C16:L16"/>
@@ -6608,6 +6591,37 @@
     <mergeCell ref="H39:L40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="J59:J60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -6628,25 +6642,25 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col width="2.42578125" customWidth="1" style="231" min="1" max="1"/>
-    <col width="4.42578125" customWidth="1" style="231" min="2" max="2"/>
-    <col width="16.7109375" customWidth="1" style="231" min="3" max="4"/>
-    <col width="8.7109375" customWidth="1" style="231" min="5" max="5"/>
-    <col width="4.42578125" customWidth="1" style="231" min="6" max="6"/>
-    <col width="16.7109375" customWidth="1" style="231" min="7" max="8"/>
-    <col width="7.42578125" customWidth="1" style="231" min="9" max="9"/>
-    <col width="4" customWidth="1" style="231" min="10" max="10"/>
-    <col width="16.85546875" customWidth="1" style="231" min="11" max="12"/>
-    <col width="8.7109375" customWidth="1" style="231" min="13" max="13"/>
-    <col width="4.140625" customWidth="1" style="231" min="14" max="14"/>
-    <col width="16.7109375" customWidth="1" style="231" min="15" max="17"/>
-    <col width="8.7109375" customWidth="1" style="231" min="18" max="26"/>
-    <col width="14.42578125" customWidth="1" style="231" min="27" max="38"/>
-    <col width="14.42578125" customWidth="1" style="231" min="39" max="16384"/>
+    <col width="2.42578125" customWidth="1" style="246" min="1" max="1"/>
+    <col width="4.42578125" customWidth="1" style="246" min="2" max="2"/>
+    <col width="16.7109375" customWidth="1" style="246" min="3" max="4"/>
+    <col width="8.7109375" customWidth="1" style="246" min="5" max="5"/>
+    <col width="4.42578125" customWidth="1" style="246" min="6" max="6"/>
+    <col width="16.7109375" customWidth="1" style="246" min="7" max="8"/>
+    <col width="7.42578125" customWidth="1" style="246" min="9" max="9"/>
+    <col width="4" customWidth="1" style="246" min="10" max="10"/>
+    <col width="16.85546875" customWidth="1" style="246" min="11" max="12"/>
+    <col width="8.7109375" customWidth="1" style="246" min="13" max="13"/>
+    <col width="4.140625" customWidth="1" style="246" min="14" max="14"/>
+    <col width="16.7109375" customWidth="1" style="246" min="15" max="17"/>
+    <col width="8.7109375" customWidth="1" style="246" min="18" max="26"/>
+    <col width="14.42578125" customWidth="1" style="246" min="27" max="39"/>
+    <col width="14.42578125" customWidth="1" style="246" min="40" max="16384"/>
   </cols>
   <sheetData>
-    <row r="2" ht="26.25" customHeight="1" s="222">
-      <c r="C2" s="232" t="inlineStr">
+    <row r="2" ht="26.25" customHeight="1" s="219">
+      <c r="C2" s="247" t="inlineStr">
         <is>
           <t xml:space="preserve">EURO 2020 </t>
         </is>
@@ -6940,21 +6954,21 @@
       <c r="K15" s="99" t="n"/>
       <c r="L15" s="99" t="n"/>
     </row>
-    <row r="16" ht="39.75" customHeight="1" s="222">
-      <c r="C16" s="233" t="inlineStr">
+    <row r="16" ht="39.75" customHeight="1" s="219">
+      <c r="C16" s="248" t="inlineStr">
         <is>
           <t>Group Stage predictions are made in a single submission and are due by Thursday Evening June 10th, 2021.</t>
         </is>
       </c>
-      <c r="D16" s="234" t="n"/>
-      <c r="E16" s="234" t="n"/>
-      <c r="F16" s="234" t="n"/>
-      <c r="G16" s="234" t="n"/>
-      <c r="H16" s="234" t="n"/>
-      <c r="I16" s="234" t="n"/>
-      <c r="J16" s="234" t="n"/>
-      <c r="K16" s="234" t="n"/>
-      <c r="L16" s="234" t="n"/>
+      <c r="D16" s="249" t="n"/>
+      <c r="E16" s="249" t="n"/>
+      <c r="F16" s="249" t="n"/>
+      <c r="G16" s="249" t="n"/>
+      <c r="H16" s="249" t="n"/>
+      <c r="I16" s="249" t="n"/>
+      <c r="J16" s="249" t="n"/>
+      <c r="K16" s="249" t="n"/>
+      <c r="L16" s="249" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="135" t="inlineStr">
@@ -6962,19 +6976,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D17" s="235" t="n"/>
-      <c r="E17" s="236" t="n"/>
-      <c r="F17" s="236" t="n"/>
-      <c r="G17" s="237" t="n"/>
-      <c r="H17" s="238" t="inlineStr">
+      <c r="D17" s="250" t="n"/>
+      <c r="E17" s="251" t="n"/>
+      <c r="F17" s="251" t="n"/>
+      <c r="G17" s="252" t="n"/>
+      <c r="H17" s="253" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I17" s="236" t="n"/>
-      <c r="J17" s="236" t="n"/>
-      <c r="K17" s="236" t="n"/>
-      <c r="L17" s="237" t="n"/>
+      <c r="I17" s="251" t="n"/>
+      <c r="J17" s="251" t="n"/>
+      <c r="K17" s="251" t="n"/>
+      <c r="L17" s="252" t="n"/>
     </row>
     <row r="18">
       <c r="C18" s="136" t="inlineStr">
@@ -6982,15 +6996,15 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D18" s="241" t="n"/>
-      <c r="E18" s="234" t="n"/>
-      <c r="F18" s="234" t="n"/>
-      <c r="G18" s="240" t="n"/>
-      <c r="H18" s="239" t="n"/>
-      <c r="I18" s="234" t="n"/>
-      <c r="J18" s="234" t="n"/>
-      <c r="K18" s="234" t="n"/>
-      <c r="L18" s="240" t="n"/>
+      <c r="D18" s="256" t="n"/>
+      <c r="E18" s="249" t="n"/>
+      <c r="F18" s="249" t="n"/>
+      <c r="G18" s="255" t="n"/>
+      <c r="H18" s="254" t="n"/>
+      <c r="I18" s="249" t="n"/>
+      <c r="J18" s="249" t="n"/>
+      <c r="K18" s="249" t="n"/>
+      <c r="L18" s="255" t="n"/>
     </row>
     <row r="19">
       <c r="C19" s="99" t="n"/>
@@ -6998,36 +7012,36 @@
     <row r="20">
       <c r="A20" s="137" t="n"/>
       <c r="B20" s="137" t="n"/>
-      <c r="C20" s="242" t="inlineStr">
+      <c r="C20" s="257" t="inlineStr">
         <is>
           <t>Match Day 1</t>
         </is>
       </c>
-      <c r="D20" s="236" t="n"/>
+      <c r="D20" s="251" t="n"/>
       <c r="E20" s="138" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
-      <c r="F20" s="230" t="n"/>
-      <c r="G20" s="242" t="inlineStr">
+      <c r="F20" s="245" t="n"/>
+      <c r="G20" s="257" t="inlineStr">
         <is>
           <t>Match Day 2</t>
         </is>
       </c>
-      <c r="H20" s="236" t="n"/>
+      <c r="H20" s="251" t="n"/>
       <c r="I20" s="138" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
-      <c r="J20" s="230" t="n"/>
-      <c r="K20" s="242" t="inlineStr">
+      <c r="J20" s="245" t="n"/>
+      <c r="K20" s="257" t="inlineStr">
         <is>
           <t>Match Day 3</t>
         </is>
       </c>
-      <c r="L20" s="236" t="n"/>
+      <c r="L20" s="251" t="n"/>
       <c r="M20" s="138" t="inlineStr">
         <is>
           <t>Results</t>
@@ -7047,7 +7061,7 @@
       <c r="Y20" s="137" t="n"/>
       <c r="Z20" s="137" t="n"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1" s="222">
+    <row r="21" ht="15.75" customHeight="1" s="219">
       <c r="C21" s="139" t="inlineStr">
         <is>
           <t>Turkey</t>
@@ -7100,7 +7114,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1" s="222">
+    <row r="22" ht="15.75" customHeight="1" s="219">
       <c r="C22" s="147" t="n"/>
       <c r="D22" s="142" t="n"/>
       <c r="E22" s="148" t="n"/>
@@ -7137,7 +7151,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1" s="222">
+    <row r="23" ht="15.75" customHeight="1" s="219">
       <c r="C23" s="139" t="inlineStr">
         <is>
           <t>Wales</t>
@@ -7176,7 +7190,7 @@
       <c r="L23" s="142" t="n"/>
       <c r="M23" s="148" t="n"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1" s="222">
+    <row r="24" ht="15.75" customHeight="1" s="219">
       <c r="C24" s="143" t="inlineStr">
         <is>
           <t>Denmark</t>
@@ -7215,7 +7229,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1" s="222">
+    <row r="25" ht="15.75" customHeight="1" s="219">
       <c r="C25" s="143" t="inlineStr">
         <is>
           <t>Belgium</t>
@@ -7266,7 +7280,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1" s="222">
+    <row r="26" ht="15.75" customHeight="1" s="219">
       <c r="C26" s="147" t="n"/>
       <c r="D26" s="142" t="n"/>
       <c r="E26" s="148" t="n"/>
@@ -7303,7 +7317,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1" s="222">
+    <row r="27" ht="15.75" customHeight="1" s="219">
       <c r="C27" s="152" t="inlineStr">
         <is>
           <t>England</t>
@@ -7354,7 +7368,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1" s="222">
+    <row r="28" ht="15.75" customHeight="1" s="219">
       <c r="C28" s="149" t="inlineStr">
         <is>
           <t>Austria</t>
@@ -7381,7 +7395,7 @@
       <c r="L28" s="142" t="n"/>
       <c r="M28" s="148" t="n"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1" s="222">
+    <row r="29" ht="15.75" customHeight="1" s="219">
       <c r="C29" s="149" t="inlineStr">
         <is>
           <t>Netherlands</t>
@@ -7432,7 +7446,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1" s="222">
+    <row r="30" ht="15.75" customHeight="1" s="219">
       <c r="C30" s="147" t="n"/>
       <c r="D30" s="142" t="n"/>
       <c r="E30" s="148" t="n"/>
@@ -7469,7 +7483,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1" s="222">
+    <row r="31" ht="15.75" customHeight="1" s="219">
       <c r="C31" s="152" t="inlineStr">
         <is>
           <t>Scotland</t>
@@ -7508,7 +7522,7 @@
       <c r="L31" s="142" t="n"/>
       <c r="M31" s="148" t="n"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1" s="222">
+    <row r="32" ht="15.75" customHeight="1" s="219">
       <c r="C32" s="155" t="inlineStr">
         <is>
           <t>Poland</t>
@@ -7547,7 +7561,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1" s="222">
+    <row r="33" ht="15.75" customHeight="1" s="219">
       <c r="C33" s="155" t="inlineStr">
         <is>
           <t>Spain</t>
@@ -7598,7 +7612,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1" s="222">
+    <row r="34" ht="15.75" customHeight="1" s="219">
       <c r="C34" s="147" t="n"/>
       <c r="D34" s="142" t="n"/>
       <c r="E34" s="148" t="n"/>
@@ -7635,7 +7649,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1" s="222">
+    <row r="35" ht="15.75" customHeight="1" s="219">
       <c r="C35" s="158" t="inlineStr">
         <is>
           <t>Hungary</t>
@@ -7686,7 +7700,7 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1" s="222">
+    <row r="36" ht="15.75" customHeight="1" s="219">
       <c r="C36" s="161" t="inlineStr">
         <is>
           <t>France</t>
@@ -7713,70 +7727,70 @@
       <c r="L36" s="165" t="n"/>
       <c r="M36" s="166" t="n"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1" s="222"/>
-    <row r="38" ht="39.75" customHeight="1" s="222">
-      <c r="C38" s="233" t="inlineStr">
+    <row r="37" ht="15.75" customHeight="1" s="219"/>
+    <row r="38" ht="39.75" customHeight="1" s="219">
+      <c r="C38" s="248" t="inlineStr">
         <is>
           <t xml:space="preserve">We'll do the competition in two halves since the Round of 16 is heavily dependent on the Group Stages. </t>
         </is>
       </c>
-      <c r="D38" s="234" t="n"/>
-      <c r="E38" s="234" t="n"/>
-      <c r="F38" s="234" t="n"/>
-      <c r="G38" s="234" t="n"/>
-      <c r="H38" s="234" t="n"/>
-      <c r="I38" s="234" t="n"/>
-      <c r="J38" s="234" t="n"/>
-      <c r="K38" s="234" t="n"/>
-      <c r="L38" s="234" t="n"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1" s="222">
+      <c r="D38" s="249" t="n"/>
+      <c r="E38" s="249" t="n"/>
+      <c r="F38" s="249" t="n"/>
+      <c r="G38" s="249" t="n"/>
+      <c r="H38" s="249" t="n"/>
+      <c r="I38" s="249" t="n"/>
+      <c r="J38" s="249" t="n"/>
+      <c r="K38" s="249" t="n"/>
+      <c r="L38" s="249" t="n"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1" s="219">
       <c r="C39" s="135" t="inlineStr">
         <is>
           <t>Name:</t>
         </is>
       </c>
-      <c r="D39" s="235" t="n"/>
-      <c r="E39" s="236" t="n"/>
-      <c r="F39" s="236" t="n"/>
-      <c r="G39" s="237" t="n"/>
-      <c r="H39" s="238" t="inlineStr">
+      <c r="D39" s="250" t="n"/>
+      <c r="E39" s="251" t="n"/>
+      <c r="F39" s="251" t="n"/>
+      <c r="G39" s="252" t="n"/>
+      <c r="H39" s="253" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULTS         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I39" s="236" t="n"/>
-      <c r="J39" s="236" t="n"/>
-      <c r="K39" s="236" t="n"/>
-      <c r="L39" s="237" t="n"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1" s="222">
+      <c r="I39" s="251" t="n"/>
+      <c r="J39" s="251" t="n"/>
+      <c r="K39" s="251" t="n"/>
+      <c r="L39" s="252" t="n"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1" s="219">
       <c r="C40" s="136" t="inlineStr">
         <is>
           <t>Date:</t>
         </is>
       </c>
-      <c r="D40" s="241" t="n"/>
-      <c r="E40" s="234" t="n"/>
-      <c r="F40" s="234" t="n"/>
-      <c r="G40" s="240" t="n"/>
-      <c r="H40" s="239" t="n"/>
-      <c r="I40" s="234" t="n"/>
-      <c r="J40" s="234" t="n"/>
-      <c r="K40" s="234" t="n"/>
-      <c r="L40" s="240" t="n"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1" s="222">
+      <c r="D40" s="256" t="n"/>
+      <c r="E40" s="249" t="n"/>
+      <c r="F40" s="249" t="n"/>
+      <c r="G40" s="255" t="n"/>
+      <c r="H40" s="254" t="n"/>
+      <c r="I40" s="249" t="n"/>
+      <c r="J40" s="249" t="n"/>
+      <c r="K40" s="249" t="n"/>
+      <c r="L40" s="255" t="n"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1" s="219">
       <c r="B41" s="167" t="n"/>
       <c r="C41" s="168" t="n"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1" s="222">
-      <c r="B42" s="243" t="inlineStr">
+    <row r="42" ht="15.75" customHeight="1" s="219">
+      <c r="B42" s="258" t="inlineStr">
         <is>
           <t>Round of 16</t>
         </is>
       </c>
-      <c r="C42" s="234" t="n"/>
+      <c r="C42" s="249" t="n"/>
       <c r="D42" s="169" t="inlineStr">
         <is>
           <t>Results</t>
@@ -7820,22 +7834,22 @@
       </c>
       <c r="Q42" s="137" t="n"/>
       <c r="R42" s="170" t="n"/>
-      <c r="S42" s="230" t="n"/>
+      <c r="S42" s="245" t="n"/>
       <c r="U42" s="137" t="n"/>
       <c r="V42" s="170" t="n"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1" s="222">
-      <c r="B43" s="244" t="inlineStr">
+    <row r="43" ht="15.75" customHeight="1" s="219">
+      <c r="B43" s="238" t="inlineStr">
         <is>
           <t>R1</t>
         </is>
       </c>
-      <c r="C43" s="198" t="inlineStr">
+      <c r="C43" s="194" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="D43" s="252" t="inlineStr">
+      <c r="D43" s="240" t="inlineStr">
         <is>
           <t>2-0</t>
         </is>
@@ -7851,26 +7865,26 @@
       <c r="U43" s="170" t="n"/>
       <c r="V43" s="170" t="n"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1" s="222" thickBot="1">
-      <c r="B44" s="245" t="n"/>
-      <c r="C44" s="199" t="inlineStr">
+    <row r="44" ht="15.75" customHeight="1" s="219" thickBot="1">
+      <c r="B44" s="239" t="n"/>
+      <c r="C44" s="195" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="D44" s="245" t="n"/>
+      <c r="D44" s="239" t="n"/>
       <c r="E44" s="171" t="n"/>
-      <c r="F44" s="247" t="inlineStr">
+      <c r="F44" s="243" t="inlineStr">
         <is>
           <t>QF1</t>
         </is>
       </c>
-      <c r="G44" s="257" t="inlineStr">
+      <c r="G44" s="214" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="H44" s="246" t="n"/>
+      <c r="H44" s="242" t="n"/>
       <c r="O44" s="170" t="n"/>
       <c r="P44" s="170" t="n"/>
       <c r="Q44" s="170" t="n"/>
@@ -7880,18 +7894,18 @@
       <c r="U44" s="170" t="n"/>
       <c r="V44" s="170" t="n"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1" s="222" thickBot="1">
+    <row r="45" ht="15.75" customHeight="1" s="219" thickBot="1">
       <c r="B45" s="137" t="n"/>
       <c r="C45" s="170" t="n"/>
       <c r="D45" s="173" t="n"/>
       <c r="E45" s="174" t="n"/>
-      <c r="F45" s="245" t="n"/>
-      <c r="G45" s="258" t="inlineStr">
+      <c r="F45" s="239" t="n"/>
+      <c r="G45" s="215" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="H45" s="245" t="n"/>
+      <c r="H45" s="239" t="n"/>
       <c r="O45" s="170" t="n"/>
       <c r="P45" s="170" t="n"/>
       <c r="Q45" s="170" t="n"/>
@@ -7901,18 +7915,18 @@
       <c r="U45" s="170" t="n"/>
       <c r="V45" s="170" t="n"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1" s="222">
-      <c r="B46" s="244" t="inlineStr">
+    <row r="46" ht="15.75" customHeight="1" s="219">
+      <c r="B46" s="238" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
       </c>
-      <c r="C46" s="200" t="inlineStr">
+      <c r="C46" s="196" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="D46" s="252" t="inlineStr">
+      <c r="D46" s="240" t="inlineStr">
         <is>
           <t>2-1</t>
         </is>
@@ -7930,20 +7944,20 @@
       <c r="U46" s="170" t="n"/>
       <c r="V46" s="170" t="n"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="222" thickBot="1">
-      <c r="B47" s="245" t="n"/>
-      <c r="C47" s="201" t="inlineStr">
+    <row r="47" ht="15.75" customHeight="1" s="219" thickBot="1">
+      <c r="B47" s="239" t="n"/>
+      <c r="C47" s="197" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="D47" s="245" t="n"/>
+      <c r="D47" s="239" t="n"/>
       <c r="E47" s="170" t="n"/>
       <c r="F47" s="170" t="n"/>
       <c r="G47" s="176" t="n"/>
       <c r="H47" s="178" t="n"/>
       <c r="I47" s="174" t="n"/>
-      <c r="J47" s="248" t="inlineStr">
+      <c r="J47" s="241" t="inlineStr">
         <is>
           <t>SF1</t>
         </is>
@@ -7953,16 +7967,16 @@
           <t>Winner QF1</t>
         </is>
       </c>
-      <c r="L47" s="246" t="n"/>
+      <c r="L47" s="242" t="n"/>
       <c r="O47" s="170" t="n"/>
       <c r="P47" s="170" t="n"/>
       <c r="Q47" s="170" t="n"/>
       <c r="R47" s="170" t="n"/>
-      <c r="S47" s="230" t="n"/>
+      <c r="S47" s="245" t="n"/>
       <c r="U47" s="137" t="n"/>
       <c r="V47" s="170" t="n"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1" s="222">
+    <row r="48" ht="15.75" customHeight="1" s="219">
       <c r="B48" s="137" t="n"/>
       <c r="C48" s="170" t="n"/>
       <c r="D48" s="173" t="n"/>
@@ -7970,13 +7984,13 @@
       <c r="F48" s="170" t="n"/>
       <c r="G48" s="176" t="n"/>
       <c r="H48" s="178" t="n"/>
-      <c r="J48" s="245" t="n"/>
+      <c r="J48" s="239" t="n"/>
       <c r="K48" s="164" t="inlineStr">
         <is>
           <t>Winner QF2</t>
         </is>
       </c>
-      <c r="L48" s="245" t="n"/>
+      <c r="L48" s="239" t="n"/>
       <c r="O48" s="170" t="n"/>
       <c r="P48" s="170" t="n"/>
       <c r="Q48" s="170" t="n"/>
@@ -7986,18 +8000,18 @@
       <c r="U48" s="170" t="n"/>
       <c r="V48" s="170" t="n"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1" s="222">
-      <c r="B49" s="244" t="inlineStr">
+    <row r="49" ht="15.75" customHeight="1" s="219">
+      <c r="B49" s="238" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
       </c>
-      <c r="C49" s="202" t="inlineStr">
+      <c r="C49" s="198" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="D49" s="252" t="inlineStr">
+      <c r="D49" s="240" t="inlineStr">
         <is>
           <t>1-0</t>
         </is>
@@ -8009,56 +8023,56 @@
       <c r="K49" s="142" t="n"/>
       <c r="L49" s="177" t="n"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1" s="222" thickBot="1">
-      <c r="B50" s="245" t="n"/>
-      <c r="C50" s="203" t="inlineStr">
+    <row r="50" ht="15.75" customHeight="1" s="219" thickBot="1">
+      <c r="B50" s="239" t="n"/>
+      <c r="C50" s="199" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="D50" s="245" t="n"/>
+      <c r="D50" s="239" t="n"/>
       <c r="E50" s="174" t="n"/>
-      <c r="F50" s="247" t="inlineStr">
+      <c r="F50" s="243" t="inlineStr">
         <is>
           <t>QF2</t>
         </is>
       </c>
-      <c r="G50" s="257" t="inlineStr">
+      <c r="G50" s="214" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="H50" s="246" t="n"/>
+      <c r="H50" s="242" t="n"/>
       <c r="K50" s="142" t="n"/>
       <c r="L50" s="178" t="n"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1" s="222" thickBot="1">
+    <row r="51" ht="15.75" customHeight="1" s="219" thickBot="1">
       <c r="B51" s="137" t="n"/>
       <c r="C51" s="170" t="n"/>
       <c r="D51" s="173" t="n"/>
       <c r="E51" s="174" t="n"/>
-      <c r="F51" s="245" t="n"/>
-      <c r="G51" s="259" t="inlineStr">
+      <c r="F51" s="239" t="n"/>
+      <c r="G51" s="216" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="H51" s="245" t="n"/>
+      <c r="H51" s="239" t="n"/>
       <c r="K51" s="142" t="n"/>
       <c r="L51" s="178" t="n"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" s="222" thickBot="1">
-      <c r="B52" s="244" t="inlineStr">
+    <row r="52" ht="15.75" customHeight="1" s="219" thickBot="1">
+      <c r="B52" s="238" t="inlineStr">
         <is>
           <t>R4</t>
         </is>
       </c>
-      <c r="C52" s="204" t="inlineStr">
+      <c r="C52" s="200" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="D52" s="252" t="inlineStr">
+      <c r="D52" s="240" t="inlineStr">
         <is>
           <t>0-1</t>
         </is>
@@ -8070,7 +8084,7 @@
       <c r="K52" s="142" t="n"/>
       <c r="L52" s="178" t="n"/>
       <c r="M52" s="174" t="n"/>
-      <c r="N52" s="249" t="inlineStr">
+      <c r="N52" s="244" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -8080,31 +8094,31 @@
           <t>Winner SF1</t>
         </is>
       </c>
-      <c r="P52" s="246" t="n"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1" s="222">
-      <c r="B53" s="245" t="n"/>
-      <c r="C53" s="205" t="inlineStr">
+      <c r="P52" s="242" t="n"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1" s="219">
+      <c r="B53" s="239" t="n"/>
+      <c r="C53" s="216" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="D53" s="245" t="n"/>
+      <c r="D53" s="239" t="n"/>
       <c r="E53" s="170" t="n"/>
       <c r="F53" s="170" t="n"/>
       <c r="G53" s="176" t="n"/>
       <c r="H53" s="173" t="n"/>
       <c r="K53" s="142" t="n"/>
       <c r="L53" s="178" t="n"/>
-      <c r="N53" s="245" t="n"/>
+      <c r="N53" s="239" t="n"/>
       <c r="O53" s="164" t="inlineStr">
         <is>
           <t>Winner SF2</t>
         </is>
       </c>
-      <c r="P53" s="245" t="n"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1" s="222">
+      <c r="P53" s="239" t="n"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1" s="219">
       <c r="B54" s="137" t="n"/>
       <c r="C54" s="170" t="n"/>
       <c r="D54" s="173" t="n"/>
@@ -8115,18 +8129,18 @@
       <c r="K54" s="142" t="n"/>
       <c r="L54" s="178" t="n"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1" s="222">
-      <c r="B55" s="244" t="inlineStr">
+    <row r="55" ht="15.75" customHeight="1" s="219">
+      <c r="B55" s="238" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
       </c>
-      <c r="C55" s="206" t="inlineStr">
+      <c r="C55" s="202" t="inlineStr">
         <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="D55" s="252" t="inlineStr">
+      <c r="D55" s="240" t="inlineStr">
         <is>
           <t>1-0</t>
         </is>
@@ -8138,55 +8152,55 @@
       <c r="K55" s="142" t="n"/>
       <c r="L55" s="178" t="n"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1" s="222" thickBot="1">
-      <c r="B56" s="245" t="n"/>
-      <c r="C56" s="199" t="inlineStr">
+    <row r="56" ht="15.75" customHeight="1" s="219" thickBot="1">
+      <c r="B56" s="239" t="n"/>
+      <c r="C56" s="195" t="inlineStr">
         <is>
           <t>Ukraine</t>
         </is>
       </c>
-      <c r="D56" s="245" t="n"/>
+      <c r="D56" s="239" t="n"/>
       <c r="E56" s="171" t="n"/>
-      <c r="F56" s="247" t="inlineStr">
+      <c r="F56" s="243" t="inlineStr">
         <is>
           <t>QF3</t>
         </is>
       </c>
-      <c r="G56" s="172" t="inlineStr">
-        <is>
-          <t>Winner R5</t>
-        </is>
-      </c>
-      <c r="H56" s="246" t="n"/>
+      <c r="G56" s="261" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="H56" s="242" t="n"/>
       <c r="K56" s="142" t="n"/>
       <c r="L56" s="178" t="n"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1" s="222" thickBot="1">
+    <row r="57" ht="15.75" customHeight="1" s="219" thickBot="1">
       <c r="B57" s="137" t="n"/>
       <c r="D57" s="173" t="n"/>
       <c r="E57" s="181" t="n"/>
-      <c r="F57" s="245" t="n"/>
-      <c r="G57" s="175" t="inlineStr">
-        <is>
-          <t>Winner R6</t>
-        </is>
-      </c>
-      <c r="H57" s="245" t="n"/>
+      <c r="F57" s="239" t="n"/>
+      <c r="G57" s="262" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="H57" s="239" t="n"/>
       <c r="K57" s="142" t="n"/>
       <c r="L57" s="178" t="n"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1" s="222">
-      <c r="B58" s="244" t="inlineStr">
+    <row r="58" ht="15.75" customHeight="1" s="219">
+      <c r="B58" s="238" t="inlineStr">
         <is>
           <t>R6</t>
         </is>
       </c>
-      <c r="C58" s="204" t="inlineStr">
+      <c r="C58" s="200" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="D58" s="252" t="inlineStr">
+      <c r="D58" s="240" t="inlineStr">
         <is>
           <t>2-1</t>
         </is>
@@ -8196,18 +8210,18 @@
       <c r="K58" s="142" t="n"/>
       <c r="L58" s="180" t="n"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1" s="222" thickBot="1">
-      <c r="B59" s="245" t="n"/>
-      <c r="C59" s="201" t="inlineStr">
+    <row r="59" ht="15.75" customHeight="1" s="219" thickBot="1">
+      <c r="B59" s="239" t="n"/>
+      <c r="C59" s="197" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="D59" s="245" t="n"/>
+      <c r="D59" s="239" t="n"/>
       <c r="G59" s="176" t="n"/>
       <c r="H59" s="178" t="n"/>
       <c r="I59" s="174" t="n"/>
-      <c r="J59" s="248" t="inlineStr">
+      <c r="J59" s="241" t="inlineStr">
         <is>
           <t>SF2</t>
         </is>
@@ -8217,33 +8231,33 @@
           <t>Winner QF3</t>
         </is>
       </c>
-      <c r="L59" s="246" t="n"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1" s="222">
+      <c r="L59" s="242" t="n"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1" s="219">
       <c r="B60" s="137" t="n"/>
       <c r="D60" s="173" t="n"/>
       <c r="G60" s="176" t="n"/>
       <c r="H60" s="178" t="n"/>
-      <c r="J60" s="245" t="n"/>
+      <c r="J60" s="239" t="n"/>
       <c r="K60" s="164" t="inlineStr">
         <is>
           <t>Winner QF4</t>
         </is>
       </c>
-      <c r="L60" s="245" t="n"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1" s="222">
-      <c r="B61" s="244" t="inlineStr">
+      <c r="L60" s="239" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="219">
+      <c r="B61" s="238" t="inlineStr">
         <is>
           <t>R7</t>
         </is>
       </c>
-      <c r="C61" s="207" t="inlineStr">
+      <c r="C61" s="203" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="D61" s="252" t="inlineStr">
+      <c r="D61" s="240" t="inlineStr">
         <is>
           <t>2-0</t>
         </is>
@@ -8251,1033 +8265,1002 @@
       <c r="G61" s="176" t="n"/>
       <c r="H61" s="180" t="n"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1" s="222" thickBot="1">
-      <c r="B62" s="245" t="n"/>
-      <c r="C62" s="208" t="inlineStr">
+    <row r="62" ht="15.75" customHeight="1" s="219" thickBot="1">
+      <c r="B62" s="239" t="n"/>
+      <c r="C62" s="204" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="D62" s="245" t="n"/>
+      <c r="D62" s="239" t="n"/>
       <c r="E62" s="171" t="n"/>
-      <c r="F62" s="247" t="inlineStr">
+      <c r="F62" s="243" t="inlineStr">
         <is>
           <t>QF4</t>
         </is>
       </c>
-      <c r="G62" s="260" t="inlineStr">
+      <c r="G62" s="217" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="H62" s="246" t="n"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1" s="222" thickBot="1">
+      <c r="H62" s="242" t="n"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" s="219" thickBot="1">
       <c r="B63" s="137" t="n"/>
       <c r="D63" s="173" t="n"/>
       <c r="E63" s="181" t="n"/>
-      <c r="F63" s="245" t="n"/>
-      <c r="G63" s="258" t="inlineStr">
+      <c r="F63" s="239" t="n"/>
+      <c r="G63" s="215" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="H63" s="245" t="n"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1" s="222">
-      <c r="B64" s="244" t="inlineStr">
+      <c r="H63" s="239" t="n"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1" s="219">
+      <c r="B64" s="238" t="inlineStr">
         <is>
           <t>R8</t>
         </is>
       </c>
-      <c r="C64" s="198" t="inlineStr">
+      <c r="C64" s="194" t="inlineStr">
         <is>
           <t>Wales</t>
         </is>
       </c>
-      <c r="D64" s="252" t="inlineStr">
+      <c r="D64" s="240" t="inlineStr">
         <is>
           <t>0-1</t>
         </is>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1" s="222">
-      <c r="B65" s="245" t="n"/>
-      <c r="C65" s="209" t="inlineStr">
+    <row r="65" ht="15.75" customHeight="1" s="219">
+      <c r="B65" s="239" t="n"/>
+      <c r="C65" s="205" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="D65" s="245" t="n"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1" s="222"/>
-    <row r="67" ht="15.75" customHeight="1" s="222"/>
-    <row r="68" ht="15.75" customHeight="1" s="222"/>
-    <row r="69" ht="15.75" customHeight="1" s="222"/>
-    <row r="70" ht="15.75" customHeight="1" s="222"/>
-    <row r="71" ht="15.75" customHeight="1" s="222"/>
-    <row r="72" ht="15.75" customHeight="1" s="222"/>
-    <row r="73" ht="15.75" customHeight="1" s="222"/>
-    <row r="74" ht="15.75" customHeight="1" s="222"/>
-    <row r="75" ht="15.75" customHeight="1" s="222"/>
-    <row r="76" ht="15.75" customHeight="1" s="222"/>
-    <row r="77" ht="15.75" customHeight="1" s="222"/>
-    <row r="78" ht="15.75" customHeight="1" s="222"/>
-    <row r="79" ht="15.75" customHeight="1" s="222"/>
-    <row r="80" ht="15.75" customHeight="1" s="222"/>
-    <row r="81" ht="15.75" customHeight="1" s="222"/>
-    <row r="82" ht="15.75" customHeight="1" s="222"/>
-    <row r="83" ht="15.75" customHeight="1" s="222"/>
-    <row r="84" ht="15.75" customHeight="1" s="222"/>
-    <row r="85" ht="15.75" customHeight="1" s="222"/>
-    <row r="86" ht="15.75" customHeight="1" s="222"/>
-    <row r="87" ht="15.75" customHeight="1" s="222"/>
-    <row r="88" ht="15.75" customHeight="1" s="222"/>
-    <row r="89" ht="15.75" customHeight="1" s="222"/>
-    <row r="90" ht="15.75" customHeight="1" s="222"/>
-    <row r="91" ht="15.75" customHeight="1" s="222"/>
-    <row r="92" ht="15.75" customHeight="1" s="222"/>
-    <row r="93" ht="15.75" customHeight="1" s="222"/>
-    <row r="94" ht="15.75" customHeight="1" s="222"/>
-    <row r="95" ht="15.75" customHeight="1" s="222"/>
-    <row r="96" ht="15.75" customHeight="1" s="222"/>
-    <row r="97" ht="15.75" customHeight="1" s="222"/>
-    <row r="98" ht="15.75" customHeight="1" s="222"/>
-    <row r="99" ht="15.75" customHeight="1" s="222"/>
-    <row r="100" ht="15.75" customHeight="1" s="222"/>
-    <row r="101" ht="15.75" customHeight="1" s="222"/>
-    <row r="102" ht="15.75" customHeight="1" s="222"/>
-    <row r="103" ht="15.75" customHeight="1" s="222"/>
-    <row r="104" ht="15.75" customHeight="1" s="222"/>
-    <row r="105" ht="15.75" customHeight="1" s="222"/>
-    <row r="106" ht="15.75" customHeight="1" s="222"/>
-    <row r="107" ht="15.75" customHeight="1" s="222"/>
-    <row r="108" ht="15.75" customHeight="1" s="222"/>
-    <row r="109" ht="15.75" customHeight="1" s="222"/>
-    <row r="110" ht="15.75" customHeight="1" s="222"/>
-    <row r="111" ht="15.75" customHeight="1" s="222"/>
-    <row r="112" ht="15.75" customHeight="1" s="222"/>
-    <row r="113" ht="15.75" customHeight="1" s="222"/>
-    <row r="114" ht="15.75" customHeight="1" s="222"/>
-    <row r="115" ht="15.75" customHeight="1" s="222"/>
-    <row r="116" ht="15.75" customHeight="1" s="222"/>
-    <row r="117" ht="15.75" customHeight="1" s="222"/>
-    <row r="118" ht="15.75" customHeight="1" s="222"/>
-    <row r="119" ht="15.75" customHeight="1" s="222"/>
-    <row r="120" ht="15.75" customHeight="1" s="222"/>
-    <row r="121" ht="15.75" customHeight="1" s="222"/>
-    <row r="122" ht="15.75" customHeight="1" s="222"/>
-    <row r="123" ht="15.75" customHeight="1" s="222"/>
-    <row r="124" ht="15.75" customHeight="1" s="222"/>
-    <row r="125" ht="15.75" customHeight="1" s="222"/>
-    <row r="126" ht="15.75" customHeight="1" s="222"/>
-    <row r="127" ht="15.75" customHeight="1" s="222"/>
-    <row r="128" ht="15.75" customHeight="1" s="222"/>
-    <row r="129" ht="15.75" customHeight="1" s="222"/>
-    <row r="130" ht="15.75" customHeight="1" s="222"/>
-    <row r="131" ht="15.75" customHeight="1" s="222"/>
-    <row r="132" ht="15.75" customHeight="1" s="222"/>
-    <row r="133" ht="15.75" customHeight="1" s="222"/>
-    <row r="134" ht="15.75" customHeight="1" s="222"/>
-    <row r="135" ht="15.75" customHeight="1" s="222"/>
-    <row r="136" ht="15.75" customHeight="1" s="222"/>
-    <row r="137" ht="15.75" customHeight="1" s="222"/>
-    <row r="138" ht="15.75" customHeight="1" s="222"/>
-    <row r="139" ht="15.75" customHeight="1" s="222"/>
-    <row r="140" ht="15.75" customHeight="1" s="222"/>
-    <row r="141" ht="15.75" customHeight="1" s="222"/>
-    <row r="142" ht="15.75" customHeight="1" s="222"/>
-    <row r="143" ht="15.75" customHeight="1" s="222"/>
-    <row r="144" ht="15.75" customHeight="1" s="222"/>
-    <row r="145" ht="15.75" customHeight="1" s="222"/>
-    <row r="146" ht="15.75" customHeight="1" s="222"/>
-    <row r="147" ht="15.75" customHei